--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.52], [6935, 2, 7, 1.55], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 5, 0.37], [2775, 2, 4, 0.4], [145, 2, 4, 0.4], [2776, 2, 4, 1.3], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [130, 1, 4, 0.48], [143, 2, 4, 0.51], [2328, 2, 4, 0.78], [146, 2, 4, 0.56], [2049, 3, 8, 0.42], [11681, 2, 5, 0.94], [616, 2, 4, 0.69], [361, 2, 4, 0.54], [362, 2, 4, 0.46], [5491, 2, 4, 0.39], [8650, 2, 4, 0.39], [2497, 2, 4, 0.45], [144, 2, 4, 0.44], [5493, 2, 4, 0.47], [8676, 2, 4, 0.47], [3670, 2, 4, 1.6], [8673, 2, 4, 0.74], [2774, 2, 4, 0.83], [417, 2, 4, 0.57], [8648, 2, 4, 1.2], [3, 2, 4, 0.53], [589, 2, 4, 0.44], [308, 1, 8, 0.67], [206, 2, 4, 0.39], [6097, 80, 4, 0.64], [6497, 1, 4, 1.0], [22247, 2, 4, 0.51], [624, 2, 4, 0.49], [8674, 2, 4, 0.49], [11234, 2, 4, 0.47], [593, 2, 5, 0.45], [6097, 29, 4, 0.64], [12720, 2, 4, 0.48], [6098, 80, 4, 0.58], [990, 2, 4, 0.51], [8915, 2, 4, 0.41], [10993, 2, 4, 0.49], [12353, 1, 4, 0.87], [60, 3, 5, 0.41], [326, 2, 4, 1.16], [6494, 1, 4, 0.93], [88, 10, 8, 0.82], [13260, 29, 4, 0.36], [3674, 2, 4, 0.63], [944, 15, 4, 0.95], [1413, 15, 4, 0.52], [1492, 1, 4, 1.08], [412, 1, 4, 0.5], [2422, 80, 4, 1.25], [378, 2, 4, 1.16], [10149, 3, 13, 0.62], [1007, 2, 5, 0.38], [2422, 29, 4, 1.19], [1243, 2, 4, 0.55], [20682, 1, 4, 0.51], [22316, 3, 4, 0.46], [11738, 2, 4, 0.87], [12269, 2, 4, 0.93], [6098, 29, 4, 0.58], [20252, 2, 4, 0.5], [1490, 1, 4, 0.43], [963, 3, 4, 0.43], [13258, 29, 4, 1.23], [2331, 1, 4, 1.41], [10407, 10, 6, 1.56], [22558, 3, 4, 0.39], [1163, 3, 4, 0.58], [307, 2, 4, 0.87], [114, 3, 4, 0.38], [416, 1, 4, 0.59], [2438, 1, 4, 0.51], [2821, 3, 8, 0.72], [149, 2, 4, 1.38], [2912, 1, 4, 0.38], [13259, 29, 4, 1.1], [12229, 2, 4, 0.7], [432, 3, 4, 0.52], [11586, 1, 7, 1.26], [7036, 1, 4, 0.77], [11687, 2, 4, 0.52], [1413, 16, 4, 0.5], [1414, 15, 4, 0.51], [21793, 1, 4, 0.45], [11844, 2, 4, 0.7], [9784, 1, 4, 0.52], [12870, 1, 4, 1.6], [10406, 10, 7, 1.73], [10410, 10, 6, 1.56], [11402, 1, 4, 1.18], [11161, 1, 5, 0.47], [11404, 2, 4, 0.72], [10408, 10, 6, 1.46], [956, 2, 4, 0.41], [21781, 2, 4, 0.47], [3478, 2, 4, 1.07], [1886, 2, 4, 0.44], [19687, 1, 4, 1.21], [22125, 2, 4, 0.36], [10411, 10, 6, 1.52], [11159, 1, 7, 1.65], [12055, 2, 4, 1.07], [11490, 1, 4, 0.43], [12053, 2, 4, 1.07], [5976, 1, 4, 0.61], [2438, 2, 5, 0.56], [13258, 25, 4, 1.24], [413, 1, 4, 0.48], [9372, 1, 4, 1.71], [11689, 2, 4, 0.5], [12373, 1, 5, 1.02], [9065, 2, 4, 0.53], [10409, 10, 9, 1.67], [11811, 1, 4, 0.94], [94, 4, 4, 1.09], [9785, 1, 4, 0.52], [105, 3, 4, 0.37], [5584, 3, 4, 0.4], [11160, 1, 4, 0.59], [8926, 1, 4, 0.74], [2805, 137, 6, 1.24], [11770, 1, 4, 0.51], [2778, 2, 104, 2.81], [6935, 2, 187, 6.0], [6936, 2, 187, 5.31], [305, 2, 98, 2.58], [8672, 2, 192, 2.83], [615, 2, 72, 2.9], [1504, 2, 135, 2.45], [2775, 2, 104, 2.63], [145, 2, 101, 2.34], [2776, 2, 104, 4.0], [8853, 2, 187, 4.63], [2327, 2, 101, 2.76], [130, 1, 39, 2.48], [143, 2, 99, 2.54], [2328, 2, 101, 3.03], [146, 2, 101, 2.63], [2049, 3, 368, 2.36], [11681, 2, 184, 4.98], [616, 2, 72, 2.87], [361, 2, 104, 2.6], [362, 2, 95, 2.46], [5491, 2, 73, 2.33], [8650, 2, 151, 3.94], [2497, 2, 135, 2.75], [144, 2, 101, 2.41], [5493, 2, 73, 2.47], [8676, 2, 192, 2.47], [3670, 2, 163, 5.39], [8673, 2, 191, 4.55], [2774, 2, 135, 5.53], [417, 2, 104, 2.65], [8648, 2, 151, 3.82], [3, 2, 81, 2.59], [589, 2, 102, 2.41], [308, 1, 115, 2.76], [206, 2, 55, 2.14], [6097, 80, 46, 4.99], [6497, 1, 25, 3.44], [22247, 2, 192, 2.55], [624, 2, 72, 2.5], [8674, 2, 192, 3.07], [11234, 2, 123, 2.71], [593, 2, 153, 2.36], [6097, 29, 23, 4.99], [12720, 2, 192, 2.49], [6098, 80, 50, 3.47], [990, 2, 35, 2.55], [8915, 2, 128, 2.37], [10993, 2, 36, 2.5], [12353, 1, 415, 3.19], [60, 3, 539, 3.59], [326, 2, 45, 3.82], [6494, 1, 34, 3.31], [88, 10, 379, 3.11], [13260, 29, 48, 2.26], [3674, 2, 169, 4.93], [944, 15, 29, 4.36], [1413, 15, 66, 2.57], [1492, 1, 25, 3.58], [412, 1, 56, 2.52], [2422, 80, 122, 4.96], [378, 2, 151, 3.74], [10149, 3, 601, 2.68], [1007, 2, 91, 1.71], [2422, 29, 24, 4.91], [1243, 2, 65, 2.62], [20682, 1, 415, 2.53]]</t>
-  </si>
-  <si>
-    <t>[[2328, 2, 4, 0.78], [8650, 2, 4, 0.39], [362, 2, 4, 0.48], [5493, 2, 4, 0.37], [130, 1, 4, 0.48], [589, 2, 4, 0.44], [2327, 2, 4, 0.63], [11685, 2, 4, 1.41], [326, 2, 4, 0.47], [8672, 2, 5, 0.58], [6935, 2, 7, 1.3], [11681, 2, 5, 1.41], [206, 2, 4, 0.39], [6936, 2, 4, 1.32], [8648, 2, 4, 1.2], [142, 2, 4, 0.5], [8915, 2, 4, 0.41], [12721, 2, 5, 0.47], [2049, 3, 8, 0.47], [1446, 2, 4, 1.09], [11838, 2, 4, 0.54], [2778, 2, 5, 0.47], [305, 2, 4, 0.53], [8676, 2, 4, 0.47], [615, 2, 4, 0.44], [616, 2, 4, 0.45], [9507, 3, 4, 0.36], [412, 1, 4, 0.5], [413, 1, 4, 0.51], [12353, 1, 4, 0.49], [145, 2, 4, 0.4], [10574, 3, 5, 1.26], [76, 2, 4, 0.52], [21793, 1, 4, 0.45], [12349, 1, 4, 0.41], [1429, 2, 4, 0.48], [990, 2, 4, 0.51], [146, 2, 4, 0.56], [143, 2, 4, 0.58], [8673, 2, 4, 0.74], [11836, 2, 4, 0.43], [8674, 2, 4, 0.49], [10149, 3, 13, 0.62], [6158, 2, 5, 0.53], [12344, 1, 4, 0.62], [2776, 2, 4, 0.51], [3495, 3, 10, 0.6], [12720, 2, 4, 0.48], [12350, 1, 4, 0.45], [144, 2, 4, 0.44], [1504, 2, 5, 0.47], [8939, 2, 4, 0.43], [416, 1, 4, 0.52], [22316, 3, 4, 0.46], [88, 10, 8, 1.02], [418, 2, 4, 0.38], [3848, 2, 4, 0.56], [7885, 4, 4, 0.44], [2859, 15, 4, 0.45], [7084, 3, 4, 0.44], [10993, 2, 4, 0.49], [11234, 2, 4, 0.94], [12346, 1, 4, 0.62], [414, 1, 4, 0.53], [7705, 2, 4, 0.51], [5165, 1, 4, 1.11], [9784, 1, 4, 0.49], [2424, 29, 4, 0.55], [12526, 2, 4, 0.93], [11844, 2, 4, 0.7], [12351, 1, 4, 0.62], [2423, 80, 4, 1.25], [12345, 1, 4, 0.62], [2424, 80, 4, 0.49], [11490, 1, 4, 0.43], [13034, 3, 5, 1.09], [12373, 1, 5, 1.02], [2423, 29, 4, 1.31], [13023, 3, 6, 0.51], [378, 2, 4, 1.16], [12347, 1, 4, 0.62], [60, 3, 5, 1.77], [201, 3, 4, 0.6], [6952, 1, 4, 0.65], [1414, 15, 4, 0.51], [11770, 1, 4, 0.49], [13928, 1, 4, 0.45], [3, 2, 4, 0.39], [3429, 15, 4, 0.43], [345, 3, 4, 0.53], [3430, 15, 4, 0.62], [20927, 1, 4, 0.35], [11952, 1, 4, 0.44], [11811, 1, 4, 0.94], [11954, 1, 4, 0.49], [11504, 2, 4, 0.37], [11953, 1, 4, 0.42], [432, 3, 4, 1.03], [10407, 10, 6, 1.56], [5584, 3, 4, 0.4], [11089, 1, 4, 0.46], [7004, 1, 4, 0.49], [6098, 80, 4, 0.71], [1492, 1, 4, 1.08], [8274, 3, 4, 0.72], [2703, 3, 4, 0.84], [10410, 10, 6, 1.56], [7886, 4, 4, 0.44], [944, 15, 4, 0.95], [22317, 3, 8, 0.51], [6097, 80, 4, 0.64], [11161, 1, 5, 0.47], [12348, 1, 4, 0.62], [11674, 1, 4, 0.36], [3891, 1, 4, 0.46], [9342, 2, 4, 0.49], [94, 4, 4, 1.23], [1414, 16, 4, 0.51], [20196, 2, 4, 1.34], [11485, 24, 4, 0.44], [10409, 10, 9, 1.67], [3893, 1, 4, 0.54], [7706, 2, 4, 0.51], [10408, 10, 6, 1.46], [1274, 1, 4, 0.51], [6497, 1, 4, 1.0], [20256, 2, 4, 0.51], [10406, 10, 7, 1.73], [9082, 3, 15, 1.33], [9690, 1, 4, 0.42], [7708, 2, 4, 0.51], [11677, 1, 4, 0.63], [823, 1, 4, 0.47], [2328, 2, 101, 3.03], [8650, 2, 151, 3.94], [362, 2, 95, 2.48], [5493, 2, 73, 2.29], [130, 1, 39, 2.48], [589, 2, 102, 2.41], [2327, 2, 101, 2.76], [11685, 2, 183, 5.79], [326, 2, 46, 3.14], [8672, 2, 192, 2.83], [6935, 2, 188, 5.32], [11681, 2, 183, 5.34], [206, 2, 55, 2.14], [6936, 2, 188, 4.73], [8648, 2, 151, 3.82], [142, 2, 104, 2.53], [8915, 2, 128, 2.37], [12721, 2, 192, 2.69], [2049, 3, 367, 2.78], [1446, 2, 51, 3.08], [11838, 2, 178, 2.59], [2778, 2, 105, 2.68], [305, 2, 98, 2.58], [8676, 2, 192, 2.47], [615, 2, 73, 2.42], [616, 2, 73, 2.43], [412, 1, 56, 2.52], [413, 1, 58, 2.55], [12353, 1, 420, 2.52], [145, 2, 101, 2.34], [10574, 3, 332, 4.09], [76, 2, 73, 2.56], [21793, 1, 163, 2.44], [12349, 1, 420, 2.37], [1429, 2, 101, 2.48], [990, 2, 35, 2.55], [146, 2, 101, 2.63], [143, 2, 99, 2.66], [8673, 2, 191, 4.55], [11836, 2, 178, 2.39], [8674, 2, 192, 3.07], [10149, 3, 601, 2.68], [6158, 2, 175, 2.49], [12344, 1, 420, 2.75], [2776, 2, 105, 2.54], [3495, 3, 645, 2.68], [12720, 2, 192, 2.49], [12350, 1, 420, 2.45], [144, 2, 101, 2.41], [1504, 2, 140, 2.7], [8939, 2, 128, 2.4], [416, 1, 58, 2.56], [22316, 3, 211, 2.46], [88, 10, 377, 3.48], [418, 2, 95, 2.29], [3848, 2, 113, 2.65], [7885, 4, 47, 1.88], [2859, 15, 47, 2.43], [7084, 3, 86, 3.42], [10993, 2, 36, 2.5], [11234, 2, 122, 3.58], [12346, 1, 420, 2.75], [414, 1, 58, 2.57], [7705, 2, 120, 2.55], [5165, 1, 31, 4.75], [9784, 1, 48, 2.51], [2424, 29, 22, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.49], [2049, 3, 8, 0.4], [75, 2, 4, 0.39], [1776, 1, 4, 0.53], [2778, 2, 4, 0.43], [6936, 2, 5, 1.55], [8672, 2, 6, 0.51], [305, 2, 4, 0.5], [206, 2, 4, 0.39], [8648, 2, 4, 1.08], [151, 1, 4, 0.47], [2328, 2, 4, 0.35], [1777, 1, 4, 1.3], [88, 10, 8, 0.56], [8650, 2, 4, 1.09], [990, 2, 4, 0.76], [412, 1, 4, 0.62], [11681, 2, 5, 1.87], [5151, 2, 4, 1.25], [76, 2, 4, 0.56], [361, 2, 4, 0.52], [10149, 3, 15, 1.81], [2991, 3, 4, 1.1], [22247, 2, 4, 0.54], [345, 3, 5, 0.44], [146, 2, 4, 0.5], [143, 2, 4, 0.46], [7004, 1, 4, 0.36], [2054, 3, 4, 0.51], [45, 2, 4, 0.56], [1446, 2, 4, 1.04], [167, 3, 4, 0.49], [74, 1, 4, 1.25], [21793, 1, 4, 0.45], [346, 1, 4, 0.43], [2055, 3, 4, 0.49], [168, 3, 4, 0.82], [11234, 2, 4, 0.42], [7036, 1, 4, 1.3], [201, 3, 5, 0.4], [1429, 2, 4, 0.65], [335, 3, 10, 0.37], [7084, 3, 4, 0.36], [3495, 3, 13, 0.53], [8938, 2, 5, 0.42], [8649, 2, 4, 1.29], [13028, 3, 4, 0.47], [308, 1, 4, 0.73], [410, 1, 4, 0.36], [12721, 2, 6, 0.49], [3889, 1, 4, 0.83], [12870, 1, 4, 1.04], [11404, 2, 4, 0.68], [23, 1, 4, 0.67], [3893, 1, 4, 0.53], [1504, 2, 4, 0.48], [1492, 1, 4, 1.08], [1006, 2, 4, 0.55], [11737, 2, 4, 0.49], [5208, 3, 5, 0.39], [3891, 1, 4, 0.53], [94, 4, 4, 1.24], [8853, 2, 5, 1.51], [9827, 3, 4, 0.47], [1490, 1, 4, 0.52], [7005, 1, 4, 0.36], [411, 2, 4, 0.37], [13260, 29, 4, 0.4], [8651, 2, 4, 0.8], [432, 3, 4, 0.41], [25, 1, 4, 0.38], [20256, 2, 4, 0.5], [8939, 2, 4, 0.49], [5086, 1, 4, 1.08], [140, 2, 4, 0.63], [998, 2, 4, 0.73], [2878, 1, 4, 0.74], [9069, 1, 4, 0.47], [20927, 1, 4, 0.36], [126, 2, 4, 0.93], [2049, 1, 4, 0.37], [7567, 3, 4, 1.11], [33, 1, 4, 0.53], [346, 3, 5, 0.43], [9829, 3, 4, 0.41], [8274, 3, 4, 0.39], [5660, 2, 4, 0.9], [9691, 1, 4, 0.59], [1070, 7, 8, 0.39], [11914, 1, 4, 0.5], [11490, 1, 4, 0.38], [997, 2, 4, 0.53], [5584, 3, 4, 1.24], [8898, 3, 4, 1.93], [5209, 3, 4, 0.37], [8926, 1, 4, 0.85], [9372, 1, 4, 1.41], [24, 1, 4, 0.38], [2775, 2, 4, 0.43], [1091, 1, 4, 0.63], [9081, 3, 7, 1.8], [11808, 1, 4, 0.36], [12661, 1, 4, 0.47], [13034, 3, 5, 0.66], [11491, 2, 4, 0.46], [20255, 2, 4, 0.51], [12225, 1, 4, 0.49], [307, 2, 4, 0.64], [996, 2, 4, 0.45], [434, 2, 4, 0.36], [336, 15, 4, 0.36], [9082, 3, 14, 1.25], [1413, 15, 4, 0.58], [8945, 3, 5, 0.51], [6097, 29, 4, 0.64], [952, 4, 4, 2.15], [8104, 1, 4, 0.49], [22317, 3, 5, 0.51], [2322, 2, 4, 0.52], [11489, 1, 4, 0.39], [1124, 2, 5, 0.46], [23961, 3, 4, 1.86], [4203, 1, 4, 0.48], [10631, 2, 4, 1.24], [5946, 1, 4, 0.45], [6097, 80, 4, 0.64], [8635, 3, 4, 0.39], [6098, 80, 4, 0.58], [1126, 2, 4, 0.48], [424, 11, 9, 0.36], [972, 3, 5, 0.49], [9784, 1, 4, 0.45], [11739, 2, 4, 0.49], [6935, 2, 129, 4.09], [2049, 3, 256, 1.44], [75, 2, 68, 1.48], [1776, 1, 52, 1.74], [2778, 2, 73, 1.56], [6936, 2, 129, 4.01], [8672, 2, 133, 1.67], [305, 2, 68, 1.68], [206, 2, 51, 1.49], [8648, 2, 105, 2.91], [151, 1, 31, 1.63], [2328, 2, 70, 1.42], [1777, 1, 52, 3.17], [88, 10, 262, 1.81], [8650, 2, 105, 2.93], [990, 2, 24, 2.16], [412, 1, 39, 1.91], [11681, 2, 126, 4.93], [5151, 2, 11, 3.62], [76, 2, 51, 1.8], [361, 2, 72, 1.73], [10149, 3, 400, 4.3], [2991, 3, 75, 4.41], [22247, 2, 132, 2.04], [345, 3, 141, 1.51], [146, 2, 70, 1.68], [143, 2, 68, 1.61], [7004, 1, 37, 1.43], [2054, 3, 221, 1.7], [45, 2, 51, 3.71], [1446, 2, 70, 2.68], [167, 3, 106, 1.66], [74, 1, 94, 3.23], [21793, 1, 113, 1.6], [346, 1, 73, 1.55], [2055, 3, 221, 1.67], [168, 3, 188, 2.27], [11234, 2, 86, 1.54], [7036, 1, 60, 3.34], [201, 3, 141, 1.44], [1429, 2, 70, 1.97], [335, 3, 621, 1.47], [7084, 3, 61, 1.43], [3495, 3, 447, 1.69], [8938, 2, 89, 1.48], [8649, 2, 105, 3.14], [13028, 3, 68, 1.64], [308, 1, 77, 3.48], [410, 1, 49, 1.65], [12721, 2, 132, 1.63], [3889, 1, 58, 2.3], [12870, 1, 65, 2.69], [11404, 2, 48, 2.39], [23, 1, 52, 2.01], [3893, 1, 58, 1.75], [1504, 2, 95, 1.66], [1492, 1, 17, 2.75], [1006, 2, 106, 1.78], [11737, 2, 26, 2.61], [5208, 3, 261, 1.84], [3891, 1, 58, 1.75], [94, 4, 56, 4.46], [8853, 2, 129, 4.25], [9827, 3, 40, 1.62], [1490, 1, 24, 1.73], [7005, 1, 37, 1.43], [411, 2, 51, 1.45]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 8, 0.93], [8915, 2, 5, 0.58], [2327, 2, 4, 0.52], [589, 2, 5, 0.57], [2778, 2, 4, 0.51], [6935, 2, 5, 1.77], [2328, 2, 4, 0.58], [130, 1, 4, 0.48], [305, 2, 4, 0.45], [615, 2, 4, 0.57], [616, 2, 4, 0.36], [326, 2, 4, 1.15], [6936, 2, 4, 1.74], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.39], [7004, 1, 4, 0.52], [10, 2, 4, 0.37], [143, 2, 4, 0.58], [5491, 2, 4, 0.58], [7036, 1, 4, 0.44], [205, 2, 4, 0.43], [2775, 2, 4, 0.51], [144, 2, 4, 0.53], [3840, 1, 4, 0.79], [94, 4, 4, 1.41], [1124, 2, 4, 0.48], [434, 2, 4, 0.39], [3893, 1, 4, 0.53], [146, 2, 4, 0.57], [990, 2, 4, 0.36], [1504, 2, 4, 0.93], [12224, 1, 4, 0.35], [8853, 2, 4, 1.79], [1429, 2, 4, 0.39], [362, 2, 4, 0.5], [2776, 2, 4, 0.64], [3891, 1, 4, 0.53], [75, 2, 4, 0.39], [141, 2, 4, 0.39], [11404, 2, 4, 0.64], [11681, 2, 5, 0.83], [2497, 2, 4, 0.45], [5208, 3, 4, 0.48], [378, 2, 4, 1.16], [10574, 3, 5, 1.36], [11234, 2, 4, 1.25], [12870, 1, 4, 0.72], [13028, 3, 4, 2.04], [7005, 1, 4, 0.44], [10149, 3, 13, 0.4], [21793, 1, 4, 0.5], [3980, 4, 4, 1.23], [145, 2, 4, 0.51], [11811, 1, 4, 0.44], [5165, 1, 4, 1.06], [20927, 1, 4, 0.45], [998, 2, 4, 1.0], [8672, 2, 4, 0.98], [417, 2, 4, 0.42], [9760, 29, 4, 0.37], [1886, 2, 4, 0.45], [2436, 4, 4, 0.55], [346, 3, 4, 0.39], [1006, 2, 4, 0.54], [3, 2, 4, 0.46], [972, 3, 5, 0.51], [2424, 80, 4, 0.49], [3495, 3, 10, 0.56], [6158, 2, 4, 0.48], [9372, 1, 4, 1.47], [5076, 1, 4, 0.43], [11770, 1, 4, 0.46], [5165, 2, 5, 1.02], [126, 2, 4, 1.15], [74, 1, 4, 1.47], [140, 2, 4, 1.15], [8939, 2, 4, 0.5], [11769, 1, 4, 0.42], [3982, 3, 10, 0.46], [1492, 1, 4, 0.52], [996, 2, 4, 0.66], [2774, 2, 4, 0.78], [2912, 2, 7, 0.36], [20256, 2, 4, 0.52], [12721, 2, 4, 0.49], [9491, 21, 10, 0.44], [6497, 1, 4, 1.09], [3981, 3, 11, 0.56], [2423, 80, 4, 0.75], [5434, 1, 4, 0.5], [12229, 2, 4, 0.47], [11685, 2, 5, 0.83], [5584, 3, 4, 1.25], [11767, 1, 4, 0.49], [10407, 10, 6, 1.56], [10388, 2, 4, 0.78], [8677, 3, 4, 0.42], [346, 1, 4, 0.37], [11179, 1, 4, 0.71], [823, 1, 4, 0.94], [2438, 2, 5, 0.5], [2424, 29, 4, 0.55], [5209, 3, 4, 0.48], [2104, 3, 9, 0.35], [8898, 3, 4, 1.44], [2805, 137, 4, 0.6], [12526, 2, 4, 0.94], [3900, 3, 4, 1.26], [11812, 1, 4, 0.47], [4253, 1, 4, 0.54], [11490, 1, 4, 0.43], [3975, 4, 4, 1.2], [96, 11, 13, 0.38], [8676, 2, 4, 0.55], [412, 1, 4, 0.43], [1622, 1, 4, 0.45], [22247, 2, 4, 0.87], [972, 1, 4, 0.52], [1274, 1, 4, 0.48], [13893, 2, 4, 0.45], [12764, 2, 5, 0.38], [9784, 1, 4, 0.47], [11813, 1, 4, 0.4], [10386, 2, 4, 0.37], [11814, 1, 4, 0.4], [8283, 2, 5, 0.55], [8635, 3, 4, 0.45], [6097, 80, 4, 1.35], [10410, 10, 9, 1.6], [1243, 2, 4, 0.5], [6489, 11, 13, 1.1], [7567, 3, 4, 1.16], [88, 10, 368, 3.44], [8915, 2, 124, 2.46], [2327, 2, 98, 2.43], [589, 2, 99, 2.47], [2778, 2, 102, 2.42], [6935, 2, 180, 5.56], [2328, 2, 98, 2.55], [130, 1, 38, 2.36], [305, 2, 95, 2.3], [615, 2, 71, 2.51], [616, 2, 71, 2.14], [326, 2, 58, 3.6], [6936, 2, 180, 4.89], [8650, 2, 146, 2.95], [8648, 2, 146, 3.41], [1446, 2, 98, 2.7], [7004, 1, 26, 1.95], [10, 2, 69, 2.15], [143, 2, 96, 2.53], [5491, 2, 70, 2.55], [7036, 1, 83, 3.78], [205, 2, 71, 2.27], [2775, 2, 102, 2.42], [144, 2, 73, 4.04], [3840, 1, 111, 2.93], [94, 4, 79, 4.27], [1124, 2, 121, 2.91], [434, 2, 70, 2.19], [3893, 1, 81, 2.46], [146, 2, 97, 2.52], [990, 2, 34, 2.19], [1504, 2, 132, 3.19], [12224, 1, 108, 2.13], [8853, 2, 180, 4.98], [1429, 2, 98, 2.39], [362, 2, 92, 2.39], [2776, 2, 102, 2.66], [3891, 1, 81, 2.46], [75, 2, 95, 2.19], [141, 2, 101, 2.19], [11404, 2, 68, 2.65], [11681, 2, 174, 4.93], [2497, 2, 132, 2.3], [5208, 3, 364, 2.37], [378, 2, 146, 3.61], [10574, 3, 327, 4.05], [11234, 2, 118, 3.77], [12870, 1, 91, 2.8], [13028, 3, 95, 5.22], [7005, 1, 39, 2.12], [10149, 3, 579, 3.39], [21793, 1, 158, 2.39], [3980, 4, 311, 3.9], [145, 2, 97, 2.42], [11811, 1, 296, 2.28], [5165, 1, 30, 4.47], [20927, 1, 39, 2.14], [998, 2, 153, 4.31], [8672, 2, 186, 4.42], [417, 2, 101, 2.26], [9760, 29, 46, 2.16], [1886, 2, 101, 2.3], [2436, 4, 76, 2.48], [346, 3, 410, 2.18], [1006, 2, 148, 2.47], [3, 2, 78, 2.31], [972, 3, 387, 2.33]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.39], [2778, 2, 4, 0.64], [6936, 2, 5, 0.71], [362, 2, 4, 0.46], [8648, 2, 4, 1.13], [2327, 2, 4, 0.7], [11681, 2, 9, 0.79], [8650, 2, 4, 0.84], [205, 2, 4, 0.47], [2328, 2, 4, 0.57], [130, 1, 4, 0.47], [305, 2, 4, 0.88], [1446, 2, 4, 0.78], [2049, 3, 5, 0.4], [8649, 2, 4, 0.39], [2775, 2, 4, 0.64], [9760, 29, 4, 0.44], [8853, 2, 5, 0.71], [361, 2, 4, 0.5], [2776, 2, 4, 0.64], [593, 2, 4, 0.48], [143, 2, 4, 0.63], [1429, 2, 4, 0.78], [523, 2, 4, 0.4], [206, 2, 4, 0.45], [5493, 2, 4, 0.47], [9507, 3, 4, 0.36], [7036, 1, 4, 1.08], [413, 1, 4, 0.52], [5491, 2, 4, 0.46], [159, 3, 5, 0.43], [12350, 1, 4, 0.39], [990, 2, 4, 0.45], [12353, 1, 4, 0.41], [5165, 1, 4, 0.92], [417, 2, 4, 0.43], [20258, 2, 4, 0.48], [248, 1, 4, 0.38], [142, 2, 4, 0.48], [434, 2, 4, 0.49], [6952, 1, 4, 1.21], [201, 3, 4, 0.47], [9372, 1, 4, 1.5], [6097, 80, 4, 0.88], [12352, 1, 4, 0.66], [345, 3, 4, 0.47], [3891, 1, 4, 0.75], [616, 2, 4, 0.48], [3670, 2, 4, 2.5], [5165, 2, 7, 0.92], [3893, 1, 4, 0.53], [12346, 1, 4, 0.39], [7084, 3, 4, 1.0], [10574, 3, 5, 0.89], [2424, 80, 4, 0.6], [1886, 2, 4, 0.48], [346, 3, 4, 0.39], [11504, 2, 4, 0.43], [8938, 2, 4, 0.54], [3334, 5, 4, 1.7], [6097, 29, 4, 0.88], [11089, 1, 4, 0.58], [6098, 80, 4, 0.96], [3889, 1, 4, 0.92], [12344, 1, 4, 0.66], [20256, 2, 4, 0.47], [10149, 3, 13, 0.4], [6158, 2, 4, 0.43], [432, 3, 4, 0.62], [2912, 2, 5, 0.36], [1492, 1, 4, 1.08], [11772, 1, 4, 1.01], [2423, 80, 4, 1.25], [4032, 29, 4, 0.47], [20252, 2, 4, 0.46], [5151, 2, 4, 0.5], [1490, 1, 4, 0.37], [411, 2, 4, 0.5], [972, 3, 4, 0.47], [3576, 25, 4, 1.08], [12304, 1, 4, 0.5], [229, 1, 4, 1.14], [995, 2, 4, 0.51], [346, 1, 4, 0.38], [13034, 3, 4, 1.29], [2331, 1, 4, 1.05], [416, 1, 4, 0.49], [2424, 29, 4, 0.6], [8120, 3, 4, 1.08], [11737, 2, 4, 0.41], [11426, 25, 4, 0.61], [5076, 1, 4, 0.45], [439, 1, 4, 0.79], [2805, 137, 4, 1.7], [10, 2, 4, 0.72], [2160, 68, 4, 0.37], [414, 1, 4, 0.52], [1413, 15, 4, 0.49], [11490, 1, 4, 0.56], [6494, 1, 4, 0.6], [75, 2, 4, 0.51], [3575, 25, 4, 1.15], [11586, 1, 7, 0.92], [13280, 1, 4, 0.55], [3478, 2, 4, 0.5], [1701, 2, 4, 1.47], [3577, 25, 4, 0.5], [9784, 1, 4, 0.44], [1703, 2, 4, 0.5], [14037, 3, 4, 0.36], [11813, 1, 4, 0.63], [4253, 1, 4, 0.5], [8677, 3, 5, 0.46], [13023, 3, 5, 0.67], [13893, 2, 4, 1.18], [11180, 1, 4, 0.54], [12526, 2, 4, 0.98], [9998, 80, 4, 1.31], [1309, 1, 4, 1.38], [2438, 2, 5, 0.58], [6098, 29, 4, 0.35], [8283, 2, 5, 0.46], [159, 1, 4, 0.44], [11404, 2, 4, 0.46], [4033, 29, 4, 0.44], [22317, 3, 5, 0.37], [159, 16, 4, 0.41], [2423, 29, 4, 1.31], [9069, 1, 4, 0.35], [4232, 80, 4, 0.43], [307, 2, 4, 0.63], [6935, 2, 143, 4.53], [141, 2, 80, 2.21], [589, 2, 79, 2.1], [2778, 2, 80, 2.36], [6936, 2, 143, 4.93], [362, 2, 73, 2.02], [8648, 2, 117, 3.25], [2327, 2, 78, 2.47], [11681, 2, 139, 4.41], [8650, 2, 117, 2.73], [205, 2, 56, 2.22], [2328, 2, 78, 2.24], [130, 1, 30, 2.05], [305, 2, 76, 2.81], [1446, 2, 78, 2.61], [2049, 3, 286, 1.93], [8649, 2, 117, 3.2], [2775, 2, 80, 2.36], [9760, 29, 37, 1.99], [8853, 2, 143, 4.43], [361, 2, 80, 2.1], [2776, 2, 80, 2.36], [593, 2, 118, 2.05], [143, 2, 76, 2.57], [1429, 2, 78, 2.91], [523, 2, 80, 2.18], [206, 2, 56, 2.01], [5493, 2, 56, 2.05], [9507, 3, 69, 1.54], [7036, 1, 66, 3.17], [413, 1, 44, 2.42], [5491, 2, 56, 2.03], [159, 3, 364, 1.9], [12350, 1, 323, 1.88], [990, 2, 27, 2.0], [12353, 1, 323, 1.93], [5165, 1, 24, 4.33], [417, 2, 80, 1.98], [20258, 2, 48, 2.06], [248, 1, 19, 1.58], [142, 2, 80, 2.06], [434, 2, 55, 2.08], [6952, 1, 98, 3.56], [201, 3, 158, 2.05], [9372, 1, 121, 4.14], [6097, 80, 35, 5.08], [12352, 1, 323, 2.4], [345, 3, 158, 2.05], [3891, 1, 64, 2.67], [616, 2, 57, 2.05], [3670, 2, 126, 5.78], [5165, 2, 190, 4.33], [3893, 1, 64, 2.67], [12346, 1, 323, 1.88], [7084, 3, 67, 3.01], [10574, 3, 263, 2.73], [2424, 80, 87, 2.47], [1886, 2, 81, 2.06], [346, 3, 326, 1.9], [11504, 2, 73, 1.97], [8938, 2, 99, 2.17], [3334, 5, 93, 4.31], [6097, 29, 18, 5.08], [11089, 1, 88, 3.52], [6098, 80, 39, 2.95], [3889, 1, 64, 2.86], [12344, 1, 323, 2.4]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.18], [2778, 2, 4, 0.58], [305, 2, 4, 0.48], [130, 1, 4, 0.47], [616, 2, 4, 0.44], [6936, 2, 4, 1.18], [205, 2, 4, 0.53], [8648, 2, 4, 0.7], [1504, 2, 4, 0.57], [144, 2, 4, 0.53], [2049, 3, 7, 0.4], [88, 10, 8, 0.87], [7036, 1, 4, 1.07], [326, 2, 4, 0.62], [8650, 2, 4, 0.57], [593, 2, 4, 0.45], [589, 2, 5, 1.14], [2327, 2, 4, 0.47], [3893, 1, 4, 0.43], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 4, 0.58], [206, 2, 4, 0.46], [7004, 1, 4, 0.35], [11685, 2, 4, 1.88], [3891, 1, 4, 0.64], [2328, 2, 4, 0.5], [146, 2, 4, 0.63], [2050, 3, 4, 0.35], [5491, 2, 4, 0.47], [143, 2, 4, 0.58], [3980, 4, 4, 1.2], [2054, 3, 4, 0.35], [8649, 2, 4, 0.47], [12870, 1, 4, 0.49], [990, 2, 4, 0.58], [8672, 2, 4, 0.98], [362, 2, 4, 0.85], [2776, 2, 4, 1.17], [2057, 3, 4, 0.35], [12353, 1, 4, 0.53], [10574, 3, 5, 1.36], [5165, 1, 4, 1.08], [7886, 4, 4, 0.45], [145, 2, 4, 0.56], [1446, 2, 4, 0.39], [94, 4, 4, 1.34], [75, 2, 4, 0.99], [2991, 3, 4, 1.1], [523, 2, 4, 0.5], [7084, 3, 4, 0.58], [9760, 29, 4, 0.43], [3975, 4, 4, 1.26], [21793, 1, 4, 1.8], [20927, 1, 4, 0.4], [11404, 2, 4, 0.64], [6158, 2, 4, 0.45], [5165, 2, 5, 1.11], [2912, 1, 4, 0.44], [1007, 2, 4, 0.51], [2774, 2, 4, 0.45], [8939, 2, 4, 0.49], [3981, 3, 13, 1.15], [229, 1, 4, 0.42], [3982, 3, 10, 1.18], [997, 2, 4, 1.79], [11772, 1, 4, 1.35], [22316, 3, 4, 0.51], [33, 1, 4, 0.56], [12344, 1, 4, 0.53], [6497, 1, 4, 0.93], [286, 3, 4, 1.06], [1492, 1, 4, 1.2], [12345, 1, 4, 0.42], [7887, 4, 4, 0.44], [998, 2, 4, 1.83], [8120, 3, 4, 0.65], [336, 15, 4, 0.36], [950, 1, 4, 0.39], [972, 3, 4, 0.57], [11767, 1, 4, 0.44], [11770, 1, 4, 0.98], [11490, 1, 4, 0.54], [11769, 1, 4, 0.69], [1413, 15, 4, 0.57], [74, 1, 4, 0.57], [12721, 2, 4, 0.49], [410, 1, 4, 0.54], [12212, 29, 4, 0.49], [389, 4, 4, 0.88], [7567, 3, 4, 1.15], [411, 2, 4, 0.5], [11179, 1, 4, 0.42], [35, 1, 4, 0.57], [140, 2, 4, 0.62], [1126, 2, 4, 0.48], [22317, 3, 4, 0.51], [8673, 2, 4, 0.58], [9372, 1, 4, 1.88], [10388, 2, 4, 1.15], [1274, 1, 4, 0.73], [10936, 2, 4, 0.58], [8121, 3, 4, 0.46], [4176, 4, 4, 1.31], [21269, 3, 4, 1.26], [12225, 1, 4, 0.83], [2436, 4, 4, 0.43], [12271, 2, 4, 0.66], [11085, 2, 4, 1.27], [22247, 2, 4, 0.88], [8676, 2, 4, 0.5], [6494, 1, 4, 0.79], [12526, 2, 4, 0.75], [9784, 1, 4, 0.47], [13023, 3, 4, 1.26], [8677, 3, 4, 0.4], [76, 2, 4, 0.57], [3, 2, 4, 0.44], [3577, 25, 4, 0.48], [9, 1, 4, 0.44], [345, 3, 4, 0.81], [10408, 10, 5, 1.36], [11489, 1, 4, 0.53], [7573, 1, 5, 0.85], [361, 2, 4, 0.52], [11812, 1, 4, 0.45], [96, 11, 13, 0.38], [20498, 3, 5, 0.98], [1414, 15, 4, 1.12], [1490, 1, 4, 0.43], [10386, 2, 4, 1.01], [307, 2, 4, 0.59], [6935, 2, 143, 5.4], [2778, 2, 81, 2.27], [305, 2, 76, 2.08], [130, 1, 31, 2.08], [616, 2, 57, 2.02], [6936, 2, 143, 5.42], [205, 2, 56, 2.19], [8648, 2, 118, 2.49], [1504, 2, 106, 2.25], [144, 2, 78, 3.9], [2049, 3, 191, 1.74], [88, 10, 293, 2.94], [7036, 1, 66, 3.33], [326, 2, 47, 3.07], [8650, 2, 118, 2.25], [593, 2, 118, 2.28], [589, 2, 79, 3.13], [2327, 2, 78, 2.07], [3893, 1, 65, 2.0], [11681, 2, 141, 4.51], [8853, 2, 143, 5.43], [141, 2, 81, 2.1], [2775, 2, 81, 2.27], [206, 2, 56, 2.05], [7004, 1, 41, 1.86], [11685, 2, 141, 4.9], [3891, 1, 65, 2.38], [2328, 2, 78, 2.12], [146, 2, 78, 2.36], [2050, 3, 250, 1.85], [5491, 2, 56, 2.07], [143, 2, 77, 2.27], [3980, 4, 248, 3.57], [2054, 3, 250, 1.85], [8649, 2, 118, 2.08], [12870, 1, 72, 2.1], [990, 2, 27, 2.27], [8672, 2, 149, 4.15], [362, 2, 73, 2.77], [2776, 2, 81, 3.36], [2057, 3, 250, 1.85], [12353, 1, 321, 3.98], [10574, 3, 261, 3.57], [5165, 1, 24, 4.24], [7886, 4, 50, 1.73], [145, 2, 78, 2.23], [1446, 2, 79, 2.12], [94, 4, 62, 4.75], [75, 2, 76, 3.02], [2991, 3, 84, 5.49], [523, 2, 80, 2.14], [7084, 3, 68, 2.29], [9760, 29, 37, 2.0], [3975, 4, 248, 3.7], [21793, 1, 120, 4.76], [20927, 1, 41, 1.94], [11404, 2, 54, 2.38], [6158, 2, 137, 2.04], [5165, 2, 191, 4.35], [2912, 1, 25, 2.01], [1007, 2, 139, 2.15], [2774, 2, 106, 2.04], [8939, 2, 100, 2.11], [3981, 3, 830, 3.23], [229, 1, 44, 1.99], [3982, 3, 407, 3.54], [997, 2, 118, 4.71]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.53], [6935, 2, 7, 1.38], [130, 1, 4, 0.48], [2328, 2, 4, 0.78], [141, 2, 4, 0.4], [8650, 2, 4, 1.17], [2327, 2, 4, 0.63], [8672, 2, 5, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [362, 2, 4, 0.47], [145, 2, 4, 0.4], [146, 2, 4, 0.56], [589, 2, 4, 0.44], [417, 2, 4, 0.52], [1124, 2, 5, 0.42], [523, 2, 4, 0.66], [8648, 2, 4, 1.04], [2049, 3, 8, 0.47], [1504, 2, 5, 0.55], [8853, 2, 4, 1.38], [1005, 2, 4, 0.39], [206, 2, 4, 0.39], [12721, 2, 5, 0.47], [326, 2, 4, 0.47], [8915, 2, 4, 0.41], [144, 2, 4, 0.44], [8673, 2, 4, 0.74], [990, 2, 4, 0.48], [9507, 3, 4, 0.36], [2776, 2, 4, 0.91], [88, 10, 8, 0.82], [435, 2, 4, 0.49], [142, 2, 4, 0.57], [8676, 2, 4, 0.47], [76, 2, 4, 0.52], [308, 1, 8, 0.73], [6158, 2, 5, 0.43], [11738, 2, 4, 0.87], [2424, 29, 4, 0.55], [2423, 29, 4, 1.31], [1007, 2, 5, 0.38], [8649, 2, 4, 0.69], [2497, 2, 4, 0.55], [7704, 2, 4, 0.58], [2424, 80, 4, 0.49], [3670, 2, 4, 1.46], [1413, 15, 4, 1.27], [10574, 3, 5, 1.26], [2423, 80, 4, 1.25], [3, 2, 4, 0.43], [12720, 2, 4, 0.48], [2859, 15, 4, 0.75], [7705, 2, 4, 0.58], [944, 15, 4, 1.07], [412, 1, 4, 0.58], [7706, 2, 4, 0.58], [11836, 2, 4, 0.43], [2055, 3, 4, 0.46], [74, 1, 4, 1.47], [10149, 3, 13, 0.62], [3478, 2, 4, 1.07], [307, 2, 4, 1.5], [6497, 1, 4, 1.0], [2774, 2, 4, 0.55], [1414, 15, 4, 1.16], [60, 3, 5, 0.41], [346, 3, 5, 0.43], [12526, 2, 4, 0.93], [11089, 1, 4, 0.39], [418, 2, 4, 0.47], [13928, 1, 4, 0.4], [1429, 2, 4, 0.39], [7004, 1, 4, 0.52], [413, 1, 4, 0.54], [1409, 15, 4, 0.7], [346, 1, 4, 0.43], [7036, 1, 4, 0.44], [14037, 3, 4, 0.46], [8274, 3, 4, 0.38], [11844, 2, 4, 0.7], [3893, 1, 4, 0.44], [6097, 80, 4, 0.64], [6494, 1, 4, 0.93], [439, 1, 4, 0.87], [18964, 1, 4, 1.19], [7084, 3, 4, 0.36], [9784, 1, 4, 0.52], [6952, 1, 4, 0.65], [7707, 2, 4, 0.6], [94, 4, 4, 1.09], [1490, 1, 4, 0.43], [22317, 3, 8, 0.51], [13260, 29, 4, 0.67], [11490, 1, 4, 0.43], [565, 2, 4, 0.41], [1492, 1, 4, 1.08], [3495, 3, 10, 0.6], [7708, 2, 4, 0.58], [1243, 2, 4, 0.45], [3889, 1, 4, 0.37], [1413, 16, 4, 1.27], [11491, 2, 4, 0.52], [414, 1, 4, 0.66], [7703, 2, 4, 0.58], [21793, 1, 4, 0.45], [2805, 137, 6, 0.47], [6098, 80, 4, 0.64], [2331, 1, 4, 1.41], [2422, 80, 4, 1.25], [11504, 2, 4, 0.42], [3674, 2, 4, 0.54], [6630, 3, 4, 1.83], [247, 1, 4, 0.42], [147, 1, 4, 1.28], [416, 1, 4, 0.65], [13023, 3, 6, 0.73], [3430, 15, 4, 0.75], [23275, 2, 4, 0.99], [20555, 2, 4, 0.87], [6098, 29, 4, 0.67], [2422, 29, 4, 1.19], [11581, 29, 4, 0.52], [8635, 3, 4, 0.39], [1274, 1, 4, 0.47], [11235, 2, 4, 0.55], [1414, 16, 4, 1.16], [9372, 1, 4, 1.71], [5939, 3, 4, 0.9], [942, 3, 4, 0.75], [13263, 29, 4, 0.38], [114, 3, 4, 0.49], [6097, 29, 4, 0.64], [305, 2, 98, 2.58], [6935, 2, 188, 5.55], [130, 1, 39, 2.48], [2328, 2, 101, 3.03], [141, 2, 104, 2.34], [8650, 2, 151, 4.37], [2327, 2, 101, 2.76], [8672, 2, 192, 2.83], [6936, 2, 188, 4.92], [143, 2, 96, 5.43], [362, 2, 95, 2.46], [145, 2, 101, 2.34], [146, 2, 101, 2.63], [589, 2, 102, 2.41], [417, 2, 104, 2.55], [1124, 2, 126, 2.48], [523, 2, 104, 2.86], [8648, 2, 151, 3.51], [2049, 3, 367, 2.78], [1504, 2, 139, 2.87], [8853, 2, 188, 4.32], [1005, 2, 37, 1.79], [206, 2, 55, 2.14], [12721, 2, 192, 2.69], [326, 2, 46, 3.14], [8915, 2, 128, 2.37], [144, 2, 101, 2.41], [8673, 2, 191, 4.55], [990, 2, 35, 2.48], [2776, 2, 104, 3.27], [88, 10, 379, 3.11], [435, 2, 71, 2.51], [142, 2, 104, 2.66], [8676, 2, 192, 2.47], [76, 2, 73, 2.56], [308, 1, 115, 2.88], [6158, 2, 177, 2.32], [11738, 2, 38, 3.53], [2424, 29, 22, 2.67], [2423, 29, 24, 4.02], [1007, 2, 91, 1.71], [8649, 2, 151, 2.88], [2497, 2, 139, 2.61], [7704, 2, 119, 2.68], [2424, 80, 112, 2.61], [3670, 2, 163, 5.05], [1413, 15, 65, 3.95], [10574, 3, 332, 4.09], [2423, 80, 122, 3.91], [3, 2, 81, 2.4], [12720, 2, 192, 2.49], [2859, 15, 46, 2.98], [7705, 2, 119, 2.68], [944, 15, 29, 5.39], [412, 1, 56, 2.67], [7706, 2, 119, 2.68], [11836, 2, 178, 2.39], [2055, 3, 241, 2.27], [74, 1, 136, 4.5], [10149, 3, 601, 2.68], [3478, 2, 50, 3.58], [307, 2, 96, 4.56], [6497, 1, 25, 3.44], [2774, 2, 139, 2.61], [1414, 15, 65, 3.73], [60, 3, 539, 3.59], [346, 3, 422, 2.34]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.76], [305, 2, 4, 1.06], [326, 2, 4, 0.78], [3, 2, 4, 1.03], [205, 2, 4, 0.47], [589, 2, 5, 0.47], [6935, 2, 8, 1.37], [2049, 3, 9, 0.54], [130, 1, 4, 0.44], [143, 2, 4, 0.93], [75, 2, 4, 0.49], [144, 2, 4, 0.76], [12721, 2, 6, 0.56], [8915, 2, 5, 0.41], [145, 2, 4, 0.76], [2778, 2, 4, 0.52], [146, 2, 4, 0.76], [1776, 1, 4, 0.45], [6936, 2, 5, 1.3], [2328, 2, 4, 0.73], [151, 1, 4, 0.35], [8648, 2, 4, 0.89], [1777, 1, 4, 1.16], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [990, 2, 4, 0.4], [88, 10, 8, 1.09], [7886, 4, 4, 0.39], [74, 1, 4, 0.8], [83, 2, 4, 0.4], [362, 2, 4, 0.43], [1446, 2, 4, 1.09], [1007, 2, 5, 0.39], [2991, 3, 4, 1.1], [1492, 1, 4, 1.01], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [8938, 2, 4, 0.45], [11234, 2, 5, 0.63], [8675, 2, 6, 0.49], [10, 2, 4, 0.91], [307, 2, 4, 1.25], [12870, 1, 4, 0.65], [1429, 2, 4, 0.78], [5081, 2, 4, 0.54], [345, 3, 4, 0.47], [7036, 1, 4, 0.44], [1504, 2, 4, 0.55], [10825, 21, 8, 0.56], [7084, 3, 4, 0.87], [11404, 2, 4, 0.72], [10149, 3, 13, 0.71], [1006, 2, 4, 0.56], [3891, 1, 4, 0.43], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [3893, 1, 4, 0.35], [308, 1, 4, 0.75], [9827, 3, 4, 0.48], [23, 1, 4, 0.64], [13280, 1, 4, 1.09], [432, 3, 4, 0.62], [168, 3, 4, 0.79], [8677, 3, 5, 0.4], [11681, 2, 5, 0.82], [96, 11, 15, 0.38], [1490, 1, 4, 0.44], [11737, 2, 4, 0.69], [33, 1, 4, 0.76], [148, 1, 4, 1.0], [1124, 2, 4, 0.44], [8853, 2, 5, 1.32], [2336, 3, 5, 0.69], [412, 1, 4, 0.78], [10574, 3, 5, 1.33], [9760, 29, 4, 0.74], [20256, 2, 4, 0.48], [346, 1, 4, 0.38], [8939, 2, 4, 0.45], [20927, 1, 4, 0.43], [8651, 2, 4, 0.61], [229, 1, 4, 0.7], [201, 3, 4, 0.47], [45, 2, 4, 1.37], [22247, 2, 6, 0.89], [1767, 25, 4, 0.59], [413, 1, 4, 0.69], [11490, 1, 4, 0.36], [346, 3, 4, 0.39], [9069, 1, 4, 0.41], [3495, 3, 13, 0.93], [8676, 2, 6, 0.56], [140, 2, 4, 0.78], [21269, 3, 4, 1.0], [998, 2, 4, 0.47], [2049, 1, 4, 0.6], [149, 2, 4, 1.2], [9372, 1, 4, 1.53], [1126, 2, 4, 0.47], [5946, 1, 4, 0.45], [3980, 4, 4, 1.25], [1766, 25, 4, 0.56], [2775, 2, 4, 0.52], [3670, 2, 4, 1.37], [20255, 2, 4, 0.49], [11489, 1, 4, 0.56], [1070, 7, 9, 0.46], [1413, 15, 4, 1.28], [490, 1, 4, 0.4], [8898, 3, 4, 0.75], [1622, 1, 4, 0.47], [107, 2, 4, 0.52], [20498, 1, 4, 0.94], [1163, 3, 4, 0.35], [974, 3, 4, 0.38], [14037, 3, 4, 0.44], [9691, 1, 4, 0.48], [417, 2, 4, 0.61], [418, 2, 4, 0.36], [823, 1, 4, 0.84], [14017, 3, 4, 0.44], [9784, 1, 4, 0.55], [972, 3, 5, 0.35], [8274, 3, 4, 0.38], [20498, 3, 5, 0.86], [11739, 2, 4, 0.69], [8674, 2, 4, 0.54], [11454, 2, 5, 1.6], [34, 1, 4, 0.76], [9828, 3, 4, 0.46], [5584, 3, 4, 1.22], [1414, 15, 4, 1.18], [8672, 2, 183, 4.11], [305, 2, 92, 3.11], [326, 2, 58, 3.0], [3, 2, 77, 3.84], [205, 2, 70, 2.02], [589, 2, 97, 2.16], [6935, 2, 181, 4.4], [2049, 3, 349, 2.11], [130, 1, 38, 1.98], [143, 2, 93, 4.27], [75, 2, 94, 2.06], [144, 2, 95, 4.88], [12721, 2, 183, 2.14], [8915, 2, 123, 2.03], [145, 2, 95, 4.47], [2778, 2, 100, 2.13], [146, 2, 95, 4.47], [1776, 1, 72, 1.98], [6936, 2, 181, 3.89], [2328, 2, 96, 2.51], [151, 1, 43, 1.81], [8648, 2, 145, 2.8], [1777, 1, 72, 3.3], [8650, 2, 145, 3.01], [5151, 2, 15, 4.09], [990, 2, 33, 1.9], [88, 10, 363, 3.59], [7886, 4, 92, 1.88], [74, 1, 130, 2.63], [83, 2, 23, 1.6], [362, 2, 91, 1.95], [1446, 2, 97, 3.17], [1007, 2, 173, 1.98], [2991, 3, 103, 4.8], [1492, 1, 24, 3.02], [76, 2, 70, 2.53], [8649, 2, 145, 3.09], [8938, 2, 123, 1.99], [11234, 2, 117, 2.42], [8675, 2, 183, 2.37], [10, 2, 67, 2.83], [307, 2, 93, 3.45], [12870, 1, 90, 2.36], [1429, 2, 97, 2.62], [5081, 2, 121, 2.16], [345, 3, 195, 2.03], [7036, 1, 82, 2.76], [1504, 2, 131, 2.16], [10825, 21, 404, 2.14], [7084, 3, 83, 2.76], [11404, 2, 66, 2.48], [10149, 3, 574, 2.37], [1006, 2, 146, 2.2], [3891, 1, 80, 2.87], [94, 4, 77, 4.22], [167, 3, 146, 2.53], [411, 2, 70, 2.02], [3893, 1, 80, 1.81], [308, 1, 107, 3.88], [9827, 3, 56, 2.04], [23, 1, 71, 2.4], [13280, 1, 203, 3.34], [432, 3, 194, 2.31], [168, 3, 260, 2.62], [8677, 3, 189, 2.17], [11681, 2, 172, 4.61], [96, 11, 545, 1.81]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [6935, 2, 8, 1.6], [2049, 3, 8, 0.4], [205, 2, 4, 0.39], [144, 2, 4, 0.36], [589, 2, 5, 0.47], [151, 1, 4, 0.48], [362, 2, 4, 0.45], [12721, 2, 6, 0.56], [146, 2, 4, 0.41], [2328, 2, 4, 0.73], [143, 2, 4, 0.58], [206, 2, 4, 0.39], [8648, 2, 4, 1.07], [8915, 2, 5, 0.41], [6936, 2, 5, 1.55], [8675, 2, 6, 0.48], [990, 2, 4, 0.76], [8650, 2, 4, 1.18], [5151, 2, 4, 1.25], [248, 1, 4, 0.38], [2778, 2, 4, 0.43], [88, 10, 8, 1.09], [2050, 3, 4, 0.38], [76, 2, 4, 0.74], [8649, 2, 4, 1.22], [10, 2, 4, 0.91], [10149, 3, 15, 1.81], [22247, 2, 4, 0.78], [8677, 3, 5, 1.56], [412, 1, 4, 0.62], [361, 2, 4, 0.6], [11404, 2, 4, 0.64], [7004, 1, 4, 0.36], [413, 1, 4, 0.6], [8938, 2, 5, 0.45], [11681, 2, 5, 1.87], [1446, 2, 4, 1.04], [307, 2, 4, 0.47], [7084, 3, 4, 0.36], [1429, 2, 4, 0.65], [3495, 3, 13, 0.93], [308, 1, 4, 0.75], [1006, 2, 4, 0.47], [140, 2, 4, 0.63], [74, 1, 4, 0.72], [1492, 1, 4, 1.08], [7005, 1, 4, 0.36], [167, 3, 4, 0.75], [7036, 1, 4, 0.61], [45, 2, 4, 0.56], [1124, 2, 5, 0.42], [9827, 3, 4, 0.48], [10574, 3, 5, 0.37], [12870, 1, 4, 0.54], [1504, 2, 4, 0.45], [13280, 1, 4, 1.47], [168, 3, 4, 0.79], [94, 4, 4, 1.24], [8676, 2, 4, 0.51], [415, 1, 4, 0.57], [8651, 2, 4, 0.78], [8853, 2, 5, 1.57], [6097, 29, 4, 0.64], [8939, 2, 4, 0.45], [6097, 80, 4, 0.64], [416, 1, 4, 0.71], [23, 1, 4, 0.67], [11737, 2, 4, 0.49], [20256, 2, 4, 0.5], [1490, 1, 4, 0.42], [490, 1, 4, 0.55], [95, 3, 13, 0.54], [20927, 1, 4, 0.36], [14017, 3, 4, 0.52], [6098, 29, 4, 0.58], [6098, 80, 4, 0.58], [1070, 7, 8, 0.43], [8898, 3, 4, 1.36], [1126, 2, 4, 0.39], [9069, 1, 4, 0.49], [11490, 1, 4, 0.38], [11116, 1, 4, 0.36], [25, 1, 4, 0.38], [126, 2, 4, 0.93], [22554, 10, 9, 0.48], [13034, 3, 5, 0.66], [9760, 29, 4, 0.45], [9829, 3, 4, 0.41], [11489, 1, 4, 0.39], [20255, 2, 4, 0.51], [5086, 1, 4, 1.21], [8945, 3, 5, 0.51], [336, 15, 4, 0.36], [8274, 3, 4, 0.38], [20498, 1, 4, 0.8], [9784, 1, 4, 0.55], [12924, 1, 4, 0.56], [11739, 2, 4, 0.49], [1413, 15, 4, 0.83], [5209, 3, 4, 0.37], [7567, 3, 4, 1.16], [22317, 3, 5, 0.51], [5811, 3, 4, 1.26], [8557, 3, 4, 0.52], [9082, 3, 14, 1.25], [5813, 3, 4, 1.08], [3049, 3, 4, 1.6], [8104, 1, 4, 0.39], [9372, 1, 4, 1.53], [14018, 3, 4, 0.52], [4076, 3, 4, 1.04], [470, 1, 4, 0.46], [20498, 3, 5, 0.86], [8943, 3, 4, 0.7], [524, 1, 4, 0.62], [9691, 1, 4, 0.5], [20486, 3, 5, 0.78], [2423, 80, 4, 1.25], [2775, 2, 4, 0.43], [11454, 2, 5, 1.6], [13023, 3, 5, 1.24], [952, 4, 4, 2.18], [2424, 80, 4, 0.49], [1414, 15, 4, 0.73], [20486, 1, 4, 0.78], [3900, 3, 4, 1.13], [5584, 3, 4, 1.22], [6497, 1, 4, 0.89], [1339, 3, 10, 0.8], [823, 1, 4, 0.84], [2424, 29, 4, 0.55], [8672, 2, 133, 1.73], [305, 2, 68, 1.81], [6935, 2, 129, 4.34], [2049, 3, 256, 1.44], [205, 2, 51, 1.48], [144, 2, 70, 1.43], [589, 2, 70, 1.76], [151, 1, 31, 1.66], [362, 2, 66, 1.6], [12721, 2, 132, 1.75], [146, 2, 70, 1.53], [2328, 2, 70, 2.12], [143, 2, 68, 1.83], [206, 2, 51, 1.49], [8648, 2, 105, 2.73], [8915, 2, 89, 1.55], [6936, 2, 129, 4.01], [8675, 2, 133, 1.62], [990, 2, 24, 2.16], [8650, 2, 105, 2.92], [5151, 2, 11, 3.62], [248, 1, 25, 1.47], [2778, 2, 73, 1.56], [88, 10, 262, 2.78], [2050, 3, 221, 1.46], [76, 2, 51, 2.13], [8649, 2, 105, 3.01], [10, 2, 49, 2.92], [10149, 3, 400, 4.3], [22247, 2, 132, 2.62], [8677, 3, 135, 3.85], [412, 1, 39, 1.91], [361, 2, 72, 1.88], [11404, 2, 48, 2.27], [7004, 1, 37, 1.43], [413, 1, 40, 1.86], [8938, 2, 89, 1.52], [11681, 2, 126, 5.03], [1446, 2, 70, 2.68], [307, 2, 68, 1.62], [7084, 3, 61, 1.43], [1429, 2, 70, 1.97], [3495, 3, 447, 2.38], [308, 1, 77, 3.48], [1006, 2, 106, 1.63], [140, 2, 42, 2.25], [74, 1, 94, 2.09], [1492, 1, 17, 2.75], [7005, 1, 37, 1.43], [167, 3, 106, 2.14], [7036, 1, 60, 1.89], [45, 2, 51, 3.71], [1124, 2, 86, 1.57], [9827, 3, 40, 1.65], [10574, 3, 240, 1.48], [12870, 1, 65, 1.77], [1504, 2, 95, 1.6], [13280, 1, 147, 3.47], [168, 3, 188, 2.23], [94, 4, 56, 4.23], [8676, 2, 133, 1.71], [415, 1, 40, 1.81], [8651, 2, 105, 2.21], [8853, 2, 129, 4.38], [6097, 29, 16, 4.15], [8939, 2, 89, 1.61], [6097, 80, 32, 4.15]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [326, 2, 4, 0.62], [130, 1, 4, 0.47], [8648, 2, 4, 0.7], [144, 2, 4, 0.53], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [589, 2, 5, 1.14], [143, 2, 4, 0.58], [205, 2, 4, 0.53], [2328, 2, 4, 0.5], [6936, 2, 4, 1.18], [11681, 2, 4, 1.35], [8650, 2, 4, 0.57], [5493, 2, 4, 0.39], [2778, 2, 4, 0.58], [305, 2, 4, 0.48], [141, 2, 4, 0.48], [206, 2, 4, 0.46], [146, 2, 4, 0.63], [2049, 3, 7, 0.4], [88, 10, 8, 0.87], [145, 2, 4, 0.56], [7004, 1, 4, 0.35], [7036, 1, 4, 1.07], [8853, 2, 4, 1.18], [8649, 2, 4, 0.47], [1446, 2, 4, 0.39], [5491, 2, 4, 0.47], [362, 2, 4, 0.85], [1006, 2, 4, 0.5], [11737, 2, 4, 0.59], [75, 2, 4, 0.99], [616, 2, 4, 0.44], [990, 2, 4, 0.58], [2050, 3, 4, 0.35], [12350, 1, 4, 0.44], [1007, 2, 4, 0.51], [12870, 1, 4, 0.49], [523, 2, 4, 0.5], [1504, 2, 4, 0.57], [2057, 3, 4, 0.35], [12353, 1, 4, 0.53], [20927, 1, 4, 0.4], [10574, 3, 5, 1.36], [3, 2, 4, 0.44], [13280, 1, 4, 2.05], [997, 2, 4, 1.79], [94, 4, 4, 1.34], [9760, 29, 4, 0.43], [12346, 1, 4, 0.47], [7084, 3, 4, 0.58], [8939, 2, 4, 0.49], [140, 2, 4, 0.62], [2775, 2, 4, 0.58], [2054, 3, 4, 0.35], [996, 2, 4, 1.53], [1429, 2, 4, 0.48], [3982, 3, 10, 1.18], [9372, 1, 4, 1.88], [11739, 2, 4, 0.59], [21793, 1, 4, 1.8], [84, 2, 4, 0.52], [6158, 2, 4, 0.45], [5165, 2, 5, 1.11], [12352, 1, 4, 0.49], [10388, 2, 4, 1.15], [96, 11, 13, 0.38], [411, 2, 4, 0.5], [972, 3, 4, 0.57], [2912, 1, 4, 0.44], [5165, 1, 4, 1.08], [2776, 2, 4, 1.17], [8672, 2, 4, 0.98], [413, 1, 4, 0.51], [12344, 1, 4, 0.53], [13928, 1, 4, 0.6], [12351, 1, 4, 0.53], [10386, 2, 4, 1.01], [410, 1, 4, 0.54], [12343, 1, 4, 0.53], [418, 2, 4, 0.42], [11504, 2, 4, 0.54], [1492, 1, 4, 1.2], [12345, 1, 4, 0.42], [22247, 2, 4, 0.88], [9784, 1, 4, 0.47], [412, 1, 4, 0.46], [336, 15, 4, 0.36], [13893, 2, 4, 0.76], [11490, 1, 4, 0.54], [1886, 2, 4, 0.46], [8677, 3, 4, 0.4], [435, 2, 4, 0.38], [308, 1, 4, 2.21], [307, 2, 4, 0.59], [13283, 1, 4, 2.05], [7567, 3, 4, 1.15], [432, 3, 4, 0.47], [1413, 15, 4, 0.57], [414, 1, 4, 0.58], [229, 1, 4, 0.42], [11770, 1, 4, 0.98], [33, 1, 4, 0.56], [10407, 10, 6, 1.44], [10410, 10, 6, 1.64], [13286, 1, 4, 0.81], [286, 3, 4, 1.06], [35, 1, 4, 0.57], [335, 3, 9, 0.37], [22317, 3, 4, 0.51], [972, 1, 4, 0.57], [6497, 1, 4, 0.93], [3478, 2, 4, 1.13], [10387, 2, 4, 1.04], [10780, 10, 4, 2.46], [12271, 2, 4, 0.66], [74, 1, 4, 0.57], [8104, 1, 4, 0.38], [9082, 3, 17, 1.25], [12347, 1, 4, 0.53], [20686, 1, 4, 1.33], [2331, 1, 4, 0.58], [9971, 2, 4, 0.94], [345, 3, 4, 0.81], [11085, 2, 4, 1.27], [12721, 2, 4, 0.49], [12526, 2, 4, 0.75], [12229, 2, 4, 0.48], [20682, 1, 4, 1.35], [4076, 3, 4, 1.35], [1163, 3, 4, 0.59], [11685, 2, 141, 4.9], [6935, 2, 143, 5.4], [326, 2, 47, 3.07], [130, 1, 31, 2.08], [8648, 2, 118, 2.49], [144, 2, 78, 3.9], [593, 2, 118, 2.28], [2327, 2, 78, 2.07], [589, 2, 79, 3.13], [143, 2, 77, 2.27], [205, 2, 56, 2.19], [2328, 2, 78, 2.12], [6936, 2, 143, 5.42], [11681, 2, 141, 4.51], [8650, 2, 118, 2.25], [5493, 2, 56, 1.93], [2778, 2, 81, 2.27], [305, 2, 76, 2.08], [141, 2, 81, 2.1], [206, 2, 56, 2.05], [146, 2, 78, 2.36], [2049, 3, 191, 1.74], [88, 10, 293, 2.94], [145, 2, 78, 2.23], [7004, 1, 41, 1.86], [7036, 1, 66, 3.33], [8853, 2, 143, 5.43], [8649, 2, 118, 2.08], [1446, 2, 79, 2.12], [5491, 2, 56, 2.07], [362, 2, 73, 2.77], [1006, 2, 118, 2.13], [11737, 2, 30, 2.29], [75, 2, 76, 3.02], [616, 2, 57, 2.02], [990, 2, 27, 2.27], [2050, 3, 250, 1.85], [12350, 1, 321, 3.53], [1007, 2, 139, 2.15], [12870, 1, 72, 2.1], [523, 2, 80, 2.14], [1504, 2, 106, 2.25], [2057, 3, 250, 1.85], [12353, 1, 321, 3.98], [20927, 1, 41, 1.94], [10574, 3, 261, 3.57], [3, 2, 63, 2.02], [13280, 1, 164, 4.98], [997, 2, 118, 4.71], [94, 4, 62, 4.75], [9760, 29, 37, 2.0], [12346, 1, 321, 3.64], [7084, 3, 68, 2.29], [8939, 2, 100, 2.11], [140, 2, 47, 2.39], [2775, 2, 81, 2.27], [2054, 3, 250, 1.85], [996, 2, 118, 4.22], [1429, 2, 79, 2.09], [3982, 3, 407, 3.54], [9372, 1, 121, 4.89], [11739, 2, 30, 2.29], [21793, 1, 120, 4.76], [84, 2, 35, 2.17], [6158, 2, 137, 2.04], [5165, 2, 191, 4.35], [12352, 1, 321, 3.77]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.47], [130, 1, 4, 0.48], [362, 2, 4, 0.48], [361, 2, 4, 0.54], [6935, 2, 7, 1.06], [206, 2, 4, 0.38], [2049, 3, 8, 0.42], [1504, 2, 5, 0.49], [417, 2, 4, 0.57], [6936, 2, 4, 1.08], [3, 2, 4, 0.5], [305, 2, 4, 0.53], [523, 2, 4, 0.53], [8650, 2, 4, 0.39], [8648, 2, 4, 1.2], [2328, 2, 4, 0.78], [8853, 2, 4, 1.05], [2776, 2, 4, 0.64], [2327, 2, 4, 0.63], [143, 2, 4, 0.51], [589, 2, 4, 0.44], [146, 2, 4, 0.56], [412, 1, 4, 0.5], [11835, 2, 4, 0.55], [145, 2, 4, 0.4], [6497, 1, 4, 1.0], [583, 2, 4, 0.78], [2805, 137, 6, 0.63], [326, 2, 4, 0.78], [8674, 2, 4, 0.63], [6097, 80, 4, 0.64], [9784, 1, 4, 0.49], [144, 2, 4, 0.44], [10574, 3, 5, 1.26], [10149, 3, 13, 0.62], [6097, 29, 4, 0.64], [413, 1, 4, 0.47], [1413, 15, 4, 0.49], [11504, 2, 4, 0.37], [6494, 1, 4, 0.93], [2422, 80, 4, 1.25], [1492, 1, 4, 1.08], [2422, 29, 4, 1.19], [6098, 80, 4, 0.64], [22316, 3, 4, 0.38], [414, 1, 4, 0.49], [2774, 2, 4, 0.49], [1886, 2, 4, 0.41], [1490, 1, 4, 0.43], [2859, 15, 4, 0.45], [6098, 29, 4, 0.61], [1414, 15, 4, 0.46], [944, 15, 4, 0.95], [6158, 2, 5, 0.4], [3670, 2, 4, 1.46], [2049, 1, 4, 0.42], [21793, 1, 4, 0.45], [3478, 2, 4, 1.07], [7084, 3, 4, 0.44], [9785, 1, 4, 0.49], [8659, 1, 4, 0.55], [12526, 2, 4, 0.93], [9342, 2, 4, 0.49], [3430, 15, 4, 0.62], [1703, 2, 4, 0.61], [1413, 16, 4, 0.5], [8599, 1, 4, 0.58], [9760, 29, 4, 0.45], [10398, 2, 4, 0.95], [4253, 1, 4, 0.54], [229, 1, 4, 0.46], [11887, 2, 5, 0.37], [11885, 2, 4, 0.45], [107, 2, 4, 0.67], [1429, 2, 4, 0.48], [11770, 1, 4, 0.46], [436, 2, 4, 0.49], [947, 15, 4, 0.45], [11811, 1, 4, 0.94], [107, 7, 5, 0.63], [11490, 1, 4, 0.36], [94, 4, 4, 1.09], [3673, 2, 4, 1.7], [11160, 1, 4, 0.59], [11844, 2, 4, 0.7], [11771, 1, 4, 1.3], [5939, 3, 4, 0.57], [140, 2, 4, 0.78], [7036, 1, 4, 0.77], [9358, 1, 4, 0.52], [11954, 1, 4, 0.51], [3495, 3, 10, 0.6], [9491, 21, 10, 0.51], [2104, 3, 6, 0.52], [12764, 2, 5, 0.48], [1309, 1, 4, 1.57], [5813, 3, 5, 0.67], [23920, 2, 4, 0.47], [11677, 1, 4, 0.63], [9690, 1, 4, 0.5], [8274, 3, 4, 0.72], [5584, 3, 4, 0.4], [6575, 3, 4, 1.16], [11674, 1, 4, 0.36], [5811, 3, 5, 1.17], [2108, 3, 6, 0.54], [74, 1, 4, 1.76], [22573, 2, 4, 1.02], [10406, 10, 7, 1.73], [3334, 5, 4, 0.63], [10407, 10, 6, 1.56], [11886, 2, 4, 0.65], [19687, 1, 4, 1.21], [1523, 1, 4, 0.77], [8926, 1, 4, 0.51], [823, 1, 4, 0.47], [1413, 1, 4, 0.49], [12993, 3, 8, 1.87], [307, 2, 4, 0.87], [3430, 16, 4, 0.62], [11179, 1, 4, 0.48], [8635, 3, 4, 0.75], [8897, 3, 4, 0.35], [11180, 1, 4, 0.49], [2859, 16, 4, 0.43], [11772, 1, 4, 0.69], [1414, 16, 4, 0.49], [6540, 25, 4, 0.87], [7567, 3, 4, 0.36], [5976, 1, 4, 0.61], [10124, 1, 4, 2.17], [524, 1, 4, 0.49], [23275, 2, 4, 0.99], [8672, 2, 193, 2.61], [130, 1, 39, 2.48], [362, 2, 95, 2.48], [361, 2, 104, 2.6], [6935, 2, 190, 4.62], [206, 2, 55, 2.12], [2049, 3, 368, 2.36], [1504, 2, 140, 2.73], [417, 2, 104, 2.65], [6936, 2, 190, 4.15], [3, 2, 81, 2.53], [305, 2, 98, 2.58], [523, 2, 104, 2.73], [8650, 2, 151, 3.94], [8648, 2, 151, 3.82], [2328, 2, 101, 3.03], [8853, 2, 190, 3.68], [2776, 2, 105, 2.78], [2327, 2, 101, 2.76], [143, 2, 99, 2.54], [589, 2, 102, 2.41], [146, 2, 101, 2.63], [412, 1, 56, 2.52], [11835, 2, 178, 2.61], [145, 2, 101, 2.34], [6497, 1, 25, 3.44], [583, 2, 30, 3.29], [2805, 137, 122, 3.2], [326, 2, 45, 3.44], [8674, 2, 193, 2.78], [6097, 80, 46, 4.99], [9784, 1, 48, 2.51], [144, 2, 101, 2.41], [10574, 3, 332, 4.09], [10149, 3, 601, 2.68], [6097, 29, 23, 4.99], [413, 1, 58, 2.47], [1413, 15, 66, 2.5], [11504, 2, 95, 2.28], [6494, 1, 34, 3.31], [2422, 80, 122, 4.96], [1492, 1, 25, 3.58], [2422, 29, 24, 4.91], [6098, 80, 50, 3.53], [22316, 3, 210, 2.29], [414, 1, 58, 2.51], [2774, 2, 140, 2.5], [1886, 2, 105, 2.36], [1490, 1, 34, 2.4], [2859, 15, 47, 2.43], [6098, 29, 25, 3.5], [1414, 15, 66, 2.45], [944, 15, 29, 4.36], [6158, 2, 175, 2.27], [3670, 2, 163, 5.05], [2049, 1, 15, 2.37], [21793, 1, 163, 2.44], [3478, 2, 50, 3.58], [7084, 3, 86, 3.42], [9785, 1, 48, 2.51], [8659, 1, 81, 2.61], [12526, 2, 183, 4.37], [9342, 2, 309, 2.51], [3430, 15, 47, 2.75], [1703, 2, 109, 3.0], [1413, 16, 33, 2.53], [8599, 1, 99, 2.66]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.51], [144, 2, 4, 0.53], [8915, 2, 5, 0.58], [143, 2, 4, 0.58], [589, 2, 5, 0.57], [130, 1, 4, 0.48], [8648, 2, 4, 1.05], [6936, 2, 4, 1.74], [2775, 2, 4, 0.51], [205, 2, 4, 0.43], [8650, 2, 4, 0.39], [326, 2, 4, 1.15], [145, 2, 4, 0.51], [146, 2, 4, 0.57], [7036, 1, 4, 0.44], [3840, 1, 4, 0.79], [2776, 2, 4, 0.64], [615, 2, 4, 0.57], [616, 2, 4, 0.36], [88, 10, 8, 0.93], [141, 2, 4, 0.39], [7004, 1, 4, 0.52], [11681, 2, 5, 0.83], [1446, 2, 4, 0.39], [8853, 2, 4, 1.79], [9760, 29, 4, 0.37], [5491, 2, 4, 0.58], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [1504, 2, 4, 0.93], [9372, 1, 4, 1.47], [8672, 2, 4, 0.98], [12870, 1, 4, 0.72], [8649, 2, 4, 0.39], [3893, 1, 4, 0.53], [434, 2, 4, 0.39], [10993, 2, 4, 0.45], [417, 2, 4, 0.42], [2497, 2, 4, 0.45], [5165, 1, 4, 1.06], [1429, 2, 4, 0.39], [140, 2, 4, 1.15], [3891, 1, 4, 0.53], [10574, 3, 5, 1.36], [2991, 3, 4, 1.1], [1006, 2, 4, 0.54], [10149, 3, 13, 0.4], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [5208, 3, 4, 0.48], [21793, 1, 4, 0.5], [7886, 4, 4, 0.41], [20927, 1, 4, 0.45], [5165, 2, 5, 1.02], [11234, 2, 4, 1.25], [1886, 2, 4, 0.45], [22247, 2, 4, 0.87], [147, 1, 4, 1.25], [12721, 2, 4, 0.49], [11811, 1, 4, 0.44], [346, 3, 4, 0.39], [361, 2, 4, 0.37], [996, 2, 4, 0.66], [998, 2, 4, 1.0], [94, 4, 4, 1.41], [9491, 21, 10, 0.44], [972, 3, 5, 0.51], [2912, 2, 7, 0.36], [76, 2, 4, 0.37], [35, 1, 4, 0.52], [950, 1, 4, 0.37], [2424, 80, 4, 0.49], [13028, 3, 4, 2.04], [439, 1, 4, 0.96], [413, 1, 4, 0.58], [6158, 2, 4, 0.48], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [13928, 1, 4, 0.7], [2805, 137, 4, 0.6], [346, 1, 4, 0.37], [11685, 2, 5, 0.83], [1414, 15, 4, 0.75], [8676, 2, 4, 0.55], [412, 1, 4, 0.43], [2774, 2, 4, 0.78], [418, 2, 4, 0.63], [5209, 3, 4, 0.48], [148, 1, 4, 1.26], [33, 1, 4, 0.97], [3495, 3, 10, 0.56], [83, 2, 4, 0.38], [12212, 29, 4, 0.53], [20256, 2, 4, 0.52], [8898, 3, 4, 1.44], [11490, 1, 4, 0.43], [415, 1, 4, 0.52], [10407, 10, 6, 1.56], [9784, 1, 4, 0.47], [7887, 4, 4, 0.44], [38, 1, 4, 0.66], [126, 2, 4, 1.15], [96, 11, 13, 0.38], [13928, 2, 4, 0.7], [3048, 3, 4, 1.15], [2424, 29, 4, 0.55], [34, 1, 4, 0.59], [84, 2, 4, 0.47], [5584, 3, 4, 1.25], [8939, 2, 4, 0.5], [74, 1, 4, 1.47], [10410, 10, 9, 1.6], [10408, 10, 5, 1.62], [12764, 2, 5, 0.38], [12526, 2, 4, 0.94], [13893, 2, 4, 0.45], [972, 1, 4, 0.52], [5164, 1, 4, 1.8], [39, 1, 4, 0.63], [1492, 1, 4, 0.52], [21269, 3, 4, 1.7], [3429, 15, 4, 0.47], [4253, 1, 4, 0.54], [1274, 1, 4, 0.48], [7567, 3, 4, 1.16], [13034, 3, 4, 1.13], [11813, 1, 4, 0.4], [13023, 3, 5, 0.82], [11236, 2, 4, 0.5], [3980, 4, 4, 1.23], [2327, 2, 98, 2.43], [305, 2, 95, 2.3], [6935, 2, 180, 5.56], [2778, 2, 102, 2.42], [144, 2, 73, 4.04], [8915, 2, 124, 2.46], [143, 2, 96, 2.53], [589, 2, 99, 2.47], [130, 1, 38, 2.36], [8648, 2, 146, 3.41], [6936, 2, 180, 4.89], [2775, 2, 102, 2.42], [205, 2, 71, 2.27], [8650, 2, 146, 2.95], [326, 2, 58, 3.6], [145, 2, 97, 2.42], [146, 2, 97, 2.52], [7036, 1, 83, 3.78], [3840, 1, 111, 2.93], [2776, 2, 102, 2.66], [615, 2, 71, 2.51], [616, 2, 71, 2.14], [88, 10, 368, 3.44], [141, 2, 101, 2.19], [7004, 1, 26, 1.95], [11681, 2, 174, 4.93], [1446, 2, 98, 2.7], [8853, 2, 180, 4.98], [9760, 29, 46, 2.16], [5491, 2, 70, 2.55], [990, 2, 34, 2.19], [362, 2, 92, 2.39], [1504, 2, 132, 3.19], [9372, 1, 151, 5.08], [8672, 2, 186, 4.42], [12870, 1, 91, 2.8], [8649, 2, 146, 2.76], [3893, 1, 81, 2.46], [434, 2, 70, 2.19], [10993, 2, 35, 2.31], [417, 2, 101, 2.26], [2497, 2, 132, 2.3], [5165, 1, 30, 4.47], [1429, 2, 98, 2.39], [140, 2, 58, 3.6], [3891, 1, 81, 2.46], [10574, 3, 327, 4.05], [2991, 3, 105, 5.12], [1006, 2, 148, 2.47], [10149, 3, 579, 3.39], [75, 2, 95, 2.19], [3, 2, 78, 2.31], [5208, 3, 364, 2.37], [21793, 1, 158, 2.39], [7886, 4, 46, 1.74], [20927, 1, 39, 2.14], [5165, 2, 239, 4.32], [11234, 2, 118, 3.77], [1886, 2, 101, 2.3], [22247, 2, 185, 3.07], [147, 1, 57, 3.78], [12721, 2, 185, 2.73], [11811, 1, 296, 2.28], [346, 3, 410, 2.18], [361, 2, 101, 2.16], [996, 2, 153, 4.31], [998, 2, 153, 4.31]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.7], [305, 2, 7, 0.98], [8672, 2, 10, 1.22], [615, 2, 7, 1.3], [1504, 2, 11, 0.85], [2775, 2, 7, 1.03], [145, 2, 7, 0.74], [2776, 2, 7, 2.4], [8853, 2, 7, 3.02], [2327, 2, 7, 1.16], [130, 1, 7, 0.88], [143, 2, 7, 0.93], [2328, 2, 7, 1.43], [146, 2, 7, 1.03], [2049, 3, 14, 0.75], [11681, 2, 11, 3.38], [616, 2, 7, 1.26], [361, 2, 7, 0.99], [362, 2, 7, 0.85], [5491, 2, 7, 0.72], [8650, 2, 9, 2.33], [2497, 2, 7, 1.14], [144, 2, 7, 0.8], [5493, 2, 7, 0.86], [8676, 2, 7, 0.87], [3670, 2, 9, 3.78], [8673, 2, 7, 2.94], [2774, 2, 7, 3.92], [417, 2, 7, 1.05], [8648, 2, 7, 2.22], [3, 2, 7, 0.98], [589, 2, 7, 0.8], [308, 1, 13, 1.15], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [6497, 1, 7, 1.84], [22247, 2, 7, 0.94], [624, 2, 7, 0.9], [8674, 2, 7, 1.47], [11234, 2, 8, 1.1], [593, 2, 8, 0.75], [6097, 29, 7, 3.38], [12720, 2, 7, 0.88], [6098, 80, 7, 1.86], [990, 2, 7, 0.94], [8915, 2, 7, 0.76], [10993, 2, 7, 0.9], [12353, 1, 7, 1.6], [60, 3, 8, 1.99], [326, 2, 7, 2.39], [6494, 1, 7, 1.71], [88, 10, 14, 1.5], [13260, 29, 7, 0.66], [3674, 2, 7, 3.32], [944, 15, 7, 2.75], [1413, 15, 7, 0.96], [1492, 1, 7, 1.98], [412, 1, 7, 0.92], [2422, 80, 7, 3.36], [378, 2, 7, 2.13], [10149, 3, 21, 1.08], [1007, 2, 8, 0.64], [2422, 29, 7, 3.3], [1243, 2, 7, 1.02], [20682, 1, 7, 0.94], [22316, 3, 7, 0.85], [11738, 2, 7, 1.92], [12269, 2, 7, 1.71], [6098, 29, 7, 1.86], [20252, 2, 7, 0.92], [1490, 1, 7, 0.8], [963, 3, 7, 0.79], [13258, 29, 7, 2.26], [2331, 1, 7, 2.59], [10407, 10, 10, 3.08], [22558, 3, 7, 0.71], [1163, 3, 7, 1.75], [307, 2, 7, 1.61], [114, 3, 7, 0.7], [416, 1, 7, 1.08], [2438, 1, 7, 0.93], [2821, 3, 13, 1.26], [149, 2, 7, 2.53], [2912, 1, 7, 0.7], [13259, 29, 7, 3.09], [12229, 2, 7, 1.29], [432, 3, 7, 1.42], [11586, 1, 12, 2.5], [7036, 1, 7, 3.45], [11687, 2, 7, 0.95], [1413, 16, 7, 0.93], [1414, 15, 7, 0.94], [21793, 1, 7, 0.83], [11844, 2, 7, 1.29], [9784, 1, 7, 0.95], [12870, 1, 7, 3.14], [10406, 10, 12, 3.4], [10410, 10, 10, 3.12], [11402, 1, 7, 2.32], [11161, 1, 10, 0.99], [11404, 2, 7, 1.32], [10408, 10, 10, 2.85], [956, 2, 7, 0.75], [21781, 2, 7, 0.86], [3478, 2, 7, 1.97], [1886, 2, 7, 0.81], [19687, 1, 7, 2.21], [22125, 2, 7, 0.66], [10411, 10, 10, 2.98], [11159, 1, 14, 3.46], [12055, 2, 7, 1.97], [11490, 1, 7, 0.8], [12053, 2, 7, 1.97], [5976, 1, 7, 1.12], [2438, 2, 8, 0.99], [13258, 25, 7, 2.28], [413, 1, 7, 0.88], [9372, 1, 7, 3.37], [11689, 2, 7, 0.91], [12373, 1, 11, 2.35], [9065, 2, 7, 0.97], [10409, 10, 15, 3.28], [11811, 1, 7, 1.72], [94, 4, 7, 2.0], [9785, 1, 7, 0.95], [105, 3, 7, 0.68], [5584, 3, 7, 2.12], [11160, 1, 7, 1.08], [8926, 1, 7, 1.37], [2805, 137, 11, 2.4], [11770, 1, 7, 0.95], [22316, 3, 211, 2.46], [11738, 2, 38, 3.53], [12269, 2, 42, 3.31], [6098, 29, 25, 3.47], [20252, 2, 62, 2.53], [1490, 1, 34, 2.4], [963, 3, 269, 2.39], [13258, 29, 26, 3.86], [2331, 1, 79, 4.19], [10407, 10, 781, 4.68], [22558, 3, 164, 1.78], [307, 2, 99, 3.22], [114, 3, 164, 2.3], [416, 1, 58, 2.68], [2438, 1, 35, 2.54], [2821, 3, 877, 2.88], [149, 2, 59, 4.14], [2912, 1, 24, 2.13], [13259, 29, 23, 4.69], [12229, 2, 100, 2.9], [432, 3, 202, 3.03], [11586, 1, 251, 4.1], [7036, 1, 85, 5.06], [11687, 2, 202, 2.55], [1413, 16, 33, 2.53], [1414, 15, 66, 2.54], [21793, 1, 163, 2.44], [11844, 2, 183, 2.89], [9784, 1, 48, 2.55], [12870, 1, 94, 4.75], [10406, 10, 1165, 5.01], [10410, 10, 781, 4.72], [11402, 1, 29, 3.93], [11161, 1, 339, 2.59], [11404, 2, 69, 2.93], [10408, 10, 510, 4.44], [956, 2, 72, 2.35], [21781, 2, 69, 2.47], [3478, 2, 50, 3.58], [1886, 2, 104, 2.41], [19687, 1, 20, 3.82], [22125, 2, 42, 2.27], [10411, 10, 510, 4.58], [11159, 1, 328, 5.08], [12055, 2, 381, 3.57], [11490, 1, 73, 2.4], [12053, 2, 381, 3.57], [5976, 1, 105, 2.73], [2438, 2, 422, 2.59], [13258, 25, 52, 3.89], [413, 1, 58, 2.48], [9372, 1, 155, 4.97], [11689, 2, 202, 2.51], [12373, 1, 355, 3.95], [9065, 2, 202, 2.57], [10409, 10, 1165, 4.9], [11811, 1, 300, 3.32], [94, 4, 80, 3.61], [9785, 1, 48, 2.55], [105, 3, 164, 2.29], [5584, 3, 158, 3.72], [11160, 1, 339, 2.68], [8926, 1, 42, 2.97], [2805, 137, 121, 4.0], [11770, 1, 145, 2.55]]</t>
-  </si>
-  <si>
-    <t>[[2328, 2, 7, 1.43], [8650, 2, 9, 2.33], [362, 2, 7, 0.88], [5493, 2, 7, 0.68], [130, 1, 7, 0.88], [589, 2, 7, 0.8], [2327, 2, 7, 1.16], [11685, 2, 7, 4.19], [326, 2, 7, 1.71], [8672, 2, 10, 1.22], [6935, 2, 19, 3.71], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [6936, 2, 9, 3.12], [8648, 2, 7, 2.22], [142, 2, 7, 0.92], [8915, 2, 7, 0.76], [12721, 2, 11, 1.09], [2049, 3, 14, 1.18], [1446, 2, 7, 2.01], [11838, 2, 7, 0.99], [2778, 2, 11, 1.08], [305, 2, 7, 0.98], [8676, 2, 7, 0.87], [615, 2, 7, 0.82], [616, 2, 7, 0.83], [9507, 3, 7, 0.66], [412, 1, 7, 0.91], [413, 1, 7, 0.94], [12353, 1, 7, 0.9], [145, 2, 7, 0.74], [10574, 3, 9, 2.49], [76, 2, 7, 0.95], [21793, 1, 7, 0.83], [12349, 1, 7, 0.75], [1429, 2, 7, 0.88], [990, 2, 7, 0.94], [146, 2, 7, 1.03], [143, 2, 7, 1.06], [8673, 2, 7, 2.94], [11836, 2, 7, 0.79], [8674, 2, 7, 1.47], [10149, 3, 21, 1.08], [6158, 2, 8, 0.89], [12344, 1, 7, 1.14], [2776, 2, 7, 0.94], [3495, 3, 17, 1.06], [12720, 2, 7, 0.88], [12350, 1, 7, 0.84], [144, 2, 7, 0.8], [1504, 2, 11, 1.09], [8939, 2, 7, 0.8], [416, 1, 7, 0.96], [22316, 3, 7, 0.85], [88, 10, 14, 1.87], [418, 2, 7, 0.69], [3848, 2, 7, 1.04], [7885, 4, 7, 0.81], [2859, 15, 7, 0.82], [7084, 3, 7, 1.81], [10993, 2, 7, 0.9], [11234, 2, 8, 1.97], [12346, 1, 7, 1.14], [414, 1, 7, 0.96], [7705, 2, 7, 0.94], [5165, 1, 7, 3.14], [9784, 1, 7, 0.91], [2424, 29, 7, 1.06], [12526, 2, 7, 2.76], [11844, 2, 7, 1.29], [12351, 1, 7, 1.14], [2423, 80, 7, 2.3], [12345, 1, 7, 1.14], [2424, 80, 7, 1.01], [11490, 1, 7, 0.8], [13034, 3, 8, 2.15], [12373, 1, 11, 2.35], [2423, 29, 7, 2.41], [13023, 3, 10, 1.93], [378, 2, 7, 2.13], [12347, 1, 7, 1.14], [60, 3, 8, 3.51], [201, 3, 7, 1.1], [6952, 1, 7, 2.64], [1414, 15, 7, 0.94], [11770, 1, 7, 0.89], [13928, 1, 7, 0.82], [3, 2, 7, 0.72], [3429, 15, 7, 0.79], [345, 3, 7, 0.97], [3430, 15, 7, 1.14], [20927, 1, 7, 1.0], [11952, 1, 7, 0.81], [11811, 1, 7, 1.72], [11954, 1, 7, 0.9], [11504, 2, 7, 0.67], [11953, 1, 7, 0.77], [432, 3, 7, 1.9], [10407, 10, 10, 3.08], [5584, 3, 7, 2.12], [11089, 1, 7, 0.84], [7004, 1, 7, 0.9], [6098, 80, 7, 1.98], [1492, 1, 7, 1.98], [8274, 3, 7, 1.32], [2703, 3, 7, 1.62], [10410, 10, 10, 3.12], [7886, 4, 7, 0.8], [944, 15, 7, 2.75], [22317, 3, 13, 0.86], [6097, 80, 7, 3.38], [11161, 1, 10, 0.99], [12348, 1, 7, 1.14], [11674, 1, 7, 0.66], [3891, 1, 7, 0.84], [9342, 2, 7, 0.9], [94, 4, 7, 2.25], [1414, 16, 7, 0.94], [20196, 2, 7, 3.88], [11485, 24, 7, 2.31], [10409, 10, 15, 3.28], [3893, 1, 7, 0.99], [7706, 2, 7, 0.94], [10408, 10, 10, 2.85], [1274, 1, 7, 0.94], [6497, 1, 7, 1.84], [20256, 2, 7, 0.93], [10406, 10, 12, 3.4], [9082, 3, 24, 2.67], [9690, 1, 7, 0.77], [7708, 2, 7, 0.94], [11677, 1, 7, 1.16], [823, 1, 7, 0.87], [12526, 2, 183, 4.37], [11844, 2, 183, 2.89], [12351, 1, 420, 2.75], [2423, 80, 122, 3.91], [12345, 1, 420, 2.75], [2424, 80, 112, 2.61], [11490, 1, 73, 2.4], [13034, 3, 392, 3.76], [12373, 1, 355, 3.95], [2423, 29, 24, 4.02], [13023, 3, 396, 3.53], [378, 2, 151, 3.74], [12347, 1, 420, 2.75], [60, 3, 531, 5.12], [201, 3, 201, 2.71], [6952, 1, 127, 4.25], [1414, 15, 66, 2.54], [11770, 1, 144, 2.5], [13928, 1, 32, 2.43], [3, 2, 81, 2.33], [3429, 15, 36, 2.4], [345, 3, 201, 2.58], [3430, 15, 47, 2.75], [20927, 1, 53, 2.6], [11952, 1, 134, 2.42], [11811, 1, 300, 3.32], [11954, 1, 134, 2.5], [11504, 2, 95, 2.28], [11953, 1, 134, 2.38], [432, 3, 201, 3.51], [10407, 10, 781, 4.68], [5584, 3, 158, 3.72], [11089, 1, 115, 2.45], [7004, 1, 53, 2.5], [6098, 80, 50, 3.58], [1492, 1, 25, 3.58], [2703, 3, 215, 3.23], [10410, 10, 781, 4.72], [7886, 4, 48, 1.88], [944, 15, 29, 4.36], [22317, 3, 210, 2.46], [6097, 80, 46, 4.99], [11161, 1, 339, 2.59], [12348, 1, 420, 2.75], [11674, 1, 136, 2.26], [3891, 1, 83, 2.45], [9342, 2, 309, 2.51], [94, 4, 80, 3.86], [1414, 16, 33, 2.54], [20196, 2, 190, 5.49], [11485, 24, 143, 3.91], [10409, 10, 1165, 4.9], [3893, 1, 83, 2.6], [7706, 2, 120, 2.55], [10408, 10, 510, 4.44], [1274, 1, 54, 2.55], [6497, 1, 25, 3.44], [20256, 2, 63, 2.53], [10406, 10, 1165, 5.01], [9082, 3, 1627, 4.25], [9690, 1, 50, 2.38], [7708, 2, 120, 2.55], [11677, 1, 301, 2.76], [823, 1, 27, 2.47]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 17, 3.32], [2049, 3, 13, 0.68], [75, 2, 7, 0.71], [1776, 1, 7, 0.97], [2778, 2, 7, 0.79], [6936, 2, 10, 3.25], [8672, 2, 10, 0.9], [305, 2, 7, 0.91], [206, 2, 7, 0.72], [8648, 2, 7, 2.14], [151, 1, 7, 0.87], [2328, 2, 7, 0.65], [1777, 1, 7, 2.4], [88, 10, 14, 1.03], [8650, 2, 7, 2.17], [990, 2, 7, 1.39], [412, 1, 7, 1.14], [11681, 2, 10, 4.17], [5151, 2, 7, 2.85], [76, 2, 7, 1.03], [361, 2, 7, 0.96], [10149, 3, 25, 3.53], [2991, 3, 7, 3.64], [22247, 2, 9, 1.27], [345, 3, 8, 0.74], [146, 2, 7, 0.91], [143, 2, 7, 0.84], [7004, 1, 7, 0.66], [2054, 3, 7, 0.93], [45, 2, 7, 2.94], [1446, 2, 7, 1.91], [167, 3, 7, 0.89], [74, 1, 7, 2.47], [21793, 1, 7, 0.83], [346, 1, 7, 0.78], [2055, 3, 7, 0.9], [168, 3, 7, 1.51], [11234, 2, 7, 0.77], [7036, 1, 7, 2.57], [201, 3, 8, 0.67], [1429, 2, 7, 1.21], [335, 3, 18, 0.69], [7084, 3, 7, 0.67], [3495, 3, 21, 0.93], [8938, 2, 8, 0.71], [8649, 2, 7, 2.38], [13028, 3, 7, 0.87], [308, 1, 7, 2.72], [410, 1, 7, 0.88], [12721, 2, 10, 0.86], [3889, 1, 7, 1.53], [12870, 1, 7, 1.92], [11404, 2, 9, 1.62], [23, 1, 7, 1.24], [3893, 1, 7, 0.98], [1504, 2, 7, 0.89], [1492, 1, 7, 1.98], [1006, 2, 7, 1.01], [11737, 2, 7, 1.84], [5208, 3, 13, 1.06], [3891, 1, 7, 0.98], [94, 4, 7, 3.7], [8853, 2, 11, 3.48], [9827, 3, 7, 0.86], [1490, 1, 7, 0.96], [7005, 1, 7, 0.66], [411, 2, 7, 0.68], [13260, 29, 7, 0.73], [8651, 2, 7, 1.46], [432, 3, 7, 0.75], [25, 1, 7, 1.15], [20256, 2, 7, 0.92], [8939, 2, 7, 0.89], [5086, 1, 7, 2.14], [140, 2, 7, 1.48], [998, 2, 7, 1.34], [2878, 1, 7, 1.36], [9069, 1, 7, 0.85], [20927, 1, 7, 0.66], [126, 2, 7, 1.72], [2049, 1, 7, 0.69], [7567, 3, 7, 2.04], [33, 1, 7, 0.97], [346, 3, 8, 0.74], [9829, 3, 7, 0.76], [8274, 3, 7, 0.73], [5660, 2, 7, 1.66], [9691, 1, 7, 1.09], [1070, 7, 13, 0.65], [11914, 1, 7, 0.92], [11490, 1, 7, 0.7], [997, 2, 7, 0.97], [5584, 3, 7, 2.28], [8898, 3, 7, 3.78], [5209, 3, 7, 0.68], [8926, 1, 7, 1.57], [9372, 1, 7, 3.47], [24, 1, 7, 1.15], [2775, 2, 7, 0.79], [1091, 1, 7, 1.15], [9081, 3, 12, 3.54], [11808, 1, 7, 0.66], [12661, 1, 7, 0.86], [13034, 3, 8, 2.88], [11491, 2, 7, 0.85], [20255, 2, 7, 0.93], [12225, 1, 7, 0.91], [307, 2, 7, 1.18], [996, 2, 7, 0.82], [434, 2, 7, 0.65], [336, 15, 7, 0.65], [9082, 3, 23, 2.42], [1413, 15, 7, 1.06], [8945, 3, 8, 2.44], [6097, 29, 7, 3.24], [952, 4, 7, 3.96], [8104, 1, 7, 0.91], [22317, 3, 8, 0.85], [2322, 2, 7, 0.96], [11489, 1, 7, 0.71], [1124, 2, 9, 0.87], [23961, 3, 7, 3.66], [4203, 1, 7, 0.87], [10631, 2, 7, 2.28], [5946, 1, 7, 0.83], [6097, 80, 7, 3.24], [8635, 3, 7, 0.73], [6098, 80, 7, 2.19], [1126, 2, 7, 0.88], [424, 11, 15, 0.62], [972, 3, 8, 0.82], [9784, 1, 7, 0.84], [11739, 2, 7, 1.65], [13260, 29, 34, 1.5], [8651, 2, 105, 2.23], [432, 3, 141, 1.52], [25, 1, 52, 1.92], [20256, 2, 43, 1.69], [8939, 2, 89, 1.66], [5086, 1, 84, 2.91], [140, 2, 42, 2.25], [998, 2, 110, 2.11], [2878, 1, 37, 2.13], [9069, 1, 57, 1.62], [20927, 1, 37, 1.43], [126, 2, 42, 2.48], [2049, 1, 11, 1.46], [7567, 3, 32, 2.81], [33, 1, 52, 1.74], [346, 3, 292, 1.51], [9829, 3, 32, 1.52], [5660, 2, 81, 2.43], [9691, 1, 35, 1.86], [1070, 7, 274, 1.42], [11914, 1, 40, 1.69], [11490, 1, 51, 1.47], [997, 2, 110, 1.74], [5584, 3, 114, 3.05], [8898, 3, 135, 4.55], [5209, 3, 261, 1.45], [8926, 1, 29, 2.34], [9372, 1, 108, 4.23], [24, 1, 52, 1.92], [2775, 2, 73, 1.56], [1091, 1, 22, 1.92], [9081, 3, 214, 4.32], [11808, 1, 221, 1.43], [12661, 1, 37, 1.63], [13034, 3, 270, 3.64], [11491, 2, 66, 1.62], [20255, 2, 43, 1.7], [12225, 1, 77, 1.67], [307, 2, 68, 1.95], [996, 2, 110, 1.59], [434, 2, 50, 1.42], [336, 15, 53, 1.42], [9082, 3, 1126, 3.17], [1413, 15, 45, 1.83], [8945, 3, 274, 3.21], [6097, 29, 16, 4.01], [952, 4, 33, 4.72], [8104, 1, 95, 1.68], [22317, 3, 145, 1.61], [2322, 2, 50, 1.73], [11489, 1, 51, 1.48], [1124, 2, 86, 1.64], [23961, 3, 135, 4.43], [4203, 1, 22, 1.64], [10631, 2, 99, 3.04], [5946, 1, 58, 1.59], [6097, 80, 32, 4.01], [6098, 80, 35, 2.96], [1126, 2, 106, 1.64], [424, 11, 253, 1.38], [972, 3, 276, 1.59], [9784, 1, 33, 1.6], [11739, 2, 26, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 1.96], [8915, 2, 8, 0.98], [2327, 2, 7, 0.95], [589, 2, 8, 0.99], [2778, 2, 7, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.07], [130, 1, 7, 0.88], [305, 2, 7, 0.82], [615, 2, 7, 1.04], [616, 2, 7, 0.67], [326, 2, 7, 2.12], [6936, 2, 7, 3.42], [8650, 2, 7, 1.47], [8648, 2, 7, 1.93], [1446, 2, 7, 1.22], [7004, 1, 7, 0.96], [10, 2, 7, 0.67], [143, 2, 7, 1.05], [5491, 2, 7, 1.07], [7036, 1, 7, 2.3], [205, 2, 7, 0.8], [2775, 2, 7, 0.94], [144, 2, 7, 2.72], [3840, 1, 7, 1.45], [94, 4, 7, 2.79], [1124, 2, 7, 1.43], [434, 2, 7, 0.71], [3893, 1, 7, 0.98], [146, 2, 7, 1.05], [990, 2, 7, 0.71], [1504, 2, 7, 1.71], [12224, 1, 7, 0.65], [8853, 2, 7, 3.51], [1429, 2, 7, 0.91], [362, 2, 7, 0.91], [2776, 2, 7, 1.18], [3891, 1, 7, 0.98], [75, 2, 7, 0.71], [141, 2, 7, 0.71], [11404, 2, 7, 1.17], [11681, 2, 11, 3.45], [2497, 2, 7, 0.82], [5208, 3, 7, 0.88], [378, 2, 7, 2.13], [10574, 3, 9, 2.57], [11234, 2, 7, 2.3], [12870, 1, 7, 1.33], [13028, 3, 7, 3.74], [7005, 1, 7, 0.8], [10149, 3, 21, 1.92], [21793, 1, 7, 0.92], [3980, 4, 7, 2.43], [145, 2, 7, 0.95], [11811, 1, 7, 0.8], [5165, 1, 7, 2.99], [20927, 1, 7, 0.83], [998, 2, 7, 2.83], [8672, 2, 7, 2.94], [417, 2, 7, 0.78], [9760, 29, 7, 0.68], [1886, 2, 7, 0.82], [2436, 4, 7, 1.0], [346, 3, 7, 0.71], [1006, 2, 7, 0.99], [3, 2, 7, 0.84], [972, 3, 8, 0.86], [2424, 80, 7, 1.01], [3495, 3, 16, 0.99], [6158, 2, 7, 0.88], [9372, 1, 7, 3.6], [5076, 1, 7, 0.79], [11770, 1, 7, 0.84], [5165, 2, 8, 2.84], [126, 2, 7, 2.12], [74, 1, 7, 2.89], [140, 2, 7, 2.12], [8939, 2, 7, 0.92], [11769, 1, 7, 0.78], [3982, 3, 20, 0.98], [1492, 1, 7, 0.95], [996, 2, 7, 2.83], [2774, 2, 7, 1.43], [2912, 2, 12, 0.65], [20256, 2, 7, 0.96], [12721, 2, 7, 1.26], [9491, 21, 17, 0.8], [6497, 1, 7, 2.0], [3981, 3, 22, 1.17], [2423, 80, 7, 1.38], [5434, 1, 7, 0.91], [12229, 2, 7, 0.87], [11685, 2, 11, 3.45], [5584, 3, 7, 2.31], [11767, 1, 7, 0.9], [10407, 10, 10, 3.08], [10388, 2, 7, 3.35], [8677, 3, 7, 0.77], [346, 1, 7, 0.69], [11179, 1, 7, 1.3], [823, 1, 7, 1.73], [2438, 2, 8, 0.84], [2424, 29, 7, 1.06], [5209, 3, 7, 0.88], [2104, 3, 15, 0.62], [8898, 3, 7, 2.85], [2805, 137, 7, 1.1], [12526, 2, 7, 2.99], [3900, 3, 7, 2.31], [11812, 1, 7, 0.87], [4253, 1, 7, 0.99], [11490, 1, 7, 0.79], [3975, 4, 7, 2.36], [96, 11, 21, 0.64], [8676, 2, 7, 1.01], [412, 1, 7, 1.85], [1622, 1, 7, 0.83], [22247, 2, 7, 1.6], [972, 1, 7, 0.95], [1274, 1, 7, 0.87], [13893, 2, 7, 0.82], [12764, 2, 8, 0.63], [9784, 1, 7, 0.86], [11813, 1, 7, 1.08], [10386, 2, 7, 1.95], [11814, 1, 7, 0.73], [8283, 2, 8, 0.97], [8635, 3, 7, 0.83], [6097, 80, 7, 2.68], [10410, 10, 15, 3.12], [1243, 2, 7, 0.93], [6489, 11, 22, 2.16], [7567, 3, 7, 2.14], [2424, 80, 109, 2.49], [3495, 3, 627, 2.48], [6158, 2, 169, 2.36], [9372, 1, 151, 5.08], [5076, 1, 85, 2.27], [11770, 1, 143, 2.32], [5165, 2, 239, 4.32], [126, 2, 58, 3.6], [74, 1, 132, 4.37], [140, 2, 58, 3.6], [8939, 2, 124, 2.4], [11769, 1, 105, 2.26], [3982, 3, 516, 2.45], [1492, 1, 24, 2.43], [996, 2, 153, 4.31], [2774, 2, 132, 2.91], [2912, 2, 189, 1.97], [20256, 2, 61, 2.44], [12721, 2, 185, 2.73], [9491, 21, 1378, 2.25], [6497, 1, 24, 3.47], [3981, 3, 1053, 2.67], [2423, 80, 120, 2.86], [5434, 1, 31, 2.39], [12229, 2, 98, 2.34], [11685, 2, 174, 4.93], [5584, 3, 160, 3.78], [11767, 1, 105, 2.38], [10407, 10, 758, 4.56], [10388, 2, 141, 4.83], [8677, 3, 203, 2.25], [346, 1, 102, 2.16], [11179, 1, 56, 2.78], [823, 1, 26, 3.2], [2438, 2, 410, 2.31], [2424, 29, 22, 2.54], [5209, 3, 364, 2.37], [2104, 3, 115, 1.6], [8898, 3, 191, 4.33], [2805, 137, 119, 2.58], [12526, 2, 177, 4.47], [3900, 3, 28, 3.79], [11812, 1, 154, 2.35], [4253, 1, 110, 2.47], [11490, 1, 71, 2.27], [3975, 4, 311, 3.84], [96, 11, 553, 2.13], [8676, 2, 186, 2.49], [412, 1, 54, 3.33], [1622, 1, 69, 2.31], [22247, 2, 185, 3.07], [972, 1, 64, 2.43], [1274, 1, 53, 2.35], [13893, 2, 181, 2.3], [12764, 2, 477, 2.11], [9784, 1, 47, 2.34], [11813, 1, 204, 2.56], [10386, 2, 141, 3.43], [11814, 1, 144, 2.21], [8283, 2, 307, 2.45], [6097, 80, 45, 4.15], [10410, 10, 758, 4.6], [1243, 2, 64, 2.41], [6489, 11, 743, 3.65], [7567, 3, 45, 3.62]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 17, 3.35], [141, 2, 7, 1.02], [589, 2, 8, 0.91], [2778, 2, 7, 1.18], [6936, 2, 13, 3.74], [362, 2, 7, 0.84], [8648, 2, 7, 2.07], [2327, 2, 7, 1.29], [11681, 2, 22, 3.23], [8650, 2, 7, 1.54], [205, 2, 7, 1.04], [2328, 2, 7, 1.06], [130, 1, 7, 0.87], [305, 2, 7, 1.63], [1446, 2, 7, 1.43], [2049, 3, 9, 0.76], [8649, 2, 7, 2.02], [2775, 2, 7, 1.18], [9760, 29, 7, 0.81], [8853, 2, 11, 3.24], [361, 2, 7, 0.92], [2776, 2, 7, 1.18], [593, 2, 7, 0.88], [143, 2, 7, 1.39], [1429, 2, 7, 1.74], [523, 2, 7, 1.0], [206, 2, 7, 0.82], [5493, 2, 7, 0.87], [9507, 3, 7, 0.66], [7036, 1, 7, 1.98], [413, 1, 7, 1.24], [5491, 2, 7, 0.85], [159, 3, 8, 0.72], [12350, 1, 7, 0.71], [990, 2, 7, 0.82], [12353, 1, 7, 0.75], [5165, 1, 7, 3.14], [417, 2, 7, 0.79], [20258, 2, 7, 0.88], [248, 1, 7, 0.69], [142, 2, 7, 0.88], [434, 2, 7, 0.9], [6952, 1, 7, 2.38], [201, 3, 7, 0.87], [9372, 1, 7, 2.95], [6097, 80, 7, 3.9], [12352, 1, 7, 1.22], [345, 3, 7, 0.87], [3891, 1, 7, 1.49], [616, 2, 7, 0.87], [3670, 2, 7, 4.59], [5165, 2, 12, 3.14], [3893, 1, 7, 1.49], [12346, 1, 7, 0.71], [7084, 3, 7, 1.83], [10574, 3, 8, 1.55], [2424, 80, 7, 1.29], [1886, 2, 7, 0.88], [346, 3, 7, 0.71], [11504, 2, 7, 0.79], [8938, 2, 7, 0.99], [3334, 5, 7, 3.13], [6097, 29, 7, 3.9], [11089, 1, 7, 2.34], [6098, 80, 7, 1.77], [3889, 1, 7, 1.68], [12344, 1, 7, 1.22], [20256, 2, 7, 0.87], [10149, 3, 21, 1.92], [6158, 2, 7, 0.79], [432, 3, 7, 1.15], [2912, 2, 8, 0.61], [1492, 1, 7, 1.98], [11772, 1, 7, 1.86], [2423, 80, 7, 2.5], [4032, 29, 7, 0.87], [20252, 2, 7, 0.85], [5151, 2, 7, 0.92], [1490, 1, 7, 0.67], [411, 2, 7, 0.92], [972, 3, 7, 0.86], [3576, 25, 7, 1.99], [12304, 1, 7, 0.92], [229, 1, 7, 2.1], [995, 2, 7, 0.95], [346, 1, 7, 0.7], [13034, 3, 7, 3.52], [2331, 1, 7, 1.92], [416, 1, 7, 0.91], [2424, 29, 7, 1.29], [8120, 3, 7, 2.14], [11737, 2, 7, 0.75], [11426, 25, 7, 1.43], [5076, 1, 7, 0.83], [439, 1, 7, 1.45], [2805, 137, 7, 3.13], [10, 2, 7, 2.35], [2160, 68, 7, 0.67], [414, 1, 7, 1.2], [1413, 15, 7, 0.91], [11490, 1, 7, 1.03], [6494, 1, 7, 1.1], [75, 2, 7, 0.94], [3575, 25, 7, 2.12], [11586, 1, 14, 1.92], [13280, 1, 7, 1.46], [3478, 2, 7, 0.91], [1701, 2, 7, 2.9], [3577, 25, 7, 0.91], [9784, 1, 7, 0.81], [1703, 2, 7, 1.39], [14037, 3, 7, 0.65], [11813, 1, 7, 1.15], [4253, 1, 7, 0.91], [8677, 3, 8, 0.77], [13023, 3, 8, 1.18], [13893, 2, 7, 2.31], [11180, 1, 7, 0.98], [12526, 2, 7, 3.55], [9998, 80, 7, 3.21], [1309, 1, 7, 2.53], [2438, 2, 8, 0.97], [6098, 29, 7, 1.7], [8283, 2, 8, 0.77], [159, 1, 7, 0.81], [11404, 2, 7, 0.84], [4033, 29, 7, 0.81], [22317, 3, 8, 0.62], [159, 16, 7, 0.76], [2423, 29, 7, 2.55], [9069, 1, 7, 0.65], [4232, 80, 7, 0.78], [307, 2, 7, 2.45], [20256, 2, 49, 2.05], [10149, 3, 461, 3.11], [6158, 2, 136, 1.97], [432, 3, 157, 2.32], [2912, 2, 201, 1.79], [1492, 1, 19, 3.16], [11772, 1, 111, 3.04], [2423, 80, 95, 3.68], [4032, 29, 50, 2.05], [20252, 2, 48, 2.03], [5151, 2, 12, 2.1], [1490, 1, 26, 1.86], [411, 2, 56, 2.11], [972, 3, 310, 2.05], [3576, 25, 52, 3.17], [12304, 1, 57, 2.1], [229, 1, 42, 3.28], [995, 2, 125, 2.12], [346, 1, 82, 1.89], [13034, 3, 303, 4.7], [2331, 1, 60, 3.1], [416, 1, 44, 2.09], [2424, 29, 17, 2.47], [8120, 3, 122, 3.31], [11737, 2, 30, 1.93], [11426, 25, 61, 2.61], [5076, 1, 67, 2.02], [439, 1, 45, 2.63], [2805, 137, 93, 4.31], [10, 2, 55, 3.53], [2160, 68, 69, 1.85], [414, 1, 44, 2.38], [1413, 15, 51, 2.09], [11490, 1, 56, 2.21], [6494, 1, 26, 2.28], [75, 2, 76, 2.12], [3575, 25, 52, 3.3], [11586, 1, 195, 3.11], [13280, 1, 167, 2.65], [3478, 2, 39, 2.09], [1701, 2, 84, 4.08], [3577, 25, 45, 2.09], [9784, 1, 37, 1.99], [1703, 2, 84, 2.57], [14037, 3, 119, 1.54], [11813, 1, 160, 2.32], [4253, 1, 87, 2.09], [8677, 3, 153, 1.95], [13023, 3, 308, 2.37], [13893, 2, 142, 3.49], [11180, 1, 45, 2.17], [12526, 2, 141, 4.73], [9998, 80, 60, 4.39], [1309, 1, 28, 3.71], [2438, 2, 326, 2.16], [6098, 29, 19, 2.88], [8283, 2, 246, 1.94], [159, 1, 20, 1.99], [11404, 2, 54, 2.02], [4033, 29, 53, 1.99], [22317, 3, 164, 1.8], [159, 16, 41, 1.94], [2423, 29, 19, 3.73], [9069, 1, 43, 1.54], [4232, 80, 82, 1.97], [307, 2, 76, 3.64]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 4.2], [2778, 2, 7, 1.07], [305, 2, 7, 0.88], [130, 1, 7, 0.87], [616, 2, 7, 0.81], [6936, 2, 9, 4.22], [205, 2, 7, 0.98], [8648, 2, 7, 1.28], [1504, 2, 7, 1.04], [144, 2, 7, 2.7], [2049, 3, 14, 0.83], [88, 10, 15, 1.72], [7036, 1, 7, 2.12], [326, 2, 7, 1.86], [8650, 2, 7, 1.04], [593, 2, 9, 1.07], [589, 2, 8, 1.92], [2327, 2, 7, 0.86], [3893, 1, 7, 0.79], [11681, 2, 7, 3.3], [8853, 2, 7, 4.23], [141, 2, 7, 0.89], [2775, 2, 7, 1.07], [206, 2, 7, 0.85], [7004, 1, 7, 0.65], [11685, 2, 7, 3.69], [3891, 1, 7, 1.18], [2328, 2, 7, 0.91], [146, 2, 7, 1.15], [2050, 3, 7, 0.64], [5491, 2, 7, 0.86], [143, 2, 7, 1.07], [3980, 4, 7, 2.36], [2054, 3, 7, 0.64], [8649, 2, 7, 0.87], [12870, 1, 7, 0.89], [990, 2, 7, 1.06], [8672, 2, 7, 2.94], [362, 2, 7, 1.56], [2776, 2, 7, 2.15], [2057, 3, 7, 0.64], [12353, 1, 7, 2.77], [10574, 3, 8, 2.36], [5165, 1, 7, 3.03], [7886, 4, 7, 0.82], [145, 2, 7, 1.03], [1446, 2, 7, 0.91], [94, 4, 7, 3.54], [75, 2, 7, 1.82], [2991, 3, 7, 4.28], [523, 2, 7, 0.93], [7084, 3, 7, 1.08], [9760, 29, 7, 0.8], [3975, 4, 7, 2.49], [21793, 1, 7, 3.55], [20927, 1, 7, 0.73], [11404, 2, 7, 1.17], [6158, 2, 7, 0.83], [5165, 2, 8, 3.14], [2912, 1, 7, 0.8], [1007, 2, 7, 0.94], [2774, 2, 7, 0.83], [8939, 2, 7, 0.89], [3981, 3, 22, 2.03], [229, 1, 7, 0.78], [3982, 3, 17, 2.34], [997, 2, 7, 3.5], [11772, 1, 7, 2.47], [22316, 3, 7, 0.92], [33, 1, 7, 1.03], [12344, 1, 7, 2.77], [6497, 1, 7, 2.42], [286, 3, 7, 1.94], [1492, 1, 7, 2.27], [12345, 1, 7, 2.22], [7887, 4, 7, 0.82], [998, 2, 7, 3.6], [8120, 3, 7, 1.2], [336, 15, 7, 0.65], [950, 1, 7, 0.72], [972, 3, 7, 1.04], [11767, 1, 7, 0.81], [11770, 1, 7, 1.8], [11490, 1, 7, 1.0], [11769, 1, 7, 1.46], [1413, 15, 7, 1.04], [74, 1, 7, 1.87], [12721, 2, 7, 1.4], [410, 1, 7, 0.99], [12212, 29, 7, 0.9], [389, 4, 7, 1.63], [7567, 3, 7, 2.12], [411, 2, 7, 1.02], [11179, 1, 7, 0.77], [35, 1, 7, 1.04], [140, 2, 7, 1.18], [1126, 2, 7, 0.89], [22317, 3, 7, 0.92], [8673, 2, 7, 2.94], [9372, 1, 7, 3.68], [10388, 2, 7, 2.27], [1274, 1, 7, 1.35], [10936, 2, 7, 1.97], [8121, 3, 7, 0.85], [4176, 4, 7, 2.57], [21269, 3, 7, 4.39], [12225, 1, 7, 1.52], [2436, 4, 7, 0.79], [12271, 2, 7, 1.22], [11085, 2, 8, 2.67], [22247, 2, 7, 1.61], [8676, 2, 7, 0.92], [6494, 1, 7, 1.84], [12526, 2, 7, 1.38], [9784, 1, 7, 0.86], [13023, 3, 7, 2.32], [8677, 3, 7, 1.01], [76, 2, 7, 1.05], [3, 2, 7, 0.81], [3577, 25, 7, 0.88], [9, 1, 7, 0.81], [345, 3, 7, 1.49], [10408, 10, 9, 2.69], [11489, 1, 7, 0.98], [7573, 1, 11, 1.96], [361, 2, 7, 0.96], [11812, 1, 7, 0.82], [96, 11, 22, 1.1], [20498, 3, 8, 1.63], [1414, 15, 7, 2.06], [1490, 1, 7, 1.13], [10386, 2, 7, 1.86], [307, 2, 7, 1.08], [11772, 1, 111, 3.68], [22316, 3, 163, 2.13], [33, 1, 58, 2.24], [12344, 1, 321, 3.98], [6497, 1, 19, 3.63], [286, 3, 73, 3.15], [1492, 1, 19, 3.47], [12345, 1, 321, 3.43], [7887, 4, 72, 2.03], [998, 2, 118, 4.82], [8120, 3, 123, 2.4], [336, 15, 59, 1.86], [950, 1, 21, 1.63], [972, 3, 309, 2.24], [11767, 1, 84, 2.02], [11770, 1, 111, 3.01], [11490, 1, 56, 2.21], [11769, 1, 84, 2.67], [1413, 15, 51, 2.25], [74, 1, 105, 3.08], [12721, 2, 148, 2.61], [410, 1, 54, 2.2], [12212, 29, 62, 2.11], [389, 4, 107, 2.84], [7567, 3, 36, 3.33], [411, 2, 56, 2.23], [11179, 1, 46, 1.98], [35, 1, 58, 2.25], [140, 2, 47, 2.39], [1126, 2, 118, 2.1], [22317, 3, 163, 2.13], [8673, 2, 149, 4.15], [9372, 1, 121, 4.89], [10388, 2, 111, 3.47], [1274, 1, 42, 2.56], [10936, 2, 70, 3.18], [8121, 3, 152, 2.06], [4176, 4, 248, 3.79], [21269, 3, 152, 5.6], [12225, 1, 85, 2.73], [2436, 4, 60, 2.0], [12271, 2, 33, 2.42], [11085, 2, 275, 3.87], [22247, 2, 148, 2.82], [8676, 2, 149, 2.13], [6494, 1, 26, 3.05], [12526, 2, 142, 2.59], [9784, 1, 38, 2.07], [13023, 3, 303, 3.52], [8677, 3, 153, 2.22], [76, 2, 57, 2.26], [3, 2, 63, 2.02], [3577, 25, 46, 2.09], [9, 1, 18, 2.02], [345, 3, 153, 2.69], [10408, 10, 396, 3.9], [11489, 1, 56, 2.19], [7573, 1, 191, 3.17], [361, 2, 80, 2.16], [11812, 1, 123, 2.03], [96, 11, 439, 2.32], [20498, 3, 302, 2.85], [1414, 15, 51, 3.26], [1490, 1, 26, 2.34], [10386, 2, 111, 3.06], [307, 2, 77, 2.28]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 0.98], [6935, 2, 19, 3.94], [130, 1, 7, 0.88], [2328, 2, 7, 1.43], [141, 2, 7, 0.74], [8650, 2, 9, 2.77], [2327, 2, 7, 1.16], [8672, 2, 10, 1.22], [6936, 2, 9, 3.32], [143, 2, 7, 3.82], [362, 2, 7, 0.86], [145, 2, 7, 0.74], [146, 2, 7, 1.03], [589, 2, 7, 0.8], [417, 2, 7, 0.95], [1124, 2, 10, 0.87], [523, 2, 7, 1.26], [8648, 2, 7, 1.91], [2049, 3, 14, 1.18], [1504, 2, 11, 1.26], [8853, 2, 7, 2.71], [1005, 2, 7, 0.72], [206, 2, 7, 0.71], [12721, 2, 11, 1.09], [326, 2, 7, 1.71], [8915, 2, 7, 0.76], [144, 2, 7, 0.8], [8673, 2, 7, 2.94], [990, 2, 7, 0.88], [9507, 3, 7, 0.66], [2776, 2, 7, 1.67], [88, 10, 14, 1.5], [435, 2, 7, 0.9], [142, 2, 7, 1.05], [8676, 2, 7, 0.87], [76, 2, 7, 0.95], [308, 1, 13, 1.27], [6158, 2, 8, 0.72], [11738, 2, 7, 1.92], [2424, 29, 7, 1.06], [2423, 29, 7, 2.41], [1007, 2, 8, 0.64], [8649, 2, 7, 1.27], [2497, 2, 7, 1.0], [7704, 2, 7, 1.07], [2424, 80, 7, 1.01], [3670, 2, 9, 3.44], [1413, 15, 7, 2.34], [10574, 3, 9, 2.49], [2423, 80, 7, 2.3], [3, 2, 7, 0.79], [12720, 2, 7, 0.88], [2859, 15, 7, 1.38], [7705, 2, 7, 1.07], [944, 15, 7, 3.79], [412, 1, 7, 1.07], [7706, 2, 7, 1.07], [11836, 2, 7, 0.79], [2055, 3, 7, 0.84], [74, 1, 7, 2.89], [10149, 3, 21, 1.08], [3478, 2, 7, 1.97], [307, 2, 7, 2.95], [6497, 1, 7, 1.84], [2774, 2, 7, 1.0], [1414, 15, 7, 2.13], [60, 3, 8, 1.99], [346, 3, 8, 0.74], [12526, 2, 7, 2.76], [11089, 1, 7, 0.72], [418, 2, 7, 0.86], [13928, 1, 7, 0.74], [1429, 2, 7, 0.91], [7004, 1, 7, 0.96], [413, 1, 7, 0.99], [1409, 15, 7, 1.29], [346, 1, 7, 0.78], [7036, 1, 7, 2.3], [14037, 3, 7, 0.85], [8274, 3, 7, 0.7], [11844, 2, 7, 1.29], [3893, 1, 7, 0.8], [6097, 80, 7, 3.38], [6494, 1, 7, 1.71], [439, 1, 7, 2.71], [18964, 1, 7, 2.18], [7084, 3, 7, 0.67], [9784, 1, 7, 0.96], [6952, 1, 7, 2.64], [7707, 2, 7, 1.1], [94, 4, 7, 2.0], [1490, 1, 7, 0.8], [22317, 3, 13, 0.86], [13260, 29, 7, 1.22], [11490, 1, 7, 0.8], [565, 2, 7, 0.75], [1492, 1, 7, 1.98], [3495, 3, 17, 1.06], [7708, 2, 7, 1.07], [1243, 2, 7, 0.82], [3889, 1, 7, 0.67], [1413, 16, 7, 2.34], [11491, 2, 7, 0.96], [414, 1, 7, 1.21], [7703, 2, 7, 1.07], [21793, 1, 7, 0.83], [2805, 137, 11, 1.46], [6098, 80, 7, 1.92], [2331, 1, 7, 2.59], [2422, 80, 7, 3.36], [11504, 2, 7, 0.77], [3674, 2, 7, 2.83], [6630, 3, 7, 3.59], [247, 1, 7, 0.78], [147, 1, 7, 2.35], [416, 1, 7, 1.2], [13023, 3, 10, 1.29], [3430, 15, 7, 1.39], [23275, 2, 7, 1.81], [20555, 2, 7, 1.6], [6098, 29, 7, 1.95], [2422, 29, 7, 3.3], [11581, 29, 7, 2.72], [8635, 3, 7, 0.73], [1274, 1, 7, 0.87], [11235, 2, 7, 1.69], [1414, 16, 7, 2.12], [9372, 1, 7, 3.37], [5939, 3, 7, 1.65], [942, 3, 7, 2.26], [13263, 29, 7, 0.7], [114, 3, 7, 0.9], [6097, 29, 7, 3.38], [12526, 2, 183, 4.37], [11089, 1, 115, 2.33], [418, 2, 95, 2.46], [13928, 1, 32, 2.35], [1429, 2, 101, 2.51], [7004, 1, 53, 2.57], [413, 1, 58, 2.6], [1409, 15, 38, 2.9], [346, 1, 106, 2.39], [7036, 1, 86, 3.91], [14037, 3, 115, 1.92], [11844, 2, 183, 2.89], [3893, 1, 83, 2.4], [6097, 80, 46, 4.99], [6494, 1, 34, 3.31], [439, 1, 57, 4.31], [18964, 1, 45, 3.79], [9784, 1, 48, 2.56], [6952, 1, 127, 4.25], [7707, 2, 119, 2.71], [94, 4, 80, 3.61], [1490, 1, 34, 2.4], [22317, 3, 210, 2.46], [13260, 29, 48, 2.83], [11490, 1, 73, 2.4], [565, 2, 117, 2.36], [1492, 1, 25, 3.58], [3495, 3, 645, 2.68], [7708, 2, 119, 2.68], [1243, 2, 66, 2.43], [3889, 1, 83, 2.28], [1413, 16, 33, 3.94], [11491, 2, 95, 2.56], [414, 1, 58, 2.81], [7703, 2, 119, 2.68], [21793, 1, 163, 2.44], [2805, 137, 122, 3.07], [6098, 80, 50, 3.53], [2331, 1, 79, 4.19], [2422, 80, 122, 4.96], [11504, 2, 95, 2.37], [3674, 2, 170, 4.44], [6630, 3, 62, 5.2], [247, 1, 60, 2.38], [147, 1, 59, 3.95], [416, 1, 58, 2.8], [13023, 3, 398, 2.9], [3430, 15, 46, 2.99], [23275, 2, 47, 3.42], [20555, 2, 38, 3.21], [6098, 29, 25, 3.56], [2422, 29, 24, 4.91], [11581, 29, 40, 4.33], [1274, 1, 54, 2.47], [11235, 2, 144, 3.3], [1414, 16, 33, 3.73], [9372, 1, 155, 4.97], [5939, 3, 175, 3.26], [942, 3, 196, 3.86], [13263, 29, 48, 2.31], [114, 3, 163, 2.51], [6097, 29, 23, 4.99]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.94], [305, 2, 7, 1.95], [326, 2, 9, 1.83], [3, 2, 7, 2.68], [205, 2, 7, 0.86], [589, 2, 10, 1.0], [6935, 2, 18, 3.23], [2049, 3, 15, 0.95], [130, 1, 7, 0.81], [143, 2, 7, 3.11], [75, 2, 7, 0.9], [144, 2, 7, 3.72], [12721, 2, 10, 0.98], [8915, 2, 10, 0.87], [145, 2, 7, 3.31], [2778, 2, 7, 0.96], [146, 2, 7, 3.31], [1776, 1, 7, 0.82], [6936, 2, 10, 2.73], [2328, 2, 7, 1.35], [151, 1, 7, 0.65], [8648, 2, 7, 1.64], [1777, 1, 7, 2.13], [8650, 2, 7, 1.84], [5151, 2, 7, 2.93], [990, 2, 7, 0.74], [88, 10, 17, 2.43], [7886, 4, 7, 0.72], [74, 1, 7, 1.47], [83, 2, 7, 0.73], [362, 2, 7, 0.79], [1446, 2, 7, 2.01], [1007, 2, 10, 0.81], [2991, 3, 7, 3.64], [1492, 1, 7, 1.86], [76, 2, 7, 1.37], [8649, 2, 7, 1.93], [8938, 2, 7, 0.82], [11234, 2, 9, 1.26], [8675, 2, 10, 1.21], [10, 2, 7, 1.67], [307, 2, 7, 2.29], [12870, 1, 7, 1.2], [1429, 2, 7, 1.46], [5081, 2, 7, 1.0], [345, 3, 7, 0.87], [7036, 1, 7, 1.6], [1504, 2, 7, 1.0], [10825, 21, 13, 0.97], [7084, 3, 7, 1.6], [11404, 2, 7, 1.32], [10149, 3, 21, 1.2], [1006, 2, 7, 1.03], [3891, 1, 7, 1.71], [94, 4, 7, 3.06], [167, 3, 7, 1.37], [411, 2, 7, 0.86], [3893, 1, 7, 0.65], [308, 1, 7, 2.72], [9827, 3, 7, 0.88], [23, 1, 7, 1.24], [13280, 1, 7, 2.17], [432, 3, 7, 1.15], [168, 3, 7, 1.46], [8677, 3, 9, 1.01], [11681, 2, 11, 3.45], [96, 11, 24, 0.64], [1490, 1, 7, 0.82], [11737, 2, 7, 1.26], [33, 1, 7, 1.53], [148, 1, 7, 3.1], [1124, 2, 9, 1.04], [8853, 2, 11, 3.05], [2336, 3, 9, 1.48], [412, 1, 7, 1.43], [10574, 3, 9, 2.6], [9760, 29, 7, 1.35], [20256, 2, 7, 0.89], [346, 1, 7, 0.7], [8939, 2, 7, 0.84], [20927, 1, 7, 0.8], [8651, 2, 7, 1.13], [229, 1, 7, 1.29], [201, 3, 7, 0.87], [45, 2, 7, 2.7], [22247, 2, 11, 1.71], [1767, 25, 7, 1.09], [413, 1, 7, 1.28], [11490, 1, 7, 0.66], [346, 3, 7, 0.71], [9069, 1, 7, 0.74], [3495, 3, 21, 1.62], [8676, 2, 10, 0.98], [140, 2, 7, 1.42], [21269, 3, 7, 1.84], [998, 2, 7, 0.87], [2049, 1, 7, 1.11], [149, 2, 7, 2.37], [9372, 1, 7, 3.03], [1126, 2, 7, 0.86], [5946, 1, 7, 0.82], [3980, 4, 7, 2.46], [1766, 25, 7, 1.02], [2775, 2, 7, 0.96], [3670, 2, 7, 2.71], [20255, 2, 7, 0.91], [11489, 1, 7, 1.21], [1070, 7, 15, 0.83], [1413, 15, 7, 2.35], [490, 1, 7, 0.73], [8898, 3, 7, 2.73], [1622, 1, 7, 0.86], [107, 2, 7, 0.96], [20498, 1, 7, 1.73], [1163, 3, 7, 0.65], [974, 3, 7, 1.14], [14037, 3, 7, 0.8], [9691, 1, 7, 0.88], [417, 2, 7, 1.11], [418, 2, 7, 1.24], [823, 1, 7, 1.54], [14017, 3, 7, 0.81], [9784, 1, 7, 1.01], [972, 3, 8, 0.59], [8274, 3, 7, 0.7], [20498, 3, 8, 1.51], [11739, 2, 7, 1.26], [8674, 2, 7, 0.99], [11454, 2, 10, 3.36], [34, 1, 7, 1.53], [9828, 3, 7, 0.85], [5584, 3, 7, 2.24], [1414, 15, 7, 2.16], [1490, 1, 32, 1.98], [11737, 2, 37, 2.42], [33, 1, 71, 2.69], [148, 1, 57, 4.27], [1124, 2, 119, 2.2], [8853, 2, 181, 4.21], [2336, 3, 368, 2.64], [412, 1, 53, 2.6], [10574, 3, 318, 3.76], [9760, 29, 46, 2.51], [20256, 2, 60, 2.05], [346, 1, 101, 1.86], [8939, 2, 123, 2.0], [20927, 1, 51, 1.96], [8651, 2, 145, 2.29], [229, 1, 53, 2.45], [201, 3, 195, 2.03], [45, 2, 70, 3.86], [22247, 2, 183, 2.88], [1767, 25, 110, 2.26], [413, 1, 55, 2.44], [11490, 1, 70, 1.82], [346, 3, 404, 1.88], [9069, 1, 79, 1.91], [3495, 3, 617, 2.78], [8676, 2, 183, 2.15], [140, 2, 58, 2.59], [21269, 3, 187, 3.0], [998, 2, 155, 2.04], [2049, 1, 15, 2.27], [149, 2, 57, 3.53], [9372, 1, 149, 4.19], [1126, 2, 146, 2.02], [5946, 1, 80, 1.98], [3980, 4, 306, 3.62], [1766, 25, 119, 2.19], [2775, 2, 100, 2.13], [3670, 2, 156, 3.87], [20255, 2, 60, 2.07], [11489, 1, 70, 2.37], [1070, 7, 377, 2.0], [1413, 15, 62, 3.51], [490, 1, 38, 1.89], [8898, 3, 187, 3.89], [1622, 1, 69, 2.03], [107, 2, 31, 2.12], [20498, 1, 62, 2.9], [1163, 3, 220, 1.81], [974, 3, 95, 2.3], [14037, 3, 147, 1.68], [9691, 1, 48, 2.04], [417, 2, 99, 2.28], [418, 2, 91, 2.41], [823, 1, 26, 2.7], [14017, 3, 126, 1.97], [9784, 1, 46, 2.17], [972, 3, 381, 1.76], [20498, 3, 375, 2.67], [11739, 2, 37, 2.42], [8674, 2, 183, 2.16], [11454, 2, 210, 4.52], [34, 1, 71, 2.69], [9828, 3, 56, 2.01], [5584, 3, 158, 3.41], [1414, 15, 62, 3.33]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 0.97], [305, 2, 7, 1.04], [6935, 2, 17, 3.58], [2049, 3, 13, 0.68], [205, 2, 7, 0.72], [144, 2, 7, 0.67], [589, 2, 10, 1.0], [151, 1, 7, 0.89], [362, 2, 7, 0.83], [12721, 2, 10, 0.98], [146, 2, 7, 0.76], [2328, 2, 7, 1.35], [143, 2, 7, 1.06], [206, 2, 7, 0.72], [8648, 2, 7, 1.97], [8915, 2, 9, 0.78], [6936, 2, 10, 3.25], [8675, 2, 10, 0.85], [990, 2, 7, 1.39], [8650, 2, 7, 2.16], [5151, 2, 7, 2.85], [248, 1, 7, 0.7], [2778, 2, 7, 0.79], [88, 10, 14, 2.0], [2050, 3, 7, 0.69], [76, 2, 7, 1.37], [8649, 2, 7, 2.24], [10, 2, 9, 2.15], [10149, 3, 25, 3.53], [22247, 2, 9, 1.85], [8677, 3, 8, 3.08], [412, 1, 7, 1.14], [361, 2, 7, 1.1], [11404, 2, 9, 1.51], [7004, 1, 7, 0.66], [413, 1, 7, 1.09], [8938, 2, 8, 0.75], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [307, 2, 7, 0.85], [7084, 3, 7, 0.67], [1429, 2, 7, 1.21], [3495, 3, 21, 1.62], [308, 1, 7, 2.72], [1006, 2, 7, 0.86], [140, 2, 7, 1.48], [74, 1, 7, 1.33], [1492, 1, 7, 1.98], [7005, 1, 7, 0.66], [167, 3, 7, 1.37], [7036, 1, 7, 1.12], [45, 2, 7, 2.95], [1124, 2, 9, 0.8], [9827, 3, 7, 0.88], [10574, 3, 9, 0.71], [12870, 1, 7, 1.0], [1504, 2, 7, 0.83], [13280, 1, 7, 2.7], [168, 3, 7, 1.46], [94, 4, 7, 3.47], [8676, 2, 7, 0.95], [415, 1, 7, 1.04], [8651, 2, 7, 1.44], [8853, 2, 11, 3.62], [6097, 29, 7, 3.38], [8939, 2, 7, 0.84], [6097, 80, 7, 3.38], [416, 1, 7, 1.3], [23, 1, 7, 1.24], [11737, 2, 7, 1.84], [20256, 2, 7, 0.92], [1490, 1, 7, 0.77], [490, 1, 7, 1.01], [95, 3, 21, 0.92], [20927, 1, 7, 0.66], [14017, 3, 7, 0.95], [6098, 29, 7, 1.94], [6098, 80, 7, 1.94], [1070, 7, 13, 0.73], [8898, 3, 7, 2.67], [1126, 2, 7, 0.72], [9069, 1, 7, 0.9], [11490, 1, 7, 0.7], [11116, 1, 7, 0.67], [25, 1, 7, 1.15], [126, 2, 7, 1.72], [22554, 10, 15, 0.84], [13034, 3, 8, 2.88], [9760, 29, 7, 0.82], [9829, 3, 7, 0.76], [11489, 1, 7, 0.71], [20255, 2, 7, 0.93], [5086, 1, 7, 2.22], [8945, 3, 8, 2.44], [336, 15, 7, 0.65], [8274, 3, 7, 0.7], [20498, 1, 7, 1.46], [9784, 1, 7, 1.01], [12924, 1, 7, 1.04], [11739, 2, 7, 1.65], [1413, 15, 7, 1.52], [5209, 3, 7, 0.68], [7567, 3, 7, 2.14], [22317, 3, 8, 0.85], [5811, 3, 7, 2.32], [8557, 3, 7, 1.01], [9082, 3, 23, 2.42], [5813, 3, 7, 1.98], [3049, 3, 7, 3.15], [8104, 1, 7, 0.71], [9372, 1, 7, 3.03], [14018, 3, 7, 0.95], [4076, 3, 7, 1.92], [470, 1, 7, 0.85], [20498, 3, 8, 1.51], [8943, 3, 7, 3.03], [524, 1, 7, 1.14], [9691, 1, 7, 0.91], [20486, 3, 8, 1.35], [2423, 80, 7, 3.24], [2775, 2, 7, 0.79], [11454, 2, 9, 3.15], [13023, 3, 8, 2.44], [952, 4, 7, 4.0], [2424, 80, 7, 1.01], [1414, 15, 7, 1.34], [20486, 1, 7, 1.43], [3900, 3, 7, 2.08], [5584, 3, 7, 2.24], [6497, 1, 7, 1.63], [1339, 3, 18, 1.54], [823, 1, 7, 1.54], [2424, 29, 7, 1.06], [416, 1, 40, 2.07], [23, 1, 52, 2.01], [11737, 2, 26, 2.61], [20256, 2, 43, 1.69], [1490, 1, 24, 1.53], [490, 1, 27, 1.78], [95, 3, 520, 1.69], [20927, 1, 37, 1.43], [14017, 3, 91, 1.72], [6098, 29, 17, 2.71], [6098, 80, 35, 2.7], [1070, 7, 274, 1.5], [8898, 3, 135, 3.44], [1126, 2, 106, 1.49], [9069, 1, 57, 1.67], [11490, 1, 51, 1.47], [11116, 1, 37, 1.44], [25, 1, 52, 1.92], [126, 2, 42, 2.48], [22554, 10, 174, 1.61], [13034, 3, 270, 3.64], [9760, 29, 33, 1.59], [9829, 3, 32, 1.52], [11489, 1, 51, 1.48], [20255, 2, 43, 1.7], [5086, 1, 84, 2.99], [8945, 3, 274, 3.21], [336, 15, 53, 1.42], [20498, 1, 45, 2.23], [9784, 1, 33, 1.78], [12924, 1, 25, 1.8], [11739, 2, 26, 2.42], [1413, 15, 45, 2.29], [5209, 3, 261, 1.45], [7567, 3, 32, 2.91], [22317, 3, 145, 1.61], [5811, 3, 270, 3.08], [8557, 3, 93, 1.78], [9082, 3, 1126, 3.17], [5813, 3, 270, 2.74], [3049, 3, 64, 3.92], [8104, 1, 95, 1.48], [9372, 1, 108, 3.79], [14018, 3, 91, 1.72], [4076, 3, 94, 2.69], [470, 1, 16, 1.62], [20498, 3, 272, 2.27], [8943, 3, 182, 3.8], [524, 1, 39, 1.91], [9691, 1, 35, 1.68], [20486, 3, 277, 2.11], [2423, 80, 85, 4.01], [2775, 2, 73, 1.56], [11454, 2, 152, 3.92], [13023, 3, 270, 3.2], [952, 4, 33, 4.77], [2424, 80, 78, 1.77], [1414, 15, 45, 2.1], [20486, 1, 46, 2.19], [3900, 3, 20, 2.85], [5584, 3, 114, 3.01], [6497, 1, 17, 2.4], [1339, 3, 831, 2.28], [823, 1, 19, 2.31], [2424, 29, 16, 1.83]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [326, 2, 7, 1.86], [130, 1, 7, 0.87], [8648, 2, 7, 1.28], [144, 2, 7, 2.7], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [589, 2, 8, 1.92], [143, 2, 7, 1.07], [205, 2, 7, 0.98], [2328, 2, 7, 0.91], [6936, 2, 9, 4.22], [11681, 2, 7, 3.3], [8650, 2, 7, 1.04], [5493, 2, 7, 0.72], [2778, 2, 7, 1.07], [305, 2, 7, 0.88], [141, 2, 7, 0.89], [206, 2, 7, 0.85], [146, 2, 7, 1.15], [2049, 3, 14, 0.83], [88, 10, 15, 1.72], [145, 2, 7, 1.03], [7004, 1, 7, 0.65], [7036, 1, 7, 2.12], [8853, 2, 7, 4.23], [8649, 2, 7, 0.87], [1446, 2, 7, 0.91], [5491, 2, 7, 0.86], [362, 2, 7, 1.56], [1006, 2, 7, 0.92], [11737, 2, 7, 1.08], [75, 2, 7, 1.82], [616, 2, 7, 0.81], [990, 2, 7, 1.06], [2050, 3, 7, 0.64], [12350, 1, 7, 2.33], [1007, 2, 7, 0.94], [12870, 1, 7, 0.89], [523, 2, 7, 0.93], [1504, 2, 7, 1.04], [2057, 3, 7, 0.64], [12353, 1, 7, 2.77], [20927, 1, 7, 0.73], [10574, 3, 8, 2.36], [3, 2, 7, 0.81], [13280, 1, 7, 3.77], [997, 2, 7, 3.5], [94, 4, 7, 3.54], [9760, 29, 7, 0.8], [12346, 1, 7, 2.43], [7084, 3, 7, 1.08], [8939, 2, 7, 0.89], [140, 2, 7, 1.18], [2775, 2, 7, 1.07], [2054, 3, 7, 0.64], [996, 2, 7, 3.01], [1429, 2, 7, 0.88], [3982, 3, 17, 2.34], [9372, 1, 7, 3.68], [11739, 2, 7, 1.08], [21793, 1, 7, 3.55], [84, 2, 7, 0.96], [6158, 2, 7, 0.83], [5165, 2, 8, 3.14], [12352, 1, 7, 2.56], [10388, 2, 7, 2.27], [96, 11, 22, 1.1], [411, 2, 7, 1.02], [972, 3, 7, 1.04], [2912, 1, 7, 0.8], [5165, 1, 7, 3.03], [2776, 2, 7, 2.15], [8672, 2, 7, 2.94], [413, 1, 7, 0.93], [12344, 1, 7, 2.77], [13928, 1, 7, 1.1], [12351, 1, 7, 2.77], [10386, 2, 7, 1.86], [410, 1, 7, 0.99], [12343, 1, 7, 2.77], [418, 2, 7, 0.77], [11504, 2, 7, 1.0], [1492, 1, 7, 2.27], [12345, 1, 7, 2.22], [22247, 2, 7, 1.61], [9784, 1, 7, 0.86], [412, 1, 7, 0.84], [336, 15, 7, 0.65], [13893, 2, 7, 1.48], [11490, 1, 7, 1.0], [1886, 2, 7, 0.85], [8677, 3, 7, 1.01], [435, 2, 7, 0.7], [308, 1, 7, 4.06], [307, 2, 7, 1.08], [13283, 1, 7, 3.77], [7567, 3, 7, 2.12], [432, 3, 7, 0.86], [1413, 15, 7, 1.04], [414, 1, 7, 1.06], [229, 1, 7, 0.78], [11770, 1, 7, 1.8], [33, 1, 7, 1.03], [10407, 10, 10, 2.88], [10410, 10, 10, 3.2], [13286, 1, 7, 1.49], [286, 3, 7, 1.94], [35, 1, 7, 1.04], [335, 3, 15, 0.64], [22317, 3, 7, 0.92], [972, 1, 7, 1.05], [6497, 1, 7, 2.42], [3478, 2, 7, 2.08], [10387, 2, 7, 1.91], [10780, 10, 7, 4.53], [12271, 2, 7, 1.22], [74, 1, 7, 1.87], [8104, 1, 7, 0.69], [9082, 3, 28, 2.17], [12347, 1, 7, 2.77], [20686, 1, 7, 2.46], [2331, 1, 7, 1.07], [9971, 2, 7, 1.89], [345, 3, 7, 1.49], [11085, 2, 8, 2.67], [12721, 2, 7, 1.4], [12526, 2, 7, 1.38], [12229, 2, 7, 0.87], [20682, 1, 7, 2.48], [4076, 3, 7, 2.48], [1163, 3, 7, 1.18], [10388, 2, 111, 3.47], [96, 11, 439, 2.32], [411, 2, 56, 2.23], [972, 3, 309, 2.24], [2912, 1, 25, 2.01], [5165, 1, 24, 4.24], [2776, 2, 81, 3.36], [8672, 2, 149, 4.15], [413, 1, 45, 2.14], [12344, 1, 321, 3.98], [13928, 1, 25, 2.31], [12351, 1, 321, 3.98], [10386, 2, 111, 3.06], [410, 1, 54, 2.2], [12343, 1, 321, 3.98], [418, 2, 73, 1.98], [11504, 2, 73, 2.21], [1492, 1, 19, 3.47], [12345, 1, 321, 3.43], [22247, 2, 148, 2.82], [9784, 1, 38, 2.07], [412, 1, 43, 2.05], [336, 15, 59, 1.86], [13893, 2, 144, 2.69], [11490, 1, 56, 2.21], [1886, 2, 82, 2.06], [8677, 3, 153, 2.22], [435, 2, 37, 1.61], [308, 1, 84, 5.27], [307, 2, 77, 2.28], [13283, 1, 164, 4.98], [7567, 3, 36, 3.33], [432, 3, 157, 2.07], [1413, 15, 51, 2.25], [414, 1, 45, 2.27], [229, 1, 44, 1.99], [11770, 1, 111, 3.01], [33, 1, 58, 2.24], [10407, 10, 606, 4.08], [10410, 10, 606, 4.4], [13286, 1, 164, 2.7], [286, 3, 73, 3.15], [35, 1, 58, 2.25], [335, 3, 697, 1.84], [22317, 3, 163, 2.13], [972, 1, 52, 2.26], [6497, 1, 19, 3.63], [3478, 2, 39, 3.29], [10387, 2, 111, 3.12], [10780, 10, 194, 5.73], [12271, 2, 33, 2.42], [74, 1, 105, 3.08], [8104, 1, 72, 1.6], [9082, 3, 1263, 3.33], [12347, 1, 321, 3.98], [20686, 1, 316, 3.67], [2331, 1, 62, 2.28], [9971, 2, 143, 3.09], [345, 3, 153, 2.69], [11085, 2, 275, 3.87], [12721, 2, 148, 2.61], [12526, 2, 142, 2.59], [12229, 2, 79, 2.08], [20682, 1, 316, 3.69], [4076, 3, 105, 3.69]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.0], [130, 1, 7, 0.88], [362, 2, 7, 0.88], [361, 2, 7, 0.99], [6935, 2, 19, 3.02], [206, 2, 7, 0.7], [2049, 3, 14, 0.75], [1504, 2, 11, 1.12], [417, 2, 7, 1.05], [6936, 2, 9, 2.54], [3, 2, 7, 0.92], [305, 2, 7, 0.98], [523, 2, 7, 1.13], [8650, 2, 9, 2.33], [8648, 2, 7, 2.22], [2328, 2, 7, 1.43], [8853, 2, 7, 2.08], [2776, 2, 7, 1.18], [2327, 2, 7, 1.16], [143, 2, 7, 0.93], [589, 2, 7, 0.8], [146, 2, 7, 1.03], [412, 1, 7, 0.92], [11835, 2, 7, 1.0], [145, 2, 7, 0.74], [6497, 1, 7, 1.84], [583, 2, 7, 2.22], [2805, 137, 11, 1.6], [326, 2, 7, 2.02], [8674, 2, 7, 1.17], [6097, 80, 7, 3.38], [9784, 1, 7, 0.91], [144, 2, 7, 0.8], [10574, 3, 9, 2.49], [10149, 3, 21, 1.08], [6097, 29, 7, 3.38], [413, 1, 7, 0.87], [1413, 15, 7, 0.89], [11504, 2, 7, 0.67], [6494, 1, 7, 1.71], [2422, 80, 7, 3.36], [1492, 1, 7, 1.98], [2422, 29, 7, 3.3], [6098, 80, 7, 1.92], [22316, 3, 7, 0.69], [414, 1, 7, 0.91], [2774, 2, 7, 0.89], [1886, 2, 7, 0.75], [1490, 1, 7, 0.8], [2859, 15, 7, 0.82], [6098, 29, 7, 1.89], [1414, 15, 7, 0.85], [944, 15, 7, 2.75], [6158, 2, 8, 0.67], [3670, 2, 9, 3.44], [2049, 1, 7, 0.77], [21793, 1, 7, 0.83], [3478, 2, 7, 1.97], [7084, 3, 7, 1.81], [9785, 1, 7, 0.91], [8659, 1, 7, 1.01], [12526, 2, 7, 2.76], [9342, 2, 7, 0.9], [3430, 15, 7, 1.14], [1703, 2, 7, 1.39], [1413, 16, 7, 0.93], [8599, 1, 7, 1.06], [9760, 29, 7, 0.82], [10398, 2, 7, 1.75], [4253, 1, 7, 0.99], [229, 1, 7, 0.84], [11887, 2, 8, 0.62], [11885, 2, 7, 0.84], [107, 2, 7, 1.22], [1429, 2, 7, 0.88], [11770, 1, 7, 0.84], [436, 2, 7, 0.89], [947, 15, 7, 0.84], [11811, 1, 7, 1.72], [107, 7, 8, 1.1], [11490, 1, 7, 0.67], [94, 4, 7, 2.0], [3673, 2, 7, 3.34], [11160, 1, 7, 1.08], [11844, 2, 7, 1.29], [11771, 1, 7, 2.57], [5939, 3, 7, 1.07], [140, 2, 7, 1.42], [7036, 1, 7, 3.45], [9358, 1, 7, 0.96], [11954, 1, 7, 1.2], [3495, 3, 17, 1.06], [9491, 21, 16, 0.87], [2104, 3, 11, 1.01], [12764, 2, 8, 0.82], [1309, 1, 7, 3.09], [5813, 3, 8, 1.17], [23920, 2, 7, 0.86], [11677, 1, 7, 1.16], [9690, 1, 7, 0.91], [8274, 3, 7, 1.32], [5584, 3, 7, 2.12], [6575, 3, 7, 2.12], [11674, 1, 7, 0.66], [5811, 3, 8, 3.03], [2108, 3, 10, 0.94], [74, 1, 7, 3.46], [22573, 2, 7, 1.87], [10406, 10, 12, 3.4], [3334, 5, 7, 1.4], [10407, 10, 10, 3.08], [11886, 2, 7, 1.2], [19687, 1, 7, 2.21], [1523, 1, 7, 1.51], [8926, 1, 7, 0.94], [823, 1, 7, 0.87], [1413, 1, 7, 0.91], [12993, 3, 13, 3.6], [307, 2, 7, 1.61], [3430, 16, 7, 1.14], [11179, 1, 7, 0.87], [8635, 3, 7, 1.39], [8897, 3, 7, 0.75], [11180, 1, 7, 0.91], [2859, 16, 7, 0.79], [11772, 1, 7, 1.26], [1414, 16, 7, 0.89], [6540, 25, 7, 1.8], [7567, 3, 7, 0.66], [5976, 1, 7, 1.12], [10124, 1, 7, 3.98], [524, 1, 7, 0.91], [23275, 2, 7, 1.81], [9760, 29, 48, 2.43], [10398, 2, 98, 3.35], [4253, 1, 113, 2.6], [229, 1, 56, 2.45], [11887, 2, 128, 2.22], [11885, 2, 128, 2.44], [107, 2, 32, 2.83], [1429, 2, 101, 2.48], [11770, 1, 144, 2.45], [436, 2, 71, 2.5], [947, 15, 28, 2.44], [11811, 1, 300, 3.32], [107, 7, 162, 2.7], [11490, 1, 73, 2.27], [94, 4, 80, 3.61], [3673, 2, 163, 4.95], [11160, 1, 339, 2.68], [11844, 2, 183, 2.89], [11771, 1, 143, 4.18], [5939, 3, 134, 2.5], [140, 2, 61, 3.03], [7036, 1, 85, 5.06], [9358, 1, 39, 2.57], [11954, 1, 134, 2.81], [3495, 3, 645, 2.68], [9491, 21, 1420, 2.47], [2104, 3, 232, 2.62], [12764, 2, 488, 2.42], [1309, 1, 36, 4.7], [5813, 3, 394, 2.77], [23920, 2, 70, 2.46], [11677, 1, 301, 2.76], [9690, 1, 50, 2.52], [5584, 3, 158, 3.72], [6575, 3, 174, 3.73], [11674, 1, 136, 2.26], [5811, 3, 394, 4.63], [2108, 3, 181, 2.54], [74, 1, 135, 5.07], [22573, 2, 47, 3.48], [10406, 10, 1165, 5.01], [3334, 5, 122, 3.0], [10407, 10, 781, 4.68], [11886, 2, 128, 2.8], [19687, 1, 20, 3.82], [1523, 1, 31, 3.12], [8926, 1, 42, 2.54], [823, 1, 27, 2.47], [1413, 1, 17, 2.51], [12993, 3, 1301, 5.2], [307, 2, 99, 3.22], [3430, 16, 23, 2.75], [11179, 1, 58, 2.48], [8897, 3, 196, 2.36], [11180, 1, 58, 2.51], [2859, 16, 23, 2.39], [11772, 1, 144, 2.87], [1414, 16, 33, 2.5], [6540, 25, 50, 3.41], [5976, 1, 105, 2.73], [10124, 1, 67, 5.59], [524, 1, 56, 2.51], [23275, 2, 47, 3.42]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 0.95], [305, 2, 7, 0.82], [6935, 2, 11, 4.09], [2778, 2, 7, 0.94], [144, 2, 7, 2.72], [8915, 2, 8, 0.98], [143, 2, 7, 1.05], [589, 2, 8, 0.99], [130, 1, 7, 0.88], [8648, 2, 7, 1.93], [6936, 2, 7, 3.42], [2775, 2, 7, 0.94], [205, 2, 7, 0.8], [8650, 2, 7, 1.47], [326, 2, 7, 2.12], [145, 2, 7, 0.95], [146, 2, 7, 1.05], [7036, 1, 7, 2.3], [3840, 1, 7, 1.45], [2776, 2, 7, 1.18], [615, 2, 7, 1.04], [616, 2, 7, 0.67], [88, 10, 16, 1.96], [141, 2, 7, 0.71], [7004, 1, 7, 0.96], [11681, 2, 11, 3.45], [1446, 2, 7, 1.22], [8853, 2, 7, 3.51], [9760, 29, 7, 0.68], [5491, 2, 7, 1.07], [990, 2, 7, 0.71], [362, 2, 7, 0.91], [1504, 2, 7, 1.71], [9372, 1, 7, 3.6], [8672, 2, 7, 2.94], [12870, 1, 7, 1.33], [8649, 2, 7, 1.29], [3893, 1, 7, 0.98], [434, 2, 7, 0.71], [10993, 2, 7, 0.84], [417, 2, 7, 0.78], [2497, 2, 7, 0.82], [5165, 1, 7, 2.99], [1429, 2, 7, 0.91], [140, 2, 7, 2.12], [3891, 1, 7, 0.98], [10574, 3, 9, 2.57], [2991, 3, 7, 3.64], [1006, 2, 7, 0.99], [10149, 3, 21, 1.92], [75, 2, 7, 0.71], [3, 2, 7, 0.84], [5208, 3, 7, 0.88], [21793, 1, 7, 0.92], [7886, 4, 7, 0.75], [20927, 1, 7, 0.83], [5165, 2, 8, 2.84], [11234, 2, 7, 2.3], [1886, 2, 7, 0.82], [22247, 2, 7, 1.6], [147, 1, 7, 2.3], [12721, 2, 7, 1.26], [11811, 1, 7, 0.8], [346, 3, 7, 0.71], [361, 2, 7, 0.69], [996, 2, 7, 2.83], [998, 2, 7, 2.83], [94, 4, 7, 2.79], [9491, 21, 17, 0.8], [972, 3, 8, 0.86], [2912, 2, 12, 0.65], [76, 2, 7, 0.67], [35, 1, 7, 0.95], [950, 1, 7, 0.67], [2424, 80, 7, 1.01], [13028, 3, 7, 3.74], [439, 1, 7, 2.71], [413, 1, 7, 1.06], [6158, 2, 7, 0.88], [8104, 1, 7, 1.61], [5076, 1, 7, 0.79], [13928, 1, 7, 1.28], [2805, 137, 7, 1.1], [346, 1, 7, 0.69], [11685, 2, 11, 3.45], [1414, 15, 7, 1.37], [8676, 2, 7, 1.01], [412, 1, 7, 1.85], [2774, 2, 7, 1.43], [418, 2, 7, 1.15], [5209, 3, 7, 0.88], [148, 1, 7, 2.32], [33, 1, 7, 1.78], [3495, 3, 16, 0.99], [83, 2, 7, 0.69], [12212, 29, 7, 0.98], [20256, 2, 7, 0.96], [8898, 3, 7, 2.85], [11490, 1, 7, 0.79], [415, 1, 7, 0.95], [10407, 10, 10, 3.08], [9784, 1, 7, 0.86], [7887, 4, 7, 0.82], [38, 1, 7, 1.21], [126, 2, 7, 2.12], [96, 11, 21, 0.64], [13928, 2, 7, 1.29], [3048, 3, 7, 4.08], [2424, 29, 7, 1.06], [34, 1, 7, 1.09], [84, 2, 7, 0.87], [5584, 3, 7, 2.31], [8939, 2, 7, 0.92], [74, 1, 7, 2.89], [10410, 10, 15, 3.12], [10408, 10, 8, 3.16], [12764, 2, 8, 0.63], [12526, 2, 7, 2.99], [13893, 2, 7, 0.82], [972, 1, 7, 0.95], [5164, 1, 7, 3.3], [39, 1, 7, 1.15], [1492, 1, 7, 0.95], [21269, 3, 7, 5.0], [3429, 15, 7, 0.86], [4253, 1, 7, 0.99], [1274, 1, 7, 0.87], [7567, 3, 7, 2.14], [13034, 3, 7, 2.08], [11813, 1, 7, 1.08], [13023, 3, 8, 1.41], [11236, 2, 7, 0.91], [3980, 4, 7, 2.43], [94, 4, 79, 4.27], [9491, 21, 1378, 2.25], [972, 3, 387, 2.33], [2912, 2, 189, 1.97], [76, 2, 71, 2.15], [35, 1, 72, 2.43], [950, 1, 19, 1.66], [2424, 80, 109, 2.49], [13028, 3, 95, 5.22], [439, 1, 56, 4.19], [413, 1, 56, 2.54], [6158, 2, 169, 2.36], [8104, 1, 132, 3.09], [5076, 1, 85, 2.27], [13928, 1, 31, 2.76], [2805, 137, 119, 2.58], [346, 1, 102, 2.16], [11685, 2, 174, 4.93], [1414, 15, 63, 2.85], [8676, 2, 186, 2.49], [412, 1, 54, 3.33], [2774, 2, 132, 2.91], [418, 2, 92, 2.63], [5209, 3, 364, 2.37], [148, 1, 57, 3.8], [33, 1, 72, 3.26], [3495, 3, 627, 2.48], [83, 2, 35, 2.17], [12212, 29, 77, 2.45], [20256, 2, 61, 2.44], [8898, 3, 191, 4.33], [11490, 1, 71, 2.27], [415, 1, 56, 2.42], [10407, 10, 758, 4.56], [9784, 1, 47, 2.34], [7887, 4, 45, 1.8], [38, 1, 72, 2.69], [126, 2, 58, 3.6], [96, 11, 553, 2.13], [13928, 2, 15, 2.76], [3048, 3, 182, 5.55], [2424, 29, 22, 2.54], [34, 1, 72, 2.57], [84, 2, 43, 2.35], [5584, 3, 160, 3.78], [8939, 2, 124, 2.4], [74, 1, 132, 4.37], [10410, 10, 758, 4.6], [10408, 10, 496, 4.65], [12764, 2, 477, 2.11], [12526, 2, 177, 4.47], [13893, 2, 181, 2.3], [972, 1, 64, 2.43], [5164, 1, 30, 4.78], [39, 1, 72, 2.63], [1492, 1, 24, 2.43], [21269, 3, 190, 6.0], [3429, 15, 34, 2.34], [4253, 1, 110, 2.47], [1274, 1, 53, 2.35], [7567, 3, 45, 3.62], [13034, 3, 383, 3.56], [11813, 1, 204, 2.56], [13023, 3, 387, 2.88], [11236, 2, 143, 2.39], [3980, 4, 311, 3.9]]</t>
+    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 6, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 5, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [362, 2, 5, 0.2], [141, 2, 4, 0.79], [2497, 2, 4, 0.45], [144, 2, 4, 0.44], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.74], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 4, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 4, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [12343, 1, 4, 0.87], [2055, 3, 4, 1.18], [624, 2, 4, 1.26], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 4, 1.16], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [75, 2, 4, 1.17], [8915, 2, 4, 0.41], [88, 10, 8, 0.95], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.44], [412, 1, 4, 1.0], [21712, 3, 13, 0.67], [1050, 2, 4, 0.38], [2422, 80, 4, 1.31], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [6098, 29, 4, 1.19], [378, 2, 4, 1.16], [12346, 1, 4, 0.87], [7704, 2, 4, 1.15], [151, 1, 4, 0.57], [11738, 2, 4, 0.53], [229, 1, 4, 2.0], [1243, 2, 4, 0.72], [22316, 3, 4, 0.46], [1049, 2, 4, 0.38], [13264, 29, 4, 0.51], [20252, 2, 4, 0.58], [345, 3, 4, 1.26], [13258, 29, 4, 0.67], [12269, 2, 4, 0.51], [1490, 1, 4, 0.47], [964, 15, 4, 0.36], [2331, 1, 4, 0.55], [10407, 10, 6, 1.18], [1163, 3, 5, 0.58], [2821, 3, 10, 0.23], [5208, 3, 5, 0.74], [201, 3, 4, 1.26], [416, 1, 4, 1.66], [307, 2, 4, 1.04], [2912, 1, 4, 1.24], [186, 3, 7, 0.5], [149, 2, 4, 0.37], [7004, 1, 4, 0.56], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [13259, 29, 4, 1.13], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [11687, 2, 4, 0.56], [10406, 10, 7, 1.21], [410, 1, 4, 0.71], [7036, 1, 4, 0.43], [20255, 2, 4, 0.4], [3478, 2, 4, 0.57], [9784, 1, 4, 0.91], [21713, 3, 7, 0.46], [10408, 10, 6, 1.04], [12870, 1, 4, 2.33], [8938, 2, 4, 0.57], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [10410, 10, 6, 1.18], [19687, 1, 4, 1.21], [107, 7, 5, 1.24], [1886, 2, 4, 0.35], [11161, 1, 5, 1.8], [11490, 1, 4, 0.43], [2703, 3, 4, 2.13], [956, 2, 4, 0.53], [21781, 2, 4, 0.47], [10411, 10, 6, 1.12], [11690, 2, 4, 0.36], [13258, 25, 4, 0.67], [159, 16, 4, 0.71], [2778, 2, 104, 6.0], [6935, 2, 187, 6.0], [6936, 2, 141, 6.0], [305, 2, 74, 6.0], [8672, 2, 144, 6.0], [615, 2, 54, 6.0], [1504, 2, 102, 6.0], [2775, 2, 78, 6.0], [145, 2, 76, 6.0], [2776, 2, 78, 6.0], [8853, 2, 141, 6.0], [2327, 2, 76, 6.0], [12721, 2, 284, 3.49], [130, 1, 30, 2.98], [143, 2, 75, 6.0], [146, 2, 76, 6.0], [2328, 2, 76, 6.0], [11681, 2, 138, 6.0], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 108, 2.82], [362, 2, 72, 6.0], [141, 2, 155, 4.16], [2497, 2, 102, 6.0], [144, 2, 76, 6.0], [205, 2, 109, 2.64], [8650, 2, 114, 6.0], [5493, 2, 108, 3.16], [417, 2, 78, 6.0], [8676, 2, 144, 6.0], [8673, 2, 144, 6.0], [3670, 2, 235, 5.79], [2774, 2, 102, 6.0], [8648, 2, 225, 5.29], [589, 2, 77, 6.0], [3, 2, 61, 6.0], [206, 2, 42, 4.69], [6097, 80, 35, 6.0], [2423, 29, 37, 4.81], [22247, 2, 144, 6.0], [11836, 2, 269, 2.69], [6497, 1, 32, 6.0], [8674, 2, 144, 6.0], [12343, 1, 610, 4.37], [2055, 3, 158, 4.31], [624, 2, 107, 4.11], [2423, 80, 185, 4.75], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 115, 6.0], [6097, 29, 18, 6.0], [6098, 80, 74, 4.31], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [75, 2, 144, 3.94], [8915, 2, 129, 2.36], [88, 10, 561, 4.69], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 405, 6.0], [13260, 29, 36, 6.0], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.6], [412, 1, 42, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.51], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.52], [2327, 2, 4, 0.2], [11685, 2, 4, 1.41], [326, 2, 4, 0.97], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [1124, 2, 5, 0.4], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.73], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.46], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [21793, 1, 4, 1.38], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [8675, 2, 4, 0.6], [76, 2, 4, 1.11], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [11836, 2, 4, 0.2], [8674, 2, 4, 0.49], [146, 2, 4, 0.62], [8938, 2, 4, 0.97], [6158, 2, 5, 1.33], [151, 1, 4, 0.57], [12720, 2, 4, 0.82], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 0.59], [410, 1, 4, 0.47], [12526, 2, 4, 0.74], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [2424, 29, 5, 0.55], [2423, 80, 5, 1.25], [378, 2, 4, 1.16], [12351, 1, 5, 0.61], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [12373, 1, 5, 0.45], [13023, 3, 6, 1.51], [13034, 3, 5, 1.37], [201, 3, 4, 0.76], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [5208, 3, 5, 0.54], [345, 3, 4, 0.76], [11770, 1, 4, 0.48], [3, 2, 4, 3.1], [6952, 1, 4, 1.09], [159, 1, 4, 0.73], [20927, 1, 4, 0.48], [3430, 15, 4, 1.23], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [11504, 2, 4, 0.2], [13928, 1, 4, 0.45], [566, 2, 4, 0.5], [11811, 1, 4, 0.38], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.18], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [7004, 1, 4, 0.99], [2703, 3, 4, 2.13], [11089, 1, 4, 0.39], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [12348, 1, 4, 0.61], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [10410, 10, 6, 1.18], [3891, 1, 4, 2.39], [94, 4, 4, 1.77], [11953, 1, 4, 0.46], [9082, 3, 15, 1.25], [141, 2, 156, 2.73], [2328, 2, 76, 6.0], [8650, 2, 114, 6.0], [362, 2, 72, 6.0], [5491, 2, 108, 2.9], [5493, 2, 55, 4.5], [130, 1, 30, 6.0], [589, 2, 153, 2.73], [2327, 2, 76, 6.0], [11685, 2, 138, 6.0], [326, 2, 35, 6.0], [8672, 2, 144, 6.0], [417, 2, 156, 2.81], [1124, 2, 188, 2.62], [6935, 2, 141, 6.0], [205, 2, 109, 2.53], [11681, 2, 138, 6.0], [206, 2, 42, 4.69], [8648, 2, 114, 6.0], [6936, 2, 141, 6.0], [142, 2, 78, 6.0], [11837, 2, 269, 2.79], [12721, 2, 284, 3.49], [11838, 2, 134, 6.0], [2049, 3, 276, 6.0], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 74, 6.0], [616, 2, 107, 4.15], [413, 1, 44, 6.0], [412, 1, 42, 6.0], [411, 2, 109, 2.64], [11739, 2, 57, 3.69], [10574, 3, 501, 4.43], [11835, 2, 269, 2.79], [145, 2, 76, 6.0], [21793, 1, 238, 5.81], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [8675, 2, 287, 3.21], [76, 2, 109, 3.83], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [11836, 2, 134, 6.0], [8674, 2, 287, 3.25], [146, 2, 151, 2.93], [8938, 2, 190, 3.57], [6158, 2, 260, 4.44], [151, 1, 33, 2.79], [12720, 2, 284, 3.48], [10149, 3, 872, 3.26], [2776, 2, 157, 3.16], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 36, 4.58], [22316, 3, 159, 6.0], [88, 10, 561, 4.69], [159, 3, 709, 3.16]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.89], [589, 2, 5, 0.37], [141, 2, 4, 0.66], [75, 2, 4, 0.39], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [8672, 2, 6, 0.51], [2778, 2, 4, 0.2], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 5, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [990, 2, 4, 0.26], [11681, 2, 5, 1.87], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 0.56], [144, 2, 4, 0.49], [10149, 3, 17, 1.82], [345, 3, 5, 0.44], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.2], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.46], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [201, 3, 5, 0.4], [167, 3, 5, 0.49], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 5, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [7084, 3, 4, 0.36], [11234, 2, 4, 0.2], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [335, 3, 11, 0.39], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [13028, 3, 4, 0.47], [308, 1, 4, 0.73], [12870, 1, 4, 1.54], [10825, 21, 8, 1.34], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [23, 1, 4, 0.2], [96, 11, 14, 0.38], [1006, 2, 4, 0.55], [418, 2, 4, 0.43], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [94, 4, 5, 1.24], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [21269, 3, 4, 0.95], [8939, 2, 4, 0.2], [13280, 1, 4, 0.81], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [7567, 3, 4, 1.11], [2049, 1, 4, 0.2], [20927, 1, 4, 0.2], [126, 2, 5, 0.93], [346, 3, 5, 0.19], [3980, 4, 4, 1.31], [1703, 2, 4, 0.41], [8121, 3, 4, 0.53], [8274, 3, 4, 0.39], [35, 1, 4, 0.48], [9691, 1, 4, 1.09], [5209, 3, 4, 0.19], [5584, 3, 4, 1.74], [11811, 1, 4, 1.0], [997, 2, 4, 1.03], [1070, 7, 10, 0.2], [11914, 1, 5, 0.5], [1519, 3, 10, 0.4], [5660, 2, 5, 0.9], [856, 1, 4, 0.38], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.43], [523, 2, 4, 0.63], [8926, 1, 4, 1.35], [2775, 2, 4, 0.2], [11767, 1, 4, 0.48], [9372, 1, 4, 0.39], [13034, 3, 5, 0.66], [9081, 3, 7, 1.8], [20255, 2, 5, 0.2], [12661, 1, 4, 0.97], [307, 2, 4, 1.14], [326, 2, 84, 3.42], [6935, 2, 129, 6.0], [2049, 3, 192, 6.0], [362, 2, 131, 2.79], [589, 2, 142, 1.93], [141, 2, 143, 3.4], [75, 2, 51, 6.0], [1776, 1, 52, 5.27], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [8672, 2, 100, 6.0], [2778, 2, 55, 5.31], [6936, 2, 97, 6.0], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 51, 6.0], [206, 2, 39, 4.41], [151, 1, 31, 4.24], [8648, 2, 79, 6.0], [1777, 1, 39, 6.0], [2328, 2, 53, 5.41], [88, 10, 197, 6.0], [990, 2, 30, 6.0], [11681, 2, 95, 6.0], [8650, 2, 79, 6.0], [412, 1, 30, 6.0], [5151, 2, 14, 4.02], [2050, 3, 433, 3.55], [76, 2, 39, 6.0], [144, 2, 139, 2.06], [10149, 3, 300, 6.0], [345, 3, 106, 6.0], [2991, 3, 57, 6.0], [22247, 2, 99, 6.0], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 53, 6.0], [7004, 1, 28, 2.26], [45, 2, 39, 6.0], [2054, 3, 166, 6.0], [143, 2, 51, 6.0], [417, 2, 143, 2.0], [413, 1, 79, 3.28], [21793, 1, 85, 6.0], [201, 3, 106, 6.0], [167, 3, 80, 6.0], [74, 1, 71, 6.0], [1446, 2, 53, 6.0], [346, 1, 55, 4.91], [2055, 3, 166, 6.0], [168, 3, 141, 6.0], [10, 2, 97, 2.76], [7084, 3, 46, 4.99], [11234, 2, 65, 5.72], [1429, 2, 53, 6.0], [7036, 1, 45, 6.0], [12721, 2, 99, 6.0], [335, 3, 466, 6.0], [3495, 3, 336, 6.0], [5081, 2, 177, 1.96], [8649, 2, 79, 6.0], [13028, 3, 51, 6.0], [308, 1, 58, 6.0], [12870, 1, 49, 6.0], [10825, 21, 575, 3.62], [79, 1, 44, 1.85], [1492, 1, 13, 4.04]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.95], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 5, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [151, 1, 4, 0.59], [3840, 1, 5, 0.29], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [1504, 2, 4, 0.93], [624, 2, 4, 1.1], [12224, 1, 4, 0.46], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [362, 2, 4, 0.5], [2055, 3, 4, 0.46], [141, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [378, 2, 4, 1.16], [5208, 3, 5, 0.19], [3889, 1, 4, 0.35], [8649, 2, 4, 1.53], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [10993, 2, 4, 0.7], [11234, 2, 4, 0.75], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [2050, 3, 4, 0.46], [3980, 4, 4, 0.73], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.44], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [5165, 1, 4, 0.56], [9760, 29, 4, 0.37], [998, 2, 4, 1.5], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [346, 3, 5, 0.19], [3, 2, 4, 0.62], [229, 1, 4, 0.54], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5165, 2, 5, 1.02], [5076, 1, 4, 0.71], [7887, 4, 4, 0.47], [20252, 2, 4, 0.38], [126, 2, 4, 1.27], [11953, 1, 4, 0.46], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [11685, 2, 5, 1.33], [1492, 1, 4, 0.2], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [20256, 2, 4, 0.2], [12721, 2, 4, 2.31], [2774, 2, 4, 0.63], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 5, 0.75], [6497, 1, 4, 0.63], [12343, 1, 4, 0.66], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [10407, 10, 6, 1.18], [12351, 1, 4, 0.66], [11179, 1, 4, 0.45], [6496, 1, 4, 1.73], [22317, 3, 4, 0.35], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [2805, 137, 4, 0.93], [8898, 3, 5, 1.44], [3900, 3, 4, 1.76], [12526, 2, 4, 0.71], [2424, 29, 4, 0.55], [11812, 1, 4, 0.2], [3975, 4, 5, 0.7], [4253, 1, 4, 0.54], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [1622, 1, 4, 0.45], [412, 1, 4, 0.44], [12764, 2, 5, 0.54], [8676, 2, 4, 2.17], [88, 10, 276, 6.0], [2327, 2, 74, 6.0], [8915, 2, 93, 6.0], [589, 2, 75, 6.0], [2778, 2, 77, 6.0], [6935, 2, 135, 6.0], [2328, 2, 74, 6.0], [5493, 2, 104, 3.91], [305, 2, 72, 6.0], [615, 2, 54, 5.74], [616, 2, 54, 4.36], [6936, 2, 135, 6.0], [326, 2, 44, 6.0], [8650, 2, 110, 6.0], [8648, 2, 110, 6.0], [1446, 2, 74, 6.0], [2049, 3, 360, 2.34], [10, 2, 52, 4.26], [143, 2, 72, 6.0], [159, 3, 689, 2.82], [593, 2, 223, 2.53], [205, 2, 54, 6.0], [5491, 2, 53, 6.0], [2775, 2, 77, 6.0], [7036, 1, 63, 6.0], [151, 1, 32, 2.68], [3840, 1, 84, 6.0], [94, 4, 60, 6.0], [434, 2, 53, 4.6], [8938, 2, 125, 2.43], [990, 2, 26, 4.94], [3893, 1, 61, 6.0], [146, 2, 73, 6.0], [8853, 2, 272, 5.15], [1504, 2, 99, 6.0], [624, 2, 104, 3.83], [12224, 1, 162, 2.49], [1429, 2, 74, 6.0], [3891, 1, 61, 6.0], [2776, 2, 77, 6.0], [206, 2, 106, 2.39], [362, 2, 69, 6.0], [2055, 3, 314, 2.32], [141, 2, 76, 6.0], [11681, 2, 131, 6.0], [11404, 2, 51, 5.86], [378, 2, 110, 6.0], [5208, 3, 273, 6.0], [3889, 1, 122, 2.29], [8649, 2, 218, 4.79], [1007, 2, 264, 2.49], [10993, 2, 54, 2.93], [11234, 2, 148, 6.0], [7886, 4, 70, 2.16], [12870, 1, 69, 6.0], [21793, 1, 119, 6.0], [10149, 3, 435, 6.0], [2050, 3, 314, 2.32], [3980, 4, 234, 6.0], [12353, 1, 612, 2.87], [145, 2, 73, 6.0], [7084, 3, 127, 3.22], [11811, 1, 447, 2.44], [8672, 2, 140, 6.0], [20927, 1, 30, 6.0], [5165, 1, 38, 6.0], [9760, 29, 35, 3.9]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 5, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.2], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.51], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [412, 1, 4, 0.57], [5491, 2, 4, 0.5], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [417, 2, 4, 0.43], [583, 2, 4, 0.77], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [8089, 1, 4, 1.2], [248, 1, 4, 0.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.45], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 5, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.53], [6097, 29, 4, 0.88], [6098, 80, 4, 1.46], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 15, 1.12], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [418, 2, 4, 0.72], [4032, 29, 4, 0.47], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [5151, 2, 4, 0.62], [972, 3, 4, 0.46], [12304, 1, 4, 0.64], [229, 1, 4, 2.07], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [13034, 3, 5, 1.29], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [2424, 29, 4, 0.41], [3, 2, 4, 0.55], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [5076, 1, 4, 0.64], [11767, 1, 4, 0.48], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [8677, 3, 5, 1.11], [11180, 1, 4, 0.54], [1701, 2, 4, 1.97], [75, 2, 4, 0.37], [11586, 1, 7, 1.42], [3478, 2, 4, 0.9], [3577, 25, 4, 0.42], [11585, 29, 4, 1.12], [9998, 80, 4, 0.42], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [2438, 2, 5, 1.05], [4253, 1, 4, 1.03], [6935, 2, 108, 6.0], [141, 2, 60, 6.0], [589, 2, 60, 4.55], [2778, 2, 60, 6.0], [6936, 2, 108, 6.0], [8648, 2, 88, 6.0], [362, 2, 55, 6.0], [2327, 2, 129, 3.02], [11681, 2, 105, 6.0], [8650, 2, 88, 6.0], [326, 2, 78, 2.83], [205, 2, 70, 6.0], [2328, 2, 59, 6.0], [1446, 2, 59, 6.0], [305, 2, 57, 6.0], [130, 1, 38, 5.2], [8649, 2, 88, 6.0], [2775, 2, 60, 6.0], [8853, 2, 108, 6.0], [361, 2, 60, 6.0], [2776, 2, 60, 6.0], [593, 2, 89, 6.0], [143, 2, 57, 6.0], [140, 2, 78, 2.83], [1429, 2, 59, 6.0], [206, 2, 42, 3.85], [5493, 2, 93, 2.36], [523, 2, 60, 6.0], [7004, 1, 68, 2.72], [413, 1, 33, 6.0], [7036, 1, 50, 6.0], [412, 1, 72, 2.66], [5491, 2, 93, 2.34], [21793, 1, 208, 5.07], [12350, 1, 243, 6.0], [1124, 2, 161, 2.69], [990, 2, 21, 2.71], [12353, 1, 243, 6.0], [5165, 1, 30, 6.0], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [417, 2, 60, 6.0], [583, 2, 78, 2.83], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [8089, 1, 61, 3.62], [248, 1, 15, 2.08], [434, 2, 42, 4.05], [201, 3, 119, 6.0], [142, 2, 133, 2.61], [6097, 80, 27, 6.0], [11770, 1, 189, 2.22], [6952, 1, 74, 6.0], [2055, 3, 410, 2.91], [345, 3, 119, 6.0], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 51, 6.0], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 243, 6.0], [12870, 1, 119, 3.63], [12343, 1, 536, 2.3], [10574, 3, 198, 6.0], [1886, 2, 135, 2.08]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.47], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 9, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 5, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3891, 1, 5, 0.2], [3840, 1, 4, 0.39], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.73], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [362, 2, 4, 0.85], [8672, 2, 4, 0.48], [8649, 2, 4, 1.53], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [2991, 3, 5, 1.1], [3495, 3, 13, 0.85], [7084, 3, 4, 0.58], [7005, 1, 4, 0.94], [3975, 4, 4, 1.26], [10149, 3, 13, 0.39], [21793, 1, 4, 2.3], [11404, 2, 5, 0.2], [9760, 29, 4, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [417, 2, 4, 0.66], [5165, 2, 5, 0.61], [2912, 1, 4, 0.2], [3982, 3, 10, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [956, 2, 4, 0.47], [33, 1, 4, 1.06], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [7887, 4, 5, 0.44], [6497, 1, 4, 0.93], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [432, 3, 4, 0.47], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 1.1], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 4, 1.04], [389, 4, 5, 0.38], [74, 1, 4, 1.16], [2912, 2, 5, 0.47], [6496, 1, 4, 0.47], [35, 1, 5, 0.57], [7567, 3, 4, 1.65], [411, 2, 4, 0.5], [1413, 15, 4, 0.45], [12721, 2, 4, 0.99], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8121, 3, 5, 0.2], [8673, 2, 4, 0.47], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [8676, 2, 4, 1.7], [21269, 3, 4, 2.24], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [12526, 2, 4, 1.08], [11085, 2, 5, 1.27], [9784, 1, 4, 0.55], [12269, 2, 4, 1.03], [1274, 1, 4, 0.23], [6494, 1, 5, 0.29], [37, 1, 4, 0.66], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [12225, 1, 4, 0.69], [7573, 1, 5, 1.35], [345, 3, 4, 1.31], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [96, 11, 12, 0.38], [6935, 2, 108, 6.0], [615, 2, 91, 4.78], [2778, 2, 61, 6.0], [305, 2, 57, 6.0], [5493, 2, 91, 4.44], [6936, 2, 108, 6.0], [130, 1, 24, 5.17], [205, 2, 42, 6.0], [616, 2, 91, 4.41], [1504, 2, 80, 6.0], [144, 2, 59, 6.0], [8648, 2, 89, 6.0], [2049, 3, 144, 6.0], [88, 10, 220, 6.0], [8915, 2, 65, 4.29], [326, 2, 36, 6.0], [7036, 1, 50, 6.0], [8650, 2, 89, 6.0], [593, 2, 89, 6.0], [2327, 2, 59, 6.0], [11681, 2, 106, 6.0], [8853, 2, 108, 6.0], [141, 2, 61, 6.0], [2775, 2, 61, 6.0], [206, 2, 42, 4.36], [151, 1, 58, 2.7], [7004, 1, 31, 5.6], [248, 1, 47, 2.25], [11685, 2, 106, 6.0], [3891, 1, 49, 6.0], [3840, 1, 150, 2.17], [2328, 2, 59, 6.0], [2050, 3, 188, 6.0], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.86], [143, 2, 58, 6.0], [434, 2, 56, 2.07], [3980, 4, 186, 6.0], [2054, 3, 188, 6.0], [624, 2, 91, 5.38], [362, 2, 55, 6.0], [8672, 2, 112, 6.0], [8649, 2, 194, 4.25], [2776, 2, 61, 6.0], [12870, 1, 117, 5.16], [2057, 3, 188, 6.0], [12350, 1, 543, 2.67], [7886, 4, 38, 6.0], [10574, 3, 196, 6.0], [5165, 1, 30, 6.0], [1006, 2, 197, 2.83], [1446, 2, 60, 6.0], [94, 4, 47, 6.0], [75, 2, 57, 6.0], [523, 2, 60, 6.0], [2991, 3, 63, 6.0], [3495, 3, 832, 2.92], [7084, 3, 51, 6.0], [7005, 1, 68, 3.18], [3975, 4, 186, 6.0], [10149, 3, 752, 2.93], [21793, 1, 90, 6.0], [11404, 2, 41, 6.0], [9760, 29, 28, 3.52], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 1.17], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 6, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 5, 0.2], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [11838, 2, 4, 0.57], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 4, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 4, 0.74], [144, 2, 4, 0.94], [11739, 2, 4, 0.38], [88, 10, 9, 0.82], [434, 2, 4, 0.73], [2776, 2, 4, 0.41], [142, 2, 4, 0.2], [435, 2, 5, 0.49], [151, 1, 4, 0.57], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [2423, 80, 4, 1.75], [10574, 3, 6, 1.26], [3670, 2, 4, 0.97], [11836, 2, 5, 0.2], [7705, 2, 4, 1.08], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [378, 2, 4, 2.48], [7706, 2, 4, 1.08], [12720, 2, 4, 0.98], [12353, 1, 4, 1.05], [22316, 3, 4, 0.46], [2055, 3, 4, 0.96], [12344, 1, 4, 0.48], [3478, 2, 4, 1.07], [10149, 3, 13, 1.12], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [2774, 2, 4, 0.55], [307, 2, 4, 1.04], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [418, 2, 4, 0.47], [7004, 1, 4, 1.02], [13928, 1, 4, 0.2], [411, 2, 4, 0.49], [11089, 1, 4, 0.39], [413, 1, 4, 1.04], [2057, 3, 4, 0.4], [11844, 2, 5, 0.2], [14037, 3, 4, 0.96], [7036, 1, 4, 0.43], [2050, 3, 4, 0.4], [8274, 3, 4, 0.88], [3893, 1, 4, 2.08], [20252, 2, 4, 0.58], [13260, 29, 4, 0.67], [6097, 80, 4, 0.64], [439, 1, 4, 0.37], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [9784, 1, 4, 0.55], [6494, 1, 4, 0.46], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [1413, 16, 4, 0.39], [11490, 1, 4, 0.47], [1243, 2, 5, 0.2], [7708, 2, 4, 1.15], [414, 1, 4, 0.66], [3889, 1, 4, 2.08], [1492, 1, 4, 0.62], [5208, 3, 5, 0.97], [565, 2, 4, 0.46], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [11491, 2, 4, 0.81], [21793, 1, 4, 0.95], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [2422, 80, 4, 1.75], [6098, 80, 4, 1.16], [410, 1, 4, 0.4], [11504, 2, 4, 0.72], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3674, 2, 4, 0.52], [147, 1, 4, 0.52], [3430, 15, 4, 1.23], [5165, 1, 4, 0.59], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [247, 1, 4, 1.18], [6935, 2, 141, 6.0], [305, 2, 74, 6.0], [2328, 2, 76, 6.0], [130, 1, 49, 6.0], [141, 2, 78, 6.0], [2778, 2, 156, 3.07], [8650, 2, 114, 6.0], [5491, 2, 106, 4.31], [2327, 2, 76, 6.0], [8672, 2, 144, 6.0], [6936, 2, 141, 6.0], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 76, 6.0], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 76, 6.0], [417, 2, 78, 6.0], [589, 2, 77, 6.0], [75, 2, 145, 3.58], [11737, 2, 57, 2.97], [11838, 2, 269, 2.83], [1124, 2, 95, 6.0], [523, 2, 78, 6.0], [8648, 2, 114, 6.0], [8853, 2, 141, 6.0], [12721, 2, 144, 6.0], [615, 2, 108, 4.14], [326, 2, 35, 6.0], [206, 2, 42, 6.0], [8915, 2, 96, 6.0], [8673, 2, 144, 6.0], [144, 2, 76, 6.0], [11739, 2, 57, 2.97], [88, 10, 285, 6.0], [434, 2, 107, 3.23], [2776, 2, 78, 6.0], [142, 2, 78, 6.0], [435, 2, 54, 6.0], [151, 1, 33, 2.79], [8676, 2, 144, 6.0], [6158, 2, 133, 6.0], [2424, 29, 17, 3.17], [8649, 2, 114, 6.0], [2423, 29, 18, 6.0], [11738, 2, 57, 2.97], [2497, 2, 105, 6.0], [7704, 2, 90, 6.0], [2424, 80, 84, 6.0], [2423, 80, 92, 6.0], [10574, 3, 249, 6.0], [3670, 2, 236, 5.41], [11836, 2, 134, 6.0], [7705, 2, 90, 6.0], [2054, 3, 473, 3.89], [3, 2, 61, 6.0], [2859, 15, 35, 6.0], [412, 1, 42, 6.0], [378, 2, 224, 6.0], [7706, 2, 90, 6.0], [12720, 2, 144, 6.0], [12353, 1, 620, 3.73], [22316, 3, 318, 2.64], [2055, 3, 181, 6.0], [12344, 1, 620, 2.67], [3478, 2, 38, 6.0], [10149, 3, 866, 4.0]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 4, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [7886, 4, 5, 0.39], [88, 10, 8, 1.09], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.56], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.5], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.43], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [7084, 3, 4, 1.37], [3478, 2, 4, 0.54], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [11681, 2, 6, 0.82], [8677, 3, 5, 0.4], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [20927, 1, 4, 0.43], [8651, 2, 5, 0.61], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [45, 2, 4, 1.37], [9069, 1, 4, 0.91], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [3495, 3, 15, 0.92], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [998, 2, 4, 0.97], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [490, 1, 4, 0.4], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [506, 1, 4, 1.21], [11489, 1, 4, 0.56], [8674, 2, 5, 0.54], [8898, 3, 4, 0.75], [3670, 2, 4, 1.87], [997, 2, 4, 1.82], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [974, 3, 5, 0.38], [107, 2, 4, 0.52], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [823, 1, 4, 0.84], [34, 1, 4, 1.26], [14017, 3, 4, 0.44], [9784, 1, 5, 0.55], [972, 3, 5, 0.85], [5209, 3, 4, 0.54], [1091, 1, 4, 0.61], [11739, 2, 4, 0.2], [20498, 3, 6, 0.36], [8672, 2, 229, 6.0], [305, 2, 115, 6.0], [3, 2, 97, 6.0], [6935, 2, 136, 6.0], [205, 2, 53, 6.0], [143, 2, 117, 6.0], [144, 2, 119, 6.0], [75, 2, 71, 6.0], [12721, 2, 138, 6.0], [145, 2, 119, 6.0], [8915, 2, 93, 6.0], [2778, 2, 75, 6.0], [1776, 1, 72, 6.0], [146, 2, 119, 6.0], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 136, 6.0], [1777, 1, 54, 6.0], [8648, 2, 109, 6.0], [151, 1, 54, 5.68], [2328, 2, 72, 6.0], [8650, 2, 109, 6.0], [5151, 2, 12, 6.0], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [7886, 4, 69, 6.0], [88, 10, 273, 6.0], [9507, 3, 86, 1.53], [74, 1, 98, 6.0], [1446, 2, 73, 6.0], [2991, 3, 78, 6.0], [362, 2, 69, 6.0], [7004, 1, 51, 2.45], [2057, 3, 408, 2.32], [1492, 1, 30, 4.99], [1007, 2, 130, 6.0], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 53, 6.0], [8649, 2, 109, 6.0], [3889, 1, 106, 2.11], [11234, 2, 88, 6.0], [410, 1, 90, 2.0], [7005, 1, 68, 2.22], [345, 3, 147, 6.0], [10, 2, 51, 6.0], [1429, 2, 73, 6.0], [307, 2, 70, 6.0], [10825, 21, 303, 6.0], [5081, 2, 91, 6.0], [12870, 1, 68, 6.0], [57, 1, 73, 2.09], [10149, 3, 431, 6.0], [7036, 1, 62, 6.0], [7084, 3, 63, 6.0], [3478, 2, 64, 2.3], [1006, 2, 110, 6.0], [1504, 2, 99, 6.0], [3891, 1, 60, 6.0], [21793, 1, 202, 4.74], [94, 4, 58, 6.0], [167, 3, 110, 6.0], [411, 2, 53, 6.0], [9827, 3, 42, 6.0], [3893, 1, 60, 6.0], [79, 1, 41, 2.38], [33, 1, 54, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 10, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [362, 2, 4, 0.2], [151, 1, 5, 0.48], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 5, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1007, 2, 5, 0.39], [1777, 1, 4, 0.93], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [22247, 2, 4, 0.78], [88, 10, 9, 1.09], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [10, 2, 5, 0.91], [2054, 3, 4, 1.44], [8677, 3, 6, 1.56], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 5, 0.47], [5081, 2, 4, 0.44], [1492, 1, 4, 0.58], [140, 2, 5, 0.63], [7005, 1, 4, 0.36], [167, 3, 4, 1.25], [7036, 1, 4, 1.11], [9827, 3, 5, 0.2], [45, 2, 4, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [13280, 1, 4, 1.47], [5812, 3, 5, 2.01], [1504, 2, 4, 0.2], [12870, 1, 4, 0.54], [168, 3, 4, 0.29], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [6097, 29, 4, 1.14], [8853, 2, 5, 1.07], [416, 1, 4, 1.21], [8939, 2, 4, 0.2], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [1490, 1, 5, 0.2], [95, 3, 16, 0.19], [20927, 1, 4, 0.2], [79, 1, 4, 0.38], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [8898, 3, 5, 1.36], [1126, 2, 5, 0.39], [13034, 3, 6, 0.66], [126, 2, 4, 1.43], [20498, 1, 5, 0.8], [9760, 29, 4, 0.45], [5086, 1, 4, 0.71], [20255, 2, 5, 0.2], [12924, 1, 5, 0.2], [5513, 2, 4, 0.46], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [13260, 29, 4, 0.54], [22317, 3, 6, 0.51], [7567, 3, 4, 1.66], [1413, 15, 4, 0.33], [229, 1, 4, 1.05], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [5813, 3, 5, 1.08], [8557, 3, 4, 0.2], [9082, 3, 17, 1.28], [192, 3, 11, 1.1], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [20498, 3, 5, 0.86], [9691, 1, 4, 1.0], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [8943, 3, 5, 0.7], [470, 1, 5, 0.2], [1622, 1, 5, 0.38], [2775, 2, 5, 0.2], [9372, 1, 4, 0.39], [13023, 3, 6, 1.24], [20486, 3, 6, 0.79], [1703, 2, 4, 0.41], [11454, 2, 6, 1.6], [2423, 80, 4, 1.41], [3900, 3, 4, 1.63], [5584, 3, 4, 1.72], [2424, 80, 4, 2.04], [2497, 2, 4, 0.43], [8672, 2, 100, 6.0], [305, 2, 51, 6.0], [2049, 3, 192, 6.0], [6935, 2, 129, 6.0], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 53, 6.0], [589, 2, 53, 3.74], [362, 2, 50, 5.07], [151, 1, 24, 3.36], [12721, 2, 99, 6.0], [146, 2, 53, 6.0], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 39, 4.23], [2328, 2, 53, 6.0], [8915, 2, 67, 4.75], [143, 2, 51, 6.0], [990, 2, 18, 3.0], [6936, 2, 97, 6.0], [20252, 2, 86, 2.06], [8650, 2, 79, 6.0], [1007, 2, 250, 1.96], [1777, 1, 100, 4.11], [2778, 2, 55, 6.0], [22247, 2, 99, 6.0], [88, 10, 197, 6.0], [2050, 3, 166, 6.0], [76, 2, 39, 6.0], [8649, 2, 79, 6.0], [10149, 3, 300, 6.0], [10, 2, 62, 6.0], [2054, 3, 324, 5.02], [8677, 3, 102, 6.0], [412, 1, 30, 6.0], [2055, 3, 324, 5.02], [13028, 3, 136, 2.54], [413, 1, 30, 6.0], [7004, 1, 28, 3.05], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 95, 6.0], [1446, 2, 53, 6.0], [7084, 3, 46, 6.0], [307, 2, 51, 6.0], [3478, 2, 69, 3.31], [1429, 2, 53, 6.0], [3495, 3, 336, 6.0], [1006, 2, 80, 6.0], [5081, 2, 177, 1.96], [1492, 1, 13, 4.72], [140, 2, 32, 6.0], [7005, 1, 28, 3.05], [167, 3, 80, 6.0], [7036, 1, 45, 6.0], [9827, 3, 30, 6.0], [45, 2, 39, 6.0], [8676, 2, 100, 6.0], [1124, 2, 65, 4.68], [2049, 1, 21, 2.85], [94, 4, 42, 6.0], [13280, 1, 111, 6.0], [5812, 3, 543, 4.52], [1504, 2, 72, 6.0], [12870, 1, 49, 6.0], [168, 3, 141, 6.0], [11234, 2, 170, 2.47]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [6936, 2, 4, 1.18], [11681, 2, 4, 1.35], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [206, 2, 5, 0.46], [2778, 2, 5, 0.2], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [1446, 2, 4, 0.2], [5491, 2, 4, 0.47], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.73], [11737, 2, 5, 0.2], [616, 2, 4, 1.5], [417, 2, 4, 0.66], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12870, 1, 4, 0.92], [12353, 1, 5, 0.19], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [3, 2, 5, 0.2], [10574, 3, 6, 1.36], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [624, 2, 4, 1.35], [9760, 29, 5, 0.2], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [3891, 1, 4, 0.53], [21793, 1, 4, 2.3], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [6158, 2, 4, 0.2], [11739, 2, 4, 0.2], [96, 11, 15, 0.38], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [1126, 2, 4, 0.58], [9372, 1, 4, 1.7], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [8672, 2, 5, 0.98], [5165, 1, 4, 0.58], [413, 1, 4, 1.01], [2912, 1, 4, 0.2], [8898, 3, 4, 3.33], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [9491, 21, 10, 1.07], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 4, 0.48], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [22247, 2, 4, 1.23], [412, 1, 4, 0.5], [957, 2, 4, 0.55], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [308, 1, 4, 0.95], [432, 3, 5, 0.47], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [20256, 2, 4, 0.44], [22317, 3, 5, 0.51], [10407, 10, 6, 1.44], [148, 1, 4, 0.55], [10780, 10, 4, 1.52], [1413, 15, 4, 0.45], [10410, 10, 6, 1.64], [439, 1, 4, 1.15], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [7573, 1, 5, 1.45], [9691, 1, 4, 0.55], [11767, 1, 4, 0.5], [972, 1, 4, 1.51], [10387, 2, 4, 0.95], [6497, 1, 4, 0.52], [12347, 1, 5, 0.19], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9971, 2, 4, 1.44], [8897, 3, 4, 3.33], [2331, 1, 4, 1.08], [11769, 1, 4, 1.1], [9082, 3, 17, 0.77], [11685, 2, 106, 6.0], [6935, 2, 108, 6.0], [326, 2, 36, 6.0], [8648, 2, 89, 6.0], [144, 2, 59, 6.0], [593, 2, 89, 6.0], [2327, 2, 59, 6.0], [143, 2, 58, 6.0], [205, 2, 42, 6.0], [8915, 2, 65, 4.29], [2328, 2, 59, 6.0], [6936, 2, 108, 6.0], [11681, 2, 106, 6.0], [305, 2, 57, 6.0], [151, 1, 58, 2.7], [8650, 2, 89, 6.0], [141, 2, 61, 6.0], [206, 2, 42, 6.0], [2778, 2, 61, 6.0], [2049, 3, 144, 6.0], [88, 10, 220, 6.0], [615, 2, 91, 4.78], [7036, 1, 50, 6.0], [8853, 2, 108, 6.0], [8649, 2, 89, 6.0], [1446, 2, 79, 6.0], [5491, 2, 42, 5.94], [434, 2, 56, 2.07], [1006, 2, 89, 6.0], [75, 2, 57, 6.0], [2055, 3, 396, 4.86], [11737, 2, 23, 5.71], [616, 2, 91, 4.41], [417, 2, 133, 2.95], [3840, 1, 150, 2.17], [2050, 3, 188, 6.0], [1007, 2, 105, 6.0], [12870, 1, 117, 5.16], [12353, 1, 241, 6.0], [523, 2, 60, 6.0], [1504, 2, 80, 6.0], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 188, 6.0], [3, 2, 48, 4.34], [10574, 3, 196, 6.0], [142, 2, 133, 2.39], [12346, 1, 241, 6.0], [7084, 3, 51, 6.0], [624, 2, 91, 5.38], [9760, 29, 28, 5.72], [2054, 3, 188, 6.0], [140, 2, 78, 3.15], [2775, 2, 61, 6.0], [3891, 1, 108, 2.43], [21793, 1, 90, 6.0], [8939, 2, 75, 6.0], [1429, 2, 60, 6.0], [6158, 2, 103, 6.0], [11739, 2, 23, 3.9], [96, 11, 330, 6.0], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 27, 6.0], [1126, 2, 197, 2.71], [9372, 1, 196, 4.79], [10388, 2, 186, 3.58]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.51], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.35], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.57], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [11739, 2, 4, 0.43], [616, 2, 4, 1.12], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [12352, 1, 4, 1.38], [411, 2, 4, 0.47], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [6497, 1, 5, 0.5], [12353, 1, 4, 1.38], [8674, 2, 5, 0.63], [583, 2, 4, 1.31], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [144, 2, 4, 0.52], [418, 2, 4, 0.54], [6097, 80, 4, 1.14], [11738, 2, 4, 0.43], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [413, 1, 4, 0.97], [6097, 29, 5, 0.64], [2057, 3, 4, 1.0], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [2055, 3, 4, 1.18], [12344, 1, 4, 1.38], [1413, 15, 4, 0.2], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [247, 1, 4, 0.8], [3429, 15, 4, 0.46], [22316, 3, 4, 0.46], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.74], [8599, 1, 4, 0.49], [3430, 15, 4, 0.35], [8938, 2, 4, 0.57], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [94, 4, 4, 1.76], [107, 7, 5, 1.13], [947, 15, 4, 0.39], [436, 2, 4, 0.51], [11490, 1, 4, 0.52], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [11770, 1, 4, 0.43], [11767, 1, 4, 0.48], [11671, 1, 4, 0.45], [3673, 2, 4, 2.08], [11769, 1, 4, 0.48], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [12347, 1, 4, 1.38], [9491, 21, 10, 0.51], [7036, 1, 4, 0.43], [5812, 3, 4, 2.0], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [11771, 1, 4, 1.61], [5813, 3, 5, 1.1], [12764, 2, 5, 0.49], [3495, 3, 13, 0.85], [23920, 2, 4, 0.46], [11954, 1, 4, 0.42], [308, 1, 5, 0.79], [9690, 1, 4, 0.79], [5811, 3, 6, 1.16], [410, 1, 4, 0.8], [19687, 1, 4, 1.21], [8672, 2, 145, 6.0], [141, 2, 156, 2.73], [362, 2, 72, 6.0], [361, 2, 78, 6.0], [6935, 2, 143, 6.0], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 42, 4.62], [2049, 3, 276, 6.0], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 78, 6.0], [3, 2, 61, 6.0], [6936, 2, 143, 6.0], [305, 2, 74, 6.0], [151, 1, 33, 2.79], [523, 2, 78, 6.0], [22247, 2, 285, 3.62], [8650, 2, 114, 6.0], [142, 2, 156, 2.68], [8648, 2, 114, 6.0], [2328, 2, 76, 6.0], [2776, 2, 79, 6.0], [8853, 2, 282, 4.82], [11739, 2, 57, 3.01], [616, 2, 107, 4.01], [2327, 2, 76, 6.0], [11837, 2, 268, 2.61], [12352, 1, 607, 4.89], [411, 2, 110, 2.65], [589, 2, 77, 6.0], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 134, 6.0], [412, 1, 42, 6.0], [6497, 1, 19, 3.94], [12353, 1, 607, 4.89], [8674, 2, 145, 6.0], [583, 2, 30, 3.93], [145, 2, 151, 2.69], [2805, 137, 92, 6.0], [326, 2, 30, 3.62], [10574, 3, 249, 6.0], [144, 2, 151, 2.74], [418, 2, 142, 2.79], [6097, 80, 35, 6.0], [11738, 2, 57, 3.01], [9784, 1, 36, 6.0], [10149, 3, 906, 2.65], [413, 1, 44, 6.0], [6097, 29, 18, 6.0], [2057, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [2055, 3, 158, 4.31], [12344, 1, 607, 4.33], [1413, 15, 50, 6.0], [20252, 2, 94, 2.66], [11504, 2, 72, 6.0], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 44, 6.0], [1492, 1, 37, 2.92], [6098, 80, 38, 6.0], [12346, 1, 607, 4.89], [247, 1, 86, 5.11]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 5, 0.52], [6935, 2, 5, 1.77], [305, 2, 4, 0.45], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [593, 2, 4, 0.37], [326, 2, 4, 0.65], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [3840, 1, 4, 0.29], [7036, 1, 4, 0.44], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.59], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [5491, 2, 4, 0.58], [990, 2, 5, 0.2], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [9372, 1, 4, 1.97], [3893, 1, 4, 0.2], [2057, 3, 4, 0.46], [8649, 2, 5, 0.39], [434, 2, 4, 0.2], [8938, 2, 4, 0.52], [12870, 1, 4, 1.22], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [3891, 1, 4, 0.2], [140, 2, 4, 1.27], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.45], [75, 2, 4, 0.39], [12352, 1, 4, 0.66], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [346, 3, 4, 0.19], [147, 1, 4, 1.75], [996, 2, 4, 1.16], [11811, 1, 4, 0.2], [229, 1, 4, 0.54], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [998, 2, 5, 1.0], [94, 4, 4, 1.91], [972, 3, 5, 1.02], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [6158, 2, 4, 2.61], [13028, 3, 5, 1.54], [413, 1, 4, 1.08], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [5209, 3, 4, 0.19], [412, 1, 4, 0.43], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [3495, 3, 10, 0.82], [2774, 2, 4, 0.63], [8898, 3, 5, 1.44], [12212, 29, 4, 0.2], [7887, 4, 4, 0.94], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [84, 2, 4, 0.97], [126, 2, 4, 1.27], [13928, 2, 4, 0.7], [11739, 2, 4, 1.42], [411, 2, 4, 0.48], [9691, 1, 4, 0.57], [3048, 3, 5, 1.15], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [12764, 2, 5, 0.21], [10410, 10, 9, 2.08], [11954, 1, 4, 0.38], [7567, 3, 5, 1.16], [74, 1, 4, 1.39], [2327, 2, 74, 6.0], [6935, 2, 135, 6.0], [305, 2, 72, 6.0], [2778, 2, 77, 6.0], [144, 2, 55, 6.0], [130, 1, 29, 6.0], [8915, 2, 93, 6.0], [589, 2, 75, 6.0], [143, 2, 72, 6.0], [2328, 2, 147, 3.37], [6936, 2, 135, 6.0], [8648, 2, 110, 6.0], [2775, 2, 77, 6.0], [205, 2, 54, 6.0], [8650, 2, 110, 6.0], [593, 2, 223, 2.53], [326, 2, 44, 6.0], [146, 2, 73, 6.0], [145, 2, 73, 6.0], [3840, 1, 84, 6.0], [7036, 1, 63, 6.0], [2049, 3, 360, 2.34], [2776, 2, 77, 6.0], [615, 2, 54, 5.74], [616, 2, 54, 4.36], [88, 10, 276, 6.0], [141, 2, 76, 6.0], [151, 1, 32, 2.68], [1124, 2, 182, 3.1], [11681, 2, 131, 6.0], [206, 2, 106, 2.39], [1446, 2, 74, 6.0], [9760, 29, 35, 6.0], [8853, 2, 135, 6.0], [5491, 2, 53, 6.0], [990, 2, 26, 2.7], [1007, 2, 264, 2.49], [362, 2, 69, 6.0], [8672, 2, 140, 6.0], [1504, 2, 99, 6.0], [2055, 3, 314, 2.32], [9372, 1, 114, 6.0], [3893, 1, 61, 6.0], [2057, 3, 314, 2.32], [8649, 2, 110, 6.0], [434, 2, 53, 4.6], [8938, 2, 125, 2.43], [12870, 1, 69, 6.0], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 76, 6.0], [3889, 1, 122, 2.29], [5165, 1, 38, 6.0], [1429, 2, 74, 6.0], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 79, 6.0], [3891, 1, 61, 6.0], [140, 2, 86, 3.98], [1006, 2, 111, 6.0], [7886, 4, 35, 4.13], [10574, 3, 246, 6.0], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 273, 6.0], [1622, 1, 105, 2.46]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 9, 1.35], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.9], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [362, 2, 6, 0.85], [141, 2, 7, 2.37], [2497, 2, 7, 1.14], [144, 2, 7, 1.3], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 7, 1.37], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 1.02], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.02], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [12343, 1, 7, 2.59], [2055, 3, 7, 3.23], [624, 2, 7, 2.32], [2423, 80, 7, 2.97], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.52], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [75, 2, 7, 2.15], [8915, 2, 7, 0.75], [88, 10, 16, 2.9], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 0.81], [412, 1, 7, 1.93], [21712, 3, 21, 1.11], [1050, 2, 7, 0.7], [2422, 80, 7, 2.41], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [6098, 29, 7, 2.55], [378, 2, 9, 2.87], [12346, 1, 7, 2.59], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [11738, 2, 7, 1.32], [229, 1, 7, 3.68], [1243, 2, 7, 1.32], [22316, 3, 7, 0.85], [1049, 2, 7, 0.7], [13264, 29, 7, 0.94], [20252, 2, 7, 1.06], [345, 3, 7, 2.32], [13258, 29, 9, 1.59], [12269, 2, 7, 0.93], [1490, 1, 7, 0.87], [964, 15, 7, 0.66], [2331, 1, 7, 1.02], [10407, 10, 10, 2.08], [1163, 3, 7, 2.25], [2821, 3, 12, 1.27], [5208, 3, 9, 1.41], [201, 3, 7, 4.28], [416, 1, 7, 3.06], [307, 2, 7, 1.91], [2912, 1, 7, 2.28], [186, 3, 12, 0.9], [149, 2, 7, 1.95], [7004, 1, 7, 1.03], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [13259, 29, 7, 2.95], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [11687, 2, 7, 1.02], [10406, 10, 12, 2.42], [410, 1, 7, 1.3], [7036, 1, 7, 0.87], [20255, 2, 7, 1.14], [3478, 2, 9, 1.47], [9784, 1, 7, 1.67], [21713, 3, 13, 0.88], [10408, 10, 10, 1.81], [12870, 1, 7, 4.46], [8938, 2, 7, 1.06], [5490, 2, 7, 0.91], [11402, 1, 7, 0.85], [10410, 10, 10, 2.08], [19687, 1, 7, 2.23], [107, 7, 8, 2.46], [1886, 2, 7, 0.65], [11161, 1, 10, 3.78], [11490, 1, 7, 0.83], [2703, 3, 7, 3.92], [956, 2, 7, 0.96], [21781, 2, 7, 0.86], [10411, 10, 10, 1.97], [11690, 2, 7, 0.66], [13258, 25, 7, 1.24], [159, 16, 7, 1.3], [21712, 3, 2180, 2.89], [1050, 2, 38, 1.78], [2422, 80, 187, 4.2], [10149, 3, 866, 4.0], [2422, 29, 18, 6.0], [6098, 29, 37, 4.34], [378, 2, 114, 6.0], [12346, 1, 610, 4.37], [7704, 2, 176, 4.07], [151, 1, 33, 2.79], [11738, 2, 56, 3.11], [229, 1, 81, 5.47], [1243, 2, 99, 3.11], [22316, 3, 318, 2.64], [1049, 2, 38, 1.78], [13264, 29, 73, 2.73], [20252, 2, 92, 2.85], [345, 3, 297, 4.11], [13258, 29, 39, 3.37], [12269, 2, 65, 2.72], [1490, 1, 51, 2.66], [2331, 1, 119, 2.8], [10407, 10, 1201, 3.88], [1163, 3, 114, 6.0], [2821, 3, 658, 6.0], [5208, 3, 561, 3.2], [201, 3, 297, 6.0], [416, 1, 85, 4.84], [307, 2, 148, 3.7], [2912, 1, 49, 4.07], [186, 3, 665, 2.69], [149, 2, 88, 3.74], [7004, 1, 80, 2.82], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [13259, 29, 35, 4.73], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [11687, 2, 303, 2.8], [10406, 10, 1784, 4.24], [410, 1, 105, 3.09], [7036, 1, 127, 2.65], [20255, 2, 93, 2.93], [3478, 2, 38, 6.0], [9784, 1, 72, 3.46], [21713, 3, 1121, 2.67], [10408, 10, 785, 3.6], [12870, 1, 137, 6.0], [8938, 2, 192, 2.85], [5490, 2, 108, 2.69], [11402, 1, 45, 2.64], [10410, 10, 1201, 3.88], [19687, 1, 30, 4.02], [107, 7, 239, 4.24], [1886, 2, 158, 2.44], [11161, 1, 490, 5.57], [11490, 1, 55, 6.0], [2703, 3, 300, 5.7], [956, 2, 107, 2.75], [21781, 2, 104, 2.65], [10411, 10, 785, 3.76], [11690, 2, 303, 2.44], [13258, 25, 78, 3.02], [159, 16, 79, 3.09]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.94], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.95], [2327, 2, 7, 1.16], [11685, 2, 7, 4.19], [326, 2, 7, 1.87], [8672, 2, 10, 1.28], [417, 2, 7, 1.02], [1124, 2, 10, 0.83], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 11, 1.7], [11838, 2, 7, 1.49], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.86], [11739, 2, 7, 1.9], [10574, 3, 10, 2.64], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [21793, 1, 8, 4.02], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [8675, 2, 9, 1.42], [76, 2, 7, 2.04], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [11836, 2, 7, 0.79], [8674, 2, 7, 1.46], [146, 2, 7, 1.14], [8938, 2, 7, 1.78], [6158, 2, 9, 2.65], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [10149, 3, 21, 1.48], [2776, 2, 7, 1.37], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 7, 1.35], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 3.21], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 1.09], [410, 1, 7, 0.87], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [2424, 29, 9, 1.09], [2423, 80, 7, 2.8], [378, 2, 7, 2.23], [12351, 1, 7, 1.63], [2423, 29, 7, 3.02], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [12373, 1, 11, 1.47], [13023, 3, 10, 2.63], [13034, 3, 8, 2.37], [201, 3, 7, 3.8], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [5208, 3, 9, 1.01], [345, 3, 7, 1.4], [11770, 1, 7, 0.89], [3, 2, 7, 5.0], [6952, 1, 7, 2.01], [159, 1, 7, 1.33], [20927, 1, 7, 0.87], [3430, 15, 7, 2.26], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [11504, 2, 7, 0.67], [13928, 1, 7, 0.82], [566, 2, 7, 0.92], [11811, 1, 7, 1.93], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.08], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [1490, 1, 7, 3.38], [7004, 1, 7, 1.91], [2703, 3, 7, 3.92], [11089, 1, 7, 0.71], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [12348, 1, 7, 1.19], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [10410, 10, 10, 2.08], [3891, 1, 7, 4.39], [94, 4, 7, 4.17], [11953, 1, 7, 0.85], [9082, 3, 24, 2.42], [2859, 15, 69, 2.6], [7084, 3, 129, 5.0], [418, 2, 72, 5.99], [10993, 2, 27, 3.99], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [5165, 1, 49, 2.88], [410, 1, 53, 2.3], [12526, 2, 272, 4.56], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [2424, 29, 17, 3.17], [2423, 80, 92, 6.0], [378, 2, 114, 6.0], [12351, 1, 315, 6.0], [2423, 29, 37, 4.81], [12345, 1, 315, 6.0], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [12373, 1, 533, 3.26], [13023, 3, 592, 4.42], [13034, 3, 592, 4.16], [201, 3, 298, 5.59], [1519, 3, 561, 1.77], [11489, 1, 109, 2.46], [5208, 3, 563, 2.79], [345, 3, 298, 3.19], [11770, 1, 221, 2.67], [3, 2, 118, 6.0], [6952, 1, 189, 3.79], [159, 1, 39, 3.12], [20927, 1, 80, 2.66], [3430, 15, 69, 4.05], [11954, 1, 203, 2.56], [7886, 4, 36, 4.53], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [11504, 2, 72, 6.0], [13928, 1, 49, 2.61], [566, 2, 175, 2.7], [11811, 1, 451, 3.72], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 3.88], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [1490, 1, 48, 5.17], [7004, 1, 40, 6.0], [2703, 3, 300, 5.7], [11089, 1, 173, 2.5], [6098, 80, 74, 4.31], [12348, 1, 315, 6.0], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [10410, 10, 1201, 3.88], [3891, 1, 122, 6.0], [94, 4, 116, 5.96], [11953, 1, 203, 2.63], [9082, 3, 2452, 4.17]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.64], [589, 2, 10, 0.77], [141, 2, 7, 2.25], [75, 2, 7, 0.75], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [8672, 2, 10, 0.94], [2778, 2, 9, 0.79], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.91], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [990, 2, 7, 1.89], [11681, 2, 10, 4.17], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 1.39], [144, 2, 7, 0.91], [10149, 3, 25, 4.03], [345, 3, 10, 0.97], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.66], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 0.85], [413, 1, 7, 2.13], [21793, 1, 7, 1.33], [201, 3, 10, 0.88], [167, 3, 9, 0.97], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.9], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [7084, 3, 7, 0.69], [11234, 2, 9, 0.72], [1429, 2, 7, 1.21], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [335, 3, 16, 0.7], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [13028, 3, 7, 0.9], [308, 1, 9, 2.22], [12870, 1, 7, 2.96], [10825, 21, 14, 2.47], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [23, 1, 7, 1.24], [96, 11, 23, 0.64], [1006, 2, 7, 1.06], [418, 2, 7, 0.79], [3893, 1, 7, 1.48], [1504, 2, 7, 1.39], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [94, 4, 7, 4.2], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [21269, 3, 7, 4.99], [8939, 2, 7, 1.39], [13280, 1, 7, 2.64], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [7567, 3, 7, 2.54], [2049, 1, 7, 0.69], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [3980, 4, 7, 2.59], [1703, 2, 7, 1.51], [8121, 3, 7, 0.97], [8274, 3, 7, 1.24], [35, 1, 7, 0.88], [9691, 1, 7, 2.1], [5209, 3, 9, 0.67], [5584, 3, 7, 3.35], [11811, 1, 7, 1.83], [997, 2, 7, 1.98], [1070, 7, 13, 1.16], [11914, 1, 7, 1.42], [1519, 3, 17, 0.69], [5660, 2, 7, 1.66], [856, 1, 7, 0.69], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [523, 2, 7, 1.16], [8926, 1, 7, 2.6], [2775, 2, 7, 0.79], [11767, 1, 7, 0.88], [9372, 1, 7, 2.03], [13034, 3, 8, 3.38], [9081, 3, 12, 3.55], [20255, 2, 7, 1.43], [12661, 1, 7, 1.87], [307, 2, 7, 2.19], [23, 1, 39, 6.0], [96, 11, 784, 1.8], [1006, 2, 80, 6.0], [418, 2, 131, 1.94], [3893, 1, 44, 6.0], [1504, 2, 72, 6.0], [145, 2, 139, 1.94], [5208, 3, 196, 6.0], [9827, 3, 30, 6.0], [3891, 1, 44, 6.0], [432, 3, 106, 6.0], [7005, 1, 28, 5.1], [1490, 1, 18, 4.13], [8853, 2, 97, 6.0], [94, 4, 42, 6.0], [13260, 29, 26, 3.15], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 79, 6.0], [12353, 1, 557, 4.25], [20256, 2, 33, 4.77], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [950, 1, 55, 2.12], [33, 1, 39, 6.0], [5086, 1, 63, 6.0], [998, 2, 83, 6.0], [9069, 1, 43, 6.0], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 28, 6.0], [140, 2, 32, 6.0], [7567, 3, 24, 6.0], [2049, 1, 14, 1.52], [20927, 1, 28, 2.26], [126, 2, 32, 6.0], [346, 3, 219, 6.0], [3980, 4, 443, 3.74], [1703, 2, 149, 2.66], [8121, 3, 270, 2.12], [8274, 3, 159, 6.0], [35, 1, 103, 2.02], [9691, 1, 27, 6.0], [5209, 3, 196, 6.0], [5584, 3, 86, 6.0], [11811, 1, 416, 2.98], [997, 2, 83, 6.0], [1070, 7, 206, 6.0], [11914, 1, 30, 6.0], [1519, 3, 1545, 1.83], [5660, 2, 61, 6.0], [856, 1, 32, 1.84], [8898, 3, 102, 6.0], [1091, 1, 17, 3.07], [5513, 2, 70, 1.95], [523, 2, 143, 2.31], [8926, 1, 22, 6.0], [2775, 2, 55, 6.0], [11767, 1, 151, 2.03], [9372, 1, 210, 3.18], [13034, 3, 203, 6.0], [9081, 3, 161, 6.0], [20255, 2, 33, 6.0], [12661, 1, 28, 6.0], [307, 2, 51, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 20, 2.06], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 7, 1.83], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [151, 1, 7, 1.36], [3840, 1, 9, 1.09], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [1504, 2, 7, 1.79], [624, 2, 7, 2.19], [12224, 1, 7, 0.84], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [362, 2, 7, 0.96], [2055, 3, 7, 0.84], [141, 2, 7, 1.21], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [378, 2, 7, 2.23], [5208, 3, 9, 0.78], [3889, 1, 7, 0.65], [8649, 2, 7, 3.15], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [10993, 2, 7, 1.29], [11234, 2, 7, 1.8], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [2050, 3, 7, 0.84], [3980, 4, 6, 2.43], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [5165, 1, 7, 2.49], [9760, 29, 7, 0.71], [998, 2, 7, 2.89], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [346, 3, 7, 1.21], [3, 2, 7, 1.14], [229, 1, 7, 1.0], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5165, 2, 8, 2.84], [5076, 1, 7, 1.3], [7887, 4, 7, 1.42], [20252, 2, 7, 1.43], [126, 2, 7, 2.34], [11953, 1, 7, 0.84], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [11685, 2, 11, 3.45], [1492, 1, 7, 0.95], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [20256, 2, 9, 0.82], [12721, 2, 7, 4.25], [2774, 2, 7, 1.15], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [6497, 1, 7, 3.31], [12343, 1, 7, 1.22], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [10407, 10, 10, 2.08], [12351, 1, 7, 1.22], [11179, 1, 7, 1.6], [6496, 1, 7, 3.41], [22317, 3, 7, 0.66], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [2805, 137, 7, 2.91], [8898, 3, 7, 3.35], [3900, 3, 7, 3.39], [12526, 2, 7, 2.21], [2424, 29, 7, 1.01], [11812, 1, 7, 0.87], [3975, 4, 7, 2.86], [4253, 1, 7, 1.04], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [1622, 1, 7, 0.87], [412, 1, 7, 0.81], [12764, 2, 8, 0.9], [8676, 2, 7, 4.08], [998, 2, 115, 6.0], [997, 2, 232, 4.28], [2436, 4, 57, 5.92], [1006, 2, 111, 6.0], [972, 3, 291, 6.0], [2424, 80, 82, 6.0], [346, 3, 308, 6.0], [3, 2, 118, 2.79], [229, 1, 81, 2.64], [6158, 2, 127, 6.0], [3495, 3, 471, 6.0], [12346, 1, 612, 2.87], [5165, 2, 180, 6.0], [5076, 1, 127, 2.94], [7887, 4, 68, 2.73], [20252, 2, 91, 3.07], [126, 2, 86, 3.98], [11953, 1, 195, 2.48], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 93, 6.0], [11954, 1, 195, 2.34], [11685, 2, 131, 6.0], [1492, 1, 18, 2.93], [12352, 1, 612, 2.87], [996, 2, 115, 6.0], [20256, 2, 49, 4.91], [12721, 2, 272, 5.89], [2774, 2, 200, 2.79], [12350, 1, 612, 2.87], [3981, 3, 790, 6.0], [9491, 21, 1034, 6.0], [5434, 1, 24, 6.0], [2423, 80, 90, 6.0], [6497, 1, 35, 4.95], [12343, 1, 612, 2.87], [5584, 3, 120, 6.0], [2438, 2, 308, 6.0], [10388, 2, 211, 3.57], [10407, 10, 1168, 3.71], [12351, 1, 612, 2.87], [11179, 1, 85, 3.25], [6496, 1, 38, 5.05], [22317, 3, 308, 2.3], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 273, 6.0], [2805, 137, 175, 4.54], [8898, 3, 144, 6.0], [3900, 3, 21, 6.0], [12526, 2, 135, 3.53], [2424, 29, 34, 2.65], [11812, 1, 116, 6.0], [3975, 4, 234, 6.0], [4253, 1, 83, 6.0], [11490, 1, 106, 2.29], [336, 15, 110, 3.43], [1622, 1, 52, 6.0], [412, 1, 82, 2.45], [12764, 2, 734, 2.54], [8676, 2, 274, 5.72]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 1.34], [2327, 2, 7, 1.6], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.06], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.94], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [412, 1, 7, 1.25], [5491, 2, 7, 0.92], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [417, 2, 7, 0.83], [583, 2, 7, 1.42], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [8089, 1, 7, 2.21], [248, 1, 9, 0.68], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 1.19], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.98], [6097, 29, 7, 3.9], [6098, 80, 7, 2.81], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 24, 2.21], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [418, 2, 7, 1.68], [4032, 29, 7, 0.9], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [5151, 2, 7, 1.14], [972, 3, 9, 1.15], [12304, 1, 7, 1.18], [229, 1, 7, 3.82], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [13034, 3, 7, 4.02], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [2424, 29, 7, 2.13], [3, 2, 7, 1.01], [11426, 25, 7, 1.07], [11737, 2, 7, 0.91], [5076, 1, 7, 1.18], [11767, 1, 7, 0.88], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [8677, 3, 8, 1.86], [11180, 1, 7, 1.04], [1701, 2, 7, 3.79], [75, 2, 7, 1.94], [11586, 1, 14, 3.12], [3478, 2, 7, 1.65], [3577, 25, 7, 0.77], [11585, 29, 7, 2.06], [9998, 80, 7, 0.77], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [2438, 2, 8, 1.84], [4253, 1, 7, 1.9], [2424, 80, 146, 3.69], [346, 3, 245, 6.0], [3334, 5, 70, 6.0], [20927, 1, 68, 2.36], [12351, 1, 536, 2.11], [7885, 4, 120, 2.4], [6097, 29, 23, 6.0], [6098, 80, 30, 6.0], [11089, 1, 149, 2.22], [12345, 1, 536, 2.26], [10149, 3, 741, 3.62], [20256, 2, 37, 5.06], [147, 1, 77, 3.78], [22316, 3, 273, 2.08], [1492, 1, 15, 3.66], [11953, 1, 172, 2.22], [432, 3, 118, 6.0], [11491, 2, 121, 2.36], [20252, 2, 36, 4.81], [418, 2, 121, 3.09], [4032, 29, 38, 5.37], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 42, 6.0], [5151, 2, 21, 2.55], [972, 3, 233, 6.0], [12304, 1, 97, 2.59], [229, 1, 70, 5.24], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [2331, 1, 100, 4.08], [346, 1, 62, 6.0], [13034, 3, 228, 6.0], [995, 2, 206, 3.55], [416, 1, 33, 6.0], [2424, 29, 29, 3.54], [3, 2, 105, 2.43], [11426, 25, 103, 2.49], [11737, 2, 49, 2.33], [5076, 1, 112, 2.59], [11767, 1, 140, 2.3], [439, 1, 74, 4.64], [11490, 1, 42, 6.0], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [8677, 3, 253, 3.28], [11180, 1, 34, 5.56], [1701, 2, 63, 6.0], [75, 2, 124, 3.36], [11586, 1, 147, 6.0], [3478, 2, 65, 3.07], [3577, 25, 76, 2.18], [11585, 29, 149, 3.47], [9998, 80, 107, 2.19], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26], [4253, 1, 144, 3.31]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.37], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 0.83], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3891, 1, 7, 1.68], [3840, 1, 7, 0.72], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.41], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [362, 2, 7, 1.64], [8672, 2, 9, 2.44], [8649, 2, 7, 2.8], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [2991, 3, 7, 4.78], [3495, 3, 21, 1.48], [7084, 3, 7, 1.12], [7005, 1, 7, 1.73], [3975, 4, 7, 2.49], [10149, 3, 21, 1.48], [21793, 1, 7, 4.43], [11404, 2, 7, 1.67], [9760, 29, 7, 0.8], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.52], [417, 2, 7, 1.5], [5165, 2, 10, 2.64], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [956, 2, 7, 0.86], [33, 1, 7, 2.04], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [7887, 4, 9, 0.87], [6497, 1, 7, 2.42], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [432, 3, 7, 0.86], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 2.06], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 2.0], [389, 4, 7, 2.13], [74, 1, 7, 2.13], [2912, 2, 8, 0.79], [6496, 1, 7, 0.85], [35, 1, 7, 1.54], [7567, 3, 7, 3.18], [411, 2, 7, 1.02], [1413, 15, 7, 1.17], [12721, 2, 7, 1.91], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8121, 3, 6, 0.85], [8673, 2, 7, 2.48], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [8676, 2, 7, 3.11], [21269, 3, 7, 4.87], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [12526, 2, 7, 2.15], [11085, 2, 8, 3.16], [9784, 1, 7, 1.01], [12269, 2, 7, 1.9], [1274, 1, 9, 1.03], [6494, 1, 7, 2.34], [37, 1, 7, 1.7], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [12225, 1, 7, 2.51], [7573, 1, 9, 2.67], [345, 3, 7, 2.52], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [96, 11, 22, 1.1], [6158, 2, 103, 6.0], [20927, 1, 68, 3.22], [3981, 3, 623, 6.0], [417, 2, 133, 2.95], [5165, 2, 144, 6.0], [2912, 1, 32, 4.02], [3982, 3, 306, 6.0], [8939, 2, 75, 6.0], [1007, 2, 105, 6.0], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [956, 2, 93, 2.32], [33, 1, 44, 6.0], [11772, 1, 84, 6.0], [286, 3, 55, 6.0], [7887, 4, 54, 5.74], [6497, 1, 15, 5.7], [1492, 1, 15, 5.35], [11767, 1, 63, 6.0], [432, 3, 264, 2.32], [336, 15, 96, 3.67], [972, 3, 232, 6.0], [11769, 1, 139, 3.51], [11490, 1, 42, 6.0], [11770, 1, 84, 6.0], [389, 4, 81, 6.0], [74, 1, 176, 3.58], [2912, 2, 342, 2.25], [6496, 1, 35, 2.31], [35, 1, 44, 6.0], [7567, 3, 27, 6.0], [411, 2, 42, 6.0], [1413, 15, 86, 2.63], [12721, 2, 111, 6.0], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8121, 3, 114, 6.0], [8673, 2, 240, 3.93], [1126, 2, 197, 2.71], [4176, 4, 186, 6.0], [2436, 4, 45, 4.02], [9372, 1, 196, 4.79], [8676, 2, 245, 4.57], [21269, 3, 254, 6.0], [8677, 3, 115, 6.0], [22247, 2, 111, 6.0], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [12526, 2, 235, 3.6], [11085, 2, 207, 6.0], [9784, 1, 63, 2.46], [12269, 2, 55, 3.35], [1274, 1, 32, 4.03], [6494, 1, 20, 6.0], [37, 1, 96, 3.15], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [12225, 1, 141, 3.96], [7573, 1, 144, 6.0], [345, 3, 115, 6.0], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [96, 11, 330, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.9], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.28], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.53], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.79], [11737, 2, 7, 1.18], [11838, 2, 7, 1.04], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.81], [11739, 2, 7, 1.18], [88, 10, 14, 1.5], [434, 2, 7, 1.44], [2776, 2, 9, 1.21], [142, 2, 7, 1.05], [435, 2, 7, 1.4], [151, 1, 7, 1.36], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 9, 1.91], [2423, 80, 7, 3.37], [10574, 3, 9, 3.0], [3670, 2, 9, 3.61], [11836, 2, 9, 0.79], [7705, 2, 7, 2.08], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [378, 2, 7, 4.55], [7706, 2, 7, 2.08], [12720, 2, 7, 1.89], [12353, 1, 7, 1.94], [22316, 3, 7, 0.85], [2055, 3, 7, 1.85], [12344, 1, 7, 0.88], [3478, 2, 9, 2.65], [10149, 3, 21, 2.21], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [2774, 2, 7, 1.06], [307, 2, 7, 1.91], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [418, 2, 7, 0.9], [7004, 1, 7, 1.96], [13928, 1, 7, 0.74], [411, 2, 7, 0.9], [11089, 1, 7, 0.71], [413, 1, 9, 2.57], [2057, 3, 7, 2.1], [11844, 2, 7, 1.79], [14037, 3, 7, 1.85], [7036, 1, 7, 1.74], [2050, 3, 7, 2.1], [8274, 3, 7, 1.68], [3893, 1, 7, 3.83], [20252, 2, 7, 1.06], [13260, 29, 7, 1.29], [6097, 80, 7, 3.38], [439, 1, 9, 2.21], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [9784, 1, 7, 2.37], [6494, 1, 7, 0.85], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [1413, 16, 7, 0.71], [11490, 1, 7, 0.86], [1243, 2, 7, 1.32], [7708, 2, 7, 2.28], [414, 1, 9, 1.63], [3889, 1, 7, 3.83], [1492, 1, 7, 1.13], [5208, 3, 9, 1.82], [565, 2, 7, 0.84], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [11491, 2, 7, 1.5], [21793, 1, 7, 1.83], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [2422, 80, 9, 4.33], [6098, 80, 7, 2.52], [410, 1, 7, 0.74], [11504, 2, 7, 1.33], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3674, 2, 7, 0.96], [147, 1, 7, 2.73], [3430, 15, 7, 2.26], [5165, 1, 7, 1.09], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [247, 1, 7, 2.33], [74, 1, 102, 6.0], [3429, 15, 53, 2.63], [2774, 2, 105, 6.0], [307, 2, 148, 3.7], [6497, 1, 38, 2.59], [60, 3, 405, 6.0], [12526, 2, 138, 6.0], [418, 2, 72, 6.0], [7004, 1, 40, 6.0], [13928, 1, 24, 2.85], [411, 2, 109, 2.69], [11089, 1, 173, 2.5], [413, 1, 44, 6.0], [2057, 3, 473, 3.89], [7036, 1, 128, 3.53], [2050, 3, 473, 3.89], [8274, 3, 115, 6.0], [3893, 1, 123, 5.62], [20252, 2, 92, 2.85], [13260, 29, 36, 6.0], [6097, 80, 35, 6.0], [439, 1, 43, 6.0], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 60, 6.0], [159, 3, 709, 3.16], [9784, 1, 71, 4.16], [6494, 1, 52, 2.64], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [1413, 16, 50, 2.5], [11490, 1, 109, 2.65], [1243, 2, 50, 6.0], [7708, 2, 176, 4.07], [414, 1, 44, 6.0], [3889, 1, 123, 5.62], [1492, 1, 37, 2.92], [5208, 3, 558, 3.6], [565, 2, 176, 2.63], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [11491, 2, 141, 3.28], [21793, 1, 123, 6.0], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.11], [2422, 80, 92, 6.0], [6098, 80, 74, 4.31], [410, 1, 53, 2.17], [11504, 2, 141, 3.12], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3674, 2, 260, 2.74], [147, 1, 87, 4.52], [3430, 15, 69, 4.05], [5165, 1, 49, 2.88], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [247, 1, 87, 4.12]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.94], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 2.81], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 7, 1.93], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [7886, 4, 7, 1.22], [88, 10, 21, 3.14], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 1.01], [1492, 1, 9, 1.36], [1007, 2, 10, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.91], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.78], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [7084, 3, 7, 2.64], [3478, 2, 7, 1.0], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.44], [94, 4, 7, 3.06], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [11681, 2, 11, 3.45], [8677, 3, 9, 1.51], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 14, 4.07], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [20927, 1, 7, 0.83], [8651, 2, 7, 1.63], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [25, 1, 7, 1.4], [1767, 25, 9, 1.46], [45, 2, 7, 2.7], [9069, 1, 7, 1.75], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [3495, 3, 21, 1.61], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [998, 2, 7, 1.87], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [490, 1, 9, 0.99], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [506, 1, 7, 4.76], [11489, 1, 7, 1.21], [8674, 2, 7, 0.99], [8898, 3, 7, 3.23], [3670, 2, 7, 3.6], [997, 2, 7, 3.34], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [974, 3, 7, 1.64], [107, 2, 7, 1.46], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 1.3], [823, 1, 7, 1.62], [34, 1, 7, 2.43], [14017, 3, 9, 1.09], [9784, 1, 7, 1.51], [972, 3, 8, 1.49], [5209, 3, 7, 0.98], [1091, 1, 7, 1.18], [11739, 2, 7, 1.26], [20498, 3, 10, 1.16], [432, 3, 146, 6.0], [11681, 2, 129, 6.0], [8677, 3, 142, 6.0], [148, 1, 43, 6.0], [96, 11, 409, 6.0], [1490, 1, 24, 2.48], [12225, 1, 71, 2.57], [1124, 2, 90, 6.0], [11737, 2, 28, 5.54], [1243, 2, 83, 2.22], [22247, 2, 138, 6.0], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 136, 6.0], [201, 3, 147, 6.0], [412, 1, 40, 6.0], [9760, 29, 35, 4.45], [10574, 3, 239, 6.0], [20927, 1, 39, 5.09], [8651, 2, 109, 6.0], [5208, 3, 480, 2.56], [8676, 2, 138, 6.0], [229, 1, 40, 6.0], [25, 1, 95, 2.71], [1767, 25, 83, 6.0], [45, 2, 53, 6.0], [9069, 1, 60, 6.0], [413, 1, 42, 6.0], [11490, 1, 53, 5.75], [3495, 3, 463, 6.0], [149, 2, 43, 6.0], [159, 3, 602, 2.48], [998, 2, 117, 6.0], [140, 2, 44, 6.0], [95, 3, 892, 4.89], [3980, 4, 230, 6.0], [950, 1, 25, 2.17], [5946, 1, 60, 6.0], [9372, 1, 112, 6.0], [1126, 2, 110, 6.0], [1766, 25, 90, 6.0], [490, 1, 29, 3.51], [2775, 2, 75, 6.0], [1413, 15, 47, 6.0], [506, 1, 74, 6.0], [11489, 1, 53, 6.0], [8674, 2, 138, 6.0], [8898, 3, 141, 6.0], [3670, 2, 117, 6.0], [997, 2, 202, 4.64], [1070, 7, 283, 6.0], [9691, 1, 36, 6.0], [974, 3, 72, 6.0], [107, 2, 31, 6.0], [20498, 1, 47, 6.0], [11954, 1, 171, 2.17], [823, 1, 20, 5.09], [34, 1, 54, 6.0], [14017, 3, 95, 6.0], [9784, 1, 35, 6.0], [972, 3, 286, 6.0], [5209, 3, 480, 2.29], [1091, 1, 41, 2.48], [11739, 2, 28, 5.54], [20498, 3, 282, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [362, 2, 9, 0.83], [151, 1, 7, 0.89], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 7, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1007, 2, 10, 0.81], [1777, 1, 7, 2.96], [2778, 2, 7, 0.79], [248, 1, 7, 1.2], [22247, 2, 9, 1.93], [88, 10, 14, 2.0], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [10, 2, 11, 2.2], [2054, 3, 7, 4.0], [8677, 3, 8, 3.58], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.89], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [5081, 2, 7, 0.81], [1492, 1, 6, 1.98], [140, 2, 7, 1.98], [7005, 1, 9, 0.89], [167, 3, 9, 3.09], [7036, 1, 7, 2.14], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 11, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [13280, 1, 9, 3.64], [5812, 3, 8, 3.38], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [168, 3, 9, 1.46], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [6097, 29, 7, 3.38], [8853, 2, 14, 3.62], [416, 1, 7, 2.33], [8939, 2, 7, 0.84], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [1490, 1, 7, 1.27], [95, 3, 26, 0.85], [20927, 1, 9, 0.66], [79, 1, 7, 0.7], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [13034, 3, 8, 3.38], [126, 2, 7, 2.75], [20498, 1, 7, 1.96], [9760, 29, 7, 0.87], [5086, 1, 9, 1.76], [20255, 2, 7, 1.43], [12924, 1, 9, 0.86], [5513, 2, 7, 0.84], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [13260, 29, 7, 1.0], [22317, 3, 8, 1.35], [7567, 3, 7, 3.2], [1413, 15, 7, 1.52], [229, 1, 7, 2.92], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [5813, 3, 9, 2.14], [8557, 3, 7, 1.01], [9082, 3, 20, 2.38], [192, 3, 22, 4.76], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [20498, 3, 8, 2.02], [9691, 1, 9, 2.48], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [8943, 3, 7, 3.03], [470, 1, 7, 1.35], [1622, 1, 10, 0.79], [2775, 2, 6, 0.79], [9372, 1, 7, 2.03], [13023, 3, 8, 2.94], [20486, 3, 8, 1.86], [1703, 2, 7, 1.51], [11454, 2, 9, 3.65], [2423, 80, 7, 3.68], [3900, 3, 7, 3.14], [5584, 3, 7, 3.31], [2424, 80, 7, 3.75], [2497, 2, 7, 0.78], [415, 1, 30, 6.0], [8651, 2, 79, 6.0], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [6097, 29, 12, 6.0], [8853, 2, 97, 6.0], [416, 1, 30, 6.0], [8939, 2, 67, 6.0], [6097, 80, 24, 6.0], [11737, 2, 20, 6.0], [20256, 2, 33, 6.0], [1490, 1, 18, 3.59], [95, 3, 390, 6.0], [20927, 1, 28, 2.26], [79, 1, 44, 1.85], [6098, 29, 13, 4.25], [14017, 3, 69, 6.0], [6098, 80, 27, 6.0], [414, 1, 79, 2.64], [9069, 1, 43, 6.0], [1070, 7, 206, 6.0], [8898, 3, 102, 6.0], [1126, 2, 80, 6.0], [13034, 3, 203, 6.0], [126, 2, 32, 6.0], [20498, 1, 34, 6.0], [9760, 29, 25, 3.42], [5086, 1, 63, 6.0], [20255, 2, 33, 6.0], [12924, 1, 19, 2.3], [5513, 2, 70, 1.99], [9784, 1, 25, 4.16], [336, 15, 40, 6.0], [13260, 29, 67, 2.15], [22317, 3, 109, 6.0], [7567, 3, 24, 6.0], [1413, 15, 34, 6.0], [229, 1, 75, 4.08], [11085, 2, 508, 1.97], [5811, 3, 203, 6.0], [5813, 3, 203, 6.0], [8557, 3, 70, 6.0], [9082, 3, 845, 6.0], [192, 3, 1287, 5.9], [506, 1, 80, 3.88], [3049, 3, 48, 6.0], [20498, 3, 204, 6.0], [9691, 1, 27, 6.0], [14018, 3, 69, 6.0], [524, 1, 30, 6.0], [4076, 3, 71, 6.0], [8943, 3, 137, 6.0], [470, 1, 12, 2.55], [1622, 1, 50, 1.56], [2775, 2, 55, 6.0], [9372, 1, 210, 3.18], [13023, 3, 203, 6.0], [20486, 3, 208, 6.0], [1703, 2, 149, 2.66], [11454, 2, 114, 6.0], [2423, 80, 169, 4.83], [3900, 3, 15, 6.0], [5584, 3, 86, 6.0], [2424, 80, 153, 4.9], [2497, 2, 189, 1.94]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 0.96], [6936, 2, 9, 4.22], [11681, 2, 7, 3.3], [305, 2, 7, 1.38], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [206, 2, 7, 1.35], [2778, 2, 9, 1.07], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [1446, 2, 9, 0.69], [5491, 2, 7, 0.9], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.41], [11737, 2, 7, 1.58], [616, 2, 7, 2.96], [417, 2, 7, 1.5], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12870, 1, 7, 3.71], [12353, 1, 9, 2.27], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [3, 2, 9, 0.74], [10574, 3, 8, 2.36], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [624, 2, 7, 3.92], [9760, 29, 7, 1.3], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [3891, 1, 7, 0.98], [21793, 1, 7, 4.43], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [6158, 2, 9, 0.75], [11739, 2, 7, 1.08], [96, 11, 22, 1.59], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [1126, 2, 7, 1.26], [9372, 1, 7, 3.34], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [8672, 2, 9, 2.94], [5165, 1, 7, 3.03], [413, 1, 7, 1.94], [2912, 1, 7, 0.8], [8898, 3, 7, 5.0], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [9491, 21, 16, 1.93], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 0.87], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [22247, 2, 7, 2.43], [412, 1, 7, 0.92], [957, 2, 7, 1.01], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [308, 1, 7, 3.28], [432, 3, 7, 0.86], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 1.7], [20256, 2, 7, 0.81], [22317, 3, 7, 1.42], [10407, 10, 10, 2.88], [148, 1, 7, 1.0], [10780, 10, 7, 3.0], [1413, 15, 7, 1.17], [10410, 10, 10, 3.2], [439, 1, 7, 2.12], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [7573, 1, 11, 3.36], [9691, 1, 7, 1.0], [11767, 1, 7, 0.92], [972, 1, 7, 2.77], [10387, 2, 7, 1.75], [6497, 1, 7, 0.95], [12347, 1, 7, 3.27], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9971, 2, 7, 2.77], [8897, 3, 7, 5.0], [2331, 1, 7, 2.08], [11769, 1, 7, 2.06], [9082, 3, 34, 1.7], [411, 2, 42, 6.0], [98, 11, 720, 2.35], [972, 3, 232, 6.0], [8672, 2, 112, 6.0], [413, 1, 34, 6.0], [2912, 1, 32, 4.02], [8898, 3, 242, 6.0], [2776, 2, 135, 4.04], [410, 1, 41, 6.0], [12343, 1, 241, 6.0], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [9491, 21, 1812, 3.36], [956, 2, 93, 2.32], [1492, 1, 15, 6.0], [418, 2, 55, 6.0], [12345, 1, 241, 6.0], [13928, 1, 42, 2.33], [9784, 1, 29, 4.1], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [22247, 2, 243, 3.88], [412, 1, 73, 2.37], [957, 2, 93, 2.46], [336, 15, 45, 6.0], [8677, 3, 115, 6.0], [11490, 1, 94, 2.47], [7567, 3, 27, 6.0], [2912, 2, 342, 2.25], [308, 1, 139, 4.73], [432, 3, 118, 6.0], [307, 2, 58, 6.0], [11953, 1, 175, 2.42], [33, 1, 44, 6.0], [11770, 1, 84, 6.0], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 96, 3.15], [20256, 2, 81, 2.26], [22317, 3, 123, 6.0], [10407, 10, 1015, 4.32], [148, 1, 79, 2.46], [10780, 10, 316, 4.46], [1413, 15, 86, 2.63], [10410, 10, 1015, 4.64], [439, 1, 75, 3.57], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [7573, 1, 288, 4.82], [9691, 1, 66, 2.45], [11767, 1, 139, 2.37], [972, 1, 85, 4.22], [10387, 2, 186, 3.2], [6497, 1, 33, 2.4], [12347, 1, 241, 6.0], [74, 1, 176, 3.58], [20686, 1, 237, 6.0], [3478, 2, 30, 6.0], [12271, 2, 55, 3.31], [9971, 2, 108, 6.0], [8897, 3, 242, 6.0], [2331, 1, 47, 6.0], [11769, 1, 139, 3.51], [9082, 3, 948, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 0.94], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.36], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [11739, 2, 7, 1.23], [616, 2, 7, 2.22], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [12352, 1, 7, 3.09], [411, 2, 7, 0.86], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [6497, 1, 9, 1.34], [12353, 1, 7, 3.09], [8674, 2, 7, 1.17], [583, 2, 7, 2.85], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [144, 2, 7, 0.96], [418, 2, 7, 1.0], [6097, 80, 7, 3.38], [11738, 2, 7, 1.23], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [413, 1, 7, 1.87], [6097, 29, 7, 3.88], [2057, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [2055, 3, 7, 3.23], [12344, 1, 7, 2.54], [1413, 15, 7, 0.89], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [247, 1, 7, 3.32], [3429, 15, 7, 0.85], [22316, 3, 7, 0.85], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [3430, 15, 7, 0.65], [8938, 2, 7, 1.06], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [94, 4, 7, 4.01], [107, 7, 8, 1.99], [947, 15, 7, 0.71], [436, 2, 7, 0.94], [11490, 1, 7, 0.95], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [11770, 1, 7, 0.8], [11767, 1, 7, 0.88], [11671, 1, 7, 0.83], [3673, 2, 7, 3.82], [11769, 1, 7, 0.88], [5939, 3, 7, 0.91], [2821, 3, 13, 0.77], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [12347, 1, 7, 3.55], [9491, 21, 16, 0.87], [7036, 1, 7, 0.87], [5812, 3, 7, 4.0], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [11771, 1, 7, 3.17], [5813, 3, 8, 1.92], [12764, 2, 8, 0.82], [3495, 3, 21, 1.51], [23920, 2, 7, 0.85], [11954, 1, 7, 0.77], [308, 1, 11, 1.83], [9690, 1, 7, 1.45], [5811, 3, 8, 3.52], [410, 1, 7, 2.74], [19687, 1, 7, 2.23], [3429, 15, 53, 2.63], [22316, 3, 318, 2.64], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 65, 6.0], [9785, 1, 36, 6.0], [12526, 2, 272, 4.56], [8599, 1, 145, 4.37], [3430, 15, 71, 2.44], [8938, 2, 192, 2.85], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 36, 6.0], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [4232, 80, 153, 5.02], [94, 4, 119, 5.8], [107, 7, 122, 6.0], [947, 15, 41, 2.5], [436, 2, 107, 2.72], [11490, 1, 110, 2.74], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [11770, 1, 220, 2.59], [11767, 1, 164, 2.67], [11671, 1, 310, 2.62], [3673, 2, 236, 5.61], [11769, 1, 164, 2.67], [5939, 3, 266, 2.71], [2821, 3, 1338, 2.55], [11160, 1, 490, 5.45], [11844, 2, 186, 2.77], [12347, 1, 607, 5.34], [9491, 21, 1065, 6.0], [7036, 1, 127, 2.65], [5812, 3, 589, 5.78], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [11771, 1, 213, 4.96], [5813, 3, 589, 3.7], [12764, 2, 755, 2.62], [3495, 3, 965, 3.31], [23920, 2, 106, 2.63], [11954, 1, 203, 2.56], [308, 1, 173, 3.62], [9690, 1, 75, 3.24], [5811, 3, 296, 6.0], [410, 1, 35, 3.81], [19687, 1, 30, 4.02]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 0.95], [6935, 2, 11, 4.28], [305, 2, 7, 1.32], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [593, 2, 9, 0.88], [326, 2, 9, 1.62], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [3840, 1, 7, 1.09], [7036, 1, 9, 2.3], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.36], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [5491, 2, 9, 1.44], [990, 2, 7, 0.66], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [9372, 1, 7, 3.79], [3893, 1, 7, 1.48], [2057, 3, 7, 0.84], [8649, 2, 7, 1.29], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [12870, 1, 7, 2.35], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [3891, 1, 7, 0.98], [140, 2, 7, 2.34], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.88], [1622, 1, 7, 0.82], [75, 2, 7, 0.75], [12352, 1, 7, 1.22], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [346, 3, 9, 0.69], [147, 1, 7, 3.37], [996, 2, 7, 2.83], [11811, 1, 7, 0.8], [229, 1, 7, 1.0], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [998, 2, 7, 3.33], [94, 4, 7, 3.68], [972, 3, 8, 1.79], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [6158, 2, 7, 4.79], [13028, 3, 7, 4.24], [413, 1, 7, 2.08], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [5209, 3, 9, 0.78], [412, 1, 7, 1.85], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [3495, 3, 16, 1.41], [2774, 2, 7, 1.15], [8898, 3, 7, 3.35], [12212, 29, 7, 0.98], [7887, 4, 7, 1.81], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [84, 2, 7, 1.87], [126, 2, 7, 2.34], [13928, 2, 7, 1.35], [11739, 2, 7, 2.61], [411, 2, 7, 0.89], [9691, 1, 7, 1.05], [3048, 3, 7, 4.58], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [12764, 2, 8, 0.64], [10410, 10, 15, 3.84], [11954, 1, 7, 0.7], [7567, 3, 7, 2.64], [74, 1, 7, 3.33], [75, 2, 72, 6.0], [12352, 1, 612, 2.87], [3, 2, 59, 6.0], [20927, 1, 30, 6.0], [5165, 2, 180, 6.0], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [12721, 2, 139, 6.0], [22247, 2, 139, 6.0], [346, 3, 308, 6.0], [147, 1, 43, 6.0], [996, 2, 115, 6.0], [11811, 1, 222, 6.0], [229, 1, 81, 2.64], [20252, 2, 91, 3.07], [11685, 2, 131, 6.0], [998, 2, 115, 6.0], [94, 4, 60, 6.0], [972, 3, 291, 6.0], [9491, 21, 1034, 6.0], [76, 2, 54, 6.0], [35, 1, 54, 6.0], [439, 1, 42, 6.0], [6158, 2, 249, 6.0], [13028, 3, 72, 6.0], [413, 1, 42, 6.0], [13928, 1, 24, 4.83], [8104, 1, 99, 6.0], [5076, 1, 64, 6.0], [2805, 137, 90, 6.0], [5209, 3, 273, 6.0], [412, 1, 41, 6.0], [8676, 2, 274, 5.72], [33, 1, 54, 6.0], [418, 2, 69, 6.0], [148, 1, 43, 6.0], [3495, 3, 938, 3.05], [2774, 2, 200, 2.79], [8898, 3, 144, 6.0], [12212, 29, 58, 6.0], [7887, 4, 34, 6.0], [20256, 2, 46, 4.61], [38, 1, 54, 6.0], [11490, 1, 54, 6.0], [11770, 1, 206, 4.4], [34, 1, 54, 6.0], [10407, 10, 569, 6.0], [84, 2, 33, 6.0], [126, 2, 86, 3.98], [13928, 2, 12, 3.26], [11739, 2, 55, 4.25], [411, 2, 106, 2.53], [9691, 1, 74, 2.7], [3048, 3, 137, 6.0], [9690, 1, 25, 1.68], [8939, 2, 93, 6.0], [5584, 3, 120, 6.0], [11953, 1, 195, 2.48], [39, 1, 54, 6.0], [12351, 1, 612, 2.87], [12764, 2, 358, 6.0], [10410, 10, 569, 6.0], [11954, 1, 195, 2.34], [7567, 3, 34, 6.0], [74, 1, 191, 4.97]]</t>
   </si>
   <si>
     <t>501QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 6, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 5, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [362, 2, 5, 0.2], [141, 2, 4, 0.79], [2497, 2, 4, 0.45], [144, 2, 4, 0.44], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.74], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 4, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 4, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [12343, 1, 4, 0.87], [2055, 3, 4, 1.18], [624, 2, 4, 1.26], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 4, 1.16], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [75, 2, 4, 1.17], [8915, 2, 4, 0.41], [88, 10, 8, 0.95], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.44], [412, 1, 4, 1.0], [21712, 3, 13, 0.67], [1050, 2, 4, 0.38], [2422, 80, 4, 1.31], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [6098, 29, 4, 1.19], [378, 2, 4, 1.16], [12346, 1, 4, 0.87], [7704, 2, 4, 1.15], [151, 1, 4, 0.57], [11738, 2, 4, 0.53], [229, 1, 4, 2.0], [1243, 2, 4, 0.72], [22316, 3, 4, 0.46], [1049, 2, 4, 0.38], [13264, 29, 4, 0.51], [20252, 2, 4, 0.58], [345, 3, 4, 1.26], [13258, 29, 4, 0.67], [12269, 2, 4, 0.51], [1490, 1, 4, 0.47], [964, 15, 4, 0.36], [2331, 1, 4, 0.55], [10407, 10, 6, 1.18], [1163, 3, 5, 0.58], [2821, 3, 10, 0.23], [5208, 3, 5, 0.74], [201, 3, 4, 1.26], [416, 1, 4, 1.66], [307, 2, 4, 1.04], [2912, 1, 4, 1.24], [186, 3, 7, 0.5], [149, 2, 4, 0.37], [7004, 1, 4, 0.56], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [13259, 29, 4, 1.13], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [11687, 2, 4, 0.56], [10406, 10, 7, 1.21], [410, 1, 4, 0.71], [7036, 1, 4, 0.43], [20255, 2, 4, 0.4], [3478, 2, 4, 0.57], [9784, 1, 4, 0.91], [21713, 3, 7, 0.46], [10408, 10, 6, 1.04], [12870, 1, 4, 2.33], [8938, 2, 4, 0.57], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [10410, 10, 6, 1.18], [19687, 1, 4, 1.21], [107, 7, 5, 1.24], [1886, 2, 4, 0.35], [11161, 1, 5, 1.8], [11490, 1, 4, 0.43], [2703, 3, 4, 2.13], [956, 2, 4, 0.53], [21781, 2, 4, 0.47], [10411, 10, 6, 1.12], [11690, 2, 4, 0.36], [13258, 25, 4, 0.67], [159, 16, 4, 0.71], [2778, 2, 104, 6.0], [6935, 2, 187, 6.0], [6936, 2, 141, 6.0], [305, 2, 74, 6.0], [8672, 2, 144, 6.0], [615, 2, 54, 6.0], [1504, 2, 102, 6.0], [2775, 2, 78, 6.0], [145, 2, 76, 6.0], [2776, 2, 78, 6.0], [8853, 2, 141, 6.0], [2327, 2, 76, 6.0], [12721, 2, 284, 3.49], [130, 1, 30, 2.98], [143, 2, 75, 6.0], [146, 2, 76, 6.0], [2328, 2, 76, 6.0], [11681, 2, 138, 6.0], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 108, 2.82], [362, 2, 72, 6.0], [141, 2, 155, 4.16], [2497, 2, 102, 6.0], [144, 2, 76, 6.0], [205, 2, 109, 2.64], [8650, 2, 114, 6.0], [5493, 2, 108, 3.16], [417, 2, 78, 6.0], [8676, 2, 144, 6.0], [8673, 2, 144, 6.0], [3670, 2, 235, 5.79], [2774, 2, 102, 6.0], [8648, 2, 225, 5.29], [589, 2, 77, 6.0], [3, 2, 61, 6.0], [206, 2, 42, 4.69], [6097, 80, 35, 6.0], [2423, 29, 37, 4.81], [22247, 2, 144, 6.0], [11836, 2, 269, 2.69], [6497, 1, 32, 6.0], [8674, 2, 144, 6.0], [12343, 1, 610, 4.37], [2055, 3, 158, 4.31], [624, 2, 107, 4.11], [2423, 80, 185, 4.75], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 115, 6.0], [6097, 29, 18, 6.0], [6098, 80, 74, 4.31], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [75, 2, 144, 3.94], [8915, 2, 129, 2.36], [88, 10, 561, 4.69], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 405, 6.0], [13260, 29, 36, 6.0], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.6], [412, 1, 42, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.51], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.52], [2327, 2, 4, 0.2], [11685, 2, 4, 1.41], [326, 2, 4, 0.97], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [1124, 2, 5, 0.4], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.73], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.46], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [21793, 1, 4, 1.38], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [8675, 2, 4, 0.6], [76, 2, 4, 1.11], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [11836, 2, 4, 0.2], [8674, 2, 4, 0.49], [146, 2, 4, 0.62], [8938, 2, 4, 0.97], [6158, 2, 5, 1.33], [151, 1, 4, 0.57], [12720, 2, 4, 0.82], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 0.59], [410, 1, 4, 0.47], [12526, 2, 4, 0.74], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [2424, 29, 5, 0.55], [2423, 80, 5, 1.25], [378, 2, 4, 1.16], [12351, 1, 5, 0.61], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [12373, 1, 5, 0.45], [13023, 3, 6, 1.51], [13034, 3, 5, 1.37], [201, 3, 4, 0.76], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [5208, 3, 5, 0.54], [345, 3, 4, 0.76], [11770, 1, 4, 0.48], [3, 2, 4, 3.1], [6952, 1, 4, 1.09], [159, 1, 4, 0.73], [20927, 1, 4, 0.48], [3430, 15, 4, 1.23], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [11504, 2, 4, 0.2], [13928, 1, 4, 0.45], [566, 2, 4, 0.5], [11811, 1, 4, 0.38], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.18], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [7004, 1, 4, 0.99], [2703, 3, 4, 2.13], [11089, 1, 4, 0.39], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [12348, 1, 4, 0.61], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [10410, 10, 6, 1.18], [3891, 1, 4, 2.39], [94, 4, 4, 1.77], [11953, 1, 4, 0.46], [9082, 3, 15, 1.25], [141, 2, 156, 2.73], [2328, 2, 76, 6.0], [8650, 2, 114, 6.0], [362, 2, 72, 6.0], [5491, 2, 108, 2.9], [5493, 2, 55, 4.5], [130, 1, 30, 6.0], [589, 2, 153, 2.73], [2327, 2, 76, 6.0], [11685, 2, 138, 6.0], [326, 2, 35, 6.0], [8672, 2, 144, 6.0], [417, 2, 156, 2.81], [1124, 2, 188, 2.62], [6935, 2, 141, 6.0], [205, 2, 109, 2.53], [11681, 2, 138, 6.0], [206, 2, 42, 4.69], [8648, 2, 114, 6.0], [6936, 2, 141, 6.0], [142, 2, 78, 6.0], [11837, 2, 269, 2.79], [12721, 2, 284, 3.49], [11838, 2, 134, 6.0], [2049, 3, 276, 6.0], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 74, 6.0], [616, 2, 107, 4.15], [413, 1, 44, 6.0], [412, 1, 42, 6.0], [411, 2, 109, 2.64], [11739, 2, 57, 3.69], [10574, 3, 501, 4.43], [11835, 2, 269, 2.79], [145, 2, 76, 6.0], [21793, 1, 238, 5.81], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [8675, 2, 287, 3.21], [76, 2, 109, 3.83], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [11836, 2, 134, 6.0], [8674, 2, 287, 3.25], [146, 2, 151, 2.93], [8938, 2, 190, 3.57], [6158, 2, 260, 4.44], [151, 1, 33, 2.79], [12720, 2, 284, 3.48], [10149, 3, 872, 3.26], [2776, 2, 157, 3.16], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 36, 4.58], [22316, 3, 159, 6.0], [88, 10, 561, 4.69], [159, 3, 709, 3.16]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.89], [589, 2, 5, 0.37], [141, 2, 4, 0.66], [75, 2, 4, 0.39], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [8672, 2, 6, 0.51], [2778, 2, 4, 0.2], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 5, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [990, 2, 4, 0.26], [11681, 2, 5, 1.87], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 0.56], [144, 2, 4, 0.49], [10149, 3, 17, 1.82], [345, 3, 5, 0.44], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.2], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.46], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [201, 3, 5, 0.4], [167, 3, 5, 0.49], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 5, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [7084, 3, 4, 0.36], [11234, 2, 4, 0.2], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [335, 3, 11, 0.39], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [13028, 3, 4, 0.47], [308, 1, 4, 0.73], [12870, 1, 4, 1.54], [10825, 21, 8, 1.34], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [23, 1, 4, 0.2], [96, 11, 14, 0.38], [1006, 2, 4, 0.55], [418, 2, 4, 0.43], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [94, 4, 5, 1.24], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [21269, 3, 4, 0.95], [8939, 2, 4, 0.2], [13280, 1, 4, 0.81], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [7567, 3, 4, 1.11], [2049, 1, 4, 0.2], [20927, 1, 4, 0.2], [126, 2, 5, 0.93], [346, 3, 5, 0.19], [3980, 4, 4, 1.31], [1703, 2, 4, 0.41], [8121, 3, 4, 0.53], [8274, 3, 4, 0.39], [35, 1, 4, 0.48], [9691, 1, 4, 1.09], [5209, 3, 4, 0.19], [5584, 3, 4, 1.74], [11811, 1, 4, 1.0], [997, 2, 4, 1.03], [1070, 7, 10, 0.2], [11914, 1, 5, 0.5], [1519, 3, 10, 0.4], [5660, 2, 5, 0.9], [856, 1, 4, 0.38], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.43], [523, 2, 4, 0.63], [8926, 1, 4, 1.35], [2775, 2, 4, 0.2], [11767, 1, 4, 0.48], [9372, 1, 4, 0.39], [13034, 3, 5, 0.66], [9081, 3, 7, 1.8], [20255, 2, 5, 0.2], [12661, 1, 4, 0.97], [307, 2, 4, 1.14], [326, 2, 84, 3.42], [6935, 2, 129, 6.0], [2049, 3, 192, 6.0], [362, 2, 131, 2.79], [589, 2, 142, 1.93], [141, 2, 143, 3.4], [75, 2, 51, 6.0], [1776, 1, 52, 5.27], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [8672, 2, 100, 6.0], [2778, 2, 55, 5.31], [6936, 2, 97, 6.0], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 51, 6.0], [206, 2, 39, 4.41], [151, 1, 31, 4.24], [8648, 2, 79, 6.0], [1777, 1, 39, 6.0], [2328, 2, 53, 5.41], [88, 10, 197, 6.0], [990, 2, 30, 6.0], [11681, 2, 95, 6.0], [8650, 2, 79, 6.0], [412, 1, 30, 6.0], [5151, 2, 14, 4.02], [2050, 3, 433, 3.55], [76, 2, 39, 6.0], [144, 2, 139, 2.06], [10149, 3, 300, 6.0], [345, 3, 106, 6.0], [2991, 3, 57, 6.0], [22247, 2, 99, 6.0], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 53, 6.0], [7004, 1, 28, 2.26], [45, 2, 39, 6.0], [2054, 3, 166, 6.0], [143, 2, 51, 6.0], [417, 2, 143, 2.0], [413, 1, 79, 3.28], [21793, 1, 85, 6.0], [201, 3, 106, 6.0], [167, 3, 80, 6.0], [74, 1, 71, 6.0], [1446, 2, 53, 6.0], [346, 1, 55, 4.91], [2055, 3, 166, 6.0], [168, 3, 141, 6.0], [10, 2, 97, 2.76], [7084, 3, 46, 4.99], [11234, 2, 65, 5.72], [1429, 2, 53, 6.0], [7036, 1, 45, 6.0], [12721, 2, 99, 6.0], [335, 3, 466, 6.0], [3495, 3, 336, 6.0], [5081, 2, 177, 1.96], [8649, 2, 79, 6.0], [13028, 3, 51, 6.0], [308, 1, 58, 6.0], [12870, 1, 49, 6.0], [10825, 21, 575, 3.62], [79, 1, 44, 1.85], [1492, 1, 13, 4.04]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.95], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 5, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [151, 1, 4, 0.59], [3840, 1, 5, 0.29], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [1504, 2, 4, 0.93], [624, 2, 4, 1.1], [12224, 1, 4, 0.46], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [362, 2, 4, 0.5], [2055, 3, 4, 0.46], [141, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [378, 2, 4, 1.16], [5208, 3, 5, 0.19], [3889, 1, 4, 0.35], [8649, 2, 4, 1.53], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [10993, 2, 4, 0.7], [11234, 2, 4, 0.75], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [2050, 3, 4, 0.46], [3980, 4, 4, 0.73], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.44], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [5165, 1, 4, 0.56], [9760, 29, 4, 0.37], [998, 2, 4, 1.5], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [346, 3, 5, 0.19], [3, 2, 4, 0.62], [229, 1, 4, 0.54], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5165, 2, 5, 1.02], [5076, 1, 4, 0.71], [7887, 4, 4, 0.47], [20252, 2, 4, 0.38], [126, 2, 4, 1.27], [11953, 1, 4, 0.46], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [11685, 2, 5, 1.33], [1492, 1, 4, 0.2], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [20256, 2, 4, 0.2], [12721, 2, 4, 2.31], [2774, 2, 4, 0.63], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 5, 0.75], [6497, 1, 4, 0.63], [12343, 1, 4, 0.66], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [10407, 10, 6, 1.18], [12351, 1, 4, 0.66], [11179, 1, 4, 0.45], [6496, 1, 4, 1.73], [22317, 3, 4, 0.35], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [2805, 137, 4, 0.93], [8898, 3, 5, 1.44], [3900, 3, 4, 1.76], [12526, 2, 4, 0.71], [2424, 29, 4, 0.55], [11812, 1, 4, 0.2], [3975, 4, 5, 0.7], [4253, 1, 4, 0.54], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [1622, 1, 4, 0.45], [412, 1, 4, 0.44], [12764, 2, 5, 0.54], [8676, 2, 4, 2.17], [88, 10, 276, 6.0], [2327, 2, 74, 6.0], [8915, 2, 93, 6.0], [589, 2, 75, 6.0], [2778, 2, 77, 6.0], [6935, 2, 135, 6.0], [2328, 2, 74, 6.0], [5493, 2, 104, 3.91], [305, 2, 72, 6.0], [615, 2, 54, 5.74], [616, 2, 54, 4.36], [6936, 2, 135, 6.0], [326, 2, 44, 6.0], [8650, 2, 110, 6.0], [8648, 2, 110, 6.0], [1446, 2, 74, 6.0], [2049, 3, 360, 2.34], [10, 2, 52, 4.26], [143, 2, 72, 6.0], [159, 3, 689, 2.82], [593, 2, 223, 2.53], [205, 2, 54, 6.0], [5491, 2, 53, 6.0], [2775, 2, 77, 6.0], [7036, 1, 63, 6.0], [151, 1, 32, 2.68], [3840, 1, 84, 6.0], [94, 4, 60, 6.0], [434, 2, 53, 4.6], [8938, 2, 125, 2.43], [990, 2, 26, 4.94], [3893, 1, 61, 6.0], [146, 2, 73, 6.0], [8853, 2, 272, 5.15], [1504, 2, 99, 6.0], [624, 2, 104, 3.83], [12224, 1, 162, 2.49], [1429, 2, 74, 6.0], [3891, 1, 61, 6.0], [2776, 2, 77, 6.0], [206, 2, 106, 2.39], [362, 2, 69, 6.0], [2055, 3, 314, 2.32], [141, 2, 76, 6.0], [11681, 2, 131, 6.0], [11404, 2, 51, 5.86], [378, 2, 110, 6.0], [5208, 3, 273, 6.0], [3889, 1, 122, 2.29], [8649, 2, 218, 4.79], [1007, 2, 264, 2.49], [10993, 2, 54, 2.93], [11234, 2, 148, 6.0], [7886, 4, 70, 2.16], [12870, 1, 69, 6.0], [21793, 1, 119, 6.0], [10149, 3, 435, 6.0], [2050, 3, 314, 2.32], [3980, 4, 234, 6.0], [12353, 1, 612, 2.87], [145, 2, 73, 6.0], [7084, 3, 127, 3.22], [11811, 1, 447, 2.44], [8672, 2, 140, 6.0], [20927, 1, 30, 6.0], [5165, 1, 38, 6.0], [9760, 29, 35, 3.9]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 5, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.2], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.51], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [412, 1, 4, 0.57], [5491, 2, 4, 0.5], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [417, 2, 4, 0.43], [583, 2, 4, 0.77], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [8089, 1, 4, 1.2], [248, 1, 4, 0.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.45], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 5, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.53], [6097, 29, 4, 0.88], [6098, 80, 4, 1.46], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 15, 1.12], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [418, 2, 4, 0.72], [4032, 29, 4, 0.47], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [5151, 2, 4, 0.62], [972, 3, 4, 0.46], [12304, 1, 4, 0.64], [229, 1, 4, 2.07], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [13034, 3, 5, 1.29], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [2424, 29, 4, 0.41], [3, 2, 4, 0.55], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [5076, 1, 4, 0.64], [11767, 1, 4, 0.48], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [8677, 3, 5, 1.11], [11180, 1, 4, 0.54], [1701, 2, 4, 1.97], [75, 2, 4, 0.37], [11586, 1, 7, 1.42], [3478, 2, 4, 0.9], [3577, 25, 4, 0.42], [11585, 29, 4, 1.12], [9998, 80, 4, 0.42], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [2438, 2, 5, 1.05], [4253, 1, 4, 1.03], [6935, 2, 108, 6.0], [141, 2, 60, 6.0], [589, 2, 60, 4.55], [2778, 2, 60, 6.0], [6936, 2, 108, 6.0], [8648, 2, 88, 6.0], [362, 2, 55, 6.0], [2327, 2, 129, 3.02], [11681, 2, 105, 6.0], [8650, 2, 88, 6.0], [326, 2, 78, 2.83], [205, 2, 70, 6.0], [2328, 2, 59, 6.0], [1446, 2, 59, 6.0], [305, 2, 57, 6.0], [130, 1, 38, 5.2], [8649, 2, 88, 6.0], [2775, 2, 60, 6.0], [8853, 2, 108, 6.0], [361, 2, 60, 6.0], [2776, 2, 60, 6.0], [593, 2, 89, 6.0], [143, 2, 57, 6.0], [140, 2, 78, 2.83], [1429, 2, 59, 6.0], [206, 2, 42, 3.85], [5493, 2, 93, 2.36], [523, 2, 60, 6.0], [7004, 1, 68, 2.72], [413, 1, 33, 6.0], [7036, 1, 50, 6.0], [412, 1, 72, 2.66], [5491, 2, 93, 2.34], [21793, 1, 208, 5.07], [12350, 1, 243, 6.0], [1124, 2, 161, 2.69], [990, 2, 21, 2.71], [12353, 1, 243, 6.0], [5165, 1, 30, 6.0], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [417, 2, 60, 6.0], [583, 2, 78, 2.83], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [8089, 1, 61, 3.62], [248, 1, 15, 2.08], [434, 2, 42, 4.05], [201, 3, 119, 6.0], [142, 2, 133, 2.61], [6097, 80, 27, 6.0], [11770, 1, 189, 2.22], [6952, 1, 74, 6.0], [2055, 3, 410, 2.91], [345, 3, 119, 6.0], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 51, 6.0], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 243, 6.0], [12870, 1, 119, 3.63], [12343, 1, 536, 2.3], [10574, 3, 198, 6.0], [1886, 2, 135, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.47], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 9, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 5, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3891, 1, 5, 0.2], [3840, 1, 4, 0.39], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.73], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [362, 2, 4, 0.85], [8672, 2, 4, 0.48], [8649, 2, 4, 1.53], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [2991, 3, 5, 1.1], [3495, 3, 13, 0.85], [7084, 3, 4, 0.58], [7005, 1, 4, 0.94], [3975, 4, 4, 1.26], [10149, 3, 13, 0.39], [21793, 1, 4, 2.3], [11404, 2, 5, 0.2], [9760, 29, 4, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [417, 2, 4, 0.66], [5165, 2, 5, 0.61], [2912, 1, 4, 0.2], [3982, 3, 10, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [956, 2, 4, 0.47], [33, 1, 4, 1.06], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [7887, 4, 5, 0.44], [6497, 1, 4, 0.93], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [432, 3, 4, 0.47], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 1.1], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 4, 1.04], [389, 4, 5, 0.38], [74, 1, 4, 1.16], [2912, 2, 5, 0.47], [6496, 1, 4, 0.47], [35, 1, 5, 0.57], [7567, 3, 4, 1.65], [411, 2, 4, 0.5], [1413, 15, 4, 0.45], [12721, 2, 4, 0.99], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8121, 3, 5, 0.2], [8673, 2, 4, 0.47], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [8676, 2, 4, 1.7], [21269, 3, 4, 2.24], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [12526, 2, 4, 1.08], [11085, 2, 5, 1.27], [9784, 1, 4, 0.55], [12269, 2, 4, 1.03], [1274, 1, 4, 0.23], [6494, 1, 5, 0.29], [37, 1, 4, 0.66], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [12225, 1, 4, 0.69], [7573, 1, 5, 1.35], [345, 3, 4, 1.31], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [96, 11, 12, 0.38], [6935, 2, 108, 6.0], [615, 2, 91, 4.78], [2778, 2, 61, 6.0], [305, 2, 57, 6.0], [5493, 2, 91, 4.44], [6936, 2, 108, 6.0], [130, 1, 24, 5.17], [205, 2, 42, 6.0], [616, 2, 91, 4.41], [1504, 2, 80, 6.0], [144, 2, 59, 6.0], [8648, 2, 89, 6.0], [2049, 3, 144, 6.0], [88, 10, 220, 6.0], [8915, 2, 65, 4.29], [326, 2, 36, 6.0], [7036, 1, 50, 6.0], [8650, 2, 89, 6.0], [593, 2, 89, 6.0], [2327, 2, 59, 6.0], [11681, 2, 106, 6.0], [8853, 2, 108, 6.0], [141, 2, 61, 6.0], [2775, 2, 61, 6.0], [206, 2, 42, 4.36], [151, 1, 58, 2.7], [7004, 1, 31, 5.6], [248, 1, 47, 2.25], [11685, 2, 106, 6.0], [3891, 1, 49, 6.0], [3840, 1, 150, 2.17], [2328, 2, 59, 6.0], [2050, 3, 188, 6.0], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.86], [143, 2, 58, 6.0], [434, 2, 56, 2.07], [3980, 4, 186, 6.0], [2054, 3, 188, 6.0], [624, 2, 91, 5.38], [362, 2, 55, 6.0], [8672, 2, 112, 6.0], [8649, 2, 194, 4.25], [2776, 2, 61, 6.0], [12870, 1, 117, 5.16], [2057, 3, 188, 6.0], [12350, 1, 543, 2.67], [7886, 4, 38, 6.0], [10574, 3, 196, 6.0], [5165, 1, 30, 6.0], [1006, 2, 197, 2.83], [1446, 2, 60, 6.0], [94, 4, 47, 6.0], [75, 2, 57, 6.0], [523, 2, 60, 6.0], [2991, 3, 63, 6.0], [3495, 3, 832, 2.92], [7084, 3, 51, 6.0], [7005, 1, 68, 3.18], [3975, 4, 186, 6.0], [10149, 3, 752, 2.93], [21793, 1, 90, 6.0], [11404, 2, 41, 6.0], [9760, 29, 28, 3.52], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 1.17], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 6, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 5, 0.2], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [11838, 2, 4, 0.57], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 4, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 4, 0.74], [144, 2, 4, 0.94], [11739, 2, 4, 0.38], [88, 10, 9, 0.82], [434, 2, 4, 0.73], [2776, 2, 4, 0.41], [142, 2, 4, 0.2], [435, 2, 5, 0.49], [151, 1, 4, 0.57], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [2423, 80, 4, 1.75], [10574, 3, 6, 1.26], [3670, 2, 4, 0.97], [11836, 2, 5, 0.2], [7705, 2, 4, 1.08], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [378, 2, 4, 2.48], [7706, 2, 4, 1.08], [12720, 2, 4, 0.98], [12353, 1, 4, 1.05], [22316, 3, 4, 0.46], [2055, 3, 4, 0.96], [12344, 1, 4, 0.48], [3478, 2, 4, 1.07], [10149, 3, 13, 1.12], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [2774, 2, 4, 0.55], [307, 2, 4, 1.04], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [418, 2, 4, 0.47], [7004, 1, 4, 1.02], [13928, 1, 4, 0.2], [411, 2, 4, 0.49], [11089, 1, 4, 0.39], [413, 1, 4, 1.04], [2057, 3, 4, 0.4], [11844, 2, 5, 0.2], [14037, 3, 4, 0.96], [7036, 1, 4, 0.43], [2050, 3, 4, 0.4], [8274, 3, 4, 0.88], [3893, 1, 4, 2.08], [20252, 2, 4, 0.58], [13260, 29, 4, 0.67], [6097, 80, 4, 0.64], [439, 1, 4, 0.37], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [9784, 1, 4, 0.55], [6494, 1, 4, 0.46], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [1413, 16, 4, 0.39], [11490, 1, 4, 0.47], [1243, 2, 5, 0.2], [7708, 2, 4, 1.15], [414, 1, 4, 0.66], [3889, 1, 4, 2.08], [1492, 1, 4, 0.62], [5208, 3, 5, 0.97], [565, 2, 4, 0.46], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [11491, 2, 4, 0.81], [21793, 1, 4, 0.95], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [2422, 80, 4, 1.75], [6098, 80, 4, 1.16], [410, 1, 4, 0.4], [11504, 2, 4, 0.72], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3674, 2, 4, 0.52], [147, 1, 4, 0.52], [3430, 15, 4, 1.23], [5165, 1, 4, 0.59], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [247, 1, 4, 1.18], [6935, 2, 141, 6.0], [305, 2, 74, 6.0], [2328, 2, 76, 6.0], [130, 1, 49, 6.0], [141, 2, 78, 6.0], [2778, 2, 156, 3.07], [8650, 2, 114, 6.0], [5491, 2, 106, 4.31], [2327, 2, 76, 6.0], [8672, 2, 144, 6.0], [6936, 2, 141, 6.0], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 76, 6.0], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 76, 6.0], [417, 2, 78, 6.0], [589, 2, 77, 6.0], [75, 2, 145, 3.58], [11737, 2, 57, 2.97], [11838, 2, 269, 2.83], [1124, 2, 95, 6.0], [523, 2, 78, 6.0], [8648, 2, 114, 6.0], [8853, 2, 141, 6.0], [12721, 2, 144, 6.0], [615, 2, 108, 4.14], [326, 2, 35, 6.0], [206, 2, 42, 6.0], [8915, 2, 96, 6.0], [8673, 2, 144, 6.0], [144, 2, 76, 6.0], [11739, 2, 57, 2.97], [88, 10, 285, 6.0], [434, 2, 107, 3.23], [2776, 2, 78, 6.0], [142, 2, 78, 6.0], [435, 2, 54, 6.0], [151, 1, 33, 2.79], [8676, 2, 144, 6.0], [6158, 2, 133, 6.0], [2424, 29, 17, 3.17], [8649, 2, 114, 6.0], [2423, 29, 18, 6.0], [11738, 2, 57, 2.97], [2497, 2, 105, 6.0], [7704, 2, 90, 6.0], [2424, 80, 84, 6.0], [2423, 80, 92, 6.0], [10574, 3, 249, 6.0], [3670, 2, 236, 5.41], [11836, 2, 134, 6.0], [7705, 2, 90, 6.0], [2054, 3, 473, 3.89], [3, 2, 61, 6.0], [2859, 15, 35, 6.0], [412, 1, 42, 6.0], [378, 2, 224, 6.0], [7706, 2, 90, 6.0], [12720, 2, 144, 6.0], [12353, 1, 620, 3.73], [22316, 3, 318, 2.64], [2055, 3, 181, 6.0], [12344, 1, 620, 2.67], [3478, 2, 38, 6.0], [10149, 3, 866, 4.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 4, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [7886, 4, 5, 0.39], [88, 10, 8, 1.09], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.56], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.5], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.43], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [7084, 3, 4, 1.37], [3478, 2, 4, 0.54], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [11681, 2, 6, 0.82], [8677, 3, 5, 0.4], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [20927, 1, 4, 0.43], [8651, 2, 5, 0.61], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [45, 2, 4, 1.37], [9069, 1, 4, 0.91], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [3495, 3, 15, 0.92], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [998, 2, 4, 0.97], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [490, 1, 4, 0.4], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [506, 1, 4, 1.21], [11489, 1, 4, 0.56], [8674, 2, 5, 0.54], [8898, 3, 4, 0.75], [3670, 2, 4, 1.87], [997, 2, 4, 1.82], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [974, 3, 5, 0.38], [107, 2, 4, 0.52], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [823, 1, 4, 0.84], [34, 1, 4, 1.26], [14017, 3, 4, 0.44], [9784, 1, 5, 0.55], [972, 3, 5, 0.85], [5209, 3, 4, 0.54], [1091, 1, 4, 0.61], [11739, 2, 4, 0.2], [20498, 3, 6, 0.36], [8672, 2, 229, 6.0], [305, 2, 115, 6.0], [3, 2, 97, 6.0], [6935, 2, 136, 6.0], [205, 2, 53, 6.0], [143, 2, 117, 6.0], [144, 2, 119, 6.0], [75, 2, 71, 6.0], [12721, 2, 138, 6.0], [145, 2, 119, 6.0], [8915, 2, 93, 6.0], [2778, 2, 75, 6.0], [1776, 1, 72, 6.0], [146, 2, 119, 6.0], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 136, 6.0], [1777, 1, 54, 6.0], [8648, 2, 109, 6.0], [151, 1, 54, 5.68], [2328, 2, 72, 6.0], [8650, 2, 109, 6.0], [5151, 2, 12, 6.0], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [7886, 4, 69, 6.0], [88, 10, 273, 6.0], [9507, 3, 86, 1.53], [74, 1, 98, 6.0], [1446, 2, 73, 6.0], [2991, 3, 78, 6.0], [362, 2, 69, 6.0], [7004, 1, 51, 2.45], [2057, 3, 408, 2.32], [1492, 1, 30, 4.99], [1007, 2, 130, 6.0], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 53, 6.0], [8649, 2, 109, 6.0], [3889, 1, 106, 2.11], [11234, 2, 88, 6.0], [410, 1, 90, 2.0], [7005, 1, 68, 2.22], [345, 3, 147, 6.0], [10, 2, 51, 6.0], [1429, 2, 73, 6.0], [307, 2, 70, 6.0], [10825, 21, 303, 6.0], [5081, 2, 91, 6.0], [12870, 1, 68, 6.0], [57, 1, 73, 2.09], [10149, 3, 431, 6.0], [7036, 1, 62, 6.0], [7084, 3, 63, 6.0], [3478, 2, 64, 2.3], [1006, 2, 110, 6.0], [1504, 2, 99, 6.0], [3891, 1, 60, 6.0], [21793, 1, 202, 4.74], [94, 4, 58, 6.0], [167, 3, 110, 6.0], [411, 2, 53, 6.0], [9827, 3, 42, 6.0], [3893, 1, 60, 6.0], [79, 1, 41, 2.38], [33, 1, 54, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 10, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [362, 2, 4, 0.2], [151, 1, 5, 0.48], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 5, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1007, 2, 5, 0.39], [1777, 1, 4, 0.93], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [22247, 2, 4, 0.78], [88, 10, 9, 1.09], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [10, 2, 5, 0.91], [2054, 3, 4, 1.44], [8677, 3, 6, 1.56], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 5, 0.47], [5081, 2, 4, 0.44], [1492, 1, 4, 0.58], [140, 2, 5, 0.63], [7005, 1, 4, 0.36], [167, 3, 4, 1.25], [7036, 1, 4, 1.11], [9827, 3, 5, 0.2], [45, 2, 4, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [13280, 1, 4, 1.47], [5812, 3, 5, 2.01], [1504, 2, 4, 0.2], [12870, 1, 4, 0.54], [168, 3, 4, 0.29], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [6097, 29, 4, 1.14], [8853, 2, 5, 1.07], [416, 1, 4, 1.21], [8939, 2, 4, 0.2], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [1490, 1, 5, 0.2], [95, 3, 16, 0.19], [20927, 1, 4, 0.2], [79, 1, 4, 0.38], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [8898, 3, 5, 1.36], [1126, 2, 5, 0.39], [13034, 3, 6, 0.66], [126, 2, 4, 1.43], [20498, 1, 5, 0.8], [9760, 29, 4, 0.45], [5086, 1, 4, 0.71], [20255, 2, 5, 0.2], [12924, 1, 5, 0.2], [5513, 2, 4, 0.46], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [13260, 29, 4, 0.54], [22317, 3, 6, 0.51], [7567, 3, 4, 1.66], [1413, 15, 4, 0.33], [229, 1, 4, 1.05], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [5813, 3, 5, 1.08], [8557, 3, 4, 0.2], [9082, 3, 17, 1.28], [192, 3, 11, 1.1], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [20498, 3, 5, 0.86], [9691, 1, 4, 1.0], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [8943, 3, 5, 0.7], [470, 1, 5, 0.2], [1622, 1, 5, 0.38], [2775, 2, 5, 0.2], [9372, 1, 4, 0.39], [13023, 3, 6, 1.24], [20486, 3, 6, 0.79], [1703, 2, 4, 0.41], [11454, 2, 6, 1.6], [2423, 80, 4, 1.41], [3900, 3, 4, 1.63], [5584, 3, 4, 1.72], [2424, 80, 4, 2.04], [2497, 2, 4, 0.43], [8672, 2, 100, 6.0], [305, 2, 51, 6.0], [2049, 3, 192, 6.0], [6935, 2, 129, 6.0], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 53, 6.0], [589, 2, 53, 3.74], [362, 2, 50, 5.07], [151, 1, 24, 3.36], [12721, 2, 99, 6.0], [146, 2, 53, 6.0], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 39, 4.23], [2328, 2, 53, 6.0], [8915, 2, 67, 4.75], [143, 2, 51, 6.0], [990, 2, 18, 3.0], [6936, 2, 97, 6.0], [20252, 2, 86, 2.06], [8650, 2, 79, 6.0], [1007, 2, 250, 1.96], [1777, 1, 100, 4.11], [2778, 2, 55, 6.0], [22247, 2, 99, 6.0], [88, 10, 197, 6.0], [2050, 3, 166, 6.0], [76, 2, 39, 6.0], [8649, 2, 79, 6.0], [10149, 3, 300, 6.0], [10, 2, 62, 6.0], [2054, 3, 324, 5.02], [8677, 3, 102, 6.0], [412, 1, 30, 6.0], [2055, 3, 324, 5.02], [13028, 3, 136, 2.54], [413, 1, 30, 6.0], [7004, 1, 28, 3.05], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 95, 6.0], [1446, 2, 53, 6.0], [7084, 3, 46, 6.0], [307, 2, 51, 6.0], [3478, 2, 69, 3.31], [1429, 2, 53, 6.0], [3495, 3, 336, 6.0], [1006, 2, 80, 6.0], [5081, 2, 177, 1.96], [1492, 1, 13, 4.72], [140, 2, 32, 6.0], [7005, 1, 28, 3.05], [167, 3, 80, 6.0], [7036, 1, 45, 6.0], [9827, 3, 30, 6.0], [45, 2, 39, 6.0], [8676, 2, 100, 6.0], [1124, 2, 65, 4.68], [2049, 1, 21, 2.85], [94, 4, 42, 6.0], [13280, 1, 111, 6.0], [5812, 3, 543, 4.52], [1504, 2, 72, 6.0], [12870, 1, 49, 6.0], [168, 3, 141, 6.0], [11234, 2, 170, 2.47]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [6936, 2, 4, 1.18], [11681, 2, 4, 1.35], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [206, 2, 5, 0.46], [2778, 2, 5, 0.2], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [1446, 2, 4, 0.2], [5491, 2, 4, 0.47], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.73], [11737, 2, 5, 0.2], [616, 2, 4, 1.5], [417, 2, 4, 0.66], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12870, 1, 4, 0.92], [12353, 1, 5, 0.19], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [3, 2, 5, 0.2], [10574, 3, 6, 1.36], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [624, 2, 4, 1.35], [9760, 29, 5, 0.2], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [3891, 1, 4, 0.53], [21793, 1, 4, 2.3], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [6158, 2, 4, 0.2], [11739, 2, 4, 0.2], [96, 11, 15, 0.38], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [1126, 2, 4, 0.58], [9372, 1, 4, 1.7], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [8672, 2, 5, 0.98], [5165, 1, 4, 0.58], [413, 1, 4, 1.01], [2912, 1, 4, 0.2], [8898, 3, 4, 3.33], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [9491, 21, 10, 1.07], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 4, 0.48], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [22247, 2, 4, 1.23], [412, 1, 4, 0.5], [957, 2, 4, 0.55], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [308, 1, 4, 0.95], [432, 3, 5, 0.47], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [20256, 2, 4, 0.44], [22317, 3, 5, 0.51], [10407, 10, 6, 1.44], [148, 1, 4, 0.55], [10780, 10, 4, 1.52], [1413, 15, 4, 0.45], [10410, 10, 6, 1.64], [439, 1, 4, 1.15], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [7573, 1, 5, 1.45], [9691, 1, 4, 0.55], [11767, 1, 4, 0.5], [972, 1, 4, 1.51], [10387, 2, 4, 0.95], [6497, 1, 4, 0.52], [12347, 1, 5, 0.19], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9971, 2, 4, 1.44], [8897, 3, 4, 3.33], [2331, 1, 4, 1.08], [11769, 1, 4, 1.1], [9082, 3, 17, 0.77], [11685, 2, 106, 6.0], [6935, 2, 108, 6.0], [326, 2, 36, 6.0], [8648, 2, 89, 6.0], [144, 2, 59, 6.0], [593, 2, 89, 6.0], [2327, 2, 59, 6.0], [143, 2, 58, 6.0], [205, 2, 42, 6.0], [8915, 2, 65, 4.29], [2328, 2, 59, 6.0], [6936, 2, 108, 6.0], [11681, 2, 106, 6.0], [305, 2, 57, 6.0], [151, 1, 58, 2.7], [8650, 2, 89, 6.0], [141, 2, 61, 6.0], [206, 2, 42, 6.0], [2778, 2, 61, 6.0], [2049, 3, 144, 6.0], [88, 10, 220, 6.0], [615, 2, 91, 4.78], [7036, 1, 50, 6.0], [8853, 2, 108, 6.0], [8649, 2, 89, 6.0], [1446, 2, 79, 6.0], [5491, 2, 42, 5.94], [434, 2, 56, 2.07], [1006, 2, 89, 6.0], [75, 2, 57, 6.0], [2055, 3, 396, 4.86], [11737, 2, 23, 5.71], [616, 2, 91, 4.41], [417, 2, 133, 2.95], [3840, 1, 150, 2.17], [2050, 3, 188, 6.0], [1007, 2, 105, 6.0], [12870, 1, 117, 5.16], [12353, 1, 241, 6.0], [523, 2, 60, 6.0], [1504, 2, 80, 6.0], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 188, 6.0], [3, 2, 48, 4.34], [10574, 3, 196, 6.0], [142, 2, 133, 2.39], [12346, 1, 241, 6.0], [7084, 3, 51, 6.0], [624, 2, 91, 5.38], [9760, 29, 28, 5.72], [2054, 3, 188, 6.0], [140, 2, 78, 3.15], [2775, 2, 61, 6.0], [3891, 1, 108, 2.43], [21793, 1, 90, 6.0], [8939, 2, 75, 6.0], [1429, 2, 60, 6.0], [6158, 2, 103, 6.0], [11739, 2, 23, 3.9], [96, 11, 330, 6.0], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 27, 6.0], [1126, 2, 197, 2.71], [9372, 1, 196, 4.79], [10388, 2, 186, 3.58]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.51], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.35], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.57], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [11739, 2, 4, 0.43], [616, 2, 4, 1.12], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [12352, 1, 4, 1.38], [411, 2, 4, 0.47], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [6497, 1, 5, 0.5], [12353, 1, 4, 1.38], [8674, 2, 5, 0.63], [583, 2, 4, 1.31], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [144, 2, 4, 0.52], [418, 2, 4, 0.54], [6097, 80, 4, 1.14], [11738, 2, 4, 0.43], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [413, 1, 4, 0.97], [6097, 29, 5, 0.64], [2057, 3, 4, 1.0], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [2055, 3, 4, 1.18], [12344, 1, 4, 1.38], [1413, 15, 4, 0.2], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [247, 1, 4, 0.8], [3429, 15, 4, 0.46], [22316, 3, 4, 0.46], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.74], [8599, 1, 4, 0.49], [3430, 15, 4, 0.35], [8938, 2, 4, 0.57], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [94, 4, 4, 1.76], [107, 7, 5, 1.13], [947, 15, 4, 0.39], [436, 2, 4, 0.51], [11490, 1, 4, 0.52], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [11770, 1, 4, 0.43], [11767, 1, 4, 0.48], [11671, 1, 4, 0.45], [3673, 2, 4, 2.08], [11769, 1, 4, 0.48], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [12347, 1, 4, 1.38], [9491, 21, 10, 0.51], [7036, 1, 4, 0.43], [5812, 3, 4, 2.0], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [11771, 1, 4, 1.61], [5813, 3, 5, 1.1], [12764, 2, 5, 0.49], [3495, 3, 13, 0.85], [23920, 2, 4, 0.46], [11954, 1, 4, 0.42], [308, 1, 5, 0.79], [9690, 1, 4, 0.79], [5811, 3, 6, 1.16], [410, 1, 4, 0.8], [19687, 1, 4, 1.21], [8672, 2, 145, 6.0], [141, 2, 156, 2.73], [362, 2, 72, 6.0], [361, 2, 78, 6.0], [6935, 2, 143, 6.0], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 42, 4.62], [2049, 3, 276, 6.0], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 78, 6.0], [3, 2, 61, 6.0], [6936, 2, 143, 6.0], [305, 2, 74, 6.0], [151, 1, 33, 2.79], [523, 2, 78, 6.0], [22247, 2, 285, 3.62], [8650, 2, 114, 6.0], [142, 2, 156, 2.68], [8648, 2, 114, 6.0], [2328, 2, 76, 6.0], [2776, 2, 79, 6.0], [8853, 2, 282, 4.82], [11739, 2, 57, 3.01], [616, 2, 107, 4.01], [2327, 2, 76, 6.0], [11837, 2, 268, 2.61], [12352, 1, 607, 4.89], [411, 2, 110, 2.65], [589, 2, 77, 6.0], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 134, 6.0], [412, 1, 42, 6.0], [6497, 1, 19, 3.94], [12353, 1, 607, 4.89], [8674, 2, 145, 6.0], [583, 2, 30, 3.93], [145, 2, 151, 2.69], [2805, 137, 92, 6.0], [326, 2, 30, 3.62], [10574, 3, 249, 6.0], [144, 2, 151, 2.74], [418, 2, 142, 2.79], [6097, 80, 35, 6.0], [11738, 2, 57, 3.01], [9784, 1, 36, 6.0], [10149, 3, 906, 2.65], [413, 1, 44, 6.0], [6097, 29, 18, 6.0], [2057, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [2055, 3, 158, 4.31], [12344, 1, 607, 4.33], [1413, 15, 50, 6.0], [20252, 2, 94, 2.66], [11504, 2, 72, 6.0], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 44, 6.0], [1492, 1, 37, 2.92], [6098, 80, 38, 6.0], [12346, 1, 607, 4.89], [247, 1, 86, 5.11]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 5, 0.52], [6935, 2, 5, 1.77], [305, 2, 4, 0.45], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [593, 2, 4, 0.37], [326, 2, 4, 0.65], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [3840, 1, 4, 0.29], [7036, 1, 4, 0.44], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.59], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [5491, 2, 4, 0.58], [990, 2, 5, 0.2], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [9372, 1, 4, 1.97], [3893, 1, 4, 0.2], [2057, 3, 4, 0.46], [8649, 2, 5, 0.39], [434, 2, 4, 0.2], [8938, 2, 4, 0.52], [12870, 1, 4, 1.22], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [3891, 1, 4, 0.2], [140, 2, 4, 1.27], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.45], [75, 2, 4, 0.39], [12352, 1, 4, 0.66], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [346, 3, 4, 0.19], [147, 1, 4, 1.75], [996, 2, 4, 1.16], [11811, 1, 4, 0.2], [229, 1, 4, 0.54], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [998, 2, 5, 1.0], [94, 4, 4, 1.91], [972, 3, 5, 1.02], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [6158, 2, 4, 2.61], [13028, 3, 5, 1.54], [413, 1, 4, 1.08], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [5209, 3, 4, 0.19], [412, 1, 4, 0.43], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [3495, 3, 10, 0.82], [2774, 2, 4, 0.63], [8898, 3, 5, 1.44], [12212, 29, 4, 0.2], [7887, 4, 4, 0.94], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [84, 2, 4, 0.97], [126, 2, 4, 1.27], [13928, 2, 4, 0.7], [11739, 2, 4, 1.42], [411, 2, 4, 0.48], [9691, 1, 4, 0.57], [3048, 3, 5, 1.15], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [12764, 2, 5, 0.21], [10410, 10, 9, 2.08], [11954, 1, 4, 0.38], [7567, 3, 5, 1.16], [74, 1, 4, 1.39], [2327, 2, 74, 6.0], [6935, 2, 135, 6.0], [305, 2, 72, 6.0], [2778, 2, 77, 6.0], [144, 2, 55, 6.0], [130, 1, 29, 6.0], [8915, 2, 93, 6.0], [589, 2, 75, 6.0], [143, 2, 72, 6.0], [2328, 2, 147, 3.37], [6936, 2, 135, 6.0], [8648, 2, 110, 6.0], [2775, 2, 77, 6.0], [205, 2, 54, 6.0], [8650, 2, 110, 6.0], [593, 2, 223, 2.53], [326, 2, 44, 6.0], [146, 2, 73, 6.0], [145, 2, 73, 6.0], [3840, 1, 84, 6.0], [7036, 1, 63, 6.0], [2049, 3, 360, 2.34], [2776, 2, 77, 6.0], [615, 2, 54, 5.74], [616, 2, 54, 4.36], [88, 10, 276, 6.0], [141, 2, 76, 6.0], [151, 1, 32, 2.68], [1124, 2, 182, 3.1], [11681, 2, 131, 6.0], [206, 2, 106, 2.39], [1446, 2, 74, 6.0], [9760, 29, 35, 6.0], [8853, 2, 135, 6.0], [5491, 2, 53, 6.0], [990, 2, 26, 2.7], [1007, 2, 264, 2.49], [362, 2, 69, 6.0], [8672, 2, 140, 6.0], [1504, 2, 99, 6.0], [2055, 3, 314, 2.32], [9372, 1, 114, 6.0], [3893, 1, 61, 6.0], [2057, 3, 314, 2.32], [8649, 2, 110, 6.0], [434, 2, 53, 4.6], [8938, 2, 125, 2.43], [12870, 1, 69, 6.0], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 76, 6.0], [3889, 1, 122, 2.29], [5165, 1, 38, 6.0], [1429, 2, 74, 6.0], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 79, 6.0], [3891, 1, 61, 6.0], [140, 2, 86, 3.98], [1006, 2, 111, 6.0], [7886, 4, 35, 4.13], [10574, 3, 246, 6.0], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 273, 6.0], [1622, 1, 105, 2.46]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 9, 1.35], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.9], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [362, 2, 6, 0.85], [141, 2, 7, 2.37], [2497, 2, 7, 1.14], [144, 2, 7, 1.3], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 7, 1.37], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 1.02], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.02], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [12343, 1, 7, 2.59], [2055, 3, 7, 3.23], [624, 2, 7, 2.32], [2423, 80, 7, 2.97], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.52], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [75, 2, 7, 2.15], [8915, 2, 7, 0.75], [88, 10, 16, 2.9], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 0.81], [412, 1, 7, 1.93], [21712, 3, 21, 1.11], [1050, 2, 7, 0.7], [2422, 80, 7, 2.41], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [6098, 29, 7, 2.55], [378, 2, 9, 2.87], [12346, 1, 7, 2.59], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [11738, 2, 7, 1.32], [229, 1, 7, 3.68], [1243, 2, 7, 1.32], [22316, 3, 7, 0.85], [1049, 2, 7, 0.7], [13264, 29, 7, 0.94], [20252, 2, 7, 1.06], [345, 3, 7, 2.32], [13258, 29, 9, 1.59], [12269, 2, 7, 0.93], [1490, 1, 7, 0.87], [964, 15, 7, 0.66], [2331, 1, 7, 1.02], [10407, 10, 10, 2.08], [1163, 3, 7, 2.25], [2821, 3, 12, 1.27], [5208, 3, 9, 1.41], [201, 3, 7, 4.28], [416, 1, 7, 3.06], [307, 2, 7, 1.91], [2912, 1, 7, 2.28], [186, 3, 12, 0.9], [149, 2, 7, 1.95], [7004, 1, 7, 1.03], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [13259, 29, 7, 2.95], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [11687, 2, 7, 1.02], [10406, 10, 12, 2.42], [410, 1, 7, 1.3], [7036, 1, 7, 0.87], [20255, 2, 7, 1.14], [3478, 2, 9, 1.47], [9784, 1, 7, 1.67], [21713, 3, 13, 0.88], [10408, 10, 10, 1.81], [12870, 1, 7, 4.46], [8938, 2, 7, 1.06], [5490, 2, 7, 0.91], [11402, 1, 7, 0.85], [10410, 10, 10, 2.08], [19687, 1, 7, 2.23], [107, 7, 8, 2.46], [1886, 2, 7, 0.65], [11161, 1, 10, 3.78], [11490, 1, 7, 0.83], [2703, 3, 7, 3.92], [956, 2, 7, 0.96], [21781, 2, 7, 0.86], [10411, 10, 10, 1.97], [11690, 2, 7, 0.66], [13258, 25, 7, 1.24], [159, 16, 7, 1.3], [21712, 3, 2180, 2.89], [1050, 2, 38, 1.78], [2422, 80, 187, 4.2], [10149, 3, 866, 4.0], [2422, 29, 18, 6.0], [6098, 29, 37, 4.34], [378, 2, 114, 6.0], [12346, 1, 610, 4.37], [7704, 2, 176, 4.07], [151, 1, 33, 2.79], [11738, 2, 56, 3.11], [229, 1, 81, 5.47], [1243, 2, 99, 3.11], [22316, 3, 318, 2.64], [1049, 2, 38, 1.78], [13264, 29, 73, 2.73], [20252, 2, 92, 2.85], [345, 3, 297, 4.11], [13258, 29, 39, 3.37], [12269, 2, 65, 2.72], [1490, 1, 51, 2.66], [2331, 1, 119, 2.8], [10407, 10, 1201, 3.88], [1163, 3, 114, 6.0], [2821, 3, 658, 6.0], [5208, 3, 561, 3.2], [201, 3, 297, 6.0], [416, 1, 85, 4.84], [307, 2, 148, 3.7], [2912, 1, 49, 4.07], [186, 3, 665, 2.69], [149, 2, 88, 3.74], [7004, 1, 80, 2.82], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [13259, 29, 35, 4.73], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [11687, 2, 303, 2.8], [10406, 10, 1784, 4.24], [410, 1, 105, 3.09], [7036, 1, 127, 2.65], [20255, 2, 93, 2.93], [3478, 2, 38, 6.0], [9784, 1, 72, 3.46], [21713, 3, 1121, 2.67], [10408, 10, 785, 3.6], [12870, 1, 137, 6.0], [8938, 2, 192, 2.85], [5490, 2, 108, 2.69], [11402, 1, 45, 2.64], [10410, 10, 1201, 3.88], [19687, 1, 30, 4.02], [107, 7, 239, 4.24], [1886, 2, 158, 2.44], [11161, 1, 490, 5.57], [11490, 1, 55, 6.0], [2703, 3, 300, 5.7], [956, 2, 107, 2.75], [21781, 2, 104, 2.65], [10411, 10, 785, 3.76], [11690, 2, 303, 2.44], [13258, 25, 78, 3.02], [159, 16, 79, 3.09]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.94], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.95], [2327, 2, 7, 1.16], [11685, 2, 7, 4.19], [326, 2, 7, 1.87], [8672, 2, 10, 1.28], [417, 2, 7, 1.02], [1124, 2, 10, 0.83], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 11, 1.7], [11838, 2, 7, 1.49], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.86], [11739, 2, 7, 1.9], [10574, 3, 10, 2.64], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [21793, 1, 8, 4.02], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [8675, 2, 9, 1.42], [76, 2, 7, 2.04], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [11836, 2, 7, 0.79], [8674, 2, 7, 1.46], [146, 2, 7, 1.14], [8938, 2, 7, 1.78], [6158, 2, 9, 2.65], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [10149, 3, 21, 1.48], [2776, 2, 7, 1.37], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 7, 1.35], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 3.21], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 1.09], [410, 1, 7, 0.87], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [2424, 29, 9, 1.09], [2423, 80, 7, 2.8], [378, 2, 7, 2.23], [12351, 1, 7, 1.63], [2423, 29, 7, 3.02], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [12373, 1, 11, 1.47], [13023, 3, 10, 2.63], [13034, 3, 8, 2.37], [201, 3, 7, 3.8], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [5208, 3, 9, 1.01], [345, 3, 7, 1.4], [11770, 1, 7, 0.89], [3, 2, 7, 5.0], [6952, 1, 7, 2.01], [159, 1, 7, 1.33], [20927, 1, 7, 0.87], [3430, 15, 7, 2.26], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [11504, 2, 7, 0.67], [13928, 1, 7, 0.82], [566, 2, 7, 0.92], [11811, 1, 7, 1.93], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.08], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [1490, 1, 7, 3.38], [7004, 1, 7, 1.91], [2703, 3, 7, 3.92], [11089, 1, 7, 0.71], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [12348, 1, 7, 1.19], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [10410, 10, 10, 2.08], [3891, 1, 7, 4.39], [94, 4, 7, 4.17], [11953, 1, 7, 0.85], [9082, 3, 24, 2.42], [2859, 15, 69, 2.6], [7084, 3, 129, 5.0], [418, 2, 72, 5.99], [10993, 2, 27, 3.99], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [5165, 1, 49, 2.88], [410, 1, 53, 2.3], [12526, 2, 272, 4.56], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [2424, 29, 17, 3.17], [2423, 80, 92, 6.0], [378, 2, 114, 6.0], [12351, 1, 315, 6.0], [2423, 29, 37, 4.81], [12345, 1, 315, 6.0], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [12373, 1, 533, 3.26], [13023, 3, 592, 4.42], [13034, 3, 592, 4.16], [201, 3, 298, 5.59], [1519, 3, 561, 1.77], [11489, 1, 109, 2.46], [5208, 3, 563, 2.79], [345, 3, 298, 3.19], [11770, 1, 221, 2.67], [3, 2, 118, 6.0], [6952, 1, 189, 3.79], [159, 1, 39, 3.12], [20927, 1, 80, 2.66], [3430, 15, 69, 4.05], [11954, 1, 203, 2.56], [7886, 4, 36, 4.53], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [11504, 2, 72, 6.0], [13928, 1, 49, 2.61], [566, 2, 175, 2.7], [11811, 1, 451, 3.72], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 3.88], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [1490, 1, 48, 5.17], [7004, 1, 40, 6.0], [2703, 3, 300, 5.7], [11089, 1, 173, 2.5], [6098, 80, 74, 4.31], [12348, 1, 315, 6.0], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [10410, 10, 1201, 3.88], [3891, 1, 122, 6.0], [94, 4, 116, 5.96], [11953, 1, 203, 2.63], [9082, 3, 2452, 4.17]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.64], [589, 2, 10, 0.77], [141, 2, 7, 2.25], [75, 2, 7, 0.75], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [8672, 2, 10, 0.94], [2778, 2, 9, 0.79], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.91], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [990, 2, 7, 1.89], [11681, 2, 10, 4.17], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 1.39], [144, 2, 7, 0.91], [10149, 3, 25, 4.03], [345, 3, 10, 0.97], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.66], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 0.85], [413, 1, 7, 2.13], [21793, 1, 7, 1.33], [201, 3, 10, 0.88], [167, 3, 9, 0.97], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.9], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [7084, 3, 7, 0.69], [11234, 2, 9, 0.72], [1429, 2, 7, 1.21], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [335, 3, 16, 0.7], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [13028, 3, 7, 0.9], [308, 1, 9, 2.22], [12870, 1, 7, 2.96], [10825, 21, 14, 2.47], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [23, 1, 7, 1.24], [96, 11, 23, 0.64], [1006, 2, 7, 1.06], [418, 2, 7, 0.79], [3893, 1, 7, 1.48], [1504, 2, 7, 1.39], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [94, 4, 7, 4.2], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [21269, 3, 7, 4.99], [8939, 2, 7, 1.39], [13280, 1, 7, 2.64], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [7567, 3, 7, 2.54], [2049, 1, 7, 0.69], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [3980, 4, 7, 2.59], [1703, 2, 7, 1.51], [8121, 3, 7, 0.97], [8274, 3, 7, 1.24], [35, 1, 7, 0.88], [9691, 1, 7, 2.1], [5209, 3, 9, 0.67], [5584, 3, 7, 3.35], [11811, 1, 7, 1.83], [997, 2, 7, 1.98], [1070, 7, 13, 1.16], [11914, 1, 7, 1.42], [1519, 3, 17, 0.69], [5660, 2, 7, 1.66], [856, 1, 7, 0.69], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [523, 2, 7, 1.16], [8926, 1, 7, 2.6], [2775, 2, 7, 0.79], [11767, 1, 7, 0.88], [9372, 1, 7, 2.03], [13034, 3, 8, 3.38], [9081, 3, 12, 3.55], [20255, 2, 7, 1.43], [12661, 1, 7, 1.87], [307, 2, 7, 2.19], [23, 1, 39, 6.0], [96, 11, 784, 1.8], [1006, 2, 80, 6.0], [418, 2, 131, 1.94], [3893, 1, 44, 6.0], [1504, 2, 72, 6.0], [145, 2, 139, 1.94], [5208, 3, 196, 6.0], [9827, 3, 30, 6.0], [3891, 1, 44, 6.0], [432, 3, 106, 6.0], [7005, 1, 28, 5.1], [1490, 1, 18, 4.13], [8853, 2, 97, 6.0], [94, 4, 42, 6.0], [13260, 29, 26, 3.15], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 79, 6.0], [12353, 1, 557, 4.25], [20256, 2, 33, 4.77], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [950, 1, 55, 2.12], [33, 1, 39, 6.0], [5086, 1, 63, 6.0], [998, 2, 83, 6.0], [9069, 1, 43, 6.0], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 28, 6.0], [140, 2, 32, 6.0], [7567, 3, 24, 6.0], [2049, 1, 14, 1.52], [20927, 1, 28, 2.26], [126, 2, 32, 6.0], [346, 3, 219, 6.0], [3980, 4, 443, 3.74], [1703, 2, 149, 2.66], [8121, 3, 270, 2.12], [8274, 3, 159, 6.0], [35, 1, 103, 2.02], [9691, 1, 27, 6.0], [5209, 3, 196, 6.0], [5584, 3, 86, 6.0], [11811, 1, 416, 2.98], [997, 2, 83, 6.0], [1070, 7, 206, 6.0], [11914, 1, 30, 6.0], [1519, 3, 1545, 1.83], [5660, 2, 61, 6.0], [856, 1, 32, 1.84], [8898, 3, 102, 6.0], [1091, 1, 17, 3.07], [5513, 2, 70, 1.95], [523, 2, 143, 2.31], [8926, 1, 22, 6.0], [2775, 2, 55, 6.0], [11767, 1, 151, 2.03], [9372, 1, 210, 3.18], [13034, 3, 203, 6.0], [9081, 3, 161, 6.0], [20255, 2, 33, 6.0], [12661, 1, 28, 6.0], [307, 2, 51, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 20, 2.06], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 7, 1.83], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [151, 1, 7, 1.36], [3840, 1, 9, 1.09], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [1504, 2, 7, 1.79], [624, 2, 7, 2.19], [12224, 1, 7, 0.84], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [362, 2, 7, 0.96], [2055, 3, 7, 0.84], [141, 2, 7, 1.21], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [378, 2, 7, 2.23], [5208, 3, 9, 0.78], [3889, 1, 7, 0.65], [8649, 2, 7, 3.15], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [10993, 2, 7, 1.29], [11234, 2, 7, 1.8], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [2050, 3, 7, 0.84], [3980, 4, 6, 2.43], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [5165, 1, 7, 2.49], [9760, 29, 7, 0.71], [998, 2, 7, 2.89], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [346, 3, 7, 1.21], [3, 2, 7, 1.14], [229, 1, 7, 1.0], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5165, 2, 8, 2.84], [5076, 1, 7, 1.3], [7887, 4, 7, 1.42], [20252, 2, 7, 1.43], [126, 2, 7, 2.34], [11953, 1, 7, 0.84], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [11685, 2, 11, 3.45], [1492, 1, 7, 0.95], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [20256, 2, 9, 0.82], [12721, 2, 7, 4.25], [2774, 2, 7, 1.15], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [6497, 1, 7, 3.31], [12343, 1, 7, 1.22], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [10407, 10, 10, 2.08], [12351, 1, 7, 1.22], [11179, 1, 7, 1.6], [6496, 1, 7, 3.41], [22317, 3, 7, 0.66], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [2805, 137, 7, 2.91], [8898, 3, 7, 3.35], [3900, 3, 7, 3.39], [12526, 2, 7, 2.21], [2424, 29, 7, 1.01], [11812, 1, 7, 0.87], [3975, 4, 7, 2.86], [4253, 1, 7, 1.04], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [1622, 1, 7, 0.87], [412, 1, 7, 0.81], [12764, 2, 8, 0.9], [8676, 2, 7, 4.08], [998, 2, 115, 6.0], [997, 2, 232, 4.28], [2436, 4, 57, 5.92], [1006, 2, 111, 6.0], [972, 3, 291, 6.0], [2424, 80, 82, 6.0], [346, 3, 308, 6.0], [3, 2, 118, 2.79], [229, 1, 81, 2.64], [6158, 2, 127, 6.0], [3495, 3, 471, 6.0], [12346, 1, 612, 2.87], [5165, 2, 180, 6.0], [5076, 1, 127, 2.94], [7887, 4, 68, 2.73], [20252, 2, 91, 3.07], [126, 2, 86, 3.98], [11953, 1, 195, 2.48], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 93, 6.0], [11954, 1, 195, 2.34], [11685, 2, 131, 6.0], [1492, 1, 18, 2.93], [12352, 1, 612, 2.87], [996, 2, 115, 6.0], [20256, 2, 49, 4.91], [12721, 2, 272, 5.89], [2774, 2, 200, 2.79], [12350, 1, 612, 2.87], [3981, 3, 790, 6.0], [9491, 21, 1034, 6.0], [5434, 1, 24, 6.0], [2423, 80, 90, 6.0], [6497, 1, 35, 4.95], [12343, 1, 612, 2.87], [5584, 3, 120, 6.0], [2438, 2, 308, 6.0], [10388, 2, 211, 3.57], [10407, 10, 1168, 3.71], [12351, 1, 612, 2.87], [11179, 1, 85, 3.25], [6496, 1, 38, 5.05], [22317, 3, 308, 2.3], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 273, 6.0], [2805, 137, 175, 4.54], [8898, 3, 144, 6.0], [3900, 3, 21, 6.0], [12526, 2, 135, 3.53], [2424, 29, 34, 2.65], [11812, 1, 116, 6.0], [3975, 4, 234, 6.0], [4253, 1, 83, 6.0], [11490, 1, 106, 2.29], [336, 15, 110, 3.43], [1622, 1, 52, 6.0], [412, 1, 82, 2.45], [12764, 2, 734, 2.54], [8676, 2, 274, 5.72]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 1.34], [2327, 2, 7, 1.6], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.06], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.94], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [412, 1, 7, 1.25], [5491, 2, 7, 0.92], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [417, 2, 7, 0.83], [583, 2, 7, 1.42], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [8089, 1, 7, 2.21], [248, 1, 9, 0.68], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 1.19], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.98], [6097, 29, 7, 3.9], [6098, 80, 7, 2.81], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 24, 2.21], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [418, 2, 7, 1.68], [4032, 29, 7, 0.9], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [5151, 2, 7, 1.14], [972, 3, 9, 1.15], [12304, 1, 7, 1.18], [229, 1, 7, 3.82], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [13034, 3, 7, 4.02], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [2424, 29, 7, 2.13], [3, 2, 7, 1.01], [11426, 25, 7, 1.07], [11737, 2, 7, 0.91], [5076, 1, 7, 1.18], [11767, 1, 7, 0.88], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [8677, 3, 8, 1.86], [11180, 1, 7, 1.04], [1701, 2, 7, 3.79], [75, 2, 7, 1.94], [11586, 1, 14, 3.12], [3478, 2, 7, 1.65], [3577, 25, 7, 0.77], [11585, 29, 7, 2.06], [9998, 80, 7, 0.77], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [2438, 2, 8, 1.84], [4253, 1, 7, 1.9], [2424, 80, 146, 3.69], [346, 3, 245, 6.0], [3334, 5, 70, 6.0], [20927, 1, 68, 2.36], [12351, 1, 536, 2.11], [7885, 4, 120, 2.4], [6097, 29, 23, 6.0], [6098, 80, 30, 6.0], [11089, 1, 149, 2.22], [12345, 1, 536, 2.26], [10149, 3, 741, 3.62], [20256, 2, 37, 5.06], [147, 1, 77, 3.78], [22316, 3, 273, 2.08], [1492, 1, 15, 3.66], [11953, 1, 172, 2.22], [432, 3, 118, 6.0], [11491, 2, 121, 2.36], [20252, 2, 36, 4.81], [418, 2, 121, 3.09], [4032, 29, 38, 5.37], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 42, 6.0], [5151, 2, 21, 2.55], [972, 3, 233, 6.0], [12304, 1, 97, 2.59], [229, 1, 70, 5.24], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [2331, 1, 100, 4.08], [346, 1, 62, 6.0], [13034, 3, 228, 6.0], [995, 2, 206, 3.55], [416, 1, 33, 6.0], [2424, 29, 29, 3.54], [3, 2, 105, 2.43], [11426, 25, 103, 2.49], [11737, 2, 49, 2.33], [5076, 1, 112, 2.59], [11767, 1, 140, 2.3], [439, 1, 74, 4.64], [11490, 1, 42, 6.0], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [8677, 3, 253, 3.28], [11180, 1, 34, 5.56], [1701, 2, 63, 6.0], [75, 2, 124, 3.36], [11586, 1, 147, 6.0], [3478, 2, 65, 3.07], [3577, 25, 76, 2.18], [11585, 29, 149, 3.47], [9998, 80, 107, 2.19], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26], [4253, 1, 144, 3.31]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.37], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 0.83], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3891, 1, 7, 1.68], [3840, 1, 7, 0.72], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.41], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [362, 2, 7, 1.64], [8672, 2, 9, 2.44], [8649, 2, 7, 2.8], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [2991, 3, 7, 4.78], [3495, 3, 21, 1.48], [7084, 3, 7, 1.12], [7005, 1, 7, 1.73], [3975, 4, 7, 2.49], [10149, 3, 21, 1.48], [21793, 1, 7, 4.43], [11404, 2, 7, 1.67], [9760, 29, 7, 0.8], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.52], [417, 2, 7, 1.5], [5165, 2, 10, 2.64], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [956, 2, 7, 0.86], [33, 1, 7, 2.04], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [7887, 4, 9, 0.87], [6497, 1, 7, 2.42], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [432, 3, 7, 0.86], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 2.06], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 2.0], [389, 4, 7, 2.13], [74, 1, 7, 2.13], [2912, 2, 8, 0.79], [6496, 1, 7, 0.85], [35, 1, 7, 1.54], [7567, 3, 7, 3.18], [411, 2, 7, 1.02], [1413, 15, 7, 1.17], [12721, 2, 7, 1.91], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8121, 3, 6, 0.85], [8673, 2, 7, 2.48], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [8676, 2, 7, 3.11], [21269, 3, 7, 4.87], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [12526, 2, 7, 2.15], [11085, 2, 8, 3.16], [9784, 1, 7, 1.01], [12269, 2, 7, 1.9], [1274, 1, 9, 1.03], [6494, 1, 7, 2.34], [37, 1, 7, 1.7], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [12225, 1, 7, 2.51], [7573, 1, 9, 2.67], [345, 3, 7, 2.52], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [96, 11, 22, 1.1], [6158, 2, 103, 6.0], [20927, 1, 68, 3.22], [3981, 3, 623, 6.0], [417, 2, 133, 2.95], [5165, 2, 144, 6.0], [2912, 1, 32, 4.02], [3982, 3, 306, 6.0], [8939, 2, 75, 6.0], [1007, 2, 105, 6.0], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [956, 2, 93, 2.32], [33, 1, 44, 6.0], [11772, 1, 84, 6.0], [286, 3, 55, 6.0], [7887, 4, 54, 5.74], [6497, 1, 15, 5.7], [1492, 1, 15, 5.35], [11767, 1, 63, 6.0], [432, 3, 264, 2.32], [336, 15, 96, 3.67], [972, 3, 232, 6.0], [11769, 1, 139, 3.51], [11490, 1, 42, 6.0], [11770, 1, 84, 6.0], [389, 4, 81, 6.0], [74, 1, 176, 3.58], [2912, 2, 342, 2.25], [6496, 1, 35, 2.31], [35, 1, 44, 6.0], [7567, 3, 27, 6.0], [411, 2, 42, 6.0], [1413, 15, 86, 2.63], [12721, 2, 111, 6.0], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8121, 3, 114, 6.0], [8673, 2, 240, 3.93], [1126, 2, 197, 2.71], [4176, 4, 186, 6.0], [2436, 4, 45, 4.02], [9372, 1, 196, 4.79], [8676, 2, 245, 4.57], [21269, 3, 254, 6.0], [8677, 3, 115, 6.0], [22247, 2, 111, 6.0], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [12526, 2, 235, 3.6], [11085, 2, 207, 6.0], [9784, 1, 63, 2.46], [12269, 2, 55, 3.35], [1274, 1, 32, 4.03], [6494, 1, 20, 6.0], [37, 1, 96, 3.15], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [12225, 1, 141, 3.96], [7573, 1, 144, 6.0], [345, 3, 115, 6.0], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [96, 11, 330, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.9], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.28], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.53], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.79], [11737, 2, 7, 1.18], [11838, 2, 7, 1.04], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.81], [11739, 2, 7, 1.18], [88, 10, 14, 1.5], [434, 2, 7, 1.44], [2776, 2, 9, 1.21], [142, 2, 7, 1.05], [435, 2, 7, 1.4], [151, 1, 7, 1.36], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 9, 1.91], [2423, 80, 7, 3.37], [10574, 3, 9, 3.0], [3670, 2, 9, 3.61], [11836, 2, 9, 0.79], [7705, 2, 7, 2.08], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [378, 2, 7, 4.55], [7706, 2, 7, 2.08], [12720, 2, 7, 1.89], [12353, 1, 7, 1.94], [22316, 3, 7, 0.85], [2055, 3, 7, 1.85], [12344, 1, 7, 0.88], [3478, 2, 9, 2.65], [10149, 3, 21, 2.21], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [2774, 2, 7, 1.06], [307, 2, 7, 1.91], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [418, 2, 7, 0.9], [7004, 1, 7, 1.96], [13928, 1, 7, 0.74], [411, 2, 7, 0.9], [11089, 1, 7, 0.71], [413, 1, 9, 2.57], [2057, 3, 7, 2.1], [11844, 2, 7, 1.79], [14037, 3, 7, 1.85], [7036, 1, 7, 1.74], [2050, 3, 7, 2.1], [8274, 3, 7, 1.68], [3893, 1, 7, 3.83], [20252, 2, 7, 1.06], [13260, 29, 7, 1.29], [6097, 80, 7, 3.38], [439, 1, 9, 2.21], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [9784, 1, 7, 2.37], [6494, 1, 7, 0.85], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [1413, 16, 7, 0.71], [11490, 1, 7, 0.86], [1243, 2, 7, 1.32], [7708, 2, 7, 2.28], [414, 1, 9, 1.63], [3889, 1, 7, 3.83], [1492, 1, 7, 1.13], [5208, 3, 9, 1.82], [565, 2, 7, 0.84], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [11491, 2, 7, 1.5], [21793, 1, 7, 1.83], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [2422, 80, 9, 4.33], [6098, 80, 7, 2.52], [410, 1, 7, 0.74], [11504, 2, 7, 1.33], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3674, 2, 7, 0.96], [147, 1, 7, 2.73], [3430, 15, 7, 2.26], [5165, 1, 7, 1.09], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [247, 1, 7, 2.33], [74, 1, 102, 6.0], [3429, 15, 53, 2.63], [2774, 2, 105, 6.0], [307, 2, 148, 3.7], [6497, 1, 38, 2.59], [60, 3, 405, 6.0], [12526, 2, 138, 6.0], [418, 2, 72, 6.0], [7004, 1, 40, 6.0], [13928, 1, 24, 2.85], [411, 2, 109, 2.69], [11089, 1, 173, 2.5], [413, 1, 44, 6.0], [2057, 3, 473, 3.89], [7036, 1, 128, 3.53], [2050, 3, 473, 3.89], [8274, 3, 115, 6.0], [3893, 1, 123, 5.62], [20252, 2, 92, 2.85], [13260, 29, 36, 6.0], [6097, 80, 35, 6.0], [439, 1, 43, 6.0], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 60, 6.0], [159, 3, 709, 3.16], [9784, 1, 71, 4.16], [6494, 1, 52, 2.64], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [1413, 16, 50, 2.5], [11490, 1, 109, 2.65], [1243, 2, 50, 6.0], [7708, 2, 176, 4.07], [414, 1, 44, 6.0], [3889, 1, 123, 5.62], [1492, 1, 37, 2.92], [5208, 3, 558, 3.6], [565, 2, 176, 2.63], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [11491, 2, 141, 3.28], [21793, 1, 123, 6.0], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.11], [2422, 80, 92, 6.0], [6098, 80, 74, 4.31], [410, 1, 53, 2.17], [11504, 2, 141, 3.12], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3674, 2, 260, 2.74], [147, 1, 87, 4.52], [3430, 15, 69, 4.05], [5165, 1, 49, 2.88], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [247, 1, 87, 4.12]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.94], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 2.81], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 7, 1.93], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [7886, 4, 7, 1.22], [88, 10, 21, 3.14], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 1.01], [1492, 1, 9, 1.36], [1007, 2, 10, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.91], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.78], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [7084, 3, 7, 2.64], [3478, 2, 7, 1.0], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.44], [94, 4, 7, 3.06], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [11681, 2, 11, 3.45], [8677, 3, 9, 1.51], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 14, 4.07], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [20927, 1, 7, 0.83], [8651, 2, 7, 1.63], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [25, 1, 7, 1.4], [1767, 25, 9, 1.46], [45, 2, 7, 2.7], [9069, 1, 7, 1.75], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [3495, 3, 21, 1.61], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [998, 2, 7, 1.87], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [490, 1, 9, 0.99], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [506, 1, 7, 4.76], [11489, 1, 7, 1.21], [8674, 2, 7, 0.99], [8898, 3, 7, 3.23], [3670, 2, 7, 3.6], [997, 2, 7, 3.34], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [974, 3, 7, 1.64], [107, 2, 7, 1.46], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 1.3], [823, 1, 7, 1.62], [34, 1, 7, 2.43], [14017, 3, 9, 1.09], [9784, 1, 7, 1.51], [972, 3, 8, 1.49], [5209, 3, 7, 0.98], [1091, 1, 7, 1.18], [11739, 2, 7, 1.26], [20498, 3, 10, 1.16], [432, 3, 146, 6.0], [11681, 2, 129, 6.0], [8677, 3, 142, 6.0], [148, 1, 43, 6.0], [96, 11, 409, 6.0], [1490, 1, 24, 2.48], [12225, 1, 71, 2.57], [1124, 2, 90, 6.0], [11737, 2, 28, 5.54], [1243, 2, 83, 2.22], [22247, 2, 138, 6.0], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 136, 6.0], [201, 3, 147, 6.0], [412, 1, 40, 6.0], [9760, 29, 35, 4.45], [10574, 3, 239, 6.0], [20927, 1, 39, 5.09], [8651, 2, 109, 6.0], [5208, 3, 480, 2.56], [8676, 2, 138, 6.0], [229, 1, 40, 6.0], [25, 1, 95, 2.71], [1767, 25, 83, 6.0], [45, 2, 53, 6.0], [9069, 1, 60, 6.0], [413, 1, 42, 6.0], [11490, 1, 53, 5.75], [3495, 3, 463, 6.0], [149, 2, 43, 6.0], [159, 3, 602, 2.48], [998, 2, 117, 6.0], [140, 2, 44, 6.0], [95, 3, 892, 4.89], [3980, 4, 230, 6.0], [950, 1, 25, 2.17], [5946, 1, 60, 6.0], [9372, 1, 112, 6.0], [1126, 2, 110, 6.0], [1766, 25, 90, 6.0], [490, 1, 29, 3.51], [2775, 2, 75, 6.0], [1413, 15, 47, 6.0], [506, 1, 74, 6.0], [11489, 1, 53, 6.0], [8674, 2, 138, 6.0], [8898, 3, 141, 6.0], [3670, 2, 117, 6.0], [997, 2, 202, 4.64], [1070, 7, 283, 6.0], [9691, 1, 36, 6.0], [974, 3, 72, 6.0], [107, 2, 31, 6.0], [20498, 1, 47, 6.0], [11954, 1, 171, 2.17], [823, 1, 20, 5.09], [34, 1, 54, 6.0], [14017, 3, 95, 6.0], [9784, 1, 35, 6.0], [972, 3, 286, 6.0], [5209, 3, 480, 2.29], [1091, 1, 41, 2.48], [11739, 2, 28, 5.54], [20498, 3, 282, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [362, 2, 9, 0.83], [151, 1, 7, 0.89], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 7, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1007, 2, 10, 0.81], [1777, 1, 7, 2.96], [2778, 2, 7, 0.79], [248, 1, 7, 1.2], [22247, 2, 9, 1.93], [88, 10, 14, 2.0], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [10, 2, 11, 2.2], [2054, 3, 7, 4.0], [8677, 3, 8, 3.58], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.89], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [5081, 2, 7, 0.81], [1492, 1, 6, 1.98], [140, 2, 7, 1.98], [7005, 1, 9, 0.89], [167, 3, 9, 3.09], [7036, 1, 7, 2.14], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 11, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [13280, 1, 9, 3.64], [5812, 3, 8, 3.38], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [168, 3, 9, 1.46], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [6097, 29, 7, 3.38], [8853, 2, 14, 3.62], [416, 1, 7, 2.33], [8939, 2, 7, 0.84], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [1490, 1, 7, 1.27], [95, 3, 26, 0.85], [20927, 1, 9, 0.66], [79, 1, 7, 0.7], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [13034, 3, 8, 3.38], [126, 2, 7, 2.75], [20498, 1, 7, 1.96], [9760, 29, 7, 0.87], [5086, 1, 9, 1.76], [20255, 2, 7, 1.43], [12924, 1, 9, 0.86], [5513, 2, 7, 0.84], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [13260, 29, 7, 1.0], [22317, 3, 8, 1.35], [7567, 3, 7, 3.2], [1413, 15, 7, 1.52], [229, 1, 7, 2.92], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [5813, 3, 9, 2.14], [8557, 3, 7, 1.01], [9082, 3, 20, 2.38], [192, 3, 22, 4.76], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [20498, 3, 8, 2.02], [9691, 1, 9, 2.48], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [8943, 3, 7, 3.03], [470, 1, 7, 1.35], [1622, 1, 10, 0.79], [2775, 2, 6, 0.79], [9372, 1, 7, 2.03], [13023, 3, 8, 2.94], [20486, 3, 8, 1.86], [1703, 2, 7, 1.51], [11454, 2, 9, 3.65], [2423, 80, 7, 3.68], [3900, 3, 7, 3.14], [5584, 3, 7, 3.31], [2424, 80, 7, 3.75], [2497, 2, 7, 0.78], [415, 1, 30, 6.0], [8651, 2, 79, 6.0], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [6097, 29, 12, 6.0], [8853, 2, 97, 6.0], [416, 1, 30, 6.0], [8939, 2, 67, 6.0], [6097, 80, 24, 6.0], [11737, 2, 20, 6.0], [20256, 2, 33, 6.0], [1490, 1, 18, 3.59], [95, 3, 390, 6.0], [20927, 1, 28, 2.26], [79, 1, 44, 1.85], [6098, 29, 13, 4.25], [14017, 3, 69, 6.0], [6098, 80, 27, 6.0], [414, 1, 79, 2.64], [9069, 1, 43, 6.0], [1070, 7, 206, 6.0], [8898, 3, 102, 6.0], [1126, 2, 80, 6.0], [13034, 3, 203, 6.0], [126, 2, 32, 6.0], [20498, 1, 34, 6.0], [9760, 29, 25, 3.42], [5086, 1, 63, 6.0], [20255, 2, 33, 6.0], [12924, 1, 19, 2.3], [5513, 2, 70, 1.99], [9784, 1, 25, 4.16], [336, 15, 40, 6.0], [13260, 29, 67, 2.15], [22317, 3, 109, 6.0], [7567, 3, 24, 6.0], [1413, 15, 34, 6.0], [229, 1, 75, 4.08], [11085, 2, 508, 1.97], [5811, 3, 203, 6.0], [5813, 3, 203, 6.0], [8557, 3, 70, 6.0], [9082, 3, 845, 6.0], [192, 3, 1287, 5.9], [506, 1, 80, 3.88], [3049, 3, 48, 6.0], [20498, 3, 204, 6.0], [9691, 1, 27, 6.0], [14018, 3, 69, 6.0], [524, 1, 30, 6.0], [4076, 3, 71, 6.0], [8943, 3, 137, 6.0], [470, 1, 12, 2.55], [1622, 1, 50, 1.56], [2775, 2, 55, 6.0], [9372, 1, 210, 3.18], [13023, 3, 203, 6.0], [20486, 3, 208, 6.0], [1703, 2, 149, 2.66], [11454, 2, 114, 6.0], [2423, 80, 169, 4.83], [3900, 3, 15, 6.0], [5584, 3, 86, 6.0], [2424, 80, 153, 4.9], [2497, 2, 189, 1.94]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 0.96], [6936, 2, 9, 4.22], [11681, 2, 7, 3.3], [305, 2, 7, 1.38], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [206, 2, 7, 1.35], [2778, 2, 9, 1.07], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [1446, 2, 9, 0.69], [5491, 2, 7, 0.9], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.41], [11737, 2, 7, 1.58], [616, 2, 7, 2.96], [417, 2, 7, 1.5], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12870, 1, 7, 3.71], [12353, 1, 9, 2.27], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [3, 2, 9, 0.74], [10574, 3, 8, 2.36], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [624, 2, 7, 3.92], [9760, 29, 7, 1.3], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [3891, 1, 7, 0.98], [21793, 1, 7, 4.43], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [6158, 2, 9, 0.75], [11739, 2, 7, 1.08], [96, 11, 22, 1.59], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [1126, 2, 7, 1.26], [9372, 1, 7, 3.34], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [8672, 2, 9, 2.94], [5165, 1, 7, 3.03], [413, 1, 7, 1.94], [2912, 1, 7, 0.8], [8898, 3, 7, 5.0], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [9491, 21, 16, 1.93], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 0.87], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [22247, 2, 7, 2.43], [412, 1, 7, 0.92], [957, 2, 7, 1.01], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [308, 1, 7, 3.28], [432, 3, 7, 0.86], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 1.7], [20256, 2, 7, 0.81], [22317, 3, 7, 1.42], [10407, 10, 10, 2.88], [148, 1, 7, 1.0], [10780, 10, 7, 3.0], [1413, 15, 7, 1.17], [10410, 10, 10, 3.2], [439, 1, 7, 2.12], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [7573, 1, 11, 3.36], [9691, 1, 7, 1.0], [11767, 1, 7, 0.92], [972, 1, 7, 2.77], [10387, 2, 7, 1.75], [6497, 1, 7, 0.95], [12347, 1, 7, 3.27], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9971, 2, 7, 2.77], [8897, 3, 7, 5.0], [2331, 1, 7, 2.08], [11769, 1, 7, 2.06], [9082, 3, 34, 1.7], [411, 2, 42, 6.0], [98, 11, 720, 2.35], [972, 3, 232, 6.0], [8672, 2, 112, 6.0], [413, 1, 34, 6.0], [2912, 1, 32, 4.02], [8898, 3, 242, 6.0], [2776, 2, 135, 4.04], [410, 1, 41, 6.0], [12343, 1, 241, 6.0], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [9491, 21, 1812, 3.36], [956, 2, 93, 2.32], [1492, 1, 15, 6.0], [418, 2, 55, 6.0], [12345, 1, 241, 6.0], [13928, 1, 42, 2.33], [9784, 1, 29, 4.1], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [22247, 2, 243, 3.88], [412, 1, 73, 2.37], [957, 2, 93, 2.46], [336, 15, 45, 6.0], [8677, 3, 115, 6.0], [11490, 1, 94, 2.47], [7567, 3, 27, 6.0], [2912, 2, 342, 2.25], [308, 1, 139, 4.73], [432, 3, 118, 6.0], [307, 2, 58, 6.0], [11953, 1, 175, 2.42], [33, 1, 44, 6.0], [11770, 1, 84, 6.0], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 96, 3.15], [20256, 2, 81, 2.26], [22317, 3, 123, 6.0], [10407, 10, 1015, 4.32], [148, 1, 79, 2.46], [10780, 10, 316, 4.46], [1413, 15, 86, 2.63], [10410, 10, 1015, 4.64], [439, 1, 75, 3.57], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [7573, 1, 288, 4.82], [9691, 1, 66, 2.45], [11767, 1, 139, 2.37], [972, 1, 85, 4.22], [10387, 2, 186, 3.2], [6497, 1, 33, 2.4], [12347, 1, 241, 6.0], [74, 1, 176, 3.58], [20686, 1, 237, 6.0], [3478, 2, 30, 6.0], [12271, 2, 55, 3.31], [9971, 2, 108, 6.0], [8897, 3, 242, 6.0], [2331, 1, 47, 6.0], [11769, 1, 139, 3.51], [9082, 3, 948, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 0.94], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.36], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [11739, 2, 7, 1.23], [616, 2, 7, 2.22], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [12352, 1, 7, 3.09], [411, 2, 7, 0.86], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [6497, 1, 9, 1.34], [12353, 1, 7, 3.09], [8674, 2, 7, 1.17], [583, 2, 7, 2.85], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [144, 2, 7, 0.96], [418, 2, 7, 1.0], [6097, 80, 7, 3.38], [11738, 2, 7, 1.23], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [413, 1, 7, 1.87], [6097, 29, 7, 3.88], [2057, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [2055, 3, 7, 3.23], [12344, 1, 7, 2.54], [1413, 15, 7, 0.89], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [247, 1, 7, 3.32], [3429, 15, 7, 0.85], [22316, 3, 7, 0.85], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [3430, 15, 7, 0.65], [8938, 2, 7, 1.06], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [94, 4, 7, 4.01], [107, 7, 8, 1.99], [947, 15, 7, 0.71], [436, 2, 7, 0.94], [11490, 1, 7, 0.95], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [11770, 1, 7, 0.8], [11767, 1, 7, 0.88], [11671, 1, 7, 0.83], [3673, 2, 7, 3.82], [11769, 1, 7, 0.88], [5939, 3, 7, 0.91], [2821, 3, 13, 0.77], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [12347, 1, 7, 3.55], [9491, 21, 16, 0.87], [7036, 1, 7, 0.87], [5812, 3, 7, 4.0], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [11771, 1, 7, 3.17], [5813, 3, 8, 1.92], [12764, 2, 8, 0.82], [3495, 3, 21, 1.51], [23920, 2, 7, 0.85], [11954, 1, 7, 0.77], [308, 1, 11, 1.83], [9690, 1, 7, 1.45], [5811, 3, 8, 3.52], [410, 1, 7, 2.74], [19687, 1, 7, 2.23], [3429, 15, 53, 2.63], [22316, 3, 318, 2.64], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 65, 6.0], [9785, 1, 36, 6.0], [12526, 2, 272, 4.56], [8599, 1, 145, 4.37], [3430, 15, 71, 2.44], [8938, 2, 192, 2.85], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 36, 6.0], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [4232, 80, 153, 5.02], [94, 4, 119, 5.8], [107, 7, 122, 6.0], [947, 15, 41, 2.5], [436, 2, 107, 2.72], [11490, 1, 110, 2.74], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [11770, 1, 220, 2.59], [11767, 1, 164, 2.67], [11671, 1, 310, 2.62], [3673, 2, 236, 5.61], [11769, 1, 164, 2.67], [5939, 3, 266, 2.71], [2821, 3, 1338, 2.55], [11160, 1, 490, 5.45], [11844, 2, 186, 2.77], [12347, 1, 607, 5.34], [9491, 21, 1065, 6.0], [7036, 1, 127, 2.65], [5812, 3, 589, 5.78], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [11771, 1, 213, 4.96], [5813, 3, 589, 3.7], [12764, 2, 755, 2.62], [3495, 3, 965, 3.31], [23920, 2, 106, 2.63], [11954, 1, 203, 2.56], [308, 1, 173, 3.62], [9690, 1, 75, 3.24], [5811, 3, 296, 6.0], [410, 1, 35, 3.81], [19687, 1, 30, 4.02]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 0.95], [6935, 2, 11, 4.28], [305, 2, 7, 1.32], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [593, 2, 9, 0.88], [326, 2, 9, 1.62], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [3840, 1, 7, 1.09], [7036, 1, 9, 2.3], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.36], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [5491, 2, 9, 1.44], [990, 2, 7, 0.66], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [9372, 1, 7, 3.79], [3893, 1, 7, 1.48], [2057, 3, 7, 0.84], [8649, 2, 7, 1.29], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [12870, 1, 7, 2.35], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [3891, 1, 7, 0.98], [140, 2, 7, 2.34], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.88], [1622, 1, 7, 0.82], [75, 2, 7, 0.75], [12352, 1, 7, 1.22], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [346, 3, 9, 0.69], [147, 1, 7, 3.37], [996, 2, 7, 2.83], [11811, 1, 7, 0.8], [229, 1, 7, 1.0], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [998, 2, 7, 3.33], [94, 4, 7, 3.68], [972, 3, 8, 1.79], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [6158, 2, 7, 4.79], [13028, 3, 7, 4.24], [413, 1, 7, 2.08], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [5209, 3, 9, 0.78], [412, 1, 7, 1.85], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [3495, 3, 16, 1.41], [2774, 2, 7, 1.15], [8898, 3, 7, 3.35], [12212, 29, 7, 0.98], [7887, 4, 7, 1.81], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [84, 2, 7, 1.87], [126, 2, 7, 2.34], [13928, 2, 7, 1.35], [11739, 2, 7, 2.61], [411, 2, 7, 0.89], [9691, 1, 7, 1.05], [3048, 3, 7, 4.58], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [12764, 2, 8, 0.64], [10410, 10, 15, 3.84], [11954, 1, 7, 0.7], [7567, 3, 7, 2.64], [74, 1, 7, 3.33], [75, 2, 72, 6.0], [12352, 1, 612, 2.87], [3, 2, 59, 6.0], [20927, 1, 30, 6.0], [5165, 2, 180, 6.0], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [12721, 2, 139, 6.0], [22247, 2, 139, 6.0], [346, 3, 308, 6.0], [147, 1, 43, 6.0], [996, 2, 115, 6.0], [11811, 1, 222, 6.0], [229, 1, 81, 2.64], [20252, 2, 91, 3.07], [11685, 2, 131, 6.0], [998, 2, 115, 6.0], [94, 4, 60, 6.0], [972, 3, 291, 6.0], [9491, 21, 1034, 6.0], [76, 2, 54, 6.0], [35, 1, 54, 6.0], [439, 1, 42, 6.0], [6158, 2, 249, 6.0], [13028, 3, 72, 6.0], [413, 1, 42, 6.0], [13928, 1, 24, 4.83], [8104, 1, 99, 6.0], [5076, 1, 64, 6.0], [2805, 137, 90, 6.0], [5209, 3, 273, 6.0], [412, 1, 41, 6.0], [8676, 2, 274, 5.72], [33, 1, 54, 6.0], [418, 2, 69, 6.0], [148, 1, 43, 6.0], [3495, 3, 938, 3.05], [2774, 2, 200, 2.79], [8898, 3, 144, 6.0], [12212, 29, 58, 6.0], [7887, 4, 34, 6.0], [20256, 2, 46, 4.61], [38, 1, 54, 6.0], [11490, 1, 54, 6.0], [11770, 1, 206, 4.4], [34, 1, 54, 6.0], [10407, 10, 569, 6.0], [84, 2, 33, 6.0], [126, 2, 86, 3.98], [13928, 2, 12, 3.26], [11739, 2, 55, 4.25], [411, 2, 106, 2.53], [9691, 1, 74, 2.7], [3048, 3, 137, 6.0], [9690, 1, 25, 1.68], [8939, 2, 93, 6.0], [5584, 3, 120, 6.0], [11953, 1, 195, 2.48], [39, 1, 54, 6.0], [12351, 1, 612, 2.87], [12764, 2, 358, 6.0], [10410, 10, 569, 6.0], [11954, 1, 195, 2.34], [7567, 3, 34, 6.0], [74, 1, 191, 4.97]]</t>
+    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 6, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 5, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 5, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [2055, 3, 4, 1.18], [12343, 1, 4, 0.87], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [88, 10, 8, 0.95], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.44], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [1050, 2, 4, 0.38], [2422, 80, 4, 1.31], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [6098, 29, 4, 1.08], [378, 2, 4, 1.16], [12346, 1, 4, 0.87], [7704, 2, 4, 1.15], [151, 1, 4, 0.57], [11738, 2, 4, 0.53], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [229, 1, 4, 2.0], [1049, 2, 4, 0.38], [13264, 29, 4, 0.51], [20252, 2, 4, 0.58], [345, 3, 4, 1.26], [13258, 29, 4, 0.67], [1490, 1, 4, 0.47], [964, 15, 4, 0.36], [12269, 2, 4, 0.51], [2438, 1, 4, 1.05], [2821, 3, 10, 0.23], [5208, 3, 5, 0.74], [10407, 10, 6, 1.18], [2331, 1, 4, 0.55], [1163, 3, 5, 0.58], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [13259, 29, 4, 1.13], [1309, 1, 4, 0.44], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [10406, 10, 7, 1.21], [11687, 2, 4, 0.56], [410, 1, 4, 0.71], [7036, 1, 4, 0.43], [3478, 2, 4, 0.57], [20255, 2, 4, 0.4], [9784, 1, 4, 0.91], [21713, 3, 7, 0.46], [8938, 2, 4, 0.57], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [12870, 1, 4, 2.33], [11402, 1, 4, 0.46], [10410, 10, 6, 1.18], [19687, 1, 4, 1.21], [2438, 2, 5, 1.38], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [2703, 3, 4, 2.13], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [1886, 2, 4, 0.35], [21781, 2, 4, 0.47], [11690, 2, 4, 0.36], [10411, 10, 6, 1.12], [2778, 2, 104, 2.81], [6935, 2, 187, 6.0], [6936, 2, 141, 5.81], [305, 2, 74, 3.08], [8672, 2, 144, 3.33], [615, 2, 54, 3.4], [1504, 2, 102, 2.95], [2775, 2, 78, 3.13], [145, 2, 76, 2.84], [2776, 2, 78, 4.5], [8853, 2, 141, 5.13], [2327, 2, 76, 3.26], [12721, 2, 284, 3.49], [130, 1, 30, 2.98], [143, 2, 75, 3.04], [146, 2, 76, 3.13], [2328, 2, 76, 3.53], [11681, 2, 138, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 108, 2.82], [141, 2, 155, 4.16], [362, 2, 72, 2.96], [144, 2, 76, 2.91], [2497, 2, 102, 3.25], [205, 2, 109, 2.64], [8650, 2, 114, 4.44], [5493, 2, 55, 2.97], [417, 2, 78, 3.15], [8676, 2, 144, 2.97], [8673, 2, 144, 5.05], [3670, 2, 235, 5.79], [2774, 2, 102, 6.0], [8648, 2, 225, 5.29], [589, 2, 77, 2.91], [3, 2, 61, 3.09], [206, 2, 42, 2.64], [6097, 80, 35, 5.49], [2423, 29, 37, 4.81], [22247, 2, 144, 3.05], [11836, 2, 269, 2.69], [6497, 1, 32, 2.94], [8674, 2, 144, 3.57], [624, 2, 107, 4.11], [2055, 3, 158, 4.31], [12343, 1, 610, 4.37], [2423, 80, 185, 4.75], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 115, 2.86], [6097, 29, 18, 5.49], [6098, 80, 38, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [8915, 2, 129, 2.36], [75, 2, 144, 3.94], [88, 10, 561, 4.69], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 405, 4.08], [13260, 29, 36, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.6], [21712, 3, 2180, 2.89]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.51], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.52], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.46], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [21793, 1, 4, 1.38], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8675, 2, 4, 0.6], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [11836, 2, 4, 0.2], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [6158, 2, 5, 1.33], [151, 1, 4, 0.57], [12720, 2, 4, 0.82], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 0.59], [12526, 2, 4, 0.74], [410, 1, 4, 0.47], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [12351, 1, 5, 0.61], [2423, 80, 5, 1.25], [378, 2, 4, 1.16], [2424, 29, 5, 0.55], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [13023, 3, 6, 1.51], [12373, 1, 5, 0.45], [13034, 3, 5, 1.37], [201, 3, 4, 1.1], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [345, 3, 4, 0.76], [5208, 3, 5, 0.54], [11770, 1, 4, 0.48], [159, 1, 4, 0.73], [3, 2, 4, 3.1], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [13928, 1, 4, 0.45], [11504, 2, 4, 0.2], [11811, 1, 4, 0.38], [566, 2, 4, 0.5], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.18], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [7004, 1, 4, 0.99], [11089, 1, 4, 0.39], [2703, 3, 4, 2.13], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [94, 4, 4, 1.77], [10410, 10, 6, 1.18], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [22317, 3, 5, 0.52], [6097, 80, 4, 1.86], [141, 2, 156, 2.73], [2328, 2, 76, 3.53], [8650, 2, 114, 4.44], [362, 2, 72, 2.98], [5491, 2, 108, 2.9], [5493, 2, 55, 2.79], [130, 1, 30, 2.98], [589, 2, 153, 2.73], [2327, 2, 76, 3.26], [326, 2, 35, 3.64], [11685, 2, 138, 6.0], [8672, 2, 144, 3.33], [417, 2, 156, 2.81], [6935, 2, 141, 5.82], [205, 2, 109, 2.53], [11681, 2, 138, 5.84], [206, 2, 42, 2.64], [8648, 2, 114, 4.32], [6936, 2, 141, 5.23], [142, 2, 78, 3.03], [11837, 2, 269, 2.79], [12721, 2, 144, 3.19], [11838, 2, 134, 3.09], [2049, 3, 276, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 74, 3.08], [616, 2, 107, 4.15], [413, 1, 44, 3.05], [412, 1, 42, 3.02], [411, 2, 109, 2.64], [11739, 2, 57, 3.69], [10574, 3, 501, 4.43], [11835, 2, 269, 2.79], [145, 2, 76, 2.84], [21793, 1, 238, 5.81], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8675, 2, 287, 3.21], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [11836, 2, 134, 2.89], [8674, 2, 287, 3.25], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [6158, 2, 260, 4.44], [151, 1, 33, 2.79], [12720, 2, 284, 3.48], [10149, 3, 872, 3.26], [2776, 2, 157, 3.16], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 36, 2.38], [22316, 3, 159, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.89], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 0.56], [144, 2, 4, 0.49], [10149, 3, 17, 1.82], [345, 3, 5, 0.44], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.46], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 5, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [7084, 3, 4, 0.36], [11234, 2, 4, 0.2], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [12870, 1, 4, 1.54], [10825, 21, 8, 1.34], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.38], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [94, 4, 4, 1.24], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [7567, 3, 4, 1.11], [2049, 1, 4, 0.2], [20927, 1, 4, 0.2], [126, 2, 5, 0.93], [346, 3, 5, 0.19], [1703, 2, 4, 0.41], [3980, 4, 4, 1.31], [8121, 3, 4, 0.53], [8274, 3, 4, 0.39], [35, 1, 4, 0.48], [9691, 1, 4, 1.09], [5209, 3, 4, 0.19], [997, 2, 4, 1.03], [11811, 1, 4, 1.0], [5584, 3, 4, 1.74], [1070, 7, 10, 0.2], [11914, 1, 5, 0.5], [1519, 3, 10, 0.4], [856, 1, 4, 0.38], [5660, 2, 5, 0.9], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.43], [523, 2, 4, 0.63], [8926, 1, 4, 1.35], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [13034, 3, 5, 0.66], [9081, 3, 7, 1.8], [307, 2, 4, 1.14], [20255, 2, 5, 0.2], [12661, 1, 4, 0.97], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 129, 4.09], [2049, 3, 192, 1.94], [362, 2, 131, 2.79], [589, 2, 142, 1.93], [75, 2, 51, 1.98], [141, 2, 143, 3.4], [1776, 1, 52, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 55, 2.06], [8672, 2, 100, 2.17], [6936, 2, 97, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 51, 2.18], [206, 2, 39, 1.99], [151, 1, 31, 1.63], [8648, 2, 79, 3.41], [1777, 1, 39, 3.67], [2328, 2, 53, 1.92], [88, 10, 197, 2.3], [11681, 2, 95, 5.43], [990, 2, 30, 2.16], [8650, 2, 79, 3.43], [412, 1, 30, 2.41], [5151, 2, 14, 3.62], [2050, 3, 432, 3.55], [76, 2, 39, 2.3], [144, 2, 139, 2.06], [10149, 3, 300, 4.79], [345, 3, 106, 2.01], [2991, 3, 57, 4.91], [22247, 2, 99, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 53, 2.18], [7004, 1, 28, 1.93], [45, 2, 39, 4.21], [2054, 3, 166, 2.21], [143, 2, 51, 2.11], [417, 2, 143, 2.0], [413, 1, 79, 3.28], [21793, 1, 85, 2.1], [167, 3, 80, 2.16], [201, 3, 106, 1.94], [74, 1, 71, 3.73], [1446, 2, 53, 3.18], [346, 1, 55, 2.05], [2055, 3, 166, 2.18], [168, 3, 141, 2.77], [10, 2, 97, 2.76], [7084, 3, 46, 1.93], [11234, 2, 65, 2.04], [1429, 2, 53, 2.47], [7036, 1, 45, 3.84], [12721, 2, 99, 2.13], [3495, 3, 336, 2.2], [5081, 2, 177, 1.96], [8649, 2, 79, 3.64], [308, 1, 58, 3.98], [13028, 3, 51, 2.14], [12870, 1, 49, 3.19], [10825, 21, 575, 3.62], [79, 1, 44, 1.85], [1492, 1, 13, 3.25], [96, 11, 784, 1.8]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [151, 1, 4, 0.59], [3840, 1, 5, 0.29], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [8853, 2, 4, 1.79], [146, 2, 4, 1.07], [1504, 2, 4, 0.93], [624, 2, 4, 1.1], [12224, 1, 4, 0.46], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [378, 2, 4, 1.16], [5208, 3, 5, 0.19], [3889, 1, 4, 0.35], [8649, 2, 4, 1.53], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [10993, 2, 4, 0.7], [11234, 2, 4, 0.75], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.44], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [5165, 1, 4, 0.56], [998, 2, 4, 1.5], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [346, 3, 5, 0.19], [3, 2, 4, 0.62], [229, 1, 4, 0.54], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5165, 2, 5, 1.02], [7887, 4, 4, 0.47], [5076, 1, 4, 0.71], [126, 2, 4, 1.27], [20252, 2, 4, 0.38], [11953, 1, 4, 0.46], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [1492, 1, 4, 0.2], [11685, 2, 5, 1.33], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [20256, 2, 4, 0.2], [2774, 2, 4, 0.63], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 5, 0.75], [12343, 1, 4, 0.66], [6497, 1, 4, 0.63], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 6, 1.18], [11179, 1, 4, 0.45], [6496, 1, 4, 1.73], [22317, 3, 4, 0.35], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [8898, 3, 5, 1.44], [2805, 137, 4, 0.93], [3900, 3, 4, 1.76], [12526, 2, 4, 0.71], [2424, 29, 4, 0.55], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [3975, 4, 5, 1.21], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [1622, 1, 4, 0.45], [12764, 2, 5, 0.54], [412, 1, 4, 0.44], [972, 1, 4, 1.02], [88, 10, 276, 3.94], [2327, 2, 74, 2.93], [8915, 2, 93, 2.96], [589, 2, 75, 2.97], [2778, 2, 77, 2.92], [6935, 2, 135, 6.0], [2328, 2, 74, 3.05], [5493, 2, 104, 3.91], [305, 2, 72, 2.8], [615, 2, 54, 3.01], [616, 2, 54, 2.64], [6936, 2, 135, 5.39], [326, 2, 44, 4.1], [8650, 2, 110, 3.45], [8648, 2, 110, 3.91], [1446, 2, 74, 3.2], [2049, 3, 360, 2.34], [10, 2, 52, 2.65], [143, 2, 72, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 54, 2.77], [5491, 2, 53, 3.05], [2775, 2, 77, 2.92], [7036, 1, 63, 4.28], [151, 1, 32, 2.68], [3840, 1, 84, 3.43], [94, 4, 60, 4.77], [434, 2, 53, 2.69], [8938, 2, 125, 2.43], [990, 2, 26, 2.69], [3893, 1, 61, 2.96], [8853, 2, 272, 5.15], [146, 2, 73, 3.02], [1504, 2, 99, 3.69], [624, 2, 104, 3.83], [12224, 1, 162, 2.49], [1429, 2, 74, 2.89], [3891, 1, 61, 2.96], [2776, 2, 77, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 69, 2.89], [141, 2, 76, 2.69], [11681, 2, 131, 5.43], [11404, 2, 51, 3.15], [378, 2, 110, 4.11], [5208, 3, 273, 2.87], [3889, 1, 122, 2.29], [8649, 2, 218, 4.79], [1007, 2, 264, 2.49], [10993, 2, 54, 2.93], [11234, 2, 148, 3.27], [7886, 4, 70, 2.16], [12870, 1, 69, 3.3], [21793, 1, 119, 2.89], [10149, 3, 435, 3.88], [3980, 4, 234, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 73, 2.92], [7084, 3, 127, 3.22], [11811, 1, 447, 2.44], [8672, 2, 140, 4.92], [20927, 1, 30, 2.64], [5165, 1, 38, 3.97], [998, 2, 115, 4.81]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.51], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [8089, 1, 4, 1.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.45], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 4, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.53], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [418, 2, 4, 0.72], [4032, 29, 4, 0.47], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [12304, 1, 4, 0.64], [972, 3, 5, 0.46], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [13034, 3, 5, 1.29], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [2424, 29, 4, 0.41], [3, 2, 4, 0.55], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [11767, 1, 4, 0.48], [5076, 1, 4, 0.64], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [8677, 3, 5, 1.11], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [11586, 1, 7, 1.42], [75, 2, 4, 0.37], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [9998, 80, 4, 0.42], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [2438, 2, 5, 1.05], [9784, 1, 4, 0.88], [6935, 2, 108, 5.03], [141, 2, 60, 2.71], [589, 2, 60, 2.6], [2778, 2, 60, 2.86], [6936, 2, 108, 5.43], [8648, 2, 88, 3.75], [362, 2, 55, 2.52], [2327, 2, 129, 3.02], [11681, 2, 105, 4.91], [8650, 2, 88, 3.23], [326, 2, 78, 2.83], [205, 2, 70, 2.22], [2328, 2, 59, 2.74], [1446, 2, 59, 3.11], [305, 2, 57, 3.31], [130, 1, 38, 1.55], [8649, 2, 88, 3.7], [2775, 2, 60, 2.86], [8853, 2, 108, 4.93], [361, 2, 60, 2.6], [2776, 2, 60, 2.86], [593, 2, 89, 2.55], [143, 2, 57, 3.07], [140, 2, 78, 2.83], [1429, 2, 59, 3.41], [206, 2, 42, 2.51], [5493, 2, 93, 2.36], [523, 2, 60, 2.68], [7004, 1, 68, 2.72], [413, 1, 33, 2.92], [7036, 1, 50, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 243, 2.38], [1124, 2, 161, 2.69], [990, 2, 21, 2.5], [12353, 1, 243, 2.43], [5165, 1, 30, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 60, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 15, 2.08], [8089, 1, 61, 3.62], [434, 2, 42, 2.58], [201, 3, 119, 2.55], [142, 2, 133, 2.61], [6097, 80, 27, 5.58], [11770, 1, 189, 2.22], [6952, 1, 74, 4.06], [2055, 3, 410, 2.91], [345, 3, 119, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 51, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 243, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.3], [10574, 3, 198, 3.24], [1886, 2, 135, 2.08]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.47], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 7, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3891, 1, 5, 0.2], [3840, 1, 4, 0.39], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.73], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8672, 2, 4, 0.48], [362, 2, 4, 0.85], [8649, 2, 4, 1.53], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [2991, 3, 5, 1.1], [3495, 3, 13, 0.85], [7084, 3, 4, 0.58], [7005, 1, 4, 0.94], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [10149, 3, 13, 0.39], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [417, 2, 4, 0.66], [5165, 2, 5, 1.11], [2912, 1, 4, 0.2], [3982, 3, 10, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [7887, 4, 5, 0.44], [6497, 1, 4, 0.93], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [432, 3, 4, 0.47], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [389, 4, 5, 0.38], [2912, 2, 5, 0.47], [74, 1, 4, 1.16], [6496, 1, 4, 0.47], [7567, 3, 4, 1.65], [1413, 15, 4, 0.2], [35, 1, 5, 0.57], [411, 2, 4, 0.5], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [8676, 2, 4, 1.7], [21269, 3, 4, 2.24], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [12526, 2, 4, 1.08], [11085, 2, 5, 1.27], [9784, 1, 4, 0.55], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [6494, 1, 5, 0.29], [1274, 1, 4, 0.23], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [345, 3, 4, 1.31], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [3577, 25, 4, 0.48], [96, 11, 12, 0.38], [6935, 2, 108, 5.9], [615, 2, 91, 4.78], [2778, 2, 61, 2.77], [305, 2, 57, 2.58], [5493, 2, 91, 4.44], [6936, 2, 108, 5.92], [130, 1, 24, 2.58], [205, 2, 42, 2.69], [616, 2, 91, 4.41], [1504, 2, 80, 2.75], [144, 2, 59, 4.4], [8648, 2, 89, 2.99], [2049, 3, 144, 2.25], [88, 10, 220, 3.45], [8915, 2, 65, 4.29], [326, 2, 36, 3.57], [7036, 1, 50, 3.83], [8650, 2, 89, 2.75], [593, 2, 89, 2.78], [2327, 2, 59, 2.57], [11681, 2, 106, 5.01], [8853, 2, 108, 5.93], [141, 2, 61, 2.6], [2775, 2, 61, 2.77], [206, 2, 42, 2.55], [151, 1, 58, 2.7], [7004, 1, 31, 2.36], [248, 1, 47, 2.25], [11685, 2, 106, 5.4], [3891, 1, 49, 2.88], [3840, 1, 150, 2.17], [2328, 2, 59, 2.62], [2050, 3, 188, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.86], [143, 2, 58, 2.77], [434, 2, 56, 2.07], [3980, 4, 186, 4.07], [2054, 3, 188, 2.34], [624, 2, 91, 5.38], [8672, 2, 112, 4.65], [362, 2, 55, 3.27], [8649, 2, 194, 4.25], [2776, 2, 61, 3.86], [12870, 1, 117, 5.16], [2057, 3, 188, 2.34], [12350, 1, 543, 2.67], [7886, 4, 38, 2.23], [10574, 3, 196, 4.07], [5165, 1, 30, 3.74], [1006, 2, 197, 2.83], [1446, 2, 60, 2.62], [94, 4, 47, 5.25], [75, 2, 57, 3.52], [523, 2, 60, 2.64], [2991, 3, 63, 5.99], [3495, 3, 832, 2.92], [7084, 3, 51, 2.79], [7005, 1, 68, 3.18], [3975, 4, 186, 4.2], [21793, 1, 90, 5.26], [10149, 3, 752, 2.93], [9760, 29, 28, 2.5], [11404, 2, 41, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 1.17], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 6, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11838, 2, 4, 0.57], [11737, 2, 4, 0.38], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 4, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 4, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [434, 2, 4, 0.73], [88, 10, 9, 0.82], [2776, 2, 4, 0.41], [435, 2, 5, 0.49], [142, 2, 4, 0.2], [151, 1, 4, 0.57], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 0.97], [11836, 2, 5, 0.2], [7705, 2, 4, 1.15], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [7706, 2, 4, 1.08], [378, 2, 4, 2.48], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [3478, 2, 4, 1.07], [10149, 3, 13, 1.12], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [2774, 2, 4, 0.55], [307, 2, 4, 1.5], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [418, 2, 4, 0.81], [7004, 1, 4, 1.02], [13928, 1, 4, 0.2], [411, 2, 4, 0.49], [11089, 1, 4, 0.39], [413, 1, 4, 0.54], [2057, 3, 4, 0.4], [14037, 3, 4, 0.96], [11844, 2, 5, 0.2], [2050, 3, 4, 0.4], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [13260, 29, 4, 0.67], [3893, 1, 5, 0.44], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [439, 1, 4, 0.37], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [6494, 1, 4, 0.46], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [1413, 16, 4, 0.39], [11490, 1, 4, 0.47], [1243, 2, 5, 0.2], [7708, 2, 4, 1.15], [414, 1, 4, 0.66], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [5208, 3, 5, 0.97], [565, 2, 4, 0.46], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [21793, 1, 4, 0.95], [11491, 2, 4, 0.81], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [2422, 80, 4, 1.75], [6098, 80, 4, 1.14], [410, 1, 4, 0.4], [11504, 2, 4, 0.72], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3674, 2, 4, 0.52], [147, 1, 4, 0.52], [3430, 15, 4, 1.23], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6935, 2, 141, 6.0], [305, 2, 74, 3.08], [2328, 2, 76, 3.53], [130, 1, 49, 2.48], [141, 2, 78, 2.84], [2778, 2, 156, 3.07], [8650, 2, 114, 4.87], [5491, 2, 106, 4.31], [2327, 2, 76, 3.26], [8672, 2, 144, 3.33], [6936, 2, 141, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 76, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 76, 3.13], [417, 2, 78, 3.05], [589, 2, 77, 2.91], [75, 2, 145, 3.58], [11838, 2, 269, 2.83], [11737, 2, 57, 2.97], [1124, 2, 95, 2.98], [523, 2, 78, 3.36], [8648, 2, 114, 4.01], [8853, 2, 141, 4.82], [12721, 2, 144, 3.19], [615, 2, 108, 4.14], [326, 2, 35, 3.64], [206, 2, 42, 2.64], [8915, 2, 96, 2.87], [8673, 2, 144, 5.05], [144, 2, 76, 2.91], [11739, 2, 57, 2.97], [434, 2, 107, 3.23], [88, 10, 285, 3.62], [2776, 2, 78, 3.77], [435, 2, 54, 3.01], [142, 2, 78, 3.16], [151, 1, 33, 2.79], [8676, 2, 144, 2.97], [6158, 2, 133, 2.82], [2424, 29, 17, 3.17], [8649, 2, 114, 3.38], [2423, 29, 18, 4.52], [11738, 2, 57, 2.97], [2497, 2, 105, 3.11], [7704, 2, 90, 3.18], [2424, 80, 84, 3.11], [10574, 3, 249, 4.6], [2423, 80, 92, 4.41], [3670, 2, 236, 5.41], [11836, 2, 134, 2.89], [7705, 2, 176, 4.07], [2054, 3, 473, 3.89], [3, 2, 61, 2.9], [2859, 15, 35, 3.48], [412, 1, 42, 3.17], [7706, 2, 90, 3.18], [378, 2, 224, 6.0], [12720, 2, 144, 2.99], [22316, 3, 318, 2.64], [2055, 3, 181, 2.76], [12344, 1, 620, 2.67], [3478, 2, 38, 4.08], [10149, 3, 866, 4.0], [74, 1, 102, 5.0]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 4, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [7886, 4, 5, 0.39], [88, 10, 8, 1.09], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.56], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.5], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.43], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 6, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [998, 2, 4, 0.97], [21269, 3, 4, 1.0], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [823, 1, 4, 0.84], [14017, 3, 4, 0.44], [34, 1, 4, 1.26], [972, 3, 5, 0.85], [5209, 3, 4, 0.54], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [20498, 3, 6, 0.36], [8672, 2, 229, 4.11], [305, 2, 115, 3.11], [3, 2, 97, 3.34], [6935, 2, 136, 4.9], [205, 2, 53, 2.52], [143, 2, 117, 3.77], [144, 2, 119, 4.38], [75, 2, 71, 2.56], [12721, 2, 138, 2.64], [145, 2, 119, 3.97], [8915, 2, 93, 2.53], [2778, 2, 75, 2.63], [1776, 1, 72, 1.98], [146, 2, 119, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 136, 4.39], [1777, 1, 54, 3.8], [8648, 2, 109, 3.3], [151, 1, 54, 1.81], [2328, 2, 72, 3.01], [8650, 2, 109, 3.51], [5151, 2, 12, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [7886, 4, 69, 2.38], [88, 10, 273, 4.1], [9507, 3, 86, 1.53], [74, 1, 98, 3.13], [1446, 2, 73, 3.67], [2991, 3, 78, 5.3], [362, 2, 69, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.32], [1492, 1, 30, 2.52], [1007, 2, 130, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 53, 3.03], [8649, 2, 109, 3.59], [3889, 1, 106, 2.11], [11234, 2, 88, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.22], [345, 3, 147, 2.53], [10, 2, 51, 3.33], [1429, 2, 73, 3.12], [307, 2, 70, 3.95], [10825, 21, 303, 2.64], [5081, 2, 91, 2.66], [12870, 1, 68, 2.86], [57, 1, 73, 2.09], [10149, 3, 431, 2.87], [7036, 1, 62, 3.26], [3478, 2, 64, 2.3], [7084, 3, 63, 3.26], [1006, 2, 110, 2.7], [1504, 2, 99, 2.66], [3891, 1, 60, 3.37], [21793, 1, 202, 4.74], [94, 4, 58, 4.72], [167, 3, 110, 3.03], [411, 2, 53, 2.52], [9827, 3, 42, 2.54], [3893, 1, 60, 2.31], [79, 1, 41, 2.38], [33, 1, 54, 3.19]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 10, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [362, 2, 4, 0.2], [151, 1, 5, 0.48], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 5, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [22247, 2, 4, 0.78], [88, 10, 9, 1.09], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [2054, 3, 4, 1.44], [10, 2, 5, 0.91], [8677, 3, 6, 1.56], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 5, 0.47], [5081, 2, 4, 0.44], [1492, 1, 4, 0.58], [140, 2, 5, 0.63], [7005, 1, 4, 0.36], [167, 3, 4, 1.25], [7036, 1, 4, 1.11], [9827, 3, 5, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [13280, 1, 4, 1.47], [5812, 3, 5, 2.01], [1504, 2, 4, 0.2], [12870, 1, 4, 0.54], [168, 3, 4, 0.29], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [6097, 29, 4, 1.14], [8853, 2, 5, 1.07], [416, 1, 4, 1.21], [8939, 2, 4, 0.2], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [1490, 1, 5, 0.2], [95, 3, 16, 0.19], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [8898, 3, 5, 1.36], [1126, 2, 5, 0.39], [13034, 3, 6, 0.66], [126, 2, 4, 1.43], [20498, 1, 5, 0.8], [9760, 29, 4, 0.45], [5086, 1, 4, 0.71], [20255, 2, 5, 0.2], [12924, 1, 5, 0.2], [5513, 2, 4, 0.46], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [13260, 29, 4, 0.54], [22317, 3, 6, 0.51], [7567, 3, 4, 1.66], [1413, 15, 4, 0.33], [229, 1, 4, 1.05], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [5813, 3, 5, 1.08], [192, 3, 11, 1.1], [8557, 3, 4, 0.2], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [20498, 3, 5, 0.86], [9691, 1, 4, 1.0], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [8943, 3, 5, 0.7], [1622, 1, 5, 0.38], [9372, 1, 4, 0.39], [20486, 3, 6, 0.79], [2775, 2, 5, 0.2], [13023, 3, 6, 1.24], [1703, 2, 4, 0.41], [11454, 2, 6, 1.6], [2423, 80, 4, 1.41], [3900, 3, 4, 1.63], [5584, 3, 5, 1.22], [2424, 80, 4, 2.04], [2497, 2, 4, 0.43], [8672, 2, 100, 2.23], [305, 2, 51, 2.31], [2049, 3, 192, 1.94], [6935, 2, 129, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 53, 1.93], [589, 2, 53, 2.26], [362, 2, 50, 2.1], [151, 1, 24, 2.16], [12721, 2, 99, 2.25], [146, 2, 53, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 39, 1.99], [2328, 2, 53, 2.62], [8915, 2, 67, 2.05], [143, 2, 51, 2.33], [990, 2, 18, 2.66], [6936, 2, 97, 4.51], [20252, 2, 86, 2.06], [8650, 2, 79, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 55, 2.06], [22247, 2, 99, 3.12], [88, 10, 197, 3.28], [2050, 3, 166, 1.95], [76, 2, 39, 2.63], [8649, 2, 79, 3.51], [10149, 3, 300, 4.79], [2054, 3, 324, 5.02], [10, 2, 62, 2.92], [8677, 3, 102, 4.35], [412, 1, 30, 2.41], [2055, 3, 324, 5.02], [13028, 3, 135, 2.54], [413, 1, 30, 2.36], [7004, 1, 28, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 95, 5.53], [1446, 2, 53, 3.18], [7084, 3, 46, 1.93], [307, 2, 51, 2.12], [3478, 2, 69, 3.31], [1429, 2, 53, 2.47], [3495, 3, 336, 2.89], [1006, 2, 80, 2.13], [5081, 2, 177, 1.96], [1492, 1, 13, 3.25], [140, 2, 32, 2.75], [7005, 1, 28, 1.93], [167, 3, 80, 3.59], [7036, 1, 45, 2.39], [9827, 3, 30, 2.15], [45, 2, 39, 4.21], [8676, 2, 100, 2.21], [1124, 2, 65, 2.07], [2049, 1, 21, 2.85], [94, 4, 42, 4.73], [13280, 1, 111, 3.97], [5812, 3, 543, 4.52], [1504, 2, 72, 2.1], [12870, 1, 49, 2.27], [168, 3, 141, 2.73], [11234, 2, 170, 2.47]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 5, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [6936, 2, 4, 1.18], [11681, 2, 4, 1.35], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [206, 2, 5, 0.46], [2778, 2, 5, 0.2], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.73], [11737, 2, 5, 0.2], [417, 2, 4, 0.66], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12353, 1, 5, 0.19], [12870, 1, 4, 0.92], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [3, 2, 5, 0.2], [10574, 3, 6, 1.36], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [624, 2, 4, 1.35], [9760, 29, 4, 0.2], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [3891, 1, 4, 0.53], [21793, 1, 4, 2.3], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [6158, 2, 4, 0.2], [11739, 2, 4, 0.59], [96, 11, 13, 0.38], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [9372, 1, 4, 1.7], [1126, 2, 4, 0.58], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [8672, 2, 5, 0.98], [5165, 1, 4, 0.58], [413, 1, 4, 1.01], [8898, 3, 4, 3.33], [2912, 1, 4, 0.2], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 4, 0.48], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [412, 1, 4, 0.5], [22247, 2, 4, 1.23], [957, 2, 4, 0.55], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [432, 3, 5, 0.47], [308, 1, 4, 0.95], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [20256, 2, 4, 0.44], [22317, 3, 5, 0.51], [10407, 10, 6, 1.44], [148, 1, 4, 0.55], [1413, 15, 4, 0.45], [10780, 10, 4, 1.52], [10410, 10, 6, 1.64], [13286, 1, 4, 1.32], [439, 1, 4, 1.15], [7573, 1, 5, 1.45], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [11767, 1, 4, 0.5], [972, 1, 4, 1.51], [12347, 1, 4, 0.19], [10387, 2, 4, 0.95], [6497, 1, 4, 0.52], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9971, 2, 4, 1.44], [8897, 3, 4, 3.33], [2331, 1, 4, 1.08], [11769, 1, 4, 1.1], [9082, 3, 17, 0.77], [11685, 2, 106, 5.4], [6935, 2, 108, 5.9], [326, 2, 36, 3.57], [8648, 2, 89, 2.99], [144, 2, 59, 4.4], [593, 2, 89, 2.78], [2327, 2, 59, 2.57], [143, 2, 58, 2.77], [205, 2, 42, 2.69], [8915, 2, 65, 4.29], [2328, 2, 59, 2.62], [6936, 2, 108, 5.92], [11681, 2, 106, 5.01], [305, 2, 57, 2.58], [151, 1, 58, 2.7], [8650, 2, 89, 2.75], [141, 2, 61, 2.6], [206, 2, 42, 2.55], [2778, 2, 61, 2.77], [2049, 3, 144, 2.25], [88, 10, 220, 3.45], [615, 2, 91, 4.78], [7036, 1, 50, 3.83], [8853, 2, 108, 5.93], [8649, 2, 89, 2.58], [5491, 2, 42, 2.57], [434, 2, 56, 2.07], [1006, 2, 89, 2.63], [75, 2, 57, 3.52], [2055, 3, 396, 4.86], [11737, 2, 23, 2.79], [417, 2, 133, 2.95], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 188, 2.34], [1007, 2, 105, 2.65], [12353, 1, 241, 4.47], [12870, 1, 117, 5.16], [523, 2, 60, 2.64], [1504, 2, 80, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 188, 2.34], [13280, 1, 123, 5.48], [3, 2, 48, 2.52], [10574, 3, 196, 4.07], [142, 2, 133, 2.39], [12346, 1, 241, 4.15], [7084, 3, 51, 2.79], [624, 2, 91, 5.38], [9760, 29, 28, 2.5], [2054, 3, 188, 2.34], [140, 2, 78, 3.15], [2775, 2, 61, 2.77], [3891, 1, 108, 2.43], [21793, 1, 90, 5.26], [8939, 2, 75, 2.61], [1429, 2, 60, 2.59], [6158, 2, 103, 2.54], [11739, 2, 23, 2.79], [96, 11, 330, 2.81], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 27, 2.67], [9372, 1, 196, 4.79], [1126, 2, 197, 2.71], [10388, 2, 186, 3.58]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.51], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.35], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.57], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [12352, 1, 4, 1.38], [411, 2, 4, 0.47], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [583, 2, 4, 1.31], [8674, 2, 5, 0.63], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11836, 2, 4, 0.53], [11738, 2, 4, 0.43], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [413, 1, 4, 0.97], [6097, 29, 5, 0.64], [2057, 3, 4, 1.0], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [2055, 3, 4, 1.18], [1413, 15, 4, 0.2], [12344, 1, 4, 1.38], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [247, 1, 4, 0.8], [3429, 15, 4, 0.46], [22316, 3, 4, 0.46], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.74], [8599, 1, 4, 0.49], [3430, 15, 4, 0.35], [8938, 2, 4, 0.57], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [94, 4, 4, 1.76], [4232, 80, 4, 1.65], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [947, 15, 4, 0.39], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [5939, 3, 4, 0.5], [11671, 1, 4, 0.45], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [9491, 21, 10, 0.51], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [5813, 3, 5, 1.1], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [11954, 1, 4, 0.42], [23920, 2, 4, 0.46], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [308, 1, 5, 0.79], [8672, 2, 145, 3.11], [141, 2, 156, 2.73], [362, 2, 72, 2.98], [361, 2, 78, 3.1], [6935, 2, 143, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 42, 2.62], [2049, 3, 276, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 78, 3.15], [3, 2, 61, 3.03], [6936, 2, 143, 4.65], [305, 2, 74, 3.08], [151, 1, 33, 2.79], [523, 2, 78, 3.23], [22247, 2, 285, 3.62], [8650, 2, 114, 4.44], [142, 2, 156, 2.68], [8648, 2, 114, 4.32], [2328, 2, 76, 3.53], [2776, 2, 79, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 76, 3.26], [11837, 2, 268, 2.61], [12352, 1, 607, 4.89], [411, 2, 110, 2.65], [589, 2, 77, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 134, 3.11], [412, 1, 42, 3.02], [12353, 1, 607, 4.89], [6497, 1, 19, 3.94], [583, 2, 30, 3.93], [8674, 2, 145, 3.28], [145, 2, 151, 2.69], [2805, 137, 92, 3.7], [326, 2, 30, 3.62], [10574, 3, 249, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 35, 5.49], [11836, 2, 268, 2.76], [11738, 2, 57, 3.01], [9784, 1, 36, 3.01], [10149, 3, 906, 2.65], [413, 1, 44, 2.97], [6097, 29, 18, 5.49], [2057, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [2055, 3, 158, 4.31], [1413, 15, 50, 3.0], [12344, 1, 607, 4.33], [20252, 2, 94, 2.66], [11504, 2, 72, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 44, 3.01], [1492, 1, 37, 2.92], [6098, 80, 38, 4.03], [12346, 1, 607, 4.89]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [3840, 1, 5, 0.29], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.59], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [9372, 1, 4, 1.97], [2057, 3, 4, 0.46], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.27], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.45], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [11811, 1, 4, 0.2], [229, 1, 4, 0.54], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [998, 2, 5, 1.0], [94, 4, 4, 1.91], [972, 3, 5, 0.51], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [6158, 2, 4, 2.61], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [5209, 3, 4, 0.19], [412, 1, 4, 0.43], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [12212, 29, 4, 0.2], [7887, 4, 4, 0.94], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 0.52], [9784, 1, 4, 0.52], [84, 2, 4, 0.97], [126, 2, 4, 1.27], [411, 2, 4, 0.48], [13928, 2, 4, 0.7], [11739, 2, 4, 1.42], [9691, 1, 4, 0.57], [3048, 3, 4, 1.15], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [10410, 10, 9, 2.08], [11954, 1, 4, 0.38], [12764, 2, 5, 0.21], [7567, 3, 5, 1.16], [2327, 2, 74, 2.93], [305, 2, 72, 2.8], [6935, 2, 135, 6.0], [2778, 2, 77, 2.92], [144, 2, 55, 4.54], [130, 1, 29, 2.86], [8915, 2, 93, 2.96], [589, 2, 75, 2.97], [143, 2, 72, 3.03], [2328, 2, 147, 3.37], [6936, 2, 135, 5.39], [8648, 2, 110, 3.91], [2775, 2, 77, 2.92], [205, 2, 54, 2.77], [8650, 2, 110, 3.45], [326, 2, 44, 4.1], [593, 2, 223, 2.53], [146, 2, 73, 3.02], [145, 2, 73, 2.92], [7036, 1, 63, 4.28], [3840, 1, 84, 3.43], [2049, 3, 360, 2.34], [2776, 2, 77, 3.16], [615, 2, 54, 3.01], [616, 2, 54, 2.64], [88, 10, 276, 3.94], [141, 2, 76, 2.69], [151, 1, 32, 2.68], [1124, 2, 182, 3.1], [11681, 2, 131, 5.43], [206, 2, 106, 2.39], [1446, 2, 74, 3.2], [9760, 29, 35, 2.66], [8853, 2, 135, 5.48], [990, 2, 26, 2.69], [5491, 2, 53, 3.05], [1007, 2, 264, 2.49], [362, 2, 69, 2.89], [8672, 2, 140, 4.92], [1504, 2, 99, 3.69], [2055, 3, 314, 2.32], [9372, 1, 114, 5.58], [2057, 3, 314, 2.32], [3893, 1, 61, 2.96], [8649, 2, 110, 3.26], [8938, 2, 125, 2.43], [434, 2, 53, 2.69], [12870, 1, 69, 3.3], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 76, 2.76], [3889, 1, 122, 2.29], [5165, 1, 38, 3.97], [1429, 2, 74, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 79, 5.62], [140, 2, 86, 3.98], [3891, 1, 61, 2.96], [1006, 2, 111, 2.97], [7886, 4, 35, 2.24], [10574, 3, 246, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 273, 2.87], [1622, 1, 105, 2.46]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 9, 1.35], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.9], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.64], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.02], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [2055, 3, 7, 3.23], [12343, 1, 7, 2.59], [2423, 80, 7, 2.97], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [8915, 2, 7, 0.75], [75, 2, 7, 2.15], [88, 10, 16, 2.9], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 0.81], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [1050, 2, 7, 0.7], [2422, 80, 7, 2.41], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [6098, 29, 7, 2.08], [378, 2, 9, 2.87], [12346, 1, 7, 2.59], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [11738, 2, 7, 1.32], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [229, 1, 7, 3.68], [1049, 2, 7, 0.7], [13264, 29, 7, 0.94], [20252, 2, 7, 1.06], [345, 3, 7, 2.32], [13258, 29, 9, 1.59], [1490, 1, 7, 0.87], [964, 15, 7, 0.66], [12269, 2, 7, 0.93], [2438, 1, 7, 2.08], [2821, 3, 12, 1.27], [5208, 3, 9, 1.41], [10407, 10, 10, 2.08], [2331, 1, 7, 1.02], [1163, 3, 7, 2.25], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [13259, 29, 7, 2.95], [1309, 1, 7, 0.82], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [10406, 10, 12, 2.42], [11687, 2, 7, 1.02], [410, 1, 7, 1.3], [7036, 1, 7, 0.87], [3478, 2, 9, 1.47], [20255, 2, 7, 1.14], [9784, 1, 7, 1.67], [21713, 3, 13, 0.88], [8938, 2, 7, 1.06], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [12870, 1, 7, 4.46], [11402, 1, 7, 0.85], [10410, 10, 10, 2.08], [19687, 1, 7, 2.23], [2438, 2, 8, 2.38], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [2703, 3, 7, 3.92], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [1886, 2, 7, 0.65], [21781, 2, 7, 0.86], [11690, 2, 7, 0.66], [10411, 10, 10, 1.97], [412, 1, 42, 3.02], [1050, 2, 38, 1.78], [2422, 80, 187, 4.2], [10149, 3, 866, 4.0], [2422, 29, 18, 5.41], [6098, 29, 19, 3.97], [378, 2, 114, 4.24], [12346, 1, 610, 4.37], [7704, 2, 176, 4.07], [151, 1, 33, 2.79], [11738, 2, 56, 3.11], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [229, 1, 81, 5.47], [1049, 2, 38, 1.78], [13264, 29, 73, 2.73], [20252, 2, 92, 2.85], [345, 3, 297, 4.1], [13258, 29, 39, 3.37], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [2821, 3, 658, 3.36], [5208, 3, 561, 3.2], [10407, 10, 1201, 3.88], [2331, 1, 119, 2.8], [1163, 3, 114, 3.33], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [13259, 29, 35, 4.73], [1309, 1, 58, 2.6], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [10406, 10, 1784, 4.24], [11687, 2, 303, 2.8], [410, 1, 105, 3.09], [7036, 1, 127, 2.65], [3478, 2, 38, 4.08], [20255, 2, 93, 2.93], [9784, 1, 72, 3.46], [21713, 3, 1121, 2.67], [8938, 2, 192, 2.85], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [12870, 1, 137, 6.0], [11402, 1, 45, 2.64], [10410, 10, 1201, 3.88], [19687, 1, 30, 4.02], [2438, 2, 643, 4.17], [11490, 1, 55, 2.9], [107, 7, 239, 4.24], [2703, 3, 300, 5.7], [11161, 1, 490, 5.57], [956, 2, 107, 2.75], [1886, 2, 158, 2.44], [21781, 2, 104, 2.65], [11690, 2, 303, 2.44], [10411, 10, 785, 3.76]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.94], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.95], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.02], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.86], [11739, 2, 7, 1.9], [10574, 3, 10, 2.64], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [21793, 1, 8, 4.02], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8675, 2, 9, 1.42], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [11836, 2, 9, 0.79], [8674, 2, 7, 1.46], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [6158, 2, 9, 2.65], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [10149, 3, 21, 1.48], [2776, 2, 7, 1.37], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 3.21], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 1.09], [12526, 2, 7, 2.78], [410, 1, 7, 0.87], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [12351, 1, 7, 1.63], [2423, 80, 7, 2.8], [378, 2, 7, 2.23], [2424, 29, 9, 1.09], [2423, 29, 7, 3.02], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [13023, 3, 10, 2.63], [12373, 1, 11, 1.47], [13034, 3, 8, 2.37], [201, 3, 7, 2.12], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [345, 3, 7, 1.4], [5208, 3, 9, 1.01], [11770, 1, 7, 0.89], [159, 1, 7, 1.33], [3, 2, 7, 5.0], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [13928, 1, 7, 0.82], [11504, 2, 7, 0.67], [11811, 1, 7, 1.93], [566, 2, 7, 0.92], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.08], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [1490, 1, 7, 3.38], [7004, 1, 7, 1.91], [11089, 1, 7, 0.71], [2703, 3, 7, 3.92], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [94, 4, 7, 4.17], [10410, 10, 10, 2.08], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [22317, 3, 8, 0.88], [6097, 80, 7, 3.42], [7084, 3, 129, 5.0], [418, 2, 72, 2.79], [10993, 2, 27, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [5165, 1, 49, 2.88], [12526, 2, 272, 4.56], [410, 1, 53, 2.3], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [12351, 1, 315, 3.26], [2423, 80, 92, 4.41], [378, 2, 114, 4.24], [2424, 29, 17, 3.17], [2423, 29, 37, 4.81], [12345, 1, 315, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [13023, 3, 592, 4.42], [12373, 1, 533, 3.26], [13034, 3, 592, 4.16], [201, 3, 151, 3.21], [1519, 3, 561, 1.77], [11489, 1, 109, 2.46], [345, 3, 298, 3.19], [5208, 3, 563, 2.79], [11770, 1, 221, 2.67], [159, 1, 39, 3.12], [3, 2, 118, 6.0], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 36, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [13928, 1, 49, 2.61], [11504, 2, 72, 2.78], [11811, 1, 451, 3.72], [566, 2, 175, 2.7], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 3.88], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [1490, 1, 48, 5.17], [7004, 1, 40, 3.0], [11089, 1, 173, 2.5], [2703, 3, 300, 5.7], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 315, 3.26], [94, 4, 116, 5.96], [10410, 10, 1201, 3.88], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [22317, 3, 318, 2.66], [6097, 80, 68, 5.21]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.64], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 10, 0.94], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 1.39], [144, 2, 7, 0.91], [10149, 3, 25, 4.03], [345, 3, 10, 0.97], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 0.85], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.9], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [7084, 3, 7, 0.69], [11234, 2, 9, 0.72], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [12870, 1, 7, 2.96], [10825, 21, 14, 2.47], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.64], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 1.39], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [94, 4, 7, 4.2], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [7567, 3, 7, 2.54], [2049, 1, 7, 0.69], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [1703, 2, 7, 1.51], [3980, 4, 7, 2.59], [8121, 3, 7, 0.97], [8274, 3, 7, 1.24], [35, 1, 7, 0.88], [9691, 1, 7, 2.1], [5209, 3, 9, 0.67], [997, 2, 7, 1.98], [11811, 1, 7, 1.83], [5584, 3, 7, 3.35], [1070, 7, 13, 1.16], [11914, 1, 7, 1.42], [1519, 3, 17, 0.69], [856, 1, 7, 0.69], [5660, 2, 7, 1.66], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [523, 2, 7, 1.16], [8926, 1, 7, 2.6], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [13034, 3, 8, 3.38], [9081, 3, 12, 3.55], [307, 2, 7, 2.19], [20255, 2, 7, 1.43], [12661, 1, 7, 1.87], [11808, 1, 7, 1.16], [23, 1, 39, 2.51], [1006, 2, 80, 2.28], [3893, 1, 44, 2.25], [418, 2, 131, 1.94], [1504, 2, 72, 2.16], [145, 2, 139, 1.94], [5208, 3, 196, 2.33], [9827, 3, 30, 2.12], [3891, 1, 44, 2.25], [432, 3, 106, 2.02], [7005, 1, 28, 1.93], [1490, 1, 18, 2.23], [8853, 2, 97, 4.75], [94, 4, 42, 4.96], [13260, 29, 26, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 79, 2.73], [12353, 1, 557, 4.25], [20256, 2, 33, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [950, 1, 55, 2.13], [33, 1, 39, 2.24], [5086, 1, 63, 3.41], [998, 2, 83, 2.61], [9069, 1, 43, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 28, 2.63], [140, 2, 32, 2.75], [7567, 3, 24, 3.31], [2049, 1, 14, 1.46], [20927, 1, 28, 1.93], [126, 2, 32, 2.98], [346, 3, 219, 2.01], [1703, 2, 149, 2.66], [3980, 4, 443, 3.74], [8121, 3, 270, 2.12], [8274, 3, 159, 2.0], [35, 1, 103, 2.02], [9691, 1, 27, 2.36], [5209, 3, 196, 1.95], [997, 2, 83, 2.24], [11811, 1, 416, 2.98], [5584, 3, 86, 3.55], [1070, 7, 206, 1.93], [11914, 1, 30, 2.19], [1519, 3, 1545, 1.83], [856, 1, 32, 1.84], [5660, 2, 61, 2.93], [8898, 3, 102, 5.05], [1091, 1, 17, 2.42], [5513, 2, 70, 1.95], [523, 2, 143, 2.31], [8926, 1, 22, 2.84], [11767, 1, 151, 2.03], [2775, 2, 55, 2.06], [9372, 1, 210, 3.18], [13034, 3, 203, 4.14], [9081, 3, 161, 4.81], [307, 2, 51, 2.45], [20255, 2, 33, 2.2], [12661, 1, 28, 2.13], [11808, 1, 166, 1.93]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [151, 1, 7, 1.36], [3840, 1, 9, 1.09], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [8853, 2, 7, 3.51], [146, 2, 7, 2.06], [1504, 2, 7, 1.79], [624, 2, 7, 2.19], [12224, 1, 7, 0.84], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [378, 2, 7, 2.23], [5208, 3, 9, 0.78], [3889, 1, 7, 0.65], [8649, 2, 7, 3.15], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [10993, 2, 7, 1.29], [11234, 2, 7, 1.8], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [5165, 1, 7, 2.49], [998, 2, 7, 2.89], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [346, 3, 7, 1.21], [3, 2, 7, 1.14], [229, 1, 7, 1.0], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5165, 2, 8, 2.84], [7887, 4, 7, 1.42], [5076, 1, 7, 1.3], [126, 2, 7, 2.34], [20252, 2, 7, 1.43], [11953, 1, 7, 0.84], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [1492, 1, 7, 0.95], [11685, 2, 11, 3.45], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [20256, 2, 9, 0.82], [2774, 2, 7, 1.15], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [12343, 1, 7, 1.22], [6497, 1, 7, 3.31], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 2.08], [11179, 1, 7, 1.6], [6496, 1, 7, 3.41], [22317, 3, 7, 0.66], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [8898, 3, 7, 3.35], [2805, 137, 7, 2.91], [3900, 3, 7, 3.39], [12526, 2, 7, 2.21], [2424, 29, 7, 1.01], [11812, 1, 7, 0.87], [4253, 1, 7, 1.04], [3975, 4, 7, 2.86], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [1622, 1, 7, 0.87], [12764, 2, 8, 0.9], [412, 1, 7, 0.81], [972, 1, 7, 1.96], [9760, 29, 35, 2.66], [997, 2, 232, 4.28], [2436, 4, 57, 2.98], [1006, 2, 111, 2.97], [972, 3, 291, 2.82], [2424, 80, 82, 2.99], [346, 3, 308, 2.68], [3, 2, 118, 2.78], [229, 1, 81, 2.64], [6158, 2, 127, 2.86], [3495, 3, 471, 2.98], [12346, 1, 612, 2.87], [5165, 2, 180, 4.82], [7887, 4, 68, 2.73], [5076, 1, 127, 2.94], [126, 2, 86, 3.98], [20252, 2, 91, 3.07], [11953, 1, 195, 2.48], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 93, 2.9], [11954, 1, 195, 2.34], [1492, 1, 18, 2.93], [11685, 2, 131, 5.43], [12352, 1, 612, 2.87], [996, 2, 115, 4.81], [12721, 2, 272, 5.89], [20256, 2, 49, 2.94], [2774, 2, 200, 2.79], [12350, 1, 612, 2.87], [3981, 3, 790, 3.14], [9491, 21, 1034, 2.76], [5434, 1, 24, 2.89], [2423, 80, 90, 3.36], [12343, 1, 612, 2.87], [6497, 1, 35, 4.95], [5584, 3, 120, 4.28], [2438, 2, 308, 2.82], [10388, 2, 211, 3.57], [12351, 1, 612, 2.87], [10407, 10, 1168, 3.71], [11179, 1, 85, 3.24], [6496, 1, 38, 5.05], [22317, 3, 308, 2.3], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 273, 2.87], [8898, 3, 144, 4.83], [2805, 137, 175, 4.54], [3900, 3, 21, 4.29], [12526, 2, 135, 3.53], [2424, 29, 34, 2.65], [11812, 1, 116, 2.85], [4253, 1, 83, 2.97], [3975, 4, 234, 4.34], [11490, 1, 106, 2.29], [336, 15, 110, 3.43], [1622, 1, 52, 2.81], [12764, 2, 734, 2.54], [412, 1, 82, 2.45], [972, 1, 48, 2.93]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 1.34], [2327, 2, 7, 1.6], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.94], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [8089, 1, 7, 2.21], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 1.19], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.98], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [418, 2, 7, 1.68], [4032, 29, 7, 0.9], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [5151, 2, 7, 1.14], [229, 1, 7, 3.82], [12304, 1, 7, 1.18], [972, 3, 9, 0.93], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [13034, 3, 7, 4.02], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [2424, 29, 7, 2.13], [3, 2, 7, 1.01], [11426, 25, 7, 1.07], [11737, 2, 7, 0.91], [11767, 1, 7, 0.88], [5076, 1, 7, 1.18], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [8677, 3, 8, 1.86], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [11586, 1, 14, 3.12], [75, 2, 7, 1.94], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [9998, 80, 7, 0.77], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [2438, 2, 8, 1.84], [9784, 1, 7, 1.61], [2424, 80, 146, 3.69], [346, 3, 245, 2.39], [3334, 5, 70, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.11], [7885, 4, 120, 2.4], [6098, 80, 30, 3.45], [6097, 29, 23, 5.08], [11089, 1, 149, 2.22], [12345, 1, 536, 2.26], [10149, 3, 346, 3.62], [20256, 2, 37, 2.55], [147, 1, 77, 3.78], [22316, 3, 273, 2.08], [1492, 1, 15, 3.66], [11953, 1, 172, 2.22], [432, 3, 118, 2.82], [11491, 2, 121, 2.36], [20252, 2, 36, 2.53], [418, 2, 121, 3.09], [4032, 29, 38, 2.55], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 42, 2.61], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [12304, 1, 97, 2.59], [972, 3, 233, 2.55], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [2331, 1, 100, 4.08], [346, 1, 62, 2.39], [13034, 3, 228, 5.21], [995, 2, 206, 3.55], [416, 1, 33, 2.59], [2424, 29, 29, 3.54], [3, 2, 105, 2.43], [11426, 25, 103, 2.49], [11737, 2, 49, 2.33], [11767, 1, 140, 2.3], [5076, 1, 112, 2.59], [439, 1, 74, 4.64], [11490, 1, 42, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [8677, 3, 253, 3.28], [1701, 2, 63, 4.58], [11180, 1, 34, 2.67], [11586, 1, 147, 3.61], [75, 2, 124, 3.36], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 149, 3.47], [9998, 80, 107, 2.19], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26], [9784, 1, 61, 3.03]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.37], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 1.07], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3891, 1, 7, 1.68], [3840, 1, 7, 0.72], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.41], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8672, 2, 9, 2.44], [362, 2, 7, 1.64], [8649, 2, 7, 2.8], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [2991, 3, 7, 4.78], [3495, 3, 21, 1.48], [7084, 3, 7, 1.12], [7005, 1, 7, 1.73], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [10149, 3, 21, 1.48], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.52], [417, 2, 7, 1.5], [5165, 2, 10, 2.64], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [7887, 4, 9, 0.87], [6497, 1, 7, 2.42], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [432, 3, 7, 0.86], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [389, 4, 7, 2.13], [2912, 2, 8, 0.79], [74, 1, 7, 2.13], [6496, 1, 7, 0.85], [7567, 3, 7, 3.18], [1413, 15, 7, 1.04], [35, 1, 7, 1.54], [411, 2, 7, 1.02], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [8676, 2, 7, 3.11], [21269, 3, 7, 4.87], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [12526, 2, 7, 2.15], [11085, 2, 8, 3.16], [9784, 1, 7, 1.01], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [6494, 1, 7, 2.34], [1274, 1, 9, 1.03], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [345, 3, 7, 2.52], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [3577, 25, 7, 0.92], [96, 11, 22, 1.1], [6158, 2, 103, 2.54], [20927, 1, 68, 3.22], [3981, 3, 623, 3.73], [417, 2, 133, 2.95], [5165, 2, 144, 4.85], [2912, 1, 32, 1.51], [3982, 3, 306, 4.03], [8939, 2, 75, 2.61], [1007, 2, 105, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 44, 2.74], [956, 2, 93, 2.32], [11772, 1, 84, 4.18], [286, 3, 55, 3.65], [7887, 4, 54, 2.53], [6497, 1, 15, 4.13], [1492, 1, 15, 3.97], [11767, 1, 63, 2.52], [432, 3, 264, 2.32], [336, 15, 96, 3.67], [972, 3, 232, 2.73], [11769, 1, 63, 3.17], [11490, 1, 42, 2.71], [11770, 1, 84, 3.51], [410, 1, 41, 2.7], [389, 4, 81, 3.34], [2912, 2, 342, 2.25], [74, 1, 176, 3.58], [6496, 1, 35, 2.31], [7567, 3, 27, 3.83], [1413, 15, 39, 2.75], [35, 1, 44, 2.75], [411, 2, 42, 2.73], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 114, 2.56], [1126, 2, 197, 2.71], [4176, 4, 186, 4.3], [2436, 4, 45, 2.5], [9372, 1, 196, 4.79], [8676, 2, 245, 4.57], [21269, 3, 254, 6.0], [8677, 3, 115, 2.72], [22247, 2, 111, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [12526, 2, 235, 3.6], [11085, 2, 207, 4.36], [9784, 1, 63, 2.46], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [6494, 1, 20, 3.55], [1274, 1, 32, 3.06], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [7573, 1, 144, 3.67], [12225, 1, 141, 3.96], [345, 3, 115, 3.19], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [3577, 25, 35, 2.59], [96, 11, 330, 2.81]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.9], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.28], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.79], [11838, 2, 7, 1.04], [11737, 2, 7, 1.18], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [434, 2, 7, 1.44], [88, 10, 14, 1.5], [2776, 2, 9, 1.21], [435, 2, 7, 1.4], [142, 2, 7, 1.05], [151, 1, 7, 1.36], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 9, 1.91], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 9, 3.61], [11836, 2, 9, 0.79], [7705, 2, 7, 2.28], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [7706, 2, 7, 2.08], [378, 2, 7, 4.55], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [3478, 2, 9, 2.65], [10149, 3, 21, 2.21], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [2774, 2, 7, 1.06], [307, 2, 7, 2.95], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [418, 2, 7, 1.49], [7004, 1, 7, 1.96], [13928, 1, 7, 0.74], [411, 2, 7, 0.9], [11089, 1, 7, 0.71], [413, 1, 9, 1.34], [2057, 3, 7, 2.1], [14037, 3, 7, 1.85], [11844, 2, 7, 1.79], [2050, 3, 7, 2.1], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [13260, 29, 7, 1.29], [3893, 1, 7, 1.3], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [439, 1, 9, 2.21], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [6494, 1, 7, 0.85], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [1413, 16, 7, 0.71], [11490, 1, 7, 0.86], [1243, 2, 7, 1.32], [7708, 2, 7, 2.28], [414, 1, 9, 1.63], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [5208, 3, 9, 1.82], [565, 2, 7, 0.84], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [21793, 1, 7, 1.83], [11491, 2, 7, 1.5], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [2422, 80, 9, 4.33], [6098, 80, 7, 2.19], [410, 1, 7, 0.74], [11504, 2, 7, 1.33], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3674, 2, 7, 0.96], [147, 1, 7, 2.73], [3430, 15, 7, 2.26], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [3429, 15, 53, 2.63], [2774, 2, 105, 3.11], [307, 2, 72, 5.06], [6497, 1, 38, 2.59], [60, 3, 405, 4.08], [12526, 2, 138, 4.87], [418, 2, 141, 3.27], [7004, 1, 40, 3.07], [13928, 1, 24, 2.85], [411, 2, 109, 2.69], [11089, 1, 173, 2.5], [413, 1, 44, 3.1], [2057, 3, 473, 3.89], [2050, 3, 473, 3.89], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [13260, 29, 36, 3.33], [3893, 1, 63, 2.9], [8274, 3, 115, 2.76], [6097, 80, 35, 5.49], [439, 1, 43, 4.81], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 60, 4.11], [159, 3, 709, 3.16], [6494, 1, 52, 2.64], [9784, 1, 71, 4.16], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [1413, 16, 50, 2.5], [11490, 1, 109, 2.65], [1243, 2, 50, 2.93], [7708, 2, 176, 4.07], [414, 1, 44, 3.31], [3889, 1, 63, 2.78], [1492, 1, 37, 2.92], [5208, 3, 558, 3.6], [565, 2, 176, 2.63], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [21793, 1, 123, 2.94], [11491, 2, 141, 3.28], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [2422, 80, 92, 5.46], [6098, 80, 38, 4.03], [410, 1, 53, 2.17], [11504, 2, 141, 3.12], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3674, 2, 260, 2.74], [147, 1, 87, 4.52], [3430, 15, 69, 4.05], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.94], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [7886, 4, 7, 1.22], [88, 10, 21, 3.14], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 1.01], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.91], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.78], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.44], [94, 4, 7, 3.06], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 14, 4.07], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.63], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 9, 1.46], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [998, 2, 7, 1.87], [21269, 3, 7, 2.34], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 1.3], [823, 1, 7, 1.62], [14017, 3, 9, 1.09], [34, 1, 7, 2.43], [972, 3, 8, 1.49], [5209, 3, 7, 0.98], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [20498, 3, 10, 1.16], [432, 3, 146, 2.81], [8677, 3, 142, 2.67], [11681, 2, 129, 5.11], [148, 1, 43, 4.77], [96, 11, 409, 2.32], [1490, 1, 24, 2.48], [12225, 1, 71, 2.57], [1124, 2, 90, 2.7], [11737, 2, 28, 2.92], [1243, 2, 83, 2.22], [22247, 2, 138, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 136, 4.71], [201, 3, 147, 2.53], [412, 1, 40, 3.1], [9760, 29, 35, 3.01], [10574, 3, 239, 4.26], [8651, 2, 109, 2.79], [20927, 1, 39, 2.46], [5208, 3, 480, 2.56], [8676, 2, 138, 2.65], [229, 1, 40, 2.95], [1767, 25, 83, 2.76], [25, 1, 95, 2.71], [45, 2, 53, 4.36], [9069, 1, 60, 2.41], [413, 1, 42, 2.94], [11490, 1, 53, 2.32], [149, 2, 43, 4.03], [159, 3, 602, 2.48], [3495, 3, 463, 3.28], [998, 2, 117, 2.54], [21269, 3, 141, 3.5], [140, 2, 44, 3.09], [95, 3, 892, 4.89], [3980, 4, 230, 4.11], [950, 1, 25, 2.17], [5946, 1, 60, 2.48], [9372, 1, 112, 4.69], [1126, 2, 110, 2.52], [1766, 25, 90, 2.69], [2775, 2, 75, 2.63], [1413, 15, 47, 4.01], [490, 1, 29, 2.39], [506, 1, 74, 6.0], [8674, 2, 138, 2.66], [11489, 1, 53, 2.87], [8898, 3, 141, 4.39], [997, 2, 202, 4.64], [3670, 2, 117, 4.37], [1070, 7, 283, 2.51], [9691, 1, 36, 2.54], [107, 2, 31, 2.12], [974, 3, 72, 2.8], [20498, 1, 47, 3.4], [11954, 1, 171, 2.17], [823, 1, 20, 3.2], [14017, 3, 95, 2.47], [34, 1, 54, 3.19], [972, 3, 286, 2.26], [5209, 3, 480, 2.29], [9784, 1, 35, 2.67], [11739, 2, 28, 2.92], [20498, 3, 282, 3.16]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [362, 2, 9, 0.83], [151, 1, 7, 0.89], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 7, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 1.2], [22247, 2, 9, 1.93], [88, 10, 14, 2.0], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [2054, 3, 7, 4.0], [10, 2, 11, 2.2], [8677, 3, 8, 3.58], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.89], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [5081, 2, 7, 0.81], [1492, 1, 6, 1.98], [140, 2, 7, 1.98], [7005, 1, 9, 0.89], [167, 3, 9, 3.09], [7036, 1, 7, 2.14], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 11, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [13280, 1, 9, 3.64], [5812, 3, 8, 3.38], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [168, 3, 9, 1.46], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [6097, 29, 7, 3.38], [8853, 2, 14, 3.62], [416, 1, 7, 2.33], [8939, 2, 7, 0.84], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [1490, 1, 7, 1.27], [95, 3, 26, 0.85], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [13034, 3, 8, 3.38], [126, 2, 7, 2.75], [20498, 1, 7, 1.96], [9760, 29, 7, 0.87], [5086, 1, 9, 1.76], [20255, 2, 7, 1.43], [12924, 1, 9, 0.86], [5513, 2, 7, 0.84], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [13260, 29, 7, 1.0], [22317, 3, 8, 1.35], [7567, 3, 7, 3.2], [1413, 15, 7, 1.52], [229, 1, 7, 2.92], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [5813, 3, 9, 2.14], [192, 3, 22, 4.76], [8557, 3, 7, 1.01], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [20498, 3, 8, 2.02], [9691, 1, 9, 2.48], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [8943, 3, 7, 3.03], [1622, 1, 10, 0.79], [9372, 1, 7, 2.03], [20486, 3, 8, 1.86], [2775, 2, 9, 0.73], [13023, 3, 8, 2.94], [1703, 2, 7, 1.51], [11454, 2, 9, 3.65], [2423, 80, 7, 3.68], [3900, 3, 7, 3.14], [5584, 3, 7, 2.74], [2424, 80, 7, 3.75], [2497, 2, 7, 0.78], [415, 1, 30, 2.31], [8651, 2, 79, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [6097, 29, 12, 4.65], [8853, 2, 97, 4.88], [416, 1, 30, 2.57], [8939, 2, 67, 2.11], [6097, 80, 24, 4.65], [11737, 2, 20, 3.11], [20256, 2, 33, 2.19], [1490, 1, 18, 2.03], [95, 3, 390, 2.19], [20927, 1, 28, 1.93], [79, 1, 44, 1.85], [6098, 29, 13, 3.21], [14017, 3, 69, 2.22], [6098, 80, 27, 3.2], [414, 1, 79, 2.64], [9069, 1, 43, 2.17], [1070, 7, 206, 2.01], [8898, 3, 102, 3.94], [1126, 2, 80, 1.99], [13034, 3, 203, 4.14], [126, 2, 32, 2.98], [20498, 1, 34, 2.73], [9760, 29, 25, 2.09], [5086, 1, 63, 3.49], [20255, 2, 33, 2.2], [12924, 1, 19, 2.3], [5513, 2, 70, 1.99], [9784, 1, 25, 2.28], [336, 15, 40, 1.92], [13260, 29, 67, 2.15], [22317, 3, 109, 2.11], [7567, 3, 24, 3.41], [1413, 15, 34, 2.79], [229, 1, 75, 4.08], [11085, 2, 508, 1.97], [5811, 3, 203, 3.58], [5813, 3, 203, 3.24], [192, 3, 1287, 5.9], [8557, 3, 70, 2.28], [9082, 3, 845, 3.66], [506, 1, 80, 3.88], [3049, 3, 48, 4.42], [20498, 3, 204, 2.76], [9691, 1, 27, 2.98], [14018, 3, 69, 2.22], [524, 1, 30, 2.41], [4076, 3, 71, 3.19], [470, 1, 12, 2.12], [8943, 3, 137, 4.31], [1622, 1, 50, 1.56], [9372, 1, 210, 3.18], [20486, 3, 208, 2.61], [2775, 2, 55, 2.06], [13023, 3, 203, 3.7], [1703, 2, 149, 2.66], [11454, 2, 114, 4.42], [2423, 80, 169, 4.83], [3900, 3, 15, 3.35], [5584, 3, 86, 3.51], [2424, 80, 153, 4.9], [2497, 2, 189, 1.94]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [6936, 2, 9, 4.22], [11681, 2, 7, 3.3], [305, 2, 7, 1.38], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [206, 2, 7, 1.35], [2778, 2, 9, 1.07], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.41], [11737, 2, 7, 1.58], [417, 2, 7, 1.5], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12353, 1, 9, 2.27], [12870, 1, 7, 3.71], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [3, 2, 9, 0.74], [10574, 3, 8, 2.36], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [624, 2, 7, 3.92], [9760, 29, 7, 1.3], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [3891, 1, 7, 0.98], [21793, 1, 7, 4.43], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [6158, 2, 9, 0.75], [11739, 2, 7, 1.14], [96, 11, 22, 1.59], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [9372, 1, 7, 3.34], [1126, 2, 7, 1.26], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [8672, 2, 9, 2.94], [5165, 1, 7, 3.03], [413, 1, 7, 1.94], [8898, 3, 7, 5.0], [2912, 1, 7, 0.8], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 0.87], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [412, 1, 7, 0.92], [22247, 2, 7, 2.43], [957, 2, 7, 1.01], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [432, 3, 7, 0.86], [308, 1, 7, 3.28], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 1.7], [20256, 2, 7, 0.81], [22317, 3, 7, 1.42], [10407, 10, 10, 2.88], [148, 1, 7, 1.0], [1413, 15, 7, 1.17], [10780, 10, 7, 3.0], [10410, 10, 10, 3.2], [13286, 1, 7, 2.52], [439, 1, 7, 2.12], [7573, 1, 11, 3.36], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [11767, 1, 7, 0.92], [972, 1, 7, 2.77], [12347, 1, 7, 3.27], [10387, 2, 7, 1.75], [6497, 1, 7, 0.95], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9971, 2, 7, 2.77], [8897, 3, 7, 5.0], [2331, 1, 7, 2.08], [11769, 1, 7, 2.06], [9082, 3, 34, 1.7], [411, 2, 42, 2.73], [98, 11, 720, 2.35], [972, 3, 232, 2.73], [8672, 2, 112, 4.65], [413, 1, 34, 2.64], [8898, 3, 242, 6.0], [2912, 1, 32, 1.51], [2776, 2, 135, 4.04], [410, 1, 41, 2.7], [12343, 1, 241, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [956, 2, 93, 2.32], [1492, 1, 15, 3.97], [418, 2, 55, 2.48], [12345, 1, 241, 3.94], [13928, 1, 42, 2.32], [9784, 1, 29, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [412, 1, 73, 2.37], [22247, 2, 243, 3.88], [957, 2, 93, 2.46], [336, 15, 45, 2.36], [8677, 3, 115, 2.72], [11490, 1, 94, 2.47], [7567, 3, 27, 3.83], [2912, 2, 342, 2.25], [432, 3, 118, 2.57], [308, 1, 139, 4.73], [307, 2, 58, 2.78], [11953, 1, 175, 2.42], [33, 1, 44, 2.74], [11770, 1, 84, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 96, 3.15], [20256, 2, 81, 2.26], [22317, 3, 123, 2.63], [10407, 10, 1015, 4.32], [148, 1, 79, 2.46], [1413, 15, 86, 2.63], [10780, 10, 316, 4.46], [10410, 10, 1015, 4.64], [13286, 1, 123, 3.2], [439, 1, 75, 3.57], [7573, 1, 288, 4.82], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [11767, 1, 139, 2.37], [972, 1, 85, 4.22], [12347, 1, 241, 4.47], [10387, 2, 186, 3.2], [6497, 1, 33, 2.4], [74, 1, 176, 3.58], [20686, 1, 237, 4.17], [3478, 2, 30, 3.79], [12271, 2, 55, 3.31], [9971, 2, 108, 3.59], [8897, 3, 242, 6.0], [2331, 1, 47, 2.78], [11769, 1, 139, 3.51], [9082, 3, 948, 3.83]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 0.94], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.36], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [12352, 1, 7, 3.09], [411, 2, 7, 0.86], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [583, 2, 7, 2.85], [8674, 2, 7, 1.17], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11836, 2, 7, 0.97], [11738, 2, 7, 1.23], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [413, 1, 7, 1.87], [6097, 29, 7, 3.88], [2057, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [2055, 3, 7, 3.23], [1413, 15, 7, 0.89], [12344, 1, 7, 2.54], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [247, 1, 7, 3.32], [3429, 15, 7, 0.85], [22316, 3, 7, 0.85], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [3430, 15, 7, 0.65], [8938, 2, 7, 1.06], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [94, 4, 7, 4.01], [4232, 80, 7, 3.23], [11490, 1, 7, 0.95], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [947, 15, 7, 0.71], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [5939, 3, 7, 0.91], [11671, 1, 7, 0.83], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [9491, 21, 16, 0.87], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [5813, 3, 8, 1.92], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [11954, 1, 7, 0.77], [23920, 2, 7, 0.85], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [308, 1, 11, 1.83], [247, 1, 86, 5.11], [3429, 15, 53, 2.63], [22316, 3, 318, 2.64], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 65, 3.92], [9785, 1, 36, 3.01], [12526, 2, 272, 4.56], [8599, 1, 145, 4.37], [3430, 15, 71, 2.44], [8938, 2, 192, 2.85], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 36, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [94, 4, 119, 5.8], [4232, 80, 153, 5.02], [11490, 1, 110, 2.74], [436, 2, 107, 2.72], [107, 7, 122, 3.2], [947, 15, 41, 2.5], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [5939, 3, 266, 2.71], [11671, 1, 310, 2.62], [11160, 1, 490, 5.45], [11844, 2, 186, 2.77], [9491, 21, 1065, 2.98], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [5813, 3, 589, 3.7], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [11954, 1, 203, 2.56], [23920, 2, 106, 2.63], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 296, 5.12], [308, 1, 173, 3.62]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [3840, 1, 7, 1.09], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.36], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [9372, 1, 7, 3.79], [2057, 3, 7, 0.84], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 2.34], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.88], [1622, 1, 7, 0.82], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [11811, 1, 7, 0.8], [229, 1, 7, 1.0], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [998, 2, 7, 3.33], [94, 4, 7, 3.68], [972, 3, 8, 1.36], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [6158, 2, 7, 4.79], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [5209, 3, 9, 0.78], [412, 1, 7, 1.85], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [12212, 29, 7, 0.98], [7887, 4, 7, 1.81], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.0], [9784, 1, 7, 0.96], [84, 2, 7, 1.87], [126, 2, 7, 2.34], [411, 2, 7, 0.89], [13928, 2, 7, 1.35], [11739, 2, 7, 2.61], [9691, 1, 7, 1.05], [3048, 3, 7, 4.58], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [10410, 10, 15, 3.84], [11954, 1, 7, 0.7], [12764, 2, 8, 0.64], [7567, 3, 7, 2.64], [75, 2, 72, 2.69], [3, 2, 59, 2.81], [20927, 1, 30, 2.64], [5165, 2, 180, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [12721, 2, 139, 3.23], [22247, 2, 139, 3.57], [147, 1, 43, 4.28], [346, 3, 308, 2.68], [996, 2, 115, 4.81], [11811, 1, 222, 2.78], [229, 1, 81, 2.64], [20252, 2, 91, 3.07], [11685, 2, 131, 5.43], [998, 2, 115, 4.81], [94, 4, 60, 4.77], [972, 3, 291, 2.82], [9491, 21, 1034, 2.76], [76, 2, 54, 2.65], [35, 1, 54, 2.93], [439, 1, 42, 4.69], [6158, 2, 249, 6.0], [413, 1, 42, 3.04], [13028, 3, 72, 5.72], [13928, 1, 24, 3.26], [8104, 1, 99, 3.59], [5076, 1, 64, 2.77], [2805, 137, 90, 3.08], [5209, 3, 273, 2.87], [412, 1, 41, 3.83], [8676, 2, 274, 5.72], [33, 1, 54, 3.76], [418, 2, 69, 3.13], [148, 1, 43, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 144, 4.83], [12212, 29, 58, 2.95], [7887, 4, 34, 2.3], [20256, 2, 46, 2.94], [38, 1, 54, 3.19], [11490, 1, 54, 2.77], [11770, 1, 206, 4.4], [34, 1, 54, 3.07], [10407, 10, 569, 5.06], [415, 1, 42, 2.92], [9784, 1, 71, 2.6], [84, 2, 33, 2.85], [126, 2, 86, 3.98], [411, 2, 106, 2.53], [13928, 2, 12, 3.26], [11739, 2, 55, 4.25], [9691, 1, 74, 2.7], [3048, 3, 137, 6.0], [9690, 1, 25, 1.68], [8939, 2, 93, 2.9], [5584, 3, 120, 4.28], [11953, 1, 195, 2.48], [39, 1, 54, 3.13], [12351, 1, 612, 2.87], [10410, 10, 569, 5.1], [11954, 1, 195, 2.34], [12764, 2, 358, 2.62], [7567, 3, 34, 4.12]]</t>
   </si>
   <si>
     <t>501QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 6, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 5, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 5, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [2055, 3, 4, 1.18], [12343, 1, 4, 0.87], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [88, 10, 8, 0.95], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.44], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [1050, 2, 4, 0.38], [2422, 80, 4, 1.31], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [6098, 29, 4, 1.08], [378, 2, 4, 1.16], [12346, 1, 4, 0.87], [7704, 2, 4, 1.15], [151, 1, 4, 0.57], [11738, 2, 4, 0.53], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [229, 1, 4, 2.0], [1049, 2, 4, 0.38], [13264, 29, 4, 0.51], [20252, 2, 4, 0.58], [345, 3, 4, 1.26], [13258, 29, 4, 0.67], [1490, 1, 4, 0.47], [964, 15, 4, 0.36], [12269, 2, 4, 0.51], [2438, 1, 4, 1.05], [2821, 3, 10, 0.23], [5208, 3, 5, 0.74], [10407, 10, 6, 1.18], [2331, 1, 4, 0.55], [1163, 3, 5, 0.58], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [13259, 29, 4, 1.13], [1309, 1, 4, 0.44], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [10406, 10, 7, 1.21], [11687, 2, 4, 0.56], [410, 1, 4, 0.71], [7036, 1, 4, 0.43], [3478, 2, 4, 0.57], [20255, 2, 4, 0.4], [9784, 1, 4, 0.91], [21713, 3, 7, 0.46], [8938, 2, 4, 0.57], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [12870, 1, 4, 2.33], [11402, 1, 4, 0.46], [10410, 10, 6, 1.18], [19687, 1, 4, 1.21], [2438, 2, 5, 1.38], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [2703, 3, 4, 2.13], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [1886, 2, 4, 0.35], [21781, 2, 4, 0.47], [11690, 2, 4, 0.36], [10411, 10, 6, 1.12], [2778, 2, 104, 2.81], [6935, 2, 187, 6.0], [6936, 2, 141, 5.81], [305, 2, 74, 3.08], [8672, 2, 144, 3.33], [615, 2, 54, 3.4], [1504, 2, 102, 2.95], [2775, 2, 78, 3.13], [145, 2, 76, 2.84], [2776, 2, 78, 4.5], [8853, 2, 141, 5.13], [2327, 2, 76, 3.26], [12721, 2, 284, 3.49], [130, 1, 30, 2.98], [143, 2, 75, 3.04], [146, 2, 76, 3.13], [2328, 2, 76, 3.53], [11681, 2, 138, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 108, 2.82], [141, 2, 155, 4.16], [362, 2, 72, 2.96], [144, 2, 76, 2.91], [2497, 2, 102, 3.25], [205, 2, 109, 2.64], [8650, 2, 114, 4.44], [5493, 2, 55, 2.97], [417, 2, 78, 3.15], [8676, 2, 144, 2.97], [8673, 2, 144, 5.05], [3670, 2, 235, 5.79], [2774, 2, 102, 6.0], [8648, 2, 225, 5.29], [589, 2, 77, 2.91], [3, 2, 61, 3.09], [206, 2, 42, 2.64], [6097, 80, 35, 5.49], [2423, 29, 37, 4.81], [22247, 2, 144, 3.05], [11836, 2, 269, 2.69], [6497, 1, 32, 2.94], [8674, 2, 144, 3.57], [624, 2, 107, 4.11], [2055, 3, 158, 4.31], [12343, 1, 610, 4.37], [2423, 80, 185, 4.75], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 115, 2.86], [6097, 29, 18, 5.49], [6098, 80, 38, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [8915, 2, 129, 2.36], [75, 2, 144, 3.94], [88, 10, 561, 4.69], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 405, 4.08], [13260, 29, 36, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.6], [21712, 3, 2180, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.51], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.52], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.46], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [21793, 1, 4, 1.38], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8675, 2, 4, 0.6], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [11836, 2, 4, 0.2], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [6158, 2, 5, 1.33], [151, 1, 4, 0.57], [12720, 2, 4, 0.82], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 0.59], [12526, 2, 4, 0.74], [410, 1, 4, 0.47], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [12351, 1, 5, 0.61], [2423, 80, 5, 1.25], [378, 2, 4, 1.16], [2424, 29, 5, 0.55], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [13023, 3, 6, 1.51], [12373, 1, 5, 0.45], [13034, 3, 5, 1.37], [201, 3, 4, 1.1], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [345, 3, 4, 0.76], [5208, 3, 5, 0.54], [11770, 1, 4, 0.48], [159, 1, 4, 0.73], [3, 2, 4, 3.1], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [13928, 1, 4, 0.45], [11504, 2, 4, 0.2], [11811, 1, 4, 0.38], [566, 2, 4, 0.5], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.18], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [7004, 1, 4, 0.99], [11089, 1, 4, 0.39], [2703, 3, 4, 2.13], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [94, 4, 4, 1.77], [10410, 10, 6, 1.18], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [22317, 3, 5, 0.52], [6097, 80, 4, 1.86], [141, 2, 156, 2.73], [2328, 2, 76, 3.53], [8650, 2, 114, 4.44], [362, 2, 72, 2.98], [5491, 2, 108, 2.9], [5493, 2, 55, 2.79], [130, 1, 30, 2.98], [589, 2, 153, 2.73], [2327, 2, 76, 3.26], [326, 2, 35, 3.64], [11685, 2, 138, 6.0], [8672, 2, 144, 3.33], [417, 2, 156, 2.81], [6935, 2, 141, 5.82], [205, 2, 109, 2.53], [11681, 2, 138, 5.84], [206, 2, 42, 2.64], [8648, 2, 114, 4.32], [6936, 2, 141, 5.23], [142, 2, 78, 3.03], [11837, 2, 269, 2.79], [12721, 2, 144, 3.19], [11838, 2, 134, 3.09], [2049, 3, 276, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 74, 3.08], [616, 2, 107, 4.15], [413, 1, 44, 3.05], [412, 1, 42, 3.02], [411, 2, 109, 2.64], [11739, 2, 57, 3.69], [10574, 3, 501, 4.43], [11835, 2, 269, 2.79], [145, 2, 76, 2.84], [21793, 1, 238, 5.81], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8675, 2, 287, 3.21], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [11836, 2, 134, 2.89], [8674, 2, 287, 3.25], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [6158, 2, 260, 4.44], [151, 1, 33, 2.79], [12720, 2, 284, 3.48], [10149, 3, 872, 3.26], [2776, 2, 157, 3.16], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 36, 2.38], [22316, 3, 159, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.89], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 0.56], [144, 2, 4, 0.49], [10149, 3, 17, 1.82], [345, 3, 5, 0.44], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.46], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 5, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [7084, 3, 4, 0.36], [11234, 2, 4, 0.2], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [12870, 1, 4, 1.54], [10825, 21, 8, 1.34], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.38], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [94, 4, 4, 1.24], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [7567, 3, 4, 1.11], [2049, 1, 4, 0.2], [20927, 1, 4, 0.2], [126, 2, 5, 0.93], [346, 3, 5, 0.19], [1703, 2, 4, 0.41], [3980, 4, 4, 1.31], [8121, 3, 4, 0.53], [8274, 3, 4, 0.39], [35, 1, 4, 0.48], [9691, 1, 4, 1.09], [5209, 3, 4, 0.19], [997, 2, 4, 1.03], [11811, 1, 4, 1.0], [5584, 3, 4, 1.74], [1070, 7, 10, 0.2], [11914, 1, 5, 0.5], [1519, 3, 10, 0.4], [856, 1, 4, 0.38], [5660, 2, 5, 0.9], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.43], [523, 2, 4, 0.63], [8926, 1, 4, 1.35], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [13034, 3, 5, 0.66], [9081, 3, 7, 1.8], [307, 2, 4, 1.14], [20255, 2, 5, 0.2], [12661, 1, 4, 0.97], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 129, 4.09], [2049, 3, 192, 1.94], [362, 2, 131, 2.79], [589, 2, 142, 1.93], [75, 2, 51, 1.98], [141, 2, 143, 3.4], [1776, 1, 52, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 55, 2.06], [8672, 2, 100, 2.17], [6936, 2, 97, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 51, 2.18], [206, 2, 39, 1.99], [151, 1, 31, 1.63], [8648, 2, 79, 3.41], [1777, 1, 39, 3.67], [2328, 2, 53, 1.92], [88, 10, 197, 2.3], [11681, 2, 95, 5.43], [990, 2, 30, 2.16], [8650, 2, 79, 3.43], [412, 1, 30, 2.41], [5151, 2, 14, 3.62], [2050, 3, 432, 3.55], [76, 2, 39, 2.3], [144, 2, 139, 2.06], [10149, 3, 300, 4.79], [345, 3, 106, 2.01], [2991, 3, 57, 4.91], [22247, 2, 99, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 53, 2.18], [7004, 1, 28, 1.93], [45, 2, 39, 4.21], [2054, 3, 166, 2.21], [143, 2, 51, 2.11], [417, 2, 143, 2.0], [413, 1, 79, 3.28], [21793, 1, 85, 2.1], [167, 3, 80, 2.16], [201, 3, 106, 1.94], [74, 1, 71, 3.73], [1446, 2, 53, 3.18], [346, 1, 55, 2.05], [2055, 3, 166, 2.18], [168, 3, 141, 2.77], [10, 2, 97, 2.76], [7084, 3, 46, 1.93], [11234, 2, 65, 2.04], [1429, 2, 53, 2.47], [7036, 1, 45, 3.84], [12721, 2, 99, 2.13], [3495, 3, 336, 2.2], [5081, 2, 177, 1.96], [8649, 2, 79, 3.64], [308, 1, 58, 3.98], [13028, 3, 51, 2.14], [12870, 1, 49, 3.19], [10825, 21, 575, 3.62], [79, 1, 44, 1.85], [1492, 1, 13, 3.25], [96, 11, 784, 1.8]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [151, 1, 4, 0.59], [3840, 1, 5, 0.29], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [8853, 2, 4, 1.79], [146, 2, 4, 1.07], [1504, 2, 4, 0.93], [624, 2, 4, 1.1], [12224, 1, 4, 0.46], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [378, 2, 4, 1.16], [5208, 3, 5, 0.19], [3889, 1, 4, 0.35], [8649, 2, 4, 1.53], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [10993, 2, 4, 0.7], [11234, 2, 4, 0.75], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.44], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [5165, 1, 4, 0.56], [998, 2, 4, 1.5], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [346, 3, 5, 0.19], [3, 2, 4, 0.62], [229, 1, 4, 0.54], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5165, 2, 5, 1.02], [7887, 4, 4, 0.47], [5076, 1, 4, 0.71], [126, 2, 4, 1.27], [20252, 2, 4, 0.38], [11953, 1, 4, 0.46], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [1492, 1, 4, 0.2], [11685, 2, 5, 1.33], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [20256, 2, 4, 0.2], [2774, 2, 4, 0.63], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 5, 0.75], [12343, 1, 4, 0.66], [6497, 1, 4, 0.63], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 6, 1.18], [11179, 1, 4, 0.45], [6496, 1, 4, 1.73], [22317, 3, 4, 0.35], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [8898, 3, 5, 1.44], [2805, 137, 4, 0.93], [3900, 3, 4, 1.76], [12526, 2, 4, 0.71], [2424, 29, 4, 0.55], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [3975, 4, 5, 1.21], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [1622, 1, 4, 0.45], [12764, 2, 5, 0.54], [412, 1, 4, 0.44], [972, 1, 4, 1.02], [88, 10, 276, 3.94], [2327, 2, 74, 2.93], [8915, 2, 93, 2.96], [589, 2, 75, 2.97], [2778, 2, 77, 2.92], [6935, 2, 135, 6.0], [2328, 2, 74, 3.05], [5493, 2, 104, 3.91], [305, 2, 72, 2.8], [615, 2, 54, 3.01], [616, 2, 54, 2.64], [6936, 2, 135, 5.39], [326, 2, 44, 4.1], [8650, 2, 110, 3.45], [8648, 2, 110, 3.91], [1446, 2, 74, 3.2], [2049, 3, 360, 2.34], [10, 2, 52, 2.65], [143, 2, 72, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 54, 2.77], [5491, 2, 53, 3.05], [2775, 2, 77, 2.92], [7036, 1, 63, 4.28], [151, 1, 32, 2.68], [3840, 1, 84, 3.43], [94, 4, 60, 4.77], [434, 2, 53, 2.69], [8938, 2, 125, 2.43], [990, 2, 26, 2.69], [3893, 1, 61, 2.96], [8853, 2, 272, 5.15], [146, 2, 73, 3.02], [1504, 2, 99, 3.69], [624, 2, 104, 3.83], [12224, 1, 162, 2.49], [1429, 2, 74, 2.89], [3891, 1, 61, 2.96], [2776, 2, 77, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 69, 2.89], [141, 2, 76, 2.69], [11681, 2, 131, 5.43], [11404, 2, 51, 3.15], [378, 2, 110, 4.11], [5208, 3, 273, 2.87], [3889, 1, 122, 2.29], [8649, 2, 218, 4.79], [1007, 2, 264, 2.49], [10993, 2, 54, 2.93], [11234, 2, 148, 3.27], [7886, 4, 70, 2.16], [12870, 1, 69, 3.3], [21793, 1, 119, 2.89], [10149, 3, 435, 3.88], [3980, 4, 234, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 73, 2.92], [7084, 3, 127, 3.22], [11811, 1, 447, 2.44], [8672, 2, 140, 4.92], [20927, 1, 30, 2.64], [5165, 1, 38, 3.97], [998, 2, 115, 4.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.51], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [8089, 1, 4, 1.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.45], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 4, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.53], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [418, 2, 4, 0.72], [4032, 29, 4, 0.47], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [12304, 1, 4, 0.64], [972, 3, 5, 0.46], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [13034, 3, 5, 1.29], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [2424, 29, 4, 0.41], [3, 2, 4, 0.55], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [11767, 1, 4, 0.48], [5076, 1, 4, 0.64], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [8677, 3, 5, 1.11], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [11586, 1, 7, 1.42], [75, 2, 4, 0.37], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [9998, 80, 4, 0.42], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [2438, 2, 5, 1.05], [9784, 1, 4, 0.88], [6935, 2, 108, 5.03], [141, 2, 60, 2.71], [589, 2, 60, 2.6], [2778, 2, 60, 2.86], [6936, 2, 108, 5.43], [8648, 2, 88, 3.75], [362, 2, 55, 2.52], [2327, 2, 129, 3.02], [11681, 2, 105, 4.91], [8650, 2, 88, 3.23], [326, 2, 78, 2.83], [205, 2, 70, 2.22], [2328, 2, 59, 2.74], [1446, 2, 59, 3.11], [305, 2, 57, 3.31], [130, 1, 38, 1.55], [8649, 2, 88, 3.7], [2775, 2, 60, 2.86], [8853, 2, 108, 4.93], [361, 2, 60, 2.6], [2776, 2, 60, 2.86], [593, 2, 89, 2.55], [143, 2, 57, 3.07], [140, 2, 78, 2.83], [1429, 2, 59, 3.41], [206, 2, 42, 2.51], [5493, 2, 93, 2.36], [523, 2, 60, 2.68], [7004, 1, 68, 2.72], [413, 1, 33, 2.92], [7036, 1, 50, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 243, 2.38], [1124, 2, 161, 2.69], [990, 2, 21, 2.5], [12353, 1, 243, 2.43], [5165, 1, 30, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 60, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 15, 2.08], [8089, 1, 61, 3.62], [434, 2, 42, 2.58], [201, 3, 119, 2.55], [142, 2, 133, 2.61], [6097, 80, 27, 5.58], [11770, 1, 189, 2.22], [6952, 1, 74, 4.06], [2055, 3, 410, 2.91], [345, 3, 119, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 51, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 243, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.3], [10574, 3, 198, 3.24], [1886, 2, 135, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.47], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 7, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3891, 1, 5, 0.2], [3840, 1, 4, 0.39], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.73], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8672, 2, 4, 0.48], [362, 2, 4, 0.85], [8649, 2, 4, 1.53], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [2991, 3, 5, 1.1], [3495, 3, 13, 0.85], [7084, 3, 4, 0.58], [7005, 1, 4, 0.94], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [10149, 3, 13, 0.39], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [417, 2, 4, 0.66], [5165, 2, 5, 1.11], [2912, 1, 4, 0.2], [3982, 3, 10, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [7887, 4, 5, 0.44], [6497, 1, 4, 0.93], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [432, 3, 4, 0.47], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [389, 4, 5, 0.38], [2912, 2, 5, 0.47], [74, 1, 4, 1.16], [6496, 1, 4, 0.47], [7567, 3, 4, 1.65], [1413, 15, 4, 0.2], [35, 1, 5, 0.57], [411, 2, 4, 0.5], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [8676, 2, 4, 1.7], [21269, 3, 4, 2.24], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [12526, 2, 4, 1.08], [11085, 2, 5, 1.27], [9784, 1, 4, 0.55], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [6494, 1, 5, 0.29], [1274, 1, 4, 0.23], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [345, 3, 4, 1.31], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [3577, 25, 4, 0.48], [96, 11, 12, 0.38], [6935, 2, 108, 5.9], [615, 2, 91, 4.78], [2778, 2, 61, 2.77], [305, 2, 57, 2.58], [5493, 2, 91, 4.44], [6936, 2, 108, 5.92], [130, 1, 24, 2.58], [205, 2, 42, 2.69], [616, 2, 91, 4.41], [1504, 2, 80, 2.75], [144, 2, 59, 4.4], [8648, 2, 89, 2.99], [2049, 3, 144, 2.25], [88, 10, 220, 3.45], [8915, 2, 65, 4.29], [326, 2, 36, 3.57], [7036, 1, 50, 3.83], [8650, 2, 89, 2.75], [593, 2, 89, 2.78], [2327, 2, 59, 2.57], [11681, 2, 106, 5.01], [8853, 2, 108, 5.93], [141, 2, 61, 2.6], [2775, 2, 61, 2.77], [206, 2, 42, 2.55], [151, 1, 58, 2.7], [7004, 1, 31, 2.36], [248, 1, 47, 2.25], [11685, 2, 106, 5.4], [3891, 1, 49, 2.88], [3840, 1, 150, 2.17], [2328, 2, 59, 2.62], [2050, 3, 188, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.86], [143, 2, 58, 2.77], [434, 2, 56, 2.07], [3980, 4, 186, 4.07], [2054, 3, 188, 2.34], [624, 2, 91, 5.38], [8672, 2, 112, 4.65], [362, 2, 55, 3.27], [8649, 2, 194, 4.25], [2776, 2, 61, 3.86], [12870, 1, 117, 5.16], [2057, 3, 188, 2.34], [12350, 1, 543, 2.67], [7886, 4, 38, 2.23], [10574, 3, 196, 4.07], [5165, 1, 30, 3.74], [1006, 2, 197, 2.83], [1446, 2, 60, 2.62], [94, 4, 47, 5.25], [75, 2, 57, 3.52], [523, 2, 60, 2.64], [2991, 3, 63, 5.99], [3495, 3, 832, 2.92], [7084, 3, 51, 2.79], [7005, 1, 68, 3.18], [3975, 4, 186, 4.2], [21793, 1, 90, 5.26], [10149, 3, 752, 2.93], [9760, 29, 28, 2.5], [11404, 2, 41, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 1.17], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 6, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11838, 2, 4, 0.57], [11737, 2, 4, 0.38], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 4, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 4, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [434, 2, 4, 0.73], [88, 10, 9, 0.82], [2776, 2, 4, 0.41], [435, 2, 5, 0.49], [142, 2, 4, 0.2], [151, 1, 4, 0.57], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 0.97], [11836, 2, 5, 0.2], [7705, 2, 4, 1.15], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [7706, 2, 4, 1.08], [378, 2, 4, 2.48], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [3478, 2, 4, 1.07], [10149, 3, 13, 1.12], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [2774, 2, 4, 0.55], [307, 2, 4, 1.5], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [418, 2, 4, 0.81], [7004, 1, 4, 1.02], [13928, 1, 4, 0.2], [411, 2, 4, 0.49], [11089, 1, 4, 0.39], [413, 1, 4, 0.54], [2057, 3, 4, 0.4], [14037, 3, 4, 0.96], [11844, 2, 5, 0.2], [2050, 3, 4, 0.4], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [13260, 29, 4, 0.67], [3893, 1, 5, 0.44], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [439, 1, 4, 0.37], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [6494, 1, 4, 0.46], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [1413, 16, 4, 0.39], [11490, 1, 4, 0.47], [1243, 2, 5, 0.2], [7708, 2, 4, 1.15], [414, 1, 4, 0.66], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [5208, 3, 5, 0.97], [565, 2, 4, 0.46], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [21793, 1, 4, 0.95], [11491, 2, 4, 0.81], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [2422, 80, 4, 1.75], [6098, 80, 4, 1.14], [410, 1, 4, 0.4], [11504, 2, 4, 0.72], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3674, 2, 4, 0.52], [147, 1, 4, 0.52], [3430, 15, 4, 1.23], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6935, 2, 141, 6.0], [305, 2, 74, 3.08], [2328, 2, 76, 3.53], [130, 1, 49, 2.48], [141, 2, 78, 2.84], [2778, 2, 156, 3.07], [8650, 2, 114, 4.87], [5491, 2, 106, 4.31], [2327, 2, 76, 3.26], [8672, 2, 144, 3.33], [6936, 2, 141, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 76, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 76, 3.13], [417, 2, 78, 3.05], [589, 2, 77, 2.91], [75, 2, 145, 3.58], [11838, 2, 269, 2.83], [11737, 2, 57, 2.97], [1124, 2, 95, 2.98], [523, 2, 78, 3.36], [8648, 2, 114, 4.01], [8853, 2, 141, 4.82], [12721, 2, 144, 3.19], [615, 2, 108, 4.14], [326, 2, 35, 3.64], [206, 2, 42, 2.64], [8915, 2, 96, 2.87], [8673, 2, 144, 5.05], [144, 2, 76, 2.91], [11739, 2, 57, 2.97], [434, 2, 107, 3.23], [88, 10, 285, 3.62], [2776, 2, 78, 3.77], [435, 2, 54, 3.01], [142, 2, 78, 3.16], [151, 1, 33, 2.79], [8676, 2, 144, 2.97], [6158, 2, 133, 2.82], [2424, 29, 17, 3.17], [8649, 2, 114, 3.38], [2423, 29, 18, 4.52], [11738, 2, 57, 2.97], [2497, 2, 105, 3.11], [7704, 2, 90, 3.18], [2424, 80, 84, 3.11], [10574, 3, 249, 4.6], [2423, 80, 92, 4.41], [3670, 2, 236, 5.41], [11836, 2, 134, 2.89], [7705, 2, 176, 4.07], [2054, 3, 473, 3.89], [3, 2, 61, 2.9], [2859, 15, 35, 3.48], [412, 1, 42, 3.17], [7706, 2, 90, 3.18], [378, 2, 224, 6.0], [12720, 2, 144, 2.99], [22316, 3, 318, 2.64], [2055, 3, 181, 2.76], [12344, 1, 620, 2.67], [3478, 2, 38, 4.08], [10149, 3, 866, 4.0], [74, 1, 102, 5.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 4, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [7886, 4, 5, 0.39], [88, 10, 8, 1.09], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.56], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.5], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.43], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 6, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [998, 2, 4, 0.97], [21269, 3, 4, 1.0], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [823, 1, 4, 0.84], [14017, 3, 4, 0.44], [34, 1, 4, 1.26], [972, 3, 5, 0.85], [5209, 3, 4, 0.54], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [20498, 3, 6, 0.36], [8672, 2, 229, 4.11], [305, 2, 115, 3.11], [3, 2, 97, 3.34], [6935, 2, 136, 4.9], [205, 2, 53, 2.52], [143, 2, 117, 3.77], [144, 2, 119, 4.38], [75, 2, 71, 2.56], [12721, 2, 138, 2.64], [145, 2, 119, 3.97], [8915, 2, 93, 2.53], [2778, 2, 75, 2.63], [1776, 1, 72, 1.98], [146, 2, 119, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 136, 4.39], [1777, 1, 54, 3.8], [8648, 2, 109, 3.3], [151, 1, 54, 1.81], [2328, 2, 72, 3.01], [8650, 2, 109, 3.51], [5151, 2, 12, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [7886, 4, 69, 2.38], [88, 10, 273, 4.1], [9507, 3, 86, 1.53], [74, 1, 98, 3.13], [1446, 2, 73, 3.67], [2991, 3, 78, 5.3], [362, 2, 69, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.32], [1492, 1, 30, 2.52], [1007, 2, 130, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 53, 3.03], [8649, 2, 109, 3.59], [3889, 1, 106, 2.11], [11234, 2, 88, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.22], [345, 3, 147, 2.53], [10, 2, 51, 3.33], [1429, 2, 73, 3.12], [307, 2, 70, 3.95], [10825, 21, 303, 2.64], [5081, 2, 91, 2.66], [12870, 1, 68, 2.86], [57, 1, 73, 2.09], [10149, 3, 431, 2.87], [7036, 1, 62, 3.26], [3478, 2, 64, 2.3], [7084, 3, 63, 3.26], [1006, 2, 110, 2.7], [1504, 2, 99, 2.66], [3891, 1, 60, 3.37], [21793, 1, 202, 4.74], [94, 4, 58, 4.72], [167, 3, 110, 3.03], [411, 2, 53, 2.52], [9827, 3, 42, 2.54], [3893, 1, 60, 2.31], [79, 1, 41, 2.38], [33, 1, 54, 3.19]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 10, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [362, 2, 4, 0.2], [151, 1, 5, 0.48], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 5, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [22247, 2, 4, 0.78], [88, 10, 9, 1.09], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [2054, 3, 4, 1.44], [10, 2, 5, 0.91], [8677, 3, 6, 1.56], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 5, 0.47], [5081, 2, 4, 0.44], [1492, 1, 4, 0.58], [140, 2, 5, 0.63], [7005, 1, 4, 0.36], [167, 3, 4, 1.25], [7036, 1, 4, 1.11], [9827, 3, 5, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [13280, 1, 4, 1.47], [5812, 3, 5, 2.01], [1504, 2, 4, 0.2], [12870, 1, 4, 0.54], [168, 3, 4, 0.29], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [6097, 29, 4, 1.14], [8853, 2, 5, 1.07], [416, 1, 4, 1.21], [8939, 2, 4, 0.2], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [1490, 1, 5, 0.2], [95, 3, 16, 0.19], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [8898, 3, 5, 1.36], [1126, 2, 5, 0.39], [13034, 3, 6, 0.66], [126, 2, 4, 1.43], [20498, 1, 5, 0.8], [9760, 29, 4, 0.45], [5086, 1, 4, 0.71], [20255, 2, 5, 0.2], [12924, 1, 5, 0.2], [5513, 2, 4, 0.46], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [13260, 29, 4, 0.54], [22317, 3, 6, 0.51], [7567, 3, 4, 1.66], [1413, 15, 4, 0.33], [229, 1, 4, 1.05], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [5813, 3, 5, 1.08], [192, 3, 11, 1.1], [8557, 3, 4, 0.2], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [20498, 3, 5, 0.86], [9691, 1, 4, 1.0], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [8943, 3, 5, 0.7], [1622, 1, 5, 0.38], [9372, 1, 4, 0.39], [20486, 3, 6, 0.79], [2775, 2, 5, 0.2], [13023, 3, 6, 1.24], [1703, 2, 4, 0.41], [11454, 2, 6, 1.6], [2423, 80, 4, 1.41], [3900, 3, 4, 1.63], [5584, 3, 5, 1.22], [2424, 80, 4, 2.04], [2497, 2, 4, 0.43], [8672, 2, 100, 2.23], [305, 2, 51, 2.31], [2049, 3, 192, 1.94], [6935, 2, 129, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 53, 1.93], [589, 2, 53, 2.26], [362, 2, 50, 2.1], [151, 1, 24, 2.16], [12721, 2, 99, 2.25], [146, 2, 53, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 39, 1.99], [2328, 2, 53, 2.62], [8915, 2, 67, 2.05], [143, 2, 51, 2.33], [990, 2, 18, 2.66], [6936, 2, 97, 4.51], [20252, 2, 86, 2.06], [8650, 2, 79, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 55, 2.06], [22247, 2, 99, 3.12], [88, 10, 197, 3.28], [2050, 3, 166, 1.95], [76, 2, 39, 2.63], [8649, 2, 79, 3.51], [10149, 3, 300, 4.79], [2054, 3, 324, 5.02], [10, 2, 62, 2.92], [8677, 3, 102, 4.35], [412, 1, 30, 2.41], [2055, 3, 324, 5.02], [13028, 3, 135, 2.54], [413, 1, 30, 2.36], [7004, 1, 28, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 95, 5.53], [1446, 2, 53, 3.18], [7084, 3, 46, 1.93], [307, 2, 51, 2.12], [3478, 2, 69, 3.31], [1429, 2, 53, 2.47], [3495, 3, 336, 2.89], [1006, 2, 80, 2.13], [5081, 2, 177, 1.96], [1492, 1, 13, 3.25], [140, 2, 32, 2.75], [7005, 1, 28, 1.93], [167, 3, 80, 3.59], [7036, 1, 45, 2.39], [9827, 3, 30, 2.15], [45, 2, 39, 4.21], [8676, 2, 100, 2.21], [1124, 2, 65, 2.07], [2049, 1, 21, 2.85], [94, 4, 42, 4.73], [13280, 1, 111, 3.97], [5812, 3, 543, 4.52], [1504, 2, 72, 2.1], [12870, 1, 49, 2.27], [168, 3, 141, 2.73], [11234, 2, 170, 2.47]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 5, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [6936, 2, 4, 1.18], [11681, 2, 4, 1.35], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [206, 2, 5, 0.46], [2778, 2, 5, 0.2], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.73], [11737, 2, 5, 0.2], [417, 2, 4, 0.66], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12353, 1, 5, 0.19], [12870, 1, 4, 0.92], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [3, 2, 5, 0.2], [10574, 3, 6, 1.36], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [624, 2, 4, 1.35], [9760, 29, 4, 0.2], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [3891, 1, 4, 0.53], [21793, 1, 4, 2.3], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [6158, 2, 4, 0.2], [11739, 2, 4, 0.59], [96, 11, 13, 0.38], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [9372, 1, 4, 1.7], [1126, 2, 4, 0.58], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [8672, 2, 5, 0.98], [5165, 1, 4, 0.58], [413, 1, 4, 1.01], [8898, 3, 4, 3.33], [2912, 1, 4, 0.2], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 4, 0.48], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [412, 1, 4, 0.5], [22247, 2, 4, 1.23], [957, 2, 4, 0.55], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [432, 3, 5, 0.47], [308, 1, 4, 0.95], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [20256, 2, 4, 0.44], [22317, 3, 5, 0.51], [10407, 10, 6, 1.44], [148, 1, 4, 0.55], [1413, 15, 4, 0.45], [10780, 10, 4, 1.52], [10410, 10, 6, 1.64], [13286, 1, 4, 1.32], [439, 1, 4, 1.15], [7573, 1, 5, 1.45], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [11767, 1, 4, 0.5], [972, 1, 4, 1.51], [12347, 1, 4, 0.19], [10387, 2, 4, 0.95], [6497, 1, 4, 0.52], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9971, 2, 4, 1.44], [8897, 3, 4, 3.33], [2331, 1, 4, 1.08], [11769, 1, 4, 1.1], [9082, 3, 17, 0.77], [11685, 2, 106, 5.4], [6935, 2, 108, 5.9], [326, 2, 36, 3.57], [8648, 2, 89, 2.99], [144, 2, 59, 4.4], [593, 2, 89, 2.78], [2327, 2, 59, 2.57], [143, 2, 58, 2.77], [205, 2, 42, 2.69], [8915, 2, 65, 4.29], [2328, 2, 59, 2.62], [6936, 2, 108, 5.92], [11681, 2, 106, 5.01], [305, 2, 57, 2.58], [151, 1, 58, 2.7], [8650, 2, 89, 2.75], [141, 2, 61, 2.6], [206, 2, 42, 2.55], [2778, 2, 61, 2.77], [2049, 3, 144, 2.25], [88, 10, 220, 3.45], [615, 2, 91, 4.78], [7036, 1, 50, 3.83], [8853, 2, 108, 5.93], [8649, 2, 89, 2.58], [5491, 2, 42, 2.57], [434, 2, 56, 2.07], [1006, 2, 89, 2.63], [75, 2, 57, 3.52], [2055, 3, 396, 4.86], [11737, 2, 23, 2.79], [417, 2, 133, 2.95], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 188, 2.34], [1007, 2, 105, 2.65], [12353, 1, 241, 4.47], [12870, 1, 117, 5.16], [523, 2, 60, 2.64], [1504, 2, 80, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 188, 2.34], [13280, 1, 123, 5.48], [3, 2, 48, 2.52], [10574, 3, 196, 4.07], [142, 2, 133, 2.39], [12346, 1, 241, 4.15], [7084, 3, 51, 2.79], [624, 2, 91, 5.38], [9760, 29, 28, 2.5], [2054, 3, 188, 2.34], [140, 2, 78, 3.15], [2775, 2, 61, 2.77], [3891, 1, 108, 2.43], [21793, 1, 90, 5.26], [8939, 2, 75, 2.61], [1429, 2, 60, 2.59], [6158, 2, 103, 2.54], [11739, 2, 23, 2.79], [96, 11, 330, 2.81], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 27, 2.67], [9372, 1, 196, 4.79], [1126, 2, 197, 2.71], [10388, 2, 186, 3.58]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.51], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.35], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.57], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [12352, 1, 4, 1.38], [411, 2, 4, 0.47], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [583, 2, 4, 1.31], [8674, 2, 5, 0.63], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11836, 2, 4, 0.53], [11738, 2, 4, 0.43], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [413, 1, 4, 0.97], [6097, 29, 5, 0.64], [2057, 3, 4, 1.0], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [2055, 3, 4, 1.18], [1413, 15, 4, 0.2], [12344, 1, 4, 1.38], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [247, 1, 4, 0.8], [3429, 15, 4, 0.46], [22316, 3, 4, 0.46], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.74], [8599, 1, 4, 0.49], [3430, 15, 4, 0.35], [8938, 2, 4, 0.57], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [94, 4, 4, 1.76], [4232, 80, 4, 1.65], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [947, 15, 4, 0.39], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [5939, 3, 4, 0.5], [11671, 1, 4, 0.45], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [9491, 21, 10, 0.51], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [5813, 3, 5, 1.1], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [11954, 1, 4, 0.42], [23920, 2, 4, 0.46], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [308, 1, 5, 0.79], [8672, 2, 145, 3.11], [141, 2, 156, 2.73], [362, 2, 72, 2.98], [361, 2, 78, 3.1], [6935, 2, 143, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 42, 2.62], [2049, 3, 276, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 78, 3.15], [3, 2, 61, 3.03], [6936, 2, 143, 4.65], [305, 2, 74, 3.08], [151, 1, 33, 2.79], [523, 2, 78, 3.23], [22247, 2, 285, 3.62], [8650, 2, 114, 4.44], [142, 2, 156, 2.68], [8648, 2, 114, 4.32], [2328, 2, 76, 3.53], [2776, 2, 79, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 76, 3.26], [11837, 2, 268, 2.61], [12352, 1, 607, 4.89], [411, 2, 110, 2.65], [589, 2, 77, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 134, 3.11], [412, 1, 42, 3.02], [12353, 1, 607, 4.89], [6497, 1, 19, 3.94], [583, 2, 30, 3.93], [8674, 2, 145, 3.28], [145, 2, 151, 2.69], [2805, 137, 92, 3.7], [326, 2, 30, 3.62], [10574, 3, 249, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 35, 5.49], [11836, 2, 268, 2.76], [11738, 2, 57, 3.01], [9784, 1, 36, 3.01], [10149, 3, 906, 2.65], [413, 1, 44, 2.97], [6097, 29, 18, 5.49], [2057, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [2055, 3, 158, 4.31], [1413, 15, 50, 3.0], [12344, 1, 607, 4.33], [20252, 2, 94, 2.66], [11504, 2, 72, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 44, 3.01], [1492, 1, 37, 2.92], [6098, 80, 38, 4.03], [12346, 1, 607, 4.89]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [3840, 1, 5, 0.29], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.59], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [9372, 1, 4, 1.97], [2057, 3, 4, 0.46], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.27], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.45], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [11811, 1, 4, 0.2], [229, 1, 4, 0.54], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [998, 2, 5, 1.0], [94, 4, 4, 1.91], [972, 3, 5, 0.51], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [6158, 2, 4, 2.61], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [5209, 3, 4, 0.19], [412, 1, 4, 0.43], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [12212, 29, 4, 0.2], [7887, 4, 4, 0.94], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 0.52], [9784, 1, 4, 0.52], [84, 2, 4, 0.97], [126, 2, 4, 1.27], [411, 2, 4, 0.48], [13928, 2, 4, 0.7], [11739, 2, 4, 1.42], [9691, 1, 4, 0.57], [3048, 3, 4, 1.15], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [10410, 10, 9, 2.08], [11954, 1, 4, 0.38], [12764, 2, 5, 0.21], [7567, 3, 5, 1.16], [2327, 2, 74, 2.93], [305, 2, 72, 2.8], [6935, 2, 135, 6.0], [2778, 2, 77, 2.92], [144, 2, 55, 4.54], [130, 1, 29, 2.86], [8915, 2, 93, 2.96], [589, 2, 75, 2.97], [143, 2, 72, 3.03], [2328, 2, 147, 3.37], [6936, 2, 135, 5.39], [8648, 2, 110, 3.91], [2775, 2, 77, 2.92], [205, 2, 54, 2.77], [8650, 2, 110, 3.45], [326, 2, 44, 4.1], [593, 2, 223, 2.53], [146, 2, 73, 3.02], [145, 2, 73, 2.92], [7036, 1, 63, 4.28], [3840, 1, 84, 3.43], [2049, 3, 360, 2.34], [2776, 2, 77, 3.16], [615, 2, 54, 3.01], [616, 2, 54, 2.64], [88, 10, 276, 3.94], [141, 2, 76, 2.69], [151, 1, 32, 2.68], [1124, 2, 182, 3.1], [11681, 2, 131, 5.43], [206, 2, 106, 2.39], [1446, 2, 74, 3.2], [9760, 29, 35, 2.66], [8853, 2, 135, 5.48], [990, 2, 26, 2.69], [5491, 2, 53, 3.05], [1007, 2, 264, 2.49], [362, 2, 69, 2.89], [8672, 2, 140, 4.92], [1504, 2, 99, 3.69], [2055, 3, 314, 2.32], [9372, 1, 114, 5.58], [2057, 3, 314, 2.32], [3893, 1, 61, 2.96], [8649, 2, 110, 3.26], [8938, 2, 125, 2.43], [434, 2, 53, 2.69], [12870, 1, 69, 3.3], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 76, 2.76], [3889, 1, 122, 2.29], [5165, 1, 38, 3.97], [1429, 2, 74, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 79, 5.62], [140, 2, 86, 3.98], [3891, 1, 61, 2.96], [1006, 2, 111, 2.97], [7886, 4, 35, 2.24], [10574, 3, 246, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 273, 2.87], [1622, 1, 105, 2.46]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 9, 1.35], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.9], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.64], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.02], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [2055, 3, 7, 3.23], [12343, 1, 7, 2.59], [2423, 80, 7, 2.97], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [8915, 2, 7, 0.75], [75, 2, 7, 2.15], [88, 10, 16, 2.9], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 0.81], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [1050, 2, 7, 0.7], [2422, 80, 7, 2.41], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [6098, 29, 7, 2.08], [378, 2, 9, 2.87], [12346, 1, 7, 2.59], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [11738, 2, 7, 1.32], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [229, 1, 7, 3.68], [1049, 2, 7, 0.7], [13264, 29, 7, 0.94], [20252, 2, 7, 1.06], [345, 3, 7, 2.32], [13258, 29, 9, 1.59], [1490, 1, 7, 0.87], [964, 15, 7, 0.66], [12269, 2, 7, 0.93], [2438, 1, 7, 2.08], [2821, 3, 12, 1.27], [5208, 3, 9, 1.41], [10407, 10, 10, 2.08], [2331, 1, 7, 1.02], [1163, 3, 7, 2.25], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [13259, 29, 7, 2.95], [1309, 1, 7, 0.82], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [10406, 10, 12, 2.42], [11687, 2, 7, 1.02], [410, 1, 7, 1.3], [7036, 1, 7, 0.87], [3478, 2, 9, 1.47], [20255, 2, 7, 1.14], [9784, 1, 7, 1.67], [21713, 3, 13, 0.88], [8938, 2, 7, 1.06], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [12870, 1, 7, 4.46], [11402, 1, 7, 0.85], [10410, 10, 10, 2.08], [19687, 1, 7, 2.23], [2438, 2, 8, 2.38], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [2703, 3, 7, 3.92], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [1886, 2, 7, 0.65], [21781, 2, 7, 0.86], [11690, 2, 7, 0.66], [10411, 10, 10, 1.97], [412, 1, 42, 3.02], [1050, 2, 38, 1.78], [2422, 80, 187, 4.2], [10149, 3, 866, 4.0], [2422, 29, 18, 5.41], [6098, 29, 19, 3.97], [378, 2, 114, 4.24], [12346, 1, 610, 4.37], [7704, 2, 176, 4.07], [151, 1, 33, 2.79], [11738, 2, 56, 3.11], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [229, 1, 81, 5.47], [1049, 2, 38, 1.78], [13264, 29, 73, 2.73], [20252, 2, 92, 2.85], [345, 3, 297, 4.1], [13258, 29, 39, 3.37], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [2821, 3, 658, 3.36], [5208, 3, 561, 3.2], [10407, 10, 1201, 3.88], [2331, 1, 119, 2.8], [1163, 3, 114, 3.33], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [13259, 29, 35, 4.73], [1309, 1, 58, 2.6], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [10406, 10, 1784, 4.24], [11687, 2, 303, 2.8], [410, 1, 105, 3.09], [7036, 1, 127, 2.65], [3478, 2, 38, 4.08], [20255, 2, 93, 2.93], [9784, 1, 72, 3.46], [21713, 3, 1121, 2.67], [8938, 2, 192, 2.85], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [12870, 1, 137, 6.0], [11402, 1, 45, 2.64], [10410, 10, 1201, 3.88], [19687, 1, 30, 4.02], [2438, 2, 643, 4.17], [11490, 1, 55, 2.9], [107, 7, 239, 4.24], [2703, 3, 300, 5.7], [11161, 1, 490, 5.57], [956, 2, 107, 2.75], [1886, 2, 158, 2.44], [21781, 2, 104, 2.65], [11690, 2, 303, 2.44], [10411, 10, 785, 3.76]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.94], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.95], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.02], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.86], [11739, 2, 7, 1.9], [10574, 3, 10, 2.64], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [21793, 1, 8, 4.02], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8675, 2, 9, 1.42], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [11836, 2, 9, 0.79], [8674, 2, 7, 1.46], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [6158, 2, 9, 2.65], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [10149, 3, 21, 1.48], [2776, 2, 7, 1.37], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 3.21], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 1.09], [12526, 2, 7, 2.78], [410, 1, 7, 0.87], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [12351, 1, 7, 1.63], [2423, 80, 7, 2.8], [378, 2, 7, 2.23], [2424, 29, 9, 1.09], [2423, 29, 7, 3.02], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [13023, 3, 10, 2.63], [12373, 1, 11, 1.47], [13034, 3, 8, 2.37], [201, 3, 7, 2.12], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [345, 3, 7, 1.4], [5208, 3, 9, 1.01], [11770, 1, 7, 0.89], [159, 1, 7, 1.33], [3, 2, 7, 5.0], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [13928, 1, 7, 0.82], [11504, 2, 7, 0.67], [11811, 1, 7, 1.93], [566, 2, 7, 0.92], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.08], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [1490, 1, 7, 3.38], [7004, 1, 7, 1.91], [11089, 1, 7, 0.71], [2703, 3, 7, 3.92], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [94, 4, 7, 4.17], [10410, 10, 10, 2.08], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [22317, 3, 8, 0.88], [6097, 80, 7, 3.42], [7084, 3, 129, 5.0], [418, 2, 72, 2.79], [10993, 2, 27, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [5165, 1, 49, 2.88], [12526, 2, 272, 4.56], [410, 1, 53, 2.3], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [12351, 1, 315, 3.26], [2423, 80, 92, 4.41], [378, 2, 114, 4.24], [2424, 29, 17, 3.17], [2423, 29, 37, 4.81], [12345, 1, 315, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [13023, 3, 592, 4.42], [12373, 1, 533, 3.26], [13034, 3, 592, 4.16], [201, 3, 151, 3.21], [1519, 3, 561, 1.77], [11489, 1, 109, 2.46], [345, 3, 298, 3.19], [5208, 3, 563, 2.79], [11770, 1, 221, 2.67], [159, 1, 39, 3.12], [3, 2, 118, 6.0], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 36, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [13928, 1, 49, 2.61], [11504, 2, 72, 2.78], [11811, 1, 451, 3.72], [566, 2, 175, 2.7], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 3.88], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [1490, 1, 48, 5.17], [7004, 1, 40, 3.0], [11089, 1, 173, 2.5], [2703, 3, 300, 5.7], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 315, 3.26], [94, 4, 116, 5.96], [10410, 10, 1201, 3.88], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [22317, 3, 318, 2.66], [6097, 80, 68, 5.21]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.64], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 10, 0.94], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 1.39], [144, 2, 7, 0.91], [10149, 3, 25, 4.03], [345, 3, 10, 0.97], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 0.85], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.9], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [7084, 3, 7, 0.69], [11234, 2, 9, 0.72], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [12870, 1, 7, 2.96], [10825, 21, 14, 2.47], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.64], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 1.39], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [94, 4, 7, 4.2], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [7567, 3, 7, 2.54], [2049, 1, 7, 0.69], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [1703, 2, 7, 1.51], [3980, 4, 7, 2.59], [8121, 3, 7, 0.97], [8274, 3, 7, 1.24], [35, 1, 7, 0.88], [9691, 1, 7, 2.1], [5209, 3, 9, 0.67], [997, 2, 7, 1.98], [11811, 1, 7, 1.83], [5584, 3, 7, 3.35], [1070, 7, 13, 1.16], [11914, 1, 7, 1.42], [1519, 3, 17, 0.69], [856, 1, 7, 0.69], [5660, 2, 7, 1.66], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [523, 2, 7, 1.16], [8926, 1, 7, 2.6], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [13034, 3, 8, 3.38], [9081, 3, 12, 3.55], [307, 2, 7, 2.19], [20255, 2, 7, 1.43], [12661, 1, 7, 1.87], [11808, 1, 7, 1.16], [23, 1, 39, 2.51], [1006, 2, 80, 2.28], [3893, 1, 44, 2.25], [418, 2, 131, 1.94], [1504, 2, 72, 2.16], [145, 2, 139, 1.94], [5208, 3, 196, 2.33], [9827, 3, 30, 2.12], [3891, 1, 44, 2.25], [432, 3, 106, 2.02], [7005, 1, 28, 1.93], [1490, 1, 18, 2.23], [8853, 2, 97, 4.75], [94, 4, 42, 4.96], [13260, 29, 26, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 79, 2.73], [12353, 1, 557, 4.25], [20256, 2, 33, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [950, 1, 55, 2.13], [33, 1, 39, 2.24], [5086, 1, 63, 3.41], [998, 2, 83, 2.61], [9069, 1, 43, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 28, 2.63], [140, 2, 32, 2.75], [7567, 3, 24, 3.31], [2049, 1, 14, 1.46], [20927, 1, 28, 1.93], [126, 2, 32, 2.98], [346, 3, 219, 2.01], [1703, 2, 149, 2.66], [3980, 4, 443, 3.74], [8121, 3, 270, 2.12], [8274, 3, 159, 2.0], [35, 1, 103, 2.02], [9691, 1, 27, 2.36], [5209, 3, 196, 1.95], [997, 2, 83, 2.24], [11811, 1, 416, 2.98], [5584, 3, 86, 3.55], [1070, 7, 206, 1.93], [11914, 1, 30, 2.19], [1519, 3, 1545, 1.83], [856, 1, 32, 1.84], [5660, 2, 61, 2.93], [8898, 3, 102, 5.05], [1091, 1, 17, 2.42], [5513, 2, 70, 1.95], [523, 2, 143, 2.31], [8926, 1, 22, 2.84], [11767, 1, 151, 2.03], [2775, 2, 55, 2.06], [9372, 1, 210, 3.18], [13034, 3, 203, 4.14], [9081, 3, 161, 4.81], [307, 2, 51, 2.45], [20255, 2, 33, 2.2], [12661, 1, 28, 2.13], [11808, 1, 166, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [151, 1, 7, 1.36], [3840, 1, 9, 1.09], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [8853, 2, 7, 3.51], [146, 2, 7, 2.06], [1504, 2, 7, 1.79], [624, 2, 7, 2.19], [12224, 1, 7, 0.84], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [378, 2, 7, 2.23], [5208, 3, 9, 0.78], [3889, 1, 7, 0.65], [8649, 2, 7, 3.15], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [10993, 2, 7, 1.29], [11234, 2, 7, 1.8], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [5165, 1, 7, 2.49], [998, 2, 7, 2.89], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [346, 3, 7, 1.21], [3, 2, 7, 1.14], [229, 1, 7, 1.0], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5165, 2, 8, 2.84], [7887, 4, 7, 1.42], [5076, 1, 7, 1.3], [126, 2, 7, 2.34], [20252, 2, 7, 1.43], [11953, 1, 7, 0.84], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [1492, 1, 7, 0.95], [11685, 2, 11, 3.45], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [20256, 2, 9, 0.82], [2774, 2, 7, 1.15], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [12343, 1, 7, 1.22], [6497, 1, 7, 3.31], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 2.08], [11179, 1, 7, 1.6], [6496, 1, 7, 3.41], [22317, 3, 7, 0.66], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [8898, 3, 7, 3.35], [2805, 137, 7, 2.91], [3900, 3, 7, 3.39], [12526, 2, 7, 2.21], [2424, 29, 7, 1.01], [11812, 1, 7, 0.87], [4253, 1, 7, 1.04], [3975, 4, 7, 2.86], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [1622, 1, 7, 0.87], [12764, 2, 8, 0.9], [412, 1, 7, 0.81], [972, 1, 7, 1.96], [9760, 29, 35, 2.66], [997, 2, 232, 4.28], [2436, 4, 57, 2.98], [1006, 2, 111, 2.97], [972, 3, 291, 2.82], [2424, 80, 82, 2.99], [346, 3, 308, 2.68], [3, 2, 118, 2.78], [229, 1, 81, 2.64], [6158, 2, 127, 2.86], [3495, 3, 471, 2.98], [12346, 1, 612, 2.87], [5165, 2, 180, 4.82], [7887, 4, 68, 2.73], [5076, 1, 127, 2.94], [126, 2, 86, 3.98], [20252, 2, 91, 3.07], [11953, 1, 195, 2.48], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 93, 2.9], [11954, 1, 195, 2.34], [1492, 1, 18, 2.93], [11685, 2, 131, 5.43], [12352, 1, 612, 2.87], [996, 2, 115, 4.81], [12721, 2, 272, 5.89], [20256, 2, 49, 2.94], [2774, 2, 200, 2.79], [12350, 1, 612, 2.87], [3981, 3, 790, 3.14], [9491, 21, 1034, 2.76], [5434, 1, 24, 2.89], [2423, 80, 90, 3.36], [12343, 1, 612, 2.87], [6497, 1, 35, 4.95], [5584, 3, 120, 4.28], [2438, 2, 308, 2.82], [10388, 2, 211, 3.57], [12351, 1, 612, 2.87], [10407, 10, 1168, 3.71], [11179, 1, 85, 3.24], [6496, 1, 38, 5.05], [22317, 3, 308, 2.3], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 273, 2.87], [8898, 3, 144, 4.83], [2805, 137, 175, 4.54], [3900, 3, 21, 4.29], [12526, 2, 135, 3.53], [2424, 29, 34, 2.65], [11812, 1, 116, 2.85], [4253, 1, 83, 2.97], [3975, 4, 234, 4.34], [11490, 1, 106, 2.29], [336, 15, 110, 3.43], [1622, 1, 52, 2.81], [12764, 2, 734, 2.54], [412, 1, 82, 2.45], [972, 1, 48, 2.93]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 1.34], [2327, 2, 7, 1.6], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.94], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [8089, 1, 7, 2.21], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 1.19], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.98], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [418, 2, 7, 1.68], [4032, 29, 7, 0.9], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [5151, 2, 7, 1.14], [229, 1, 7, 3.82], [12304, 1, 7, 1.18], [972, 3, 9, 0.93], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [13034, 3, 7, 4.02], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [2424, 29, 7, 2.13], [3, 2, 7, 1.01], [11426, 25, 7, 1.07], [11737, 2, 7, 0.91], [11767, 1, 7, 0.88], [5076, 1, 7, 1.18], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [8677, 3, 8, 1.86], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [11586, 1, 14, 3.12], [75, 2, 7, 1.94], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [9998, 80, 7, 0.77], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [2438, 2, 8, 1.84], [9784, 1, 7, 1.61], [2424, 80, 146, 3.69], [346, 3, 245, 2.39], [3334, 5, 70, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.11], [7885, 4, 120, 2.4], [6098, 80, 30, 3.45], [6097, 29, 23, 5.08], [11089, 1, 149, 2.22], [12345, 1, 536, 2.26], [10149, 3, 346, 3.62], [20256, 2, 37, 2.55], [147, 1, 77, 3.78], [22316, 3, 273, 2.08], [1492, 1, 15, 3.66], [11953, 1, 172, 2.22], [432, 3, 118, 2.82], [11491, 2, 121, 2.36], [20252, 2, 36, 2.53], [418, 2, 121, 3.09], [4032, 29, 38, 2.55], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 42, 2.61], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [12304, 1, 97, 2.59], [972, 3, 233, 2.55], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [2331, 1, 100, 4.08], [346, 1, 62, 2.39], [13034, 3, 228, 5.21], [995, 2, 206, 3.55], [416, 1, 33, 2.59], [2424, 29, 29, 3.54], [3, 2, 105, 2.43], [11426, 25, 103, 2.49], [11737, 2, 49, 2.33], [11767, 1, 140, 2.3], [5076, 1, 112, 2.59], [439, 1, 74, 4.64], [11490, 1, 42, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [8677, 3, 253, 3.28], [1701, 2, 63, 4.58], [11180, 1, 34, 2.67], [11586, 1, 147, 3.61], [75, 2, 124, 3.36], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 149, 3.47], [9998, 80, 107, 2.19], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26], [9784, 1, 61, 3.03]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.37], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 1.07], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3891, 1, 7, 1.68], [3840, 1, 7, 0.72], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.41], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8672, 2, 9, 2.44], [362, 2, 7, 1.64], [8649, 2, 7, 2.8], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [2991, 3, 7, 4.78], [3495, 3, 21, 1.48], [7084, 3, 7, 1.12], [7005, 1, 7, 1.73], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [10149, 3, 21, 1.48], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.52], [417, 2, 7, 1.5], [5165, 2, 10, 2.64], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [7887, 4, 9, 0.87], [6497, 1, 7, 2.42], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [432, 3, 7, 0.86], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [389, 4, 7, 2.13], [2912, 2, 8, 0.79], [74, 1, 7, 2.13], [6496, 1, 7, 0.85], [7567, 3, 7, 3.18], [1413, 15, 7, 1.04], [35, 1, 7, 1.54], [411, 2, 7, 1.02], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [8676, 2, 7, 3.11], [21269, 3, 7, 4.87], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [12526, 2, 7, 2.15], [11085, 2, 8, 3.16], [9784, 1, 7, 1.01], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [6494, 1, 7, 2.34], [1274, 1, 9, 1.03], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [345, 3, 7, 2.52], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [3577, 25, 7, 0.92], [96, 11, 22, 1.1], [6158, 2, 103, 2.54], [20927, 1, 68, 3.22], [3981, 3, 623, 3.73], [417, 2, 133, 2.95], [5165, 2, 144, 4.85], [2912, 1, 32, 1.51], [3982, 3, 306, 4.03], [8939, 2, 75, 2.61], [1007, 2, 105, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 44, 2.74], [956, 2, 93, 2.32], [11772, 1, 84, 4.18], [286, 3, 55, 3.65], [7887, 4, 54, 2.53], [6497, 1, 15, 4.13], [1492, 1, 15, 3.97], [11767, 1, 63, 2.52], [432, 3, 264, 2.32], [336, 15, 96, 3.67], [972, 3, 232, 2.73], [11769, 1, 63, 3.17], [11490, 1, 42, 2.71], [11770, 1, 84, 3.51], [410, 1, 41, 2.7], [389, 4, 81, 3.34], [2912, 2, 342, 2.25], [74, 1, 176, 3.58], [6496, 1, 35, 2.31], [7567, 3, 27, 3.83], [1413, 15, 39, 2.75], [35, 1, 44, 2.75], [411, 2, 42, 2.73], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 114, 2.56], [1126, 2, 197, 2.71], [4176, 4, 186, 4.3], [2436, 4, 45, 2.5], [9372, 1, 196, 4.79], [8676, 2, 245, 4.57], [21269, 3, 254, 6.0], [8677, 3, 115, 2.72], [22247, 2, 111, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [12526, 2, 235, 3.6], [11085, 2, 207, 4.36], [9784, 1, 63, 2.46], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [6494, 1, 20, 3.55], [1274, 1, 32, 3.06], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [7573, 1, 144, 3.67], [12225, 1, 141, 3.96], [345, 3, 115, 3.19], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [3577, 25, 35, 2.59], [96, 11, 330, 2.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.9], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.28], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.79], [11838, 2, 7, 1.04], [11737, 2, 7, 1.18], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [434, 2, 7, 1.44], [88, 10, 14, 1.5], [2776, 2, 9, 1.21], [435, 2, 7, 1.4], [142, 2, 7, 1.05], [151, 1, 7, 1.36], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 9, 1.91], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 9, 3.61], [11836, 2, 9, 0.79], [7705, 2, 7, 2.28], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [7706, 2, 7, 2.08], [378, 2, 7, 4.55], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [3478, 2, 9, 2.65], [10149, 3, 21, 2.21], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [2774, 2, 7, 1.06], [307, 2, 7, 2.95], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [418, 2, 7, 1.49], [7004, 1, 7, 1.96], [13928, 1, 7, 0.74], [411, 2, 7, 0.9], [11089, 1, 7, 0.71], [413, 1, 9, 1.34], [2057, 3, 7, 2.1], [14037, 3, 7, 1.85], [11844, 2, 7, 1.79], [2050, 3, 7, 2.1], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [13260, 29, 7, 1.29], [3893, 1, 7, 1.3], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [439, 1, 9, 2.21], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [6494, 1, 7, 0.85], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [1413, 16, 7, 0.71], [11490, 1, 7, 0.86], [1243, 2, 7, 1.32], [7708, 2, 7, 2.28], [414, 1, 9, 1.63], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [5208, 3, 9, 1.82], [565, 2, 7, 0.84], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [21793, 1, 7, 1.83], [11491, 2, 7, 1.5], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [2422, 80, 9, 4.33], [6098, 80, 7, 2.19], [410, 1, 7, 0.74], [11504, 2, 7, 1.33], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3674, 2, 7, 0.96], [147, 1, 7, 2.73], [3430, 15, 7, 2.26], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [3429, 15, 53, 2.63], [2774, 2, 105, 3.11], [307, 2, 72, 5.06], [6497, 1, 38, 2.59], [60, 3, 405, 4.08], [12526, 2, 138, 4.87], [418, 2, 141, 3.27], [7004, 1, 40, 3.07], [13928, 1, 24, 2.85], [411, 2, 109, 2.69], [11089, 1, 173, 2.5], [413, 1, 44, 3.1], [2057, 3, 473, 3.89], [2050, 3, 473, 3.89], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [13260, 29, 36, 3.33], [3893, 1, 63, 2.9], [8274, 3, 115, 2.76], [6097, 80, 35, 5.49], [439, 1, 43, 4.81], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 60, 4.11], [159, 3, 709, 3.16], [6494, 1, 52, 2.64], [9784, 1, 71, 4.16], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [1413, 16, 50, 2.5], [11490, 1, 109, 2.65], [1243, 2, 50, 2.93], [7708, 2, 176, 4.07], [414, 1, 44, 3.31], [3889, 1, 63, 2.78], [1492, 1, 37, 2.92], [5208, 3, 558, 3.6], [565, 2, 176, 2.63], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [21793, 1, 123, 2.94], [11491, 2, 141, 3.28], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [2422, 80, 92, 5.46], [6098, 80, 38, 4.03], [410, 1, 53, 2.17], [11504, 2, 141, 3.12], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3674, 2, 260, 2.74], [147, 1, 87, 4.52], [3430, 15, 69, 4.05], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.94], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [7886, 4, 7, 1.22], [88, 10, 21, 3.14], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 1.01], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.91], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.78], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.44], [94, 4, 7, 3.06], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 14, 4.07], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.63], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 9, 1.46], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [998, 2, 7, 1.87], [21269, 3, 7, 2.34], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 1.3], [823, 1, 7, 1.62], [14017, 3, 9, 1.09], [34, 1, 7, 2.43], [972, 3, 8, 1.49], [5209, 3, 7, 0.98], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [20498, 3, 10, 1.16], [432, 3, 146, 2.81], [8677, 3, 142, 2.67], [11681, 2, 129, 5.11], [148, 1, 43, 4.77], [96, 11, 409, 2.32], [1490, 1, 24, 2.48], [12225, 1, 71, 2.57], [1124, 2, 90, 2.7], [11737, 2, 28, 2.92], [1243, 2, 83, 2.22], [22247, 2, 138, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 136, 4.71], [201, 3, 147, 2.53], [412, 1, 40, 3.1], [9760, 29, 35, 3.01], [10574, 3, 239, 4.26], [8651, 2, 109, 2.79], [20927, 1, 39, 2.46], [5208, 3, 480, 2.56], [8676, 2, 138, 2.65], [229, 1, 40, 2.95], [1767, 25, 83, 2.76], [25, 1, 95, 2.71], [45, 2, 53, 4.36], [9069, 1, 60, 2.41], [413, 1, 42, 2.94], [11490, 1, 53, 2.32], [149, 2, 43, 4.03], [159, 3, 602, 2.48], [3495, 3, 463, 3.28], [998, 2, 117, 2.54], [21269, 3, 141, 3.5], [140, 2, 44, 3.09], [95, 3, 892, 4.89], [3980, 4, 230, 4.11], [950, 1, 25, 2.17], [5946, 1, 60, 2.48], [9372, 1, 112, 4.69], [1126, 2, 110, 2.52], [1766, 25, 90, 2.69], [2775, 2, 75, 2.63], [1413, 15, 47, 4.01], [490, 1, 29, 2.39], [506, 1, 74, 6.0], [8674, 2, 138, 2.66], [11489, 1, 53, 2.87], [8898, 3, 141, 4.39], [997, 2, 202, 4.64], [3670, 2, 117, 4.37], [1070, 7, 283, 2.51], [9691, 1, 36, 2.54], [107, 2, 31, 2.12], [974, 3, 72, 2.8], [20498, 1, 47, 3.4], [11954, 1, 171, 2.17], [823, 1, 20, 3.2], [14017, 3, 95, 2.47], [34, 1, 54, 3.19], [972, 3, 286, 2.26], [5209, 3, 480, 2.29], [9784, 1, 35, 2.67], [11739, 2, 28, 2.92], [20498, 3, 282, 3.16]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [362, 2, 9, 0.83], [151, 1, 7, 0.89], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 7, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 1.2], [22247, 2, 9, 1.93], [88, 10, 14, 2.0], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [2054, 3, 7, 4.0], [10, 2, 11, 2.2], [8677, 3, 8, 3.58], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.89], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [5081, 2, 7, 0.81], [1492, 1, 6, 1.98], [140, 2, 7, 1.98], [7005, 1, 9, 0.89], [167, 3, 9, 3.09], [7036, 1, 7, 2.14], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 11, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [13280, 1, 9, 3.64], [5812, 3, 8, 3.38], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [168, 3, 9, 1.46], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [6097, 29, 7, 3.38], [8853, 2, 14, 3.62], [416, 1, 7, 2.33], [8939, 2, 7, 0.84], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [1490, 1, 7, 1.27], [95, 3, 26, 0.85], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [13034, 3, 8, 3.38], [126, 2, 7, 2.75], [20498, 1, 7, 1.96], [9760, 29, 7, 0.87], [5086, 1, 9, 1.76], [20255, 2, 7, 1.43], [12924, 1, 9, 0.86], [5513, 2, 7, 0.84], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [13260, 29, 7, 1.0], [22317, 3, 8, 1.35], [7567, 3, 7, 3.2], [1413, 15, 7, 1.52], [229, 1, 7, 2.92], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [5813, 3, 9, 2.14], [192, 3, 22, 4.76], [8557, 3, 7, 1.01], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [20498, 3, 8, 2.02], [9691, 1, 9, 2.48], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [8943, 3, 7, 3.03], [1622, 1, 10, 0.79], [9372, 1, 7, 2.03], [20486, 3, 8, 1.86], [2775, 2, 9, 0.73], [13023, 3, 8, 2.94], [1703, 2, 7, 1.51], [11454, 2, 9, 3.65], [2423, 80, 7, 3.68], [3900, 3, 7, 3.14], [5584, 3, 7, 2.74], [2424, 80, 7, 3.75], [2497, 2, 7, 0.78], [415, 1, 30, 2.31], [8651, 2, 79, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [6097, 29, 12, 4.65], [8853, 2, 97, 4.88], [416, 1, 30, 2.57], [8939, 2, 67, 2.11], [6097, 80, 24, 4.65], [11737, 2, 20, 3.11], [20256, 2, 33, 2.19], [1490, 1, 18, 2.03], [95, 3, 390, 2.19], [20927, 1, 28, 1.93], [79, 1, 44, 1.85], [6098, 29, 13, 3.21], [14017, 3, 69, 2.22], [6098, 80, 27, 3.2], [414, 1, 79, 2.64], [9069, 1, 43, 2.17], [1070, 7, 206, 2.01], [8898, 3, 102, 3.94], [1126, 2, 80, 1.99], [13034, 3, 203, 4.14], [126, 2, 32, 2.98], [20498, 1, 34, 2.73], [9760, 29, 25, 2.09], [5086, 1, 63, 3.49], [20255, 2, 33, 2.2], [12924, 1, 19, 2.3], [5513, 2, 70, 1.99], [9784, 1, 25, 2.28], [336, 15, 40, 1.92], [13260, 29, 67, 2.15], [22317, 3, 109, 2.11], [7567, 3, 24, 3.41], [1413, 15, 34, 2.79], [229, 1, 75, 4.08], [11085, 2, 508, 1.97], [5811, 3, 203, 3.58], [5813, 3, 203, 3.24], [192, 3, 1287, 5.9], [8557, 3, 70, 2.28], [9082, 3, 845, 3.66], [506, 1, 80, 3.88], [3049, 3, 48, 4.42], [20498, 3, 204, 2.76], [9691, 1, 27, 2.98], [14018, 3, 69, 2.22], [524, 1, 30, 2.41], [4076, 3, 71, 3.19], [470, 1, 12, 2.12], [8943, 3, 137, 4.31], [1622, 1, 50, 1.56], [9372, 1, 210, 3.18], [20486, 3, 208, 2.61], [2775, 2, 55, 2.06], [13023, 3, 203, 3.7], [1703, 2, 149, 2.66], [11454, 2, 114, 4.42], [2423, 80, 169, 4.83], [3900, 3, 15, 3.35], [5584, 3, 86, 3.51], [2424, 80, 153, 4.9], [2497, 2, 189, 1.94]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [6936, 2, 9, 4.22], [11681, 2, 7, 3.3], [305, 2, 7, 1.38], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [206, 2, 7, 1.35], [2778, 2, 9, 1.07], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.41], [11737, 2, 7, 1.58], [417, 2, 7, 1.5], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12353, 1, 9, 2.27], [12870, 1, 7, 3.71], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [3, 2, 9, 0.74], [10574, 3, 8, 2.36], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [624, 2, 7, 3.92], [9760, 29, 7, 1.3], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [3891, 1, 7, 0.98], [21793, 1, 7, 4.43], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [6158, 2, 9, 0.75], [11739, 2, 7, 1.14], [96, 11, 22, 1.59], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [9372, 1, 7, 3.34], [1126, 2, 7, 1.26], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [8672, 2, 9, 2.94], [5165, 1, 7, 3.03], [413, 1, 7, 1.94], [8898, 3, 7, 5.0], [2912, 1, 7, 0.8], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 0.87], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [412, 1, 7, 0.92], [22247, 2, 7, 2.43], [957, 2, 7, 1.01], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [432, 3, 7, 0.86], [308, 1, 7, 3.28], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 1.7], [20256, 2, 7, 0.81], [22317, 3, 7, 1.42], [10407, 10, 10, 2.88], [148, 1, 7, 1.0], [1413, 15, 7, 1.17], [10780, 10, 7, 3.0], [10410, 10, 10, 3.2], [13286, 1, 7, 2.52], [439, 1, 7, 2.12], [7573, 1, 11, 3.36], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [11767, 1, 7, 0.92], [972, 1, 7, 2.77], [12347, 1, 7, 3.27], [10387, 2, 7, 1.75], [6497, 1, 7, 0.95], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9971, 2, 7, 2.77], [8897, 3, 7, 5.0], [2331, 1, 7, 2.08], [11769, 1, 7, 2.06], [9082, 3, 34, 1.7], [411, 2, 42, 2.73], [98, 11, 720, 2.35], [972, 3, 232, 2.73], [8672, 2, 112, 4.65], [413, 1, 34, 2.64], [8898, 3, 242, 6.0], [2912, 1, 32, 1.51], [2776, 2, 135, 4.04], [410, 1, 41, 2.7], [12343, 1, 241, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [956, 2, 93, 2.32], [1492, 1, 15, 3.97], [418, 2, 55, 2.48], [12345, 1, 241, 3.94], [13928, 1, 42, 2.32], [9784, 1, 29, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [412, 1, 73, 2.37], [22247, 2, 243, 3.88], [957, 2, 93, 2.46], [336, 15, 45, 2.36], [8677, 3, 115, 2.72], [11490, 1, 94, 2.47], [7567, 3, 27, 3.83], [2912, 2, 342, 2.25], [432, 3, 118, 2.57], [308, 1, 139, 4.73], [307, 2, 58, 2.78], [11953, 1, 175, 2.42], [33, 1, 44, 2.74], [11770, 1, 84, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 96, 3.15], [20256, 2, 81, 2.26], [22317, 3, 123, 2.63], [10407, 10, 1015, 4.32], [148, 1, 79, 2.46], [1413, 15, 86, 2.63], [10780, 10, 316, 4.46], [10410, 10, 1015, 4.64], [13286, 1, 123, 3.2], [439, 1, 75, 3.57], [7573, 1, 288, 4.82], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [11767, 1, 139, 2.37], [972, 1, 85, 4.22], [12347, 1, 241, 4.47], [10387, 2, 186, 3.2], [6497, 1, 33, 2.4], [74, 1, 176, 3.58], [20686, 1, 237, 4.17], [3478, 2, 30, 3.79], [12271, 2, 55, 3.31], [9971, 2, 108, 3.59], [8897, 3, 242, 6.0], [2331, 1, 47, 2.78], [11769, 1, 139, 3.51], [9082, 3, 948, 3.83]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 0.94], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.36], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [12352, 1, 7, 3.09], [411, 2, 7, 0.86], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [583, 2, 7, 2.85], [8674, 2, 7, 1.17], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11836, 2, 7, 0.97], [11738, 2, 7, 1.23], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [413, 1, 7, 1.87], [6097, 29, 7, 3.88], [2057, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [2055, 3, 7, 3.23], [1413, 15, 7, 0.89], [12344, 1, 7, 2.54], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [247, 1, 7, 3.32], [3429, 15, 7, 0.85], [22316, 3, 7, 0.85], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [3430, 15, 7, 0.65], [8938, 2, 7, 1.06], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [94, 4, 7, 4.01], [4232, 80, 7, 3.23], [11490, 1, 7, 0.95], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [947, 15, 7, 0.71], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [5939, 3, 7, 0.91], [11671, 1, 7, 0.83], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [9491, 21, 16, 0.87], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [5813, 3, 8, 1.92], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [11954, 1, 7, 0.77], [23920, 2, 7, 0.85], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [308, 1, 11, 1.83], [247, 1, 86, 5.11], [3429, 15, 53, 2.63], [22316, 3, 318, 2.64], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 65, 3.92], [9785, 1, 36, 3.01], [12526, 2, 272, 4.56], [8599, 1, 145, 4.37], [3430, 15, 71, 2.44], [8938, 2, 192, 2.85], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 36, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [94, 4, 119, 5.8], [4232, 80, 153, 5.02], [11490, 1, 110, 2.74], [436, 2, 107, 2.72], [107, 7, 122, 3.2], [947, 15, 41, 2.5], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [5939, 3, 266, 2.71], [11671, 1, 310, 2.62], [11160, 1, 490, 5.45], [11844, 2, 186, 2.77], [9491, 21, 1065, 2.98], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [5813, 3, 589, 3.7], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [11954, 1, 203, 2.56], [23920, 2, 106, 2.63], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 296, 5.12], [308, 1, 173, 3.62]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [3840, 1, 7, 1.09], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.36], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [9372, 1, 7, 3.79], [2057, 3, 7, 0.84], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 2.34], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.88], [1622, 1, 7, 0.82], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [11811, 1, 7, 0.8], [229, 1, 7, 1.0], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [998, 2, 7, 3.33], [94, 4, 7, 3.68], [972, 3, 8, 1.36], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [6158, 2, 7, 4.79], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [5209, 3, 9, 0.78], [412, 1, 7, 1.85], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [12212, 29, 7, 0.98], [7887, 4, 7, 1.81], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.0], [9784, 1, 7, 0.96], [84, 2, 7, 1.87], [126, 2, 7, 2.34], [411, 2, 7, 0.89], [13928, 2, 7, 1.35], [11739, 2, 7, 2.61], [9691, 1, 7, 1.05], [3048, 3, 7, 4.58], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [10410, 10, 15, 3.84], [11954, 1, 7, 0.7], [12764, 2, 8, 0.64], [7567, 3, 7, 2.64], [75, 2, 72, 2.69], [3, 2, 59, 2.81], [20927, 1, 30, 2.64], [5165, 2, 180, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [12721, 2, 139, 3.23], [22247, 2, 139, 3.57], [147, 1, 43, 4.28], [346, 3, 308, 2.68], [996, 2, 115, 4.81], [11811, 1, 222, 2.78], [229, 1, 81, 2.64], [20252, 2, 91, 3.07], [11685, 2, 131, 5.43], [998, 2, 115, 4.81], [94, 4, 60, 4.77], [972, 3, 291, 2.82], [9491, 21, 1034, 2.76], [76, 2, 54, 2.65], [35, 1, 54, 2.93], [439, 1, 42, 4.69], [6158, 2, 249, 6.0], [413, 1, 42, 3.04], [13028, 3, 72, 5.72], [13928, 1, 24, 3.26], [8104, 1, 99, 3.59], [5076, 1, 64, 2.77], [2805, 137, 90, 3.08], [5209, 3, 273, 2.87], [412, 1, 41, 3.83], [8676, 2, 274, 5.72], [33, 1, 54, 3.76], [418, 2, 69, 3.13], [148, 1, 43, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 144, 4.83], [12212, 29, 58, 2.95], [7887, 4, 34, 2.3], [20256, 2, 46, 2.94], [38, 1, 54, 3.19], [11490, 1, 54, 2.77], [11770, 1, 206, 4.4], [34, 1, 54, 3.07], [10407, 10, 569, 5.06], [415, 1, 42, 2.92], [9784, 1, 71, 2.6], [84, 2, 33, 2.85], [126, 2, 86, 3.98], [411, 2, 106, 2.53], [13928, 2, 12, 3.26], [11739, 2, 55, 4.25], [9691, 1, 74, 2.7], [3048, 3, 137, 6.0], [9690, 1, 25, 1.68], [8939, 2, 93, 2.9], [5584, 3, 120, 4.28], [11953, 1, 195, 2.48], [39, 1, 54, 3.13], [12351, 1, 612, 2.87], [10410, 10, 569, 5.1], [11954, 1, 195, 2.34], [12764, 2, 358, 2.62], [7567, 3, 34, 4.12]]</t>
+    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 5, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 4, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 4, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [12343, 1, 4, 0.87], [2055, 3, 4, 1.18], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [75, 2, 4, 1.17], [8915, 2, 4, 0.41], [88, 10, 9, 0.82], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.57], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [2422, 80, 4, 1.31], [1050, 2, 4, 0.38], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [378, 2, 4, 1.16], [6098, 29, 4, 1.08], [12346, 1, 4, 0.87], [151, 1, 4, 0.75], [7704, 2, 4, 1.15], [11738, 2, 4, 0.53], [229, 1, 4, 2.0], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [1049, 2, 4, 0.38], [20252, 2, 4, 0.58], [13264, 29, 4, 0.52], [345, 3, 4, 1.26], [13258, 29, 4, 1.26], [1490, 1, 4, 0.47], [12269, 2, 4, 0.51], [964, 15, 4, 0.36], [2438, 1, 4, 1.05], [10407, 10, 6, 1.27], [1163, 3, 5, 0.58], [5208, 3, 5, 0.74], [2331, 1, 4, 0.55], [2821, 3, 10, 0.23], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [13259, 29, 4, 1.13], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [11687, 2, 4, 0.56], [10406, 10, 7, 1.21], [410, 1, 4, 0.71], [3478, 2, 4, 0.57], [7036, 1, 4, 0.43], [9784, 1, 4, 0.91], [20255, 2, 4, 0.4], [8938, 2, 4, 0.58], [21713, 3, 7, 0.46], [12870, 1, 4, 2.33], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [11404, 2, 4, 0.45], [10410, 10, 6, 1.18], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [2438, 2, 5, 1.38], [2703, 3, 4, 2.2], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [21781, 2, 4, 0.47], [22125, 2, 4, 0.36], [11690, 2, 4, 0.36], [2778, 2, 140, 2.81], [6935, 2, 252, 6.0], [6936, 2, 252, 5.81], [305, 2, 132, 3.08], [8672, 2, 259, 3.33], [615, 2, 96, 3.4], [1504, 2, 183, 2.95], [2775, 2, 140, 3.13], [145, 2, 135, 2.84], [2776, 2, 140, 4.5], [8853, 2, 252, 5.13], [2327, 2, 135, 3.26], [12721, 2, 284, 3.49], [130, 1, 53, 2.98], [143, 2, 133, 3.04], [146, 2, 135, 3.13], [2328, 2, 135, 3.53], [11681, 2, 248, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 109, 2.82], [141, 2, 155, 4.16], [362, 2, 128, 2.96], [144, 2, 135, 2.91], [2497, 2, 183, 3.25], [205, 2, 109, 2.64], [8650, 2, 202, 4.44], [5493, 2, 98, 2.97], [417, 2, 139, 3.15], [8676, 2, 259, 2.97], [8673, 2, 260, 5.05], [3670, 2, 235, 5.79], [2774, 2, 183, 6.0], [8648, 2, 225, 5.29], [589, 2, 137, 2.91], [3, 2, 108, 3.09], [206, 2, 98, 2.64], [6097, 80, 61, 5.49], [2423, 29, 37, 4.87], [22247, 2, 255, 3.05], [11836, 2, 269, 2.69], [6497, 1, 27, 2.94], [8674, 2, 259, 3.57], [624, 2, 107, 4.11], [12343, 1, 610, 4.37], [2055, 3, 158, 4.31], [2423, 80, 185, 4.81], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 207, 2.86], [6097, 29, 30, 5.49], [6098, 80, 66, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [75, 2, 144, 3.94], [8915, 2, 129, 2.36], [88, 10, 504, 3.62], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 730, 4.08], [13260, 29, 65, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.83], [21712, 3, 2180, 2.89]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.66], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.44], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.52], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [8675, 2, 4, 0.6], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [8674, 2, 4, 0.49], [11836, 2, 4, 0.2], [6158, 2, 5, 1.33], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [151, 1, 4, 0.75], [12720, 2, 4, 0.82], [2776, 2, 4, 0.75], [10149, 3, 13, 0.39], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 0.94], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 1.11], [410, 1, 4, 0.47], [12526, 2, 4, 0.73], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [2423, 80, 5, 1.25], [12351, 1, 5, 0.61], [2424, 29, 5, 0.55], [378, 2, 4, 1.16], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [12373, 1, 5, 0.45], [13023, 3, 6, 1.51], [201, 3, 4, 1.1], [13034, 3, 5, 1.37], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [5208, 3, 5, 0.54], [345, 3, 4, 0.76], [11770, 1, 4, 0.48], [3, 2, 4, 3.1], [159, 1, 4, 0.73], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [11504, 2, 4, 0.2], [566, 2, 4, 0.5], [13928, 1, 4, 0.45], [11811, 1, 4, 0.38], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.27], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [7004, 1, 4, 0.99], [1490, 1, 4, 1.38], [11089, 1, 4, 0.39], [2703, 3, 4, 2.2], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [10410, 10, 6, 1.18], [94, 4, 4, 1.77], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [6097, 80, 4, 1.86], [22317, 3, 5, 0.52], [9082, 3, 15, 1.25], [141, 2, 156, 3.01], [2328, 2, 135, 3.53], [8650, 2, 201, 4.44], [362, 2, 128, 2.98], [5491, 2, 108, 2.9], [5493, 2, 97, 2.79], [130, 1, 34, 2.98], [589, 2, 137, 2.91], [2327, 2, 135, 3.26], [326, 2, 81, 3.64], [11685, 2, 247, 6.0], [8672, 2, 258, 3.33], [417, 2, 156, 2.82], [6935, 2, 254, 5.82], [205, 2, 109, 2.53], [11681, 2, 247, 5.84], [206, 2, 81, 2.64], [8648, 2, 201, 4.32], [6936, 2, 254, 5.23], [142, 2, 140, 3.03], [11837, 2, 269, 2.79], [12721, 2, 255, 3.19], [11838, 2, 242, 3.09], [2049, 3, 495, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 132, 3.08], [616, 2, 107, 4.15], [413, 1, 77, 3.05], [412, 1, 75, 3.02], [411, 2, 109, 2.74], [11739, 2, 57, 3.69], [10574, 3, 450, 4.6], [11835, 2, 269, 2.79], [145, 2, 135, 2.84], [8675, 2, 287, 3.21], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [8674, 2, 287, 3.25], [11836, 2, 242, 2.89], [6158, 2, 260, 4.44], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [151, 1, 33, 2.81], [12720, 2, 284, 3.48], [2776, 2, 157, 3.16], [10149, 3, 872, 3.26], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 40, 2.38], [22316, 3, 286, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6], [7084, 3, 116, 3.92]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.92], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 1.06], [144, 2, 4, 0.49], [345, 3, 5, 0.44], [10149, 3, 17, 1.82], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.45], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 4, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [11234, 2, 4, 0.2], [7084, 3, 4, 0.36], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [10825, 21, 8, 1.34], [12870, 1, 4, 1.54], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.46], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [94, 4, 4, 1.24], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [12349, 1, 4, 1.63], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [12350, 1, 4, 0.62], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [2049, 1, 4, 0.2], [7567, 3, 4, 1.11], [20927, 1, 4, 0.2], [126, 2, 4, 0.93], [346, 3, 5, 0.19], [3980, 4, 4, 1.31], [1703, 2, 4, 0.41], [8274, 3, 4, 0.39], [9691, 1, 4, 1.09], [35, 1, 4, 0.48], [5209, 3, 4, 0.19], [1070, 7, 10, 0.2], [997, 2, 4, 1.03], [5584, 3, 4, 1.74], [11811, 1, 4, 1.0], [1519, 3, 10, 0.4], [11914, 1, 5, 0.5], [5660, 2, 5, 0.9], [856, 1, 4, 0.38], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.44], [8926, 1, 4, 1.35], [523, 2, 4, 0.63], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [9081, 3, 7, 1.8], [13034, 3, 5, 0.66], [20255, 2, 5, 0.2], [307, 2, 4, 1.14], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 235, 4.09], [2049, 3, 450, 1.94], [362, 2, 131, 2.84], [589, 2, 142, 1.93], [75, 2, 121, 1.98], [141, 2, 143, 3.4], [1776, 1, 90, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 130, 2.06], [8672, 2, 235, 2.17], [6936, 2, 235, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 121, 2.18], [206, 2, 90, 1.99], [151, 1, 54, 1.63], [8648, 2, 186, 3.41], [1777, 1, 90, 3.67], [2328, 2, 126, 1.92], [88, 10, 463, 2.3], [11681, 2, 227, 5.43], [990, 2, 43, 2.16], [8650, 2, 186, 3.43], [412, 1, 69, 2.41], [5151, 2, 19, 3.62], [2050, 3, 433, 3.55], [76, 2, 90, 3.12], [144, 2, 139, 2.06], [345, 3, 248, 2.01], [10149, 3, 715, 4.79], [2991, 3, 133, 4.91], [22247, 2, 234, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 125, 2.18], [7004, 1, 65, 1.93], [45, 2, 90, 4.21], [2054, 3, 389, 2.21], [143, 2, 122, 2.11], [417, 2, 143, 3.4], [413, 1, 79, 3.28], [21793, 1, 196, 2.1], [167, 3, 188, 2.16], [201, 3, 248, 1.94], [74, 1, 163, 3.73], [1446, 2, 126, 3.18], [346, 1, 131, 2.05], [2055, 3, 389, 2.18], [168, 3, 339, 2.77], [10, 2, 97, 2.76], [11234, 2, 153, 2.04], [7084, 3, 107, 1.93], [1429, 2, 126, 2.47], [7036, 1, 105, 3.84], [12721, 2, 234, 2.13], [3495, 3, 797, 2.2], [5081, 2, 177, 1.96], [8649, 2, 186, 3.64], [308, 1, 139, 3.98], [13028, 3, 122, 2.14], [10825, 21, 575, 3.62], [12870, 1, 113, 3.19], [79, 1, 44, 1.85], [1492, 1, 30, 3.25], [96, 11, 784, 1.97]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [3840, 1, 5, 0.29], [151, 1, 4, 0.75], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [1504, 2, 4, 0.93], [12224, 1, 4, 0.46], [624, 2, 4, 1.1], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [2057, 3, 4, 0.46], [75, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [5208, 3, 5, 0.19], [8649, 2, 4, 1.53], [3889, 1, 4, 0.35], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [11234, 2, 4, 0.75], [10993, 2, 4, 0.7], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.2], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [998, 2, 4, 1.0], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [1886, 2, 4, 0.2], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [3, 2, 4, 0.62], [346, 3, 5, 0.19], [229, 1, 4, 0.47], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5076, 1, 4, 0.71], [7887, 4, 4, 0.47], [12345, 1, 4, 0.66], [20252, 2, 4, 0.38], [126, 2, 4, 1.27], [11953, 1, 4, 0.46], [74, 1, 4, 1.97], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [11685, 2, 5, 1.33], [1492, 1, 4, 0.2], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [2774, 2, 4, 0.63], [20256, 2, 4, 0.2], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9081, 3, 7, 0.48], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 4, 0.75], [6497, 1, 4, 0.63], [12343, 1, 4, 0.66], [12229, 2, 4, 0.47], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 7, 1.55], [11179, 1, 4, 0.45], [6496, 1, 4, 1.89], [22317, 3, 4, 0.6], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [3900, 3, 4, 1.76], [2805, 137, 4, 0.89], [8898, 3, 5, 1.44], [12526, 2, 4, 0.71], [11812, 1, 4, 0.2], [2424, 29, 4, 0.55], [3975, 4, 5, 1.21], [4253, 1, 4, 0.54], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [88, 10, 490, 3.94], [2327, 2, 132, 2.93], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [2778, 2, 137, 2.92], [6935, 2, 244, 6.0], [2328, 2, 132, 3.05], [5493, 2, 104, 3.91], [305, 2, 128, 2.8], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [6936, 2, 244, 5.39], [326, 2, 77, 4.1], [8650, 2, 196, 3.45], [8648, 2, 196, 3.91], [1446, 2, 134, 3.2], [2049, 3, 360, 2.34], [10, 2, 91, 2.65], [143, 2, 130, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 95, 2.77], [5491, 2, 93, 3.05], [2775, 2, 137, 2.92], [7036, 1, 113, 4.28], [3840, 1, 150, 3.43], [151, 1, 32, 2.69], [94, 4, 105, 4.77], [434, 2, 93, 2.69], [8938, 2, 125, 2.43], [990, 2, 19, 2.69], [3893, 1, 109, 2.96], [146, 2, 132, 3.02], [8853, 2, 272, 5.15], [1504, 2, 180, 3.69], [12224, 1, 162, 2.49], [624, 2, 104, 3.83], [1429, 2, 134, 2.89], [3891, 1, 109, 2.96], [2776, 2, 137, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 124, 2.89], [141, 2, 136, 2.69], [2057, 3, 314, 2.32], [75, 2, 126, 2.69], [11681, 2, 234, 5.43], [11404, 2, 92, 3.15], [5208, 3, 493, 2.87], [8649, 2, 218, 4.79], [3889, 1, 122, 2.29], [1007, 2, 264, 2.49], [11234, 2, 161, 3.27], [10993, 2, 54, 2.93], [7886, 4, 70, 2.16], [12870, 1, 121, 3.3], [21793, 1, 208, 2.89], [10149, 3, 763, 3.88], [3980, 4, 365, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 132, 2.92], [7084, 3, 127, 3.22], [11811, 1, 402, 2.78], [8672, 2, 247, 4.92], [20927, 1, 34, 2.64], [998, 2, 208, 4.81]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.2], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [151, 1, 4, 0.46], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.48], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 5, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.49], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [4032, 29, 4, 0.47], [418, 2, 4, 0.72], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [12304, 1, 4, 0.2], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [972, 3, 5, 0.46], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [13034, 3, 4, 1.31], [2424, 29, 4, 0.41], [11426, 25, 4, 0.58], [3, 2, 4, 0.55], [11737, 2, 4, 0.5], [5076, 1, 4, 0.63], [11767, 1, 4, 0.48], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [8677, 3, 5, 1.11], [75, 2, 4, 0.37], [11586, 1, 7, 1.42], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [9998, 80, 4, 0.81], [2438, 2, 5, 1.05], [12526, 2, 4, 0.48], [6935, 2, 212, 5.03], [141, 2, 119, 2.71], [589, 2, 118, 2.6], [2778, 2, 119, 2.86], [6936, 2, 212, 5.43], [8648, 2, 171, 3.75], [362, 2, 108, 2.52], [2327, 2, 129, 3.24], [11681, 2, 208, 4.91], [8650, 2, 171, 3.23], [326, 2, 78, 2.83], [205, 2, 84, 2.22], [2328, 2, 116, 2.74], [1446, 2, 118, 3.11], [305, 2, 113, 3.31], [130, 1, 45, 1.55], [8649, 2, 171, 3.7], [2775, 2, 119, 2.86], [8853, 2, 212, 4.93], [361, 2, 119, 2.6], [2776, 2, 119, 2.86], [593, 2, 177, 2.55], [143, 2, 114, 3.07], [140, 2, 78, 2.83], [1429, 2, 118, 3.41], [206, 2, 84, 2.51], [5493, 2, 83, 2.55], [523, 2, 119, 2.68], [7004, 1, 68, 2.72], [413, 1, 66, 2.92], [7036, 1, 99, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 482, 2.38], [151, 1, 57, 2.33], [1124, 2, 161, 2.69], [990, 2, 40, 2.5], [12353, 1, 482, 2.43], [5165, 1, 26, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 119, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 42, 2.08], [434, 2, 82, 2.58], [201, 3, 231, 2.55], [142, 2, 119, 2.56], [6097, 80, 54, 5.58], [11770, 1, 189, 2.22], [6952, 1, 145, 4.06], [2055, 3, 410, 2.91], [345, 3, 231, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 99, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 482, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.32], [10574, 3, 392, 3.24], [1886, 2, 135, 2.08]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.97], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 9, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3840, 1, 4, 0.39], [3891, 1, 5, 0.2], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [990, 2, 4, 0.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8649, 2, 4, 1.53], [362, 2, 4, 0.85], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [3495, 3, 13, 0.85], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [7084, 3, 4, 0.58], [2991, 3, 4, 1.1], [7005, 1, 4, 0.94], [10149, 3, 13, 0.39], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [5165, 2, 5, 1.11], [417, 2, 4, 0.54], [2912, 1, 4, 0.2], [3982, 3, 11, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [74, 1, 4, 1.16], [2912, 2, 5, 0.47], [389, 4, 5, 0.38], [6496, 1, 4, 0.47], [35, 1, 4, 0.57], [7567, 3, 5, 1.15], [411, 2, 4, 1.0], [12721, 2, 4, 0.99], [1413, 15, 4, 0.2], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [21269, 3, 4, 2.24], [8676, 2, 4, 1.7], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [11085, 2, 5, 1.27], [12526, 2, 4, 1.08], [9784, 1, 4, 0.47], [1274, 1, 4, 0.23], [6494, 1, 5, 0.29], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [345, 3, 4, 1.31], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [96, 11, 12, 0.38], [3577, 25, 4, 0.48], [9, 1, 4, 0.36], [10408, 10, 5, 1.37], [6935, 2, 214, 5.9], [615, 2, 91, 4.78], [2778, 2, 121, 2.77], [305, 2, 113, 2.58], [5493, 2, 91, 4.44], [6936, 2, 214, 5.92], [130, 1, 27, 2.58], [205, 2, 84, 2.69], [616, 2, 91, 4.41], [1504, 2, 156, 2.75], [144, 2, 117, 4.4], [8648, 2, 174, 2.99], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [8915, 2, 65, 4.29], [326, 2, 70, 3.57], [7036, 1, 99, 3.83], [8650, 2, 174, 2.75], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [11681, 2, 212, 5.01], [8853, 2, 214, 5.93], [141, 2, 119, 2.6], [2775, 2, 121, 2.77], [206, 2, 84, 2.55], [151, 1, 58, 2.7], [7004, 1, 61, 2.36], [248, 1, 47, 2.25], [11685, 2, 212, 5.4], [3840, 1, 150, 2.17], [3891, 1, 97, 2.88], [2328, 2, 117, 2.62], [2050, 3, 356, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.89], [143, 2, 115, 2.77], [434, 2, 56, 2.07], [3980, 4, 374, 4.07], [990, 2, 40, 2.77], [2054, 3, 356, 2.34], [624, 2, 91, 5.38], [8649, 2, 194, 4.25], [362, 2, 109, 3.27], [2776, 2, 121, 3.86], [12870, 1, 117, 5.16], [2057, 3, 356, 2.34], [12350, 1, 543, 2.67], [7886, 4, 43, 2.23], [10574, 3, 393, 4.07], [5165, 1, 26, 3.74], [1006, 2, 197, 2.83], [1446, 2, 117, 2.62], [3495, 3, 832, 2.92], [94, 4, 93, 5.25], [75, 2, 112, 3.52], [523, 2, 119, 2.64], [7084, 3, 58, 2.79], [2991, 3, 125, 5.99], [7005, 1, 68, 3.18], [10149, 3, 752, 2.93], [3975, 4, 374, 4.2], [21793, 1, 174, 5.26], [9760, 29, 55, 2.5], [11404, 2, 46, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 0.67], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 5, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [11838, 2, 4, 0.57], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 5, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 5, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [88, 10, 9, 0.82], [434, 2, 4, 0.73], [2776, 2, 4, 0.41], [142, 2, 4, 0.2], [151, 1, 4, 0.75], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 1.96], [11836, 2, 4, 0.2], [7705, 2, 4, 1.08], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [378, 2, 4, 2.48], [7706, 2, 4, 1.08], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [10149, 3, 13, 1.12], [3478, 2, 4, 1.07], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [307, 2, 4, 1.5], [2774, 2, 4, 0.55], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [7004, 1, 4, 1.02], [418, 2, 4, 0.81], [13928, 1, 4, 0.2], [411, 2, 4, 0.5], [11089, 1, 4, 0.39], [2057, 3, 4, 0.4], [413, 1, 4, 0.54], [11844, 2, 5, 0.2], [14037, 3, 4, 0.96], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [2050, 3, 4, 0.4], [3893, 1, 5, 0.44], [13260, 29, 4, 0.67], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [6494, 1, 4, 0.46], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [11490, 1, 4, 0.47], [1413, 16, 4, 0.39], [414, 1, 4, 0.66], [7708, 2, 4, 1.15], [1243, 2, 5, 0.2], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [565, 2, 4, 0.46], [5208, 3, 5, 0.97], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [11491, 2, 4, 0.81], [21793, 1, 4, 0.95], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [410, 1, 4, 0.4], [2422, 80, 4, 1.75], [11504, 2, 4, 0.72], [6098, 80, 4, 1.14], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3430, 15, 4, 1.23], [147, 1, 4, 0.52], [3674, 2, 4, 0.52], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6098, 29, 4, 1.19], [8635, 3, 4, 0.89], [6935, 2, 253, 6.0], [305, 2, 132, 3.08], [2328, 2, 135, 3.53], [130, 1, 53, 2.48], [141, 2, 140, 2.84], [2778, 2, 156, 3.07], [8650, 2, 201, 4.37], [5491, 2, 106, 4.31], [2327, 2, 135, 3.26], [8672, 2, 258, 3.33], [6936, 2, 253, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 135, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 135, 3.13], [417, 2, 140, 3.05], [589, 2, 59, 2.91], [75, 2, 145, 3.42], [11737, 2, 57, 2.97], [11838, 2, 269, 2.83], [1124, 2, 168, 2.98], [523, 2, 140, 3.36], [8648, 2, 201, 4.01], [8853, 2, 253, 4.82], [12721, 2, 255, 3.19], [615, 2, 108, 4.14], [326, 2, 81, 3.64], [206, 2, 41, 2.64], [8915, 2, 171, 2.87], [8673, 2, 260, 5.05], [144, 2, 135, 2.91], [11739, 2, 57, 2.97], [88, 10, 504, 3.62], [434, 2, 107, 3.23], [2776, 2, 140, 3.77], [142, 2, 140, 3.16], [151, 1, 33, 2.81], [8676, 2, 258, 2.97], [6158, 2, 235, 2.82], [2424, 29, 24, 2.67], [8649, 2, 201, 3.38], [2423, 29, 32, 4.52], [11738, 2, 57, 2.97], [2497, 2, 184, 3.11], [7704, 2, 158, 3.18], [2424, 80, 153, 3.11], [10574, 3, 450, 4.6], [2423, 80, 162, 4.41], [3670, 2, 212, 5.55], [11836, 2, 242, 2.89], [7705, 2, 158, 3.18], [2054, 3, 473, 3.89], [3, 2, 108, 2.9], [2859, 15, 62, 3.48], [412, 1, 74, 3.17], [378, 2, 224, 6.0], [7706, 2, 158, 3.18], [12720, 2, 255, 2.99], [22316, 3, 318, 2.64], [2055, 3, 425, 2.76], [12344, 1, 620, 2.67], [10149, 3, 866, 4.0], [3478, 2, 43, 4.08], [74, 1, 180, 5.0], [3429, 15, 53, 2.63]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 5, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [88, 10, 8, 1.09], [7886, 4, 5, 0.39], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.47], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.38], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.44], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 5, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [21269, 3, 4, 1.0], [998, 2, 4, 0.97], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [14017, 3, 4, 0.44], [823, 1, 4, 0.84], [34, 1, 4, 1.26], [5209, 3, 4, 0.54], [972, 3, 5, 0.85], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [1091, 1, 4, 0.61], [8672, 2, 193, 4.11], [305, 2, 97, 3.11], [3, 2, 81, 3.34], [6935, 2, 216, 4.9], [205, 2, 83, 2.52], [143, 2, 98, 3.77], [144, 2, 100, 4.38], [75, 2, 112, 2.56], [12721, 2, 216, 2.64], [145, 2, 100, 3.97], [8915, 2, 148, 2.53], [2778, 2, 119, 2.63], [1776, 1, 72, 1.98], [146, 2, 100, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 216, 4.39], [1777, 1, 82, 3.8], [8648, 2, 171, 3.3], [151, 1, 46, 1.81], [2328, 2, 115, 3.01], [8650, 2, 171, 3.51], [5151, 2, 18, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [88, 10, 428, 4.1], [7886, 4, 79, 2.38], [9507, 3, 86, 1.53], [74, 1, 153, 3.13], [1446, 2, 117, 3.67], [2991, 3, 124, 5.3], [362, 2, 108, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.17], [1492, 1, 26, 2.52], [1007, 2, 207, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 82, 3.03], [8649, 2, 171, 3.59], [3889, 1, 106, 2.11], [11234, 2, 141, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.01], [345, 3, 226, 2.53], [10, 2, 81, 3.33], [1429, 2, 117, 3.12], [307, 2, 112, 3.95], [10825, 21, 477, 2.64], [5081, 2, 144, 2.66], [12870, 1, 104, 2.86], [57, 1, 73, 2.11], [10149, 3, 666, 2.87], [7036, 1, 98, 3.26], [3478, 2, 64, 2.3], [7084, 3, 98, 3.26], [1006, 2, 175, 2.7], [1504, 2, 157, 2.66], [3891, 1, 95, 3.37], [21793, 1, 202, 4.74], [94, 4, 91, 4.72], [167, 3, 172, 3.03], [411, 2, 83, 2.52], [9827, 3, 67, 2.54], [3893, 1, 95, 2.31], [79, 1, 41, 2.38], [33, 1, 85, 3.19]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 8, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [151, 1, 4, 0.48], [362, 2, 4, 0.2], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 4, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [88, 10, 9, 1.09], [22247, 2, 4, 0.78], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [10, 2, 5, 0.41], [8677, 3, 6, 1.56], [2054, 3, 4, 1.44], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 4, 0.47], [147, 1, 4, 0.52], [1492, 1, 4, 0.58], [5081, 2, 4, 0.44], [140, 2, 5, 0.63], [167, 3, 4, 0.75], [7005, 1, 4, 0.36], [7036, 1, 4, 0.61], [9827, 3, 4, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [5812, 3, 5, 2.01], [13280, 1, 4, 1.47], [168, 3, 5, 0.29], [1504, 2, 4, 0.2], [12870, 1, 5, 0.54], [57, 1, 4, 0.38], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [8853, 2, 5, 1.07], [6097, 29, 4, 1.14], [8939, 2, 4, 0.2], [416, 1, 4, 1.21], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [490, 1, 4, 1.05], [1490, 1, 5, 0.2], [998, 2, 4, 1.06], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [95, 3, 16, 0.19], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [1243, 2, 4, 0.53], [8898, 3, 5, 1.36], [1126, 2, 4, 0.39], [149, 2, 4, 0.52], [126, 2, 4, 1.43], [13034, 3, 5, 0.66], [997, 2, 4, 1.09], [9760, 29, 4, 0.45], [20498, 1, 5, 0.8], [20255, 2, 5, 0.2], [5086, 1, 4, 0.71], [5513, 2, 4, 0.46], [12924, 1, 5, 0.2], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [22317, 3, 6, 0.51], [11739, 2, 4, 0.2], [13260, 29, 4, 0.54], [7567, 3, 4, 1.66], [974, 3, 4, 0.88], [1413, 15, 4, 0.33], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [229, 1, 4, 1.05], [972, 3, 5, 0.81], [5813, 3, 5, 1.08], [8557, 3, 4, 0.2], [192, 3, 11, 1.1], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [9691, 1, 4, 1.0], [20498, 3, 5, 0.86], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [1622, 1, 5, 0.38], [11454, 2, 6, 1.6], [2775, 2, 5, 0.2], [8672, 2, 235, 2.23], [305, 2, 121, 2.31], [2049, 3, 450, 1.94], [6935, 2, 235, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 125, 1.93], [589, 2, 127, 2.26], [151, 1, 54, 2.16], [362, 2, 117, 2.1], [12721, 2, 234, 2.25], [146, 2, 125, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 90, 1.99], [2328, 2, 126, 2.62], [8915, 2, 161, 2.05], [143, 2, 122, 2.33], [990, 2, 43, 2.66], [6936, 2, 235, 4.51], [20252, 2, 86, 2.06], [8650, 2, 186, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 130, 2.06], [248, 1, 45, 1.0], [88, 10, 463, 3.28], [22247, 2, 234, 3.12], [2050, 3, 389, 1.95], [76, 2, 90, 2.63], [8649, 2, 186, 3.51], [10149, 3, 715, 4.79], [10, 2, 87, 2.92], [8677, 3, 243, 4.35], [2054, 3, 324, 5.02], [412, 1, 69, 2.41], [2055, 3, 324, 5.02], [13028, 3, 136, 2.54], [413, 1, 71, 2.36], [7004, 1, 65, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 227, 5.53], [1446, 2, 126, 3.18], [7084, 3, 107, 1.93], [307, 2, 122, 2.12], [3478, 2, 69, 3.31], [1429, 2, 126, 2.47], [3495, 3, 797, 2.89], [1006, 2, 189, 2.13], [147, 1, 80, 3.88], [1492, 1, 30, 3.25], [5081, 2, 177, 1.96], [140, 2, 75, 2.75], [167, 3, 188, 2.64], [7005, 1, 65, 1.93], [7036, 1, 105, 2.39], [9827, 3, 72, 2.15], [45, 2, 90, 4.21], [8676, 2, 235, 2.21], [1124, 2, 153, 2.07], [2049, 1, 21, 2.85], [94, 4, 99, 4.73], [5812, 3, 543, 4.52], [13280, 1, 261, 3.97], [168, 3, 339, 2.73], [1504, 2, 170, 2.1]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [130, 1, 4, 0.2], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [11681, 2, 4, 1.35], [6936, 2, 4, 1.18], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [2778, 2, 5, 0.2], [206, 2, 4, 0.46], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [248, 1, 4, 0.43], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.75], [11737, 2, 5, 0.2], [990, 2, 4, 0.2], [417, 2, 4, 0.54], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12870, 1, 4, 0.92], [12353, 1, 5, 0.19], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [10574, 3, 6, 1.36], [3, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [9760, 29, 4, 0.2], [624, 2, 4, 1.35], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [21793, 1, 4, 2.3], [3891, 1, 4, 0.53], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [96, 11, 13, 0.38], [11739, 2, 4, 0.59], [6158, 2, 4, 0.2], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [1126, 2, 4, 0.58], [9372, 1, 4, 1.7], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [5165, 1, 4, 0.58], [2912, 1, 4, 0.2], [8898, 3, 4, 3.33], [413, 1, 4, 1.01], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [9491, 21, 10, 1.07], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 5, 0.2], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [22247, 2, 4, 1.23], [412, 1, 4, 0.2], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [308, 1, 4, 0.91], [432, 3, 5, 0.47], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 1.07], [148, 1, 4, 0.55], [20256, 2, 4, 0.44], [10407, 10, 6, 1.44], [22317, 3, 5, 0.51], [1413, 15, 4, 0.45], [10410, 10, 6, 1.64], [10780, 10, 4, 1.52], [13286, 1, 4, 1.32], [415, 1, 4, 0.66], [439, 1, 4, 1.15], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [7573, 1, 5, 1.45], [11767, 1, 4, 0.5], [12347, 1, 4, 0.19], [972, 1, 4, 1.51], [10387, 2, 4, 0.95], [10149, 3, 13, 0.39], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9690, 1, 4, 0.76], [9971, 2, 4, 1.44], [11685, 2, 212, 5.4], [6935, 2, 214, 5.9], [130, 1, 45, 2.58], [326, 2, 40, 3.57], [8648, 2, 174, 2.99], [144, 2, 117, 4.4], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [143, 2, 115, 2.77], [205, 2, 84, 2.69], [8915, 2, 65, 4.29], [2328, 2, 117, 2.62], [11681, 2, 212, 5.01], [6936, 2, 214, 5.92], [305, 2, 113, 2.58], [151, 1, 58, 2.7], [8650, 2, 174, 2.75], [141, 2, 119, 2.6], [2778, 2, 121, 2.77], [206, 2, 84, 2.55], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [615, 2, 91, 4.78], [7036, 1, 99, 3.83], [8853, 2, 214, 5.93], [8649, 2, 174, 2.58], [5491, 2, 81, 2.57], [248, 1, 47, 2.25], [434, 2, 56, 2.07], [1006, 2, 177, 2.63], [75, 2, 112, 3.52], [2055, 3, 396, 4.89], [11737, 2, 45, 2.79], [990, 2, 32, 2.77], [417, 2, 133, 2.43], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 356, 2.34], [1007, 2, 207, 2.65], [12870, 1, 117, 5.16], [12353, 1, 488, 4.47], [523, 2, 119, 2.64], [1504, 2, 156, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 356, 2.34], [13280, 1, 246, 5.48], [10574, 3, 393, 4.07], [3, 2, 95, 2.52], [142, 2, 133, 2.39], [12346, 1, 488, 4.15], [7084, 3, 58, 2.79], [9760, 29, 55, 2.5], [624, 2, 91, 5.38], [2054, 3, 356, 2.34], [140, 2, 78, 3.15], [2775, 2, 121, 2.77], [21793, 1, 174, 5.26], [3891, 1, 108, 2.43], [8939, 2, 150, 2.61], [1429, 2, 117, 2.59], [96, 11, 374, 2.81], [11739, 2, 45, 2.79], [6158, 2, 204, 2.54], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 52, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.66], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.36], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.75], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [411, 2, 4, 0.47], [12352, 1, 4, 1.38], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [8674, 2, 5, 0.63], [583, 2, 4, 1.31], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11738, 2, 4, 0.43], [11836, 2, 4, 0.53], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [6097, 29, 5, 0.64], [413, 1, 4, 0.97], [2057, 3, 4, 1.0], [2055, 3, 4, 1.18], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [12344, 1, 4, 1.38], [1413, 15, 4, 0.2], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [3429, 15, 4, 0.46], [247, 1, 4, 0.8], [22316, 3, 4, 0.46], [1886, 2, 4, 0.2], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.73], [8599, 1, 4, 0.49], [8938, 2, 4, 0.58], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [94, 4, 4, 1.76], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [947, 15, 4, 0.39], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [11671, 1, 4, 0.45], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [5813, 3, 5, 1.1], [23920, 2, 4, 0.46], [11954, 1, 4, 0.42], [308, 1, 5, 0.79], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [22573, 2, 4, 0.39], [8672, 2, 258, 3.11], [141, 2, 156, 3.01], [362, 2, 127, 2.98], [361, 2, 140, 3.1], [6935, 2, 253, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 65, 2.62], [2049, 3, 313, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 140, 3.15], [3, 2, 109, 3.03], [6936, 2, 253, 4.65], [305, 2, 132, 3.08], [151, 1, 33, 2.81], [523, 2, 140, 3.23], [22247, 2, 285, 3.62], [8650, 2, 202, 4.44], [142, 2, 156, 2.68], [8648, 2, 202, 4.32], [2328, 2, 135, 3.53], [2776, 2, 142, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 135, 3.26], [11837, 2, 268, 2.61], [411, 2, 110, 2.65], [12352, 1, 607, 4.89], [589, 2, 59, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 241, 3.11], [412, 1, 74, 3.02], [12353, 1, 607, 4.89], [6497, 1, 34, 3.94], [8674, 2, 258, 3.28], [583, 2, 30, 3.93], [145, 2, 151, 2.69], [2805, 137, 166, 3.7], [326, 2, 30, 3.62], [10574, 3, 450, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 61, 5.49], [11738, 2, 57, 3.01], [11836, 2, 268, 2.76], [9784, 1, 64, 3.01], [10149, 3, 906, 2.65], [6097, 29, 30, 5.49], [413, 1, 77, 2.97], [2057, 3, 158, 4.31], [2055, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [12344, 1, 607, 4.33], [1413, 15, 90, 3.0], [20252, 2, 94, 2.66], [11504, 2, 127, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 77, 3.01], [1492, 1, 37, 2.92], [6098, 80, 66, 4.03], [12346, 1, 607, 4.89]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.75], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [2057, 3, 4, 0.46], [9372, 1, 4, 1.97], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [2912, 1, 4, 0.48], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [10993, 2, 5, 0.2], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.65], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.56], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [1886, 2, 4, 0.2], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [229, 1, 4, 0.47], [11811, 1, 4, 0.2], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [94, 4, 4, 1.91], [998, 2, 5, 1.0], [972, 3, 5, 0.51], [2912, 2, 7, 0.2], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [412, 1, 4, 0.43], [5209, 3, 4, 0.19], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [7887, 4, 4, 0.94], [12212, 29, 4, 0.2], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 1.02], [9784, 1, 4, 0.52], [84, 2, 5, 0.47], [13928, 2, 4, 0.7], [126, 2, 4, 1.27], [411, 2, 4, 0.39], [11739, 2, 4, 1.42], [3048, 3, 4, 1.15], [9691, 1, 4, 0.57], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [11954, 1, 4, 0.38], [7567, 3, 5, 1.16], [2327, 2, 132, 2.93], [305, 2, 128, 2.8], [6935, 2, 244, 6.0], [2778, 2, 137, 2.92], [144, 2, 132, 4.54], [130, 1, 43, 2.86], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [143, 2, 130, 3.03], [2328, 2, 147, 3.37], [6936, 2, 244, 5.39], [8648, 2, 196, 3.91], [2775, 2, 137, 2.92], [205, 2, 95, 2.77], [8650, 2, 196, 3.45], [326, 2, 77, 4.1], [593, 2, 223, 2.53], [146, 2, 132, 3.02], [145, 2, 132, 2.92], [7036, 1, 113, 4.28], [2049, 3, 360, 2.34], [2776, 2, 137, 3.16], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [88, 10, 490, 3.94], [141, 2, 136, 2.69], [151, 1, 32, 2.69], [1124, 2, 182, 3.1], [11681, 2, 234, 5.43], [206, 2, 106, 2.39], [1446, 2, 134, 3.2], [9760, 29, 63, 2.66], [8853, 2, 244, 5.48], [990, 2, 45, 2.69], [5491, 2, 93, 3.05], [1007, 2, 264, 2.49], [362, 2, 124, 2.89], [8672, 2, 247, 4.92], [1504, 2, 180, 3.69], [2055, 3, 314, 2.32], [2057, 3, 314, 2.32], [9372, 1, 201, 5.58], [3893, 1, 109, 2.96], [8649, 2, 196, 3.26], [2912, 1, 48, 2.53], [8938, 2, 125, 2.43], [434, 2, 93, 2.69], [12870, 1, 121, 3.3], [10993, 2, 40, 2.81], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 136, 2.76], [3889, 1, 122, 2.29], [5165, 1, 32, 3.97], [1429, 2, 134, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 141, 5.62], [140, 2, 77, 4.1], [3891, 1, 109, 2.96], [1006, 2, 200, 2.97], [7886, 4, 83, 2.24], [10574, 3, 278, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 493, 2.87]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 11, 0.9], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.98], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.14], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.08], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [12343, 1, 7, 2.59], [2055, 3, 7, 3.23], [2423, 80, 7, 3.02], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [75, 2, 7, 2.15], [8915, 2, 7, 0.75], [88, 10, 14, 2.0], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 1.04], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [2422, 80, 7, 2.41], [1050, 2, 7, 0.7], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [378, 2, 9, 2.87], [6098, 29, 7, 2.08], [12346, 1, 7, 2.59], [151, 1, 7, 1.38], [7704, 2, 7, 2.28], [11738, 2, 7, 1.32], [229, 1, 7, 3.68], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [1049, 2, 7, 0.7], [20252, 2, 7, 1.06], [13264, 29, 7, 0.95], [345, 3, 7, 2.32], [13258, 29, 9, 2.97], [1490, 1, 7, 0.87], [12269, 2, 7, 0.93], [964, 15, 7, 0.66], [2438, 1, 7, 2.08], [10407, 10, 10, 2.2], [1163, 3, 7, 2.25], [5208, 3, 9, 1.41], [2331, 1, 7, 1.02], [2821, 3, 12, 1.27], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [13259, 29, 7, 2.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [11687, 2, 7, 1.02], [10406, 10, 12, 2.42], [410, 1, 7, 1.3], [3478, 2, 9, 1.47], [7036, 1, 7, 0.87], [9784, 1, 7, 1.67], [20255, 2, 7, 1.14], [8938, 2, 7, 1.07], [21713, 3, 13, 0.88], [12870, 1, 7, 4.46], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [11402, 1, 7, 0.85], [11404, 2, 7, 0.83], [10410, 10, 10, 2.08], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [2438, 2, 8, 2.38], [2703, 3, 7, 4.05], [1886, 2, 7, 0.65], [19687, 1, 7, 2.23], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [21781, 2, 7, 0.86], [22125, 2, 7, 0.66], [11690, 2, 7, 0.66], [412, 1, 74, 3.02], [2422, 80, 187, 4.2], [1050, 2, 38, 1.78], [10149, 3, 866, 4.0], [2422, 29, 33, 5.41], [378, 2, 202, 4.24], [6098, 29, 33, 3.97], [12346, 1, 610, 4.37], [151, 1, 33, 2.81], [7704, 2, 176, 4.07], [11738, 2, 56, 3.11], [229, 1, 81, 5.47], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [1049, 2, 38, 1.78], [20252, 2, 92, 2.85], [13264, 29, 73, 2.74], [345, 3, 297, 4.1], [13258, 29, 39, 4.76], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [10407, 10, 1201, 4.0], [1163, 3, 114, 3.33], [5208, 3, 561, 3.2], [2331, 1, 119, 2.8], [2821, 3, 746, 3.36], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [13259, 29, 35, 4.73], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [11687, 2, 303, 2.8], [10406, 10, 1784, 4.24], [410, 1, 105, 3.09], [3478, 2, 67, 4.08], [7036, 1, 127, 2.65], [9784, 1, 72, 3.46], [20255, 2, 93, 2.93], [8938, 2, 192, 2.86], [21713, 3, 1121, 2.67], [12870, 1, 137, 6.0], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [11402, 1, 45, 2.64], [11404, 2, 105, 2.62], [10410, 10, 1201, 3.88], [11161, 1, 491, 5.57], [956, 2, 107, 2.75], [2438, 2, 643, 4.17], [2703, 3, 300, 5.84], [1886, 2, 158, 2.44], [19687, 1, 30, 4.02], [11490, 1, 98, 2.9], [107, 7, 239, 4.24], [21781, 2, 104, 2.65], [22125, 2, 63, 2.44], [11690, 2, 303, 2.44]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 1.22], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.85], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.03], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.95], [11739, 2, 7, 1.9], [10574, 3, 9, 2.49], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [8675, 2, 9, 1.42], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [8674, 2, 7, 1.46], [11836, 2, 9, 0.79], [6158, 2, 9, 2.65], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [151, 1, 7, 1.38], [12720, 2, 7, 1.69], [2776, 2, 7, 1.37], [10149, 3, 21, 1.48], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 1.81], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 3.14], [410, 1, 7, 0.87], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [2423, 80, 7, 2.8], [12351, 1, 7, 1.63], [2424, 29, 9, 1.09], [378, 2, 7, 2.23], [2423, 29, 7, 3.08], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [12373, 1, 11, 1.47], [13023, 3, 10, 2.63], [201, 3, 7, 2.12], [13034, 3, 8, 2.37], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [5208, 3, 9, 1.01], [345, 3, 7, 1.4], [11770, 1, 7, 0.89], [3, 2, 7, 5.0], [159, 1, 7, 1.33], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [11504, 2, 7, 0.67], [566, 2, 7, 0.92], [13928, 1, 7, 0.82], [11811, 1, 7, 1.93], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.2], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [7004, 1, 7, 1.91], [1490, 1, 7, 3.38], [11089, 1, 7, 0.71], [2703, 3, 7, 4.05], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [10410, 10, 10, 2.08], [94, 4, 7, 4.17], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [6097, 80, 7, 3.42], [22317, 3, 8, 0.88], [9082, 3, 24, 2.42], [418, 2, 128, 2.79], [10993, 2, 49, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [410, 1, 53, 2.3], [12526, 2, 273, 4.56], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [2423, 80, 166, 4.41], [12351, 1, 560, 3.26], [2424, 29, 30, 3.17], [378, 2, 201, 4.24], [2423, 29, 37, 4.87], [12345, 1, 560, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [12373, 1, 533, 3.26], [13023, 3, 592, 4.42], [201, 3, 268, 3.21], [13034, 3, 592, 4.16], [1519, 3, 561, 1.77], [11489, 1, 109, 2.47], [5208, 3, 563, 2.79], [345, 3, 298, 3.19], [11770, 1, 221, 2.67], [3, 2, 118, 6.0], [159, 1, 39, 3.12], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 64, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [11504, 2, 128, 2.78], [566, 2, 175, 2.7], [13928, 1, 49, 2.61], [11811, 1, 451, 3.72], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 4.0], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [7004, 1, 31, 3.0], [1490, 1, 48, 5.17], [11089, 1, 173, 2.5], [2703, 3, 300, 5.84], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 560, 3.26], [10410, 10, 1201, 3.88], [94, 4, 116, 5.96], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [6097, 80, 68, 5.21], [22317, 3, 318, 2.66], [9082, 3, 2453, 4.17]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.69], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 12, 1.12], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 2.62], [144, 2, 7, 0.91], [345, 3, 10, 0.97], [10149, 3, 25, 4.03], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 2.25], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.94], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [11234, 2, 9, 0.72], [7084, 3, 7, 0.69], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [10825, 21, 14, 2.47], [12870, 1, 7, 2.96], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.81], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 0.89], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [94, 4, 7, 4.2], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [12349, 1, 7, 3.22], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [12350, 1, 7, 3.09], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [2049, 1, 7, 0.69], [7567, 3, 7, 2.54], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [3980, 4, 7, 2.59], [1703, 2, 7, 1.51], [8274, 3, 7, 1.24], [9691, 1, 7, 2.1], [35, 1, 7, 0.89], [5209, 3, 9, 0.67], [1070, 7, 13, 1.16], [997, 2, 7, 1.98], [5584, 3, 7, 3.35], [11811, 1, 7, 1.83], [1519, 3, 17, 0.69], [11914, 1, 7, 1.42], [5660, 2, 7, 1.66], [856, 1, 7, 0.69], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [8926, 1, 7, 2.6], [523, 2, 7, 1.16], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [9081, 3, 12, 3.55], [13034, 3, 8, 3.38], [20255, 2, 7, 1.43], [307, 2, 7, 2.19], [11808, 1, 7, 1.16], [23, 1, 92, 2.51], [1006, 2, 189, 2.28], [3893, 1, 103, 2.25], [418, 2, 131, 1.94], [1504, 2, 170, 2.16], [145, 2, 139, 1.94], [5208, 3, 465, 2.33], [9827, 3, 72, 2.12], [3891, 1, 103, 2.25], [432, 3, 253, 2.02], [7005, 1, 65, 1.93], [94, 4, 99, 4.96], [1490, 1, 42, 2.23], [8853, 2, 235, 4.75], [13260, 29, 60, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 186, 2.73], [12353, 1, 557, 4.25], [20256, 2, 77, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [12349, 1, 557, 4.37], [950, 1, 55, 2.13], [33, 1, 92, 2.24], [5086, 1, 152, 3.41], [998, 2, 196, 2.61], [12350, 1, 557, 4.25], [9069, 1, 100, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 66, 2.63], [140, 2, 75, 2.75], [2049, 1, 18, 1.46], [7567, 3, 57, 3.31], [20927, 1, 65, 1.93], [126, 2, 75, 2.98], [346, 3, 525, 2.01], [3980, 4, 443, 3.74], [1703, 2, 149, 2.66], [8274, 3, 159, 2.0], [9691, 1, 62, 2.36], [35, 1, 103, 2.04], [5209, 3, 465, 1.95], [1070, 7, 494, 1.93], [997, 2, 196, 2.24], [5584, 3, 196, 3.55], [11811, 1, 416, 2.98], [1519, 3, 1545, 1.83], [11914, 1, 72, 2.19], [5660, 2, 144, 2.93], [856, 1, 32, 1.84], [8898, 3, 231, 5.05], [1091, 1, 39, 2.42], [5513, 2, 70, 1.95], [8926, 1, 50, 2.84], [523, 2, 143, 2.31], [11767, 1, 151, 2.03], [2775, 2, 130, 2.06], [9372, 1, 210, 3.18], [9081, 3, 379, 4.81], [13034, 3, 486, 4.14], [20255, 2, 77, 2.2], [307, 2, 122, 2.45], [11808, 1, 402, 1.93]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [3840, 1, 7, 1.09], [151, 1, 7, 1.38], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [1504, 2, 7, 1.79], [12224, 1, 7, 0.84], [624, 2, 7, 2.19], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [2057, 3, 7, 0.84], [75, 2, 7, 0.75], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [5208, 3, 9, 0.78], [8649, 2, 7, 3.15], [3889, 1, 7, 0.65], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [11234, 2, 7, 1.8], [10993, 2, 7, 1.29], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [998, 2, 7, 2.83], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [1886, 2, 9, 0.82], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [3, 2, 7, 1.14], [346, 3, 7, 1.21], [229, 1, 7, 0.86], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5076, 1, 7, 1.3], [7887, 4, 7, 1.42], [12345, 1, 7, 1.22], [20252, 2, 7, 1.43], [126, 2, 7, 2.34], [11953, 1, 7, 0.84], [74, 1, 7, 3.79], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [11685, 2, 11, 3.45], [1492, 1, 7, 0.95], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [2774, 2, 7, 1.15], [20256, 2, 9, 0.82], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9081, 3, 12, 0.86], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [6497, 1, 7, 3.31], [12343, 1, 7, 1.22], [12229, 2, 7, 0.9], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 3.59], [11179, 1, 7, 1.6], [6496, 1, 7, 3.71], [22317, 3, 7, 1.11], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [3900, 3, 7, 3.39], [2805, 137, 7, 2.91], [8898, 3, 7, 3.35], [12526, 2, 7, 2.21], [11812, 1, 7, 0.87], [2424, 29, 7, 1.0], [3975, 4, 7, 2.86], [4253, 1, 7, 1.04], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [9760, 29, 63, 2.66], [997, 2, 232, 4.28], [2436, 4, 101, 2.98], [1006, 2, 200, 2.97], [1886, 2, 136, 2.8], [972, 3, 522, 2.82], [2424, 80, 152, 2.99], [3, 2, 118, 2.78], [346, 3, 557, 2.68], [229, 1, 81, 2.5], [6158, 2, 224, 2.86], [3495, 3, 844, 2.98], [12346, 1, 612, 2.87], [5076, 1, 127, 2.94], [7887, 4, 68, 2.73], [12345, 1, 612, 2.87], [20252, 2, 91, 3.07], [126, 2, 86, 3.98], [11953, 1, 195, 2.48], [74, 1, 171, 4.87], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 169, 2.9], [11954, 1, 195, 2.34], [11685, 2, 234, 5.43], [1492, 1, 32, 2.93], [12352, 1, 612, 2.87], [996, 2, 208, 4.81], [12721, 2, 272, 5.89], [2774, 2, 200, 2.79], [20256, 2, 81, 2.94], [12350, 1, 612, 2.87], [3981, 3, 1471, 3.14], [9081, 3, 473, 2.5], [9491, 21, 1872, 2.76], [5434, 1, 42, 2.89], [2423, 80, 164, 3.36], [6497, 1, 35, 4.95], [12343, 1, 612, 2.87], [12229, 2, 133, 2.84], [5584, 3, 206, 4.28], [2438, 2, 553, 2.82], [10388, 2, 211, 3.56], [12351, 1, 612, 2.87], [10407, 10, 645, 5.06], [11179, 1, 85, 3.24], [6496, 1, 38, 5.36], [22317, 3, 308, 2.75], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 493, 2.87], [3900, 3, 37, 4.29], [2805, 137, 175, 4.54], [8898, 3, 257, 4.83], [12526, 2, 135, 3.53], [11812, 1, 209, 2.85], [2424, 29, 34, 2.65], [3975, 4, 186, 4.34], [4253, 1, 149, 2.97], [11490, 1, 106, 2.29], [336, 15, 110, 3.43]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 0.89], [2327, 2, 7, 1.82], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.87], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [151, 1, 7, 0.91], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 0.92], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.9], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [4032, 29, 7, 0.9], [418, 2, 7, 1.68], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [12304, 1, 7, 0.92], [5151, 2, 7, 1.13], [229, 1, 7, 3.82], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [972, 3, 9, 0.93], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [13034, 3, 7, 3.52], [2424, 29, 7, 2.13], [11426, 25, 7, 1.07], [3, 2, 7, 1.01], [11737, 2, 7, 0.91], [5076, 1, 7, 1.17], [11767, 1, 7, 0.88], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [8677, 3, 8, 1.86], [75, 2, 7, 1.94], [11586, 1, 14, 3.12], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [9998, 80, 9, 2.71], [2438, 2, 8, 1.84], [12526, 2, 9, 3.05], [2424, 80, 146, 3.69], [346, 3, 493, 2.39], [3334, 5, 138, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.13], [7885, 4, 120, 2.31], [6098, 80, 59, 3.45], [6097, 29, 27, 5.08], [11089, 1, 148, 2.22], [12345, 1, 536, 2.28], [10149, 3, 666, 3.62], [20256, 2, 72, 2.55], [147, 1, 77, 3.78], [22316, 3, 272, 2.08], [1492, 1, 28, 3.66], [11953, 1, 172, 2.22], [432, 3, 236, 2.82], [11491, 2, 121, 2.36], [20252, 2, 72, 2.53], [4032, 29, 73, 2.55], [418, 2, 121, 3.09], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 84, 2.61], [12304, 1, 87, 2.6], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [972, 3, 458, 2.55], [2331, 1, 100, 4.08], [346, 1, 123, 2.39], [995, 2, 206, 3.55], [416, 1, 66, 2.59], [13034, 3, 507, 4.92], [2424, 29, 29, 3.54], [11426, 25, 103, 2.49], [3, 2, 105, 2.43], [11737, 2, 49, 2.33], [5076, 1, 112, 2.58], [11767, 1, 140, 2.3], [439, 1, 74, 4.65], [11490, 1, 84, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [1701, 2, 126, 4.58], [11180, 1, 67, 2.67], [8677, 3, 253, 3.28], [75, 2, 124, 3.36], [11586, 1, 296, 3.61], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 148, 3.47], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.87], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 0.83], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3840, 1, 7, 0.72], [3891, 1, 7, 1.68], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [990, 2, 9, 0.88], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8649, 2, 7, 2.8], [362, 2, 7, 1.64], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [3495, 3, 21, 1.48], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [7084, 3, 7, 1.12], [2991, 3, 7, 4.28], [7005, 1, 7, 1.73], [10149, 3, 21, 1.48], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.03], [5165, 2, 10, 2.64], [417, 2, 7, 0.98], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [74, 1, 7, 2.13], [2912, 2, 8, 0.79], [389, 4, 7, 2.13], [6496, 1, 7, 0.85], [35, 1, 7, 1.54], [7567, 3, 7, 2.62], [411, 2, 7, 1.93], [12721, 2, 7, 1.91], [1413, 15, 7, 1.04], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [21269, 3, 7, 4.87], [8676, 2, 7, 3.11], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [11085, 2, 8, 3.16], [12526, 2, 7, 2.15], [9784, 1, 7, 0.9], [1274, 1, 9, 1.03], [6494, 1, 7, 2.34], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [345, 3, 7, 2.52], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [96, 11, 22, 1.1], [3577, 25, 7, 0.92], [9, 1, 7, 0.66], [10408, 10, 9, 3.19], [6158, 2, 204, 2.54], [20927, 1, 68, 3.22], [3981, 3, 1251, 3.73], [5165, 2, 163, 4.85], [417, 2, 133, 2.43], [2912, 1, 38, 1.51], [3982, 3, 612, 4.03], [8939, 2, 150, 2.61], [1007, 2, 207, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 86, 2.74], [956, 2, 93, 2.32], [11772, 1, 170, 4.18], [286, 3, 108, 3.65], [1492, 1, 28, 3.97], [11767, 1, 125, 2.52], [336, 15, 96, 3.67], [972, 3, 459, 2.73], [11769, 1, 125, 3.17], [11490, 1, 48, 2.71], [11770, 1, 170, 3.51], [410, 1, 46, 2.7], [74, 1, 176, 3.58], [2912, 2, 342, 2.25], [389, 4, 162, 3.34], [6496, 1, 35, 2.31], [35, 1, 86, 2.75], [7567, 3, 54, 3.83], [411, 2, 48, 2.73], [12721, 2, 218, 3.11], [1413, 15, 77, 2.75], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 228, 2.56], [1126, 2, 197, 2.71], [4176, 4, 374, 4.3], [2436, 4, 89, 2.5], [9372, 1, 196, 4.79], [21269, 3, 254, 6.0], [8676, 2, 245, 4.57], [8677, 3, 229, 2.72], [22247, 2, 218, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [11085, 2, 414, 4.36], [12526, 2, 235, 3.6], [9784, 1, 56, 2.57], [1274, 1, 63, 3.06], [6494, 1, 23, 3.55], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [345, 3, 230, 3.19], [7573, 1, 259, 3.67], [12225, 1, 141, 3.96], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [96, 11, 661, 2.81], [3577, 25, 68, 2.59], [9, 1, 30, 2.11]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.77], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.53], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.63], [11737, 2, 7, 1.18], [11838, 2, 7, 1.04], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [88, 10, 14, 1.5], [434, 2, 7, 1.44], [2776, 2, 9, 1.21], [142, 2, 7, 1.05], [151, 1, 7, 1.38], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 7, 2.34], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 7, 3.77], [11836, 2, 9, 0.79], [7705, 2, 7, 2.08], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [378, 2, 7, 4.55], [7706, 2, 7, 2.08], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [10149, 3, 21, 2.21], [3478, 2, 9, 2.65], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [307, 2, 7, 2.95], [2774, 2, 7, 1.06], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [7004, 1, 7, 1.96], [418, 2, 7, 1.49], [13928, 1, 7, 0.74], [411, 2, 7, 0.91], [11089, 1, 7, 0.71], [2057, 3, 7, 2.1], [413, 1, 9, 1.34], [11844, 2, 7, 1.79], [14037, 3, 7, 1.85], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [2050, 3, 7, 2.1], [3893, 1, 7, 1.3], [13260, 29, 7, 1.29], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [6494, 1, 7, 0.85], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [11490, 1, 7, 0.86], [1413, 16, 7, 0.71], [414, 1, 9, 1.63], [7708, 2, 7, 2.28], [1243, 2, 7, 1.32], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [565, 2, 7, 0.84], [5208, 3, 9, 1.82], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [11491, 2, 7, 1.5], [21793, 1, 7, 1.83], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [410, 1, 7, 0.74], [2422, 80, 9, 4.33], [11504, 2, 7, 1.33], [6098, 80, 7, 2.19], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3430, 15, 7, 2.26], [147, 1, 7, 2.73], [3674, 2, 7, 0.96], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [6098, 29, 7, 2.55], [8635, 3, 7, 1.71], [307, 2, 82, 5.06], [2774, 2, 184, 3.11], [6497, 1, 38, 2.59], [60, 3, 730, 4.08], [12526, 2, 245, 4.87], [7004, 1, 31, 3.07], [418, 2, 141, 3.27], [13928, 1, 44, 2.85], [411, 2, 109, 2.7], [11089, 1, 173, 2.5], [2057, 3, 473, 3.89], [413, 1, 76, 3.1], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [2050, 3, 473, 3.89], [3893, 1, 110, 2.9], [13260, 29, 65, 3.33], [8274, 3, 115, 2.76], [6097, 80, 61, 5.49], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 104, 4.11], [159, 3, 709, 3.16], [9784, 1, 71, 4.16], [6494, 1, 52, 2.64], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [11490, 1, 109, 2.65], [1413, 16, 50, 2.5], [414, 1, 76, 3.31], [7708, 2, 176, 4.07], [1243, 2, 90, 2.93], [3889, 1, 110, 2.78], [1492, 1, 37, 2.92], [565, 2, 176, 2.63], [5208, 3, 558, 3.6], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [11491, 2, 141, 3.28], [21793, 1, 214, 2.94], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [410, 1, 53, 2.17], [2422, 80, 168, 5.46], [11504, 2, 141, 3.12], [6098, 80, 66, 4.03], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3430, 15, 69, 4.05], [147, 1, 87, 4.52], [3674, 2, 260, 2.74], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65], [6098, 29, 37, 4.34], [8635, 3, 115, 2.78]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.9], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [88, 10, 21, 3.14], [7886, 4, 7, 1.22], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 0.87], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.7], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.8], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.43], [94, 4, 7, 3.56], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 11, 3.19], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.13], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 7, 1.14], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [21269, 3, 7, 2.34], [998, 2, 7, 1.87], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 0.8], [14017, 3, 9, 1.09], [823, 1, 7, 1.62], [34, 1, 7, 2.43], [5209, 3, 7, 0.98], [972, 3, 8, 1.49], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [1091, 1, 7, 1.18], [432, 3, 234, 2.81], [8677, 3, 226, 2.67], [11681, 2, 206, 5.11], [148, 1, 66, 4.77], [96, 11, 651, 2.32], [1490, 1, 38, 2.48], [12225, 1, 71, 2.57], [1124, 2, 143, 2.7], [11737, 2, 32, 2.92], [1243, 2, 83, 2.22], [22247, 2, 216, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 216, 4.71], [201, 3, 226, 2.53], [412, 1, 63, 3.1], [9760, 29, 54, 3.01], [10574, 3, 382, 4.26], [8651, 2, 171, 2.79], [20927, 1, 61, 2.46], [5208, 3, 480, 2.56], [8676, 2, 217, 2.65], [229, 1, 63, 2.95], [1767, 25, 132, 2.76], [25, 1, 95, 2.71], [45, 2, 82, 4.36], [9069, 1, 93, 2.41], [413, 1, 65, 2.94], [11490, 1, 83, 2.32], [149, 2, 66, 4.03], [159, 3, 602, 2.48], [3495, 3, 737, 3.28], [21269, 3, 225, 3.5], [998, 2, 181, 2.54], [140, 2, 69, 3.09], [95, 3, 892, 4.89], [3980, 4, 368, 4.11], [950, 1, 25, 2.17], [5946, 1, 95, 2.48], [9372, 1, 173, 4.69], [1126, 2, 175, 2.52], [1766, 25, 144, 2.69], [2775, 2, 119, 2.63], [1413, 15, 53, 4.01], [490, 1, 45, 2.39], [506, 1, 74, 6.0], [8674, 2, 217, 2.66], [11489, 1, 83, 2.87], [8898, 3, 225, 4.39], [997, 2, 202, 4.64], [3670, 2, 180, 4.37], [1070, 7, 453, 2.51], [9691, 1, 57, 2.54], [107, 2, 31, 2.12], [974, 3, 113, 2.8], [20498, 1, 74, 3.4], [11954, 1, 171, 2.17], [14037, 3, 125, 2.18], [14017, 3, 149, 2.47], [823, 1, 30, 3.2], [34, 1, 85, 3.19], [5209, 3, 480, 2.29], [972, 3, 453, 2.26], [9784, 1, 55, 2.67], [11739, 2, 32, 2.92], [1091, 1, 41, 2.48]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [151, 1, 7, 0.92], [362, 2, 9, 0.83], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 9, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 0.68], [88, 10, 14, 2.0], [22247, 2, 9, 1.93], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [10, 2, 11, 1.65], [8677, 3, 8, 3.58], [2054, 3, 7, 4.0], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.88], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [147, 1, 7, 2.73], [1492, 1, 6, 1.98], [5081, 2, 7, 0.81], [140, 2, 7, 1.98], [167, 3, 9, 1.86], [7005, 1, 9, 0.89], [7036, 1, 7, 1.62], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 9, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [5812, 3, 8, 3.38], [13280, 1, 9, 3.64], [168, 3, 9, 1.46], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [57, 1, 7, 0.7], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [8853, 2, 14, 3.62], [6097, 29, 7, 3.38], [8939, 2, 7, 0.84], [416, 1, 7, 2.33], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [490, 1, 7, 2.02], [1490, 1, 7, 1.27], [998, 2, 7, 3.68], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [95, 3, 26, 0.85], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [1243, 2, 7, 0.96], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [149, 2, 7, 2.73], [126, 2, 7, 2.75], [13034, 3, 8, 3.38], [997, 2, 7, 3.68], [9760, 29, 7, 0.87], [20498, 1, 7, 1.96], [20255, 2, 7, 1.43], [5086, 1, 9, 1.76], [5513, 2, 7, 0.84], [12924, 1, 9, 0.86], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [22317, 3, 8, 1.35], [11739, 2, 7, 1.65], [13260, 29, 7, 1.0], [7567, 3, 7, 3.2], [974, 3, 7, 1.64], [1413, 15, 7, 1.52], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [229, 1, 7, 2.92], [972, 3, 8, 1.35], [5813, 3, 9, 2.14], [8557, 3, 7, 1.01], [192, 3, 22, 4.76], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [9691, 1, 9, 2.48], [20498, 3, 8, 2.02], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [1622, 1, 10, 0.79], [11454, 2, 9, 3.15], [2775, 2, 9, 0.73], [12870, 1, 113, 2.27], [57, 1, 79, 1.85], [11234, 2, 170, 2.47], [415, 1, 71, 2.31], [8651, 2, 186, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [8853, 2, 235, 4.88], [6097, 29, 27, 4.65], [8939, 2, 76, 2.11], [416, 1, 71, 2.57], [6097, 80, 55, 4.65], [11737, 2, 23, 3.11], [20256, 2, 77, 2.19], [490, 1, 36, 2.28], [1490, 1, 42, 2.03], [998, 2, 218, 4.83], [20927, 1, 65, 1.93], [79, 1, 44, 1.85], [95, 3, 936, 2.19], [6098, 29, 30, 3.21], [14017, 3, 162, 2.22], [6098, 80, 61, 3.2], [414, 1, 79, 2.64], [9069, 1, 100, 2.17], [1070, 7, 494, 2.01], [1243, 2, 90, 2.12], [8898, 3, 231, 3.94], [1126, 2, 189, 1.99], [149, 2, 80, 3.88], [126, 2, 75, 2.98], [13034, 3, 486, 4.14], [997, 2, 218, 4.83], [9760, 29, 59, 2.09], [20498, 1, 79, 2.73], [20255, 2, 77, 2.2], [5086, 1, 152, 3.49], [5513, 2, 70, 1.99], [12924, 1, 44, 2.3], [9784, 1, 60, 2.28], [336, 15, 93, 1.92], [22317, 3, 261, 2.11], [11739, 2, 47, 2.92], [13260, 29, 67, 2.15], [7567, 3, 57, 3.41], [974, 3, 136, 2.79], [1413, 15, 82, 2.79], [11085, 2, 508, 1.97], [5811, 3, 486, 3.58], [229, 1, 75, 4.08], [972, 3, 546, 2.51], [5813, 3, 486, 3.24], [8557, 3, 167, 2.28], [192, 3, 1287, 5.9], [9082, 3, 2070, 3.66], [506, 1, 80, 3.88], [3049, 3, 113, 4.42], [9691, 1, 62, 2.98], [20498, 3, 477, 2.76], [14018, 3, 162, 2.22], [524, 1, 69, 2.41], [4076, 3, 163, 3.19], [470, 1, 21, 2.12], [1622, 1, 50, 1.56], [11454, 2, 277, 4.42], [2775, 2, 130, 2.06]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [130, 1, 9, 0.77], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [11681, 2, 7, 3.3], [6936, 2, 9, 4.22], [305, 2, 7, 0.88], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [2778, 2, 9, 1.07], [206, 2, 7, 1.35], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [248, 1, 7, 0.8], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.44], [11737, 2, 7, 1.58], [990, 2, 7, 1.06], [417, 2, 7, 0.98], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12870, 1, 7, 3.71], [12353, 1, 9, 2.27], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [10574, 3, 8, 2.36], [3, 2, 9, 0.74], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [9760, 29, 7, 1.3], [624, 2, 7, 3.92], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [21793, 1, 7, 4.43], [3891, 1, 7, 0.98], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [96, 11, 22, 1.59], [11739, 2, 7, 1.14], [6158, 2, 9, 0.75], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [1126, 2, 7, 1.26], [9372, 1, 7, 3.34], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [5165, 1, 7, 3.03], [2912, 1, 7, 0.8], [8898, 3, 7, 5.0], [413, 1, 7, 1.94], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [9491, 21, 16, 1.93], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 1.6], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [22247, 2, 7, 2.43], [412, 1, 7, 0.84], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [308, 1, 7, 3.28], [432, 3, 7, 0.86], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 2.06], [148, 1, 7, 1.01], [20256, 2, 7, 0.81], [10407, 10, 10, 2.88], [22317, 3, 7, 1.42], [1413, 15, 7, 1.17], [10410, 10, 10, 3.2], [10780, 10, 7, 3.0], [13286, 1, 7, 2.52], [415, 1, 7, 1.24], [439, 1, 7, 2.12], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [7573, 1, 11, 3.36], [11767, 1, 7, 0.92], [12347, 1, 7, 3.27], [972, 1, 7, 2.77], [10387, 2, 7, 1.75], [10149, 3, 21, 1.48], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9690, 1, 7, 1.39], [9971, 2, 7, 2.77], [1126, 2, 197, 2.71], [9372, 1, 196, 4.79], [10388, 2, 186, 3.58], [411, 2, 84, 2.73], [98, 11, 720, 2.35], [972, 3, 459, 2.73], [2912, 1, 38, 2.01], [8898, 3, 242, 6.0], [413, 1, 66, 2.64], [2776, 2, 135, 4.04], [410, 1, 81, 2.7], [12343, 1, 488, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [9491, 21, 1812, 3.36], [956, 2, 93, 2.32], [1492, 1, 14, 3.97], [418, 2, 109, 2.48], [12345, 1, 488, 3.94], [13928, 1, 37, 2.81], [9784, 1, 56, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [22247, 2, 243, 3.88], [412, 1, 65, 2.55], [336, 15, 86, 2.36], [8677, 3, 229, 2.72], [11490, 1, 94, 2.47], [7567, 3, 54, 3.83], [2912, 2, 342, 2.25], [308, 1, 139, 4.73], [432, 3, 237, 2.57], [307, 2, 115, 2.78], [11953, 1, 175, 2.42], [33, 1, 86, 2.74], [11770, 1, 170, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 86, 2.75], [148, 1, 79, 2.46], [20256, 2, 81, 2.26], [10407, 10, 1015, 4.32], [22317, 3, 245, 2.63], [1413, 15, 86, 2.63], [10410, 10, 1015, 4.64], [10780, 10, 316, 4.46], [13286, 1, 246, 3.2], [415, 1, 74, 2.69], [439, 1, 75, 3.57], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [7573, 1, 288, 4.82], [11767, 1, 139, 2.37], [12347, 1, 488, 4.47], [972, 1, 85, 4.22], [10387, 2, 186, 3.2], [10149, 3, 752, 2.93], [74, 1, 176, 3.58], [20686, 1, 476, 4.17], [3478, 2, 29, 3.79], [12271, 2, 55, 3.31], [9690, 1, 65, 2.85], [9971, 2, 211, 3.59]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 1.22], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.38], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [411, 2, 7, 0.86], [12352, 1, 7, 3.09], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [8674, 2, 7, 1.17], [583, 2, 7, 2.85], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11738, 2, 7, 1.23], [11836, 2, 7, 0.97], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [6097, 29, 7, 3.88], [413, 1, 7, 1.87], [2057, 3, 7, 3.23], [2055, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [12344, 1, 7, 2.54], [1413, 15, 7, 0.89], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [3429, 15, 7, 0.85], [247, 1, 7, 3.32], [22316, 3, 7, 0.85], [1886, 2, 9, 0.75], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [8938, 2, 7, 1.07], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [94, 4, 7, 4.04], [11490, 1, 7, 0.96], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [947, 15, 7, 0.71], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [11671, 1, 7, 0.83], [5939, 3, 7, 0.91], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [5813, 3, 8, 1.92], [23920, 2, 7, 0.85], [11954, 1, 7, 0.77], [308, 1, 11, 1.83], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [22573, 2, 7, 0.71], [3429, 15, 53, 2.63], [247, 1, 86, 5.11], [22316, 3, 318, 2.64], [1886, 2, 141, 2.86], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 116, 3.92], [9785, 1, 64, 3.01], [12526, 2, 273, 4.56], [8599, 1, 145, 4.37], [8938, 2, 192, 2.86], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 63, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [4232, 80, 153, 5.02], [94, 4, 119, 5.82], [11490, 1, 110, 2.75], [436, 2, 107, 2.72], [107, 7, 216, 3.2], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [947, 15, 41, 2.5], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [11671, 1, 310, 2.62], [5939, 3, 266, 2.71], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [11160, 1, 491, 5.45], [11844, 2, 186, 2.77], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [5813, 3, 589, 3.7], [23920, 2, 106, 2.63], [11954, 1, 203, 2.56], [308, 1, 173, 3.62], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 530, 5.12], [22573, 2, 36, 2.14]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.38], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [2057, 3, 7, 0.84], [9372, 1, 7, 3.79], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [2912, 1, 7, 0.89], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [10993, 2, 7, 1.34], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 3.18], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.78], [1622, 1, 7, 1.03], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [1886, 2, 9, 0.82], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [229, 1, 7, 0.86], [11811, 1, 7, 0.8], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [94, 4, 7, 3.68], [998, 2, 7, 3.33], [972, 3, 10, 1.12], [2912, 2, 15, 0.66], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [412, 1, 7, 1.85], [5209, 3, 9, 0.78], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [7887, 4, 7, 1.81], [12212, 29, 7, 0.98], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.96], [9784, 1, 7, 0.96], [84, 2, 7, 1.37], [13928, 2, 7, 1.35], [126, 2, 7, 2.34], [411, 2, 7, 0.72], [11739, 2, 7, 2.61], [3048, 3, 7, 4.58], [9691, 1, 7, 1.05], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [11954, 1, 7, 0.7], [7567, 3, 7, 2.64], [1622, 1, 105, 2.67], [75, 2, 126, 2.69], [3, 2, 106, 2.81], [20927, 1, 34, 2.64], [5165, 2, 342, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [1886, 2, 136, 2.8], [12721, 2, 244, 3.23], [22247, 2, 244, 3.57], [147, 1, 78, 4.28], [346, 3, 557, 2.68], [996, 2, 208, 4.81], [229, 1, 81, 2.5], [11811, 1, 402, 2.78], [20252, 2, 91, 3.07], [11685, 2, 234, 5.43], [94, 4, 105, 4.77], [998, 2, 208, 4.81], [972, 3, 522, 2.82], [2912, 2, 348, 2.47], [9491, 21, 1872, 2.76], [76, 2, 95, 2.65], [35, 1, 97, 2.93], [439, 1, 76, 4.69], [413, 1, 75, 3.04], [13028, 3, 128, 5.72], [13928, 1, 41, 3.26], [8104, 1, 180, 3.59], [5076, 1, 114, 2.77], [2805, 137, 157, 3.08], [412, 1, 73, 3.83], [5209, 3, 493, 2.87], [8676, 2, 275, 5.72], [33, 1, 97, 3.76], [418, 2, 124, 3.13], [148, 1, 78, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 257, 4.83], [7887, 4, 39, 2.3], [12212, 29, 105, 2.95], [20256, 2, 81, 2.94], [38, 1, 97, 3.19], [11490, 1, 80, 2.77], [11770, 1, 206, 4.4], [34, 1, 97, 3.07], [10407, 10, 645, 5.06], [415, 1, 75, 2.92], [9784, 1, 71, 2.6], [84, 2, 58, 2.85], [13928, 2, 20, 3.26], [126, 2, 86, 3.98], [411, 2, 106, 2.37], [11739, 2, 55, 4.25], [3048, 3, 236, 6.0], [9691, 1, 74, 2.7], [9690, 1, 25, 1.67], [8939, 2, 169, 2.9], [5584, 3, 206, 4.28], [11953, 1, 195, 2.48], [39, 1, 97, 3.13], [12351, 1, 612, 2.87], [11954, 1, 195, 2.34], [7567, 3, 60, 4.12]]</t>
   </si>
   <si>
     <t>501QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 5, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 4, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 4, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [12343, 1, 4, 0.87], [2055, 3, 4, 1.18], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [75, 2, 4, 1.17], [8915, 2, 4, 0.41], [88, 10, 9, 0.82], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.57], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [2422, 80, 4, 1.31], [1050, 2, 4, 0.38], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [378, 2, 4, 1.16], [6098, 29, 4, 1.08], [12346, 1, 4, 0.87], [151, 1, 4, 0.75], [7704, 2, 4, 1.15], [11738, 2, 4, 0.53], [229, 1, 4, 2.0], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [1049, 2, 4, 0.38], [20252, 2, 4, 0.58], [13264, 29, 4, 0.52], [345, 3, 4, 1.26], [13258, 29, 4, 1.26], [1490, 1, 4, 0.47], [12269, 2, 4, 0.51], [964, 15, 4, 0.36], [2438, 1, 4, 1.05], [10407, 10, 6, 1.27], [1163, 3, 5, 0.58], [5208, 3, 5, 0.74], [2331, 1, 4, 0.55], [2821, 3, 10, 0.23], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [13259, 29, 4, 1.13], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [11687, 2, 4, 0.56], [10406, 10, 7, 1.21], [410, 1, 4, 0.71], [3478, 2, 4, 0.57], [7036, 1, 4, 0.43], [9784, 1, 4, 0.91], [20255, 2, 4, 0.4], [8938, 2, 4, 0.58], [21713, 3, 7, 0.46], [12870, 1, 4, 2.33], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [11404, 2, 4, 0.45], [10410, 10, 6, 1.18], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [2438, 2, 5, 1.38], [2703, 3, 4, 2.2], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [21781, 2, 4, 0.47], [22125, 2, 4, 0.36], [11690, 2, 4, 0.36], [2778, 2, 140, 2.81], [6935, 2, 252, 6.0], [6936, 2, 252, 5.81], [305, 2, 132, 3.08], [8672, 2, 259, 3.33], [615, 2, 96, 3.4], [1504, 2, 183, 2.95], [2775, 2, 140, 3.13], [145, 2, 135, 2.84], [2776, 2, 140, 4.5], [8853, 2, 252, 5.13], [2327, 2, 135, 3.26], [12721, 2, 284, 3.49], [130, 1, 53, 2.98], [143, 2, 133, 3.04], [146, 2, 135, 3.13], [2328, 2, 135, 3.53], [11681, 2, 248, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 109, 2.82], [141, 2, 155, 4.16], [362, 2, 128, 2.96], [144, 2, 135, 2.91], [2497, 2, 183, 3.25], [205, 2, 109, 2.64], [8650, 2, 202, 4.44], [5493, 2, 98, 2.97], [417, 2, 139, 3.15], [8676, 2, 259, 2.97], [8673, 2, 260, 5.05], [3670, 2, 235, 5.79], [2774, 2, 183, 6.0], [8648, 2, 225, 5.29], [589, 2, 137, 2.91], [3, 2, 108, 3.09], [206, 2, 98, 2.64], [6097, 80, 61, 5.49], [2423, 29, 37, 4.87], [22247, 2, 255, 3.05], [11836, 2, 269, 2.69], [6497, 1, 27, 2.94], [8674, 2, 259, 3.57], [624, 2, 107, 4.11], [12343, 1, 610, 4.37], [2055, 3, 158, 4.31], [2423, 80, 185, 4.81], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 207, 2.86], [6097, 29, 30, 5.49], [6098, 80, 66, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [75, 2, 144, 3.94], [8915, 2, 129, 2.36], [88, 10, 504, 3.62], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 730, 4.08], [13260, 29, 65, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.83], [21712, 3, 2180, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.66], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.44], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.52], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [8675, 2, 4, 0.6], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [8674, 2, 4, 0.49], [11836, 2, 4, 0.2], [6158, 2, 5, 1.33], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [151, 1, 4, 0.75], [12720, 2, 4, 0.82], [2776, 2, 4, 0.75], [10149, 3, 13, 0.39], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 0.94], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 1.11], [410, 1, 4, 0.47], [12526, 2, 4, 0.73], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [2423, 80, 5, 1.25], [12351, 1, 5, 0.61], [2424, 29, 5, 0.55], [378, 2, 4, 1.16], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [12373, 1, 5, 0.45], [13023, 3, 6, 1.51], [201, 3, 4, 1.1], [13034, 3, 5, 1.37], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [5208, 3, 5, 0.54], [345, 3, 4, 0.76], [11770, 1, 4, 0.48], [3, 2, 4, 3.1], [159, 1, 4, 0.73], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [11504, 2, 4, 0.2], [566, 2, 4, 0.5], [13928, 1, 4, 0.45], [11811, 1, 4, 0.38], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.27], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [7004, 1, 4, 0.99], [1490, 1, 4, 1.38], [11089, 1, 4, 0.39], [2703, 3, 4, 2.2], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [10410, 10, 6, 1.18], [94, 4, 4, 1.77], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [6097, 80, 4, 1.86], [22317, 3, 5, 0.52], [9082, 3, 15, 1.25], [141, 2, 156, 3.01], [2328, 2, 135, 3.53], [8650, 2, 201, 4.44], [362, 2, 128, 2.98], [5491, 2, 108, 2.9], [5493, 2, 97, 2.79], [130, 1, 34, 2.98], [589, 2, 137, 2.91], [2327, 2, 135, 3.26], [326, 2, 81, 3.64], [11685, 2, 247, 6.0], [8672, 2, 258, 3.33], [417, 2, 156, 2.82], [6935, 2, 254, 5.82], [205, 2, 109, 2.53], [11681, 2, 247, 5.84], [206, 2, 81, 2.64], [8648, 2, 201, 4.32], [6936, 2, 254, 5.23], [142, 2, 140, 3.03], [11837, 2, 269, 2.79], [12721, 2, 255, 3.19], [11838, 2, 242, 3.09], [2049, 3, 495, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 132, 3.08], [616, 2, 107, 4.15], [413, 1, 77, 3.05], [412, 1, 75, 3.02], [411, 2, 109, 2.74], [11739, 2, 57, 3.69], [10574, 3, 450, 4.6], [11835, 2, 269, 2.79], [145, 2, 135, 2.84], [8675, 2, 287, 3.21], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [8674, 2, 287, 3.25], [11836, 2, 242, 2.89], [6158, 2, 260, 4.44], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [151, 1, 33, 2.81], [12720, 2, 284, 3.48], [2776, 2, 157, 3.16], [10149, 3, 872, 3.26], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 40, 2.38], [22316, 3, 286, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6], [7084, 3, 116, 3.92]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.92], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 1.06], [144, 2, 4, 0.49], [345, 3, 5, 0.44], [10149, 3, 17, 1.82], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.45], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 4, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [11234, 2, 4, 0.2], [7084, 3, 4, 0.36], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [10825, 21, 8, 1.34], [12870, 1, 4, 1.54], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.46], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [94, 4, 4, 1.24], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [12349, 1, 4, 1.63], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [12350, 1, 4, 0.62], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [2049, 1, 4, 0.2], [7567, 3, 4, 1.11], [20927, 1, 4, 0.2], [126, 2, 4, 0.93], [346, 3, 5, 0.19], [3980, 4, 4, 1.31], [1703, 2, 4, 0.41], [8274, 3, 4, 0.39], [9691, 1, 4, 1.09], [35, 1, 4, 0.48], [5209, 3, 4, 0.19], [1070, 7, 10, 0.2], [997, 2, 4, 1.03], [5584, 3, 4, 1.74], [11811, 1, 4, 1.0], [1519, 3, 10, 0.4], [11914, 1, 5, 0.5], [5660, 2, 5, 0.9], [856, 1, 4, 0.38], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.44], [8926, 1, 4, 1.35], [523, 2, 4, 0.63], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [9081, 3, 7, 1.8], [13034, 3, 5, 0.66], [20255, 2, 5, 0.2], [307, 2, 4, 1.14], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 235, 4.09], [2049, 3, 450, 1.94], [362, 2, 131, 2.84], [589, 2, 142, 1.93], [75, 2, 121, 1.98], [141, 2, 143, 3.4], [1776, 1, 90, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 130, 2.06], [8672, 2, 235, 2.17], [6936, 2, 235, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 121, 2.18], [206, 2, 90, 1.99], [151, 1, 54, 1.63], [8648, 2, 186, 3.41], [1777, 1, 90, 3.67], [2328, 2, 126, 1.92], [88, 10, 463, 2.3], [11681, 2, 227, 5.43], [990, 2, 43, 2.16], [8650, 2, 186, 3.43], [412, 1, 69, 2.41], [5151, 2, 19, 3.62], [2050, 3, 433, 3.55], [76, 2, 90, 3.12], [144, 2, 139, 2.06], [345, 3, 248, 2.01], [10149, 3, 715, 4.79], [2991, 3, 133, 4.91], [22247, 2, 234, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 125, 2.18], [7004, 1, 65, 1.93], [45, 2, 90, 4.21], [2054, 3, 389, 2.21], [143, 2, 122, 2.11], [417, 2, 143, 3.4], [413, 1, 79, 3.28], [21793, 1, 196, 2.1], [167, 3, 188, 2.16], [201, 3, 248, 1.94], [74, 1, 163, 3.73], [1446, 2, 126, 3.18], [346, 1, 131, 2.05], [2055, 3, 389, 2.18], [168, 3, 339, 2.77], [10, 2, 97, 2.76], [11234, 2, 153, 2.04], [7084, 3, 107, 1.93], [1429, 2, 126, 2.47], [7036, 1, 105, 3.84], [12721, 2, 234, 2.13], [3495, 3, 797, 2.2], [5081, 2, 177, 1.96], [8649, 2, 186, 3.64], [308, 1, 139, 3.98], [13028, 3, 122, 2.14], [10825, 21, 575, 3.62], [12870, 1, 113, 3.19], [79, 1, 44, 1.85], [1492, 1, 30, 3.25], [96, 11, 784, 1.97]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [3840, 1, 5, 0.29], [151, 1, 4, 0.75], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [1504, 2, 4, 0.93], [12224, 1, 4, 0.46], [624, 2, 4, 1.1], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [2057, 3, 4, 0.46], [75, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [5208, 3, 5, 0.19], [8649, 2, 4, 1.53], [3889, 1, 4, 0.35], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [11234, 2, 4, 0.75], [10993, 2, 4, 0.7], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.2], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [998, 2, 4, 1.0], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [1886, 2, 4, 0.2], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [3, 2, 4, 0.62], [346, 3, 5, 0.19], [229, 1, 4, 0.47], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5076, 1, 4, 0.71], [7887, 4, 4, 0.47], [12345, 1, 4, 0.66], [20252, 2, 4, 0.38], [126, 2, 4, 1.27], [11953, 1, 4, 0.46], [74, 1, 4, 1.97], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [11685, 2, 5, 1.33], [1492, 1, 4, 0.2], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [2774, 2, 4, 0.63], [20256, 2, 4, 0.2], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9081, 3, 7, 0.48], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 4, 0.75], [6497, 1, 4, 0.63], [12343, 1, 4, 0.66], [12229, 2, 4, 0.47], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 7, 1.55], [11179, 1, 4, 0.45], [6496, 1, 4, 1.89], [22317, 3, 4, 0.6], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [3900, 3, 4, 1.76], [2805, 137, 4, 0.89], [8898, 3, 5, 1.44], [12526, 2, 4, 0.71], [11812, 1, 4, 0.2], [2424, 29, 4, 0.55], [3975, 4, 5, 1.21], [4253, 1, 4, 0.54], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [88, 10, 490, 3.94], [2327, 2, 132, 2.93], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [2778, 2, 137, 2.92], [6935, 2, 244, 6.0], [2328, 2, 132, 3.05], [5493, 2, 104, 3.91], [305, 2, 128, 2.8], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [6936, 2, 244, 5.39], [326, 2, 77, 4.1], [8650, 2, 196, 3.45], [8648, 2, 196, 3.91], [1446, 2, 134, 3.2], [2049, 3, 360, 2.34], [10, 2, 91, 2.65], [143, 2, 130, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 95, 2.77], [5491, 2, 93, 3.05], [2775, 2, 137, 2.92], [7036, 1, 113, 4.28], [3840, 1, 150, 3.43], [151, 1, 32, 2.69], [94, 4, 105, 4.77], [434, 2, 93, 2.69], [8938, 2, 125, 2.43], [990, 2, 19, 2.69], [3893, 1, 109, 2.96], [146, 2, 132, 3.02], [8853, 2, 272, 5.15], [1504, 2, 180, 3.69], [12224, 1, 162, 2.49], [624, 2, 104, 3.83], [1429, 2, 134, 2.89], [3891, 1, 109, 2.96], [2776, 2, 137, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 124, 2.89], [141, 2, 136, 2.69], [2057, 3, 314, 2.32], [75, 2, 126, 2.69], [11681, 2, 234, 5.43], [11404, 2, 92, 3.15], [5208, 3, 493, 2.87], [8649, 2, 218, 4.79], [3889, 1, 122, 2.29], [1007, 2, 264, 2.49], [11234, 2, 161, 3.27], [10993, 2, 54, 2.93], [7886, 4, 70, 2.16], [12870, 1, 121, 3.3], [21793, 1, 208, 2.89], [10149, 3, 763, 3.88], [3980, 4, 365, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 132, 2.92], [7084, 3, 127, 3.22], [11811, 1, 402, 2.78], [8672, 2, 247, 4.92], [20927, 1, 34, 2.64], [998, 2, 208, 4.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.2], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [151, 1, 4, 0.46], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.48], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 5, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.49], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [4032, 29, 4, 0.47], [418, 2, 4, 0.72], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [12304, 1, 4, 0.2], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [972, 3, 5, 0.46], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [13034, 3, 4, 1.31], [2424, 29, 4, 0.41], [11426, 25, 4, 0.58], [3, 2, 4, 0.55], [11737, 2, 4, 0.5], [5076, 1, 4, 0.63], [11767, 1, 4, 0.48], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [8677, 3, 5, 1.11], [75, 2, 4, 0.37], [11586, 1, 7, 1.42], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [9998, 80, 4, 0.81], [2438, 2, 5, 1.05], [12526, 2, 4, 0.48], [6935, 2, 212, 5.03], [141, 2, 119, 2.71], [589, 2, 118, 2.6], [2778, 2, 119, 2.86], [6936, 2, 212, 5.43], [8648, 2, 171, 3.75], [362, 2, 108, 2.52], [2327, 2, 129, 3.24], [11681, 2, 208, 4.91], [8650, 2, 171, 3.23], [326, 2, 78, 2.83], [205, 2, 84, 2.22], [2328, 2, 116, 2.74], [1446, 2, 118, 3.11], [305, 2, 113, 3.31], [130, 1, 45, 1.55], [8649, 2, 171, 3.7], [2775, 2, 119, 2.86], [8853, 2, 212, 4.93], [361, 2, 119, 2.6], [2776, 2, 119, 2.86], [593, 2, 177, 2.55], [143, 2, 114, 3.07], [140, 2, 78, 2.83], [1429, 2, 118, 3.41], [206, 2, 84, 2.51], [5493, 2, 83, 2.55], [523, 2, 119, 2.68], [7004, 1, 68, 2.72], [413, 1, 66, 2.92], [7036, 1, 99, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 482, 2.38], [151, 1, 57, 2.33], [1124, 2, 161, 2.69], [990, 2, 40, 2.5], [12353, 1, 482, 2.43], [5165, 1, 26, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 119, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 42, 2.08], [434, 2, 82, 2.58], [201, 3, 231, 2.55], [142, 2, 119, 2.56], [6097, 80, 54, 5.58], [11770, 1, 189, 2.22], [6952, 1, 145, 4.06], [2055, 3, 410, 2.91], [345, 3, 231, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 99, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 482, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.32], [10574, 3, 392, 3.24], [1886, 2, 135, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.97], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 9, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3840, 1, 4, 0.39], [3891, 1, 5, 0.2], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [990, 2, 4, 0.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8649, 2, 4, 1.53], [362, 2, 4, 0.85], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [3495, 3, 13, 0.85], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [7084, 3, 4, 0.58], [2991, 3, 4, 1.1], [7005, 1, 4, 0.94], [10149, 3, 13, 0.39], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [5165, 2, 5, 1.11], [417, 2, 4, 0.54], [2912, 1, 4, 0.2], [3982, 3, 11, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [74, 1, 4, 1.16], [2912, 2, 5, 0.47], [389, 4, 5, 0.38], [6496, 1, 4, 0.47], [35, 1, 4, 0.57], [7567, 3, 5, 1.15], [411, 2, 4, 1.0], [12721, 2, 4, 0.99], [1413, 15, 4, 0.2], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [21269, 3, 4, 2.24], [8676, 2, 4, 1.7], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [11085, 2, 5, 1.27], [12526, 2, 4, 1.08], [9784, 1, 4, 0.47], [1274, 1, 4, 0.23], [6494, 1, 5, 0.29], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [345, 3, 4, 1.31], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [96, 11, 12, 0.38], [3577, 25, 4, 0.48], [9, 1, 4, 0.36], [10408, 10, 5, 1.37], [6935, 2, 214, 5.9], [615, 2, 91, 4.78], [2778, 2, 121, 2.77], [305, 2, 113, 2.58], [5493, 2, 91, 4.44], [6936, 2, 214, 5.92], [130, 1, 27, 2.58], [205, 2, 84, 2.69], [616, 2, 91, 4.41], [1504, 2, 156, 2.75], [144, 2, 117, 4.4], [8648, 2, 174, 2.99], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [8915, 2, 65, 4.29], [326, 2, 70, 3.57], [7036, 1, 99, 3.83], [8650, 2, 174, 2.75], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [11681, 2, 212, 5.01], [8853, 2, 214, 5.93], [141, 2, 119, 2.6], [2775, 2, 121, 2.77], [206, 2, 84, 2.55], [151, 1, 58, 2.7], [7004, 1, 61, 2.36], [248, 1, 47, 2.25], [11685, 2, 212, 5.4], [3840, 1, 150, 2.17], [3891, 1, 97, 2.88], [2328, 2, 117, 2.62], [2050, 3, 356, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.89], [143, 2, 115, 2.77], [434, 2, 56, 2.07], [3980, 4, 374, 4.07], [990, 2, 40, 2.77], [2054, 3, 356, 2.34], [624, 2, 91, 5.38], [8649, 2, 194, 4.25], [362, 2, 109, 3.27], [2776, 2, 121, 3.86], [12870, 1, 117, 5.16], [2057, 3, 356, 2.34], [12350, 1, 543, 2.67], [7886, 4, 43, 2.23], [10574, 3, 393, 4.07], [5165, 1, 26, 3.74], [1006, 2, 197, 2.83], [1446, 2, 117, 2.62], [3495, 3, 832, 2.92], [94, 4, 93, 5.25], [75, 2, 112, 3.52], [523, 2, 119, 2.64], [7084, 3, 58, 2.79], [2991, 3, 125, 5.99], [7005, 1, 68, 3.18], [10149, 3, 752, 2.93], [3975, 4, 374, 4.2], [21793, 1, 174, 5.26], [9760, 29, 55, 2.5], [11404, 2, 46, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 0.67], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 5, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [11838, 2, 4, 0.57], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 5, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 5, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [88, 10, 9, 0.82], [434, 2, 4, 0.73], [2776, 2, 4, 0.41], [142, 2, 4, 0.2], [151, 1, 4, 0.75], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 1.96], [11836, 2, 4, 0.2], [7705, 2, 4, 1.08], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [378, 2, 4, 2.48], [7706, 2, 4, 1.08], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [10149, 3, 13, 1.12], [3478, 2, 4, 1.07], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [307, 2, 4, 1.5], [2774, 2, 4, 0.55], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [7004, 1, 4, 1.02], [418, 2, 4, 0.81], [13928, 1, 4, 0.2], [411, 2, 4, 0.5], [11089, 1, 4, 0.39], [2057, 3, 4, 0.4], [413, 1, 4, 0.54], [11844, 2, 5, 0.2], [14037, 3, 4, 0.96], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [2050, 3, 4, 0.4], [3893, 1, 5, 0.44], [13260, 29, 4, 0.67], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [6494, 1, 4, 0.46], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [11490, 1, 4, 0.47], [1413, 16, 4, 0.39], [414, 1, 4, 0.66], [7708, 2, 4, 1.15], [1243, 2, 5, 0.2], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [565, 2, 4, 0.46], [5208, 3, 5, 0.97], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [11491, 2, 4, 0.81], [21793, 1, 4, 0.95], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [410, 1, 4, 0.4], [2422, 80, 4, 1.75], [11504, 2, 4, 0.72], [6098, 80, 4, 1.14], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3430, 15, 4, 1.23], [147, 1, 4, 0.52], [3674, 2, 4, 0.52], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6098, 29, 4, 1.19], [8635, 3, 4, 0.89], [6935, 2, 253, 6.0], [305, 2, 132, 3.08], [2328, 2, 135, 3.53], [130, 1, 53, 2.48], [141, 2, 140, 2.84], [2778, 2, 156, 3.07], [8650, 2, 201, 4.37], [5491, 2, 106, 4.31], [2327, 2, 135, 3.26], [8672, 2, 258, 3.33], [6936, 2, 253, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 135, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 135, 3.13], [417, 2, 140, 3.05], [589, 2, 59, 2.91], [75, 2, 145, 3.42], [11737, 2, 57, 2.97], [11838, 2, 269, 2.83], [1124, 2, 168, 2.98], [523, 2, 140, 3.36], [8648, 2, 201, 4.01], [8853, 2, 253, 4.82], [12721, 2, 255, 3.19], [615, 2, 108, 4.14], [326, 2, 81, 3.64], [206, 2, 41, 2.64], [8915, 2, 171, 2.87], [8673, 2, 260, 5.05], [144, 2, 135, 2.91], [11739, 2, 57, 2.97], [88, 10, 504, 3.62], [434, 2, 107, 3.23], [2776, 2, 140, 3.77], [142, 2, 140, 3.16], [151, 1, 33, 2.81], [8676, 2, 258, 2.97], [6158, 2, 235, 2.82], [2424, 29, 24, 2.67], [8649, 2, 201, 3.38], [2423, 29, 32, 4.52], [11738, 2, 57, 2.97], [2497, 2, 184, 3.11], [7704, 2, 158, 3.18], [2424, 80, 153, 3.11], [10574, 3, 450, 4.6], [2423, 80, 162, 4.41], [3670, 2, 212, 5.55], [11836, 2, 242, 2.89], [7705, 2, 158, 3.18], [2054, 3, 473, 3.89], [3, 2, 108, 2.9], [2859, 15, 62, 3.48], [412, 1, 74, 3.17], [378, 2, 224, 6.0], [7706, 2, 158, 3.18], [12720, 2, 255, 2.99], [22316, 3, 318, 2.64], [2055, 3, 425, 2.76], [12344, 1, 620, 2.67], [10149, 3, 866, 4.0], [3478, 2, 43, 4.08], [74, 1, 180, 5.0], [3429, 15, 53, 2.63]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 5, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [88, 10, 8, 1.09], [7886, 4, 5, 0.39], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.47], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.38], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.44], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 5, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [21269, 3, 4, 1.0], [998, 2, 4, 0.97], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [14017, 3, 4, 0.44], [823, 1, 4, 0.84], [34, 1, 4, 1.26], [5209, 3, 4, 0.54], [972, 3, 5, 0.85], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [1091, 1, 4, 0.61], [8672, 2, 193, 4.11], [305, 2, 97, 3.11], [3, 2, 81, 3.34], [6935, 2, 216, 4.9], [205, 2, 83, 2.52], [143, 2, 98, 3.77], [144, 2, 100, 4.38], [75, 2, 112, 2.56], [12721, 2, 216, 2.64], [145, 2, 100, 3.97], [8915, 2, 148, 2.53], [2778, 2, 119, 2.63], [1776, 1, 72, 1.98], [146, 2, 100, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 216, 4.39], [1777, 1, 82, 3.8], [8648, 2, 171, 3.3], [151, 1, 46, 1.81], [2328, 2, 115, 3.01], [8650, 2, 171, 3.51], [5151, 2, 18, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [88, 10, 428, 4.1], [7886, 4, 79, 2.38], [9507, 3, 86, 1.53], [74, 1, 153, 3.13], [1446, 2, 117, 3.67], [2991, 3, 124, 5.3], [362, 2, 108, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.17], [1492, 1, 26, 2.52], [1007, 2, 207, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 82, 3.03], [8649, 2, 171, 3.59], [3889, 1, 106, 2.11], [11234, 2, 141, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.01], [345, 3, 226, 2.53], [10, 2, 81, 3.33], [1429, 2, 117, 3.12], [307, 2, 112, 3.95], [10825, 21, 477, 2.64], [5081, 2, 144, 2.66], [12870, 1, 104, 2.86], [57, 1, 73, 2.11], [10149, 3, 666, 2.87], [7036, 1, 98, 3.26], [3478, 2, 64, 2.3], [7084, 3, 98, 3.26], [1006, 2, 175, 2.7], [1504, 2, 157, 2.66], [3891, 1, 95, 3.37], [21793, 1, 202, 4.74], [94, 4, 91, 4.72], [167, 3, 172, 3.03], [411, 2, 83, 2.52], [9827, 3, 67, 2.54], [3893, 1, 95, 2.31], [79, 1, 41, 2.38], [33, 1, 85, 3.19]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 8, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [151, 1, 4, 0.48], [362, 2, 4, 0.2], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 4, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [88, 10, 9, 1.09], [22247, 2, 4, 0.78], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [10, 2, 5, 0.41], [8677, 3, 6, 1.56], [2054, 3, 4, 1.44], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 4, 0.47], [147, 1, 4, 0.52], [1492, 1, 4, 0.58], [5081, 2, 4, 0.44], [140, 2, 5, 0.63], [167, 3, 4, 0.75], [7005, 1, 4, 0.36], [7036, 1, 4, 0.61], [9827, 3, 4, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [5812, 3, 5, 2.01], [13280, 1, 4, 1.47], [168, 3, 5, 0.29], [1504, 2, 4, 0.2], [12870, 1, 5, 0.54], [57, 1, 4, 0.38], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [8853, 2, 5, 1.07], [6097, 29, 4, 1.14], [8939, 2, 4, 0.2], [416, 1, 4, 1.21], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [490, 1, 4, 1.05], [1490, 1, 5, 0.2], [998, 2, 4, 1.06], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [95, 3, 16, 0.19], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [1243, 2, 4, 0.53], [8898, 3, 5, 1.36], [1126, 2, 4, 0.39], [149, 2, 4, 0.52], [126, 2, 4, 1.43], [13034, 3, 5, 0.66], [997, 2, 4, 1.09], [9760, 29, 4, 0.45], [20498, 1, 5, 0.8], [20255, 2, 5, 0.2], [5086, 1, 4, 0.71], [5513, 2, 4, 0.46], [12924, 1, 5, 0.2], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [22317, 3, 6, 0.51], [11739, 2, 4, 0.2], [13260, 29, 4, 0.54], [7567, 3, 4, 1.66], [974, 3, 4, 0.88], [1413, 15, 4, 0.33], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [229, 1, 4, 1.05], [972, 3, 5, 0.81], [5813, 3, 5, 1.08], [8557, 3, 4, 0.2], [192, 3, 11, 1.1], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [9691, 1, 4, 1.0], [20498, 3, 5, 0.86], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [1622, 1, 5, 0.38], [11454, 2, 6, 1.6], [2775, 2, 5, 0.2], [8672, 2, 235, 2.23], [305, 2, 121, 2.31], [2049, 3, 450, 1.94], [6935, 2, 235, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 125, 1.93], [589, 2, 127, 2.26], [151, 1, 54, 2.16], [362, 2, 117, 2.1], [12721, 2, 234, 2.25], [146, 2, 125, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 90, 1.99], [2328, 2, 126, 2.62], [8915, 2, 161, 2.05], [143, 2, 122, 2.33], [990, 2, 43, 2.66], [6936, 2, 235, 4.51], [20252, 2, 86, 2.06], [8650, 2, 186, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 130, 2.06], [248, 1, 45, 1.0], [88, 10, 463, 3.28], [22247, 2, 234, 3.12], [2050, 3, 389, 1.95], [76, 2, 90, 2.63], [8649, 2, 186, 3.51], [10149, 3, 715, 4.79], [10, 2, 87, 2.92], [8677, 3, 243, 4.35], [2054, 3, 324, 5.02], [412, 1, 69, 2.41], [2055, 3, 324, 5.02], [13028, 3, 136, 2.54], [413, 1, 71, 2.36], [7004, 1, 65, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 227, 5.53], [1446, 2, 126, 3.18], [7084, 3, 107, 1.93], [307, 2, 122, 2.12], [3478, 2, 69, 3.31], [1429, 2, 126, 2.47], [3495, 3, 797, 2.89], [1006, 2, 189, 2.13], [147, 1, 80, 3.88], [1492, 1, 30, 3.25], [5081, 2, 177, 1.96], [140, 2, 75, 2.75], [167, 3, 188, 2.64], [7005, 1, 65, 1.93], [7036, 1, 105, 2.39], [9827, 3, 72, 2.15], [45, 2, 90, 4.21], [8676, 2, 235, 2.21], [1124, 2, 153, 2.07], [2049, 1, 21, 2.85], [94, 4, 99, 4.73], [5812, 3, 543, 4.52], [13280, 1, 261, 3.97], [168, 3, 339, 2.73], [1504, 2, 170, 2.1]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [130, 1, 4, 0.2], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [11681, 2, 4, 1.35], [6936, 2, 4, 1.18], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [2778, 2, 5, 0.2], [206, 2, 4, 0.46], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [248, 1, 4, 0.43], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.75], [11737, 2, 5, 0.2], [990, 2, 4, 0.2], [417, 2, 4, 0.54], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12870, 1, 4, 0.92], [12353, 1, 5, 0.19], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [10574, 3, 6, 1.36], [3, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [9760, 29, 4, 0.2], [624, 2, 4, 1.35], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [21793, 1, 4, 2.3], [3891, 1, 4, 0.53], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [96, 11, 13, 0.38], [11739, 2, 4, 0.59], [6158, 2, 4, 0.2], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [1126, 2, 4, 0.58], [9372, 1, 4, 1.7], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [5165, 1, 4, 0.58], [2912, 1, 4, 0.2], [8898, 3, 4, 3.33], [413, 1, 4, 1.01], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [9491, 21, 10, 1.07], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 5, 0.2], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [22247, 2, 4, 1.23], [412, 1, 4, 0.2], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [308, 1, 4, 0.91], [432, 3, 5, 0.47], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 1.07], [148, 1, 4, 0.55], [20256, 2, 4, 0.44], [10407, 10, 6, 1.44], [22317, 3, 5, 0.51], [1413, 15, 4, 0.45], [10410, 10, 6, 1.64], [10780, 10, 4, 1.52], [13286, 1, 4, 1.32], [415, 1, 4, 0.66], [439, 1, 4, 1.15], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [7573, 1, 5, 1.45], [11767, 1, 4, 0.5], [12347, 1, 4, 0.19], [972, 1, 4, 1.51], [10387, 2, 4, 0.95], [10149, 3, 13, 0.39], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9690, 1, 4, 0.76], [9971, 2, 4, 1.44], [11685, 2, 212, 5.4], [6935, 2, 214, 5.9], [130, 1, 45, 2.58], [326, 2, 40, 3.57], [8648, 2, 174, 2.99], [144, 2, 117, 4.4], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [143, 2, 115, 2.77], [205, 2, 84, 2.69], [8915, 2, 65, 4.29], [2328, 2, 117, 2.62], [11681, 2, 212, 5.01], [6936, 2, 214, 5.92], [305, 2, 113, 2.58], [151, 1, 58, 2.7], [8650, 2, 174, 2.75], [141, 2, 119, 2.6], [2778, 2, 121, 2.77], [206, 2, 84, 2.55], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [615, 2, 91, 4.78], [7036, 1, 99, 3.83], [8853, 2, 214, 5.93], [8649, 2, 174, 2.58], [5491, 2, 81, 2.57], [248, 1, 47, 2.25], [434, 2, 56, 2.07], [1006, 2, 177, 2.63], [75, 2, 112, 3.52], [2055, 3, 396, 4.89], [11737, 2, 45, 2.79], [990, 2, 32, 2.77], [417, 2, 133, 2.43], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 356, 2.34], [1007, 2, 207, 2.65], [12870, 1, 117, 5.16], [12353, 1, 488, 4.47], [523, 2, 119, 2.64], [1504, 2, 156, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 356, 2.34], [13280, 1, 246, 5.48], [10574, 3, 393, 4.07], [3, 2, 95, 2.52], [142, 2, 133, 2.39], [12346, 1, 488, 4.15], [7084, 3, 58, 2.79], [9760, 29, 55, 2.5], [624, 2, 91, 5.38], [2054, 3, 356, 2.34], [140, 2, 78, 3.15], [2775, 2, 121, 2.77], [21793, 1, 174, 5.26], [3891, 1, 108, 2.43], [8939, 2, 150, 2.61], [1429, 2, 117, 2.59], [96, 11, 374, 2.81], [11739, 2, 45, 2.79], [6158, 2, 204, 2.54], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 52, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.66], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.36], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.75], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [411, 2, 4, 0.47], [12352, 1, 4, 1.38], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [8674, 2, 5, 0.63], [583, 2, 4, 1.31], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11738, 2, 4, 0.43], [11836, 2, 4, 0.53], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [6097, 29, 5, 0.64], [413, 1, 4, 0.97], [2057, 3, 4, 1.0], [2055, 3, 4, 1.18], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [12344, 1, 4, 1.38], [1413, 15, 4, 0.2], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [3429, 15, 4, 0.46], [247, 1, 4, 0.8], [22316, 3, 4, 0.46], [1886, 2, 4, 0.2], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.73], [8599, 1, 4, 0.49], [8938, 2, 4, 0.58], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [94, 4, 4, 1.76], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [947, 15, 4, 0.39], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [11671, 1, 4, 0.45], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [5813, 3, 5, 1.1], [23920, 2, 4, 0.46], [11954, 1, 4, 0.42], [308, 1, 5, 0.79], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [22573, 2, 4, 0.39], [8672, 2, 258, 3.11], [141, 2, 156, 3.01], [362, 2, 127, 2.98], [361, 2, 140, 3.1], [6935, 2, 253, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 65, 2.62], [2049, 3, 313, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 140, 3.15], [3, 2, 109, 3.03], [6936, 2, 253, 4.65], [305, 2, 132, 3.08], [151, 1, 33, 2.81], [523, 2, 140, 3.23], [22247, 2, 285, 3.62], [8650, 2, 202, 4.44], [142, 2, 156, 2.68], [8648, 2, 202, 4.32], [2328, 2, 135, 3.53], [2776, 2, 142, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 135, 3.26], [11837, 2, 268, 2.61], [411, 2, 110, 2.65], [12352, 1, 607, 4.89], [589, 2, 59, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 241, 3.11], [412, 1, 74, 3.02], [12353, 1, 607, 4.89], [6497, 1, 34, 3.94], [8674, 2, 258, 3.28], [583, 2, 30, 3.93], [145, 2, 151, 2.69], [2805, 137, 166, 3.7], [326, 2, 30, 3.62], [10574, 3, 450, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 61, 5.49], [11738, 2, 57, 3.01], [11836, 2, 268, 2.76], [9784, 1, 64, 3.01], [10149, 3, 906, 2.65], [6097, 29, 30, 5.49], [413, 1, 77, 2.97], [2057, 3, 158, 4.31], [2055, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [12344, 1, 607, 4.33], [1413, 15, 90, 3.0], [20252, 2, 94, 2.66], [11504, 2, 127, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 77, 3.01], [1492, 1, 37, 2.92], [6098, 80, 66, 4.03], [12346, 1, 607, 4.89]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.75], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [2057, 3, 4, 0.46], [9372, 1, 4, 1.97], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [2912, 1, 4, 0.48], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [10993, 2, 5, 0.2], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.65], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.56], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [1886, 2, 4, 0.2], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [229, 1, 4, 0.47], [11811, 1, 4, 0.2], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [94, 4, 4, 1.91], [998, 2, 5, 1.0], [972, 3, 5, 0.51], [2912, 2, 7, 0.2], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [412, 1, 4, 0.43], [5209, 3, 4, 0.19], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [7887, 4, 4, 0.94], [12212, 29, 4, 0.2], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 1.02], [9784, 1, 4, 0.52], [84, 2, 5, 0.47], [13928, 2, 4, 0.7], [126, 2, 4, 1.27], [411, 2, 4, 0.39], [11739, 2, 4, 1.42], [3048, 3, 4, 1.15], [9691, 1, 4, 0.57], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [11954, 1, 4, 0.38], [7567, 3, 5, 1.16], [2327, 2, 132, 2.93], [305, 2, 128, 2.8], [6935, 2, 244, 6.0], [2778, 2, 137, 2.92], [144, 2, 132, 4.54], [130, 1, 43, 2.86], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [143, 2, 130, 3.03], [2328, 2, 147, 3.37], [6936, 2, 244, 5.39], [8648, 2, 196, 3.91], [2775, 2, 137, 2.92], [205, 2, 95, 2.77], [8650, 2, 196, 3.45], [326, 2, 77, 4.1], [593, 2, 223, 2.53], [146, 2, 132, 3.02], [145, 2, 132, 2.92], [7036, 1, 113, 4.28], [2049, 3, 360, 2.34], [2776, 2, 137, 3.16], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [88, 10, 490, 3.94], [141, 2, 136, 2.69], [151, 1, 32, 2.69], [1124, 2, 182, 3.1], [11681, 2, 234, 5.43], [206, 2, 106, 2.39], [1446, 2, 134, 3.2], [9760, 29, 63, 2.66], [8853, 2, 244, 5.48], [990, 2, 45, 2.69], [5491, 2, 93, 3.05], [1007, 2, 264, 2.49], [362, 2, 124, 2.89], [8672, 2, 247, 4.92], [1504, 2, 180, 3.69], [2055, 3, 314, 2.32], [2057, 3, 314, 2.32], [9372, 1, 201, 5.58], [3893, 1, 109, 2.96], [8649, 2, 196, 3.26], [2912, 1, 48, 2.53], [8938, 2, 125, 2.43], [434, 2, 93, 2.69], [12870, 1, 121, 3.3], [10993, 2, 40, 2.81], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 136, 2.76], [3889, 1, 122, 2.29], [5165, 1, 32, 3.97], [1429, 2, 134, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 141, 5.62], [140, 2, 77, 4.1], [3891, 1, 109, 2.96], [1006, 2, 200, 2.97], [7886, 4, 83, 2.24], [10574, 3, 278, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 493, 2.87]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 11, 0.9], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.98], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.14], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.08], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [12343, 1, 7, 2.59], [2055, 3, 7, 3.23], [2423, 80, 7, 3.02], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [75, 2, 7, 2.15], [8915, 2, 7, 0.75], [88, 10, 14, 2.0], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 1.04], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [2422, 80, 7, 2.41], [1050, 2, 7, 0.7], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [378, 2, 9, 2.87], [6098, 29, 7, 2.08], [12346, 1, 7, 2.59], [151, 1, 7, 1.38], [7704, 2, 7, 2.28], [11738, 2, 7, 1.32], [229, 1, 7, 3.68], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [1049, 2, 7, 0.7], [20252, 2, 7, 1.06], [13264, 29, 7, 0.95], [345, 3, 7, 2.32], [13258, 29, 9, 2.97], [1490, 1, 7, 0.87], [12269, 2, 7, 0.93], [964, 15, 7, 0.66], [2438, 1, 7, 2.08], [10407, 10, 10, 2.2], [1163, 3, 7, 2.25], [5208, 3, 9, 1.41], [2331, 1, 7, 1.02], [2821, 3, 12, 1.27], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [13259, 29, 7, 2.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [11687, 2, 7, 1.02], [10406, 10, 12, 2.42], [410, 1, 7, 1.3], [3478, 2, 9, 1.47], [7036, 1, 7, 0.87], [9784, 1, 7, 1.67], [20255, 2, 7, 1.14], [8938, 2, 7, 1.07], [21713, 3, 13, 0.88], [12870, 1, 7, 4.46], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [11402, 1, 7, 0.85], [11404, 2, 7, 0.83], [10410, 10, 10, 2.08], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [2438, 2, 8, 2.38], [2703, 3, 7, 4.05], [1886, 2, 7, 0.65], [19687, 1, 7, 2.23], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [21781, 2, 7, 0.86], [22125, 2, 7, 0.66], [11690, 2, 7, 0.66], [412, 1, 74, 3.02], [2422, 80, 187, 4.2], [1050, 2, 38, 1.78], [10149, 3, 866, 4.0], [2422, 29, 33, 5.41], [378, 2, 202, 4.24], [6098, 29, 33, 3.97], [12346, 1, 610, 4.37], [151, 1, 33, 2.81], [7704, 2, 176, 4.07], [11738, 2, 56, 3.11], [229, 1, 81, 5.47], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [1049, 2, 38, 1.78], [20252, 2, 92, 2.85], [13264, 29, 73, 2.74], [345, 3, 297, 4.1], [13258, 29, 39, 4.76], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [10407, 10, 1201, 4.0], [1163, 3, 114, 3.33], [5208, 3, 561, 3.2], [2331, 1, 119, 2.8], [2821, 3, 746, 3.36], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [13259, 29, 35, 4.73], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [11687, 2, 303, 2.8], [10406, 10, 1784, 4.24], [410, 1, 105, 3.09], [3478, 2, 67, 4.08], [7036, 1, 127, 2.65], [9784, 1, 72, 3.46], [20255, 2, 93, 2.93], [8938, 2, 192, 2.86], [21713, 3, 1121, 2.67], [12870, 1, 137, 6.0], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [11402, 1, 45, 2.64], [11404, 2, 105, 2.62], [10410, 10, 1201, 3.88], [11161, 1, 491, 5.57], [956, 2, 107, 2.75], [2438, 2, 643, 4.17], [2703, 3, 300, 5.84], [1886, 2, 158, 2.44], [19687, 1, 30, 4.02], [11490, 1, 98, 2.9], [107, 7, 239, 4.24], [21781, 2, 104, 2.65], [22125, 2, 63, 2.44], [11690, 2, 303, 2.44]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 1.22], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.85], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.03], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.95], [11739, 2, 7, 1.9], [10574, 3, 9, 2.49], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [8675, 2, 9, 1.42], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [8674, 2, 7, 1.46], [11836, 2, 9, 0.79], [6158, 2, 9, 2.65], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [151, 1, 7, 1.38], [12720, 2, 7, 1.69], [2776, 2, 7, 1.37], [10149, 3, 21, 1.48], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 1.81], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 3.14], [410, 1, 7, 0.87], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [2423, 80, 7, 2.8], [12351, 1, 7, 1.63], [2424, 29, 9, 1.09], [378, 2, 7, 2.23], [2423, 29, 7, 3.08], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [12373, 1, 11, 1.47], [13023, 3, 10, 2.63], [201, 3, 7, 2.12], [13034, 3, 8, 2.37], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [5208, 3, 9, 1.01], [345, 3, 7, 1.4], [11770, 1, 7, 0.89], [3, 2, 7, 5.0], [159, 1, 7, 1.33], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [11504, 2, 7, 0.67], [566, 2, 7, 0.92], [13928, 1, 7, 0.82], [11811, 1, 7, 1.93], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.2], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [7004, 1, 7, 1.91], [1490, 1, 7, 3.38], [11089, 1, 7, 0.71], [2703, 3, 7, 4.05], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [10410, 10, 10, 2.08], [94, 4, 7, 4.17], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [6097, 80, 7, 3.42], [22317, 3, 8, 0.88], [9082, 3, 24, 2.42], [418, 2, 128, 2.79], [10993, 2, 49, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [410, 1, 53, 2.3], [12526, 2, 273, 4.56], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [2423, 80, 166, 4.41], [12351, 1, 560, 3.26], [2424, 29, 30, 3.17], [378, 2, 201, 4.24], [2423, 29, 37, 4.87], [12345, 1, 560, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [12373, 1, 533, 3.26], [13023, 3, 592, 4.42], [201, 3, 268, 3.21], [13034, 3, 592, 4.16], [1519, 3, 561, 1.77], [11489, 1, 109, 2.47], [5208, 3, 563, 2.79], [345, 3, 298, 3.19], [11770, 1, 221, 2.67], [3, 2, 118, 6.0], [159, 1, 39, 3.12], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 64, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [11504, 2, 128, 2.78], [566, 2, 175, 2.7], [13928, 1, 49, 2.61], [11811, 1, 451, 3.72], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 4.0], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [7004, 1, 31, 3.0], [1490, 1, 48, 5.17], [11089, 1, 173, 2.5], [2703, 3, 300, 5.84], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 560, 3.26], [10410, 10, 1201, 3.88], [94, 4, 116, 5.96], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [6097, 80, 68, 5.21], [22317, 3, 318, 2.66], [9082, 3, 2453, 4.17]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.69], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 12, 1.12], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 2.62], [144, 2, 7, 0.91], [345, 3, 10, 0.97], [10149, 3, 25, 4.03], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 2.25], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.94], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [11234, 2, 9, 0.72], [7084, 3, 7, 0.69], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [10825, 21, 14, 2.47], [12870, 1, 7, 2.96], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.81], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 0.89], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [94, 4, 7, 4.2], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [12349, 1, 7, 3.22], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [12350, 1, 7, 3.09], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [2049, 1, 7, 0.69], [7567, 3, 7, 2.54], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [3980, 4, 7, 2.59], [1703, 2, 7, 1.51], [8274, 3, 7, 1.24], [9691, 1, 7, 2.1], [35, 1, 7, 0.89], [5209, 3, 9, 0.67], [1070, 7, 13, 1.16], [997, 2, 7, 1.98], [5584, 3, 7, 3.35], [11811, 1, 7, 1.83], [1519, 3, 17, 0.69], [11914, 1, 7, 1.42], [5660, 2, 7, 1.66], [856, 1, 7, 0.69], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [8926, 1, 7, 2.6], [523, 2, 7, 1.16], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [9081, 3, 12, 3.55], [13034, 3, 8, 3.38], [20255, 2, 7, 1.43], [307, 2, 7, 2.19], [11808, 1, 7, 1.16], [23, 1, 92, 2.51], [1006, 2, 189, 2.28], [3893, 1, 103, 2.25], [418, 2, 131, 1.94], [1504, 2, 170, 2.16], [145, 2, 139, 1.94], [5208, 3, 465, 2.33], [9827, 3, 72, 2.12], [3891, 1, 103, 2.25], [432, 3, 253, 2.02], [7005, 1, 65, 1.93], [94, 4, 99, 4.96], [1490, 1, 42, 2.23], [8853, 2, 235, 4.75], [13260, 29, 60, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 186, 2.73], [12353, 1, 557, 4.25], [20256, 2, 77, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [12349, 1, 557, 4.37], [950, 1, 55, 2.13], [33, 1, 92, 2.24], [5086, 1, 152, 3.41], [998, 2, 196, 2.61], [12350, 1, 557, 4.25], [9069, 1, 100, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 66, 2.63], [140, 2, 75, 2.75], [2049, 1, 18, 1.46], [7567, 3, 57, 3.31], [20927, 1, 65, 1.93], [126, 2, 75, 2.98], [346, 3, 525, 2.01], [3980, 4, 443, 3.74], [1703, 2, 149, 2.66], [8274, 3, 159, 2.0], [9691, 1, 62, 2.36], [35, 1, 103, 2.04], [5209, 3, 465, 1.95], [1070, 7, 494, 1.93], [997, 2, 196, 2.24], [5584, 3, 196, 3.55], [11811, 1, 416, 2.98], [1519, 3, 1545, 1.83], [11914, 1, 72, 2.19], [5660, 2, 144, 2.93], [856, 1, 32, 1.84], [8898, 3, 231, 5.05], [1091, 1, 39, 2.42], [5513, 2, 70, 1.95], [8926, 1, 50, 2.84], [523, 2, 143, 2.31], [11767, 1, 151, 2.03], [2775, 2, 130, 2.06], [9372, 1, 210, 3.18], [9081, 3, 379, 4.81], [13034, 3, 486, 4.14], [20255, 2, 77, 2.2], [307, 2, 122, 2.45], [11808, 1, 402, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [3840, 1, 7, 1.09], [151, 1, 7, 1.38], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [1504, 2, 7, 1.79], [12224, 1, 7, 0.84], [624, 2, 7, 2.19], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [2057, 3, 7, 0.84], [75, 2, 7, 0.75], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [5208, 3, 9, 0.78], [8649, 2, 7, 3.15], [3889, 1, 7, 0.65], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [11234, 2, 7, 1.8], [10993, 2, 7, 1.29], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [998, 2, 7, 2.83], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [1886, 2, 9, 0.82], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [3, 2, 7, 1.14], [346, 3, 7, 1.21], [229, 1, 7, 0.86], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5076, 1, 7, 1.3], [7887, 4, 7, 1.42], [12345, 1, 7, 1.22], [20252, 2, 7, 1.43], [126, 2, 7, 2.34], [11953, 1, 7, 0.84], [74, 1, 7, 3.79], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [11685, 2, 11, 3.45], [1492, 1, 7, 0.95], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [2774, 2, 7, 1.15], [20256, 2, 9, 0.82], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9081, 3, 12, 0.86], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [6497, 1, 7, 3.31], [12343, 1, 7, 1.22], [12229, 2, 7, 0.9], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 3.59], [11179, 1, 7, 1.6], [6496, 1, 7, 3.71], [22317, 3, 7, 1.11], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [3900, 3, 7, 3.39], [2805, 137, 7, 2.91], [8898, 3, 7, 3.35], [12526, 2, 7, 2.21], [11812, 1, 7, 0.87], [2424, 29, 7, 1.0], [3975, 4, 7, 2.86], [4253, 1, 7, 1.04], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [9760, 29, 63, 2.66], [997, 2, 232, 4.28], [2436, 4, 101, 2.98], [1006, 2, 200, 2.97], [1886, 2, 136, 2.8], [972, 3, 522, 2.82], [2424, 80, 152, 2.99], [3, 2, 118, 2.78], [346, 3, 557, 2.68], [229, 1, 81, 2.5], [6158, 2, 224, 2.86], [3495, 3, 844, 2.98], [12346, 1, 612, 2.87], [5076, 1, 127, 2.94], [7887, 4, 68, 2.73], [12345, 1, 612, 2.87], [20252, 2, 91, 3.07], [126, 2, 86, 3.98], [11953, 1, 195, 2.48], [74, 1, 171, 4.87], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 169, 2.9], [11954, 1, 195, 2.34], [11685, 2, 234, 5.43], [1492, 1, 32, 2.93], [12352, 1, 612, 2.87], [996, 2, 208, 4.81], [12721, 2, 272, 5.89], [2774, 2, 200, 2.79], [20256, 2, 81, 2.94], [12350, 1, 612, 2.87], [3981, 3, 1471, 3.14], [9081, 3, 473, 2.5], [9491, 21, 1872, 2.76], [5434, 1, 42, 2.89], [2423, 80, 164, 3.36], [6497, 1, 35, 4.95], [12343, 1, 612, 2.87], [12229, 2, 133, 2.84], [5584, 3, 206, 4.28], [2438, 2, 553, 2.82], [10388, 2, 211, 3.56], [12351, 1, 612, 2.87], [10407, 10, 645, 5.06], [11179, 1, 85, 3.24], [6496, 1, 38, 5.36], [22317, 3, 308, 2.75], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 493, 2.87], [3900, 3, 37, 4.29], [2805, 137, 175, 4.54], [8898, 3, 257, 4.83], [12526, 2, 135, 3.53], [11812, 1, 209, 2.85], [2424, 29, 34, 2.65], [3975, 4, 186, 4.34], [4253, 1, 149, 2.97], [11490, 1, 106, 2.29], [336, 15, 110, 3.43]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 0.89], [2327, 2, 7, 1.82], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.87], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [151, 1, 7, 0.91], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 0.92], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.9], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [4032, 29, 7, 0.9], [418, 2, 7, 1.68], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [12304, 1, 7, 0.92], [5151, 2, 7, 1.13], [229, 1, 7, 3.82], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [972, 3, 9, 0.93], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [13034, 3, 7, 3.52], [2424, 29, 7, 2.13], [11426, 25, 7, 1.07], [3, 2, 7, 1.01], [11737, 2, 7, 0.91], [5076, 1, 7, 1.17], [11767, 1, 7, 0.88], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [8677, 3, 8, 1.86], [75, 2, 7, 1.94], [11586, 1, 14, 3.12], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [9998, 80, 9, 2.71], [2438, 2, 8, 1.84], [12526, 2, 9, 3.05], [2424, 80, 146, 3.69], [346, 3, 493, 2.39], [3334, 5, 138, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.13], [7885, 4, 120, 2.31], [6098, 80, 59, 3.45], [6097, 29, 27, 5.08], [11089, 1, 148, 2.22], [12345, 1, 536, 2.28], [10149, 3, 666, 3.62], [20256, 2, 72, 2.55], [147, 1, 77, 3.78], [22316, 3, 272, 2.08], [1492, 1, 28, 3.66], [11953, 1, 172, 2.22], [432, 3, 236, 2.82], [11491, 2, 121, 2.36], [20252, 2, 72, 2.53], [4032, 29, 73, 2.55], [418, 2, 121, 3.09], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 84, 2.61], [12304, 1, 87, 2.6], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [972, 3, 458, 2.55], [2331, 1, 100, 4.08], [346, 1, 123, 2.39], [995, 2, 206, 3.55], [416, 1, 66, 2.59], [13034, 3, 507, 4.92], [2424, 29, 29, 3.54], [11426, 25, 103, 2.49], [3, 2, 105, 2.43], [11737, 2, 49, 2.33], [5076, 1, 112, 2.58], [11767, 1, 140, 2.3], [439, 1, 74, 4.65], [11490, 1, 84, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [1701, 2, 126, 4.58], [11180, 1, 67, 2.67], [8677, 3, 253, 3.28], [75, 2, 124, 3.36], [11586, 1, 296, 3.61], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 148, 3.47], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.87], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 0.83], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3840, 1, 7, 0.72], [3891, 1, 7, 1.68], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [990, 2, 9, 0.88], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8649, 2, 7, 2.8], [362, 2, 7, 1.64], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [3495, 3, 21, 1.48], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [7084, 3, 7, 1.12], [2991, 3, 7, 4.28], [7005, 1, 7, 1.73], [10149, 3, 21, 1.48], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.03], [5165, 2, 10, 2.64], [417, 2, 7, 0.98], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [74, 1, 7, 2.13], [2912, 2, 8, 0.79], [389, 4, 7, 2.13], [6496, 1, 7, 0.85], [35, 1, 7, 1.54], [7567, 3, 7, 2.62], [411, 2, 7, 1.93], [12721, 2, 7, 1.91], [1413, 15, 7, 1.04], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [21269, 3, 7, 4.87], [8676, 2, 7, 3.11], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [11085, 2, 8, 3.16], [12526, 2, 7, 2.15], [9784, 1, 7, 0.9], [1274, 1, 9, 1.03], [6494, 1, 7, 2.34], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [345, 3, 7, 2.52], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [96, 11, 22, 1.1], [3577, 25, 7, 0.92], [9, 1, 7, 0.66], [10408, 10, 9, 3.19], [6158, 2, 204, 2.54], [20927, 1, 68, 3.22], [3981, 3, 1251, 3.73], [5165, 2, 163, 4.85], [417, 2, 133, 2.43], [2912, 1, 38, 1.51], [3982, 3, 612, 4.03], [8939, 2, 150, 2.61], [1007, 2, 207, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 86, 2.74], [956, 2, 93, 2.32], [11772, 1, 170, 4.18], [286, 3, 108, 3.65], [1492, 1, 28, 3.97], [11767, 1, 125, 2.52], [336, 15, 96, 3.67], [972, 3, 459, 2.73], [11769, 1, 125, 3.17], [11490, 1, 48, 2.71], [11770, 1, 170, 3.51], [410, 1, 46, 2.7], [74, 1, 176, 3.58], [2912, 2, 342, 2.25], [389, 4, 162, 3.34], [6496, 1, 35, 2.31], [35, 1, 86, 2.75], [7567, 3, 54, 3.83], [411, 2, 48, 2.73], [12721, 2, 218, 3.11], [1413, 15, 77, 2.75], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 228, 2.56], [1126, 2, 197, 2.71], [4176, 4, 374, 4.3], [2436, 4, 89, 2.5], [9372, 1, 196, 4.79], [21269, 3, 254, 6.0], [8676, 2, 245, 4.57], [8677, 3, 229, 2.72], [22247, 2, 218, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [11085, 2, 414, 4.36], [12526, 2, 235, 3.6], [9784, 1, 56, 2.57], [1274, 1, 63, 3.06], [6494, 1, 23, 3.55], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [345, 3, 230, 3.19], [7573, 1, 259, 3.67], [12225, 1, 141, 3.96], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [96, 11, 661, 2.81], [3577, 25, 68, 2.59], [9, 1, 30, 2.11]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.77], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.53], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.63], [11737, 2, 7, 1.18], [11838, 2, 7, 1.04], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [88, 10, 14, 1.5], [434, 2, 7, 1.44], [2776, 2, 9, 1.21], [142, 2, 7, 1.05], [151, 1, 7, 1.38], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 7, 2.34], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 7, 3.77], [11836, 2, 9, 0.79], [7705, 2, 7, 2.08], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [378, 2, 7, 4.55], [7706, 2, 7, 2.08], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [10149, 3, 21, 2.21], [3478, 2, 9, 2.65], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [307, 2, 7, 2.95], [2774, 2, 7, 1.06], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [7004, 1, 7, 1.96], [418, 2, 7, 1.49], [13928, 1, 7, 0.74], [411, 2, 7, 0.91], [11089, 1, 7, 0.71], [2057, 3, 7, 2.1], [413, 1, 9, 1.34], [11844, 2, 7, 1.79], [14037, 3, 7, 1.85], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [2050, 3, 7, 2.1], [3893, 1, 7, 1.3], [13260, 29, 7, 1.29], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [6494, 1, 7, 0.85], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [11490, 1, 7, 0.86], [1413, 16, 7, 0.71], [414, 1, 9, 1.63], [7708, 2, 7, 2.28], [1243, 2, 7, 1.32], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [565, 2, 7, 0.84], [5208, 3, 9, 1.82], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [11491, 2, 7, 1.5], [21793, 1, 7, 1.83], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [410, 1, 7, 0.74], [2422, 80, 9, 4.33], [11504, 2, 7, 1.33], [6098, 80, 7, 2.19], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3430, 15, 7, 2.26], [147, 1, 7, 2.73], [3674, 2, 7, 0.96], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [6098, 29, 7, 2.55], [8635, 3, 7, 1.71], [307, 2, 82, 5.06], [2774, 2, 184, 3.11], [6497, 1, 38, 2.59], [60, 3, 730, 4.08], [12526, 2, 245, 4.87], [7004, 1, 31, 3.07], [418, 2, 141, 3.27], [13928, 1, 44, 2.85], [411, 2, 109, 2.7], [11089, 1, 173, 2.5], [2057, 3, 473, 3.89], [413, 1, 76, 3.1], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [2050, 3, 473, 3.89], [3893, 1, 110, 2.9], [13260, 29, 65, 3.33], [8274, 3, 115, 2.76], [6097, 80, 61, 5.49], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 104, 4.11], [159, 3, 709, 3.16], [9784, 1, 71, 4.16], [6494, 1, 52, 2.64], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [11490, 1, 109, 2.65], [1413, 16, 50, 2.5], [414, 1, 76, 3.31], [7708, 2, 176, 4.07], [1243, 2, 90, 2.93], [3889, 1, 110, 2.78], [1492, 1, 37, 2.92], [565, 2, 176, 2.63], [5208, 3, 558, 3.6], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [11491, 2, 141, 3.28], [21793, 1, 214, 2.94], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [410, 1, 53, 2.17], [2422, 80, 168, 5.46], [11504, 2, 141, 3.12], [6098, 80, 66, 4.03], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3430, 15, 69, 4.05], [147, 1, 87, 4.52], [3674, 2, 260, 2.74], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65], [6098, 29, 37, 4.34], [8635, 3, 115, 2.78]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.9], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [88, 10, 21, 3.14], [7886, 4, 7, 1.22], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 0.87], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.7], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.8], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.43], [94, 4, 7, 3.56], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 11, 3.19], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.13], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 7, 1.14], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [21269, 3, 7, 2.34], [998, 2, 7, 1.87], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 0.8], [14017, 3, 9, 1.09], [823, 1, 7, 1.62], [34, 1, 7, 2.43], [5209, 3, 7, 0.98], [972, 3, 8, 1.49], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [1091, 1, 7, 1.18], [432, 3, 234, 2.81], [8677, 3, 226, 2.67], [11681, 2, 206, 5.11], [148, 1, 66, 4.77], [96, 11, 651, 2.32], [1490, 1, 38, 2.48], [12225, 1, 71, 2.57], [1124, 2, 143, 2.7], [11737, 2, 32, 2.92], [1243, 2, 83, 2.22], [22247, 2, 216, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 216, 4.71], [201, 3, 226, 2.53], [412, 1, 63, 3.1], [9760, 29, 54, 3.01], [10574, 3, 382, 4.26], [8651, 2, 171, 2.79], [20927, 1, 61, 2.46], [5208, 3, 480, 2.56], [8676, 2, 217, 2.65], [229, 1, 63, 2.95], [1767, 25, 132, 2.76], [25, 1, 95, 2.71], [45, 2, 82, 4.36], [9069, 1, 93, 2.41], [413, 1, 65, 2.94], [11490, 1, 83, 2.32], [149, 2, 66, 4.03], [159, 3, 602, 2.48], [3495, 3, 737, 3.28], [21269, 3, 225, 3.5], [998, 2, 181, 2.54], [140, 2, 69, 3.09], [95, 3, 892, 4.89], [3980, 4, 368, 4.11], [950, 1, 25, 2.17], [5946, 1, 95, 2.48], [9372, 1, 173, 4.69], [1126, 2, 175, 2.52], [1766, 25, 144, 2.69], [2775, 2, 119, 2.63], [1413, 15, 53, 4.01], [490, 1, 45, 2.39], [506, 1, 74, 6.0], [8674, 2, 217, 2.66], [11489, 1, 83, 2.87], [8898, 3, 225, 4.39], [997, 2, 202, 4.64], [3670, 2, 180, 4.37], [1070, 7, 453, 2.51], [9691, 1, 57, 2.54], [107, 2, 31, 2.12], [974, 3, 113, 2.8], [20498, 1, 74, 3.4], [11954, 1, 171, 2.17], [14037, 3, 125, 2.18], [14017, 3, 149, 2.47], [823, 1, 30, 3.2], [34, 1, 85, 3.19], [5209, 3, 480, 2.29], [972, 3, 453, 2.26], [9784, 1, 55, 2.67], [11739, 2, 32, 2.92], [1091, 1, 41, 2.48]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [151, 1, 7, 0.92], [362, 2, 9, 0.83], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 9, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 0.68], [88, 10, 14, 2.0], [22247, 2, 9, 1.93], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [10, 2, 11, 1.65], [8677, 3, 8, 3.58], [2054, 3, 7, 4.0], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.88], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [147, 1, 7, 2.73], [1492, 1, 6, 1.98], [5081, 2, 7, 0.81], [140, 2, 7, 1.98], [167, 3, 9, 1.86], [7005, 1, 9, 0.89], [7036, 1, 7, 1.62], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 9, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [5812, 3, 8, 3.38], [13280, 1, 9, 3.64], [168, 3, 9, 1.46], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [57, 1, 7, 0.7], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [8853, 2, 14, 3.62], [6097, 29, 7, 3.38], [8939, 2, 7, 0.84], [416, 1, 7, 2.33], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [490, 1, 7, 2.02], [1490, 1, 7, 1.27], [998, 2, 7, 3.68], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [95, 3, 26, 0.85], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [1243, 2, 7, 0.96], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [149, 2, 7, 2.73], [126, 2, 7, 2.75], [13034, 3, 8, 3.38], [997, 2, 7, 3.68], [9760, 29, 7, 0.87], [20498, 1, 7, 1.96], [20255, 2, 7, 1.43], [5086, 1, 9, 1.76], [5513, 2, 7, 0.84], [12924, 1, 9, 0.86], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [22317, 3, 8, 1.35], [11739, 2, 7, 1.65], [13260, 29, 7, 1.0], [7567, 3, 7, 3.2], [974, 3, 7, 1.64], [1413, 15, 7, 1.52], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [229, 1, 7, 2.92], [972, 3, 8, 1.35], [5813, 3, 9, 2.14], [8557, 3, 7, 1.01], [192, 3, 22, 4.76], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [9691, 1, 9, 2.48], [20498, 3, 8, 2.02], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [1622, 1, 10, 0.79], [11454, 2, 9, 3.15], [2775, 2, 9, 0.73], [12870, 1, 113, 2.27], [57, 1, 79, 1.85], [11234, 2, 170, 2.47], [415, 1, 71, 2.31], [8651, 2, 186, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [8853, 2, 235, 4.88], [6097, 29, 27, 4.65], [8939, 2, 76, 2.11], [416, 1, 71, 2.57], [6097, 80, 55, 4.65], [11737, 2, 23, 3.11], [20256, 2, 77, 2.19], [490, 1, 36, 2.28], [1490, 1, 42, 2.03], [998, 2, 218, 4.83], [20927, 1, 65, 1.93], [79, 1, 44, 1.85], [95, 3, 936, 2.19], [6098, 29, 30, 3.21], [14017, 3, 162, 2.22], [6098, 80, 61, 3.2], [414, 1, 79, 2.64], [9069, 1, 100, 2.17], [1070, 7, 494, 2.01], [1243, 2, 90, 2.12], [8898, 3, 231, 3.94], [1126, 2, 189, 1.99], [149, 2, 80, 3.88], [126, 2, 75, 2.98], [13034, 3, 486, 4.14], [997, 2, 218, 4.83], [9760, 29, 59, 2.09], [20498, 1, 79, 2.73], [20255, 2, 77, 2.2], [5086, 1, 152, 3.49], [5513, 2, 70, 1.99], [12924, 1, 44, 2.3], [9784, 1, 60, 2.28], [336, 15, 93, 1.92], [22317, 3, 261, 2.11], [11739, 2, 47, 2.92], [13260, 29, 67, 2.15], [7567, 3, 57, 3.41], [974, 3, 136, 2.79], [1413, 15, 82, 2.79], [11085, 2, 508, 1.97], [5811, 3, 486, 3.58], [229, 1, 75, 4.08], [972, 3, 546, 2.51], [5813, 3, 486, 3.24], [8557, 3, 167, 2.28], [192, 3, 1287, 5.9], [9082, 3, 2070, 3.66], [506, 1, 80, 3.88], [3049, 3, 113, 4.42], [9691, 1, 62, 2.98], [20498, 3, 477, 2.76], [14018, 3, 162, 2.22], [524, 1, 69, 2.41], [4076, 3, 163, 3.19], [470, 1, 21, 2.12], [1622, 1, 50, 1.56], [11454, 2, 277, 4.42], [2775, 2, 130, 2.06]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [130, 1, 9, 0.77], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [11681, 2, 7, 3.3], [6936, 2, 9, 4.22], [305, 2, 7, 0.88], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [2778, 2, 9, 1.07], [206, 2, 7, 1.35], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [248, 1, 7, 0.8], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.44], [11737, 2, 7, 1.58], [990, 2, 7, 1.06], [417, 2, 7, 0.98], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12870, 1, 7, 3.71], [12353, 1, 9, 2.27], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [10574, 3, 8, 2.36], [3, 2, 9, 0.74], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [9760, 29, 7, 1.3], [624, 2, 7, 3.92], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [21793, 1, 7, 4.43], [3891, 1, 7, 0.98], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [96, 11, 22, 1.59], [11739, 2, 7, 1.14], [6158, 2, 9, 0.75], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [1126, 2, 7, 1.26], [9372, 1, 7, 3.34], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [5165, 1, 7, 3.03], [2912, 1, 7, 0.8], [8898, 3, 7, 5.0], [413, 1, 7, 1.94], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [9491, 21, 16, 1.93], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 1.6], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [22247, 2, 7, 2.43], [412, 1, 7, 0.84], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [308, 1, 7, 3.28], [432, 3, 7, 0.86], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 2.06], [148, 1, 7, 1.01], [20256, 2, 7, 0.81], [10407, 10, 10, 2.88], [22317, 3, 7, 1.42], [1413, 15, 7, 1.17], [10410, 10, 10, 3.2], [10780, 10, 7, 3.0], [13286, 1, 7, 2.52], [415, 1, 7, 1.24], [439, 1, 7, 2.12], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [7573, 1, 11, 3.36], [11767, 1, 7, 0.92], [12347, 1, 7, 3.27], [972, 1, 7, 2.77], [10387, 2, 7, 1.75], [10149, 3, 21, 1.48], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9690, 1, 7, 1.39], [9971, 2, 7, 2.77], [1126, 2, 197, 2.71], [9372, 1, 196, 4.79], [10388, 2, 186, 3.58], [411, 2, 84, 2.73], [98, 11, 720, 2.35], [972, 3, 459, 2.73], [2912, 1, 38, 2.01], [8898, 3, 242, 6.0], [413, 1, 66, 2.64], [2776, 2, 135, 4.04], [410, 1, 81, 2.7], [12343, 1, 488, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [9491, 21, 1812, 3.36], [956, 2, 93, 2.32], [1492, 1, 14, 3.97], [418, 2, 109, 2.48], [12345, 1, 488, 3.94], [13928, 1, 37, 2.81], [9784, 1, 56, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [22247, 2, 243, 3.88], [412, 1, 65, 2.55], [336, 15, 86, 2.36], [8677, 3, 229, 2.72], [11490, 1, 94, 2.47], [7567, 3, 54, 3.83], [2912, 2, 342, 2.25], [308, 1, 139, 4.73], [432, 3, 237, 2.57], [307, 2, 115, 2.78], [11953, 1, 175, 2.42], [33, 1, 86, 2.74], [11770, 1, 170, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 86, 2.75], [148, 1, 79, 2.46], [20256, 2, 81, 2.26], [10407, 10, 1015, 4.32], [22317, 3, 245, 2.63], [1413, 15, 86, 2.63], [10410, 10, 1015, 4.64], [10780, 10, 316, 4.46], [13286, 1, 246, 3.2], [415, 1, 74, 2.69], [439, 1, 75, 3.57], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [7573, 1, 288, 4.82], [11767, 1, 139, 2.37], [12347, 1, 488, 4.47], [972, 1, 85, 4.22], [10387, 2, 186, 3.2], [10149, 3, 752, 2.93], [74, 1, 176, 3.58], [20686, 1, 476, 4.17], [3478, 2, 29, 3.79], [12271, 2, 55, 3.31], [9690, 1, 65, 2.85], [9971, 2, 211, 3.59]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 1.22], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.38], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [411, 2, 7, 0.86], [12352, 1, 7, 3.09], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [8674, 2, 7, 1.17], [583, 2, 7, 2.85], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11738, 2, 7, 1.23], [11836, 2, 7, 0.97], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [6097, 29, 7, 3.88], [413, 1, 7, 1.87], [2057, 3, 7, 3.23], [2055, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [12344, 1, 7, 2.54], [1413, 15, 7, 0.89], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [3429, 15, 7, 0.85], [247, 1, 7, 3.32], [22316, 3, 7, 0.85], [1886, 2, 9, 0.75], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [8938, 2, 7, 1.07], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [94, 4, 7, 4.04], [11490, 1, 7, 0.96], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [947, 15, 7, 0.71], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [11671, 1, 7, 0.83], [5939, 3, 7, 0.91], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [5813, 3, 8, 1.92], [23920, 2, 7, 0.85], [11954, 1, 7, 0.77], [308, 1, 11, 1.83], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [22573, 2, 7, 0.71], [3429, 15, 53, 2.63], [247, 1, 86, 5.11], [22316, 3, 318, 2.64], [1886, 2, 141, 2.86], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 116, 3.92], [9785, 1, 64, 3.01], [12526, 2, 273, 4.56], [8599, 1, 145, 4.37], [8938, 2, 192, 2.86], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 63, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [4232, 80, 153, 5.02], [94, 4, 119, 5.82], [11490, 1, 110, 2.75], [436, 2, 107, 2.72], [107, 7, 216, 3.2], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [947, 15, 41, 2.5], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [11671, 1, 310, 2.62], [5939, 3, 266, 2.71], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [11160, 1, 491, 5.45], [11844, 2, 186, 2.77], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [5813, 3, 589, 3.7], [23920, 2, 106, 2.63], [11954, 1, 203, 2.56], [308, 1, 173, 3.62], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 530, 5.12], [22573, 2, 36, 2.14]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.38], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [2057, 3, 7, 0.84], [9372, 1, 7, 3.79], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [2912, 1, 7, 0.89], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [10993, 2, 7, 1.34], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 3.18], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.78], [1622, 1, 7, 1.03], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [1886, 2, 9, 0.82], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [229, 1, 7, 0.86], [11811, 1, 7, 0.8], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [94, 4, 7, 3.68], [998, 2, 7, 3.33], [972, 3, 10, 1.12], [2912, 2, 15, 0.66], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [412, 1, 7, 1.85], [5209, 3, 9, 0.78], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [7887, 4, 7, 1.81], [12212, 29, 7, 0.98], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.96], [9784, 1, 7, 0.96], [84, 2, 7, 1.37], [13928, 2, 7, 1.35], [126, 2, 7, 2.34], [411, 2, 7, 0.72], [11739, 2, 7, 2.61], [3048, 3, 7, 4.58], [9691, 1, 7, 1.05], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [11954, 1, 7, 0.7], [7567, 3, 7, 2.64], [1622, 1, 105, 2.67], [75, 2, 126, 2.69], [3, 2, 106, 2.81], [20927, 1, 34, 2.64], [5165, 2, 342, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [1886, 2, 136, 2.8], [12721, 2, 244, 3.23], [22247, 2, 244, 3.57], [147, 1, 78, 4.28], [346, 3, 557, 2.68], [996, 2, 208, 4.81], [229, 1, 81, 2.5], [11811, 1, 402, 2.78], [20252, 2, 91, 3.07], [11685, 2, 234, 5.43], [94, 4, 105, 4.77], [998, 2, 208, 4.81], [972, 3, 522, 2.82], [2912, 2, 348, 2.47], [9491, 21, 1872, 2.76], [76, 2, 95, 2.65], [35, 1, 97, 2.93], [439, 1, 76, 4.69], [413, 1, 75, 3.04], [13028, 3, 128, 5.72], [13928, 1, 41, 3.26], [8104, 1, 180, 3.59], [5076, 1, 114, 2.77], [2805, 137, 157, 3.08], [412, 1, 73, 3.83], [5209, 3, 493, 2.87], [8676, 2, 275, 5.72], [33, 1, 97, 3.76], [418, 2, 124, 3.13], [148, 1, 78, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 257, 4.83], [7887, 4, 39, 2.3], [12212, 29, 105, 2.95], [20256, 2, 81, 2.94], [38, 1, 97, 3.19], [11490, 1, 80, 2.77], [11770, 1, 206, 4.4], [34, 1, 97, 3.07], [10407, 10, 645, 5.06], [415, 1, 75, 2.92], [9784, 1, 71, 2.6], [84, 2, 58, 2.85], [13928, 2, 20, 3.26], [126, 2, 86, 3.98], [411, 2, 106, 2.37], [11739, 2, 55, 4.25], [3048, 3, 236, 6.0], [9691, 1, 74, 2.7], [9690, 1, 25, 1.67], [8939, 2, 169, 2.9], [5584, 3, 206, 4.28], [11953, 1, 195, 2.48], [39, 1, 97, 3.13], [12351, 1, 612, 2.87], [11954, 1, 195, 2.34], [7567, 3, 60, 4.12]]</t>
+    <t>[[2778, 2, 5, 0.47], [6935, 2, 7, 1.8], [6936, 2, 4, 1.58], [305, 2, 4, 0.65], [8672, 2, 5, 0.8], [615, 2, 4, 1.37], [1504, 2, 5, 0.82], [2775, 2, 4, 0.66], [145, 2, 4, 0.51], [2776, 2, 4, 1.41], [8853, 2, 4, 1.78], [12721, 2, 5, 0.72], [2327, 2, 4, 0.51], [146, 2, 4, 0.56], [143, 2, 4, 0.59], [2328, 2, 4, 0.51], [11737, 2, 4, 0.53], [11681, 2, 5, 0.47], [616, 2, 4, 1.21], [141, 2, 4, 0.79], [5491, 2, 4, 0.56], [205, 2, 4, 0.56], [2497, 2, 4, 0.51], [144, 2, 4, 0.5], [8650, 2, 4, 1.91], [5493, 2, 4, 0.74], [8676, 2, 4, 1.06], [8673, 2, 4, 0.74], [417, 2, 4, 0.79], [3670, 2, 4, 1.02], [8648, 2, 4, 1.91], [589, 2, 4, 0.4], [3, 2, 4, 0.37], [206, 2, 4, 0.56], [6097, 80, 4, 1.86], [22247, 2, 4, 1.21], [8674, 2, 4, 1.22], [11836, 2, 4, 0.5], [6497, 1, 4, 0.44], [624, 2, 4, 1.02], [2424, 29, 4, 0.43], [593, 2, 5, 0.52], [523, 2, 4, 0.68], [12344, 1, 4, 0.83], [6097, 29, 4, 1.86], [12720, 2, 4, 0.84], [6098, 80, 4, 1.16], [12345, 1, 4, 2.08], [11739, 2, 4, 0.53], [2424, 80, 4, 0.43], [88, 10, 8, 0.95], [944, 15, 4, 0.35], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [60, 3, 5, 1.19], [326, 2, 4, 0.78], [142, 2, 4, 0.79], [1492, 1, 4, 0.53], [1413, 15, 4, 0.36], [411, 2, 4, 0.49], [1050, 2, 4, 0.38], [2422, 80, 4, 1.33], [6496, 1, 4, 0.51], [6098, 29, 4, 1.16], [378, 2, 4, 2.29], [12346, 1, 4, 2.08], [10149, 3, 13, 1.12], [2422, 29, 4, 1.33], [7704, 2, 4, 1.15], [151, 1, 4, 0.7], [22316, 3, 4, 0.46], [1243, 2, 4, 0.75], [11738, 2, 4, 0.53], [345, 3, 4, 1.16], [13264, 29, 4, 0.52], [229, 1, 4, 2.0], [1490, 1, 4, 0.47], [1049, 2, 4, 0.38], [20252, 2, 4, 0.45], [964, 15, 4, 0.4], [12269, 2, 4, 0.47], [2331, 1, 4, 0.55], [10407, 10, 6, 1.64], [201, 3, 4, 1.26], [7004, 1, 4, 0.56], [2821, 3, 8, 0.45], [5208, 3, 5, 0.54], [307, 2, 4, 1.04], [1163, 3, 4, 1.45], [186, 3, 7, 0.48], [149, 2, 4, 0.37], [957, 2, 4, 0.55], [7705, 2, 4, 1.15], [7706, 2, 4, 1.15], [418, 2, 4, 0.46], [12229, 2, 4, 0.45], [20255, 2, 4, 0.47], [11687, 2, 4, 0.5], [10406, 10, 7, 1.21], [3478, 2, 4, 0.89], [8938, 2, 4, 0.53], [11844, 2, 4, 0.47], [9784, 1, 4, 0.91], [7036, 1, 4, 0.43], [1414, 15, 4, 0.43], [410, 1, 4, 0.69], [12870, 1, 4, 2.21], [10410, 10, 6, 1.56], [10408, 10, 6, 1.32], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [19687, 1, 4, 1.21], [11490, 1, 4, 0.58], [107, 7, 5, 1.26], [2703, 3, 4, 2.13], [21781, 2, 4, 0.47], [956, 2, 4, 0.53], [1886, 2, 4, 0.35], [4232, 80, 4, 1.65], [11161, 1, 5, 1.78], [10411, 10, 6, 1.06], [159, 16, 4, 0.71], [9760, 29, 4, 0.37], [11159, 1, 7, 0.84], [5976, 1, 4, 1.45], [413, 1, 4, 1.52], [7708, 2, 4, 1.15], [9065, 2, 4, 0.48], [12373, 1, 5, 0.45], [590, 15, 4, 0.54], [414, 1, 4, 1.52], [94, 4, 4, 1.77], [11689, 2, 4, 0.47], [2778, 2, 157, 3.12], [6935, 2, 281, 6.0], [6936, 2, 281, 5.7], [305, 2, 147, 3.03], [8672, 2, 289, 4.96], [615, 2, 108, 4.42], [1504, 2, 205, 3.76], [2775, 2, 157, 3.09], [145, 2, 151, 4.45], [2776, 2, 157, 4.49], [8853, 2, 281, 5.28], [12721, 2, 285, 3.53], [2327, 2, 151, 3.61], [146, 2, 152, 2.87], [143, 2, 149, 2.92], [2328, 2, 151, 3.64], [11737, 2, 57, 3.1], [11681, 2, 277, 3.19], [616, 2, 108, 4.11], [141, 2, 156, 4.16], [5491, 2, 109, 2.86], [205, 2, 110, 2.86], [2497, 2, 205, 2.76], [144, 2, 76, 4.06], [8650, 2, 225, 6.0], [5493, 2, 109, 3.2], [8676, 2, 289, 3.82], [8673, 2, 289, 3.21], [417, 2, 156, 4.16], [3670, 2, 236, 5.78], [8648, 2, 225, 5.47], [589, 2, 77, 2.2], [3, 2, 122, 3.02], [206, 2, 55, 2.5], [6097, 80, 68, 5.36], [22247, 2, 285, 4.12], [8674, 2, 289, 4.13], [11836, 2, 270, 2.74], [6497, 1, 38, 2.63], [624, 2, 108, 3.74], [2424, 29, 34, 4.06], [593, 2, 231, 2.7], [523, 2, 156, 3.09], [12344, 1, 615, 3.87], [6097, 29, 34, 5.36], [12720, 2, 285, 3.47], [6098, 80, 74, 4.31], [12345, 1, 615, 5.79], [11739, 2, 57, 3.1], [2424, 80, 171, 4.06], [88, 10, 562, 4.69], [944, 15, 15, 1.74], [8915, 2, 130, 2.39], [75, 2, 144, 4.03], [60, 3, 815, 3.89], [326, 2, 46, 3.29], [142, 2, 156, 4.16], [1492, 1, 37, 2.8], [1413, 15, 100, 2.47], [411, 2, 110, 2.72], [1050, 2, 38, 1.8], [2422, 80, 187, 4.34], [6496, 1, 41, 2.76], [6098, 29, 37, 4.31], [378, 2, 225, 6.0], [12346, 1, 615, 5.79], [10149, 3, 868, 4.0]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.51], [8650, 2, 4, 2.1], [362, 2, 4, 0.2], [5491, 2, 4, 0.2], [130, 1, 4, 0.45], [5493, 2, 4, 0.3], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [11685, 2, 4, 0.7], [326, 2, 4, 0.54], [8672, 2, 6, 0.91], [417, 2, 4, 0.47], [6935, 2, 7, 1.38], [11681, 2, 5, 0.7], [205, 2, 4, 0.37], [8648, 2, 4, 2.1], [206, 2, 4, 0.2], [6936, 2, 4, 1.17], [8915, 2, 5, 0.2], [142, 2, 4, 0.2], [2049, 3, 9, 0.39], [11838, 2, 4, 0.2], [12721, 2, 6, 0.48], [1446, 2, 4, 0.78], [523, 2, 4, 0.66], [8676, 2, 4, 0.49], [615, 2, 4, 1.55], [11737, 2, 4, 1.08], [305, 2, 4, 0.65], [616, 2, 4, 1.29], [413, 1, 4, 1.43], [412, 1, 4, 0.86], [10574, 3, 5, 1.29], [411, 2, 4, 0.5], [8675, 2, 5, 1.23], [145, 2, 4, 0.51], [76, 2, 4, 1.11], [1429, 2, 4, 0.48], [2775, 2, 4, 0.43], [143, 2, 4, 0.64], [8673, 2, 4, 1.45], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.56], [151, 1, 4, 0.7], [12720, 2, 4, 0.84], [6158, 2, 5, 1.77], [2050, 3, 5, 0.35], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 10, 0.85], [75, 2, 4, 1.17], [2057, 3, 5, 0.35], [144, 2, 4, 0.5], [1504, 2, 5, 0.59], [8939, 2, 4, 0.74], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 4, 0.46], [88, 10, 8, 0.95], [2859, 15, 4, 0.44], [159, 3, 5, 0.72], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.83], [20252, 2, 4, 0.38], [7705, 2, 4, 1.15], [9784, 1, 4, 0.88], [2424, 29, 4, 1.0], [12526, 2, 4, 0.74], [11844, 2, 4, 0.47], [2423, 29, 4, 1.16], [12351, 1, 4, 0.66], [414, 1, 4, 0.73], [2423, 80, 4, 1.1], [60, 3, 5, 1.36], [378, 2, 4, 2.48], [12345, 1, 4, 0.56], [2424, 80, 4, 0.43], [13023, 3, 6, 1.51], [11490, 1, 4, 0.48], [201, 3, 4, 1.01], [13034, 3, 5, 1.37], [12373, 1, 5, 0.45], [1519, 3, 9, 0.39], [345, 3, 4, 0.66], [11489, 1, 4, 0.39], [5208, 3, 5, 0.48], [3, 2, 4, 3.06], [7886, 4, 5, 0.44], [6952, 1, 4, 0.45], [159, 1, 4, 0.73], [20927, 1, 4, 0.48], [11954, 1, 4, 0.44], [3430, 15, 4, 0.35], [432, 3, 4, 2.04], [566, 2, 4, 0.5], [13928, 1, 4, 0.45], [11504, 2, 4, 0.52], [11952, 1, 4, 0.43], [11811, 1, 4, 0.38], [2703, 3, 4, 2.13], [2331, 1, 4, 0.55], [114, 3, 4, 1.64], [7004, 1, 4, 1.02], [5584, 3, 4, 1.55], [10407, 10, 6, 1.64], [1492, 1, 4, 0.53], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [11089, 1, 4, 0.39], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [944, 15, 4, 0.41], [7706, 2, 4, 1.15], [1886, 2, 4, 0.42], [12348, 1, 4, 0.66], [308, 1, 5, 0.54], [10410, 10, 6, 1.56], [11674, 1, 4, 0.36], [3981, 3, 8, 0.51], [94, 4, 4, 1.77], [3891, 1, 4, 2.19], [11953, 1, 4, 0.48], [6097, 80, 4, 1.86], [9082, 3, 15, 1.25], [11161, 1, 5, 1.78], [20259, 2, 4, 0.42], [1274, 1, 4, 0.6], [10408, 10, 6, 1.32], [9690, 1, 4, 0.58], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 5.82], [362, 2, 122, 3.23], [5491, 2, 92, 3.39], [130, 1, 34, 3.43], [5493, 2, 92, 3.76], [589, 2, 103, 3.23], [2327, 2, 128, 4.11], [11685, 2, 277, 3.42], [326, 2, 46, 3.06], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 284, 5.89], [11681, 2, 277, 3.78], [205, 2, 110, 2.52], [8648, 2, 225, 5.82], [206, 2, 62, 2.61], [6936, 2, 284, 4.68], [142, 2, 133, 3.33], [2049, 3, 465, 3.01], [11838, 2, 227, 3.3], [12721, 2, 241, 3.74], [1446, 2, 77, 3.25], [523, 2, 133, 3.51], [8676, 2, 288, 4.22], [615, 2, 108, 4.76], [11737, 2, 57, 3.86], [305, 2, 147, 3.03], [616, 2, 108, 4.26], [413, 1, 74, 4.53], [412, 1, 71, 4.06], [10574, 3, 503, 4.63], [411, 2, 110, 2.74], [8675, 2, 244, 4.22], [145, 2, 151, 4.45], [76, 2, 109, 3.92], [1429, 2, 153, 2.7], [2775, 2, 158, 2.61], [143, 2, 149, 3.01], [8673, 2, 285, 5.16], [8674, 2, 288, 3.25], [8938, 2, 190, 3.65], [11836, 2, 227, 3.14], [146, 2, 152, 2.87], [151, 1, 34, 2.79], [12720, 2, 285, 3.47], [6158, 2, 131, 4.93], [2050, 3, 137, 4.29], [10149, 3, 875, 3.26], [2776, 2, 158, 3.22], [3495, 3, 968, 3.34], [75, 2, 144, 4.03], [2057, 3, 137, 4.29], [144, 2, 76, 4.06], [1504, 2, 206, 3.21], [8939, 2, 63, 4.3], [416, 1, 86, 3.19], [22316, 3, 319, 2.67], [88, 10, 562, 4.69], [2859, 15, 69, 2.63], [159, 3, 712, 3.2], [7084, 3, 129, 5.15], [418, 2, 122, 2.97], [10993, 2, 18, 2.67], [20252, 2, 93, 2.51], [7705, 2, 177, 4.06]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 0.96], [362, 2, 4, 0.8], [589, 2, 5, 0.2], [75, 2, 4, 0.99], [1776, 1, 4, 0.58], [205, 2, 4, 0.47], [8915, 2, 6, 0.2], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [7886, 4, 4, 0.57], [593, 2, 5, 0.2], [6936, 2, 5, 1.27], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 9, 1.33], [990, 2, 4, 0.2], [11681, 2, 5, 2.33], [8650, 2, 4, 1.15], [412, 1, 4, 0.91], [5151, 2, 4, 0.9], [2050, 3, 5, 0.66], [144, 2, 4, 0.5], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [2991, 3, 4, 2.19], [10149, 3, 15, 1.32], [22247, 2, 5, 1.06], [57, 1, 5, 0.2], [3478, 2, 4, 1.28], [146, 2, 4, 1.06], [7004, 1, 4, 0.47], [45, 2, 4, 1.12], [2054, 3, 4, 1.28], [143, 2, 4, 0.96], [417, 2, 4, 0.29], [413, 1, 4, 0.35], [21793, 1, 4, 1.03], [167, 3, 4, 1.09], [201, 3, 5, 0.42], [74, 1, 4, 0.84], [2055, 3, 4, 0.94], [346, 1, 4, 0.2], [1446, 2, 4, 0.2], [168, 3, 5, 0.25], [10, 2, 4, 0.42], [7084, 3, 4, 0.88], [11234, 2, 5, 0.2], [1429, 2, 5, 0.2], [12721, 2, 6, 0.96], [7036, 1, 4, 1.04], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [308, 1, 5, 2.44], [8649, 2, 4, 1.15], [13028, 3, 4, 0.5], [12870, 1, 4, 2.33], [10825, 21, 8, 0.36], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [3893, 1, 5, 0.2], [418, 2, 4, 0.2], [1006, 2, 4, 0.66], [145, 2, 5, 0.43], [1504, 2, 5, 0.2], [432, 3, 4, 0.41], [5208, 3, 5, 0.19], [9827, 3, 4, 0.2], [7005, 1, 4, 0.47], [94, 4, 4, 0.51], [1490, 1, 5, 0.2], [5812, 3, 5, 1.21], [13260, 29, 4, 0.96], [8853, 2, 5, 1.19], [411, 2, 4, 0.47], [416, 1, 4, 1.23], [142, 2, 4, 0.74], [8651, 2, 4, 1.15], [12353, 1, 5, 0.7], [21269, 3, 4, 1.45], [12349, 1, 4, 1.63], [20256, 2, 4, 0.2], [33, 1, 4, 0.66], [998, 2, 4, 1.2], [12350, 1, 5, 0.62], [5086, 1, 5, 1.11], [950, 1, 4, 0.2], [9069, 1, 4, 1.62], [229, 1, 4, 2.07], [1243, 2, 4, 0.92], [2878, 1, 5, 0.54], [7567, 3, 4, 1.62], [140, 2, 4, 0.47], [2049, 1, 4, 0.93], [126, 2, 4, 0.97], [20927, 1, 4, 0.42], [3980, 4, 5, 1.31], [346, 3, 6, 0.19], [1703, 2, 4, 1.38], [8274, 3, 4, 1.09], [35, 1, 4, 0.46], [997, 2, 4, 1.26], [5209, 3, 4, 0.19], [9691, 1, 4, 0.83], [11914, 1, 4, 0.2], [5584, 3, 4, 1.01], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [856, 1, 4, 0.38], [5660, 2, 4, 1.05], [1519, 3, 12, 0.23], [159, 3, 6, 0.27], [5513, 2, 4, 0.46], [523, 2, 5, 0.74], [8898, 3, 4, 2.67], [1091, 1, 4, 0.2], [11767, 1, 4, 0.46], [2775, 2, 4, 0.2], [996, 2, 4, 1.16], [8926, 1, 4, 1.74], [9081, 3, 7, 1.28], [13034, 3, 5, 1.26], [1124, 2, 5, 0.74], [20255, 2, 5, 0.2], [23961, 3, 4, 0.5], [307, 2, 4, 1.14], [12661, 1, 4, 1.2], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 501, 2.89], [362, 2, 131, 2.7], [589, 2, 121, 2.46], [75, 2, 114, 3.61], [1776, 1, 89, 2.72], [205, 2, 101, 2.28], [8915, 2, 152, 2.35], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [7886, 4, 132, 2.26], [593, 2, 180, 2.48], [6936, 2, 223, 4.33], [305, 2, 115, 2.53], [206, 2, 50, 2.36], [151, 1, 53, 2.46], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [990, 2, 41, 2.81], [11681, 2, 214, 6.0], [8650, 2, 176, 4.9], [412, 1, 66, 3.33], [5151, 2, 19, 2.89], [2050, 3, 373, 3.55], [144, 2, 119, 3.76], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [2991, 3, 127, 5.38], [10149, 3, 676, 4.91], [22247, 2, 221, 4.16], [57, 1, 68, 2.35], [3478, 2, 59, 4.02], [146, 2, 119, 3.2], [7004, 1, 73, 2.5], [45, 2, 85, 4.3], [2054, 3, 324, 5.02], [143, 2, 117, 3.01], [417, 2, 122, 4.03], [413, 1, 68, 3.29], [21793, 1, 190, 5.28], [167, 3, 178, 3.86], [201, 3, 235, 4.71], [74, 1, 155, 4.17], [2055, 3, 368, 4.35], [346, 1, 125, 2.46], [1446, 2, 120, 3.21], [168, 3, 321, 3.04], [10, 2, 81, 4.58], [7084, 3, 102, 4.11], [11234, 2, 145, 2.91], [1429, 2, 120, 2.64], [12721, 2, 221, 3.58], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [308, 1, 132, 6.0], [8649, 2, 176, 4.62], [13028, 3, 116, 2.58], [12870, 1, 108, 5.93], [10825, 21, 505, 3.62], [79, 1, 44, 1.89], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.35], [3893, 1, 98, 2.83]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.99], [8915, 2, 5, 1.94], [2327, 2, 4, 0.52], [589, 2, 5, 0.2], [2778, 2, 5, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 1.2], [130, 1, 4, 0.95], [305, 2, 4, 0.45], [326, 2, 4, 0.72], [616, 2, 4, 0.77], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 0.74], [2049, 3, 5, 0.21], [159, 3, 5, 0.19], [10, 2, 5, 0.92], [143, 2, 4, 0.94], [593, 2, 4, 0.4], [205, 2, 4, 0.37], [2775, 2, 4, 0.2], [5491, 2, 4, 0.45], [7036, 1, 4, 1.2], [144, 2, 4, 1.04], [434, 2, 5, 0.2], [94, 4, 4, 1.42], [8938, 2, 4, 0.2], [3893, 1, 4, 0.2], [1504, 2, 4, 0.38], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [624, 2, 5, 0.72], [1429, 2, 4, 0.28], [12224, 1, 4, 0.46], [3891, 1, 5, 0.2], [141, 2, 4, 0.39], [206, 2, 4, 0.37], [362, 2, 4, 0.52], [2776, 2, 4, 0.62], [75, 2, 4, 0.79], [11681, 2, 5, 1.81], [378, 2, 5, 2.29], [5208, 3, 5, 0.48], [3889, 1, 5, 0.25], [1007, 2, 4, 0.2], [8649, 2, 4, 2.49], [7886, 4, 4, 0.2], [10993, 2, 4, 0.83], [2054, 3, 4, 1.0], [12870, 1, 4, 1.68], [10149, 3, 15, 1.21], [2050, 3, 4, 0.46], [145, 2, 4, 1.0], [20927, 1, 4, 1.26], [9760, 29, 4, 0.2], [998, 2, 4, 0.81], [1886, 2, 5, 0.2], [2436, 4, 4, 0.28], [1006, 2, 5, 0.55], [997, 2, 4, 0.76], [3495, 3, 11, 0.92], [3, 2, 4, 0.47], [229, 1, 4, 0.49], [972, 3, 6, 0.2], [6158, 2, 5, 2.11], [632, 11, 13, 0.45], [346, 3, 5, 0.19], [5076, 1, 4, 0.75], [7887, 4, 4, 0.97], [20252, 2, 4, 0.47], [11770, 1, 4, 1.07], [9372, 1, 4, 1.3], [126, 2, 4, 0.54], [74, 1, 4, 0.99], [11953, 1, 4, 0.52], [140, 2, 4, 1.72], [8939, 2, 5, 0.2], [11685, 2, 5, 1.83], [11954, 1, 4, 0.38], [1492, 1, 4, 0.45], [12721, 2, 4, 1.84], [2774, 2, 4, 0.63], [20256, 2, 4, 0.53], [3981, 3, 9, 0.51], [22316, 3, 4, 0.49], [2423, 80, 4, 0.49], [9491, 21, 12, 0.22], [11952, 1, 4, 0.42], [11772, 1, 4, 0.2], [5434, 1, 4, 0.83], [5584, 3, 4, 2.99], [6497, 1, 4, 1.22], [12351, 1, 4, 0.66], [12229, 2, 4, 0.49], [2438, 2, 5, 0.96], [7573, 1, 9, 2.02], [10407, 10, 6, 1.56], [10388, 2, 4, 1.03], [11179, 1, 4, 0.45], [823, 1, 4, 1.09], [5209, 3, 5, 0.48], [6496, 1, 4, 0.35], [2805, 137, 4, 1.22], [3900, 3, 4, 0.7], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [432, 3, 5, 1.54], [1622, 1, 4, 0.45], [1519, 3, 12, 0.23], [11737, 2, 4, 0.52], [8676, 2, 4, 1.22], [972, 1, 4, 0.53], [22247, 2, 4, 1.39], [1414, 15, 4, 0.44], [412, 1, 4, 0.49], [6097, 80, 4, 1.03], [159, 16, 4, 0.56], [10386, 2, 4, 1.79], [2991, 3, 4, 1.65], [1274, 1, 4, 0.48], [9784, 1, 4, 0.52], [6805, 1, 4, 0.51], [1243, 2, 4, 0.79], [8635, 3, 4, 1.73], [10410, 10, 9, 1.6], [11814, 1, 4, 0.48], [33, 1, 4, 0.89], [11813, 1, 4, 0.46], [7567, 3, 4, 1.47], [37, 1, 4, 1.04], [88, 10, 467, 4.23], [2327, 2, 125, 3.09], [589, 2, 127, 3.01], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 104, 4.0], [130, 1, 17, 3.34], [305, 2, 122, 2.96], [326, 2, 74, 4.87], [616, 2, 89, 4.47], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 85, 3.79], [7004, 1, 39, 3.14], [2049, 3, 461, 2.85], [159, 3, 584, 3.33], [10, 2, 57, 4.53], [143, 2, 123, 3.44], [593, 2, 189, 3.07], [205, 2, 107, 2.38], [2775, 2, 131, 3.06], [5491, 2, 87, 3.66], [7036, 1, 107, 5.16], [144, 2, 125, 3.63], [434, 2, 89, 3.03], [94, 4, 100, 4.36], [8938, 2, 107, 2.96], [3893, 1, 104, 2.85], [1504, 2, 170, 2.83], [146, 2, 125, 3.7], [8853, 2, 273, 5.14], [624, 2, 89, 4.39], [1429, 2, 126, 3.6], [12224, 1, 163, 2.52], [3891, 1, 104, 2.9], [141, 2, 130, 2.86], [206, 2, 107, 2.38], [362, 2, 118, 3.09], [2776, 2, 154, 2.82], [75, 2, 142, 3.15], [11681, 2, 221, 6.0], [378, 2, 186, 6.0], [5208, 3, 460, 3.9], [3889, 1, 104, 3.51], [1007, 2, 224, 2.98], [8649, 2, 220, 6.0], [7886, 4, 74, 2.11], [10993, 2, 27, 2.91], [12870, 1, 114, 5.33], [10149, 3, 735, 4.24], [2050, 3, 316, 2.35], [145, 2, 125, 3.56], [9760, 29, 60, 3.37], [998, 2, 198, 3.64], [1886, 2, 130, 3.17], [2436, 4, 96, 4.32], [1006, 2, 189, 3.15], [997, 2, 198, 4.46], [3495, 3, 795, 3.74], [3, 2, 119, 2.53], [229, 1, 70, 3.03], [972, 3, 493, 3.68], [6158, 2, 211, 6.0], [632, 11, 810, 2.42], [346, 3, 525, 2.94]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.37], [141, 2, 5, 0.53], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.94], [362, 2, 4, 0.56], [8648, 2, 5, 2.08], [2327, 2, 4, 0.93], [11681, 2, 9, 2.07], [8650, 2, 5, 2.08], [326, 2, 4, 0.47], [205, 2, 4, 0.2], [2328, 2, 4, 0.2], [1446, 2, 4, 0.2], [305, 2, 5, 1.0], [2049, 3, 5, 0.49], [130, 1, 4, 1.45], [8649, 2, 5, 2.46], [2775, 2, 4, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [2776, 2, 4, 0.32], [593, 2, 5, 0.52], [143, 2, 4, 0.51], [140, 2, 4, 0.47], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [5493, 2, 4, 0.47], [523, 2, 5, 0.54], [413, 1, 4, 0.66], [7004, 1, 4, 0.89], [7036, 1, 4, 1.42], [21793, 1, 4, 1.14], [412, 1, 4, 0.57], [5491, 2, 4, 0.57], [151, 1, 4, 0.37], [1124, 2, 5, 0.29], [990, 2, 4, 0.28], [5165, 1, 4, 0.7], [8915, 2, 6, 0.94], [615, 2, 4, 1.62], [583, 2, 4, 0.2], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.52], [434, 2, 5, 0.2], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [201, 3, 5, 0.92], [142, 2, 4, 0.56], [11770, 1, 4, 0.43], [345, 3, 5, 0.92], [2055, 3, 4, 0.81], [3891, 1, 4, 0.91], [9372, 1, 4, 0.58], [616, 2, 4, 0.86], [2057, 3, 4, 0.81], [7084, 3, 4, 2.67], [5165, 2, 7, 0.69], [7005, 1, 4, 0.95], [3893, 1, 4, 0.63], [3670, 2, 4, 1.47], [12870, 1, 4, 1.18], [1886, 2, 4, 0.45], [10574, 3, 5, 1.09], [3334, 5, 4, 0.84], [346, 3, 4, 0.2], [6098, 80, 4, 1.39], [6097, 29, 4, 2.41], [7885, 4, 4, 0.49], [20927, 1, 4, 0.86], [11089, 1, 4, 0.49], [3889, 1, 4, 0.63], [12345, 1, 5, 0.19], [6158, 2, 4, 1.75], [147, 1, 4, 0.94], [10149, 3, 15, 1.12], [1492, 1, 4, 0.2], [22316, 3, 4, 0.5], [20256, 2, 4, 0.42], [432, 3, 5, 0.62], [11953, 1, 4, 0.48], [20252, 2, 5, 0.2], [11491, 2, 4, 0.53], [418, 2, 4, 0.84], [4032, 29, 4, 0.52], [1519, 3, 10, 0.39], [411, 2, 4, 0.54], [1490, 1, 4, 0.41], [2423, 80, 4, 1.66], [11952, 1, 4, 0.72], [229, 1, 4, 2.07], [972, 3, 5, 1.01], [5151, 2, 4, 0.97], [11769, 1, 4, 0.47], [3576, 25, 4, 1.17], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [416, 1, 4, 0.99], [13034, 3, 4, 1.51], [8120, 3, 4, 0.4], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [11767, 1, 4, 0.46], [439, 1, 4, 1.47], [3, 2, 4, 0.73], [11583, 29, 5, 0.2], [2805, 137, 4, 0.98], [5076, 1, 4, 0.63], [11490, 1, 4, 0.46], [2160, 68, 4, 0.56], [6494, 1, 4, 1.6], [414, 1, 4, 0.66], [410, 1, 4, 0.43], [1701, 2, 4, 1.31], [3575, 25, 4, 1.24], [11180, 1, 4, 0.66], [8677, 3, 5, 1.11], [75, 2, 4, 0.37], [11814, 1, 4, 0.48], [3478, 2, 4, 0.56], [11585, 29, 4, 1.12], [13023, 3, 5, 1.01], [2438, 2, 5, 1.14], [11813, 1, 4, 1.11], [9784, 1, 4, 0.88], [11954, 1, 4, 0.51], [6098, 29, 4, 0.67], [23238, 29, 4, 0.43], [4253, 1, 4, 1.03], [4033, 29, 4, 0.57], [8283, 2, 5, 0.49], [23238, 25, 4, 0.41], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 113, 2.67], [2778, 2, 114, 3.75], [6936, 2, 202, 5.81], [362, 2, 103, 2.95], [8648, 2, 162, 5.97], [2327, 2, 130, 3.21], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 67, 3.24], [205, 2, 80, 2.77], [2328, 2, 110, 3.51], [1446, 2, 112, 2.84], [305, 2, 108, 3.76], [2049, 3, 475, 2.38], [8649, 2, 162, 6.0], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [2776, 2, 114, 4.16], [593, 2, 167, 2.88], [143, 2, 108, 3.18], [140, 2, 67, 2.78], [1429, 2, 112, 2.99], [206, 2, 80, 2.96], [5493, 2, 93, 2.32], [523, 2, 114, 2.91], [413, 1, 63, 3.29], [7004, 1, 57, 3.13], [7036, 1, 94, 4.63], [21793, 1, 174, 4.35], [412, 1, 62, 3.17], [5491, 2, 93, 2.52], [151, 1, 49, 2.6], [1124, 2, 136, 3.38], [990, 2, 18, 3.36], [5165, 1, 35, 4.29], [8915, 2, 138, 4.65], [615, 2, 92, 4.53], [583, 2, 67, 3.24], [417, 2, 114, 2.93], [248, 1, 40, 2.77], [144, 2, 129, 4.1], [434, 2, 55, 3.15], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [201, 3, 219, 4.98], [142, 2, 114, 2.94], [11770, 1, 188, 2.25], [345, 3, 219, 3.6], [2055, 3, 410, 2.98], [3891, 1, 107, 3.17], [9372, 1, 195, 2.96], [616, 2, 92, 3.07], [2057, 3, 410, 2.98], [5165, 2, 278, 4.28], [7005, 1, 41, 3.01], [3893, 1, 107, 2.63], [3670, 2, 212, 4.24], [12870, 1, 119, 3.68], [1886, 2, 136, 2.29], [10574, 3, 370, 3.81], [3334, 5, 154, 3.41], [346, 3, 465, 2.72], [6098, 80, 55, 4.1], [7885, 4, 120, 2.35]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 0.47], [305, 2, 4, 0.56], [2778, 2, 4, 0.58], [5493, 2, 4, 1.37], [6936, 2, 4, 1.5], [130, 1, 4, 0.7], [205, 2, 4, 0.7], [616, 2, 4, 1.41], [144, 2, 4, 0.5], [2049, 3, 7, 0.46], [8648, 2, 4, 0.65], [1504, 2, 4, 0.47], [88, 10, 8, 0.43], [8915, 2, 5, 1.94], [326, 2, 4, 0.54], [7036, 1, 4, 1.38], [8650, 2, 4, 1.72], [593, 2, 4, 0.58], [2327, 2, 4, 0.49], [11681, 2, 4, 1.32], [3893, 1, 4, 0.7], [8853, 2, 4, 1.41], [141, 2, 4, 0.67], [2775, 2, 4, 0.58], [206, 2, 4, 0.42], [7004, 1, 4, 1.21], [151, 1, 4, 0.52], [9507, 3, 4, 0.36], [248, 1, 4, 1.06], [11685, 2, 4, 1.34], [10, 2, 4, 0.36], [2328, 2, 4, 0.9], [146, 2, 4, 0.63], [2050, 3, 4, 1.69], [2497, 2, 4, 0.68], [5491, 2, 4, 1.17], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [3980, 4, 4, 1.2], [21798, 1, 4, 0.47], [990, 2, 4, 0.36], [2054, 3, 4, 1.86], [624, 2, 4, 1.08], [8649, 2, 4, 1.15], [12870, 1, 4, 0.92], [362, 2, 4, 1.11], [7885, 4, 4, 0.44], [2776, 2, 4, 1.01], [2057, 3, 4, 1.69], [7886, 4, 4, 0.48], [12353, 1, 4, 0.98], [10574, 3, 5, 1.36], [13028, 3, 4, 0.62], [1006, 2, 4, 0.58], [1446, 2, 4, 1.11], [3495, 3, 13, 0.92], [523, 2, 4, 0.38], [75, 2, 4, 1.83], [2991, 3, 4, 1.65], [3975, 4, 4, 1.26], [7005, 1, 4, 0.94], [10149, 3, 13, 0.39], [11404, 2, 4, 0.43], [9760, 29, 4, 0.45], [142, 2, 4, 0.45], [6158, 2, 4, 0.49], [20927, 1, 4, 0.67], [3981, 3, 13, 1.15], [3982, 3, 10, 1.18], [417, 2, 4, 0.57], [11953, 1, 4, 0.43], [1007, 2, 4, 0.45], [997, 2, 4, 1.14], [8939, 2, 4, 0.43], [956, 2, 4, 0.37], [33, 1, 4, 1.7], [11772, 1, 4, 0.44], [2774, 2, 4, 0.94], [7887, 4, 4, 0.95], [6497, 1, 4, 0.48], [1492, 1, 4, 0.45], [998, 2, 4, 1.06], [11770, 1, 4, 0.45], [11767, 1, 4, 0.57], [972, 3, 4, 1.51], [11769, 1, 4, 0.96], [996, 2, 4, 0.99], [35, 1, 4, 0.66], [336, 15, 4, 1.12], [74, 1, 4, 0.82], [11490, 1, 4, 0.59], [389, 4, 4, 0.88], [7567, 3, 4, 1.5], [2104, 3, 6, 0.51], [11952, 1, 4, 0.45], [411, 2, 4, 0.52], [6496, 1, 4, 0.49], [12721, 2, 4, 1.13], [4253, 1, 4, 0.96], [22317, 3, 4, 0.51], [140, 2, 4, 0.54], [8121, 3, 4, 0.55], [8673, 2, 4, 0.47], [4176, 4, 4, 1.31], [1126, 2, 4, 0.58], [2436, 4, 4, 0.78], [1277, 1, 4, 0.65], [9372, 1, 4, 1.73], [8676, 2, 4, 1.22], [21269, 3, 4, 1.57], [8677, 3, 4, 1.38], [11085, 2, 4, 1.27], [12343, 1, 4, 0.98], [22247, 2, 4, 1.14], [1274, 1, 4, 0.6], [10936, 2, 4, 1.7], [37, 1, 4, 0.66], [10388, 2, 4, 1.08], [12526, 2, 4, 1.08], [823, 1, 4, 0.49], [12269, 2, 4, 0.74], [1429, 2, 4, 0.83], [7573, 1, 5, 1.45], [9784, 1, 4, 0.55], [13023, 3, 4, 1.26], [6494, 1, 4, 0.45], [345, 3, 4, 0.51], [39, 1, 4, 0.81], [12271, 2, 4, 0.72], [201, 3, 4, 0.51], [12225, 1, 4, 0.56], [96, 11, 13, 0.49], [10408, 10, 5, 0.7], [6935, 2, 239, 4.26], [305, 2, 127, 2.53], [2778, 2, 136, 2.57], [5493, 2, 91, 4.14], [6936, 2, 239, 5.15], [130, 1, 51, 3.15], [205, 2, 94, 2.8], [616, 2, 92, 4.22], [144, 2, 130, 2.41], [2049, 3, 469, 3.21], [8648, 2, 195, 3.17], [1504, 2, 176, 2.34], [88, 10, 502, 2.33], [326, 2, 63, 3.15], [7036, 1, 111, 4.17], [8650, 2, 195, 4.76], [593, 2, 198, 2.88], [2327, 2, 131, 2.39], [11681, 2, 237, 4.72], [3893, 1, 108, 2.83], [8853, 2, 239, 5.12], [141, 2, 134, 2.74], [2775, 2, 136, 2.57], [206, 2, 94, 2.26], [7004, 1, 68, 3.78], [151, 1, 58, 2.7], [9507, 3, 70, 1.59], [248, 1, 19, 3.08], [11685, 2, 237, 4.74], [10, 2, 56, 1.9], [2328, 2, 131, 3.18], [146, 2, 131, 2.66], [2050, 3, 398, 4.77], [2497, 2, 176, 2.76], [5491, 2, 91, 4.6], [2055, 3, 398, 4.89], [143, 2, 129, 2.57], [3980, 4, 417, 3.8], [21798, 1, 121, 2.35], [990, 2, 45, 2.14], [2054, 3, 398, 5.11], [624, 2, 92, 5.17], [8649, 2, 195, 3.66], [12870, 1, 117, 5.16], [362, 2, 123, 3.59], [2776, 2, 136, 3.39], [2057, 3, 398, 4.77], [7886, 4, 75, 2.13], [12353, 1, 544, 4.66], [10574, 3, 439, 3.84], [13028, 3, 127, 2.69], [1006, 2, 198, 2.82], [1446, 2, 132, 3.59], [3495, 3, 835, 3.08], [523, 2, 134, 2.18], [75, 2, 126, 4.97], [2991, 3, 140, 5.42], [3975, 4, 417, 3.93], [7005, 1, 68, 3.26], [10149, 3, 754, 2.93], [11404, 2, 91, 2.27], [9760, 29, 63, 2.32], [142, 2, 134, 2.32], [6158, 2, 228, 3.02], [20927, 1, 68, 3.22], [3981, 3, 1395, 3.45], [3982, 3, 683, 3.79]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.65], [6935, 2, 7, 1.47], [2328, 2, 4, 0.51], [130, 1, 4, 0.5], [141, 2, 4, 0.66], [8650, 2, 4, 2.1], [2778, 2, 5, 0.44], [5491, 2, 4, 0.63], [2327, 2, 4, 0.51], [8672, 2, 5, 0.8], [362, 2, 4, 1.51], [143, 2, 4, 0.59], [6936, 2, 4, 1.25], [248, 1, 4, 0.46], [145, 2, 4, 0.51], [11681, 2, 5, 0.47], [205, 2, 4, 0.65], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.56], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [1124, 2, 5, 0.86], [523, 2, 4, 0.55], [8648, 2, 4, 2.1], [1504, 2, 5, 0.51], [12721, 2, 5, 0.48], [8853, 2, 4, 1.46], [1005, 2, 4, 0.39], [615, 2, 4, 1.19], [326, 2, 4, 0.78], [206, 2, 4, 0.65], [8673, 2, 4, 0.74], [8915, 2, 4, 0.82], [144, 2, 4, 0.5], [11835, 2, 4, 0.36], [11739, 2, 4, 0.38], [88, 10, 8, 0.95], [434, 2, 4, 0.55], [2776, 2, 4, 1.15], [142, 2, 4, 0.48], [151, 1, 4, 0.7], [8676, 2, 4, 1.06], [6158, 2, 5, 1.11], [2423, 29, 4, 1.81], [8649, 2, 4, 0.73], [11738, 2, 4, 0.38], [7704, 2, 4, 1.15], [2497, 2, 4, 0.36], [1413, 15, 4, 0.38], [2423, 80, 4, 1.81], [11836, 2, 4, 0.55], [3670, 2, 4, 0.97], [10574, 3, 5, 1.29], [7705, 2, 4, 1.15], [944, 15, 4, 0.41], [2859, 15, 4, 0.44], [3, 2, 4, 0.68], [2054, 3, 4, 0.4], [412, 1, 4, 0.99], [7706, 2, 4, 1.15], [378, 2, 4, 2.48], [12720, 2, 4, 0.6], [22316, 3, 4, 0.46], [12344, 1, 4, 0.71], [3478, 2, 4, 0.89], [2055, 3, 4, 0.4], [74, 1, 4, 1.69], [10149, 3, 13, 1.12], [2774, 2, 4, 0.57], [307, 2, 4, 1.04], [6497, 1, 4, 0.44], [12526, 2, 4, 0.74], [7004, 1, 4, 0.56], [418, 2, 4, 0.85], [411, 2, 4, 0.53], [11089, 1, 4, 0.39], [60, 3, 5, 1.19], [13928, 1, 4, 0.45], [413, 1, 4, 1.59], [2057, 3, 4, 0.4], [11844, 2, 4, 0.47], [7036, 1, 4, 0.43], [8274, 3, 4, 0.58], [3893, 1, 4, 1.98], [13260, 29, 4, 0.67], [20252, 2, 4, 0.54], [2050, 3, 4, 0.4], [14037, 3, 4, 0.41], [7084, 3, 4, 0.36], [6097, 80, 4, 1.86], [6952, 1, 4, 1.09], [3891, 1, 4, 2.19], [9784, 1, 4, 0.55], [94, 4, 4, 1.77], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [159, 3, 5, 0.72], [414, 1, 4, 1.59], [1243, 2, 4, 0.46], [1490, 1, 4, 1.02], [3889, 1, 4, 1.98], [11490, 1, 4, 0.5], [7708, 2, 4, 1.15], [22317, 3, 5, 0.47], [21793, 1, 4, 1.45], [1413, 16, 4, 0.4], [5208, 3, 5, 0.97], [345, 3, 4, 1.16], [7703, 2, 4, 1.15], [565, 2, 4, 0.46], [229, 1, 4, 2.0], [11491, 2, 4, 0.83], [1492, 1, 4, 0.53], [3495, 3, 10, 0.85], [6098, 80, 4, 1.16], [20256, 2, 4, 0.42], [149, 2, 4, 0.52], [410, 1, 4, 0.37], [11504, 2, 4, 0.78], [2422, 80, 4, 1.33], [336, 15, 4, 0.73], [6630, 3, 4, 1.76], [147, 1, 4, 0.52], [416, 1, 4, 1.59], [3430, 15, 4, 0.35], [2991, 3, 4, 2.19], [3674, 2, 4, 0.52], [2805, 137, 5, 1.85], [6098, 29, 4, 1.16], [11581, 29, 4, 0.87], [247, 1, 4, 1.18], [23275, 2, 4, 0.39], [305, 2, 147, 3.03], [6935, 2, 283, 6.0], [2328, 2, 151, 3.64], [130, 1, 20, 2.96], [141, 2, 157, 3.05], [8650, 2, 225, 6.0], [2778, 2, 157, 3.05], [5491, 2, 107, 4.3], [2327, 2, 151, 3.61], [8672, 2, 289, 4.96], [362, 2, 71, 4.34], [143, 2, 149, 2.92], [6936, 2, 283, 4.87], [248, 1, 37, 2.49], [145, 2, 151, 4.45], [11681, 2, 277, 3.19], [205, 2, 109, 3.03], [5493, 2, 107, 4.22], [146, 2, 152, 2.87], [417, 2, 157, 2.86], [75, 2, 146, 3.41], [11737, 2, 57, 2.96], [1124, 2, 187, 3.67], [523, 2, 157, 2.84], [8648, 2, 225, 5.82], [1504, 2, 206, 3.01], [12721, 2, 285, 3.23], [8853, 2, 283, 4.65], [1005, 2, 37, 1.82], [615, 2, 108, 4.07], [326, 2, 46, 3.29], [206, 2, 55, 2.68], [8673, 2, 289, 3.21], [8915, 2, 63, 4.3], [144, 2, 76, 4.06], [11835, 2, 269, 2.48], [11739, 2, 57, 2.96], [88, 10, 562, 4.69], [434, 2, 108, 3.04], [2776, 2, 157, 3.99], [142, 2, 157, 2.7], [151, 1, 34, 2.79], [8676, 2, 289, 3.82], [6158, 2, 263, 3.98], [2423, 29, 36, 5.26], [8649, 2, 225, 4.64], [11738, 2, 57, 2.96], [7704, 2, 177, 4.06], [2497, 2, 206, 2.47], [1413, 15, 100, 2.51], [2423, 80, 182, 5.26], [11836, 2, 269, 2.84], [3670, 2, 237, 5.4], [10574, 3, 503, 4.63], [7705, 2, 177, 4.06], [944, 15, 30, 2.4], [2859, 15, 69, 2.63], [3, 2, 121, 3.32], [2054, 3, 474, 3.89], [412, 1, 84, 4.19], [7706, 2, 177, 4.06], [378, 2, 225, 6.0], [12720, 2, 285, 3.23], [22316, 3, 319, 2.67], [12344, 1, 618, 3.14], [3478, 2, 75, 3.94], [2055, 3, 474, 3.89]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.75], [3, 2, 5, 0.2], [326, 2, 4, 0.54], [205, 2, 4, 0.37], [6935, 2, 8, 1.27], [143, 2, 4, 0.58], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 6, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [146, 2, 4, 0.52], [206, 2, 4, 0.2], [20252, 2, 4, 0.48], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [2050, 3, 5, 0.41], [5151, 2, 4, 1.02], [141, 2, 4, 0.53], [248, 1, 4, 0.37], [7886, 4, 4, 0.45], [88, 10, 8, 0.46], [74, 1, 4, 1.53], [2991, 3, 4, 2.05], [2057, 3, 5, 0.47], [1446, 2, 4, 0.2], [7004, 1, 4, 0.37], [362, 2, 4, 0.48], [1007, 2, 6, 0.2], [1492, 1, 4, 1.22], [147, 1, 4, 1.27], [76, 2, 4, 1.11], [8649, 2, 4, 1.9], [3889, 1, 4, 0.2], [7005, 1, 4, 0.38], [345, 3, 4, 0.57], [11234, 2, 6, 0.2], [1429, 2, 4, 0.2], [10, 2, 5, 0.3], [307, 2, 4, 1.08], [57, 1, 5, 0.2], [12870, 1, 4, 2.33], [5081, 2, 4, 0.69], [10825, 21, 8, 1.28], [7084, 3, 4, 1.53], [10149, 3, 13, 0.98], [7036, 1, 4, 0.43], [3478, 2, 4, 1.03], [1006, 2, 5, 0.59], [1504, 2, 5, 0.2], [3891, 1, 4, 0.27], [94, 4, 4, 1.35], [411, 2, 4, 0.37], [9827, 3, 4, 0.2], [167, 3, 4, 1.15], [33, 1, 4, 0.83], [432, 3, 5, 0.2], [8677, 3, 6, 0.65], [3893, 1, 4, 0.2], [11681, 2, 6, 1.91], [23, 1, 4, 0.67], [148, 1, 4, 1.33], [96, 11, 17, 0.38], [1490, 1, 4, 0.2], [22247, 2, 6, 1.15], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [9760, 29, 4, 0.24], [12225, 1, 4, 0.43], [201, 3, 4, 0.57], [5812, 3, 6, 0.8], [1243, 2, 5, 0.56], [6158, 2, 6, 0.51], [8853, 2, 5, 1.32], [10574, 3, 5, 1.33], [346, 1, 4, 0.43], [412, 1, 4, 1.14], [5005, 1, 4, 0.44], [20927, 1, 4, 0.49], [5208, 3, 6, 0.19], [214, 3, 9, 0.35], [8651, 2, 4, 0.88], [229, 1, 4, 2.57], [8939, 2, 4, 0.38], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [159, 3, 6, 0.67], [45, 2, 4, 0.64], [11490, 1, 4, 0.43], [413, 1, 4, 1.07], [149, 2, 4, 1.33], [346, 3, 4, 0.43], [21269, 3, 4, 1.6], [3495, 3, 13, 1.31], [95, 3, 11, 0.54], [140, 2, 5, 0.54], [5946, 1, 4, 1.03], [1766, 25, 4, 0.56], [490, 1, 4, 0.53], [1413, 15, 4, 0.2], [1126, 2, 4, 0.5], [9372, 1, 4, 2.33], [8898, 3, 4, 0.75], [506, 1, 4, 1.54], [997, 2, 4, 0.57], [2775, 2, 5, 0.2], [11489, 1, 4, 0.65], [3670, 2, 5, 1.86], [9690, 1, 4, 0.65], [1070, 7, 10, 0.46], [9691, 1, 4, 1.27], [107, 2, 5, 1.17], [34, 1, 4, 0.56], [974, 3, 4, 0.88], [20498, 1, 4, 0.98], [418, 2, 4, 0.39], [14037, 3, 5, 0.2], [14017, 3, 4, 1.04], [823, 1, 4, 1.11], [142, 2, 4, 0.53], [5209, 3, 5, 0.19], [972, 3, 5, 0.65], [417, 2, 4, 0.53], [1091, 1, 4, 0.61], [9784, 1, 4, 0.6], [20498, 3, 5, 1.08], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 66, 3.44], [205, 2, 80, 2.49], [6935, 2, 206, 4.81], [143, 2, 108, 2.86], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [8915, 2, 140, 2.66], [1776, 1, 80, 5.11], [2778, 2, 114, 2.87], [146, 2, 109, 2.77], [206, 2, 80, 2.49], [20252, 2, 79, 2.22], [6936, 2, 206, 4.28], [1777, 1, 93, 3.82], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [2050, 3, 346, 3.41], [5151, 2, 17, 6.0], [141, 2, 132, 3.42], [248, 1, 40, 2.49], [7886, 4, 104, 2.64], [88, 10, 403, 5.16], [74, 1, 144, 5.34], [2991, 3, 116, 5.98], [2057, 3, 346, 2.68], [1446, 2, 111, 3.24], [7004, 1, 58, 2.49], [362, 2, 103, 3.03], [1007, 2, 197, 2.62], [1492, 1, 31, 3.65], [147, 1, 64, 4.31], [76, 2, 93, 3.59], [8649, 2, 161, 6.0], [3889, 1, 91, 2.61], [7005, 1, 58, 2.5], [345, 3, 219, 2.85], [11234, 2, 134, 3.07], [1429, 2, 111, 2.88], [307, 2, 108, 3.38], [57, 1, 37, 2.59], [12870, 1, 99, 6.0], [5081, 2, 137, 3.07], [10825, 21, 451, 4.0], [7084, 3, 93, 4.62], [10149, 3, 646, 3.5], [7036, 1, 92, 3.55], [3478, 2, 55, 3.94], [1006, 2, 165, 2.9], [1504, 2, 148, 2.81], [3891, 1, 91, 3.93], [94, 4, 87, 3.91], [411, 2, 80, 2.49], [9827, 3, 63, 2.69], [167, 3, 164, 4.08], [33, 1, 100, 3.25], [432, 3, 221, 2.95], [8677, 3, 214, 3.07], [3893, 1, 91, 3.93], [11681, 2, 193, 6.0], [23, 1, 81, 3.04]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.97], [305, 2, 5, 0.75], [6935, 2, 8, 1.27], [2049, 3, 8, 0.96], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [205, 2, 4, 0.47], [589, 2, 5, 0.37], [151, 1, 4, 0.46], [362, 2, 4, 0.2], [1776, 1, 4, 1.16], [146, 2, 4, 1.08], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.55], [8648, 2, 4, 0.77], [143, 2, 4, 0.58], [8915, 2, 6, 0.2], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [8650, 2, 5, 1.15], [20252, 2, 4, 0.2], [1777, 1, 4, 0.93], [5151, 2, 4, 1.05], [1007, 2, 6, 0.2], [248, 1, 4, 0.2], [2778, 2, 4, 0.2], [88, 10, 8, 1.12], [2050, 3, 5, 0.77], [76, 2, 4, 1.11], [10149, 3, 17, 1.32], [8649, 2, 4, 2.49], [10, 2, 5, 0.47], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [11681, 2, 6, 2.33], [10825, 21, 8, 0.36], [1446, 2, 4, 0.2], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 5, 1.28], [1429, 2, 4, 0.2], [147, 1, 4, 0.52], [3495, 3, 15, 1.31], [1006, 2, 4, 0.59], [167, 3, 4, 1.35], [1492, 1, 4, 0.2], [7036, 1, 4, 0.54], [140, 2, 5, 0.47], [7005, 1, 4, 0.4], [9827, 3, 5, 0.2], [8676, 2, 4, 0.49], [45, 2, 4, 1.12], [1124, 2, 6, 0.24], [168, 3, 5, 0.29], [2049, 1, 4, 0.93], [5812, 3, 5, 1.52], [94, 4, 4, 1.01], [57, 1, 4, 0.38], [1504, 2, 5, 0.2], [12870, 1, 5, 2.33], [148, 1, 4, 0.95], [335, 3, 10, 1.3], [8651, 2, 4, 1.22], [2336, 3, 5, 0.99], [415, 1, 4, 1.23], [214, 3, 9, 0.35], [8939, 2, 4, 0.38], [6097, 29, 4, 2.36], [416, 1, 4, 1.23], [8853, 2, 5, 0.82], [6097, 80, 4, 2.36], [346, 1, 4, 0.49], [490, 1, 4, 1.01], [20256, 2, 4, 0.2], [1490, 1, 4, 0.45], [20927, 1, 4, 0.42], [79, 1, 4, 0.38], [95, 3, 13, 0.54], [6098, 29, 4, 2.52], [6098, 80, 4, 2.52], [9069, 1, 4, 1.09], [14017, 3, 4, 0.67], [414, 1, 4, 0.85], [22316, 3, 4, 0.49], [346, 3, 5, 0.39], [1070, 7, 9, 0.43], [8898, 3, 5, 2.17], [1126, 2, 4, 0.5], [126, 2, 4, 0.97], [13034, 3, 5, 1.26], [149, 2, 4, 0.52], [997, 2, 4, 1.26], [9760, 29, 4, 0.54], [20498, 1, 5, 1.05], [20255, 2, 5, 0.2], [5086, 1, 5, 0.58], [9784, 1, 4, 0.74], [5513, 2, 4, 0.98], [336, 15, 4, 0.63], [8945, 3, 5, 1.12], [22317, 3, 6, 0.51], [12924, 1, 5, 0.2], [7567, 3, 5, 1.12], [159, 3, 6, 0.19], [11085, 2, 5, 0.45], [11739, 2, 4, 0.83], [5811, 3, 5, 1.18], [1413, 15, 4, 0.2], [974, 3, 4, 0.88], [192, 3, 11, 1.19], [229, 1, 4, 2.57], [5813, 3, 5, 1.08], [972, 3, 4, 0.81], [506, 1, 4, 0.95], [8557, 3, 4, 0.33], [1622, 1, 5, 0.2], [9082, 3, 18, 0.68], [9691, 1, 4, 1.41], [20498, 3, 5, 1.1], [8943, 3, 4, 0.86], [3049, 3, 4, 1.98], [524, 1, 4, 1.41], [14018, 3, 4, 0.5], [4076, 3, 4, 2.69], [2775, 2, 4, 0.2], [470, 1, 4, 0.2], [20486, 3, 5, 1.01], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [6935, 2, 223, 4.83], [2049, 3, 501, 2.89], [326, 2, 72, 2.63], [141, 2, 123, 2.37], [205, 2, 101, 2.28], [589, 2, 142, 1.97], [151, 1, 53, 2.49], [362, 2, 112, 2.64], [1776, 1, 100, 3.39], [146, 2, 119, 3.24], [145, 2, 119, 2.46], [206, 2, 86, 2.36], [2328, 2, 119, 2.67], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [8915, 2, 152, 2.35], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [8650, 2, 176, 4.83], [20252, 2, 74, 2.56], [1777, 1, 100, 3.38], [5151, 2, 19, 3.18], [1007, 2, 213, 2.46], [248, 1, 43, 1.36], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [76, 2, 85, 3.94], [10149, 3, 676, 4.91], [8649, 2, 176, 5.95], [10, 2, 81, 4.58], [8677, 3, 231, 4.74], [2054, 3, 368, 4.35], [412, 1, 66, 3.33], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [411, 2, 76, 2.53], [11681, 2, 214, 6.0], [10825, 21, 505, 2.32], [1446, 2, 70, 3.21], [7084, 3, 102, 3.87], [307, 2, 117, 2.72], [3478, 2, 59, 4.02], [1429, 2, 120, 2.64], [147, 1, 80, 3.89], [3495, 3, 754, 3.9], [1006, 2, 180, 2.75], [167, 3, 105, 4.14], [1492, 1, 29, 2.35], [7036, 1, 100, 4.14], [140, 2, 72, 2.52], [7005, 1, 63, 2.38], [9827, 3, 69, 2.54], [8676, 2, 223, 4.2], [45, 2, 85, 5.32], [1124, 2, 146, 3.4], [168, 3, 321, 3.12], [2049, 1, 21, 2.95], [5812, 3, 546, 3.84], [94, 4, 94, 4.19], [57, 1, 79, 1.89], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [148, 1, 68, 3.99]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.34], [6935, 2, 5, 0.47], [326, 2, 4, 0.54], [130, 1, 4, 0.7], [8648, 2, 4, 0.65], [2327, 2, 4, 0.49], [144, 2, 4, 0.5], [593, 2, 4, 0.58], [205, 2, 4, 0.7], [143, 2, 4, 0.58], [8915, 2, 5, 1.94], [2328, 2, 4, 0.9], [141, 2, 4, 0.67], [11681, 2, 4, 1.32], [305, 2, 4, 0.56], [6936, 2, 4, 1.5], [8650, 2, 4, 1.72], [151, 1, 4, 0.52], [5493, 2, 4, 1.37], [2778, 2, 4, 0.58], [206, 2, 4, 0.42], [2049, 3, 7, 0.46], [146, 2, 4, 0.63], [88, 10, 8, 0.43], [7036, 1, 4, 1.38], [9507, 3, 4, 0.36], [8853, 2, 4, 1.41], [8649, 2, 4, 1.15], [1446, 2, 4, 1.11], [5491, 2, 4, 1.17], [362, 2, 4, 1.11], [990, 2, 4, 0.36], [2055, 3, 4, 1.75], [1006, 2, 4, 0.58], [75, 2, 4, 1.83], [3893, 1, 4, 0.7], [11737, 2, 4, 0.73], [417, 2, 4, 0.57], [616, 2, 4, 1.41], [2050, 3, 4, 1.69], [3840, 1, 4, 0.39], [1007, 2, 4, 0.45], [523, 2, 4, 0.38], [12870, 1, 4, 0.92], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [1504, 2, 4, 0.47], [2057, 3, 4, 1.69], [3, 2, 4, 0.42], [13280, 1, 4, 2.32], [10574, 3, 5, 1.36], [142, 2, 4, 0.45], [997, 2, 4, 1.14], [9760, 29, 4, 0.45], [10, 2, 4, 0.36], [624, 2, 4, 1.08], [2054, 3, 4, 1.86], [21798, 1, 4, 0.47], [2775, 2, 4, 0.58], [140, 2, 4, 0.54], [21793, 1, 4, 1.44], [8939, 2, 4, 0.43], [1429, 2, 4, 0.83], [996, 2, 4, 0.99], [11739, 2, 4, 0.59], [6158, 2, 4, 0.49], [998, 2, 4, 1.06], [12269, 2, 4, 0.74], [98, 11, 10, 0.71], [1126, 2, 4, 0.58], [84, 2, 4, 0.39], [9372, 1, 4, 1.73], [10388, 2, 4, 1.08], [972, 3, 4, 1.51], [411, 2, 4, 0.52], [7885, 4, 4, 0.44], [8898, 3, 4, 3.33], [413, 1, 4, 0.89], [2776, 2, 4, 1.01], [12343, 1, 4, 0.98], [9491, 21, 10, 1.07], [1492, 1, 4, 0.45], [10386, 2, 4, 0.99], [995, 2, 4, 0.77], [147, 1, 4, 0.49], [13928, 1, 4, 0.4], [22316, 3, 4, 0.51], [418, 2, 4, 0.49], [308, 1, 4, 0.95], [22247, 2, 4, 1.14], [9784, 1, 4, 0.55], [8677, 3, 4, 1.38], [336, 15, 4, 1.12], [11490, 1, 4, 0.59], [7567, 3, 4, 1.5], [307, 2, 4, 0.51], [229, 1, 4, 0.63], [11953, 1, 4, 0.43], [10631, 2, 4, 0.37], [33, 1, 4, 1.7], [11770, 1, 4, 0.45], [7886, 4, 4, 0.48], [22317, 3, 4, 0.51], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [7573, 1, 5, 1.45], [439, 1, 4, 1.15], [10780, 10, 4, 1.53], [10407, 10, 6, 1.68], [10410, 10, 6, 1.64], [415, 1, 4, 0.66], [13286, 1, 4, 0.94], [335, 3, 9, 1.35], [9691, 1, 4, 0.52], [10387, 2, 4, 0.95], [972, 1, 4, 1.51], [6497, 1, 4, 0.48], [10149, 3, 13, 0.39], [74, 1, 4, 0.82], [11767, 1, 4, 0.57], [3478, 2, 4, 0.89], [12271, 2, 4, 0.72], [9690, 1, 4, 0.76], [8897, 3, 4, 3.33], [9971, 2, 4, 1.12], [2497, 2, 4, 0.68], [2331, 1, 4, 0.88], [345, 3, 4, 0.51], [9082, 3, 18, 0.51], [11769, 1, 4, 0.96], [4076, 3, 4, 1.52], [20682, 1, 4, 1.33], [3048, 3, 4, 0.92], [11685, 2, 237, 4.74], [6935, 2, 239, 4.26], [326, 2, 63, 3.15], [130, 1, 51, 3.15], [8648, 2, 195, 3.17], [2327, 2, 131, 2.39], [144, 2, 130, 2.41], [593, 2, 198, 2.88], [205, 2, 94, 2.8], [143, 2, 129, 2.57], [2328, 2, 131, 3.18], [141, 2, 134, 2.74], [11681, 2, 237, 4.72], [305, 2, 127, 2.53], [6936, 2, 239, 5.15], [8650, 2, 195, 4.76], [151, 1, 58, 2.7], [5493, 2, 91, 4.14], [2778, 2, 136, 2.57], [206, 2, 94, 2.26], [2049, 3, 469, 3.21], [146, 2, 131, 2.66], [88, 10, 502, 2.33], [7036, 1, 111, 4.17], [9507, 3, 70, 1.59], [8853, 2, 239, 5.12], [8649, 2, 195, 3.66], [1446, 2, 132, 3.59], [5491, 2, 91, 4.6], [362, 2, 123, 3.59], [990, 2, 45, 2.14], [2055, 3, 398, 4.89], [1006, 2, 198, 2.82], [75, 2, 126, 4.97], [3893, 1, 108, 2.83], [11737, 2, 50, 2.86], [417, 2, 134, 2.55], [616, 2, 92, 4.22], [2050, 3, 398, 4.77], [3840, 1, 151, 2.2], [1007, 2, 231, 2.85], [523, 2, 134, 2.18], [12870, 1, 117, 5.16], [159, 3, 621, 2.1], [20927, 1, 68, 3.22], [1504, 2, 176, 2.34], [2057, 3, 398, 4.77], [3, 2, 107, 2.26], [13280, 1, 274, 5.92], [10574, 3, 439, 3.84], [142, 2, 134, 2.32], [997, 2, 206, 4.48], [9760, 29, 63, 2.32], [10, 2, 56, 1.9], [624, 2, 92, 5.17], [2054, 3, 398, 5.11], [21798, 1, 121, 2.35], [2775, 2, 136, 2.57], [140, 2, 79, 2.49], [21793, 1, 198, 4.3], [8939, 2, 168, 2.28], [1429, 2, 132, 3.05], [996, 2, 206, 4.48], [11739, 2, 50, 2.62], [6158, 2, 228, 3.02], [998, 2, 206, 4.48], [12269, 2, 55, 2.87]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 5, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 5, 1.21], [11737, 2, 4, 0.48], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.6], [8675, 2, 5, 0.73], [1504, 2, 6, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [523, 2, 4, 0.66], [22247, 2, 4, 1.0], [8650, 2, 4, 1.72], [142, 2, 4, 0.57], [8648, 2, 4, 1.72], [2328, 2, 4, 0.51], [2776, 2, 4, 0.2], [2327, 2, 4, 0.51], [616, 2, 4, 1.12], [11739, 2, 4, 0.48], [8853, 2, 5, 1.54], [11837, 2, 4, 0.45], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.56], [412, 1, 4, 1.28], [11835, 2, 4, 0.49], [8674, 2, 5, 1.22], [583, 2, 4, 0.85], [6497, 1, 4, 0.44], [2805, 137, 5, 1.35], [145, 2, 4, 0.51], [10574, 3, 5, 1.29], [418, 2, 4, 0.46], [326, 2, 4, 0.85], [144, 2, 4, 0.5], [6097, 80, 4, 2.11], [11738, 2, 4, 0.48], [9784, 1, 5, 0.85], [11836, 2, 4, 0.54], [10149, 3, 13, 0.4], [413, 1, 4, 1.16], [6097, 29, 4, 1.86], [2057, 3, 5, 0.35], [75, 2, 5, 0.49], [11234, 2, 4, 0.63], [12344, 1, 4, 1.03], [20252, 2, 4, 0.47], [1413, 15, 4, 0.38], [11504, 2, 4, 0.56], [6496, 1, 5, 0.2], [12269, 2, 4, 0.43], [8915, 2, 4, 0.39], [414, 1, 4, 1.16], [1243, 2, 4, 0.42], [1492, 1, 4, 0.53], [6098, 80, 4, 1.16], [2774, 2, 4, 0.2], [22316, 3, 4, 0.46], [247, 1, 4, 0.8], [944, 15, 4, 0.35], [1490, 1, 4, 0.36], [6098, 29, 4, 1.16], [9786, 1, 4, 1.4], [416, 1, 4, 1.16], [3934, 5, 5, 0.2], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [2859, 15, 4, 0.71], [6158, 2, 5, 0.44], [20555, 2, 4, 0.48], [3670, 2, 4, 0.97], [3478, 2, 4, 0.89], [11489, 1, 4, 0.39], [2050, 3, 4, 0.35], [9785, 1, 4, 1.51], [7084, 3, 4, 2.46], [12526, 2, 4, 0.74], [9342, 2, 5, 0.38], [8599, 1, 4, 0.37], [3430, 15, 4, 0.36], [1703, 2, 4, 0.46], [4253, 1, 4, 0.51], [3982, 3, 12, 0.36], [186, 3, 7, 0.48], [8938, 2, 4, 0.58], [107, 2, 4, 1.21], [1413, 16, 4, 0.42], [11887, 2, 5, 0.39], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [11490, 1, 4, 0.51], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [1050, 2, 4, 0.36], [415, 1, 4, 1.16], [94, 4, 4, 1.75], [2438, 2, 5, 1.09], [107, 7, 5, 1.2], [436, 2, 4, 0.51], [947, 15, 4, 0.7], [5812, 3, 4, 2.0], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [11767, 1, 4, 0.48], [3673, 2, 4, 2.08], [11671, 1, 4, 0.42], [140, 2, 4, 0.85], [11844, 2, 4, 0.47], [5813, 3, 5, 1.02], [11160, 1, 4, 1.87], [9358, 1, 4, 0.44], [3495, 3, 10, 0.85], [11771, 1, 4, 1.61], [7036, 1, 4, 0.43], [12764, 2, 5, 0.46], [5811, 3, 6, 0.98], [409, 1, 4, 0.52], [23920, 2, 4, 0.41], [410, 1, 4, 0.82], [1049, 2, 4, 0.36], [11954, 1, 4, 0.42], [105, 3, 4, 2.04], [9690, 1, 4, 0.67], [11180, 1, 4, 0.39], [2108, 3, 6, 0.54], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.51], [11737, 2, 57, 3.06], [206, 2, 46, 2.61], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 125, 3.17], [523, 2, 133, 3.51], [22247, 2, 242, 4.11], [8650, 2, 192, 5.09], [142, 2, 133, 3.33], [8648, 2, 192, 5.09], [2328, 2, 151, 3.64], [2776, 2, 134, 3.17], [2327, 2, 151, 3.61], [616, 2, 107, 4.0], [11739, 2, 57, 3.06], [8853, 2, 238, 5.31], [11837, 2, 268, 2.65], [411, 2, 93, 2.98], [589, 2, 44, 2.25], [143, 2, 148, 3.45], [146, 2, 152, 2.87], [412, 1, 71, 4.48], [11835, 2, 268, 2.72], [8674, 2, 244, 4.54], [583, 2, 30, 3.47], [6497, 1, 38, 2.63], [2805, 137, 154, 5.79], [145, 2, 151, 4.45], [10574, 3, 503, 4.63], [418, 2, 121, 3.13], [326, 2, 46, 3.36], [144, 2, 76, 4.06], [6097, 80, 56, 5.84], [11738, 2, 57, 3.06], [9784, 1, 62, 3.85], [11836, 2, 268, 2.82], [10149, 3, 760, 3.82], [413, 1, 86, 4.01], [6097, 29, 34, 5.36], [2057, 3, 404, 2.44], [75, 2, 123, 4.17], [11234, 2, 186, 3.17], [12344, 1, 609, 3.75], [20252, 2, 94, 2.68], [1413, 15, 100, 2.51], [11504, 2, 142, 2.86], [6496, 1, 35, 3.2], [12269, 2, 65, 2.61], [8915, 2, 97, 2.17], [414, 1, 86, 4.01], [1243, 2, 101, 2.59], [1492, 1, 37, 2.8], [6098, 80, 74, 4.31], [2774, 2, 174, 5.39], [22316, 3, 319, 2.67], [247, 1, 86, 5.11], [944, 15, 15, 1.74]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 5, 0.2], [130, 1, 4, 0.45], [589, 2, 5, 0.2], [144, 2, 5, 0.54], [8915, 2, 5, 1.94], [143, 2, 4, 0.44], [2328, 2, 4, 0.76], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [205, 2, 4, 0.37], [326, 2, 4, 0.72], [8650, 2, 4, 2.03], [593, 2, 5, 0.4], [145, 2, 4, 1.0], [146, 2, 4, 0.57], [3840, 1, 5, 0.29], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [616, 2, 5, 0.77], [88, 10, 9, 0.99], [615, 2, 4, 1.91], [141, 2, 5, 0.39], [7004, 1, 4, 1.74], [151, 1, 4, 0.2], [1124, 2, 5, 0.29], [11681, 2, 5, 1.81], [1446, 2, 4, 0.28], [206, 2, 4, 0.37], [9760, 29, 4, 0.67], [8853, 2, 5, 1.7], [5491, 2, 4, 0.45], [1007, 2, 5, 0.2], [362, 2, 4, 0.52], [1504, 2, 5, 0.38], [2912, 1, 4, 0.77], [2057, 3, 4, 0.46], [8938, 2, 4, 0.2], [9372, 1, 4, 1.3], [3893, 1, 4, 0.2], [434, 2, 4, 0.49], [8649, 2, 4, 2.49], [12870, 1, 4, 1.68], [10993, 2, 4, 0.83], [624, 2, 4, 1.27], [2050, 3, 4, 0.46], [2054, 3, 4, 0.2], [5165, 1, 4, 1.02], [1429, 2, 4, 0.28], [3889, 1, 4, 0.25], [378, 2, 4, 2.29], [7084, 3, 4, 1.07], [2991, 3, 4, 1.1], [10, 2, 4, 0.36], [140, 2, 4, 1.72], [3891, 1, 4, 0.2], [7886, 4, 5, 0.44], [11737, 2, 4, 0.52], [1006, 2, 4, 1.05], [10574, 3, 5, 1.36], [7573, 1, 9, 2.02], [5208, 3, 4, 0.48], [10149, 3, 15, 1.21], [1622, 1, 4, 0.45], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [5165, 2, 5, 1.57], [11234, 2, 5, 0.75], [997, 2, 4, 1.26], [12721, 2, 4, 1.84], [11685, 2, 5, 1.83], [1886, 2, 4, 0.2], [22247, 2, 4, 1.39], [147, 1, 4, 1.82], [229, 1, 4, 0.99], [998, 2, 4, 0.81], [20252, 2, 4, 0.47], [94, 4, 4, 1.42], [972, 3, 6, 0.51], [9491, 21, 12, 0.22], [2912, 2, 7, 1.24], [35, 1, 4, 1.29], [439, 1, 4, 1.06], [76, 2, 4, 1.1], [413, 1, 4, 1.38], [5076, 1, 4, 0.97], [13928, 1, 4, 0.7], [83, 2, 4, 0.2], [8104, 1, 4, 0.86], [1414, 15, 4, 0.44], [5209, 3, 4, 0.98], [33, 1, 4, 0.93], [148, 1, 4, 1.83], [8676, 2, 4, 1.22], [418, 2, 5, 0.63], [11952, 1, 4, 0.42], [412, 1, 4, 0.44], [7887, 4, 4, 0.97], [8898, 3, 4, 1.0], [12212, 29, 4, 0.47], [2774, 2, 4, 0.55], [3495, 3, 10, 0.82], [38, 1, 4, 1.13], [20256, 2, 4, 0.53], [84, 2, 5, 0.9], [11770, 1, 4, 1.07], [34, 1, 4, 1.07], [415, 1, 4, 1.03], [10407, 10, 6, 1.56], [632, 11, 13, 0.45], [3048, 3, 4, 1.65], [9784, 1, 4, 0.52], [11772, 1, 4, 0.2], [126, 2, 4, 0.54], [13928, 2, 4, 0.71], [995, 2, 4, 2.04], [411, 2, 4, 0.46], [9690, 1, 4, 0.37], [9691, 1, 4, 0.41], [8939, 2, 4, 0.2], [39, 1, 4, 1.1], [11953, 1, 4, 0.52], [12351, 1, 5, 0.19], [5584, 3, 4, 2.99], [7567, 3, 4, 1.47], [11954, 1, 4, 0.38], [10410, 10, 9, 1.6], [74, 1, 4, 0.99], [2327, 2, 125, 3.1], [305, 2, 122, 2.96], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [130, 1, 17, 3.34], [589, 2, 127, 3.01], [144, 2, 125, 3.13], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.22], [2775, 2, 131, 3.06], [205, 2, 107, 2.38], [326, 2, 74, 4.87], [8650, 2, 186, 5.54], [593, 2, 189, 3.07], [145, 2, 125, 3.56], [146, 2, 125, 3.18], [3840, 1, 142, 3.59], [7036, 1, 107, 5.16], [2049, 3, 461, 2.85], [2776, 2, 131, 3.27], [616, 2, 89, 4.47], [88, 10, 467, 4.23], [615, 2, 105, 5.31], [141, 2, 130, 2.86], [151, 1, 25, 2.28], [1124, 2, 154, 3.6], [11681, 2, 221, 6.0], [1446, 2, 126, 3.79], [206, 2, 107, 2.38], [9760, 29, 60, 3.37], [8853, 2, 232, 5.49], [5491, 2, 87, 3.66], [1007, 2, 89, 2.98], [362, 2, 118, 3.09], [1504, 2, 170, 2.83], [2912, 1, 44, 4.46], [2057, 3, 316, 2.35], [8938, 2, 95, 2.96], [9372, 1, 225, 4.83], [3893, 1, 104, 2.85], [434, 2, 35, 3.03], [8649, 2, 186, 6.0], [12870, 1, 114, 5.33], [10993, 2, 27, 2.91], [624, 2, 105, 4.07], [2050, 3, 316, 2.35], [2054, 3, 335, 2.39], [5165, 1, 49, 4.13], [1429, 2, 126, 3.6], [3889, 1, 104, 3.51], [378, 2, 186, 6.0], [7084, 3, 106, 3.63], [2991, 3, 135, 5.78], [10, 2, 102, 2.53], [140, 2, 44, 4.87], [3891, 1, 104, 2.9], [11737, 2, 56, 2.63], [1006, 2, 112, 3.33], [10574, 3, 279, 5.19], [7573, 1, 306, 5.58], [5208, 3, 460, 3.9], [10149, 3, 735, 4.24], [1622, 1, 88, 2.97], [75, 2, 120, 4.02], [3, 2, 101, 3.28]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 13, 1.34], [6935, 2, 19, 5.0], [6936, 2, 9, 3.91], [305, 2, 7, 1.25], [8672, 2, 10, 3.18], [615, 2, 7, 2.64], [1504, 2, 11, 1.98], [2775, 2, 7, 1.3], [145, 2, 7, 2.66], [2776, 2, 7, 2.71], [8853, 2, 7, 3.5], [12721, 2, 11, 1.74], [2327, 2, 7, 1.82], [146, 2, 7, 1.08], [143, 2, 7, 1.14], [2328, 2, 7, 1.85], [11737, 2, 7, 1.32], [11681, 2, 13, 1.41], [616, 2, 7, 2.33], [141, 2, 7, 2.37], [5491, 2, 7, 1.08], [205, 2, 7, 1.08], [2497, 2, 7, 0.98], [144, 2, 7, 2.63], [8650, 2, 9, 4.73], [5493, 2, 7, 1.42], [8676, 2, 7, 2.04], [8673, 2, 7, 1.42], [417, 2, 7, 2.37], [3670, 2, 9, 4.0], [8648, 2, 7, 3.68], [589, 2, 7, 0.77], [3, 2, 7, 1.23], [206, 2, 7, 1.08], [6097, 80, 7, 3.58], [22247, 2, 7, 2.33], [8674, 2, 7, 2.35], [11836, 2, 7, 0.96], [6497, 1, 7, 0.85], [624, 2, 7, 1.96], [2424, 29, 7, 2.28], [593, 2, 8, 0.92], [523, 2, 7, 1.31], [12344, 1, 7, 2.08], [6097, 29, 7, 3.58], [12720, 2, 7, 1.69], [6098, 80, 7, 2.52], [12345, 1, 7, 4.0], [11739, 2, 7, 1.32], [2424, 80, 7, 2.28], [88, 10, 16, 2.9], [944, 15, 7, 0.67], [8915, 2, 7, 0.79], [75, 2, 7, 2.25], [60, 3, 8, 2.1], [326, 2, 7, 1.86], [142, 2, 7, 2.37], [1492, 1, 7, 1.02], [1413, 15, 7, 0.69], [411, 2, 7, 0.94], [1050, 2, 7, 0.73], [2422, 80, 7, 2.56], [6496, 1, 7, 0.98], [6098, 29, 7, 2.52], [378, 2, 7, 4.41], [12346, 1, 7, 4.0], [10149, 3, 21, 2.21], [2422, 29, 7, 2.56], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [22316, 3, 7, 0.89], [1243, 2, 7, 1.44], [11738, 2, 7, 1.32], [345, 3, 7, 2.23], [13264, 29, 7, 1.0], [229, 1, 7, 3.85], [1490, 1, 7, 0.9], [1049, 2, 7, 0.73], [20252, 2, 7, 0.87], [964, 15, 7, 0.77], [12269, 2, 7, 0.9], [2331, 1, 7, 1.06], [10407, 10, 10, 3.24], [201, 3, 7, 4.28], [7004, 1, 7, 1.08], [2821, 3, 13, 0.82], [5208, 3, 9, 1.07], [307, 2, 7, 2.0], [1163, 3, 7, 2.79], [186, 3, 12, 0.91], [149, 2, 7, 1.95], [957, 2, 7, 1.06], [7705, 2, 7, 2.28], [7706, 2, 7, 2.28], [418, 2, 7, 0.89], [12229, 2, 7, 0.87], [20255, 2, 7, 1.22], [11687, 2, 7, 0.96], [10406, 10, 12, 2.42], [3478, 2, 7, 2.16], [8938, 2, 7, 1.02], [11844, 2, 7, 1.16], [9784, 1, 7, 1.75], [7036, 1, 7, 0.87], [1414, 15, 7, 0.83], [410, 1, 7, 1.33], [12870, 1, 7, 4.39], [10410, 10, 10, 3.08], [10408, 10, 10, 2.41], [5490, 2, 7, 0.94], [11402, 1, 7, 0.89], [19687, 1, 7, 2.33], [11490, 1, 7, 1.12], [107, 7, 8, 2.5], [2703, 3, 7, 4.1], [21781, 2, 7, 0.9], [956, 2, 7, 1.02], [1886, 2, 7, 0.67], [4232, 80, 7, 3.23], [11161, 1, 10, 3.92], [10411, 10, 10, 2.12], [159, 16, 7, 1.37], [9760, 29, 7, 0.71], [11159, 1, 14, 3.45], [5976, 1, 7, 2.79], [413, 1, 7, 2.93], [7708, 2, 7, 2.28], [9065, 2, 7, 0.92], [12373, 1, 11, 2.99], [590, 15, 7, 1.04], [414, 1, 7, 2.93], [94, 4, 7, 4.17], [11689, 2, 7, 0.9], [2422, 29, 37, 4.34], [7704, 2, 177, 4.06], [151, 1, 34, 2.79], [22316, 3, 319, 2.67], [1243, 2, 99, 3.22], [11738, 2, 57, 3.1], [345, 3, 298, 4.01], [13264, 29, 73, 2.78], [229, 1, 82, 5.63], [1490, 1, 51, 2.68], [1049, 2, 38, 1.8], [20252, 2, 93, 2.65], [964, 15, 38, 1.84], [12269, 2, 65, 2.68], [2331, 1, 119, 2.84], [10407, 10, 1181, 5.04], [201, 3, 298, 6.0], [7004, 1, 80, 2.86], [2821, 3, 1342, 2.59], [5208, 3, 565, 2.85], [307, 2, 149, 3.78], [186, 3, 671, 2.68], [149, 2, 88, 3.73], [957, 2, 107, 2.84], [7705, 2, 177, 4.06], [7706, 2, 177, 4.06], [418, 2, 143, 2.67], [12229, 2, 152, 2.65], [20255, 2, 93, 3.0], [11687, 2, 254, 2.68], [10406, 10, 1790, 4.18], [3478, 2, 75, 3.94], [8938, 2, 192, 2.81], [11844, 2, 187, 2.76], [9784, 1, 72, 3.53], [7036, 1, 128, 2.65], [1414, 15, 84, 2.54], [410, 1, 105, 3.11], [12870, 1, 137, 6.0], [10410, 10, 1181, 4.88], [10408, 10, 782, 4.19], [5490, 2, 109, 2.72], [11402, 1, 46, 2.67], [19687, 1, 30, 4.11], [11490, 1, 110, 2.9], [107, 7, 240, 4.28], [2703, 3, 301, 5.89], [21781, 2, 105, 2.68], [956, 2, 107, 2.8], [1886, 2, 158, 2.45], [4232, 80, 154, 5.02], [11161, 1, 492, 5.7], [10411, 10, 782, 3.89], [159, 16, 79, 3.15], [9760, 29, 72, 2.49], [11159, 1, 496, 5.23], [5976, 1, 157, 4.58], [413, 1, 86, 4.71], [7708, 2, 177, 4.06], [9065, 2, 305, 2.7], [12373, 1, 534, 4.76], [590, 15, 101, 2.82], [414, 1, 86, 4.71], [94, 4, 116, 5.95], [11689, 2, 254, 2.61]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 7, 4.04], [362, 2, 7, 0.94], [5491, 2, 9, 0.9], [130, 1, 9, 1.36], [5493, 2, 9, 1.1], [589, 2, 7, 1.45], [2327, 2, 7, 2.32], [11685, 2, 7, 1.64], [326, 2, 7, 1.63], [8672, 2, 10, 1.91], [417, 2, 9, 1.16], [6935, 2, 19, 4.12], [11681, 2, 13, 2.0], [205, 2, 7, 0.74], [8648, 2, 7, 4.04], [206, 2, 9, 0.77], [6936, 2, 9, 2.9], [8915, 2, 7, 1.21], [142, 2, 9, 0.87], [2049, 3, 14, 1.23], [11838, 2, 9, 1.02], [12721, 2, 11, 1.95], [1446, 2, 7, 1.82], [523, 2, 7, 1.27], [8676, 2, 7, 2.44], [615, 2, 7, 2.98], [11737, 2, 7, 2.08], [305, 2, 7, 1.25], [616, 2, 7, 2.48], [413, 1, 7, 2.75], [412, 1, 7, 1.78], [10574, 3, 10, 2.84], [411, 2, 7, 0.96], [8675, 2, 9, 2.44], [145, 2, 7, 2.66], [76, 2, 7, 2.14], [1429, 2, 7, 0.92], [2775, 2, 7, 0.83], [143, 2, 7, 1.23], [8673, 2, 7, 3.38], [8674, 2, 7, 1.46], [8938, 2, 7, 1.87], [11836, 2, 9, 0.86], [146, 2, 7, 1.08], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [6158, 2, 9, 3.5], [2050, 3, 7, 3.23], [10149, 3, 21, 1.48], [2776, 2, 7, 1.44], [3495, 3, 17, 1.57], [75, 2, 7, 2.25], [2057, 3, 7, 3.23], [144, 2, 7, 2.63], [1504, 2, 11, 1.43], [8939, 2, 7, 3.23], [416, 1, 7, 1.41], [7885, 4, 7, 1.31], [22316, 3, 7, 0.89], [88, 10, 16, 2.9], [2859, 15, 7, 0.85], [159, 3, 9, 1.42], [7084, 3, 7, 3.37], [418, 2, 7, 0.68], [10993, 2, 7, 1.6], [20252, 2, 7, 0.73], [7705, 2, 7, 2.28], [9784, 1, 7, 1.69], [2424, 29, 9, 3.84], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [2423, 29, 7, 2.27], [12351, 1, 7, 1.26], [414, 1, 7, 1.41], [2423, 80, 7, 2.22], [60, 3, 8, 2.67], [378, 2, 7, 4.77], [12345, 1, 7, 1.07], [2424, 80, 7, 2.28], [13023, 3, 10, 2.77], [11490, 1, 7, 0.92], [201, 3, 7, 2.66], [13034, 3, 9, 2.71], [12373, 1, 11, 2.99], [1519, 3, 15, 0.73], [345, 3, 7, 1.27], [11489, 1, 7, 1.94], [5208, 3, 9, 0.94], [3, 2, 7, 5.0], [7886, 4, 7, 0.81], [6952, 1, 7, 0.97], [159, 1, 7, 1.41], [20927, 1, 7, 0.92], [11954, 1, 7, 0.85], [3430, 15, 7, 1.84], [432, 3, 7, 3.93], [566, 2, 7, 0.96], [13928, 1, 7, 0.87], [11504, 2, 7, 1.0], [11952, 1, 7, 0.83], [11811, 1, 7, 1.93], [2703, 3, 7, 4.1], [2331, 1, 7, 1.06], [114, 3, 7, 3.3], [7004, 1, 7, 1.96], [5584, 3, 7, 3.1], [10407, 10, 10, 3.24], [1492, 1, 7, 1.02], [105, 3, 7, 3.3], [1490, 1, 7, 3.37], [11089, 1, 7, 0.75], [6098, 80, 7, 2.52], [8274, 3, 7, 4.43], [944, 15, 7, 0.79], [7706, 2, 7, 2.28], [1886, 2, 7, 0.81], [12348, 1, 7, 1.26], [308, 1, 11, 2.72], [10410, 10, 10, 3.08], [11674, 1, 7, 0.69], [3981, 3, 13, 0.91], [94, 4, 7, 4.17], [3891, 1, 7, 4.22], [11953, 1, 7, 0.92], [6097, 80, 7, 3.58], [9082, 3, 24, 2.42], [11161, 1, 10, 3.92], [20259, 2, 7, 0.81], [1274, 1, 7, 1.16], [10408, 10, 10, 2.41], [9690, 1, 7, 1.12], [9784, 1, 72, 3.47], [2424, 29, 29, 6.0], [12526, 2, 273, 4.56], [11844, 2, 187, 2.76], [2423, 29, 37, 4.06], [12351, 1, 632, 3.04], [414, 1, 86, 3.19], [2423, 80, 185, 4.0], [60, 3, 803, 4.46], [378, 2, 225, 6.0], [12345, 1, 632, 2.84], [2424, 80, 171, 4.06], [13023, 3, 594, 4.56], [11490, 1, 110, 2.7], [201, 3, 253, 4.95], [13034, 3, 594, 4.5], [12373, 1, 534, 4.76], [1519, 3, 1664, 2.54], [345, 3, 299, 3.05], [11489, 1, 36, 3.01], [5208, 3, 379, 2.54], [3, 2, 118, 6.0], [7886, 4, 62, 2.73], [6952, 1, 191, 2.75], [159, 1, 40, 3.19], [20927, 1, 80, 2.7], [11954, 1, 203, 2.63], [3430, 15, 69, 3.63], [432, 3, 251, 5.64], [566, 2, 176, 2.74], [13928, 1, 49, 2.65], [11504, 2, 143, 2.78], [11952, 1, 203, 2.62], [11811, 1, 453, 3.71], [2703, 3, 301, 5.89], [2331, 1, 119, 2.84], [114, 3, 121, 4.73], [7004, 1, 27, 3.25], [5584, 3, 229, 4.88], [10407, 10, 1181, 5.04], [1492, 1, 37, 2.8], [105, 3, 121, 4.73], [1490, 1, 48, 5.16], [11089, 1, 174, 2.54], [6098, 80, 74, 4.31], [944, 15, 30, 2.4], [7706, 2, 177, 4.06], [1886, 2, 158, 2.59], [12348, 1, 632, 3.04], [308, 1, 169, 4.5], [10410, 10, 1181, 4.88], [11674, 1, 206, 2.47], [3981, 3, 1687, 2.69], [94, 4, 116, 5.95], [3891, 1, 123, 6.0], [11953, 1, 203, 2.71], [6097, 80, 68, 5.36], [9082, 3, 2461, 4.17], [11161, 1, 492, 5.7], [20259, 2, 93, 2.59], [1274, 1, 82, 2.94], [10408, 10, 782, 4.19], [9690, 1, 76, 2.9]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 1.72], [362, 2, 7, 1.54], [589, 2, 12, 0.68], [75, 2, 9, 2.45], [1776, 1, 7, 1.12], [205, 2, 7, 1.12], [8915, 2, 11, 0.67], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [7886, 4, 7, 1.1], [593, 2, 14, 0.83], [6936, 2, 10, 2.79], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 16, 2.93], [990, 2, 9, 0.92], [11681, 2, 10, 5.0], [8650, 2, 7, 3.25], [412, 1, 7, 2.17], [5151, 2, 7, 1.73], [2050, 3, 7, 2.4], [144, 2, 7, 2.61], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [2991, 3, 7, 4.22], [10149, 3, 25, 3.26], [22247, 2, 9, 3.0], [57, 1, 9, 0.68], [3478, 2, 7, 2.86], [146, 2, 7, 2.04], [7004, 1, 7, 1.34], [45, 2, 7, 2.65], [2054, 3, 7, 4.0], [143, 2, 7, 1.85], [417, 2, 9, 1.87], [413, 1, 7, 2.13], [21793, 1, 7, 3.62], [167, 3, 9, 2.7], [201, 3, 10, 2.56], [74, 1, 6, 2.52], [2055, 3, 7, 2.83], [346, 1, 9, 0.74], [1446, 2, 9, 1.06], [168, 3, 9, 1.38], [10, 2, 11, 2.55], [7084, 3, 7, 2.95], [11234, 2, 9, 0.93], [1429, 2, 9, 0.98], [12721, 2, 10, 1.92], [7036, 1, 7, 2.84], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [308, 1, 9, 4.83], [8649, 2, 7, 2.97], [13028, 3, 7, 0.96], [12870, 1, 7, 4.49], [10825, 21, 14, 2.47], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 0.7], [3893, 1, 7, 1.67], [418, 2, 9, 0.77], [1006, 2, 7, 1.72], [145, 2, 7, 2.69], [1504, 2, 7, 1.39], [432, 3, 7, 1.25], [5208, 3, 13, 1.78], [9827, 3, 7, 0.86], [7005, 1, 7, 1.38], [94, 4, 7, 3.04], [1490, 1, 7, 1.35], [5812, 3, 8, 2.14], [13260, 29, 7, 1.85], [8853, 2, 11, 2.88], [411, 2, 7, 1.12], [416, 1, 7, 2.37], [142, 2, 7, 2.87], [8651, 2, 7, 2.21], [12353, 1, 6, 1.55], [21269, 3, 7, 4.99], [12349, 1, 7, 3.22], [20256, 2, 7, 0.69], [33, 1, 7, 1.27], [998, 2, 7, 2.91], [12350, 1, 7, 3.09], [5086, 1, 6, 2.04], [950, 1, 9, 0.66], [9069, 1, 7, 3.12], [229, 1, 9, 5.0], [1243, 2, 9, 2.28], [2878, 1, 7, 2.04], [7567, 3, 7, 3.13], [140, 2, 7, 0.9], [2049, 1, 7, 1.79], [126, 2, 7, 1.87], [20927, 1, 7, 1.33], [3980, 4, 7, 2.59], [346, 3, 8, 1.23], [1703, 2, 7, 2.7], [8274, 3, 7, 2.09], [35, 1, 7, 1.34], [997, 2, 7, 2.43], [5209, 3, 7, 1.19], [9691, 1, 7, 1.6], [11914, 1, 9, 1.52], [5584, 3, 7, 3.42], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [856, 1, 7, 0.73], [5660, 2, 7, 2.02], [1519, 3, 21, 0.68], [159, 3, 10, 1.33], [5513, 2, 7, 0.89], [523, 2, 7, 1.87], [8898, 3, 7, 5.0], [1091, 1, 7, 1.1], [11767, 1, 7, 0.89], [2775, 2, 7, 1.06], [996, 2, 7, 3.45], [8926, 1, 7, 3.42], [9081, 3, 12, 3.64], [13034, 3, 10, 2.76], [1124, 2, 9, 1.74], [20255, 2, 7, 1.21], [23961, 3, 7, 2.61], [307, 2, 7, 2.19], [12661, 1, 7, 2.31], [418, 2, 112, 2.43], [1006, 2, 180, 2.88], [145, 2, 119, 3.85], [1504, 2, 161, 2.55], [432, 3, 239, 2.41], [5208, 3, 439, 2.95], [9827, 3, 69, 2.51], [7005, 1, 73, 2.54], [94, 4, 94, 4.2], [1490, 1, 40, 2.51], [5812, 3, 459, 3.78], [13260, 29, 57, 3.01], [8853, 2, 223, 4.41], [411, 2, 101, 2.28], [416, 1, 68, 3.53], [142, 2, 107, 4.03], [8651, 2, 176, 3.76], [12353, 1, 474, 3.2], [21269, 3, 230, 6.0], [12349, 1, 557, 4.37], [20256, 2, 74, 2.34], [33, 1, 88, 2.86], [998, 2, 188, 4.57], [12350, 1, 474, 4.74], [5086, 1, 144, 3.69], [950, 1, 58, 1.62], [9069, 1, 96, 4.28], [1243, 2, 77, 3.44], [2878, 1, 63, 3.2], [7567, 3, 55, 4.78], [140, 2, 72, 2.51], [2049, 1, 21, 2.95], [126, 2, 72, 3.03], [20927, 1, 73, 2.49], [3980, 4, 377, 4.25], [346, 3, 497, 2.4], [1703, 2, 149, 3.86], [35, 1, 88, 2.5], [997, 2, 188, 3.59], [5209, 3, 444, 2.35], [9691, 1, 70, 2.76], [11914, 1, 68, 3.17], [5584, 3, 218, 4.58], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [856, 1, 32, 1.89], [5660, 2, 138, 3.59], [1519, 3, 1313, 2.31], [159, 3, 554, 2.99], [5513, 2, 59, 2.49], [523, 2, 122, 3.03], [8898, 3, 221, 6.0], [1091, 1, 38, 2.75], [11767, 1, 151, 2.05], [2775, 2, 123, 2.71], [996, 2, 219, 4.61], [8926, 1, 56, 4.58], [9081, 3, 359, 5.3], [13034, 3, 459, 4.14], [1124, 2, 171, 2.9], [20255, 2, 74, 2.37], [23961, 3, 269, 3.77], [307, 2, 117, 3.35], [12661, 1, 64, 3.47]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 2.1], [8915, 2, 8, 3.41], [2327, 2, 7, 1.0], [589, 2, 10, 0.87], [2778, 2, 7, 1.43], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 2.37], [130, 1, 7, 1.86], [305, 2, 6, 0.82], [326, 2, 9, 2.24], [616, 2, 9, 1.91], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 6, 1.82], [7004, 1, 9, 1.83], [2049, 3, 12, 0.72], [159, 3, 10, 0.96], [10, 2, 9, 2.55], [143, 2, 7, 1.81], [593, 2, 11, 1.21], [205, 2, 7, 0.74], [2775, 2, 7, 0.93], [5491, 2, 7, 1.52], [7036, 1, 9, 3.03], [144, 2, 7, 2.0], [434, 2, 9, 0.79], [94, 4, 7, 2.73], [8938, 2, 9, 0.84], [3893, 1, 7, 1.21], [1504, 2, 7, 0.73], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [624, 2, 9, 1.75], [1429, 2, 6, 1.46], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [141, 2, 7, 1.22], [206, 2, 7, 0.74], [362, 2, 7, 1.0], [2776, 2, 7, 1.19], [75, 2, 7, 1.52], [11681, 2, 11, 4.38], [378, 2, 7, 4.71], [5208, 3, 9, 1.28], [3889, 1, 7, 1.88], [1007, 2, 7, 0.85], [8649, 2, 7, 4.79], [7886, 4, 7, 0.8], [10993, 2, 7, 1.6], [2054, 3, 7, 1.93], [12870, 1, 7, 3.23], [10149, 3, 21, 2.58], [2050, 3, 7, 0.89], [145, 2, 7, 1.93], [20927, 1, 7, 2.43], [9760, 29, 9, 0.97], [998, 2, 7, 1.56], [1886, 2, 9, 1.04], [2436, 4, 7, 2.18], [1006, 2, 7, 1.51], [997, 2, 9, 2.32], [3495, 3, 14, 1.61], [3, 2, 7, 0.9], [229, 1, 7, 0.94], [972, 3, 10, 1.52], [6158, 2, 9, 4.29], [632, 11, 21, 0.79], [346, 3, 7, 1.3], [5076, 1, 7, 1.44], [7887, 4, 7, 1.87], [20252, 2, 7, 0.9], [11770, 1, 7, 2.8], [9372, 1, 7, 3.2], [126, 2, 7, 2.07], [74, 1, 7, 3.33], [11953, 1, 7, 1.0], [140, 2, 7, 3.31], [8939, 2, 7, 1.39], [11685, 2, 11, 4.43], [11954, 1, 7, 0.73], [1492, 1, 7, 0.87], [12721, 2, 7, 3.54], [2774, 2, 7, 1.21], [20256, 2, 7, 1.02], [3981, 3, 17, 1.09], [22316, 3, 7, 0.94], [2423, 80, 7, 0.94], [9491, 21, 26, 0.95], [11952, 1, 7, 0.81], [11772, 1, 7, 0.84], [5434, 1, 7, 1.6], [5584, 3, 7, 5.0], [6497, 1, 7, 4.13], [12351, 1, 7, 1.26], [12229, 2, 7, 0.94], [2438, 2, 8, 1.68], [7573, 1, 16, 3.95], [10407, 10, 10, 3.08], [10388, 2, 7, 1.98], [11179, 1, 7, 1.6], [823, 1, 7, 4.12], [5209, 3, 9, 1.28], [6496, 1, 7, 1.85], [2805, 137, 7, 2.35], [3900, 3, 7, 2.27], [11812, 1, 7, 0.84], [4253, 1, 7, 1.04], [432, 3, 9, 3.24], [1622, 1, 7, 0.87], [1519, 3, 21, 0.68], [11737, 2, 7, 1.0], [8676, 2, 7, 3.15], [972, 1, 7, 1.02], [22247, 2, 7, 2.74], [1414, 15, 7, 0.85], [412, 1, 7, 0.94], [6097, 80, 7, 1.98], [159, 16, 7, 1.08], [10386, 2, 7, 4.24], [2991, 3, 7, 3.95], [1274, 1, 7, 1.3], [9784, 1, 7, 1.0], [6805, 1, 7, 0.97], [1243, 2, 7, 1.52], [8635, 3, 7, 3.91], [10410, 10, 15, 3.16], [11814, 1, 7, 0.92], [33, 1, 7, 2.55], [11813, 1, 7, 0.89], [7567, 3, 7, 3.43], [37, 1, 7, 2.55], [5076, 1, 127, 3.07], [7887, 4, 45, 3.23], [20252, 2, 92, 2.54], [11770, 1, 204, 4.43], [9372, 1, 225, 4.83], [126, 2, 88, 3.7], [74, 1, 192, 4.97], [11953, 1, 196, 2.64], [140, 2, 44, 4.87], [8939, 2, 63, 3.03], [11685, 2, 221, 6.0], [11954, 1, 196, 2.36], [1492, 1, 37, 2.5], [12721, 2, 275, 5.17], [2774, 2, 201, 2.84], [20256, 2, 92, 2.66], [3981, 3, 1644, 2.74], [22316, 3, 310, 2.57], [2423, 80, 185, 2.57], [9491, 21, 1763, 3.05], [11952, 1, 196, 2.45], [11772, 1, 182, 2.97], [5434, 1, 48, 3.23], [5584, 3, 198, 6.0], [6497, 1, 35, 5.77], [12351, 1, 615, 2.89], [12229, 2, 149, 2.57], [2438, 2, 629, 3.32], [7573, 1, 306, 5.58], [10407, 10, 1151, 4.72], [10388, 2, 213, 3.62], [11179, 1, 85, 3.24], [823, 1, 39, 5.75], [5209, 3, 460, 3.9], [6496, 1, 38, 3.48], [2805, 137, 176, 3.98], [3900, 3, 42, 3.91], [11812, 1, 198, 2.98], [4253, 1, 142, 3.13], [432, 3, 248, 5.88], [1622, 1, 90, 2.97], [1519, 3, 1386, 2.82], [11737, 2, 56, 2.63], [8676, 2, 279, 4.78], [972, 1, 97, 2.65], [22247, 2, 275, 4.37], [1414, 15, 98, 2.48], [412, 1, 82, 2.57], [6097, 80, 69, 3.61], [159, 16, 66, 3.16], [10386, 2, 179, 6.0], [2991, 3, 158, 5.58], [1274, 1, 80, 2.93], [9784, 1, 71, 2.63], [6805, 1, 444, 2.61], [1243, 2, 96, 3.15], [10410, 10, 1151, 4.8], [11814, 1, 220, 2.56], [33, 1, 109, 4.18], [11813, 1, 312, 2.53], [7567, 3, 67, 5.06], [37, 1, 109, 4.18]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.83], [6936, 2, 13, 3.9], [362, 2, 7, 1.08], [8648, 2, 7, 4.05], [2327, 2, 7, 1.79], [11681, 2, 16, 4.05], [8650, 2, 7, 3.82], [326, 2, 9, 1.32], [205, 2, 9, 0.85], [2328, 2, 9, 1.6], [1446, 2, 7, 0.92], [305, 2, 7, 2.34], [2049, 3, 9, 0.96], [130, 1, 7, 2.79], [8649, 2, 7, 5.0], [2775, 2, 7, 1.83], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [2776, 2, 7, 2.25], [593, 2, 7, 1.46], [143, 2, 7, 1.27], [140, 2, 9, 1.16], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [5493, 2, 7, 0.9], [523, 2, 7, 1.49], [413, 1, 7, 1.37], [7004, 1, 7, 1.71], [7036, 1, 7, 2.73], [21793, 1, 7, 2.44], [412, 1, 7, 1.25], [5491, 2, 7, 1.1], [151, 1, 7, 0.71], [1124, 2, 9, 1.09], [990, 2, 7, 1.44], [5165, 1, 9, 1.87], [8915, 2, 10, 2.24], [615, 2, 7, 3.12], [583, 2, 9, 0.82], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [434, 2, 7, 1.73], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [201, 3, 7, 3.56], [142, 2, 7, 1.08], [11770, 1, 7, 0.83], [345, 3, 9, 1.82], [2055, 3, 7, 1.56], [3891, 1, 7, 1.75], [9372, 1, 7, 1.55], [616, 2, 7, 1.66], [2057, 3, 7, 1.56], [7084, 3, 7, 5.0], [5165, 2, 15, 1.87], [7005, 1, 7, 1.83], [3893, 1, 7, 1.21], [3670, 2, 7, 2.83], [12870, 1, 7, 2.27], [1886, 2, 7, 0.87], [10574, 3, 8, 1.92], [3334, 5, 7, 1.99], [346, 3, 7, 0.8], [6098, 80, 7, 2.68], [6097, 29, 9, 5.0], [7885, 4, 7, 0.94], [20927, 1, 7, 1.66], [11089, 1, 7, 0.94], [3889, 1, 7, 1.21], [12345, 1, 7, 0.85], [6158, 2, 7, 3.37], [147, 1, 9, 2.75], [10149, 3, 24, 2.21], [1492, 1, 9, 0.68], [22316, 3, 7, 0.96], [20256, 2, 7, 0.81], [432, 3, 7, 1.65], [11953, 1, 7, 0.92], [20252, 2, 7, 1.68], [11491, 2, 7, 1.02], [418, 2, 7, 1.8], [4032, 29, 7, 1.0], [1519, 3, 16, 0.68], [411, 2, 7, 1.04], [1490, 1, 7, 0.79], [2423, 80, 7, 3.2], [11952, 1, 7, 1.53], [229, 1, 7, 3.98], [972, 3, 9, 2.0], [5151, 2, 7, 2.66], [11769, 1, 7, 0.9], [3576, 25, 7, 2.25], [2331, 1, 7, 3.16], [346, 1, 9, 0.73], [416, 1, 7, 1.91], [13034, 3, 7, 2.91], [8120, 3, 7, 2.1], [11426, 25, 7, 1.12], [11737, 2, 7, 0.96], [11767, 1, 7, 0.89], [439, 1, 9, 3.64], [3, 2, 7, 1.41], [11583, 29, 7, 1.34], [2805, 137, 7, 1.99], [5076, 1, 7, 1.21], [11490, 1, 7, 1.39], [2160, 68, 7, 2.19], [6494, 1, 7, 3.15], [414, 1, 7, 1.47], [410, 1, 7, 0.83], [1701, 2, 7, 2.58], [3575, 25, 7, 2.39], [11180, 1, 7, 1.27], [8677, 3, 8, 1.95], [75, 2, 7, 0.97], [11814, 1, 7, 0.92], [3478, 2, 7, 1.08], [11585, 29, 7, 2.16], [13023, 3, 8, 2.24], [2438, 2, 8, 2.01], [11813, 1, 7, 3.17], [9784, 1, 7, 1.69], [11954, 1, 7, 0.98], [6098, 29, 7, 1.29], [23238, 29, 7, 0.83], [4253, 1, 7, 1.98], [4033, 29, 7, 1.1], [8283, 2, 8, 0.86], [23238, 25, 7, 0.79], [20927, 1, 59, 3.07], [11089, 1, 148, 2.36], [3889, 1, 107, 2.63], [12345, 1, 455, 2.79], [6158, 2, 221, 4.78], [147, 1, 65, 5.17], [10149, 3, 741, 3.62], [1492, 1, 28, 2.62], [22316, 3, 274, 2.37], [20256, 2, 80, 2.22], [432, 3, 223, 3.07], [11953, 1, 172, 2.33], [20252, 2, 68, 3.1], [11491, 2, 121, 2.43], [418, 2, 121, 3.21], [4032, 29, 82, 2.42], [1519, 3, 1420, 2.08], [411, 2, 80, 2.91], [1490, 1, 44, 2.21], [2423, 80, 155, 4.62], [11952, 1, 172, 2.94], [229, 1, 70, 5.4], [972, 3, 432, 3.8], [5151, 2, 21, 4.08], [11769, 1, 141, 2.32], [3576, 25, 87, 3.67], [2331, 1, 100, 4.58], [346, 1, 117, 2.71], [416, 1, 63, 3.33], [13034, 3, 507, 4.32], [8120, 3, 202, 3.51], [11426, 25, 103, 2.54], [11737, 2, 49, 2.37], [11767, 1, 141, 2.31], [439, 1, 63, 5.15], [3, 2, 105, 2.82], [11583, 29, 41, 2.76], [2805, 137, 154, 3.41], [5076, 1, 112, 2.62], [11490, 1, 93, 2.81], [2160, 68, 112, 3.61], [6494, 1, 42, 4.56], [414, 1, 74, 2.88], [410, 1, 77, 2.72], [1701, 2, 141, 4.0], [3575, 25, 87, 3.8], [11180, 1, 75, 2.68], [8677, 3, 253, 3.37], [75, 2, 124, 2.38], [11814, 1, 192, 2.34], [3478, 2, 65, 2.5], [11585, 29, 148, 3.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.43], [11813, 1, 266, 4.58], [9784, 1, 61, 3.1], [11954, 1, 172, 2.4], [6098, 29, 33, 2.71], [23238, 29, 32, 2.25], [4253, 1, 144, 3.4], [4033, 29, 88, 2.52], [8283, 2, 410, 2.28], [23238, 25, 64, 2.21]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.82], [305, 2, 7, 1.08], [2778, 2, 7, 1.12], [5493, 2, 7, 2.69], [6936, 2, 9, 3.71], [130, 1, 7, 1.71], [205, 2, 7, 1.35], [616, 2, 7, 2.78], [144, 2, 7, 0.96], [2049, 3, 14, 1.75], [8648, 2, 7, 1.72], [1504, 2, 7, 0.9], [88, 10, 15, 0.89], [8915, 2, 8, 3.41], [326, 2, 7, 1.79], [7036, 1, 7, 2.72], [8650, 2, 7, 3.31], [593, 2, 9, 1.44], [2327, 2, 7, 0.94], [11681, 2, 9, 3.27], [3893, 1, 7, 1.38], [8853, 2, 7, 3.67], [141, 2, 7, 1.29], [2775, 2, 7, 1.12], [206, 2, 7, 0.81], [7004, 1, 7, 2.33], [151, 1, 7, 1.25], [9507, 3, 7, 0.69], [248, 1, 7, 2.17], [11685, 2, 7, 3.29], [10, 2, 7, 0.69], [2328, 2, 7, 1.73], [146, 2, 7, 1.21], [2050, 3, 7, 3.31], [2497, 2, 7, 1.31], [5491, 2, 7, 3.15], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [3980, 4, 7, 2.36], [21798, 1, 7, 0.9], [990, 2, 7, 0.69], [2054, 3, 7, 3.66], [624, 2, 7, 3.72], [8649, 2, 7, 2.21], [12870, 1, 7, 3.71], [362, 2, 7, 2.14], [7885, 4, 7, 0.85], [2776, 2, 7, 1.94], [2057, 3, 7, 3.31], [7886, 4, 7, 0.92], [12353, 1, 7, 3.21], [10574, 3, 8, 2.4], [13028, 3, 7, 1.25], [1006, 2, 7, 1.37], [1446, 2, 7, 2.14], [3495, 3, 21, 1.64], [523, 2, 7, 0.73], [75, 2, 7, 3.52], [2991, 3, 7, 3.97], [3975, 4, 7, 2.49], [7005, 1, 7, 1.81], [10149, 3, 21, 1.48], [11404, 2, 7, 0.83], [9760, 29, 7, 0.87], [142, 2, 7, 0.87], [6158, 2, 7, 1.57], [20927, 1, 7, 1.77], [3981, 3, 21, 2.03], [3982, 3, 17, 2.34], [417, 2, 7, 1.1], [11953, 1, 7, 0.83], [1007, 2, 7, 1.4], [997, 2, 7, 3.03], [8939, 2, 7, 0.83], [956, 2, 7, 0.71], [33, 1, 7, 3.27], [11772, 1, 7, 0.85], [2774, 2, 7, 1.81], [7887, 4, 7, 1.83], [6497, 1, 7, 0.92], [1492, 1, 7, 0.87], [998, 2, 7, 3.03], [11770, 1, 7, 0.87], [11767, 1, 7, 1.1], [972, 3, 7, 2.91], [11769, 1, 7, 1.93], [996, 2, 7, 3.03], [35, 1, 7, 1.7], [336, 15, 7, 2.22], [74, 1, 7, 2.29], [11490, 1, 7, 1.14], [389, 4, 7, 1.69], [7567, 3, 7, 2.96], [2104, 3, 10, 0.94], [11952, 1, 7, 0.87], [411, 2, 7, 1.0], [6496, 1, 7, 0.94], [12721, 2, 7, 2.18], [4253, 1, 7, 1.85], [22317, 3, 7, 0.98], [140, 2, 7, 1.04], [8121, 3, 7, 1.06], [8673, 2, 7, 2.48], [4176, 4, 7, 2.57], [1126, 2, 7, 1.47], [2436, 4, 7, 1.72], [1277, 1, 7, 1.46], [9372, 1, 7, 3.4], [8676, 2, 7, 2.35], [21269, 3, 7, 3.5], [8677, 3, 7, 3.38], [11085, 2, 8, 2.78], [12343, 1, 7, 3.21], [22247, 2, 7, 2.27], [1274, 1, 7, 1.16], [10936, 2, 7, 3.27], [37, 1, 7, 1.7], [10388, 2, 7, 2.13], [12526, 2, 7, 2.15], [823, 1, 7, 0.94], [12269, 2, 7, 1.42], [1429, 2, 7, 1.6], [7573, 1, 11, 3.51], [9784, 1, 7, 1.06], [13023, 3, 7, 2.44], [6494, 1, 7, 0.87], [345, 3, 7, 0.98], [39, 1, 7, 1.56], [12271, 2, 7, 1.39], [201, 3, 7, 2.36], [12225, 1, 7, 1.25], [96, 11, 22, 0.9], [10408, 10, 8, 1.23], [417, 2, 134, 2.55], [11953, 1, 175, 2.28], [1007, 2, 231, 2.85], [997, 2, 206, 4.48], [8939, 2, 168, 2.28], [956, 2, 93, 2.16], [33, 1, 58, 4.48], [11772, 1, 191, 2.3], [2774, 2, 176, 3.26], [6497, 1, 33, 2.37], [1492, 1, 32, 2.32], [998, 2, 206, 4.48], [11770, 1, 190, 2.32], [11767, 1, 140, 2.55], [972, 3, 512, 4.36], [11769, 1, 140, 3.37], [996, 2, 206, 4.48], [35, 1, 96, 3.15], [336, 15, 96, 3.67], [74, 1, 177, 3.74], [11490, 1, 94, 2.59], [389, 4, 180, 3.14], [7567, 3, 60, 4.41], [2104, 3, 304, 2.39], [11952, 1, 175, 2.32], [411, 2, 94, 2.45], [6496, 1, 36, 2.39], [12721, 2, 245, 3.63], [4253, 1, 145, 3.3], [22317, 3, 274, 2.43], [140, 2, 79, 2.49], [8121, 3, 255, 2.51], [8673, 2, 241, 3.93], [4176, 4, 417, 4.02], [1126, 2, 198, 2.91], [2436, 4, 100, 3.17], [1277, 1, 166, 2.91], [9372, 1, 196, 4.85], [8676, 2, 247, 3.8], [21269, 3, 255, 4.95], [8677, 3, 256, 4.82], [11085, 2, 463, 4.24], [12343, 1, 544, 4.66], [22247, 2, 245, 3.72], [1274, 1, 71, 2.61], [10936, 2, 115, 4.72], [37, 1, 96, 3.15], [10388, 2, 186, 3.58], [12526, 2, 236, 3.59], [823, 1, 35, 2.39], [12269, 2, 55, 2.87], [1429, 2, 132, 3.05], [7573, 1, 289, 4.95], [9784, 1, 63, 2.51], [13023, 3, 509, 3.88], [6494, 1, 45, 2.32], [345, 3, 257, 2.42], [39, 1, 96, 3.01], [12271, 2, 55, 2.84], [201, 3, 257, 3.81], [12225, 1, 141, 2.7], [96, 11, 738, 2.35], [10408, 10, 683, 2.68]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.25], [6935, 2, 19, 4.39], [2328, 2, 7, 1.85], [130, 1, 7, 1.89], [141, 2, 7, 1.27], [8650, 2, 9, 5.0], [2778, 2, 13, 1.26], [5491, 2, 7, 2.52], [2327, 2, 7, 1.82], [8672, 2, 10, 3.18], [362, 2, 7, 2.91], [143, 2, 7, 1.14], [6936, 2, 9, 3.09], [248, 1, 7, 0.89], [145, 2, 7, 2.66], [11681, 2, 13, 1.41], [205, 2, 7, 1.25], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.08], [75, 2, 7, 1.63], [11737, 2, 7, 1.18], [1124, 2, 10, 1.89], [523, 2, 7, 1.06], [8648, 2, 7, 4.04], [1504, 2, 11, 1.23], [12721, 2, 11, 1.45], [8853, 2, 7, 2.87], [1005, 2, 7, 0.75], [615, 2, 7, 2.29], [326, 2, 7, 1.86], [206, 2, 7, 1.25], [8673, 2, 7, 1.42], [8915, 2, 7, 3.23], [144, 2, 7, 2.63], [11835, 2, 7, 0.69], [11739, 2, 7, 1.18], [88, 10, 16, 2.9], [434, 2, 7, 1.26], [2776, 2, 7, 2.21], [142, 2, 7, 0.92], [151, 1, 7, 1.36], [8676, 2, 7, 2.04], [6158, 2, 9, 2.2], [2423, 29, 7, 3.48], [8649, 2, 7, 2.86], [11738, 2, 7, 1.18], [7704, 2, 7, 2.28], [2497, 2, 7, 0.69], [1413, 15, 7, 0.73], [2423, 80, 7, 3.48], [11836, 2, 7, 1.06], [3670, 2, 9, 3.61], [10574, 3, 10, 2.84], [7705, 2, 7, 2.28], [944, 15, 7, 0.79], [2859, 15, 7, 0.85], [3, 2, 7, 1.54], [2054, 3, 7, 2.1], [412, 1, 7, 2.4], [7706, 2, 7, 2.28], [378, 2, 7, 4.77], [12720, 2, 7, 1.45], [22316, 3, 7, 0.89], [12344, 1, 7, 1.36], [3478, 2, 7, 2.16], [2055, 3, 7, 2.1], [74, 1, 7, 4.18], [10149, 3, 21, 2.21], [2774, 2, 7, 2.97], [307, 2, 7, 2.0], [6497, 1, 7, 0.85], [12526, 2, 7, 2.78], [7004, 1, 7, 1.08], [418, 2, 7, 1.64], [411, 2, 7, 1.02], [11089, 1, 7, 0.75], [60, 3, 8, 2.1], [13928, 1, 7, 0.87], [413, 1, 7, 3.06], [2057, 3, 7, 2.1], [11844, 2, 7, 1.16], [7036, 1, 7, 1.74], [8274, 3, 7, 1.91], [3893, 1, 7, 3.81], [13260, 29, 7, 1.29], [20252, 2, 7, 1.04], [2050, 3, 7, 2.1], [14037, 3, 7, 0.79], [7084, 3, 7, 0.69], [6097, 80, 7, 3.58], [6952, 1, 7, 2.1], [3891, 1, 7, 4.22], [9784, 1, 7, 2.37], [94, 4, 7, 4.17], [1050, 2, 7, 0.69], [7707, 2, 7, 1.39], [159, 3, 9, 1.42], [414, 1, 7, 3.06], [1243, 2, 7, 0.89], [1490, 1, 7, 1.96], [3889, 1, 7, 3.81], [11490, 1, 7, 0.96], [7708, 2, 7, 2.28], [22317, 3, 8, 0.83], [21793, 1, 8, 3.56], [1413, 16, 7, 0.77], [5208, 3, 9, 1.91], [345, 3, 7, 2.23], [7703, 2, 7, 2.28], [565, 2, 7, 0.89], [229, 1, 7, 3.85], [11491, 2, 7, 1.6], [1492, 1, 7, 1.02], [3495, 3, 17, 1.57], [6098, 80, 7, 2.52], [20256, 2, 7, 0.81], [149, 2, 7, 2.73], [410, 1, 7, 0.71], [11504, 2, 7, 1.5], [2422, 80, 7, 2.56], [336, 15, 7, 1.41], [6630, 3, 7, 3.46], [147, 1, 7, 2.73], [416, 1, 7, 3.06], [3430, 15, 7, 1.84], [2991, 3, 7, 4.22], [3674, 2, 7, 1.0], [2805, 137, 10, 4.07], [6098, 29, 7, 2.52], [11581, 29, 7, 1.89], [247, 1, 7, 2.34], [23275, 2, 7, 0.75], [74, 1, 200, 5.96], [10149, 3, 868, 4.0], [2774, 2, 206, 4.75], [307, 2, 149, 3.78], [6497, 1, 38, 2.63], [12526, 2, 273, 4.56], [7004, 1, 80, 2.86], [418, 2, 142, 3.42], [411, 2, 109, 2.8], [11089, 1, 174, 2.54], [60, 3, 815, 3.89], [13928, 1, 49, 2.65], [413, 1, 85, 4.84], [2057, 3, 474, 3.89], [11844, 2, 187, 2.76], [7036, 1, 128, 3.52], [3893, 1, 123, 5.59], [13260, 29, 73, 3.07], [20252, 2, 93, 2.82], [2050, 3, 474, 3.89], [14037, 3, 116, 1.86], [6097, 80, 68, 5.36], [6952, 1, 190, 3.88], [3891, 1, 123, 6.0], [9784, 1, 72, 4.15], [94, 4, 116, 5.95], [7707, 2, 177, 3.17], [159, 3, 712, 3.2], [414, 1, 85, 4.84], [1243, 2, 100, 2.67], [1490, 1, 50, 3.74], [3889, 1, 123, 5.59], [11490, 1, 109, 2.74], [7708, 2, 177, 4.06], [22317, 3, 322, 2.62], [21793, 1, 243, 5.34], [1413, 16, 50, 2.55], [5208, 3, 560, 3.7], [345, 3, 298, 4.01], [7703, 2, 177, 4.06], [565, 2, 177, 2.68], [229, 1, 82, 5.63], [11491, 2, 142, 3.38], [1492, 1, 37, 2.8], [3495, 3, 968, 3.34], [6098, 80, 74, 4.31], [20256, 2, 94, 2.59], [149, 2, 88, 4.51], [410, 1, 53, 2.14], [11504, 2, 142, 3.28], [2422, 80, 187, 4.34], [336, 15, 114, 3.19], [6630, 3, 94, 5.24], [147, 1, 88, 4.51], [416, 1, 85, 4.84], [3430, 15, 69, 3.63], [2991, 3, 161, 6.0], [3674, 2, 261, 2.78], [2805, 137, 183, 5.85], [6098, 29, 37, 4.31], [11581, 29, 60, 3.67], [247, 1, 87, 4.12], [23275, 2, 36, 2.18]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.86], [326, 2, 11, 1.63], [205, 2, 7, 0.71], [6935, 2, 18, 3.14], [143, 2, 7, 1.12], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 3.81], [2778, 2, 9, 1.07], [146, 2, 7, 1.0], [206, 2, 7, 0.68], [20252, 2, 7, 0.92], [6936, 2, 10, 2.57], [1777, 1, 7, 2.52], [151, 1, 7, 0.71], [8648, 2, 7, 3.54], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [2050, 3, 9, 1.53], [5151, 2, 7, 4.74], [141, 2, 7, 2.12], [248, 1, 7, 0.71], [7886, 4, 7, 0.87], [88, 10, 21, 2.86], [74, 1, 7, 3.53], [2991, 3, 7, 4.18], [2057, 3, 7, 0.87], [1446, 2, 7, 0.93], [7004, 1, 7, 0.71], [362, 2, 7, 1.73], [1007, 2, 12, 0.69], [1492, 1, 7, 2.35], [147, 1, 7, 2.5], [76, 2, 7, 2.29], [8649, 2, 9, 4.7], [3889, 1, 7, 0.8], [7005, 1, 7, 0.73], [345, 3, 7, 1.1], [11234, 2, 11, 0.93], [1429, 2, 7, 1.07], [10, 2, 9, 3.33], [307, 2, 7, 2.08], [57, 1, 7, 1.28], [12870, 1, 7, 4.49], [5081, 2, 7, 1.33], [10825, 21, 13, 2.3], [7084, 3, 7, 2.95], [10149, 3, 21, 1.75], [7036, 1, 7, 2.24], [3478, 2, 7, 2.63], [1006, 2, 7, 1.59], [1504, 2, 9, 1.0], [3891, 1, 7, 2.13], [94, 4, 7, 2.6], [411, 2, 7, 0.71], [9827, 3, 7, 1.38], [167, 3, 7, 2.27], [33, 1, 9, 2.05], [432, 3, 9, 1.15], [8677, 3, 9, 1.26], [3893, 1, 7, 2.13], [11681, 2, 11, 4.55], [23, 1, 7, 1.29], [148, 1, 7, 4.65], [96, 11, 24, 1.07], [1490, 1, 9, 0.67], [22247, 2, 11, 2.32], [1124, 2, 11, 0.93], [11737, 2, 7, 1.03], [9760, 29, 9, 1.04], [12225, 1, 7, 1.7], [201, 3, 7, 1.1], [5812, 3, 8, 1.9], [1243, 2, 7, 1.53], [6158, 2, 8, 0.86], [8853, 2, 11, 3.19], [10574, 3, 9, 2.64], [346, 1, 7, 0.83], [412, 1, 7, 2.19], [5005, 1, 7, 0.85], [20927, 1, 7, 1.39], [5208, 3, 14, 0.83], [214, 3, 15, 0.65], [8651, 2, 7, 1.99], [229, 1, 7, 4.95], [8939, 2, 7, 0.73], [1767, 25, 7, 1.59], [25, 1, 7, 1.46], [159, 3, 11, 1.71], [45, 2, 7, 2.47], [11490, 1, 7, 0.83], [413, 1, 7, 2.06], [149, 2, 7, 2.62], [346, 3, 7, 0.83], [21269, 3, 7, 5.0], [3495, 3, 18, 2.26], [95, 3, 17, 3.57], [140, 2, 7, 2.1], [5946, 1, 7, 1.98], [1766, 25, 7, 1.52], [490, 1, 7, 1.02], [1413, 15, 9, 0.8], [1126, 2, 7, 1.42], [9372, 1, 7, 4.49], [8898, 3, 7, 2.78], [506, 1, 7, 4.76], [997, 2, 7, 2.04], [2775, 2, 7, 1.57], [11489, 1, 7, 1.49], [3670, 2, 7, 4.16], [9690, 1, 7, 1.25], [1070, 7, 15, 0.81], [9691, 1, 7, 2.44], [107, 2, 7, 2.65], [34, 1, 7, 1.08], [974, 3, 7, 2.14], [20498, 1, 7, 1.89], [418, 2, 7, 0.75], [14037, 3, 9, 0.8], [14017, 3, 7, 2.0], [823, 1, 7, 2.14], [142, 2, 7, 2.12], [5209, 3, 9, 0.83], [972, 3, 8, 1.64], [417, 2, 7, 2.12], [1091, 1, 7, 1.18], [9784, 1, 7, 1.61], [20498, 3, 8, 1.9], [148, 1, 64, 6.0], [96, 11, 614, 2.87], [1490, 1, 37, 2.48], [22247, 2, 204, 4.02], [1124, 2, 135, 3.24], [11737, 2, 42, 2.84], [9760, 29, 52, 3.16], [12225, 1, 71, 2.57], [201, 3, 219, 2.85], [5812, 3, 426, 3.2], [1243, 2, 71, 2.83], [6158, 2, 189, 2.66], [8853, 2, 206, 4.86], [10574, 3, 361, 4.41], [346, 1, 136, 2.14], [412, 1, 61, 3.86], [5005, 1, 114, 2.15], [20927, 1, 34, 2.7], [5208, 3, 408, 3.05], [214, 3, 578, 1.94], [8651, 2, 161, 3.8], [229, 1, 35, 5.82], [8939, 2, 83, 1.6], [1767, 25, 125, 2.9], [25, 1, 81, 3.21], [159, 3, 505, 4.02], [45, 2, 79, 3.78], [11490, 1, 80, 2.61], [413, 1, 63, 3.37], [149, 2, 64, 4.43], [346, 3, 543, 2.13], [21269, 3, 250, 6.0], [3495, 3, 695, 4.07], [95, 3, 815, 4.86], [140, 2, 58, 3.26], [5946, 1, 90, 3.28], [1766, 25, 136, 2.83], [490, 1, 43, 2.79], [1413, 15, 73, 2.72], [1126, 2, 165, 2.73], [9372, 1, 193, 5.8], [8898, 3, 213, 4.58], [506, 1, 74, 6.0], [997, 2, 204, 3.35], [2775, 2, 114, 2.87], [11489, 1, 80, 3.3], [3670, 2, 170, 5.47], [9690, 1, 64, 2.55], [1070, 7, 428, 2.63], [9691, 1, 55, 3.74], [107, 2, 35, 3.96], [34, 1, 95, 2.38], [974, 3, 108, 3.45], [20498, 1, 71, 3.61], [418, 2, 121, 2.05], [14037, 3, 125, 2.18], [14017, 3, 142, 3.71], [823, 1, 29, 3.44], [142, 2, 132, 3.42], [5209, 3, 408, 2.78], [972, 3, 428, 2.95], [417, 2, 132, 3.42], [1091, 1, 41, 2.48], [9784, 1, 52, 2.92], [20498, 3, 500, 3.2]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [6935, 2, 19, 3.32], [2049, 3, 13, 1.72], [326, 2, 8, 1.03], [141, 2, 7, 0.75], [205, 2, 7, 1.12], [589, 2, 10, 0.81], [151, 1, 7, 0.89], [362, 2, 9, 0.99], [1776, 1, 7, 2.23], [146, 2, 7, 2.08], [145, 2, 7, 0.85], [206, 2, 7, 0.69], [2328, 2, 7, 1.51], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [8915, 2, 11, 0.67], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [8650, 2, 7, 3.66], [20252, 2, 7, 0.91], [1777, 1, 7, 2.22], [5151, 2, 7, 2.02], [1007, 2, 12, 0.69], [248, 1, 7, 0.69], [2778, 2, 7, 1.06], [88, 10, 14, 2.25], [2050, 3, 7, 1.39], [76, 2, 9, 2.75], [10149, 3, 25, 3.26], [8649, 2, 7, 4.79], [10, 2, 11, 2.55], [8677, 3, 8, 3.58], [2054, 3, 7, 2.34], [412, 1, 7, 2.17], [13028, 3, 7, 0.92], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 1.38], [11681, 2, 10, 4.88], [10825, 21, 14, 0.7], [1446, 2, 7, 2.06], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.86], [1429, 2, 7, 1.48], [147, 1, 7, 2.73], [3495, 3, 26, 2.49], [1006, 2, 9, 1.46], [167, 3, 9, 3.34], [1492, 1, 7, 0.7], [7036, 1, 7, 2.98], [140, 2, 7, 1.36], [7005, 1, 9, 0.99], [9827, 3, 7, 1.38], [8676, 2, 7, 2.54], [45, 2, 9, 3.67], [1124, 2, 11, 1.24], [168, 3, 9, 1.09], [2049, 1, 7, 1.79], [5812, 3, 8, 2.69], [94, 4, 7, 2.54], [57, 1, 7, 0.73], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [148, 1, 7, 2.34], [335, 3, 18, 4.35], [8651, 2, 7, 2.74], [2336, 3, 8, 1.74], [415, 1, 7, 2.37], [214, 3, 15, 0.65], [8939, 2, 7, 0.73], [6097, 29, 7, 4.54], [416, 1, 7, 2.37], [8853, 2, 14, 3.05], [6097, 80, 7, 4.54], [346, 1, 7, 0.94], [490, 1, 7, 1.94], [20256, 2, 7, 0.64], [1490, 1, 7, 0.87], [20927, 1, 7, 1.27], [79, 1, 7, 0.73], [95, 3, 21, 0.96], [6098, 29, 7, 4.85], [6098, 80, 7, 4.85], [9069, 1, 7, 2.51], [14017, 3, 7, 1.29], [414, 1, 7, 1.64], [22316, 3, 7, 0.94], [346, 3, 8, 0.69], [1070, 7, 13, 0.73], [8898, 3, 7, 3.98], [1126, 2, 7, 0.96], [126, 2, 7, 1.87], [13034, 3, 8, 3.28], [149, 2, 7, 2.73], [997, 2, 7, 2.43], [9760, 29, 7, 1.04], [20498, 1, 7, 3.84], [20255, 2, 7, 1.22], [5086, 1, 9, 1.64], [9784, 1, 7, 1.42], [5513, 2, 7, 1.89], [336, 15, 7, 1.21], [8945, 3, 8, 2.0], [22317, 3, 8, 1.35], [12924, 1, 7, 1.54], [7567, 3, 7, 3.89], [159, 3, 10, 1.08], [11085, 2, 7, 1.33], [11739, 2, 7, 1.6], [5811, 3, 7, 2.66], [1413, 15, 7, 0.83], [974, 3, 7, 1.69], [192, 3, 22, 4.76], [229, 1, 7, 4.95], [5813, 3, 7, 2.94], [972, 3, 7, 1.56], [506, 1, 7, 2.34], [8557, 3, 7, 1.53], [1622, 1, 10, 0.74], [9082, 3, 21, 1.19], [9691, 1, 7, 2.81], [20498, 3, 8, 1.94], [8943, 3, 7, 3.68], [3049, 3, 7, 3.81], [524, 1, 7, 2.71], [14018, 3, 7, 0.96], [4076, 3, 7, 5.0], [2775, 2, 9, 0.88], [470, 1, 7, 0.98], [20486, 3, 8, 3.37], [335, 3, 1175, 5.52], [8651, 2, 176, 3.9], [2336, 3, 535, 2.91], [415, 1, 68, 3.53], [214, 3, 625, 1.8], [8939, 2, 134, 1.76], [6097, 29, 27, 5.7], [416, 1, 68, 3.76], [8853, 2, 223, 4.7], [6097, 80, 53, 5.7], [346, 1, 146, 2.1], [490, 1, 41, 2.97], [20256, 2, 74, 2.29], [1490, 1, 47, 2.03], [20927, 1, 73, 2.43], [79, 1, 44, 1.89], [95, 3, 884, 2.58], [6098, 29, 29, 6.0], [6098, 80, 58, 6.0], [9069, 1, 96, 3.67], [14017, 3, 154, 2.89], [414, 1, 68, 2.8], [22316, 3, 291, 2.1], [346, 3, 585, 1.86], [1070, 7, 467, 2.4], [8898, 3, 221, 5.63], [1126, 2, 180, 2.57], [126, 2, 72, 3.03], [13034, 3, 459, 4.44], [149, 2, 80, 3.89], [997, 2, 219, 3.59], [9760, 29, 66, 2.2], [20498, 1, 77, 5.0], [20255, 2, 74, 2.38], [5086, 1, 144, 3.79], [9784, 1, 57, 3.02], [5513, 2, 59, 3.05], [336, 15, 104, 2.37], [8945, 3, 541, 3.16], [22317, 3, 248, 2.52], [12924, 1, 42, 2.7], [7567, 3, 55, 5.05], [159, 3, 554, 2.75], [11085, 2, 431, 2.5], [11739, 2, 53, 2.76], [5811, 3, 459, 3.82], [1413, 15, 79, 2.48], [974, 3, 136, 2.85], [192, 3, 1287, 5.9], [229, 1, 38, 5.72], [5813, 3, 459, 4.1], [972, 3, 546, 2.71], [506, 1, 68, 3.99], [8557, 3, 159, 3.18], [1622, 1, 53, 1.04], [9082, 3, 1955, 2.89], [9691, 1, 59, 4.46], [20498, 3, 459, 3.57], [8943, 3, 307, 5.33], [3049, 3, 108, 5.27], [524, 1, 66, 3.87], [14018, 3, 154, 2.57], [4076, 3, 155, 6.0], [2775, 2, 123, 2.71], [470, 1, 16, 2.63], [20486, 3, 465, 4.53]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.29], [6935, 2, 10, 2.82], [326, 2, 7, 1.79], [130, 1, 7, 1.71], [8648, 2, 7, 1.72], [2327, 2, 7, 0.94], [144, 2, 7, 0.96], [593, 2, 9, 1.44], [205, 2, 7, 1.35], [143, 2, 7, 1.12], [8915, 2, 8, 3.41], [2328, 2, 7, 1.73], [141, 2, 7, 1.29], [11681, 2, 9, 3.27], [305, 2, 7, 1.08], [6936, 2, 9, 3.71], [8650, 2, 7, 3.31], [151, 1, 7, 1.25], [5493, 2, 7, 2.69], [2778, 2, 7, 1.12], [206, 2, 7, 0.81], [2049, 3, 14, 1.75], [146, 2, 7, 1.21], [88, 10, 15, 0.89], [7036, 1, 7, 2.72], [9507, 3, 7, 0.69], [8853, 2, 7, 3.67], [8649, 2, 7, 2.21], [1446, 2, 7, 2.14], [5491, 2, 7, 3.15], [362, 2, 7, 2.14], [990, 2, 7, 0.69], [2055, 3, 7, 3.44], [1006, 2, 7, 1.37], [75, 2, 7, 3.52], [3893, 1, 7, 1.38], [11737, 2, 7, 1.41], [417, 2, 7, 1.1], [616, 2, 7, 2.78], [2050, 3, 7, 3.31], [3840, 1, 7, 0.75], [1007, 2, 7, 1.4], [523, 2, 7, 0.73], [12870, 1, 7, 3.71], [159, 3, 8, 0.66], [20927, 1, 7, 1.77], [1504, 2, 7, 0.9], [2057, 3, 7, 3.31], [3, 2, 7, 0.81], [13280, 1, 7, 4.47], [10574, 3, 8, 2.4], [142, 2, 7, 0.87], [997, 2, 7, 3.03], [9760, 29, 7, 0.87], [10, 2, 7, 0.69], [624, 2, 7, 3.72], [2054, 3, 7, 3.66], [21798, 1, 7, 0.9], [2775, 2, 7, 1.12], [140, 2, 7, 1.04], [21793, 1, 7, 2.85], [8939, 2, 7, 0.83], [1429, 2, 7, 1.6], [996, 2, 7, 3.03], [11739, 2, 7, 1.17], [6158, 2, 7, 1.57], [998, 2, 7, 3.03], [12269, 2, 7, 1.42], [98, 11, 16, 1.42], [1126, 2, 7, 1.47], [84, 2, 7, 0.8], [9372, 1, 7, 3.4], [10388, 2, 7, 2.13], [972, 3, 7, 2.91], [411, 2, 7, 1.0], [7885, 4, 7, 0.85], [8898, 3, 7, 5.0], [413, 1, 7, 1.71], [2776, 2, 7, 1.94], [12343, 1, 7, 3.21], [9491, 21, 16, 1.93], [1492, 1, 7, 0.87], [10386, 2, 7, 1.91], [995, 2, 7, 3.03], [147, 1, 7, 0.94], [13928, 1, 7, 0.77], [22316, 3, 7, 0.98], [418, 2, 7, 0.94], [308, 1, 7, 3.28], [22247, 2, 7, 2.27], [9784, 1, 7, 1.06], [8677, 3, 7, 3.38], [336, 15, 7, 2.22], [11490, 1, 7, 1.14], [7567, 3, 7, 2.96], [307, 2, 7, 1.52], [229, 1, 7, 2.0], [11953, 1, 7, 0.83], [10631, 2, 7, 1.93], [33, 1, 7, 3.27], [11770, 1, 7, 0.87], [7886, 4, 7, 0.92], [22317, 3, 7, 0.98], [414, 1, 7, 1.27], [35, 1, 7, 1.7], [7573, 1, 11, 3.51], [439, 1, 7, 2.21], [10780, 10, 7, 3.01], [10407, 10, 10, 3.28], [10410, 10, 10, 3.2], [415, 1, 7, 1.27], [13286, 1, 7, 1.81], [335, 3, 15, 3.35], [9691, 1, 7, 1.0], [10387, 2, 7, 1.83], [972, 1, 7, 2.91], [6497, 1, 7, 0.92], [10149, 3, 21, 1.48], [74, 1, 7, 2.29], [11767, 1, 7, 1.1], [3478, 2, 7, 2.25], [12271, 2, 7, 1.39], [9690, 1, 7, 1.46], [8897, 3, 7, 5.0], [9971, 2, 7, 2.16], [2497, 2, 7, 1.31], [2331, 1, 7, 3.73], [345, 3, 7, 0.98], [9082, 3, 29, 0.94], [11769, 1, 7, 1.93], [4076, 3, 7, 2.93], [20682, 1, 7, 2.56], [3048, 3, 7, 1.77], [98, 11, 433, 2.64], [1126, 2, 198, 2.91], [84, 2, 58, 2.25], [9372, 1, 196, 4.85], [10388, 2, 186, 3.58], [972, 3, 512, 4.36], [411, 2, 94, 2.45], [8898, 3, 242, 6.0], [413, 1, 74, 3.16], [2776, 2, 136, 3.39], [12343, 1, 544, 4.66], [9491, 21, 1818, 3.36], [1492, 1, 32, 2.32], [10386, 2, 186, 3.36], [995, 2, 206, 4.48], [147, 1, 79, 2.39], [13928, 1, 42, 2.22], [22316, 3, 274, 2.43], [418, 2, 123, 2.39], [308, 1, 139, 4.73], [22247, 2, 245, 3.72], [9784, 1, 63, 2.51], [8677, 3, 256, 4.82], [336, 15, 96, 3.67], [11490, 1, 94, 2.59], [7567, 3, 60, 4.41], [307, 2, 129, 2.96], [229, 1, 71, 3.45], [11953, 1, 175, 2.28], [10631, 2, 183, 3.38], [33, 1, 58, 4.48], [11770, 1, 190, 2.32], [7886, 4, 75, 2.13], [22317, 3, 274, 2.43], [414, 1, 74, 2.72], [35, 1, 96, 3.15], [7573, 1, 289, 4.95], [439, 1, 75, 3.66], [10780, 10, 319, 4.45], [10407, 10, 1018, 4.72], [10410, 10, 1018, 4.64], [415, 1, 74, 2.72], [13286, 1, 274, 3.26], [335, 3, 1107, 4.78], [9691, 1, 66, 2.45], [10387, 2, 186, 3.28], [972, 1, 85, 4.36], [6497, 1, 33, 2.37], [10149, 3, 754, 2.93], [74, 1, 177, 3.74], [11767, 1, 140, 2.55], [3478, 2, 65, 3.7], [12271, 2, 55, 2.84], [9690, 1, 65, 2.91], [8897, 3, 242, 6.0], [9971, 2, 236, 3.61], [2497, 2, 176, 2.76], [2331, 1, 100, 5.17], [345, 3, 257, 2.42], [9082, 3, 2166, 2.38], [11769, 1, 140, 3.37], [4076, 3, 172, 4.38], [20682, 1, 530, 4.0], [3048, 3, 234, 3.22]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.88], [361, 2, 9, 1.17], [6935, 2, 23, 5.0], [12721, 2, 14, 3.73], [11737, 2, 7, 1.27], [206, 2, 9, 0.77], [2049, 3, 14, 1.25], [8676, 2, 7, 1.16], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 1.38], [523, 2, 7, 1.27], [22247, 2, 7, 1.93], [8650, 2, 7, 3.31], [142, 2, 7, 1.1], [8648, 2, 7, 3.31], [2328, 2, 7, 1.85], [2776, 2, 7, 0.88], [2327, 2, 7, 1.82], [616, 2, 7, 2.22], [11739, 2, 7, 1.27], [8853, 2, 7, 3.53], [11837, 2, 7, 0.87], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 1.67], [146, 2, 7, 1.08], [412, 1, 7, 2.46], [11835, 2, 7, 0.94], [8674, 2, 7, 2.75], [583, 2, 7, 2.4], [6497, 1, 7, 0.85], [2805, 137, 11, 3.27], [145, 2, 7, 2.66], [10574, 3, 10, 2.84], [418, 2, 7, 0.89], [326, 2, 7, 1.94], [144, 2, 7, 2.63], [6097, 80, 7, 4.06], [11738, 2, 7, 1.27], [9784, 1, 7, 2.07], [11836, 2, 7, 1.04], [10149, 3, 26, 1.2], [413, 1, 7, 2.23], [6097, 29, 7, 3.58], [2057, 3, 6, 0.65], [75, 2, 7, 2.38], [11234, 2, 8, 1.39], [12344, 1, 7, 1.98], [20252, 2, 7, 0.9], [1413, 15, 7, 0.73], [11504, 2, 7, 1.08], [6496, 1, 7, 1.41], [12269, 2, 7, 0.83], [8915, 2, 7, 0.75], [414, 1, 7, 2.23], [1243, 2, 7, 0.81], [1492, 1, 7, 1.02], [6098, 80, 7, 2.52], [2774, 2, 9, 2.61], [22316, 3, 7, 0.89], [247, 1, 7, 3.33], [944, 15, 7, 0.67], [1490, 1, 7, 0.69], [6098, 29, 7, 2.52], [9786, 1, 7, 2.7], [416, 1, 7, 2.23], [3934, 5, 10, 0.86], [2049, 1, 7, 0.79], [201, 3, 7, 2.66], [2859, 15, 7, 1.37], [6158, 2, 9, 2.2], [20555, 2, 7, 1.27], [3670, 2, 9, 3.61], [3478, 2, 7, 2.16], [11489, 1, 7, 1.94], [2050, 3, 6, 0.65], [9785, 1, 7, 2.91], [7084, 3, 7, 4.74], [12526, 2, 7, 2.78], [9342, 2, 8, 0.67], [8599, 1, 7, 1.94], [3430, 15, 7, 0.69], [1703, 2, 7, 0.89], [4253, 1, 7, 0.98], [3982, 3, 20, 0.67], [186, 3, 12, 0.91], [8938, 2, 7, 1.12], [107, 2, 7, 2.39], [1413, 16, 7, 0.81], [11887, 2, 8, 0.69], [229, 1, 7, 2.94], [11885, 2, 7, 0.75], [11490, 1, 7, 0.98], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [1050, 2, 7, 0.69], [415, 1, 7, 2.23], [94, 4, 7, 4.03], [2438, 2, 8, 2.19], [107, 7, 8, 2.36], [436, 2, 7, 0.98], [947, 15, 7, 1.44], [5812, 3, 7, 3.84], [5939, 3, 7, 0.96], [2821, 3, 13, 0.82], [11769, 1, 7, 0.92], [11767, 1, 7, 0.92], [3673, 2, 7, 4.0], [11671, 1, 7, 0.81], [140, 2, 7, 1.64], [11844, 2, 7, 1.16], [5813, 3, 8, 1.8], [11160, 1, 7, 3.67], [9358, 1, 7, 0.85], [3495, 3, 17, 1.57], [11771, 1, 7, 3.17], [7036, 1, 7, 0.87], [12764, 2, 8, 0.8], [5811, 3, 8, 4.0], [409, 1, 7, 1.0], [23920, 2, 7, 0.79], [410, 1, 7, 2.83], [1049, 2, 7, 0.69], [11954, 1, 7, 0.81], [105, 3, 7, 3.93], [9690, 1, 7, 1.29], [11180, 1, 7, 0.75], [2108, 3, 8, 1.43], [1490, 1, 51, 2.47], [6098, 29, 37, 4.31], [9786, 1, 60, 4.41], [416, 1, 86, 4.01], [3934, 5, 496, 3.22], [2049, 1, 15, 2.39], [201, 3, 300, 4.45], [2859, 15, 59, 3.59], [6158, 2, 260, 3.98], [20555, 2, 57, 3.06], [3670, 2, 237, 5.4], [3478, 2, 75, 3.94], [11489, 1, 36, 3.01], [2050, 3, 404, 2.44], [9785, 1, 36, 4.37], [12526, 2, 273, 4.56], [9342, 2, 157, 1.74], [8599, 1, 146, 3.72], [3430, 15, 24, 1.76], [1703, 2, 166, 2.67], [4253, 1, 172, 2.77], [3982, 3, 820, 2.44], [186, 3, 671, 2.68], [8938, 2, 193, 2.9], [107, 2, 48, 4.17], [1413, 16, 50, 2.59], [11887, 2, 98, 2.12], [229, 1, 81, 4.72], [11885, 2, 98, 2.18], [11490, 1, 110, 2.76], [11811, 1, 453, 3.71], [4232, 80, 154, 5.02], [415, 1, 86, 4.01], [94, 4, 119, 5.81], [2438, 2, 645, 3.98], [107, 7, 241, 4.15], [436, 2, 108, 2.76], [947, 15, 41, 3.22], [5812, 3, 591, 5.62], [5939, 3, 267, 2.74], [2821, 3, 1342, 2.59], [11769, 1, 164, 2.7], [11767, 1, 164, 2.7], [3673, 2, 237, 5.78], [11671, 1, 313, 2.59], [140, 2, 91, 3.42], [11844, 2, 187, 2.76], [5813, 3, 591, 3.58], [11160, 1, 492, 5.45], [9358, 1, 59, 2.63], [3495, 3, 968, 3.34], [11771, 1, 214, 4.95], [7036, 1, 128, 2.65], [12764, 2, 762, 2.58], [5811, 3, 492, 5.72], [409, 1, 55, 2.78], [23920, 2, 107, 2.57], [410, 1, 35, 3.9], [11954, 1, 204, 2.59], [105, 3, 80, 5.0], [9690, 1, 76, 3.07], [11180, 1, 89, 2.53], [2108, 3, 232, 3.21]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.46], [305, 2, 7, 1.32], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [130, 1, 7, 1.86], [589, 2, 10, 0.87], [144, 2, 7, 1.49], [8915, 2, 8, 3.41], [143, 2, 7, 0.85], [2328, 2, 7, 1.46], [6936, 2, 7, 3.27], [8648, 2, 7, 3.58], [2775, 2, 9, 0.8], [205, 2, 7, 0.74], [326, 2, 9, 2.24], [8650, 2, 7, 3.91], [593, 2, 11, 0.97], [145, 2, 7, 1.93], [146, 2, 7, 1.1], [3840, 1, 9, 1.09], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [616, 2, 9, 1.83], [88, 10, 16, 2.59], [615, 2, 7, 3.68], [141, 2, 7, 0.72], [7004, 1, 9, 4.31], [151, 1, 7, 1.81], [1124, 2, 9, 1.09], [11681, 2, 11, 4.38], [1446, 2, 7, 1.32], [206, 2, 7, 0.74], [9760, 29, 7, 1.29], [8853, 2, 7, 3.35], [5491, 2, 7, 1.52], [1007, 2, 7, 1.35], [362, 2, 7, 1.0], [1504, 2, 7, 1.19], [2912, 1, 9, 1.91], [2057, 3, 7, 0.89], [8938, 2, 7, 0.99], [9372, 1, 7, 3.2], [3893, 1, 7, 0.71], [434, 2, 7, 1.82], [8649, 2, 7, 4.79], [12870, 1, 7, 3.23], [10993, 2, 7, 1.6], [624, 2, 7, 2.44], [2050, 3, 7, 0.89], [2054, 3, 9, 0.81], [5165, 1, 7, 2.5], [1429, 2, 9, 1.08], [3889, 1, 7, 1.38], [378, 2, 9, 5.0], [7084, 3, 7, 2.06], [2991, 3, 7, 3.64], [10, 2, 7, 0.89], [140, 2, 7, 3.31], [3891, 1, 7, 0.76], [7886, 4, 7, 1.3], [11737, 2, 7, 1.0], [1006, 2, 7, 2.02], [10574, 3, 11, 3.29], [7573, 1, 16, 3.95], [5208, 3, 9, 1.28], [10149, 3, 21, 2.58], [1622, 1, 9, 1.11], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.64], [5165, 2, 10, 3.45], [11234, 2, 7, 2.8], [997, 2, 7, 2.43], [12721, 2, 7, 3.54], [11685, 2, 11, 4.43], [1886, 2, 9, 0.86], [22247, 2, 7, 2.74], [147, 1, 7, 3.5], [229, 1, 7, 1.91], [998, 2, 7, 1.56], [20252, 2, 7, 0.9], [94, 4, 7, 2.73], [972, 3, 10, 1.52], [9491, 21, 26, 0.95], [2912, 2, 12, 3.04], [35, 1, 7, 2.48], [439, 1, 7, 2.04], [76, 2, 7, 2.12], [413, 1, 7, 2.66], [5076, 1, 7, 1.87], [13928, 1, 7, 1.35], [83, 2, 7, 0.82], [8104, 1, 7, 1.66], [1414, 15, 7, 0.85], [5209, 3, 7, 2.28], [33, 1, 7, 1.79], [148, 1, 9, 4.53], [8676, 2, 7, 3.15], [418, 2, 7, 1.65], [11952, 1, 7, 0.81], [412, 1, 7, 0.85], [7887, 4, 7, 1.87], [8898, 3, 7, 1.93], [12212, 29, 7, 0.9], [2774, 2, 7, 1.06], [3495, 3, 18, 1.61], [38, 1, 7, 2.18], [20256, 2, 7, 1.02], [84, 2, 7, 2.15], [11770, 1, 7, 2.8], [34, 1, 7, 2.06], [415, 1, 7, 1.98], [10407, 10, 10, 3.08], [632, 11, 21, 0.79], [3048, 3, 7, 3.77], [9784, 1, 7, 1.0], [11772, 1, 7, 0.84], [126, 2, 7, 2.07], [13928, 2, 7, 1.37], [995, 2, 7, 3.93], [411, 2, 7, 0.89], [9690, 1, 7, 0.71], [9691, 1, 7, 0.79], [8939, 2, 7, 0.89], [39, 1, 7, 2.12], [11953, 1, 7, 1.0], [12351, 1, 7, 1.58], [5584, 3, 7, 5.0], [7567, 3, 7, 3.43], [11954, 1, 7, 0.73], [10410, 10, 15, 3.16], [74, 1, 7, 3.33], [5165, 2, 127, 5.21], [11234, 2, 60, 4.44], [997, 2, 198, 4.46], [12721, 2, 275, 5.17], [11685, 2, 221, 6.0], [1886, 2, 130, 3.17], [22247, 2, 275, 4.37], [147, 1, 74, 5.13], [229, 1, 70, 3.54], [998, 2, 198, 3.64], [20252, 2, 92, 2.54], [94, 4, 100, 4.36], [972, 3, 493, 3.68], [9491, 21, 1763, 3.05], [2912, 2, 323, 4.66], [35, 1, 92, 4.11], [439, 1, 73, 3.67], [76, 2, 91, 3.75], [413, 1, 72, 4.29], [5076, 1, 108, 3.5], [13928, 1, 40, 3.42], [83, 2, 47, 2.39], [8104, 1, 201, 3.29], [1414, 15, 98, 2.48], [33, 1, 92, 3.85], [148, 1, 74, 6.0], [8676, 2, 279, 4.78], [418, 2, 118, 3.29], [11952, 1, 196, 2.45], [412, 1, 70, 2.95], [7887, 4, 45, 3.23], [8898, 3, 243, 3.56], [12212, 29, 118, 2.53], [2774, 2, 170, 3.15], [3495, 3, 943, 3.25], [38, 1, 92, 3.81], [20256, 2, 92, 2.66], [84, 2, 33, 3.79], [11770, 1, 204, 4.43], [34, 1, 92, 3.69], [415, 1, 72, 3.61], [10407, 10, 1151, 4.72], [632, 11, 810, 2.42], [3048, 3, 223, 5.91], [9784, 1, 71, 2.63], [11772, 1, 182, 2.97], [126, 2, 88, 3.7], [13928, 2, 23, 3.0], [995, 2, 235, 5.56], [411, 2, 107, 2.52], [9690, 1, 25, 1.69], [9691, 1, 75, 2.43], [8939, 2, 159, 3.03], [39, 1, 92, 3.75], [11953, 1, 196, 2.64], [12351, 1, 525, 3.23], [5584, 3, 230, 6.0], [7567, 3, 67, 5.06], [11954, 1, 196, 2.36], [10410, 10, 1151, 4.8], [74, 1, 192, 4.97]]</t>
   </si>
   <si>
     <t>501QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.47], [6935, 2, 7, 1.8], [6936, 2, 4, 1.58], [305, 2, 4, 0.65], [8672, 2, 5, 0.8], [615, 2, 4, 1.37], [1504, 2, 5, 0.82], [2775, 2, 4, 0.66], [145, 2, 4, 0.51], [2776, 2, 4, 1.41], [8853, 2, 4, 1.78], [12721, 2, 5, 0.72], [2327, 2, 4, 0.51], [146, 2, 4, 0.56], [143, 2, 4, 0.59], [2328, 2, 4, 0.51], [11737, 2, 4, 0.53], [11681, 2, 5, 0.47], [616, 2, 4, 1.21], [141, 2, 4, 0.79], [5491, 2, 4, 0.56], [205, 2, 4, 0.56], [2497, 2, 4, 0.51], [144, 2, 4, 0.5], [8650, 2, 4, 1.91], [5493, 2, 4, 0.74], [8676, 2, 4, 1.06], [8673, 2, 4, 0.74], [417, 2, 4, 0.79], [3670, 2, 4, 1.02], [8648, 2, 4, 1.91], [589, 2, 4, 0.4], [3, 2, 4, 0.37], [206, 2, 4, 0.56], [6097, 80, 4, 1.86], [22247, 2, 4, 1.21], [8674, 2, 4, 1.22], [11836, 2, 4, 0.5], [6497, 1, 4, 0.44], [624, 2, 4, 1.02], [2424, 29, 4, 0.43], [593, 2, 5, 0.52], [523, 2, 4, 0.68], [12344, 1, 4, 0.83], [6097, 29, 4, 1.86], [12720, 2, 4, 0.84], [6098, 80, 4, 1.16], [12345, 1, 4, 2.08], [11739, 2, 4, 0.53], [2424, 80, 4, 0.43], [88, 10, 8, 0.95], [944, 15, 4, 0.35], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [60, 3, 5, 1.19], [326, 2, 4, 0.78], [142, 2, 4, 0.79], [1492, 1, 4, 0.53], [1413, 15, 4, 0.36], [411, 2, 4, 0.49], [1050, 2, 4, 0.38], [2422, 80, 4, 1.33], [6496, 1, 4, 0.51], [6098, 29, 4, 1.16], [378, 2, 4, 2.29], [12346, 1, 4, 2.08], [10149, 3, 13, 1.12], [2422, 29, 4, 1.33], [7704, 2, 4, 1.15], [151, 1, 4, 0.7], [22316, 3, 4, 0.46], [1243, 2, 4, 0.75], [11738, 2, 4, 0.53], [345, 3, 4, 1.16], [13264, 29, 4, 0.52], [229, 1, 4, 2.0], [1490, 1, 4, 0.47], [1049, 2, 4, 0.38], [20252, 2, 4, 0.45], [964, 15, 4, 0.4], [12269, 2, 4, 0.47], [2331, 1, 4, 0.55], [10407, 10, 6, 1.64], [201, 3, 4, 1.26], [7004, 1, 4, 0.56], [2821, 3, 8, 0.45], [5208, 3, 5, 0.54], [307, 2, 4, 1.04], [1163, 3, 4, 1.45], [186, 3, 7, 0.48], [149, 2, 4, 0.37], [957, 2, 4, 0.55], [7705, 2, 4, 1.15], [7706, 2, 4, 1.15], [418, 2, 4, 0.46], [12229, 2, 4, 0.45], [20255, 2, 4, 0.47], [11687, 2, 4, 0.5], [10406, 10, 7, 1.21], [3478, 2, 4, 0.89], [8938, 2, 4, 0.53], [11844, 2, 4, 0.47], [9784, 1, 4, 0.91], [7036, 1, 4, 0.43], [1414, 15, 4, 0.43], [410, 1, 4, 0.69], [12870, 1, 4, 2.21], [10410, 10, 6, 1.56], [10408, 10, 6, 1.32], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [19687, 1, 4, 1.21], [11490, 1, 4, 0.58], [107, 7, 5, 1.26], [2703, 3, 4, 2.13], [21781, 2, 4, 0.47], [956, 2, 4, 0.53], [1886, 2, 4, 0.35], [4232, 80, 4, 1.65], [11161, 1, 5, 1.78], [10411, 10, 6, 1.06], [159, 16, 4, 0.71], [9760, 29, 4, 0.37], [11159, 1, 7, 0.84], [5976, 1, 4, 1.45], [413, 1, 4, 1.52], [7708, 2, 4, 1.15], [9065, 2, 4, 0.48], [12373, 1, 5, 0.45], [590, 15, 4, 0.54], [414, 1, 4, 1.52], [94, 4, 4, 1.77], [11689, 2, 4, 0.47], [2778, 2, 157, 3.12], [6935, 2, 281, 6.0], [6936, 2, 281, 5.7], [305, 2, 147, 3.03], [8672, 2, 289, 4.96], [615, 2, 108, 4.42], [1504, 2, 205, 3.76], [2775, 2, 157, 3.09], [145, 2, 151, 4.45], [2776, 2, 157, 4.49], [8853, 2, 281, 5.28], [12721, 2, 285, 3.53], [2327, 2, 151, 3.61], [146, 2, 152, 2.87], [143, 2, 149, 2.92], [2328, 2, 151, 3.64], [11737, 2, 57, 3.1], [11681, 2, 277, 3.19], [616, 2, 108, 4.11], [141, 2, 156, 4.16], [5491, 2, 109, 2.86], [205, 2, 110, 2.86], [2497, 2, 205, 2.76], [144, 2, 76, 4.06], [8650, 2, 225, 6.0], [5493, 2, 109, 3.2], [8676, 2, 289, 3.82], [8673, 2, 289, 3.21], [417, 2, 156, 4.16], [3670, 2, 236, 5.78], [8648, 2, 225, 5.47], [589, 2, 77, 2.2], [3, 2, 122, 3.02], [206, 2, 55, 2.5], [6097, 80, 68, 5.36], [22247, 2, 285, 4.12], [8674, 2, 289, 4.13], [11836, 2, 270, 2.74], [6497, 1, 38, 2.63], [624, 2, 108, 3.74], [2424, 29, 34, 4.06], [593, 2, 231, 2.7], [523, 2, 156, 3.09], [12344, 1, 615, 3.87], [6097, 29, 34, 5.36], [12720, 2, 285, 3.47], [6098, 80, 74, 4.31], [12345, 1, 615, 5.79], [11739, 2, 57, 3.1], [2424, 80, 171, 4.06], [88, 10, 562, 4.69], [944, 15, 15, 1.74], [8915, 2, 130, 2.39], [75, 2, 144, 4.03], [60, 3, 815, 3.89], [326, 2, 46, 3.29], [142, 2, 156, 4.16], [1492, 1, 37, 2.8], [1413, 15, 100, 2.47], [411, 2, 110, 2.72], [1050, 2, 38, 1.8], [2422, 80, 187, 4.34], [6496, 1, 41, 2.76], [6098, 29, 37, 4.31], [378, 2, 225, 6.0], [12346, 1, 615, 5.79], [10149, 3, 868, 4.0]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.51], [8650, 2, 4, 2.1], [362, 2, 4, 0.2], [5491, 2, 4, 0.2], [130, 1, 4, 0.45], [5493, 2, 4, 0.3], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [11685, 2, 4, 0.7], [326, 2, 4, 0.54], [8672, 2, 6, 0.91], [417, 2, 4, 0.47], [6935, 2, 7, 1.38], [11681, 2, 5, 0.7], [205, 2, 4, 0.37], [8648, 2, 4, 2.1], [206, 2, 4, 0.2], [6936, 2, 4, 1.17], [8915, 2, 5, 0.2], [142, 2, 4, 0.2], [2049, 3, 9, 0.39], [11838, 2, 4, 0.2], [12721, 2, 6, 0.48], [1446, 2, 4, 0.78], [523, 2, 4, 0.66], [8676, 2, 4, 0.49], [615, 2, 4, 1.55], [11737, 2, 4, 1.08], [305, 2, 4, 0.65], [616, 2, 4, 1.29], [413, 1, 4, 1.43], [412, 1, 4, 0.86], [10574, 3, 5, 1.29], [411, 2, 4, 0.5], [8675, 2, 5, 1.23], [145, 2, 4, 0.51], [76, 2, 4, 1.11], [1429, 2, 4, 0.48], [2775, 2, 4, 0.43], [143, 2, 4, 0.64], [8673, 2, 4, 1.45], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.56], [151, 1, 4, 0.7], [12720, 2, 4, 0.84], [6158, 2, 5, 1.77], [2050, 3, 5, 0.35], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 10, 0.85], [75, 2, 4, 1.17], [2057, 3, 5, 0.35], [144, 2, 4, 0.5], [1504, 2, 5, 0.59], [8939, 2, 4, 0.74], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 4, 0.46], [88, 10, 8, 0.95], [2859, 15, 4, 0.44], [159, 3, 5, 0.72], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.83], [20252, 2, 4, 0.38], [7705, 2, 4, 1.15], [9784, 1, 4, 0.88], [2424, 29, 4, 1.0], [12526, 2, 4, 0.74], [11844, 2, 4, 0.47], [2423, 29, 4, 1.16], [12351, 1, 4, 0.66], [414, 1, 4, 0.73], [2423, 80, 4, 1.1], [60, 3, 5, 1.36], [378, 2, 4, 2.48], [12345, 1, 4, 0.56], [2424, 80, 4, 0.43], [13023, 3, 6, 1.51], [11490, 1, 4, 0.48], [201, 3, 4, 1.01], [13034, 3, 5, 1.37], [12373, 1, 5, 0.45], [1519, 3, 9, 0.39], [345, 3, 4, 0.66], [11489, 1, 4, 0.39], [5208, 3, 5, 0.48], [3, 2, 4, 3.06], [7886, 4, 5, 0.44], [6952, 1, 4, 0.45], [159, 1, 4, 0.73], [20927, 1, 4, 0.48], [11954, 1, 4, 0.44], [3430, 15, 4, 0.35], [432, 3, 4, 2.04], [566, 2, 4, 0.5], [13928, 1, 4, 0.45], [11504, 2, 4, 0.52], [11952, 1, 4, 0.43], [11811, 1, 4, 0.38], [2703, 3, 4, 2.13], [2331, 1, 4, 0.55], [114, 3, 4, 1.64], [7004, 1, 4, 1.02], [5584, 3, 4, 1.55], [10407, 10, 6, 1.64], [1492, 1, 4, 0.53], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [11089, 1, 4, 0.39], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [944, 15, 4, 0.41], [7706, 2, 4, 1.15], [1886, 2, 4, 0.42], [12348, 1, 4, 0.66], [308, 1, 5, 0.54], [10410, 10, 6, 1.56], [11674, 1, 4, 0.36], [3981, 3, 8, 0.51], [94, 4, 4, 1.77], [3891, 1, 4, 2.19], [11953, 1, 4, 0.48], [6097, 80, 4, 1.86], [9082, 3, 15, 1.25], [11161, 1, 5, 1.78], [20259, 2, 4, 0.42], [1274, 1, 4, 0.6], [10408, 10, 6, 1.32], [9690, 1, 4, 0.58], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 5.82], [362, 2, 122, 3.23], [5491, 2, 92, 3.39], [130, 1, 34, 3.43], [5493, 2, 92, 3.76], [589, 2, 103, 3.23], [2327, 2, 128, 4.11], [11685, 2, 277, 3.42], [326, 2, 46, 3.06], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 284, 5.89], [11681, 2, 277, 3.78], [205, 2, 110, 2.52], [8648, 2, 225, 5.82], [206, 2, 62, 2.61], [6936, 2, 284, 4.68], [142, 2, 133, 3.33], [2049, 3, 465, 3.01], [11838, 2, 227, 3.3], [12721, 2, 241, 3.74], [1446, 2, 77, 3.25], [523, 2, 133, 3.51], [8676, 2, 288, 4.22], [615, 2, 108, 4.76], [11737, 2, 57, 3.86], [305, 2, 147, 3.03], [616, 2, 108, 4.26], [413, 1, 74, 4.53], [412, 1, 71, 4.06], [10574, 3, 503, 4.63], [411, 2, 110, 2.74], [8675, 2, 244, 4.22], [145, 2, 151, 4.45], [76, 2, 109, 3.92], [1429, 2, 153, 2.7], [2775, 2, 158, 2.61], [143, 2, 149, 3.01], [8673, 2, 285, 5.16], [8674, 2, 288, 3.25], [8938, 2, 190, 3.65], [11836, 2, 227, 3.14], [146, 2, 152, 2.87], [151, 1, 34, 2.79], [12720, 2, 285, 3.47], [6158, 2, 131, 4.93], [2050, 3, 137, 4.29], [10149, 3, 875, 3.26], [2776, 2, 158, 3.22], [3495, 3, 968, 3.34], [75, 2, 144, 4.03], [2057, 3, 137, 4.29], [144, 2, 76, 4.06], [1504, 2, 206, 3.21], [8939, 2, 63, 4.3], [416, 1, 86, 3.19], [22316, 3, 319, 2.67], [88, 10, 562, 4.69], [2859, 15, 69, 2.63], [159, 3, 712, 3.2], [7084, 3, 129, 5.15], [418, 2, 122, 2.97], [10993, 2, 18, 2.67], [20252, 2, 93, 2.51], [7705, 2, 177, 4.06]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 0.96], [362, 2, 4, 0.8], [589, 2, 5, 0.2], [75, 2, 4, 0.99], [1776, 1, 4, 0.58], [205, 2, 4, 0.47], [8915, 2, 6, 0.2], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [7886, 4, 4, 0.57], [593, 2, 5, 0.2], [6936, 2, 5, 1.27], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 9, 1.33], [990, 2, 4, 0.2], [11681, 2, 5, 2.33], [8650, 2, 4, 1.15], [412, 1, 4, 0.91], [5151, 2, 4, 0.9], [2050, 3, 5, 0.66], [144, 2, 4, 0.5], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [2991, 3, 4, 2.19], [10149, 3, 15, 1.32], [22247, 2, 5, 1.06], [57, 1, 5, 0.2], [3478, 2, 4, 1.28], [146, 2, 4, 1.06], [7004, 1, 4, 0.47], [45, 2, 4, 1.12], [2054, 3, 4, 1.28], [143, 2, 4, 0.96], [417, 2, 4, 0.29], [413, 1, 4, 0.35], [21793, 1, 4, 1.03], [167, 3, 4, 1.09], [201, 3, 5, 0.42], [74, 1, 4, 0.84], [2055, 3, 4, 0.94], [346, 1, 4, 0.2], [1446, 2, 4, 0.2], [168, 3, 5, 0.25], [10, 2, 4, 0.42], [7084, 3, 4, 0.88], [11234, 2, 5, 0.2], [1429, 2, 5, 0.2], [12721, 2, 6, 0.96], [7036, 1, 4, 1.04], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [308, 1, 5, 2.44], [8649, 2, 4, 1.15], [13028, 3, 4, 0.5], [12870, 1, 4, 2.33], [10825, 21, 8, 0.36], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [3893, 1, 5, 0.2], [418, 2, 4, 0.2], [1006, 2, 4, 0.66], [145, 2, 5, 0.43], [1504, 2, 5, 0.2], [432, 3, 4, 0.41], [5208, 3, 5, 0.19], [9827, 3, 4, 0.2], [7005, 1, 4, 0.47], [94, 4, 4, 0.51], [1490, 1, 5, 0.2], [5812, 3, 5, 1.21], [13260, 29, 4, 0.96], [8853, 2, 5, 1.19], [411, 2, 4, 0.47], [416, 1, 4, 1.23], [142, 2, 4, 0.74], [8651, 2, 4, 1.15], [12353, 1, 5, 0.7], [21269, 3, 4, 1.45], [12349, 1, 4, 1.63], [20256, 2, 4, 0.2], [33, 1, 4, 0.66], [998, 2, 4, 1.2], [12350, 1, 5, 0.62], [5086, 1, 5, 1.11], [950, 1, 4, 0.2], [9069, 1, 4, 1.62], [229, 1, 4, 2.07], [1243, 2, 4, 0.92], [2878, 1, 5, 0.54], [7567, 3, 4, 1.62], [140, 2, 4, 0.47], [2049, 1, 4, 0.93], [126, 2, 4, 0.97], [20927, 1, 4, 0.42], [3980, 4, 5, 1.31], [346, 3, 6, 0.19], [1703, 2, 4, 1.38], [8274, 3, 4, 1.09], [35, 1, 4, 0.46], [997, 2, 4, 1.26], [5209, 3, 4, 0.19], [9691, 1, 4, 0.83], [11914, 1, 4, 0.2], [5584, 3, 4, 1.01], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [856, 1, 4, 0.38], [5660, 2, 4, 1.05], [1519, 3, 12, 0.23], [159, 3, 6, 0.27], [5513, 2, 4, 0.46], [523, 2, 5, 0.74], [8898, 3, 4, 2.67], [1091, 1, 4, 0.2], [11767, 1, 4, 0.46], [2775, 2, 4, 0.2], [996, 2, 4, 1.16], [8926, 1, 4, 1.74], [9081, 3, 7, 1.28], [13034, 3, 5, 1.26], [1124, 2, 5, 0.74], [20255, 2, 5, 0.2], [23961, 3, 4, 0.5], [307, 2, 4, 1.14], [12661, 1, 4, 1.2], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 501, 2.89], [362, 2, 131, 2.7], [589, 2, 121, 2.46], [75, 2, 114, 3.61], [1776, 1, 89, 2.72], [205, 2, 101, 2.28], [8915, 2, 152, 2.35], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [7886, 4, 132, 2.26], [593, 2, 180, 2.48], [6936, 2, 223, 4.33], [305, 2, 115, 2.53], [206, 2, 50, 2.36], [151, 1, 53, 2.46], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [990, 2, 41, 2.81], [11681, 2, 214, 6.0], [8650, 2, 176, 4.9], [412, 1, 66, 3.33], [5151, 2, 19, 2.89], [2050, 3, 373, 3.55], [144, 2, 119, 3.76], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [2991, 3, 127, 5.38], [10149, 3, 676, 4.91], [22247, 2, 221, 4.16], [57, 1, 68, 2.35], [3478, 2, 59, 4.02], [146, 2, 119, 3.2], [7004, 1, 73, 2.5], [45, 2, 85, 4.3], [2054, 3, 324, 5.02], [143, 2, 117, 3.01], [417, 2, 122, 4.03], [413, 1, 68, 3.29], [21793, 1, 190, 5.28], [167, 3, 178, 3.86], [201, 3, 235, 4.71], [74, 1, 155, 4.17], [2055, 3, 368, 4.35], [346, 1, 125, 2.46], [1446, 2, 120, 3.21], [168, 3, 321, 3.04], [10, 2, 81, 4.58], [7084, 3, 102, 4.11], [11234, 2, 145, 2.91], [1429, 2, 120, 2.64], [12721, 2, 221, 3.58], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [308, 1, 132, 6.0], [8649, 2, 176, 4.62], [13028, 3, 116, 2.58], [12870, 1, 108, 5.93], [10825, 21, 505, 3.62], [79, 1, 44, 1.89], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.35], [3893, 1, 98, 2.83]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.99], [8915, 2, 5, 1.94], [2327, 2, 4, 0.52], [589, 2, 5, 0.2], [2778, 2, 5, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 1.2], [130, 1, 4, 0.95], [305, 2, 4, 0.45], [326, 2, 4, 0.72], [616, 2, 4, 0.77], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 0.74], [2049, 3, 5, 0.21], [159, 3, 5, 0.19], [10, 2, 5, 0.92], [143, 2, 4, 0.94], [593, 2, 4, 0.4], [205, 2, 4, 0.37], [2775, 2, 4, 0.2], [5491, 2, 4, 0.45], [7036, 1, 4, 1.2], [144, 2, 4, 1.04], [434, 2, 5, 0.2], [94, 4, 4, 1.42], [8938, 2, 4, 0.2], [3893, 1, 4, 0.2], [1504, 2, 4, 0.38], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [624, 2, 5, 0.72], [1429, 2, 4, 0.28], [12224, 1, 4, 0.46], [3891, 1, 5, 0.2], [141, 2, 4, 0.39], [206, 2, 4, 0.37], [362, 2, 4, 0.52], [2776, 2, 4, 0.62], [75, 2, 4, 0.79], [11681, 2, 5, 1.81], [378, 2, 5, 2.29], [5208, 3, 5, 0.48], [3889, 1, 5, 0.25], [1007, 2, 4, 0.2], [8649, 2, 4, 2.49], [7886, 4, 4, 0.2], [10993, 2, 4, 0.83], [2054, 3, 4, 1.0], [12870, 1, 4, 1.68], [10149, 3, 15, 1.21], [2050, 3, 4, 0.46], [145, 2, 4, 1.0], [20927, 1, 4, 1.26], [9760, 29, 4, 0.2], [998, 2, 4, 0.81], [1886, 2, 5, 0.2], [2436, 4, 4, 0.28], [1006, 2, 5, 0.55], [997, 2, 4, 0.76], [3495, 3, 11, 0.92], [3, 2, 4, 0.47], [229, 1, 4, 0.49], [972, 3, 6, 0.2], [6158, 2, 5, 2.11], [632, 11, 13, 0.45], [346, 3, 5, 0.19], [5076, 1, 4, 0.75], [7887, 4, 4, 0.97], [20252, 2, 4, 0.47], [11770, 1, 4, 1.07], [9372, 1, 4, 1.3], [126, 2, 4, 0.54], [74, 1, 4, 0.99], [11953, 1, 4, 0.52], [140, 2, 4, 1.72], [8939, 2, 5, 0.2], [11685, 2, 5, 1.83], [11954, 1, 4, 0.38], [1492, 1, 4, 0.45], [12721, 2, 4, 1.84], [2774, 2, 4, 0.63], [20256, 2, 4, 0.53], [3981, 3, 9, 0.51], [22316, 3, 4, 0.49], [2423, 80, 4, 0.49], [9491, 21, 12, 0.22], [11952, 1, 4, 0.42], [11772, 1, 4, 0.2], [5434, 1, 4, 0.83], [5584, 3, 4, 2.99], [6497, 1, 4, 1.22], [12351, 1, 4, 0.66], [12229, 2, 4, 0.49], [2438, 2, 5, 0.96], [7573, 1, 9, 2.02], [10407, 10, 6, 1.56], [10388, 2, 4, 1.03], [11179, 1, 4, 0.45], [823, 1, 4, 1.09], [5209, 3, 5, 0.48], [6496, 1, 4, 0.35], [2805, 137, 4, 1.22], [3900, 3, 4, 0.7], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [432, 3, 5, 1.54], [1622, 1, 4, 0.45], [1519, 3, 12, 0.23], [11737, 2, 4, 0.52], [8676, 2, 4, 1.22], [972, 1, 4, 0.53], [22247, 2, 4, 1.39], [1414, 15, 4, 0.44], [412, 1, 4, 0.49], [6097, 80, 4, 1.03], [159, 16, 4, 0.56], [10386, 2, 4, 1.79], [2991, 3, 4, 1.65], [1274, 1, 4, 0.48], [9784, 1, 4, 0.52], [6805, 1, 4, 0.51], [1243, 2, 4, 0.79], [8635, 3, 4, 1.73], [10410, 10, 9, 1.6], [11814, 1, 4, 0.48], [33, 1, 4, 0.89], [11813, 1, 4, 0.46], [7567, 3, 4, 1.47], [37, 1, 4, 1.04], [88, 10, 467, 4.23], [2327, 2, 125, 3.09], [589, 2, 127, 3.01], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 104, 4.0], [130, 1, 17, 3.34], [305, 2, 122, 2.96], [326, 2, 74, 4.87], [616, 2, 89, 4.47], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 85, 3.79], [7004, 1, 39, 3.14], [2049, 3, 461, 2.85], [159, 3, 584, 3.33], [10, 2, 57, 4.53], [143, 2, 123, 3.44], [593, 2, 189, 3.07], [205, 2, 107, 2.38], [2775, 2, 131, 3.06], [5491, 2, 87, 3.66], [7036, 1, 107, 5.16], [144, 2, 125, 3.63], [434, 2, 89, 3.03], [94, 4, 100, 4.36], [8938, 2, 107, 2.96], [3893, 1, 104, 2.85], [1504, 2, 170, 2.83], [146, 2, 125, 3.7], [8853, 2, 273, 5.14], [624, 2, 89, 4.39], [1429, 2, 126, 3.6], [12224, 1, 163, 2.52], [3891, 1, 104, 2.9], [141, 2, 130, 2.86], [206, 2, 107, 2.38], [362, 2, 118, 3.09], [2776, 2, 154, 2.82], [75, 2, 142, 3.15], [11681, 2, 221, 6.0], [378, 2, 186, 6.0], [5208, 3, 460, 3.9], [3889, 1, 104, 3.51], [1007, 2, 224, 2.98], [8649, 2, 220, 6.0], [7886, 4, 74, 2.11], [10993, 2, 27, 2.91], [12870, 1, 114, 5.33], [10149, 3, 735, 4.24], [2050, 3, 316, 2.35], [145, 2, 125, 3.56], [9760, 29, 60, 3.37], [998, 2, 198, 3.64], [1886, 2, 130, 3.17], [2436, 4, 96, 4.32], [1006, 2, 189, 3.15], [997, 2, 198, 4.46], [3495, 3, 795, 3.74], [3, 2, 119, 2.53], [229, 1, 70, 3.03], [972, 3, 493, 3.68], [6158, 2, 211, 6.0], [632, 11, 810, 2.42], [346, 3, 525, 2.94]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.37], [141, 2, 5, 0.53], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.94], [362, 2, 4, 0.56], [8648, 2, 5, 2.08], [2327, 2, 4, 0.93], [11681, 2, 9, 2.07], [8650, 2, 5, 2.08], [326, 2, 4, 0.47], [205, 2, 4, 0.2], [2328, 2, 4, 0.2], [1446, 2, 4, 0.2], [305, 2, 5, 1.0], [2049, 3, 5, 0.49], [130, 1, 4, 1.45], [8649, 2, 5, 2.46], [2775, 2, 4, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [2776, 2, 4, 0.32], [593, 2, 5, 0.52], [143, 2, 4, 0.51], [140, 2, 4, 0.47], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [5493, 2, 4, 0.47], [523, 2, 5, 0.54], [413, 1, 4, 0.66], [7004, 1, 4, 0.89], [7036, 1, 4, 1.42], [21793, 1, 4, 1.14], [412, 1, 4, 0.57], [5491, 2, 4, 0.57], [151, 1, 4, 0.37], [1124, 2, 5, 0.29], [990, 2, 4, 0.28], [5165, 1, 4, 0.7], [8915, 2, 6, 0.94], [615, 2, 4, 1.62], [583, 2, 4, 0.2], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.52], [434, 2, 5, 0.2], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [201, 3, 5, 0.92], [142, 2, 4, 0.56], [11770, 1, 4, 0.43], [345, 3, 5, 0.92], [2055, 3, 4, 0.81], [3891, 1, 4, 0.91], [9372, 1, 4, 0.58], [616, 2, 4, 0.86], [2057, 3, 4, 0.81], [7084, 3, 4, 2.67], [5165, 2, 7, 0.69], [7005, 1, 4, 0.95], [3893, 1, 4, 0.63], [3670, 2, 4, 1.47], [12870, 1, 4, 1.18], [1886, 2, 4, 0.45], [10574, 3, 5, 1.09], [3334, 5, 4, 0.84], [346, 3, 4, 0.2], [6098, 80, 4, 1.39], [6097, 29, 4, 2.41], [7885, 4, 4, 0.49], [20927, 1, 4, 0.86], [11089, 1, 4, 0.49], [3889, 1, 4, 0.63], [12345, 1, 5, 0.19], [6158, 2, 4, 1.75], [147, 1, 4, 0.94], [10149, 3, 15, 1.12], [1492, 1, 4, 0.2], [22316, 3, 4, 0.5], [20256, 2, 4, 0.42], [432, 3, 5, 0.62], [11953, 1, 4, 0.48], [20252, 2, 5, 0.2], [11491, 2, 4, 0.53], [418, 2, 4, 0.84], [4032, 29, 4, 0.52], [1519, 3, 10, 0.39], [411, 2, 4, 0.54], [1490, 1, 4, 0.41], [2423, 80, 4, 1.66], [11952, 1, 4, 0.72], [229, 1, 4, 2.07], [972, 3, 5, 1.01], [5151, 2, 4, 0.97], [11769, 1, 4, 0.47], [3576, 25, 4, 1.17], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [416, 1, 4, 0.99], [13034, 3, 4, 1.51], [8120, 3, 4, 0.4], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [11767, 1, 4, 0.46], [439, 1, 4, 1.47], [3, 2, 4, 0.73], [11583, 29, 5, 0.2], [2805, 137, 4, 0.98], [5076, 1, 4, 0.63], [11490, 1, 4, 0.46], [2160, 68, 4, 0.56], [6494, 1, 4, 1.6], [414, 1, 4, 0.66], [410, 1, 4, 0.43], [1701, 2, 4, 1.31], [3575, 25, 4, 1.24], [11180, 1, 4, 0.66], [8677, 3, 5, 1.11], [75, 2, 4, 0.37], [11814, 1, 4, 0.48], [3478, 2, 4, 0.56], [11585, 29, 4, 1.12], [13023, 3, 5, 1.01], [2438, 2, 5, 1.14], [11813, 1, 4, 1.11], [9784, 1, 4, 0.88], [11954, 1, 4, 0.51], [6098, 29, 4, 0.67], [23238, 29, 4, 0.43], [4253, 1, 4, 1.03], [4033, 29, 4, 0.57], [8283, 2, 5, 0.49], [23238, 25, 4, 0.41], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 113, 2.67], [2778, 2, 114, 3.75], [6936, 2, 202, 5.81], [362, 2, 103, 2.95], [8648, 2, 162, 5.97], [2327, 2, 130, 3.21], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 67, 3.24], [205, 2, 80, 2.77], [2328, 2, 110, 3.51], [1446, 2, 112, 2.84], [305, 2, 108, 3.76], [2049, 3, 475, 2.38], [8649, 2, 162, 6.0], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [2776, 2, 114, 4.16], [593, 2, 167, 2.88], [143, 2, 108, 3.18], [140, 2, 67, 2.78], [1429, 2, 112, 2.99], [206, 2, 80, 2.96], [5493, 2, 93, 2.32], [523, 2, 114, 2.91], [413, 1, 63, 3.29], [7004, 1, 57, 3.13], [7036, 1, 94, 4.63], [21793, 1, 174, 4.35], [412, 1, 62, 3.17], [5491, 2, 93, 2.52], [151, 1, 49, 2.6], [1124, 2, 136, 3.38], [990, 2, 18, 3.36], [5165, 1, 35, 4.29], [8915, 2, 138, 4.65], [615, 2, 92, 4.53], [583, 2, 67, 3.24], [417, 2, 114, 2.93], [248, 1, 40, 2.77], [144, 2, 129, 4.1], [434, 2, 55, 3.15], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [201, 3, 219, 4.98], [142, 2, 114, 2.94], [11770, 1, 188, 2.25], [345, 3, 219, 3.6], [2055, 3, 410, 2.98], [3891, 1, 107, 3.17], [9372, 1, 195, 2.96], [616, 2, 92, 3.07], [2057, 3, 410, 2.98], [5165, 2, 278, 4.28], [7005, 1, 41, 3.01], [3893, 1, 107, 2.63], [3670, 2, 212, 4.24], [12870, 1, 119, 3.68], [1886, 2, 136, 2.29], [10574, 3, 370, 3.81], [3334, 5, 154, 3.41], [346, 3, 465, 2.72], [6098, 80, 55, 4.1], [7885, 4, 120, 2.35]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 0.47], [305, 2, 4, 0.56], [2778, 2, 4, 0.58], [5493, 2, 4, 1.37], [6936, 2, 4, 1.5], [130, 1, 4, 0.7], [205, 2, 4, 0.7], [616, 2, 4, 1.41], [144, 2, 4, 0.5], [2049, 3, 7, 0.46], [8648, 2, 4, 0.65], [1504, 2, 4, 0.47], [88, 10, 8, 0.43], [8915, 2, 5, 1.94], [326, 2, 4, 0.54], [7036, 1, 4, 1.38], [8650, 2, 4, 1.72], [593, 2, 4, 0.58], [2327, 2, 4, 0.49], [11681, 2, 4, 1.32], [3893, 1, 4, 0.7], [8853, 2, 4, 1.41], [141, 2, 4, 0.67], [2775, 2, 4, 0.58], [206, 2, 4, 0.42], [7004, 1, 4, 1.21], [151, 1, 4, 0.52], [9507, 3, 4, 0.36], [248, 1, 4, 1.06], [11685, 2, 4, 1.34], [10, 2, 4, 0.36], [2328, 2, 4, 0.9], [146, 2, 4, 0.63], [2050, 3, 4, 1.69], [2497, 2, 4, 0.68], [5491, 2, 4, 1.17], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [3980, 4, 4, 1.2], [21798, 1, 4, 0.47], [990, 2, 4, 0.36], [2054, 3, 4, 1.86], [624, 2, 4, 1.08], [8649, 2, 4, 1.15], [12870, 1, 4, 0.92], [362, 2, 4, 1.11], [7885, 4, 4, 0.44], [2776, 2, 4, 1.01], [2057, 3, 4, 1.69], [7886, 4, 4, 0.48], [12353, 1, 4, 0.98], [10574, 3, 5, 1.36], [13028, 3, 4, 0.62], [1006, 2, 4, 0.58], [1446, 2, 4, 1.11], [3495, 3, 13, 0.92], [523, 2, 4, 0.38], [75, 2, 4, 1.83], [2991, 3, 4, 1.65], [3975, 4, 4, 1.26], [7005, 1, 4, 0.94], [10149, 3, 13, 0.39], [11404, 2, 4, 0.43], [9760, 29, 4, 0.45], [142, 2, 4, 0.45], [6158, 2, 4, 0.49], [20927, 1, 4, 0.67], [3981, 3, 13, 1.15], [3982, 3, 10, 1.18], [417, 2, 4, 0.57], [11953, 1, 4, 0.43], [1007, 2, 4, 0.45], [997, 2, 4, 1.14], [8939, 2, 4, 0.43], [956, 2, 4, 0.37], [33, 1, 4, 1.7], [11772, 1, 4, 0.44], [2774, 2, 4, 0.94], [7887, 4, 4, 0.95], [6497, 1, 4, 0.48], [1492, 1, 4, 0.45], [998, 2, 4, 1.06], [11770, 1, 4, 0.45], [11767, 1, 4, 0.57], [972, 3, 4, 1.51], [11769, 1, 4, 0.96], [996, 2, 4, 0.99], [35, 1, 4, 0.66], [336, 15, 4, 1.12], [74, 1, 4, 0.82], [11490, 1, 4, 0.59], [389, 4, 4, 0.88], [7567, 3, 4, 1.5], [2104, 3, 6, 0.51], [11952, 1, 4, 0.45], [411, 2, 4, 0.52], [6496, 1, 4, 0.49], [12721, 2, 4, 1.13], [4253, 1, 4, 0.96], [22317, 3, 4, 0.51], [140, 2, 4, 0.54], [8121, 3, 4, 0.55], [8673, 2, 4, 0.47], [4176, 4, 4, 1.31], [1126, 2, 4, 0.58], [2436, 4, 4, 0.78], [1277, 1, 4, 0.65], [9372, 1, 4, 1.73], [8676, 2, 4, 1.22], [21269, 3, 4, 1.57], [8677, 3, 4, 1.38], [11085, 2, 4, 1.27], [12343, 1, 4, 0.98], [22247, 2, 4, 1.14], [1274, 1, 4, 0.6], [10936, 2, 4, 1.7], [37, 1, 4, 0.66], [10388, 2, 4, 1.08], [12526, 2, 4, 1.08], [823, 1, 4, 0.49], [12269, 2, 4, 0.74], [1429, 2, 4, 0.83], [7573, 1, 5, 1.45], [9784, 1, 4, 0.55], [13023, 3, 4, 1.26], [6494, 1, 4, 0.45], [345, 3, 4, 0.51], [39, 1, 4, 0.81], [12271, 2, 4, 0.72], [201, 3, 4, 0.51], [12225, 1, 4, 0.56], [96, 11, 13, 0.49], [10408, 10, 5, 0.7], [6935, 2, 239, 4.26], [305, 2, 127, 2.53], [2778, 2, 136, 2.57], [5493, 2, 91, 4.14], [6936, 2, 239, 5.15], [130, 1, 51, 3.15], [205, 2, 94, 2.8], [616, 2, 92, 4.22], [144, 2, 130, 2.41], [2049, 3, 469, 3.21], [8648, 2, 195, 3.17], [1504, 2, 176, 2.34], [88, 10, 502, 2.33], [326, 2, 63, 3.15], [7036, 1, 111, 4.17], [8650, 2, 195, 4.76], [593, 2, 198, 2.88], [2327, 2, 131, 2.39], [11681, 2, 237, 4.72], [3893, 1, 108, 2.83], [8853, 2, 239, 5.12], [141, 2, 134, 2.74], [2775, 2, 136, 2.57], [206, 2, 94, 2.26], [7004, 1, 68, 3.78], [151, 1, 58, 2.7], [9507, 3, 70, 1.59], [248, 1, 19, 3.08], [11685, 2, 237, 4.74], [10, 2, 56, 1.9], [2328, 2, 131, 3.18], [146, 2, 131, 2.66], [2050, 3, 398, 4.77], [2497, 2, 176, 2.76], [5491, 2, 91, 4.6], [2055, 3, 398, 4.89], [143, 2, 129, 2.57], [3980, 4, 417, 3.8], [21798, 1, 121, 2.35], [990, 2, 45, 2.14], [2054, 3, 398, 5.11], [624, 2, 92, 5.17], [8649, 2, 195, 3.66], [12870, 1, 117, 5.16], [362, 2, 123, 3.59], [2776, 2, 136, 3.39], [2057, 3, 398, 4.77], [7886, 4, 75, 2.13], [12353, 1, 544, 4.66], [10574, 3, 439, 3.84], [13028, 3, 127, 2.69], [1006, 2, 198, 2.82], [1446, 2, 132, 3.59], [3495, 3, 835, 3.08], [523, 2, 134, 2.18], [75, 2, 126, 4.97], [2991, 3, 140, 5.42], [3975, 4, 417, 3.93], [7005, 1, 68, 3.26], [10149, 3, 754, 2.93], [11404, 2, 91, 2.27], [9760, 29, 63, 2.32], [142, 2, 134, 2.32], [6158, 2, 228, 3.02], [20927, 1, 68, 3.22], [3981, 3, 1395, 3.45], [3982, 3, 683, 3.79]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.65], [6935, 2, 7, 1.47], [2328, 2, 4, 0.51], [130, 1, 4, 0.5], [141, 2, 4, 0.66], [8650, 2, 4, 2.1], [2778, 2, 5, 0.44], [5491, 2, 4, 0.63], [2327, 2, 4, 0.51], [8672, 2, 5, 0.8], [362, 2, 4, 1.51], [143, 2, 4, 0.59], [6936, 2, 4, 1.25], [248, 1, 4, 0.46], [145, 2, 4, 0.51], [11681, 2, 5, 0.47], [205, 2, 4, 0.65], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.56], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [1124, 2, 5, 0.86], [523, 2, 4, 0.55], [8648, 2, 4, 2.1], [1504, 2, 5, 0.51], [12721, 2, 5, 0.48], [8853, 2, 4, 1.46], [1005, 2, 4, 0.39], [615, 2, 4, 1.19], [326, 2, 4, 0.78], [206, 2, 4, 0.65], [8673, 2, 4, 0.74], [8915, 2, 4, 0.82], [144, 2, 4, 0.5], [11835, 2, 4, 0.36], [11739, 2, 4, 0.38], [88, 10, 8, 0.95], [434, 2, 4, 0.55], [2776, 2, 4, 1.15], [142, 2, 4, 0.48], [151, 1, 4, 0.7], [8676, 2, 4, 1.06], [6158, 2, 5, 1.11], [2423, 29, 4, 1.81], [8649, 2, 4, 0.73], [11738, 2, 4, 0.38], [7704, 2, 4, 1.15], [2497, 2, 4, 0.36], [1413, 15, 4, 0.38], [2423, 80, 4, 1.81], [11836, 2, 4, 0.55], [3670, 2, 4, 0.97], [10574, 3, 5, 1.29], [7705, 2, 4, 1.15], [944, 15, 4, 0.41], [2859, 15, 4, 0.44], [3, 2, 4, 0.68], [2054, 3, 4, 0.4], [412, 1, 4, 0.99], [7706, 2, 4, 1.15], [378, 2, 4, 2.48], [12720, 2, 4, 0.6], [22316, 3, 4, 0.46], [12344, 1, 4, 0.71], [3478, 2, 4, 0.89], [2055, 3, 4, 0.4], [74, 1, 4, 1.69], [10149, 3, 13, 1.12], [2774, 2, 4, 0.57], [307, 2, 4, 1.04], [6497, 1, 4, 0.44], [12526, 2, 4, 0.74], [7004, 1, 4, 0.56], [418, 2, 4, 0.85], [411, 2, 4, 0.53], [11089, 1, 4, 0.39], [60, 3, 5, 1.19], [13928, 1, 4, 0.45], [413, 1, 4, 1.59], [2057, 3, 4, 0.4], [11844, 2, 4, 0.47], [7036, 1, 4, 0.43], [8274, 3, 4, 0.58], [3893, 1, 4, 1.98], [13260, 29, 4, 0.67], [20252, 2, 4, 0.54], [2050, 3, 4, 0.4], [14037, 3, 4, 0.41], [7084, 3, 4, 0.36], [6097, 80, 4, 1.86], [6952, 1, 4, 1.09], [3891, 1, 4, 2.19], [9784, 1, 4, 0.55], [94, 4, 4, 1.77], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [159, 3, 5, 0.72], [414, 1, 4, 1.59], [1243, 2, 4, 0.46], [1490, 1, 4, 1.02], [3889, 1, 4, 1.98], [11490, 1, 4, 0.5], [7708, 2, 4, 1.15], [22317, 3, 5, 0.47], [21793, 1, 4, 1.45], [1413, 16, 4, 0.4], [5208, 3, 5, 0.97], [345, 3, 4, 1.16], [7703, 2, 4, 1.15], [565, 2, 4, 0.46], [229, 1, 4, 2.0], [11491, 2, 4, 0.83], [1492, 1, 4, 0.53], [3495, 3, 10, 0.85], [6098, 80, 4, 1.16], [20256, 2, 4, 0.42], [149, 2, 4, 0.52], [410, 1, 4, 0.37], [11504, 2, 4, 0.78], [2422, 80, 4, 1.33], [336, 15, 4, 0.73], [6630, 3, 4, 1.76], [147, 1, 4, 0.52], [416, 1, 4, 1.59], [3430, 15, 4, 0.35], [2991, 3, 4, 2.19], [3674, 2, 4, 0.52], [2805, 137, 5, 1.85], [6098, 29, 4, 1.16], [11581, 29, 4, 0.87], [247, 1, 4, 1.18], [23275, 2, 4, 0.39], [305, 2, 147, 3.03], [6935, 2, 283, 6.0], [2328, 2, 151, 3.64], [130, 1, 20, 2.96], [141, 2, 157, 3.05], [8650, 2, 225, 6.0], [2778, 2, 157, 3.05], [5491, 2, 107, 4.3], [2327, 2, 151, 3.61], [8672, 2, 289, 4.96], [362, 2, 71, 4.34], [143, 2, 149, 2.92], [6936, 2, 283, 4.87], [248, 1, 37, 2.49], [145, 2, 151, 4.45], [11681, 2, 277, 3.19], [205, 2, 109, 3.03], [5493, 2, 107, 4.22], [146, 2, 152, 2.87], [417, 2, 157, 2.86], [75, 2, 146, 3.41], [11737, 2, 57, 2.96], [1124, 2, 187, 3.67], [523, 2, 157, 2.84], [8648, 2, 225, 5.82], [1504, 2, 206, 3.01], [12721, 2, 285, 3.23], [8853, 2, 283, 4.65], [1005, 2, 37, 1.82], [615, 2, 108, 4.07], [326, 2, 46, 3.29], [206, 2, 55, 2.68], [8673, 2, 289, 3.21], [8915, 2, 63, 4.3], [144, 2, 76, 4.06], [11835, 2, 269, 2.48], [11739, 2, 57, 2.96], [88, 10, 562, 4.69], [434, 2, 108, 3.04], [2776, 2, 157, 3.99], [142, 2, 157, 2.7], [151, 1, 34, 2.79], [8676, 2, 289, 3.82], [6158, 2, 263, 3.98], [2423, 29, 36, 5.26], [8649, 2, 225, 4.64], [11738, 2, 57, 2.96], [7704, 2, 177, 4.06], [2497, 2, 206, 2.47], [1413, 15, 100, 2.51], [2423, 80, 182, 5.26], [11836, 2, 269, 2.84], [3670, 2, 237, 5.4], [10574, 3, 503, 4.63], [7705, 2, 177, 4.06], [944, 15, 30, 2.4], [2859, 15, 69, 2.63], [3, 2, 121, 3.32], [2054, 3, 474, 3.89], [412, 1, 84, 4.19], [7706, 2, 177, 4.06], [378, 2, 225, 6.0], [12720, 2, 285, 3.23], [22316, 3, 319, 2.67], [12344, 1, 618, 3.14], [3478, 2, 75, 3.94], [2055, 3, 474, 3.89]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.75], [3, 2, 5, 0.2], [326, 2, 4, 0.54], [205, 2, 4, 0.37], [6935, 2, 8, 1.27], [143, 2, 4, 0.58], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 6, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [146, 2, 4, 0.52], [206, 2, 4, 0.2], [20252, 2, 4, 0.48], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [2050, 3, 5, 0.41], [5151, 2, 4, 1.02], [141, 2, 4, 0.53], [248, 1, 4, 0.37], [7886, 4, 4, 0.45], [88, 10, 8, 0.46], [74, 1, 4, 1.53], [2991, 3, 4, 2.05], [2057, 3, 5, 0.47], [1446, 2, 4, 0.2], [7004, 1, 4, 0.37], [362, 2, 4, 0.48], [1007, 2, 6, 0.2], [1492, 1, 4, 1.22], [147, 1, 4, 1.27], [76, 2, 4, 1.11], [8649, 2, 4, 1.9], [3889, 1, 4, 0.2], [7005, 1, 4, 0.38], [345, 3, 4, 0.57], [11234, 2, 6, 0.2], [1429, 2, 4, 0.2], [10, 2, 5, 0.3], [307, 2, 4, 1.08], [57, 1, 5, 0.2], [12870, 1, 4, 2.33], [5081, 2, 4, 0.69], [10825, 21, 8, 1.28], [7084, 3, 4, 1.53], [10149, 3, 13, 0.98], [7036, 1, 4, 0.43], [3478, 2, 4, 1.03], [1006, 2, 5, 0.59], [1504, 2, 5, 0.2], [3891, 1, 4, 0.27], [94, 4, 4, 1.35], [411, 2, 4, 0.37], [9827, 3, 4, 0.2], [167, 3, 4, 1.15], [33, 1, 4, 0.83], [432, 3, 5, 0.2], [8677, 3, 6, 0.65], [3893, 1, 4, 0.2], [11681, 2, 6, 1.91], [23, 1, 4, 0.67], [148, 1, 4, 1.33], [96, 11, 17, 0.38], [1490, 1, 4, 0.2], [22247, 2, 6, 1.15], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [9760, 29, 4, 0.24], [12225, 1, 4, 0.43], [201, 3, 4, 0.57], [5812, 3, 6, 0.8], [1243, 2, 5, 0.56], [6158, 2, 6, 0.51], [8853, 2, 5, 1.32], [10574, 3, 5, 1.33], [346, 1, 4, 0.43], [412, 1, 4, 1.14], [5005, 1, 4, 0.44], [20927, 1, 4, 0.49], [5208, 3, 6, 0.19], [214, 3, 9, 0.35], [8651, 2, 4, 0.88], [229, 1, 4, 2.57], [8939, 2, 4, 0.38], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [159, 3, 6, 0.67], [45, 2, 4, 0.64], [11490, 1, 4, 0.43], [413, 1, 4, 1.07], [149, 2, 4, 1.33], [346, 3, 4, 0.43], [21269, 3, 4, 1.6], [3495, 3, 13, 1.31], [95, 3, 11, 0.54], [140, 2, 5, 0.54], [5946, 1, 4, 1.03], [1766, 25, 4, 0.56], [490, 1, 4, 0.53], [1413, 15, 4, 0.2], [1126, 2, 4, 0.5], [9372, 1, 4, 2.33], [8898, 3, 4, 0.75], [506, 1, 4, 1.54], [997, 2, 4, 0.57], [2775, 2, 5, 0.2], [11489, 1, 4, 0.65], [3670, 2, 5, 1.86], [9690, 1, 4, 0.65], [1070, 7, 10, 0.46], [9691, 1, 4, 1.27], [107, 2, 5, 1.17], [34, 1, 4, 0.56], [974, 3, 4, 0.88], [20498, 1, 4, 0.98], [418, 2, 4, 0.39], [14037, 3, 5, 0.2], [14017, 3, 4, 1.04], [823, 1, 4, 1.11], [142, 2, 4, 0.53], [5209, 3, 5, 0.19], [972, 3, 5, 0.65], [417, 2, 4, 0.53], [1091, 1, 4, 0.61], [9784, 1, 4, 0.6], [20498, 3, 5, 1.08], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 66, 3.44], [205, 2, 80, 2.49], [6935, 2, 206, 4.81], [143, 2, 108, 2.86], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [8915, 2, 140, 2.66], [1776, 1, 80, 5.11], [2778, 2, 114, 2.87], [146, 2, 109, 2.77], [206, 2, 80, 2.49], [20252, 2, 79, 2.22], [6936, 2, 206, 4.28], [1777, 1, 93, 3.82], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [2050, 3, 346, 3.41], [5151, 2, 17, 6.0], [141, 2, 132, 3.42], [248, 1, 40, 2.49], [7886, 4, 104, 2.64], [88, 10, 403, 5.16], [74, 1, 144, 5.34], [2991, 3, 116, 5.98], [2057, 3, 346, 2.68], [1446, 2, 111, 3.24], [7004, 1, 58, 2.49], [362, 2, 103, 3.03], [1007, 2, 197, 2.62], [1492, 1, 31, 3.65], [147, 1, 64, 4.31], [76, 2, 93, 3.59], [8649, 2, 161, 6.0], [3889, 1, 91, 2.61], [7005, 1, 58, 2.5], [345, 3, 219, 2.85], [11234, 2, 134, 3.07], [1429, 2, 111, 2.88], [307, 2, 108, 3.38], [57, 1, 37, 2.59], [12870, 1, 99, 6.0], [5081, 2, 137, 3.07], [10825, 21, 451, 4.0], [7084, 3, 93, 4.62], [10149, 3, 646, 3.5], [7036, 1, 92, 3.55], [3478, 2, 55, 3.94], [1006, 2, 165, 2.9], [1504, 2, 148, 2.81], [3891, 1, 91, 3.93], [94, 4, 87, 3.91], [411, 2, 80, 2.49], [9827, 3, 63, 2.69], [167, 3, 164, 4.08], [33, 1, 100, 3.25], [432, 3, 221, 2.95], [8677, 3, 214, 3.07], [3893, 1, 91, 3.93], [11681, 2, 193, 6.0], [23, 1, 81, 3.04]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.97], [305, 2, 5, 0.75], [6935, 2, 8, 1.27], [2049, 3, 8, 0.96], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [205, 2, 4, 0.47], [589, 2, 5, 0.37], [151, 1, 4, 0.46], [362, 2, 4, 0.2], [1776, 1, 4, 1.16], [146, 2, 4, 1.08], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.55], [8648, 2, 4, 0.77], [143, 2, 4, 0.58], [8915, 2, 6, 0.2], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [8650, 2, 5, 1.15], [20252, 2, 4, 0.2], [1777, 1, 4, 0.93], [5151, 2, 4, 1.05], [1007, 2, 6, 0.2], [248, 1, 4, 0.2], [2778, 2, 4, 0.2], [88, 10, 8, 1.12], [2050, 3, 5, 0.77], [76, 2, 4, 1.11], [10149, 3, 17, 1.32], [8649, 2, 4, 2.49], [10, 2, 5, 0.47], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [11681, 2, 6, 2.33], [10825, 21, 8, 0.36], [1446, 2, 4, 0.2], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 5, 1.28], [1429, 2, 4, 0.2], [147, 1, 4, 0.52], [3495, 3, 15, 1.31], [1006, 2, 4, 0.59], [167, 3, 4, 1.35], [1492, 1, 4, 0.2], [7036, 1, 4, 0.54], [140, 2, 5, 0.47], [7005, 1, 4, 0.4], [9827, 3, 5, 0.2], [8676, 2, 4, 0.49], [45, 2, 4, 1.12], [1124, 2, 6, 0.24], [168, 3, 5, 0.29], [2049, 1, 4, 0.93], [5812, 3, 5, 1.52], [94, 4, 4, 1.01], [57, 1, 4, 0.38], [1504, 2, 5, 0.2], [12870, 1, 5, 2.33], [148, 1, 4, 0.95], [335, 3, 10, 1.3], [8651, 2, 4, 1.22], [2336, 3, 5, 0.99], [415, 1, 4, 1.23], [214, 3, 9, 0.35], [8939, 2, 4, 0.38], [6097, 29, 4, 2.36], [416, 1, 4, 1.23], [8853, 2, 5, 0.82], [6097, 80, 4, 2.36], [346, 1, 4, 0.49], [490, 1, 4, 1.01], [20256, 2, 4, 0.2], [1490, 1, 4, 0.45], [20927, 1, 4, 0.42], [79, 1, 4, 0.38], [95, 3, 13, 0.54], [6098, 29, 4, 2.52], [6098, 80, 4, 2.52], [9069, 1, 4, 1.09], [14017, 3, 4, 0.67], [414, 1, 4, 0.85], [22316, 3, 4, 0.49], [346, 3, 5, 0.39], [1070, 7, 9, 0.43], [8898, 3, 5, 2.17], [1126, 2, 4, 0.5], [126, 2, 4, 0.97], [13034, 3, 5, 1.26], [149, 2, 4, 0.52], [997, 2, 4, 1.26], [9760, 29, 4, 0.54], [20498, 1, 5, 1.05], [20255, 2, 5, 0.2], [5086, 1, 5, 0.58], [9784, 1, 4, 0.74], [5513, 2, 4, 0.98], [336, 15, 4, 0.63], [8945, 3, 5, 1.12], [22317, 3, 6, 0.51], [12924, 1, 5, 0.2], [7567, 3, 5, 1.12], [159, 3, 6, 0.19], [11085, 2, 5, 0.45], [11739, 2, 4, 0.83], [5811, 3, 5, 1.18], [1413, 15, 4, 0.2], [974, 3, 4, 0.88], [192, 3, 11, 1.19], [229, 1, 4, 2.57], [5813, 3, 5, 1.08], [972, 3, 4, 0.81], [506, 1, 4, 0.95], [8557, 3, 4, 0.33], [1622, 1, 5, 0.2], [9082, 3, 18, 0.68], [9691, 1, 4, 1.41], [20498, 3, 5, 1.1], [8943, 3, 4, 0.86], [3049, 3, 4, 1.98], [524, 1, 4, 1.41], [14018, 3, 4, 0.5], [4076, 3, 4, 2.69], [2775, 2, 4, 0.2], [470, 1, 4, 0.2], [20486, 3, 5, 1.01], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [6935, 2, 223, 4.83], [2049, 3, 501, 2.89], [326, 2, 72, 2.63], [141, 2, 123, 2.37], [205, 2, 101, 2.28], [589, 2, 142, 1.97], [151, 1, 53, 2.49], [362, 2, 112, 2.64], [1776, 1, 100, 3.39], [146, 2, 119, 3.24], [145, 2, 119, 2.46], [206, 2, 86, 2.36], [2328, 2, 119, 2.67], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [8915, 2, 152, 2.35], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [8650, 2, 176, 4.83], [20252, 2, 74, 2.56], [1777, 1, 100, 3.38], [5151, 2, 19, 3.18], [1007, 2, 213, 2.46], [248, 1, 43, 1.36], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [76, 2, 85, 3.94], [10149, 3, 676, 4.91], [8649, 2, 176, 5.95], [10, 2, 81, 4.58], [8677, 3, 231, 4.74], [2054, 3, 368, 4.35], [412, 1, 66, 3.33], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [411, 2, 76, 2.53], [11681, 2, 214, 6.0], [10825, 21, 505, 2.32], [1446, 2, 70, 3.21], [7084, 3, 102, 3.87], [307, 2, 117, 2.72], [3478, 2, 59, 4.02], [1429, 2, 120, 2.64], [147, 1, 80, 3.89], [3495, 3, 754, 3.9], [1006, 2, 180, 2.75], [167, 3, 105, 4.14], [1492, 1, 29, 2.35], [7036, 1, 100, 4.14], [140, 2, 72, 2.52], [7005, 1, 63, 2.38], [9827, 3, 69, 2.54], [8676, 2, 223, 4.2], [45, 2, 85, 5.32], [1124, 2, 146, 3.4], [168, 3, 321, 3.12], [2049, 1, 21, 2.95], [5812, 3, 546, 3.84], [94, 4, 94, 4.19], [57, 1, 79, 1.89], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [148, 1, 68, 3.99]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.34], [6935, 2, 5, 0.47], [326, 2, 4, 0.54], [130, 1, 4, 0.7], [8648, 2, 4, 0.65], [2327, 2, 4, 0.49], [144, 2, 4, 0.5], [593, 2, 4, 0.58], [205, 2, 4, 0.7], [143, 2, 4, 0.58], [8915, 2, 5, 1.94], [2328, 2, 4, 0.9], [141, 2, 4, 0.67], [11681, 2, 4, 1.32], [305, 2, 4, 0.56], [6936, 2, 4, 1.5], [8650, 2, 4, 1.72], [151, 1, 4, 0.52], [5493, 2, 4, 1.37], [2778, 2, 4, 0.58], [206, 2, 4, 0.42], [2049, 3, 7, 0.46], [146, 2, 4, 0.63], [88, 10, 8, 0.43], [7036, 1, 4, 1.38], [9507, 3, 4, 0.36], [8853, 2, 4, 1.41], [8649, 2, 4, 1.15], [1446, 2, 4, 1.11], [5491, 2, 4, 1.17], [362, 2, 4, 1.11], [990, 2, 4, 0.36], [2055, 3, 4, 1.75], [1006, 2, 4, 0.58], [75, 2, 4, 1.83], [3893, 1, 4, 0.7], [11737, 2, 4, 0.73], [417, 2, 4, 0.57], [616, 2, 4, 1.41], [2050, 3, 4, 1.69], [3840, 1, 4, 0.39], [1007, 2, 4, 0.45], [523, 2, 4, 0.38], [12870, 1, 4, 0.92], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [1504, 2, 4, 0.47], [2057, 3, 4, 1.69], [3, 2, 4, 0.42], [13280, 1, 4, 2.32], [10574, 3, 5, 1.36], [142, 2, 4, 0.45], [997, 2, 4, 1.14], [9760, 29, 4, 0.45], [10, 2, 4, 0.36], [624, 2, 4, 1.08], [2054, 3, 4, 1.86], [21798, 1, 4, 0.47], [2775, 2, 4, 0.58], [140, 2, 4, 0.54], [21793, 1, 4, 1.44], [8939, 2, 4, 0.43], [1429, 2, 4, 0.83], [996, 2, 4, 0.99], [11739, 2, 4, 0.59], [6158, 2, 4, 0.49], [998, 2, 4, 1.06], [12269, 2, 4, 0.74], [98, 11, 10, 0.71], [1126, 2, 4, 0.58], [84, 2, 4, 0.39], [9372, 1, 4, 1.73], [10388, 2, 4, 1.08], [972, 3, 4, 1.51], [411, 2, 4, 0.52], [7885, 4, 4, 0.44], [8898, 3, 4, 3.33], [413, 1, 4, 0.89], [2776, 2, 4, 1.01], [12343, 1, 4, 0.98], [9491, 21, 10, 1.07], [1492, 1, 4, 0.45], [10386, 2, 4, 0.99], [995, 2, 4, 0.77], [147, 1, 4, 0.49], [13928, 1, 4, 0.4], [22316, 3, 4, 0.51], [418, 2, 4, 0.49], [308, 1, 4, 0.95], [22247, 2, 4, 1.14], [9784, 1, 4, 0.55], [8677, 3, 4, 1.38], [336, 15, 4, 1.12], [11490, 1, 4, 0.59], [7567, 3, 4, 1.5], [307, 2, 4, 0.51], [229, 1, 4, 0.63], [11953, 1, 4, 0.43], [10631, 2, 4, 0.37], [33, 1, 4, 1.7], [11770, 1, 4, 0.45], [7886, 4, 4, 0.48], [22317, 3, 4, 0.51], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [7573, 1, 5, 1.45], [439, 1, 4, 1.15], [10780, 10, 4, 1.53], [10407, 10, 6, 1.68], [10410, 10, 6, 1.64], [415, 1, 4, 0.66], [13286, 1, 4, 0.94], [335, 3, 9, 1.35], [9691, 1, 4, 0.52], [10387, 2, 4, 0.95], [972, 1, 4, 1.51], [6497, 1, 4, 0.48], [10149, 3, 13, 0.39], [74, 1, 4, 0.82], [11767, 1, 4, 0.57], [3478, 2, 4, 0.89], [12271, 2, 4, 0.72], [9690, 1, 4, 0.76], [8897, 3, 4, 3.33], [9971, 2, 4, 1.12], [2497, 2, 4, 0.68], [2331, 1, 4, 0.88], [345, 3, 4, 0.51], [9082, 3, 18, 0.51], [11769, 1, 4, 0.96], [4076, 3, 4, 1.52], [20682, 1, 4, 1.33], [3048, 3, 4, 0.92], [11685, 2, 237, 4.74], [6935, 2, 239, 4.26], [326, 2, 63, 3.15], [130, 1, 51, 3.15], [8648, 2, 195, 3.17], [2327, 2, 131, 2.39], [144, 2, 130, 2.41], [593, 2, 198, 2.88], [205, 2, 94, 2.8], [143, 2, 129, 2.57], [2328, 2, 131, 3.18], [141, 2, 134, 2.74], [11681, 2, 237, 4.72], [305, 2, 127, 2.53], [6936, 2, 239, 5.15], [8650, 2, 195, 4.76], [151, 1, 58, 2.7], [5493, 2, 91, 4.14], [2778, 2, 136, 2.57], [206, 2, 94, 2.26], [2049, 3, 469, 3.21], [146, 2, 131, 2.66], [88, 10, 502, 2.33], [7036, 1, 111, 4.17], [9507, 3, 70, 1.59], [8853, 2, 239, 5.12], [8649, 2, 195, 3.66], [1446, 2, 132, 3.59], [5491, 2, 91, 4.6], [362, 2, 123, 3.59], [990, 2, 45, 2.14], [2055, 3, 398, 4.89], [1006, 2, 198, 2.82], [75, 2, 126, 4.97], [3893, 1, 108, 2.83], [11737, 2, 50, 2.86], [417, 2, 134, 2.55], [616, 2, 92, 4.22], [2050, 3, 398, 4.77], [3840, 1, 151, 2.2], [1007, 2, 231, 2.85], [523, 2, 134, 2.18], [12870, 1, 117, 5.16], [159, 3, 621, 2.1], [20927, 1, 68, 3.22], [1504, 2, 176, 2.34], [2057, 3, 398, 4.77], [3, 2, 107, 2.26], [13280, 1, 274, 5.92], [10574, 3, 439, 3.84], [142, 2, 134, 2.32], [997, 2, 206, 4.48], [9760, 29, 63, 2.32], [10, 2, 56, 1.9], [624, 2, 92, 5.17], [2054, 3, 398, 5.11], [21798, 1, 121, 2.35], [2775, 2, 136, 2.57], [140, 2, 79, 2.49], [21793, 1, 198, 4.3], [8939, 2, 168, 2.28], [1429, 2, 132, 3.05], [996, 2, 206, 4.48], [11739, 2, 50, 2.62], [6158, 2, 228, 3.02], [998, 2, 206, 4.48], [12269, 2, 55, 2.87]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 5, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 5, 1.21], [11737, 2, 4, 0.48], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.6], [8675, 2, 5, 0.73], [1504, 2, 6, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [523, 2, 4, 0.66], [22247, 2, 4, 1.0], [8650, 2, 4, 1.72], [142, 2, 4, 0.57], [8648, 2, 4, 1.72], [2328, 2, 4, 0.51], [2776, 2, 4, 0.2], [2327, 2, 4, 0.51], [616, 2, 4, 1.12], [11739, 2, 4, 0.48], [8853, 2, 5, 1.54], [11837, 2, 4, 0.45], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.56], [412, 1, 4, 1.28], [11835, 2, 4, 0.49], [8674, 2, 5, 1.22], [583, 2, 4, 0.85], [6497, 1, 4, 0.44], [2805, 137, 5, 1.35], [145, 2, 4, 0.51], [10574, 3, 5, 1.29], [418, 2, 4, 0.46], [326, 2, 4, 0.85], [144, 2, 4, 0.5], [6097, 80, 4, 2.11], [11738, 2, 4, 0.48], [9784, 1, 5, 0.85], [11836, 2, 4, 0.54], [10149, 3, 13, 0.4], [413, 1, 4, 1.16], [6097, 29, 4, 1.86], [2057, 3, 5, 0.35], [75, 2, 5, 0.49], [11234, 2, 4, 0.63], [12344, 1, 4, 1.03], [20252, 2, 4, 0.47], [1413, 15, 4, 0.38], [11504, 2, 4, 0.56], [6496, 1, 5, 0.2], [12269, 2, 4, 0.43], [8915, 2, 4, 0.39], [414, 1, 4, 1.16], [1243, 2, 4, 0.42], [1492, 1, 4, 0.53], [6098, 80, 4, 1.16], [2774, 2, 4, 0.2], [22316, 3, 4, 0.46], [247, 1, 4, 0.8], [944, 15, 4, 0.35], [1490, 1, 4, 0.36], [6098, 29, 4, 1.16], [9786, 1, 4, 1.4], [416, 1, 4, 1.16], [3934, 5, 5, 0.2], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [2859, 15, 4, 0.71], [6158, 2, 5, 0.44], [20555, 2, 4, 0.48], [3670, 2, 4, 0.97], [3478, 2, 4, 0.89], [11489, 1, 4, 0.39], [2050, 3, 4, 0.35], [9785, 1, 4, 1.51], [7084, 3, 4, 2.46], [12526, 2, 4, 0.74], [9342, 2, 5, 0.38], [8599, 1, 4, 0.37], [3430, 15, 4, 0.36], [1703, 2, 4, 0.46], [4253, 1, 4, 0.51], [3982, 3, 12, 0.36], [186, 3, 7, 0.48], [8938, 2, 4, 0.58], [107, 2, 4, 1.21], [1413, 16, 4, 0.42], [11887, 2, 5, 0.39], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [11490, 1, 4, 0.51], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [1050, 2, 4, 0.36], [415, 1, 4, 1.16], [94, 4, 4, 1.75], [2438, 2, 5, 1.09], [107, 7, 5, 1.2], [436, 2, 4, 0.51], [947, 15, 4, 0.7], [5812, 3, 4, 2.0], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [11767, 1, 4, 0.48], [3673, 2, 4, 2.08], [11671, 1, 4, 0.42], [140, 2, 4, 0.85], [11844, 2, 4, 0.47], [5813, 3, 5, 1.02], [11160, 1, 4, 1.87], [9358, 1, 4, 0.44], [3495, 3, 10, 0.85], [11771, 1, 4, 1.61], [7036, 1, 4, 0.43], [12764, 2, 5, 0.46], [5811, 3, 6, 0.98], [409, 1, 4, 0.52], [23920, 2, 4, 0.41], [410, 1, 4, 0.82], [1049, 2, 4, 0.36], [11954, 1, 4, 0.42], [105, 3, 4, 2.04], [9690, 1, 4, 0.67], [11180, 1, 4, 0.39], [2108, 3, 6, 0.54], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.51], [11737, 2, 57, 3.06], [206, 2, 46, 2.61], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 125, 3.17], [523, 2, 133, 3.51], [22247, 2, 242, 4.11], [8650, 2, 192, 5.09], [142, 2, 133, 3.33], [8648, 2, 192, 5.09], [2328, 2, 151, 3.64], [2776, 2, 134, 3.17], [2327, 2, 151, 3.61], [616, 2, 107, 4.0], [11739, 2, 57, 3.06], [8853, 2, 238, 5.31], [11837, 2, 268, 2.65], [411, 2, 93, 2.98], [589, 2, 44, 2.25], [143, 2, 148, 3.45], [146, 2, 152, 2.87], [412, 1, 71, 4.48], [11835, 2, 268, 2.72], [8674, 2, 244, 4.54], [583, 2, 30, 3.47], [6497, 1, 38, 2.63], [2805, 137, 154, 5.79], [145, 2, 151, 4.45], [10574, 3, 503, 4.63], [418, 2, 121, 3.13], [326, 2, 46, 3.36], [144, 2, 76, 4.06], [6097, 80, 56, 5.84], [11738, 2, 57, 3.06], [9784, 1, 62, 3.85], [11836, 2, 268, 2.82], [10149, 3, 760, 3.82], [413, 1, 86, 4.01], [6097, 29, 34, 5.36], [2057, 3, 404, 2.44], [75, 2, 123, 4.17], [11234, 2, 186, 3.17], [12344, 1, 609, 3.75], [20252, 2, 94, 2.68], [1413, 15, 100, 2.51], [11504, 2, 142, 2.86], [6496, 1, 35, 3.2], [12269, 2, 65, 2.61], [8915, 2, 97, 2.17], [414, 1, 86, 4.01], [1243, 2, 101, 2.59], [1492, 1, 37, 2.8], [6098, 80, 74, 4.31], [2774, 2, 174, 5.39], [22316, 3, 319, 2.67], [247, 1, 86, 5.11], [944, 15, 15, 1.74]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 5, 0.2], [130, 1, 4, 0.45], [589, 2, 5, 0.2], [144, 2, 5, 0.54], [8915, 2, 5, 1.94], [143, 2, 4, 0.44], [2328, 2, 4, 0.76], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [205, 2, 4, 0.37], [326, 2, 4, 0.72], [8650, 2, 4, 2.03], [593, 2, 5, 0.4], [145, 2, 4, 1.0], [146, 2, 4, 0.57], [3840, 1, 5, 0.29], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [616, 2, 5, 0.77], [88, 10, 9, 0.99], [615, 2, 4, 1.91], [141, 2, 5, 0.39], [7004, 1, 4, 1.74], [151, 1, 4, 0.2], [1124, 2, 5, 0.29], [11681, 2, 5, 1.81], [1446, 2, 4, 0.28], [206, 2, 4, 0.37], [9760, 29, 4, 0.67], [8853, 2, 5, 1.7], [5491, 2, 4, 0.45], [1007, 2, 5, 0.2], [362, 2, 4, 0.52], [1504, 2, 5, 0.38], [2912, 1, 4, 0.77], [2057, 3, 4, 0.46], [8938, 2, 4, 0.2], [9372, 1, 4, 1.3], [3893, 1, 4, 0.2], [434, 2, 4, 0.49], [8649, 2, 4, 2.49], [12870, 1, 4, 1.68], [10993, 2, 4, 0.83], [624, 2, 4, 1.27], [2050, 3, 4, 0.46], [2054, 3, 4, 0.2], [5165, 1, 4, 1.02], [1429, 2, 4, 0.28], [3889, 1, 4, 0.25], [378, 2, 4, 2.29], [7084, 3, 4, 1.07], [2991, 3, 4, 1.1], [10, 2, 4, 0.36], [140, 2, 4, 1.72], [3891, 1, 4, 0.2], [7886, 4, 5, 0.44], [11737, 2, 4, 0.52], [1006, 2, 4, 1.05], [10574, 3, 5, 1.36], [7573, 1, 9, 2.02], [5208, 3, 4, 0.48], [10149, 3, 15, 1.21], [1622, 1, 4, 0.45], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [5165, 2, 5, 1.57], [11234, 2, 5, 0.75], [997, 2, 4, 1.26], [12721, 2, 4, 1.84], [11685, 2, 5, 1.83], [1886, 2, 4, 0.2], [22247, 2, 4, 1.39], [147, 1, 4, 1.82], [229, 1, 4, 0.99], [998, 2, 4, 0.81], [20252, 2, 4, 0.47], [94, 4, 4, 1.42], [972, 3, 6, 0.51], [9491, 21, 12, 0.22], [2912, 2, 7, 1.24], [35, 1, 4, 1.29], [439, 1, 4, 1.06], [76, 2, 4, 1.1], [413, 1, 4, 1.38], [5076, 1, 4, 0.97], [13928, 1, 4, 0.7], [83, 2, 4, 0.2], [8104, 1, 4, 0.86], [1414, 15, 4, 0.44], [5209, 3, 4, 0.98], [33, 1, 4, 0.93], [148, 1, 4, 1.83], [8676, 2, 4, 1.22], [418, 2, 5, 0.63], [11952, 1, 4, 0.42], [412, 1, 4, 0.44], [7887, 4, 4, 0.97], [8898, 3, 4, 1.0], [12212, 29, 4, 0.47], [2774, 2, 4, 0.55], [3495, 3, 10, 0.82], [38, 1, 4, 1.13], [20256, 2, 4, 0.53], [84, 2, 5, 0.9], [11770, 1, 4, 1.07], [34, 1, 4, 1.07], [415, 1, 4, 1.03], [10407, 10, 6, 1.56], [632, 11, 13, 0.45], [3048, 3, 4, 1.65], [9784, 1, 4, 0.52], [11772, 1, 4, 0.2], [126, 2, 4, 0.54], [13928, 2, 4, 0.71], [995, 2, 4, 2.04], [411, 2, 4, 0.46], [9690, 1, 4, 0.37], [9691, 1, 4, 0.41], [8939, 2, 4, 0.2], [39, 1, 4, 1.1], [11953, 1, 4, 0.52], [12351, 1, 5, 0.19], [5584, 3, 4, 2.99], [7567, 3, 4, 1.47], [11954, 1, 4, 0.38], [10410, 10, 9, 1.6], [74, 1, 4, 0.99], [2327, 2, 125, 3.1], [305, 2, 122, 2.96], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [130, 1, 17, 3.34], [589, 2, 127, 3.01], [144, 2, 125, 3.13], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.22], [2775, 2, 131, 3.06], [205, 2, 107, 2.38], [326, 2, 74, 4.87], [8650, 2, 186, 5.54], [593, 2, 189, 3.07], [145, 2, 125, 3.56], [146, 2, 125, 3.18], [3840, 1, 142, 3.59], [7036, 1, 107, 5.16], [2049, 3, 461, 2.85], [2776, 2, 131, 3.27], [616, 2, 89, 4.47], [88, 10, 467, 4.23], [615, 2, 105, 5.31], [141, 2, 130, 2.86], [151, 1, 25, 2.28], [1124, 2, 154, 3.6], [11681, 2, 221, 6.0], [1446, 2, 126, 3.79], [206, 2, 107, 2.38], [9760, 29, 60, 3.37], [8853, 2, 232, 5.49], [5491, 2, 87, 3.66], [1007, 2, 89, 2.98], [362, 2, 118, 3.09], [1504, 2, 170, 2.83], [2912, 1, 44, 4.46], [2057, 3, 316, 2.35], [8938, 2, 95, 2.96], [9372, 1, 225, 4.83], [3893, 1, 104, 2.85], [434, 2, 35, 3.03], [8649, 2, 186, 6.0], [12870, 1, 114, 5.33], [10993, 2, 27, 2.91], [624, 2, 105, 4.07], [2050, 3, 316, 2.35], [2054, 3, 335, 2.39], [5165, 1, 49, 4.13], [1429, 2, 126, 3.6], [3889, 1, 104, 3.51], [378, 2, 186, 6.0], [7084, 3, 106, 3.63], [2991, 3, 135, 5.78], [10, 2, 102, 2.53], [140, 2, 44, 4.87], [3891, 1, 104, 2.9], [11737, 2, 56, 2.63], [1006, 2, 112, 3.33], [10574, 3, 279, 5.19], [7573, 1, 306, 5.58], [5208, 3, 460, 3.9], [10149, 3, 735, 4.24], [1622, 1, 88, 2.97], [75, 2, 120, 4.02], [3, 2, 101, 3.28]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 13, 1.34], [6935, 2, 19, 5.0], [6936, 2, 9, 3.91], [305, 2, 7, 1.25], [8672, 2, 10, 3.18], [615, 2, 7, 2.64], [1504, 2, 11, 1.98], [2775, 2, 7, 1.3], [145, 2, 7, 2.66], [2776, 2, 7, 2.71], [8853, 2, 7, 3.5], [12721, 2, 11, 1.74], [2327, 2, 7, 1.82], [146, 2, 7, 1.08], [143, 2, 7, 1.14], [2328, 2, 7, 1.85], [11737, 2, 7, 1.32], [11681, 2, 13, 1.41], [616, 2, 7, 2.33], [141, 2, 7, 2.37], [5491, 2, 7, 1.08], [205, 2, 7, 1.08], [2497, 2, 7, 0.98], [144, 2, 7, 2.63], [8650, 2, 9, 4.73], [5493, 2, 7, 1.42], [8676, 2, 7, 2.04], [8673, 2, 7, 1.42], [417, 2, 7, 2.37], [3670, 2, 9, 4.0], [8648, 2, 7, 3.68], [589, 2, 7, 0.77], [3, 2, 7, 1.23], [206, 2, 7, 1.08], [6097, 80, 7, 3.58], [22247, 2, 7, 2.33], [8674, 2, 7, 2.35], [11836, 2, 7, 0.96], [6497, 1, 7, 0.85], [624, 2, 7, 1.96], [2424, 29, 7, 2.28], [593, 2, 8, 0.92], [523, 2, 7, 1.31], [12344, 1, 7, 2.08], [6097, 29, 7, 3.58], [12720, 2, 7, 1.69], [6098, 80, 7, 2.52], [12345, 1, 7, 4.0], [11739, 2, 7, 1.32], [2424, 80, 7, 2.28], [88, 10, 16, 2.9], [944, 15, 7, 0.67], [8915, 2, 7, 0.79], [75, 2, 7, 2.25], [60, 3, 8, 2.1], [326, 2, 7, 1.86], [142, 2, 7, 2.37], [1492, 1, 7, 1.02], [1413, 15, 7, 0.69], [411, 2, 7, 0.94], [1050, 2, 7, 0.73], [2422, 80, 7, 2.56], [6496, 1, 7, 0.98], [6098, 29, 7, 2.52], [378, 2, 7, 4.41], [12346, 1, 7, 4.0], [10149, 3, 21, 2.21], [2422, 29, 7, 2.56], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [22316, 3, 7, 0.89], [1243, 2, 7, 1.44], [11738, 2, 7, 1.32], [345, 3, 7, 2.23], [13264, 29, 7, 1.0], [229, 1, 7, 3.85], [1490, 1, 7, 0.9], [1049, 2, 7, 0.73], [20252, 2, 7, 0.87], [964, 15, 7, 0.77], [12269, 2, 7, 0.9], [2331, 1, 7, 1.06], [10407, 10, 10, 3.24], [201, 3, 7, 4.28], [7004, 1, 7, 1.08], [2821, 3, 13, 0.82], [5208, 3, 9, 1.07], [307, 2, 7, 2.0], [1163, 3, 7, 2.79], [186, 3, 12, 0.91], [149, 2, 7, 1.95], [957, 2, 7, 1.06], [7705, 2, 7, 2.28], [7706, 2, 7, 2.28], [418, 2, 7, 0.89], [12229, 2, 7, 0.87], [20255, 2, 7, 1.22], [11687, 2, 7, 0.96], [10406, 10, 12, 2.42], [3478, 2, 7, 2.16], [8938, 2, 7, 1.02], [11844, 2, 7, 1.16], [9784, 1, 7, 1.75], [7036, 1, 7, 0.87], [1414, 15, 7, 0.83], [410, 1, 7, 1.33], [12870, 1, 7, 4.39], [10410, 10, 10, 3.08], [10408, 10, 10, 2.41], [5490, 2, 7, 0.94], [11402, 1, 7, 0.89], [19687, 1, 7, 2.33], [11490, 1, 7, 1.12], [107, 7, 8, 2.5], [2703, 3, 7, 4.1], [21781, 2, 7, 0.9], [956, 2, 7, 1.02], [1886, 2, 7, 0.67], [4232, 80, 7, 3.23], [11161, 1, 10, 3.92], [10411, 10, 10, 2.12], [159, 16, 7, 1.37], [9760, 29, 7, 0.71], [11159, 1, 14, 3.45], [5976, 1, 7, 2.79], [413, 1, 7, 2.93], [7708, 2, 7, 2.28], [9065, 2, 7, 0.92], [12373, 1, 11, 2.99], [590, 15, 7, 1.04], [414, 1, 7, 2.93], [94, 4, 7, 4.17], [11689, 2, 7, 0.9], [2422, 29, 37, 4.34], [7704, 2, 177, 4.06], [151, 1, 34, 2.79], [22316, 3, 319, 2.67], [1243, 2, 99, 3.22], [11738, 2, 57, 3.1], [345, 3, 298, 4.01], [13264, 29, 73, 2.78], [229, 1, 82, 5.63], [1490, 1, 51, 2.68], [1049, 2, 38, 1.8], [20252, 2, 93, 2.65], [964, 15, 38, 1.84], [12269, 2, 65, 2.68], [2331, 1, 119, 2.84], [10407, 10, 1181, 5.04], [201, 3, 298, 6.0], [7004, 1, 80, 2.86], [2821, 3, 1342, 2.59], [5208, 3, 565, 2.85], [307, 2, 149, 3.78], [186, 3, 671, 2.68], [149, 2, 88, 3.73], [957, 2, 107, 2.84], [7705, 2, 177, 4.06], [7706, 2, 177, 4.06], [418, 2, 143, 2.67], [12229, 2, 152, 2.65], [20255, 2, 93, 3.0], [11687, 2, 254, 2.68], [10406, 10, 1790, 4.18], [3478, 2, 75, 3.94], [8938, 2, 192, 2.81], [11844, 2, 187, 2.76], [9784, 1, 72, 3.53], [7036, 1, 128, 2.65], [1414, 15, 84, 2.54], [410, 1, 105, 3.11], [12870, 1, 137, 6.0], [10410, 10, 1181, 4.88], [10408, 10, 782, 4.19], [5490, 2, 109, 2.72], [11402, 1, 46, 2.67], [19687, 1, 30, 4.11], [11490, 1, 110, 2.9], [107, 7, 240, 4.28], [2703, 3, 301, 5.89], [21781, 2, 105, 2.68], [956, 2, 107, 2.8], [1886, 2, 158, 2.45], [4232, 80, 154, 5.02], [11161, 1, 492, 5.7], [10411, 10, 782, 3.89], [159, 16, 79, 3.15], [9760, 29, 72, 2.49], [11159, 1, 496, 5.23], [5976, 1, 157, 4.58], [413, 1, 86, 4.71], [7708, 2, 177, 4.06], [9065, 2, 305, 2.7], [12373, 1, 534, 4.76], [590, 15, 101, 2.82], [414, 1, 86, 4.71], [94, 4, 116, 5.95], [11689, 2, 254, 2.61]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 7, 4.04], [362, 2, 7, 0.94], [5491, 2, 9, 0.9], [130, 1, 9, 1.36], [5493, 2, 9, 1.1], [589, 2, 7, 1.45], [2327, 2, 7, 2.32], [11685, 2, 7, 1.64], [326, 2, 7, 1.63], [8672, 2, 10, 1.91], [417, 2, 9, 1.16], [6935, 2, 19, 4.12], [11681, 2, 13, 2.0], [205, 2, 7, 0.74], [8648, 2, 7, 4.04], [206, 2, 9, 0.77], [6936, 2, 9, 2.9], [8915, 2, 7, 1.21], [142, 2, 9, 0.87], [2049, 3, 14, 1.23], [11838, 2, 9, 1.02], [12721, 2, 11, 1.95], [1446, 2, 7, 1.82], [523, 2, 7, 1.27], [8676, 2, 7, 2.44], [615, 2, 7, 2.98], [11737, 2, 7, 2.08], [305, 2, 7, 1.25], [616, 2, 7, 2.48], [413, 1, 7, 2.75], [412, 1, 7, 1.78], [10574, 3, 10, 2.84], [411, 2, 7, 0.96], [8675, 2, 9, 2.44], [145, 2, 7, 2.66], [76, 2, 7, 2.14], [1429, 2, 7, 0.92], [2775, 2, 7, 0.83], [143, 2, 7, 1.23], [8673, 2, 7, 3.38], [8674, 2, 7, 1.46], [8938, 2, 7, 1.87], [11836, 2, 9, 0.86], [146, 2, 7, 1.08], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [6158, 2, 9, 3.5], [2050, 3, 7, 3.23], [10149, 3, 21, 1.48], [2776, 2, 7, 1.44], [3495, 3, 17, 1.57], [75, 2, 7, 2.25], [2057, 3, 7, 3.23], [144, 2, 7, 2.63], [1504, 2, 11, 1.43], [8939, 2, 7, 3.23], [416, 1, 7, 1.41], [7885, 4, 7, 1.31], [22316, 3, 7, 0.89], [88, 10, 16, 2.9], [2859, 15, 7, 0.85], [159, 3, 9, 1.42], [7084, 3, 7, 3.37], [418, 2, 7, 0.68], [10993, 2, 7, 1.6], [20252, 2, 7, 0.73], [7705, 2, 7, 2.28], [9784, 1, 7, 1.69], [2424, 29, 9, 3.84], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [2423, 29, 7, 2.27], [12351, 1, 7, 1.26], [414, 1, 7, 1.41], [2423, 80, 7, 2.22], [60, 3, 8, 2.67], [378, 2, 7, 4.77], [12345, 1, 7, 1.07], [2424, 80, 7, 2.28], [13023, 3, 10, 2.77], [11490, 1, 7, 0.92], [201, 3, 7, 2.66], [13034, 3, 9, 2.71], [12373, 1, 11, 2.99], [1519, 3, 15, 0.73], [345, 3, 7, 1.27], [11489, 1, 7, 1.94], [5208, 3, 9, 0.94], [3, 2, 7, 5.0], [7886, 4, 7, 0.81], [6952, 1, 7, 0.97], [159, 1, 7, 1.41], [20927, 1, 7, 0.92], [11954, 1, 7, 0.85], [3430, 15, 7, 1.84], [432, 3, 7, 3.93], [566, 2, 7, 0.96], [13928, 1, 7, 0.87], [11504, 2, 7, 1.0], [11952, 1, 7, 0.83], [11811, 1, 7, 1.93], [2703, 3, 7, 4.1], [2331, 1, 7, 1.06], [114, 3, 7, 3.3], [7004, 1, 7, 1.96], [5584, 3, 7, 3.1], [10407, 10, 10, 3.24], [1492, 1, 7, 1.02], [105, 3, 7, 3.3], [1490, 1, 7, 3.37], [11089, 1, 7, 0.75], [6098, 80, 7, 2.52], [8274, 3, 7, 4.43], [944, 15, 7, 0.79], [7706, 2, 7, 2.28], [1886, 2, 7, 0.81], [12348, 1, 7, 1.26], [308, 1, 11, 2.72], [10410, 10, 10, 3.08], [11674, 1, 7, 0.69], [3981, 3, 13, 0.91], [94, 4, 7, 4.17], [3891, 1, 7, 4.22], [11953, 1, 7, 0.92], [6097, 80, 7, 3.58], [9082, 3, 24, 2.42], [11161, 1, 10, 3.92], [20259, 2, 7, 0.81], [1274, 1, 7, 1.16], [10408, 10, 10, 2.41], [9690, 1, 7, 1.12], [9784, 1, 72, 3.47], [2424, 29, 29, 6.0], [12526, 2, 273, 4.56], [11844, 2, 187, 2.76], [2423, 29, 37, 4.06], [12351, 1, 632, 3.04], [414, 1, 86, 3.19], [2423, 80, 185, 4.0], [60, 3, 803, 4.46], [378, 2, 225, 6.0], [12345, 1, 632, 2.84], [2424, 80, 171, 4.06], [13023, 3, 594, 4.56], [11490, 1, 110, 2.7], [201, 3, 253, 4.95], [13034, 3, 594, 4.5], [12373, 1, 534, 4.76], [1519, 3, 1664, 2.54], [345, 3, 299, 3.05], [11489, 1, 36, 3.01], [5208, 3, 379, 2.54], [3, 2, 118, 6.0], [7886, 4, 62, 2.73], [6952, 1, 191, 2.75], [159, 1, 40, 3.19], [20927, 1, 80, 2.7], [11954, 1, 203, 2.63], [3430, 15, 69, 3.63], [432, 3, 251, 5.64], [566, 2, 176, 2.74], [13928, 1, 49, 2.65], [11504, 2, 143, 2.78], [11952, 1, 203, 2.62], [11811, 1, 453, 3.71], [2703, 3, 301, 5.89], [2331, 1, 119, 2.84], [114, 3, 121, 4.73], [7004, 1, 27, 3.25], [5584, 3, 229, 4.88], [10407, 10, 1181, 5.04], [1492, 1, 37, 2.8], [105, 3, 121, 4.73], [1490, 1, 48, 5.16], [11089, 1, 174, 2.54], [6098, 80, 74, 4.31], [944, 15, 30, 2.4], [7706, 2, 177, 4.06], [1886, 2, 158, 2.59], [12348, 1, 632, 3.04], [308, 1, 169, 4.5], [10410, 10, 1181, 4.88], [11674, 1, 206, 2.47], [3981, 3, 1687, 2.69], [94, 4, 116, 5.95], [3891, 1, 123, 6.0], [11953, 1, 203, 2.71], [6097, 80, 68, 5.36], [9082, 3, 2461, 4.17], [11161, 1, 492, 5.7], [20259, 2, 93, 2.59], [1274, 1, 82, 2.94], [10408, 10, 782, 4.19], [9690, 1, 76, 2.9]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 1.72], [362, 2, 7, 1.54], [589, 2, 12, 0.68], [75, 2, 9, 2.45], [1776, 1, 7, 1.12], [205, 2, 7, 1.12], [8915, 2, 11, 0.67], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [7886, 4, 7, 1.1], [593, 2, 14, 0.83], [6936, 2, 10, 2.79], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 16, 2.93], [990, 2, 9, 0.92], [11681, 2, 10, 5.0], [8650, 2, 7, 3.25], [412, 1, 7, 2.17], [5151, 2, 7, 1.73], [2050, 3, 7, 2.4], [144, 2, 7, 2.61], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [2991, 3, 7, 4.22], [10149, 3, 25, 3.26], [22247, 2, 9, 3.0], [57, 1, 9, 0.68], [3478, 2, 7, 2.86], [146, 2, 7, 2.04], [7004, 1, 7, 1.34], [45, 2, 7, 2.65], [2054, 3, 7, 4.0], [143, 2, 7, 1.85], [417, 2, 9, 1.87], [413, 1, 7, 2.13], [21793, 1, 7, 3.62], [167, 3, 9, 2.7], [201, 3, 10, 2.56], [74, 1, 6, 2.52], [2055, 3, 7, 2.83], [346, 1, 9, 0.74], [1446, 2, 9, 1.06], [168, 3, 9, 1.38], [10, 2, 11, 2.55], [7084, 3, 7, 2.95], [11234, 2, 9, 0.93], [1429, 2, 9, 0.98], [12721, 2, 10, 1.92], [7036, 1, 7, 2.84], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [308, 1, 9, 4.83], [8649, 2, 7, 2.97], [13028, 3, 7, 0.96], [12870, 1, 7, 4.49], [10825, 21, 14, 2.47], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 0.7], [3893, 1, 7, 1.67], [418, 2, 9, 0.77], [1006, 2, 7, 1.72], [145, 2, 7, 2.69], [1504, 2, 7, 1.39], [432, 3, 7, 1.25], [5208, 3, 13, 1.78], [9827, 3, 7, 0.86], [7005, 1, 7, 1.38], [94, 4, 7, 3.04], [1490, 1, 7, 1.35], [5812, 3, 8, 2.14], [13260, 29, 7, 1.85], [8853, 2, 11, 2.88], [411, 2, 7, 1.12], [416, 1, 7, 2.37], [142, 2, 7, 2.87], [8651, 2, 7, 2.21], [12353, 1, 6, 1.55], [21269, 3, 7, 4.99], [12349, 1, 7, 3.22], [20256, 2, 7, 0.69], [33, 1, 7, 1.27], [998, 2, 7, 2.91], [12350, 1, 7, 3.09], [5086, 1, 6, 2.04], [950, 1, 9, 0.66], [9069, 1, 7, 3.12], [229, 1, 9, 5.0], [1243, 2, 9, 2.28], [2878, 1, 7, 2.04], [7567, 3, 7, 3.13], [140, 2, 7, 0.9], [2049, 1, 7, 1.79], [126, 2, 7, 1.87], [20927, 1, 7, 1.33], [3980, 4, 7, 2.59], [346, 3, 8, 1.23], [1703, 2, 7, 2.7], [8274, 3, 7, 2.09], [35, 1, 7, 1.34], [997, 2, 7, 2.43], [5209, 3, 7, 1.19], [9691, 1, 7, 1.6], [11914, 1, 9, 1.52], [5584, 3, 7, 3.42], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [856, 1, 7, 0.73], [5660, 2, 7, 2.02], [1519, 3, 21, 0.68], [159, 3, 10, 1.33], [5513, 2, 7, 0.89], [523, 2, 7, 1.87], [8898, 3, 7, 5.0], [1091, 1, 7, 1.1], [11767, 1, 7, 0.89], [2775, 2, 7, 1.06], [996, 2, 7, 3.45], [8926, 1, 7, 3.42], [9081, 3, 12, 3.64], [13034, 3, 10, 2.76], [1124, 2, 9, 1.74], [20255, 2, 7, 1.21], [23961, 3, 7, 2.61], [307, 2, 7, 2.19], [12661, 1, 7, 2.31], [418, 2, 112, 2.43], [1006, 2, 180, 2.88], [145, 2, 119, 3.85], [1504, 2, 161, 2.55], [432, 3, 239, 2.41], [5208, 3, 439, 2.95], [9827, 3, 69, 2.51], [7005, 1, 73, 2.54], [94, 4, 94, 4.2], [1490, 1, 40, 2.51], [5812, 3, 459, 3.78], [13260, 29, 57, 3.01], [8853, 2, 223, 4.41], [411, 2, 101, 2.28], [416, 1, 68, 3.53], [142, 2, 107, 4.03], [8651, 2, 176, 3.76], [12353, 1, 474, 3.2], [21269, 3, 230, 6.0], [12349, 1, 557, 4.37], [20256, 2, 74, 2.34], [33, 1, 88, 2.86], [998, 2, 188, 4.57], [12350, 1, 474, 4.74], [5086, 1, 144, 3.69], [950, 1, 58, 1.62], [9069, 1, 96, 4.28], [1243, 2, 77, 3.44], [2878, 1, 63, 3.2], [7567, 3, 55, 4.78], [140, 2, 72, 2.51], [2049, 1, 21, 2.95], [126, 2, 72, 3.03], [20927, 1, 73, 2.49], [3980, 4, 377, 4.25], [346, 3, 497, 2.4], [1703, 2, 149, 3.86], [35, 1, 88, 2.5], [997, 2, 188, 3.59], [5209, 3, 444, 2.35], [9691, 1, 70, 2.76], [11914, 1, 68, 3.17], [5584, 3, 218, 4.58], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [856, 1, 32, 1.89], [5660, 2, 138, 3.59], [1519, 3, 1313, 2.31], [159, 3, 554, 2.99], [5513, 2, 59, 2.49], [523, 2, 122, 3.03], [8898, 3, 221, 6.0], [1091, 1, 38, 2.75], [11767, 1, 151, 2.05], [2775, 2, 123, 2.71], [996, 2, 219, 4.61], [8926, 1, 56, 4.58], [9081, 3, 359, 5.3], [13034, 3, 459, 4.14], [1124, 2, 171, 2.9], [20255, 2, 74, 2.37], [23961, 3, 269, 3.77], [307, 2, 117, 3.35], [12661, 1, 64, 3.47]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 2.1], [8915, 2, 8, 3.41], [2327, 2, 7, 1.0], [589, 2, 10, 0.87], [2778, 2, 7, 1.43], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 2.37], [130, 1, 7, 1.86], [305, 2, 6, 0.82], [326, 2, 9, 2.24], [616, 2, 9, 1.91], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 6, 1.82], [7004, 1, 9, 1.83], [2049, 3, 12, 0.72], [159, 3, 10, 0.96], [10, 2, 9, 2.55], [143, 2, 7, 1.81], [593, 2, 11, 1.21], [205, 2, 7, 0.74], [2775, 2, 7, 0.93], [5491, 2, 7, 1.52], [7036, 1, 9, 3.03], [144, 2, 7, 2.0], [434, 2, 9, 0.79], [94, 4, 7, 2.73], [8938, 2, 9, 0.84], [3893, 1, 7, 1.21], [1504, 2, 7, 0.73], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [624, 2, 9, 1.75], [1429, 2, 6, 1.46], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [141, 2, 7, 1.22], [206, 2, 7, 0.74], [362, 2, 7, 1.0], [2776, 2, 7, 1.19], [75, 2, 7, 1.52], [11681, 2, 11, 4.38], [378, 2, 7, 4.71], [5208, 3, 9, 1.28], [3889, 1, 7, 1.88], [1007, 2, 7, 0.85], [8649, 2, 7, 4.79], [7886, 4, 7, 0.8], [10993, 2, 7, 1.6], [2054, 3, 7, 1.93], [12870, 1, 7, 3.23], [10149, 3, 21, 2.58], [2050, 3, 7, 0.89], [145, 2, 7, 1.93], [20927, 1, 7, 2.43], [9760, 29, 9, 0.97], [998, 2, 7, 1.56], [1886, 2, 9, 1.04], [2436, 4, 7, 2.18], [1006, 2, 7, 1.51], [997, 2, 9, 2.32], [3495, 3, 14, 1.61], [3, 2, 7, 0.9], [229, 1, 7, 0.94], [972, 3, 10, 1.52], [6158, 2, 9, 4.29], [632, 11, 21, 0.79], [346, 3, 7, 1.3], [5076, 1, 7, 1.44], [7887, 4, 7, 1.87], [20252, 2, 7, 0.9], [11770, 1, 7, 2.8], [9372, 1, 7, 3.2], [126, 2, 7, 2.07], [74, 1, 7, 3.33], [11953, 1, 7, 1.0], [140, 2, 7, 3.31], [8939, 2, 7, 1.39], [11685, 2, 11, 4.43], [11954, 1, 7, 0.73], [1492, 1, 7, 0.87], [12721, 2, 7, 3.54], [2774, 2, 7, 1.21], [20256, 2, 7, 1.02], [3981, 3, 17, 1.09], [22316, 3, 7, 0.94], [2423, 80, 7, 0.94], [9491, 21, 26, 0.95], [11952, 1, 7, 0.81], [11772, 1, 7, 0.84], [5434, 1, 7, 1.6], [5584, 3, 7, 5.0], [6497, 1, 7, 4.13], [12351, 1, 7, 1.26], [12229, 2, 7, 0.94], [2438, 2, 8, 1.68], [7573, 1, 16, 3.95], [10407, 10, 10, 3.08], [10388, 2, 7, 1.98], [11179, 1, 7, 1.6], [823, 1, 7, 4.12], [5209, 3, 9, 1.28], [6496, 1, 7, 1.85], [2805, 137, 7, 2.35], [3900, 3, 7, 2.27], [11812, 1, 7, 0.84], [4253, 1, 7, 1.04], [432, 3, 9, 3.24], [1622, 1, 7, 0.87], [1519, 3, 21, 0.68], [11737, 2, 7, 1.0], [8676, 2, 7, 3.15], [972, 1, 7, 1.02], [22247, 2, 7, 2.74], [1414, 15, 7, 0.85], [412, 1, 7, 0.94], [6097, 80, 7, 1.98], [159, 16, 7, 1.08], [10386, 2, 7, 4.24], [2991, 3, 7, 3.95], [1274, 1, 7, 1.3], [9784, 1, 7, 1.0], [6805, 1, 7, 0.97], [1243, 2, 7, 1.52], [8635, 3, 7, 3.91], [10410, 10, 15, 3.16], [11814, 1, 7, 0.92], [33, 1, 7, 2.55], [11813, 1, 7, 0.89], [7567, 3, 7, 3.43], [37, 1, 7, 2.55], [5076, 1, 127, 3.07], [7887, 4, 45, 3.23], [20252, 2, 92, 2.54], [11770, 1, 204, 4.43], [9372, 1, 225, 4.83], [126, 2, 88, 3.7], [74, 1, 192, 4.97], [11953, 1, 196, 2.64], [140, 2, 44, 4.87], [8939, 2, 63, 3.03], [11685, 2, 221, 6.0], [11954, 1, 196, 2.36], [1492, 1, 37, 2.5], [12721, 2, 275, 5.17], [2774, 2, 201, 2.84], [20256, 2, 92, 2.66], [3981, 3, 1644, 2.74], [22316, 3, 310, 2.57], [2423, 80, 185, 2.57], [9491, 21, 1763, 3.05], [11952, 1, 196, 2.45], [11772, 1, 182, 2.97], [5434, 1, 48, 3.23], [5584, 3, 198, 6.0], [6497, 1, 35, 5.77], [12351, 1, 615, 2.89], [12229, 2, 149, 2.57], [2438, 2, 629, 3.32], [7573, 1, 306, 5.58], [10407, 10, 1151, 4.72], [10388, 2, 213, 3.62], [11179, 1, 85, 3.24], [823, 1, 39, 5.75], [5209, 3, 460, 3.9], [6496, 1, 38, 3.48], [2805, 137, 176, 3.98], [3900, 3, 42, 3.91], [11812, 1, 198, 2.98], [4253, 1, 142, 3.13], [432, 3, 248, 5.88], [1622, 1, 90, 2.97], [1519, 3, 1386, 2.82], [11737, 2, 56, 2.63], [8676, 2, 279, 4.78], [972, 1, 97, 2.65], [22247, 2, 275, 4.37], [1414, 15, 98, 2.48], [412, 1, 82, 2.57], [6097, 80, 69, 3.61], [159, 16, 66, 3.16], [10386, 2, 179, 6.0], [2991, 3, 158, 5.58], [1274, 1, 80, 2.93], [9784, 1, 71, 2.63], [6805, 1, 444, 2.61], [1243, 2, 96, 3.15], [10410, 10, 1151, 4.8], [11814, 1, 220, 2.56], [33, 1, 109, 4.18], [11813, 1, 312, 2.53], [7567, 3, 67, 5.06], [37, 1, 109, 4.18]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.83], [6936, 2, 13, 3.9], [362, 2, 7, 1.08], [8648, 2, 7, 4.05], [2327, 2, 7, 1.79], [11681, 2, 16, 4.05], [8650, 2, 7, 3.82], [326, 2, 9, 1.32], [205, 2, 9, 0.85], [2328, 2, 9, 1.6], [1446, 2, 7, 0.92], [305, 2, 7, 2.34], [2049, 3, 9, 0.96], [130, 1, 7, 2.79], [8649, 2, 7, 5.0], [2775, 2, 7, 1.83], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [2776, 2, 7, 2.25], [593, 2, 7, 1.46], [143, 2, 7, 1.27], [140, 2, 9, 1.16], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [5493, 2, 7, 0.9], [523, 2, 7, 1.49], [413, 1, 7, 1.37], [7004, 1, 7, 1.71], [7036, 1, 7, 2.73], [21793, 1, 7, 2.44], [412, 1, 7, 1.25], [5491, 2, 7, 1.1], [151, 1, 7, 0.71], [1124, 2, 9, 1.09], [990, 2, 7, 1.44], [5165, 1, 9, 1.87], [8915, 2, 10, 2.24], [615, 2, 7, 3.12], [583, 2, 9, 0.82], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [434, 2, 7, 1.73], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [201, 3, 7, 3.56], [142, 2, 7, 1.08], [11770, 1, 7, 0.83], [345, 3, 9, 1.82], [2055, 3, 7, 1.56], [3891, 1, 7, 1.75], [9372, 1, 7, 1.55], [616, 2, 7, 1.66], [2057, 3, 7, 1.56], [7084, 3, 7, 5.0], [5165, 2, 15, 1.87], [7005, 1, 7, 1.83], [3893, 1, 7, 1.21], [3670, 2, 7, 2.83], [12870, 1, 7, 2.27], [1886, 2, 7, 0.87], [10574, 3, 8, 1.92], [3334, 5, 7, 1.99], [346, 3, 7, 0.8], [6098, 80, 7, 2.68], [6097, 29, 9, 5.0], [7885, 4, 7, 0.94], [20927, 1, 7, 1.66], [11089, 1, 7, 0.94], [3889, 1, 7, 1.21], [12345, 1, 7, 0.85], [6158, 2, 7, 3.37], [147, 1, 9, 2.75], [10149, 3, 24, 2.21], [1492, 1, 9, 0.68], [22316, 3, 7, 0.96], [20256, 2, 7, 0.81], [432, 3, 7, 1.65], [11953, 1, 7, 0.92], [20252, 2, 7, 1.68], [11491, 2, 7, 1.02], [418, 2, 7, 1.8], [4032, 29, 7, 1.0], [1519, 3, 16, 0.68], [411, 2, 7, 1.04], [1490, 1, 7, 0.79], [2423, 80, 7, 3.2], [11952, 1, 7, 1.53], [229, 1, 7, 3.98], [972, 3, 9, 2.0], [5151, 2, 7, 2.66], [11769, 1, 7, 0.9], [3576, 25, 7, 2.25], [2331, 1, 7, 3.16], [346, 1, 9, 0.73], [416, 1, 7, 1.91], [13034, 3, 7, 2.91], [8120, 3, 7, 2.1], [11426, 25, 7, 1.12], [11737, 2, 7, 0.96], [11767, 1, 7, 0.89], [439, 1, 9, 3.64], [3, 2, 7, 1.41], [11583, 29, 7, 1.34], [2805, 137, 7, 1.99], [5076, 1, 7, 1.21], [11490, 1, 7, 1.39], [2160, 68, 7, 2.19], [6494, 1, 7, 3.15], [414, 1, 7, 1.47], [410, 1, 7, 0.83], [1701, 2, 7, 2.58], [3575, 25, 7, 2.39], [11180, 1, 7, 1.27], [8677, 3, 8, 1.95], [75, 2, 7, 0.97], [11814, 1, 7, 0.92], [3478, 2, 7, 1.08], [11585, 29, 7, 2.16], [13023, 3, 8, 2.24], [2438, 2, 8, 2.01], [11813, 1, 7, 3.17], [9784, 1, 7, 1.69], [11954, 1, 7, 0.98], [6098, 29, 7, 1.29], [23238, 29, 7, 0.83], [4253, 1, 7, 1.98], [4033, 29, 7, 1.1], [8283, 2, 8, 0.86], [23238, 25, 7, 0.79], [20927, 1, 59, 3.07], [11089, 1, 148, 2.36], [3889, 1, 107, 2.63], [12345, 1, 455, 2.79], [6158, 2, 221, 4.78], [147, 1, 65, 5.17], [10149, 3, 741, 3.62], [1492, 1, 28, 2.62], [22316, 3, 274, 2.37], [20256, 2, 80, 2.22], [432, 3, 223, 3.07], [11953, 1, 172, 2.33], [20252, 2, 68, 3.1], [11491, 2, 121, 2.43], [418, 2, 121, 3.21], [4032, 29, 82, 2.42], [1519, 3, 1420, 2.08], [411, 2, 80, 2.91], [1490, 1, 44, 2.21], [2423, 80, 155, 4.62], [11952, 1, 172, 2.94], [229, 1, 70, 5.4], [972, 3, 432, 3.8], [5151, 2, 21, 4.08], [11769, 1, 141, 2.32], [3576, 25, 87, 3.67], [2331, 1, 100, 4.58], [346, 1, 117, 2.71], [416, 1, 63, 3.33], [13034, 3, 507, 4.32], [8120, 3, 202, 3.51], [11426, 25, 103, 2.54], [11737, 2, 49, 2.37], [11767, 1, 141, 2.31], [439, 1, 63, 5.15], [3, 2, 105, 2.82], [11583, 29, 41, 2.76], [2805, 137, 154, 3.41], [5076, 1, 112, 2.62], [11490, 1, 93, 2.81], [2160, 68, 112, 3.61], [6494, 1, 42, 4.56], [414, 1, 74, 2.88], [410, 1, 77, 2.72], [1701, 2, 141, 4.0], [3575, 25, 87, 3.8], [11180, 1, 75, 2.68], [8677, 3, 253, 3.37], [75, 2, 124, 2.38], [11814, 1, 192, 2.34], [3478, 2, 65, 2.5], [11585, 29, 148, 3.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.43], [11813, 1, 266, 4.58], [9784, 1, 61, 3.1], [11954, 1, 172, 2.4], [6098, 29, 33, 2.71], [23238, 29, 32, 2.25], [4253, 1, 144, 3.4], [4033, 29, 88, 2.52], [8283, 2, 410, 2.28], [23238, 25, 64, 2.21]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.82], [305, 2, 7, 1.08], [2778, 2, 7, 1.12], [5493, 2, 7, 2.69], [6936, 2, 9, 3.71], [130, 1, 7, 1.71], [205, 2, 7, 1.35], [616, 2, 7, 2.78], [144, 2, 7, 0.96], [2049, 3, 14, 1.75], [8648, 2, 7, 1.72], [1504, 2, 7, 0.9], [88, 10, 15, 0.89], [8915, 2, 8, 3.41], [326, 2, 7, 1.79], [7036, 1, 7, 2.72], [8650, 2, 7, 3.31], [593, 2, 9, 1.44], [2327, 2, 7, 0.94], [11681, 2, 9, 3.27], [3893, 1, 7, 1.38], [8853, 2, 7, 3.67], [141, 2, 7, 1.29], [2775, 2, 7, 1.12], [206, 2, 7, 0.81], [7004, 1, 7, 2.33], [151, 1, 7, 1.25], [9507, 3, 7, 0.69], [248, 1, 7, 2.17], [11685, 2, 7, 3.29], [10, 2, 7, 0.69], [2328, 2, 7, 1.73], [146, 2, 7, 1.21], [2050, 3, 7, 3.31], [2497, 2, 7, 1.31], [5491, 2, 7, 3.15], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [3980, 4, 7, 2.36], [21798, 1, 7, 0.9], [990, 2, 7, 0.69], [2054, 3, 7, 3.66], [624, 2, 7, 3.72], [8649, 2, 7, 2.21], [12870, 1, 7, 3.71], [362, 2, 7, 2.14], [7885, 4, 7, 0.85], [2776, 2, 7, 1.94], [2057, 3, 7, 3.31], [7886, 4, 7, 0.92], [12353, 1, 7, 3.21], [10574, 3, 8, 2.4], [13028, 3, 7, 1.25], [1006, 2, 7, 1.37], [1446, 2, 7, 2.14], [3495, 3, 21, 1.64], [523, 2, 7, 0.73], [75, 2, 7, 3.52], [2991, 3, 7, 3.97], [3975, 4, 7, 2.49], [7005, 1, 7, 1.81], [10149, 3, 21, 1.48], [11404, 2, 7, 0.83], [9760, 29, 7, 0.87], [142, 2, 7, 0.87], [6158, 2, 7, 1.57], [20927, 1, 7, 1.77], [3981, 3, 21, 2.03], [3982, 3, 17, 2.34], [417, 2, 7, 1.1], [11953, 1, 7, 0.83], [1007, 2, 7, 1.4], [997, 2, 7, 3.03], [8939, 2, 7, 0.83], [956, 2, 7, 0.71], [33, 1, 7, 3.27], [11772, 1, 7, 0.85], [2774, 2, 7, 1.81], [7887, 4, 7, 1.83], [6497, 1, 7, 0.92], [1492, 1, 7, 0.87], [998, 2, 7, 3.03], [11770, 1, 7, 0.87], [11767, 1, 7, 1.1], [972, 3, 7, 2.91], [11769, 1, 7, 1.93], [996, 2, 7, 3.03], [35, 1, 7, 1.7], [336, 15, 7, 2.22], [74, 1, 7, 2.29], [11490, 1, 7, 1.14], [389, 4, 7, 1.69], [7567, 3, 7, 2.96], [2104, 3, 10, 0.94], [11952, 1, 7, 0.87], [411, 2, 7, 1.0], [6496, 1, 7, 0.94], [12721, 2, 7, 2.18], [4253, 1, 7, 1.85], [22317, 3, 7, 0.98], [140, 2, 7, 1.04], [8121, 3, 7, 1.06], [8673, 2, 7, 2.48], [4176, 4, 7, 2.57], [1126, 2, 7, 1.47], [2436, 4, 7, 1.72], [1277, 1, 7, 1.46], [9372, 1, 7, 3.4], [8676, 2, 7, 2.35], [21269, 3, 7, 3.5], [8677, 3, 7, 3.38], [11085, 2, 8, 2.78], [12343, 1, 7, 3.21], [22247, 2, 7, 2.27], [1274, 1, 7, 1.16], [10936, 2, 7, 3.27], [37, 1, 7, 1.7], [10388, 2, 7, 2.13], [12526, 2, 7, 2.15], [823, 1, 7, 0.94], [12269, 2, 7, 1.42], [1429, 2, 7, 1.6], [7573, 1, 11, 3.51], [9784, 1, 7, 1.06], [13023, 3, 7, 2.44], [6494, 1, 7, 0.87], [345, 3, 7, 0.98], [39, 1, 7, 1.56], [12271, 2, 7, 1.39], [201, 3, 7, 2.36], [12225, 1, 7, 1.25], [96, 11, 22, 0.9], [10408, 10, 8, 1.23], [417, 2, 134, 2.55], [11953, 1, 175, 2.28], [1007, 2, 231, 2.85], [997, 2, 206, 4.48], [8939, 2, 168, 2.28], [956, 2, 93, 2.16], [33, 1, 58, 4.48], [11772, 1, 191, 2.3], [2774, 2, 176, 3.26], [6497, 1, 33, 2.37], [1492, 1, 32, 2.32], [998, 2, 206, 4.48], [11770, 1, 190, 2.32], [11767, 1, 140, 2.55], [972, 3, 512, 4.36], [11769, 1, 140, 3.37], [996, 2, 206, 4.48], [35, 1, 96, 3.15], [336, 15, 96, 3.67], [74, 1, 177, 3.74], [11490, 1, 94, 2.59], [389, 4, 180, 3.14], [7567, 3, 60, 4.41], [2104, 3, 304, 2.39], [11952, 1, 175, 2.32], [411, 2, 94, 2.45], [6496, 1, 36, 2.39], [12721, 2, 245, 3.63], [4253, 1, 145, 3.3], [22317, 3, 274, 2.43], [140, 2, 79, 2.49], [8121, 3, 255, 2.51], [8673, 2, 241, 3.93], [4176, 4, 417, 4.02], [1126, 2, 198, 2.91], [2436, 4, 100, 3.17], [1277, 1, 166, 2.91], [9372, 1, 196, 4.85], [8676, 2, 247, 3.8], [21269, 3, 255, 4.95], [8677, 3, 256, 4.82], [11085, 2, 463, 4.24], [12343, 1, 544, 4.66], [22247, 2, 245, 3.72], [1274, 1, 71, 2.61], [10936, 2, 115, 4.72], [37, 1, 96, 3.15], [10388, 2, 186, 3.58], [12526, 2, 236, 3.59], [823, 1, 35, 2.39], [12269, 2, 55, 2.87], [1429, 2, 132, 3.05], [7573, 1, 289, 4.95], [9784, 1, 63, 2.51], [13023, 3, 509, 3.88], [6494, 1, 45, 2.32], [345, 3, 257, 2.42], [39, 1, 96, 3.01], [12271, 2, 55, 2.84], [201, 3, 257, 3.81], [12225, 1, 141, 2.7], [96, 11, 738, 2.35], [10408, 10, 683, 2.68]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.25], [6935, 2, 19, 4.39], [2328, 2, 7, 1.85], [130, 1, 7, 1.89], [141, 2, 7, 1.27], [8650, 2, 9, 5.0], [2778, 2, 13, 1.26], [5491, 2, 7, 2.52], [2327, 2, 7, 1.82], [8672, 2, 10, 3.18], [362, 2, 7, 2.91], [143, 2, 7, 1.14], [6936, 2, 9, 3.09], [248, 1, 7, 0.89], [145, 2, 7, 2.66], [11681, 2, 13, 1.41], [205, 2, 7, 1.25], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.08], [75, 2, 7, 1.63], [11737, 2, 7, 1.18], [1124, 2, 10, 1.89], [523, 2, 7, 1.06], [8648, 2, 7, 4.04], [1504, 2, 11, 1.23], [12721, 2, 11, 1.45], [8853, 2, 7, 2.87], [1005, 2, 7, 0.75], [615, 2, 7, 2.29], [326, 2, 7, 1.86], [206, 2, 7, 1.25], [8673, 2, 7, 1.42], [8915, 2, 7, 3.23], [144, 2, 7, 2.63], [11835, 2, 7, 0.69], [11739, 2, 7, 1.18], [88, 10, 16, 2.9], [434, 2, 7, 1.26], [2776, 2, 7, 2.21], [142, 2, 7, 0.92], [151, 1, 7, 1.36], [8676, 2, 7, 2.04], [6158, 2, 9, 2.2], [2423, 29, 7, 3.48], [8649, 2, 7, 2.86], [11738, 2, 7, 1.18], [7704, 2, 7, 2.28], [2497, 2, 7, 0.69], [1413, 15, 7, 0.73], [2423, 80, 7, 3.48], [11836, 2, 7, 1.06], [3670, 2, 9, 3.61], [10574, 3, 10, 2.84], [7705, 2, 7, 2.28], [944, 15, 7, 0.79], [2859, 15, 7, 0.85], [3, 2, 7, 1.54], [2054, 3, 7, 2.1], [412, 1, 7, 2.4], [7706, 2, 7, 2.28], [378, 2, 7, 4.77], [12720, 2, 7, 1.45], [22316, 3, 7, 0.89], [12344, 1, 7, 1.36], [3478, 2, 7, 2.16], [2055, 3, 7, 2.1], [74, 1, 7, 4.18], [10149, 3, 21, 2.21], [2774, 2, 7, 2.97], [307, 2, 7, 2.0], [6497, 1, 7, 0.85], [12526, 2, 7, 2.78], [7004, 1, 7, 1.08], [418, 2, 7, 1.64], [411, 2, 7, 1.02], [11089, 1, 7, 0.75], [60, 3, 8, 2.1], [13928, 1, 7, 0.87], [413, 1, 7, 3.06], [2057, 3, 7, 2.1], [11844, 2, 7, 1.16], [7036, 1, 7, 1.74], [8274, 3, 7, 1.91], [3893, 1, 7, 3.81], [13260, 29, 7, 1.29], [20252, 2, 7, 1.04], [2050, 3, 7, 2.1], [14037, 3, 7, 0.79], [7084, 3, 7, 0.69], [6097, 80, 7, 3.58], [6952, 1, 7, 2.1], [3891, 1, 7, 4.22], [9784, 1, 7, 2.37], [94, 4, 7, 4.17], [1050, 2, 7, 0.69], [7707, 2, 7, 1.39], [159, 3, 9, 1.42], [414, 1, 7, 3.06], [1243, 2, 7, 0.89], [1490, 1, 7, 1.96], [3889, 1, 7, 3.81], [11490, 1, 7, 0.96], [7708, 2, 7, 2.28], [22317, 3, 8, 0.83], [21793, 1, 8, 3.56], [1413, 16, 7, 0.77], [5208, 3, 9, 1.91], [345, 3, 7, 2.23], [7703, 2, 7, 2.28], [565, 2, 7, 0.89], [229, 1, 7, 3.85], [11491, 2, 7, 1.6], [1492, 1, 7, 1.02], [3495, 3, 17, 1.57], [6098, 80, 7, 2.52], [20256, 2, 7, 0.81], [149, 2, 7, 2.73], [410, 1, 7, 0.71], [11504, 2, 7, 1.5], [2422, 80, 7, 2.56], [336, 15, 7, 1.41], [6630, 3, 7, 3.46], [147, 1, 7, 2.73], [416, 1, 7, 3.06], [3430, 15, 7, 1.84], [2991, 3, 7, 4.22], [3674, 2, 7, 1.0], [2805, 137, 10, 4.07], [6098, 29, 7, 2.52], [11581, 29, 7, 1.89], [247, 1, 7, 2.34], [23275, 2, 7, 0.75], [74, 1, 200, 5.96], [10149, 3, 868, 4.0], [2774, 2, 206, 4.75], [307, 2, 149, 3.78], [6497, 1, 38, 2.63], [12526, 2, 273, 4.56], [7004, 1, 80, 2.86], [418, 2, 142, 3.42], [411, 2, 109, 2.8], [11089, 1, 174, 2.54], [60, 3, 815, 3.89], [13928, 1, 49, 2.65], [413, 1, 85, 4.84], [2057, 3, 474, 3.89], [11844, 2, 187, 2.76], [7036, 1, 128, 3.52], [3893, 1, 123, 5.59], [13260, 29, 73, 3.07], [20252, 2, 93, 2.82], [2050, 3, 474, 3.89], [14037, 3, 116, 1.86], [6097, 80, 68, 5.36], [6952, 1, 190, 3.88], [3891, 1, 123, 6.0], [9784, 1, 72, 4.15], [94, 4, 116, 5.95], [7707, 2, 177, 3.17], [159, 3, 712, 3.2], [414, 1, 85, 4.84], [1243, 2, 100, 2.67], [1490, 1, 50, 3.74], [3889, 1, 123, 5.59], [11490, 1, 109, 2.74], [7708, 2, 177, 4.06], [22317, 3, 322, 2.62], [21793, 1, 243, 5.34], [1413, 16, 50, 2.55], [5208, 3, 560, 3.7], [345, 3, 298, 4.01], [7703, 2, 177, 4.06], [565, 2, 177, 2.68], [229, 1, 82, 5.63], [11491, 2, 142, 3.38], [1492, 1, 37, 2.8], [3495, 3, 968, 3.34], [6098, 80, 74, 4.31], [20256, 2, 94, 2.59], [149, 2, 88, 4.51], [410, 1, 53, 2.14], [11504, 2, 142, 3.28], [2422, 80, 187, 4.34], [336, 15, 114, 3.19], [6630, 3, 94, 5.24], [147, 1, 88, 4.51], [416, 1, 85, 4.84], [3430, 15, 69, 3.63], [2991, 3, 161, 6.0], [3674, 2, 261, 2.78], [2805, 137, 183, 5.85], [6098, 29, 37, 4.31], [11581, 29, 60, 3.67], [247, 1, 87, 4.12], [23275, 2, 36, 2.18]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.86], [326, 2, 11, 1.63], [205, 2, 7, 0.71], [6935, 2, 18, 3.14], [143, 2, 7, 1.12], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 3.81], [2778, 2, 9, 1.07], [146, 2, 7, 1.0], [206, 2, 7, 0.68], [20252, 2, 7, 0.92], [6936, 2, 10, 2.57], [1777, 1, 7, 2.52], [151, 1, 7, 0.71], [8648, 2, 7, 3.54], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [2050, 3, 9, 1.53], [5151, 2, 7, 4.74], [141, 2, 7, 2.12], [248, 1, 7, 0.71], [7886, 4, 7, 0.87], [88, 10, 21, 2.86], [74, 1, 7, 3.53], [2991, 3, 7, 4.18], [2057, 3, 7, 0.87], [1446, 2, 7, 0.93], [7004, 1, 7, 0.71], [362, 2, 7, 1.73], [1007, 2, 12, 0.69], [1492, 1, 7, 2.35], [147, 1, 7, 2.5], [76, 2, 7, 2.29], [8649, 2, 9, 4.7], [3889, 1, 7, 0.8], [7005, 1, 7, 0.73], [345, 3, 7, 1.1], [11234, 2, 11, 0.93], [1429, 2, 7, 1.07], [10, 2, 9, 3.33], [307, 2, 7, 2.08], [57, 1, 7, 1.28], [12870, 1, 7, 4.49], [5081, 2, 7, 1.33], [10825, 21, 13, 2.3], [7084, 3, 7, 2.95], [10149, 3, 21, 1.75], [7036, 1, 7, 2.24], [3478, 2, 7, 2.63], [1006, 2, 7, 1.59], [1504, 2, 9, 1.0], [3891, 1, 7, 2.13], [94, 4, 7, 2.6], [411, 2, 7, 0.71], [9827, 3, 7, 1.38], [167, 3, 7, 2.27], [33, 1, 9, 2.05], [432, 3, 9, 1.15], [8677, 3, 9, 1.26], [3893, 1, 7, 2.13], [11681, 2, 11, 4.55], [23, 1, 7, 1.29], [148, 1, 7, 4.65], [96, 11, 24, 1.07], [1490, 1, 9, 0.67], [22247, 2, 11, 2.32], [1124, 2, 11, 0.93], [11737, 2, 7, 1.03], [9760, 29, 9, 1.04], [12225, 1, 7, 1.7], [201, 3, 7, 1.1], [5812, 3, 8, 1.9], [1243, 2, 7, 1.53], [6158, 2, 8, 0.86], [8853, 2, 11, 3.19], [10574, 3, 9, 2.64], [346, 1, 7, 0.83], [412, 1, 7, 2.19], [5005, 1, 7, 0.85], [20927, 1, 7, 1.39], [5208, 3, 14, 0.83], [214, 3, 15, 0.65], [8651, 2, 7, 1.99], [229, 1, 7, 4.95], [8939, 2, 7, 0.73], [1767, 25, 7, 1.59], [25, 1, 7, 1.46], [159, 3, 11, 1.71], [45, 2, 7, 2.47], [11490, 1, 7, 0.83], [413, 1, 7, 2.06], [149, 2, 7, 2.62], [346, 3, 7, 0.83], [21269, 3, 7, 5.0], [3495, 3, 18, 2.26], [95, 3, 17, 3.57], [140, 2, 7, 2.1], [5946, 1, 7, 1.98], [1766, 25, 7, 1.52], [490, 1, 7, 1.02], [1413, 15, 9, 0.8], [1126, 2, 7, 1.42], [9372, 1, 7, 4.49], [8898, 3, 7, 2.78], [506, 1, 7, 4.76], [997, 2, 7, 2.04], [2775, 2, 7, 1.57], [11489, 1, 7, 1.49], [3670, 2, 7, 4.16], [9690, 1, 7, 1.25], [1070, 7, 15, 0.81], [9691, 1, 7, 2.44], [107, 2, 7, 2.65], [34, 1, 7, 1.08], [974, 3, 7, 2.14], [20498, 1, 7, 1.89], [418, 2, 7, 0.75], [14037, 3, 9, 0.8], [14017, 3, 7, 2.0], [823, 1, 7, 2.14], [142, 2, 7, 2.12], [5209, 3, 9, 0.83], [972, 3, 8, 1.64], [417, 2, 7, 2.12], [1091, 1, 7, 1.18], [9784, 1, 7, 1.61], [20498, 3, 8, 1.9], [148, 1, 64, 6.0], [96, 11, 614, 2.87], [1490, 1, 37, 2.48], [22247, 2, 204, 4.02], [1124, 2, 135, 3.24], [11737, 2, 42, 2.84], [9760, 29, 52, 3.16], [12225, 1, 71, 2.57], [201, 3, 219, 2.85], [5812, 3, 426, 3.2], [1243, 2, 71, 2.83], [6158, 2, 189, 2.66], [8853, 2, 206, 4.86], [10574, 3, 361, 4.41], [346, 1, 136, 2.14], [412, 1, 61, 3.86], [5005, 1, 114, 2.15], [20927, 1, 34, 2.7], [5208, 3, 408, 3.05], [214, 3, 578, 1.94], [8651, 2, 161, 3.8], [229, 1, 35, 5.82], [8939, 2, 83, 1.6], [1767, 25, 125, 2.9], [25, 1, 81, 3.21], [159, 3, 505, 4.02], [45, 2, 79, 3.78], [11490, 1, 80, 2.61], [413, 1, 63, 3.37], [149, 2, 64, 4.43], [346, 3, 543, 2.13], [21269, 3, 250, 6.0], [3495, 3, 695, 4.07], [95, 3, 815, 4.86], [140, 2, 58, 3.26], [5946, 1, 90, 3.28], [1766, 25, 136, 2.83], [490, 1, 43, 2.79], [1413, 15, 73, 2.72], [1126, 2, 165, 2.73], [9372, 1, 193, 5.8], [8898, 3, 213, 4.58], [506, 1, 74, 6.0], [997, 2, 204, 3.35], [2775, 2, 114, 2.87], [11489, 1, 80, 3.3], [3670, 2, 170, 5.47], [9690, 1, 64, 2.55], [1070, 7, 428, 2.63], [9691, 1, 55, 3.74], [107, 2, 35, 3.96], [34, 1, 95, 2.38], [974, 3, 108, 3.45], [20498, 1, 71, 3.61], [418, 2, 121, 2.05], [14037, 3, 125, 2.18], [14017, 3, 142, 3.71], [823, 1, 29, 3.44], [142, 2, 132, 3.42], [5209, 3, 408, 2.78], [972, 3, 428, 2.95], [417, 2, 132, 3.42], [1091, 1, 41, 2.48], [9784, 1, 52, 2.92], [20498, 3, 500, 3.2]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [6935, 2, 19, 3.32], [2049, 3, 13, 1.72], [326, 2, 8, 1.03], [141, 2, 7, 0.75], [205, 2, 7, 1.12], [589, 2, 10, 0.81], [151, 1, 7, 0.89], [362, 2, 9, 0.99], [1776, 1, 7, 2.23], [146, 2, 7, 2.08], [145, 2, 7, 0.85], [206, 2, 7, 0.69], [2328, 2, 7, 1.51], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [8915, 2, 11, 0.67], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [8650, 2, 7, 3.66], [20252, 2, 7, 0.91], [1777, 1, 7, 2.22], [5151, 2, 7, 2.02], [1007, 2, 12, 0.69], [248, 1, 7, 0.69], [2778, 2, 7, 1.06], [88, 10, 14, 2.25], [2050, 3, 7, 1.39], [76, 2, 9, 2.75], [10149, 3, 25, 3.26], [8649, 2, 7, 4.79], [10, 2, 11, 2.55], [8677, 3, 8, 3.58], [2054, 3, 7, 2.34], [412, 1, 7, 2.17], [13028, 3, 7, 0.92], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 1.38], [11681, 2, 10, 4.88], [10825, 21, 14, 0.7], [1446, 2, 7, 2.06], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.86], [1429, 2, 7, 1.48], [147, 1, 7, 2.73], [3495, 3, 26, 2.49], [1006, 2, 9, 1.46], [167, 3, 9, 3.34], [1492, 1, 7, 0.7], [7036, 1, 7, 2.98], [140, 2, 7, 1.36], [7005, 1, 9, 0.99], [9827, 3, 7, 1.38], [8676, 2, 7, 2.54], [45, 2, 9, 3.67], [1124, 2, 11, 1.24], [168, 3, 9, 1.09], [2049, 1, 7, 1.79], [5812, 3, 8, 2.69], [94, 4, 7, 2.54], [57, 1, 7, 0.73], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [148, 1, 7, 2.34], [335, 3, 18, 4.35], [8651, 2, 7, 2.74], [2336, 3, 8, 1.74], [415, 1, 7, 2.37], [214, 3, 15, 0.65], [8939, 2, 7, 0.73], [6097, 29, 7, 4.54], [416, 1, 7, 2.37], [8853, 2, 14, 3.05], [6097, 80, 7, 4.54], [346, 1, 7, 0.94], [490, 1, 7, 1.94], [20256, 2, 7, 0.64], [1490, 1, 7, 0.87], [20927, 1, 7, 1.27], [79, 1, 7, 0.73], [95, 3, 21, 0.96], [6098, 29, 7, 4.85], [6098, 80, 7, 4.85], [9069, 1, 7, 2.51], [14017, 3, 7, 1.29], [414, 1, 7, 1.64], [22316, 3, 7, 0.94], [346, 3, 8, 0.69], [1070, 7, 13, 0.73], [8898, 3, 7, 3.98], [1126, 2, 7, 0.96], [126, 2, 7, 1.87], [13034, 3, 8, 3.28], [149, 2, 7, 2.73], [997, 2, 7, 2.43], [9760, 29, 7, 1.04], [20498, 1, 7, 3.84], [20255, 2, 7, 1.22], [5086, 1, 9, 1.64], [9784, 1, 7, 1.42], [5513, 2, 7, 1.89], [336, 15, 7, 1.21], [8945, 3, 8, 2.0], [22317, 3, 8, 1.35], [12924, 1, 7, 1.54], [7567, 3, 7, 3.89], [159, 3, 10, 1.08], [11085, 2, 7, 1.33], [11739, 2, 7, 1.6], [5811, 3, 7, 2.66], [1413, 15, 7, 0.83], [974, 3, 7, 1.69], [192, 3, 22, 4.76], [229, 1, 7, 4.95], [5813, 3, 7, 2.94], [972, 3, 7, 1.56], [506, 1, 7, 2.34], [8557, 3, 7, 1.53], [1622, 1, 10, 0.74], [9082, 3, 21, 1.19], [9691, 1, 7, 2.81], [20498, 3, 8, 1.94], [8943, 3, 7, 3.68], [3049, 3, 7, 3.81], [524, 1, 7, 2.71], [14018, 3, 7, 0.96], [4076, 3, 7, 5.0], [2775, 2, 9, 0.88], [470, 1, 7, 0.98], [20486, 3, 8, 3.37], [335, 3, 1175, 5.52], [8651, 2, 176, 3.9], [2336, 3, 535, 2.91], [415, 1, 68, 3.53], [214, 3, 625, 1.8], [8939, 2, 134, 1.76], [6097, 29, 27, 5.7], [416, 1, 68, 3.76], [8853, 2, 223, 4.7], [6097, 80, 53, 5.7], [346, 1, 146, 2.1], [490, 1, 41, 2.97], [20256, 2, 74, 2.29], [1490, 1, 47, 2.03], [20927, 1, 73, 2.43], [79, 1, 44, 1.89], [95, 3, 884, 2.58], [6098, 29, 29, 6.0], [6098, 80, 58, 6.0], [9069, 1, 96, 3.67], [14017, 3, 154, 2.89], [414, 1, 68, 2.8], [22316, 3, 291, 2.1], [346, 3, 585, 1.86], [1070, 7, 467, 2.4], [8898, 3, 221, 5.63], [1126, 2, 180, 2.57], [126, 2, 72, 3.03], [13034, 3, 459, 4.44], [149, 2, 80, 3.89], [997, 2, 219, 3.59], [9760, 29, 66, 2.2], [20498, 1, 77, 5.0], [20255, 2, 74, 2.38], [5086, 1, 144, 3.79], [9784, 1, 57, 3.02], [5513, 2, 59, 3.05], [336, 15, 104, 2.37], [8945, 3, 541, 3.16], [22317, 3, 248, 2.52], [12924, 1, 42, 2.7], [7567, 3, 55, 5.05], [159, 3, 554, 2.75], [11085, 2, 431, 2.5], [11739, 2, 53, 2.76], [5811, 3, 459, 3.82], [1413, 15, 79, 2.48], [974, 3, 136, 2.85], [192, 3, 1287, 5.9], [229, 1, 38, 5.72], [5813, 3, 459, 4.1], [972, 3, 546, 2.71], [506, 1, 68, 3.99], [8557, 3, 159, 3.18], [1622, 1, 53, 1.04], [9082, 3, 1955, 2.89], [9691, 1, 59, 4.46], [20498, 3, 459, 3.57], [8943, 3, 307, 5.33], [3049, 3, 108, 5.27], [524, 1, 66, 3.87], [14018, 3, 154, 2.57], [4076, 3, 155, 6.0], [2775, 2, 123, 2.71], [470, 1, 16, 2.63], [20486, 3, 465, 4.53]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.29], [6935, 2, 10, 2.82], [326, 2, 7, 1.79], [130, 1, 7, 1.71], [8648, 2, 7, 1.72], [2327, 2, 7, 0.94], [144, 2, 7, 0.96], [593, 2, 9, 1.44], [205, 2, 7, 1.35], [143, 2, 7, 1.12], [8915, 2, 8, 3.41], [2328, 2, 7, 1.73], [141, 2, 7, 1.29], [11681, 2, 9, 3.27], [305, 2, 7, 1.08], [6936, 2, 9, 3.71], [8650, 2, 7, 3.31], [151, 1, 7, 1.25], [5493, 2, 7, 2.69], [2778, 2, 7, 1.12], [206, 2, 7, 0.81], [2049, 3, 14, 1.75], [146, 2, 7, 1.21], [88, 10, 15, 0.89], [7036, 1, 7, 2.72], [9507, 3, 7, 0.69], [8853, 2, 7, 3.67], [8649, 2, 7, 2.21], [1446, 2, 7, 2.14], [5491, 2, 7, 3.15], [362, 2, 7, 2.14], [990, 2, 7, 0.69], [2055, 3, 7, 3.44], [1006, 2, 7, 1.37], [75, 2, 7, 3.52], [3893, 1, 7, 1.38], [11737, 2, 7, 1.41], [417, 2, 7, 1.1], [616, 2, 7, 2.78], [2050, 3, 7, 3.31], [3840, 1, 7, 0.75], [1007, 2, 7, 1.4], [523, 2, 7, 0.73], [12870, 1, 7, 3.71], [159, 3, 8, 0.66], [20927, 1, 7, 1.77], [1504, 2, 7, 0.9], [2057, 3, 7, 3.31], [3, 2, 7, 0.81], [13280, 1, 7, 4.47], [10574, 3, 8, 2.4], [142, 2, 7, 0.87], [997, 2, 7, 3.03], [9760, 29, 7, 0.87], [10, 2, 7, 0.69], [624, 2, 7, 3.72], [2054, 3, 7, 3.66], [21798, 1, 7, 0.9], [2775, 2, 7, 1.12], [140, 2, 7, 1.04], [21793, 1, 7, 2.85], [8939, 2, 7, 0.83], [1429, 2, 7, 1.6], [996, 2, 7, 3.03], [11739, 2, 7, 1.17], [6158, 2, 7, 1.57], [998, 2, 7, 3.03], [12269, 2, 7, 1.42], [98, 11, 16, 1.42], [1126, 2, 7, 1.47], [84, 2, 7, 0.8], [9372, 1, 7, 3.4], [10388, 2, 7, 2.13], [972, 3, 7, 2.91], [411, 2, 7, 1.0], [7885, 4, 7, 0.85], [8898, 3, 7, 5.0], [413, 1, 7, 1.71], [2776, 2, 7, 1.94], [12343, 1, 7, 3.21], [9491, 21, 16, 1.93], [1492, 1, 7, 0.87], [10386, 2, 7, 1.91], [995, 2, 7, 3.03], [147, 1, 7, 0.94], [13928, 1, 7, 0.77], [22316, 3, 7, 0.98], [418, 2, 7, 0.94], [308, 1, 7, 3.28], [22247, 2, 7, 2.27], [9784, 1, 7, 1.06], [8677, 3, 7, 3.38], [336, 15, 7, 2.22], [11490, 1, 7, 1.14], [7567, 3, 7, 2.96], [307, 2, 7, 1.52], [229, 1, 7, 2.0], [11953, 1, 7, 0.83], [10631, 2, 7, 1.93], [33, 1, 7, 3.27], [11770, 1, 7, 0.87], [7886, 4, 7, 0.92], [22317, 3, 7, 0.98], [414, 1, 7, 1.27], [35, 1, 7, 1.7], [7573, 1, 11, 3.51], [439, 1, 7, 2.21], [10780, 10, 7, 3.01], [10407, 10, 10, 3.28], [10410, 10, 10, 3.2], [415, 1, 7, 1.27], [13286, 1, 7, 1.81], [335, 3, 15, 3.35], [9691, 1, 7, 1.0], [10387, 2, 7, 1.83], [972, 1, 7, 2.91], [6497, 1, 7, 0.92], [10149, 3, 21, 1.48], [74, 1, 7, 2.29], [11767, 1, 7, 1.1], [3478, 2, 7, 2.25], [12271, 2, 7, 1.39], [9690, 1, 7, 1.46], [8897, 3, 7, 5.0], [9971, 2, 7, 2.16], [2497, 2, 7, 1.31], [2331, 1, 7, 3.73], [345, 3, 7, 0.98], [9082, 3, 29, 0.94], [11769, 1, 7, 1.93], [4076, 3, 7, 2.93], [20682, 1, 7, 2.56], [3048, 3, 7, 1.77], [98, 11, 433, 2.64], [1126, 2, 198, 2.91], [84, 2, 58, 2.25], [9372, 1, 196, 4.85], [10388, 2, 186, 3.58], [972, 3, 512, 4.36], [411, 2, 94, 2.45], [8898, 3, 242, 6.0], [413, 1, 74, 3.16], [2776, 2, 136, 3.39], [12343, 1, 544, 4.66], [9491, 21, 1818, 3.36], [1492, 1, 32, 2.32], [10386, 2, 186, 3.36], [995, 2, 206, 4.48], [147, 1, 79, 2.39], [13928, 1, 42, 2.22], [22316, 3, 274, 2.43], [418, 2, 123, 2.39], [308, 1, 139, 4.73], [22247, 2, 245, 3.72], [9784, 1, 63, 2.51], [8677, 3, 256, 4.82], [336, 15, 96, 3.67], [11490, 1, 94, 2.59], [7567, 3, 60, 4.41], [307, 2, 129, 2.96], [229, 1, 71, 3.45], [11953, 1, 175, 2.28], [10631, 2, 183, 3.38], [33, 1, 58, 4.48], [11770, 1, 190, 2.32], [7886, 4, 75, 2.13], [22317, 3, 274, 2.43], [414, 1, 74, 2.72], [35, 1, 96, 3.15], [7573, 1, 289, 4.95], [439, 1, 75, 3.66], [10780, 10, 319, 4.45], [10407, 10, 1018, 4.72], [10410, 10, 1018, 4.64], [415, 1, 74, 2.72], [13286, 1, 274, 3.26], [335, 3, 1107, 4.78], [9691, 1, 66, 2.45], [10387, 2, 186, 3.28], [972, 1, 85, 4.36], [6497, 1, 33, 2.37], [10149, 3, 754, 2.93], [74, 1, 177, 3.74], [11767, 1, 140, 2.55], [3478, 2, 65, 3.7], [12271, 2, 55, 2.84], [9690, 1, 65, 2.91], [8897, 3, 242, 6.0], [9971, 2, 236, 3.61], [2497, 2, 176, 2.76], [2331, 1, 100, 5.17], [345, 3, 257, 2.42], [9082, 3, 2166, 2.38], [11769, 1, 140, 3.37], [4076, 3, 172, 4.38], [20682, 1, 530, 4.0], [3048, 3, 234, 3.22]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.88], [361, 2, 9, 1.17], [6935, 2, 23, 5.0], [12721, 2, 14, 3.73], [11737, 2, 7, 1.27], [206, 2, 9, 0.77], [2049, 3, 14, 1.25], [8676, 2, 7, 1.16], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 1.38], [523, 2, 7, 1.27], [22247, 2, 7, 1.93], [8650, 2, 7, 3.31], [142, 2, 7, 1.1], [8648, 2, 7, 3.31], [2328, 2, 7, 1.85], [2776, 2, 7, 0.88], [2327, 2, 7, 1.82], [616, 2, 7, 2.22], [11739, 2, 7, 1.27], [8853, 2, 7, 3.53], [11837, 2, 7, 0.87], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 1.67], [146, 2, 7, 1.08], [412, 1, 7, 2.46], [11835, 2, 7, 0.94], [8674, 2, 7, 2.75], [583, 2, 7, 2.4], [6497, 1, 7, 0.85], [2805, 137, 11, 3.27], [145, 2, 7, 2.66], [10574, 3, 10, 2.84], [418, 2, 7, 0.89], [326, 2, 7, 1.94], [144, 2, 7, 2.63], [6097, 80, 7, 4.06], [11738, 2, 7, 1.27], [9784, 1, 7, 2.07], [11836, 2, 7, 1.04], [10149, 3, 26, 1.2], [413, 1, 7, 2.23], [6097, 29, 7, 3.58], [2057, 3, 6, 0.65], [75, 2, 7, 2.38], [11234, 2, 8, 1.39], [12344, 1, 7, 1.98], [20252, 2, 7, 0.9], [1413, 15, 7, 0.73], [11504, 2, 7, 1.08], [6496, 1, 7, 1.41], [12269, 2, 7, 0.83], [8915, 2, 7, 0.75], [414, 1, 7, 2.23], [1243, 2, 7, 0.81], [1492, 1, 7, 1.02], [6098, 80, 7, 2.52], [2774, 2, 9, 2.61], [22316, 3, 7, 0.89], [247, 1, 7, 3.33], [944, 15, 7, 0.67], [1490, 1, 7, 0.69], [6098, 29, 7, 2.52], [9786, 1, 7, 2.7], [416, 1, 7, 2.23], [3934, 5, 10, 0.86], [2049, 1, 7, 0.79], [201, 3, 7, 2.66], [2859, 15, 7, 1.37], [6158, 2, 9, 2.2], [20555, 2, 7, 1.27], [3670, 2, 9, 3.61], [3478, 2, 7, 2.16], [11489, 1, 7, 1.94], [2050, 3, 6, 0.65], [9785, 1, 7, 2.91], [7084, 3, 7, 4.74], [12526, 2, 7, 2.78], [9342, 2, 8, 0.67], [8599, 1, 7, 1.94], [3430, 15, 7, 0.69], [1703, 2, 7, 0.89], [4253, 1, 7, 0.98], [3982, 3, 20, 0.67], [186, 3, 12, 0.91], [8938, 2, 7, 1.12], [107, 2, 7, 2.39], [1413, 16, 7, 0.81], [11887, 2, 8, 0.69], [229, 1, 7, 2.94], [11885, 2, 7, 0.75], [11490, 1, 7, 0.98], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [1050, 2, 7, 0.69], [415, 1, 7, 2.23], [94, 4, 7, 4.03], [2438, 2, 8, 2.19], [107, 7, 8, 2.36], [436, 2, 7, 0.98], [947, 15, 7, 1.44], [5812, 3, 7, 3.84], [5939, 3, 7, 0.96], [2821, 3, 13, 0.82], [11769, 1, 7, 0.92], [11767, 1, 7, 0.92], [3673, 2, 7, 4.0], [11671, 1, 7, 0.81], [140, 2, 7, 1.64], [11844, 2, 7, 1.16], [5813, 3, 8, 1.8], [11160, 1, 7, 3.67], [9358, 1, 7, 0.85], [3495, 3, 17, 1.57], [11771, 1, 7, 3.17], [7036, 1, 7, 0.87], [12764, 2, 8, 0.8], [5811, 3, 8, 4.0], [409, 1, 7, 1.0], [23920, 2, 7, 0.79], [410, 1, 7, 2.83], [1049, 2, 7, 0.69], [11954, 1, 7, 0.81], [105, 3, 7, 3.93], [9690, 1, 7, 1.29], [11180, 1, 7, 0.75], [2108, 3, 8, 1.43], [1490, 1, 51, 2.47], [6098, 29, 37, 4.31], [9786, 1, 60, 4.41], [416, 1, 86, 4.01], [3934, 5, 496, 3.22], [2049, 1, 15, 2.39], [201, 3, 300, 4.45], [2859, 15, 59, 3.59], [6158, 2, 260, 3.98], [20555, 2, 57, 3.06], [3670, 2, 237, 5.4], [3478, 2, 75, 3.94], [11489, 1, 36, 3.01], [2050, 3, 404, 2.44], [9785, 1, 36, 4.37], [12526, 2, 273, 4.56], [9342, 2, 157, 1.74], [8599, 1, 146, 3.72], [3430, 15, 24, 1.76], [1703, 2, 166, 2.67], [4253, 1, 172, 2.77], [3982, 3, 820, 2.44], [186, 3, 671, 2.68], [8938, 2, 193, 2.9], [107, 2, 48, 4.17], [1413, 16, 50, 2.59], [11887, 2, 98, 2.12], [229, 1, 81, 4.72], [11885, 2, 98, 2.18], [11490, 1, 110, 2.76], [11811, 1, 453, 3.71], [4232, 80, 154, 5.02], [415, 1, 86, 4.01], [94, 4, 119, 5.81], [2438, 2, 645, 3.98], [107, 7, 241, 4.15], [436, 2, 108, 2.76], [947, 15, 41, 3.22], [5812, 3, 591, 5.62], [5939, 3, 267, 2.74], [2821, 3, 1342, 2.59], [11769, 1, 164, 2.7], [11767, 1, 164, 2.7], [3673, 2, 237, 5.78], [11671, 1, 313, 2.59], [140, 2, 91, 3.42], [11844, 2, 187, 2.76], [5813, 3, 591, 3.58], [11160, 1, 492, 5.45], [9358, 1, 59, 2.63], [3495, 3, 968, 3.34], [11771, 1, 214, 4.95], [7036, 1, 128, 2.65], [12764, 2, 762, 2.58], [5811, 3, 492, 5.72], [409, 1, 55, 2.78], [23920, 2, 107, 2.57], [410, 1, 35, 3.9], [11954, 1, 204, 2.59], [105, 3, 80, 5.0], [9690, 1, 76, 3.07], [11180, 1, 89, 2.53], [2108, 3, 232, 3.21]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.46], [305, 2, 7, 1.32], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [130, 1, 7, 1.86], [589, 2, 10, 0.87], [144, 2, 7, 1.49], [8915, 2, 8, 3.41], [143, 2, 7, 0.85], [2328, 2, 7, 1.46], [6936, 2, 7, 3.27], [8648, 2, 7, 3.58], [2775, 2, 9, 0.8], [205, 2, 7, 0.74], [326, 2, 9, 2.24], [8650, 2, 7, 3.91], [593, 2, 11, 0.97], [145, 2, 7, 1.93], [146, 2, 7, 1.1], [3840, 1, 9, 1.09], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [616, 2, 9, 1.83], [88, 10, 16, 2.59], [615, 2, 7, 3.68], [141, 2, 7, 0.72], [7004, 1, 9, 4.31], [151, 1, 7, 1.81], [1124, 2, 9, 1.09], [11681, 2, 11, 4.38], [1446, 2, 7, 1.32], [206, 2, 7, 0.74], [9760, 29, 7, 1.29], [8853, 2, 7, 3.35], [5491, 2, 7, 1.52], [1007, 2, 7, 1.35], [362, 2, 7, 1.0], [1504, 2, 7, 1.19], [2912, 1, 9, 1.91], [2057, 3, 7, 0.89], [8938, 2, 7, 0.99], [9372, 1, 7, 3.2], [3893, 1, 7, 0.71], [434, 2, 7, 1.82], [8649, 2, 7, 4.79], [12870, 1, 7, 3.23], [10993, 2, 7, 1.6], [624, 2, 7, 2.44], [2050, 3, 7, 0.89], [2054, 3, 9, 0.81], [5165, 1, 7, 2.5], [1429, 2, 9, 1.08], [3889, 1, 7, 1.38], [378, 2, 9, 5.0], [7084, 3, 7, 2.06], [2991, 3, 7, 3.64], [10, 2, 7, 0.89], [140, 2, 7, 3.31], [3891, 1, 7, 0.76], [7886, 4, 7, 1.3], [11737, 2, 7, 1.0], [1006, 2, 7, 2.02], [10574, 3, 11, 3.29], [7573, 1, 16, 3.95], [5208, 3, 9, 1.28], [10149, 3, 21, 2.58], [1622, 1, 9, 1.11], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.64], [5165, 2, 10, 3.45], [11234, 2, 7, 2.8], [997, 2, 7, 2.43], [12721, 2, 7, 3.54], [11685, 2, 11, 4.43], [1886, 2, 9, 0.86], [22247, 2, 7, 2.74], [147, 1, 7, 3.5], [229, 1, 7, 1.91], [998, 2, 7, 1.56], [20252, 2, 7, 0.9], [94, 4, 7, 2.73], [972, 3, 10, 1.52], [9491, 21, 26, 0.95], [2912, 2, 12, 3.04], [35, 1, 7, 2.48], [439, 1, 7, 2.04], [76, 2, 7, 2.12], [413, 1, 7, 2.66], [5076, 1, 7, 1.87], [13928, 1, 7, 1.35], [83, 2, 7, 0.82], [8104, 1, 7, 1.66], [1414, 15, 7, 0.85], [5209, 3, 7, 2.28], [33, 1, 7, 1.79], [148, 1, 9, 4.53], [8676, 2, 7, 3.15], [418, 2, 7, 1.65], [11952, 1, 7, 0.81], [412, 1, 7, 0.85], [7887, 4, 7, 1.87], [8898, 3, 7, 1.93], [12212, 29, 7, 0.9], [2774, 2, 7, 1.06], [3495, 3, 18, 1.61], [38, 1, 7, 2.18], [20256, 2, 7, 1.02], [84, 2, 7, 2.15], [11770, 1, 7, 2.8], [34, 1, 7, 2.06], [415, 1, 7, 1.98], [10407, 10, 10, 3.08], [632, 11, 21, 0.79], [3048, 3, 7, 3.77], [9784, 1, 7, 1.0], [11772, 1, 7, 0.84], [126, 2, 7, 2.07], [13928, 2, 7, 1.37], [995, 2, 7, 3.93], [411, 2, 7, 0.89], [9690, 1, 7, 0.71], [9691, 1, 7, 0.79], [8939, 2, 7, 0.89], [39, 1, 7, 2.12], [11953, 1, 7, 1.0], [12351, 1, 7, 1.58], [5584, 3, 7, 5.0], [7567, 3, 7, 3.43], [11954, 1, 7, 0.73], [10410, 10, 15, 3.16], [74, 1, 7, 3.33], [5165, 2, 127, 5.21], [11234, 2, 60, 4.44], [997, 2, 198, 4.46], [12721, 2, 275, 5.17], [11685, 2, 221, 6.0], [1886, 2, 130, 3.17], [22247, 2, 275, 4.37], [147, 1, 74, 5.13], [229, 1, 70, 3.54], [998, 2, 198, 3.64], [20252, 2, 92, 2.54], [94, 4, 100, 4.36], [972, 3, 493, 3.68], [9491, 21, 1763, 3.05], [2912, 2, 323, 4.66], [35, 1, 92, 4.11], [439, 1, 73, 3.67], [76, 2, 91, 3.75], [413, 1, 72, 4.29], [5076, 1, 108, 3.5], [13928, 1, 40, 3.42], [83, 2, 47, 2.39], [8104, 1, 201, 3.29], [1414, 15, 98, 2.48], [33, 1, 92, 3.85], [148, 1, 74, 6.0], [8676, 2, 279, 4.78], [418, 2, 118, 3.29], [11952, 1, 196, 2.45], [412, 1, 70, 2.95], [7887, 4, 45, 3.23], [8898, 3, 243, 3.56], [12212, 29, 118, 2.53], [2774, 2, 170, 3.15], [3495, 3, 943, 3.25], [38, 1, 92, 3.81], [20256, 2, 92, 2.66], [84, 2, 33, 3.79], [11770, 1, 204, 4.43], [34, 1, 92, 3.69], [415, 1, 72, 3.61], [10407, 10, 1151, 4.72], [632, 11, 810, 2.42], [3048, 3, 223, 5.91], [9784, 1, 71, 2.63], [11772, 1, 182, 2.97], [126, 2, 88, 3.7], [13928, 2, 23, 3.0], [995, 2, 235, 5.56], [411, 2, 107, 2.52], [9690, 1, 25, 1.69], [9691, 1, 75, 2.43], [8939, 2, 159, 3.03], [39, 1, 92, 3.75], [11953, 1, 196, 2.64], [12351, 1, 525, 3.23], [5584, 3, 230, 6.0], [7567, 3, 67, 5.06], [11954, 1, 196, 2.36], [10410, 10, 1151, 4.8], [74, 1, 192, 4.97]]</t>
+    <t>[[2778, 2, 5, 0.47], [6935, 2, 7, 1.8], [6936, 2, 4, 1.58], [305, 2, 4, 1.37], [8672, 2, 5, 0.8], [615, 2, 4, 1.37], [1504, 2, 5, 0.82], [2775, 2, 4, 0.66], [145, 2, 4, 0.51], [2776, 2, 4, 1.2], [8853, 2, 4, 1.78], [12721, 2, 5, 0.72], [2327, 2, 4, 0.51], [146, 2, 4, 0.56], [143, 2, 4, 1.26], [2328, 2, 4, 0.51], [11737, 2, 4, 0.48], [11681, 2, 5, 0.47], [141, 2, 4, 0.79], [5491, 2, 4, 0.56], [2497, 2, 4, 0.51], [205, 2, 4, 0.56], [144, 2, 4, 0.5], [8650, 2, 4, 0.76], [8676, 2, 4, 1.06], [5493, 2, 4, 0.83], [8673, 2, 4, 0.74], [417, 2, 4, 0.79], [308, 1, 5, 0.58], [3670, 2, 4, 3.2], [8648, 2, 4, 0.76], [589, 2, 4, 0.4], [3, 2, 4, 0.41], [206, 2, 4, 0.56], [6097, 80, 4, 0.46], [22247, 2, 4, 1.21], [8674, 2, 4, 1.22], [11836, 2, 4, 0.5], [6497, 1, 4, 0.44], [12343, 1, 4, 0.52], [12349, 1, 4, 2.08], [624, 2, 4, 1.02], [2424, 29, 4, 0.43], [593, 2, 5, 0.5], [523, 2, 4, 0.66], [12344, 1, 4, 0.83], [6097, 29, 4, 0.46], [12720, 2, 4, 0.72], [6098, 80, 4, 1.16], [12345, 1, 4, 2.08], [11739, 2, 4, 0.48], [2424, 80, 4, 0.43], [944, 15, 4, 0.35], [88, 10, 8, 0.95], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [60, 3, 5, 0.58], [326, 2, 4, 0.78], [6494, 1, 4, 0.46], [142, 2, 4, 0.79], [1492, 1, 4, 0.53], [1413, 15, 4, 0.36], [411, 2, 4, 0.48], [1050, 2, 4, 0.38], [2422, 80, 4, 1.24], [947, 15, 4, 0.49], [6496, 1, 4, 0.51], [6098, 29, 4, 1.16], [378, 2, 4, 2.29], [10149, 3, 13, 1.12], [12346, 1, 4, 2.08], [2422, 29, 4, 1.24], [7704, 2, 4, 1.5], [151, 1, 4, 0.57], [1243, 2, 4, 0.77], [22316, 3, 4, 0.46], [11738, 2, 4, 0.48], [13264, 29, 4, 0.52], [345, 3, 4, 1.16], [1490, 1, 4, 0.45], [229, 1, 4, 2.0], [13258, 29, 4, 1.22], [1049, 2, 4, 0.38], [20252, 2, 4, 1.32], [12269, 2, 4, 0.47], [964, 15, 4, 0.4], [2331, 1, 4, 0.55], [10407, 10, 6, 1.64], [201, 3, 4, 1.26], [7004, 1, 4, 0.81], [2821, 3, 8, 0.45], [5208, 3, 5, 0.54], [307, 2, 4, 1.04], [1163, 3, 4, 1.45], [186, 3, 7, 0.48], [149, 2, 4, 0.37], [432, 3, 4, 0.9], [13259, 29, 4, 1.13], [957, 2, 4, 0.55], [7705, 2, 4, 1.5], [418, 2, 4, 0.51], [7706, 2, 4, 1.5], [12229, 2, 4, 0.45], [13928, 1, 4, 0.43], [20255, 2, 4, 0.54], [11687, 2, 4, 0.5], [10406, 10, 7, 1.21], [11844, 2, 4, 0.47], [2421, 80, 4, 0.36], [3478, 2, 4, 0.89], [8938, 2, 4, 0.53], [1414, 15, 4, 0.53], [9784, 1, 4, 0.91], [7036, 1, 4, 0.43], [410, 1, 4, 0.69], [12870, 1, 4, 1.28], [10408, 10, 6, 1.32], [5490, 2, 4, 0.49], [10410, 10, 6, 1.56], [11402, 1, 4, 0.46], [19687, 1, 4, 1.21], [11490, 1, 4, 0.57], [107, 7, 5, 1.14], [2703, 3, 4, 2.13], [21781, 2, 4, 0.47], [1886, 2, 4, 0.35], [956, 2, 4, 0.53], [4232, 80, 4, 1.65], [13258, 25, 4, 1.22], [11161, 1, 5, 1.78], [159, 16, 4, 0.94], [10411, 10, 6, 1.06], [9760, 29, 4, 0.85], [2778, 2, 157, 3.12], [6935, 2, 281, 6.0], [6936, 2, 281, 5.7], [305, 2, 49, 3.71], [8672, 2, 144, 4.61], [615, 2, 108, 4.42], [1504, 2, 205, 3.76], [2775, 2, 157, 3.05], [145, 2, 50, 3.73], [2776, 2, 157, 4.1], [8853, 2, 281, 5.28], [12721, 2, 285, 3.53], [2327, 2, 151, 3.61], [146, 2, 152, 2.87], [143, 2, 74, 3.85], [2328, 2, 151, 3.64], [11737, 2, 57, 3.1], [11681, 2, 277, 3.19], [141, 2, 104, 3.98], [5491, 2, 109, 2.86], [2497, 2, 205, 2.76], [205, 2, 55, 2.5], [144, 2, 50, 3.7], [8650, 2, 225, 3.69], [8676, 2, 289, 3.82], [5493, 2, 109, 3.44], [8673, 2, 290, 3.21], [417, 2, 78, 3.8], [308, 1, 175, 3.18], [3670, 2, 236, 6.0], [8648, 2, 225, 3.69], [589, 2, 52, 1.84], [3, 2, 122, 3.02], [6097, 80, 68, 3.65], [22247, 2, 285, 4.12], [8674, 2, 289, 4.13], [11836, 2, 270, 2.74], [6497, 1, 38, 2.63], [12343, 1, 615, 3.87], [12349, 1, 615, 5.79], [624, 2, 108, 3.74], [2424, 29, 34, 4.06], [593, 2, 154, 2.48], [523, 2, 156, 3.06], [12344, 1, 615, 3.87], [6097, 29, 34, 3.65], [12720, 2, 285, 3.47], [6098, 80, 74, 4.01], [12345, 1, 615, 5.79], [11739, 2, 57, 3.1], [2424, 80, 171, 4.06], [88, 10, 562, 3.89], [8915, 2, 65, 1.86], [75, 2, 144, 4.03], [60, 3, 815, 3.83], [326, 2, 31, 2.93], [6494, 1, 26, 2.31], [142, 2, 52, 3.45], [1492, 1, 37, 2.8], [1413, 15, 84, 2.4], [411, 2, 55, 2.35], [2422, 80, 187, 4.17], [947, 15, 42, 2.72], [6496, 1, 41, 2.76], [6098, 29, 37, 4.01], [378, 2, 225, 6.0], [10149, 3, 869, 4.0]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 1.46], [362, 2, 4, 0.2], [5491, 2, 4, 0.2], [130, 1, 4, 0.45], [5493, 2, 4, 0.3], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [326, 2, 4, 0.54], [11685, 2, 4, 0.7], [8672, 2, 6, 0.91], [417, 2, 4, 0.47], [6935, 2, 7, 1.81], [11681, 2, 5, 0.7], [205, 2, 4, 0.37], [8648, 2, 4, 1.08], [206, 2, 4, 0.2], [6936, 2, 4, 1.17], [8915, 2, 5, 0.2], [142, 2, 4, 0.2], [11838, 2, 5, 0.2], [2049, 3, 9, 0.39], [12721, 2, 5, 0.48], [1446, 2, 4, 0.78], [523, 2, 5, 0.66], [8676, 2, 5, 0.6], [615, 2, 4, 1.55], [11737, 2, 4, 1.08], [305, 2, 4, 1.37], [12353, 1, 4, 0.64], [413, 1, 4, 1.43], [412, 1, 4, 0.86], [411, 2, 4, 0.49], [10574, 3, 5, 1.29], [145, 2, 4, 0.51], [8675, 2, 5, 1.23], [12349, 1, 4, 0.58], [76, 2, 4, 0.37], [990, 2, 5, 0.4], [1429, 2, 4, 0.48], [2775, 2, 4, 0.43], [143, 2, 4, 1.38], [8673, 2, 4, 0.48], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.56], [151, 1, 4, 0.57], [12720, 2, 4, 0.72], [6158, 2, 5, 1.77], [2050, 3, 5, 0.35], [10149, 3, 13, 0.39], [3495, 3, 10, 0.85], [2776, 2, 4, 0.53], [12350, 1, 4, 0.53], [75, 2, 4, 1.17], [2057, 3, 5, 0.35], [1504, 2, 5, 0.59], [144, 2, 4, 0.5], [8939, 2, 4, 0.74], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 4, 0.46], [88, 10, 8, 0.95], [2859, 15, 4, 0.44], [159, 3, 5, 0.94], [418, 2, 4, 0.2], [7084, 3, 4, 1.02], [10993, 2, 4, 0.83], [12346, 1, 4, 0.51], [20252, 2, 4, 1.01], [9784, 1, 4, 0.88], [7705, 2, 4, 1.5], [2424, 29, 4, 1.0], [12526, 2, 4, 0.93], [2423, 80, 4, 1.1], [2423, 29, 4, 1.16], [11844, 2, 4, 0.47], [12351, 1, 4, 0.66], [60, 3, 6, 1.36], [414, 1, 4, 0.73], [378, 2, 4, 1.73], [12345, 1, 4, 0.56], [6494, 1, 4, 0.46], [13023, 3, 8, 1.51], [2424, 80, 4, 0.43], [11490, 1, 4, 0.46], [201, 3, 4, 1.01], [13034, 3, 5, 1.37], [12373, 1, 5, 0.45], [1519, 3, 9, 0.39], [345, 3, 4, 0.66], [11489, 1, 4, 0.39], [5208, 3, 5, 0.48], [7886, 4, 5, 0.44], [3, 2, 4, 2.9], [159, 1, 4, 0.97], [6952, 1, 4, 0.45], [20927, 1, 4, 0.69], [11954, 1, 4, 0.44], [3430, 15, 4, 0.35], [432, 3, 4, 0.9], [566, 2, 4, 0.5], [13928, 1, 4, 0.2], [11504, 2, 4, 0.52], [11811, 1, 4, 0.38], [11952, 1, 4, 0.43], [2703, 3, 4, 2.13], [114, 3, 4, 1.64], [2331, 1, 4, 0.55], [7004, 1, 4, 1.02], [5584, 3, 4, 1.55], [1492, 1, 4, 0.53], [10407, 10, 6, 1.64], [105, 3, 4, 1.64], [1490, 1, 4, 1.72], [11089, 1, 4, 0.4], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [944, 15, 4, 0.41], [12348, 1, 4, 0.66], [10410, 10, 6, 1.56], [1886, 2, 4, 0.42], [7706, 2, 4, 1.5], [308, 1, 5, 0.54], [11674, 1, 4, 0.36], [3981, 3, 8, 0.51], [3891, 1, 4, 0.94], [94, 4, 4, 1.77], [6097, 80, 4, 0.46], [11953, 1, 4, 0.48], [9082, 3, 15, 0.83], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 5.39], [362, 2, 95, 3.23], [5491, 2, 92, 3.39], [130, 1, 17, 3.43], [5493, 2, 92, 3.76], [589, 2, 51, 3.23], [2327, 2, 128, 4.11], [326, 2, 31, 2.7], [11685, 2, 277, 3.42], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 240, 6.0], [11681, 2, 277, 3.78], [205, 2, 55, 2.17], [8648, 2, 192, 4.81], [206, 2, 31, 2.61], [6936, 2, 284, 4.68], [142, 2, 133, 3.33], [11838, 2, 227, 3.3], [2049, 3, 368, 2.99], [12721, 2, 241, 3.74], [523, 2, 78, 3.51], [8676, 2, 244, 3.83], [615, 2, 108, 4.76], [11737, 2, 57, 3.86], [305, 2, 49, 3.71], [12353, 1, 632, 3.02], [413, 1, 74, 4.53], [412, 1, 71, 4.06], [411, 2, 37, 2.01], [10574, 3, 503, 4.63], [145, 2, 50, 3.73], [8675, 2, 244, 4.22], [12349, 1, 632, 2.89], [76, 2, 109, 2.89], [1429, 2, 153, 2.7], [2775, 2, 158, 2.61], [143, 2, 50, 3.73], [8673, 2, 285, 3.23], [8674, 2, 288, 3.25], [8938, 2, 191, 3.65], [11836, 2, 227, 3.14], [146, 2, 152, 2.87], [12720, 2, 285, 3.47], [10149, 3, 875, 3.26], [3495, 3, 968, 3.34], [2776, 2, 158, 2.85], [12350, 1, 632, 2.8], [75, 2, 144, 4.03], [1504, 2, 206, 3.21], [144, 2, 50, 3.7], [416, 1, 86, 3.19], [22316, 3, 319, 2.67], [88, 10, 562, 3.89], [2859, 15, 69, 2.63], [159, 3, 237, 2.92], [418, 2, 122, 2.97], [7084, 3, 129, 3.74], [12346, 1, 632, 2.76], [20252, 2, 93, 3.72], [9784, 1, 72, 3.47], [7705, 2, 177, 4.8], [2424, 29, 29, 6.0], [12526, 2, 273, 4.56], [2423, 80, 185, 3.98]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 1.63], [362, 2, 4, 0.8], [589, 2, 5, 0.2], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [130, 1, 4, 0.5], [1776, 1, 4, 0.58], [20252, 2, 4, 0.56], [205, 2, 4, 0.47], [8915, 2, 6, 0.2], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [6936, 2, 5, 1.27], [593, 2, 5, 0.2], [7886, 4, 4, 0.41], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 10, 1.33], [11681, 2, 5, 2.33], [990, 2, 4, 0.2], [8650, 2, 4, 1.15], [248, 1, 4, 0.38], [412, 1, 4, 0.91], [5151, 2, 4, 0.9], [144, 2, 4, 0.5], [2050, 3, 5, 0.66], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [10149, 3, 15, 1.32], [2991, 3, 4, 2.19], [22247, 2, 5, 1.06], [57, 1, 5, 0.2], [3478, 2, 4, 1.28], [146, 2, 4, 1.06], [7004, 1, 4, 0.47], [45, 2, 4, 1.12], [2054, 3, 4, 1.28], [143, 2, 4, 1.26], [417, 2, 4, 0.29], [413, 1, 4, 0.35], [21793, 1, 4, 1.03], [167, 3, 4, 1.09], [201, 3, 5, 0.42], [74, 1, 4, 0.84], [2055, 3, 4, 0.94], [1446, 2, 4, 0.2], [168, 3, 5, 0.75], [7084, 3, 4, 0.88], [10, 2, 4, 0.42], [11234, 2, 5, 0.2], [1429, 2, 5, 0.2], [12721, 2, 6, 0.96], [335, 3, 11, 0.39], [7036, 1, 4, 1.04], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [308, 1, 5, 2.44], [8649, 2, 4, 1.15], [13028, 3, 5, 0.5], [12870, 1, 4, 2.33], [10825, 21, 8, 0.36], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [3893, 1, 5, 0.2], [1006, 2, 4, 0.66], [145, 2, 5, 0.43], [5208, 3, 6, 0.19], [432, 3, 4, 0.41], [1504, 2, 5, 0.2], [9827, 3, 4, 0.2], [7005, 1, 4, 0.47], [1490, 1, 5, 0.2], [94, 4, 4, 0.51], [5812, 3, 5, 1.21], [13260, 29, 4, 0.46], [8853, 2, 5, 1.19], [411, 2, 4, 0.47], [416, 1, 4, 1.23], [142, 2, 4, 0.74], [8651, 2, 4, 1.15], [12353, 1, 5, 0.7], [21269, 3, 4, 1.45], [12349, 1, 4, 1.09], [33, 1, 4, 0.66], [998, 2, 4, 0.69], [5086, 1, 5, 1.11], [9069, 1, 4, 1.62], [12350, 1, 5, 0.62], [229, 1, 4, 2.07], [2878, 1, 5, 0.54], [1243, 2, 4, 0.92], [140, 2, 4, 0.47], [7567, 3, 4, 1.62], [2049, 1, 4, 1.57], [126, 2, 4, 0.97], [20927, 1, 4, 0.42], [3980, 4, 4, 1.31], [1703, 2, 4, 1.38], [35, 1, 4, 0.46], [8274, 3, 4, 1.09], [997, 2, 4, 0.6], [5209, 3, 4, 0.19], [9691, 1, 4, 1.4], [11914, 1, 4, 0.2], [5584, 3, 4, 1.01], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [856, 1, 4, 0.38], [1519, 3, 12, 0.23], [5660, 2, 4, 1.05], [5513, 2, 4, 0.46], [159, 3, 6, 0.27], [523, 2, 5, 0.74], [8898, 3, 4, 2.67], [1091, 1, 4, 0.2], [2775, 2, 4, 0.2], [11767, 1, 4, 0.46], [996, 2, 4, 1.16], [8926, 1, 4, 1.72], [13034, 3, 5, 1.26], [9081, 3, 7, 1.28], [23961, 3, 4, 0.5], [12661, 1, 4, 1.2], [307, 2, 4, 1.14], [8676, 2, 4, 0.97], [9372, 1, 4, 0.39], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 250, 3.69], [362, 2, 131, 2.7], [589, 2, 71, 2.46], [141, 2, 123, 2.64], [75, 2, 114, 3.61], [1776, 1, 89, 2.72], [20252, 2, 86, 2.33], [205, 2, 50, 1.89], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [6936, 2, 223, 4.33], [593, 2, 180, 2.48], [7886, 4, 66, 1.79], [305, 2, 115, 2.53], [151, 1, 53, 2.46], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [11681, 2, 214, 6.0], [990, 2, 41, 2.81], [8650, 2, 176, 4.9], [412, 1, 66, 3.33], [5151, 2, 19, 2.89], [144, 2, 104, 3.64], [2050, 3, 373, 3.55], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [10149, 3, 676, 4.91], [2991, 3, 127, 5.38], [22247, 2, 221, 4.16], [57, 1, 68, 2.35], [3478, 2, 34, 4.01], [146, 2, 119, 3.2], [7004, 1, 73, 2.06], [45, 2, 85, 4.3], [143, 2, 117, 3.59], [417, 2, 122, 4.03], [413, 1, 68, 3.29], [21793, 1, 190, 5.28], [167, 3, 157, 3.73], [201, 3, 235, 4.71], [74, 1, 155, 4.18], [2055, 3, 368, 4.35], [1446, 2, 120, 3.21], [168, 3, 321, 3.04], [7084, 3, 102, 4.11], [10, 2, 63, 4.58], [11234, 2, 145, 2.91], [1429, 2, 120, 2.64], [12721, 2, 221, 3.58], [335, 3, 1056, 5.52], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [308, 1, 132, 6.0], [8649, 2, 176, 4.62], [13028, 3, 116, 2.58], [12870, 1, 108, 5.93], [10825, 21, 505, 2.32], [79, 1, 22, 1.5], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.35], [3893, 1, 98, 2.83], [1006, 2, 106, 2.87]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.5], [8915, 2, 5, 1.94], [2327, 2, 4, 0.52], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 0.8], [305, 2, 4, 0.45], [326, 2, 4, 1.22], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 1.24], [2049, 3, 5, 0.21], [159, 3, 5, 0.19], [143, 2, 4, 0.94], [10, 2, 5, 0.92], [593, 2, 4, 0.4], [205, 2, 4, 0.37], [2775, 2, 4, 0.2], [5491, 2, 4, 0.45], [7036, 1, 4, 1.2], [144, 2, 4, 1.04], [94, 4, 4, 1.42], [8938, 2, 4, 0.2], [434, 2, 5, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [1504, 2, 4, 0.38], [8853, 2, 4, 1.79], [1429, 2, 4, 0.28], [12224, 1, 4, 0.46], [3891, 1, 5, 0.2], [141, 2, 4, 0.39], [362, 2, 4, 0.52], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [75, 2, 4, 1.24], [11681, 2, 5, 1.81], [5208, 3, 5, 0.48], [8649, 2, 4, 0.57], [1007, 2, 4, 0.2], [3889, 1, 5, 0.25], [7886, 4, 4, 0.2], [10993, 2, 4, 0.83], [2054, 3, 4, 1.0], [7005, 1, 4, 0.58], [12870, 1, 4, 1.68], [10149, 3, 15, 1.21], [12353, 1, 4, 0.66], [2050, 3, 4, 0.46], [145, 2, 4, 1.0], [2912, 1, 4, 1.43], [5165, 1, 4, 1.02], [20927, 1, 4, 1.26], [9760, 29, 4, 0.2], [998, 2, 4, 0.81], [2436, 4, 4, 0.28], [1006, 2, 5, 0.55], [1886, 2, 4, 0.2], [997, 2, 4, 0.76], [972, 3, 6, 0.51], [3, 2, 4, 0.48], [229, 1, 4, 0.49], [3495, 3, 11, 0.92], [6158, 2, 5, 2.11], [632, 11, 13, 0.45], [5165, 2, 5, 2.07], [7887, 4, 4, 0.97], [12345, 1, 4, 0.66], [5076, 1, 4, 0.76], [11770, 1, 4, 1.95], [9372, 1, 4, 0.78], [126, 2, 4, 0.54], [20252, 2, 4, 0.47], [74, 1, 4, 0.99], [12344, 1, 4, 0.66], [11953, 1, 4, 0.52], [8939, 2, 5, 0.2], [140, 2, 4, 1.72], [11685, 2, 5, 1.83], [1492, 1, 4, 0.45], [2912, 2, 7, 1.39], [12350, 1, 4, 0.66], [12721, 2, 5, 0.96], [2774, 2, 4, 0.63], [20256, 2, 4, 0.5], [3981, 3, 11, 0.63], [9491, 21, 12, 0.22], [22316, 3, 4, 0.49], [12343, 1, 4, 0.66], [2423, 80, 4, 0.48], [11952, 1, 4, 0.42], [5434, 1, 4, 0.83], [6497, 1, 4, 1.2], [11772, 1, 4, 0.2], [5584, 3, 4, 2.99], [12351, 1, 4, 0.66], [335, 3, 9, 0.37], [12229, 2, 4, 0.49], [7573, 1, 9, 2.02], [2438, 2, 5, 0.96], [10407, 10, 6, 1.56], [10388, 2, 4, 1.03], [11179, 1, 4, 0.45], [823, 1, 4, 1.08], [5209, 3, 5, 0.48], [6496, 1, 4, 0.35], [2805, 137, 4, 1.22], [3900, 3, 4, 0.7], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [1703, 2, 4, 1.9], [1622, 1, 4, 0.45], [8676, 2, 4, 1.21], [972, 1, 4, 1.01], [22247, 2, 4, 1.39], [412, 1, 4, 0.49], [1414, 15, 4, 0.62], [6097, 80, 4, 1.03], [159, 16, 4, 0.2], [10386, 2, 4, 1.79], [2991, 3, 4, 1.65], [1274, 1, 4, 0.48], [9784, 1, 4, 0.52], [6805, 1, 4, 0.51], [11814, 1, 4, 0.48], [10410, 10, 9, 1.6], [8635, 3, 4, 1.73], [11813, 1, 4, 0.46], [7567, 3, 4, 1.47], [88, 10, 467, 4.23], [2327, 2, 125, 3.09], [589, 2, 127, 3.01], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 104, 4.7], [305, 2, 122, 2.96], [326, 2, 29, 4.87], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 50, 3.79], [2049, 3, 181, 2.85], [159, 3, 584, 3.33], [143, 2, 123, 3.44], [10, 2, 29, 4.53], [593, 2, 150, 3.07], [205, 2, 89, 2.31], [2775, 2, 131, 3.06], [5491, 2, 87, 3.66], [7036, 1, 107, 5.16], [144, 2, 123, 3.57], [94, 4, 100, 4.36], [8938, 2, 63, 2.96], [434, 2, 89, 3.03], [3893, 1, 104, 2.85], [146, 2, 125, 3.7], [1504, 2, 170, 2.83], [8853, 2, 273, 5.14], [1429, 2, 75, 3.6], [12224, 1, 109, 2.36], [3891, 1, 104, 2.9], [141, 2, 130, 2.86], [362, 2, 118, 3.09], [2776, 2, 131, 3.27], [206, 2, 36, 1.72], [75, 2, 142, 4.02], [11681, 2, 221, 6.0], [5208, 3, 275, 3.9], [8649, 2, 220, 4.12], [1007, 2, 89, 2.98], [3889, 1, 104, 3.51], [7005, 1, 23, 3.47], [12870, 1, 114, 5.33], [10149, 3, 735, 4.24], [12353, 1, 615, 2.89], [2050, 3, 158, 1.88], [145, 2, 125, 3.56], [2912, 1, 47, 4.46], [5165, 1, 49, 4.07], [9760, 29, 60, 3.37], [998, 2, 198, 3.64], [2436, 4, 96, 4.32], [1006, 2, 112, 3.15], [1886, 2, 130, 3.17], [997, 2, 198, 4.46], [972, 3, 493, 3.68], [3, 2, 119, 2.55], [229, 1, 70, 3.03], [3495, 3, 795, 3.74], [6158, 2, 211, 6.0], [632, 11, 405, 2.08], [12345, 1, 615, 2.89], [5076, 1, 127, 3.09], [11770, 1, 204, 5.39], [9372, 1, 225, 4.83]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.37], [141, 2, 4, 0.53], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.94], [362, 2, 4, 0.56], [8648, 2, 4, 2.08], [2327, 2, 4, 0.93], [11681, 2, 9, 2.07], [8650, 2, 5, 2.08], [326, 2, 4, 0.47], [205, 2, 4, 0.2], [2328, 2, 4, 0.39], [1446, 2, 4, 0.2], [305, 2, 5, 1.0], [2049, 3, 5, 0.49], [130, 1, 4, 1.45], [8649, 2, 5, 2.46], [2775, 2, 5, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [2776, 2, 4, 0.32], [593, 2, 5, 0.2], [143, 2, 4, 1.13], [140, 2, 4, 0.97], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [5493, 2, 4, 0.2], [523, 2, 5, 0.54], [413, 1, 4, 0.66], [7004, 1, 4, 0.89], [7036, 1, 4, 1.42], [21793, 1, 4, 1.14], [412, 1, 4, 0.57], [5491, 2, 4, 0.57], [151, 1, 4, 0.37], [1124, 2, 5, 0.29], [990, 2, 5, 0.28], [5165, 1, 4, 0.7], [8915, 2, 6, 0.94], [615, 2, 4, 1.62], [583, 2, 4, 0.47], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.52], [434, 2, 5, 0.2], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [201, 3, 5, 0.92], [142, 2, 4, 0.56], [11770, 1, 4, 0.43], [345, 3, 5, 0.92], [2055, 3, 4, 0.81], [3891, 1, 4, 0.91], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [5165, 2, 7, 1.19], [7084, 3, 4, 2.67], [7005, 1, 4, 0.68], [3893, 1, 4, 0.63], [3670, 2, 4, 1.47], [12870, 1, 4, 1.18], [1886, 2, 5, 0.2], [10574, 3, 5, 1.09], [3334, 5, 4, 0.84], [6098, 80, 4, 1.39], [7885, 4, 4, 0.49], [6097, 29, 4, 2.41], [20927, 1, 4, 0.86], [3889, 1, 4, 0.63], [11089, 1, 4, 0.5], [12345, 1, 5, 0.19], [6158, 2, 4, 1.75], [147, 1, 4, 0.94], [10149, 3, 15, 1.12], [22316, 3, 4, 0.5], [1492, 1, 4, 0.2], [432, 3, 5, 0.62], [11953, 1, 4, 0.48], [20252, 2, 5, 0.2], [11491, 2, 4, 0.5], [418, 2, 4, 0.84], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [1519, 3, 11, 0.39], [1490, 1, 4, 0.39], [2423, 80, 4, 0.77], [11952, 1, 4, 0.72], [229, 1, 4, 2.07], [972, 3, 5, 1.01], [5151, 2, 4, 1.05], [11769, 1, 4, 0.47], [3576, 25, 4, 1.17], [2331, 1, 4, 1.19], [416, 1, 4, 0.99], [13034, 3, 4, 1.51], [11426, 25, 4, 0.58], [11767, 1, 4, 0.46], [11737, 2, 4, 0.5], [439, 1, 4, 1.47], [3, 2, 4, 0.73], [5076, 1, 4, 0.63], [11583, 29, 5, 0.2], [2805, 137, 4, 0.98], [11490, 1, 4, 0.46], [2160, 68, 4, 0.56], [414, 1, 4, 0.66], [6494, 1, 4, 1.59], [410, 1, 4, 0.43], [1701, 2, 4, 1.31], [8677, 3, 5, 1.11], [3575, 25, 4, 1.24], [11180, 1, 4, 0.66], [11814, 1, 4, 0.48], [75, 2, 4, 0.37], [3478, 2, 4, 0.56], [11585, 29, 4, 1.12], [13023, 3, 5, 1.01], [11813, 1, 4, 1.11], [2438, 2, 5, 1.14], [9784, 1, 4, 0.67], [11954, 1, 4, 0.51], [4033, 29, 4, 0.57], [6098, 29, 4, 0.67], [4253, 1, 4, 1.66], [23238, 29, 4, 0.43], [8283, 2, 5, 0.49], [23238, 25, 4, 0.41], [11404, 2, 4, 0.43], [9289, 29, 4, 1.32], [9069, 1, 4, 0.42], [4232, 80, 4, 1.6], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 106, 2.67], [2778, 2, 114, 3.75], [6936, 2, 202, 5.81], [362, 2, 103, 2.95], [8648, 2, 162, 5.97], [2327, 2, 130, 3.21], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 47, 3.24], [205, 2, 80, 2.77], [2328, 2, 110, 3.51], [1446, 2, 79, 2.84], [305, 2, 108, 3.76], [2049, 3, 190, 1.85], [8649, 2, 162, 6.0], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [2776, 2, 114, 4.16], [593, 2, 167, 2.88], [143, 2, 108, 3.59], [1429, 2, 53, 2.99], [206, 2, 80, 2.96], [5493, 2, 80, 2.9], [523, 2, 114, 2.91], [413, 1, 63, 3.29], [7004, 1, 27, 2.6], [7036, 1, 94, 4.63], [21793, 1, 174, 4.35], [412, 1, 62, 3.17], [5491, 2, 93, 2.52], [151, 1, 34, 2.6], [1124, 2, 136, 3.38], [5165, 1, 25, 4.29], [8915, 2, 138, 4.65], [615, 2, 92, 4.53], [583, 2, 63, 3.24], [417, 2, 114, 2.93], [248, 1, 37, 2.77], [144, 2, 52, 3.57], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [201, 3, 205, 4.98], [142, 2, 114, 2.94], [11770, 1, 188, 2.25], [345, 3, 219, 3.6], [2055, 3, 410, 2.98], [3891, 1, 107, 3.17], [9372, 1, 195, 2.96], [2057, 3, 410, 2.98], [616, 2, 92, 3.07], [7005, 1, 55, 2.64], [3893, 1, 107, 2.63], [3670, 2, 212, 4.24], [12870, 1, 119, 3.68], [10574, 3, 370, 3.81], [3334, 5, 154, 3.41], [6098, 80, 55, 4.1], [7885, 4, 48, 1.82], [20927, 1, 27, 2.57], [3889, 1, 107, 2.63], [11089, 1, 148, 2.38], [12345, 1, 455, 2.79], [6158, 2, 221, 4.78], [147, 1, 65, 5.17]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 0.47], [305, 2, 4, 1.37], [2778, 2, 4, 0.58], [5493, 2, 4, 0.91], [6936, 2, 4, 1.5], [130, 1, 4, 0.7], [205, 2, 4, 0.7], [616, 2, 4, 0.94], [144, 2, 4, 0.5], [2049, 3, 7, 0.46], [8648, 2, 4, 0.57], [1504, 2, 4, 0.69], [88, 10, 8, 0.43], [8915, 2, 5, 1.94], [326, 2, 4, 0.54], [7036, 1, 4, 0.43], [8650, 2, 4, 0.57], [593, 2, 4, 0.58], [2327, 2, 4, 0.49], [11681, 2, 4, 1.33], [3893, 1, 4, 0.7], [8853, 2, 4, 1.41], [141, 2, 4, 0.65], [2775, 2, 4, 0.8], [206, 2, 4, 0.36], [7004, 1, 4, 1.21], [151, 1, 4, 0.52], [9507, 3, 4, 0.36], [248, 1, 4, 1.06], [11685, 2, 4, 1.35], [10, 2, 4, 0.36], [2328, 2, 4, 0.9], [146, 2, 4, 0.63], [2050, 3, 4, 1.69], [2497, 2, 4, 0.69], [5491, 2, 4, 1.17], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [3980, 4, 4, 1.2], [990, 2, 4, 0.36], [21798, 1, 4, 0.47], [2054, 3, 4, 1.86], [12349, 1, 4, 0.98], [624, 2, 4, 1.08], [8672, 2, 4, 1.21], [8649, 2, 4, 0.57], [12870, 1, 4, 0.92], [362, 2, 4, 1.11], [7885, 4, 4, 0.44], [2776, 2, 4, 0.8], [12350, 1, 4, 0.98], [2057, 3, 4, 1.69], [7886, 4, 4, 0.48], [12353, 1, 4, 0.98], [10574, 3, 5, 1.36], [13028, 3, 4, 0.62], [1006, 2, 4, 0.58], [523, 2, 4, 0.38], [1446, 2, 4, 1.11], [3975, 4, 4, 1.26], [7005, 1, 4, 0.94], [75, 2, 4, 1.36], [94, 4, 4, 1.84], [3495, 3, 13, 0.92], [2991, 3, 4, 1.65], [12346, 1, 4, 0.98], [11404, 2, 4, 0.43], [9760, 29, 4, 0.45], [10149, 3, 13, 0.39], [142, 2, 4, 0.44], [20927, 1, 4, 0.67], [6158, 2, 4, 0.49], [3981, 3, 13, 1.15], [3982, 3, 10, 1.18], [417, 2, 4, 0.55], [8939, 2, 4, 0.42], [11953, 1, 4, 0.43], [1007, 2, 4, 0.45], [956, 2, 4, 0.37], [997, 2, 4, 1.14], [33, 1, 4, 1.04], [11772, 1, 4, 0.44], [2774, 2, 4, 0.69], [7887, 4, 4, 0.95], [6497, 1, 4, 0.52], [1492, 1, 4, 0.45], [432, 3, 4, 0.47], [12345, 1, 4, 0.98], [972, 3, 4, 1.51], [12352, 1, 4, 0.98], [998, 2, 4, 1.06], [11767, 1, 4, 0.57], [11770, 1, 4, 0.45], [11769, 1, 4, 0.96], [336, 15, 4, 0.72], [35, 1, 4, 0.66], [12351, 1, 4, 0.98], [996, 2, 4, 0.99], [389, 4, 4, 0.88], [74, 1, 4, 0.82], [11490, 1, 4, 0.58], [7567, 3, 4, 1.76], [11952, 1, 4, 0.45], [411, 2, 4, 0.51], [6496, 1, 4, 0.49], [12721, 2, 4, 1.13], [140, 2, 4, 0.54], [22317, 3, 4, 0.51], [8121, 3, 4, 0.55], [8673, 2, 4, 0.47], [4176, 4, 4, 1.31], [1126, 2, 4, 0.58], [2436, 4, 4, 0.78], [1277, 1, 4, 0.65], [9372, 1, 4, 2.12], [8676, 2, 4, 1.21], [11085, 2, 4, 1.27], [8677, 3, 4, 1.38], [1274, 1, 4, 0.6], [21269, 3, 4, 1.57], [12343, 1, 4, 0.98], [10936, 2, 4, 1.7], [22247, 2, 4, 1.14], [37, 1, 4, 0.66], [10388, 2, 4, 1.08], [823, 1, 4, 0.49], [12526, 2, 4, 0.93], [9784, 1, 4, 0.55], [6494, 1, 4, 0.43], [13023, 3, 4, 1.26], [7573, 1, 5, 1.45], [1429, 2, 4, 0.83], [345, 3, 4, 0.51], [6935, 2, 239, 4.26], [305, 2, 101, 4.0], [2778, 2, 136, 2.57], [5493, 2, 91, 4.77], [6936, 2, 239, 5.15], [130, 1, 20, 2.61], [205, 2, 94, 2.79], [616, 2, 92, 5.04], [144, 2, 130, 2.41], [2049, 3, 469, 3.54], [8648, 2, 195, 3.17], [1504, 2, 176, 2.78], [88, 10, 502, 2.33], [326, 2, 32, 2.69], [7036, 1, 111, 3.73], [8650, 2, 195, 3.17], [593, 2, 198, 2.88], [2327, 2, 131, 2.39], [11681, 2, 237, 4.74], [3893, 1, 108, 2.83], [8853, 2, 239, 5.12], [141, 2, 134, 2.7], [2775, 2, 136, 2.99], [206, 2, 94, 2.14], [7004, 1, 27, 3.23], [151, 1, 23, 2.15], [11685, 2, 237, 4.76], [2328, 2, 131, 3.17], [146, 2, 131, 2.66], [2050, 3, 398, 4.77], [2497, 2, 176, 3.79], [5491, 2, 91, 4.77], [2055, 3, 398, 4.89], [143, 2, 129, 2.57], [3980, 4, 417, 3.8], [990, 2, 27, 1.9], [21798, 1, 121, 2.35], [2054, 3, 398, 5.11], [12349, 1, 545, 4.66], [624, 2, 92, 5.04], [8672, 2, 247, 4.59], [8649, 2, 195, 3.93], [12870, 1, 117, 3.75], [362, 2, 123, 3.59], [2776, 2, 136, 2.99], [12350, 1, 545, 4.66], [2057, 3, 398, 4.77], [12353, 1, 545, 4.66], [10574, 3, 439, 3.84], [13028, 3, 127, 2.69], [1006, 2, 198, 2.82], [523, 2, 134, 2.18], [1446, 2, 53, 3.05], [3975, 4, 417, 3.93], [7005, 1, 68, 3.26], [75, 2, 126, 4.07], [94, 4, 104, 5.91], [3495, 3, 835, 3.08], [2991, 3, 140, 5.42], [12346, 1, 545, 4.66], [11404, 2, 55, 2.03], [9760, 29, 63, 2.32], [10149, 3, 754, 2.93], [142, 2, 134, 2.29], [20927, 1, 55, 3.37], [6158, 2, 228, 3.02], [3981, 3, 1395, 3.45]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 1.37], [6935, 2, 7, 1.47], [2328, 2, 4, 0.51], [130, 1, 4, 0.5], [141, 2, 4, 0.63], [8650, 2, 4, 0.95], [2778, 2, 5, 0.44], [5491, 2, 4, 0.63], [2327, 2, 4, 0.51], [8672, 2, 5, 0.8], [362, 2, 4, 1.51], [143, 2, 4, 1.26], [6936, 2, 4, 1.25], [248, 1, 4, 0.52], [145, 2, 4, 0.51], [11681, 2, 5, 0.47], [205, 2, 4, 0.65], [5493, 2, 4, 0.83], [146, 2, 4, 0.56], [417, 2, 4, 0.54], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [1124, 2, 5, 0.86], [523, 2, 4, 0.53], [8648, 2, 4, 0.95], [1504, 2, 5, 0.51], [12721, 2, 5, 0.48], [8853, 2, 4, 1.46], [1005, 2, 4, 0.39], [615, 2, 4, 1.19], [326, 2, 4, 0.78], [206, 2, 4, 0.65], [8673, 2, 4, 0.74], [8915, 2, 4, 0.82], [144, 2, 4, 0.5], [11835, 2, 4, 0.36], [11739, 2, 4, 0.38], [88, 10, 8, 0.95], [434, 2, 4, 0.55], [2776, 2, 4, 0.93], [142, 2, 4, 0.48], [151, 1, 4, 0.57], [8676, 2, 4, 1.06], [6158, 2, 5, 1.11], [8649, 2, 4, 0.95], [11738, 2, 4, 0.38], [2497, 2, 4, 0.36], [1413, 15, 4, 0.38], [11836, 2, 4, 0.55], [3670, 2, 4, 2.81], [7705, 2, 4, 1.5], [944, 15, 4, 0.41], [3, 2, 4, 0.51], [2859, 15, 4, 0.44], [10574, 3, 5, 1.29], [412, 1, 4, 0.99], [7706, 2, 4, 1.5], [378, 2, 4, 2.48], [2054, 3, 4, 0.4], [22316, 3, 4, 0.46], [12720, 2, 4, 0.48], [3478, 2, 4, 0.89], [74, 1, 4, 1.69], [2055, 3, 4, 0.4], [10149, 3, 13, 1.12], [2774, 2, 4, 0.57], [307, 2, 4, 1.04], [11919, 1, 4, 0.48], [6497, 1, 4, 0.44], [12526, 2, 4, 0.93], [418, 2, 4, 0.82], [7004, 1, 4, 0.81], [11089, 1, 4, 0.4], [411, 2, 4, 0.52], [60, 3, 5, 0.58], [13928, 1, 4, 0.43], [413, 1, 4, 1.59], [2057, 3, 4, 0.4], [11844, 2, 4, 0.47], [8274, 3, 4, 0.58], [7036, 1, 4, 0.43], [3893, 1, 4, 0.73], [14037, 3, 4, 0.41], [13260, 29, 4, 0.67], [2050, 3, 4, 0.4], [7084, 3, 4, 0.36], [6097, 80, 4, 0.46], [6952, 1, 4, 0.96], [3891, 1, 4, 0.94], [9784, 1, 4, 0.55], [94, 4, 4, 1.77], [1050, 2, 4, 0.36], [159, 3, 5, 0.94], [6494, 1, 4, 0.46], [7707, 2, 4, 0.72], [1243, 2, 4, 0.49], [414, 1, 4, 1.59], [1490, 1, 4, 1.01], [11490, 1, 4, 0.5], [3889, 1, 4, 0.73], [22317, 3, 5, 0.47], [7708, 2, 4, 1.5], [21793, 1, 4, 1.45], [1413, 16, 4, 0.4], [345, 3, 4, 1.16], [7703, 2, 4, 1.5], [565, 2, 4, 0.46], [11491, 2, 4, 0.8], [229, 1, 4, 2.0], [3495, 3, 10, 0.85], [1492, 1, 4, 0.53], [6098, 80, 4, 1.16], [149, 2, 4, 0.52], [410, 1, 4, 0.37], [11504, 2, 4, 0.78], [336, 15, 4, 0.38], [6630, 3, 4, 1.76], [147, 1, 4, 0.52], [416, 1, 4, 1.59], [3430, 15, 4, 0.35], [2991, 3, 4, 2.19], [3674, 2, 4, 0.52], [2805, 137, 5, 1.85], [23275, 2, 4, 0.39], [6098, 29, 4, 1.16], [247, 1, 4, 2.06], [11581, 29, 4, 0.87], [8635, 3, 4, 0.58], [1274, 1, 4, 1.57], [2331, 1, 4, 0.73], [963, 3, 4, 0.86], [1049, 2, 4, 0.36], [13263, 29, 4, 0.38], [305, 2, 49, 3.71], [6935, 2, 283, 6.0], [2328, 2, 151, 3.64], [141, 2, 157, 2.99], [8650, 2, 225, 4.13], [2778, 2, 157, 3.05], [5491, 2, 107, 4.58], [2327, 2, 151, 3.61], [8672, 2, 144, 4.61], [362, 2, 47, 3.98], [143, 2, 74, 3.85], [6936, 2, 283, 4.87], [248, 1, 18, 2.07], [145, 2, 50, 3.73], [11681, 2, 277, 3.19], [205, 2, 36, 2.32], [5493, 2, 107, 4.58], [146, 2, 152, 2.87], [417, 2, 157, 2.82], [75, 2, 146, 3.38], [11737, 2, 57, 2.96], [1124, 2, 94, 3.32], [523, 2, 157, 2.8], [8648, 2, 225, 3.88], [1504, 2, 206, 3.01], [12721, 2, 285, 3.23], [8853, 2, 283, 4.65], [615, 2, 108, 4.07], [326, 2, 31, 2.93], [8673, 2, 290, 3.21], [144, 2, 50, 3.7], [11835, 2, 269, 2.48], [11739, 2, 57, 2.96], [88, 10, 562, 3.89], [434, 2, 36, 2.31], [2776, 2, 157, 3.57], [142, 2, 157, 2.7], [8676, 2, 289, 3.82], [6158, 2, 175, 3.8], [8649, 2, 225, 4.64], [11738, 2, 57, 2.96], [2497, 2, 206, 2.47], [1413, 15, 84, 2.44], [11836, 2, 269, 2.84], [3670, 2, 237, 6.0], [7705, 2, 177, 4.8], [944, 15, 15, 1.86], [3, 2, 121, 3.32], [2859, 15, 69, 2.63], [10574, 3, 503, 4.63], [412, 1, 84, 4.19], [7706, 2, 177, 4.8], [378, 2, 225, 6.0], [2054, 3, 474, 3.89], [22316, 3, 319, 2.67], [12720, 2, 285, 3.23], [3478, 2, 38, 3.59], [74, 1, 200, 5.96], [2055, 3, 474, 3.89], [10149, 3, 869, 4.0], [2774, 2, 206, 4.75], [307, 2, 149, 3.78], [11919, 1, 92, 2.35], [6497, 1, 38, 2.63], [12526, 2, 273, 4.56], [418, 2, 142, 3.36], [7004, 1, 27, 2.63]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.25], [3, 2, 5, 0.2], [326, 2, 4, 0.54], [205, 2, 4, 0.37], [6935, 2, 8, 1.27], [143, 2, 4, 0.58], [130, 1, 4, 0.55], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 5, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [146, 2, 4, 0.52], [206, 2, 4, 0.2], [20252, 2, 4, 0.4], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [2050, 3, 5, 0.41], [5151, 2, 4, 1.02], [141, 2, 4, 0.53], [248, 1, 4, 0.37], [7886, 4, 4, 0.45], [88, 10, 8, 0.46], [74, 1, 4, 1.53], [2991, 3, 4, 2.05], [1446, 2, 4, 0.2], [2057, 3, 5, 0.47], [7004, 1, 4, 0.37], [362, 2, 4, 0.48], [1007, 2, 6, 0.2], [1492, 1, 4, 1.22], [76, 2, 4, 0.37], [147, 1, 4, 1.27], [8649, 2, 4, 1.9], [3889, 1, 4, 0.2], [7005, 1, 4, 0.38], [345, 3, 4, 0.57], [11234, 2, 6, 0.2], [1429, 2, 4, 0.2], [10, 2, 5, 0.3], [307, 2, 4, 1.08], [57, 1, 5, 0.2], [5081, 2, 4, 0.69], [10825, 21, 8, 1.28], [12870, 1, 4, 2.33], [7084, 3, 4, 1.53], [10149, 3, 13, 0.98], [7036, 1, 4, 0.43], [3478, 2, 4, 1.03], [1006, 2, 5, 0.59], [21793, 1, 4, 1.39], [1504, 2, 5, 0.2], [3891, 1, 4, 0.27], [94, 4, 4, 1.35], [411, 2, 4, 0.37], [9827, 3, 4, 0.2], [167, 3, 5, 1.15], [432, 3, 5, 0.2], [3893, 1, 4, 0.2], [8677, 3, 6, 0.65], [11681, 2, 6, 1.91], [23, 1, 4, 0.67], [148, 1, 4, 1.33], [96, 11, 17, 0.38], [1490, 1, 4, 0.2], [22247, 2, 6, 1.15], [1124, 2, 5, 0.2], [9760, 29, 4, 0.24], [11737, 2, 4, 0.2], [12225, 1, 4, 0.43], [5812, 3, 6, 0.8], [201, 3, 4, 0.57], [1243, 2, 5, 0.56], [2336, 3, 6, 0.5], [335, 3, 9, 0.37], [6158, 2, 6, 0.51], [35, 1, 4, 0.83], [8853, 2, 5, 1.32], [10574, 3, 5, 1.33], [412, 1, 4, 1.14], [5005, 1, 4, 0.44], [20256, 2, 4, 0.2], [5208, 3, 6, 0.19], [20927, 1, 5, 0.49], [8651, 2, 4, 0.88], [229, 1, 4, 2.57], [8939, 2, 4, 0.38], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [159, 3, 6, 0.67], [45, 2, 4, 0.64], [11490, 1, 4, 0.43], [413, 1, 4, 1.07], [149, 2, 4, 1.33], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [3980, 4, 5, 1.25], [95, 3, 11, 0.54], [140, 2, 5, 0.54], [5946, 1, 4, 1.03], [1766, 25, 4, 0.56], [490, 1, 4, 0.53], [1413, 15, 4, 0.2], [9372, 1, 4, 2.12], [1126, 2, 5, 0.5], [20255, 2, 4, 0.2], [8898, 3, 4, 0.75], [997, 2, 4, 0.57], [2775, 2, 5, 0.2], [506, 1, 4, 0.89], [11489, 1, 4, 0.65], [3670, 2, 4, 1.86], [1070, 7, 9, 0.46], [9690, 1, 4, 0.65], [9691, 1, 4, 1.27], [107, 2, 5, 1.17], [974, 3, 4, 0.88], [34, 1, 4, 0.38], [20498, 1, 4, 0.98], [823, 1, 4, 0.5], [14037, 3, 5, 0.2], [14017, 3, 4, 1.04], [142, 2, 4, 0.53], [5209, 3, 5, 0.19], [972, 3, 5, 0.65], [1091, 1, 4, 0.61], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 39, 3.44], [205, 2, 80, 2.49], [6935, 2, 206, 4.81], [143, 2, 108, 2.86], [130, 1, 33, 3.62], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [8915, 2, 82, 2.66], [1776, 1, 80, 2.94], [2778, 2, 114, 2.87], [146, 2, 109, 2.77], [206, 2, 70, 2.49], [20252, 2, 79, 2.44], [6936, 2, 206, 4.28], [1777, 1, 93, 3.82], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [2050, 3, 173, 3.41], [5151, 2, 17, 3.88], [141, 2, 132, 3.42], [248, 1, 40, 2.49], [7886, 4, 61, 2.64], [88, 10, 498, 4.15], [74, 1, 144, 5.34], [2991, 3, 116, 5.98], [1446, 2, 111, 3.24], [2057, 3, 346, 2.68], [7004, 1, 51, 2.49], [362, 2, 103, 3.03], [1007, 2, 116, 2.62], [1492, 1, 31, 3.65], [76, 2, 93, 2.41], [147, 1, 64, 4.31], [8649, 2, 161, 6.0], [3889, 1, 91, 2.61], [7005, 1, 51, 2.5], [345, 3, 219, 2.85], [11234, 2, 134, 3.07], [1429, 2, 98, 2.88], [307, 2, 108, 3.38], [5081, 2, 137, 3.07], [10825, 21, 451, 4.0], [12870, 1, 99, 6.0], [7084, 3, 93, 4.62], [10149, 3, 646, 3.5], [7036, 1, 92, 3.55], [3478, 2, 32, 3.94], [1006, 2, 98, 2.9], [21793, 1, 198, 5.88], [1504, 2, 148, 2.81], [3891, 1, 91, 3.93], [94, 4, 87, 3.91], [411, 2, 80, 2.49], [9827, 3, 63, 2.69], [167, 3, 164, 4.08], [432, 3, 221, 2.95], [3893, 1, 91, 3.93], [8677, 3, 214, 3.07], [11681, 2, 193, 6.0], [23, 1, 81, 3.04]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.97], [305, 2, 5, 0.75], [6935, 2, 10, 1.27], [2049, 3, 8, 1.63], [141, 2, 4, 0.39], [326, 2, 4, 0.47], [205, 2, 4, 0.47], [130, 1, 4, 0.5], [589, 2, 5, 0.37], [151, 1, 4, 0.46], [362, 2, 4, 0.2], [1776, 1, 4, 1.16], [146, 2, 4, 0.58], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.55], [8648, 2, 4, 0.77], [143, 2, 4, 0.58], [8915, 2, 6, 0.2], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [8650, 2, 5, 1.15], [20252, 2, 4, 0.2], [1777, 1, 4, 0.93], [5151, 2, 4, 1.05], [1007, 2, 6, 0.2], [248, 1, 4, 0.2], [2778, 2, 4, 0.2], [88, 10, 8, 1.12], [2050, 3, 5, 0.77], [10149, 3, 17, 1.32], [76, 2, 4, 1.11], [8649, 2, 4, 1.65], [10, 2, 5, 0.47], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [11681, 2, 6, 2.33], [10825, 21, 8, 0.36], [1446, 2, 4, 0.2], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 5, 1.28], [1429, 2, 4, 0.2], [147, 1, 4, 0.52], [3495, 3, 15, 1.31], [1006, 2, 5, 0.59], [167, 3, 4, 1.35], [1492, 1, 4, 0.2], [7036, 1, 4, 0.54], [7005, 1, 4, 0.4], [140, 2, 4, 0.47], [9827, 3, 5, 0.2], [8676, 2, 4, 0.49], [45, 2, 4, 1.12], [1124, 2, 6, 0.24], [168, 3, 5, 0.29], [2049, 1, 4, 0.93], [5812, 3, 5, 1.52], [94, 4, 4, 1.01], [57, 1, 4, 0.51], [1504, 2, 5, 0.2], [12870, 1, 5, 2.33], [148, 1, 4, 0.95], [335, 3, 10, 1.13], [8651, 2, 4, 1.22], [2336, 3, 5, 0.99], [415, 1, 4, 1.23], [8939, 2, 4, 0.38], [6097, 29, 4, 2.36], [416, 1, 4, 1.23], [8853, 2, 5, 0.82], [6097, 80, 4, 2.36], [490, 1, 4, 0.51], [1490, 1, 4, 0.44], [20927, 1, 4, 0.42], [95, 3, 15, 0.54], [79, 1, 4, 0.38], [6098, 29, 4, 2.52], [6098, 80, 4, 2.52], [9069, 1, 4, 1.09], [14017, 3, 4, 0.67], [414, 1, 4, 0.85], [22316, 3, 4, 0.49], [1070, 7, 9, 0.43], [8898, 3, 5, 2.17], [1126, 2, 4, 0.5], [13034, 3, 5, 1.26], [126, 2, 4, 0.97], [149, 2, 4, 0.52], [997, 2, 4, 1.26], [9760, 29, 4, 0.61], [20498, 1, 5, 1.05], [5086, 1, 5, 0.58], [9784, 1, 4, 0.74], [159, 3, 6, 0.19], [5513, 2, 5, 0.48], [336, 15, 4, 0.38], [8945, 3, 5, 1.12], [22317, 3, 6, 0.51], [12924, 1, 5, 0.2], [7567, 3, 5, 1.12], [11085, 2, 5, 0.45], [11739, 2, 4, 0.83], [1413, 15, 4, 0.2], [5811, 3, 5, 1.18], [974, 3, 4, 0.88], [192, 3, 11, 1.24], [229, 1, 5, 2.07], [5813, 3, 5, 1.08], [972, 3, 4, 0.81], [506, 1, 4, 0.95], [8557, 3, 4, 0.33], [1622, 1, 5, 0.2], [9082, 3, 18, 0.17], [9691, 1, 4, 1.41], [20498, 3, 5, 1.1], [8943, 3, 4, 0.86], [3049, 3, 4, 1.98], [14018, 3, 4, 0.5], [524, 1, 4, 1.41], [4076, 3, 4, 2.69], [470, 1, 4, 0.2], [2775, 2, 4, 0.2], [20486, 3, 5, 1.01], [13023, 3, 6, 1.24], [3900, 3, 4, 1.68], [2423, 80, 4, 1.41], [5584, 3, 4, 0.5], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [6935, 2, 223, 4.83], [2049, 3, 250, 3.69], [141, 2, 123, 2.37], [326, 2, 72, 2.63], [205, 2, 50, 1.89], [589, 2, 71, 1.58], [151, 1, 53, 2.49], [362, 2, 112, 2.64], [1776, 1, 100, 3.39], [146, 2, 119, 2.72], [145, 2, 119, 2.46], [206, 2, 50, 2.36], [2328, 2, 119, 2.67], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [8650, 2, 176, 4.83], [20252, 2, 74, 2.56], [1777, 1, 100, 3.38], [5151, 2, 19, 3.18], [1007, 2, 188, 2.46], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [10149, 3, 676, 4.91], [76, 2, 85, 3.94], [8649, 2, 176, 4.51], [10, 2, 63, 4.58], [8677, 3, 231, 4.74], [2054, 3, 368, 4.35], [412, 1, 66, 3.32], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [11681, 2, 214, 6.0], [10825, 21, 505, 2.32], [7084, 3, 102, 3.87], [307, 2, 117, 2.72], [3478, 2, 34, 4.01], [1429, 2, 106, 2.64], [147, 1, 80, 2.27], [3495, 3, 754, 3.9], [1006, 2, 180, 2.75], [1492, 1, 29, 2.35], [7036, 1, 100, 4.14], [7005, 1, 63, 2.38], [140, 2, 72, 2.51], [9827, 3, 69, 2.54], [8676, 2, 223, 4.2], [45, 2, 85, 5.32], [1124, 2, 146, 3.4], [168, 3, 321, 3.12], [2049, 1, 21, 2.95], [5812, 3, 546, 3.84], [94, 4, 94, 4.19], [57, 1, 40, 1.87], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [148, 1, 68, 3.99], [335, 3, 1175, 5.52], [8651, 2, 176, 3.9], [2336, 3, 535, 2.91], [415, 1, 68, 3.53], [6097, 29, 27, 5.7]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.35], [6935, 2, 5, 0.47], [130, 1, 4, 0.7], [326, 2, 4, 0.54], [8648, 2, 4, 0.57], [144, 2, 4, 0.5], [2327, 2, 4, 0.49], [593, 2, 4, 0.58], [205, 2, 4, 0.7], [143, 2, 4, 0.58], [8915, 2, 5, 1.94], [2328, 2, 4, 0.9], [11681, 2, 4, 1.33], [305, 2, 4, 1.37], [6936, 2, 4, 1.5], [141, 2, 4, 0.65], [8650, 2, 4, 0.57], [5493, 2, 4, 0.91], [151, 1, 4, 0.52], [2778, 2, 4, 0.58], [206, 2, 4, 0.36], [2049, 3, 7, 0.46], [146, 2, 4, 0.63], [88, 10, 8, 0.43], [7036, 1, 4, 0.43], [9507, 3, 4, 0.36], [8853, 2, 4, 1.41], [8649, 2, 4, 0.57], [1446, 2, 4, 1.11], [5491, 2, 4, 1.17], [362, 2, 4, 1.11], [2055, 3, 4, 1.75], [990, 2, 4, 0.36], [1006, 2, 4, 0.58], [75, 2, 4, 1.36], [3893, 1, 4, 0.7], [11737, 2, 4, 0.73], [417, 2, 4, 0.55], [2050, 3, 4, 1.69], [3840, 1, 4, 0.39], [616, 2, 4, 0.94], [1007, 2, 4, 0.45], [12870, 1, 4, 0.92], [523, 2, 4, 0.38], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [1504, 2, 4, 0.69], [2057, 3, 4, 1.69], [10574, 3, 5, 1.36], [13280, 1, 4, 2.32], [3, 2, 4, 0.43], [142, 2, 4, 0.44], [997, 2, 4, 1.14], [9760, 29, 4, 0.45], [624, 2, 4, 1.08], [10, 2, 4, 0.36], [2054, 3, 4, 1.86], [21798, 1, 4, 0.47], [140, 2, 4, 0.54], [2775, 2, 4, 0.8], [3982, 3, 10, 1.18], [21793, 1, 4, 1.44], [8939, 2, 4, 0.42], [11739, 2, 4, 0.59], [1429, 2, 4, 0.83], [996, 2, 4, 0.99], [6158, 2, 4, 0.49], [998, 2, 4, 1.06], [98, 11, 10, 0.71], [84, 2, 4, 0.39], [1126, 2, 4, 0.58], [9372, 1, 4, 2.12], [10388, 2, 4, 1.08], [2912, 1, 4, 1.36], [972, 3, 4, 1.51], [411, 2, 4, 0.51], [8672, 2, 4, 1.21], [7885, 4, 4, 0.44], [8898, 3, 4, 0.71], [413, 1, 4, 0.66], [2776, 2, 4, 0.8], [3980, 4, 4, 1.2], [12343, 1, 4, 0.98], [9491, 21, 10, 1.14], [10386, 2, 4, 0.99], [1492, 1, 4, 0.45], [995, 2, 4, 0.77], [147, 1, 4, 0.49], [22316, 3, 4, 0.51], [418, 2, 4, 0.45], [308, 1, 4, 0.95], [22247, 2, 4, 1.14], [9784, 1, 4, 0.55], [2912, 2, 5, 1.32], [8677, 3, 4, 1.38], [336, 15, 4, 0.72], [3981, 3, 13, 1.15], [11490, 1, 4, 0.58], [7567, 3, 4, 1.76], [307, 2, 4, 0.51], [229, 1, 4, 0.63], [11953, 1, 4, 0.43], [33, 1, 4, 1.04], [10631, 2, 4, 0.37], [11770, 1, 4, 0.45], [414, 1, 4, 0.66], [22317, 3, 4, 0.51], [7886, 4, 4, 0.48], [35, 1, 4, 0.66], [7573, 1, 5, 1.45], [10407, 10, 6, 1.68], [439, 1, 4, 1.15], [10780, 10, 4, 1.53], [10410, 10, 6, 1.64], [415, 1, 4, 0.66], [335, 3, 9, 1.74], [9691, 1, 4, 0.52], [10387, 2, 4, 0.95], [972, 1, 4, 1.51], [6497, 1, 4, 0.52], [74, 1, 4, 0.82], [10149, 3, 13, 0.39], [11767, 1, 4, 0.57], [3478, 2, 4, 0.89], [12271, 2, 4, 0.72], [9690, 1, 4, 0.76], [8897, 3, 4, 0.71], [9971, 2, 4, 1.12], [2331, 1, 4, 0.88], [2497, 2, 4, 0.69], [345, 3, 4, 0.51], [9082, 3, 18, 0.51], [11769, 1, 4, 0.96], [11685, 2, 237, 4.76], [6935, 2, 239, 4.26], [130, 1, 20, 2.61], [326, 2, 32, 2.69], [8648, 2, 195, 3.17], [144, 2, 130, 2.41], [2327, 2, 131, 2.39], [593, 2, 198, 2.88], [205, 2, 94, 2.79], [143, 2, 129, 2.57], [2328, 2, 131, 3.17], [11681, 2, 237, 4.74], [305, 2, 101, 4.0], [6936, 2, 239, 5.15], [141, 2, 134, 2.7], [8650, 2, 195, 3.17], [5493, 2, 91, 4.77], [151, 1, 23, 2.15], [2778, 2, 136, 2.57], [206, 2, 94, 2.14], [2049, 3, 469, 3.54], [146, 2, 131, 2.66], [88, 10, 502, 2.33], [7036, 1, 111, 3.73], [8853, 2, 239, 5.12], [8649, 2, 195, 3.93], [1446, 2, 53, 3.05], [5491, 2, 91, 4.77], [362, 2, 123, 3.59], [2055, 3, 398, 4.89], [990, 2, 27, 1.9], [1006, 2, 198, 2.82], [75, 2, 126, 4.07], [3893, 1, 108, 2.83], [11737, 2, 20, 2.32], [417, 2, 134, 2.51], [2050, 3, 398, 4.77], [3840, 1, 60, 1.66], [616, 2, 92, 5.04], [1007, 2, 231, 2.85], [12870, 1, 117, 3.75], [523, 2, 134, 2.18], [159, 3, 373, 1.85], [20927, 1, 55, 3.37], [1504, 2, 176, 2.78], [2057, 3, 398, 4.77], [10574, 3, 439, 3.84], [13280, 1, 274, 5.92], [3, 2, 107, 2.28], [142, 2, 134, 2.29], [997, 2, 206, 4.48], [9760, 29, 63, 2.32], [624, 2, 92, 5.04], [2054, 3, 398, 5.11], [21798, 1, 121, 2.35], [140, 2, 79, 2.49], [2775, 2, 136, 2.99], [3982, 3, 683, 3.79], [21793, 1, 198, 5.91], [8939, 2, 67, 1.71], [11739, 2, 40, 2.53], [1429, 2, 132, 3.05], [996, 2, 206, 4.48], [6158, 2, 228, 3.02], [998, 2, 206, 4.48], [84, 2, 58, 2.25], [1126, 2, 198, 2.91]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 5, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 5, 1.21], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.6], [8675, 2, 5, 0.73], [1504, 2, 6, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [523, 2, 4, 0.66], [22247, 2, 4, 1.0], [8650, 2, 4, 1.27], [142, 2, 4, 0.57], [8648, 2, 4, 0.88], [2328, 2, 4, 0.51], [2776, 2, 4, 0.2], [2327, 2, 4, 0.51], [616, 2, 4, 0.75], [8853, 2, 4, 1.54], [11837, 2, 4, 0.45], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 1.88], [146, 2, 4, 1.12], [412, 1, 4, 1.28], [11835, 2, 4, 0.49], [12353, 1, 4, 1.57], [8674, 2, 5, 1.22], [583, 2, 4, 1.12], [6497, 1, 5, 0.2], [2805, 137, 5, 1.35], [145, 2, 4, 0.51], [10574, 3, 5, 1.29], [418, 2, 4, 0.46], [326, 2, 4, 0.85], [6097, 80, 4, 2.11], [144, 2, 4, 0.5], [9784, 1, 5, 0.85], [11836, 2, 4, 0.54], [10149, 3, 13, 0.4], [413, 1, 4, 1.16], [6097, 29, 4, 0.46], [2057, 3, 4, 0.35], [11234, 2, 4, 0.63], [75, 2, 5, 0.49], [12344, 1, 4, 1.03], [1413, 15, 4, 0.38], [20252, 2, 4, 0.2], [6494, 1, 4, 0.46], [11504, 2, 4, 0.44], [6496, 1, 5, 0.2], [414, 1, 4, 1.16], [8915, 2, 5, 0.2], [1492, 1, 4, 0.53], [6098, 80, 4, 1.16], [2774, 2, 4, 0.2], [247, 1, 4, 0.8], [22316, 3, 4, 0.46], [6098, 29, 4, 1.16], [416, 1, 4, 1.16], [9786, 1, 4, 1.4], [3934, 5, 5, 0.56], [2049, 1, 4, 0.41], [2859, 15, 4, 0.71], [201, 3, 4, 0.51], [6158, 2, 5, 0.44], [3670, 2, 4, 2.81], [3478, 2, 4, 0.89], [11489, 1, 4, 0.39], [13928, 1, 4, 0.43], [2050, 3, 4, 0.35], [7084, 3, 4, 2.46], [9785, 1, 4, 1.51], [12526, 2, 4, 0.93], [9342, 2, 5, 0.38], [3430, 15, 4, 0.36], [8599, 1, 4, 0.37], [4253, 1, 4, 0.47], [8938, 2, 4, 0.57], [186, 3, 7, 0.48], [3982, 3, 12, 0.36], [1413, 16, 4, 0.42], [107, 2, 4, 0.98], [11887, 2, 5, 0.39], [10398, 2, 4, 0.87], [11885, 2, 4, 0.39], [229, 1, 4, 1.15], [11490, 1, 4, 0.5], [11811, 1, 4, 0.38], [1050, 2, 4, 0.36], [94, 4, 4, 1.65], [415, 1, 4, 1.16], [4232, 80, 4, 1.65], [2438, 2, 5, 1.09], [107, 7, 5, 0.94], [436, 2, 4, 0.51], [5939, 3, 4, 0.5], [2421, 80, 4, 0.36], [947, 15, 4, 0.7], [5812, 3, 4, 2.0], [11769, 1, 4, 0.48], [2821, 3, 8, 0.45], [140, 2, 4, 0.85], [11671, 1, 4, 0.42], [11767, 1, 4, 0.48], [3673, 2, 4, 2.01], [11844, 2, 4, 0.47], [11160, 1, 4, 1.67], [5813, 3, 5, 2.0], [9358, 1, 4, 0.52], [11771, 1, 4, 1.61], [3495, 3, 10, 0.85], [7036, 1, 4, 0.43], [12764, 2, 5, 0.46], [409, 1, 4, 1.15], [5811, 3, 6, 0.98], [23920, 2, 4, 0.41], [410, 1, 4, 1.06], [1049, 2, 4, 0.36], [11954, 1, 4, 0.42], [105, 3, 4, 2.04], [13928, 2, 4, 0.43], [9690, 1, 4, 0.67], [11180, 1, 4, 0.39], [5584, 3, 4, 1.55], [2108, 3, 6, 0.54], [22573, 2, 4, 0.39], [8274, 3, 4, 2.3], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.51], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 98, 3.97], [523, 2, 133, 3.51], [22247, 2, 242, 4.11], [8650, 2, 192, 4.43], [142, 2, 133, 3.33], [8648, 2, 192, 4.3], [2328, 2, 151, 3.64], [2776, 2, 134, 3.17], [2327, 2, 151, 3.61], [616, 2, 107, 4.5], [8853, 2, 238, 5.31], [11837, 2, 268, 2.65], [411, 2, 55, 2.98], [146, 2, 76, 3.59], [412, 1, 71, 4.48], [11835, 2, 268, 2.72], [12353, 1, 522, 5.18], [8674, 2, 244, 4.54], [6497, 1, 33, 3.13], [2805, 137, 154, 5.79], [145, 2, 50, 3.73], [10574, 3, 503, 4.63], [418, 2, 121, 3.13], [326, 2, 30, 3.01], [6097, 80, 56, 5.84], [144, 2, 50, 3.7], [9784, 1, 62, 3.85], [11836, 2, 268, 2.82], [10149, 3, 760, 3.82], [413, 1, 86, 4.01], [6097, 29, 34, 3.65], [2057, 3, 404, 2.42], [11234, 2, 93, 2.82], [75, 2, 123, 4.17], [12344, 1, 609, 3.75], [1413, 15, 84, 2.44], [20252, 2, 80, 3.19], [6494, 1, 26, 2.31], [11504, 2, 121, 3.09], [6496, 1, 35, 3.2], [414, 1, 86, 4.01], [1492, 1, 37, 2.8], [6098, 80, 74, 4.01], [2774, 2, 174, 5.39], [247, 1, 86, 4.63], [22316, 3, 319, 2.67], [6098, 29, 37, 4.01], [416, 1, 86, 4.01], [9786, 1, 24, 3.77], [3934, 5, 588, 2.91], [2049, 1, 8, 1.86], [2859, 15, 35, 3.59], [201, 3, 300, 4.45], [6158, 2, 260, 3.98], [3670, 2, 237, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [589, 2, 5, 0.2], [8915, 2, 5, 1.94], [143, 2, 4, 0.44], [2328, 2, 4, 0.76], [6936, 2, 4, 1.66], [8648, 2, 5, 1.15], [205, 2, 4, 0.37], [2775, 2, 4, 0.2], [593, 2, 5, 0.4], [326, 2, 4, 0.72], [8650, 2, 4, 1.53], [145, 2, 4, 1.0], [146, 2, 4, 0.57], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [88, 10, 9, 0.99], [615, 2, 4, 1.37], [141, 2, 5, 0.39], [7004, 1, 4, 1.74], [1124, 2, 5, 0.29], [151, 1, 4, 0.2], [11681, 2, 5, 1.81], [206, 2, 4, 0.37], [9760, 29, 4, 0.67], [8853, 2, 5, 1.7], [5491, 2, 4, 0.45], [1007, 2, 4, 0.2], [362, 2, 5, 0.52], [8672, 2, 4, 1.21], [1504, 2, 5, 0.38], [2057, 3, 4, 0.46], [2912, 1, 4, 0.77], [8938, 2, 4, 0.2], [9372, 1, 4, 0.78], [434, 2, 4, 0.49], [3893, 1, 4, 0.2], [8649, 2, 4, 2.03], [12870, 1, 4, 1.68], [10993, 2, 4, 0.83], [2054, 3, 4, 0.2], [2050, 3, 4, 0.46], [1429, 2, 4, 0.28], [3889, 1, 4, 0.25], [378, 2, 4, 2.29], [7084, 3, 4, 1.07], [2991, 3, 4, 1.1], [10, 2, 4, 0.36], [140, 2, 4, 1.72], [7886, 4, 5, 0.44], [3891, 1, 4, 0.2], [1006, 2, 4, 0.55], [10574, 3, 5, 1.36], [7573, 1, 9, 2.02], [10149, 3, 15, 1.21], [5208, 3, 4, 0.48], [1622, 1, 4, 0.2], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [997, 2, 4, 1.26], [11234, 2, 5, 0.75], [12721, 2, 4, 1.84], [1886, 2, 4, 0.2], [11685, 2, 5, 1.83], [22247, 2, 4, 1.39], [147, 1, 4, 1.82], [229, 1, 4, 0.99], [998, 2, 4, 0.81], [20252, 2, 4, 0.47], [94, 4, 4, 1.42], [2912, 2, 7, 1.24], [9491, 21, 12, 0.22], [972, 3, 5, 0.51], [35, 1, 4, 1.29], [439, 1, 4, 1.06], [76, 2, 5, 0.6], [413, 1, 4, 1.38], [83, 2, 4, 0.2], [13928, 1, 4, 0.7], [5076, 1, 4, 0.97], [1414, 15, 4, 0.62], [8104, 1, 4, 0.86], [5209, 3, 4, 0.98], [33, 1, 4, 0.93], [148, 1, 4, 1.83], [8676, 2, 4, 1.21], [418, 2, 5, 0.63], [11952, 1, 4, 0.42], [412, 1, 4, 0.44], [7887, 4, 4, 0.97], [12212, 29, 4, 0.47], [8898, 3, 4, 1.0], [2774, 2, 4, 0.55], [3495, 3, 10, 0.82], [38, 1, 4, 1.13], [20256, 2, 4, 0.5], [84, 2, 5, 0.9], [11770, 1, 4, 1.95], [34, 1, 4, 1.07], [415, 1, 4, 1.03], [10407, 10, 7, 1.2], [3048, 3, 4, 1.65], [632, 11, 13, 0.45], [9784, 1, 4, 0.52], [126, 2, 4, 0.54], [13928, 2, 4, 0.64], [11772, 1, 4, 0.2], [995, 2, 4, 2.04], [411, 2, 4, 0.46], [8939, 2, 4, 0.2], [9691, 1, 4, 0.41], [9690, 1, 4, 0.37], [39, 1, 4, 1.1], [11953, 1, 4, 0.2], [5584, 3, 5, 1.02], [7567, 3, 4, 1.47], [11954, 1, 4, 0.38], [10410, 10, 9, 1.68], [74, 1, 4, 0.99], [21269, 3, 4, 0.99], [1523, 1, 4, 0.48], [972, 1, 4, 0.53], [159, 1, 4, 0.97], [1519, 3, 10, 0.39], [5164, 1, 4, 1.1], [10408, 10, 5, 1.25], [2327, 2, 125, 3.1], [305, 2, 96, 3.99], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [144, 2, 125, 3.13], [589, 2, 127, 3.01], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.22], [205, 2, 89, 2.31], [2775, 2, 131, 3.06], [593, 2, 189, 3.07], [326, 2, 74, 4.87], [8650, 2, 186, 4.94], [145, 2, 125, 3.56], [146, 2, 125, 3.18], [7036, 1, 107, 5.16], [2049, 3, 181, 2.85], [2776, 2, 131, 3.27], [88, 10, 467, 4.23], [615, 2, 89, 5.14], [141, 2, 130, 2.86], [1124, 2, 154, 3.6], [11681, 2, 221, 6.0], [206, 2, 36, 1.72], [9760, 29, 60, 3.37], [8853, 2, 232, 5.49], [5491, 2, 87, 3.66], [362, 2, 118, 3.09], [8672, 2, 279, 4.78], [1504, 2, 170, 2.83], [2057, 3, 158, 1.88], [2912, 1, 44, 4.46], [9372, 1, 225, 4.83], [434, 2, 87, 3.03], [3893, 1, 104, 2.85], [8649, 2, 186, 5.54], [12870, 1, 114, 5.33], [2054, 3, 134, 2.39], [2050, 3, 158, 1.88], [1429, 2, 126, 3.6], [3889, 1, 104, 3.51], [378, 2, 186, 6.0], [7084, 3, 43, 3.19], [2991, 3, 135, 5.78], [10, 2, 102, 2.53], [3891, 1, 104, 2.9], [1006, 2, 189, 3.15], [10574, 3, 165, 5.19], [7573, 1, 306, 5.58], [10149, 3, 735, 4.24], [5208, 3, 275, 3.9], [1622, 1, 53, 2.97], [75, 2, 120, 4.02], [3, 2, 101, 3.28], [997, 2, 198, 4.46], [12721, 2, 233, 5.17], [1886, 2, 130, 3.17], [11685, 2, 221, 6.0], [22247, 2, 275, 4.37], [147, 1, 74, 5.13], [229, 1, 55, 3.38], [998, 2, 198, 3.64], [20252, 2, 92, 2.54], [94, 4, 100, 4.36], [2912, 2, 323, 4.38]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 13, 1.34], [6935, 2, 19, 5.0], [6936, 2, 9, 3.91], [305, 2, 7, 2.64], [8672, 2, 10, 3.18], [615, 2, 7, 2.64], [1504, 2, 11, 1.98], [2775, 2, 7, 1.27], [145, 2, 7, 2.66], [2776, 2, 7, 2.31], [8853, 2, 7, 3.5], [12721, 2, 11, 1.74], [2327, 2, 7, 1.82], [146, 2, 7, 1.08], [143, 2, 7, 2.43], [2328, 2, 7, 1.85], [11737, 2, 7, 1.32], [11681, 2, 13, 1.41], [141, 2, 7, 2.37], [5491, 2, 7, 1.08], [2497, 2, 7, 0.98], [205, 2, 7, 1.08], [144, 2, 7, 2.63], [8650, 2, 9, 1.91], [8676, 2, 7, 2.04], [5493, 2, 7, 1.66], [8673, 2, 7, 1.42], [417, 2, 7, 2.37], [308, 1, 11, 1.4], [3670, 2, 9, 5.0], [8648, 2, 7, 1.91], [589, 2, 7, 0.77], [3, 2, 7, 1.23], [206, 2, 7, 1.08], [6097, 80, 7, 1.86], [22247, 2, 7, 2.33], [8674, 2, 7, 2.35], [11836, 2, 7, 0.96], [6497, 1, 7, 0.85], [12343, 1, 7, 2.08], [12349, 1, 7, 4.0], [624, 2, 7, 1.96], [2424, 29, 7, 2.28], [593, 2, 8, 0.88], [523, 2, 7, 1.27], [12344, 1, 7, 2.08], [6097, 29, 7, 1.86], [12720, 2, 7, 1.69], [6098, 80, 7, 2.23], [12345, 1, 7, 4.0], [11739, 2, 7, 1.32], [2424, 80, 7, 2.28], [944, 15, 7, 0.67], [88, 10, 16, 2.1], [8915, 2, 7, 0.79], [75, 2, 7, 2.25], [60, 3, 8, 2.04], [326, 2, 7, 1.86], [6494, 1, 7, 0.89], [142, 2, 7, 2.37], [1492, 1, 7, 1.02], [1413, 15, 7, 0.69], [411, 2, 7, 0.92], [1050, 2, 7, 0.73], [2422, 80, 7, 2.39], [947, 15, 7, 0.94], [6496, 1, 7, 0.98], [6098, 29, 7, 2.23], [378, 2, 7, 4.41], [10149, 3, 21, 2.21], [12346, 1, 7, 4.0], [2422, 29, 7, 2.39], [7704, 2, 7, 3.01], [151, 1, 7, 1.36], [1243, 2, 7, 1.48], [22316, 3, 7, 0.89], [11738, 2, 7, 1.32], [13264, 29, 7, 1.0], [345, 3, 7, 2.23], [1490, 1, 7, 0.87], [229, 1, 7, 3.85], [13258, 29, 9, 3.02], [1049, 2, 7, 0.73], [20252, 2, 7, 2.54], [12269, 2, 7, 0.9], [964, 15, 7, 0.77], [2331, 1, 7, 1.06], [10407, 10, 10, 3.24], [201, 3, 7, 4.28], [7004, 1, 7, 1.56], [2821, 3, 13, 0.82], [5208, 3, 9, 1.07], [307, 2, 7, 2.0], [1163, 3, 7, 2.79], [186, 3, 12, 0.91], [149, 2, 7, 0.97], [432, 3, 7, 2.04], [13259, 29, 11, 3.42], [957, 2, 7, 1.06], [7705, 2, 7, 3.01], [418, 2, 7, 0.98], [7706, 2, 7, 3.01], [12229, 2, 7, 0.87], [13928, 1, 7, 0.83], [20255, 2, 7, 1.04], [11687, 2, 7, 0.96], [10406, 10, 12, 2.42], [11844, 2, 7, 1.16], [2421, 80, 7, 0.69], [3478, 2, 7, 2.16], [8938, 2, 7, 1.02], [1414, 15, 7, 1.1], [9784, 1, 7, 1.75], [7036, 1, 7, 0.87], [410, 1, 7, 1.33], [12870, 1, 7, 2.46], [10408, 10, 10, 2.41], [5490, 2, 7, 0.94], [10410, 10, 10, 3.08], [11402, 1, 7, 0.89], [19687, 1, 7, 2.33], [11490, 1, 7, 1.1], [107, 7, 8, 2.91], [2703, 3, 7, 4.1], [21781, 2, 7, 0.9], [1886, 2, 7, 0.67], [956, 2, 7, 1.02], [4232, 80, 7, 3.23], [13258, 25, 7, 2.35], [11161, 1, 10, 3.92], [159, 16, 7, 1.81], [10411, 10, 10, 2.12], [9760, 29, 7, 1.64], [12346, 1, 615, 5.79], [2422, 29, 37, 4.17], [7704, 2, 177, 4.8], [1243, 2, 99, 3.26], [22316, 3, 319, 2.67], [11738, 2, 57, 3.1], [13264, 29, 73, 2.78], [345, 3, 298, 4.01], [1490, 1, 51, 2.65], [229, 1, 82, 5.63], [13258, 29, 39, 4.8], [20252, 2, 93, 4.32], [12269, 2, 65, 2.68], [2331, 1, 119, 2.84], [10407, 10, 1181, 5.04], [201, 3, 198, 5.88], [7004, 1, 27, 2.63], [2821, 3, 671, 2.23], [5208, 3, 283, 2.49], [307, 2, 149, 3.78], [186, 3, 336, 2.34], [149, 2, 88, 2.75], [432, 3, 301, 3.83], [13259, 29, 35, 5.2], [957, 2, 107, 2.84], [7705, 2, 177, 4.8], [418, 2, 143, 2.76], [7706, 2, 177, 4.8], [12229, 2, 152, 2.65], [13928, 1, 49, 2.61], [20255, 2, 93, 2.82], [11687, 2, 102, 2.03], [10406, 10, 1790, 4.18], [11844, 2, 93, 2.23], [2421, 80, 215, 2.47], [3478, 2, 38, 3.59], [8938, 2, 192, 2.81], [9784, 1, 72, 3.53], [7036, 1, 128, 2.65], [410, 1, 53, 2.76], [12870, 1, 138, 4.24], [10408, 10, 782, 4.19], [5490, 2, 109, 2.72], [10410, 10, 1181, 4.88], [11402, 1, 23, 2.32], [19687, 1, 30, 4.11], [11490, 1, 55, 2.52], [107, 7, 240, 4.69], [2703, 3, 301, 5.89], [21781, 2, 52, 2.33], [1886, 2, 158, 2.45], [956, 2, 107, 2.8], [4232, 80, 154, 5.02], [13258, 25, 79, 4.13], [11161, 1, 492, 5.7], [159, 16, 26, 2.88], [10411, 10, 782, 3.89], [9760, 29, 60, 3.35]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 9, 3.61], [362, 2, 7, 1.44], [5491, 2, 9, 0.9], [130, 1, 9, 1.36], [5493, 2, 9, 1.1], [589, 2, 7, 1.45], [2327, 2, 7, 2.32], [326, 2, 7, 1.63], [11685, 2, 7, 1.64], [8672, 2, 10, 1.91], [417, 2, 9, 1.16], [6935, 2, 12, 3.74], [11681, 2, 13, 2.0], [205, 2, 7, 0.74], [8648, 2, 7, 2.53], [206, 2, 9, 0.77], [6936, 2, 9, 2.9], [8915, 2, 7, 1.21], [142, 2, 9, 0.87], [11838, 2, 9, 1.02], [2049, 3, 14, 1.23], [12721, 2, 11, 1.95], [1446, 2, 7, 1.82], [523, 2, 7, 1.72], [8676, 2, 7, 2.05], [615, 2, 7, 2.98], [11737, 2, 7, 2.08], [305, 2, 7, 2.64], [12353, 1, 7, 1.24], [413, 1, 7, 2.75], [412, 1, 7, 1.78], [411, 2, 7, 0.94], [10574, 3, 10, 2.84], [145, 2, 7, 2.66], [8675, 2, 9, 2.44], [12349, 1, 7, 1.11], [76, 2, 7, 1.11], [990, 2, 7, 2.15], [1429, 2, 7, 0.92], [2775, 2, 7, 0.83], [143, 2, 7, 2.66], [8673, 2, 7, 1.45], [8674, 2, 7, 1.46], [8938, 2, 7, 1.87], [11836, 2, 9, 0.86], [146, 2, 7, 1.08], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [6158, 2, 9, 3.5], [2050, 3, 7, 3.23], [10149, 3, 21, 1.48], [3495, 3, 17, 1.57], [2776, 2, 7, 1.07], [12350, 1, 7, 1.03], [75, 2, 7, 2.25], [2057, 3, 7, 3.23], [1504, 2, 11, 1.43], [144, 2, 7, 2.63], [8939, 2, 7, 3.23], [416, 1, 7, 1.41], [7885, 4, 7, 1.31], [22316, 3, 7, 0.89], [88, 10, 16, 2.1], [2859, 15, 7, 0.85], [159, 3, 9, 1.86], [418, 2, 7, 0.68], [7084, 3, 7, 1.96], [10993, 2, 7, 1.6], [12346, 1, 7, 0.98], [20252, 2, 7, 1.94], [9784, 1, 7, 1.69], [7705, 2, 7, 3.01], [2424, 29, 9, 3.84], [12526, 2, 7, 2.78], [2423, 80, 7, 2.2], [2423, 29, 7, 2.26], [11844, 2, 7, 1.16], [12351, 1, 7, 1.26], [60, 3, 8, 3.51], [414, 1, 7, 1.41], [378, 2, 7, 3.33], [12345, 1, 7, 1.07], [6494, 1, 7, 0.89], [13023, 3, 12, 2.63], [2424, 80, 7, 2.28], [11490, 1, 7, 0.89], [201, 3, 7, 2.66], [13034, 3, 9, 2.71], [12373, 1, 11, 2.99], [1519, 3, 15, 0.73], [345, 3, 7, 1.27], [11489, 1, 7, 1.94], [5208, 3, 9, 0.94], [7886, 4, 7, 0.81], [3, 2, 7, 5.0], [159, 1, 7, 1.87], [6952, 1, 7, 0.97], [20927, 1, 7, 1.33], [11954, 1, 7, 0.85], [3430, 15, 7, 1.84], [432, 3, 7, 2.04], [566, 2, 7, 0.96], [13928, 1, 9, 0.75], [11504, 2, 7, 1.0], [11811, 1, 7, 1.93], [11952, 1, 7, 0.83], [2703, 3, 7, 4.1], [114, 3, 7, 3.3], [2331, 1, 7, 1.06], [7004, 1, 7, 1.96], [5584, 3, 7, 3.1], [1492, 1, 7, 1.02], [10407, 10, 10, 3.24], [105, 3, 7, 3.3], [1490, 1, 7, 4.01], [11089, 1, 7, 0.77], [6098, 80, 7, 2.23], [8274, 3, 7, 4.43], [944, 15, 7, 0.79], [12348, 1, 7, 1.26], [10410, 10, 10, 3.08], [1886, 2, 7, 0.81], [7706, 2, 7, 3.01], [308, 1, 11, 2.72], [11674, 1, 7, 0.69], [3981, 3, 13, 0.91], [3891, 1, 7, 2.19], [94, 4, 7, 4.06], [6097, 80, 7, 1.86], [11953, 1, 7, 0.92], [9082, 3, 24, 2.83], [2423, 29, 37, 4.04], [11844, 2, 93, 2.23], [12351, 1, 632, 3.04], [60, 3, 536, 5.12], [414, 1, 86, 3.19], [378, 2, 192, 5.45], [12345, 1, 632, 2.84], [6494, 1, 26, 2.31], [13023, 3, 501, 4.92], [2424, 80, 171, 4.06], [11490, 1, 55, 2.32], [201, 3, 253, 4.95], [13034, 3, 594, 4.5], [12373, 1, 534, 4.76], [1519, 3, 1664, 2.54], [345, 3, 299, 3.05], [5208, 3, 189, 2.02], [7886, 4, 48, 2.73], [3, 2, 118, 6.0], [159, 1, 13, 2.94], [6952, 1, 191, 2.75], [20927, 1, 27, 2.4], [11954, 1, 203, 2.63], [3430, 15, 69, 3.63], [432, 3, 301, 3.83], [566, 2, 117, 2.56], [13928, 1, 41, 3.1], [11504, 2, 143, 2.78], [11811, 1, 453, 3.71], [11952, 1, 203, 2.62], [2703, 3, 301, 5.89], [114, 3, 81, 4.37], [2331, 1, 119, 2.84], [5584, 3, 229, 4.88], [1492, 1, 37, 2.8], [10407, 10, 1181, 5.04], [1490, 1, 48, 5.79], [11089, 1, 174, 2.55], [6098, 80, 74, 4.01], [944, 15, 15, 1.86], [12348, 1, 632, 3.04], [10410, 10, 1181, 4.88], [1886, 2, 158, 2.59], [7706, 2, 177, 4.8], [308, 1, 169, 4.5], [11674, 1, 206, 2.47], [3981, 3, 1687, 2.69], [3891, 1, 123, 3.97], [94, 4, 116, 5.85], [6097, 80, 68, 3.65], [11953, 1, 102, 2.35], [9082, 3, 2461, 4.58]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 2.91], [362, 2, 7, 1.54], [589, 2, 12, 0.68], [141, 2, 7, 1.04], [75, 2, 9, 2.45], [130, 1, 7, 1.89], [1776, 1, 7, 1.12], [20252, 2, 7, 1.17], [205, 2, 7, 1.12], [8915, 2, 11, 0.67], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [6936, 2, 10, 2.79], [593, 2, 14, 0.83], [7886, 4, 7, 1.01], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 17, 2.5], [11681, 2, 10, 5.0], [990, 2, 9, 0.92], [8650, 2, 7, 3.25], [248, 1, 7, 0.73], [412, 1, 7, 2.17], [5151, 2, 7, 1.73], [144, 2, 7, 2.61], [2050, 3, 7, 2.4], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [10149, 3, 25, 3.26], [2991, 3, 7, 4.22], [22247, 2, 9, 3.0], [57, 1, 9, 0.68], [3478, 2, 7, 2.86], [146, 2, 7, 2.04], [7004, 1, 7, 0.9], [45, 2, 7, 2.65], [2054, 3, 7, 4.0], [143, 2, 7, 2.43], [417, 2, 9, 1.87], [413, 1, 7, 2.13], [21793, 1, 7, 3.62], [167, 3, 9, 2.7], [201, 3, 10, 2.56], [74, 1, 7, 3.02], [2055, 3, 7, 2.83], [1446, 2, 9, 1.06], [168, 3, 9, 1.48], [7084, 3, 7, 2.95], [10, 2, 11, 2.55], [11234, 2, 9, 0.93], [1429, 2, 9, 0.98], [12721, 2, 10, 1.92], [335, 3, 18, 4.35], [7036, 1, 7, 2.84], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [308, 1, 9, 4.83], [8649, 2, 7, 2.97], [13028, 3, 7, 0.92], [12870, 1, 7, 4.49], [10825, 21, 14, 0.7], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 0.7], [3893, 1, 7, 1.67], [1006, 2, 7, 1.72], [145, 2, 7, 2.69], [5208, 3, 13, 1.57], [432, 3, 7, 1.25], [1504, 2, 7, 1.39], [9827, 3, 7, 0.86], [7005, 1, 7, 0.9], [1490, 1, 7, 1.35], [94, 4, 7, 3.04], [5812, 3, 8, 2.14], [13260, 29, 7, 1.35], [8853, 2, 11, 2.88], [411, 2, 7, 1.12], [416, 1, 7, 2.37], [142, 2, 7, 2.87], [8651, 2, 7, 2.21], [12353, 1, 6, 1.55], [21269, 3, 7, 4.99], [12349, 1, 7, 3.09], [33, 1, 7, 1.27], [998, 2, 9, 2.41], [5086, 1, 6, 2.04], [9069, 1, 7, 3.12], [12350, 1, 7, 3.09], [229, 1, 9, 5.0], [2878, 1, 7, 1.77], [1243, 2, 9, 2.28], [140, 2, 7, 0.9], [7567, 3, 7, 3.13], [2049, 1, 7, 3.02], [126, 2, 7, 1.87], [20927, 1, 7, 1.28], [3980, 4, 9, 3.25], [1703, 2, 7, 2.66], [35, 1, 7, 1.34], [8274, 3, 7, 2.09], [997, 2, 7, 1.16], [5209, 3, 7, 1.19], [9691, 1, 7, 2.81], [11914, 1, 9, 1.52], [5584, 3, 7, 3.42], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [856, 1, 7, 0.73], [1519, 3, 17, 0.68], [5660, 2, 7, 2.02], [5513, 2, 7, 0.89], [159, 3, 10, 1.33], [523, 2, 7, 1.87], [8898, 3, 7, 5.0], [1091, 1, 7, 1.1], [2775, 2, 7, 1.06], [11767, 1, 7, 0.89], [996, 2, 7, 3.45], [8926, 1, 7, 3.38], [13034, 3, 10, 2.76], [9081, 3, 12, 3.64], [23961, 3, 7, 2.61], [12661, 1, 7, 2.31], [307, 2, 7, 2.19], [8676, 2, 7, 2.91], [9372, 1, 7, 1.55], [145, 2, 119, 3.85], [5208, 3, 259, 2.58], [432, 3, 239, 2.41], [1504, 2, 161, 2.55], [9827, 3, 69, 2.51], [7005, 1, 73, 2.06], [1490, 1, 40, 2.51], [94, 4, 94, 4.2], [5812, 3, 459, 3.78], [13260, 29, 57, 2.51], [8853, 2, 223, 4.41], [411, 2, 50, 1.89], [416, 1, 68, 3.53], [8651, 2, 176, 3.76], [12353, 1, 474, 3.2], [21269, 3, 230, 6.0], [12349, 1, 557, 4.25], [33, 1, 88, 2.86], [998, 2, 188, 4.57], [5086, 1, 144, 3.69], [9069, 1, 56, 3.89], [12350, 1, 474, 4.74], [2878, 1, 63, 2.93], [1243, 2, 77, 3.44], [140, 2, 72, 2.51], [7567, 3, 55, 4.78], [126, 2, 63, 2.9], [20927, 1, 73, 2.44], [3980, 4, 377, 4.41], [1703, 2, 149, 3.82], [35, 1, 88, 2.5], [997, 2, 188, 2.76], [5209, 3, 444, 2.35], [11914, 1, 68, 3.17], [5584, 3, 218, 4.58], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [856, 1, 16, 1.5], [1519, 3, 1313, 2.31], [5660, 2, 138, 3.59], [5513, 2, 59, 2.49], [159, 3, 554, 2.99], [523, 2, 122, 3.03], [8898, 3, 221, 6.0], [1091, 1, 38, 2.75], [2775, 2, 123, 2.71], [11767, 1, 151, 2.05], [996, 2, 219, 4.61], [8926, 1, 56, 4.54], [13034, 3, 459, 4.14], [9081, 3, 359, 5.3], [23961, 3, 269, 3.77], [12661, 1, 64, 3.47], [307, 2, 117, 3.35], [8676, 2, 262, 4.07], [9372, 1, 210, 2.71]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 20, 1.6], [8915, 2, 8, 3.41], [2327, 2, 7, 1.0], [589, 2, 10, 0.87], [2778, 2, 7, 1.43], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 3.06], [305, 2, 6, 0.82], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 6, 1.82], [7004, 1, 9, 3.07], [2049, 3, 12, 0.72], [159, 3, 10, 0.96], [143, 2, 7, 1.81], [10, 2, 9, 2.55], [593, 2, 11, 1.21], [205, 2, 7, 0.74], [2775, 2, 7, 0.93], [5491, 2, 7, 1.52], [7036, 1, 9, 3.03], [144, 2, 7, 2.0], [94, 4, 7, 2.73], [8938, 2, 9, 0.84], [434, 2, 9, 0.79], [3893, 1, 7, 1.21], [146, 2, 7, 2.06], [1504, 2, 7, 0.73], [8853, 2, 7, 3.51], [1429, 2, 7, 1.46], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [141, 2, 7, 1.22], [362, 2, 7, 1.0], [2776, 2, 7, 1.13], [206, 2, 7, 0.74], [75, 2, 7, 2.39], [11681, 2, 11, 4.38], [5208, 3, 9, 1.28], [8649, 2, 7, 2.49], [1007, 2, 7, 0.85], [3889, 1, 7, 1.88], [7886, 4, 7, 0.8], [10993, 2, 7, 1.6], [2054, 3, 7, 1.93], [7005, 1, 9, 1.49], [12870, 1, 7, 3.23], [10149, 3, 21, 2.58], [12353, 1, 7, 1.26], [2050, 3, 7, 0.89], [145, 2, 7, 1.93], [2912, 1, 7, 2.83], [5165, 1, 7, 2.5], [20927, 1, 7, 2.43], [9760, 29, 9, 0.97], [998, 2, 7, 1.56], [2436, 4, 7, 2.18], [1006, 2, 7, 1.51], [1886, 2, 9, 1.04], [997, 2, 9, 2.32], [972, 3, 10, 1.52], [3, 2, 7, 0.92], [229, 1, 7, 0.94], [3495, 3, 14, 1.61], [6158, 2, 9, 4.29], [632, 11, 21, 0.79], [5165, 2, 8, 3.64], [7887, 4, 7, 1.87], [12345, 1, 7, 1.26], [5076, 1, 7, 1.46], [11770, 1, 7, 3.75], [9372, 1, 7, 3.2], [126, 2, 7, 1.3], [20252, 2, 7, 0.9], [74, 1, 7, 3.33], [12344, 1, 7, 1.26], [11953, 1, 7, 1.0], [8939, 2, 7, 1.39], [140, 2, 7, 3.31], [11685, 2, 11, 4.43], [1492, 1, 7, 0.87], [2912, 2, 12, 2.75], [12350, 1, 7, 1.26], [12721, 2, 7, 2.71], [2774, 2, 7, 1.21], [20256, 2, 7, 0.96], [3981, 3, 22, 1.37], [9491, 21, 26, 0.95], [22316, 3, 7, 0.94], [12343, 1, 7, 1.26], [2423, 80, 7, 0.92], [11952, 1, 7, 0.81], [5434, 1, 7, 1.6], [6497, 1, 7, 4.13], [11772, 1, 7, 0.84], [5584, 3, 7, 5.0], [12351, 1, 7, 1.26], [335, 3, 15, 0.69], [12229, 2, 7, 0.94], [7573, 1, 16, 3.95], [2438, 2, 8, 1.68], [10407, 10, 10, 3.08], [10388, 2, 7, 1.98], [11179, 1, 7, 1.6], [823, 1, 7, 4.12], [5209, 3, 9, 1.28], [6496, 1, 7, 1.33], [2805, 137, 7, 2.35], [3900, 3, 7, 2.17], [11812, 1, 7, 0.84], [4253, 1, 7, 1.04], [1703, 2, 7, 3.66], [1622, 1, 7, 0.87], [8676, 2, 7, 3.15], [972, 1, 7, 1.94], [22247, 2, 7, 2.74], [412, 1, 7, 0.94], [1414, 15, 7, 1.19], [6097, 80, 7, 1.98], [159, 16, 7, 1.02], [10386, 2, 7, 4.24], [2991, 3, 7, 3.96], [1274, 1, 7, 1.26], [9784, 1, 7, 1.0], [6805, 1, 7, 0.97], [11814, 1, 7, 0.92], [10410, 10, 15, 3.16], [8635, 3, 7, 3.91], [11813, 1, 7, 0.89], [7567, 3, 7, 2.83], [126, 2, 88, 2.93], [20252, 2, 92, 2.54], [74, 1, 192, 4.97], [12344, 1, 615, 2.89], [11953, 1, 196, 2.64], [11685, 2, 221, 6.0], [1492, 1, 37, 2.5], [2912, 2, 375, 4.38], [12350, 1, 615, 2.89], [12721, 2, 233, 4.34], [2774, 2, 201, 2.84], [20256, 2, 92, 2.6], [3981, 3, 1366, 3.43], [9491, 21, 1763, 3.05], [22316, 3, 310, 2.57], [12343, 1, 615, 2.89], [2423, 80, 185, 2.55], [11952, 1, 196, 2.45], [5434, 1, 48, 3.23], [6497, 1, 35, 5.77], [11772, 1, 182, 2.97], [5584, 3, 198, 6.0], [12351, 1, 615, 2.89], [12229, 2, 149, 2.57], [7573, 1, 306, 5.58], [2438, 2, 629, 3.32], [10407, 10, 1150, 4.72], [10388, 2, 213, 3.62], [11179, 1, 85, 3.24], [823, 1, 39, 5.75], [5209, 3, 275, 3.9], [6496, 1, 38, 2.97], [2805, 137, 176, 3.98], [3900, 3, 42, 3.8], [11812, 1, 195, 2.98], [4253, 1, 142, 3.13], [1703, 2, 156, 5.29], [1622, 1, 53, 2.97], [8676, 2, 279, 4.78], [972, 1, 49, 3.66], [22247, 2, 275, 4.37], [412, 1, 82, 2.57], [1414, 15, 33, 2.17], [6097, 80, 69, 3.61], [159, 16, 66, 3.16], [10386, 2, 179, 6.0], [2991, 3, 158, 5.59], [1274, 1, 80, 2.89], [9784, 1, 71, 2.63], [6805, 1, 444, 2.61], [11814, 1, 183, 2.49], [10410, 10, 1150, 4.8], [11813, 1, 156, 2.2], [7567, 3, 67, 4.46]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.33], [6936, 2, 13, 3.9], [362, 2, 7, 1.08], [8648, 2, 7, 4.05], [2327, 2, 7, 1.79], [11681, 2, 16, 4.05], [8650, 2, 7, 3.82], [326, 2, 9, 1.32], [205, 2, 9, 0.85], [2328, 2, 9, 1.6], [1446, 2, 7, 0.92], [305, 2, 7, 2.34], [2049, 3, 9, 0.96], [130, 1, 7, 2.79], [8649, 2, 7, 5.0], [2775, 2, 7, 2.33], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [2776, 2, 7, 2.25], [593, 2, 9, 0.96], [143, 2, 7, 2.18], [140, 2, 9, 2.4], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [5493, 2, 7, 0.98], [523, 2, 7, 1.49], [413, 1, 7, 1.37], [7004, 1, 7, 1.71], [7036, 1, 7, 2.73], [21793, 1, 7, 2.44], [412, 1, 7, 1.25], [5491, 2, 7, 1.1], [151, 1, 7, 0.71], [1124, 2, 9, 1.09], [990, 2, 7, 1.94], [5165, 1, 9, 1.87], [8915, 2, 10, 2.24], [615, 2, 7, 3.12], [583, 2, 9, 1.16], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [434, 2, 7, 1.73], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [201, 3, 7, 3.56], [142, 2, 7, 1.08], [11770, 1, 7, 0.83], [345, 3, 9, 1.82], [2055, 3, 7, 1.56], [3891, 1, 7, 1.75], [9372, 1, 7, 1.55], [2057, 3, 7, 1.56], [616, 2, 7, 1.66], [5165, 2, 15, 2.8], [7084, 3, 7, 5.0], [7005, 1, 7, 1.31], [3893, 1, 7, 1.21], [3670, 2, 7, 2.83], [12870, 1, 7, 2.27], [1886, 2, 7, 1.52], [10574, 3, 8, 1.92], [3334, 5, 7, 1.99], [6098, 80, 7, 2.68], [7885, 4, 7, 0.94], [6097, 29, 9, 5.0], [20927, 1, 7, 1.66], [3889, 1, 7, 1.21], [11089, 1, 7, 0.96], [12345, 1, 7, 0.85], [6158, 2, 7, 3.37], [147, 1, 9, 2.75], [10149, 3, 24, 2.21], [22316, 3, 7, 0.96], [1492, 1, 9, 0.68], [432, 3, 7, 1.65], [11953, 1, 7, 0.92], [20252, 2, 7, 1.68], [11491, 2, 7, 0.96], [418, 2, 7, 1.8], [4032, 29, 7, 1.0], [411, 2, 7, 1.04], [1519, 3, 16, 0.68], [1490, 1, 7, 0.75], [2423, 80, 7, 1.66], [11952, 1, 7, 1.53], [229, 1, 7, 3.98], [972, 3, 9, 2.0], [5151, 2, 7, 2.02], [11769, 1, 7, 0.9], [3576, 25, 7, 2.25], [2331, 1, 7, 3.16], [416, 1, 7, 1.91], [13034, 3, 7, 2.91], [11426, 25, 7, 1.12], [11767, 1, 7, 0.89], [11737, 2, 7, 0.96], [439, 1, 9, 3.64], [3, 2, 7, 1.41], [5076, 1, 7, 1.21], [11583, 29, 7, 1.34], [2805, 137, 7, 1.99], [11490, 1, 7, 1.37], [2160, 68, 7, 2.34], [414, 1, 7, 1.46], [6494, 1, 7, 3.12], [410, 1, 7, 0.83], [1701, 2, 7, 2.58], [8677, 3, 8, 1.95], [3575, 25, 7, 2.39], [11180, 1, 7, 1.27], [11814, 1, 7, 0.92], [75, 2, 7, 0.97], [3478, 2, 7, 1.08], [11585, 29, 7, 2.16], [13023, 3, 8, 2.24], [11813, 1, 7, 3.17], [2438, 2, 8, 2.01], [9784, 1, 7, 1.74], [11954, 1, 7, 0.98], [4033, 29, 7, 1.1], [6098, 29, 7, 1.29], [4253, 1, 7, 3.2], [23238, 29, 7, 0.83], [8283, 2, 8, 0.86], [23238, 25, 7, 0.79], [11404, 2, 7, 0.83], [9289, 29, 7, 2.54], [9069, 1, 7, 1.56], [4232, 80, 7, 3.16], [10149, 3, 741, 3.62], [22316, 3, 274, 2.37], [1492, 1, 28, 2.62], [432, 3, 106, 3.06], [11953, 1, 172, 2.33], [20252, 2, 68, 3.1], [11491, 2, 121, 2.37], [418, 2, 121, 3.21], [4032, 29, 82, 2.42], [411, 2, 80, 2.91], [1519, 3, 1222, 2.59], [1490, 1, 44, 2.17], [2423, 80, 155, 3.08], [11952, 1, 172, 2.94], [229, 1, 70, 5.4], [972, 3, 432, 3.8], [5151, 2, 18, 3.44], [11769, 1, 141, 2.32], [3576, 25, 87, 3.67], [2331, 1, 100, 4.58], [416, 1, 63, 3.33], [13034, 3, 507, 4.32], [11426, 25, 103, 2.54], [11767, 1, 141, 2.31], [11737, 2, 49, 2.37], [439, 1, 63, 5.15], [3, 2, 105, 2.82], [5076, 1, 112, 2.62], [11583, 29, 19, 2.76], [2805, 137, 154, 3.41], [11490, 1, 93, 2.79], [2160, 68, 112, 3.75], [414, 1, 74, 2.88], [6494, 1, 42, 4.54], [410, 1, 72, 2.72], [1701, 2, 141, 4.0], [8677, 3, 253, 3.37], [3575, 25, 87, 3.8], [11180, 1, 75, 2.68], [11814, 1, 192, 2.34], [75, 2, 124, 2.38], [3478, 2, 65, 2.5], [11585, 29, 148, 3.58], [13023, 3, 509, 3.66], [11813, 1, 266, 4.58], [2438, 2, 551, 3.43], [9784, 1, 61, 3.15], [11954, 1, 172, 2.4], [4033, 29, 88, 2.52], [6098, 29, 33, 2.71], [4253, 1, 144, 4.61], [23238, 29, 26, 2.16], [8283, 2, 410, 2.28], [23238, 25, 51, 2.12], [11404, 2, 90, 2.25], [9289, 29, 55, 3.96], [9069, 1, 105, 2.97], [4232, 80, 131, 4.58]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.82], [305, 2, 7, 2.64], [2778, 2, 7, 1.12], [5493, 2, 7, 3.32], [6936, 2, 9, 3.71], [130, 1, 7, 1.71], [205, 2, 7, 1.35], [616, 2, 7, 3.6], [144, 2, 7, 0.96], [2049, 3, 14, 2.08], [8648, 2, 7, 1.72], [1504, 2, 7, 1.33], [88, 10, 15, 0.89], [8915, 2, 8, 3.41], [326, 2, 7, 1.79], [7036, 1, 7, 2.28], [8650, 2, 7, 1.72], [593, 2, 9, 1.44], [2327, 2, 7, 0.94], [11681, 2, 9, 3.29], [3893, 1, 7, 1.38], [8853, 2, 7, 3.67], [141, 2, 7, 1.25], [2775, 2, 7, 1.54], [206, 2, 7, 0.69], [7004, 1, 7, 2.33], [151, 1, 7, 1.25], [9507, 3, 7, 0.69], [248, 1, 7, 2.17], [11685, 2, 7, 3.32], [10, 2, 7, 0.69], [2328, 2, 7, 1.73], [146, 2, 7, 1.21], [2050, 3, 7, 3.31], [2497, 2, 7, 2.34], [5491, 2, 7, 3.32], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [3980, 4, 7, 2.36], [990, 2, 7, 0.69], [21798, 1, 7, 0.9], [2054, 3, 7, 3.66], [12349, 1, 7, 3.21], [624, 2, 7, 3.6], [8672, 2, 7, 3.15], [8649, 2, 7, 2.49], [12870, 1, 7, 2.3], [362, 2, 7, 2.14], [7885, 4, 7, 0.85], [2776, 2, 7, 1.54], [12350, 1, 7, 3.21], [2057, 3, 7, 3.31], [7886, 4, 7, 0.92], [12353, 1, 7, 3.21], [10574, 3, 8, 2.4], [13028, 3, 7, 1.25], [1006, 2, 7, 1.37], [523, 2, 7, 0.73], [1446, 2, 7, 2.14], [3975, 4, 7, 2.49], [7005, 1, 7, 1.81], [75, 2, 7, 2.62], [94, 4, 7, 4.47], [3495, 3, 21, 1.64], [2991, 3, 7, 3.97], [12346, 1, 7, 3.21], [11404, 2, 7, 0.83], [9760, 29, 7, 0.87], [10149, 3, 21, 1.48], [142, 2, 7, 0.85], [20927, 1, 7, 2.01], [6158, 2, 7, 1.57], [3981, 3, 21, 2.03], [3982, 3, 17, 2.34], [417, 2, 7, 1.06], [8939, 2, 7, 0.81], [11953, 1, 7, 0.83], [1007, 2, 7, 1.4], [956, 2, 7, 0.71], [997, 2, 7, 3.03], [33, 1, 7, 2.0], [11772, 1, 7, 0.85], [2774, 2, 7, 1.88], [7887, 4, 7, 1.83], [6497, 1, 7, 1.0], [1492, 1, 7, 0.87], [432, 3, 7, 0.9], [12345, 1, 7, 3.21], [972, 3, 7, 2.91], [12352, 1, 7, 3.21], [998, 2, 7, 3.03], [11767, 1, 7, 1.1], [11770, 1, 7, 0.87], [11769, 1, 7, 1.93], [336, 15, 7, 1.39], [35, 1, 7, 1.27], [12351, 1, 7, 3.21], [996, 2, 7, 3.03], [389, 4, 7, 1.69], [74, 1, 7, 2.29], [11490, 1, 7, 1.12], [7567, 3, 7, 3.91], [11952, 1, 7, 0.87], [411, 2, 7, 0.98], [6496, 1, 7, 0.94], [12721, 2, 7, 2.18], [140, 2, 7, 1.04], [22317, 3, 7, 0.98], [8121, 3, 7, 1.06], [8673, 2, 7, 2.37], [4176, 4, 7, 2.57], [1126, 2, 7, 1.47], [2436, 4, 7, 1.72], [1277, 1, 7, 3.27], [9372, 1, 7, 4.21], [8676, 2, 7, 2.33], [11085, 2, 8, 2.78], [8677, 3, 7, 3.38], [1274, 1, 7, 1.16], [21269, 3, 7, 3.5], [12343, 1, 7, 3.21], [10936, 2, 7, 3.27], [22247, 2, 7, 2.27], [37, 1, 7, 1.27], [10388, 2, 7, 2.13], [823, 1, 7, 0.94], [12526, 2, 7, 2.5], [9784, 1, 7, 1.06], [6494, 1, 7, 0.83], [13023, 3, 7, 2.44], [7573, 1, 11, 3.51], [1429, 2, 7, 1.6], [345, 3, 7, 0.98], [3982, 3, 683, 3.79], [417, 2, 134, 2.51], [8939, 2, 67, 1.71], [11953, 1, 175, 2.28], [1007, 2, 231, 2.85], [956, 2, 93, 2.16], [997, 2, 206, 4.48], [33, 1, 96, 3.44], [11772, 1, 191, 2.29], [2774, 2, 176, 3.32], [6497, 1, 33, 2.45], [1492, 1, 32, 2.32], [432, 3, 265, 2.35], [12345, 1, 545, 4.66], [972, 3, 409, 4.26], [12352, 1, 545, 4.66], [998, 2, 206, 4.48], [11767, 1, 140, 2.55], [11770, 1, 190, 2.32], [11769, 1, 140, 3.37], [336, 15, 96, 2.83], [35, 1, 96, 2.72], [12351, 1, 545, 4.66], [996, 2, 206, 4.48], [389, 4, 180, 3.14], [74, 1, 177, 3.74], [11490, 1, 94, 2.57], [7567, 3, 60, 5.36], [11952, 1, 175, 2.32], [411, 2, 94, 2.43], [6496, 1, 36, 2.39], [12721, 2, 245, 3.62], [140, 2, 79, 2.49], [22317, 3, 274, 2.43], [8121, 3, 255, 2.51], [8673, 2, 241, 3.82], [4176, 4, 417, 4.02], [1126, 2, 198, 2.91], [2436, 4, 100, 3.17], [1277, 1, 166, 4.71], [9372, 1, 196, 5.66], [8676, 2, 247, 3.78], [11085, 2, 463, 4.24], [8677, 3, 256, 4.82], [1274, 1, 71, 2.61], [21269, 3, 255, 4.95], [12343, 1, 545, 4.66], [10936, 2, 115, 4.72], [22247, 2, 245, 3.71], [37, 1, 96, 2.72], [10388, 2, 187, 3.58], [823, 1, 35, 2.39], [12526, 2, 236, 3.94], [9784, 1, 63, 2.51], [6494, 1, 45, 2.28], [13023, 3, 509, 3.88], [7573, 1, 289, 4.95], [1429, 2, 132, 3.05], [345, 3, 257, 2.42]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 2.64], [6935, 2, 19, 4.39], [2328, 2, 7, 1.85], [130, 1, 7, 1.89], [141, 2, 7, 1.21], [8650, 2, 9, 2.35], [2778, 2, 13, 1.26], [5491, 2, 7, 2.8], [2327, 2, 7, 1.82], [8672, 2, 10, 3.18], [362, 2, 7, 2.91], [143, 2, 7, 2.43], [6936, 2, 9, 3.09], [248, 1, 7, 1.0], [145, 2, 7, 2.66], [11681, 2, 13, 1.41], [205, 2, 7, 1.25], [5493, 2, 7, 2.8], [146, 2, 7, 1.08], [417, 2, 7, 1.04], [75, 2, 7, 1.6], [11737, 2, 7, 1.18], [1124, 2, 10, 1.89], [523, 2, 7, 1.02], [8648, 2, 7, 2.1], [1504, 2, 11, 1.23], [12721, 2, 11, 1.45], [8853, 2, 7, 2.87], [1005, 2, 7, 0.75], [615, 2, 7, 2.29], [326, 2, 7, 1.86], [206, 2, 7, 1.25], [8673, 2, 7, 1.42], [8915, 2, 7, 3.23], [144, 2, 7, 2.63], [11835, 2, 7, 0.69], [11739, 2, 7, 1.18], [88, 10, 16, 2.1], [434, 2, 7, 1.24], [2776, 2, 7, 1.79], [142, 2, 7, 0.92], [151, 1, 7, 1.36], [8676, 2, 7, 2.04], [6158, 2, 9, 2.2], [8649, 2, 7, 2.86], [11738, 2, 7, 1.18], [2497, 2, 7, 0.69], [1413, 15, 7, 0.73], [11836, 2, 7, 1.06], [3670, 2, 9, 5.0], [7705, 2, 7, 3.01], [944, 15, 7, 0.79], [3, 2, 7, 1.54], [2859, 15, 7, 0.85], [10574, 3, 10, 2.84], [412, 1, 7, 2.4], [7706, 2, 7, 3.01], [378, 2, 7, 4.77], [2054, 3, 7, 2.1], [22316, 3, 7, 0.89], [12720, 2, 7, 1.45], [3478, 2, 7, 2.16], [74, 1, 7, 4.18], [2055, 3, 7, 2.1], [10149, 3, 21, 2.21], [2774, 2, 7, 2.97], [307, 2, 7, 2.0], [11919, 1, 7, 0.92], [6497, 1, 7, 0.85], [12526, 2, 7, 2.78], [418, 2, 7, 1.58], [7004, 1, 7, 1.56], [11089, 1, 7, 0.77], [411, 2, 7, 1.0], [60, 3, 8, 2.04], [13928, 1, 7, 0.83], [413, 1, 7, 3.06], [2057, 3, 7, 2.1], [11844, 2, 7, 1.16], [8274, 3, 7, 1.91], [7036, 1, 7, 1.74], [3893, 1, 7, 1.98], [14037, 3, 7, 0.79], [13260, 29, 7, 1.29], [2050, 3, 7, 2.1], [7084, 3, 7, 0.69], [6097, 80, 7, 1.86], [6952, 1, 7, 1.85], [3891, 1, 7, 2.19], [9784, 1, 7, 1.06], [94, 4, 7, 4.06], [1050, 2, 7, 0.69], [159, 3, 9, 1.86], [6494, 1, 7, 0.89], [7707, 2, 7, 1.39], [1243, 2, 7, 0.94], [414, 1, 7, 3.06], [1490, 1, 7, 1.94], [11490, 1, 7, 0.96], [3889, 1, 7, 1.98], [22317, 3, 8, 0.83], [7708, 2, 7, 3.01], [21793, 1, 8, 3.56], [1413, 16, 7, 0.77], [345, 3, 7, 2.23], [7703, 2, 7, 3.01], [565, 2, 7, 0.89], [11491, 2, 7, 1.54], [229, 1, 7, 3.85], [3495, 3, 17, 1.57], [1492, 1, 7, 1.02], [6098, 80, 7, 2.23], [149, 2, 7, 1.11], [410, 1, 7, 0.71], [11504, 2, 7, 1.5], [336, 15, 7, 0.73], [6630, 3, 7, 3.46], [147, 1, 7, 1.11], [416, 1, 7, 3.06], [3430, 15, 7, 1.84], [2991, 3, 7, 4.22], [3674, 2, 7, 1.0], [2805, 137, 10, 4.07], [23275, 2, 7, 0.75], [6098, 29, 7, 2.23], [247, 1, 7, 3.97], [11581, 29, 7, 1.89], [8635, 3, 7, 2.78], [1274, 1, 7, 3.02], [2331, 1, 7, 1.41], [963, 3, 7, 3.68], [1049, 2, 7, 0.69], [13263, 29, 7, 0.73], [11089, 1, 174, 2.55], [411, 2, 55, 2.43], [60, 3, 815, 3.83], [13928, 1, 49, 2.61], [413, 1, 85, 4.84], [2057, 3, 474, 3.89], [11844, 2, 93, 2.23], [7036, 1, 128, 3.52], [3893, 1, 123, 3.76], [13260, 29, 73, 3.07], [2050, 3, 474, 3.89], [6097, 80, 68, 3.65], [6952, 1, 190, 3.63], [3891, 1, 123, 3.97], [9784, 1, 72, 2.84], [94, 4, 116, 5.85], [159, 3, 237, 2.92], [6494, 1, 26, 2.31], [7707, 2, 177, 3.17], [1243, 2, 100, 2.72], [414, 1, 85, 4.84], [1490, 1, 50, 3.72], [11490, 1, 73, 2.57], [3889, 1, 123, 3.76], [22317, 3, 322, 2.62], [7708, 2, 177, 4.8], [21793, 1, 243, 5.34], [1413, 16, 33, 2.37], [345, 3, 298, 4.01], [7703, 2, 177, 4.8], [565, 2, 88, 2.32], [11491, 2, 142, 3.32], [229, 1, 82, 5.63], [3495, 3, 968, 3.34], [1492, 1, 37, 2.8], [6098, 80, 74, 4.01], [149, 2, 88, 2.9], [410, 1, 35, 1.78], [11504, 2, 142, 3.28], [6630, 3, 94, 5.24], [147, 1, 88, 2.9], [416, 1, 85, 4.84], [3430, 15, 69, 3.63], [2991, 3, 161, 6.0], [3674, 2, 261, 2.78], [2805, 137, 183, 5.85], [6098, 29, 37, 4.01], [247, 1, 87, 5.75], [11581, 29, 60, 3.67], [1274, 1, 81, 4.8], [2331, 1, 118, 3.19], [963, 3, 395, 5.46], [13263, 29, 73, 2.51]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.86], [326, 2, 11, 1.63], [205, 2, 7, 0.71], [6935, 2, 18, 3.14], [143, 2, 7, 1.12], [130, 1, 7, 1.46], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 1.17], [2778, 2, 9, 1.07], [146, 2, 7, 1.0], [206, 2, 7, 0.68], [20252, 2, 7, 1.13], [6936, 2, 10, 2.57], [1777, 1, 7, 2.52], [151, 1, 7, 0.71], [8648, 2, 7, 3.54], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [2050, 3, 9, 1.53], [5151, 2, 7, 2.58], [141, 2, 7, 2.12], [248, 1, 7, 0.71], [7886, 4, 7, 0.87], [88, 10, 21, 2.86], [74, 1, 7, 3.53], [2991, 3, 7, 4.18], [1446, 2, 7, 0.93], [2057, 3, 7, 0.87], [7004, 1, 7, 0.71], [362, 2, 7, 1.73], [1007, 2, 12, 0.69], [1492, 1, 7, 2.35], [76, 2, 7, 1.11], [147, 1, 7, 2.5], [8649, 2, 9, 4.7], [3889, 1, 7, 0.8], [7005, 1, 7, 0.73], [345, 3, 7, 1.1], [11234, 2, 11, 0.93], [1429, 2, 7, 1.07], [10, 2, 9, 3.33], [307, 2, 7, 2.08], [57, 1, 7, 1.28], [5081, 2, 7, 1.33], [10825, 21, 13, 2.3], [12870, 1, 7, 4.49], [7084, 3, 7, 2.95], [10149, 3, 21, 1.75], [7036, 1, 7, 2.24], [3478, 2, 7, 2.63], [1006, 2, 7, 1.59], [21793, 1, 7, 4.57], [1504, 2, 7, 1.0], [3891, 1, 7, 2.13], [94, 4, 7, 2.6], [411, 2, 7, 0.71], [9827, 3, 7, 0.78], [167, 3, 7, 2.27], [432, 3, 9, 1.15], [3893, 1, 7, 2.13], [8677, 3, 9, 1.26], [11681, 2, 11, 4.55], [23, 1, 7, 1.29], [148, 1, 7, 4.65], [96, 11, 24, 1.07], [1490, 1, 9, 0.67], [22247, 2, 11, 2.32], [1124, 2, 11, 0.93], [9760, 29, 9, 1.04], [11737, 2, 7, 1.03], [12225, 1, 7, 1.7], [5812, 3, 8, 1.9], [201, 3, 7, 1.1], [1243, 2, 7, 1.53], [2336, 3, 9, 1.39], [335, 3, 16, 0.74], [6158, 2, 8, 0.86], [35, 1, 7, 1.95], [8853, 2, 11, 3.19], [10574, 3, 9, 2.64], [412, 1, 7, 2.19], [5005, 1, 7, 0.85], [20256, 2, 7, 0.96], [5208, 3, 14, 0.83], [20927, 1, 7, 1.39], [8651, 2, 7, 1.99], [229, 1, 7, 4.95], [8939, 2, 7, 0.73], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [159, 3, 11, 1.71], [45, 2, 7, 2.47], [11490, 1, 7, 0.83], [413, 1, 7, 2.06], [149, 2, 7, 2.62], [21269, 3, 7, 3.75], [3495, 3, 18, 2.26], [3980, 4, 7, 2.46], [95, 3, 17, 3.57], [140, 2, 7, 1.67], [5946, 1, 7, 1.98], [1766, 25, 7, 1.08], [490, 1, 7, 1.02], [1413, 15, 9, 0.8], [9372, 1, 7, 4.55], [1126, 2, 7, 1.42], [20255, 2, 9, 0.82], [8898, 3, 7, 2.78], [997, 2, 7, 2.04], [2775, 2, 7, 1.57], [506, 1, 7, 4.69], [11489, 1, 7, 1.49], [3670, 2, 7, 4.8], [1070, 7, 15, 0.85], [9690, 1, 7, 1.25], [9691, 1, 7, 2.44], [107, 2, 7, 2.65], [974, 3, 7, 2.14], [34, 1, 7, 1.9], [20498, 1, 7, 1.89], [823, 1, 7, 2.19], [14037, 3, 9, 0.8], [14017, 3, 7, 2.0], [142, 2, 7, 2.12], [5209, 3, 9, 0.83], [972, 3, 8, 1.64], [1091, 1, 7, 1.18], [148, 1, 64, 6.0], [96, 11, 614, 2.87], [1490, 1, 37, 2.48], [22247, 2, 204, 4.02], [1124, 2, 135, 3.24], [9760, 29, 52, 3.16], [11737, 2, 25, 2.84], [5812, 3, 426, 3.2], [201, 3, 219, 2.85], [1243, 2, 71, 2.83], [2336, 3, 420, 3.68], [6158, 2, 189, 2.66], [35, 1, 95, 3.11], [8853, 2, 206, 4.86], [10574, 3, 361, 4.41], [412, 1, 61, 3.86], [5005, 1, 114, 2.15], [20256, 2, 68, 2.77], [8651, 2, 161, 3.8], [25, 1, 81, 3.21], [1767, 25, 125, 2.9], [159, 3, 505, 4.02], [45, 2, 79, 3.78], [11490, 1, 80, 2.61], [413, 1, 63, 3.37], [149, 2, 64, 4.43], [21269, 3, 250, 5.05], [3495, 3, 695, 4.07], [3980, 4, 347, 4.26], [95, 3, 815, 4.89], [140, 2, 39, 2.97], [5946, 1, 90, 3.28], [1766, 25, 136, 2.83], [490, 1, 43, 2.79], [1413, 15, 73, 2.72], [9372, 1, 192, 5.86], [1126, 2, 98, 2.73], [20255, 2, 68, 2.77], [8898, 3, 213, 4.58], [997, 2, 204, 3.35], [2775, 2, 114, 2.87], [506, 1, 74, 5.99], [11489, 1, 69, 3.3], [3670, 2, 170, 6.0], [1070, 7, 428, 2.63], [9690, 1, 64, 2.55], [9691, 1, 32, 3.31], [107, 2, 35, 3.96], [974, 3, 108, 3.45], [34, 1, 95, 3.21], [20498, 1, 71, 3.61], [823, 1, 29, 3.5], [14017, 3, 142, 3.71], [142, 2, 132, 3.42], [972, 3, 428, 2.95], [1091, 1, 20, 2.05]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [6935, 2, 19, 3.17], [2049, 3, 13, 2.91], [141, 2, 7, 0.75], [326, 2, 8, 1.03], [205, 2, 7, 1.12], [130, 1, 7, 1.89], [589, 2, 10, 0.81], [151, 1, 7, 0.89], [362, 2, 9, 0.99], [1776, 1, 7, 2.23], [146, 2, 7, 1.12], [145, 2, 7, 0.85], [206, 2, 7, 0.69], [2328, 2, 7, 1.51], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [8915, 2, 9, 0.67], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [8650, 2, 7, 3.66], [20252, 2, 7, 0.91], [1777, 1, 7, 2.22], [5151, 2, 7, 2.02], [1007, 2, 12, 0.69], [248, 1, 7, 0.69], [2778, 2, 7, 1.06], [88, 10, 17, 2.65], [2050, 3, 7, 1.39], [10149, 3, 25, 3.26], [76, 2, 9, 2.75], [8649, 2, 7, 3.18], [10, 2, 11, 2.55], [8677, 3, 8, 3.58], [2054, 3, 7, 2.34], [412, 1, 7, 1.75], [13028, 3, 7, 0.92], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 1.38], [11681, 2, 10, 4.88], [10825, 21, 14, 0.7], [1446, 2, 7, 2.06], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.86], [1429, 2, 7, 1.48], [147, 1, 7, 1.11], [3495, 3, 26, 2.49], [1006, 2, 9, 1.17], [167, 3, 9, 3.34], [1492, 1, 7, 0.7], [7036, 1, 7, 2.98], [7005, 1, 9, 0.99], [140, 2, 7, 0.9], [9827, 3, 7, 1.38], [8676, 2, 7, 2.54], [45, 2, 9, 3.67], [1124, 2, 11, 1.24], [168, 3, 9, 1.09], [2049, 1, 7, 1.79], [5812, 3, 8, 2.69], [94, 4, 7, 2.54], [57, 1, 7, 1.1], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [148, 1, 7, 2.34], [335, 3, 18, 4.35], [8651, 2, 7, 2.74], [2336, 3, 8, 1.74], [415, 1, 7, 2.37], [8939, 2, 7, 0.73], [6097, 29, 7, 4.54], [416, 1, 7, 2.37], [8853, 2, 14, 3.05], [6097, 80, 7, 4.54], [490, 1, 7, 0.98], [1490, 1, 7, 0.85], [20927, 1, 7, 1.28], [95, 3, 21, 0.92], [79, 1, 7, 0.73], [6098, 29, 7, 4.85], [6098, 80, 7, 4.85], [9069, 1, 7, 2.51], [14017, 3, 7, 1.29], [414, 1, 7, 1.64], [22316, 3, 7, 0.94], [1070, 7, 13, 0.73], [8898, 3, 7, 3.98], [1126, 2, 7, 0.96], [13034, 3, 8, 3.28], [126, 2, 7, 1.87], [149, 2, 7, 1.11], [997, 2, 7, 2.43], [9760, 29, 7, 1.17], [20498, 1, 7, 3.84], [5086, 1, 9, 1.64], [9784, 1, 7, 1.42], [159, 3, 10, 1.08], [5513, 2, 6, 0.88], [336, 15, 7, 0.73], [8945, 3, 8, 2.0], [22317, 3, 8, 1.35], [12924, 1, 7, 1.54], [7567, 3, 7, 3.89], [11085, 2, 7, 1.33], [11739, 2, 7, 1.6], [1413, 15, 9, 0.75], [5811, 3, 7, 3.68], [974, 3, 7, 1.69], [192, 3, 22, 4.76], [229, 1, 7, 4.32], [5813, 3, 7, 2.94], [972, 3, 7, 1.56], [506, 1, 7, 2.34], [8557, 3, 7, 1.53], [1622, 1, 10, 0.74], [9082, 3, 24, 1.19], [9691, 1, 7, 2.81], [20498, 3, 8, 1.94], [8943, 3, 7, 3.68], [3049, 3, 7, 3.81], [14018, 3, 7, 0.96], [524, 1, 7, 2.71], [4076, 3, 7, 5.0], [470, 1, 7, 0.98], [2775, 2, 9, 0.88], [20486, 3, 8, 4.73], [13023, 3, 8, 1.94], [3900, 3, 7, 3.23], [2423, 80, 7, 3.66], [5584, 3, 7, 3.42], [416, 1, 68, 3.76], [8853, 2, 223, 4.7], [6097, 80, 53, 5.7], [490, 1, 47, 2.58], [1490, 1, 47, 2.01], [20927, 1, 73, 2.44], [95, 3, 884, 2.58], [79, 1, 22, 1.5], [6098, 29, 29, 6.0], [6098, 80, 58, 6.0], [9069, 1, 96, 3.67], [14017, 3, 154, 2.89], [414, 1, 68, 2.8], [22316, 3, 291, 2.1], [1070, 7, 467, 2.4], [8898, 3, 221, 5.63], [1126, 2, 180, 2.57], [13034, 3, 459, 4.44], [126, 2, 63, 2.9], [149, 2, 80, 2.27], [997, 2, 219, 3.59], [9760, 29, 66, 2.33], [20498, 1, 77, 5.0], [5086, 1, 144, 3.79], [9784, 1, 57, 3.02], [159, 3, 554, 2.75], [5513, 2, 59, 2.54], [336, 15, 52, 1.5], [8945, 3, 541, 3.16], [22317, 3, 248, 2.52], [12924, 1, 37, 2.69], [7567, 3, 55, 5.05], [11085, 2, 431, 2.5], [11739, 2, 53, 2.76], [1413, 15, 79, 2.48], [5811, 3, 459, 4.84], [974, 3, 136, 2.85], [192, 3, 1287, 5.9], [229, 1, 57, 5.47], [5813, 3, 459, 4.1], [972, 3, 546, 2.71], [506, 1, 68, 3.99], [8557, 3, 159, 3.18], [9082, 3, 1955, 2.89], [20498, 3, 459, 3.57], [3049, 3, 108, 5.27], [14018, 3, 154, 2.57], [524, 1, 66, 3.87], [4076, 3, 155, 6.0], [2775, 2, 123, 2.71], [20486, 3, 465, 5.88], [13023, 3, 459, 4.1], [3900, 3, 34, 4.39], [2423, 80, 169, 4.82], [5584, 3, 197, 4.58]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.32], [6935, 2, 10, 2.82], [130, 1, 7, 1.71], [326, 2, 7, 1.79], [8648, 2, 7, 1.72], [144, 2, 7, 0.96], [2327, 2, 7, 0.94], [593, 2, 9, 1.44], [205, 2, 7, 1.35], [143, 2, 7, 1.12], [8915, 2, 8, 3.41], [2328, 2, 7, 1.73], [11681, 2, 9, 3.29], [305, 2, 7, 2.64], [6936, 2, 9, 3.71], [141, 2, 7, 1.25], [8650, 2, 7, 1.72], [5493, 2, 7, 3.32], [151, 1, 7, 1.25], [2778, 2, 7, 1.12], [206, 2, 7, 0.69], [2049, 3, 14, 2.08], [146, 2, 7, 1.21], [88, 10, 15, 0.89], [7036, 1, 7, 2.28], [9507, 3, 7, 0.69], [8853, 2, 7, 3.67], [8649, 2, 7, 2.49], [1446, 2, 7, 2.14], [5491, 2, 7, 3.32], [362, 2, 7, 2.14], [2055, 3, 7, 3.44], [990, 2, 7, 0.69], [1006, 2, 7, 1.37], [75, 2, 7, 2.62], [3893, 1, 7, 1.38], [11737, 2, 7, 1.41], [417, 2, 7, 1.06], [2050, 3, 7, 3.31], [3840, 1, 7, 0.75], [616, 2, 7, 3.6], [1007, 2, 7, 1.4], [12870, 1, 7, 2.3], [523, 2, 7, 0.73], [159, 3, 8, 0.66], [20927, 1, 7, 2.01], [1504, 2, 7, 1.33], [2057, 3, 7, 3.31], [10574, 3, 8, 2.4], [13280, 1, 7, 4.47], [3, 2, 7, 0.83], [142, 2, 7, 0.85], [997, 2, 7, 3.03], [9760, 29, 7, 0.87], [624, 2, 7, 3.6], [10, 2, 7, 0.69], [2054, 3, 7, 3.66], [21798, 1, 7, 0.9], [140, 2, 7, 1.04], [2775, 2, 7, 1.54], [3982, 3, 17, 2.34], [21793, 1, 7, 4.47], [8939, 2, 7, 0.81], [11739, 2, 7, 1.17], [1429, 2, 7, 1.6], [996, 2, 7, 3.03], [6158, 2, 7, 1.57], [998, 2, 7, 3.03], [98, 11, 16, 1.42], [84, 2, 7, 0.8], [1126, 2, 7, 1.47], [9372, 1, 7, 4.21], [10388, 2, 7, 2.13], [2912, 1, 7, 2.68], [972, 3, 7, 2.91], [411, 2, 7, 0.98], [8672, 2, 7, 3.15], [7885, 4, 7, 0.85], [8898, 3, 7, 3.33], [413, 1, 7, 1.27], [2776, 2, 7, 1.54], [3980, 4, 7, 2.36], [12343, 1, 7, 3.21], [9491, 21, 16, 2.0], [10386, 2, 7, 1.91], [1492, 1, 7, 0.87], [995, 2, 7, 3.03], [147, 1, 7, 0.94], [22316, 3, 7, 0.98], [418, 2, 7, 0.87], [308, 1, 7, 3.28], [22247, 2, 7, 2.27], [9784, 1, 7, 1.06], [2912, 2, 8, 2.61], [8677, 3, 7, 3.38], [336, 15, 7, 1.39], [3981, 3, 21, 2.03], [11490, 1, 7, 1.12], [7567, 3, 7, 3.91], [307, 2, 7, 1.52], [229, 1, 7, 2.0], [11953, 1, 7, 0.83], [33, 1, 7, 2.0], [10631, 2, 7, 1.93], [11770, 1, 7, 0.87], [414, 1, 7, 1.27], [22317, 3, 7, 0.98], [7886, 4, 7, 0.92], [35, 1, 7, 1.27], [7573, 1, 11, 3.51], [10407, 10, 10, 3.28], [439, 1, 7, 2.21], [10780, 10, 7, 3.01], [10410, 10, 10, 3.2], [415, 1, 7, 1.27], [335, 3, 15, 3.43], [9691, 1, 7, 1.0], [10387, 2, 7, 1.83], [972, 1, 7, 2.91], [6497, 1, 7, 1.0], [74, 1, 7, 2.29], [10149, 3, 21, 1.48], [11767, 1, 7, 1.1], [3478, 2, 7, 1.71], [12271, 2, 7, 1.39], [9690, 1, 7, 1.46], [8897, 3, 7, 3.33], [9971, 2, 7, 2.16], [2331, 1, 7, 3.73], [2497, 2, 7, 2.34], [345, 3, 7, 0.98], [9082, 3, 29, 0.94], [11769, 1, 7, 1.93], [9372, 1, 196, 5.66], [10388, 2, 187, 3.58], [2912, 1, 41, 4.13], [972, 3, 409, 4.26], [411, 2, 94, 2.43], [8672, 2, 247, 4.59], [8898, 3, 242, 4.78], [413, 1, 74, 2.72], [2776, 2, 136, 2.99], [3980, 4, 417, 3.8], [12343, 1, 545, 4.66], [9491, 21, 1819, 3.43], [10386, 2, 187, 3.36], [1492, 1, 32, 2.32], [995, 2, 206, 4.48], [147, 1, 79, 2.39], [22316, 3, 274, 2.43], [418, 2, 123, 2.32], [308, 1, 139, 4.73], [22247, 2, 245, 3.71], [9784, 1, 63, 2.51], [2912, 2, 332, 4.05], [8677, 3, 256, 4.82], [336, 15, 96, 2.83], [3981, 3, 1395, 3.45], [11490, 1, 94, 2.57], [7567, 3, 60, 5.36], [307, 2, 129, 2.96], [229, 1, 71, 3.45], [11953, 1, 175, 2.28], [33, 1, 96, 3.44], [10631, 2, 183, 3.38], [11770, 1, 190, 2.32], [414, 1, 74, 2.72], [22317, 3, 274, 2.43], [35, 1, 96, 2.72], [7573, 1, 289, 4.95], [10407, 10, 1018, 4.72], [439, 1, 75, 3.66], [10780, 10, 319, 4.45], [10410, 10, 1018, 4.64], [415, 1, 74, 2.72], [335, 3, 1107, 4.87], [9691, 1, 53, 2.36], [10387, 2, 187, 3.28], [972, 1, 68, 4.27], [6497, 1, 33, 2.45], [74, 1, 177, 3.74], [10149, 3, 754, 2.93], [11767, 1, 140, 2.55], [3478, 2, 65, 3.16], [12271, 2, 55, 2.84], [9690, 1, 52, 2.82], [8897, 3, 242, 4.78], [9971, 2, 236, 3.61], [2331, 1, 100, 5.17], [2497, 2, 176, 3.79], [345, 3, 257, 2.42], [9082, 3, 2167, 2.38], [11769, 1, 140, 3.37]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.88], [361, 2, 7, 1.08], [6935, 2, 23, 5.0], [12721, 2, 14, 3.73], [206, 2, 9, 0.77], [2049, 3, 14, 0.72], [8676, 2, 7, 1.16], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 2.37], [523, 2, 7, 1.27], [22247, 2, 7, 1.93], [8650, 2, 7, 2.44], [142, 2, 7, 1.1], [8648, 2, 7, 2.02], [2328, 2, 7, 1.85], [2776, 2, 7, 0.88], [2327, 2, 7, 1.82], [616, 2, 7, 2.72], [8853, 2, 7, 3.53], [11837, 2, 7, 0.87], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 3.62], [146, 2, 7, 2.16], [412, 1, 7, 2.46], [11835, 2, 7, 0.94], [12353, 1, 7, 3.01], [8674, 2, 7, 2.75], [583, 2, 7, 2.16], [6497, 1, 9, 0.85], [2805, 137, 11, 3.27], [145, 2, 7, 2.66], [10574, 3, 10, 2.84], [418, 2, 7, 0.89], [326, 2, 7, 1.94], [6097, 80, 7, 4.06], [144, 2, 7, 2.63], [9784, 1, 7, 2.07], [11836, 2, 7, 1.04], [10149, 3, 26, 1.2], [413, 1, 7, 2.23], [6097, 29, 7, 1.86], [2057, 3, 6, 0.65], [11234, 2, 8, 1.39], [75, 2, 7, 2.38], [12344, 1, 7, 1.98], [1413, 15, 7, 0.73], [20252, 2, 7, 0.91], [6494, 1, 7, 0.89], [11504, 2, 7, 0.85], [6496, 1, 7, 1.41], [414, 1, 7, 2.23], [8915, 2, 7, 1.25], [1492, 1, 7, 1.02], [6098, 80, 7, 2.23], [2774, 2, 9, 2.61], [247, 1, 7, 2.84], [22316, 3, 7, 0.89], [6098, 29, 7, 2.23], [416, 1, 7, 2.23], [9786, 1, 7, 2.7], [3934, 5, 9, 1.11], [2049, 1, 7, 0.79], [2859, 15, 7, 1.37], [201, 3, 7, 2.66], [6158, 2, 9, 2.2], [3670, 2, 9, 5.0], [3478, 2, 7, 2.16], [11489, 1, 7, 1.94], [13928, 1, 7, 0.83], [2050, 3, 6, 0.65], [7084, 3, 7, 4.74], [9785, 1, 7, 2.91], [12526, 2, 7, 2.78], [9342, 2, 8, 0.67], [3430, 15, 7, 0.69], [8599, 1, 7, 1.36], [4253, 1, 7, 1.16], [8938, 2, 7, 1.1], [186, 3, 12, 0.91], [3982, 3, 20, 0.67], [1413, 16, 7, 0.81], [107, 2, 7, 2.79], [11887, 2, 8, 0.69], [10398, 2, 7, 1.81], [11885, 2, 7, 0.75], [229, 1, 7, 2.94], [11490, 1, 7, 0.96], [11811, 1, 7, 1.93], [1050, 2, 7, 0.69], [94, 4, 7, 3.18], [415, 1, 7, 2.23], [4232, 80, 7, 3.23], [2438, 2, 8, 2.19], [107, 7, 8, 2.75], [436, 2, 7, 0.98], [5939, 3, 7, 0.96], [2421, 80, 7, 0.69], [947, 15, 7, 1.35], [5812, 3, 7, 3.84], [11769, 1, 7, 0.92], [2821, 3, 13, 0.82], [140, 2, 7, 1.64], [11671, 1, 7, 0.81], [11767, 1, 7, 0.92], [3673, 2, 7, 4.08], [11844, 2, 7, 1.16], [11160, 1, 7, 4.25], [5813, 3, 8, 3.52], [9358, 1, 7, 1.0], [11771, 1, 7, 3.17], [3495, 3, 17, 1.57], [7036, 1, 7, 0.87], [12764, 2, 8, 0.8], [409, 1, 7, 2.21], [5811, 3, 8, 4.0], [23920, 2, 7, 0.79], [410, 1, 7, 2.83], [1049, 2, 7, 0.69], [11954, 1, 7, 0.81], [105, 3, 7, 3.93], [13928, 2, 7, 0.83], [9690, 1, 7, 1.29], [11180, 1, 7, 0.75], [5584, 3, 7, 3.1], [2108, 3, 8, 1.43], [22573, 2, 7, 0.75], [8274, 3, 7, 4.43], [3478, 2, 38, 3.59], [13928, 1, 49, 2.61], [2050, 3, 404, 2.42], [9785, 1, 24, 4.37], [12526, 2, 273, 4.56], [8599, 1, 146, 3.14], [4253, 1, 172, 2.95], [8938, 2, 96, 2.53], [186, 3, 336, 2.34], [3982, 3, 820, 2.44], [1413, 16, 42, 2.52], [107, 2, 48, 4.57], [11887, 2, 65, 1.76], [10398, 2, 147, 3.6], [229, 1, 81, 4.72], [11490, 1, 37, 2.03], [11811, 1, 453, 3.71], [94, 4, 119, 4.96], [415, 1, 86, 4.01], [4232, 80, 154, 5.02], [2438, 2, 645, 3.98], [107, 7, 241, 4.54], [436, 2, 90, 2.69], [5939, 3, 267, 2.74], [2421, 80, 215, 2.47], [947, 15, 41, 3.13], [5812, 3, 591, 5.62], [11769, 1, 110, 2.52], [2821, 3, 671, 2.23], [140, 2, 46, 3.06], [11671, 1, 313, 2.59], [11767, 1, 110, 2.52], [3673, 2, 237, 5.86], [11844, 2, 93, 2.23], [11160, 1, 492, 6.0], [5813, 3, 591, 5.3], [9358, 1, 59, 2.78], [11771, 1, 214, 4.95], [3495, 3, 968, 3.34], [7036, 1, 128, 2.65], [12764, 2, 762, 2.58], [5811, 3, 394, 5.6], [23920, 2, 107, 2.57], [11954, 1, 204, 2.59], [13928, 2, 24, 2.61], [9690, 1, 50, 2.89], [11180, 1, 89, 2.53], [5584, 3, 229, 4.88]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.46], [305, 2, 7, 2.52], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [144, 2, 7, 1.49], [130, 1, 7, 1.86], [589, 2, 10, 0.87], [8915, 2, 8, 3.41], [143, 2, 7, 0.85], [2328, 2, 7, 1.46], [6936, 2, 7, 3.27], [8648, 2, 7, 3.58], [205, 2, 7, 0.74], [2775, 2, 9, 0.8], [593, 2, 11, 0.97], [326, 2, 9, 2.24], [8650, 2, 7, 2.95], [145, 2, 7, 1.93], [146, 2, 7, 1.1], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [88, 10, 16, 2.59], [615, 2, 7, 3.0], [141, 2, 7, 0.72], [7004, 1, 9, 4.31], [1124, 2, 9, 1.09], [151, 1, 7, 1.81], [11681, 2, 11, 4.38], [206, 2, 7, 0.74], [9760, 29, 7, 1.29], [8853, 2, 7, 3.35], [5491, 2, 7, 1.52], [1007, 2, 7, 1.35], [362, 2, 7, 0.95], [8672, 2, 7, 3.15], [1504, 2, 7, 1.19], [2057, 3, 7, 0.89], [2912, 1, 9, 1.91], [8938, 2, 7, 0.99], [9372, 1, 7, 3.2], [434, 2, 7, 0.94], [3893, 1, 7, 0.71], [8649, 2, 7, 3.91], [12870, 1, 7, 3.23], [10993, 2, 7, 1.6], [2054, 3, 9, 0.81], [2050, 3, 7, 0.89], [1429, 2, 9, 1.08], [3889, 1, 7, 1.38], [378, 2, 9, 5.0], [7084, 3, 7, 2.06], [2991, 3, 7, 3.64], [10, 2, 7, 0.89], [140, 2, 7, 3.31], [7886, 4, 7, 0.8], [3891, 1, 7, 0.76], [1006, 2, 7, 1.06], [10574, 3, 11, 3.29], [7573, 1, 16, 3.95], [10149, 3, 21, 2.58], [5208, 3, 9, 1.28], [1622, 1, 9, 0.84], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.64], [997, 2, 7, 2.43], [11234, 2, 7, 2.8], [12721, 2, 7, 3.54], [1886, 2, 9, 0.86], [11685, 2, 11, 4.43], [22247, 2, 7, 2.74], [147, 1, 7, 3.5], [229, 1, 7, 1.91], [998, 2, 7, 1.56], [20252, 2, 7, 0.9], [94, 4, 7, 2.73], [2912, 2, 12, 2.75], [9491, 21, 26, 0.95], [972, 3, 10, 1.52], [35, 1, 7, 2.48], [439, 1, 7, 2.04], [76, 2, 7, 1.6], [413, 1, 7, 2.66], [83, 2, 7, 0.82], [13928, 1, 7, 1.35], [5076, 1, 7, 1.87], [1414, 15, 7, 1.19], [8104, 1, 7, 1.66], [5209, 3, 7, 2.28], [33, 1, 7, 1.79], [148, 1, 9, 4.53], [8676, 2, 7, 3.15], [418, 2, 7, 1.65], [11952, 1, 7, 0.81], [412, 1, 7, 0.85], [7887, 4, 7, 1.87], [12212, 29, 7, 0.9], [8898, 3, 7, 1.93], [2774, 2, 7, 1.06], [3495, 3, 18, 1.61], [38, 1, 7, 2.18], [20256, 2, 7, 0.96], [84, 2, 7, 2.15], [11770, 1, 7, 3.75], [34, 1, 7, 2.06], [415, 1, 7, 1.98], [10407, 10, 10, 3.08], [3048, 3, 7, 3.77], [632, 11, 21, 0.79], [9784, 1, 7, 1.0], [126, 2, 7, 1.3], [13928, 2, 7, 1.23], [11772, 1, 7, 0.84], [995, 2, 7, 3.93], [411, 2, 7, 0.89], [8939, 2, 7, 0.89], [9691, 1, 7, 0.79], [9690, 1, 7, 0.71], [39, 1, 7, 2.12], [11953, 1, 7, 1.0], [5584, 3, 7, 4.4], [7567, 3, 7, 2.83], [11954, 1, 7, 0.73], [10410, 10, 15, 3.08], [74, 1, 7, 3.33], [21269, 3, 7, 2.57], [1523, 1, 7, 0.92], [972, 1, 7, 1.02], [159, 1, 7, 1.87], [1519, 3, 17, 0.73], [5164, 1, 7, 2.12], [10408, 10, 8, 2.21], [9491, 21, 1763, 3.05], [972, 3, 493, 3.68], [35, 1, 72, 3.95], [439, 1, 73, 3.67], [76, 2, 91, 3.23], [413, 1, 72, 4.29], [83, 2, 20, 1.8], [13928, 1, 40, 3.42], [5076, 1, 108, 3.5], [1414, 15, 33, 2.17], [8104, 1, 201, 3.29], [33, 1, 92, 3.85], [148, 1, 29, 6.0], [8676, 2, 279, 4.78], [418, 2, 118, 3.29], [11952, 1, 196, 2.45], [412, 1, 70, 2.95], [12212, 29, 118, 2.53], [8898, 3, 243, 3.56], [2774, 2, 170, 3.15], [3495, 3, 943, 3.25], [38, 1, 92, 3.81], [20256, 2, 92, 2.6], [11770, 1, 204, 5.39], [34, 1, 92, 3.69], [415, 1, 72, 3.61], [10407, 10, 990, 4.72], [3048, 3, 223, 5.91], [632, 11, 405, 2.08], [9784, 1, 71, 2.63], [126, 2, 88, 2.93], [13928, 2, 23, 2.86], [11772, 1, 182, 2.97], [995, 2, 235, 5.56], [411, 2, 53, 2.2], [8939, 2, 63, 3.03], [9691, 1, 75, 2.43], [39, 1, 92, 3.75], [11953, 1, 165, 3.14], [5584, 3, 198, 6.0], [7567, 3, 67, 4.46], [11954, 1, 196, 2.36], [10410, 10, 990, 4.72], [74, 1, 192, 4.97], [21269, 3, 285, 4.21], [1523, 1, 46, 2.55], [972, 1, 97, 2.65], [159, 1, 13, 2.85], [1519, 3, 1620, 2.37], [5164, 1, 46, 3.75], [10408, 10, 767, 3.84]]</t>
   </si>
   <si>
     <t>501QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,112 +28,112 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.47], [6935, 2, 7, 1.8], [6936, 2, 4, 1.58], [305, 2, 4, 1.37], [8672, 2, 5, 0.8], [615, 2, 4, 1.37], [1504, 2, 5, 0.82], [2775, 2, 4, 0.66], [145, 2, 4, 0.51], [2776, 2, 4, 1.2], [8853, 2, 4, 1.78], [12721, 2, 5, 0.72], [2327, 2, 4, 0.51], [146, 2, 4, 0.56], [143, 2, 4, 1.26], [2328, 2, 4, 0.51], [11737, 2, 4, 0.48], [11681, 2, 5, 0.47], [141, 2, 4, 0.79], [5491, 2, 4, 0.56], [2497, 2, 4, 0.51], [205, 2, 4, 0.56], [144, 2, 4, 0.5], [8650, 2, 4, 0.76], [8676, 2, 4, 1.06], [5493, 2, 4, 0.83], [8673, 2, 4, 0.74], [417, 2, 4, 0.79], [308, 1, 5, 0.58], [3670, 2, 4, 3.2], [8648, 2, 4, 0.76], [589, 2, 4, 0.4], [3, 2, 4, 0.41], [206, 2, 4, 0.56], [6097, 80, 4, 0.46], [22247, 2, 4, 1.21], [8674, 2, 4, 1.22], [11836, 2, 4, 0.5], [6497, 1, 4, 0.44], [12343, 1, 4, 0.52], [12349, 1, 4, 2.08], [624, 2, 4, 1.02], [2424, 29, 4, 0.43], [593, 2, 5, 0.5], [523, 2, 4, 0.66], [12344, 1, 4, 0.83], [6097, 29, 4, 0.46], [12720, 2, 4, 0.72], [6098, 80, 4, 1.16], [12345, 1, 4, 2.08], [11739, 2, 4, 0.48], [2424, 80, 4, 0.43], [944, 15, 4, 0.35], [88, 10, 8, 0.95], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [60, 3, 5, 0.58], [326, 2, 4, 0.78], [6494, 1, 4, 0.46], [142, 2, 4, 0.79], [1492, 1, 4, 0.53], [1413, 15, 4, 0.36], [411, 2, 4, 0.48], [1050, 2, 4, 0.38], [2422, 80, 4, 1.24], [947, 15, 4, 0.49], [6496, 1, 4, 0.51], [6098, 29, 4, 1.16], [378, 2, 4, 2.29], [10149, 3, 13, 1.12], [12346, 1, 4, 2.08], [2422, 29, 4, 1.24], [7704, 2, 4, 1.5], [151, 1, 4, 0.57], [1243, 2, 4, 0.77], [22316, 3, 4, 0.46], [11738, 2, 4, 0.48], [13264, 29, 4, 0.52], [345, 3, 4, 1.16], [1490, 1, 4, 0.45], [229, 1, 4, 2.0], [13258, 29, 4, 1.22], [1049, 2, 4, 0.38], [20252, 2, 4, 1.32], [12269, 2, 4, 0.47], [964, 15, 4, 0.4], [2331, 1, 4, 0.55], [10407, 10, 6, 1.64], [201, 3, 4, 1.26], [7004, 1, 4, 0.81], [2821, 3, 8, 0.45], [5208, 3, 5, 0.54], [307, 2, 4, 1.04], [1163, 3, 4, 1.45], [186, 3, 7, 0.48], [149, 2, 4, 0.37], [432, 3, 4, 0.9], [13259, 29, 4, 1.13], [957, 2, 4, 0.55], [7705, 2, 4, 1.5], [418, 2, 4, 0.51], [7706, 2, 4, 1.5], [12229, 2, 4, 0.45], [13928, 1, 4, 0.43], [20255, 2, 4, 0.54], [11687, 2, 4, 0.5], [10406, 10, 7, 1.21], [11844, 2, 4, 0.47], [2421, 80, 4, 0.36], [3478, 2, 4, 0.89], [8938, 2, 4, 0.53], [1414, 15, 4, 0.53], [9784, 1, 4, 0.91], [7036, 1, 4, 0.43], [410, 1, 4, 0.69], [12870, 1, 4, 1.28], [10408, 10, 6, 1.32], [5490, 2, 4, 0.49], [10410, 10, 6, 1.56], [11402, 1, 4, 0.46], [19687, 1, 4, 1.21], [11490, 1, 4, 0.57], [107, 7, 5, 1.14], [2703, 3, 4, 2.13], [21781, 2, 4, 0.47], [1886, 2, 4, 0.35], [956, 2, 4, 0.53], [4232, 80, 4, 1.65], [13258, 25, 4, 1.22], [11161, 1, 5, 1.78], [159, 16, 4, 0.94], [10411, 10, 6, 1.06], [9760, 29, 4, 0.85], [2778, 2, 157, 3.12], [6935, 2, 281, 6.0], [6936, 2, 281, 5.7], [305, 2, 49, 3.71], [8672, 2, 144, 4.61], [615, 2, 108, 4.42], [1504, 2, 205, 3.76], [2775, 2, 157, 3.05], [145, 2, 50, 3.73], [2776, 2, 157, 4.1], [8853, 2, 281, 5.28], [12721, 2, 285, 3.53], [2327, 2, 151, 3.61], [146, 2, 152, 2.87], [143, 2, 74, 3.85], [2328, 2, 151, 3.64], [11737, 2, 57, 3.1], [11681, 2, 277, 3.19], [141, 2, 104, 3.98], [5491, 2, 109, 2.86], [2497, 2, 205, 2.76], [205, 2, 55, 2.5], [144, 2, 50, 3.7], [8650, 2, 225, 3.69], [8676, 2, 289, 3.82], [5493, 2, 109, 3.44], [8673, 2, 290, 3.21], [417, 2, 78, 3.8], [308, 1, 175, 3.18], [3670, 2, 236, 6.0], [8648, 2, 225, 3.69], [589, 2, 52, 1.84], [3, 2, 122, 3.02], [6097, 80, 68, 3.65], [22247, 2, 285, 4.12], [8674, 2, 289, 4.13], [11836, 2, 270, 2.74], [6497, 1, 38, 2.63], [12343, 1, 615, 3.87], [12349, 1, 615, 5.79], [624, 2, 108, 3.74], [2424, 29, 34, 4.06], [593, 2, 154, 2.48], [523, 2, 156, 3.06], [12344, 1, 615, 3.87], [6097, 29, 34, 3.65], [12720, 2, 285, 3.47], [6098, 80, 74, 4.01], [12345, 1, 615, 5.79], [11739, 2, 57, 3.1], [2424, 80, 171, 4.06], [88, 10, 562, 3.89], [8915, 2, 65, 1.86], [75, 2, 144, 4.03], [60, 3, 815, 3.83], [326, 2, 31, 2.93], [6494, 1, 26, 2.31], [142, 2, 52, 3.45], [1492, 1, 37, 2.8], [1413, 15, 84, 2.4], [411, 2, 55, 2.35], [2422, 80, 187, 4.17], [947, 15, 42, 2.72], [6496, 1, 41, 2.76], [6098, 29, 37, 4.01], [378, 2, 225, 6.0], [10149, 3, 869, 4.0]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 1.46], [362, 2, 4, 0.2], [5491, 2, 4, 0.2], [130, 1, 4, 0.45], [5493, 2, 4, 0.3], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [326, 2, 4, 0.54], [11685, 2, 4, 0.7], [8672, 2, 6, 0.91], [417, 2, 4, 0.47], [6935, 2, 7, 1.81], [11681, 2, 5, 0.7], [205, 2, 4, 0.37], [8648, 2, 4, 1.08], [206, 2, 4, 0.2], [6936, 2, 4, 1.17], [8915, 2, 5, 0.2], [142, 2, 4, 0.2], [11838, 2, 5, 0.2], [2049, 3, 9, 0.39], [12721, 2, 5, 0.48], [1446, 2, 4, 0.78], [523, 2, 5, 0.66], [8676, 2, 5, 0.6], [615, 2, 4, 1.55], [11737, 2, 4, 1.08], [305, 2, 4, 1.37], [12353, 1, 4, 0.64], [413, 1, 4, 1.43], [412, 1, 4, 0.86], [411, 2, 4, 0.49], [10574, 3, 5, 1.29], [145, 2, 4, 0.51], [8675, 2, 5, 1.23], [12349, 1, 4, 0.58], [76, 2, 4, 0.37], [990, 2, 5, 0.4], [1429, 2, 4, 0.48], [2775, 2, 4, 0.43], [143, 2, 4, 1.38], [8673, 2, 4, 0.48], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.56], [151, 1, 4, 0.57], [12720, 2, 4, 0.72], [6158, 2, 5, 1.77], [2050, 3, 5, 0.35], [10149, 3, 13, 0.39], [3495, 3, 10, 0.85], [2776, 2, 4, 0.53], [12350, 1, 4, 0.53], [75, 2, 4, 1.17], [2057, 3, 5, 0.35], [1504, 2, 5, 0.59], [144, 2, 4, 0.5], [8939, 2, 4, 0.74], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 4, 0.46], [88, 10, 8, 0.95], [2859, 15, 4, 0.44], [159, 3, 5, 0.94], [418, 2, 4, 0.2], [7084, 3, 4, 1.02], [10993, 2, 4, 0.83], [12346, 1, 4, 0.51], [20252, 2, 4, 1.01], [9784, 1, 4, 0.88], [7705, 2, 4, 1.5], [2424, 29, 4, 1.0], [12526, 2, 4, 0.93], [2423, 80, 4, 1.1], [2423, 29, 4, 1.16], [11844, 2, 4, 0.47], [12351, 1, 4, 0.66], [60, 3, 6, 1.36], [414, 1, 4, 0.73], [378, 2, 4, 1.73], [12345, 1, 4, 0.56], [6494, 1, 4, 0.46], [13023, 3, 8, 1.51], [2424, 80, 4, 0.43], [11490, 1, 4, 0.46], [201, 3, 4, 1.01], [13034, 3, 5, 1.37], [12373, 1, 5, 0.45], [1519, 3, 9, 0.39], [345, 3, 4, 0.66], [11489, 1, 4, 0.39], [5208, 3, 5, 0.48], [7886, 4, 5, 0.44], [3, 2, 4, 2.9], [159, 1, 4, 0.97], [6952, 1, 4, 0.45], [20927, 1, 4, 0.69], [11954, 1, 4, 0.44], [3430, 15, 4, 0.35], [432, 3, 4, 0.9], [566, 2, 4, 0.5], [13928, 1, 4, 0.2], [11504, 2, 4, 0.52], [11811, 1, 4, 0.38], [11952, 1, 4, 0.43], [2703, 3, 4, 2.13], [114, 3, 4, 1.64], [2331, 1, 4, 0.55], [7004, 1, 4, 1.02], [5584, 3, 4, 1.55], [1492, 1, 4, 0.53], [10407, 10, 6, 1.64], [105, 3, 4, 1.64], [1490, 1, 4, 1.72], [11089, 1, 4, 0.4], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [944, 15, 4, 0.41], [12348, 1, 4, 0.66], [10410, 10, 6, 1.56], [1886, 2, 4, 0.42], [7706, 2, 4, 1.5], [308, 1, 5, 0.54], [11674, 1, 4, 0.36], [3981, 3, 8, 0.51], [3891, 1, 4, 0.94], [94, 4, 4, 1.77], [6097, 80, 4, 0.46], [11953, 1, 4, 0.48], [9082, 3, 15, 0.83], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 5.39], [362, 2, 95, 3.23], [5491, 2, 92, 3.39], [130, 1, 17, 3.43], [5493, 2, 92, 3.76], [589, 2, 51, 3.23], [2327, 2, 128, 4.11], [326, 2, 31, 2.7], [11685, 2, 277, 3.42], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 240, 6.0], [11681, 2, 277, 3.78], [205, 2, 55, 2.17], [8648, 2, 192, 4.81], [206, 2, 31, 2.61], [6936, 2, 284, 4.68], [142, 2, 133, 3.33], [11838, 2, 227, 3.3], [2049, 3, 368, 2.99], [12721, 2, 241, 3.74], [523, 2, 78, 3.51], [8676, 2, 244, 3.83], [615, 2, 108, 4.76], [11737, 2, 57, 3.86], [305, 2, 49, 3.71], [12353, 1, 632, 3.02], [413, 1, 74, 4.53], [412, 1, 71, 4.06], [411, 2, 37, 2.01], [10574, 3, 503, 4.63], [145, 2, 50, 3.73], [8675, 2, 244, 4.22], [12349, 1, 632, 2.89], [76, 2, 109, 2.89], [1429, 2, 153, 2.7], [2775, 2, 158, 2.61], [143, 2, 50, 3.73], [8673, 2, 285, 3.23], [8674, 2, 288, 3.25], [8938, 2, 191, 3.65], [11836, 2, 227, 3.14], [146, 2, 152, 2.87], [12720, 2, 285, 3.47], [10149, 3, 875, 3.26], [3495, 3, 968, 3.34], [2776, 2, 158, 2.85], [12350, 1, 632, 2.8], [75, 2, 144, 4.03], [1504, 2, 206, 3.21], [144, 2, 50, 3.7], [416, 1, 86, 3.19], [22316, 3, 319, 2.67], [88, 10, 562, 3.89], [2859, 15, 69, 2.63], [159, 3, 237, 2.92], [418, 2, 122, 2.97], [7084, 3, 129, 3.74], [12346, 1, 632, 2.76], [20252, 2, 93, 3.72], [9784, 1, 72, 3.47], [7705, 2, 177, 4.8], [2424, 29, 29, 6.0], [12526, 2, 273, 4.56], [2423, 80, 185, 3.98]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 1.63], [362, 2, 4, 0.8], [589, 2, 5, 0.2], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [130, 1, 4, 0.5], [1776, 1, 4, 0.58], [20252, 2, 4, 0.56], [205, 2, 4, 0.47], [8915, 2, 6, 0.2], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [6936, 2, 5, 1.27], [593, 2, 5, 0.2], [7886, 4, 4, 0.41], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 10, 1.33], [11681, 2, 5, 2.33], [990, 2, 4, 0.2], [8650, 2, 4, 1.15], [248, 1, 4, 0.38], [412, 1, 4, 0.91], [5151, 2, 4, 0.9], [144, 2, 4, 0.5], [2050, 3, 5, 0.66], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [10149, 3, 15, 1.32], [2991, 3, 4, 2.19], [22247, 2, 5, 1.06], [57, 1, 5, 0.2], [3478, 2, 4, 1.28], [146, 2, 4, 1.06], [7004, 1, 4, 0.47], [45, 2, 4, 1.12], [2054, 3, 4, 1.28], [143, 2, 4, 1.26], [417, 2, 4, 0.29], [413, 1, 4, 0.35], [21793, 1, 4, 1.03], [167, 3, 4, 1.09], [201, 3, 5, 0.42], [74, 1, 4, 0.84], [2055, 3, 4, 0.94], [1446, 2, 4, 0.2], [168, 3, 5, 0.75], [7084, 3, 4, 0.88], [10, 2, 4, 0.42], [11234, 2, 5, 0.2], [1429, 2, 5, 0.2], [12721, 2, 6, 0.96], [335, 3, 11, 0.39], [7036, 1, 4, 1.04], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [308, 1, 5, 2.44], [8649, 2, 4, 1.15], [13028, 3, 5, 0.5], [12870, 1, 4, 2.33], [10825, 21, 8, 0.36], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [3893, 1, 5, 0.2], [1006, 2, 4, 0.66], [145, 2, 5, 0.43], [5208, 3, 6, 0.19], [432, 3, 4, 0.41], [1504, 2, 5, 0.2], [9827, 3, 4, 0.2], [7005, 1, 4, 0.47], [1490, 1, 5, 0.2], [94, 4, 4, 0.51], [5812, 3, 5, 1.21], [13260, 29, 4, 0.46], [8853, 2, 5, 1.19], [411, 2, 4, 0.47], [416, 1, 4, 1.23], [142, 2, 4, 0.74], [8651, 2, 4, 1.15], [12353, 1, 5, 0.7], [21269, 3, 4, 1.45], [12349, 1, 4, 1.09], [33, 1, 4, 0.66], [998, 2, 4, 0.69], [5086, 1, 5, 1.11], [9069, 1, 4, 1.62], [12350, 1, 5, 0.62], [229, 1, 4, 2.07], [2878, 1, 5, 0.54], [1243, 2, 4, 0.92], [140, 2, 4, 0.47], [7567, 3, 4, 1.62], [2049, 1, 4, 1.57], [126, 2, 4, 0.97], [20927, 1, 4, 0.42], [3980, 4, 4, 1.31], [1703, 2, 4, 1.38], [35, 1, 4, 0.46], [8274, 3, 4, 1.09], [997, 2, 4, 0.6], [5209, 3, 4, 0.19], [9691, 1, 4, 1.4], [11914, 1, 4, 0.2], [5584, 3, 4, 1.01], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [856, 1, 4, 0.38], [1519, 3, 12, 0.23], [5660, 2, 4, 1.05], [5513, 2, 4, 0.46], [159, 3, 6, 0.27], [523, 2, 5, 0.74], [8898, 3, 4, 2.67], [1091, 1, 4, 0.2], [2775, 2, 4, 0.2], [11767, 1, 4, 0.46], [996, 2, 4, 1.16], [8926, 1, 4, 1.72], [13034, 3, 5, 1.26], [9081, 3, 7, 1.28], [23961, 3, 4, 0.5], [12661, 1, 4, 1.2], [307, 2, 4, 1.14], [8676, 2, 4, 0.97], [9372, 1, 4, 0.39], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 250, 3.69], [362, 2, 131, 2.7], [589, 2, 71, 2.46], [141, 2, 123, 2.64], [75, 2, 114, 3.61], [1776, 1, 89, 2.72], [20252, 2, 86, 2.33], [205, 2, 50, 1.89], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [6936, 2, 223, 4.33], [593, 2, 180, 2.48], [7886, 4, 66, 1.79], [305, 2, 115, 2.53], [151, 1, 53, 2.46], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [11681, 2, 214, 6.0], [990, 2, 41, 2.81], [8650, 2, 176, 4.9], [412, 1, 66, 3.33], [5151, 2, 19, 2.89], [144, 2, 104, 3.64], [2050, 3, 373, 3.55], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [10149, 3, 676, 4.91], [2991, 3, 127, 5.38], [22247, 2, 221, 4.16], [57, 1, 68, 2.35], [3478, 2, 34, 4.01], [146, 2, 119, 3.2], [7004, 1, 73, 2.06], [45, 2, 85, 4.3], [143, 2, 117, 3.59], [417, 2, 122, 4.03], [413, 1, 68, 3.29], [21793, 1, 190, 5.28], [167, 3, 157, 3.73], [201, 3, 235, 4.71], [74, 1, 155, 4.18], [2055, 3, 368, 4.35], [1446, 2, 120, 3.21], [168, 3, 321, 3.04], [7084, 3, 102, 4.11], [10, 2, 63, 4.58], [11234, 2, 145, 2.91], [1429, 2, 120, 2.64], [12721, 2, 221, 3.58], [335, 3, 1056, 5.52], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [308, 1, 132, 6.0], [8649, 2, 176, 4.62], [13028, 3, 116, 2.58], [12870, 1, 108, 5.93], [10825, 21, 505, 2.32], [79, 1, 22, 1.5], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.35], [3893, 1, 98, 2.83], [1006, 2, 106, 2.87]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.5], [8915, 2, 5, 1.94], [2327, 2, 4, 0.52], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 0.8], [305, 2, 4, 0.45], [326, 2, 4, 1.22], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 1.24], [2049, 3, 5, 0.21], [159, 3, 5, 0.19], [143, 2, 4, 0.94], [10, 2, 5, 0.92], [593, 2, 4, 0.4], [205, 2, 4, 0.37], [2775, 2, 4, 0.2], [5491, 2, 4, 0.45], [7036, 1, 4, 1.2], [144, 2, 4, 1.04], [94, 4, 4, 1.42], [8938, 2, 4, 0.2], [434, 2, 5, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [1504, 2, 4, 0.38], [8853, 2, 4, 1.79], [1429, 2, 4, 0.28], [12224, 1, 4, 0.46], [3891, 1, 5, 0.2], [141, 2, 4, 0.39], [362, 2, 4, 0.52], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [75, 2, 4, 1.24], [11681, 2, 5, 1.81], [5208, 3, 5, 0.48], [8649, 2, 4, 0.57], [1007, 2, 4, 0.2], [3889, 1, 5, 0.25], [7886, 4, 4, 0.2], [10993, 2, 4, 0.83], [2054, 3, 4, 1.0], [7005, 1, 4, 0.58], [12870, 1, 4, 1.68], [10149, 3, 15, 1.21], [12353, 1, 4, 0.66], [2050, 3, 4, 0.46], [145, 2, 4, 1.0], [2912, 1, 4, 1.43], [5165, 1, 4, 1.02], [20927, 1, 4, 1.26], [9760, 29, 4, 0.2], [998, 2, 4, 0.81], [2436, 4, 4, 0.28], [1006, 2, 5, 0.55], [1886, 2, 4, 0.2], [997, 2, 4, 0.76], [972, 3, 6, 0.51], [3, 2, 4, 0.48], [229, 1, 4, 0.49], [3495, 3, 11, 0.92], [6158, 2, 5, 2.11], [632, 11, 13, 0.45], [5165, 2, 5, 2.07], [7887, 4, 4, 0.97], [12345, 1, 4, 0.66], [5076, 1, 4, 0.76], [11770, 1, 4, 1.95], [9372, 1, 4, 0.78], [126, 2, 4, 0.54], [20252, 2, 4, 0.47], [74, 1, 4, 0.99], [12344, 1, 4, 0.66], [11953, 1, 4, 0.52], [8939, 2, 5, 0.2], [140, 2, 4, 1.72], [11685, 2, 5, 1.83], [1492, 1, 4, 0.45], [2912, 2, 7, 1.39], [12350, 1, 4, 0.66], [12721, 2, 5, 0.96], [2774, 2, 4, 0.63], [20256, 2, 4, 0.5], [3981, 3, 11, 0.63], [9491, 21, 12, 0.22], [22316, 3, 4, 0.49], [12343, 1, 4, 0.66], [2423, 80, 4, 0.48], [11952, 1, 4, 0.42], [5434, 1, 4, 0.83], [6497, 1, 4, 1.2], [11772, 1, 4, 0.2], [5584, 3, 4, 2.99], [12351, 1, 4, 0.66], [335, 3, 9, 0.37], [12229, 2, 4, 0.49], [7573, 1, 9, 2.02], [2438, 2, 5, 0.96], [10407, 10, 6, 1.56], [10388, 2, 4, 1.03], [11179, 1, 4, 0.45], [823, 1, 4, 1.08], [5209, 3, 5, 0.48], [6496, 1, 4, 0.35], [2805, 137, 4, 1.22], [3900, 3, 4, 0.7], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [1703, 2, 4, 1.9], [1622, 1, 4, 0.45], [8676, 2, 4, 1.21], [972, 1, 4, 1.01], [22247, 2, 4, 1.39], [412, 1, 4, 0.49], [1414, 15, 4, 0.62], [6097, 80, 4, 1.03], [159, 16, 4, 0.2], [10386, 2, 4, 1.79], [2991, 3, 4, 1.65], [1274, 1, 4, 0.48], [9784, 1, 4, 0.52], [6805, 1, 4, 0.51], [11814, 1, 4, 0.48], [10410, 10, 9, 1.6], [8635, 3, 4, 1.73], [11813, 1, 4, 0.46], [7567, 3, 4, 1.47], [88, 10, 467, 4.23], [2327, 2, 125, 3.09], [589, 2, 127, 3.01], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 104, 4.7], [305, 2, 122, 2.96], [326, 2, 29, 4.87], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 50, 3.79], [2049, 3, 181, 2.85], [159, 3, 584, 3.33], [143, 2, 123, 3.44], [10, 2, 29, 4.53], [593, 2, 150, 3.07], [205, 2, 89, 2.31], [2775, 2, 131, 3.06], [5491, 2, 87, 3.66], [7036, 1, 107, 5.16], [144, 2, 123, 3.57], [94, 4, 100, 4.36], [8938, 2, 63, 2.96], [434, 2, 89, 3.03], [3893, 1, 104, 2.85], [146, 2, 125, 3.7], [1504, 2, 170, 2.83], [8853, 2, 273, 5.14], [1429, 2, 75, 3.6], [12224, 1, 109, 2.36], [3891, 1, 104, 2.9], [141, 2, 130, 2.86], [362, 2, 118, 3.09], [2776, 2, 131, 3.27], [206, 2, 36, 1.72], [75, 2, 142, 4.02], [11681, 2, 221, 6.0], [5208, 3, 275, 3.9], [8649, 2, 220, 4.12], [1007, 2, 89, 2.98], [3889, 1, 104, 3.51], [7005, 1, 23, 3.47], [12870, 1, 114, 5.33], [10149, 3, 735, 4.24], [12353, 1, 615, 2.89], [2050, 3, 158, 1.88], [145, 2, 125, 3.56], [2912, 1, 47, 4.46], [5165, 1, 49, 4.07], [9760, 29, 60, 3.37], [998, 2, 198, 3.64], [2436, 4, 96, 4.32], [1006, 2, 112, 3.15], [1886, 2, 130, 3.17], [997, 2, 198, 4.46], [972, 3, 493, 3.68], [3, 2, 119, 2.55], [229, 1, 70, 3.03], [3495, 3, 795, 3.74], [6158, 2, 211, 6.0], [632, 11, 405, 2.08], [12345, 1, 615, 2.89], [5076, 1, 127, 3.09], [11770, 1, 204, 5.39], [9372, 1, 225, 4.83]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.37], [141, 2, 4, 0.53], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.94], [362, 2, 4, 0.56], [8648, 2, 4, 2.08], [2327, 2, 4, 0.93], [11681, 2, 9, 2.07], [8650, 2, 5, 2.08], [326, 2, 4, 0.47], [205, 2, 4, 0.2], [2328, 2, 4, 0.39], [1446, 2, 4, 0.2], [305, 2, 5, 1.0], [2049, 3, 5, 0.49], [130, 1, 4, 1.45], [8649, 2, 5, 2.46], [2775, 2, 5, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [2776, 2, 4, 0.32], [593, 2, 5, 0.2], [143, 2, 4, 1.13], [140, 2, 4, 0.97], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [5493, 2, 4, 0.2], [523, 2, 5, 0.54], [413, 1, 4, 0.66], [7004, 1, 4, 0.89], [7036, 1, 4, 1.42], [21793, 1, 4, 1.14], [412, 1, 4, 0.57], [5491, 2, 4, 0.57], [151, 1, 4, 0.37], [1124, 2, 5, 0.29], [990, 2, 5, 0.28], [5165, 1, 4, 0.7], [8915, 2, 6, 0.94], [615, 2, 4, 1.62], [583, 2, 4, 0.47], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.52], [434, 2, 5, 0.2], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [201, 3, 5, 0.92], [142, 2, 4, 0.56], [11770, 1, 4, 0.43], [345, 3, 5, 0.92], [2055, 3, 4, 0.81], [3891, 1, 4, 0.91], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [5165, 2, 7, 1.19], [7084, 3, 4, 2.67], [7005, 1, 4, 0.68], [3893, 1, 4, 0.63], [3670, 2, 4, 1.47], [12870, 1, 4, 1.18], [1886, 2, 5, 0.2], [10574, 3, 5, 1.09], [3334, 5, 4, 0.84], [6098, 80, 4, 1.39], [7885, 4, 4, 0.49], [6097, 29, 4, 2.41], [20927, 1, 4, 0.86], [3889, 1, 4, 0.63], [11089, 1, 4, 0.5], [12345, 1, 5, 0.19], [6158, 2, 4, 1.75], [147, 1, 4, 0.94], [10149, 3, 15, 1.12], [22316, 3, 4, 0.5], [1492, 1, 4, 0.2], [432, 3, 5, 0.62], [11953, 1, 4, 0.48], [20252, 2, 5, 0.2], [11491, 2, 4, 0.5], [418, 2, 4, 0.84], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [1519, 3, 11, 0.39], [1490, 1, 4, 0.39], [2423, 80, 4, 0.77], [11952, 1, 4, 0.72], [229, 1, 4, 2.07], [972, 3, 5, 1.01], [5151, 2, 4, 1.05], [11769, 1, 4, 0.47], [3576, 25, 4, 1.17], [2331, 1, 4, 1.19], [416, 1, 4, 0.99], [13034, 3, 4, 1.51], [11426, 25, 4, 0.58], [11767, 1, 4, 0.46], [11737, 2, 4, 0.5], [439, 1, 4, 1.47], [3, 2, 4, 0.73], [5076, 1, 4, 0.63], [11583, 29, 5, 0.2], [2805, 137, 4, 0.98], [11490, 1, 4, 0.46], [2160, 68, 4, 0.56], [414, 1, 4, 0.66], [6494, 1, 4, 1.59], [410, 1, 4, 0.43], [1701, 2, 4, 1.31], [8677, 3, 5, 1.11], [3575, 25, 4, 1.24], [11180, 1, 4, 0.66], [11814, 1, 4, 0.48], [75, 2, 4, 0.37], [3478, 2, 4, 0.56], [11585, 29, 4, 1.12], [13023, 3, 5, 1.01], [11813, 1, 4, 1.11], [2438, 2, 5, 1.14], [9784, 1, 4, 0.67], [11954, 1, 4, 0.51], [4033, 29, 4, 0.57], [6098, 29, 4, 0.67], [4253, 1, 4, 1.66], [23238, 29, 4, 0.43], [8283, 2, 5, 0.49], [23238, 25, 4, 0.41], [11404, 2, 4, 0.43], [9289, 29, 4, 1.32], [9069, 1, 4, 0.42], [4232, 80, 4, 1.6], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 106, 2.67], [2778, 2, 114, 3.75], [6936, 2, 202, 5.81], [362, 2, 103, 2.95], [8648, 2, 162, 5.97], [2327, 2, 130, 3.21], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 47, 3.24], [205, 2, 80, 2.77], [2328, 2, 110, 3.51], [1446, 2, 79, 2.84], [305, 2, 108, 3.76], [2049, 3, 190, 1.85], [8649, 2, 162, 6.0], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [2776, 2, 114, 4.16], [593, 2, 167, 2.88], [143, 2, 108, 3.59], [1429, 2, 53, 2.99], [206, 2, 80, 2.96], [5493, 2, 80, 2.9], [523, 2, 114, 2.91], [413, 1, 63, 3.29], [7004, 1, 27, 2.6], [7036, 1, 94, 4.63], [21793, 1, 174, 4.35], [412, 1, 62, 3.17], [5491, 2, 93, 2.52], [151, 1, 34, 2.6], [1124, 2, 136, 3.38], [5165, 1, 25, 4.29], [8915, 2, 138, 4.65], [615, 2, 92, 4.53], [583, 2, 63, 3.24], [417, 2, 114, 2.93], [248, 1, 37, 2.77], [144, 2, 52, 3.57], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [201, 3, 205, 4.98], [142, 2, 114, 2.94], [11770, 1, 188, 2.25], [345, 3, 219, 3.6], [2055, 3, 410, 2.98], [3891, 1, 107, 3.17], [9372, 1, 195, 2.96], [2057, 3, 410, 2.98], [616, 2, 92, 3.07], [7005, 1, 55, 2.64], [3893, 1, 107, 2.63], [3670, 2, 212, 4.24], [12870, 1, 119, 3.68], [10574, 3, 370, 3.81], [3334, 5, 154, 3.41], [6098, 80, 55, 4.1], [7885, 4, 48, 1.82], [20927, 1, 27, 2.57], [3889, 1, 107, 2.63], [11089, 1, 148, 2.38], [12345, 1, 455, 2.79], [6158, 2, 221, 4.78], [147, 1, 65, 5.17]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 0.47], [305, 2, 4, 1.37], [2778, 2, 4, 0.58], [5493, 2, 4, 0.91], [6936, 2, 4, 1.5], [130, 1, 4, 0.7], [205, 2, 4, 0.7], [616, 2, 4, 0.94], [144, 2, 4, 0.5], [2049, 3, 7, 0.46], [8648, 2, 4, 0.57], [1504, 2, 4, 0.69], [88, 10, 8, 0.43], [8915, 2, 5, 1.94], [326, 2, 4, 0.54], [7036, 1, 4, 0.43], [8650, 2, 4, 0.57], [593, 2, 4, 0.58], [2327, 2, 4, 0.49], [11681, 2, 4, 1.33], [3893, 1, 4, 0.7], [8853, 2, 4, 1.41], [141, 2, 4, 0.65], [2775, 2, 4, 0.8], [206, 2, 4, 0.36], [7004, 1, 4, 1.21], [151, 1, 4, 0.52], [9507, 3, 4, 0.36], [248, 1, 4, 1.06], [11685, 2, 4, 1.35], [10, 2, 4, 0.36], [2328, 2, 4, 0.9], [146, 2, 4, 0.63], [2050, 3, 4, 1.69], [2497, 2, 4, 0.69], [5491, 2, 4, 1.17], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [3980, 4, 4, 1.2], [990, 2, 4, 0.36], [21798, 1, 4, 0.47], [2054, 3, 4, 1.86], [12349, 1, 4, 0.98], [624, 2, 4, 1.08], [8672, 2, 4, 1.21], [8649, 2, 4, 0.57], [12870, 1, 4, 0.92], [362, 2, 4, 1.11], [7885, 4, 4, 0.44], [2776, 2, 4, 0.8], [12350, 1, 4, 0.98], [2057, 3, 4, 1.69], [7886, 4, 4, 0.48], [12353, 1, 4, 0.98], [10574, 3, 5, 1.36], [13028, 3, 4, 0.62], [1006, 2, 4, 0.58], [523, 2, 4, 0.38], [1446, 2, 4, 1.11], [3975, 4, 4, 1.26], [7005, 1, 4, 0.94], [75, 2, 4, 1.36], [94, 4, 4, 1.84], [3495, 3, 13, 0.92], [2991, 3, 4, 1.65], [12346, 1, 4, 0.98], [11404, 2, 4, 0.43], [9760, 29, 4, 0.45], [10149, 3, 13, 0.39], [142, 2, 4, 0.44], [20927, 1, 4, 0.67], [6158, 2, 4, 0.49], [3981, 3, 13, 1.15], [3982, 3, 10, 1.18], [417, 2, 4, 0.55], [8939, 2, 4, 0.42], [11953, 1, 4, 0.43], [1007, 2, 4, 0.45], [956, 2, 4, 0.37], [997, 2, 4, 1.14], [33, 1, 4, 1.04], [11772, 1, 4, 0.44], [2774, 2, 4, 0.69], [7887, 4, 4, 0.95], [6497, 1, 4, 0.52], [1492, 1, 4, 0.45], [432, 3, 4, 0.47], [12345, 1, 4, 0.98], [972, 3, 4, 1.51], [12352, 1, 4, 0.98], [998, 2, 4, 1.06], [11767, 1, 4, 0.57], [11770, 1, 4, 0.45], [11769, 1, 4, 0.96], [336, 15, 4, 0.72], [35, 1, 4, 0.66], [12351, 1, 4, 0.98], [996, 2, 4, 0.99], [389, 4, 4, 0.88], [74, 1, 4, 0.82], [11490, 1, 4, 0.58], [7567, 3, 4, 1.76], [11952, 1, 4, 0.45], [411, 2, 4, 0.51], [6496, 1, 4, 0.49], [12721, 2, 4, 1.13], [140, 2, 4, 0.54], [22317, 3, 4, 0.51], [8121, 3, 4, 0.55], [8673, 2, 4, 0.47], [4176, 4, 4, 1.31], [1126, 2, 4, 0.58], [2436, 4, 4, 0.78], [1277, 1, 4, 0.65], [9372, 1, 4, 2.12], [8676, 2, 4, 1.21], [11085, 2, 4, 1.27], [8677, 3, 4, 1.38], [1274, 1, 4, 0.6], [21269, 3, 4, 1.57], [12343, 1, 4, 0.98], [10936, 2, 4, 1.7], [22247, 2, 4, 1.14], [37, 1, 4, 0.66], [10388, 2, 4, 1.08], [823, 1, 4, 0.49], [12526, 2, 4, 0.93], [9784, 1, 4, 0.55], [6494, 1, 4, 0.43], [13023, 3, 4, 1.26], [7573, 1, 5, 1.45], [1429, 2, 4, 0.83], [345, 3, 4, 0.51], [6935, 2, 239, 4.26], [305, 2, 101, 4.0], [2778, 2, 136, 2.57], [5493, 2, 91, 4.77], [6936, 2, 239, 5.15], [130, 1, 20, 2.61], [205, 2, 94, 2.79], [616, 2, 92, 5.04], [144, 2, 130, 2.41], [2049, 3, 469, 3.54], [8648, 2, 195, 3.17], [1504, 2, 176, 2.78], [88, 10, 502, 2.33], [326, 2, 32, 2.69], [7036, 1, 111, 3.73], [8650, 2, 195, 3.17], [593, 2, 198, 2.88], [2327, 2, 131, 2.39], [11681, 2, 237, 4.74], [3893, 1, 108, 2.83], [8853, 2, 239, 5.12], [141, 2, 134, 2.7], [2775, 2, 136, 2.99], [206, 2, 94, 2.14], [7004, 1, 27, 3.23], [151, 1, 23, 2.15], [11685, 2, 237, 4.76], [2328, 2, 131, 3.17], [146, 2, 131, 2.66], [2050, 3, 398, 4.77], [2497, 2, 176, 3.79], [5491, 2, 91, 4.77], [2055, 3, 398, 4.89], [143, 2, 129, 2.57], [3980, 4, 417, 3.8], [990, 2, 27, 1.9], [21798, 1, 121, 2.35], [2054, 3, 398, 5.11], [12349, 1, 545, 4.66], [624, 2, 92, 5.04], [8672, 2, 247, 4.59], [8649, 2, 195, 3.93], [12870, 1, 117, 3.75], [362, 2, 123, 3.59], [2776, 2, 136, 2.99], [12350, 1, 545, 4.66], [2057, 3, 398, 4.77], [12353, 1, 545, 4.66], [10574, 3, 439, 3.84], [13028, 3, 127, 2.69], [1006, 2, 198, 2.82], [523, 2, 134, 2.18], [1446, 2, 53, 3.05], [3975, 4, 417, 3.93], [7005, 1, 68, 3.26], [75, 2, 126, 4.07], [94, 4, 104, 5.91], [3495, 3, 835, 3.08], [2991, 3, 140, 5.42], [12346, 1, 545, 4.66], [11404, 2, 55, 2.03], [9760, 29, 63, 2.32], [10149, 3, 754, 2.93], [142, 2, 134, 2.29], [20927, 1, 55, 3.37], [6158, 2, 228, 3.02], [3981, 3, 1395, 3.45]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 1.37], [6935, 2, 7, 1.47], [2328, 2, 4, 0.51], [130, 1, 4, 0.5], [141, 2, 4, 0.63], [8650, 2, 4, 0.95], [2778, 2, 5, 0.44], [5491, 2, 4, 0.63], [2327, 2, 4, 0.51], [8672, 2, 5, 0.8], [362, 2, 4, 1.51], [143, 2, 4, 1.26], [6936, 2, 4, 1.25], [248, 1, 4, 0.52], [145, 2, 4, 0.51], [11681, 2, 5, 0.47], [205, 2, 4, 0.65], [5493, 2, 4, 0.83], [146, 2, 4, 0.56], [417, 2, 4, 0.54], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [1124, 2, 5, 0.86], [523, 2, 4, 0.53], [8648, 2, 4, 0.95], [1504, 2, 5, 0.51], [12721, 2, 5, 0.48], [8853, 2, 4, 1.46], [1005, 2, 4, 0.39], [615, 2, 4, 1.19], [326, 2, 4, 0.78], [206, 2, 4, 0.65], [8673, 2, 4, 0.74], [8915, 2, 4, 0.82], [144, 2, 4, 0.5], [11835, 2, 4, 0.36], [11739, 2, 4, 0.38], [88, 10, 8, 0.95], [434, 2, 4, 0.55], [2776, 2, 4, 0.93], [142, 2, 4, 0.48], [151, 1, 4, 0.57], [8676, 2, 4, 1.06], [6158, 2, 5, 1.11], [8649, 2, 4, 0.95], [11738, 2, 4, 0.38], [2497, 2, 4, 0.36], [1413, 15, 4, 0.38], [11836, 2, 4, 0.55], [3670, 2, 4, 2.81], [7705, 2, 4, 1.5], [944, 15, 4, 0.41], [3, 2, 4, 0.51], [2859, 15, 4, 0.44], [10574, 3, 5, 1.29], [412, 1, 4, 0.99], [7706, 2, 4, 1.5], [378, 2, 4, 2.48], [2054, 3, 4, 0.4], [22316, 3, 4, 0.46], [12720, 2, 4, 0.48], [3478, 2, 4, 0.89], [74, 1, 4, 1.69], [2055, 3, 4, 0.4], [10149, 3, 13, 1.12], [2774, 2, 4, 0.57], [307, 2, 4, 1.04], [11919, 1, 4, 0.48], [6497, 1, 4, 0.44], [12526, 2, 4, 0.93], [418, 2, 4, 0.82], [7004, 1, 4, 0.81], [11089, 1, 4, 0.4], [411, 2, 4, 0.52], [60, 3, 5, 0.58], [13928, 1, 4, 0.43], [413, 1, 4, 1.59], [2057, 3, 4, 0.4], [11844, 2, 4, 0.47], [8274, 3, 4, 0.58], [7036, 1, 4, 0.43], [3893, 1, 4, 0.73], [14037, 3, 4, 0.41], [13260, 29, 4, 0.67], [2050, 3, 4, 0.4], [7084, 3, 4, 0.36], [6097, 80, 4, 0.46], [6952, 1, 4, 0.96], [3891, 1, 4, 0.94], [9784, 1, 4, 0.55], [94, 4, 4, 1.77], [1050, 2, 4, 0.36], [159, 3, 5, 0.94], [6494, 1, 4, 0.46], [7707, 2, 4, 0.72], [1243, 2, 4, 0.49], [414, 1, 4, 1.59], [1490, 1, 4, 1.01], [11490, 1, 4, 0.5], [3889, 1, 4, 0.73], [22317, 3, 5, 0.47], [7708, 2, 4, 1.5], [21793, 1, 4, 1.45], [1413, 16, 4, 0.4], [345, 3, 4, 1.16], [7703, 2, 4, 1.5], [565, 2, 4, 0.46], [11491, 2, 4, 0.8], [229, 1, 4, 2.0], [3495, 3, 10, 0.85], [1492, 1, 4, 0.53], [6098, 80, 4, 1.16], [149, 2, 4, 0.52], [410, 1, 4, 0.37], [11504, 2, 4, 0.78], [336, 15, 4, 0.38], [6630, 3, 4, 1.76], [147, 1, 4, 0.52], [416, 1, 4, 1.59], [3430, 15, 4, 0.35], [2991, 3, 4, 2.19], [3674, 2, 4, 0.52], [2805, 137, 5, 1.85], [23275, 2, 4, 0.39], [6098, 29, 4, 1.16], [247, 1, 4, 2.06], [11581, 29, 4, 0.87], [8635, 3, 4, 0.58], [1274, 1, 4, 1.57], [2331, 1, 4, 0.73], [963, 3, 4, 0.86], [1049, 2, 4, 0.36], [13263, 29, 4, 0.38], [305, 2, 49, 3.71], [6935, 2, 283, 6.0], [2328, 2, 151, 3.64], [141, 2, 157, 2.99], [8650, 2, 225, 4.13], [2778, 2, 157, 3.05], [5491, 2, 107, 4.58], [2327, 2, 151, 3.61], [8672, 2, 144, 4.61], [362, 2, 47, 3.98], [143, 2, 74, 3.85], [6936, 2, 283, 4.87], [248, 1, 18, 2.07], [145, 2, 50, 3.73], [11681, 2, 277, 3.19], [205, 2, 36, 2.32], [5493, 2, 107, 4.58], [146, 2, 152, 2.87], [417, 2, 157, 2.82], [75, 2, 146, 3.38], [11737, 2, 57, 2.96], [1124, 2, 94, 3.32], [523, 2, 157, 2.8], [8648, 2, 225, 3.88], [1504, 2, 206, 3.01], [12721, 2, 285, 3.23], [8853, 2, 283, 4.65], [615, 2, 108, 4.07], [326, 2, 31, 2.93], [8673, 2, 290, 3.21], [144, 2, 50, 3.7], [11835, 2, 269, 2.48], [11739, 2, 57, 2.96], [88, 10, 562, 3.89], [434, 2, 36, 2.31], [2776, 2, 157, 3.57], [142, 2, 157, 2.7], [8676, 2, 289, 3.82], [6158, 2, 175, 3.8], [8649, 2, 225, 4.64], [11738, 2, 57, 2.96], [2497, 2, 206, 2.47], [1413, 15, 84, 2.44], [11836, 2, 269, 2.84], [3670, 2, 237, 6.0], [7705, 2, 177, 4.8], [944, 15, 15, 1.86], [3, 2, 121, 3.32], [2859, 15, 69, 2.63], [10574, 3, 503, 4.63], [412, 1, 84, 4.19], [7706, 2, 177, 4.8], [378, 2, 225, 6.0], [2054, 3, 474, 3.89], [22316, 3, 319, 2.67], [12720, 2, 285, 3.23], [3478, 2, 38, 3.59], [74, 1, 200, 5.96], [2055, 3, 474, 3.89], [10149, 3, 869, 4.0], [2774, 2, 206, 4.75], [307, 2, 149, 3.78], [11919, 1, 92, 2.35], [6497, 1, 38, 2.63], [12526, 2, 273, 4.56], [418, 2, 142, 3.36], [7004, 1, 27, 2.63]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.25], [3, 2, 5, 0.2], [326, 2, 4, 0.54], [205, 2, 4, 0.37], [6935, 2, 8, 1.27], [143, 2, 4, 0.58], [130, 1, 4, 0.55], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 5, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [146, 2, 4, 0.52], [206, 2, 4, 0.2], [20252, 2, 4, 0.4], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [2050, 3, 5, 0.41], [5151, 2, 4, 1.02], [141, 2, 4, 0.53], [248, 1, 4, 0.37], [7886, 4, 4, 0.45], [88, 10, 8, 0.46], [74, 1, 4, 1.53], [2991, 3, 4, 2.05], [1446, 2, 4, 0.2], [2057, 3, 5, 0.47], [7004, 1, 4, 0.37], [362, 2, 4, 0.48], [1007, 2, 6, 0.2], [1492, 1, 4, 1.22], [76, 2, 4, 0.37], [147, 1, 4, 1.27], [8649, 2, 4, 1.9], [3889, 1, 4, 0.2], [7005, 1, 4, 0.38], [345, 3, 4, 0.57], [11234, 2, 6, 0.2], [1429, 2, 4, 0.2], [10, 2, 5, 0.3], [307, 2, 4, 1.08], [57, 1, 5, 0.2], [5081, 2, 4, 0.69], [10825, 21, 8, 1.28], [12870, 1, 4, 2.33], [7084, 3, 4, 1.53], [10149, 3, 13, 0.98], [7036, 1, 4, 0.43], [3478, 2, 4, 1.03], [1006, 2, 5, 0.59], [21793, 1, 4, 1.39], [1504, 2, 5, 0.2], [3891, 1, 4, 0.27], [94, 4, 4, 1.35], [411, 2, 4, 0.37], [9827, 3, 4, 0.2], [167, 3, 5, 1.15], [432, 3, 5, 0.2], [3893, 1, 4, 0.2], [8677, 3, 6, 0.65], [11681, 2, 6, 1.91], [23, 1, 4, 0.67], [148, 1, 4, 1.33], [96, 11, 17, 0.38], [1490, 1, 4, 0.2], [22247, 2, 6, 1.15], [1124, 2, 5, 0.2], [9760, 29, 4, 0.24], [11737, 2, 4, 0.2], [12225, 1, 4, 0.43], [5812, 3, 6, 0.8], [201, 3, 4, 0.57], [1243, 2, 5, 0.56], [2336, 3, 6, 0.5], [335, 3, 9, 0.37], [6158, 2, 6, 0.51], [35, 1, 4, 0.83], [8853, 2, 5, 1.32], [10574, 3, 5, 1.33], [412, 1, 4, 1.14], [5005, 1, 4, 0.44], [20256, 2, 4, 0.2], [5208, 3, 6, 0.19], [20927, 1, 5, 0.49], [8651, 2, 4, 0.88], [229, 1, 4, 2.57], [8939, 2, 4, 0.38], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [159, 3, 6, 0.67], [45, 2, 4, 0.64], [11490, 1, 4, 0.43], [413, 1, 4, 1.07], [149, 2, 4, 1.33], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [3980, 4, 5, 1.25], [95, 3, 11, 0.54], [140, 2, 5, 0.54], [5946, 1, 4, 1.03], [1766, 25, 4, 0.56], [490, 1, 4, 0.53], [1413, 15, 4, 0.2], [9372, 1, 4, 2.12], [1126, 2, 5, 0.5], [20255, 2, 4, 0.2], [8898, 3, 4, 0.75], [997, 2, 4, 0.57], [2775, 2, 5, 0.2], [506, 1, 4, 0.89], [11489, 1, 4, 0.65], [3670, 2, 4, 1.86], [1070, 7, 9, 0.46], [9690, 1, 4, 0.65], [9691, 1, 4, 1.27], [107, 2, 5, 1.17], [974, 3, 4, 0.88], [34, 1, 4, 0.38], [20498, 1, 4, 0.98], [823, 1, 4, 0.5], [14037, 3, 5, 0.2], [14017, 3, 4, 1.04], [142, 2, 4, 0.53], [5209, 3, 5, 0.19], [972, 3, 5, 0.65], [1091, 1, 4, 0.61], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 39, 3.44], [205, 2, 80, 2.49], [6935, 2, 206, 4.81], [143, 2, 108, 2.86], [130, 1, 33, 3.62], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [8915, 2, 82, 2.66], [1776, 1, 80, 2.94], [2778, 2, 114, 2.87], [146, 2, 109, 2.77], [206, 2, 70, 2.49], [20252, 2, 79, 2.44], [6936, 2, 206, 4.28], [1777, 1, 93, 3.82], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [2050, 3, 173, 3.41], [5151, 2, 17, 3.88], [141, 2, 132, 3.42], [248, 1, 40, 2.49], [7886, 4, 61, 2.64], [88, 10, 498, 4.15], [74, 1, 144, 5.34], [2991, 3, 116, 5.98], [1446, 2, 111, 3.24], [2057, 3, 346, 2.68], [7004, 1, 51, 2.49], [362, 2, 103, 3.03], [1007, 2, 116, 2.62], [1492, 1, 31, 3.65], [76, 2, 93, 2.41], [147, 1, 64, 4.31], [8649, 2, 161, 6.0], [3889, 1, 91, 2.61], [7005, 1, 51, 2.5], [345, 3, 219, 2.85], [11234, 2, 134, 3.07], [1429, 2, 98, 2.88], [307, 2, 108, 3.38], [5081, 2, 137, 3.07], [10825, 21, 451, 4.0], [12870, 1, 99, 6.0], [7084, 3, 93, 4.62], [10149, 3, 646, 3.5], [7036, 1, 92, 3.55], [3478, 2, 32, 3.94], [1006, 2, 98, 2.9], [21793, 1, 198, 5.88], [1504, 2, 148, 2.81], [3891, 1, 91, 3.93], [94, 4, 87, 3.91], [411, 2, 80, 2.49], [9827, 3, 63, 2.69], [167, 3, 164, 4.08], [432, 3, 221, 2.95], [3893, 1, 91, 3.93], [8677, 3, 214, 3.07], [11681, 2, 193, 6.0], [23, 1, 81, 3.04]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.97], [305, 2, 5, 0.75], [6935, 2, 10, 1.27], [2049, 3, 8, 1.63], [141, 2, 4, 0.39], [326, 2, 4, 0.47], [205, 2, 4, 0.47], [130, 1, 4, 0.5], [589, 2, 5, 0.37], [151, 1, 4, 0.46], [362, 2, 4, 0.2], [1776, 1, 4, 1.16], [146, 2, 4, 0.58], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.55], [8648, 2, 4, 0.77], [143, 2, 4, 0.58], [8915, 2, 6, 0.2], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [8650, 2, 5, 1.15], [20252, 2, 4, 0.2], [1777, 1, 4, 0.93], [5151, 2, 4, 1.05], [1007, 2, 6, 0.2], [248, 1, 4, 0.2], [2778, 2, 4, 0.2], [88, 10, 8, 1.12], [2050, 3, 5, 0.77], [10149, 3, 17, 1.32], [76, 2, 4, 1.11], [8649, 2, 4, 1.65], [10, 2, 5, 0.47], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [11681, 2, 6, 2.33], [10825, 21, 8, 0.36], [1446, 2, 4, 0.2], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 5, 1.28], [1429, 2, 4, 0.2], [147, 1, 4, 0.52], [3495, 3, 15, 1.31], [1006, 2, 5, 0.59], [167, 3, 4, 1.35], [1492, 1, 4, 0.2], [7036, 1, 4, 0.54], [7005, 1, 4, 0.4], [140, 2, 4, 0.47], [9827, 3, 5, 0.2], [8676, 2, 4, 0.49], [45, 2, 4, 1.12], [1124, 2, 6, 0.24], [168, 3, 5, 0.29], [2049, 1, 4, 0.93], [5812, 3, 5, 1.52], [94, 4, 4, 1.01], [57, 1, 4, 0.51], [1504, 2, 5, 0.2], [12870, 1, 5, 2.33], [148, 1, 4, 0.95], [335, 3, 10, 1.13], [8651, 2, 4, 1.22], [2336, 3, 5, 0.99], [415, 1, 4, 1.23], [8939, 2, 4, 0.38], [6097, 29, 4, 2.36], [416, 1, 4, 1.23], [8853, 2, 5, 0.82], [6097, 80, 4, 2.36], [490, 1, 4, 0.51], [1490, 1, 4, 0.44], [20927, 1, 4, 0.42], [95, 3, 15, 0.54], [79, 1, 4, 0.38], [6098, 29, 4, 2.52], [6098, 80, 4, 2.52], [9069, 1, 4, 1.09], [14017, 3, 4, 0.67], [414, 1, 4, 0.85], [22316, 3, 4, 0.49], [1070, 7, 9, 0.43], [8898, 3, 5, 2.17], [1126, 2, 4, 0.5], [13034, 3, 5, 1.26], [126, 2, 4, 0.97], [149, 2, 4, 0.52], [997, 2, 4, 1.26], [9760, 29, 4, 0.61], [20498, 1, 5, 1.05], [5086, 1, 5, 0.58], [9784, 1, 4, 0.74], [159, 3, 6, 0.19], [5513, 2, 5, 0.48], [336, 15, 4, 0.38], [8945, 3, 5, 1.12], [22317, 3, 6, 0.51], [12924, 1, 5, 0.2], [7567, 3, 5, 1.12], [11085, 2, 5, 0.45], [11739, 2, 4, 0.83], [1413, 15, 4, 0.2], [5811, 3, 5, 1.18], [974, 3, 4, 0.88], [192, 3, 11, 1.24], [229, 1, 5, 2.07], [5813, 3, 5, 1.08], [972, 3, 4, 0.81], [506, 1, 4, 0.95], [8557, 3, 4, 0.33], [1622, 1, 5, 0.2], [9082, 3, 18, 0.17], [9691, 1, 4, 1.41], [20498, 3, 5, 1.1], [8943, 3, 4, 0.86], [3049, 3, 4, 1.98], [14018, 3, 4, 0.5], [524, 1, 4, 1.41], [4076, 3, 4, 2.69], [470, 1, 4, 0.2], [2775, 2, 4, 0.2], [20486, 3, 5, 1.01], [13023, 3, 6, 1.24], [3900, 3, 4, 1.68], [2423, 80, 4, 1.41], [5584, 3, 4, 0.5], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [6935, 2, 223, 4.83], [2049, 3, 250, 3.69], [141, 2, 123, 2.37], [326, 2, 72, 2.63], [205, 2, 50, 1.89], [589, 2, 71, 1.58], [151, 1, 53, 2.49], [362, 2, 112, 2.64], [1776, 1, 100, 3.39], [146, 2, 119, 2.72], [145, 2, 119, 2.46], [206, 2, 50, 2.36], [2328, 2, 119, 2.67], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [8650, 2, 176, 4.83], [20252, 2, 74, 2.56], [1777, 1, 100, 3.38], [5151, 2, 19, 3.18], [1007, 2, 188, 2.46], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [10149, 3, 676, 4.91], [76, 2, 85, 3.94], [8649, 2, 176, 4.51], [10, 2, 63, 4.58], [8677, 3, 231, 4.74], [2054, 3, 368, 4.35], [412, 1, 66, 3.32], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [11681, 2, 214, 6.0], [10825, 21, 505, 2.32], [7084, 3, 102, 3.87], [307, 2, 117, 2.72], [3478, 2, 34, 4.01], [1429, 2, 106, 2.64], [147, 1, 80, 2.27], [3495, 3, 754, 3.9], [1006, 2, 180, 2.75], [1492, 1, 29, 2.35], [7036, 1, 100, 4.14], [7005, 1, 63, 2.38], [140, 2, 72, 2.51], [9827, 3, 69, 2.54], [8676, 2, 223, 4.2], [45, 2, 85, 5.32], [1124, 2, 146, 3.4], [168, 3, 321, 3.12], [2049, 1, 21, 2.95], [5812, 3, 546, 3.84], [94, 4, 94, 4.19], [57, 1, 40, 1.87], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [148, 1, 68, 3.99], [335, 3, 1175, 5.52], [8651, 2, 176, 3.9], [2336, 3, 535, 2.91], [415, 1, 68, 3.53], [6097, 29, 27, 5.7]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.35], [6935, 2, 5, 0.47], [130, 1, 4, 0.7], [326, 2, 4, 0.54], [8648, 2, 4, 0.57], [144, 2, 4, 0.5], [2327, 2, 4, 0.49], [593, 2, 4, 0.58], [205, 2, 4, 0.7], [143, 2, 4, 0.58], [8915, 2, 5, 1.94], [2328, 2, 4, 0.9], [11681, 2, 4, 1.33], [305, 2, 4, 1.37], [6936, 2, 4, 1.5], [141, 2, 4, 0.65], [8650, 2, 4, 0.57], [5493, 2, 4, 0.91], [151, 1, 4, 0.52], [2778, 2, 4, 0.58], [206, 2, 4, 0.36], [2049, 3, 7, 0.46], [146, 2, 4, 0.63], [88, 10, 8, 0.43], [7036, 1, 4, 0.43], [9507, 3, 4, 0.36], [8853, 2, 4, 1.41], [8649, 2, 4, 0.57], [1446, 2, 4, 1.11], [5491, 2, 4, 1.17], [362, 2, 4, 1.11], [2055, 3, 4, 1.75], [990, 2, 4, 0.36], [1006, 2, 4, 0.58], [75, 2, 4, 1.36], [3893, 1, 4, 0.7], [11737, 2, 4, 0.73], [417, 2, 4, 0.55], [2050, 3, 4, 1.69], [3840, 1, 4, 0.39], [616, 2, 4, 0.94], [1007, 2, 4, 0.45], [12870, 1, 4, 0.92], [523, 2, 4, 0.38], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [1504, 2, 4, 0.69], [2057, 3, 4, 1.69], [10574, 3, 5, 1.36], [13280, 1, 4, 2.32], [3, 2, 4, 0.43], [142, 2, 4, 0.44], [997, 2, 4, 1.14], [9760, 29, 4, 0.45], [624, 2, 4, 1.08], [10, 2, 4, 0.36], [2054, 3, 4, 1.86], [21798, 1, 4, 0.47], [140, 2, 4, 0.54], [2775, 2, 4, 0.8], [3982, 3, 10, 1.18], [21793, 1, 4, 1.44], [8939, 2, 4, 0.42], [11739, 2, 4, 0.59], [1429, 2, 4, 0.83], [996, 2, 4, 0.99], [6158, 2, 4, 0.49], [998, 2, 4, 1.06], [98, 11, 10, 0.71], [84, 2, 4, 0.39], [1126, 2, 4, 0.58], [9372, 1, 4, 2.12], [10388, 2, 4, 1.08], [2912, 1, 4, 1.36], [972, 3, 4, 1.51], [411, 2, 4, 0.51], [8672, 2, 4, 1.21], [7885, 4, 4, 0.44], [8898, 3, 4, 0.71], [413, 1, 4, 0.66], [2776, 2, 4, 0.8], [3980, 4, 4, 1.2], [12343, 1, 4, 0.98], [9491, 21, 10, 1.14], [10386, 2, 4, 0.99], [1492, 1, 4, 0.45], [995, 2, 4, 0.77], [147, 1, 4, 0.49], [22316, 3, 4, 0.51], [418, 2, 4, 0.45], [308, 1, 4, 0.95], [22247, 2, 4, 1.14], [9784, 1, 4, 0.55], [2912, 2, 5, 1.32], [8677, 3, 4, 1.38], [336, 15, 4, 0.72], [3981, 3, 13, 1.15], [11490, 1, 4, 0.58], [7567, 3, 4, 1.76], [307, 2, 4, 0.51], [229, 1, 4, 0.63], [11953, 1, 4, 0.43], [33, 1, 4, 1.04], [10631, 2, 4, 0.37], [11770, 1, 4, 0.45], [414, 1, 4, 0.66], [22317, 3, 4, 0.51], [7886, 4, 4, 0.48], [35, 1, 4, 0.66], [7573, 1, 5, 1.45], [10407, 10, 6, 1.68], [439, 1, 4, 1.15], [10780, 10, 4, 1.53], [10410, 10, 6, 1.64], [415, 1, 4, 0.66], [335, 3, 9, 1.74], [9691, 1, 4, 0.52], [10387, 2, 4, 0.95], [972, 1, 4, 1.51], [6497, 1, 4, 0.52], [74, 1, 4, 0.82], [10149, 3, 13, 0.39], [11767, 1, 4, 0.57], [3478, 2, 4, 0.89], [12271, 2, 4, 0.72], [9690, 1, 4, 0.76], [8897, 3, 4, 0.71], [9971, 2, 4, 1.12], [2331, 1, 4, 0.88], [2497, 2, 4, 0.69], [345, 3, 4, 0.51], [9082, 3, 18, 0.51], [11769, 1, 4, 0.96], [11685, 2, 237, 4.76], [6935, 2, 239, 4.26], [130, 1, 20, 2.61], [326, 2, 32, 2.69], [8648, 2, 195, 3.17], [144, 2, 130, 2.41], [2327, 2, 131, 2.39], [593, 2, 198, 2.88], [205, 2, 94, 2.79], [143, 2, 129, 2.57], [2328, 2, 131, 3.17], [11681, 2, 237, 4.74], [305, 2, 101, 4.0], [6936, 2, 239, 5.15], [141, 2, 134, 2.7], [8650, 2, 195, 3.17], [5493, 2, 91, 4.77], [151, 1, 23, 2.15], [2778, 2, 136, 2.57], [206, 2, 94, 2.14], [2049, 3, 469, 3.54], [146, 2, 131, 2.66], [88, 10, 502, 2.33], [7036, 1, 111, 3.73], [8853, 2, 239, 5.12], [8649, 2, 195, 3.93], [1446, 2, 53, 3.05], [5491, 2, 91, 4.77], [362, 2, 123, 3.59], [2055, 3, 398, 4.89], [990, 2, 27, 1.9], [1006, 2, 198, 2.82], [75, 2, 126, 4.07], [3893, 1, 108, 2.83], [11737, 2, 20, 2.32], [417, 2, 134, 2.51], [2050, 3, 398, 4.77], [3840, 1, 60, 1.66], [616, 2, 92, 5.04], [1007, 2, 231, 2.85], [12870, 1, 117, 3.75], [523, 2, 134, 2.18], [159, 3, 373, 1.85], [20927, 1, 55, 3.37], [1504, 2, 176, 2.78], [2057, 3, 398, 4.77], [10574, 3, 439, 3.84], [13280, 1, 274, 5.92], [3, 2, 107, 2.28], [142, 2, 134, 2.29], [997, 2, 206, 4.48], [9760, 29, 63, 2.32], [624, 2, 92, 5.04], [2054, 3, 398, 5.11], [21798, 1, 121, 2.35], [140, 2, 79, 2.49], [2775, 2, 136, 2.99], [3982, 3, 683, 3.79], [21793, 1, 198, 5.91], [8939, 2, 67, 1.71], [11739, 2, 40, 2.53], [1429, 2, 132, 3.05], [996, 2, 206, 4.48], [6158, 2, 228, 3.02], [998, 2, 206, 4.48], [84, 2, 58, 2.25], [1126, 2, 198, 2.91]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 5, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 5, 1.21], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.6], [8675, 2, 5, 0.73], [1504, 2, 6, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [523, 2, 4, 0.66], [22247, 2, 4, 1.0], [8650, 2, 4, 1.27], [142, 2, 4, 0.57], [8648, 2, 4, 0.88], [2328, 2, 4, 0.51], [2776, 2, 4, 0.2], [2327, 2, 4, 0.51], [616, 2, 4, 0.75], [8853, 2, 4, 1.54], [11837, 2, 4, 0.45], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 1.88], [146, 2, 4, 1.12], [412, 1, 4, 1.28], [11835, 2, 4, 0.49], [12353, 1, 4, 1.57], [8674, 2, 5, 1.22], [583, 2, 4, 1.12], [6497, 1, 5, 0.2], [2805, 137, 5, 1.35], [145, 2, 4, 0.51], [10574, 3, 5, 1.29], [418, 2, 4, 0.46], [326, 2, 4, 0.85], [6097, 80, 4, 2.11], [144, 2, 4, 0.5], [9784, 1, 5, 0.85], [11836, 2, 4, 0.54], [10149, 3, 13, 0.4], [413, 1, 4, 1.16], [6097, 29, 4, 0.46], [2057, 3, 4, 0.35], [11234, 2, 4, 0.63], [75, 2, 5, 0.49], [12344, 1, 4, 1.03], [1413, 15, 4, 0.38], [20252, 2, 4, 0.2], [6494, 1, 4, 0.46], [11504, 2, 4, 0.44], [6496, 1, 5, 0.2], [414, 1, 4, 1.16], [8915, 2, 5, 0.2], [1492, 1, 4, 0.53], [6098, 80, 4, 1.16], [2774, 2, 4, 0.2], [247, 1, 4, 0.8], [22316, 3, 4, 0.46], [6098, 29, 4, 1.16], [416, 1, 4, 1.16], [9786, 1, 4, 1.4], [3934, 5, 5, 0.56], [2049, 1, 4, 0.41], [2859, 15, 4, 0.71], [201, 3, 4, 0.51], [6158, 2, 5, 0.44], [3670, 2, 4, 2.81], [3478, 2, 4, 0.89], [11489, 1, 4, 0.39], [13928, 1, 4, 0.43], [2050, 3, 4, 0.35], [7084, 3, 4, 2.46], [9785, 1, 4, 1.51], [12526, 2, 4, 0.93], [9342, 2, 5, 0.38], [3430, 15, 4, 0.36], [8599, 1, 4, 0.37], [4253, 1, 4, 0.47], [8938, 2, 4, 0.57], [186, 3, 7, 0.48], [3982, 3, 12, 0.36], [1413, 16, 4, 0.42], [107, 2, 4, 0.98], [11887, 2, 5, 0.39], [10398, 2, 4, 0.87], [11885, 2, 4, 0.39], [229, 1, 4, 1.15], [11490, 1, 4, 0.5], [11811, 1, 4, 0.38], [1050, 2, 4, 0.36], [94, 4, 4, 1.65], [415, 1, 4, 1.16], [4232, 80, 4, 1.65], [2438, 2, 5, 1.09], [107, 7, 5, 0.94], [436, 2, 4, 0.51], [5939, 3, 4, 0.5], [2421, 80, 4, 0.36], [947, 15, 4, 0.7], [5812, 3, 4, 2.0], [11769, 1, 4, 0.48], [2821, 3, 8, 0.45], [140, 2, 4, 0.85], [11671, 1, 4, 0.42], [11767, 1, 4, 0.48], [3673, 2, 4, 2.01], [11844, 2, 4, 0.47], [11160, 1, 4, 1.67], [5813, 3, 5, 2.0], [9358, 1, 4, 0.52], [11771, 1, 4, 1.61], [3495, 3, 10, 0.85], [7036, 1, 4, 0.43], [12764, 2, 5, 0.46], [409, 1, 4, 1.15], [5811, 3, 6, 0.98], [23920, 2, 4, 0.41], [410, 1, 4, 1.06], [1049, 2, 4, 0.36], [11954, 1, 4, 0.42], [105, 3, 4, 2.04], [13928, 2, 4, 0.43], [9690, 1, 4, 0.67], [11180, 1, 4, 0.39], [5584, 3, 4, 1.55], [2108, 3, 6, 0.54], [22573, 2, 4, 0.39], [8274, 3, 4, 2.3], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.51], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 98, 3.97], [523, 2, 133, 3.51], [22247, 2, 242, 4.11], [8650, 2, 192, 4.43], [142, 2, 133, 3.33], [8648, 2, 192, 4.3], [2328, 2, 151, 3.64], [2776, 2, 134, 3.17], [2327, 2, 151, 3.61], [616, 2, 107, 4.5], [8853, 2, 238, 5.31], [11837, 2, 268, 2.65], [411, 2, 55, 2.98], [146, 2, 76, 3.59], [412, 1, 71, 4.48], [11835, 2, 268, 2.72], [12353, 1, 522, 5.18], [8674, 2, 244, 4.54], [6497, 1, 33, 3.13], [2805, 137, 154, 5.79], [145, 2, 50, 3.73], [10574, 3, 503, 4.63], [418, 2, 121, 3.13], [326, 2, 30, 3.01], [6097, 80, 56, 5.84], [144, 2, 50, 3.7], [9784, 1, 62, 3.85], [11836, 2, 268, 2.82], [10149, 3, 760, 3.82], [413, 1, 86, 4.01], [6097, 29, 34, 3.65], [2057, 3, 404, 2.42], [11234, 2, 93, 2.82], [75, 2, 123, 4.17], [12344, 1, 609, 3.75], [1413, 15, 84, 2.44], [20252, 2, 80, 3.19], [6494, 1, 26, 2.31], [11504, 2, 121, 3.09], [6496, 1, 35, 3.2], [414, 1, 86, 4.01], [1492, 1, 37, 2.8], [6098, 80, 74, 4.01], [2774, 2, 174, 5.39], [247, 1, 86, 4.63], [22316, 3, 319, 2.67], [6098, 29, 37, 4.01], [416, 1, 86, 4.01], [9786, 1, 24, 3.77], [3934, 5, 588, 2.91], [2049, 1, 8, 1.86], [2859, 15, 35, 3.59], [201, 3, 300, 4.45], [6158, 2, 260, 3.98], [3670, 2, 237, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [589, 2, 5, 0.2], [8915, 2, 5, 1.94], [143, 2, 4, 0.44], [2328, 2, 4, 0.76], [6936, 2, 4, 1.66], [8648, 2, 5, 1.15], [205, 2, 4, 0.37], [2775, 2, 4, 0.2], [593, 2, 5, 0.4], [326, 2, 4, 0.72], [8650, 2, 4, 1.53], [145, 2, 4, 1.0], [146, 2, 4, 0.57], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [88, 10, 9, 0.99], [615, 2, 4, 1.37], [141, 2, 5, 0.39], [7004, 1, 4, 1.74], [1124, 2, 5, 0.29], [151, 1, 4, 0.2], [11681, 2, 5, 1.81], [206, 2, 4, 0.37], [9760, 29, 4, 0.67], [8853, 2, 5, 1.7], [5491, 2, 4, 0.45], [1007, 2, 4, 0.2], [362, 2, 5, 0.52], [8672, 2, 4, 1.21], [1504, 2, 5, 0.38], [2057, 3, 4, 0.46], [2912, 1, 4, 0.77], [8938, 2, 4, 0.2], [9372, 1, 4, 0.78], [434, 2, 4, 0.49], [3893, 1, 4, 0.2], [8649, 2, 4, 2.03], [12870, 1, 4, 1.68], [10993, 2, 4, 0.83], [2054, 3, 4, 0.2], [2050, 3, 4, 0.46], [1429, 2, 4, 0.28], [3889, 1, 4, 0.25], [378, 2, 4, 2.29], [7084, 3, 4, 1.07], [2991, 3, 4, 1.1], [10, 2, 4, 0.36], [140, 2, 4, 1.72], [7886, 4, 5, 0.44], [3891, 1, 4, 0.2], [1006, 2, 4, 0.55], [10574, 3, 5, 1.36], [7573, 1, 9, 2.02], [10149, 3, 15, 1.21], [5208, 3, 4, 0.48], [1622, 1, 4, 0.2], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [997, 2, 4, 1.26], [11234, 2, 5, 0.75], [12721, 2, 4, 1.84], [1886, 2, 4, 0.2], [11685, 2, 5, 1.83], [22247, 2, 4, 1.39], [147, 1, 4, 1.82], [229, 1, 4, 0.99], [998, 2, 4, 0.81], [20252, 2, 4, 0.47], [94, 4, 4, 1.42], [2912, 2, 7, 1.24], [9491, 21, 12, 0.22], [972, 3, 5, 0.51], [35, 1, 4, 1.29], [439, 1, 4, 1.06], [76, 2, 5, 0.6], [413, 1, 4, 1.38], [83, 2, 4, 0.2], [13928, 1, 4, 0.7], [5076, 1, 4, 0.97], [1414, 15, 4, 0.62], [8104, 1, 4, 0.86], [5209, 3, 4, 0.98], [33, 1, 4, 0.93], [148, 1, 4, 1.83], [8676, 2, 4, 1.21], [418, 2, 5, 0.63], [11952, 1, 4, 0.42], [412, 1, 4, 0.44], [7887, 4, 4, 0.97], [12212, 29, 4, 0.47], [8898, 3, 4, 1.0], [2774, 2, 4, 0.55], [3495, 3, 10, 0.82], [38, 1, 4, 1.13], [20256, 2, 4, 0.5], [84, 2, 5, 0.9], [11770, 1, 4, 1.95], [34, 1, 4, 1.07], [415, 1, 4, 1.03], [10407, 10, 7, 1.2], [3048, 3, 4, 1.65], [632, 11, 13, 0.45], [9784, 1, 4, 0.52], [126, 2, 4, 0.54], [13928, 2, 4, 0.64], [11772, 1, 4, 0.2], [995, 2, 4, 2.04], [411, 2, 4, 0.46], [8939, 2, 4, 0.2], [9691, 1, 4, 0.41], [9690, 1, 4, 0.37], [39, 1, 4, 1.1], [11953, 1, 4, 0.2], [5584, 3, 5, 1.02], [7567, 3, 4, 1.47], [11954, 1, 4, 0.38], [10410, 10, 9, 1.68], [74, 1, 4, 0.99], [21269, 3, 4, 0.99], [1523, 1, 4, 0.48], [972, 1, 4, 0.53], [159, 1, 4, 0.97], [1519, 3, 10, 0.39], [5164, 1, 4, 1.1], [10408, 10, 5, 1.25], [2327, 2, 125, 3.1], [305, 2, 96, 3.99], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [144, 2, 125, 3.13], [589, 2, 127, 3.01], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.22], [205, 2, 89, 2.31], [2775, 2, 131, 3.06], [593, 2, 189, 3.07], [326, 2, 74, 4.87], [8650, 2, 186, 4.94], [145, 2, 125, 3.56], [146, 2, 125, 3.18], [7036, 1, 107, 5.16], [2049, 3, 181, 2.85], [2776, 2, 131, 3.27], [88, 10, 467, 4.23], [615, 2, 89, 5.14], [141, 2, 130, 2.86], [1124, 2, 154, 3.6], [11681, 2, 221, 6.0], [206, 2, 36, 1.72], [9760, 29, 60, 3.37], [8853, 2, 232, 5.49], [5491, 2, 87, 3.66], [362, 2, 118, 3.09], [8672, 2, 279, 4.78], [1504, 2, 170, 2.83], [2057, 3, 158, 1.88], [2912, 1, 44, 4.46], [9372, 1, 225, 4.83], [434, 2, 87, 3.03], [3893, 1, 104, 2.85], [8649, 2, 186, 5.54], [12870, 1, 114, 5.33], [2054, 3, 134, 2.39], [2050, 3, 158, 1.88], [1429, 2, 126, 3.6], [3889, 1, 104, 3.51], [378, 2, 186, 6.0], [7084, 3, 43, 3.19], [2991, 3, 135, 5.78], [10, 2, 102, 2.53], [3891, 1, 104, 2.9], [1006, 2, 189, 3.15], [10574, 3, 165, 5.19], [7573, 1, 306, 5.58], [10149, 3, 735, 4.24], [5208, 3, 275, 3.9], [1622, 1, 53, 2.97], [75, 2, 120, 4.02], [3, 2, 101, 3.28], [997, 2, 198, 4.46], [12721, 2, 233, 5.17], [1886, 2, 130, 3.17], [11685, 2, 221, 6.0], [22247, 2, 275, 4.37], [147, 1, 74, 5.13], [229, 1, 55, 3.38], [998, 2, 198, 3.64], [20252, 2, 92, 2.54], [94, 4, 100, 4.36], [2912, 2, 323, 4.38]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 13, 1.34], [6935, 2, 19, 5.0], [6936, 2, 9, 3.91], [305, 2, 7, 2.64], [8672, 2, 10, 3.18], [615, 2, 7, 2.64], [1504, 2, 11, 1.98], [2775, 2, 7, 1.27], [145, 2, 7, 2.66], [2776, 2, 7, 2.31], [8853, 2, 7, 3.5], [12721, 2, 11, 1.74], [2327, 2, 7, 1.82], [146, 2, 7, 1.08], [143, 2, 7, 2.43], [2328, 2, 7, 1.85], [11737, 2, 7, 1.32], [11681, 2, 13, 1.41], [141, 2, 7, 2.37], [5491, 2, 7, 1.08], [2497, 2, 7, 0.98], [205, 2, 7, 1.08], [144, 2, 7, 2.63], [8650, 2, 9, 1.91], [8676, 2, 7, 2.04], [5493, 2, 7, 1.66], [8673, 2, 7, 1.42], [417, 2, 7, 2.37], [308, 1, 11, 1.4], [3670, 2, 9, 5.0], [8648, 2, 7, 1.91], [589, 2, 7, 0.77], [3, 2, 7, 1.23], [206, 2, 7, 1.08], [6097, 80, 7, 1.86], [22247, 2, 7, 2.33], [8674, 2, 7, 2.35], [11836, 2, 7, 0.96], [6497, 1, 7, 0.85], [12343, 1, 7, 2.08], [12349, 1, 7, 4.0], [624, 2, 7, 1.96], [2424, 29, 7, 2.28], [593, 2, 8, 0.88], [523, 2, 7, 1.27], [12344, 1, 7, 2.08], [6097, 29, 7, 1.86], [12720, 2, 7, 1.69], [6098, 80, 7, 2.23], [12345, 1, 7, 4.0], [11739, 2, 7, 1.32], [2424, 80, 7, 2.28], [944, 15, 7, 0.67], [88, 10, 16, 2.1], [8915, 2, 7, 0.79], [75, 2, 7, 2.25], [60, 3, 8, 2.04], [326, 2, 7, 1.86], [6494, 1, 7, 0.89], [142, 2, 7, 2.37], [1492, 1, 7, 1.02], [1413, 15, 7, 0.69], [411, 2, 7, 0.92], [1050, 2, 7, 0.73], [2422, 80, 7, 2.39], [947, 15, 7, 0.94], [6496, 1, 7, 0.98], [6098, 29, 7, 2.23], [378, 2, 7, 4.41], [10149, 3, 21, 2.21], [12346, 1, 7, 4.0], [2422, 29, 7, 2.39], [7704, 2, 7, 3.01], [151, 1, 7, 1.36], [1243, 2, 7, 1.48], [22316, 3, 7, 0.89], [11738, 2, 7, 1.32], [13264, 29, 7, 1.0], [345, 3, 7, 2.23], [1490, 1, 7, 0.87], [229, 1, 7, 3.85], [13258, 29, 9, 3.02], [1049, 2, 7, 0.73], [20252, 2, 7, 2.54], [12269, 2, 7, 0.9], [964, 15, 7, 0.77], [2331, 1, 7, 1.06], [10407, 10, 10, 3.24], [201, 3, 7, 4.28], [7004, 1, 7, 1.56], [2821, 3, 13, 0.82], [5208, 3, 9, 1.07], [307, 2, 7, 2.0], [1163, 3, 7, 2.79], [186, 3, 12, 0.91], [149, 2, 7, 0.97], [432, 3, 7, 2.04], [13259, 29, 11, 3.42], [957, 2, 7, 1.06], [7705, 2, 7, 3.01], [418, 2, 7, 0.98], [7706, 2, 7, 3.01], [12229, 2, 7, 0.87], [13928, 1, 7, 0.83], [20255, 2, 7, 1.04], [11687, 2, 7, 0.96], [10406, 10, 12, 2.42], [11844, 2, 7, 1.16], [2421, 80, 7, 0.69], [3478, 2, 7, 2.16], [8938, 2, 7, 1.02], [1414, 15, 7, 1.1], [9784, 1, 7, 1.75], [7036, 1, 7, 0.87], [410, 1, 7, 1.33], [12870, 1, 7, 2.46], [10408, 10, 10, 2.41], [5490, 2, 7, 0.94], [10410, 10, 10, 3.08], [11402, 1, 7, 0.89], [19687, 1, 7, 2.33], [11490, 1, 7, 1.1], [107, 7, 8, 2.91], [2703, 3, 7, 4.1], [21781, 2, 7, 0.9], [1886, 2, 7, 0.67], [956, 2, 7, 1.02], [4232, 80, 7, 3.23], [13258, 25, 7, 2.35], [11161, 1, 10, 3.92], [159, 16, 7, 1.81], [10411, 10, 10, 2.12], [9760, 29, 7, 1.64], [12346, 1, 615, 5.79], [2422, 29, 37, 4.17], [7704, 2, 177, 4.8], [1243, 2, 99, 3.26], [22316, 3, 319, 2.67], [11738, 2, 57, 3.1], [13264, 29, 73, 2.78], [345, 3, 298, 4.01], [1490, 1, 51, 2.65], [229, 1, 82, 5.63], [13258, 29, 39, 4.8], [20252, 2, 93, 4.32], [12269, 2, 65, 2.68], [2331, 1, 119, 2.84], [10407, 10, 1181, 5.04], [201, 3, 198, 5.88], [7004, 1, 27, 2.63], [2821, 3, 671, 2.23], [5208, 3, 283, 2.49], [307, 2, 149, 3.78], [186, 3, 336, 2.34], [149, 2, 88, 2.75], [432, 3, 301, 3.83], [13259, 29, 35, 5.2], [957, 2, 107, 2.84], [7705, 2, 177, 4.8], [418, 2, 143, 2.76], [7706, 2, 177, 4.8], [12229, 2, 152, 2.65], [13928, 1, 49, 2.61], [20255, 2, 93, 2.82], [11687, 2, 102, 2.03], [10406, 10, 1790, 4.18], [11844, 2, 93, 2.23], [2421, 80, 215, 2.47], [3478, 2, 38, 3.59], [8938, 2, 192, 2.81], [9784, 1, 72, 3.53], [7036, 1, 128, 2.65], [410, 1, 53, 2.76], [12870, 1, 138, 4.24], [10408, 10, 782, 4.19], [5490, 2, 109, 2.72], [10410, 10, 1181, 4.88], [11402, 1, 23, 2.32], [19687, 1, 30, 4.11], [11490, 1, 55, 2.52], [107, 7, 240, 4.69], [2703, 3, 301, 5.89], [21781, 2, 52, 2.33], [1886, 2, 158, 2.45], [956, 2, 107, 2.8], [4232, 80, 154, 5.02], [13258, 25, 79, 4.13], [11161, 1, 492, 5.7], [159, 16, 26, 2.88], [10411, 10, 782, 3.89], [9760, 29, 60, 3.35]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 9, 3.61], [362, 2, 7, 1.44], [5491, 2, 9, 0.9], [130, 1, 9, 1.36], [5493, 2, 9, 1.1], [589, 2, 7, 1.45], [2327, 2, 7, 2.32], [326, 2, 7, 1.63], [11685, 2, 7, 1.64], [8672, 2, 10, 1.91], [417, 2, 9, 1.16], [6935, 2, 12, 3.74], [11681, 2, 13, 2.0], [205, 2, 7, 0.74], [8648, 2, 7, 2.53], [206, 2, 9, 0.77], [6936, 2, 9, 2.9], [8915, 2, 7, 1.21], [142, 2, 9, 0.87], [11838, 2, 9, 1.02], [2049, 3, 14, 1.23], [12721, 2, 11, 1.95], [1446, 2, 7, 1.82], [523, 2, 7, 1.72], [8676, 2, 7, 2.05], [615, 2, 7, 2.98], [11737, 2, 7, 2.08], [305, 2, 7, 2.64], [12353, 1, 7, 1.24], [413, 1, 7, 2.75], [412, 1, 7, 1.78], [411, 2, 7, 0.94], [10574, 3, 10, 2.84], [145, 2, 7, 2.66], [8675, 2, 9, 2.44], [12349, 1, 7, 1.11], [76, 2, 7, 1.11], [990, 2, 7, 2.15], [1429, 2, 7, 0.92], [2775, 2, 7, 0.83], [143, 2, 7, 2.66], [8673, 2, 7, 1.45], [8674, 2, 7, 1.46], [8938, 2, 7, 1.87], [11836, 2, 9, 0.86], [146, 2, 7, 1.08], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [6158, 2, 9, 3.5], [2050, 3, 7, 3.23], [10149, 3, 21, 1.48], [3495, 3, 17, 1.57], [2776, 2, 7, 1.07], [12350, 1, 7, 1.03], [75, 2, 7, 2.25], [2057, 3, 7, 3.23], [1504, 2, 11, 1.43], [144, 2, 7, 2.63], [8939, 2, 7, 3.23], [416, 1, 7, 1.41], [7885, 4, 7, 1.31], [22316, 3, 7, 0.89], [88, 10, 16, 2.1], [2859, 15, 7, 0.85], [159, 3, 9, 1.86], [418, 2, 7, 0.68], [7084, 3, 7, 1.96], [10993, 2, 7, 1.6], [12346, 1, 7, 0.98], [20252, 2, 7, 1.94], [9784, 1, 7, 1.69], [7705, 2, 7, 3.01], [2424, 29, 9, 3.84], [12526, 2, 7, 2.78], [2423, 80, 7, 2.2], [2423, 29, 7, 2.26], [11844, 2, 7, 1.16], [12351, 1, 7, 1.26], [60, 3, 8, 3.51], [414, 1, 7, 1.41], [378, 2, 7, 3.33], [12345, 1, 7, 1.07], [6494, 1, 7, 0.89], [13023, 3, 12, 2.63], [2424, 80, 7, 2.28], [11490, 1, 7, 0.89], [201, 3, 7, 2.66], [13034, 3, 9, 2.71], [12373, 1, 11, 2.99], [1519, 3, 15, 0.73], [345, 3, 7, 1.27], [11489, 1, 7, 1.94], [5208, 3, 9, 0.94], [7886, 4, 7, 0.81], [3, 2, 7, 5.0], [159, 1, 7, 1.87], [6952, 1, 7, 0.97], [20927, 1, 7, 1.33], [11954, 1, 7, 0.85], [3430, 15, 7, 1.84], [432, 3, 7, 2.04], [566, 2, 7, 0.96], [13928, 1, 9, 0.75], [11504, 2, 7, 1.0], [11811, 1, 7, 1.93], [11952, 1, 7, 0.83], [2703, 3, 7, 4.1], [114, 3, 7, 3.3], [2331, 1, 7, 1.06], [7004, 1, 7, 1.96], [5584, 3, 7, 3.1], [1492, 1, 7, 1.02], [10407, 10, 10, 3.24], [105, 3, 7, 3.3], [1490, 1, 7, 4.01], [11089, 1, 7, 0.77], [6098, 80, 7, 2.23], [8274, 3, 7, 4.43], [944, 15, 7, 0.79], [12348, 1, 7, 1.26], [10410, 10, 10, 3.08], [1886, 2, 7, 0.81], [7706, 2, 7, 3.01], [308, 1, 11, 2.72], [11674, 1, 7, 0.69], [3981, 3, 13, 0.91], [3891, 1, 7, 2.19], [94, 4, 7, 4.06], [6097, 80, 7, 1.86], [11953, 1, 7, 0.92], [9082, 3, 24, 2.83], [2423, 29, 37, 4.04], [11844, 2, 93, 2.23], [12351, 1, 632, 3.04], [60, 3, 536, 5.12], [414, 1, 86, 3.19], [378, 2, 192, 5.45], [12345, 1, 632, 2.84], [6494, 1, 26, 2.31], [13023, 3, 501, 4.92], [2424, 80, 171, 4.06], [11490, 1, 55, 2.32], [201, 3, 253, 4.95], [13034, 3, 594, 4.5], [12373, 1, 534, 4.76], [1519, 3, 1664, 2.54], [345, 3, 299, 3.05], [5208, 3, 189, 2.02], [7886, 4, 48, 2.73], [3, 2, 118, 6.0], [159, 1, 13, 2.94], [6952, 1, 191, 2.75], [20927, 1, 27, 2.4], [11954, 1, 203, 2.63], [3430, 15, 69, 3.63], [432, 3, 301, 3.83], [566, 2, 117, 2.56], [13928, 1, 41, 3.1], [11504, 2, 143, 2.78], [11811, 1, 453, 3.71], [11952, 1, 203, 2.62], [2703, 3, 301, 5.89], [114, 3, 81, 4.37], [2331, 1, 119, 2.84], [5584, 3, 229, 4.88], [1492, 1, 37, 2.8], [10407, 10, 1181, 5.04], [1490, 1, 48, 5.79], [11089, 1, 174, 2.55], [6098, 80, 74, 4.01], [944, 15, 15, 1.86], [12348, 1, 632, 3.04], [10410, 10, 1181, 4.88], [1886, 2, 158, 2.59], [7706, 2, 177, 4.8], [308, 1, 169, 4.5], [11674, 1, 206, 2.47], [3981, 3, 1687, 2.69], [3891, 1, 123, 3.97], [94, 4, 116, 5.85], [6097, 80, 68, 3.65], [11953, 1, 102, 2.35], [9082, 3, 2461, 4.58]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 2.91], [362, 2, 7, 1.54], [589, 2, 12, 0.68], [141, 2, 7, 1.04], [75, 2, 9, 2.45], [130, 1, 7, 1.89], [1776, 1, 7, 1.12], [20252, 2, 7, 1.17], [205, 2, 7, 1.12], [8915, 2, 11, 0.67], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [6936, 2, 10, 2.79], [593, 2, 14, 0.83], [7886, 4, 7, 1.01], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 17, 2.5], [11681, 2, 10, 5.0], [990, 2, 9, 0.92], [8650, 2, 7, 3.25], [248, 1, 7, 0.73], [412, 1, 7, 2.17], [5151, 2, 7, 1.73], [144, 2, 7, 2.61], [2050, 3, 7, 2.4], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [10149, 3, 25, 3.26], [2991, 3, 7, 4.22], [22247, 2, 9, 3.0], [57, 1, 9, 0.68], [3478, 2, 7, 2.86], [146, 2, 7, 2.04], [7004, 1, 7, 0.9], [45, 2, 7, 2.65], [2054, 3, 7, 4.0], [143, 2, 7, 2.43], [417, 2, 9, 1.87], [413, 1, 7, 2.13], [21793, 1, 7, 3.62], [167, 3, 9, 2.7], [201, 3, 10, 2.56], [74, 1, 7, 3.02], [2055, 3, 7, 2.83], [1446, 2, 9, 1.06], [168, 3, 9, 1.48], [7084, 3, 7, 2.95], [10, 2, 11, 2.55], [11234, 2, 9, 0.93], [1429, 2, 9, 0.98], [12721, 2, 10, 1.92], [335, 3, 18, 4.35], [7036, 1, 7, 2.84], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [308, 1, 9, 4.83], [8649, 2, 7, 2.97], [13028, 3, 7, 0.92], [12870, 1, 7, 4.49], [10825, 21, 14, 0.7], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 0.7], [3893, 1, 7, 1.67], [1006, 2, 7, 1.72], [145, 2, 7, 2.69], [5208, 3, 13, 1.57], [432, 3, 7, 1.25], [1504, 2, 7, 1.39], [9827, 3, 7, 0.86], [7005, 1, 7, 0.9], [1490, 1, 7, 1.35], [94, 4, 7, 3.04], [5812, 3, 8, 2.14], [13260, 29, 7, 1.35], [8853, 2, 11, 2.88], [411, 2, 7, 1.12], [416, 1, 7, 2.37], [142, 2, 7, 2.87], [8651, 2, 7, 2.21], [12353, 1, 6, 1.55], [21269, 3, 7, 4.99], [12349, 1, 7, 3.09], [33, 1, 7, 1.27], [998, 2, 9, 2.41], [5086, 1, 6, 2.04], [9069, 1, 7, 3.12], [12350, 1, 7, 3.09], [229, 1, 9, 5.0], [2878, 1, 7, 1.77], [1243, 2, 9, 2.28], [140, 2, 7, 0.9], [7567, 3, 7, 3.13], [2049, 1, 7, 3.02], [126, 2, 7, 1.87], [20927, 1, 7, 1.28], [3980, 4, 9, 3.25], [1703, 2, 7, 2.66], [35, 1, 7, 1.34], [8274, 3, 7, 2.09], [997, 2, 7, 1.16], [5209, 3, 7, 1.19], [9691, 1, 7, 2.81], [11914, 1, 9, 1.52], [5584, 3, 7, 3.42], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [856, 1, 7, 0.73], [1519, 3, 17, 0.68], [5660, 2, 7, 2.02], [5513, 2, 7, 0.89], [159, 3, 10, 1.33], [523, 2, 7, 1.87], [8898, 3, 7, 5.0], [1091, 1, 7, 1.1], [2775, 2, 7, 1.06], [11767, 1, 7, 0.89], [996, 2, 7, 3.45], [8926, 1, 7, 3.38], [13034, 3, 10, 2.76], [9081, 3, 12, 3.64], [23961, 3, 7, 2.61], [12661, 1, 7, 2.31], [307, 2, 7, 2.19], [8676, 2, 7, 2.91], [9372, 1, 7, 1.55], [145, 2, 119, 3.85], [5208, 3, 259, 2.58], [432, 3, 239, 2.41], [1504, 2, 161, 2.55], [9827, 3, 69, 2.51], [7005, 1, 73, 2.06], [1490, 1, 40, 2.51], [94, 4, 94, 4.2], [5812, 3, 459, 3.78], [13260, 29, 57, 2.51], [8853, 2, 223, 4.41], [411, 2, 50, 1.89], [416, 1, 68, 3.53], [8651, 2, 176, 3.76], [12353, 1, 474, 3.2], [21269, 3, 230, 6.0], [12349, 1, 557, 4.25], [33, 1, 88, 2.86], [998, 2, 188, 4.57], [5086, 1, 144, 3.69], [9069, 1, 56, 3.89], [12350, 1, 474, 4.74], [2878, 1, 63, 2.93], [1243, 2, 77, 3.44], [140, 2, 72, 2.51], [7567, 3, 55, 4.78], [126, 2, 63, 2.9], [20927, 1, 73, 2.44], [3980, 4, 377, 4.41], [1703, 2, 149, 3.82], [35, 1, 88, 2.5], [997, 2, 188, 2.76], [5209, 3, 444, 2.35], [11914, 1, 68, 3.17], [5584, 3, 218, 4.58], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [856, 1, 16, 1.5], [1519, 3, 1313, 2.31], [5660, 2, 138, 3.59], [5513, 2, 59, 2.49], [159, 3, 554, 2.99], [523, 2, 122, 3.03], [8898, 3, 221, 6.0], [1091, 1, 38, 2.75], [2775, 2, 123, 2.71], [11767, 1, 151, 2.05], [996, 2, 219, 4.61], [8926, 1, 56, 4.54], [13034, 3, 459, 4.14], [9081, 3, 359, 5.3], [23961, 3, 269, 3.77], [12661, 1, 64, 3.47], [307, 2, 117, 3.35], [8676, 2, 262, 4.07], [9372, 1, 210, 2.71]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 20, 1.6], [8915, 2, 8, 3.41], [2327, 2, 7, 1.0], [589, 2, 10, 0.87], [2778, 2, 7, 1.43], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 3.06], [305, 2, 6, 0.82], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 6, 1.82], [7004, 1, 9, 3.07], [2049, 3, 12, 0.72], [159, 3, 10, 0.96], [143, 2, 7, 1.81], [10, 2, 9, 2.55], [593, 2, 11, 1.21], [205, 2, 7, 0.74], [2775, 2, 7, 0.93], [5491, 2, 7, 1.52], [7036, 1, 9, 3.03], [144, 2, 7, 2.0], [94, 4, 7, 2.73], [8938, 2, 9, 0.84], [434, 2, 9, 0.79], [3893, 1, 7, 1.21], [146, 2, 7, 2.06], [1504, 2, 7, 0.73], [8853, 2, 7, 3.51], [1429, 2, 7, 1.46], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [141, 2, 7, 1.22], [362, 2, 7, 1.0], [2776, 2, 7, 1.13], [206, 2, 7, 0.74], [75, 2, 7, 2.39], [11681, 2, 11, 4.38], [5208, 3, 9, 1.28], [8649, 2, 7, 2.49], [1007, 2, 7, 0.85], [3889, 1, 7, 1.88], [7886, 4, 7, 0.8], [10993, 2, 7, 1.6], [2054, 3, 7, 1.93], [7005, 1, 9, 1.49], [12870, 1, 7, 3.23], [10149, 3, 21, 2.58], [12353, 1, 7, 1.26], [2050, 3, 7, 0.89], [145, 2, 7, 1.93], [2912, 1, 7, 2.83], [5165, 1, 7, 2.5], [20927, 1, 7, 2.43], [9760, 29, 9, 0.97], [998, 2, 7, 1.56], [2436, 4, 7, 2.18], [1006, 2, 7, 1.51], [1886, 2, 9, 1.04], [997, 2, 9, 2.32], [972, 3, 10, 1.52], [3, 2, 7, 0.92], [229, 1, 7, 0.94], [3495, 3, 14, 1.61], [6158, 2, 9, 4.29], [632, 11, 21, 0.79], [5165, 2, 8, 3.64], [7887, 4, 7, 1.87], [12345, 1, 7, 1.26], [5076, 1, 7, 1.46], [11770, 1, 7, 3.75], [9372, 1, 7, 3.2], [126, 2, 7, 1.3], [20252, 2, 7, 0.9], [74, 1, 7, 3.33], [12344, 1, 7, 1.26], [11953, 1, 7, 1.0], [8939, 2, 7, 1.39], [140, 2, 7, 3.31], [11685, 2, 11, 4.43], [1492, 1, 7, 0.87], [2912, 2, 12, 2.75], [12350, 1, 7, 1.26], [12721, 2, 7, 2.71], [2774, 2, 7, 1.21], [20256, 2, 7, 0.96], [3981, 3, 22, 1.37], [9491, 21, 26, 0.95], [22316, 3, 7, 0.94], [12343, 1, 7, 1.26], [2423, 80, 7, 0.92], [11952, 1, 7, 0.81], [5434, 1, 7, 1.6], [6497, 1, 7, 4.13], [11772, 1, 7, 0.84], [5584, 3, 7, 5.0], [12351, 1, 7, 1.26], [335, 3, 15, 0.69], [12229, 2, 7, 0.94], [7573, 1, 16, 3.95], [2438, 2, 8, 1.68], [10407, 10, 10, 3.08], [10388, 2, 7, 1.98], [11179, 1, 7, 1.6], [823, 1, 7, 4.12], [5209, 3, 9, 1.28], [6496, 1, 7, 1.33], [2805, 137, 7, 2.35], [3900, 3, 7, 2.17], [11812, 1, 7, 0.84], [4253, 1, 7, 1.04], [1703, 2, 7, 3.66], [1622, 1, 7, 0.87], [8676, 2, 7, 3.15], [972, 1, 7, 1.94], [22247, 2, 7, 2.74], [412, 1, 7, 0.94], [1414, 15, 7, 1.19], [6097, 80, 7, 1.98], [159, 16, 7, 1.02], [10386, 2, 7, 4.24], [2991, 3, 7, 3.96], [1274, 1, 7, 1.26], [9784, 1, 7, 1.0], [6805, 1, 7, 0.97], [11814, 1, 7, 0.92], [10410, 10, 15, 3.16], [8635, 3, 7, 3.91], [11813, 1, 7, 0.89], [7567, 3, 7, 2.83], [126, 2, 88, 2.93], [20252, 2, 92, 2.54], [74, 1, 192, 4.97], [12344, 1, 615, 2.89], [11953, 1, 196, 2.64], [11685, 2, 221, 6.0], [1492, 1, 37, 2.5], [2912, 2, 375, 4.38], [12350, 1, 615, 2.89], [12721, 2, 233, 4.34], [2774, 2, 201, 2.84], [20256, 2, 92, 2.6], [3981, 3, 1366, 3.43], [9491, 21, 1763, 3.05], [22316, 3, 310, 2.57], [12343, 1, 615, 2.89], [2423, 80, 185, 2.55], [11952, 1, 196, 2.45], [5434, 1, 48, 3.23], [6497, 1, 35, 5.77], [11772, 1, 182, 2.97], [5584, 3, 198, 6.0], [12351, 1, 615, 2.89], [12229, 2, 149, 2.57], [7573, 1, 306, 5.58], [2438, 2, 629, 3.32], [10407, 10, 1150, 4.72], [10388, 2, 213, 3.62], [11179, 1, 85, 3.24], [823, 1, 39, 5.75], [5209, 3, 275, 3.9], [6496, 1, 38, 2.97], [2805, 137, 176, 3.98], [3900, 3, 42, 3.8], [11812, 1, 195, 2.98], [4253, 1, 142, 3.13], [1703, 2, 156, 5.29], [1622, 1, 53, 2.97], [8676, 2, 279, 4.78], [972, 1, 49, 3.66], [22247, 2, 275, 4.37], [412, 1, 82, 2.57], [1414, 15, 33, 2.17], [6097, 80, 69, 3.61], [159, 16, 66, 3.16], [10386, 2, 179, 6.0], [2991, 3, 158, 5.59], [1274, 1, 80, 2.89], [9784, 1, 71, 2.63], [6805, 1, 444, 2.61], [11814, 1, 183, 2.49], [10410, 10, 1150, 4.8], [11813, 1, 156, 2.2], [7567, 3, 67, 4.46]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.33], [6936, 2, 13, 3.9], [362, 2, 7, 1.08], [8648, 2, 7, 4.05], [2327, 2, 7, 1.79], [11681, 2, 16, 4.05], [8650, 2, 7, 3.82], [326, 2, 9, 1.32], [205, 2, 9, 0.85], [2328, 2, 9, 1.6], [1446, 2, 7, 0.92], [305, 2, 7, 2.34], [2049, 3, 9, 0.96], [130, 1, 7, 2.79], [8649, 2, 7, 5.0], [2775, 2, 7, 2.33], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [2776, 2, 7, 2.25], [593, 2, 9, 0.96], [143, 2, 7, 2.18], [140, 2, 9, 2.4], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [5493, 2, 7, 0.98], [523, 2, 7, 1.49], [413, 1, 7, 1.37], [7004, 1, 7, 1.71], [7036, 1, 7, 2.73], [21793, 1, 7, 2.44], [412, 1, 7, 1.25], [5491, 2, 7, 1.1], [151, 1, 7, 0.71], [1124, 2, 9, 1.09], [990, 2, 7, 1.94], [5165, 1, 9, 1.87], [8915, 2, 10, 2.24], [615, 2, 7, 3.12], [583, 2, 9, 1.16], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [434, 2, 7, 1.73], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [201, 3, 7, 3.56], [142, 2, 7, 1.08], [11770, 1, 7, 0.83], [345, 3, 9, 1.82], [2055, 3, 7, 1.56], [3891, 1, 7, 1.75], [9372, 1, 7, 1.55], [2057, 3, 7, 1.56], [616, 2, 7, 1.66], [5165, 2, 15, 2.8], [7084, 3, 7, 5.0], [7005, 1, 7, 1.31], [3893, 1, 7, 1.21], [3670, 2, 7, 2.83], [12870, 1, 7, 2.27], [1886, 2, 7, 1.52], [10574, 3, 8, 1.92], [3334, 5, 7, 1.99], [6098, 80, 7, 2.68], [7885, 4, 7, 0.94], [6097, 29, 9, 5.0], [20927, 1, 7, 1.66], [3889, 1, 7, 1.21], [11089, 1, 7, 0.96], [12345, 1, 7, 0.85], [6158, 2, 7, 3.37], [147, 1, 9, 2.75], [10149, 3, 24, 2.21], [22316, 3, 7, 0.96], [1492, 1, 9, 0.68], [432, 3, 7, 1.65], [11953, 1, 7, 0.92], [20252, 2, 7, 1.68], [11491, 2, 7, 0.96], [418, 2, 7, 1.8], [4032, 29, 7, 1.0], [411, 2, 7, 1.04], [1519, 3, 16, 0.68], [1490, 1, 7, 0.75], [2423, 80, 7, 1.66], [11952, 1, 7, 1.53], [229, 1, 7, 3.98], [972, 3, 9, 2.0], [5151, 2, 7, 2.02], [11769, 1, 7, 0.9], [3576, 25, 7, 2.25], [2331, 1, 7, 3.16], [416, 1, 7, 1.91], [13034, 3, 7, 2.91], [11426, 25, 7, 1.12], [11767, 1, 7, 0.89], [11737, 2, 7, 0.96], [439, 1, 9, 3.64], [3, 2, 7, 1.41], [5076, 1, 7, 1.21], [11583, 29, 7, 1.34], [2805, 137, 7, 1.99], [11490, 1, 7, 1.37], [2160, 68, 7, 2.34], [414, 1, 7, 1.46], [6494, 1, 7, 3.12], [410, 1, 7, 0.83], [1701, 2, 7, 2.58], [8677, 3, 8, 1.95], [3575, 25, 7, 2.39], [11180, 1, 7, 1.27], [11814, 1, 7, 0.92], [75, 2, 7, 0.97], [3478, 2, 7, 1.08], [11585, 29, 7, 2.16], [13023, 3, 8, 2.24], [11813, 1, 7, 3.17], [2438, 2, 8, 2.01], [9784, 1, 7, 1.74], [11954, 1, 7, 0.98], [4033, 29, 7, 1.1], [6098, 29, 7, 1.29], [4253, 1, 7, 3.2], [23238, 29, 7, 0.83], [8283, 2, 8, 0.86], [23238, 25, 7, 0.79], [11404, 2, 7, 0.83], [9289, 29, 7, 2.54], [9069, 1, 7, 1.56], [4232, 80, 7, 3.16], [10149, 3, 741, 3.62], [22316, 3, 274, 2.37], [1492, 1, 28, 2.62], [432, 3, 106, 3.06], [11953, 1, 172, 2.33], [20252, 2, 68, 3.1], [11491, 2, 121, 2.37], [418, 2, 121, 3.21], [4032, 29, 82, 2.42], [411, 2, 80, 2.91], [1519, 3, 1222, 2.59], [1490, 1, 44, 2.17], [2423, 80, 155, 3.08], [11952, 1, 172, 2.94], [229, 1, 70, 5.4], [972, 3, 432, 3.8], [5151, 2, 18, 3.44], [11769, 1, 141, 2.32], [3576, 25, 87, 3.67], [2331, 1, 100, 4.58], [416, 1, 63, 3.33], [13034, 3, 507, 4.32], [11426, 25, 103, 2.54], [11767, 1, 141, 2.31], [11737, 2, 49, 2.37], [439, 1, 63, 5.15], [3, 2, 105, 2.82], [5076, 1, 112, 2.62], [11583, 29, 19, 2.76], [2805, 137, 154, 3.41], [11490, 1, 93, 2.79], [2160, 68, 112, 3.75], [414, 1, 74, 2.88], [6494, 1, 42, 4.54], [410, 1, 72, 2.72], [1701, 2, 141, 4.0], [8677, 3, 253, 3.37], [3575, 25, 87, 3.8], [11180, 1, 75, 2.68], [11814, 1, 192, 2.34], [75, 2, 124, 2.38], [3478, 2, 65, 2.5], [11585, 29, 148, 3.58], [13023, 3, 509, 3.66], [11813, 1, 266, 4.58], [2438, 2, 551, 3.43], [9784, 1, 61, 3.15], [11954, 1, 172, 2.4], [4033, 29, 88, 2.52], [6098, 29, 33, 2.71], [4253, 1, 144, 4.61], [23238, 29, 26, 2.16], [8283, 2, 410, 2.28], [23238, 25, 51, 2.12], [11404, 2, 90, 2.25], [9289, 29, 55, 3.96], [9069, 1, 105, 2.97], [4232, 80, 131, 4.58]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.82], [305, 2, 7, 2.64], [2778, 2, 7, 1.12], [5493, 2, 7, 3.32], [6936, 2, 9, 3.71], [130, 1, 7, 1.71], [205, 2, 7, 1.35], [616, 2, 7, 3.6], [144, 2, 7, 0.96], [2049, 3, 14, 2.08], [8648, 2, 7, 1.72], [1504, 2, 7, 1.33], [88, 10, 15, 0.89], [8915, 2, 8, 3.41], [326, 2, 7, 1.79], [7036, 1, 7, 2.28], [8650, 2, 7, 1.72], [593, 2, 9, 1.44], [2327, 2, 7, 0.94], [11681, 2, 9, 3.29], [3893, 1, 7, 1.38], [8853, 2, 7, 3.67], [141, 2, 7, 1.25], [2775, 2, 7, 1.54], [206, 2, 7, 0.69], [7004, 1, 7, 2.33], [151, 1, 7, 1.25], [9507, 3, 7, 0.69], [248, 1, 7, 2.17], [11685, 2, 7, 3.32], [10, 2, 7, 0.69], [2328, 2, 7, 1.73], [146, 2, 7, 1.21], [2050, 3, 7, 3.31], [2497, 2, 7, 2.34], [5491, 2, 7, 3.32], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [3980, 4, 7, 2.36], [990, 2, 7, 0.69], [21798, 1, 7, 0.9], [2054, 3, 7, 3.66], [12349, 1, 7, 3.21], [624, 2, 7, 3.6], [8672, 2, 7, 3.15], [8649, 2, 7, 2.49], [12870, 1, 7, 2.3], [362, 2, 7, 2.14], [7885, 4, 7, 0.85], [2776, 2, 7, 1.54], [12350, 1, 7, 3.21], [2057, 3, 7, 3.31], [7886, 4, 7, 0.92], [12353, 1, 7, 3.21], [10574, 3, 8, 2.4], [13028, 3, 7, 1.25], [1006, 2, 7, 1.37], [523, 2, 7, 0.73], [1446, 2, 7, 2.14], [3975, 4, 7, 2.49], [7005, 1, 7, 1.81], [75, 2, 7, 2.62], [94, 4, 7, 4.47], [3495, 3, 21, 1.64], [2991, 3, 7, 3.97], [12346, 1, 7, 3.21], [11404, 2, 7, 0.83], [9760, 29, 7, 0.87], [10149, 3, 21, 1.48], [142, 2, 7, 0.85], [20927, 1, 7, 2.01], [6158, 2, 7, 1.57], [3981, 3, 21, 2.03], [3982, 3, 17, 2.34], [417, 2, 7, 1.06], [8939, 2, 7, 0.81], [11953, 1, 7, 0.83], [1007, 2, 7, 1.4], [956, 2, 7, 0.71], [997, 2, 7, 3.03], [33, 1, 7, 2.0], [11772, 1, 7, 0.85], [2774, 2, 7, 1.88], [7887, 4, 7, 1.83], [6497, 1, 7, 1.0], [1492, 1, 7, 0.87], [432, 3, 7, 0.9], [12345, 1, 7, 3.21], [972, 3, 7, 2.91], [12352, 1, 7, 3.21], [998, 2, 7, 3.03], [11767, 1, 7, 1.1], [11770, 1, 7, 0.87], [11769, 1, 7, 1.93], [336, 15, 7, 1.39], [35, 1, 7, 1.27], [12351, 1, 7, 3.21], [996, 2, 7, 3.03], [389, 4, 7, 1.69], [74, 1, 7, 2.29], [11490, 1, 7, 1.12], [7567, 3, 7, 3.91], [11952, 1, 7, 0.87], [411, 2, 7, 0.98], [6496, 1, 7, 0.94], [12721, 2, 7, 2.18], [140, 2, 7, 1.04], [22317, 3, 7, 0.98], [8121, 3, 7, 1.06], [8673, 2, 7, 2.37], [4176, 4, 7, 2.57], [1126, 2, 7, 1.47], [2436, 4, 7, 1.72], [1277, 1, 7, 3.27], [9372, 1, 7, 4.21], [8676, 2, 7, 2.33], [11085, 2, 8, 2.78], [8677, 3, 7, 3.38], [1274, 1, 7, 1.16], [21269, 3, 7, 3.5], [12343, 1, 7, 3.21], [10936, 2, 7, 3.27], [22247, 2, 7, 2.27], [37, 1, 7, 1.27], [10388, 2, 7, 2.13], [823, 1, 7, 0.94], [12526, 2, 7, 2.5], [9784, 1, 7, 1.06], [6494, 1, 7, 0.83], [13023, 3, 7, 2.44], [7573, 1, 11, 3.51], [1429, 2, 7, 1.6], [345, 3, 7, 0.98], [3982, 3, 683, 3.79], [417, 2, 134, 2.51], [8939, 2, 67, 1.71], [11953, 1, 175, 2.28], [1007, 2, 231, 2.85], [956, 2, 93, 2.16], [997, 2, 206, 4.48], [33, 1, 96, 3.44], [11772, 1, 191, 2.29], [2774, 2, 176, 3.32], [6497, 1, 33, 2.45], [1492, 1, 32, 2.32], [432, 3, 265, 2.35], [12345, 1, 545, 4.66], [972, 3, 409, 4.26], [12352, 1, 545, 4.66], [998, 2, 206, 4.48], [11767, 1, 140, 2.55], [11770, 1, 190, 2.32], [11769, 1, 140, 3.37], [336, 15, 96, 2.83], [35, 1, 96, 2.72], [12351, 1, 545, 4.66], [996, 2, 206, 4.48], [389, 4, 180, 3.14], [74, 1, 177, 3.74], [11490, 1, 94, 2.57], [7567, 3, 60, 5.36], [11952, 1, 175, 2.32], [411, 2, 94, 2.43], [6496, 1, 36, 2.39], [12721, 2, 245, 3.62], [140, 2, 79, 2.49], [22317, 3, 274, 2.43], [8121, 3, 255, 2.51], [8673, 2, 241, 3.82], [4176, 4, 417, 4.02], [1126, 2, 198, 2.91], [2436, 4, 100, 3.17], [1277, 1, 166, 4.71], [9372, 1, 196, 5.66], [8676, 2, 247, 3.78], [11085, 2, 463, 4.24], [8677, 3, 256, 4.82], [1274, 1, 71, 2.61], [21269, 3, 255, 4.95], [12343, 1, 545, 4.66], [10936, 2, 115, 4.72], [22247, 2, 245, 3.71], [37, 1, 96, 2.72], [10388, 2, 187, 3.58], [823, 1, 35, 2.39], [12526, 2, 236, 3.94], [9784, 1, 63, 2.51], [6494, 1, 45, 2.28], [13023, 3, 509, 3.88], [7573, 1, 289, 4.95], [1429, 2, 132, 3.05], [345, 3, 257, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 2.64], [6935, 2, 19, 4.39], [2328, 2, 7, 1.85], [130, 1, 7, 1.89], [141, 2, 7, 1.21], [8650, 2, 9, 2.35], [2778, 2, 13, 1.26], [5491, 2, 7, 2.8], [2327, 2, 7, 1.82], [8672, 2, 10, 3.18], [362, 2, 7, 2.91], [143, 2, 7, 2.43], [6936, 2, 9, 3.09], [248, 1, 7, 1.0], [145, 2, 7, 2.66], [11681, 2, 13, 1.41], [205, 2, 7, 1.25], [5493, 2, 7, 2.8], [146, 2, 7, 1.08], [417, 2, 7, 1.04], [75, 2, 7, 1.6], [11737, 2, 7, 1.18], [1124, 2, 10, 1.89], [523, 2, 7, 1.02], [8648, 2, 7, 2.1], [1504, 2, 11, 1.23], [12721, 2, 11, 1.45], [8853, 2, 7, 2.87], [1005, 2, 7, 0.75], [615, 2, 7, 2.29], [326, 2, 7, 1.86], [206, 2, 7, 1.25], [8673, 2, 7, 1.42], [8915, 2, 7, 3.23], [144, 2, 7, 2.63], [11835, 2, 7, 0.69], [11739, 2, 7, 1.18], [88, 10, 16, 2.1], [434, 2, 7, 1.24], [2776, 2, 7, 1.79], [142, 2, 7, 0.92], [151, 1, 7, 1.36], [8676, 2, 7, 2.04], [6158, 2, 9, 2.2], [8649, 2, 7, 2.86], [11738, 2, 7, 1.18], [2497, 2, 7, 0.69], [1413, 15, 7, 0.73], [11836, 2, 7, 1.06], [3670, 2, 9, 5.0], [7705, 2, 7, 3.01], [944, 15, 7, 0.79], [3, 2, 7, 1.54], [2859, 15, 7, 0.85], [10574, 3, 10, 2.84], [412, 1, 7, 2.4], [7706, 2, 7, 3.01], [378, 2, 7, 4.77], [2054, 3, 7, 2.1], [22316, 3, 7, 0.89], [12720, 2, 7, 1.45], [3478, 2, 7, 2.16], [74, 1, 7, 4.18], [2055, 3, 7, 2.1], [10149, 3, 21, 2.21], [2774, 2, 7, 2.97], [307, 2, 7, 2.0], [11919, 1, 7, 0.92], [6497, 1, 7, 0.85], [12526, 2, 7, 2.78], [418, 2, 7, 1.58], [7004, 1, 7, 1.56], [11089, 1, 7, 0.77], [411, 2, 7, 1.0], [60, 3, 8, 2.04], [13928, 1, 7, 0.83], [413, 1, 7, 3.06], [2057, 3, 7, 2.1], [11844, 2, 7, 1.16], [8274, 3, 7, 1.91], [7036, 1, 7, 1.74], [3893, 1, 7, 1.98], [14037, 3, 7, 0.79], [13260, 29, 7, 1.29], [2050, 3, 7, 2.1], [7084, 3, 7, 0.69], [6097, 80, 7, 1.86], [6952, 1, 7, 1.85], [3891, 1, 7, 2.19], [9784, 1, 7, 1.06], [94, 4, 7, 4.06], [1050, 2, 7, 0.69], [159, 3, 9, 1.86], [6494, 1, 7, 0.89], [7707, 2, 7, 1.39], [1243, 2, 7, 0.94], [414, 1, 7, 3.06], [1490, 1, 7, 1.94], [11490, 1, 7, 0.96], [3889, 1, 7, 1.98], [22317, 3, 8, 0.83], [7708, 2, 7, 3.01], [21793, 1, 8, 3.56], [1413, 16, 7, 0.77], [345, 3, 7, 2.23], [7703, 2, 7, 3.01], [565, 2, 7, 0.89], [11491, 2, 7, 1.54], [229, 1, 7, 3.85], [3495, 3, 17, 1.57], [1492, 1, 7, 1.02], [6098, 80, 7, 2.23], [149, 2, 7, 1.11], [410, 1, 7, 0.71], [11504, 2, 7, 1.5], [336, 15, 7, 0.73], [6630, 3, 7, 3.46], [147, 1, 7, 1.11], [416, 1, 7, 3.06], [3430, 15, 7, 1.84], [2991, 3, 7, 4.22], [3674, 2, 7, 1.0], [2805, 137, 10, 4.07], [23275, 2, 7, 0.75], [6098, 29, 7, 2.23], [247, 1, 7, 3.97], [11581, 29, 7, 1.89], [8635, 3, 7, 2.78], [1274, 1, 7, 3.02], [2331, 1, 7, 1.41], [963, 3, 7, 3.68], [1049, 2, 7, 0.69], [13263, 29, 7, 0.73], [11089, 1, 174, 2.55], [411, 2, 55, 2.43], [60, 3, 815, 3.83], [13928, 1, 49, 2.61], [413, 1, 85, 4.84], [2057, 3, 474, 3.89], [11844, 2, 93, 2.23], [7036, 1, 128, 3.52], [3893, 1, 123, 3.76], [13260, 29, 73, 3.07], [2050, 3, 474, 3.89], [6097, 80, 68, 3.65], [6952, 1, 190, 3.63], [3891, 1, 123, 3.97], [9784, 1, 72, 2.84], [94, 4, 116, 5.85], [159, 3, 237, 2.92], [6494, 1, 26, 2.31], [7707, 2, 177, 3.17], [1243, 2, 100, 2.72], [414, 1, 85, 4.84], [1490, 1, 50, 3.72], [11490, 1, 73, 2.57], [3889, 1, 123, 3.76], [22317, 3, 322, 2.62], [7708, 2, 177, 4.8], [21793, 1, 243, 5.34], [1413, 16, 33, 2.37], [345, 3, 298, 4.01], [7703, 2, 177, 4.8], [565, 2, 88, 2.32], [11491, 2, 142, 3.32], [229, 1, 82, 5.63], [3495, 3, 968, 3.34], [1492, 1, 37, 2.8], [6098, 80, 74, 4.01], [149, 2, 88, 2.9], [410, 1, 35, 1.78], [11504, 2, 142, 3.28], [6630, 3, 94, 5.24], [147, 1, 88, 2.9], [416, 1, 85, 4.84], [3430, 15, 69, 3.63], [2991, 3, 161, 6.0], [3674, 2, 261, 2.78], [2805, 137, 183, 5.85], [6098, 29, 37, 4.01], [247, 1, 87, 5.75], [11581, 29, 60, 3.67], [1274, 1, 81, 4.8], [2331, 1, 118, 3.19], [963, 3, 395, 5.46], [13263, 29, 73, 2.51]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.86], [326, 2, 11, 1.63], [205, 2, 7, 0.71], [6935, 2, 18, 3.14], [143, 2, 7, 1.12], [130, 1, 7, 1.46], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 1.17], [2778, 2, 9, 1.07], [146, 2, 7, 1.0], [206, 2, 7, 0.68], [20252, 2, 7, 1.13], [6936, 2, 10, 2.57], [1777, 1, 7, 2.52], [151, 1, 7, 0.71], [8648, 2, 7, 3.54], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [2050, 3, 9, 1.53], [5151, 2, 7, 2.58], [141, 2, 7, 2.12], [248, 1, 7, 0.71], [7886, 4, 7, 0.87], [88, 10, 21, 2.86], [74, 1, 7, 3.53], [2991, 3, 7, 4.18], [1446, 2, 7, 0.93], [2057, 3, 7, 0.87], [7004, 1, 7, 0.71], [362, 2, 7, 1.73], [1007, 2, 12, 0.69], [1492, 1, 7, 2.35], [76, 2, 7, 1.11], [147, 1, 7, 2.5], [8649, 2, 9, 4.7], [3889, 1, 7, 0.8], [7005, 1, 7, 0.73], [345, 3, 7, 1.1], [11234, 2, 11, 0.93], [1429, 2, 7, 1.07], [10, 2, 9, 3.33], [307, 2, 7, 2.08], [57, 1, 7, 1.28], [5081, 2, 7, 1.33], [10825, 21, 13, 2.3], [12870, 1, 7, 4.49], [7084, 3, 7, 2.95], [10149, 3, 21, 1.75], [7036, 1, 7, 2.24], [3478, 2, 7, 2.63], [1006, 2, 7, 1.59], [21793, 1, 7, 4.57], [1504, 2, 7, 1.0], [3891, 1, 7, 2.13], [94, 4, 7, 2.6], [411, 2, 7, 0.71], [9827, 3, 7, 0.78], [167, 3, 7, 2.27], [432, 3, 9, 1.15], [3893, 1, 7, 2.13], [8677, 3, 9, 1.26], [11681, 2, 11, 4.55], [23, 1, 7, 1.29], [148, 1, 7, 4.65], [96, 11, 24, 1.07], [1490, 1, 9, 0.67], [22247, 2, 11, 2.32], [1124, 2, 11, 0.93], [9760, 29, 9, 1.04], [11737, 2, 7, 1.03], [12225, 1, 7, 1.7], [5812, 3, 8, 1.9], [201, 3, 7, 1.1], [1243, 2, 7, 1.53], [2336, 3, 9, 1.39], [335, 3, 16, 0.74], [6158, 2, 8, 0.86], [35, 1, 7, 1.95], [8853, 2, 11, 3.19], [10574, 3, 9, 2.64], [412, 1, 7, 2.19], [5005, 1, 7, 0.85], [20256, 2, 7, 0.96], [5208, 3, 14, 0.83], [20927, 1, 7, 1.39], [8651, 2, 7, 1.99], [229, 1, 7, 4.95], [8939, 2, 7, 0.73], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [159, 3, 11, 1.71], [45, 2, 7, 2.47], [11490, 1, 7, 0.83], [413, 1, 7, 2.06], [149, 2, 7, 2.62], [21269, 3, 7, 3.75], [3495, 3, 18, 2.26], [3980, 4, 7, 2.46], [95, 3, 17, 3.57], [140, 2, 7, 1.67], [5946, 1, 7, 1.98], [1766, 25, 7, 1.08], [490, 1, 7, 1.02], [1413, 15, 9, 0.8], [9372, 1, 7, 4.55], [1126, 2, 7, 1.42], [20255, 2, 9, 0.82], [8898, 3, 7, 2.78], [997, 2, 7, 2.04], [2775, 2, 7, 1.57], [506, 1, 7, 4.69], [11489, 1, 7, 1.49], [3670, 2, 7, 4.8], [1070, 7, 15, 0.85], [9690, 1, 7, 1.25], [9691, 1, 7, 2.44], [107, 2, 7, 2.65], [974, 3, 7, 2.14], [34, 1, 7, 1.9], [20498, 1, 7, 1.89], [823, 1, 7, 2.19], [14037, 3, 9, 0.8], [14017, 3, 7, 2.0], [142, 2, 7, 2.12], [5209, 3, 9, 0.83], [972, 3, 8, 1.64], [1091, 1, 7, 1.18], [148, 1, 64, 6.0], [96, 11, 614, 2.87], [1490, 1, 37, 2.48], [22247, 2, 204, 4.02], [1124, 2, 135, 3.24], [9760, 29, 52, 3.16], [11737, 2, 25, 2.84], [5812, 3, 426, 3.2], [201, 3, 219, 2.85], [1243, 2, 71, 2.83], [2336, 3, 420, 3.68], [6158, 2, 189, 2.66], [35, 1, 95, 3.11], [8853, 2, 206, 4.86], [10574, 3, 361, 4.41], [412, 1, 61, 3.86], [5005, 1, 114, 2.15], [20256, 2, 68, 2.77], [8651, 2, 161, 3.8], [25, 1, 81, 3.21], [1767, 25, 125, 2.9], [159, 3, 505, 4.02], [45, 2, 79, 3.78], [11490, 1, 80, 2.61], [413, 1, 63, 3.37], [149, 2, 64, 4.43], [21269, 3, 250, 5.05], [3495, 3, 695, 4.07], [3980, 4, 347, 4.26], [95, 3, 815, 4.89], [140, 2, 39, 2.97], [5946, 1, 90, 3.28], [1766, 25, 136, 2.83], [490, 1, 43, 2.79], [1413, 15, 73, 2.72], [9372, 1, 192, 5.86], [1126, 2, 98, 2.73], [20255, 2, 68, 2.77], [8898, 3, 213, 4.58], [997, 2, 204, 3.35], [2775, 2, 114, 2.87], [506, 1, 74, 5.99], [11489, 1, 69, 3.3], [3670, 2, 170, 6.0], [1070, 7, 428, 2.63], [9690, 1, 64, 2.55], [9691, 1, 32, 3.31], [107, 2, 35, 3.96], [974, 3, 108, 3.45], [34, 1, 95, 3.21], [20498, 1, 71, 3.61], [823, 1, 29, 3.5], [14017, 3, 142, 3.71], [142, 2, 132, 3.42], [972, 3, 428, 2.95], [1091, 1, 20, 2.05]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [6935, 2, 19, 3.17], [2049, 3, 13, 2.91], [141, 2, 7, 0.75], [326, 2, 8, 1.03], [205, 2, 7, 1.12], [130, 1, 7, 1.89], [589, 2, 10, 0.81], [151, 1, 7, 0.89], [362, 2, 9, 0.99], [1776, 1, 7, 2.23], [146, 2, 7, 1.12], [145, 2, 7, 0.85], [206, 2, 7, 0.69], [2328, 2, 7, 1.51], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [8915, 2, 9, 0.67], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [8650, 2, 7, 3.66], [20252, 2, 7, 0.91], [1777, 1, 7, 2.22], [5151, 2, 7, 2.02], [1007, 2, 12, 0.69], [248, 1, 7, 0.69], [2778, 2, 7, 1.06], [88, 10, 17, 2.65], [2050, 3, 7, 1.39], [10149, 3, 25, 3.26], [76, 2, 9, 2.75], [8649, 2, 7, 3.18], [10, 2, 11, 2.55], [8677, 3, 8, 3.58], [2054, 3, 7, 2.34], [412, 1, 7, 1.75], [13028, 3, 7, 0.92], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 1.38], [11681, 2, 10, 4.88], [10825, 21, 14, 0.7], [1446, 2, 7, 2.06], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.86], [1429, 2, 7, 1.48], [147, 1, 7, 1.11], [3495, 3, 26, 2.49], [1006, 2, 9, 1.17], [167, 3, 9, 3.34], [1492, 1, 7, 0.7], [7036, 1, 7, 2.98], [7005, 1, 9, 0.99], [140, 2, 7, 0.9], [9827, 3, 7, 1.38], [8676, 2, 7, 2.54], [45, 2, 9, 3.67], [1124, 2, 11, 1.24], [168, 3, 9, 1.09], [2049, 1, 7, 1.79], [5812, 3, 8, 2.69], [94, 4, 7, 2.54], [57, 1, 7, 1.1], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [148, 1, 7, 2.34], [335, 3, 18, 4.35], [8651, 2, 7, 2.74], [2336, 3, 8, 1.74], [415, 1, 7, 2.37], [8939, 2, 7, 0.73], [6097, 29, 7, 4.54], [416, 1, 7, 2.37], [8853, 2, 14, 3.05], [6097, 80, 7, 4.54], [490, 1, 7, 0.98], [1490, 1, 7, 0.85], [20927, 1, 7, 1.28], [95, 3, 21, 0.92], [79, 1, 7, 0.73], [6098, 29, 7, 4.85], [6098, 80, 7, 4.85], [9069, 1, 7, 2.51], [14017, 3, 7, 1.29], [414, 1, 7, 1.64], [22316, 3, 7, 0.94], [1070, 7, 13, 0.73], [8898, 3, 7, 3.98], [1126, 2, 7, 0.96], [13034, 3, 8, 3.28], [126, 2, 7, 1.87], [149, 2, 7, 1.11], [997, 2, 7, 2.43], [9760, 29, 7, 1.17], [20498, 1, 7, 3.84], [5086, 1, 9, 1.64], [9784, 1, 7, 1.42], [159, 3, 10, 1.08], [5513, 2, 6, 0.88], [336, 15, 7, 0.73], [8945, 3, 8, 2.0], [22317, 3, 8, 1.35], [12924, 1, 7, 1.54], [7567, 3, 7, 3.89], [11085, 2, 7, 1.33], [11739, 2, 7, 1.6], [1413, 15, 9, 0.75], [5811, 3, 7, 3.68], [974, 3, 7, 1.69], [192, 3, 22, 4.76], [229, 1, 7, 4.32], [5813, 3, 7, 2.94], [972, 3, 7, 1.56], [506, 1, 7, 2.34], [8557, 3, 7, 1.53], [1622, 1, 10, 0.74], [9082, 3, 24, 1.19], [9691, 1, 7, 2.81], [20498, 3, 8, 1.94], [8943, 3, 7, 3.68], [3049, 3, 7, 3.81], [14018, 3, 7, 0.96], [524, 1, 7, 2.71], [4076, 3, 7, 5.0], [470, 1, 7, 0.98], [2775, 2, 9, 0.88], [20486, 3, 8, 4.73], [13023, 3, 8, 1.94], [3900, 3, 7, 3.23], [2423, 80, 7, 3.66], [5584, 3, 7, 3.42], [416, 1, 68, 3.76], [8853, 2, 223, 4.7], [6097, 80, 53, 5.7], [490, 1, 47, 2.58], [1490, 1, 47, 2.01], [20927, 1, 73, 2.44], [95, 3, 884, 2.58], [79, 1, 22, 1.5], [6098, 29, 29, 6.0], [6098, 80, 58, 6.0], [9069, 1, 96, 3.67], [14017, 3, 154, 2.89], [414, 1, 68, 2.8], [22316, 3, 291, 2.1], [1070, 7, 467, 2.4], [8898, 3, 221, 5.63], [1126, 2, 180, 2.57], [13034, 3, 459, 4.44], [126, 2, 63, 2.9], [149, 2, 80, 2.27], [997, 2, 219, 3.59], [9760, 29, 66, 2.33], [20498, 1, 77, 5.0], [5086, 1, 144, 3.79], [9784, 1, 57, 3.02], [159, 3, 554, 2.75], [5513, 2, 59, 2.54], [336, 15, 52, 1.5], [8945, 3, 541, 3.16], [22317, 3, 248, 2.52], [12924, 1, 37, 2.69], [7567, 3, 55, 5.05], [11085, 2, 431, 2.5], [11739, 2, 53, 2.76], [1413, 15, 79, 2.48], [5811, 3, 459, 4.84], [974, 3, 136, 2.85], [192, 3, 1287, 5.9], [229, 1, 57, 5.47], [5813, 3, 459, 4.1], [972, 3, 546, 2.71], [506, 1, 68, 3.99], [8557, 3, 159, 3.18], [9082, 3, 1955, 2.89], [20498, 3, 459, 3.57], [3049, 3, 108, 5.27], [14018, 3, 154, 2.57], [524, 1, 66, 3.87], [4076, 3, 155, 6.0], [2775, 2, 123, 2.71], [20486, 3, 465, 5.88], [13023, 3, 459, 4.1], [3900, 3, 34, 4.39], [2423, 80, 169, 4.82], [5584, 3, 197, 4.58]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.32], [6935, 2, 10, 2.82], [130, 1, 7, 1.71], [326, 2, 7, 1.79], [8648, 2, 7, 1.72], [144, 2, 7, 0.96], [2327, 2, 7, 0.94], [593, 2, 9, 1.44], [205, 2, 7, 1.35], [143, 2, 7, 1.12], [8915, 2, 8, 3.41], [2328, 2, 7, 1.73], [11681, 2, 9, 3.29], [305, 2, 7, 2.64], [6936, 2, 9, 3.71], [141, 2, 7, 1.25], [8650, 2, 7, 1.72], [5493, 2, 7, 3.32], [151, 1, 7, 1.25], [2778, 2, 7, 1.12], [206, 2, 7, 0.69], [2049, 3, 14, 2.08], [146, 2, 7, 1.21], [88, 10, 15, 0.89], [7036, 1, 7, 2.28], [9507, 3, 7, 0.69], [8853, 2, 7, 3.67], [8649, 2, 7, 2.49], [1446, 2, 7, 2.14], [5491, 2, 7, 3.32], [362, 2, 7, 2.14], [2055, 3, 7, 3.44], [990, 2, 7, 0.69], [1006, 2, 7, 1.37], [75, 2, 7, 2.62], [3893, 1, 7, 1.38], [11737, 2, 7, 1.41], [417, 2, 7, 1.06], [2050, 3, 7, 3.31], [3840, 1, 7, 0.75], [616, 2, 7, 3.6], [1007, 2, 7, 1.4], [12870, 1, 7, 2.3], [523, 2, 7, 0.73], [159, 3, 8, 0.66], [20927, 1, 7, 2.01], [1504, 2, 7, 1.33], [2057, 3, 7, 3.31], [10574, 3, 8, 2.4], [13280, 1, 7, 4.47], [3, 2, 7, 0.83], [142, 2, 7, 0.85], [997, 2, 7, 3.03], [9760, 29, 7, 0.87], [624, 2, 7, 3.6], [10, 2, 7, 0.69], [2054, 3, 7, 3.66], [21798, 1, 7, 0.9], [140, 2, 7, 1.04], [2775, 2, 7, 1.54], [3982, 3, 17, 2.34], [21793, 1, 7, 4.47], [8939, 2, 7, 0.81], [11739, 2, 7, 1.17], [1429, 2, 7, 1.6], [996, 2, 7, 3.03], [6158, 2, 7, 1.57], [998, 2, 7, 3.03], [98, 11, 16, 1.42], [84, 2, 7, 0.8], [1126, 2, 7, 1.47], [9372, 1, 7, 4.21], [10388, 2, 7, 2.13], [2912, 1, 7, 2.68], [972, 3, 7, 2.91], [411, 2, 7, 0.98], [8672, 2, 7, 3.15], [7885, 4, 7, 0.85], [8898, 3, 7, 3.33], [413, 1, 7, 1.27], [2776, 2, 7, 1.54], [3980, 4, 7, 2.36], [12343, 1, 7, 3.21], [9491, 21, 16, 2.0], [10386, 2, 7, 1.91], [1492, 1, 7, 0.87], [995, 2, 7, 3.03], [147, 1, 7, 0.94], [22316, 3, 7, 0.98], [418, 2, 7, 0.87], [308, 1, 7, 3.28], [22247, 2, 7, 2.27], [9784, 1, 7, 1.06], [2912, 2, 8, 2.61], [8677, 3, 7, 3.38], [336, 15, 7, 1.39], [3981, 3, 21, 2.03], [11490, 1, 7, 1.12], [7567, 3, 7, 3.91], [307, 2, 7, 1.52], [229, 1, 7, 2.0], [11953, 1, 7, 0.83], [33, 1, 7, 2.0], [10631, 2, 7, 1.93], [11770, 1, 7, 0.87], [414, 1, 7, 1.27], [22317, 3, 7, 0.98], [7886, 4, 7, 0.92], [35, 1, 7, 1.27], [7573, 1, 11, 3.51], [10407, 10, 10, 3.28], [439, 1, 7, 2.21], [10780, 10, 7, 3.01], [10410, 10, 10, 3.2], [415, 1, 7, 1.27], [335, 3, 15, 3.43], [9691, 1, 7, 1.0], [10387, 2, 7, 1.83], [972, 1, 7, 2.91], [6497, 1, 7, 1.0], [74, 1, 7, 2.29], [10149, 3, 21, 1.48], [11767, 1, 7, 1.1], [3478, 2, 7, 1.71], [12271, 2, 7, 1.39], [9690, 1, 7, 1.46], [8897, 3, 7, 3.33], [9971, 2, 7, 2.16], [2331, 1, 7, 3.73], [2497, 2, 7, 2.34], [345, 3, 7, 0.98], [9082, 3, 29, 0.94], [11769, 1, 7, 1.93], [9372, 1, 196, 5.66], [10388, 2, 187, 3.58], [2912, 1, 41, 4.13], [972, 3, 409, 4.26], [411, 2, 94, 2.43], [8672, 2, 247, 4.59], [8898, 3, 242, 4.78], [413, 1, 74, 2.72], [2776, 2, 136, 2.99], [3980, 4, 417, 3.8], [12343, 1, 545, 4.66], [9491, 21, 1819, 3.43], [10386, 2, 187, 3.36], [1492, 1, 32, 2.32], [995, 2, 206, 4.48], [147, 1, 79, 2.39], [22316, 3, 274, 2.43], [418, 2, 123, 2.32], [308, 1, 139, 4.73], [22247, 2, 245, 3.71], [9784, 1, 63, 2.51], [2912, 2, 332, 4.05], [8677, 3, 256, 4.82], [336, 15, 96, 2.83], [3981, 3, 1395, 3.45], [11490, 1, 94, 2.57], [7567, 3, 60, 5.36], [307, 2, 129, 2.96], [229, 1, 71, 3.45], [11953, 1, 175, 2.28], [33, 1, 96, 3.44], [10631, 2, 183, 3.38], [11770, 1, 190, 2.32], [414, 1, 74, 2.72], [22317, 3, 274, 2.43], [35, 1, 96, 2.72], [7573, 1, 289, 4.95], [10407, 10, 1018, 4.72], [439, 1, 75, 3.66], [10780, 10, 319, 4.45], [10410, 10, 1018, 4.64], [415, 1, 74, 2.72], [335, 3, 1107, 4.87], [9691, 1, 53, 2.36], [10387, 2, 187, 3.28], [972, 1, 68, 4.27], [6497, 1, 33, 2.45], [74, 1, 177, 3.74], [10149, 3, 754, 2.93], [11767, 1, 140, 2.55], [3478, 2, 65, 3.16], [12271, 2, 55, 2.84], [9690, 1, 52, 2.82], [8897, 3, 242, 4.78], [9971, 2, 236, 3.61], [2331, 1, 100, 5.17], [2497, 2, 176, 3.79], [345, 3, 257, 2.42], [9082, 3, 2167, 2.38], [11769, 1, 140, 3.37]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.88], [361, 2, 7, 1.08], [6935, 2, 23, 5.0], [12721, 2, 14, 3.73], [206, 2, 9, 0.77], [2049, 3, 14, 0.72], [8676, 2, 7, 1.16], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 2.37], [523, 2, 7, 1.27], [22247, 2, 7, 1.93], [8650, 2, 7, 2.44], [142, 2, 7, 1.1], [8648, 2, 7, 2.02], [2328, 2, 7, 1.85], [2776, 2, 7, 0.88], [2327, 2, 7, 1.82], [616, 2, 7, 2.72], [8853, 2, 7, 3.53], [11837, 2, 7, 0.87], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 3.62], [146, 2, 7, 2.16], [412, 1, 7, 2.46], [11835, 2, 7, 0.94], [12353, 1, 7, 3.01], [8674, 2, 7, 2.75], [583, 2, 7, 2.16], [6497, 1, 9, 0.85], [2805, 137, 11, 3.27], [145, 2, 7, 2.66], [10574, 3, 10, 2.84], [418, 2, 7, 0.89], [326, 2, 7, 1.94], [6097, 80, 7, 4.06], [144, 2, 7, 2.63], [9784, 1, 7, 2.07], [11836, 2, 7, 1.04], [10149, 3, 26, 1.2], [413, 1, 7, 2.23], [6097, 29, 7, 1.86], [2057, 3, 6, 0.65], [11234, 2, 8, 1.39], [75, 2, 7, 2.38], [12344, 1, 7, 1.98], [1413, 15, 7, 0.73], [20252, 2, 7, 0.91], [6494, 1, 7, 0.89], [11504, 2, 7, 0.85], [6496, 1, 7, 1.41], [414, 1, 7, 2.23], [8915, 2, 7, 1.25], [1492, 1, 7, 1.02], [6098, 80, 7, 2.23], [2774, 2, 9, 2.61], [247, 1, 7, 2.84], [22316, 3, 7, 0.89], [6098, 29, 7, 2.23], [416, 1, 7, 2.23], [9786, 1, 7, 2.7], [3934, 5, 9, 1.11], [2049, 1, 7, 0.79], [2859, 15, 7, 1.37], [201, 3, 7, 2.66], [6158, 2, 9, 2.2], [3670, 2, 9, 5.0], [3478, 2, 7, 2.16], [11489, 1, 7, 1.94], [13928, 1, 7, 0.83], [2050, 3, 6, 0.65], [7084, 3, 7, 4.74], [9785, 1, 7, 2.91], [12526, 2, 7, 2.78], [9342, 2, 8, 0.67], [3430, 15, 7, 0.69], [8599, 1, 7, 1.36], [4253, 1, 7, 1.16], [8938, 2, 7, 1.1], [186, 3, 12, 0.91], [3982, 3, 20, 0.67], [1413, 16, 7, 0.81], [107, 2, 7, 2.79], [11887, 2, 8, 0.69], [10398, 2, 7, 1.81], [11885, 2, 7, 0.75], [229, 1, 7, 2.94], [11490, 1, 7, 0.96], [11811, 1, 7, 1.93], [1050, 2, 7, 0.69], [94, 4, 7, 3.18], [415, 1, 7, 2.23], [4232, 80, 7, 3.23], [2438, 2, 8, 2.19], [107, 7, 8, 2.75], [436, 2, 7, 0.98], [5939, 3, 7, 0.96], [2421, 80, 7, 0.69], [947, 15, 7, 1.35], [5812, 3, 7, 3.84], [11769, 1, 7, 0.92], [2821, 3, 13, 0.82], [140, 2, 7, 1.64], [11671, 1, 7, 0.81], [11767, 1, 7, 0.92], [3673, 2, 7, 4.08], [11844, 2, 7, 1.16], [11160, 1, 7, 4.25], [5813, 3, 8, 3.52], [9358, 1, 7, 1.0], [11771, 1, 7, 3.17], [3495, 3, 17, 1.57], [7036, 1, 7, 0.87], [12764, 2, 8, 0.8], [409, 1, 7, 2.21], [5811, 3, 8, 4.0], [23920, 2, 7, 0.79], [410, 1, 7, 2.83], [1049, 2, 7, 0.69], [11954, 1, 7, 0.81], [105, 3, 7, 3.93], [13928, 2, 7, 0.83], [9690, 1, 7, 1.29], [11180, 1, 7, 0.75], [5584, 3, 7, 3.1], [2108, 3, 8, 1.43], [22573, 2, 7, 0.75], [8274, 3, 7, 4.43], [3478, 2, 38, 3.59], [13928, 1, 49, 2.61], [2050, 3, 404, 2.42], [9785, 1, 24, 4.37], [12526, 2, 273, 4.56], [8599, 1, 146, 3.14], [4253, 1, 172, 2.95], [8938, 2, 96, 2.53], [186, 3, 336, 2.34], [3982, 3, 820, 2.44], [1413, 16, 42, 2.52], [107, 2, 48, 4.57], [11887, 2, 65, 1.76], [10398, 2, 147, 3.6], [229, 1, 81, 4.72], [11490, 1, 37, 2.03], [11811, 1, 453, 3.71], [94, 4, 119, 4.96], [415, 1, 86, 4.01], [4232, 80, 154, 5.02], [2438, 2, 645, 3.98], [107, 7, 241, 4.54], [436, 2, 90, 2.69], [5939, 3, 267, 2.74], [2421, 80, 215, 2.47], [947, 15, 41, 3.13], [5812, 3, 591, 5.62], [11769, 1, 110, 2.52], [2821, 3, 671, 2.23], [140, 2, 46, 3.06], [11671, 1, 313, 2.59], [11767, 1, 110, 2.52], [3673, 2, 237, 5.86], [11844, 2, 93, 2.23], [11160, 1, 492, 6.0], [5813, 3, 591, 5.3], [9358, 1, 59, 2.78], [11771, 1, 214, 4.95], [3495, 3, 968, 3.34], [7036, 1, 128, 2.65], [12764, 2, 762, 2.58], [5811, 3, 394, 5.6], [23920, 2, 107, 2.57], [11954, 1, 204, 2.59], [13928, 2, 24, 2.61], [9690, 1, 50, 2.89], [11180, 1, 89, 2.53], [5584, 3, 229, 4.88]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.46], [305, 2, 7, 2.52], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [144, 2, 7, 1.49], [130, 1, 7, 1.86], [589, 2, 10, 0.87], [8915, 2, 8, 3.41], [143, 2, 7, 0.85], [2328, 2, 7, 1.46], [6936, 2, 7, 3.27], [8648, 2, 7, 3.58], [205, 2, 7, 0.74], [2775, 2, 9, 0.8], [593, 2, 11, 0.97], [326, 2, 9, 2.24], [8650, 2, 7, 2.95], [145, 2, 7, 1.93], [146, 2, 7, 1.1], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [88, 10, 16, 2.59], [615, 2, 7, 3.0], [141, 2, 7, 0.72], [7004, 1, 9, 4.31], [1124, 2, 9, 1.09], [151, 1, 7, 1.81], [11681, 2, 11, 4.38], [206, 2, 7, 0.74], [9760, 29, 7, 1.29], [8853, 2, 7, 3.35], [5491, 2, 7, 1.52], [1007, 2, 7, 1.35], [362, 2, 7, 0.95], [8672, 2, 7, 3.15], [1504, 2, 7, 1.19], [2057, 3, 7, 0.89], [2912, 1, 9, 1.91], [8938, 2, 7, 0.99], [9372, 1, 7, 3.2], [434, 2, 7, 0.94], [3893, 1, 7, 0.71], [8649, 2, 7, 3.91], [12870, 1, 7, 3.23], [10993, 2, 7, 1.6], [2054, 3, 9, 0.81], [2050, 3, 7, 0.89], [1429, 2, 9, 1.08], [3889, 1, 7, 1.38], [378, 2, 9, 5.0], [7084, 3, 7, 2.06], [2991, 3, 7, 3.64], [10, 2, 7, 0.89], [140, 2, 7, 3.31], [7886, 4, 7, 0.8], [3891, 1, 7, 0.76], [1006, 2, 7, 1.06], [10574, 3, 11, 3.29], [7573, 1, 16, 3.95], [10149, 3, 21, 2.58], [5208, 3, 9, 1.28], [1622, 1, 9, 0.84], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.64], [997, 2, 7, 2.43], [11234, 2, 7, 2.8], [12721, 2, 7, 3.54], [1886, 2, 9, 0.86], [11685, 2, 11, 4.43], [22247, 2, 7, 2.74], [147, 1, 7, 3.5], [229, 1, 7, 1.91], [998, 2, 7, 1.56], [20252, 2, 7, 0.9], [94, 4, 7, 2.73], [2912, 2, 12, 2.75], [9491, 21, 26, 0.95], [972, 3, 10, 1.52], [35, 1, 7, 2.48], [439, 1, 7, 2.04], [76, 2, 7, 1.6], [413, 1, 7, 2.66], [83, 2, 7, 0.82], [13928, 1, 7, 1.35], [5076, 1, 7, 1.87], [1414, 15, 7, 1.19], [8104, 1, 7, 1.66], [5209, 3, 7, 2.28], [33, 1, 7, 1.79], [148, 1, 9, 4.53], [8676, 2, 7, 3.15], [418, 2, 7, 1.65], [11952, 1, 7, 0.81], [412, 1, 7, 0.85], [7887, 4, 7, 1.87], [12212, 29, 7, 0.9], [8898, 3, 7, 1.93], [2774, 2, 7, 1.06], [3495, 3, 18, 1.61], [38, 1, 7, 2.18], [20256, 2, 7, 0.96], [84, 2, 7, 2.15], [11770, 1, 7, 3.75], [34, 1, 7, 2.06], [415, 1, 7, 1.98], [10407, 10, 10, 3.08], [3048, 3, 7, 3.77], [632, 11, 21, 0.79], [9784, 1, 7, 1.0], [126, 2, 7, 1.3], [13928, 2, 7, 1.23], [11772, 1, 7, 0.84], [995, 2, 7, 3.93], [411, 2, 7, 0.89], [8939, 2, 7, 0.89], [9691, 1, 7, 0.79], [9690, 1, 7, 0.71], [39, 1, 7, 2.12], [11953, 1, 7, 1.0], [5584, 3, 7, 4.4], [7567, 3, 7, 2.83], [11954, 1, 7, 0.73], [10410, 10, 15, 3.08], [74, 1, 7, 3.33], [21269, 3, 7, 2.57], [1523, 1, 7, 0.92], [972, 1, 7, 1.02], [159, 1, 7, 1.87], [1519, 3, 17, 0.73], [5164, 1, 7, 2.12], [10408, 10, 8, 2.21], [9491, 21, 1763, 3.05], [972, 3, 493, 3.68], [35, 1, 72, 3.95], [439, 1, 73, 3.67], [76, 2, 91, 3.23], [413, 1, 72, 4.29], [83, 2, 20, 1.8], [13928, 1, 40, 3.42], [5076, 1, 108, 3.5], [1414, 15, 33, 2.17], [8104, 1, 201, 3.29], [33, 1, 92, 3.85], [148, 1, 29, 6.0], [8676, 2, 279, 4.78], [418, 2, 118, 3.29], [11952, 1, 196, 2.45], [412, 1, 70, 2.95], [12212, 29, 118, 2.53], [8898, 3, 243, 3.56], [2774, 2, 170, 3.15], [3495, 3, 943, 3.25], [38, 1, 92, 3.81], [20256, 2, 92, 2.6], [11770, 1, 204, 5.39], [34, 1, 92, 3.69], [415, 1, 72, 3.61], [10407, 10, 990, 4.72], [3048, 3, 223, 5.91], [632, 11, 405, 2.08], [9784, 1, 71, 2.63], [126, 2, 88, 2.93], [13928, 2, 23, 2.86], [11772, 1, 182, 2.97], [995, 2, 235, 5.56], [411, 2, 53, 2.2], [8939, 2, 63, 3.03], [9691, 1, 75, 2.43], [39, 1, 92, 3.75], [11953, 1, 165, 3.14], [5584, 3, 198, 6.0], [7567, 3, 67, 4.46], [11954, 1, 196, 2.36], [10410, 10, 990, 4.72], [74, 1, 192, 4.97], [21269, 3, 285, 4.21], [1523, 1, 46, 2.55], [972, 1, 97, 2.65], [159, 1, 13, 2.85], [1519, 3, 1620, 2.37], [5164, 1, 46, 3.75], [10408, 10, 767, 3.84]]</t>
+    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.25], [3, 2, 4, 0.47], [326, 2, 4, 0.54], [589, 2, 5, 0.37], [6935, 2, 8, 1.27], [205, 2, 4, 0.37], [143, 2, 4, 0.58], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 6, 0.2], [1776, 1, 4, 0.61], [146, 2, 4, 0.52], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [5151, 2, 4, 1.02], [2050, 3, 5, 0.41], [7886, 4, 4, 0.45], [141, 2, 4, 0.53], [248, 1, 4, 0.2], [88, 10, 10, 0.45], [74, 1, 4, 1.53], [2054, 3, 4, 0.54], [2991, 3, 4, 2.05], [2057, 3, 5, 0.47], [7004, 1, 4, 0.37], [1446, 2, 4, 0.2], [1492, 1, 4, 1.22], [362, 2, 4, 0.48], [2055, 3, 4, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.9], [345, 3, 4, 0.57], [7005, 1, 4, 0.38], [3889, 1, 4, 0.2], [11234, 2, 6, 0.2], [10825, 21, 8, 1.28], [7084, 3, 4, 2.03], [5081, 2, 4, 0.69], [12870, 1, 4, 2.33], [7036, 1, 4, 0.43], [10149, 3, 15, 0.99], [3478, 2, 4, 1.03], [1654, 2, 4, 0.54], [94, 4, 4, 0.4], [3891, 1, 4, 0.27], [167, 3, 5, 1.15], [432, 3, 5, 0.62], [33, 1, 4, 0.83], [9827, 3, 4, 0.2], [411, 2, 4, 0.37], [168, 3, 4, 1.23], [8677, 3, 6, 0.65], [79, 1, 4, 0.2], [3893, 1, 4, 0.2], [23, 1, 4, 0.67], [22247, 2, 6, 1.15], [201, 3, 4, 0.57], [1490, 1, 4, 0.2], [1124, 2, 5, 0.2], [5812, 3, 6, 0.81], [96, 11, 17, 0.38], [11737, 2, 4, 0.2], [9760, 29, 4, 0.74], [35, 1, 4, 0.83], [6158, 2, 6, 0.51], [335, 3, 9, 0.4], [12225, 1, 4, 0.43], [412, 1, 4, 1.14], [346, 1, 4, 0.56], [20927, 1, 4, 0.49], [229, 1, 4, 2.57], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [45, 2, 4, 0.64], [998, 2, 5, 1.52], [3980, 4, 5, 1.25], [413, 1, 4, 1.07], [21269, 3, 4, 1.6], [346, 3, 4, 0.51], [3495, 3, 15, 1.31], [95, 3, 11, 0.54], [856, 1, 4, 0.36], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [8898, 3, 4, 0.75], [34, 1, 4, 0.38], [1070, 7, 9, 0.46], [9372, 1, 4, 1.74], [9691, 1, 4, 1.27], [9690, 1, 4, 0.97], [11954, 1, 4, 0.2], [20498, 1, 4, 0.48], [14017, 3, 4, 1.04], [974, 3, 5, 0.88], [418, 2, 4, 0.46], [14037, 3, 4, 0.44], [22317, 3, 4, 0.51], [972, 3, 5, 0.65], [20498, 3, 5, 1.08], [1091, 1, 4, 0.66], [9828, 3, 4, 0.46], [8274, 3, 4, 0.46], [38, 1, 4, 0.38], [5584, 3, 4, 1.19], [5811, 3, 4, 1.81], [1414, 15, 4, 0.42], [12350, 1, 4, 0.53], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [24, 1, 4, 1.04], [3048, 3, 4, 1.24], [110, 4, 4, 0.38], [1080, 3, 4, 0.8], [13034, 3, 5, 1.09], [8104, 1, 4, 0.44], [13260, 29, 4, 0.73], [1767, 2, 4, 0.59], [336, 15, 4, 0.38], [11811, 1, 4, 0.94], [955, 2, 4, 0.47], [8635, 3, 4, 0.5], [39, 1, 4, 0.59], [10780, 10, 4, 0.98], [2878, 1, 4, 0.61], [9082, 3, 15, 0.83], [3981, 3, 10, 1.42], [4203, 1, 4, 0.55], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 58, 3.44], [6935, 2, 206, 4.81], [205, 2, 80, 2.49], [143, 2, 108, 2.86], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [1776, 1, 80, 2.94], [146, 2, 109, 2.77], [2778, 2, 114, 2.87], [6936, 2, 206, 4.28], [1777, 1, 93, 3.16], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [5151, 2, 17, 4.32], [2050, 3, 260, 3.41], [141, 2, 132, 3.42], [248, 1, 35, 2.49], [88, 10, 403, 5.17], [74, 1, 144, 5.34], [2054, 3, 408, 2.35], [2991, 3, 116, 5.98], [2057, 3, 346, 2.68], [7004, 1, 51, 2.49], [1446, 2, 98, 3.24], [1492, 1, 32, 3.65], [362, 2, 90, 3.59], [2055, 3, 346, 2.6], [76, 2, 93, 3.35], [8649, 2, 161, 6.0], [345, 3, 219, 2.85], [7005, 1, 51, 2.5], [3889, 1, 91, 2.61], [11234, 2, 134, 3.07], [10825, 21, 270, 4.0], [5081, 2, 137, 3.07], [12870, 1, 99, 6.0], [7036, 1, 92, 3.55], [10149, 3, 646, 3.49], [1654, 2, 79, 2.34], [94, 4, 87, 3.91], [3891, 1, 91, 3.93], [167, 3, 164, 4.08], [432, 3, 221, 2.95], [33, 1, 100, 3.25], [9827, 3, 63, 2.69], [411, 2, 80, 2.49], [168, 3, 345, 3.67], [8677, 3, 214, 3.07], [79, 1, 35, 2.47], [3893, 1, 91, 3.93], [23, 1, 81, 3.04], [22247, 2, 204, 4.02], [201, 3, 219, 2.85], [1490, 1, 37, 2.48], [1124, 2, 135, 3.24]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [8915, 2, 5, 0.46], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [205, 2, 4, 0.37], [8650, 2, 4, 1.53], [593, 2, 5, 0.4], [326, 2, 4, 0.72], [146, 2, 4, 0.57], [145, 2, 4, 0.5], [5493, 2, 4, 0.44], [3840, 1, 5, 0.29], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [88, 10, 9, 1.01], [141, 2, 5, 0.39], [7004, 1, 4, 1.24], [206, 2, 4, 0.37], [9760, 29, 4, 0.2], [990, 2, 4, 0.27], [1007, 2, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.56], [2912, 1, 4, 0.77], [3893, 1, 4, 0.2], [142, 2, 4, 0.4], [2057, 3, 4, 0.56], [12870, 1, 4, 1.68], [9372, 1, 4, 1.84], [10993, 2, 4, 0.6], [2050, 3, 4, 0.56], [3889, 1, 4, 0.25], [2054, 3, 4, 0.2], [7084, 3, 4, 1.07], [523, 2, 4, 0.38], [2991, 3, 4, 1.1], [7886, 4, 5, 0.44], [10, 2, 4, 0.36], [3891, 1, 4, 0.2], [7573, 1, 9, 1.95], [1622, 1, 4, 0.2], [10149, 3, 15, 1.21], [5208, 3, 4, 0.46], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [11234, 2, 5, 0.75], [997, 2, 4, 1.26], [1886, 2, 4, 0.2], [12721, 2, 4, 1.46], [346, 3, 5, 0.21], [22247, 2, 5, 1.14], [996, 2, 4, 0.6], [229, 1, 4, 1.05], [998, 2, 4, 0.81], [94, 4, 4, 0.9], [2912, 2, 7, 1.24], [972, 3, 5, 0.51], [9491, 21, 12, 0.22], [35, 1, 4, 1.29], [76, 2, 5, 0.6], [413, 1, 4, 1.38], [33, 1, 4, 0.93], [83, 2, 4, 0.95], [13928, 1, 4, 0.7], [5076, 1, 4, 0.97], [2805, 137, 4, 1.33], [5209, 3, 5, 0.96], [8104, 1, 5, 0.59], [346, 1, 4, 0.43], [8676, 2, 4, 0.97], [7887, 4, 4, 0.97], [38, 1, 4, 1.13], [8898, 3, 4, 2.55], [12212, 29, 4, 0.47], [3495, 3, 10, 0.92], [84, 2, 4, 0.9], [34, 1, 4, 1.07], [11490, 1, 4, 0.46], [10407, 10, 7, 1.19], [632, 11, 13, 0.45], [11770, 1, 4, 0.6], [13928, 2, 4, 0.55], [995, 2, 4, 1.64], [11772, 1, 4, 0.2], [9690, 1, 4, 0.47], [411, 2, 4, 0.48], [39, 1, 4, 1.1], [9691, 1, 4, 0.72], [1703, 2, 4, 0.83], [11953, 1, 4, 0.2], [82, 2, 4, 0.82], [5584, 3, 4, 1.02], [12764, 2, 5, 0.99], [13893, 2, 4, 1.17], [7567, 3, 4, 1.08], [74, 1, 4, 0.99], [10410, 10, 9, 1.66], [972, 1, 4, 0.53], [5164, 1, 4, 1.95], [21269, 3, 4, 0.99], [1523, 1, 4, 0.6], [23961, 3, 4, 1.88], [2331, 1, 4, 0.64], [13023, 3, 5, 0.8], [10408, 10, 5, 1.84], [4253, 1, 4, 0.58], [1492, 1, 4, 0.45], [4076, 3, 4, 1.42], [6097, 80, 4, 0.76], [6805, 1, 4, 0.51], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [13034, 3, 4, 1.2], [3429, 15, 4, 0.44], [3047, 3, 4, 1.14], [21059, 1, 4, 0.82], [8283, 2, 5, 0.68], [1243, 2, 4, 1.13], [3576, 29, 4, 0.42], [3430, 15, 4, 0.95], [2436, 4, 4, 0.56], [8674, 2, 4, 0.97], [6097, 29, 4, 0.76], [10780, 10, 4, 1.15], [19931, 1, 4, 1.26], [11812, 1, 4, 0.46], [2327, 2, 125, 3.09], [305, 2, 122, 2.96], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [589, 2, 127, 3.01], [144, 2, 125, 3.13], [8915, 2, 188, 2.44], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.21], [2775, 2, 131, 3.06], [205, 2, 89, 2.31], [8650, 2, 186, 4.94], [593, 2, 189, 3.07], [326, 2, 30, 4.87], [146, 2, 125, 3.18], [145, 2, 125, 3.06], [5493, 2, 107, 2.48], [3840, 1, 142, 3.59], [7036, 1, 107, 5.16], [2049, 3, 181, 2.85], [2776, 2, 131, 3.27], [88, 10, 467, 4.23], [141, 2, 130, 2.86], [206, 2, 36, 1.72], [9760, 29, 74, 2.87], [362, 2, 118, 3.09], [2055, 3, 158, 2.07], [2912, 1, 44, 4.46], [3893, 1, 104, 2.85], [142, 2, 153, 2.39], [2057, 3, 158, 2.07], [12870, 1, 114, 5.33], [9372, 1, 188, 5.31], [2050, 3, 158, 2.07], [3889, 1, 104, 3.51], [2054, 3, 267, 2.38], [7084, 3, 109, 3.69], [523, 2, 153, 2.36], [2991, 3, 135, 5.78], [10, 2, 103, 2.52], [3891, 1, 104, 2.9], [7573, 1, 306, 5.44], [1622, 1, 53, 2.97], [10149, 3, 735, 4.24], [75, 2, 120, 4.02], [3, 2, 101, 3.46], [11234, 2, 152, 4.44], [997, 2, 198, 4.46], [1886, 2, 130, 3.17], [12721, 2, 233, 4.44], [346, 3, 525, 2.95], [22247, 2, 233, 4.41], [996, 2, 193, 5.27], [229, 1, 70, 3.65], [998, 2, 198, 3.64], [94, 4, 100, 4.24], [2912, 2, 323, 4.81], [972, 3, 493, 3.68], [9491, 21, 1763, 3.05], [35, 1, 73, 3.95], [76, 2, 91, 3.23]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.87], [6935, 2, 5, 1.34], [130, 1, 4, 0.2], [326, 2, 5, 0.7], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [2327, 2, 5, 0.54], [589, 2, 5, 0.2], [593, 2, 5, 0.52], [143, 2, 4, 1.01], [205, 2, 5, 0.51], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [2328, 2, 4, 0.51], [141, 2, 4, 0.53], [6936, 2, 4, 1.85], [151, 1, 4, 0.38], [2778, 2, 4, 0.2], [2049, 3, 8, 0.41], [146, 2, 4, 0.57], [88, 10, 10, 0.19], [615, 2, 4, 0.87], [9507, 3, 5, 0.2], [145, 2, 4, 0.48], [7036, 1, 4, 1.23], [1446, 2, 4, 0.61], [8853, 2, 4, 1.2], [362, 2, 4, 0.5], [3893, 1, 4, 0.7], [2055, 3, 5, 1.73], [75, 2, 4, 0.9], [417, 2, 4, 0.55], [11737, 2, 5, 0.2], [2050, 3, 4, 1.69], [12870, 1, 4, 0.7], [523, 2, 4, 0.53], [159, 3, 6, 0.24], [2057, 3, 4, 1.78], [142, 2, 4, 0.52], [2991, 3, 4, 1.1], [997, 2, 4, 0.78], [7084, 3, 4, 0.28], [9760, 29, 4, 0.2], [3982, 3, 12, 1.18], [11739, 2, 4, 0.73], [996, 2, 4, 0.55], [6158, 2, 5, 0.2], [998, 2, 4, 0.69], [98, 11, 10, 0.54], [84, 2, 4, 0.4], [9372, 1, 4, 2.31], [7885, 4, 4, 0.4], [10388, 2, 4, 1.08], [8672, 2, 5, 0.73], [972, 3, 4, 2.01], [8898, 3, 4, 3.1], [2912, 1, 4, 0.76], [3980, 4, 4, 1.2], [410, 1, 5, 0.4], [9491, 21, 10, 0.51], [10386, 2, 4, 1.51], [1492, 1, 4, 0.45], [13928, 1, 5, 0.2], [995, 2, 4, 1.16], [22316, 3, 4, 0.51], [22247, 2, 4, 1.1], [8677, 3, 4, 0.9], [3981, 3, 13, 1.15], [308, 1, 5, 0.95], [13893, 2, 4, 1.13], [2912, 2, 5, 1.77], [229, 1, 4, 0.7], [33, 1, 4, 1.83], [10631, 2, 4, 1.98], [11953, 1, 4, 0.47], [11490, 1, 4, 0.55], [35, 1, 4, 1.33], [159, 1, 4, 0.51], [7886, 4, 4, 0.49], [11770, 1, 4, 0.2], [22317, 3, 5, 0.51], [10407, 10, 6, 1.35], [10780, 10, 4, 1.67], [10410, 10, 6, 1.31], [1413, 15, 4, 0.53], [10149, 3, 13, 1.48], [6497, 1, 4, 0.45], [335, 3, 10, 0.39], [9691, 1, 4, 0.89], [74, 1, 5, 0.62], [10387, 2, 4, 0.95], [3478, 2, 4, 1.69], [972, 1, 4, 2.01], [12271, 2, 4, 1.51], [8897, 3, 4, 3.6], [345, 3, 4, 0.51], [9690, 1, 4, 1.09], [9971, 2, 4, 0.69], [159, 16, 4, 0.49], [2331, 1, 4, 0.88], [9082, 3, 18, 0.83], [3048, 3, 4, 0.92], [37, 1, 4, 0.66], [4076, 3, 4, 0.85], [11085, 2, 4, 1.27], [34, 1, 4, 0.43], [23611, 3, 4, 0.42], [7704, 2, 4, 1.64], [12721, 2, 4, 0.97], [11404, 2, 4, 0.43], [1163, 3, 4, 0.59], [20498, 3, 5, 0.99], [1523, 1, 4, 0.8], [11510, 3, 5, 0.5], [10936, 2, 4, 1.7], [45, 2, 4, 0.46], [4001, 3, 7, 1.13], [12764, 2, 5, 0.84], [9965, 2, 4, 0.69], [105, 3, 4, 0.51], [9964, 2, 4, 0.69], [38, 1, 4, 0.66], [215, 4, 4, 0.77], [1895, 3, 4, 0.74], [12858, 1, 4, 0.48], [10408, 10, 5, 1.64], [8635, 3, 4, 1.01], [5812, 3, 4, 0.51], [10411, 10, 5, 1.71], [11738, 2, 4, 0.88], [12212, 29, 4, 0.45], [2805, 137, 5, 0.47], [8659, 1, 4, 1.01], [11812, 1, 4, 0.46], [192, 3, 9, 1.01], [10093, 3, 9, 0.9], [2438, 2, 5, 1.32], [11685, 2, 200, 5.3], [6935, 2, 208, 4.76], [8648, 2, 165, 4.65], [144, 2, 52, 3.47], [2327, 2, 111, 2.93], [589, 2, 113, 2.55], [593, 2, 167, 3.17], [143, 2, 109, 3.38], [205, 2, 38, 2.88], [11681, 2, 200, 5.29], [305, 2, 108, 2.88], [2328, 2, 111, 2.89], [141, 2, 114, 3.53], [6936, 2, 208, 6.0], [151, 1, 35, 1.93], [2778, 2, 115, 3.01], [2049, 3, 406, 2.82], [146, 2, 111, 3.51], [88, 10, 424, 2.78], [615, 2, 80, 3.55], [145, 2, 78, 3.77], [7036, 1, 93, 4.22], [1446, 2, 112, 3.99], [8853, 2, 208, 4.32], [362, 2, 104, 2.86], [3893, 1, 108, 2.83], [2055, 3, 336, 5.36], [75, 2, 127, 3.17], [417, 2, 114, 2.95], [11737, 2, 20, 3.21], [2050, 3, 336, 5.27], [12870, 1, 119, 5.14], [523, 2, 114, 3.0], [159, 3, 249, 3.24], [2057, 3, 336, 5.47], [142, 2, 114, 2.89], [2991, 3, 119, 6.0], [997, 2, 208, 2.94], [7084, 3, 96, 3.38], [9760, 29, 50, 2.81], [3982, 3, 578, 4.3], [11739, 2, 30, 2.61], [996, 2, 208, 2.5], [6158, 2, 194, 3.19], [998, 2, 208, 2.77], [98, 11, 610, 2.85], [9372, 1, 196, 5.89], [10388, 2, 187, 3.58], [8672, 2, 210, 4.63], [8898, 3, 205, 6.0], [2912, 1, 45, 3.77], [3980, 4, 418, 3.8], [9491, 21, 1854, 2.33], [10386, 2, 158, 4.35], [1492, 1, 32, 2.31], [13928, 1, 35, 3.76], [995, 2, 208, 3.67], [22316, 3, 274, 2.42], [22247, 2, 248, 3.56], [8677, 3, 216, 3.67], [3981, 3, 1397, 3.56], [308, 1, 118, 5.23], [13893, 2, 231, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 0.49], [362, 2, 4, 1.2], [589, 2, 6, 0.2], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [130, 1, 4, 0.5], [3, 2, 4, 0.2], [1776, 1, 4, 0.58], [205, 2, 4, 0.56], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [6936, 2, 5, 1.27], [7886, 4, 4, 0.41], [593, 2, 5, 0.36], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [1777, 1, 4, 0.93], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 10, 0.83], [11681, 2, 5, 2.33], [990, 2, 4, 0.2], [8650, 2, 4, 1.15], [5151, 2, 4, 0.9], [412, 1, 4, 0.91], [2050, 3, 5, 0.66], [144, 2, 4, 0.5], [2991, 3, 4, 1.6], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [10149, 3, 15, 1.32], [57, 1, 5, 0.2], [22247, 2, 5, 1.06], [146, 2, 4, 0.56], [2054, 3, 4, 1.36], [45, 2, 4, 1.12], [7004, 1, 4, 0.47], [417, 2, 4, 0.29], [143, 2, 4, 0.46], [201, 3, 5, 0.42], [21793, 1, 4, 1.03], [167, 3, 5, 1.09], [413, 1, 4, 0.35], [2055, 3, 4, 0.94], [168, 3, 5, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [7084, 3, 4, 0.88], [11234, 2, 5, 0.2], [12721, 2, 6, 0.96], [308, 1, 5, 2.44], [10, 2, 4, 0.42], [335, 3, 11, 0.39], [7036, 1, 4, 1.71], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [13028, 3, 4, 0.5], [10825, 21, 8, 0.37], [410, 1, 4, 0.2], [12870, 1, 4, 2.33], [8649, 2, 4, 1.15], [11404, 2, 4, 0.43], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [23, 1, 4, 1.23], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [9827, 3, 4, 0.2], [1504, 2, 5, 0.2], [94, 4, 4, 0.51], [13260, 29, 4, 0.46], [7005, 1, 4, 0.49], [5812, 3, 5, 1.22], [3891, 1, 4, 0.25], [1490, 1, 5, 0.2], [411, 2, 4, 0.56], [25, 1, 4, 0.95], [12353, 1, 5, 0.71], [33, 1, 4, 0.66], [21269, 3, 4, 1.45], [12349, 1, 4, 2.08], [998, 2, 4, 0.69], [5086, 1, 5, 1.11], [9069, 1, 4, 1.62], [7567, 3, 4, 1.62], [229, 1, 4, 2.57], [3980, 4, 4, 1.31], [2878, 1, 5, 0.54], [20927, 1, 4, 0.61], [346, 3, 5, 0.21], [35, 1, 4, 0.46], [1703, 2, 4, 1.38], [9691, 1, 4, 1.4], [5209, 3, 5, 0.19], [997, 2, 4, 0.6], [11914, 1, 4, 0.2], [14037, 3, 4, 0.36], [8274, 3, 4, 1.09], [5584, 3, 4, 0.44], [5660, 2, 5, 1.05], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [159, 3, 6, 0.27], [1519, 3, 12, 0.39], [24, 1, 4, 0.95], [8898, 3, 4, 2.67], [996, 2, 4, 1.21], [1091, 1, 4, 0.2], [23961, 3, 4, 0.5], [1124, 2, 5, 0.46], [13034, 3, 5, 1.26], [9081, 3, 7, 1.28], [12661, 1, 4, 2.1], [952, 4, 4, 2.39], [27, 1, 4, 1.23], [8945, 3, 5, 2.49], [1413, 15, 4, 0.62], [22317, 3, 5, 0.51], [336, 15, 4, 0.2], [10529, 29, 4, 1.44], [9372, 1, 4, 0.39], [1163, 3, 4, 0.47], [12225, 1, 4, 0.58], [9082, 3, 18, 0.67], [6097, 29, 4, 0.59], [4203, 1, 4, 0.53], [9760, 29, 4, 0.45], [66, 16, 4, 0.45], [2109, 3, 9, 0.48], [8635, 3, 4, 0.6], [12346, 1, 4, 1.0], [5811, 3, 4, 0.36], [2104, 3, 6, 1.13], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 508, 2.05], [362, 2, 130, 3.47], [589, 2, 71, 2.46], [141, 2, 123, 2.64], [75, 2, 114, 3.61], [3, 2, 97, 2.47], [1776, 1, 89, 2.72], [205, 2, 50, 1.98], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [6936, 2, 223, 4.33], [7886, 4, 66, 1.79], [593, 2, 180, 2.48], [305, 2, 115, 2.53], [151, 1, 53, 2.46], [1777, 1, 100, 3.38], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [11681, 2, 214, 6.0], [990, 2, 41, 2.81], [8650, 2, 176, 4.9], [5151, 2, 19, 2.89], [412, 1, 66, 3.33], [2050, 3, 373, 2.86], [144, 2, 119, 2.59], [2991, 3, 127, 5.29], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [10149, 3, 676, 4.91], [57, 1, 59, 2.35], [22247, 2, 221, 4.15], [146, 2, 119, 3.84], [45, 2, 85, 4.3], [7004, 1, 55, 1.93], [417, 2, 122, 4.03], [143, 2, 117, 2.5], [201, 3, 235, 4.71], [21793, 1, 190, 5.28], [167, 3, 178, 3.66], [413, 1, 68, 2.39], [2055, 3, 368, 4.35], [168, 3, 321, 3.03], [74, 1, 155, 4.17], [346, 1, 125, 2.46], [11234, 2, 145, 2.91], [12721, 2, 221, 3.58], [308, 1, 132, 6.0], [10, 2, 63, 4.58], [335, 3, 1056, 5.08], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [13028, 3, 116, 2.58], [10825, 21, 505, 2.33], [410, 1, 84, 2.39], [12870, 1, 108, 5.93], [8649, 2, 176, 4.62], [11404, 2, 73, 2.09], [79, 1, 22, 1.5]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.5], [8915, 2, 5, 0.46], [589, 2, 6, 0.2], [2327, 2, 4, 0.52], [2778, 2, 4, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 0.44], [305, 2, 4, 0.45], [615, 2, 4, 0.87], [326, 2, 4, 1.22], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 1.24], [2049, 3, 5, 0.21], [593, 2, 5, 0.4], [143, 2, 4, 0.94], [205, 2, 4, 0.37], [10, 2, 5, 0.92], [144, 2, 4, 1.04], [7036, 1, 4, 1.2], [94, 4, 4, 0.4], [990, 2, 4, 0.27], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [141, 2, 4, 0.39], [12224, 1, 4, 0.46], [3891, 1, 4, 0.2], [362, 2, 4, 0.52], [206, 2, 4, 0.37], [2055, 3, 4, 0.56], [75, 2, 4, 1.24], [5208, 3, 4, 0.46], [3889, 1, 5, 0.25], [7886, 4, 5, 0.44], [10993, 2, 4, 0.6], [11234, 2, 5, 0.75], [2054, 3, 4, 1.0], [7005, 1, 4, 0.58], [12870, 1, 4, 1.68], [7084, 3, 4, 1.07], [3980, 4, 5, 1.21], [10149, 3, 13, 1.21], [145, 2, 4, 1.0], [2050, 3, 4, 0.56], [2912, 1, 4, 0.77], [5165, 1, 4, 1.02], [8672, 2, 4, 1.19], [20927, 1, 4, 1.26], [998, 2, 4, 0.31], [9760, 29, 4, 0.2], [972, 3, 5, 0.51], [3, 2, 4, 0.62], [3495, 3, 11, 0.92], [229, 1, 4, 0.49], [6158, 2, 5, 2.11], [346, 3, 5, 0.21], [5076, 1, 4, 0.47], [5165, 2, 5, 2.06], [142, 2, 4, 0.36], [7887, 4, 4, 0.97], [523, 2, 4, 0.36], [74, 1, 4, 0.99], [9372, 1, 4, 0.59], [11953, 1, 4, 0.2], [11770, 1, 4, 0.2], [1492, 1, 4, 0.2], [12721, 2, 5, 0.96], [9491, 21, 12, 0.22], [3981, 3, 11, 0.23], [2912, 2, 7, 1.61], [2423, 80, 4, 1.97], [11772, 1, 4, 0.46], [6497, 1, 4, 0.41], [5434, 1, 4, 0.83], [7573, 1, 9, 1.95], [5584, 3, 4, 2.8], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [346, 1, 4, 0.43], [335, 3, 9, 0.4], [10388, 2, 4, 1.05], [10407, 10, 7, 1.19], [11179, 1, 4, 0.27], [823, 1, 4, 0.44], [3975, 4, 4, 1.26], [6496, 1, 4, 0.37], [5209, 3, 5, 0.46], [2805, 137, 4, 1.33], [4253, 1, 4, 0.54], [11812, 1, 4, 0.2], [3900, 3, 4, 1.81], [12764, 2, 6, 0.23], [1622, 1, 4, 0.45], [1703, 2, 4, 0.83], [11490, 1, 4, 0.46], [8676, 2, 4, 0.97], [972, 1, 4, 1.01], [13893, 2, 4, 1.17], [22247, 2, 4, 1.64], [412, 1, 4, 0.64], [6097, 80, 4, 0.76], [2991, 3, 4, 1.37], [10386, 2, 4, 1.79], [11814, 1, 4, 0.48], [7567, 3, 4, 1.08], [6805, 1, 4, 0.51], [10410, 10, 9, 1.31], [8635, 3, 4, 0.87], [1274, 1, 4, 0.48], [37, 1, 4, 1.04], [788, 2, 4, 0.47], [8283, 2, 5, 0.68], [10408, 10, 5, 1.84], [389, 4, 4, 1.46], [8104, 1, 4, 1.09], [12212, 29, 4, 0.47], [35, 1, 4, 1.04], [23611, 3, 5, 0.42], [114, 3, 4, 1.03], [1895, 3, 4, 1.24], [76, 2, 4, 0.47], [95, 3, 12, 0.42], [38, 1, 4, 0.66], [12979, 25, 7, 0.71], [3979, 3, 8, 0.42], [10385, 2, 4, 0.52], [12501, 1, 4, 1.24], [220, 4, 4, 0.44], [8274, 3, 4, 0.87], [4232, 80, 4, 1.82], [24257, 1, 4, 0.48], [5435, 1, 4, 0.69], [9690, 1, 4, 0.47], [8659, 1, 4, 0.41], [440, 3, 4, 0.75], [88, 10, 467, 4.23], [8915, 2, 188, 2.44], [589, 2, 127, 3.01], [2327, 2, 125, 3.09], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 107, 2.48], [305, 2, 122, 2.96], [615, 2, 72, 5.14], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 50, 3.79], [2049, 3, 181, 2.85], [593, 2, 189, 3.07], [143, 2, 123, 3.44], [205, 2, 89, 2.31], [10, 2, 29, 4.53], [144, 2, 123, 3.56], [7036, 1, 107, 5.16], [94, 4, 100, 4.24], [3893, 1, 104, 2.85], [146, 2, 125, 3.69], [141, 2, 130, 2.86], [12224, 1, 109, 2.36], [3891, 1, 104, 2.9], [362, 2, 118, 3.09], [206, 2, 36, 1.72], [2055, 3, 158, 2.07], [75, 2, 143, 4.02], [3889, 1, 104, 3.51], [11234, 2, 152, 4.44], [7005, 1, 23, 3.47], [12870, 1, 114, 5.33], [7084, 3, 109, 3.69], [3980, 4, 473, 4.02], [10149, 3, 735, 4.24], [145, 2, 125, 3.56], [2050, 3, 158, 2.07], [2912, 1, 50, 3.46], [5165, 1, 49, 4.13], [8672, 2, 234, 5.75], [998, 2, 198, 3.64], [9760, 29, 60, 3.37], [972, 3, 493, 3.68], [3, 2, 119, 3.46], [3495, 3, 795, 3.74], [229, 1, 70, 3.03], [6158, 2, 211, 6.0], [346, 3, 525, 2.95], [5076, 1, 108, 3.0], [5165, 2, 314, 5.26], [142, 2, 129, 2.79], [523, 2, 129, 2.79], [74, 1, 192, 4.96], [9372, 1, 226, 4.71], [11953, 1, 165, 3.14], [11770, 1, 181, 3.35], [1492, 1, 31, 3.11], [12721, 2, 233, 4.06], [9491, 21, 1763, 3.05]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [615, 2, 4, 0.37], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [6936, 2, 5, 1.35], [205, 2, 4, 0.51], [130, 1, 4, 0.2], [144, 2, 4, 0.47], [8648, 2, 4, 0.96], [2049, 3, 8, 0.41], [88, 10, 10, 0.19], [7036, 1, 4, 1.23], [326, 2, 4, 0.7], [589, 2, 5, 0.2], [8650, 2, 5, 0.96], [593, 2, 4, 0.52], [11681, 2, 5, 1.37], [2327, 2, 5, 0.54], [3893, 1, 4, 0.2], [141, 2, 4, 0.53], [151, 1, 4, 0.9], [9507, 3, 4, 0.2], [11685, 2, 4, 1.37], [248, 1, 4, 0.41], [146, 2, 4, 1.07], [2050, 3, 5, 1.69], [2055, 3, 4, 1.73], [143, 2, 4, 0.51], [3980, 4, 5, 1.2], [2054, 3, 5, 1.86], [8672, 2, 4, 0.73], [7885, 4, 4, 0.4], [362, 2, 4, 0.2], [12870, 1, 4, 0.92], [2057, 3, 4, 1.78], [7886, 4, 5, 0.4], [13028, 3, 4, 0.62], [145, 2, 4, 1.03], [7084, 3, 4, 0.28], [3495, 3, 13, 0.92], [523, 2, 4, 0.53], [3975, 4, 4, 1.26], [2991, 3, 5, 1.1], [10149, 3, 13, 1.48], [9760, 29, 4, 0.2], [11404, 2, 4, 0.2], [20927, 1, 4, 1.17], [142, 2, 4, 0.52], [3982, 3, 11, 1.18], [3981, 3, 15, 1.15], [6158, 2, 5, 0.68], [417, 2, 4, 0.55], [214, 3, 9, 0.4], [2912, 1, 4, 1.58], [11953, 1, 4, 0.47], [997, 2, 4, 1.68], [22316, 3, 4, 0.51], [33, 1, 4, 1.83], [229, 1, 4, 0.7], [7887, 4, 5, 0.95], [6497, 1, 4, 1.31], [1492, 1, 5, 0.46], [346, 3, 4, 0.46], [998, 2, 4, 1.17], [972, 3, 4, 1.51], [996, 2, 5, 1.47], [35, 1, 4, 1.83], [389, 4, 5, 0.88], [410, 1, 5, 0.4], [11770, 1, 4, 0.2], [2912, 2, 5, 1.26], [336, 15, 4, 0.37], [7567, 3, 4, 1.47], [74, 1, 4, 0.62], [2104, 3, 6, 0.4], [1413, 15, 4, 0.53], [6496, 1, 4, 0.55], [12721, 2, 4, 0.97], [12212, 29, 4, 0.45], [22317, 3, 5, 0.51], [4176, 4, 4, 1.31], [8673, 2, 4, 2.14], [8677, 3, 4, 0.9], [8676, 2, 4, 0.73], [11085, 2, 5, 1.27], [37, 1, 4, 0.66], [1274, 1, 4, 0.53], [21269, 3, 4, 2.99], [22247, 2, 4, 1.64], [7573, 1, 5, 0.97], [13023, 3, 4, 1.26], [9372, 1, 4, 2.31], [39, 1, 4, 0.51], [823, 1, 4, 0.48], [10388, 2, 4, 1.14], [6494, 1, 4, 0.45], [345, 3, 4, 0.51], [201, 3, 4, 0.51], [12271, 2, 4, 0.7], [10936, 2, 4, 1.7], [96, 11, 13, 1.09], [10408, 10, 5, 1.64], [3577, 25, 4, 0.59], [12225, 1, 4, 0.84], [3, 2, 4, 0.96], [10631, 2, 4, 1.98], [2805, 137, 5, 0.47], [11812, 1, 4, 0.46], [9691, 1, 4, 0.75], [1490, 1, 4, 1.08], [1414, 15, 4, 0.53], [20498, 3, 5, 0.99], [23961, 3, 4, 1.48], [36, 1, 4, 0.66], [192, 3, 9, 1.01], [9690, 1, 4, 1.09], [12764, 2, 5, 0.84], [10386, 2, 4, 0.99], [13928, 1, 4, 0.55], [346, 1, 4, 0.55], [3048, 3, 4, 0.92], [8898, 3, 4, 0.71], [10407, 10, 6, 1.35], [3576, 25, 4, 0.75], [11814, 1, 4, 0.48], [13893, 2, 4, 1.13], [11089, 1, 4, 0.44], [972, 1, 4, 0.5], [1339, 3, 9, 0.42], [5812, 3, 4, 0.51], [10939, 2, 4, 1.93], [1523, 1, 4, 0.8], [1163, 3, 4, 0.59], [491, 10, 5, 1.18], [13035, 3, 4, 1.32], [19931, 1, 4, 1.26], [2878, 1, 4, 0.39], [8659, 1, 4, 1.01], [6935, 2, 208, 4.76], [615, 2, 99, 2.62], [305, 2, 108, 2.88], [2778, 2, 115, 3.01], [6936, 2, 208, 5.14], [205, 2, 80, 2.88], [144, 2, 111, 2.81], [8648, 2, 165, 4.65], [2049, 3, 406, 2.82], [88, 10, 424, 2.78], [7036, 1, 93, 4.22], [589, 2, 113, 2.55], [8650, 2, 165, 4.42], [593, 2, 167, 3.17], [11681, 2, 200, 5.29], [2327, 2, 111, 2.93], [3893, 1, 114, 2.19], [141, 2, 114, 3.53], [11685, 2, 200, 5.3], [248, 1, 19, 1.69], [146, 2, 111, 3.51], [2050, 3, 336, 5.27], [2055, 3, 336, 5.36], [143, 2, 109, 2.89], [3980, 4, 353, 4.3], [2054, 3, 336, 5.61], [8672, 2, 210, 4.63], [362, 2, 104, 2.86], [12870, 1, 100, 5.66], [2057, 3, 336, 5.47], [13028, 3, 127, 2.69], [145, 2, 111, 3.43], [7084, 3, 96, 3.38], [3495, 3, 836, 3.08], [523, 2, 114, 3.0], [3975, 4, 353, 4.43], [2991, 3, 119, 6.0], [10149, 3, 755, 4.09], [9760, 29, 53, 2.81], [11404, 2, 73, 2.67], [20927, 1, 27, 3.72], [142, 2, 114, 2.89], [3982, 3, 578, 4.3], [3981, 3, 1179, 3.95], [6158, 2, 183, 3.19], [417, 2, 114, 2.95], [214, 3, 228, 1.63], [2912, 1, 41, 4.55], [11953, 1, 176, 2.34], [997, 2, 83, 6.0], [22316, 3, 274, 2.42], [229, 1, 72, 2.8], [6497, 1, 13, 4.36], [1492, 1, 13, 3.71], [346, 3, 537, 2.34], [996, 2, 165, 5.53], [389, 4, 153, 3.71], [11770, 1, 160, 2.79], [2912, 2, 284, 4.23], [336, 15, 93, 2.72], [74, 1, 148, 3.75], [1413, 15, 35, 2.02]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 0.96], [5491, 2, 4, 0.2], [362, 2, 4, 0.2], [130, 1, 4, 0.45], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [326, 2, 4, 1.12], [8672, 2, 5, 0.91], [417, 2, 4, 0.2], [6935, 2, 8, 1.31], [206, 2, 4, 0.2], [6936, 2, 4, 1.09], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [2049, 3, 9, 0.39], [1446, 2, 4, 0.44], [2778, 2, 5, 0.47], [523, 2, 4, 0.66], [8676, 2, 4, 0.52], [305, 2, 4, 0.98], [411, 2, 4, 0.43], [10574, 3, 6, 1.26], [12349, 1, 4, 0.53], [145, 2, 5, 0.49], [8675, 2, 5, 1.23], [990, 2, 5, 0.4], [76, 2, 4, 0.84], [143, 2, 4, 0.48], [8673, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.51], [6158, 2, 6, 0.83], [151, 1, 4, 0.4], [3495, 3, 13, 0.98], [2050, 3, 5, 0.34], [10149, 3, 13, 1.38], [2055, 3, 4, 0.41], [12350, 1, 4, 0.53], [2054, 3, 5, 0.51], [75, 2, 4, 1.67], [144, 2, 4, 0.5], [7885, 4, 5, 0.44], [2859, 15, 4, 0.35], [88, 10, 8, 0.95], [10993, 2, 5, 0.2], [3848, 2, 4, 1.07], [7705, 2, 4, 1.15], [2423, 80, 4, 1.96], [2424, 29, 4, 1.0], [2423, 29, 4, 0.52], [12351, 1, 4, 0.44], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1519, 3, 10, 0.39], [201, 3, 4, 1.01], [1414, 15, 4, 0.35], [12373, 1, 5, 0.45], [345, 3, 4, 1.04], [5208, 3, 8, 0.48], [6952, 1, 4, 0.45], [20927, 1, 4, 0.98], [11954, 1, 4, 0.44], [432, 3, 5, 2.04], [3, 2, 4, 1.52], [3430, 15, 4, 1.08], [7004, 1, 4, 1.02], [7886, 4, 5, 0.44], [11811, 1, 4, 0.38], [2703, 3, 4, 1.65], [13928, 1, 4, 0.2], [2331, 1, 4, 0.6], [114, 3, 4, 0.41], [3429, 15, 4, 0.49], [11089, 1, 4, 0.43], [105, 3, 4, 0.41], [5584, 3, 4, 2.72], [3981, 3, 8, 0.51], [944, 15, 4, 0.4], [308, 1, 5, 0.99], [7706, 2, 4, 1.05], [10407, 10, 6, 1.31], [8274, 3, 4, 2.02], [1886, 2, 4, 0.35], [1490, 1, 4, 0.79], [10410, 10, 6, 1.9], [22317, 3, 6, 0.2], [94, 4, 4, 0.79], [3891, 1, 4, 0.74], [3893, 1, 4, 0.94], [8898, 3, 4, 1.99], [9690, 1, 4, 0.91], [9082, 3, 15, 0.83], [7708, 2, 4, 1.05], [3028, 3, 4, 0.43], [6497, 1, 4, 0.44], [9342, 2, 5, 0.49], [10409, 10, 6, 1.67], [10406, 10, 7, 1.73], [1274, 1, 4, 1.24], [952, 4, 4, 2.22], [20196, 2, 4, 0.72], [823, 1, 4, 1.8], [21003, 2, 4, 0.72], [10897, 1, 8, 0.47], [10408, 10, 6, 1.66], [20682, 1, 4, 1.05], [10398, 2, 4, 1.72], [5812, 3, 4, 1.51], [5946, 1, 4, 1.47], [13928, 2, 4, 0.55], [11677, 1, 4, 1.16], [4253, 1, 4, 0.73], [957, 2, 4, 0.48], [6630, 3, 4, 1.81], [7703, 2, 4, 1.05], [186, 3, 7, 0.52], [20680, 1, 4, 0.69], [95, 3, 8, 0.72], [963, 3, 4, 0.93], [20555, 2, 4, 0.44], [8635, 3, 4, 2.02], [2438, 2, 5, 1.36], [2805, 137, 5, 2.77], [1050, 2, 4, 0.36], [8897, 3, 4, 1.97], [3478, 2, 4, 1.28], [3980, 4, 4, 1.26], [3889, 1, 4, 0.94], [11603, 2, 4, 1.5], [9068, 1, 4, 1.56], [5811, 3, 5, 1.81], [9, 1, 4, 0.39], [11812, 1, 4, 0.46], [9491, 21, 10, 1.24], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 4.6], [5491, 2, 92, 3.39], [362, 2, 122, 3.23], [589, 2, 51, 3.23], [2327, 2, 128, 4.11], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 240, 6.0], [6936, 2, 240, 4.86], [142, 2, 133, 3.33], [11838, 2, 227, 3.3], [12721, 2, 241, 3.74], [2049, 3, 276, 2.99], [1446, 2, 52, 1.92], [2778, 2, 159, 3.12], [523, 2, 79, 3.51], [8676, 2, 289, 2.78], [305, 2, 74, 3.31], [411, 2, 37, 1.9], [10574, 3, 425, 4.77], [12349, 1, 626, 2.79], [145, 2, 128, 3.91], [8675, 2, 244, 4.22], [76, 2, 110, 3.4], [143, 2, 149, 2.7], [8673, 2, 287, 4.69], [11836, 2, 227, 3.14], [146, 2, 151, 4.46], [6158, 2, 221, 4.94], [151, 1, 56, 2.56], [3495, 3, 816, 4.03], [2050, 3, 410, 2.42], [10149, 3, 760, 4.24], [12350, 1, 626, 2.79], [2054, 3, 161, 2.47], [75, 2, 122, 4.99], [144, 2, 50, 3.7], [2859, 15, 69, 3.38], [88, 10, 563, 3.87], [3848, 2, 168, 3.84], [7705, 2, 149, 4.56], [2423, 80, 123, 6.0], [2424, 29, 29, 6.0], [2423, 29, 37, 3.28], [12351, 1, 626, 2.62], [2424, 80, 167, 6.0], [60, 3, 536, 5.12], [1519, 3, 1416, 2.82], [201, 3, 253, 4.95], [1414, 15, 100, 2.45], [12373, 1, 535, 4.76], [345, 3, 302, 3.77], [5208, 3, 190, 1.94], [6952, 1, 191, 2.75], [11954, 1, 202, 2.63], [432, 3, 101, 6.0], [3, 2, 120, 4.71], [3430, 15, 69, 3.86], [7886, 4, 48, 2.73], [11811, 1, 453, 3.71]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.8], [6936, 2, 4, 1.17], [305, 2, 4, 0.48], [8672, 2, 5, 0.91], [615, 2, 4, 0.2], [1504, 2, 5, 0.58], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [146, 2, 5, 0.62], [143, 2, 4, 1.01], [2328, 2, 4, 0.51], [11737, 2, 4, 0.54], [141, 2, 4, 0.55], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [144, 2, 5, 0.53], [8650, 2, 4, 1.53], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [417, 2, 4, 0.47], [589, 2, 5, 0.2], [3, 2, 4, 0.66], [206, 2, 4, 0.2], [22247, 2, 4, 1.21], [6097, 80, 5, 1.86], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [2055, 3, 4, 0.46], [990, 2, 4, 0.27], [12344, 1, 5, 0.7], [523, 2, 4, 0.66], [593, 2, 5, 0.2], [6097, 29, 4, 2.36], [6098, 80, 4, 2.59], [12345, 1, 4, 2.03], [11739, 2, 4, 0.54], [88, 10, 8, 0.19], [2054, 3, 4, 0.62], [8915, 2, 4, 0.41], [75, 2, 4, 0.47], [326, 2, 4, 0.41], [60, 3, 6, 0.85], [1492, 1, 4, 0.72], [1413, 15, 5, 0.2], [411, 2, 4, 0.37], [1050, 2, 4, 0.38], [6496, 1, 4, 1.05], [6098, 29, 4, 2.59], [947, 15, 4, 0.44], [7704, 2, 4, 1.05], [10149, 3, 13, 1.48], [345, 3, 4, 0.76], [2859, 15, 4, 0.47], [11738, 2, 4, 0.54], [1243, 2, 4, 1.11], [13264, 29, 4, 0.52], [1049, 2, 4, 0.38], [1490, 1, 4, 0.36], [229, 1, 4, 2.07], [964, 15, 4, 0.4], [7004, 1, 4, 0.81], [201, 3, 5, 0.51], [2331, 1, 4, 0.52], [10407, 10, 6, 1.31], [186, 3, 7, 0.67], [5208, 3, 8, 0.54], [22558, 3, 5, 0.2], [114, 3, 4, 1.12], [432, 3, 4, 2.04], [1163, 3, 4, 1.45], [7705, 2, 4, 1.05], [957, 2, 5, 0.51], [7706, 2, 4, 1.05], [12229, 2, 4, 0.45], [13928, 1, 4, 0.55], [2421, 80, 4, 1.08], [3478, 2, 4, 1.28], [11404, 2, 4, 0.43], [10408, 10, 6, 1.66], [10406, 10, 7, 1.73], [7036, 1, 4, 0.43], [19687, 1, 4, 0.7], [11687, 2, 4, 0.5], [10410, 10, 6, 1.9], [12870, 1, 4, 0.94], [11490, 1, 4, 0.55], [1886, 2, 4, 0.35], [9784, 1, 4, 1.01], [410, 1, 4, 0.61], [11159, 1, 7, 0.84], [22125, 2, 4, 0.36], [2703, 3, 4, 1.65], [21781, 2, 4, 0.47], [11161, 1, 5, 1.22], [9760, 29, 4, 0.85], [956, 2, 4, 0.53], [7708, 2, 4, 1.05], [12373, 1, 5, 0.45], [9065, 2, 4, 0.48], [5976, 1, 4, 1.98], [94, 4, 4, 0.6], [11689, 2, 4, 0.47], [105, 3, 4, 0.83], [8599, 1, 4, 0.39], [1274, 1, 4, 1.91], [2805, 137, 5, 0.52], [9372, 1, 4, 1.74], [9209, 29, 4, 0.54], [11953, 1, 4, 0.47], [5584, 3, 4, 2.72], [11811, 1, 4, 0.38], [4253, 1, 4, 0.73], [11160, 1, 4, 1.31], [8600, 1, 4, 0.98], [3495, 3, 13, 0.85], [247, 1, 4, 0.8], [2991, 3, 4, 2.31], [8283, 2, 5, 0.36], [21269, 3, 4, 1.6], [12764, 2, 5, 0.84], [20927, 1, 4, 0.7], [8285, 2, 5, 0.49], [11887, 2, 5, 0.57], [1691, 1, 4, 1.33], [20555, 2, 4, 0.47], [9491, 21, 10, 1.69], [5076, 1, 4, 1.12], [11677, 1, 4, 1.16], [4372, 1, 4, 0.5], [3934, 5, 5, 0.56], [12304, 1, 4, 1.36], [8635, 3, 4, 0.87], [12979, 25, 9, 0.71], [13198, 29, 4, 1.27], [3230, 1, 4, 0.43], [2778, 2, 156, 2.86], [6935, 2, 237, 6.0], [6936, 2, 284, 4.68], [305, 2, 125, 3.24], [8672, 2, 244, 4.19], [615, 2, 107, 3.51], [1504, 2, 173, 3.63], [145, 2, 128, 3.19], [12721, 2, 240, 3.97], [2327, 2, 128, 4.11], [146, 2, 128, 3.92], [143, 2, 126, 3.72], [2328, 2, 128, 4.14], [11737, 2, 19, 2.58], [141, 2, 104, 3.85], [5491, 2, 92, 3.31], [205, 2, 37, 3.03], [144, 2, 101, 3.71], [8650, 2, 191, 6.0], [8676, 2, 244, 3.38], [8673, 2, 244, 5.23], [417, 2, 78, 3.67], [3, 2, 103, 3.49], [206, 2, 37, 3.03], [22247, 2, 240, 4.52], [6097, 80, 57, 5.71], [6497, 1, 33, 3.13], [11836, 2, 227, 3.22], [2055, 3, 410, 2.78], [990, 2, 29, 3.34], [12344, 1, 522, 3.81], [523, 2, 133, 3.51], [593, 2, 154, 3.17], [6097, 29, 29, 6.0], [12345, 1, 613, 5.7], [11739, 2, 58, 2.82], [88, 10, 477, 4.8], [2054, 3, 241, 2.61], [8915, 2, 65, 1.86], [75, 2, 145, 2.68], [326, 2, 92, 2.63], [60, 3, 692, 3.78], [1492, 1, 37, 3.17], [411, 2, 73, 3.03], [6496, 1, 40, 3.85], [947, 15, 42, 2.63], [7704, 2, 178, 4.4], [10149, 3, 876, 4.41], [345, 3, 301, 3.99], [2859, 15, 69, 3.48], [11738, 2, 38, 2.94], [1243, 2, 100, 3.92], [13264, 29, 73, 2.78], [1490, 1, 44, 2.94], [229, 1, 82, 5.76], [7004, 1, 27, 2.63], [201, 3, 201, 4.91], [2331, 1, 119, 2.78], [10407, 10, 1171, 5.03], [186, 3, 664, 3.3], [5208, 3, 377, 2.58], [22558, 3, 408, 3.51], [114, 3, 122, 4.04]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [1504, 2, 5, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [8650, 2, 4, 1.27], [8648, 2, 4, 0.88], [2328, 2, 4, 0.64], [2776, 2, 5, 0.2], [11739, 2, 4, 0.68], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [12352, 1, 4, 2.07], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 0.7], [146, 2, 4, 1.12], [11835, 2, 4, 0.49], [6497, 1, 5, 0.2], [583, 2, 4, 1.16], [6097, 80, 4, 2.11], [326, 2, 4, 0.41], [10574, 3, 5, 1.75], [145, 2, 4, 0.57], [144, 2, 4, 0.57], [10149, 3, 13, 0.39], [11836, 2, 4, 0.54], [6097, 29, 4, 0.66], [75, 2, 5, 0.49], [12344, 1, 4, 1.35], [1413, 15, 4, 0.46], [6496, 1, 5, 0.2], [1243, 2, 4, 0.73], [6098, 80, 4, 2.59], [8915, 2, 5, 0.2], [1886, 2, 5, 0.2], [247, 1, 4, 2.06], [6098, 29, 4, 0.83], [944, 15, 4, 0.2], [1490, 1, 4, 0.47], [2859, 15, 4, 0.71], [3934, 5, 6, 0.2], [2049, 1, 4, 0.2], [201, 3, 4, 0.44], [6158, 2, 5, 1.77], [3478, 2, 4, 1.28], [12350, 1, 4, 2.03], [11489, 1, 4, 0.72], [13928, 1, 4, 0.55], [7084, 3, 4, 2.46], [1703, 2, 4, 0.75], [8599, 1, 4, 0.37], [9342, 2, 5, 0.49], [4253, 1, 4, 0.73], [3982, 3, 12, 0.36], [308, 1, 5, 0.79], [186, 3, 7, 0.52], [11887, 2, 5, 0.57], [11885, 2, 4, 0.51], [94, 4, 4, 0.48], [2438, 2, 5, 1.36], [11811, 1, 4, 0.38], [11490, 1, 4, 0.48], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5812, 3, 4, 2.0], [229, 1, 4, 1.18], [2821, 3, 8, 0.5], [4232, 80, 4, 0.69], [5939, 3, 4, 0.59], [11671, 1, 4, 0.42], [5813, 3, 5, 2.0], [3495, 3, 13, 0.85], [5811, 3, 6, 0.98], [8898, 3, 4, 3.26], [12764, 2, 5, 0.84], [3980, 4, 4, 1.26], [7036, 1, 4, 0.43], [2108, 3, 6, 0.54], [1049, 2, 4, 0.36], [105, 3, 4, 0.94], [13928, 2, 4, 0.55], [9690, 1, 4, 0.99], [5584, 3, 4, 2.72], [8274, 3, 4, 2.02], [22573, 2, 4, 0.99], [3981, 3, 8, 0.51], [1523, 1, 4, 0.72], [11886, 2, 4, 0.75], [10407, 10, 6, 1.31], [192, 3, 7, 1.24], [1277, 1, 4, 0.47], [8897, 3, 4, 3.26], [10124, 1, 4, 2.17], [2991, 3, 4, 1.5], [10406, 10, 7, 1.73], [20927, 1, 4, 0.64], [10147, 1, 4, 0.37], [11677, 1, 4, 1.16], [3334, 5, 4, 0.46], [2438, 1, 4, 1.31], [8635, 3, 4, 2.02], [11678, 1, 4, 1.62], [1701, 2, 4, 0.55], [23275, 2, 4, 0.99], [7004, 1, 4, 0.74], [4001, 3, 6, 0.53], [23031, 3, 4, 1.37], [9373, 5, 4, 4.0], [1274, 1, 4, 1.97], [10516, 3, 5, 0.86], [5976, 1, 4, 1.98], [10181, 26, 5, 0.53], [3984, 3, 5, 0.51], [9065, 2, 4, 0.48], [14041, 3, 4, 0.45], [8285, 2, 5, 0.49], [973, 3, 5, 0.65], [7005, 1, 4, 0.74], [19924, 2, 4, 0.95], [9069, 1, 4, 1.09], [10409, 10, 6, 1.67], [11812, 1, 4, 0.46], [1648, 1, 4, 1.04], [8188, 10, 6, 0.86], [12241, 3, 4, 0.38], [942, 3, 4, 0.75], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.08], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 125, 3.17], [22247, 2, 242, 4.11], [523, 2, 133, 3.51], [8650, 2, 192, 4.43], [8648, 2, 192, 4.3], [2328, 2, 152, 3.55], [2776, 2, 134, 3.17], [11739, 2, 19, 2.38], [2327, 2, 152, 3.26], [11837, 2, 269, 2.65], [12352, 1, 522, 5.76], [411, 2, 37, 2.98], [143, 2, 149, 3.13], [146, 2, 128, 3.94], [11835, 2, 269, 2.72], [6497, 1, 33, 3.13], [6097, 80, 56, 5.84], [326, 2, 92, 2.63], [10574, 3, 425, 5.26], [145, 2, 50, 3.88], [10149, 3, 760, 3.82], [11836, 2, 269, 2.82], [6097, 29, 34, 3.05], [75, 2, 123, 4.17], [12344, 1, 613, 4.37], [1413, 15, 100, 2.67], [6496, 1, 35, 3.85], [1243, 2, 101, 3.19], [1886, 2, 133, 3.21], [247, 1, 87, 5.75], [6098, 29, 38, 3.99], [944, 15, 15, 3.15], [1490, 1, 51, 2.68], [2859, 15, 59, 3.59], [3934, 5, 496, 3.22], [2049, 1, 36, 2.86], [201, 3, 307, 2.63], [12350, 1, 613, 5.7], [13928, 1, 47, 4.68], [1703, 2, 139, 3.82], [8599, 1, 146, 3.14], [9342, 2, 156, 1.93], [4253, 1, 173, 3.19], [3982, 3, 821, 2.44], [308, 1, 174, 3.69], [186, 3, 668, 2.76], [11887, 2, 193, 2.78], [11885, 2, 193, 2.76], [94, 4, 124, 2.7], [2438, 2, 629, 5.11]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.2], [6935, 2, 7, 0.97], [2328, 2, 4, 0.2], [130, 1, 4, 0.2], [141, 2, 5, 0.48], [8650, 2, 4, 0.46], [8672, 2, 6, 0.2], [2327, 2, 4, 0.2], [362, 2, 4, 1.09], [6936, 2, 4, 1.26], [143, 2, 5, 0.51], [145, 2, 4, 0.5], [248, 1, 4, 0.36], [205, 2, 4, 0.37], [5493, 2, 4, 0.85], [417, 2, 4, 0.54], [146, 2, 4, 0.57], [75, 2, 5, 0.97], [11737, 2, 4, 0.58], [1124, 2, 6, 0.32], [523, 2, 5, 0.2], [2049, 3, 10, 0.21], [12721, 2, 5, 0.48], [1005, 2, 4, 0.2], [8853, 2, 4, 1.46], [206, 2, 4, 0.37], [326, 2, 5, 0.85], [8673, 2, 5, 0.2], [8915, 2, 5, 0.89], [144, 2, 4, 0.46], [11835, 2, 4, 0.36], [11739, 2, 5, 1.39], [88, 10, 8, 0.19], [434, 2, 5, 0.55], [142, 2, 5, 0.2], [151, 1, 4, 1.01], [435, 2, 4, 0.53], [8676, 2, 5, 0.7], [11234, 2, 4, 0.63], [6158, 2, 5, 0.2], [11738, 2, 4, 0.58], [11836, 2, 4, 0.47], [1413, 15, 4, 0.2], [7705, 2, 4, 1.65], [10574, 3, 6, 1.26], [944, 15, 4, 0.4], [7706, 2, 4, 1.65], [3, 2, 4, 1.04], [2054, 3, 4, 0.65], [2859, 15, 4, 1.37], [12720, 2, 4, 0.98], [74, 1, 4, 1.69], [3478, 2, 4, 1.78], [2055, 3, 4, 0.46], [10149, 3, 13, 0.75], [3429, 15, 4, 0.45], [6497, 1, 4, 0.44], [7004, 1, 4, 1.06], [60, 3, 5, 1.7], [411, 2, 4, 0.37], [11089, 1, 4, 0.41], [13928, 1, 4, 0.55], [2057, 3, 4, 0.65], [13028, 3, 4, 0.37], [7036, 1, 4, 0.43], [18964, 1, 4, 0.2], [6097, 80, 5, 3.8], [13260, 29, 4, 1.17], [8274, 3, 4, 0.58], [3893, 1, 5, 2.08], [13034, 3, 5, 1.15], [14037, 3, 4, 0.96], [94, 4, 5, 1.77], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [7707, 2, 4, 0.75], [1243, 2, 4, 0.95], [21793, 1, 5, 1.44], [1490, 1, 4, 0.79], [3889, 1, 5, 2.08], [11490, 1, 4, 0.74], [22317, 3, 6, 0.2], [7708, 2, 4, 1.05], [345, 3, 4, 1.26], [6098, 80, 5, 2.21], [7703, 2, 4, 1.05], [229, 1, 4, 2.07], [3495, 3, 13, 0.85], [6630, 3, 4, 2.4], [2991, 3, 4, 2.17], [13023, 3, 6, 0.57], [336, 15, 4, 0.38], [2805, 137, 5, 0.48], [11581, 29, 4, 0.87], [6098, 29, 4, 0.83], [6627, 3, 4, 0.44], [23275, 2, 4, 0.99], [13033, 3, 4, 0.69], [2331, 1, 4, 0.64], [13263, 29, 4, 0.43], [1049, 2, 4, 0.36], [247, 1, 4, 1.62], [1274, 1, 4, 1.5], [8635, 3, 4, 0.61], [6628, 3, 4, 0.47], [6097, 29, 4, 0.59], [114, 3, 4, 1.23], [5940, 3, 4, 0.45], [12229, 2, 4, 0.45], [20555, 2, 4, 0.39], [942, 3, 4, 0.75], [6496, 1, 4, 1.05], [11914, 1, 4, 0.41], [10406, 10, 7, 1.73], [8898, 3, 4, 0.48], [9372, 1, 4, 1.74], [192, 3, 7, 1.24], [10411, 10, 6, 1.74], [215, 4, 4, 1.55], [21269, 3, 4, 0.5], [3934, 5, 5, 0.56], [9760, 29, 4, 1.46], [186, 3, 7, 1.23], [11770, 1, 4, 1.07], [10407, 10, 6, 1.31], [5209, 3, 5, 0.54], [12373, 1, 5, 0.45], [10527, 3, 8, 1.0], [10408, 10, 6, 1.66], [5812, 3, 4, 0.5], [6360, 10, 9, 0.83], [21781, 2, 4, 0.47], [4940, 1, 4, 0.37], [7005, 1, 4, 0.81], [9082, 3, 15, 0.83], [12870, 1, 4, 1.74], [1886, 2, 4, 0.44], [19687, 1, 4, 1.21], [305, 2, 146, 2.67], [6935, 2, 239, 6.0], [2328, 2, 128, 4.14], [141, 2, 133, 3.16], [8650, 2, 225, 4.1], [8672, 2, 244, 4.72], [2327, 2, 128, 4.11], [6936, 2, 239, 5.25], [143, 2, 126, 3.22], [145, 2, 129, 3.21], [205, 2, 37, 3.03], [5493, 2, 92, 3.84], [417, 2, 157, 2.82], [146, 2, 129, 3.32], [75, 2, 124, 4.07], [11737, 2, 19, 2.63], [1124, 2, 157, 4.02], [523, 2, 78, 3.51], [2049, 3, 186, 3.28], [12721, 2, 241, 3.74], [1005, 2, 90, 4.26], [8853, 2, 239, 5.16], [206, 2, 37, 3.03], [326, 2, 31, 4.01], [8673, 2, 245, 4.98], [144, 2, 129, 3.13], [11835, 2, 269, 2.47], [88, 10, 477, 4.8], [434, 2, 36, 3.57], [142, 2, 133, 3.33], [435, 2, 36, 3.26], [8676, 2, 244, 3.57], [11234, 2, 62, 2.63], [6158, 2, 222, 4.29], [11738, 2, 38, 2.99], [11836, 2, 227, 3.14], [1413, 15, 50, 3.27], [7705, 2, 148, 4.89], [10574, 3, 425, 4.78], [944, 15, 15, 1.84], [7706, 2, 148, 4.89], [3, 2, 102, 4.23], [12720, 2, 241, 3.74], [74, 1, 170, 6.0], [2055, 3, 408, 2.76], [10149, 3, 883, 3.28], [3429, 15, 27, 2.29], [6497, 1, 38, 2.63], [60, 3, 405, 4.38], [411, 2, 55, 3.03], [11089, 1, 148, 3.03], [13928, 1, 47, 4.68], [2057, 3, 481, 3.02], [13028, 3, 147, 3.74], [7036, 1, 129, 3.52], [18964, 1, 57, 2.59], [6097, 80, 23, 6.0], [13260, 29, 62, 4.03], [3893, 1, 41, 6.0], [13034, 3, 597, 4.06], [6952, 1, 160, 4.84]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.44], [2327, 2, 4, 0.64], [362, 2, 4, 0.56], [8648, 2, 4, 1.58], [11681, 2, 10, 0.85], [8650, 2, 4, 1.58], [326, 2, 4, 0.47], [205, 2, 4, 0.46], [1446, 2, 4, 0.2], [2328, 2, 4, 0.39], [305, 2, 4, 1.0], [2049, 3, 5, 0.45], [130, 1, 4, 0.45], [2775, 2, 4, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [593, 2, 5, 0.2], [143, 2, 4, 0.51], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [523, 2, 5, 0.54], [7004, 1, 4, 0.89], [12350, 1, 4, 0.19], [7036, 1, 4, 1.42], [1124, 2, 4, 0.29], [151, 1, 4, 0.37], [990, 2, 5, 0.28], [5165, 1, 4, 0.7], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.74], [2050, 3, 4, 1.21], [201, 3, 5, 0.92], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [345, 3, 5, 0.42], [11770, 1, 4, 0.48], [2055, 3, 4, 1.21], [3891, 1, 4, 0.75], [7084, 3, 4, 2.67], [2057, 3, 4, 0.99], [9372, 1, 4, 0.98], [5165, 2, 7, 1.19], [7005, 1, 4, 0.56], [3893, 1, 5, 0.2], [998, 2, 4, 0.73], [12870, 1, 4, 0.47], [10574, 3, 5, 1.09], [3334, 5, 4, 1.49], [6097, 29, 4, 2.41], [7885, 4, 4, 0.49], [6098, 80, 4, 1.39], [20927, 1, 4, 0.86], [346, 3, 4, 0.21], [11089, 1, 4, 0.87], [12344, 1, 4, 0.53], [10149, 3, 15, 0.75], [6158, 2, 4, 1.34], [3889, 1, 4, 0.74], [1492, 1, 4, 0.2], [432, 3, 4, 0.62], [11953, 1, 4, 0.41], [1519, 3, 10, 0.39], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [2423, 80, 4, 2.47], [972, 3, 5, 1.01], [5151, 2, 4, 1.05], [13034, 3, 5, 0.81], [229, 1, 4, 2.07], [3576, 25, 4, 1.42], [2331, 1, 4, 0.5], [346, 1, 4, 0.2], [13244, 1, 4, 0.47], [11426, 25, 4, 0.59], [11737, 2, 4, 0.49], [11583, 29, 5, 0.2], [3, 2, 4, 0.82], [5076, 1, 4, 0.44], [2160, 68, 4, 1.02], [11490, 1, 4, 0.71], [2805, 137, 4, 0.68], [12764, 2, 5, 0.2], [6494, 1, 4, 1.48], [8677, 3, 5, 1.21], [13893, 2, 4, 1.01], [1701, 2, 4, 1.54], [3575, 25, 4, 0.6], [11814, 1, 4, 0.48], [3577, 25, 4, 0.37], [1413, 15, 4, 0.43], [3478, 2, 4, 0.62], [11813, 1, 4, 1.51], [23238, 29, 4, 0.37], [75, 2, 4, 0.81], [2438, 2, 5, 1.77], [13023, 3, 5, 1.01], [4253, 1, 4, 1.55], [4033, 29, 4, 0.49], [9289, 29, 4, 1.08], [8283, 2, 5, 0.74], [11404, 2, 4, 0.43], [5812, 3, 4, 2.0], [23238, 25, 4, 0.37], [9967, 2, 4, 0.92], [9069, 1, 4, 0.94], [9971, 2, 4, 0.92], [2878, 1, 4, 0.44], [5584, 3, 4, 1.38], [1163, 3, 4, 1.45], [957, 2, 4, 0.91], [9491, 21, 8, 1.43], [114, 3, 4, 1.03], [21697, 3, 4, 0.45], [4586, 10, 10, 0.8], [10407, 10, 7, 1.31], [13249, 29, 4, 0.38], [823, 1, 4, 0.57], [289, 3, 4, 1.02], [9965, 2, 4, 0.92], [10609, 1, 4, 1.55], [336, 15, 4, 0.38], [9964, 2, 4, 0.92], [4076, 3, 4, 1.42], [7324, 1, 4, 0.67], [12647, 1, 4, 0.75], [1277, 1, 4, 0.43], [2528, 29, 4, 0.97], [3495, 3, 10, 0.82], [1523, 1, 4, 0.4], [4372, 10, 7, 0.52], [11425, 25, 4, 0.57], [6935, 2, 237, 4.77], [141, 2, 134, 2.51], [589, 2, 106, 2.67], [2778, 2, 114, 3.75], [6936, 2, 237, 5.31], [2327, 2, 130, 2.8], [362, 2, 103, 2.95], [8648, 2, 200, 5.47], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 67, 3.24], [205, 2, 75, 2.77], [1446, 2, 79, 2.84], [2328, 2, 110, 3.51], [305, 2, 76, 3.76], [2049, 3, 191, 1.77], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [593, 2, 167, 2.88], [143, 2, 108, 3.18], [1429, 2, 53, 2.99], [206, 2, 38, 2.96], [523, 2, 114, 2.91], [12350, 1, 455, 2.9], [7036, 1, 94, 4.63], [1124, 2, 136, 3.38], [151, 1, 49, 2.6], [5165, 1, 35, 4.29], [417, 2, 114, 2.93], [248, 1, 28, 2.77], [144, 2, 52, 3.57], [2050, 3, 164, 3.22], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [345, 3, 219, 3.6], [11770, 1, 189, 2.34], [3891, 1, 108, 2.88], [9372, 1, 199, 4.89], [5165, 2, 278, 4.28], [7005, 1, 28, 1.97], [3893, 1, 91, 2.76], [998, 2, 176, 4.18], [12870, 1, 120, 3.0], [10574, 3, 370, 3.81], [3334, 5, 131, 4.29], [6097, 29, 25, 6.0], [7885, 4, 48, 1.82], [6098, 80, 55, 4.1], [346, 3, 465, 2.72], [11089, 1, 147, 3.09], [12344, 1, 535, 2.43], [10149, 3, 754, 2.93], [6158, 2, 90, 3.46], [3889, 1, 107, 2.84], [1492, 1, 28, 2.62], [432, 3, 223, 3.51], [11953, 1, 173, 2.22], [1519, 3, 1222, 2.59], [4032, 29, 82, 2.42], [411, 2, 75, 2.91], [2423, 80, 131, 6.0], [972, 3, 432, 3.8], [5151, 2, 18, 3.44]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.97], [305, 2, 4, 0.75], [2049, 3, 8, 0.47], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [205, 2, 4, 0.56], [151, 1, 4, 0.46], [589, 2, 5, 0.37], [1776, 1, 4, 1.48], [146, 2, 4, 0.58], [206, 2, 4, 0.2], [8648, 2, 5, 0.77], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.93], [8650, 2, 5, 1.15], [5151, 2, 4, 1.05], [2778, 2, 4, 0.2], [88, 10, 8, 0.62], [2050, 3, 4, 0.77], [10, 2, 5, 0.47], [10149, 3, 17, 1.32], [76, 2, 4, 1.11], [8649, 2, 4, 1.15], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [10825, 21, 8, 0.37], [410, 1, 4, 0.61], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 4, 0.78], [6158, 2, 5, 0.45], [3495, 3, 15, 1.31], [5081, 2, 5, 0.2], [167, 3, 4, 1.35], [7005, 1, 4, 0.4], [1492, 1, 4, 0.2], [7036, 1, 4, 1.14], [8676, 2, 4, 0.49], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [168, 3, 5, 0.29], [5812, 3, 5, 2.5], [57, 1, 4, 0.44], [94, 4, 4, 0.51], [1504, 2, 5, 0.2], [12870, 1, 4, 2.33], [335, 3, 10, 1.08], [418, 2, 4, 0.37], [2336, 3, 5, 0.99], [6097, 29, 4, 2.36], [6097, 80, 4, 2.36], [8853, 2, 5, 1.32], [346, 1, 4, 0.56], [490, 1, 4, 0.51], [1490, 1, 4, 0.45], [998, 2, 4, 1.27], [20927, 1, 4, 0.61], [95, 3, 15, 0.54], [79, 1, 4, 0.38], [9069, 1, 4, 1.09], [22316, 3, 4, 0.49], [6098, 29, 4, 2.52], [14017, 3, 4, 0.67], [6098, 80, 4, 2.52], [1070, 7, 9, 0.43], [346, 3, 5, 0.51], [8898, 3, 5, 2.17], [997, 2, 4, 1.29], [13034, 3, 6, 1.26], [9760, 29, 4, 0.43], [20498, 1, 5, 0.55], [192, 3, 11, 1.24], [336, 15, 4, 0.38], [5086, 1, 5, 0.58], [8945, 3, 5, 0.8], [7887, 4, 4, 0.37], [12350, 1, 4, 2.08], [5811, 3, 5, 1.18], [7567, 3, 4, 1.12], [22317, 3, 6, 0.51], [11085, 2, 5, 0.45], [12345, 1, 4, 1.02], [12924, 1, 4, 0.2], [5813, 3, 5, 1.08], [12349, 1, 4, 1.0], [229, 1, 4, 2.07], [972, 3, 5, 0.35], [995, 2, 4, 1.31], [9082, 3, 15, 0.67], [1622, 1, 5, 0.2], [8557, 3, 4, 0.33], [12352, 1, 4, 1.0], [20498, 3, 5, 1.1], [996, 2, 4, 1.24], [9691, 1, 4, 1.41], [12346, 1, 4, 1.02], [8104, 1, 4, 0.39], [3049, 3, 4, 1.48], [1080, 3, 4, 0.8], [14018, 3, 4, 0.5], [4076, 3, 4, 2.69], [3900, 3, 4, 1.68], [13023, 3, 6, 1.24], [1703, 2, 4, 1.38], [110, 4, 4, 0.94], [20486, 3, 6, 1.0], [5584, 3, 4, 0.5], [9613, 1, 4, 0.45], [2424, 80, 4, 1.95], [35, 1, 4, 1.05], [972, 1, 4, 0.48], [215, 4, 4, 3.07], [9372, 1, 4, 0.39], [1414, 15, 4, 0.42], [9081, 3, 7, 0.78], [20486, 1, 4, 0.51], [33, 1, 4, 0.74], [114, 3, 4, 0.48], [6497, 1, 4, 1.0], [39, 1, 4, 0.55], [11510, 3, 5, 0.97], [823, 1, 4, 0.36], [3047, 3, 4, 0.55], [1339, 3, 10, 0.42], [2854, 21, 8, 0.47], [18, 1, 4, 0.48], [13893, 2, 4, 1.17], [10529, 29, 4, 1.44], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [2049, 3, 508, 2.01], [326, 2, 72, 2.63], [141, 2, 123, 2.37], [205, 2, 50, 1.98], [151, 1, 53, 2.49], [589, 2, 71, 1.58], [1776, 1, 100, 4.01], [146, 2, 119, 2.72], [206, 2, 50, 2.36], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [2328, 2, 119, 2.66], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [1777, 1, 100, 3.38], [8650, 2, 176, 4.82], [5151, 2, 19, 3.18], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [10, 2, 63, 4.58], [10149, 3, 676, 4.91], [76, 2, 85, 3.94], [8649, 2, 176, 4.51], [8677, 3, 231, 4.73], [2054, 3, 368, 4.35], [412, 1, 66, 3.32], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [411, 2, 76, 2.53], [10825, 21, 505, 2.33], [410, 1, 96, 2.33], [307, 2, 117, 2.72], [3478, 2, 59, 3.39], [6158, 2, 184, 2.19], [3495, 3, 754, 3.9], [5081, 2, 150, 2.65], [7005, 1, 63, 2.38], [1492, 1, 29, 2.35], [7036, 1, 100, 4.13], [8676, 2, 223, 4.2], [9827, 3, 69, 2.54], [45, 2, 85, 5.32], [168, 3, 321, 3.12], [5812, 3, 541, 5.56], [57, 1, 40, 1.8], [94, 4, 94, 4.2], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [335, 3, 1163, 4.95], [418, 2, 130, 1.87], [2336, 3, 536, 2.91], [6097, 29, 27, 5.7], [6097, 80, 53, 5.7], [8853, 2, 223, 5.23], [346, 1, 142, 2.23], [490, 1, 41, 2.58], [1490, 1, 47, 2.03], [998, 2, 217, 3.65], [95, 3, 884, 2.58], [79, 1, 22, 1.5]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.9], [326, 2, 11, 1.63], [589, 2, 10, 0.81], [6935, 2, 18, 3.14], [205, 2, 7, 0.71], [143, 2, 7, 1.12], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 1.17], [146, 2, 7, 1.0], [2778, 2, 9, 1.07], [206, 2, 7, 1.18], [6936, 2, 10, 2.57], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 9, 3.76], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [5151, 2, 7, 3.02], [2050, 3, 9, 1.53], [7886, 4, 7, 0.87], [141, 2, 7, 2.12], [248, 1, 7, 0.68], [88, 10, 21, 2.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.04], [2991, 3, 7, 4.18], [2057, 3, 7, 0.87], [7004, 1, 7, 0.71], [1446, 2, 7, 0.93], [1492, 1, 7, 2.35], [362, 2, 7, 2.43], [2055, 3, 7, 0.82], [76, 2, 7, 2.04], [8649, 2, 9, 4.7], [345, 3, 7, 1.1], [7005, 1, 7, 0.73], [3889, 1, 7, 0.8], [11234, 2, 11, 0.93], [10825, 21, 13, 2.29], [7084, 3, 7, 3.91], [5081, 2, 7, 1.33], [12870, 1, 7, 4.49], [7036, 1, 7, 2.24], [10149, 3, 21, 1.68], [3478, 2, 7, 2.63], [1654, 2, 7, 1.04], [94, 4, 7, 2.1], [3891, 1, 7, 2.13], [167, 3, 7, 2.27], [432, 3, 7, 1.15], [33, 1, 9, 2.05], [9827, 3, 7, 0.78], [411, 2, 7, 0.71], [168, 3, 7, 2.37], [8677, 3, 9, 1.26], [79, 1, 7, 0.66], [3893, 1, 7, 2.13], [23, 1, 7, 1.29], [22247, 2, 11, 2.32], [201, 3, 7, 1.1], [1490, 1, 9, 0.67], [1124, 2, 11, 0.93], [5812, 3, 8, 1.9], [96, 11, 24, 1.07], [11737, 2, 7, 1.03], [9760, 29, 7, 1.42], [35, 1, 7, 1.95], [6158, 2, 8, 0.86], [335, 3, 16, 0.76], [12225, 1, 7, 1.7], [412, 1, 7, 2.19], [346, 1, 7, 1.08], [20927, 1, 7, 1.39], [229, 1, 7, 4.95], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [45, 2, 7, 2.72], [998, 2, 7, 3.22], [3980, 4, 7, 2.46], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [346, 3, 7, 0.99], [3495, 3, 18, 2.26], [95, 3, 17, 0.96], [856, 1, 7, 0.69], [1766, 25, 7, 1.08], [5946, 1, 7, 1.98], [490, 1, 7, 1.02], [997, 2, 7, 2.24], [8898, 3, 7, 2.78], [34, 1, 7, 1.9], [1070, 7, 15, 0.85], [9372, 1, 7, 3.35], [9691, 1, 7, 2.44], [9690, 1, 7, 1.87], [11954, 1, 7, 0.87], [20498, 1, 7, 1.8], [14017, 3, 7, 2.0], [974, 3, 7, 2.14], [418, 2, 7, 0.89], [14037, 3, 9, 1.09], [22317, 3, 7, 0.98], [972, 3, 8, 1.64], [20498, 3, 8, 1.9], [1091, 1, 7, 1.27], [9828, 3, 7, 0.89], [8274, 3, 7, 0.89], [38, 1, 7, 1.9], [5584, 3, 7, 3.74], [5811, 3, 7, 3.52], [1414, 15, 7, 0.81], [12350, 1, 7, 1.02], [5813, 3, 7, 2.91], [2991, 1, 7, 2.72], [24, 1, 7, 2.0], [3048, 3, 7, 3.68], [110, 4, 7, 0.73], [1080, 3, 7, 1.59], [13034, 3, 8, 2.15], [8104, 1, 7, 0.85], [13260, 29, 7, 1.41], [1767, 2, 7, 1.14], [336, 15, 7, 0.98], [11811, 1, 7, 2.77], [955, 2, 7, 0.9], [8635, 3, 7, 0.96], [39, 1, 7, 1.14], [10780, 10, 7, 3.58], [2878, 1, 7, 1.84], [9082, 3, 24, 2.75], [3981, 3, 20, 3.12], [4203, 1, 7, 1.06], [5812, 3, 426, 3.19], [96, 11, 614, 2.87], [11737, 2, 37, 2.84], [9760, 29, 52, 3.16], [35, 1, 95, 3.11], [6158, 2, 189, 2.66], [335, 3, 1124, 2.07], [412, 1, 61, 3.86], [346, 1, 131, 2.38], [25, 1, 81, 3.21], [1767, 25, 125, 2.9], [45, 2, 79, 4.03], [998, 2, 172, 5.52], [3980, 4, 347, 4.26], [413, 1, 63, 3.36], [21269, 3, 250, 5.05], [346, 3, 526, 2.29], [3495, 3, 695, 4.07], [95, 3, 815, 2.77], [1766, 25, 136, 2.83], [5946, 1, 90, 3.28], [490, 1, 43, 2.79], [997, 2, 204, 3.54], [8898, 3, 213, 4.58], [34, 1, 95, 3.2], [1070, 7, 428, 2.63], [9372, 1, 193, 4.65], [9691, 1, 55, 3.74], [9690, 1, 64, 3.17], [11954, 1, 146, 2.68], [20498, 1, 71, 3.61], [14017, 3, 142, 3.71], [974, 3, 108, 3.45], [418, 2, 120, 2.19], [22317, 3, 269, 2.28], [972, 3, 428, 2.95], [20498, 3, 500, 3.2], [1091, 1, 20, 2.14], [9828, 3, 75, 2.19], [38, 1, 95, 3.2], [5584, 3, 198, 5.04], [5811, 3, 503, 4.82], [1414, 15, 64, 1.97], [12350, 1, 529, 2.33], [5813, 3, 503, 4.22], [2991, 1, 35, 4.02], [24, 1, 95, 3.3], [3048, 3, 232, 4.98], [110, 4, 90, 1.6], [1080, 3, 113, 2.89], [13034, 3, 503, 3.46], [8104, 1, 176, 2.15], [13260, 29, 62, 2.71], [1767, 2, 29, 2.44], [11811, 1, 385, 4.08], [955, 2, 93, 2.2], [39, 1, 95, 2.44], [10780, 10, 326, 4.89], [2878, 1, 68, 3.14], [9082, 3, 2084, 4.08], [3981, 3, 1370, 4.44], [4203, 1, 41, 2.36]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [589, 2, 10, 0.87], [144, 2, 7, 1.04], [130, 1, 7, 2.36], [8915, 2, 8, 0.81], [143, 2, 7, 0.85], [2328, 2, 9, 1.39], [6936, 2, 7, 3.27], [8648, 2, 9, 3.08], [2775, 2, 9, 0.8], [205, 2, 7, 0.74], [8650, 2, 7, 2.95], [593, 2, 11, 0.97], [326, 2, 9, 2.24], [146, 2, 7, 1.1], [145, 2, 7, 0.96], [5493, 2, 7, 0.85], [3840, 1, 9, 1.09], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [88, 10, 16, 2.6], [141, 2, 7, 0.72], [7004, 1, 9, 3.07], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [990, 2, 7, 1.07], [1007, 2, 7, 1.35], [362, 2, 7, 1.0], [2055, 3, 7, 1.08], [2912, 1, 9, 1.91], [3893, 1, 7, 0.71], [142, 2, 7, 0.77], [2057, 3, 7, 1.08], [12870, 1, 7, 3.23], [9372, 1, 7, 3.54], [10993, 2, 7, 1.25], [2050, 3, 7, 1.08], [3889, 1, 7, 1.38], [2054, 3, 9, 0.8], [7084, 3, 7, 2.06], [523, 2, 7, 0.73], [2991, 3, 7, 3.64], [7886, 4, 7, 0.8], [10, 2, 7, 0.89], [3891, 1, 7, 0.76], [7573, 1, 16, 3.81], [1622, 1, 9, 0.84], [10149, 3, 21, 2.58], [5208, 3, 9, 1.29], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.83], [11234, 2, 9, 1.8], [997, 2, 7, 2.43], [1886, 2, 9, 0.86], [12721, 2, 7, 2.81], [346, 3, 7, 1.31], [22247, 2, 7, 2.77], [996, 2, 7, 3.13], [229, 1, 7, 2.02], [998, 2, 7, 1.56], [94, 4, 7, 2.1], [2912, 2, 12, 3.19], [972, 3, 10, 1.52], [9491, 21, 26, 0.95], [35, 1, 7, 2.48], [76, 2, 7, 1.6], [413, 1, 7, 2.66], [33, 1, 7, 1.79], [83, 2, 7, 1.83], [13928, 1, 7, 1.35], [5076, 1, 7, 1.87], [2805, 137, 7, 2.56], [5209, 3, 7, 2.29], [8104, 1, 7, 1.7], [346, 1, 7, 0.83], [8676, 2, 7, 2.91], [7887, 4, 7, 1.87], [38, 1, 7, 2.18], [8898, 3, 7, 4.91], [12212, 29, 7, 0.9], [3495, 3, 16, 1.61], [84, 2, 7, 1.73], [34, 1, 7, 2.06], [11490, 1, 7, 0.89], [10407, 10, 10, 3.76], [632, 11, 21, 0.79], [11770, 1, 7, 1.65], [13928, 2, 7, 2.69], [995, 2, 7, 3.16], [11772, 1, 7, 0.84], [9690, 1, 7, 0.9], [411, 2, 7, 0.92], [39, 1, 7, 2.12], [9691, 1, 7, 1.39], [1703, 2, 7, 1.6], [11953, 1, 7, 1.0], [82, 2, 7, 1.58], [5584, 3, 7, 5.0], [12764, 2, 8, 1.75], [13893, 2, 7, 2.25], [7567, 3, 7, 2.08], [74, 1, 7, 3.33], [10410, 10, 15, 3.09], [972, 1, 7, 1.02], [5164, 1, 7, 3.75], [21269, 3, 7, 2.57], [1523, 1, 7, 1.16], [23961, 3, 7, 3.68], [2331, 1, 7, 1.23], [13023, 3, 8, 1.41], [10408, 10, 8, 3.61], [4253, 1, 7, 1.16], [1492, 1, 7, 0.87], [4076, 3, 7, 2.73], [6097, 80, 7, 1.46], [6805, 1, 7, 0.97], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [13034, 3, 7, 2.36], [3429, 15, 7, 0.85], [3047, 3, 7, 2.46], [21059, 1, 7, 2.67], [8283, 2, 8, 1.19], [1243, 2, 7, 2.23], [3576, 29, 7, 0.81], [3430, 15, 7, 1.83], [2436, 4, 7, 1.08], [8674, 2, 7, 1.94], [6097, 29, 7, 1.46], [10780, 10, 7, 3.18], [19931, 1, 7, 2.43], [11812, 1, 7, 0.89], [413, 1, 72, 4.29], [33, 1, 92, 3.85], [13928, 1, 40, 3.42], [5076, 1, 108, 3.5], [2805, 137, 177, 4.19], [8104, 1, 170, 3.83], [346, 1, 152, 2.46], [8676, 2, 280, 4.54], [38, 1, 92, 3.81], [8898, 3, 243, 6.0], [12212, 29, 118, 2.53], [3495, 3, 795, 3.74], [84, 2, 33, 3.79], [34, 1, 92, 3.69], [11490, 1, 107, 2.52], [10407, 10, 990, 5.39], [632, 11, 406, 2.08], [11770, 1, 211, 3.28], [13928, 2, 23, 4.32], [995, 2, 236, 4.8], [11772, 1, 182, 2.97], [9690, 1, 25, 1.88], [411, 2, 54, 2.22], [39, 1, 92, 3.75], [9691, 1, 75, 3.02], [1703, 2, 160, 3.23], [11953, 1, 165, 3.14], [82, 2, 29, 2.88], [5584, 3, 198, 6.0], [12764, 2, 730, 3.37], [13893, 2, 268, 3.88], [7567, 3, 69, 3.71], [74, 1, 192, 4.96], [10410, 10, 990, 4.71], [972, 1, 98, 2.65], [5164, 1, 45, 5.38], [21269, 3, 286, 4.21], [1523, 1, 46, 2.79], [23961, 3, 288, 5.31], [2331, 1, 116, 2.86], [13023, 3, 589, 3.04], [10408, 10, 749, 5.25], [4253, 1, 168, 2.79], [1492, 1, 37, 2.5], [4076, 3, 196, 4.36], [6097, 80, 67, 3.09], [6805, 1, 445, 2.59], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [13034, 3, 577, 3.98], [3429, 15, 26, 2.15], [3047, 3, 264, 4.09], [21059, 1, 314, 4.29], [8283, 2, 465, 2.82], [1243, 2, 96, 3.86], [3576, 29, 33, 2.44], [3430, 15, 68, 3.46], [2436, 4, 115, 2.71], [8674, 2, 280, 3.57], [6097, 29, 34, 3.09], [10780, 10, 367, 4.82], [19931, 1, 401, 4.06], [11812, 1, 157, 2.35]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.6], [6935, 2, 10, 2.95], [130, 1, 7, 2.44], [326, 2, 7, 2.44], [8648, 2, 7, 2.71], [144, 2, 7, 2.56], [2327, 2, 7, 0.98], [589, 2, 8, 0.61], [593, 2, 9, 1.22], [143, 2, 7, 1.94], [205, 2, 7, 1.43], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [2328, 2, 7, 1.45], [141, 2, 7, 1.58], [6936, 2, 9, 4.58], [151, 1, 7, 0.73], [2778, 2, 9, 1.07], [2049, 3, 14, 0.88], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.67], [9507, 3, 7, 1.16], [145, 2, 7, 2.56], [7036, 1, 7, 2.37], [1446, 2, 9, 1.54], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [3893, 1, 7, 1.38], [2055, 3, 7, 3.91], [75, 2, 7, 1.73], [417, 2, 7, 1.06], [11737, 2, 7, 1.76], [2050, 3, 7, 3.31], [12870, 1, 7, 3.69], [523, 2, 7, 1.05], [159, 3, 10, 1.05], [2057, 3, 7, 3.52], [142, 2, 7, 1.0], [2991, 3, 7, 4.3], [997, 2, 7, 1.5], [7084, 3, 9, 1.08], [9760, 29, 7, 1.36], [3982, 3, 17, 2.34], [11739, 2, 7, 1.41], [996, 2, 7, 1.06], [6158, 2, 9, 0.98], [998, 2, 7, 1.33], [98, 11, 16, 0.96], [84, 2, 7, 1.65], [9372, 1, 7, 4.45], [7885, 4, 7, 0.77], [10388, 2, 7, 2.13], [8672, 2, 9, 2.68], [972, 3, 7, 3.88], [8898, 3, 7, 5.0], [2912, 1, 7, 2.32], [3980, 4, 7, 2.36], [410, 1, 7, 3.58], [9491, 21, 16, 0.87], [10386, 2, 7, 2.91], [1492, 1, 7, 0.87], [13928, 1, 7, 2.32], [995, 2, 7, 2.23], [22316, 3, 7, 0.98], [22247, 2, 7, 2.12], [8677, 3, 9, 2.23], [3981, 3, 22, 2.14], [308, 1, 7, 3.28], [13893, 2, 7, 4.76], [2912, 2, 8, 3.12], [229, 1, 7, 1.35], [33, 1, 9, 4.53], [10631, 2, 7, 3.81], [11953, 1, 7, 0.9], [11490, 1, 7, 1.44], [35, 1, 9, 3.29], [159, 1, 7, 0.98], [7886, 4, 7, 0.94], [11770, 1, 7, 0.85], [22317, 3, 7, 1.42], [10407, 10, 10, 3.29], [10780, 10, 7, 3.28], [10410, 10, 10, 3.25], [1413, 15, 7, 1.12], [10149, 3, 21, 2.64], [6497, 1, 7, 0.87], [335, 3, 15, 3.87], [9691, 1, 7, 1.94], [74, 1, 7, 2.89], [10387, 2, 7, 1.83], [3478, 2, 7, 3.25], [972, 1, 7, 3.87], [12271, 2, 7, 2.91], [8897, 3, 9, 5.0], [345, 3, 7, 0.98], [9690, 1, 7, 2.1], [9971, 2, 7, 3.45], [159, 16, 7, 0.94], [2331, 1, 7, 3.73], [9082, 3, 29, 2.42], [3048, 3, 7, 1.77], [37, 1, 7, 1.27], [4076, 3, 7, 1.64], [11085, 2, 8, 2.78], [34, 1, 7, 1.04], [23611, 3, 7, 0.81], [7704, 2, 7, 3.16], [12721, 2, 7, 1.87], [11404, 2, 7, 0.83], [1163, 3, 7, 1.18], [20498, 3, 8, 2.71], [1523, 1, 7, 1.54], [11510, 3, 8, 2.0], [10936, 2, 7, 3.27], [45, 2, 7, 0.89], [4001, 3, 14, 2.5], [12764, 2, 8, 1.47], [9965, 2, 7, 2.62], [105, 3, 7, 0.98], [9964, 2, 7, 3.45], [38, 1, 7, 1.27], [215, 4, 7, 3.06], [1895, 3, 7, 1.42], [12858, 1, 7, 0.91], [10408, 10, 8, 3.19], [8635, 3, 7, 2.86], [5812, 3, 7, 1.86], [10411, 10, 8, 3.35], [11738, 2, 7, 1.69], [12212, 29, 7, 0.87], [2805, 137, 8, 1.2], [8659, 1, 7, 3.43], [11812, 1, 7, 0.89], [192, 3, 15, 3.61], [10093, 3, 17, 1.87], [2438, 2, 8, 3.23], [2912, 2, 284, 4.57], [229, 1, 72, 2.8], [10631, 2, 74, 4.71], [11953, 1, 176, 2.34], [11490, 1, 94, 2.88], [159, 1, 21, 2.18], [11770, 1, 160, 2.79], [22317, 3, 232, 2.88], [10407, 10, 1010, 4.71], [10780, 10, 318, 4.72], [10410, 10, 1010, 4.67], [1413, 15, 35, 2.02], [10149, 3, 755, 4.09], [6497, 1, 33, 2.31], [335, 3, 989, 5.33], [9691, 1, 40, 3.79], [74, 1, 148, 4.34], [10387, 2, 187, 3.27], [12271, 2, 33, 4.11], [8897, 3, 205, 6.0], [345, 3, 258, 2.42], [9690, 1, 65, 3.54], [9971, 2, 234, 4.89], [159, 16, 41, 2.15], [2331, 1, 100, 5.17], [9082, 3, 2125, 3.83], [3048, 3, 234, 3.22], [37, 1, 96, 2.72], [4076, 3, 174, 3.09], [11085, 2, 464, 4.22], [34, 1, 96, 2.49], [23611, 3, 304, 2.25], [7704, 2, 152, 4.61], [12721, 2, 248, 3.32], [11404, 2, 55, 2.03], [20498, 3, 505, 4.16], [1523, 1, 41, 2.99], [11510, 3, 510, 3.44], [10936, 2, 115, 4.72], [45, 2, 95, 2.34], [4001, 3, 684, 3.95], [12764, 2, 645, 2.91], [9965, 2, 234, 4.06], [105, 3, 213, 2.42], [9964, 2, 234, 4.89], [38, 1, 96, 2.72], [215, 4, 32, 4.51], [1895, 3, 264, 2.86], [12858, 1, 505, 2.36], [10408, 10, 662, 4.65], [8635, 3, 291, 4.3], [5812, 3, 520, 3.31], [10411, 10, 662, 4.81], [11738, 2, 20, 2.59], [12212, 29, 104, 2.31], [2805, 137, 160, 2.64], [8659, 1, 103, 4.88], [11812, 1, 208, 2.33], [192, 3, 1229, 5.06], [10093, 3, 713, 3.33], [2438, 2, 542, 4.68]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 0.88], [362, 2, 7, 2.31], [589, 2, 12, 0.68], [141, 2, 7, 1.04], [75, 2, 9, 2.45], [130, 1, 7, 1.91], [3, 2, 9, 0.82], [1776, 1, 7, 1.12], [205, 2, 7, 1.21], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [6936, 2, 10, 2.79], [7886, 4, 7, 1.01], [593, 2, 14, 1.11], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [1777, 1, 7, 2.22], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 17, 1.94], [11681, 2, 10, 5.0], [990, 2, 9, 0.92], [8650, 2, 9, 3.25], [5151, 2, 7, 1.73], [412, 1, 7, 2.17], [2050, 3, 7, 1.22], [144, 2, 7, 1.43], [2991, 3, 7, 3.64], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [10149, 3, 25, 3.26], [57, 1, 9, 0.68], [22247, 2, 9, 3.0], [146, 2, 7, 2.68], [2054, 3, 7, 4.0], [45, 2, 7, 2.65], [7004, 1, 7, 0.9], [417, 2, 9, 1.87], [143, 2, 7, 1.34], [201, 3, 10, 2.56], [21793, 1, 7, 3.62], [167, 3, 7, 2.0], [413, 1, 7, 1.23], [2055, 3, 7, 2.83], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [7084, 3, 7, 2.45], [11234, 2, 9, 0.93], [12721, 2, 10, 1.92], [308, 1, 9, 4.83], [10, 2, 11, 2.55], [335, 3, 18, 3.91], [7036, 1, 7, 3.29], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [13028, 3, 7, 0.96], [10825, 21, 14, 1.17], [410, 1, 7, 1.23], [12870, 1, 7, 4.49], [8649, 2, 7, 2.97], [11404, 2, 9, 1.06], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 1.2], [23, 1, 7, 2.37], [5208, 3, 13, 1.56], [3893, 1, 7, 1.67], [9827, 3, 7, 0.86], [1504, 2, 9, 0.89], [94, 4, 7, 3.04], [13260, 29, 7, 0.89], [7005, 1, 7, 0.94], [5812, 3, 8, 2.16], [3891, 1, 9, 1.05], [1490, 1, 7, 1.35], [411, 2, 7, 1.21], [25, 1, 7, 1.83], [12353, 1, 6, 1.54], [33, 1, 7, 1.27], [21269, 3, 7, 4.99], [12349, 1, 7, 4.0], [998, 2, 9, 2.41], [5086, 1, 6, 2.04], [9069, 1, 7, 3.12], [7567, 3, 7, 3.13], [229, 1, 7, 4.95], [3980, 4, 9, 3.25], [2878, 1, 7, 1.63], [20927, 1, 7, 1.5], [346, 3, 8, 1.24], [35, 1, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 2.81], [5209, 3, 7, 1.17], [997, 2, 7, 1.16], [11914, 1, 9, 1.52], [14037, 3, 7, 0.69], [8274, 3, 7, 2.1], [5584, 3, 7, 3.61], [5660, 2, 7, 1.94], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [159, 3, 10, 1.34], [1519, 3, 21, 0.79], [24, 1, 7, 2.26], [8898, 3, 7, 5.0], [996, 2, 7, 4.42], [1091, 1, 7, 1.1], [23961, 3, 7, 2.61], [1124, 2, 9, 0.91], [13034, 3, 10, 2.76], [9081, 3, 12, 3.64], [12661, 1, 7, 4.04], [952, 4, 7, 4.6], [27, 1, 7, 2.37], [8945, 3, 10, 5.0], [1413, 15, 7, 1.19], [22317, 3, 8, 0.9], [336, 15, 7, 0.8], [10529, 29, 7, 2.85], [9372, 1, 7, 1.55], [1163, 3, 7, 1.36], [12225, 1, 7, 1.12], [9082, 3, 21, 1.17], [6097, 29, 7, 3.08], [4203, 1, 7, 1.02], [9760, 29, 7, 0.87], [66, 16, 7, 0.87], [2109, 3, 15, 0.88], [8635, 3, 7, 1.16], [12346, 1, 7, 1.94], [5811, 3, 7, 1.9], [2104, 3, 10, 2.23], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.36], [23, 1, 102, 3.52], [3893, 1, 98, 2.83], [9827, 3, 69, 2.51], [1504, 2, 161, 2.54], [94, 4, 94, 4.2], [13260, 29, 57, 2.5], [7005, 1, 55, 1.97], [5812, 3, 459, 3.78], [3891, 1, 98, 3.02], [1490, 1, 40, 2.51], [411, 2, 50, 1.98], [25, 1, 88, 3.4], [12353, 1, 474, 3.21], [33, 1, 88, 2.86], [21269, 3, 230, 6.0], [12349, 1, 563, 5.17], [998, 2, 188, 4.57], [5086, 1, 144, 3.69], [7567, 3, 32, 4.78], [3980, 4, 377, 4.41], [2878, 1, 63, 2.79], [346, 3, 497, 2.4], [35, 1, 88, 3.09], [1703, 2, 149, 4.53], [9691, 1, 59, 4.46], [5209, 3, 260, 2.35], [997, 2, 188, 2.76], [11914, 1, 68, 3.17], [5584, 3, 197, 4.77], [5660, 2, 138, 3.59], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [1519, 3, 1313, 2.31], [24, 1, 88, 3.42], [8898, 3, 221, 6.0], [996, 2, 217, 5.57], [1091, 1, 22, 2.75], [23961, 3, 269, 3.76], [1124, 2, 172, 2.07], [13034, 3, 459, 4.14], [9081, 3, 359, 5.3], [12661, 1, 64, 5.2], [952, 4, 57, 5.76], [27, 1, 77, 3.39], [1413, 15, 69, 2.22], [22317, 3, 291, 2.06], [336, 15, 52, 2.46], [10529, 29, 37, 4.0], [9372, 1, 210, 2.71], [12225, 1, 153, 2.28], [9082, 3, 1955, 2.92], [6097, 29, 32, 4.24], [4203, 1, 45, 2.18], [9760, 29, 66, 2.03], [66, 16, 71, 2.03], [2109, 3, 433, 2.03], [12346, 1, 563, 3.1], [5811, 3, 541, 3.06], [2104, 3, 306, 3.39]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 20, 1.59], [8915, 2, 8, 0.81], [589, 2, 8, 0.87], [2327, 2, 7, 1.0], [2778, 2, 7, 0.8], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 0.85], [305, 2, 6, 0.82], [615, 2, 9, 2.5], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 7, 1.32], [7004, 1, 9, 3.07], [2049, 3, 12, 0.72], [593, 2, 11, 0.97], [143, 2, 7, 1.81], [205, 2, 7, 0.74], [10, 2, 7, 2.55], [144, 2, 7, 2.0], [7036, 1, 9, 3.03], [94, 4, 7, 2.1], [990, 2, 7, 1.45], [3893, 1, 7, 1.21], [146, 2, 7, 2.06], [141, 2, 7, 0.75], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [362, 2, 7, 1.0], [206, 2, 7, 0.74], [2055, 3, 7, 1.08], [75, 2, 7, 2.39], [5208, 3, 9, 1.29], [3889, 1, 7, 1.88], [7886, 4, 7, 0.8], [10993, 2, 7, 1.25], [11234, 2, 9, 1.8], [2054, 3, 7, 1.93], [7005, 1, 9, 1.49], [12870, 1, 7, 3.23], [7084, 3, 7, 2.06], [3980, 4, 8, 2.39], [10149, 3, 21, 2.58], [145, 2, 7, 1.93], [2050, 3, 7, 1.08], [2912, 1, 7, 2.33], [5165, 1, 7, 2.5], [8672, 2, 9, 3.11], [20927, 1, 7, 2.43], [998, 2, 7, 1.5], [9760, 29, 9, 0.97], [972, 3, 10, 1.52], [3, 2, 7, 1.83], [3495, 3, 14, 1.61], [229, 1, 7, 0.94], [6158, 2, 9, 4.29], [346, 3, 7, 1.31], [5076, 1, 7, 0.9], [5165, 2, 8, 3.64], [142, 2, 7, 0.69], [7887, 4, 7, 1.87], [523, 2, 7, 0.69], [74, 1, 7, 3.33], [9372, 1, 7, 3.08], [11953, 1, 7, 1.0], [11770, 1, 9, 0.96], [1492, 1, 7, 0.97], [12721, 2, 7, 2.42], [9491, 21, 26, 0.95], [3981, 3, 22, 1.31], [2912, 2, 12, 3.19], [2423, 80, 7, 3.79], [11772, 1, 7, 0.89], [6497, 1, 7, 1.09], [5434, 1, 7, 1.6], [7573, 1, 16, 3.81], [5584, 3, 7, 5.0], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [346, 1, 7, 0.83], [335, 3, 15, 0.72], [10388, 2, 7, 2.08], [10407, 10, 10, 3.76], [11179, 1, 9, 1.07], [823, 1, 7, 2.33], [3975, 4, 7, 2.49], [6496, 1, 7, 1.94], [5209, 3, 9, 1.29], [2805, 137, 7, 2.56], [4253, 1, 7, 1.04], [11812, 1, 7, 0.84], [3900, 3, 7, 3.48], [12764, 2, 10, 1.04], [1622, 1, 7, 0.87], [1703, 2, 7, 1.6], [11490, 1, 7, 0.89], [8676, 2, 7, 2.91], [972, 1, 7, 1.94], [13893, 2, 7, 2.25], [22247, 2, 7, 3.16], [412, 1, 7, 2.06], [6097, 80, 7, 1.46], [2991, 3, 7, 4.1], [10386, 2, 7, 4.24], [11814, 1, 7, 0.92], [7567, 3, 7, 2.08], [6805, 1, 7, 0.97], [10410, 10, 15, 3.17], [8635, 3, 7, 2.25], [1274, 1, 7, 1.26], [37, 1, 7, 2.55], [788, 2, 7, 0.9], [8283, 2, 8, 1.19], [10408, 10, 8, 3.61], [389, 4, 7, 2.81], [8104, 1, 7, 2.1], [12212, 29, 7, 0.9], [35, 1, 7, 2.17], [23611, 3, 8, 0.74], [114, 3, 7, 2.02], [1895, 3, 7, 4.16], [76, 2, 7, 0.9], [95, 3, 22, 0.85], [38, 1, 7, 1.27], [12979, 25, 12, 1.91], [3979, 3, 13, 0.75], [10385, 2, 7, 1.0], [12501, 1, 7, 2.39], [220, 4, 7, 0.85], [8274, 3, 7, 2.23], [4232, 80, 7, 3.58], [24257, 1, 7, 0.92], [5435, 1, 7, 1.49], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [440, 3, 7, 1.44], [3981, 3, 1366, 3.43], [2912, 2, 372, 4.81], [2423, 80, 151, 5.42], [11772, 1, 182, 2.97], [6497, 1, 37, 2.72], [5434, 1, 48, 3.23], [7573, 1, 306, 5.44], [5584, 3, 198, 6.0], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [346, 1, 152, 2.46], [335, 3, 864, 2.2], [10388, 2, 179, 4.21], [10407, 10, 990, 5.39], [11179, 1, 73, 3.56], [823, 1, 40, 3.96], [3975, 4, 473, 4.11], [6496, 1, 39, 3.57], [2805, 137, 177, 4.19], [4253, 1, 142, 3.13], [11812, 1, 196, 2.98], [12764, 2, 611, 3.42], [1622, 1, 53, 2.97], [1703, 2, 160, 3.23], [11490, 1, 107, 2.52], [8676, 2, 280, 4.54], [972, 1, 49, 3.66], [13893, 2, 268, 3.88], [22247, 2, 233, 4.79], [412, 1, 82, 3.69], [6097, 80, 67, 3.09], [2991, 3, 158, 5.73], [10386, 2, 179, 6.0], [11814, 1, 183, 2.49], [7567, 3, 69, 3.71], [6805, 1, 445, 2.59], [10410, 10, 1142, 4.79], [1274, 1, 81, 2.89], [37, 1, 54, 3.85], [8283, 2, 465, 2.82], [10408, 10, 749, 5.25], [389, 4, 201, 4.44], [8104, 1, 200, 3.73], [12212, 29, 118, 2.53], [35, 1, 109, 3.8], [23611, 3, 343, 2.37], [114, 3, 238, 3.65], [1895, 3, 293, 5.79], [76, 2, 107, 2.53], [95, 3, 1109, 2.46], [38, 1, 109, 2.9], [12979, 25, 641, 3.53], [3979, 3, 801, 2.39], [10385, 2, 200, 2.62], [12501, 1, 291, 4.02], [220, 4, 48, 2.48], [4232, 80, 145, 5.21], [24257, 1, 46, 1.9], [9690, 1, 25, 1.88], [8659, 1, 118, 3.27], [440, 3, 192, 3.07]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [615, 2, 7, 1.17], [305, 2, 7, 0.98], [2778, 2, 7, 1.07], [6936, 2, 9, 3.69], [205, 2, 7, 0.98], [130, 1, 7, 1.94], [144, 2, 7, 0.9], [8648, 2, 7, 2.71], [2049, 3, 14, 0.88], [88, 10, 18, 0.73], [7036, 1, 7, 2.37], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [8650, 2, 7, 2.48], [593, 2, 9, 1.29], [11681, 2, 9, 3.84], [2327, 2, 7, 0.98], [3893, 1, 7, 0.75], [141, 2, 9, 1.58], [151, 1, 7, 1.73], [9507, 3, 7, 0.66], [11685, 2, 7, 3.35], [248, 1, 7, 0.79], [146, 2, 7, 2.06], [2050, 3, 7, 3.31], [2055, 3, 7, 3.41], [143, 2, 7, 0.98], [3980, 4, 7, 2.36], [2054, 3, 7, 3.66], [8672, 2, 9, 2.68], [7885, 4, 7, 0.77], [362, 2, 7, 0.91], [12870, 1, 7, 3.71], [2057, 3, 7, 3.52], [7886, 4, 7, 1.23], [13028, 3, 7, 1.25], [145, 2, 7, 1.98], [7084, 3, 7, 1.44], [3495, 3, 21, 1.64], [523, 2, 7, 1.05], [3975, 4, 7, 2.49], [2991, 3, 7, 4.3], [10149, 3, 21, 2.64], [9760, 29, 9, 0.86], [11404, 2, 7, 0.72], [20927, 1, 7, 2.25], [142, 2, 7, 1.0], [3982, 3, 17, 2.34], [3981, 3, 21, 2.03], [6158, 2, 7, 1.75], [417, 2, 7, 1.06], [214, 3, 15, 0.74], [2912, 1, 7, 3.1], [11953, 1, 7, 0.9], [997, 2, 7, 4.76], [22316, 3, 7, 0.98], [33, 1, 9, 4.53], [229, 1, 7, 1.35], [7887, 4, 7, 2.25], [6497, 1, 7, 2.52], [1492, 1, 7, 2.26], [346, 3, 7, 0.88], [998, 2, 7, 5.0], [972, 3, 9, 3.74], [996, 2, 9, 3.08], [35, 1, 9, 4.53], [389, 4, 7, 2.27], [410, 1, 7, 3.58], [11770, 1, 7, 0.85], [2912, 2, 10, 2.79], [336, 15, 7, 1.28], [7567, 3, 9, 3.64], [74, 1, 7, 1.8], [2104, 3, 10, 0.73], [1413, 15, 7, 1.12], [6496, 1, 7, 1.06], [12721, 2, 7, 1.87], [12212, 29, 7, 0.87], [22317, 3, 7, 1.42], [4176, 4, 9, 3.25], [8673, 2, 7, 4.12], [8677, 3, 7, 2.57], [8676, 2, 7, 1.7], [11085, 2, 8, 3.16], [37, 1, 7, 1.27], [1274, 1, 7, 1.02], [21269, 3, 7, 5.0], [22247, 2, 7, 3.16], [7573, 1, 11, 4.14], [13023, 3, 7, 2.44], [9372, 1, 7, 4.45], [39, 1, 7, 1.79], [823, 1, 7, 0.92], [10388, 2, 7, 2.26], [6494, 1, 7, 0.87], [345, 3, 7, 0.98], [201, 3, 7, 2.36], [12271, 2, 7, 1.35], [10936, 2, 7, 3.27], [96, 11, 22, 2.04], [10408, 10, 8, 3.19], [3577, 25, 7, 1.14], [12225, 1, 7, 2.38], [3, 2, 7, 1.85], [10631, 2, 7, 3.81], [2805, 137, 8, 1.2], [11812, 1, 7, 0.89], [9691, 1, 7, 1.44], [1490, 1, 7, 2.08], [1414, 15, 7, 1.05], [20498, 3, 8, 2.71], [23961, 3, 7, 2.91], [36, 1, 7, 1.27], [192, 3, 15, 3.61], [9690, 1, 7, 2.1], [12764, 2, 8, 1.47], [10386, 2, 7, 1.91], [13928, 1, 7, 2.9], [346, 1, 7, 1.06], [3048, 3, 7, 1.77], [8898, 3, 7, 3.58], [10407, 10, 10, 3.29], [3576, 25, 7, 1.44], [11814, 1, 7, 0.92], [13893, 2, 7, 4.76], [11089, 1, 7, 1.17], [972, 1, 7, 1.51], [1339, 3, 15, 0.79], [5812, 3, 7, 1.86], [10939, 2, 7, 3.72], [1523, 1, 7, 1.54], [1163, 3, 7, 1.18], [491, 10, 8, 2.07], [13035, 3, 7, 2.54], [19931, 1, 7, 2.43], [2878, 1, 7, 0.75], [8659, 1, 7, 3.43], [6496, 1, 35, 2.5], [12721, 2, 248, 3.32], [12212, 29, 104, 2.31], [22317, 3, 232, 2.88], [4176, 4, 353, 4.69], [8673, 2, 242, 5.57], [8677, 3, 216, 4.01], [8676, 2, 248, 3.14], [11085, 2, 391, 4.64], [37, 1, 96, 2.72], [1274, 1, 71, 2.46], [21269, 3, 216, 6.0], [22247, 2, 207, 4.6], [7573, 1, 302, 5.59], [13023, 3, 510, 3.88], [9372, 1, 196, 5.89], [39, 1, 96, 3.24], [823, 1, 35, 2.36], [10388, 2, 158, 4.21], [6494, 1, 45, 2.31], [345, 3, 258, 2.42], [201, 3, 258, 3.81], [12271, 2, 55, 2.8], [10936, 2, 115, 4.72], [96, 11, 293, 2.94], [10408, 10, 662, 4.65], [3577, 25, 77, 2.59], [12225, 1, 142, 3.82], [3, 2, 106, 3.3], [10631, 2, 74, 4.71], [2805, 137, 160, 2.64], [11812, 1, 208, 2.33], [9691, 1, 66, 2.89], [1490, 1, 44, 3.53], [1414, 15, 35, 1.95], [20498, 3, 505, 4.16], [23961, 3, 255, 4.35], [36, 1, 96, 2.72], [192, 3, 1229, 5.06], [9690, 1, 65, 3.54], [12764, 2, 645, 2.91], [10386, 2, 187, 3.36], [13928, 1, 40, 4.35], [346, 1, 134, 2.51], [3048, 3, 234, 3.22], [8898, 3, 243, 5.03], [10407, 10, 1010, 4.71], [3576, 25, 88, 2.88], [11814, 1, 195, 2.37], [13893, 2, 231, 6.0], [11089, 1, 149, 2.62], [972, 1, 85, 2.95], [5812, 3, 520, 3.31], [10939, 2, 115, 5.16], [1523, 1, 41, 2.99], [491, 10, 381, 3.52], [13035, 3, 260, 3.99], [19931, 1, 354, 3.88], [2878, 1, 71, 2.2], [8659, 1, 103, 4.88]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 9, 2.38], [5491, 2, 9, 0.9], [362, 2, 9, 0.81], [130, 1, 9, 1.36], [589, 2, 7, 1.45], [2327, 2, 9, 1.82], [326, 2, 7, 2.16], [8672, 2, 12, 2.4], [417, 2, 9, 0.87], [6935, 2, 19, 4.24], [206, 2, 9, 0.77], [6936, 2, 9, 2.7], [142, 2, 9, 0.87], [8915, 2, 7, 1.21], [11838, 2, 9, 1.02], [12721, 2, 11, 1.45], [2049, 3, 14, 1.23], [1446, 2, 7, 0.85], [2778, 2, 13, 1.34], [523, 2, 7, 1.72], [8676, 2, 7, 1.0], [305, 2, 7, 1.89], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [12349, 1, 7, 1.02], [145, 2, 7, 2.13], [8675, 2, 9, 2.44], [990, 2, 7, 2.15], [76, 2, 7, 1.62], [143, 2, 7, 0.92], [8673, 2, 7, 2.91], [11836, 2, 9, 0.86], [146, 2, 7, 2.68], [6158, 2, 10, 2.15], [151, 1, 7, 0.85], [3495, 3, 21, 2.26], [2050, 3, 7, 0.64], [10149, 3, 21, 2.47], [2055, 3, 7, 2.04], [12350, 1, 7, 1.02], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [144, 2, 7, 2.63], [7885, 4, 7, 1.31], [2859, 15, 7, 1.6], [88, 10, 16, 2.1], [10993, 2, 7, 1.44], [3848, 2, 7, 2.06], [7705, 2, 7, 2.28], [2423, 80, 9, 4.85], [2424, 29, 9, 3.34], [2423, 29, 7, 1.5], [12351, 1, 7, 0.85], [2424, 80, 7, 4.47], [60, 3, 8, 3.51], [1519, 3, 13, 0.68], [201, 3, 7, 2.66], [1414, 15, 7, 0.67], [12373, 1, 11, 2.99], [345, 3, 7, 1.99], [5208, 3, 13, 0.87], [6952, 1, 7, 0.97], [20927, 1, 7, 1.89], [11954, 1, 7, 0.85], [432, 3, 9, 4.04], [3, 2, 7, 2.93], [3430, 15, 7, 2.08], [7004, 1, 7, 1.96], [7886, 4, 7, 0.81], [11811, 1, 7, 1.93], [2703, 3, 7, 4.17], [13928, 1, 9, 0.75], [2331, 1, 7, 1.16], [114, 3, 7, 1.1], [3429, 15, 7, 0.94], [11089, 1, 7, 0.83], [105, 3, 7, 1.05], [5584, 3, 7, 5.0], [3981, 3, 13, 0.91], [944, 15, 7, 0.77], [308, 1, 11, 2.72], [7706, 2, 7, 2.62], [10407, 10, 10, 3.25], [8274, 3, 7, 3.88], [1886, 2, 7, 0.67], [1490, 1, 7, 3.85], [10410, 10, 10, 3.76], [22317, 3, 10, 0.81], [94, 4, 7, 3.11], [3891, 1, 7, 1.58], [3893, 1, 7, 2.19], [8898, 3, 7, 4.88], [9690, 1, 7, 1.75], [9082, 3, 24, 2.83], [7708, 2, 7, 2.62], [3028, 3, 7, 0.83], [6497, 1, 7, 0.85], [9342, 2, 8, 0.85], [10409, 10, 11, 3.34], [10406, 10, 12, 3.4], [1274, 1, 7, 2.39], [952, 4, 7, 4.27], [20196, 2, 7, 3.8], [823, 1, 7, 4.28], [21003, 2, 7, 3.61], [10897, 1, 13, 0.84], [10408, 10, 10, 3.27], [20682, 1, 7, 2.02], [10398, 2, 7, 3.31], [5812, 3, 7, 2.91], [5946, 1, 7, 2.83], [13928, 2, 7, 2.9], [11677, 1, 7, 2.24], [4253, 1, 7, 1.41], [957, 2, 7, 0.92], [6630, 3, 7, 3.56], [7703, 2, 7, 2.62], [186, 3, 12, 0.97], [20680, 1, 7, 1.33], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [20555, 2, 7, 0.85], [8635, 3, 7, 3.88], [2438, 2, 8, 3.32], [2805, 137, 10, 5.0], [1050, 2, 7, 0.69], [8897, 3, 7, 4.88], [3478, 2, 7, 2.46], [3980, 4, 7, 2.49], [3889, 1, 7, 2.19], [11603, 2, 7, 2.95], [9068, 1, 7, 3.0], [5811, 3, 8, 3.52], [9, 1, 7, 0.75], [11812, 1, 7, 0.89], [9491, 21, 16, 4.69], [2703, 3, 308, 5.95], [13928, 1, 41, 3.1], [2331, 1, 119, 2.94], [114, 3, 245, 2.88], [3429, 15, 18, 2.01], [11089, 1, 174, 2.61], [105, 3, 245, 2.82], [5584, 3, 230, 6.0], [3981, 3, 1690, 2.69], [944, 15, 15, 1.84], [308, 1, 169, 4.5], [7706, 2, 178, 4.4], [10407, 10, 1171, 5.03], [1886, 2, 158, 2.45], [1490, 1, 49, 5.63], [10410, 10, 1171, 5.54], [22317, 3, 268, 3.13], [94, 4, 117, 4.89], [3891, 1, 125, 3.36], [3893, 1, 123, 3.97], [8898, 3, 283, 6.0], [9690, 1, 51, 3.35], [9082, 3, 2464, 4.58], [7708, 2, 178, 4.4], [3028, 3, 55, 1.9], [6497, 1, 38, 2.63], [9342, 2, 156, 1.93], [10409, 10, 1765, 5.13], [10406, 10, 1765, 5.19], [1274, 1, 55, 3.99], [952, 4, 72, 6.0], [20196, 2, 285, 5.58], [823, 1, 39, 6.0], [21003, 2, 285, 5.4], [10897, 1, 355, 2.62], [10408, 10, 768, 5.06], [20682, 1, 622, 3.81], [10398, 2, 73, 4.73], [5812, 3, 594, 4.7], [5946, 1, 124, 4.61], [13928, 2, 23, 4.68], [11677, 1, 450, 4.02], [4253, 1, 173, 3.19], [957, 2, 108, 2.7], [6630, 3, 94, 5.34], [7703, 2, 178, 4.4], [186, 3, 668, 2.76], [20680, 1, 622, 3.12], [95, 3, 1066, 4.47], [963, 3, 394, 5.77], [20555, 2, 58, 2.63], [2438, 2, 629, 5.11], [2805, 137, 178, 6.0], [8897, 3, 283, 6.0], [3980, 4, 485, 4.28], [3889, 1, 123, 3.97], [11603, 2, 191, 4.74], [5811, 3, 396, 5.13], [9, 1, 12, 1.82], [11812, 1, 120, 2.31], [9491, 21, 2039, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 14, 1.08], [6935, 2, 23, 5.0], [6936, 2, 9, 2.9], [305, 2, 7, 1.46], [8672, 2, 12, 2.4], [615, 2, 7, 1.73], [1504, 2, 11, 1.4], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 9, 1.82], [146, 2, 7, 2.14], [143, 2, 7, 1.94], [2328, 2, 9, 1.85], [11737, 2, 7, 1.51], [141, 2, 7, 2.25], [5491, 2, 9, 0.86], [205, 2, 7, 1.24], [144, 2, 7, 2.11], [8650, 2, 11, 4.63], [8676, 2, 7, 1.6], [8673, 2, 9, 2.44], [417, 2, 7, 2.25], [589, 2, 6, 0.79], [3, 2, 7, 1.27], [206, 2, 7, 0.74], [22247, 2, 7, 2.33], [6097, 80, 7, 3.92], [6497, 1, 7, 0.85], [11836, 2, 7, 1.44], [2055, 3, 7, 0.9], [990, 2, 7, 1.41], [12344, 1, 7, 2.03], [523, 2, 7, 1.27], [593, 2, 10, 0.89], [6097, 29, 7, 4.54], [6098, 80, 7, 4.99], [12345, 1, 7, 3.92], [11739, 2, 7, 1.04], [88, 10, 17, 2.02], [2054, 3, 7, 1.19], [8915, 2, 7, 0.79], [75, 2, 7, 0.9], [326, 2, 7, 0.85], [60, 3, 8, 1.51], [1492, 1, 7, 1.39], [1413, 15, 7, 1.49], [411, 2, 7, 0.74], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [6098, 29, 7, 4.99], [947, 15, 7, 0.85], [7704, 2, 7, 2.62], [10149, 3, 21, 2.64], [345, 3, 7, 2.21], [2859, 15, 7, 1.7], [11738, 2, 7, 1.34], [1243, 2, 7, 2.14], [13264, 29, 7, 1.0], [1049, 2, 7, 0.73], [1490, 1, 7, 0.69], [229, 1, 7, 3.98], [964, 15, 7, 0.77], [7004, 1, 7, 1.56], [201, 3, 7, 3.31], [2331, 1, 7, 1.0], [10407, 10, 10, 3.25], [186, 3, 12, 1.53], [5208, 3, 13, 0.98], [22558, 3, 6, 1.74], [114, 3, 7, 2.16], [432, 3, 7, 4.24], [1163, 3, 7, 2.79], [7705, 2, 7, 2.62], [957, 2, 7, 1.43], [7706, 2, 7, 2.62], [12229, 2, 7, 0.87], [13928, 1, 7, 2.9], [2421, 80, 7, 2.08], [3478, 2, 7, 2.46], [11404, 2, 7, 0.83], [10408, 10, 10, 3.27], [10406, 10, 12, 3.4], [7036, 1, 7, 0.87], [19687, 1, 9, 2.21], [11687, 2, 7, 0.96], [10410, 10, 10, 3.76], [12870, 1, 7, 3.68], [11490, 1, 7, 1.52], [1886, 2, 7, 0.67], [9784, 1, 7, 1.94], [410, 1, 7, 1.17], [11159, 1, 14, 3.48], [22125, 2, 7, 0.69], [2703, 3, 7, 4.17], [21781, 2, 7, 0.9], [11161, 1, 10, 2.68], [9760, 29, 7, 1.64], [956, 2, 7, 1.02], [7708, 2, 7, 2.62], [12373, 1, 11, 2.99], [9065, 2, 7, 0.92], [5976, 1, 7, 3.81], [94, 4, 7, 1.16], [11689, 2, 7, 0.9], [105, 3, 7, 1.6], [8599, 1, 7, 0.98], [1274, 1, 7, 3.68], [2805, 137, 10, 2.31], [9372, 1, 7, 3.35], [9209, 29, 7, 1.04], [11953, 1, 7, 0.9], [5584, 3, 7, 5.0], [11811, 1, 7, 1.93], [4253, 1, 7, 1.41], [11160, 1, 7, 2.56], [8600, 1, 7, 1.96], [3495, 3, 21, 1.51], [247, 1, 7, 2.84], [2991, 3, 7, 4.45], [8283, 2, 8, 0.63], [21269, 3, 7, 3.75], [12764, 2, 8, 1.47], [20927, 1, 7, 1.35], [8285, 2, 8, 0.85], [11887, 2, 8, 1.0], [1691, 1, 7, 2.56], [20555, 2, 7, 0.9], [9491, 21, 16, 3.25], [5076, 1, 7, 2.16], [11677, 1, 7, 2.24], [4372, 1, 7, 0.96], [3934, 5, 9, 1.11], [12304, 1, 7, 4.83], [8635, 3, 7, 2.24], [12979, 25, 15, 1.91], [13198, 29, 7, 2.44], [3230, 1, 7, 0.83], [7705, 2, 178, 4.4], [957, 2, 91, 3.21], [7706, 2, 178, 4.4], [12229, 2, 153, 2.65], [13928, 1, 47, 4.68], [2421, 80, 71, 3.15], [11404, 2, 35, 1.9], [10408, 10, 768, 5.06], [10406, 10, 1765, 5.19], [7036, 1, 128, 2.65], [19687, 1, 26, 4.49], [11687, 2, 102, 2.03], [10410, 10, 1171, 5.54], [12870, 1, 139, 5.46], [11490, 1, 91, 3.23], [1886, 2, 158, 2.45], [9784, 1, 72, 3.72], [410, 1, 53, 2.59], [11159, 1, 497, 5.26], [22125, 2, 21, 1.76], [2703, 3, 308, 5.95], [21781, 2, 52, 2.32], [11161, 1, 501, 4.46], [9760, 29, 60, 3.35], [956, 2, 107, 2.8], [7708, 2, 178, 4.4], [12373, 1, 535, 4.76], [9065, 2, 153, 2.35], [5976, 1, 157, 5.59], [94, 4, 123, 2.94], [11689, 2, 102, 1.96], [105, 3, 244, 3.38], [8599, 1, 145, 2.76], [1274, 1, 81, 5.46], [2805, 137, 182, 4.09], [9372, 1, 229, 5.13], [9209, 29, 33, 2.82], [11953, 1, 202, 2.68], [5584, 3, 230, 6.0], [11811, 1, 453, 3.71], [4253, 1, 173, 3.19], [11160, 1, 501, 4.34], [8600, 1, 145, 3.74], [3495, 3, 969, 3.28], [247, 1, 86, 4.62], [2991, 3, 160, 6.0], [21269, 3, 296, 5.53], [12764, 2, 749, 3.24], [20927, 1, 40, 2.78], [8285, 2, 485, 2.64], [11887, 2, 193, 2.78], [1691, 1, 88, 4.34], [20555, 2, 58, 2.68], [9491, 21, 2005, 5.02], [5076, 1, 131, 3.94], [11677, 1, 450, 4.02], [4372, 1, 69, 2.74], [3934, 5, 588, 2.89], [12304, 1, 102, 6.0], [12979, 25, 657, 3.69], [13198, 29, 62, 4.22], [3230, 1, 199, 2.61]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.92], [361, 2, 9, 1.17], [6935, 2, 23, 5.0], [12721, 2, 14, 3.11], [206, 2, 7, 0.77], [2049, 3, 17, 0.72], [8676, 2, 7, 1.1], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 0.88], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [8650, 2, 7, 2.44], [8648, 2, 7, 2.02], [2328, 2, 7, 1.77], [2776, 2, 7, 1.38], [11739, 2, 7, 1.31], [2327, 2, 7, 1.48], [11837, 2, 7, 0.87], [12352, 1, 7, 3.98], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 1.35], [146, 2, 7, 2.16], [11835, 2, 7, 0.94], [6497, 1, 9, 0.85], [583, 2, 7, 2.23], [6097, 80, 7, 4.06], [326, 2, 7, 0.85], [10574, 3, 9, 3.47], [145, 2, 7, 2.81], [144, 2, 7, 2.81], [10149, 3, 26, 1.2], [11836, 2, 7, 1.04], [6097, 29, 7, 1.27], [75, 2, 7, 2.38], [12344, 1, 7, 2.59], [1413, 15, 7, 0.89], [6496, 1, 7, 2.07], [1243, 2, 7, 1.41], [6098, 80, 7, 4.99], [8915, 2, 7, 1.25], [1886, 2, 7, 1.42], [247, 1, 7, 3.97], [6098, 29, 7, 2.21], [944, 15, 9, 0.77], [1490, 1, 7, 0.9], [2859, 15, 7, 1.37], [3934, 5, 10, 0.86], [2049, 1, 9, 0.71], [201, 3, 7, 0.85], [6158, 2, 9, 3.5], [3478, 2, 7, 2.46], [12350, 1, 7, 3.92], [11489, 1, 7, 2.48], [13928, 1, 7, 2.9], [7084, 3, 7, 4.74], [1703, 2, 7, 1.53], [8599, 1, 7, 1.36], [9342, 2, 8, 0.85], [4253, 1, 7, 1.41], [3982, 3, 20, 0.67], [308, 1, 11, 1.91], [186, 3, 12, 0.97], [11887, 2, 8, 1.0], [11885, 2, 7, 0.98], [94, 4, 7, 0.92], [2438, 2, 8, 3.32], [11811, 1, 7, 1.93], [11490, 1, 7, 0.92], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5812, 3, 7, 3.84], [229, 1, 7, 3.07], [2821, 3, 13, 0.91], [4232, 80, 7, 1.33], [5939, 3, 7, 1.14], [11671, 1, 7, 0.81], [5813, 3, 8, 3.52], [3495, 3, 21, 1.51], [5811, 3, 8, 4.0], [8898, 3, 7, 5.0], [12764, 2, 8, 1.47], [3980, 4, 7, 2.49], [7036, 1, 7, 0.87], [2108, 3, 8, 1.43], [1049, 2, 7, 0.69], [105, 3, 7, 1.81], [13928, 2, 7, 2.9], [9690, 1, 7, 1.91], [5584, 3, 7, 5.0], [8274, 3, 7, 3.88], [22573, 2, 7, 1.91], [3981, 3, 13, 0.91], [1523, 1, 7, 1.39], [11886, 2, 7, 1.44], [10407, 10, 10, 3.25], [192, 3, 12, 4.76], [1277, 1, 7, 0.9], [8897, 3, 7, 5.0], [10124, 1, 7, 4.18], [2991, 3, 7, 4.13], [10406, 10, 12, 3.4], [20927, 1, 7, 1.28], [10147, 1, 7, 0.71], [11677, 1, 7, 2.24], [3334, 5, 7, 2.01], [2438, 1, 7, 3.21], [8635, 3, 7, 3.88], [11678, 1, 7, 3.18], [1701, 2, 7, 1.06], [23275, 2, 7, 1.91], [7004, 1, 7, 1.42], [4001, 3, 10, 0.97], [23031, 3, 7, 2.71], [9373, 5, 7, 5.0], [1274, 1, 7, 3.79], [10516, 3, 8, 3.0], [5976, 1, 7, 3.81], [10181, 26, 8, 0.93], [3984, 3, 8, 0.91], [9065, 2, 7, 0.92], [14041, 3, 7, 0.88], [8285, 2, 8, 0.85], [973, 3, 8, 1.13], [7005, 1, 7, 1.42], [19924, 2, 7, 1.83], [9069, 1, 7, 2.27], [10409, 10, 11, 3.34], [11812, 1, 7, 0.89], [1648, 1, 7, 2.23], [8188, 10, 10, 3.3], [12241, 3, 7, 0.73], [942, 3, 7, 2.26], [11811, 1, 453, 3.71], [11490, 1, 93, 3.16], [10398, 2, 148, 3.1], [5812, 3, 591, 5.62], [229, 1, 81, 4.85], [2821, 3, 672, 2.32], [4232, 80, 159, 3.11], [5939, 3, 268, 2.92], [11671, 1, 314, 2.59], [5813, 3, 591, 5.3], [3495, 3, 969, 3.28], [5811, 3, 394, 5.6], [8898, 3, 288, 6.0], [12764, 2, 749, 3.24], [3980, 4, 485, 4.28], [7036, 1, 128, 2.65], [2108, 3, 180, 3.21], [105, 3, 175, 3.52], [13928, 2, 23, 4.68], [9690, 1, 63, 3.62], [5584, 3, 230, 6.0], [22573, 2, 71, 3.69], [3981, 3, 1690, 2.69], [1523, 1, 47, 3.17], [11886, 2, 193, 3.22], [10407, 10, 1171, 5.03], [192, 3, 939, 6.0], [1277, 1, 197, 2.68], [8897, 3, 288, 6.0], [10124, 1, 101, 5.96], [2991, 3, 162, 5.9], [10406, 10, 1765, 5.19], [20927, 1, 40, 2.71], [10147, 1, 68, 2.49], [11677, 1, 450, 4.02], [3334, 5, 183, 3.78], [2438, 1, 53, 4.99], [11678, 1, 448, 4.95], [1701, 2, 170, 2.84], [23275, 2, 71, 3.69], [7004, 1, 27, 2.49], [4001, 3, 821, 2.75], [23031, 3, 414, 4.49], [9373, 5, 86, 6.0], [1274, 1, 81, 5.57], [10516, 3, 591, 4.78], [5976, 1, 157, 5.59], [10181, 26, 139, 2.71], [3984, 3, 1690, 2.69], [9065, 2, 153, 2.35], [14041, 3, 603, 2.65], [8285, 2, 485, 2.64], [973, 3, 1195, 2.91], [7005, 1, 27, 2.49], [19924, 2, 64, 3.61], [9069, 1, 122, 4.05], [10409, 10, 1765, 5.13], [11812, 1, 120, 2.31], [1648, 1, 47, 4.01], [8188, 10, 744, 5.08], [942, 3, 296, 4.04]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 0.88], [6935, 2, 23, 4.18], [2328, 2, 9, 1.85], [130, 1, 9, 1.36], [141, 2, 9, 0.95], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [2327, 2, 9, 1.82], [362, 2, 7, 2.49], [6936, 2, 9, 3.12], [143, 2, 7, 0.93], [145, 2, 7, 0.96], [248, 1, 7, 0.69], [205, 2, 7, 1.24], [5493, 2, 7, 2.06], [417, 2, 7, 1.04], [146, 2, 7, 1.1], [75, 2, 7, 1.79], [11737, 2, 7, 1.56], [1124, 2, 12, 1.24], [523, 2, 7, 1.72], [2049, 3, 17, 0.77], [12721, 2, 11, 1.45], [1005, 2, 7, 2.48], [8853, 2, 7, 2.88], [206, 2, 7, 0.74], [326, 2, 9, 1.68], [8673, 2, 9, 2.2], [8915, 2, 9, 2.88], [144, 2, 7, 1.34], [11835, 2, 7, 0.69], [11739, 2, 9, 2.98], [88, 10, 17, 2.02], [434, 2, 7, 1.29], [142, 2, 9, 0.87], [151, 1, 9, 2.5], [435, 2, 7, 1.48], [8676, 2, 7, 1.29], [11234, 2, 9, 1.56], [6158, 2, 10, 1.5], [11738, 2, 7, 1.38], [11836, 2, 7, 1.36], [1413, 15, 7, 0.99], [7705, 2, 7, 3.18], [10574, 3, 10, 3.0], [944, 15, 7, 0.77], [7706, 2, 7, 3.18], [3, 2, 7, 2.44], [2054, 3, 7, 2.44], [2859, 15, 7, 2.64], [12720, 2, 7, 1.89], [74, 1, 7, 3.84], [3478, 2, 7, 3.43], [2055, 3, 7, 0.89], [10149, 3, 21, 1.49], [3429, 15, 7, 0.87], [6497, 1, 7, 0.85], [7004, 1, 7, 2.04], [60, 3, 8, 2.96], [411, 2, 7, 0.74], [11089, 1, 7, 0.79], [13928, 1, 7, 2.9], [2057, 3, 7, 1.25], [13028, 3, 7, 1.96], [7036, 1, 7, 1.74], [18964, 1, 7, 0.66], [6097, 80, 7, 5.0], [13260, 29, 7, 2.25], [8274, 3, 7, 1.56], [3893, 1, 7, 4.33], [13034, 3, 9, 2.28], [14037, 3, 7, 1.85], [94, 4, 7, 4.81], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [7707, 2, 7, 1.44], [1243, 2, 7, 1.83], [21793, 1, 8, 4.0], [1490, 1, 7, 3.85], [3889, 1, 7, 4.33], [11490, 1, 7, 1.68], [22317, 3, 8, 1.35], [7708, 2, 7, 2.62], [345, 3, 7, 2.43], [6098, 80, 7, 4.56], [7703, 2, 7, 2.62], [229, 1, 7, 3.98], [3495, 3, 21, 1.51], [6630, 3, 7, 4.62], [2991, 3, 7, 4.18], [13023, 3, 10, 1.04], [336, 15, 7, 0.98], [2805, 137, 10, 1.06], [11581, 29, 7, 1.89], [6098, 29, 7, 2.21], [6627, 3, 7, 0.85], [23275, 2, 7, 1.91], [13033, 3, 7, 2.22], [2331, 1, 7, 1.23], [13263, 29, 7, 0.83], [1049, 2, 7, 0.69], [247, 1, 7, 3.12], [1274, 1, 7, 2.89], [8635, 3, 7, 1.17], [6628, 3, 7, 0.9], [6097, 29, 7, 3.08], [114, 3, 7, 2.37], [5940, 3, 7, 0.87], [12229, 2, 7, 0.87], [20555, 2, 7, 0.75], [942, 3, 7, 2.26], [6496, 1, 7, 2.07], [11914, 1, 7, 0.79], [10406, 10, 12, 3.4], [8898, 3, 7, 2.51], [9372, 1, 7, 3.35], [192, 3, 12, 4.76], [10411, 10, 10, 3.4], [215, 4, 7, 4.5], [21269, 3, 7, 2.09], [3934, 5, 9, 1.11], [9760, 29, 7, 2.81], [186, 3, 12, 2.32], [11770, 1, 7, 2.06], [10407, 10, 10, 3.25], [5209, 3, 8, 0.96], [12373, 1, 11, 2.99], [10527, 3, 13, 2.94], [10408, 10, 10, 3.27], [5812, 3, 7, 2.49], [6360, 10, 15, 1.51], [21781, 2, 7, 0.9], [4940, 1, 7, 0.71], [7005, 1, 7, 1.56], [9082, 3, 24, 2.83], [12870, 1, 7, 3.35], [1886, 2, 7, 0.85], [19687, 1, 7, 2.33], [3891, 1, 124, 4.21], [7707, 2, 178, 3.22], [1243, 2, 85, 3.61], [21793, 1, 205, 5.78], [1490, 1, 49, 5.63], [3889, 1, 41, 6.0], [11490, 1, 91, 3.39], [22317, 3, 215, 3.13], [7708, 2, 178, 4.4], [345, 3, 251, 4.21], [6098, 80, 25, 6.0], [7703, 2, 178, 4.4], [229, 1, 82, 5.76], [3495, 3, 969, 3.28], [6630, 3, 80, 6.0], [2991, 3, 161, 5.96], [13023, 3, 603, 2.82], [2805, 137, 184, 2.84], [11581, 29, 60, 3.67], [6098, 29, 38, 3.99], [6627, 3, 79, 2.63], [23275, 2, 71, 3.69], [13033, 3, 597, 4.0], [2331, 1, 119, 3.01], [13263, 29, 73, 2.61], [247, 1, 87, 4.9], [1274, 1, 81, 4.67], [6628, 3, 50, 2.32], [6097, 29, 35, 4.86], [114, 3, 162, 3.98], [5940, 3, 90, 1.94], [12229, 2, 153, 2.65], [20555, 2, 58, 2.53], [942, 3, 296, 4.04], [6496, 1, 40, 3.85], [11914, 1, 87, 2.57], [10406, 10, 1765, 5.19], [8898, 3, 282, 4.29], [9372, 1, 229, 5.13], [192, 3, 939, 6.0], [10411, 10, 768, 5.19], [215, 4, 37, 6.0], [21269, 3, 294, 3.87], [3934, 5, 588, 2.89], [9760, 29, 24, 3.88], [186, 3, 440, 3.93], [11770, 1, 214, 3.84], [10407, 10, 1171, 5.03], [5209, 3, 377, 2.56], [12373, 1, 535, 4.76], [10527, 3, 870, 4.74], [10408, 10, 768, 5.06], [5812, 3, 588, 4.26], [6360, 10, 744, 3.3], [21781, 2, 52, 2.32], [4940, 1, 122, 2.49], [7005, 1, 27, 2.63], [9082, 3, 2464, 4.58], [12870, 1, 137, 5.13], [1886, 2, 158, 2.63], [19687, 1, 30, 4.11]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.33], [6936, 2, 13, 3.9], [2327, 2, 7, 1.37], [362, 2, 9, 1.39], [8648, 2, 7, 4.05], [11681, 2, 25, 4.17], [8650, 2, 9, 3.91], [326, 2, 9, 1.32], [205, 2, 9, 1.14], [1446, 2, 7, 0.92], [2328, 2, 9, 1.6], [305, 2, 9, 2.48], [2049, 3, 9, 0.89], [130, 1, 7, 2.31], [2775, 2, 9, 1.33], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [593, 2, 9, 0.96], [143, 2, 7, 1.27], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [523, 2, 7, 1.49], [7004, 1, 7, 1.71], [12350, 1, 7, 0.97], [7036, 1, 7, 2.73], [1124, 2, 9, 1.09], [151, 1, 7, 0.71], [990, 2, 7, 1.94], [5165, 1, 9, 1.87], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [2050, 3, 7, 2.33], [201, 3, 7, 3.56], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [345, 3, 9, 1.68], [11770, 1, 7, 0.92], [2055, 3, 7, 2.83], [3891, 1, 7, 1.46], [7084, 3, 9, 5.0], [2057, 3, 7, 2.83], [9372, 1, 7, 3.47], [5165, 2, 15, 2.8], [7005, 1, 7, 1.08], [3893, 1, 7, 1.34], [998, 2, 9, 1.81], [12870, 1, 7, 1.58], [10574, 3, 8, 1.91], [3334, 5, 7, 2.87], [6097, 29, 9, 5.0], [7885, 4, 7, 0.94], [6098, 80, 7, 2.68], [20927, 1, 7, 1.66], [346, 3, 7, 0.8], [11089, 1, 7, 1.67], [12344, 1, 7, 1.02], [10149, 3, 24, 1.49], [6158, 2, 7, 2.58], [3889, 1, 7, 1.42], [1492, 1, 9, 0.68], [432, 3, 7, 2.08], [11953, 1, 7, 0.79], [1519, 3, 16, 0.68], [4032, 29, 7, 1.0], [411, 2, 7, 1.04], [2423, 80, 7, 4.75], [972, 3, 9, 2.0], [5151, 2, 7, 2.02], [13034, 3, 9, 3.01], [229, 1, 7, 3.98], [3576, 25, 7, 2.73], [2331, 1, 7, 2.49], [346, 1, 9, 0.73], [13244, 1, 7, 0.9], [11426, 25, 7, 1.14], [11737, 2, 7, 0.94], [11583, 29, 9, 0.76], [3, 2, 7, 1.58], [5076, 1, 7, 1.65], [2160, 68, 7, 1.96], [11490, 1, 7, 1.37], [2805, 137, 7, 1.69], [12764, 2, 10, 0.99], [6494, 1, 7, 2.92], [8677, 3, 8, 2.13], [13893, 2, 7, 3.45], [1701, 2, 7, 3.04], [3575, 25, 7, 1.49], [11814, 1, 7, 0.92], [3577, 25, 7, 0.71], [1413, 15, 7, 0.83], [3478, 2, 7, 1.19], [11813, 1, 7, 3.17], [23238, 29, 7, 0.71], [75, 2, 7, 1.56], [2438, 2, 8, 3.47], [13023, 3, 8, 2.24], [4253, 1, 7, 2.98], [4033, 29, 7, 0.94], [9289, 29, 7, 2.91], [8283, 2, 8, 1.31], [11404, 2, 7, 0.83], [5812, 3, 7, 3.84], [23238, 25, 7, 0.71], [9967, 2, 7, 3.67], [9069, 1, 7, 1.81], [9971, 2, 7, 3.67], [2878, 1, 7, 0.85], [5584, 3, 7, 2.66], [1163, 3, 7, 2.79], [957, 2, 7, 1.75], [9491, 21, 13, 2.57], [114, 3, 7, 2.19], [21697, 3, 7, 0.87], [4586, 10, 16, 1.4], [10407, 10, 12, 3.17], [13249, 29, 7, 1.99], [823, 1, 7, 1.1], [289, 3, 7, 1.96], [9965, 2, 7, 4.13], [10609, 1, 7, 2.98], [336, 15, 7, 0.98], [9964, 2, 7, 1.83], [4076, 3, 7, 2.73], [7324, 1, 7, 1.69], [12647, 1, 7, 1.49], [1277, 1, 9, 1.06], [2528, 29, 7, 1.87], [3495, 3, 16, 1.44], [1523, 1, 7, 1.2], [4372, 10, 12, 0.97], [11425, 25, 7, 1.1], [13034, 3, 430, 5.43], [229, 1, 70, 5.4], [3576, 25, 87, 4.15], [2331, 1, 101, 3.91], [346, 1, 117, 2.71], [13244, 1, 43, 2.32], [11426, 25, 87, 3.0], [11737, 2, 49, 2.36], [11583, 29, 41, 2.76], [3, 2, 105, 3.0], [5076, 1, 112, 3.07], [2160, 68, 113, 3.38], [11490, 1, 93, 2.79], [2805, 137, 155, 3.11], [12764, 2, 539, 3.09], [6494, 1, 43, 4.34], [8677, 3, 254, 3.55], [13893, 2, 232, 4.86], [1701, 2, 140, 4.46], [3575, 25, 87, 2.91], [11814, 1, 193, 2.34], [3577, 25, 76, 2.13], [1413, 15, 86, 2.25], [3478, 2, 65, 2.61], [11813, 1, 267, 4.59], [23238, 29, 26, 2.04], [75, 2, 125, 2.98], [2438, 2, 538, 4.89], [13023, 3, 511, 3.66], [4253, 1, 145, 4.4], [4033, 29, 89, 2.36], [9289, 29, 54, 4.34], [8283, 2, 408, 2.73], [11404, 2, 90, 2.25], [5812, 3, 505, 5.26], [23238, 25, 51, 2.04], [9967, 2, 232, 5.09], [9069, 1, 85, 3.15], [9971, 2, 232, 5.09], [2878, 1, 70, 2.27], [5584, 3, 199, 4.08], [957, 2, 92, 3.17], [9491, 21, 1805, 4.0], [114, 3, 208, 3.61], [21697, 3, 156, 2.29], [4586, 10, 1264, 2.8], [10407, 10, 1001, 4.59], [13249, 29, 55, 3.41], [823, 1, 35, 2.52], [289, 3, 496, 3.37], [9965, 2, 232, 5.55], [10609, 1, 245, 4.4], [9964, 2, 232, 3.26], [4076, 3, 172, 4.15], [7324, 1, 52, 3.11], [12647, 1, 189, 2.91], [1277, 1, 170, 2.48], [2528, 29, 82, 3.29], [3495, 3, 829, 2.85], [1523, 1, 41, 2.62], [4372, 10, 945, 2.39], [11425, 25, 103, 2.52]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [2049, 3, 13, 0.85], [326, 2, 8, 1.03], [141, 2, 7, 0.75], [205, 2, 7, 1.21], [151, 1, 7, 0.89], [589, 2, 10, 0.81], [1776, 1, 7, 2.85], [146, 2, 7, 1.12], [206, 2, 7, 0.69], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [1777, 1, 7, 2.22], [8650, 2, 7, 3.66], [5151, 2, 7, 2.02], [2778, 2, 7, 1.06], [88, 10, 17, 1.75], [2050, 3, 7, 1.46], [10, 2, 11, 2.55], [10149, 3, 25, 3.26], [76, 2, 9, 2.75], [8649, 2, 7, 2.86], [8677, 3, 8, 3.08], [2054, 3, 9, 2.34], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 0.92], [10825, 21, 14, 0.72], [410, 1, 7, 1.17], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.36], [6158, 2, 10, 1.16], [3495, 3, 26, 2.49], [5081, 2, 7, 1.0], [167, 3, 9, 3.34], [7005, 1, 7, 0.77], [1492, 1, 7, 0.7], [7036, 1, 7, 2.48], [8676, 2, 7, 2.54], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [168, 3, 9, 1.09], [5812, 3, 8, 4.4], [57, 1, 7, 1.02], [94, 4, 7, 3.04], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [335, 3, 18, 3.78], [418, 2, 7, 0.71], [2336, 3, 8, 1.74], [6097, 29, 7, 4.54], [6097, 80, 7, 4.54], [8853, 2, 14, 4.07], [346, 1, 7, 1.08], [490, 1, 7, 0.98], [1490, 1, 7, 0.87], [998, 2, 7, 2.5], [20927, 1, 7, 1.5], [95, 3, 21, 0.92], [79, 1, 7, 0.73], [9069, 1, 7, 2.1], [22316, 3, 7, 0.94], [6098, 29, 7, 4.85], [14017, 3, 7, 1.29], [6098, 80, 7, 4.85], [1070, 7, 13, 0.73], [346, 3, 8, 0.91], [8898, 3, 7, 3.98], [997, 2, 7, 2.54], [13034, 3, 8, 2.98], [9760, 29, 7, 1.15], [20498, 1, 7, 2.44], [192, 3, 18, 4.76], [336, 15, 7, 0.98], [5086, 1, 9, 1.64], [8945, 3, 8, 1.41], [7887, 4, 7, 0.71], [12350, 1, 7, 4.0], [5811, 3, 6, 2.16], [7567, 3, 7, 3.89], [22317, 3, 8, 1.35], [11085, 2, 7, 1.33], [12345, 1, 7, 1.96], [12924, 1, 9, 0.86], [5813, 3, 7, 1.98], [12349, 1, 7, 1.94], [229, 1, 7, 4.32], [972, 3, 8, 0.61], [995, 2, 7, 4.74], [9082, 3, 24, 1.17], [1622, 1, 10, 0.74], [8557, 3, 7, 1.53], [12352, 1, 7, 1.94], [20498, 3, 8, 2.4], [996, 2, 7, 4.42], [9691, 1, 7, 2.81], [12346, 1, 7, 1.96], [8104, 1, 7, 0.75], [3049, 3, 7, 4.11], [1080, 3, 7, 1.59], [14018, 3, 7, 0.96], [4076, 3, 7, 5.0], [3900, 3, 7, 3.23], [13023, 3, 8, 1.94], [1703, 2, 7, 2.72], [110, 4, 7, 1.81], [20486, 3, 8, 3.76], [5584, 3, 7, 3.61], [9613, 1, 7, 0.87], [2424, 80, 7, 4.51], [35, 1, 7, 2.02], [972, 1, 7, 0.92], [215, 4, 7, 5.0], [9372, 1, 7, 1.55], [1414, 15, 7, 0.81], [9081, 3, 12, 3.31], [20486, 1, 9, 2.87], [33, 1, 7, 1.42], [114, 3, 7, 0.92], [6497, 1, 7, 1.93], [39, 1, 7, 1.06], [11510, 3, 8, 1.98], [823, 1, 7, 0.69], [3047, 3, 7, 1.06], [1339, 3, 16, 0.73], [2854, 21, 13, 0.84], [18, 1, 7, 0.92], [13893, 2, 7, 3.45], [10529, 29, 7, 2.85], [9069, 1, 96, 3.66], [22316, 3, 292, 2.09], [6098, 29, 17, 5.62], [14017, 3, 154, 2.89], [6098, 80, 35, 5.62], [1070, 7, 467, 2.4], [346, 3, 569, 2.06], [8898, 3, 221, 5.63], [997, 2, 217, 3.69], [13034, 3, 459, 4.14], [9760, 29, 66, 2.31], [20498, 1, 77, 3.6], [192, 3, 1288, 5.9], [5086, 1, 144, 3.79], [8945, 3, 544, 2.57], [12350, 1, 563, 5.17], [5811, 3, 459, 3.82], [22317, 3, 248, 2.52], [11085, 2, 431, 2.5], [12345, 1, 563, 3.12], [12924, 1, 42, 2.69], [5813, 3, 459, 3.64], [12349, 1, 563, 3.1], [229, 1, 57, 5.47], [972, 3, 552, 1.78], [995, 2, 217, 5.9], [9082, 3, 1955, 2.92], [8557, 3, 159, 3.18], [12352, 1, 563, 3.1], [20498, 3, 459, 3.56], [996, 2, 217, 5.57], [9691, 1, 59, 4.46], [12346, 1, 563, 3.12], [8104, 1, 144, 1.78], [3049, 3, 108, 5.27], [1080, 3, 122, 2.74], [14018, 3, 154, 2.57], [4076, 3, 155, 6.0], [13023, 3, 459, 4.1], [1703, 2, 149, 3.87], [110, 4, 190, 2.97], [20486, 3, 465, 4.92], [5584, 3, 197, 4.77], [9613, 1, 58, 2.03], [2424, 80, 152, 5.66], [35, 1, 103, 3.18], [972, 1, 92, 2.08], [215, 4, 34, 6.0], [9372, 1, 210, 2.71], [1414, 15, 92, 1.97], [9081, 3, 423, 4.47], [20486, 1, 78, 4.52], [33, 1, 103, 2.58], [114, 3, 225, 2.07], [6497, 1, 34, 3.09], [39, 1, 103, 2.22], [11510, 3, 536, 3.15], [823, 1, 38, 1.85], [3047, 3, 248, 2.22], [2854, 21, 983, 2.0], [18, 1, 22, 1.69], [13893, 2, 249, 4.61], [10529, 29, 37, 4.0]]</t>
+  </si>
+  <si>
+    <t>1QD</t>
+  </si>
+  <si>
+    <t>8QD</t>
+  </si>
+  <si>
+    <t>170QD</t>
+  </si>
+  <si>
+    <t>236QD</t>
+  </si>
+  <si>
+    <t>337QD</t>
+  </si>
+  <si>
+    <t>339QD</t>
+  </si>
+  <si>
+    <t>401QD</t>
   </si>
   <si>
     <t>501QD</t>
   </si>
   <si>
-    <t>401QD</t>
-  </si>
-  <si>
-    <t>236QD</t>
-  </si>
-  <si>
-    <t>337QD</t>
+    <t>632QD</t>
+  </si>
+  <si>
+    <t>703QD</t>
   </si>
   <si>
     <t>797QD</t>
   </si>
   <si>
-    <t>339QD</t>
-  </si>
-  <si>
-    <t>703QD</t>
-  </si>
-  <si>
-    <t>1QD</t>
-  </si>
-  <si>
     <t>962QD</t>
-  </si>
-  <si>
-    <t>170QD</t>
-  </si>
-  <si>
-    <t>632QD</t>
-  </si>
-  <si>
-    <t>8QD</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>401</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>797</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>703</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>962</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>170</v>
+        <v>703</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[8672, 2, 6, 0.73], [305, 2, 4, 0.25], [3, 2, 4, 0.47], [326, 2, 4, 0.54], [589, 2, 5, 0.37], [6935, 2, 8, 1.27], [205, 2, 4, 0.37], [143, 2, 4, 0.58], [75, 2, 5, 0.87], [144, 2, 4, 0.49], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 6, 0.2], [1776, 1, 4, 0.61], [146, 2, 4, 0.52], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.74], [151, 1, 4, 0.37], [8648, 2, 4, 1.52], [2328, 2, 4, 0.39], [8650, 2, 4, 1.9], [5151, 2, 4, 1.02], [2050, 3, 5, 0.41], [7886, 4, 4, 0.45], [141, 2, 4, 0.53], [248, 1, 4, 0.2], [88, 10, 10, 0.45], [74, 1, 4, 1.53], [2054, 3, 4, 0.54], [2991, 3, 4, 2.05], [2057, 3, 5, 0.47], [7004, 1, 4, 0.37], [1446, 2, 4, 0.2], [1492, 1, 4, 1.22], [362, 2, 4, 0.48], [2055, 3, 4, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.9], [345, 3, 4, 0.57], [7005, 1, 4, 0.38], [3889, 1, 4, 0.2], [11234, 2, 6, 0.2], [10825, 21, 8, 1.28], [7084, 3, 4, 2.03], [5081, 2, 4, 0.69], [12870, 1, 4, 2.33], [7036, 1, 4, 0.43], [10149, 3, 15, 0.99], [3478, 2, 4, 1.03], [1654, 2, 4, 0.54], [94, 4, 4, 0.4], [3891, 1, 4, 0.27], [167, 3, 5, 1.15], [432, 3, 5, 0.62], [33, 1, 4, 0.83], [9827, 3, 4, 0.2], [411, 2, 4, 0.37], [168, 3, 4, 1.23], [8677, 3, 6, 0.65], [79, 1, 4, 0.2], [3893, 1, 4, 0.2], [23, 1, 4, 0.67], [22247, 2, 6, 1.15], [201, 3, 4, 0.57], [1490, 1, 4, 0.2], [1124, 2, 5, 0.2], [5812, 3, 6, 0.81], [96, 11, 17, 0.38], [11737, 2, 4, 0.2], [9760, 29, 4, 0.74], [35, 1, 4, 0.83], [6158, 2, 6, 0.51], [335, 3, 9, 0.4], [12225, 1, 4, 0.43], [412, 1, 4, 1.14], [346, 1, 4, 0.56], [20927, 1, 4, 0.49], [229, 1, 4, 2.57], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [45, 2, 4, 0.64], [998, 2, 5, 1.52], [3980, 4, 5, 1.25], [413, 1, 4, 1.07], [21269, 3, 4, 1.6], [346, 3, 4, 0.51], [3495, 3, 15, 1.31], [95, 3, 11, 0.54], [856, 1, 4, 0.36], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [8898, 3, 4, 0.75], [34, 1, 4, 0.38], [1070, 7, 9, 0.46], [9372, 1, 4, 1.74], [9691, 1, 4, 1.27], [9690, 1, 4, 0.97], [11954, 1, 4, 0.2], [20498, 1, 4, 0.48], [14017, 3, 4, 1.04], [974, 3, 5, 0.88], [418, 2, 4, 0.46], [14037, 3, 4, 0.44], [22317, 3, 4, 0.51], [972, 3, 5, 0.65], [20498, 3, 5, 1.08], [1091, 1, 4, 0.66], [9828, 3, 4, 0.46], [8274, 3, 4, 0.46], [38, 1, 4, 0.38], [5584, 3, 4, 1.19], [5811, 3, 4, 1.81], [1414, 15, 4, 0.42], [12350, 1, 4, 0.53], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [24, 1, 4, 1.04], [3048, 3, 4, 1.24], [110, 4, 4, 0.38], [1080, 3, 4, 0.8], [13034, 3, 5, 1.09], [8104, 1, 4, 0.44], [13260, 29, 4, 0.73], [1767, 2, 4, 0.59], [336, 15, 4, 0.38], [11811, 1, 4, 0.94], [955, 2, 4, 0.47], [8635, 3, 4, 0.5], [39, 1, 4, 0.59], [10780, 10, 4, 0.98], [2878, 1, 4, 0.61], [9082, 3, 15, 0.83], [3981, 3, 10, 1.42], [4203, 1, 4, 0.55], [8672, 2, 206, 4.48], [305, 2, 125, 2.8], [3, 2, 89, 2.67], [326, 2, 58, 3.44], [6935, 2, 206, 4.81], [205, 2, 80, 2.49], [143, 2, 108, 2.86], [75, 2, 107, 3.41], [144, 2, 109, 2.71], [12721, 2, 204, 3.5], [145, 2, 109, 2.76], [1776, 1, 80, 2.94], [146, 2, 109, 2.77], [2778, 2, 114, 2.87], [6936, 2, 206, 4.28], [1777, 1, 93, 3.16], [151, 1, 49, 2.48], [8648, 2, 161, 5.34], [2328, 2, 109, 3.35], [8650, 2, 161, 6.0], [5151, 2, 17, 4.32], [2050, 3, 260, 3.41], [141, 2, 132, 3.42], [248, 1, 35, 2.49], [88, 10, 403, 5.17], [74, 1, 144, 5.34], [2054, 3, 408, 2.35], [2991, 3, 116, 5.98], [2057, 3, 346, 2.68], [7004, 1, 51, 2.49], [1446, 2, 98, 3.24], [1492, 1, 32, 3.65], [362, 2, 90, 3.59], [2055, 3, 346, 2.6], [76, 2, 93, 3.35], [8649, 2, 161, 6.0], [345, 3, 219, 2.85], [7005, 1, 51, 2.5], [3889, 1, 91, 2.61], [11234, 2, 134, 3.07], [10825, 21, 270, 4.0], [5081, 2, 137, 3.07], [12870, 1, 99, 6.0], [7036, 1, 92, 3.55], [10149, 3, 646, 3.49], [1654, 2, 79, 2.34], [94, 4, 87, 3.91], [3891, 1, 91, 3.93], [167, 3, 164, 4.08], [432, 3, 221, 2.95], [33, 1, 100, 3.25], [9827, 3, 63, 2.69], [411, 2, 80, 2.49], [168, 3, 345, 3.67], [8677, 3, 214, 3.07], [79, 1, 35, 2.47], [3893, 1, 91, 3.93], [23, 1, 81, 3.04], [22247, 2, 204, 4.02], [201, 3, 219, 2.85], [1490, 1, 37, 2.48], [1124, 2, 135, 3.24]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [144, 2, 4, 0.54], [130, 1, 4, 0.45], [8915, 2, 5, 0.46], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 4, 1.66], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [205, 2, 4, 0.37], [8650, 2, 4, 1.53], [593, 2, 5, 0.4], [326, 2, 4, 0.72], [146, 2, 4, 0.57], [145, 2, 4, 0.5], [5493, 2, 4, 0.44], [3840, 1, 5, 0.29], [7036, 1, 4, 1.2], [2049, 3, 6, 0.21], [2776, 2, 4, 0.2], [88, 10, 9, 1.01], [141, 2, 5, 0.39], [7004, 1, 4, 1.24], [206, 2, 4, 0.37], [9760, 29, 4, 0.2], [990, 2, 4, 0.27], [1007, 2, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.56], [2912, 1, 4, 0.77], [3893, 1, 4, 0.2], [142, 2, 4, 0.4], [2057, 3, 4, 0.56], [12870, 1, 4, 1.68], [9372, 1, 4, 1.84], [10993, 2, 4, 0.6], [2050, 3, 4, 0.56], [3889, 1, 4, 0.25], [2054, 3, 4, 0.2], [7084, 3, 4, 1.07], [523, 2, 4, 0.38], [2991, 3, 4, 1.1], [7886, 4, 5, 0.44], [10, 2, 4, 0.36], [3891, 1, 4, 0.2], [7573, 1, 9, 1.95], [1622, 1, 4, 0.2], [10149, 3, 15, 1.21], [5208, 3, 4, 0.46], [75, 2, 4, 1.0], [20927, 1, 4, 1.26], [3, 2, 5, 0.62], [11234, 2, 5, 0.75], [997, 2, 4, 1.26], [1886, 2, 4, 0.2], [12721, 2, 4, 1.46], [346, 3, 5, 0.21], [22247, 2, 5, 1.14], [996, 2, 4, 0.6], [229, 1, 4, 1.05], [998, 2, 4, 0.81], [94, 4, 4, 0.9], [2912, 2, 7, 1.24], [972, 3, 5, 0.51], [9491, 21, 12, 0.22], [35, 1, 4, 1.29], [76, 2, 5, 0.6], [413, 1, 4, 1.38], [33, 1, 4, 0.93], [83, 2, 4, 0.95], [13928, 1, 4, 0.7], [5076, 1, 4, 0.97], [2805, 137, 4, 1.33], [5209, 3, 5, 0.96], [8104, 1, 5, 0.59], [346, 1, 4, 0.43], [8676, 2, 4, 0.97], [7887, 4, 4, 0.97], [38, 1, 4, 1.13], [8898, 3, 4, 2.55], [12212, 29, 4, 0.47], [3495, 3, 10, 0.92], [84, 2, 4, 0.9], [34, 1, 4, 1.07], [11490, 1, 4, 0.46], [10407, 10, 7, 1.19], [632, 11, 13, 0.45], [11770, 1, 4, 0.6], [13928, 2, 4, 0.55], [995, 2, 4, 1.64], [11772, 1, 4, 0.2], [9690, 1, 4, 0.47], [411, 2, 4, 0.48], [39, 1, 4, 1.1], [9691, 1, 4, 0.72], [1703, 2, 4, 0.83], [11953, 1, 4, 0.2], [82, 2, 4, 0.82], [5584, 3, 4, 1.02], [12764, 2, 5, 0.99], [13893, 2, 4, 1.17], [7567, 3, 4, 1.08], [74, 1, 4, 0.99], [10410, 10, 9, 1.66], [972, 1, 4, 0.53], [5164, 1, 4, 1.95], [21269, 3, 4, 0.99], [1523, 1, 4, 0.6], [23961, 3, 4, 1.88], [2331, 1, 4, 0.64], [13023, 3, 5, 0.8], [10408, 10, 5, 1.84], [4253, 1, 4, 0.58], [1492, 1, 4, 0.45], [4076, 3, 4, 1.42], [6097, 80, 4, 0.76], [6805, 1, 4, 0.51], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [13034, 3, 4, 1.2], [3429, 15, 4, 0.44], [3047, 3, 4, 1.14], [21059, 1, 4, 0.82], [8283, 2, 5, 0.68], [1243, 2, 4, 1.13], [3576, 29, 4, 0.42], [3430, 15, 4, 0.95], [2436, 4, 4, 0.56], [8674, 2, 4, 0.97], [6097, 29, 4, 0.76], [10780, 10, 4, 1.15], [19931, 1, 4, 1.26], [11812, 1, 4, 0.46], [2327, 2, 125, 3.09], [305, 2, 122, 2.96], [6935, 2, 232, 6.0], [2778, 2, 131, 3.06], [589, 2, 127, 3.01], [144, 2, 125, 3.13], [8915, 2, 188, 2.44], [143, 2, 123, 2.95], [2328, 2, 125, 3.53], [6936, 2, 232, 5.4], [8648, 2, 186, 5.21], [2775, 2, 131, 3.06], [205, 2, 89, 2.31], [8650, 2, 186, 4.94], [593, 2, 189, 3.07], [326, 2, 30, 4.87], [146, 2, 125, 3.18], [145, 2, 125, 3.06], [5493, 2, 107, 2.48], [3840, 1, 142, 3.59], [7036, 1, 107, 5.16], [2049, 3, 181, 2.85], [2776, 2, 131, 3.27], [88, 10, 467, 4.23], [141, 2, 130, 2.86], [206, 2, 36, 1.72], [9760, 29, 74, 2.87], [362, 2, 118, 3.09], [2055, 3, 158, 2.07], [2912, 1, 44, 4.46], [3893, 1, 104, 2.85], [142, 2, 153, 2.39], [2057, 3, 158, 2.07], [12870, 1, 114, 5.33], [9372, 1, 188, 5.31], [2050, 3, 158, 2.07], [3889, 1, 104, 3.51], [2054, 3, 267, 2.38], [7084, 3, 109, 3.69], [523, 2, 153, 2.36], [2991, 3, 135, 5.78], [10, 2, 103, 2.52], [3891, 1, 104, 2.9], [7573, 1, 306, 5.44], [1622, 1, 53, 2.97], [10149, 3, 735, 4.24], [75, 2, 120, 4.02], [3, 2, 101, 3.46], [11234, 2, 152, 4.44], [997, 2, 198, 4.46], [1886, 2, 130, 3.17], [12721, 2, 233, 4.44], [346, 3, 525, 2.95], [22247, 2, 233, 4.41], [996, 2, 193, 5.27], [229, 1, 70, 3.65], [998, 2, 198, 3.64], [94, 4, 100, 4.24], [2912, 2, 323, 4.81], [972, 3, 493, 3.68], [9491, 21, 1763, 3.05], [35, 1, 73, 3.95], [76, 2, 91, 3.23]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.87], [6935, 2, 5, 1.34], [130, 1, 4, 0.2], [326, 2, 5, 0.7], [8648, 2, 4, 0.96], [144, 2, 4, 0.47], [2327, 2, 5, 0.54], [589, 2, 5, 0.2], [593, 2, 5, 0.52], [143, 2, 4, 1.01], [205, 2, 5, 0.51], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [2328, 2, 4, 0.51], [141, 2, 4, 0.53], [6936, 2, 4, 1.85], [151, 1, 4, 0.38], [2778, 2, 4, 0.2], [2049, 3, 8, 0.41], [146, 2, 4, 0.57], [88, 10, 10, 0.19], [615, 2, 4, 0.87], [9507, 3, 5, 0.2], [145, 2, 4, 0.48], [7036, 1, 4, 1.23], [1446, 2, 4, 0.61], [8853, 2, 4, 1.2], [362, 2, 4, 0.5], [3893, 1, 4, 0.7], [2055, 3, 5, 1.73], [75, 2, 4, 0.9], [417, 2, 4, 0.55], [11737, 2, 5, 0.2], [2050, 3, 4, 1.69], [12870, 1, 4, 0.7], [523, 2, 4, 0.53], [159, 3, 6, 0.24], [2057, 3, 4, 1.78], [142, 2, 4, 0.52], [2991, 3, 4, 1.1], [997, 2, 4, 0.78], [7084, 3, 4, 0.28], [9760, 29, 4, 0.2], [3982, 3, 12, 1.18], [11739, 2, 4, 0.73], [996, 2, 4, 0.55], [6158, 2, 5, 0.2], [998, 2, 4, 0.69], [98, 11, 10, 0.54], [84, 2, 4, 0.4], [9372, 1, 4, 2.31], [7885, 4, 4, 0.4], [10388, 2, 4, 1.08], [8672, 2, 5, 0.73], [972, 3, 4, 2.01], [8898, 3, 4, 3.1], [2912, 1, 4, 0.76], [3980, 4, 4, 1.2], [410, 1, 5, 0.4], [9491, 21, 10, 0.51], [10386, 2, 4, 1.51], [1492, 1, 4, 0.45], [13928, 1, 5, 0.2], [995, 2, 4, 1.16], [22316, 3, 4, 0.51], [22247, 2, 4, 1.1], [8677, 3, 4, 0.9], [3981, 3, 13, 1.15], [308, 1, 5, 0.95], [13893, 2, 4, 1.13], [2912, 2, 5, 1.77], [229, 1, 4, 0.7], [33, 1, 4, 1.83], [10631, 2, 4, 1.98], [11953, 1, 4, 0.47], [11490, 1, 4, 0.55], [35, 1, 4, 1.33], [159, 1, 4, 0.51], [7886, 4, 4, 0.49], [11770, 1, 4, 0.2], [22317, 3, 5, 0.51], [10407, 10, 6, 1.35], [10780, 10, 4, 1.67], [10410, 10, 6, 1.31], [1413, 15, 4, 0.53], [10149, 3, 13, 1.48], [6497, 1, 4, 0.45], [335, 3, 10, 0.39], [9691, 1, 4, 0.89], [74, 1, 5, 0.62], [10387, 2, 4, 0.95], [3478, 2, 4, 1.69], [972, 1, 4, 2.01], [12271, 2, 4, 1.51], [8897, 3, 4, 3.6], [345, 3, 4, 0.51], [9690, 1, 4, 1.09], [9971, 2, 4, 0.69], [159, 16, 4, 0.49], [2331, 1, 4, 0.88], [9082, 3, 18, 0.83], [3048, 3, 4, 0.92], [37, 1, 4, 0.66], [4076, 3, 4, 0.85], [11085, 2, 4, 1.27], [34, 1, 4, 0.43], [23611, 3, 4, 0.42], [7704, 2, 4, 1.64], [12721, 2, 4, 0.97], [11404, 2, 4, 0.43], [1163, 3, 4, 0.59], [20498, 3, 5, 0.99], [1523, 1, 4, 0.8], [11510, 3, 5, 0.5], [10936, 2, 4, 1.7], [45, 2, 4, 0.46], [4001, 3, 7, 1.13], [12764, 2, 5, 0.84], [9965, 2, 4, 0.69], [105, 3, 4, 0.51], [9964, 2, 4, 0.69], [38, 1, 4, 0.66], [215, 4, 4, 0.77], [1895, 3, 4, 0.74], [12858, 1, 4, 0.48], [10408, 10, 5, 1.64], [8635, 3, 4, 1.01], [5812, 3, 4, 0.51], [10411, 10, 5, 1.71], [11738, 2, 4, 0.88], [12212, 29, 4, 0.45], [2805, 137, 5, 0.47], [8659, 1, 4, 1.01], [11812, 1, 4, 0.46], [192, 3, 9, 1.01], [10093, 3, 9, 0.9], [2438, 2, 5, 1.32], [11685, 2, 200, 5.3], [6935, 2, 208, 4.76], [8648, 2, 165, 4.65], [144, 2, 52, 3.47], [2327, 2, 111, 2.93], [589, 2, 113, 2.55], [593, 2, 167, 3.17], [143, 2, 109, 3.38], [205, 2, 38, 2.88], [11681, 2, 200, 5.29], [305, 2, 108, 2.88], [2328, 2, 111, 2.89], [141, 2, 114, 3.53], [6936, 2, 208, 6.0], [151, 1, 35, 1.93], [2778, 2, 115, 3.01], [2049, 3, 406, 2.82], [146, 2, 111, 3.51], [88, 10, 424, 2.78], [615, 2, 80, 3.55], [145, 2, 78, 3.77], [7036, 1, 93, 4.22], [1446, 2, 112, 3.99], [8853, 2, 208, 4.32], [362, 2, 104, 2.86], [3893, 1, 108, 2.83], [2055, 3, 336, 5.36], [75, 2, 127, 3.17], [417, 2, 114, 2.95], [11737, 2, 20, 3.21], [2050, 3, 336, 5.27], [12870, 1, 119, 5.14], [523, 2, 114, 3.0], [159, 3, 249, 3.24], [2057, 3, 336, 5.47], [142, 2, 114, 2.89], [2991, 3, 119, 6.0], [997, 2, 208, 2.94], [7084, 3, 96, 3.38], [9760, 29, 50, 2.81], [3982, 3, 578, 4.3], [11739, 2, 30, 2.61], [996, 2, 208, 2.5], [6158, 2, 194, 3.19], [998, 2, 208, 2.77], [98, 11, 610, 2.85], [9372, 1, 196, 5.89], [10388, 2, 187, 3.58], [8672, 2, 210, 4.63], [8898, 3, 205, 6.0], [2912, 1, 45, 3.77], [3980, 4, 418, 3.8], [9491, 21, 1854, 2.33], [10386, 2, 158, 4.35], [1492, 1, 32, 2.31], [13928, 1, 35, 3.76], [995, 2, 208, 3.67], [22316, 3, 274, 2.42], [22247, 2, 248, 3.56], [8677, 3, 216, 3.67], [3981, 3, 1397, 3.56], [308, 1, 118, 5.23], [13893, 2, 231, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 0.47], [6935, 2, 8, 0.72], [2049, 3, 8, 0.49], [362, 2, 4, 1.2], [589, 2, 6, 0.2], [141, 2, 4, 0.54], [75, 2, 4, 0.99], [130, 1, 4, 0.5], [3, 2, 4, 0.2], [1776, 1, 4, 0.58], [205, 2, 4, 0.56], [8672, 2, 6, 0.97], [2778, 2, 5, 0.2], [6936, 2, 5, 1.27], [7886, 4, 4, 0.41], [593, 2, 5, 0.36], [305, 2, 4, 0.48], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [1777, 1, 4, 0.93], [8648, 2, 5, 0.77], [2328, 2, 4, 0.2], [88, 10, 10, 0.83], [11681, 2, 5, 2.33], [990, 2, 4, 0.2], [8650, 2, 4, 1.15], [5151, 2, 4, 0.9], [412, 1, 4, 0.91], [2050, 3, 5, 0.66], [144, 2, 4, 0.5], [2991, 3, 4, 1.6], [76, 2, 4, 1.11], [345, 3, 5, 0.2], [10149, 3, 15, 1.32], [57, 1, 5, 0.2], [22247, 2, 5, 1.06], [146, 2, 4, 0.56], [2054, 3, 4, 1.36], [45, 2, 4, 1.12], [7004, 1, 4, 0.47], [417, 2, 4, 0.29], [143, 2, 4, 0.46], [201, 3, 5, 0.42], [21793, 1, 4, 1.03], [167, 3, 5, 1.09], [413, 1, 4, 0.35], [2055, 3, 4, 0.94], [168, 3, 5, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [7084, 3, 4, 0.88], [11234, 2, 5, 0.2], [12721, 2, 6, 0.96], [308, 1, 5, 2.44], [10, 2, 4, 0.42], [335, 3, 11, 0.39], [7036, 1, 4, 1.71], [3495, 3, 13, 0.92], [5081, 2, 4, 0.2], [13028, 3, 4, 0.5], [10825, 21, 8, 0.37], [410, 1, 4, 0.2], [12870, 1, 4, 2.33], [8649, 2, 4, 1.15], [11404, 2, 4, 0.43], [79, 1, 4, 0.38], [3889, 1, 4, 0.52], [96, 11, 14, 0.46], [1492, 1, 4, 0.2], [23, 1, 4, 1.23], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [9827, 3, 4, 0.2], [1504, 2, 5, 0.2], [94, 4, 4, 0.51], [13260, 29, 4, 0.46], [7005, 1, 4, 0.49], [5812, 3, 5, 1.22], [3891, 1, 4, 0.25], [1490, 1, 5, 0.2], [411, 2, 4, 0.56], [25, 1, 4, 0.95], [12353, 1, 5, 0.71], [33, 1, 4, 0.66], [21269, 3, 4, 1.45], [12349, 1, 4, 2.08], [998, 2, 4, 0.69], [5086, 1, 5, 1.11], [9069, 1, 4, 1.62], [7567, 3, 4, 1.62], [229, 1, 4, 2.57], [3980, 4, 4, 1.31], [2878, 1, 5, 0.54], [20927, 1, 4, 0.61], [346, 3, 5, 0.21], [35, 1, 4, 0.46], [1703, 2, 4, 1.38], [9691, 1, 4, 1.4], [5209, 3, 5, 0.19], [997, 2, 4, 0.6], [11914, 1, 4, 0.2], [14037, 3, 4, 0.36], [8274, 3, 4, 1.09], [5584, 3, 4, 0.44], [5660, 2, 5, 1.05], [11811, 1, 4, 1.0], [1070, 7, 9, 0.39], [159, 3, 6, 0.27], [1519, 3, 12, 0.39], [24, 1, 4, 0.95], [8898, 3, 4, 2.67], [996, 2, 4, 1.21], [1091, 1, 4, 0.2], [23961, 3, 4, 0.5], [1124, 2, 5, 0.46], [13034, 3, 5, 1.26], [9081, 3, 7, 1.28], [12661, 1, 4, 2.1], [952, 4, 4, 2.39], [27, 1, 4, 1.23], [8945, 3, 5, 2.49], [1413, 15, 4, 0.62], [22317, 3, 5, 0.51], [336, 15, 4, 0.2], [10529, 29, 4, 1.44], [9372, 1, 4, 0.39], [1163, 3, 4, 0.47], [12225, 1, 4, 0.58], [9082, 3, 18, 0.67], [6097, 29, 4, 0.59], [4203, 1, 4, 0.53], [9760, 29, 4, 0.45], [66, 16, 4, 0.45], [2109, 3, 9, 0.48], [8635, 3, 4, 0.6], [12346, 1, 4, 1.0], [5811, 3, 4, 0.36], [2104, 3, 6, 1.13], [326, 2, 72, 2.63], [6935, 2, 262, 4.2], [2049, 3, 508, 2.05], [362, 2, 130, 3.47], [589, 2, 71, 2.46], [141, 2, 123, 2.64], [75, 2, 114, 3.61], [3, 2, 97, 2.47], [1776, 1, 89, 2.72], [205, 2, 50, 1.98], [8672, 2, 223, 4.57], [2778, 2, 123, 2.71], [6936, 2, 223, 4.33], [7886, 4, 66, 1.79], [593, 2, 180, 2.48], [305, 2, 115, 2.53], [151, 1, 53, 2.46], [1777, 1, 100, 3.38], [8648, 2, 176, 4.86], [2328, 2, 119, 2.59], [88, 10, 442, 4.1], [11681, 2, 214, 6.0], [990, 2, 41, 2.81], [8650, 2, 176, 4.9], [5151, 2, 19, 2.89], [412, 1, 66, 3.33], [2050, 3, 373, 2.86], [144, 2, 119, 2.59], [2991, 3, 127, 5.29], [76, 2, 85, 3.91], [345, 3, 235, 3.47], [10149, 3, 676, 4.91], [57, 1, 59, 2.35], [22247, 2, 221, 4.15], [146, 2, 119, 3.84], [45, 2, 85, 4.3], [7004, 1, 55, 1.93], [417, 2, 122, 4.03], [143, 2, 117, 2.5], [201, 3, 235, 4.71], [21793, 1, 190, 5.28], [167, 3, 178, 3.66], [413, 1, 68, 2.39], [2055, 3, 368, 4.35], [168, 3, 321, 3.03], [74, 1, 155, 4.17], [346, 1, 125, 2.46], [11234, 2, 145, 2.91], [12721, 2, 221, 3.58], [308, 1, 132, 6.0], [10, 2, 63, 4.58], [335, 3, 1056, 5.08], [7036, 1, 100, 4.49], [3495, 3, 754, 3.21], [5081, 2, 150, 2.65], [13028, 3, 116, 2.58], [10825, 21, 505, 2.33], [410, 1, 84, 2.39], [12870, 1, 108, 5.93], [8649, 2, 176, 4.62], [11404, 2, 73, 2.09], [79, 1, 22, 1.5]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.5], [8915, 2, 5, 0.46], [589, 2, 6, 0.2], [2327, 2, 4, 0.52], [2778, 2, 4, 0.2], [6935, 2, 6, 1.69], [2328, 2, 4, 0.76], [5493, 2, 4, 0.44], [305, 2, 4, 0.45], [615, 2, 4, 0.87], [326, 2, 4, 1.22], [6936, 2, 4, 1.66], [8650, 2, 4, 2.03], [8648, 2, 4, 1.65], [1446, 2, 4, 0.28], [7004, 1, 4, 1.24], [2049, 3, 5, 0.21], [593, 2, 5, 0.4], [143, 2, 4, 0.94], [205, 2, 4, 0.37], [10, 2, 5, 0.92], [144, 2, 4, 1.04], [7036, 1, 4, 1.2], [94, 4, 4, 0.4], [990, 2, 4, 0.27], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [141, 2, 4, 0.39], [12224, 1, 4, 0.46], [3891, 1, 4, 0.2], [362, 2, 4, 0.52], [206, 2, 4, 0.37], [2055, 3, 4, 0.56], [75, 2, 4, 1.24], [5208, 3, 4, 0.46], [3889, 1, 5, 0.25], [7886, 4, 5, 0.44], [10993, 2, 4, 0.6], [11234, 2, 5, 0.75], [2054, 3, 4, 1.0], [7005, 1, 4, 0.58], [12870, 1, 4, 1.68], [7084, 3, 4, 1.07], [3980, 4, 5, 1.21], [10149, 3, 13, 1.21], [145, 2, 4, 1.0], [2050, 3, 4, 0.56], [2912, 1, 4, 0.77], [5165, 1, 4, 1.02], [8672, 2, 4, 1.19], [20927, 1, 4, 1.26], [998, 2, 4, 0.31], [9760, 29, 4, 0.2], [972, 3, 5, 0.51], [3, 2, 4, 0.62], [3495, 3, 11, 0.92], [229, 1, 4, 0.49], [6158, 2, 5, 2.11], [346, 3, 5, 0.21], [5076, 1, 4, 0.47], [5165, 2, 5, 2.06], [142, 2, 4, 0.36], [7887, 4, 4, 0.97], [523, 2, 4, 0.36], [74, 1, 4, 0.99], [9372, 1, 4, 0.59], [11953, 1, 4, 0.2], [11770, 1, 4, 0.2], [1492, 1, 4, 0.2], [12721, 2, 5, 0.96], [9491, 21, 12, 0.22], [3981, 3, 11, 0.23], [2912, 2, 7, 1.61], [2423, 80, 4, 1.97], [11772, 1, 4, 0.46], [6497, 1, 4, 0.41], [5434, 1, 4, 0.83], [7573, 1, 9, 1.95], [5584, 3, 4, 2.8], [12229, 2, 4, 0.49], [2438, 2, 5, 1.64], [346, 1, 4, 0.43], [335, 3, 9, 0.4], [10388, 2, 4, 1.05], [10407, 10, 7, 1.19], [11179, 1, 4, 0.27], [823, 1, 4, 0.44], [3975, 4, 4, 1.26], [6496, 1, 4, 0.37], [5209, 3, 5, 0.46], [2805, 137, 4, 1.33], [4253, 1, 4, 0.54], [11812, 1, 4, 0.2], [3900, 3, 4, 1.81], [12764, 2, 6, 0.23], [1622, 1, 4, 0.45], [1703, 2, 4, 0.83], [11490, 1, 4, 0.46], [8676, 2, 4, 0.97], [972, 1, 4, 1.01], [13893, 2, 4, 1.17], [22247, 2, 4, 1.64], [412, 1, 4, 0.64], [6097, 80, 4, 0.76], [2991, 3, 4, 1.37], [10386, 2, 4, 1.79], [11814, 1, 4, 0.48], [7567, 3, 4, 1.08], [6805, 1, 4, 0.51], [10410, 10, 9, 1.31], [8635, 3, 4, 0.87], [1274, 1, 4, 0.48], [37, 1, 4, 1.04], [788, 2, 4, 0.47], [8283, 2, 5, 0.68], [10408, 10, 5, 1.84], [389, 4, 4, 1.46], [8104, 1, 4, 1.09], [12212, 29, 4, 0.47], [35, 1, 4, 1.04], [23611, 3, 5, 0.42], [114, 3, 4, 1.03], [1895, 3, 4, 1.24], [76, 2, 4, 0.47], [95, 3, 12, 0.42], [38, 1, 4, 0.66], [12979, 25, 7, 0.71], [3979, 3, 8, 0.42], [10385, 2, 4, 0.52], [12501, 1, 4, 1.24], [220, 4, 4, 0.44], [8274, 3, 4, 0.87], [4232, 80, 4, 1.82], [24257, 1, 4, 0.48], [5435, 1, 4, 0.69], [9690, 1, 4, 0.47], [8659, 1, 4, 0.41], [440, 3, 4, 0.75], [88, 10, 467, 4.23], [8915, 2, 188, 2.44], [589, 2, 127, 3.01], [2327, 2, 125, 3.09], [2778, 2, 131, 3.06], [6935, 2, 232, 6.0], [2328, 2, 125, 3.53], [5493, 2, 107, 2.48], [305, 2, 122, 2.96], [615, 2, 72, 5.14], [6936, 2, 232, 5.4], [8650, 2, 186, 5.54], [8648, 2, 186, 5.21], [1446, 2, 50, 3.79], [2049, 3, 181, 2.85], [593, 2, 189, 3.07], [143, 2, 123, 3.44], [205, 2, 89, 2.31], [10, 2, 29, 4.53], [144, 2, 123, 3.56], [7036, 1, 107, 5.16], [94, 4, 100, 4.24], [3893, 1, 104, 2.85], [146, 2, 125, 3.69], [141, 2, 130, 2.86], [12224, 1, 109, 2.36], [3891, 1, 104, 2.9], [362, 2, 118, 3.09], [206, 2, 36, 1.72], [2055, 3, 158, 2.07], [75, 2, 143, 4.02], [3889, 1, 104, 3.51], [11234, 2, 152, 4.44], [7005, 1, 23, 3.47], [12870, 1, 114, 5.33], [7084, 3, 109, 3.69], [3980, 4, 473, 4.02], [10149, 3, 735, 4.24], [145, 2, 125, 3.56], [2050, 3, 158, 2.07], [2912, 1, 50, 3.46], [5165, 1, 49, 4.13], [8672, 2, 234, 5.75], [998, 2, 198, 3.64], [9760, 29, 60, 3.37], [972, 3, 493, 3.68], [3, 2, 119, 3.46], [3495, 3, 795, 3.74], [229, 1, 70, 3.03], [6158, 2, 211, 6.0], [346, 3, 525, 2.95], [5076, 1, 108, 3.0], [5165, 2, 314, 5.26], [142, 2, 129, 2.79], [523, 2, 129, 2.79], [74, 1, 192, 4.96], [9372, 1, 226, 4.71], [11953, 1, 165, 3.14], [11770, 1, 181, 3.35], [1492, 1, 31, 3.11], [12721, 2, 233, 4.06], [9491, 21, 1763, 3.05]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [615, 2, 4, 0.37], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [6936, 2, 5, 1.35], [205, 2, 4, 0.51], [130, 1, 4, 0.2], [144, 2, 4, 0.47], [8648, 2, 4, 0.96], [2049, 3, 8, 0.41], [88, 10, 10, 0.19], [7036, 1, 4, 1.23], [326, 2, 4, 0.7], [589, 2, 5, 0.2], [8650, 2, 5, 0.96], [593, 2, 4, 0.52], [11681, 2, 5, 1.37], [2327, 2, 5, 0.54], [3893, 1, 4, 0.2], [141, 2, 4, 0.53], [151, 1, 4, 0.9], [9507, 3, 4, 0.2], [11685, 2, 4, 1.37], [248, 1, 4, 0.41], [146, 2, 4, 1.07], [2050, 3, 5, 1.69], [2055, 3, 4, 1.73], [143, 2, 4, 0.51], [3980, 4, 5, 1.2], [2054, 3, 5, 1.86], [8672, 2, 4, 0.73], [7885, 4, 4, 0.4], [362, 2, 4, 0.2], [12870, 1, 4, 0.92], [2057, 3, 4, 1.78], [7886, 4, 5, 0.4], [13028, 3, 4, 0.62], [145, 2, 4, 1.03], [7084, 3, 4, 0.28], [3495, 3, 13, 0.92], [523, 2, 4, 0.53], [3975, 4, 4, 1.26], [2991, 3, 5, 1.1], [10149, 3, 13, 1.48], [9760, 29, 4, 0.2], [11404, 2, 4, 0.2], [20927, 1, 4, 1.17], [142, 2, 4, 0.52], [3982, 3, 11, 1.18], [3981, 3, 15, 1.15], [6158, 2, 5, 0.68], [417, 2, 4, 0.55], [214, 3, 9, 0.4], [2912, 1, 4, 1.58], [11953, 1, 4, 0.47], [997, 2, 4, 1.68], [22316, 3, 4, 0.51], [33, 1, 4, 1.83], [229, 1, 4, 0.7], [7887, 4, 5, 0.95], [6497, 1, 4, 1.31], [1492, 1, 5, 0.46], [346, 3, 4, 0.46], [998, 2, 4, 1.17], [972, 3, 4, 1.51], [996, 2, 5, 1.47], [35, 1, 4, 1.83], [389, 4, 5, 0.88], [410, 1, 5, 0.4], [11770, 1, 4, 0.2], [2912, 2, 5, 1.26], [336, 15, 4, 0.37], [7567, 3, 4, 1.47], [74, 1, 4, 0.62], [2104, 3, 6, 0.4], [1413, 15, 4, 0.53], [6496, 1, 4, 0.55], [12721, 2, 4, 0.97], [12212, 29, 4, 0.45], [22317, 3, 5, 0.51], [4176, 4, 4, 1.31], [8673, 2, 4, 2.14], [8677, 3, 4, 0.9], [8676, 2, 4, 0.73], [11085, 2, 5, 1.27], [37, 1, 4, 0.66], [1274, 1, 4, 0.53], [21269, 3, 4, 2.99], [22247, 2, 4, 1.64], [7573, 1, 5, 0.97], [13023, 3, 4, 1.26], [9372, 1, 4, 2.31], [39, 1, 4, 0.51], [823, 1, 4, 0.48], [10388, 2, 4, 1.14], [6494, 1, 4, 0.45], [345, 3, 4, 0.51], [201, 3, 4, 0.51], [12271, 2, 4, 0.7], [10936, 2, 4, 1.7], [96, 11, 13, 1.09], [10408, 10, 5, 1.64], [3577, 25, 4, 0.59], [12225, 1, 4, 0.84], [3, 2, 4, 0.96], [10631, 2, 4, 1.98], [2805, 137, 5, 0.47], [11812, 1, 4, 0.46], [9691, 1, 4, 0.75], [1490, 1, 4, 1.08], [1414, 15, 4, 0.53], [20498, 3, 5, 0.99], [23961, 3, 4, 1.48], [36, 1, 4, 0.66], [192, 3, 9, 1.01], [9690, 1, 4, 1.09], [12764, 2, 5, 0.84], [10386, 2, 4, 0.99], [13928, 1, 4, 0.55], [346, 1, 4, 0.55], [3048, 3, 4, 0.92], [8898, 3, 4, 0.71], [10407, 10, 6, 1.35], [3576, 25, 4, 0.75], [11814, 1, 4, 0.48], [13893, 2, 4, 1.13], [11089, 1, 4, 0.44], [972, 1, 4, 0.5], [1339, 3, 9, 0.42], [5812, 3, 4, 0.51], [10939, 2, 4, 1.93], [1523, 1, 4, 0.8], [1163, 3, 4, 0.59], [491, 10, 5, 1.18], [13035, 3, 4, 1.32], [19931, 1, 4, 1.26], [2878, 1, 4, 0.39], [8659, 1, 4, 1.01], [6935, 2, 208, 4.76], [615, 2, 99, 2.62], [305, 2, 108, 2.88], [2778, 2, 115, 3.01], [6936, 2, 208, 5.14], [205, 2, 80, 2.88], [144, 2, 111, 2.81], [8648, 2, 165, 4.65], [2049, 3, 406, 2.82], [88, 10, 424, 2.78], [7036, 1, 93, 4.22], [589, 2, 113, 2.55], [8650, 2, 165, 4.42], [593, 2, 167, 3.17], [11681, 2, 200, 5.29], [2327, 2, 111, 2.93], [3893, 1, 114, 2.19], [141, 2, 114, 3.53], [11685, 2, 200, 5.3], [248, 1, 19, 1.69], [146, 2, 111, 3.51], [2050, 3, 336, 5.27], [2055, 3, 336, 5.36], [143, 2, 109, 2.89], [3980, 4, 353, 4.3], [2054, 3, 336, 5.61], [8672, 2, 210, 4.63], [362, 2, 104, 2.86], [12870, 1, 100, 5.66], [2057, 3, 336, 5.47], [13028, 3, 127, 2.69], [145, 2, 111, 3.43], [7084, 3, 96, 3.38], [3495, 3, 836, 3.08], [523, 2, 114, 3.0], [3975, 4, 353, 4.43], [2991, 3, 119, 6.0], [10149, 3, 755, 4.09], [9760, 29, 53, 2.81], [11404, 2, 73, 2.67], [20927, 1, 27, 3.72], [142, 2, 114, 2.89], [3982, 3, 578, 4.3], [3981, 3, 1179, 3.95], [6158, 2, 183, 3.19], [417, 2, 114, 2.95], [214, 3, 228, 1.63], [2912, 1, 41, 4.55], [11953, 1, 176, 2.34], [997, 2, 83, 6.0], [22316, 3, 274, 2.42], [229, 1, 72, 2.8], [6497, 1, 13, 4.36], [1492, 1, 13, 3.71], [346, 3, 537, 2.34], [996, 2, 165, 5.53], [389, 4, 153, 3.71], [11770, 1, 160, 2.79], [2912, 2, 284, 4.23], [336, 15, 93, 2.72], [74, 1, 148, 3.75], [1413, 15, 35, 2.02]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 0.96], [5491, 2, 4, 0.2], [362, 2, 4, 0.2], [130, 1, 4, 0.45], [589, 2, 5, 0.52], [2327, 2, 5, 0.51], [326, 2, 4, 1.12], [8672, 2, 5, 0.91], [417, 2, 4, 0.2], [6935, 2, 8, 1.31], [206, 2, 4, 0.2], [6936, 2, 4, 1.09], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [2049, 3, 9, 0.39], [1446, 2, 4, 0.44], [2778, 2, 5, 0.47], [523, 2, 4, 0.66], [8676, 2, 4, 0.52], [305, 2, 4, 0.98], [411, 2, 4, 0.43], [10574, 3, 6, 1.26], [12349, 1, 4, 0.53], [145, 2, 5, 0.49], [8675, 2, 5, 1.23], [990, 2, 5, 0.4], [76, 2, 4, 0.84], [143, 2, 4, 0.48], [8673, 2, 4, 0.97], [11836, 2, 4, 0.2], [146, 2, 4, 0.51], [6158, 2, 6, 0.83], [151, 1, 4, 0.4], [3495, 3, 13, 0.98], [2050, 3, 5, 0.34], [10149, 3, 13, 1.38], [2055, 3, 4, 0.41], [12350, 1, 4, 0.53], [2054, 3, 5, 0.51], [75, 2, 4, 1.67], [144, 2, 4, 0.5], [7885, 4, 5, 0.44], [2859, 15, 4, 0.35], [88, 10, 8, 0.95], [10993, 2, 5, 0.2], [3848, 2, 4, 1.07], [7705, 2, 4, 1.15], [2423, 80, 4, 1.96], [2424, 29, 4, 1.0], [2423, 29, 4, 0.52], [12351, 1, 4, 0.44], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1519, 3, 10, 0.39], [201, 3, 4, 1.01], [1414, 15, 4, 0.35], [12373, 1, 5, 0.45], [345, 3, 4, 1.04], [5208, 3, 8, 0.48], [6952, 1, 4, 0.45], [20927, 1, 4, 0.98], [11954, 1, 4, 0.44], [432, 3, 5, 2.04], [3, 2, 4, 1.52], [3430, 15, 4, 1.08], [7004, 1, 4, 1.02], [7886, 4, 5, 0.44], [11811, 1, 4, 0.38], [2703, 3, 4, 1.65], [13928, 1, 4, 0.2], [2331, 1, 4, 0.6], [114, 3, 4, 0.41], [3429, 15, 4, 0.49], [11089, 1, 4, 0.43], [105, 3, 4, 0.41], [5584, 3, 4, 2.72], [3981, 3, 8, 0.51], [944, 15, 4, 0.4], [308, 1, 5, 0.99], [7706, 2, 4, 1.05], [10407, 10, 6, 1.31], [8274, 3, 4, 2.02], [1886, 2, 4, 0.35], [1490, 1, 4, 0.79], [10410, 10, 6, 1.9], [22317, 3, 6, 0.2], [94, 4, 4, 0.79], [3891, 1, 4, 0.74], [3893, 1, 4, 0.94], [8898, 3, 4, 1.99], [9690, 1, 4, 0.91], [9082, 3, 15, 0.83], [7708, 2, 4, 1.05], [3028, 3, 4, 0.43], [6497, 1, 4, 0.44], [9342, 2, 5, 0.49], [10409, 10, 6, 1.67], [10406, 10, 7, 1.73], [1274, 1, 4, 1.24], [952, 4, 4, 2.22], [20196, 2, 4, 0.72], [823, 1, 4, 1.8], [21003, 2, 4, 0.72], [10897, 1, 8, 0.47], [10408, 10, 6, 1.66], [20682, 1, 4, 1.05], [10398, 2, 4, 1.72], [5812, 3, 4, 1.51], [5946, 1, 4, 1.47], [13928, 2, 4, 0.55], [11677, 1, 4, 1.16], [4253, 1, 4, 0.73], [957, 2, 4, 0.48], [6630, 3, 4, 1.81], [7703, 2, 4, 1.05], [186, 3, 7, 0.52], [20680, 1, 4, 0.69], [95, 3, 8, 0.72], [963, 3, 4, 0.93], [20555, 2, 4, 0.44], [8635, 3, 4, 2.02], [2438, 2, 5, 1.36], [2805, 137, 5, 2.77], [1050, 2, 4, 0.36], [8897, 3, 4, 1.97], [3478, 2, 4, 1.28], [3980, 4, 4, 1.26], [3889, 1, 4, 0.94], [11603, 2, 4, 1.5], [9068, 1, 4, 1.56], [5811, 3, 5, 1.81], [9, 1, 4, 0.39], [11812, 1, 4, 0.46], [9491, 21, 10, 1.24], [141, 2, 133, 3.16], [2328, 2, 128, 4.14], [8650, 2, 192, 4.6], [5491, 2, 92, 3.39], [362, 2, 122, 3.23], [589, 2, 51, 3.23], [2327, 2, 128, 4.11], [8672, 2, 244, 4.19], [417, 2, 133, 3.16], [6935, 2, 240, 6.0], [6936, 2, 240, 4.86], [142, 2, 133, 3.33], [11838, 2, 227, 3.3], [12721, 2, 241, 3.74], [2049, 3, 276, 2.99], [1446, 2, 52, 1.92], [2778, 2, 159, 3.12], [523, 2, 79, 3.51], [8676, 2, 289, 2.78], [305, 2, 74, 3.31], [411, 2, 37, 1.9], [10574, 3, 425, 4.77], [12349, 1, 626, 2.79], [145, 2, 128, 3.91], [8675, 2, 244, 4.22], [76, 2, 110, 3.4], [143, 2, 149, 2.7], [8673, 2, 287, 4.69], [11836, 2, 227, 3.14], [146, 2, 151, 4.46], [6158, 2, 221, 4.94], [151, 1, 56, 2.56], [3495, 3, 816, 4.03], [2050, 3, 410, 2.42], [10149, 3, 760, 4.24], [12350, 1, 626, 2.79], [2054, 3, 161, 2.47], [75, 2, 122, 4.99], [144, 2, 50, 3.7], [2859, 15, 69, 3.38], [88, 10, 563, 3.87], [3848, 2, 168, 3.84], [7705, 2, 149, 4.56], [2423, 80, 123, 6.0], [2424, 29, 29, 6.0], [2423, 29, 37, 3.28], [12351, 1, 626, 2.62], [2424, 80, 167, 6.0], [60, 3, 536, 5.12], [1519, 3, 1416, 2.82], [201, 3, 253, 4.95], [1414, 15, 100, 2.45], [12373, 1, 535, 4.76], [345, 3, 302, 3.77], [5208, 3, 190, 1.94], [6952, 1, 191, 2.75], [11954, 1, 202, 2.63], [432, 3, 101, 6.0], [3, 2, 120, 4.71], [3430, 15, 69, 3.86], [7886, 4, 48, 2.73], [11811, 1, 453, 3.71]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.8], [6936, 2, 4, 1.17], [305, 2, 4, 0.48], [8672, 2, 5, 0.91], [615, 2, 4, 0.2], [1504, 2, 5, 0.58], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [146, 2, 5, 0.62], [143, 2, 4, 1.01], [2328, 2, 4, 0.51], [11737, 2, 4, 0.54], [141, 2, 4, 0.55], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [144, 2, 5, 0.53], [8650, 2, 4, 1.53], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [417, 2, 4, 0.47], [589, 2, 5, 0.2], [3, 2, 4, 0.66], [206, 2, 4, 0.2], [22247, 2, 4, 1.21], [6097, 80, 5, 1.86], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [2055, 3, 4, 0.46], [990, 2, 4, 0.27], [12344, 1, 5, 0.7], [523, 2, 4, 0.66], [593, 2, 5, 0.2], [6097, 29, 4, 2.36], [6098, 80, 4, 2.59], [12345, 1, 4, 2.03], [11739, 2, 4, 0.54], [88, 10, 8, 0.19], [2054, 3, 4, 0.62], [8915, 2, 4, 0.41], [75, 2, 4, 0.47], [326, 2, 4, 0.41], [60, 3, 6, 0.85], [1492, 1, 4, 0.72], [1413, 15, 5, 0.2], [411, 2, 4, 0.37], [1050, 2, 4, 0.38], [6496, 1, 4, 1.05], [6098, 29, 4, 2.59], [947, 15, 4, 0.44], [7704, 2, 4, 1.05], [10149, 3, 13, 1.48], [345, 3, 4, 0.76], [2859, 15, 4, 0.47], [11738, 2, 4, 0.54], [1243, 2, 4, 1.11], [13264, 29, 4, 0.52], [1049, 2, 4, 0.38], [1490, 1, 4, 0.36], [229, 1, 4, 2.07], [964, 15, 4, 0.4], [7004, 1, 4, 0.81], [201, 3, 5, 0.51], [2331, 1, 4, 0.52], [10407, 10, 6, 1.31], [186, 3, 7, 0.67], [5208, 3, 8, 0.54], [22558, 3, 5, 0.2], [114, 3, 4, 1.12], [432, 3, 4, 2.04], [1163, 3, 4, 1.45], [7705, 2, 4, 1.05], [957, 2, 5, 0.51], [7706, 2, 4, 1.05], [12229, 2, 4, 0.45], [13928, 1, 4, 0.55], [2421, 80, 4, 1.08], [3478, 2, 4, 1.28], [11404, 2, 4, 0.43], [10408, 10, 6, 1.66], [10406, 10, 7, 1.73], [7036, 1, 4, 0.43], [19687, 1, 4, 0.7], [11687, 2, 4, 0.5], [10410, 10, 6, 1.9], [12870, 1, 4, 0.94], [11490, 1, 4, 0.55], [1886, 2, 4, 0.35], [9784, 1, 4, 1.01], [410, 1, 4, 0.61], [11159, 1, 7, 0.84], [22125, 2, 4, 0.36], [2703, 3, 4, 1.65], [21781, 2, 4, 0.47], [11161, 1, 5, 1.22], [9760, 29, 4, 0.85], [956, 2, 4, 0.53], [7708, 2, 4, 1.05], [12373, 1, 5, 0.45], [9065, 2, 4, 0.48], [5976, 1, 4, 1.98], [94, 4, 4, 0.6], [11689, 2, 4, 0.47], [105, 3, 4, 0.83], [8599, 1, 4, 0.39], [1274, 1, 4, 1.91], [2805, 137, 5, 0.52], [9372, 1, 4, 1.74], [9209, 29, 4, 0.54], [11953, 1, 4, 0.47], [5584, 3, 4, 2.72], [11811, 1, 4, 0.38], [4253, 1, 4, 0.73], [11160, 1, 4, 1.31], [8600, 1, 4, 0.98], [3495, 3, 13, 0.85], [247, 1, 4, 0.8], [2991, 3, 4, 2.31], [8283, 2, 5, 0.36], [21269, 3, 4, 1.6], [12764, 2, 5, 0.84], [20927, 1, 4, 0.7], [8285, 2, 5, 0.49], [11887, 2, 5, 0.57], [1691, 1, 4, 1.33], [20555, 2, 4, 0.47], [9491, 21, 10, 1.69], [5076, 1, 4, 1.12], [11677, 1, 4, 1.16], [4372, 1, 4, 0.5], [3934, 5, 5, 0.56], [12304, 1, 4, 1.36], [8635, 3, 4, 0.87], [12979, 25, 9, 0.71], [13198, 29, 4, 1.27], [3230, 1, 4, 0.43], [2778, 2, 156, 2.86], [6935, 2, 237, 6.0], [6936, 2, 284, 4.68], [305, 2, 125, 3.24], [8672, 2, 244, 4.19], [615, 2, 107, 3.51], [1504, 2, 173, 3.63], [145, 2, 128, 3.19], [12721, 2, 240, 3.97], [2327, 2, 128, 4.11], [146, 2, 128, 3.92], [143, 2, 126, 3.72], [2328, 2, 128, 4.14], [11737, 2, 19, 2.58], [141, 2, 104, 3.85], [5491, 2, 92, 3.31], [205, 2, 37, 3.03], [144, 2, 101, 3.71], [8650, 2, 191, 6.0], [8676, 2, 244, 3.38], [8673, 2, 244, 5.23], [417, 2, 78, 3.67], [3, 2, 103, 3.49], [206, 2, 37, 3.03], [22247, 2, 240, 4.52], [6097, 80, 57, 5.71], [6497, 1, 33, 3.13], [11836, 2, 227, 3.22], [2055, 3, 410, 2.78], [990, 2, 29, 3.34], [12344, 1, 522, 3.81], [523, 2, 133, 3.51], [593, 2, 154, 3.17], [6097, 29, 29, 6.0], [12345, 1, 613, 5.7], [11739, 2, 58, 2.82], [88, 10, 477, 4.8], [2054, 3, 241, 2.61], [8915, 2, 65, 1.86], [75, 2, 145, 2.68], [326, 2, 92, 2.63], [60, 3, 692, 3.78], [1492, 1, 37, 3.17], [411, 2, 73, 3.03], [6496, 1, 40, 3.85], [947, 15, 42, 2.63], [7704, 2, 178, 4.4], [10149, 3, 876, 4.41], [345, 3, 301, 3.99], [2859, 15, 69, 3.48], [11738, 2, 38, 2.94], [1243, 2, 100, 3.92], [13264, 29, 73, 2.78], [1490, 1, 44, 2.94], [229, 1, 82, 5.76], [7004, 1, 27, 2.63], [201, 3, 201, 4.91], [2331, 1, 119, 2.78], [10407, 10, 1171, 5.03], [186, 3, 664, 3.3], [5208, 3, 377, 2.58], [22558, 3, 408, 3.51], [114, 3, 122, 4.04]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [361, 2, 5, 0.59], [6935, 2, 7, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [1504, 2, 5, 0.2], [417, 2, 4, 0.47], [3, 2, 5, 0.61], [6936, 2, 4, 1.33], [305, 2, 5, 0.48], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [8650, 2, 4, 1.27], [8648, 2, 4, 0.88], [2328, 2, 4, 0.64], [2776, 2, 5, 0.2], [11739, 2, 4, 0.68], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [12352, 1, 4, 2.07], [411, 2, 4, 0.38], [589, 2, 4, 0.2], [143, 2, 4, 0.7], [146, 2, 4, 1.12], [11835, 2, 4, 0.49], [6497, 1, 5, 0.2], [583, 2, 4, 1.16], [6097, 80, 4, 2.11], [326, 2, 4, 0.41], [10574, 3, 5, 1.75], [145, 2, 4, 0.57], [144, 2, 4, 0.57], [10149, 3, 13, 0.39], [11836, 2, 4, 0.54], [6097, 29, 4, 0.66], [75, 2, 5, 0.49], [12344, 1, 4, 1.35], [1413, 15, 4, 0.46], [6496, 1, 5, 0.2], [1243, 2, 4, 0.73], [6098, 80, 4, 2.59], [8915, 2, 5, 0.2], [1886, 2, 5, 0.2], [247, 1, 4, 2.06], [6098, 29, 4, 0.83], [944, 15, 4, 0.2], [1490, 1, 4, 0.47], [2859, 15, 4, 0.71], [3934, 5, 6, 0.2], [2049, 1, 4, 0.2], [201, 3, 4, 0.44], [6158, 2, 5, 1.77], [3478, 2, 4, 1.28], [12350, 1, 4, 2.03], [11489, 1, 4, 0.72], [13928, 1, 4, 0.55], [7084, 3, 4, 2.46], [1703, 2, 4, 0.75], [8599, 1, 4, 0.37], [9342, 2, 5, 0.49], [4253, 1, 4, 0.73], [3982, 3, 12, 0.36], [308, 1, 5, 0.79], [186, 3, 7, 0.52], [11887, 2, 5, 0.57], [11885, 2, 4, 0.51], [94, 4, 4, 0.48], [2438, 2, 5, 1.36], [11811, 1, 4, 0.38], [11490, 1, 4, 0.48], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5812, 3, 4, 2.0], [229, 1, 4, 1.18], [2821, 3, 8, 0.5], [4232, 80, 4, 0.69], [5939, 3, 4, 0.59], [11671, 1, 4, 0.42], [5813, 3, 5, 2.0], [3495, 3, 13, 0.85], [5811, 3, 6, 0.98], [8898, 3, 4, 3.26], [12764, 2, 5, 0.84], [3980, 4, 4, 1.26], [7036, 1, 4, 0.43], [2108, 3, 6, 0.54], [1049, 2, 4, 0.36], [105, 3, 4, 0.94], [13928, 2, 4, 0.55], [9690, 1, 4, 0.99], [5584, 3, 4, 2.72], [8274, 3, 4, 2.02], [22573, 2, 4, 0.99], [3981, 3, 8, 0.51], [1523, 1, 4, 0.72], [11886, 2, 4, 0.75], [10407, 10, 6, 1.31], [192, 3, 7, 1.24], [1277, 1, 4, 0.47], [8897, 3, 4, 3.26], [10124, 1, 4, 2.17], [2991, 3, 4, 1.5], [10406, 10, 7, 1.73], [20927, 1, 4, 0.64], [10147, 1, 4, 0.37], [11677, 1, 4, 1.16], [3334, 5, 4, 0.46], [2438, 1, 4, 1.31], [8635, 3, 4, 2.02], [11678, 1, 4, 1.62], [1701, 2, 4, 0.55], [23275, 2, 4, 0.99], [7004, 1, 4, 0.74], [4001, 3, 6, 0.53], [23031, 3, 4, 1.37], [9373, 5, 4, 4.0], [1274, 1, 4, 1.97], [10516, 3, 5, 0.86], [5976, 1, 4, 1.98], [10181, 26, 5, 0.53], [3984, 3, 5, 0.51], [9065, 2, 4, 0.48], [14041, 3, 4, 0.45], [8285, 2, 5, 0.49], [973, 3, 5, 0.65], [7005, 1, 4, 0.74], [19924, 2, 4, 0.95], [9069, 1, 4, 1.09], [10409, 10, 6, 1.67], [11812, 1, 4, 0.46], [1648, 1, 4, 1.04], [8188, 10, 6, 0.86], [12241, 3, 4, 0.38], [942, 3, 4, 0.75], [8672, 2, 244, 4.19], [141, 2, 133, 3.16], [361, 2, 133, 3.37], [6935, 2, 238, 6.0], [12721, 2, 242, 5.08], [2049, 3, 186, 2.87], [8676, 2, 244, 3.38], [8675, 2, 244, 3.67], [1504, 2, 174, 3.23], [417, 2, 133, 3.16], [3, 2, 103, 3.41], [6936, 2, 238, 5.42], [305, 2, 125, 3.17], [22247, 2, 242, 4.11], [523, 2, 133, 3.51], [8650, 2, 192, 4.43], [8648, 2, 192, 4.3], [2328, 2, 152, 3.55], [2776, 2, 134, 3.17], [11739, 2, 19, 2.38], [2327, 2, 152, 3.26], [11837, 2, 269, 2.65], [12352, 1, 522, 5.76], [411, 2, 37, 2.98], [143, 2, 149, 3.13], [146, 2, 128, 3.94], [11835, 2, 269, 2.72], [6497, 1, 33, 3.13], [6097, 80, 56, 5.84], [326, 2, 92, 2.63], [10574, 3, 425, 5.26], [145, 2, 50, 3.88], [10149, 3, 760, 3.82], [11836, 2, 269, 2.82], [6097, 29, 34, 3.05], [75, 2, 123, 4.17], [12344, 1, 613, 4.37], [1413, 15, 100, 2.67], [6496, 1, 35, 3.85], [1243, 2, 101, 3.19], [1886, 2, 133, 3.21], [247, 1, 87, 5.75], [6098, 29, 38, 3.99], [944, 15, 15, 3.15], [1490, 1, 51, 2.68], [2859, 15, 59, 3.59], [3934, 5, 496, 3.22], [2049, 1, 36, 2.86], [201, 3, 307, 2.63], [12350, 1, 613, 5.7], [13928, 1, 47, 4.68], [1703, 2, 139, 3.82], [8599, 1, 146, 3.14], [9342, 2, 156, 1.93], [4253, 1, 173, 3.19], [3982, 3, 821, 2.44], [308, 1, 174, 3.69], [186, 3, 668, 2.76], [11887, 2, 193, 2.78], [11885, 2, 193, 2.76], [94, 4, 124, 2.7], [2438, 2, 629, 5.11]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.2], [6935, 2, 7, 0.97], [2328, 2, 4, 0.2], [130, 1, 4, 0.2], [141, 2, 5, 0.48], [8650, 2, 4, 0.46], [8672, 2, 6, 0.2], [2327, 2, 4, 0.2], [362, 2, 4, 1.09], [6936, 2, 4, 1.26], [143, 2, 5, 0.51], [145, 2, 4, 0.5], [248, 1, 4, 0.36], [205, 2, 4, 0.37], [5493, 2, 4, 0.85], [417, 2, 4, 0.54], [146, 2, 4, 0.57], [75, 2, 5, 0.97], [11737, 2, 4, 0.58], [1124, 2, 6, 0.32], [523, 2, 5, 0.2], [2049, 3, 10, 0.21], [12721, 2, 5, 0.48], [1005, 2, 4, 0.2], [8853, 2, 4, 1.46], [206, 2, 4, 0.37], [326, 2, 5, 0.85], [8673, 2, 5, 0.2], [8915, 2, 5, 0.89], [144, 2, 4, 0.46], [11835, 2, 4, 0.36], [11739, 2, 5, 1.39], [88, 10, 8, 0.19], [434, 2, 5, 0.55], [142, 2, 5, 0.2], [151, 1, 4, 1.01], [435, 2, 4, 0.53], [8676, 2, 5, 0.7], [11234, 2, 4, 0.63], [6158, 2, 5, 0.2], [11738, 2, 4, 0.58], [11836, 2, 4, 0.47], [1413, 15, 4, 0.2], [7705, 2, 4, 1.65], [10574, 3, 6, 1.26], [944, 15, 4, 0.4], [7706, 2, 4, 1.65], [3, 2, 4, 1.04], [2054, 3, 4, 0.65], [2859, 15, 4, 1.37], [12720, 2, 4, 0.98], [74, 1, 4, 1.69], [3478, 2, 4, 1.78], [2055, 3, 4, 0.46], [10149, 3, 13, 0.75], [3429, 15, 4, 0.45], [6497, 1, 4, 0.44], [7004, 1, 4, 1.06], [60, 3, 5, 1.7], [411, 2, 4, 0.37], [11089, 1, 4, 0.41], [13928, 1, 4, 0.55], [2057, 3, 4, 0.65], [13028, 3, 4, 0.37], [7036, 1, 4, 0.43], [18964, 1, 4, 0.2], [6097, 80, 5, 3.8], [13260, 29, 4, 1.17], [8274, 3, 4, 0.58], [3893, 1, 5, 2.08], [13034, 3, 5, 1.15], [14037, 3, 4, 0.96], [94, 4, 5, 1.77], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [7707, 2, 4, 0.75], [1243, 2, 4, 0.95], [21793, 1, 5, 1.44], [1490, 1, 4, 0.79], [3889, 1, 5, 2.08], [11490, 1, 4, 0.74], [22317, 3, 6, 0.2], [7708, 2, 4, 1.05], [345, 3, 4, 1.26], [6098, 80, 5, 2.21], [7703, 2, 4, 1.05], [229, 1, 4, 2.07], [3495, 3, 13, 0.85], [6630, 3, 4, 2.4], [2991, 3, 4, 2.17], [13023, 3, 6, 0.57], [336, 15, 4, 0.38], [2805, 137, 5, 0.48], [11581, 29, 4, 0.87], [6098, 29, 4, 0.83], [6627, 3, 4, 0.44], [23275, 2, 4, 0.99], [13033, 3, 4, 0.69], [2331, 1, 4, 0.64], [13263, 29, 4, 0.43], [1049, 2, 4, 0.36], [247, 1, 4, 1.62], [1274, 1, 4, 1.5], [8635, 3, 4, 0.61], [6628, 3, 4, 0.47], [6097, 29, 4, 0.59], [114, 3, 4, 1.23], [5940, 3, 4, 0.45], [12229, 2, 4, 0.45], [20555, 2, 4, 0.39], [942, 3, 4, 0.75], [6496, 1, 4, 1.05], [11914, 1, 4, 0.41], [10406, 10, 7, 1.73], [8898, 3, 4, 0.48], [9372, 1, 4, 1.74], [192, 3, 7, 1.24], [10411, 10, 6, 1.74], [215, 4, 4, 1.55], [21269, 3, 4, 0.5], [3934, 5, 5, 0.56], [9760, 29, 4, 1.46], [186, 3, 7, 1.23], [11770, 1, 4, 1.07], [10407, 10, 6, 1.31], [5209, 3, 5, 0.54], [12373, 1, 5, 0.45], [10527, 3, 8, 1.0], [10408, 10, 6, 1.66], [5812, 3, 4, 0.5], [6360, 10, 9, 0.83], [21781, 2, 4, 0.47], [4940, 1, 4, 0.37], [7005, 1, 4, 0.81], [9082, 3, 15, 0.83], [12870, 1, 4, 1.74], [1886, 2, 4, 0.44], [19687, 1, 4, 1.21], [305, 2, 146, 2.67], [6935, 2, 239, 6.0], [2328, 2, 128, 4.14], [141, 2, 133, 3.16], [8650, 2, 225, 4.1], [8672, 2, 244, 4.72], [2327, 2, 128, 4.11], [6936, 2, 239, 5.25], [143, 2, 126, 3.22], [145, 2, 129, 3.21], [205, 2, 37, 3.03], [5493, 2, 92, 3.84], [417, 2, 157, 2.82], [146, 2, 129, 3.32], [75, 2, 124, 4.07], [11737, 2, 19, 2.63], [1124, 2, 157, 4.02], [523, 2, 78, 3.51], [2049, 3, 186, 3.28], [12721, 2, 241, 3.74], [1005, 2, 90, 4.26], [8853, 2, 239, 5.16], [206, 2, 37, 3.03], [326, 2, 31, 4.01], [8673, 2, 245, 4.98], [144, 2, 129, 3.13], [11835, 2, 269, 2.47], [88, 10, 477, 4.8], [434, 2, 36, 3.57], [142, 2, 133, 3.33], [435, 2, 36, 3.26], [8676, 2, 244, 3.57], [11234, 2, 62, 2.63], [6158, 2, 222, 4.29], [11738, 2, 38, 2.99], [11836, 2, 227, 3.14], [1413, 15, 50, 3.27], [7705, 2, 148, 4.89], [10574, 3, 425, 4.78], [944, 15, 15, 1.84], [7706, 2, 148, 4.89], [3, 2, 102, 4.23], [12720, 2, 241, 3.74], [74, 1, 170, 6.0], [2055, 3, 408, 2.76], [10149, 3, 883, 3.28], [3429, 15, 27, 2.29], [6497, 1, 38, 2.63], [60, 3, 405, 4.38], [411, 2, 55, 3.03], [11089, 1, 148, 3.03], [13928, 1, 47, 4.68], [2057, 3, 481, 3.02], [13028, 3, 147, 3.74], [7036, 1, 129, 3.52], [18964, 1, 57, 2.59], [6097, 80, 23, 6.0], [13260, 29, 62, 4.03], [3893, 1, 41, 6.0], [13034, 3, 597, 4.06], [6952, 1, 160, 4.84]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.5], [6936, 2, 5, 0.44], [2327, 2, 4, 0.64], [362, 2, 4, 0.56], [8648, 2, 4, 1.58], [11681, 2, 10, 0.85], [8650, 2, 4, 1.58], [326, 2, 4, 0.47], [205, 2, 4, 0.46], [1446, 2, 4, 0.2], [2328, 2, 4, 0.39], [305, 2, 4, 1.0], [2049, 3, 5, 0.45], [130, 1, 4, 0.45], [2775, 2, 4, 0.5], [8853, 2, 5, 0.94], [361, 2, 4, 0.4], [593, 2, 5, 0.2], [143, 2, 4, 0.51], [1429, 2, 4, 0.2], [206, 2, 4, 0.2], [523, 2, 5, 0.54], [7004, 1, 4, 0.89], [12350, 1, 4, 0.19], [7036, 1, 4, 1.42], [1124, 2, 4, 0.29], [151, 1, 4, 0.37], [990, 2, 5, 0.28], [5165, 1, 4, 0.7], [417, 2, 4, 0.55], [248, 1, 4, 0.2], [144, 2, 4, 0.74], [2050, 3, 4, 1.21], [201, 3, 5, 0.92], [6952, 1, 4, 1.54], [6097, 80, 4, 2.38], [345, 3, 5, 0.42], [11770, 1, 4, 0.48], [2055, 3, 4, 1.21], [3891, 1, 4, 0.75], [7084, 3, 4, 2.67], [2057, 3, 4, 0.99], [9372, 1, 4, 0.98], [5165, 2, 7, 1.19], [7005, 1, 4, 0.56], [3893, 1, 5, 0.2], [998, 2, 4, 0.73], [12870, 1, 4, 0.47], [10574, 3, 5, 1.09], [3334, 5, 4, 1.49], [6097, 29, 4, 2.41], [7885, 4, 4, 0.49], [6098, 80, 4, 1.39], [20927, 1, 4, 0.86], [346, 3, 4, 0.21], [11089, 1, 4, 0.87], [12344, 1, 4, 0.53], [10149, 3, 15, 0.75], [6158, 2, 4, 1.34], [3889, 1, 4, 0.74], [1492, 1, 4, 0.2], [432, 3, 4, 0.62], [11953, 1, 4, 0.41], [1519, 3, 10, 0.39], [4032, 29, 4, 0.52], [411, 2, 4, 0.54], [2423, 80, 4, 2.47], [972, 3, 5, 1.01], [5151, 2, 4, 1.05], [13034, 3, 5, 0.81], [229, 1, 4, 2.07], [3576, 25, 4, 1.42], [2331, 1, 4, 0.5], [346, 1, 4, 0.2], [13244, 1, 4, 0.47], [11426, 25, 4, 0.59], [11737, 2, 4, 0.49], [11583, 29, 5, 0.2], [3, 2, 4, 0.82], [5076, 1, 4, 0.44], [2160, 68, 4, 1.02], [11490, 1, 4, 0.71], [2805, 137, 4, 0.68], [12764, 2, 5, 0.2], [6494, 1, 4, 1.48], [8677, 3, 5, 1.21], [13893, 2, 4, 1.01], [1701, 2, 4, 1.54], [3575, 25, 4, 0.6], [11814, 1, 4, 0.48], [3577, 25, 4, 0.37], [1413, 15, 4, 0.43], [3478, 2, 4, 0.62], [11813, 1, 4, 1.51], [23238, 29, 4, 0.37], [75, 2, 4, 0.81], [2438, 2, 5, 1.77], [13023, 3, 5, 1.01], [4253, 1, 4, 1.55], [4033, 29, 4, 0.49], [9289, 29, 4, 1.08], [8283, 2, 5, 0.74], [11404, 2, 4, 0.43], [5812, 3, 4, 2.0], [23238, 25, 4, 0.37], [9967, 2, 4, 0.92], [9069, 1, 4, 0.94], [9971, 2, 4, 0.92], [2878, 1, 4, 0.44], [5584, 3, 4, 1.38], [1163, 3, 4, 1.45], [957, 2, 4, 0.91], [9491, 21, 8, 1.43], [114, 3, 4, 1.03], [21697, 3, 4, 0.45], [4586, 10, 10, 0.8], [10407, 10, 7, 1.31], [13249, 29, 4, 0.38], [823, 1, 4, 0.57], [289, 3, 4, 1.02], [9965, 2, 4, 0.92], [10609, 1, 4, 1.55], [336, 15, 4, 0.38], [9964, 2, 4, 0.92], [4076, 3, 4, 1.42], [7324, 1, 4, 0.67], [12647, 1, 4, 0.75], [1277, 1, 4, 0.43], [2528, 29, 4, 0.97], [3495, 3, 10, 0.82], [1523, 1, 4, 0.4], [4372, 10, 7, 0.52], [11425, 25, 4, 0.57], [6935, 2, 237, 4.77], [141, 2, 134, 2.51], [589, 2, 106, 2.67], [2778, 2, 114, 3.75], [6936, 2, 237, 5.31], [2327, 2, 130, 2.8], [362, 2, 103, 2.95], [8648, 2, 200, 5.47], [11681, 2, 197, 5.59], [8650, 2, 162, 5.74], [326, 2, 67, 3.24], [205, 2, 75, 2.77], [1446, 2, 79, 2.84], [2328, 2, 110, 3.51], [305, 2, 76, 3.76], [2049, 3, 191, 1.77], [2775, 2, 114, 3.75], [8853, 2, 202, 5.94], [361, 2, 114, 3.03], [593, 2, 167, 2.88], [143, 2, 108, 3.18], [1429, 2, 53, 2.99], [206, 2, 38, 2.96], [523, 2, 114, 2.91], [12350, 1, 455, 2.9], [7036, 1, 94, 4.63], [1124, 2, 136, 3.38], [151, 1, 49, 2.6], [5165, 1, 35, 4.29], [417, 2, 114, 2.93], [248, 1, 28, 2.77], [144, 2, 52, 3.57], [2050, 3, 164, 3.22], [6952, 1, 138, 4.96], [6097, 80, 49, 6.0], [345, 3, 219, 3.6], [11770, 1, 189, 2.34], [3891, 1, 108, 2.88], [9372, 1, 199, 4.89], [5165, 2, 278, 4.28], [7005, 1, 28, 1.97], [3893, 1, 91, 2.76], [998, 2, 176, 4.18], [12870, 1, 120, 3.0], [10574, 3, 370, 3.81], [3334, 5, 131, 4.29], [6097, 29, 25, 6.0], [7885, 4, 48, 1.82], [6098, 80, 55, 4.1], [346, 3, 465, 2.72], [11089, 1, 147, 3.09], [12344, 1, 535, 2.43], [10149, 3, 754, 2.93], [6158, 2, 90, 3.46], [3889, 1, 107, 2.84], [1492, 1, 28, 2.62], [432, 3, 223, 3.51], [11953, 1, 173, 2.22], [1519, 3, 1222, 2.59], [4032, 29, 82, 2.42], [411, 2, 75, 2.91], [2423, 80, 131, 6.0], [972, 3, 432, 3.8], [5151, 2, 18, 3.44]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.97], [305, 2, 4, 0.75], [2049, 3, 8, 0.47], [326, 2, 4, 0.47], [141, 2, 4, 0.39], [205, 2, 4, 0.56], [151, 1, 4, 0.46], [589, 2, 5, 0.37], [1776, 1, 4, 1.48], [146, 2, 4, 0.58], [206, 2, 4, 0.2], [8648, 2, 5, 0.77], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [990, 2, 4, 0.2], [6936, 2, 5, 1.17], [1777, 1, 4, 0.93], [8650, 2, 5, 1.15], [5151, 2, 4, 1.05], [2778, 2, 4, 0.2], [88, 10, 8, 0.62], [2050, 3, 4, 0.77], [10, 2, 5, 0.47], [10149, 3, 17, 1.32], [76, 2, 4, 1.11], [8649, 2, 4, 1.15], [8677, 3, 6, 1.56], [2054, 3, 5, 0.58], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [411, 2, 4, 0.48], [10825, 21, 8, 0.37], [410, 1, 4, 0.61], [7084, 3, 4, 1.38], [307, 2, 4, 0.58], [3478, 2, 4, 0.78], [6158, 2, 5, 0.45], [3495, 3, 15, 1.31], [5081, 2, 5, 0.2], [167, 3, 4, 1.35], [7005, 1, 4, 0.4], [1492, 1, 4, 0.2], [7036, 1, 4, 1.14], [8676, 2, 4, 0.49], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [168, 3, 5, 0.29], [5812, 3, 5, 2.5], [57, 1, 4, 0.44], [94, 4, 4, 0.51], [1504, 2, 5, 0.2], [12870, 1, 4, 2.33], [335, 3, 10, 1.08], [418, 2, 4, 0.37], [2336, 3, 5, 0.99], [6097, 29, 4, 2.36], [6097, 80, 4, 2.36], [8853, 2, 5, 1.32], [346, 1, 4, 0.56], [490, 1, 4, 0.51], [1490, 1, 4, 0.45], [998, 2, 4, 1.27], [20927, 1, 4, 0.61], [95, 3, 15, 0.54], [79, 1, 4, 0.38], [9069, 1, 4, 1.09], [22316, 3, 4, 0.49], [6098, 29, 4, 2.52], [14017, 3, 4, 0.67], [6098, 80, 4, 2.52], [1070, 7, 9, 0.43], [346, 3, 5, 0.51], [8898, 3, 5, 2.17], [997, 2, 4, 1.29], [13034, 3, 6, 1.26], [9760, 29, 4, 0.43], [20498, 1, 5, 0.55], [192, 3, 11, 1.24], [336, 15, 4, 0.38], [5086, 1, 5, 0.58], [8945, 3, 5, 0.8], [7887, 4, 4, 0.37], [12350, 1, 4, 2.08], [5811, 3, 5, 1.18], [7567, 3, 4, 1.12], [22317, 3, 6, 0.51], [11085, 2, 5, 0.45], [12345, 1, 4, 1.02], [12924, 1, 4, 0.2], [5813, 3, 5, 1.08], [12349, 1, 4, 1.0], [229, 1, 4, 2.07], [972, 3, 5, 0.35], [995, 2, 4, 1.31], [9082, 3, 15, 0.67], [1622, 1, 5, 0.2], [8557, 3, 4, 0.33], [12352, 1, 4, 1.0], [20498, 3, 5, 1.1], [996, 2, 4, 1.24], [9691, 1, 4, 1.41], [12346, 1, 4, 1.02], [8104, 1, 4, 0.39], [3049, 3, 4, 1.48], [1080, 3, 4, 0.8], [14018, 3, 4, 0.5], [4076, 3, 4, 2.69], [3900, 3, 4, 1.68], [13023, 3, 6, 1.24], [1703, 2, 4, 1.38], [110, 4, 4, 0.94], [20486, 3, 6, 1.0], [5584, 3, 4, 0.5], [9613, 1, 4, 0.45], [2424, 80, 4, 1.95], [35, 1, 4, 1.05], [972, 1, 4, 0.48], [215, 4, 4, 3.07], [9372, 1, 4, 0.39], [1414, 15, 4, 0.42], [9081, 3, 7, 0.78], [20486, 1, 4, 0.51], [33, 1, 4, 0.74], [114, 3, 4, 0.48], [6497, 1, 4, 1.0], [39, 1, 4, 0.55], [11510, 3, 5, 0.97], [823, 1, 4, 0.36], [3047, 3, 4, 0.55], [1339, 3, 10, 0.42], [2854, 21, 8, 0.47], [18, 1, 4, 0.48], [13893, 2, 4, 1.17], [10529, 29, 4, 1.44], [8672, 2, 223, 4.57], [305, 2, 115, 3.14], [2049, 3, 508, 2.01], [326, 2, 72, 2.63], [141, 2, 123, 2.37], [205, 2, 50, 1.98], [151, 1, 53, 2.49], [589, 2, 71, 1.58], [1776, 1, 100, 4.01], [146, 2, 119, 2.72], [206, 2, 50, 2.36], [8648, 2, 176, 4.17], [143, 2, 117, 2.71], [2328, 2, 119, 2.66], [990, 2, 41, 2.81], [6936, 2, 223, 4.12], [1777, 1, 100, 3.38], [8650, 2, 176, 4.82], [5151, 2, 19, 3.18], [2778, 2, 123, 2.71], [88, 10, 442, 3.9], [2050, 3, 373, 3.04], [10, 2, 63, 4.58], [10149, 3, 676, 4.91], [76, 2, 85, 3.94], [8649, 2, 176, 4.51], [8677, 3, 231, 4.73], [2054, 3, 368, 4.35], [412, 1, 66, 3.32], [13028, 3, 116, 2.58], [413, 1, 68, 2.8], [7004, 1, 63, 2.38], [411, 2, 76, 2.53], [10825, 21, 505, 2.33], [410, 1, 96, 2.33], [307, 2, 117, 2.72], [3478, 2, 59, 3.39], [6158, 2, 184, 2.19], [3495, 3, 754, 3.9], [5081, 2, 150, 2.65], [7005, 1, 63, 2.38], [1492, 1, 29, 2.35], [7036, 1, 100, 4.13], [8676, 2, 223, 4.2], [9827, 3, 69, 2.54], [45, 2, 85, 5.32], [168, 3, 321, 3.12], [5812, 3, 541, 5.56], [57, 1, 40, 1.8], [94, 4, 94, 4.2], [1504, 2, 161, 2.49], [12870, 1, 108, 5.93], [335, 3, 1163, 4.95], [418, 2, 130, 1.87], [2336, 3, 536, 2.91], [6097, 29, 27, 5.7], [6097, 80, 53, 5.7], [8853, 2, 223, 5.23], [346, 1, 142, 2.23], [490, 1, 41, 2.58], [1490, 1, 47, 2.03], [998, 2, 217, 3.65], [95, 3, 884, 2.58], [79, 1, 22, 1.5]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.68], [305, 2, 7, 1.49], [3, 2, 7, 0.9], [326, 2, 11, 1.63], [589, 2, 10, 0.81], [6935, 2, 18, 3.14], [205, 2, 7, 0.71], [143, 2, 7, 1.12], [75, 2, 9, 1.72], [144, 2, 7, 0.94], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.71], [1776, 1, 7, 1.17], [146, 2, 7, 1.0], [2778, 2, 9, 1.07], [206, 2, 7, 1.18], [6936, 2, 10, 2.57], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 9, 3.76], [2328, 2, 7, 1.55], [8650, 2, 9, 4.7], [5151, 2, 7, 3.02], [2050, 3, 9, 1.53], [7886, 4, 7, 0.87], [141, 2, 7, 2.12], [248, 1, 7, 0.68], [88, 10, 21, 2.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.04], [2991, 3, 7, 4.18], [2057, 3, 7, 0.87], [7004, 1, 7, 0.71], [1446, 2, 7, 0.93], [1492, 1, 7, 2.35], [362, 2, 7, 2.43], [2055, 3, 7, 0.82], [76, 2, 7, 2.04], [8649, 2, 9, 4.7], [345, 3, 7, 1.1], [7005, 1, 7, 0.73], [3889, 1, 7, 0.8], [11234, 2, 11, 0.93], [10825, 21, 13, 2.29], [7084, 3, 7, 3.91], [5081, 2, 7, 1.33], [12870, 1, 7, 4.49], [7036, 1, 7, 2.24], [10149, 3, 21, 1.68], [3478, 2, 7, 2.63], [1654, 2, 7, 1.04], [94, 4, 7, 2.1], [3891, 1, 7, 2.13], [167, 3, 7, 2.27], [432, 3, 7, 1.15], [33, 1, 9, 2.05], [9827, 3, 7, 0.78], [411, 2, 7, 0.71], [168, 3, 7, 2.37], [8677, 3, 9, 1.26], [79, 1, 7, 0.66], [3893, 1, 7, 2.13], [23, 1, 7, 1.29], [22247, 2, 11, 2.32], [201, 3, 7, 1.1], [1490, 1, 9, 0.67], [1124, 2, 11, 0.93], [5812, 3, 8, 1.9], [96, 11, 24, 1.07], [11737, 2, 7, 1.03], [9760, 29, 7, 1.42], [35, 1, 7, 1.95], [6158, 2, 8, 0.86], [335, 3, 16, 0.76], [12225, 1, 7, 1.7], [412, 1, 7, 2.19], [346, 1, 7, 1.08], [20927, 1, 7, 1.39], [229, 1, 7, 4.95], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [45, 2, 7, 2.72], [998, 2, 7, 3.22], [3980, 4, 7, 2.46], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [346, 3, 7, 0.99], [3495, 3, 18, 2.26], [95, 3, 17, 0.96], [856, 1, 7, 0.69], [1766, 25, 7, 1.08], [5946, 1, 7, 1.98], [490, 1, 7, 1.02], [997, 2, 7, 2.24], [8898, 3, 7, 2.78], [34, 1, 7, 1.9], [1070, 7, 15, 0.85], [9372, 1, 7, 3.35], [9691, 1, 7, 2.44], [9690, 1, 7, 1.87], [11954, 1, 7, 0.87], [20498, 1, 7, 1.8], [14017, 3, 7, 2.0], [974, 3, 7, 2.14], [418, 2, 7, 0.89], [14037, 3, 9, 1.09], [22317, 3, 7, 0.98], [972, 3, 8, 1.64], [20498, 3, 8, 1.9], [1091, 1, 7, 1.27], [9828, 3, 7, 0.89], [8274, 3, 7, 0.89], [38, 1, 7, 1.9], [5584, 3, 7, 3.74], [5811, 3, 7, 3.52], [1414, 15, 7, 0.81], [12350, 1, 7, 1.02], [5813, 3, 7, 2.91], [2991, 1, 7, 2.72], [24, 1, 7, 2.0], [3048, 3, 7, 3.68], [110, 4, 7, 0.73], [1080, 3, 7, 1.59], [13034, 3, 8, 2.15], [8104, 1, 7, 0.85], [13260, 29, 7, 1.41], [1767, 2, 7, 1.14], [336, 15, 7, 0.98], [11811, 1, 7, 2.77], [955, 2, 7, 0.9], [8635, 3, 7, 0.96], [39, 1, 7, 1.14], [10780, 10, 7, 3.58], [2878, 1, 7, 1.84], [9082, 3, 24, 2.75], [3981, 3, 20, 3.12], [4203, 1, 7, 1.06], [5812, 3, 426, 3.19], [96, 11, 614, 2.87], [11737, 2, 37, 2.84], [9760, 29, 52, 3.16], [35, 1, 95, 3.11], [6158, 2, 189, 2.66], [335, 3, 1124, 2.07], [412, 1, 61, 3.86], [346, 1, 131, 2.38], [25, 1, 81, 3.21], [1767, 25, 125, 2.9], [45, 2, 79, 4.03], [998, 2, 172, 5.52], [3980, 4, 347, 4.26], [413, 1, 63, 3.36], [21269, 3, 250, 5.05], [346, 3, 526, 2.29], [3495, 3, 695, 4.07], [95, 3, 815, 2.77], [1766, 25, 136, 2.83], [5946, 1, 90, 3.28], [490, 1, 43, 2.79], [997, 2, 204, 3.54], [8898, 3, 213, 4.58], [34, 1, 95, 3.2], [1070, 7, 428, 2.63], [9372, 1, 193, 4.65], [9691, 1, 55, 3.74], [9690, 1, 64, 3.17], [11954, 1, 146, 2.68], [20498, 1, 71, 3.61], [14017, 3, 142, 3.71], [974, 3, 108, 3.45], [418, 2, 120, 2.19], [22317, 3, 269, 2.28], [972, 3, 428, 2.95], [20498, 3, 500, 3.2], [1091, 1, 20, 2.14], [9828, 3, 75, 2.19], [38, 1, 95, 3.2], [5584, 3, 198, 5.04], [5811, 3, 503, 4.82], [1414, 15, 64, 1.97], [12350, 1, 529, 2.33], [5813, 3, 503, 4.22], [2991, 1, 35, 4.02], [24, 1, 95, 3.3], [3048, 3, 232, 4.98], [110, 4, 90, 1.6], [1080, 3, 113, 2.89], [13034, 3, 503, 3.46], [8104, 1, 176, 2.15], [13260, 29, 62, 2.71], [1767, 2, 29, 2.44], [11811, 1, 385, 4.08], [955, 2, 93, 2.2], [39, 1, 95, 2.44], [10780, 10, 326, 4.89], [2878, 1, 68, 3.14], [9082, 3, 2084, 4.08], [3981, 3, 1370, 4.44], [4203, 1, 41, 2.36]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.09], [2778, 2, 7, 1.43], [589, 2, 10, 0.87], [144, 2, 7, 1.04], [130, 1, 7, 2.36], [8915, 2, 8, 0.81], [143, 2, 7, 0.85], [2328, 2, 9, 1.39], [6936, 2, 7, 3.27], [8648, 2, 9, 3.08], [2775, 2, 9, 0.8], [205, 2, 7, 0.74], [8650, 2, 7, 2.95], [593, 2, 11, 0.97], [326, 2, 9, 2.24], [146, 2, 7, 1.1], [145, 2, 7, 0.96], [5493, 2, 7, 0.85], [3840, 1, 9, 1.09], [7036, 1, 9, 3.03], [2049, 3, 12, 0.72], [2776, 2, 9, 0.92], [88, 10, 16, 2.6], [141, 2, 7, 0.72], [7004, 1, 9, 3.07], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [990, 2, 7, 1.07], [1007, 2, 7, 1.35], [362, 2, 7, 1.0], [2055, 3, 7, 1.08], [2912, 1, 9, 1.91], [3893, 1, 7, 0.71], [142, 2, 7, 0.77], [2057, 3, 7, 1.08], [12870, 1, 7, 3.23], [9372, 1, 7, 3.54], [10993, 2, 7, 1.25], [2050, 3, 7, 1.08], [3889, 1, 7, 1.38], [2054, 3, 9, 0.8], [7084, 3, 7, 2.06], [523, 2, 7, 0.73], [2991, 3, 7, 3.64], [7886, 4, 7, 0.8], [10, 2, 7, 0.89], [3891, 1, 7, 0.76], [7573, 1, 16, 3.81], [1622, 1, 9, 0.84], [10149, 3, 21, 2.58], [5208, 3, 9, 1.29], [75, 2, 7, 1.93], [20927, 1, 7, 2.43], [3, 2, 7, 1.83], [11234, 2, 9, 1.8], [997, 2, 7, 2.43], [1886, 2, 9, 0.86], [12721, 2, 7, 2.81], [346, 3, 7, 1.31], [22247, 2, 7, 2.77], [996, 2, 7, 3.13], [229, 1, 7, 2.02], [998, 2, 7, 1.56], [94, 4, 7, 2.1], [2912, 2, 12, 3.19], [972, 3, 10, 1.52], [9491, 21, 26, 0.95], [35, 1, 7, 2.48], [76, 2, 7, 1.6], [413, 1, 7, 2.66], [33, 1, 7, 1.79], [83, 2, 7, 1.83], [13928, 1, 7, 1.35], [5076, 1, 7, 1.87], [2805, 137, 7, 2.56], [5209, 3, 7, 2.29], [8104, 1, 7, 1.7], [346, 1, 7, 0.83], [8676, 2, 7, 2.91], [7887, 4, 7, 1.87], [38, 1, 7, 2.18], [8898, 3, 7, 4.91], [12212, 29, 7, 0.9], [3495, 3, 16, 1.61], [84, 2, 7, 1.73], [34, 1, 7, 2.06], [11490, 1, 7, 0.89], [10407, 10, 10, 3.76], [632, 11, 21, 0.79], [11770, 1, 7, 1.65], [13928, 2, 7, 2.69], [995, 2, 7, 3.16], [11772, 1, 7, 0.84], [9690, 1, 7, 0.9], [411, 2, 7, 0.92], [39, 1, 7, 2.12], [9691, 1, 7, 1.39], [1703, 2, 7, 1.6], [11953, 1, 7, 1.0], [82, 2, 7, 1.58], [5584, 3, 7, 5.0], [12764, 2, 8, 1.75], [13893, 2, 7, 2.25], [7567, 3, 7, 2.08], [74, 1, 7, 3.33], [10410, 10, 15, 3.09], [972, 1, 7, 1.02], [5164, 1, 7, 3.75], [21269, 3, 7, 2.57], [1523, 1, 7, 1.16], [23961, 3, 7, 3.68], [2331, 1, 7, 1.23], [13023, 3, 8, 1.41], [10408, 10, 8, 3.61], [4253, 1, 7, 1.16], [1492, 1, 7, 0.87], [4076, 3, 7, 2.73], [6097, 80, 7, 1.46], [6805, 1, 7, 0.97], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [13034, 3, 7, 2.36], [3429, 15, 7, 0.85], [3047, 3, 7, 2.46], [21059, 1, 7, 2.67], [8283, 2, 8, 1.19], [1243, 2, 7, 2.23], [3576, 29, 7, 0.81], [3430, 15, 7, 1.83], [2436, 4, 7, 1.08], [8674, 2, 7, 1.94], [6097, 29, 7, 1.46], [10780, 10, 7, 3.18], [19931, 1, 7, 2.43], [11812, 1, 7, 0.89], [413, 1, 72, 4.29], [33, 1, 92, 3.85], [13928, 1, 40, 3.42], [5076, 1, 108, 3.5], [2805, 137, 177, 4.19], [8104, 1, 170, 3.83], [346, 1, 152, 2.46], [8676, 2, 280, 4.54], [38, 1, 92, 3.81], [8898, 3, 243, 6.0], [12212, 29, 118, 2.53], [3495, 3, 795, 3.74], [84, 2, 33, 3.79], [34, 1, 92, 3.69], [11490, 1, 107, 2.52], [10407, 10, 990, 5.39], [632, 11, 406, 2.08], [11770, 1, 211, 3.28], [13928, 2, 23, 4.32], [995, 2, 236, 4.8], [11772, 1, 182, 2.97], [9690, 1, 25, 1.88], [411, 2, 54, 2.22], [39, 1, 92, 3.75], [9691, 1, 75, 3.02], [1703, 2, 160, 3.23], [11953, 1, 165, 3.14], [82, 2, 29, 2.88], [5584, 3, 198, 6.0], [12764, 2, 730, 3.37], [13893, 2, 268, 3.88], [7567, 3, 69, 3.71], [74, 1, 192, 4.96], [10410, 10, 990, 4.71], [972, 1, 98, 2.65], [5164, 1, 45, 5.38], [21269, 3, 286, 4.21], [1523, 1, 46, 2.79], [23961, 3, 288, 5.31], [2331, 1, 116, 2.86], [13023, 3, 589, 3.04], [10408, 10, 749, 5.25], [4253, 1, 168, 2.79], [1492, 1, 37, 2.5], [4076, 3, 196, 4.36], [6097, 80, 67, 3.09], [6805, 1, 445, 2.59], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [13034, 3, 577, 3.98], [3429, 15, 26, 2.15], [3047, 3, 264, 4.09], [21059, 1, 314, 4.29], [8283, 2, 465, 2.82], [1243, 2, 96, 3.86], [3576, 29, 33, 2.44], [3430, 15, 68, 3.46], [2436, 4, 115, 2.71], [8674, 2, 280, 3.57], [6097, 29, 34, 3.09], [10780, 10, 367, 4.82], [19931, 1, 401, 4.06], [11812, 1, 157, 2.35]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.6], [6935, 2, 10, 2.95], [130, 1, 7, 2.44], [326, 2, 7, 2.44], [8648, 2, 7, 2.71], [144, 2, 7, 2.56], [2327, 2, 7, 0.98], [589, 2, 8, 0.61], [593, 2, 9, 1.22], [143, 2, 7, 1.94], [205, 2, 7, 1.43], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [2328, 2, 7, 1.45], [141, 2, 7, 1.58], [6936, 2, 9, 4.58], [151, 1, 7, 0.73], [2778, 2, 9, 1.07], [2049, 3, 14, 0.88], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.67], [9507, 3, 7, 1.16], [145, 2, 7, 2.56], [7036, 1, 7, 2.37], [1446, 2, 9, 1.54], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [3893, 1, 7, 1.38], [2055, 3, 7, 3.91], [75, 2, 7, 1.73], [417, 2, 7, 1.06], [11737, 2, 7, 1.76], [2050, 3, 7, 3.31], [12870, 1, 7, 3.69], [523, 2, 7, 1.05], [159, 3, 10, 1.05], [2057, 3, 7, 3.52], [142, 2, 7, 1.0], [2991, 3, 7, 4.3], [997, 2, 7, 1.5], [7084, 3, 9, 1.08], [9760, 29, 7, 1.36], [3982, 3, 17, 2.34], [11739, 2, 7, 1.41], [996, 2, 7, 1.06], [6158, 2, 9, 0.98], [998, 2, 7, 1.33], [98, 11, 16, 0.96], [84, 2, 7, 1.65], [9372, 1, 7, 4.45], [7885, 4, 7, 0.77], [10388, 2, 7, 2.13], [8672, 2, 9, 2.68], [972, 3, 7, 3.88], [8898, 3, 7, 5.0], [2912, 1, 7, 2.32], [3980, 4, 7, 2.36], [410, 1, 7, 3.58], [9491, 21, 16, 0.87], [10386, 2, 7, 2.91], [1492, 1, 7, 0.87], [13928, 1, 7, 2.32], [995, 2, 7, 2.23], [22316, 3, 7, 0.98], [22247, 2, 7, 2.12], [8677, 3, 9, 2.23], [3981, 3, 22, 2.14], [308, 1, 7, 3.28], [13893, 2, 7, 4.76], [2912, 2, 8, 3.12], [229, 1, 7, 1.35], [33, 1, 9, 4.53], [10631, 2, 7, 3.81], [11953, 1, 7, 0.9], [11490, 1, 7, 1.44], [35, 1, 9, 3.29], [159, 1, 7, 0.98], [7886, 4, 7, 0.94], [11770, 1, 7, 0.85], [22317, 3, 7, 1.42], [10407, 10, 10, 3.29], [10780, 10, 7, 3.28], [10410, 10, 10, 3.25], [1413, 15, 7, 1.12], [10149, 3, 21, 2.64], [6497, 1, 7, 0.87], [335, 3, 15, 3.87], [9691, 1, 7, 1.94], [74, 1, 7, 2.89], [10387, 2, 7, 1.83], [3478, 2, 7, 3.25], [972, 1, 7, 3.87], [12271, 2, 7, 2.91], [8897, 3, 9, 5.0], [345, 3, 7, 0.98], [9690, 1, 7, 2.1], [9971, 2, 7, 3.45], [159, 16, 7, 0.94], [2331, 1, 7, 3.73], [9082, 3, 29, 2.42], [3048, 3, 7, 1.77], [37, 1, 7, 1.27], [4076, 3, 7, 1.64], [11085, 2, 8, 2.78], [34, 1, 7, 1.04], [23611, 3, 7, 0.81], [7704, 2, 7, 3.16], [12721, 2, 7, 1.87], [11404, 2, 7, 0.83], [1163, 3, 7, 1.18], [20498, 3, 8, 2.71], [1523, 1, 7, 1.54], [11510, 3, 8, 2.0], [10936, 2, 7, 3.27], [45, 2, 7, 0.89], [4001, 3, 14, 2.5], [12764, 2, 8, 1.47], [9965, 2, 7, 2.62], [105, 3, 7, 0.98], [9964, 2, 7, 3.45], [38, 1, 7, 1.27], [215, 4, 7, 3.06], [1895, 3, 7, 1.42], [12858, 1, 7, 0.91], [10408, 10, 8, 3.19], [8635, 3, 7, 2.86], [5812, 3, 7, 1.86], [10411, 10, 8, 3.35], [11738, 2, 7, 1.69], [12212, 29, 7, 0.87], [2805, 137, 8, 1.2], [8659, 1, 7, 3.43], [11812, 1, 7, 0.89], [192, 3, 15, 3.61], [10093, 3, 17, 1.87], [2438, 2, 8, 3.23], [2912, 2, 284, 4.57], [229, 1, 72, 2.8], [10631, 2, 74, 4.71], [11953, 1, 176, 2.34], [11490, 1, 94, 2.88], [159, 1, 21, 2.18], [11770, 1, 160, 2.79], [22317, 3, 232, 2.88], [10407, 10, 1010, 4.71], [10780, 10, 318, 4.72], [10410, 10, 1010, 4.67], [1413, 15, 35, 2.02], [10149, 3, 755, 4.09], [6497, 1, 33, 2.31], [335, 3, 989, 5.33], [9691, 1, 40, 3.79], [74, 1, 148, 4.34], [10387, 2, 187, 3.27], [12271, 2, 33, 4.11], [8897, 3, 205, 6.0], [345, 3, 258, 2.42], [9690, 1, 65, 3.54], [9971, 2, 234, 4.89], [159, 16, 41, 2.15], [2331, 1, 100, 5.17], [9082, 3, 2125, 3.83], [3048, 3, 234, 3.22], [37, 1, 96, 2.72], [4076, 3, 174, 3.09], [11085, 2, 464, 4.22], [34, 1, 96, 2.49], [23611, 3, 304, 2.25], [7704, 2, 152, 4.61], [12721, 2, 248, 3.32], [11404, 2, 55, 2.03], [20498, 3, 505, 4.16], [1523, 1, 41, 2.99], [11510, 3, 510, 3.44], [10936, 2, 115, 4.72], [45, 2, 95, 2.34], [4001, 3, 684, 3.95], [12764, 2, 645, 2.91], [9965, 2, 234, 4.06], [105, 3, 213, 2.42], [9964, 2, 234, 4.89], [38, 1, 96, 2.72], [215, 4, 32, 4.51], [1895, 3, 264, 2.86], [12858, 1, 505, 2.36], [10408, 10, 662, 4.65], [8635, 3, 291, 4.3], [5812, 3, 520, 3.31], [10411, 10, 662, 4.81], [11738, 2, 20, 2.59], [12212, 29, 104, 2.31], [2805, 137, 160, 2.64], [8659, 1, 103, 4.88], [11812, 1, 208, 2.33], [192, 3, 1229, 5.06], [10093, 3, 713, 3.33], [2438, 2, 542, 4.68]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [2049, 3, 13, 0.88], [362, 2, 7, 2.31], [589, 2, 12, 0.68], [141, 2, 7, 1.04], [75, 2, 9, 2.45], [130, 1, 7, 1.91], [3, 2, 9, 0.82], [1776, 1, 7, 1.12], [205, 2, 7, 1.21], [8672, 2, 12, 2.41], [2778, 2, 6, 1.06], [6936, 2, 10, 2.79], [7886, 4, 7, 1.01], [593, 2, 14, 1.11], [305, 2, 7, 0.92], [206, 2, 7, 1.21], [151, 1, 7, 0.85], [1777, 1, 7, 2.22], [8648, 2, 7, 3.21], [2328, 2, 7, 0.94], [88, 10, 17, 1.94], [11681, 2, 10, 5.0], [990, 2, 9, 0.92], [8650, 2, 9, 3.25], [5151, 2, 7, 1.73], [412, 1, 7, 2.17], [2050, 3, 7, 1.22], [144, 2, 7, 1.43], [2991, 3, 7, 3.64], [76, 2, 9, 2.75], [345, 3, 10, 1.82], [10149, 3, 25, 3.26], [57, 1, 9, 0.68], [22247, 2, 9, 3.0], [146, 2, 7, 2.68], [2054, 3, 7, 4.0], [45, 2, 7, 2.65], [7004, 1, 7, 0.9], [417, 2, 9, 1.87], [143, 2, 7, 1.34], [201, 3, 10, 2.56], [21793, 1, 7, 3.62], [167, 3, 7, 2.0], [413, 1, 7, 1.23], [2055, 3, 7, 2.83], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [7084, 3, 7, 2.45], [11234, 2, 9, 0.93], [12721, 2, 10, 1.92], [308, 1, 9, 4.83], [10, 2, 11, 2.55], [335, 3, 18, 3.91], [7036, 1, 7, 3.29], [3495, 3, 21, 1.64], [5081, 2, 9, 0.84], [13028, 3, 7, 0.96], [10825, 21, 14, 1.17], [410, 1, 7, 1.23], [12870, 1, 7, 4.49], [8649, 2, 7, 2.97], [11404, 2, 9, 1.06], [79, 1, 7, 0.73], [3889, 1, 7, 2.38], [96, 11, 23, 0.84], [1492, 1, 7, 1.2], [23, 1, 7, 2.37], [5208, 3, 13, 1.56], [3893, 1, 7, 1.67], [9827, 3, 7, 0.86], [1504, 2, 9, 0.89], [94, 4, 7, 3.04], [13260, 29, 7, 0.89], [7005, 1, 7, 0.94], [5812, 3, 8, 2.16], [3891, 1, 9, 1.05], [1490, 1, 7, 1.35], [411, 2, 7, 1.21], [25, 1, 7, 1.83], [12353, 1, 6, 1.54], [33, 1, 7, 1.27], [21269, 3, 7, 4.99], [12349, 1, 7, 4.0], [998, 2, 9, 2.41], [5086, 1, 6, 2.04], [9069, 1, 7, 3.12], [7567, 3, 7, 3.13], [229, 1, 7, 4.95], [3980, 4, 9, 3.25], [2878, 1, 7, 1.63], [20927, 1, 7, 1.5], [346, 3, 8, 1.24], [35, 1, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 2.81], [5209, 3, 7, 1.17], [997, 2, 7, 1.16], [11914, 1, 9, 1.52], [14037, 3, 7, 0.69], [8274, 3, 7, 2.1], [5584, 3, 7, 3.61], [5660, 2, 7, 1.94], [11811, 1, 7, 1.92], [1070, 7, 13, 1.16], [159, 3, 10, 1.34], [1519, 3, 21, 0.79], [24, 1, 7, 2.26], [8898, 3, 7, 5.0], [996, 2, 7, 4.42], [1091, 1, 7, 1.1], [23961, 3, 7, 2.61], [1124, 2, 9, 0.91], [13034, 3, 10, 2.76], [9081, 3, 12, 3.64], [12661, 1, 7, 4.04], [952, 4, 7, 4.6], [27, 1, 7, 2.37], [8945, 3, 10, 5.0], [1413, 15, 7, 1.19], [22317, 3, 8, 0.9], [336, 15, 7, 0.8], [10529, 29, 7, 2.85], [9372, 1, 7, 1.55], [1163, 3, 7, 1.36], [12225, 1, 7, 1.12], [9082, 3, 21, 1.17], [6097, 29, 7, 3.08], [4203, 1, 7, 1.02], [9760, 29, 7, 0.87], [66, 16, 7, 0.87], [2109, 3, 15, 0.88], [8635, 3, 7, 1.16], [12346, 1, 7, 1.94], [5811, 3, 7, 1.9], [2104, 3, 10, 2.23], [3889, 1, 98, 3.54], [96, 11, 666, 2.46], [1492, 1, 29, 2.36], [23, 1, 102, 3.52], [3893, 1, 98, 2.83], [9827, 3, 69, 2.51], [1504, 2, 161, 2.54], [94, 4, 94, 4.2], [13260, 29, 57, 2.5], [7005, 1, 55, 1.97], [5812, 3, 459, 3.78], [3891, 1, 98, 3.02], [1490, 1, 40, 2.51], [411, 2, 50, 1.98], [25, 1, 88, 3.4], [12353, 1, 474, 3.21], [33, 1, 88, 2.86], [21269, 3, 230, 6.0], [12349, 1, 563, 5.17], [998, 2, 188, 4.57], [5086, 1, 144, 3.69], [7567, 3, 32, 4.78], [3980, 4, 377, 4.41], [2878, 1, 63, 2.79], [346, 3, 497, 2.4], [35, 1, 88, 3.09], [1703, 2, 149, 4.53], [9691, 1, 59, 4.46], [5209, 3, 260, 2.35], [997, 2, 188, 2.76], [11914, 1, 68, 3.17], [5584, 3, 197, 4.77], [5660, 2, 138, 3.59], [11811, 1, 416, 3.08], [1070, 7, 467, 2.31], [1519, 3, 1313, 2.31], [24, 1, 88, 3.42], [8898, 3, 221, 6.0], [996, 2, 217, 5.57], [1091, 1, 22, 2.75], [23961, 3, 269, 3.76], [1124, 2, 172, 2.07], [13034, 3, 459, 4.14], [9081, 3, 359, 5.3], [12661, 1, 64, 5.2], [952, 4, 57, 5.76], [27, 1, 77, 3.39], [1413, 15, 69, 2.22], [22317, 3, 291, 2.06], [336, 15, 52, 2.46], [10529, 29, 37, 4.0], [9372, 1, 210, 2.71], [12225, 1, 153, 2.28], [9082, 3, 1955, 2.92], [6097, 29, 32, 4.24], [4203, 1, 45, 2.18], [9760, 29, 66, 2.03], [66, 16, 71, 2.03], [2109, 3, 433, 2.03], [12346, 1, 563, 3.1], [5811, 3, 541, 3.06], [2104, 3, 306, 3.39]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 20, 1.59], [8915, 2, 8, 0.81], [589, 2, 8, 0.87], [2327, 2, 7, 1.0], [2778, 2, 7, 0.8], [6935, 2, 11, 3.9], [2328, 2, 7, 1.46], [5493, 2, 7, 0.85], [305, 2, 6, 0.82], [615, 2, 9, 2.5], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 7, 3.91], [8648, 2, 7, 3.18], [1446, 2, 7, 1.32], [7004, 1, 9, 3.07], [2049, 3, 12, 0.72], [593, 2, 11, 0.97], [143, 2, 7, 1.81], [205, 2, 7, 0.74], [10, 2, 7, 2.55], [144, 2, 7, 2.0], [7036, 1, 9, 3.03], [94, 4, 7, 2.1], [990, 2, 7, 1.45], [3893, 1, 7, 1.21], [146, 2, 7, 2.06], [141, 2, 7, 0.75], [12224, 1, 7, 0.89], [3891, 1, 7, 1.26], [362, 2, 7, 1.0], [206, 2, 7, 0.74], [2055, 3, 7, 1.08], [75, 2, 7, 2.39], [5208, 3, 9, 1.29], [3889, 1, 7, 1.88], [7886, 4, 7, 0.8], [10993, 2, 7, 1.25], [11234, 2, 9, 1.8], [2054, 3, 7, 1.93], [7005, 1, 9, 1.49], [12870, 1, 7, 3.23], [7084, 3, 7, 2.06], [3980, 4, 8, 2.39], [10149, 3, 21, 2.58], [145, 2, 7, 1.93], [2050, 3, 7, 1.08], [2912, 1, 7, 2.33], [5165, 1, 7, 2.5], [8672, 2, 9, 3.11], [20927, 1, 7, 2.43], [998, 2, 7, 1.5], [9760, 29, 9, 0.97], [972, 3, 10, 1.52], [3, 2, 7, 1.83], [3495, 3, 14, 1.61], [229, 1, 7, 0.94], [6158, 2, 9, 4.29], [346, 3, 7, 1.31], [5076, 1, 7, 0.9], [5165, 2, 8, 3.64], [142, 2, 7, 0.69], [7887, 4, 7, 1.87], [523, 2, 7, 0.69], [74, 1, 7, 3.33], [9372, 1, 7, 3.08], [11953, 1, 7, 1.0], [11770, 1, 9, 0.96], [1492, 1, 7, 0.97], [12721, 2, 7, 2.42], [9491, 21, 26, 0.95], [3981, 3, 22, 1.31], [2912, 2, 12, 3.19], [2423, 80, 7, 3.79], [11772, 1, 7, 0.89], [6497, 1, 7, 1.09], [5434, 1, 7, 1.6], [7573, 1, 16, 3.81], [5584, 3, 7, 5.0], [12229, 2, 7, 0.94], [2438, 2, 8, 3.21], [346, 1, 7, 0.83], [335, 3, 15, 0.72], [10388, 2, 7, 2.08], [10407, 10, 10, 3.76], [11179, 1, 9, 1.07], [823, 1, 7, 2.33], [3975, 4, 7, 2.49], [6496, 1, 7, 1.94], [5209, 3, 9, 1.29], [2805, 137, 7, 2.56], [4253, 1, 7, 1.04], [11812, 1, 7, 0.84], [3900, 3, 7, 3.48], [12764, 2, 10, 1.04], [1622, 1, 7, 0.87], [1703, 2, 7, 1.6], [11490, 1, 7, 0.89], [8676, 2, 7, 2.91], [972, 1, 7, 1.94], [13893, 2, 7, 2.25], [22247, 2, 7, 3.16], [412, 1, 7, 2.06], [6097, 80, 7, 1.46], [2991, 3, 7, 4.1], [10386, 2, 7, 4.24], [11814, 1, 7, 0.92], [7567, 3, 7, 2.08], [6805, 1, 7, 0.97], [10410, 10, 15, 3.17], [8635, 3, 7, 2.25], [1274, 1, 7, 1.26], [37, 1, 7, 2.55], [788, 2, 7, 0.9], [8283, 2, 8, 1.19], [10408, 10, 8, 3.61], [389, 4, 7, 2.81], [8104, 1, 7, 2.1], [12212, 29, 7, 0.9], [35, 1, 7, 2.17], [23611, 3, 8, 0.74], [114, 3, 7, 2.02], [1895, 3, 7, 4.16], [76, 2, 7, 0.9], [95, 3, 22, 0.85], [38, 1, 7, 1.27], [12979, 25, 12, 1.91], [3979, 3, 13, 0.75], [10385, 2, 7, 1.0], [12501, 1, 7, 2.39], [220, 4, 7, 0.85], [8274, 3, 7, 2.23], [4232, 80, 7, 3.58], [24257, 1, 7, 0.92], [5435, 1, 7, 1.49], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [440, 3, 7, 1.44], [3981, 3, 1366, 3.43], [2912, 2, 372, 4.81], [2423, 80, 151, 5.42], [11772, 1, 182, 2.97], [6497, 1, 37, 2.72], [5434, 1, 48, 3.23], [7573, 1, 306, 5.44], [5584, 3, 198, 6.0], [12229, 2, 150, 2.57], [2438, 2, 614, 4.85], [346, 1, 152, 2.46], [335, 3, 864, 2.2], [10388, 2, 179, 4.21], [10407, 10, 990, 5.39], [11179, 1, 73, 3.56], [823, 1, 40, 3.96], [3975, 4, 473, 4.11], [6496, 1, 39, 3.57], [2805, 137, 177, 4.19], [4253, 1, 142, 3.13], [11812, 1, 196, 2.98], [12764, 2, 611, 3.42], [1622, 1, 53, 2.97], [1703, 2, 160, 3.23], [11490, 1, 107, 2.52], [8676, 2, 280, 4.54], [972, 1, 49, 3.66], [13893, 2, 268, 3.88], [22247, 2, 233, 4.79], [412, 1, 82, 3.69], [6097, 80, 67, 3.09], [2991, 3, 158, 5.73], [10386, 2, 179, 6.0], [11814, 1, 183, 2.49], [7567, 3, 69, 3.71], [6805, 1, 445, 2.59], [10410, 10, 1142, 4.79], [1274, 1, 81, 2.89], [37, 1, 54, 3.85], [8283, 2, 465, 2.82], [10408, 10, 749, 5.25], [389, 4, 201, 4.44], [8104, 1, 200, 3.73], [12212, 29, 118, 2.53], [35, 1, 109, 3.8], [23611, 3, 343, 2.37], [114, 3, 238, 3.65], [1895, 3, 293, 5.79], [76, 2, 107, 2.53], [95, 3, 1109, 2.46], [38, 1, 109, 2.9], [12979, 25, 641, 3.53], [3979, 3, 801, 2.39], [10385, 2, 200, 2.62], [12501, 1, 291, 4.02], [220, 4, 48, 2.48], [4232, 80, 145, 5.21], [24257, 1, 46, 1.9], [9690, 1, 25, 1.88], [8659, 1, 118, 3.27], [440, 3, 192, 3.07]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [615, 2, 7, 1.17], [305, 2, 7, 0.98], [2778, 2, 7, 1.07], [6936, 2, 9, 3.69], [205, 2, 7, 0.98], [130, 1, 7, 1.94], [144, 2, 7, 0.9], [8648, 2, 7, 2.71], [2049, 3, 14, 0.88], [88, 10, 18, 0.73], [7036, 1, 7, 2.37], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [8650, 2, 7, 2.48], [593, 2, 9, 1.29], [11681, 2, 9, 3.84], [2327, 2, 7, 0.98], [3893, 1, 7, 0.75], [141, 2, 9, 1.58], [151, 1, 7, 1.73], [9507, 3, 7, 0.66], [11685, 2, 7, 3.35], [248, 1, 7, 0.79], [146, 2, 7, 2.06], [2050, 3, 7, 3.31], [2055, 3, 7, 3.41], [143, 2, 7, 0.98], [3980, 4, 7, 2.36], [2054, 3, 7, 3.66], [8672, 2, 9, 2.68], [7885, 4, 7, 0.77], [362, 2, 7, 0.91], [12870, 1, 7, 3.71], [2057, 3, 7, 3.52], [7886, 4, 7, 1.23], [13028, 3, 7, 1.25], [145, 2, 7, 1.98], [7084, 3, 7, 1.44], [3495, 3, 21, 1.64], [523, 2, 7, 1.05], [3975, 4, 7, 2.49], [2991, 3, 7, 4.3], [10149, 3, 21, 2.64], [9760, 29, 9, 0.86], [11404, 2, 7, 0.72], [20927, 1, 7, 2.25], [142, 2, 7, 1.0], [3982, 3, 17, 2.34], [3981, 3, 21, 2.03], [6158, 2, 7, 1.75], [417, 2, 7, 1.06], [214, 3, 15, 0.74], [2912, 1, 7, 3.1], [11953, 1, 7, 0.9], [997, 2, 7, 4.76], [22316, 3, 7, 0.98], [33, 1, 9, 4.53], [229, 1, 7, 1.35], [7887, 4, 7, 2.25], [6497, 1, 7, 2.52], [1492, 1, 7, 2.26], [346, 3, 7, 0.88], [998, 2, 7, 5.0], [972, 3, 9, 3.74], [996, 2, 9, 3.08], [35, 1, 9, 4.53], [389, 4, 7, 2.27], [410, 1, 7, 3.58], [11770, 1, 7, 0.85], [2912, 2, 10, 2.79], [336, 15, 7, 1.28], [7567, 3, 9, 3.64], [74, 1, 7, 1.8], [2104, 3, 10, 0.73], [1413, 15, 7, 1.12], [6496, 1, 7, 1.06], [12721, 2, 7, 1.87], [12212, 29, 7, 0.87], [22317, 3, 7, 1.42], [4176, 4, 9, 3.25], [8673, 2, 7, 4.12], [8677, 3, 7, 2.57], [8676, 2, 7, 1.7], [11085, 2, 8, 3.16], [37, 1, 7, 1.27], [1274, 1, 7, 1.02], [21269, 3, 7, 5.0], [22247, 2, 7, 3.16], [7573, 1, 11, 4.14], [13023, 3, 7, 2.44], [9372, 1, 7, 4.45], [39, 1, 7, 1.79], [823, 1, 7, 0.92], [10388, 2, 7, 2.26], [6494, 1, 7, 0.87], [345, 3, 7, 0.98], [201, 3, 7, 2.36], [12271, 2, 7, 1.35], [10936, 2, 7, 3.27], [96, 11, 22, 2.04], [10408, 10, 8, 3.19], [3577, 25, 7, 1.14], [12225, 1, 7, 2.38], [3, 2, 7, 1.85], [10631, 2, 7, 3.81], [2805, 137, 8, 1.2], [11812, 1, 7, 0.89], [9691, 1, 7, 1.44], [1490, 1, 7, 2.08], [1414, 15, 7, 1.05], [20498, 3, 8, 2.71], [23961, 3, 7, 2.91], [36, 1, 7, 1.27], [192, 3, 15, 3.61], [9690, 1, 7, 2.1], [12764, 2, 8, 1.47], [10386, 2, 7, 1.91], [13928, 1, 7, 2.9], [346, 1, 7, 1.06], [3048, 3, 7, 1.77], [8898, 3, 7, 3.58], [10407, 10, 10, 3.29], [3576, 25, 7, 1.44], [11814, 1, 7, 0.92], [13893, 2, 7, 4.76], [11089, 1, 7, 1.17], [972, 1, 7, 1.51], [1339, 3, 15, 0.79], [5812, 3, 7, 1.86], [10939, 2, 7, 3.72], [1523, 1, 7, 1.54], [1163, 3, 7, 1.18], [491, 10, 8, 2.07], [13035, 3, 7, 2.54], [19931, 1, 7, 2.43], [2878, 1, 7, 0.75], [8659, 1, 7, 3.43], [6496, 1, 35, 2.5], [12721, 2, 248, 3.32], [12212, 29, 104, 2.31], [22317, 3, 232, 2.88], [4176, 4, 353, 4.69], [8673, 2, 242, 5.57], [8677, 3, 216, 4.01], [8676, 2, 248, 3.14], [11085, 2, 391, 4.64], [37, 1, 96, 2.72], [1274, 1, 71, 2.46], [21269, 3, 216, 6.0], [22247, 2, 207, 4.6], [7573, 1, 302, 5.59], [13023, 3, 510, 3.88], [9372, 1, 196, 5.89], [39, 1, 96, 3.24], [823, 1, 35, 2.36], [10388, 2, 158, 4.21], [6494, 1, 45, 2.31], [345, 3, 258, 2.42], [201, 3, 258, 3.81], [12271, 2, 55, 2.8], [10936, 2, 115, 4.72], [96, 11, 293, 2.94], [10408, 10, 662, 4.65], [3577, 25, 77, 2.59], [12225, 1, 142, 3.82], [3, 2, 106, 3.3], [10631, 2, 74, 4.71], [2805, 137, 160, 2.64], [11812, 1, 208, 2.33], [9691, 1, 66, 2.89], [1490, 1, 44, 3.53], [1414, 15, 35, 1.95], [20498, 3, 505, 4.16], [23961, 3, 255, 4.35], [36, 1, 96, 2.72], [192, 3, 1229, 5.06], [9690, 1, 65, 3.54], [12764, 2, 645, 2.91], [10386, 2, 187, 3.36], [13928, 1, 40, 4.35], [346, 1, 134, 2.51], [3048, 3, 234, 3.22], [8898, 3, 243, 5.03], [10407, 10, 1010, 4.71], [3576, 25, 88, 2.88], [11814, 1, 195, 2.37], [13893, 2, 231, 6.0], [11089, 1, 149, 2.62], [972, 1, 85, 2.95], [5812, 3, 520, 3.31], [10939, 2, 115, 5.16], [1523, 1, 41, 2.99], [491, 10, 381, 3.52], [13035, 3, 260, 3.99], [19931, 1, 354, 3.88], [2878, 1, 71, 2.2], [8659, 1, 103, 4.88]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.88], [2328, 2, 9, 1.85], [8650, 2, 9, 2.38], [5491, 2, 9, 0.9], [362, 2, 9, 0.81], [130, 1, 9, 1.36], [589, 2, 7, 1.45], [2327, 2, 9, 1.82], [326, 2, 7, 2.16], [8672, 2, 12, 2.4], [417, 2, 9, 0.87], [6935, 2, 19, 4.24], [206, 2, 9, 0.77], [6936, 2, 9, 2.7], [142, 2, 9, 0.87], [8915, 2, 7, 1.21], [11838, 2, 9, 1.02], [12721, 2, 11, 1.45], [2049, 3, 14, 1.23], [1446, 2, 7, 0.85], [2778, 2, 13, 1.34], [523, 2, 7, 1.72], [8676, 2, 7, 1.0], [305, 2, 7, 1.89], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [12349, 1, 7, 1.02], [145, 2, 7, 2.13], [8675, 2, 9, 2.44], [990, 2, 7, 2.15], [76, 2, 7, 1.62], [143, 2, 7, 0.92], [8673, 2, 7, 2.91], [11836, 2, 9, 0.86], [146, 2, 7, 2.68], [6158, 2, 10, 2.15], [151, 1, 7, 0.85], [3495, 3, 21, 2.26], [2050, 3, 7, 0.64], [10149, 3, 21, 2.47], [2055, 3, 7, 2.04], [12350, 1, 7, 1.02], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [144, 2, 7, 2.63], [7885, 4, 7, 1.31], [2859, 15, 7, 1.6], [88, 10, 16, 2.1], [10993, 2, 7, 1.44], [3848, 2, 7, 2.06], [7705, 2, 7, 2.28], [2423, 80, 9, 4.85], [2424, 29, 9, 3.34], [2423, 29, 7, 1.5], [12351, 1, 7, 0.85], [2424, 80, 7, 4.47], [60, 3, 8, 3.51], [1519, 3, 13, 0.68], [201, 3, 7, 2.66], [1414, 15, 7, 0.67], [12373, 1, 11, 2.99], [345, 3, 7, 1.99], [5208, 3, 13, 0.87], [6952, 1, 7, 0.97], [20927, 1, 7, 1.89], [11954, 1, 7, 0.85], [432, 3, 9, 4.04], [3, 2, 7, 2.93], [3430, 15, 7, 2.08], [7004, 1, 7, 1.96], [7886, 4, 7, 0.81], [11811, 1, 7, 1.93], [2703, 3, 7, 4.17], [13928, 1, 9, 0.75], [2331, 1, 7, 1.16], [114, 3, 7, 1.1], [3429, 15, 7, 0.94], [11089, 1, 7, 0.83], [105, 3, 7, 1.05], [5584, 3, 7, 5.0], [3981, 3, 13, 0.91], [944, 15, 7, 0.77], [308, 1, 11, 2.72], [7706, 2, 7, 2.62], [10407, 10, 10, 3.25], [8274, 3, 7, 3.88], [1886, 2, 7, 0.67], [1490, 1, 7, 3.85], [10410, 10, 10, 3.76], [22317, 3, 10, 0.81], [94, 4, 7, 3.11], [3891, 1, 7, 1.58], [3893, 1, 7, 2.19], [8898, 3, 7, 4.88], [9690, 1, 7, 1.75], [9082, 3, 24, 2.83], [7708, 2, 7, 2.62], [3028, 3, 7, 0.83], [6497, 1, 7, 0.85], [9342, 2, 8, 0.85], [10409, 10, 11, 3.34], [10406, 10, 12, 3.4], [1274, 1, 7, 2.39], [952, 4, 7, 4.27], [20196, 2, 7, 3.8], [823, 1, 7, 4.28], [21003, 2, 7, 3.61], [10897, 1, 13, 0.84], [10408, 10, 10, 3.27], [20682, 1, 7, 2.02], [10398, 2, 7, 3.31], [5812, 3, 7, 2.91], [5946, 1, 7, 2.83], [13928, 2, 7, 2.9], [11677, 1, 7, 2.24], [4253, 1, 7, 1.41], [957, 2, 7, 0.92], [6630, 3, 7, 3.56], [7703, 2, 7, 2.62], [186, 3, 12, 0.97], [20680, 1, 7, 1.33], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [20555, 2, 7, 0.85], [8635, 3, 7, 3.88], [2438, 2, 8, 3.32], [2805, 137, 10, 5.0], [1050, 2, 7, 0.69], [8897, 3, 7, 4.88], [3478, 2, 7, 2.46], [3980, 4, 7, 2.49], [3889, 1, 7, 2.19], [11603, 2, 7, 2.95], [9068, 1, 7, 3.0], [5811, 3, 8, 3.52], [9, 1, 7, 0.75], [11812, 1, 7, 0.89], [9491, 21, 16, 4.69], [2703, 3, 308, 5.95], [13928, 1, 41, 3.1], [2331, 1, 119, 2.94], [114, 3, 245, 2.88], [3429, 15, 18, 2.01], [11089, 1, 174, 2.61], [105, 3, 245, 2.82], [5584, 3, 230, 6.0], [3981, 3, 1690, 2.69], [944, 15, 15, 1.84], [308, 1, 169, 4.5], [7706, 2, 178, 4.4], [10407, 10, 1171, 5.03], [1886, 2, 158, 2.45], [1490, 1, 49, 5.63], [10410, 10, 1171, 5.54], [22317, 3, 268, 3.13], [94, 4, 117, 4.89], [3891, 1, 125, 3.36], [3893, 1, 123, 3.97], [8898, 3, 283, 6.0], [9690, 1, 51, 3.35], [9082, 3, 2464, 4.58], [7708, 2, 178, 4.4], [3028, 3, 55, 1.9], [6497, 1, 38, 2.63], [9342, 2, 156, 1.93], [10409, 10, 1765, 5.13], [10406, 10, 1765, 5.19], [1274, 1, 55, 3.99], [952, 4, 72, 6.0], [20196, 2, 285, 5.58], [823, 1, 39, 6.0], [21003, 2, 285, 5.4], [10897, 1, 355, 2.62], [10408, 10, 768, 5.06], [20682, 1, 622, 3.81], [10398, 2, 73, 4.73], [5812, 3, 594, 4.7], [5946, 1, 124, 4.61], [13928, 2, 23, 4.68], [11677, 1, 450, 4.02], [4253, 1, 173, 3.19], [957, 2, 108, 2.7], [6630, 3, 94, 5.34], [7703, 2, 178, 4.4], [186, 3, 668, 2.76], [20680, 1, 622, 3.12], [95, 3, 1066, 4.47], [963, 3, 394, 5.77], [20555, 2, 58, 2.63], [2438, 2, 629, 5.11], [2805, 137, 178, 6.0], [8897, 3, 283, 6.0], [3980, 4, 485, 4.28], [3889, 1, 123, 3.97], [11603, 2, 191, 4.74], [5811, 3, 396, 5.13], [9, 1, 12, 1.82], [11812, 1, 120, 2.31], [9491, 21, 2039, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 14, 1.08], [6935, 2, 23, 5.0], [6936, 2, 9, 2.9], [305, 2, 7, 1.46], [8672, 2, 12, 2.4], [615, 2, 7, 1.73], [1504, 2, 11, 1.4], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 9, 1.82], [146, 2, 7, 2.14], [143, 2, 7, 1.94], [2328, 2, 9, 1.85], [11737, 2, 7, 1.51], [141, 2, 7, 2.25], [5491, 2, 9, 0.86], [205, 2, 7, 1.24], [144, 2, 7, 2.11], [8650, 2, 11, 4.63], [8676, 2, 7, 1.6], [8673, 2, 9, 2.44], [417, 2, 7, 2.25], [589, 2, 6, 0.79], [3, 2, 7, 1.27], [206, 2, 7, 0.74], [22247, 2, 7, 2.33], [6097, 80, 7, 3.92], [6497, 1, 7, 0.85], [11836, 2, 7, 1.44], [2055, 3, 7, 0.9], [990, 2, 7, 1.41], [12344, 1, 7, 2.03], [523, 2, 7, 1.27], [593, 2, 10, 0.89], [6097, 29, 7, 4.54], [6098, 80, 7, 4.99], [12345, 1, 7, 3.92], [11739, 2, 7, 1.04], [88, 10, 17, 2.02], [2054, 3, 7, 1.19], [8915, 2, 7, 0.79], [75, 2, 7, 0.9], [326, 2, 7, 0.85], [60, 3, 8, 1.51], [1492, 1, 7, 1.39], [1413, 15, 7, 1.49], [411, 2, 7, 0.74], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [6098, 29, 7, 4.99], [947, 15, 7, 0.85], [7704, 2, 7, 2.62], [10149, 3, 21, 2.64], [345, 3, 7, 2.21], [2859, 15, 7, 1.7], [11738, 2, 7, 1.34], [1243, 2, 7, 2.14], [13264, 29, 7, 1.0], [1049, 2, 7, 0.73], [1490, 1, 7, 0.69], [229, 1, 7, 3.98], [964, 15, 7, 0.77], [7004, 1, 7, 1.56], [201, 3, 7, 3.31], [2331, 1, 7, 1.0], [10407, 10, 10, 3.25], [186, 3, 12, 1.53], [5208, 3, 13, 0.98], [22558, 3, 6, 1.74], [114, 3, 7, 2.16], [432, 3, 7, 4.24], [1163, 3, 7, 2.79], [7705, 2, 7, 2.62], [957, 2, 7, 1.43], [7706, 2, 7, 2.62], [12229, 2, 7, 0.87], [13928, 1, 7, 2.9], [2421, 80, 7, 2.08], [3478, 2, 7, 2.46], [11404, 2, 7, 0.83], [10408, 10, 10, 3.27], [10406, 10, 12, 3.4], [7036, 1, 7, 0.87], [19687, 1, 9, 2.21], [11687, 2, 7, 0.96], [10410, 10, 10, 3.76], [12870, 1, 7, 3.68], [11490, 1, 7, 1.52], [1886, 2, 7, 0.67], [9784, 1, 7, 1.94], [410, 1, 7, 1.17], [11159, 1, 14, 3.48], [22125, 2, 7, 0.69], [2703, 3, 7, 4.17], [21781, 2, 7, 0.9], [11161, 1, 10, 2.68], [9760, 29, 7, 1.64], [956, 2, 7, 1.02], [7708, 2, 7, 2.62], [12373, 1, 11, 2.99], [9065, 2, 7, 0.92], [5976, 1, 7, 3.81], [94, 4, 7, 1.16], [11689, 2, 7, 0.9], [105, 3, 7, 1.6], [8599, 1, 7, 0.98], [1274, 1, 7, 3.68], [2805, 137, 10, 2.31], [9372, 1, 7, 3.35], [9209, 29, 7, 1.04], [11953, 1, 7, 0.9], [5584, 3, 7, 5.0], [11811, 1, 7, 1.93], [4253, 1, 7, 1.41], [11160, 1, 7, 2.56], [8600, 1, 7, 1.96], [3495, 3, 21, 1.51], [247, 1, 7, 2.84], [2991, 3, 7, 4.45], [8283, 2, 8, 0.63], [21269, 3, 7, 3.75], [12764, 2, 8, 1.47], [20927, 1, 7, 1.35], [8285, 2, 8, 0.85], [11887, 2, 8, 1.0], [1691, 1, 7, 2.56], [20555, 2, 7, 0.9], [9491, 21, 16, 3.25], [5076, 1, 7, 2.16], [11677, 1, 7, 2.24], [4372, 1, 7, 0.96], [3934, 5, 9, 1.11], [12304, 1, 7, 4.83], [8635, 3, 7, 2.24], [12979, 25, 15, 1.91], [13198, 29, 7, 2.44], [3230, 1, 7, 0.83], [7705, 2, 178, 4.4], [957, 2, 91, 3.21], [7706, 2, 178, 4.4], [12229, 2, 153, 2.65], [13928, 1, 47, 4.68], [2421, 80, 71, 3.15], [11404, 2, 35, 1.9], [10408, 10, 768, 5.06], [10406, 10, 1765, 5.19], [7036, 1, 128, 2.65], [19687, 1, 26, 4.49], [11687, 2, 102, 2.03], [10410, 10, 1171, 5.54], [12870, 1, 139, 5.46], [11490, 1, 91, 3.23], [1886, 2, 158, 2.45], [9784, 1, 72, 3.72], [410, 1, 53, 2.59], [11159, 1, 497, 5.26], [22125, 2, 21, 1.76], [2703, 3, 308, 5.95], [21781, 2, 52, 2.32], [11161, 1, 501, 4.46], [9760, 29, 60, 3.35], [956, 2, 107, 2.8], [7708, 2, 178, 4.4], [12373, 1, 535, 4.76], [9065, 2, 153, 2.35], [5976, 1, 157, 5.59], [94, 4, 123, 2.94], [11689, 2, 102, 1.96], [105, 3, 244, 3.38], [8599, 1, 145, 2.76], [1274, 1, 81, 5.46], [2805, 137, 182, 4.09], [9372, 1, 229, 5.13], [9209, 29, 33, 2.82], [11953, 1, 202, 2.68], [5584, 3, 230, 6.0], [11811, 1, 453, 3.71], [4253, 1, 173, 3.19], [11160, 1, 501, 4.34], [8600, 1, 145, 3.74], [3495, 3, 969, 3.28], [247, 1, 86, 4.62], [2991, 3, 160, 6.0], [21269, 3, 296, 5.53], [12764, 2, 749, 3.24], [20927, 1, 40, 2.78], [8285, 2, 485, 2.64], [11887, 2, 193, 2.78], [1691, 1, 88, 4.34], [20555, 2, 58, 2.68], [9491, 21, 2005, 5.02], [5076, 1, 131, 3.94], [11677, 1, 450, 4.02], [4372, 1, 69, 2.74], [3934, 5, 588, 2.89], [12304, 1, 102, 6.0], [12979, 25, 657, 3.69], [13198, 29, 62, 4.22], [3230, 1, 199, 2.61]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.0], [141, 2, 7, 0.92], [361, 2, 9, 1.17], [6935, 2, 23, 5.0], [12721, 2, 14, 3.11], [206, 2, 7, 0.77], [2049, 3, 17, 0.72], [8676, 2, 7, 1.1], [8675, 2, 9, 1.45], [1504, 2, 11, 0.95], [417, 2, 7, 0.9], [3, 2, 7, 1.13], [6936, 2, 9, 3.29], [305, 2, 7, 0.88], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [8650, 2, 7, 2.44], [8648, 2, 7, 2.02], [2328, 2, 7, 1.77], [2776, 2, 7, 1.38], [11739, 2, 7, 1.31], [2327, 2, 7, 1.48], [11837, 2, 7, 0.87], [12352, 1, 7, 3.98], [411, 2, 7, 0.73], [589, 2, 9, 0.67], [143, 2, 7, 1.35], [146, 2, 7, 2.16], [11835, 2, 7, 0.94], [6497, 1, 9, 0.85], [583, 2, 7, 2.23], [6097, 80, 7, 4.06], [326, 2, 7, 0.85], [10574, 3, 9, 3.47], [145, 2, 7, 2.81], [144, 2, 7, 2.81], [10149, 3, 26, 1.2], [11836, 2, 7, 1.04], [6097, 29, 7, 1.27], [75, 2, 7, 2.38], [12344, 1, 7, 2.59], [1413, 15, 7, 0.89], [6496, 1, 7, 2.07], [1243, 2, 7, 1.41], [6098, 80, 7, 4.99], [8915, 2, 7, 1.25], [1886, 2, 7, 1.42], [247, 1, 7, 3.97], [6098, 29, 7, 2.21], [944, 15, 9, 0.77], [1490, 1, 7, 0.9], [2859, 15, 7, 1.37], [3934, 5, 10, 0.86], [2049, 1, 9, 0.71], [201, 3, 7, 0.85], [6158, 2, 9, 3.5], [3478, 2, 7, 2.46], [12350, 1, 7, 3.92], [11489, 1, 7, 2.48], [13928, 1, 7, 2.9], [7084, 3, 7, 4.74], [1703, 2, 7, 1.53], [8599, 1, 7, 1.36], [9342, 2, 8, 0.85], [4253, 1, 7, 1.41], [3982, 3, 20, 0.67], [308, 1, 11, 1.91], [186, 3, 12, 0.97], [11887, 2, 8, 1.0], [11885, 2, 7, 0.98], [94, 4, 7, 0.92], [2438, 2, 8, 3.32], [11811, 1, 7, 1.93], [11490, 1, 7, 0.92], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5812, 3, 7, 3.84], [229, 1, 7, 3.07], [2821, 3, 13, 0.91], [4232, 80, 7, 1.33], [5939, 3, 7, 1.14], [11671, 1, 7, 0.81], [5813, 3, 8, 3.52], [3495, 3, 21, 1.51], [5811, 3, 8, 4.0], [8898, 3, 7, 5.0], [12764, 2, 8, 1.47], [3980, 4, 7, 2.49], [7036, 1, 7, 0.87], [2108, 3, 8, 1.43], [1049, 2, 7, 0.69], [105, 3, 7, 1.81], [13928, 2, 7, 2.9], [9690, 1, 7, 1.91], [5584, 3, 7, 5.0], [8274, 3, 7, 3.88], [22573, 2, 7, 1.91], [3981, 3, 13, 0.91], [1523, 1, 7, 1.39], [11886, 2, 7, 1.44], [10407, 10, 10, 3.25], [192, 3, 12, 4.76], [1277, 1, 7, 0.9], [8897, 3, 7, 5.0], [10124, 1, 7, 4.18], [2991, 3, 7, 4.13], [10406, 10, 12, 3.4], [20927, 1, 7, 1.28], [10147, 1, 7, 0.71], [11677, 1, 7, 2.24], [3334, 5, 7, 2.01], [2438, 1, 7, 3.21], [8635, 3, 7, 3.88], [11678, 1, 7, 3.18], [1701, 2, 7, 1.06], [23275, 2, 7, 1.91], [7004, 1, 7, 1.42], [4001, 3, 10, 0.97], [23031, 3, 7, 2.71], [9373, 5, 7, 5.0], [1274, 1, 7, 3.79], [10516, 3, 8, 3.0], [5976, 1, 7, 3.81], [10181, 26, 8, 0.93], [3984, 3, 8, 0.91], [9065, 2, 7, 0.92], [14041, 3, 7, 0.88], [8285, 2, 8, 0.85], [973, 3, 8, 1.13], [7005, 1, 7, 1.42], [19924, 2, 7, 1.83], [9069, 1, 7, 2.27], [10409, 10, 11, 3.34], [11812, 1, 7, 0.89], [1648, 1, 7, 2.23], [8188, 10, 10, 3.3], [12241, 3, 7, 0.73], [942, 3, 7, 2.26], [11811, 1, 453, 3.71], [11490, 1, 93, 3.16], [10398, 2, 148, 3.1], [5812, 3, 591, 5.62], [229, 1, 81, 4.85], [2821, 3, 672, 2.32], [4232, 80, 159, 3.11], [5939, 3, 268, 2.92], [11671, 1, 314, 2.59], [5813, 3, 591, 5.3], [3495, 3, 969, 3.28], [5811, 3, 394, 5.6], [8898, 3, 288, 6.0], [12764, 2, 749, 3.24], [3980, 4, 485, 4.28], [7036, 1, 128, 2.65], [2108, 3, 180, 3.21], [105, 3, 175, 3.52], [13928, 2, 23, 4.68], [9690, 1, 63, 3.62], [5584, 3, 230, 6.0], [22573, 2, 71, 3.69], [3981, 3, 1690, 2.69], [1523, 1, 47, 3.17], [11886, 2, 193, 3.22], [10407, 10, 1171, 5.03], [192, 3, 939, 6.0], [1277, 1, 197, 2.68], [8897, 3, 288, 6.0], [10124, 1, 101, 5.96], [2991, 3, 162, 5.9], [10406, 10, 1765, 5.19], [20927, 1, 40, 2.71], [10147, 1, 68, 2.49], [11677, 1, 450, 4.02], [3334, 5, 183, 3.78], [2438, 1, 53, 4.99], [11678, 1, 448, 4.95], [1701, 2, 170, 2.84], [23275, 2, 71, 3.69], [7004, 1, 27, 2.49], [4001, 3, 821, 2.75], [23031, 3, 414, 4.49], [9373, 5, 86, 6.0], [1274, 1, 81, 5.57], [10516, 3, 591, 4.78], [5976, 1, 157, 5.59], [10181, 26, 139, 2.71], [3984, 3, 1690, 2.69], [9065, 2, 153, 2.35], [14041, 3, 603, 2.65], [8285, 2, 485, 2.64], [973, 3, 1195, 2.91], [7005, 1, 27, 2.49], [19924, 2, 64, 3.61], [9069, 1, 122, 4.05], [10409, 10, 1765, 5.13], [11812, 1, 120, 2.31], [1648, 1, 47, 4.01], [8188, 10, 744, 5.08], [942, 3, 296, 4.04]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 0.88], [6935, 2, 23, 4.18], [2328, 2, 9, 1.85], [130, 1, 9, 1.36], [141, 2, 9, 0.95], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [2327, 2, 9, 1.82], [362, 2, 7, 2.49], [6936, 2, 9, 3.12], [143, 2, 7, 0.93], [145, 2, 7, 0.96], [248, 1, 7, 0.69], [205, 2, 7, 1.24], [5493, 2, 7, 2.06], [417, 2, 7, 1.04], [146, 2, 7, 1.1], [75, 2, 7, 1.79], [11737, 2, 7, 1.56], [1124, 2, 12, 1.24], [523, 2, 7, 1.72], [2049, 3, 17, 0.77], [12721, 2, 11, 1.45], [1005, 2, 7, 2.48], [8853, 2, 7, 2.88], [206, 2, 7, 0.74], [326, 2, 9, 1.68], [8673, 2, 9, 2.2], [8915, 2, 9, 2.88], [144, 2, 7, 1.34], [11835, 2, 7, 0.69], [11739, 2, 9, 2.98], [88, 10, 17, 2.02], [434, 2, 7, 1.29], [142, 2, 9, 0.87], [151, 1, 9, 2.5], [435, 2, 7, 1.48], [8676, 2, 7, 1.29], [11234, 2, 9, 1.56], [6158, 2, 10, 1.5], [11738, 2, 7, 1.38], [11836, 2, 7, 1.36], [1413, 15, 7, 0.99], [7705, 2, 7, 3.18], [10574, 3, 10, 3.0], [944, 15, 7, 0.77], [7706, 2, 7, 3.18], [3, 2, 7, 2.44], [2054, 3, 7, 2.44], [2859, 15, 7, 2.64], [12720, 2, 7, 1.89], [74, 1, 7, 3.84], [3478, 2, 7, 3.43], [2055, 3, 7, 0.89], [10149, 3, 21, 1.49], [3429, 15, 7, 0.87], [6497, 1, 7, 0.85], [7004, 1, 7, 2.04], [60, 3, 8, 2.96], [411, 2, 7, 0.74], [11089, 1, 7, 0.79], [13928, 1, 7, 2.9], [2057, 3, 7, 1.25], [13028, 3, 7, 1.96], [7036, 1, 7, 1.74], [18964, 1, 7, 0.66], [6097, 80, 7, 5.0], [13260, 29, 7, 2.25], [8274, 3, 7, 1.56], [3893, 1, 7, 4.33], [13034, 3, 9, 2.28], [14037, 3, 7, 1.85], [94, 4, 7, 4.81], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [7707, 2, 7, 1.44], [1243, 2, 7, 1.83], [21793, 1, 8, 4.0], [1490, 1, 7, 3.85], [3889, 1, 7, 4.33], [11490, 1, 7, 1.68], [22317, 3, 8, 1.35], [7708, 2, 7, 2.62], [345, 3, 7, 2.43], [6098, 80, 7, 4.56], [7703, 2, 7, 2.62], [229, 1, 7, 3.98], [3495, 3, 21, 1.51], [6630, 3, 7, 4.62], [2991, 3, 7, 4.18], [13023, 3, 10, 1.04], [336, 15, 7, 0.98], [2805, 137, 10, 1.06], [11581, 29, 7, 1.89], [6098, 29, 7, 2.21], [6627, 3, 7, 0.85], [23275, 2, 7, 1.91], [13033, 3, 7, 2.22], [2331, 1, 7, 1.23], [13263, 29, 7, 0.83], [1049, 2, 7, 0.69], [247, 1, 7, 3.12], [1274, 1, 7, 2.89], [8635, 3, 7, 1.17], [6628, 3, 7, 0.9], [6097, 29, 7, 3.08], [114, 3, 7, 2.37], [5940, 3, 7, 0.87], [12229, 2, 7, 0.87], [20555, 2, 7, 0.75], [942, 3, 7, 2.26], [6496, 1, 7, 2.07], [11914, 1, 7, 0.79], [10406, 10, 12, 3.4], [8898, 3, 7, 2.51], [9372, 1, 7, 3.35], [192, 3, 12, 4.76], [10411, 10, 10, 3.4], [215, 4, 7, 4.5], [21269, 3, 7, 2.09], [3934, 5, 9, 1.11], [9760, 29, 7, 2.81], [186, 3, 12, 2.32], [11770, 1, 7, 2.06], [10407, 10, 10, 3.25], [5209, 3, 8, 0.96], [12373, 1, 11, 2.99], [10527, 3, 13, 2.94], [10408, 10, 10, 3.27], [5812, 3, 7, 2.49], [6360, 10, 15, 1.51], [21781, 2, 7, 0.9], [4940, 1, 7, 0.71], [7005, 1, 7, 1.56], [9082, 3, 24, 2.83], [12870, 1, 7, 3.35], [1886, 2, 7, 0.85], [19687, 1, 7, 2.33], [3891, 1, 124, 4.21], [7707, 2, 178, 3.22], [1243, 2, 85, 3.61], [21793, 1, 205, 5.78], [1490, 1, 49, 5.63], [3889, 1, 41, 6.0], [11490, 1, 91, 3.39], [22317, 3, 215, 3.13], [7708, 2, 178, 4.4], [345, 3, 251, 4.21], [6098, 80, 25, 6.0], [7703, 2, 178, 4.4], [229, 1, 82, 5.76], [3495, 3, 969, 3.28], [6630, 3, 80, 6.0], [2991, 3, 161, 5.96], [13023, 3, 603, 2.82], [2805, 137, 184, 2.84], [11581, 29, 60, 3.67], [6098, 29, 38, 3.99], [6627, 3, 79, 2.63], [23275, 2, 71, 3.69], [13033, 3, 597, 4.0], [2331, 1, 119, 3.01], [13263, 29, 73, 2.61], [247, 1, 87, 4.9], [1274, 1, 81, 4.67], [6628, 3, 50, 2.32], [6097, 29, 35, 4.86], [114, 3, 162, 3.98], [5940, 3, 90, 1.94], [12229, 2, 153, 2.65], [20555, 2, 58, 2.53], [942, 3, 296, 4.04], [6496, 1, 40, 3.85], [11914, 1, 87, 2.57], [10406, 10, 1765, 5.19], [8898, 3, 282, 4.29], [9372, 1, 229, 5.13], [192, 3, 939, 6.0], [10411, 10, 768, 5.19], [215, 4, 37, 6.0], [21269, 3, 294, 3.87], [3934, 5, 588, 2.89], [9760, 29, 24, 3.88], [186, 3, 440, 3.93], [11770, 1, 214, 3.84], [10407, 10, 1171, 5.03], [5209, 3, 377, 2.56], [12373, 1, 535, 4.76], [10527, 3, 870, 4.74], [10408, 10, 768, 5.06], [5812, 3, 588, 4.26], [6360, 10, 744, 3.3], [21781, 2, 52, 2.32], [4940, 1, 122, 2.49], [7005, 1, 27, 2.63], [9082, 3, 2464, 4.58], [12870, 1, 137, 5.13], [1886, 2, 158, 2.63], [19687, 1, 30, 4.11]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 10, 0.75], [2778, 2, 9, 1.33], [6936, 2, 13, 3.9], [2327, 2, 7, 1.37], [362, 2, 9, 1.39], [8648, 2, 7, 4.05], [11681, 2, 25, 4.17], [8650, 2, 9, 3.91], [326, 2, 9, 1.32], [205, 2, 9, 1.14], [1446, 2, 7, 0.92], [2328, 2, 9, 1.6], [305, 2, 9, 2.48], [2049, 3, 9, 0.89], [130, 1, 7, 2.31], [2775, 2, 9, 1.33], [8853, 2, 11, 4.03], [361, 2, 7, 1.11], [593, 2, 9, 0.96], [143, 2, 7, 1.27], [1429, 2, 7, 1.08], [206, 2, 9, 0.87], [523, 2, 7, 1.49], [7004, 1, 7, 1.71], [12350, 1, 7, 0.97], [7036, 1, 7, 2.73], [1124, 2, 9, 1.09], [151, 1, 7, 0.71], [990, 2, 7, 1.94], [5165, 1, 9, 1.87], [417, 2, 7, 1.06], [248, 1, 9, 0.76], [144, 2, 7, 2.69], [2050, 3, 7, 2.33], [201, 3, 7, 3.56], [6952, 1, 7, 3.04], [6097, 80, 7, 4.58], [345, 3, 9, 1.68], [11770, 1, 7, 0.92], [2055, 3, 7, 2.83], [3891, 1, 7, 1.46], [7084, 3, 9, 5.0], [2057, 3, 7, 2.83], [9372, 1, 7, 3.47], [5165, 2, 15, 2.8], [7005, 1, 7, 1.08], [3893, 1, 7, 1.34], [998, 2, 9, 1.81], [12870, 1, 7, 1.58], [10574, 3, 8, 1.91], [3334, 5, 7, 2.87], [6097, 29, 9, 5.0], [7885, 4, 7, 0.94], [6098, 80, 7, 2.68], [20927, 1, 7, 1.66], [346, 3, 7, 0.8], [11089, 1, 7, 1.67], [12344, 1, 7, 1.02], [10149, 3, 24, 1.49], [6158, 2, 7, 2.58], [3889, 1, 7, 1.42], [1492, 1, 9, 0.68], [432, 3, 7, 2.08], [11953, 1, 7, 0.79], [1519, 3, 16, 0.68], [4032, 29, 7, 1.0], [411, 2, 7, 1.04], [2423, 80, 7, 4.75], [972, 3, 9, 2.0], [5151, 2, 7, 2.02], [13034, 3, 9, 3.01], [229, 1, 7, 3.98], [3576, 25, 7, 2.73], [2331, 1, 7, 2.49], [346, 1, 9, 0.73], [13244, 1, 7, 0.9], [11426, 25, 7, 1.14], [11737, 2, 7, 0.94], [11583, 29, 9, 0.76], [3, 2, 7, 1.58], [5076, 1, 7, 1.65], [2160, 68, 7, 1.96], [11490, 1, 7, 1.37], [2805, 137, 7, 1.69], [12764, 2, 10, 0.99], [6494, 1, 7, 2.92], [8677, 3, 8, 2.13], [13893, 2, 7, 3.45], [1701, 2, 7, 3.04], [3575, 25, 7, 1.49], [11814, 1, 7, 0.92], [3577, 25, 7, 0.71], [1413, 15, 7, 0.83], [3478, 2, 7, 1.19], [11813, 1, 7, 3.17], [23238, 29, 7, 0.71], [75, 2, 7, 1.56], [2438, 2, 8, 3.47], [13023, 3, 8, 2.24], [4253, 1, 7, 2.98], [4033, 29, 7, 0.94], [9289, 29, 7, 2.91], [8283, 2, 8, 1.31], [11404, 2, 7, 0.83], [5812, 3, 7, 3.84], [23238, 25, 7, 0.71], [9967, 2, 7, 3.67], [9069, 1, 7, 1.81], [9971, 2, 7, 3.67], [2878, 1, 7, 0.85], [5584, 3, 7, 2.66], [1163, 3, 7, 2.79], [957, 2, 7, 1.75], [9491, 21, 13, 2.57], [114, 3, 7, 2.19], [21697, 3, 7, 0.87], [4586, 10, 16, 1.4], [10407, 10, 12, 3.17], [13249, 29, 7, 1.99], [823, 1, 7, 1.1], [289, 3, 7, 1.96], [9965, 2, 7, 4.13], [10609, 1, 7, 2.98], [336, 15, 7, 0.98], [9964, 2, 7, 1.83], [4076, 3, 7, 2.73], [7324, 1, 7, 1.69], [12647, 1, 7, 1.49], [1277, 1, 9, 1.06], [2528, 29, 7, 1.87], [3495, 3, 16, 1.44], [1523, 1, 7, 1.2], [4372, 10, 12, 0.97], [11425, 25, 7, 1.1], [13034, 3, 430, 5.43], [229, 1, 70, 5.4], [3576, 25, 87, 4.15], [2331, 1, 101, 3.91], [346, 1, 117, 2.71], [13244, 1, 43, 2.32], [11426, 25, 87, 3.0], [11737, 2, 49, 2.36], [11583, 29, 41, 2.76], [3, 2, 105, 3.0], [5076, 1, 112, 3.07], [2160, 68, 113, 3.38], [11490, 1, 93, 2.79], [2805, 137, 155, 3.11], [12764, 2, 539, 3.09], [6494, 1, 43, 4.34], [8677, 3, 254, 3.55], [13893, 2, 232, 4.86], [1701, 2, 140, 4.46], [3575, 25, 87, 2.91], [11814, 1, 193, 2.34], [3577, 25, 76, 2.13], [1413, 15, 86, 2.25], [3478, 2, 65, 2.61], [11813, 1, 267, 4.59], [23238, 29, 26, 2.04], [75, 2, 125, 2.98], [2438, 2, 538, 4.89], [13023, 3, 511, 3.66], [4253, 1, 145, 4.4], [4033, 29, 89, 2.36], [9289, 29, 54, 4.34], [8283, 2, 408, 2.73], [11404, 2, 90, 2.25], [5812, 3, 505, 5.26], [23238, 25, 51, 2.04], [9967, 2, 232, 5.09], [9069, 1, 85, 3.15], [9971, 2, 232, 5.09], [2878, 1, 70, 2.27], [5584, 3, 199, 4.08], [957, 2, 92, 3.17], [9491, 21, 1805, 4.0], [114, 3, 208, 3.61], [21697, 3, 156, 2.29], [4586, 10, 1264, 2.8], [10407, 10, 1001, 4.59], [13249, 29, 55, 3.41], [823, 1, 35, 2.52], [289, 3, 496, 3.37], [9965, 2, 232, 5.55], [10609, 1, 245, 4.4], [9964, 2, 232, 3.26], [4076, 3, 172, 4.15], [7324, 1, 52, 3.11], [12647, 1, 189, 2.91], [1277, 1, 170, 2.48], [2528, 29, 82, 3.29], [3495, 3, 829, 2.85], [1523, 1, 41, 2.62], [4372, 10, 945, 2.39], [11425, 25, 103, 2.52]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.91], [305, 2, 7, 1.49], [2049, 3, 13, 0.85], [326, 2, 8, 1.03], [141, 2, 7, 0.75], [205, 2, 7, 1.21], [151, 1, 7, 0.89], [589, 2, 10, 0.81], [1776, 1, 7, 2.85], [146, 2, 7, 1.12], [206, 2, 7, 0.69], [8648, 2, 7, 2.52], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [990, 2, 9, 0.92], [6936, 2, 10, 2.57], [1777, 1, 7, 2.22], [8650, 2, 7, 3.66], [5151, 2, 7, 2.02], [2778, 2, 7, 1.06], [88, 10, 17, 1.75], [2050, 3, 7, 1.46], [10, 2, 11, 2.55], [10149, 3, 25, 3.26], [76, 2, 9, 2.75], [8649, 2, 7, 2.86], [8677, 3, 8, 3.08], [2054, 3, 9, 2.34], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [413, 1, 7, 1.64], [7004, 1, 7, 0.77], [411, 2, 7, 0.92], [10825, 21, 14, 0.72], [410, 1, 7, 1.17], [7084, 3, 7, 2.66], [307, 2, 7, 1.12], [3478, 2, 7, 2.36], [6158, 2, 10, 1.16], [3495, 3, 26, 2.49], [5081, 2, 7, 1.0], [167, 3, 9, 3.34], [7005, 1, 7, 0.77], [1492, 1, 7, 0.7], [7036, 1, 7, 2.48], [8676, 2, 7, 2.54], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [168, 3, 9, 1.09], [5812, 3, 8, 4.4], [57, 1, 7, 1.02], [94, 4, 7, 3.04], [1504, 2, 7, 1.33], [12870, 1, 7, 4.77], [335, 3, 18, 3.78], [418, 2, 7, 0.71], [2336, 3, 8, 1.74], [6097, 29, 7, 4.54], [6097, 80, 7, 4.54], [8853, 2, 14, 4.07], [346, 1, 7, 1.08], [490, 1, 7, 0.98], [1490, 1, 7, 0.87], [998, 2, 7, 2.5], [20927, 1, 7, 1.5], [95, 3, 21, 0.92], [79, 1, 7, 0.73], [9069, 1, 7, 2.1], [22316, 3, 7, 0.94], [6098, 29, 7, 4.85], [14017, 3, 7, 1.29], [6098, 80, 7, 4.85], [1070, 7, 13, 0.73], [346, 3, 8, 0.91], [8898, 3, 7, 3.98], [997, 2, 7, 2.54], [13034, 3, 8, 2.98], [9760, 29, 7, 1.15], [20498, 1, 7, 2.44], [192, 3, 18, 4.76], [336, 15, 7, 0.98], [5086, 1, 9, 1.64], [8945, 3, 8, 1.41], [7887, 4, 7, 0.71], [12350, 1, 7, 4.0], [5811, 3, 6, 2.16], [7567, 3, 7, 3.89], [22317, 3, 8, 1.35], [11085, 2, 7, 1.33], [12345, 1, 7, 1.96], [12924, 1, 9, 0.86], [5813, 3, 7, 1.98], [12349, 1, 7, 1.94], [229, 1, 7, 4.32], [972, 3, 8, 0.61], [995, 2, 7, 4.74], [9082, 3, 24, 1.17], [1622, 1, 10, 0.74], [8557, 3, 7, 1.53], [12352, 1, 7, 1.94], [20498, 3, 8, 2.4], [996, 2, 7, 4.42], [9691, 1, 7, 2.81], [12346, 1, 7, 1.96], [8104, 1, 7, 0.75], [3049, 3, 7, 4.11], [1080, 3, 7, 1.59], [14018, 3, 7, 0.96], [4076, 3, 7, 5.0], [3900, 3, 7, 3.23], [13023, 3, 8, 1.94], [1703, 2, 7, 2.72], [110, 4, 7, 1.81], [20486, 3, 8, 3.76], [5584, 3, 7, 3.61], [9613, 1, 7, 0.87], [2424, 80, 7, 4.51], [35, 1, 7, 2.02], [972, 1, 7, 0.92], [215, 4, 7, 5.0], [9372, 1, 7, 1.55], [1414, 15, 7, 0.81], [9081, 3, 12, 3.31], [20486, 1, 9, 2.87], [33, 1, 7, 1.42], [114, 3, 7, 0.92], [6497, 1, 7, 1.93], [39, 1, 7, 1.06], [11510, 3, 8, 1.98], [823, 1, 7, 0.69], [3047, 3, 7, 1.06], [1339, 3, 16, 0.73], [2854, 21, 13, 0.84], [18, 1, 7, 0.92], [13893, 2, 7, 3.45], [10529, 29, 7, 2.85], [9069, 1, 96, 3.66], [22316, 3, 292, 2.09], [6098, 29, 17, 5.62], [14017, 3, 154, 2.89], [6098, 80, 35, 5.62], [1070, 7, 467, 2.4], [346, 3, 569, 2.06], [8898, 3, 221, 5.63], [997, 2, 217, 3.69], [13034, 3, 459, 4.14], [9760, 29, 66, 2.31], [20498, 1, 77, 3.6], [192, 3, 1288, 5.9], [5086, 1, 144, 3.79], [8945, 3, 544, 2.57], [12350, 1, 563, 5.17], [5811, 3, 459, 3.82], [22317, 3, 248, 2.52], [11085, 2, 431, 2.5], [12345, 1, 563, 3.12], [12924, 1, 42, 2.69], [5813, 3, 459, 3.64], [12349, 1, 563, 3.1], [229, 1, 57, 5.47], [972, 3, 552, 1.78], [995, 2, 217, 5.9], [9082, 3, 1955, 2.92], [8557, 3, 159, 3.18], [12352, 1, 563, 3.1], [20498, 3, 459, 3.56], [996, 2, 217, 5.57], [9691, 1, 59, 4.46], [12346, 1, 563, 3.12], [8104, 1, 144, 1.78], [3049, 3, 108, 5.27], [1080, 3, 122, 2.74], [14018, 3, 154, 2.57], [4076, 3, 155, 6.0], [13023, 3, 459, 4.1], [1703, 2, 149, 3.87], [110, 4, 190, 2.97], [20486, 3, 465, 4.92], [5584, 3, 197, 4.77], [9613, 1, 58, 2.03], [2424, 80, 152, 5.66], [35, 1, 103, 3.18], [972, 1, 92, 2.08], [215, 4, 34, 6.0], [9372, 1, 210, 2.71], [1414, 15, 92, 1.97], [9081, 3, 423, 4.47], [20486, 1, 78, 4.52], [33, 1, 103, 2.58], [114, 3, 225, 2.07], [6497, 1, 34, 3.09], [39, 1, 103, 2.22], [11510, 3, 536, 3.15], [823, 1, 38, 1.85], [3047, 3, 248, 2.22], [2854, 21, 983, 2.0], [18, 1, 22, 1.69], [13893, 2, 249, 4.61], [10529, 29, 37, 4.0]]</t>
+    <t>[[8672, 2, 8, 0.73], [305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 0.47], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.99], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [8648, 2, 4, 1.02], [6936, 2, 5, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 1.52], [7886, 4, 5, 0.45], [248, 1, 4, 0.2], [2050, 3, 6, 0.41], [141, 2, 4, 0.2], [2991, 3, 4, 2.05], [74, 1, 4, 1.53], [2054, 3, 5, 0.54], [83, 2, 4, 0.58], [1446, 2, 4, 0.2], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2055, 3, 5, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.4], [345, 3, 4, 0.2], [11404, 2, 4, 0.35], [7084, 3, 4, 2.53], [3889, 1, 4, 0.2], [10825, 21, 10, 0.78], [61, 3, 4, 0.53], [10149, 3, 15, 0.99], [7036, 1, 4, 0.93], [21793, 1, 4, 1.93], [12870, 1, 4, 2.33], [33, 1, 4, 0.83], [94, 4, 4, 0.2], [5081, 2, 5, 0.69], [3478, 2, 4, 0.53], [10, 2, 4, 0.68], [11681, 2, 5, 1.41], [167, 3, 5, 1.65], [411, 2, 4, 0.2], [9827, 3, 4, 0.2], [308, 1, 4, 2.58], [1654, 2, 4, 0.2], [3891, 1, 4, 0.2], [1504, 2, 4, 0.55], [8677, 3, 6, 0.65], [201, 3, 5, 0.2], [168, 3, 4, 1.23], [3893, 1, 4, 0.2], [84, 2, 4, 0.4], [79, 1, 4, 0.2], [35, 1, 4, 0.83], [2336, 3, 5, 0.99], [13280, 1, 4, 0.81], [23, 1, 4, 0.67], [1490, 1, 4, 0.2], [9760, 29, 4, 0.24], [1243, 2, 4, 0.53], [6158, 2, 6, 0.51], [412, 1, 4, 1.14], [45, 2, 4, 0.64], [361, 2, 4, 0.66], [346, 1, 4, 0.2], [20927, 1, 4, 0.49], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [12225, 1, 4, 0.43], [9069, 1, 4, 0.37], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.5], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [34, 1, 4, 0.88], [1766, 25, 4, 0.2], [8898, 3, 5, 0.75], [5946, 1, 4, 1.03], [9691, 1, 4, 1.77], [1070, 7, 9, 0.46], [1519, 3, 11, 0.34], [9372, 1, 5, 1.74], [14017, 3, 5, 1.04], [11954, 1, 4, 0.2], [20498, 1, 4, 0.2], [38, 1, 4, 0.88], [974, 3, 5, 0.88], [14037, 3, 4, 0.2], [22317, 3, 5, 0.2], [5584, 3, 4, 1.19], [972, 3, 5, 1.15], [1091, 1, 5, 0.2], [7567, 3, 4, 1.21], [20498, 3, 6, 0.58], [110, 4, 4, 0.2], [9828, 3, 4, 0.2], [8945, 3, 5, 0.51], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [82, 2, 4, 0.52], [3048, 3, 4, 1.24], [39, 1, 4, 0.59], [1080, 3, 5, 0.3], [1414, 15, 4, 0.2], [24, 1, 4, 1.04], [13034, 3, 5, 1.09], [336, 15, 4, 0.2], [1767, 2, 4, 0.2], [202, 2, 4, 0.9], [13260, 29, 4, 0.73], [10780, 10, 4, 0.98], [5513, 2, 4, 0.57], [9082, 3, 15, 0.83], [11811, 1, 4, 0.94], [4203, 1, 4, 0.2], [2878, 1, 4, 0.61], [14018, 3, 4, 0.85], [8635, 3, 5, 0.2], [3900, 3, 4, 0.47], [8104, 1, 4, 0.44], [8672, 2, 247, 4.98], [305, 2, 117, 3.3], [326, 2, 78, 3.44], [589, 2, 52, 1.43], [143, 2, 127, 3.36], [130, 1, 20, 2.57], [6935, 2, 243, 5.31], [75, 2, 126, 3.91], [144, 2, 127, 3.21], [12721, 2, 245, 4.0], [145, 2, 129, 3.26], [8915, 2, 65, 1.26], [146, 2, 152, 2.27], [1776, 1, 93, 3.44], [2778, 2, 135, 3.37], [206, 2, 110, 1.95], [1777, 1, 80, 3.66], [151, 1, 67, 1.98], [8648, 2, 229, 4.53], [6936, 2, 243, 4.78], [2328, 2, 109, 3.35], [5151, 2, 17, 4.32], [7886, 4, 48, 1.63], [248, 1, 39, 2.99], [2050, 3, 412, 3.9], [141, 2, 113, 3.92], [2991, 3, 139, 6.0], [74, 1, 170, 5.84], [2054, 3, 347, 2.86], [83, 2, 18, 1.88], [1446, 2, 131, 3.74], [1492, 1, 19, 4.15], [7004, 1, 81, 1.98], [2055, 3, 412, 3.1], [76, 2, 80, 3.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.35], [11404, 2, 106, 1.94], [3889, 1, 107, 3.11], [10825, 21, 546, 4.5], [61, 3, 211, 2.29], [10149, 3, 753, 4.0], [7036, 1, 109, 4.05], [21793, 1, 234, 5.21], [12870, 1, 119, 6.0], [33, 1, 85, 3.75], [94, 4, 106, 4.41], [5081, 2, 163, 3.57], [10, 2, 106, 2.58], [11681, 2, 276, 4.73], [167, 3, 194, 4.58], [411, 2, 93, 2.99], [9827, 3, 75, 3.19], [308, 1, 170, 6.0], [1654, 2, 68, 2.84], [3891, 1, 107, 4.43], [1504, 2, 208, 4.06], [8677, 3, 254, 3.57], [201, 3, 260, 3.35], [168, 3, 137, 4.17], [3893, 1, 107, 4.43], [84, 2, 68, 2.12], [79, 1, 24, 2.97], [35, 1, 38, 3.61]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.2], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [8915, 2, 5, 0.2], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [205, 2, 4, 0.37], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.22], [7036, 1, 4, 1.2], [2049, 3, 8, 0.21], [88, 10, 11, 0.5], [2776, 2, 4, 0.2], [141, 2, 5, 0.39], [7004, 1, 4, 0.74], [1446, 2, 4, 0.39], [206, 2, 4, 0.2], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2912, 1, 4, 1.58], [2055, 3, 4, 0.56], [142, 2, 4, 0.4], [3893, 1, 4, 0.2], [12870, 1, 5, 1.18], [5165, 1, 4, 2.3], [9372, 1, 4, 0.59], [7886, 4, 5, 0.44], [7084, 3, 4, 1.07], [3889, 1, 4, 0.2], [2054, 3, 5, 0.2], [2050, 3, 5, 0.56], [1622, 1, 4, 0.2], [10, 2, 5, 0.36], [21793, 1, 4, 0.41], [7573, 1, 9, 2.45], [3891, 1, 4, 0.2], [5208, 3, 5, 0.19], [75, 2, 5, 1.0], [10149, 3, 17, 1.22], [20927, 1, 4, 0.76], [997, 2, 4, 0.76], [3, 2, 5, 0.62], [11234, 2, 5, 0.25], [5165, 2, 5, 2.22], [12721, 2, 5, 1.46], [998, 2, 4, 0.31], [1886, 2, 5, 0.2], [94, 4, 4, 0.4], [346, 3, 5, 0.21], [35, 1, 4, 1.79], [22247, 2, 4, 1.31], [9491, 21, 15, 0.22], [996, 2, 4, 0.2], [955, 2, 4, 0.54], [83, 2, 4, 0.45], [229, 1, 4, 1.55], [33, 1, 4, 1.43], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.74], [76, 2, 5, 1.1], [413, 1, 4, 1.88], [13928, 1, 4, 1.2], [2424, 80, 4, 0.86], [2805, 137, 4, 1.33], [5209, 3, 6, 0.46], [5076, 1, 4, 0.97], [346, 1, 4, 0.43], [8676, 2, 4, 1.22], [38, 1, 4, 1.63], [34, 1, 4, 1.07], [418, 2, 4, 0.54], [84, 2, 4, 1.4], [8104, 1, 4, 1.09], [12212, 29, 5, 0.2], [3495, 3, 10, 0.82], [11952, 1, 4, 0.43], [1414, 15, 4, 0.42], [39, 1, 4, 1.6], [11490, 1, 4, 0.96], [3048, 3, 4, 1.15], [11770, 1, 4, 0.6], [2424, 29, 4, 0.86], [411, 2, 4, 0.67], [10407, 10, 6, 1.67], [1703, 2, 4, 1.33], [9691, 1, 4, 1.22], [202, 2, 4, 0.47], [13928, 2, 4, 0.55], [11772, 1, 4, 1.23], [11953, 1, 4, 0.51], [5584, 3, 4, 2.8], [22316, 3, 4, 0.6], [23961, 3, 4, 2.38], [7567, 3, 4, 1.58], [13893, 2, 4, 1.17], [12764, 2, 5, 0.48], [13023, 3, 5, 0.31], [10410, 10, 10, 1.67], [1519, 3, 10, 0.34], [74, 1, 4, 3.27], [21269, 3, 5, 0.99], [1274, 1, 4, 0.41], [5164, 1, 4, 1.95], [410, 1, 4, 1.01], [2331, 1, 4, 0.64], [4253, 1, 4, 0.2], [1523, 1, 4, 0.6], [10408, 10, 6, 1.83], [1492, 1, 4, 0.2], [2438, 2, 6, 1.64], [12229, 2, 5, 0.2], [3430, 15, 4, 1.45], [6097, 80, 4, 1.26], [13034, 3, 5, 1.2], [3047, 3, 4, 1.64], [6805, 1, 4, 0.51], [8674, 2, 4, 1.21], [71, 15, 4, 0.35], [1243, 2, 5, 1.13], [21059, 1, 4, 1.6], [10780, 10, 4, 2.11], [11116, 1, 4, 0.56], [2436, 4, 5, 0.2], [6097, 29, 4, 0.79], [11812, 1, 4, 0.2], [1080, 3, 4, 1.41], [24257, 1, 4, 0.56], [3429, 15, 4, 0.37], [2327, 2, 125, 3.09], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2778, 2, 112, 3.56], [589, 2, 141, 2.29], [8915, 2, 155, 2.94], [144, 2, 107, 3.63], [143, 2, 105, 3.45], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [205, 2, 51, 2.81], [8648, 2, 159, 5.71], [2775, 2, 112, 3.56], [8650, 2, 159, 5.44], [145, 2, 107, 3.56], [146, 2, 107, 4.24], [326, 2, 81, 3.66], [7036, 1, 91, 5.66], [2049, 3, 324, 3.34], [88, 10, 397, 4.74], [2776, 2, 112, 3.77], [141, 2, 111, 3.36], [1446, 2, 35, 2.25], [206, 2, 85, 2.22], [9760, 29, 63, 3.37], [362, 2, 101, 3.59], [2912, 1, 43, 4.54], [2055, 3, 135, 2.57], [142, 2, 90, 3.29], [3893, 1, 89, 3.35], [12870, 1, 97, 5.83], [5165, 1, 43, 5.85], [9372, 1, 212, 4.51], [7886, 4, 33, 1.61], [7084, 3, 93, 4.19], [3889, 1, 89, 4.01], [2054, 3, 111, 2.89], [1622, 1, 56, 1.72], [10, 2, 88, 3.02], [21793, 1, 222, 2.45], [7573, 1, 261, 6.0], [3891, 1, 89, 3.4], [5208, 3, 326, 2.1], [75, 2, 102, 4.52], [10149, 3, 625, 4.75], [20927, 1, 18, 2.74], [997, 2, 169, 4.96], [3, 2, 86, 3.96], [11234, 2, 170, 2.72], [5165, 2, 344, 5.45], [12721, 2, 199, 4.94], [998, 2, 169, 4.14], [1886, 2, 111, 3.67], [94, 4, 85, 4.74], [346, 3, 447, 3.46], [22247, 2, 262, 3.94], [9491, 21, 1499, 3.56], [996, 2, 165, 5.77], [955, 2, 100, 2.46], [229, 1, 60, 4.4], [33, 1, 77, 4.35], [6158, 2, 241, 2.98], [2912, 2, 275, 5.31]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.46], [589, 2, 5, 0.2], [2327, 2, 5, 0.2], [205, 2, 5, 0.2], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [143, 2, 4, 0.51], [305, 2, 4, 0.51], [8915, 2, 5, 0.42], [8650, 2, 4, 0.96], [141, 2, 4, 0.53], [6936, 2, 5, 1.85], [2778, 2, 5, 0.2], [146, 2, 4, 1.07], [88, 10, 12, 0.19], [7004, 1, 4, 1.01], [7036, 1, 4, 1.73], [145, 2, 4, 0.48], [1446, 2, 4, 0.2], [8853, 2, 5, 1.2], [362, 2, 4, 0.5], [2055, 3, 6, 1.73], [417, 2, 4, 0.55], [10993, 2, 4, 0.59], [11737, 2, 5, 0.2], [3893, 1, 4, 0.2], [75, 2, 4, 0.9], [2050, 3, 4, 1.69], [159, 3, 6, 0.19], [3840, 1, 4, 0.39], [523, 2, 4, 0.53], [12870, 1, 4, 1.2], [3889, 1, 4, 0.53], [2057, 3, 5, 1.78], [7084, 3, 5, 0.28], [13280, 1, 4, 0.59], [20927, 1, 4, 0.47], [3, 2, 4, 0.71], [7005, 1, 4, 0.74], [997, 2, 5, 0.78], [3982, 3, 14, 1.18], [9760, 29, 4, 0.2], [10, 2, 4, 0.67], [3891, 1, 4, 0.53], [98, 11, 11, 0.54], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [6158, 2, 6, 0.2], [7885, 4, 5, 0.2], [84, 2, 4, 0.9], [5165, 2, 5, 2.22], [346, 3, 4, 0.52], [9372, 1, 4, 1.35], [3980, 4, 4, 1.2], [5165, 1, 4, 2.3], [411, 2, 4, 1.11], [10388, 2, 4, 1.83], [2912, 1, 4, 1.58], [9491, 21, 12, 0.22], [214, 3, 9, 0.38], [346, 1, 4, 0.39], [3981, 3, 13, 1.15], [1492, 1, 4, 0.7], [22316, 3, 4, 0.51], [10386, 2, 4, 0.99], [33, 1, 4, 2.33], [995, 2, 4, 1.16], [13928, 1, 4, 0.55], [418, 2, 4, 0.51], [22247, 2, 4, 1.6], [308, 1, 4, 0.67], [13893, 2, 4, 1.13], [336, 15, 4, 1.0], [7886, 4, 4, 0.2], [7567, 3, 4, 1.21], [2912, 2, 5, 2.27], [35, 1, 4, 1.83], [10631, 2, 4, 1.98], [11490, 1, 4, 1.05], [229, 1, 4, 1.2], [159, 1, 4, 0.2], [11953, 1, 5, 0.2], [83, 2, 4, 0.49], [11770, 1, 5, 0.2], [13283, 1, 4, 0.59], [22317, 3, 6, 0.51], [10780, 10, 4, 4.0], [10407, 10, 7, 1.35], [9691, 1, 5, 0.89], [13286, 1, 4, 0.59], [10149, 3, 15, 1.48], [10410, 10, 6, 1.27], [12271, 2, 4, 2.01], [6497, 1, 4, 0.45], [345, 3, 4, 1.01], [1413, 15, 4, 0.2], [74, 1, 4, 1.1], [8943, 3, 4, 0.38], [3478, 2, 4, 0.84], [37, 1, 4, 1.16], [9971, 2, 4, 0.69], [23611, 3, 4, 0.2], [10387, 2, 4, 0.95], [39, 1, 4, 0.43], [11085, 2, 5, 1.27], [4076, 3, 4, 1.35], [3048, 3, 5, 0.92], [2331, 1, 4, 1.45], [159, 16, 4, 0.51], [34, 1, 4, 0.93], [13281, 1, 4, 0.59], [20498, 3, 5, 0.5], [82, 2, 4, 0.62], [4001, 3, 8, 1.13], [11510, 3, 5, 0.5], [45, 2, 4, 0.56], [9, 1, 4, 0.5], [12338, 29, 4, 0.38], [9965, 2, 4, 0.69], [9964, 2, 4, 0.69], [10936, 2, 4, 1.7], [215, 4, 4, 0.78], [24257, 1, 4, 1.5], [105, 3, 4, 0.51], [1523, 1, 4, 1.08], [12764, 2, 6, 0.35], [1895, 3, 4, 0.74], [12212, 29, 4, 0.5], [12858, 1, 5, 0.2], [1080, 3, 4, 0.46], [11489, 1, 4, 0.5], [2805, 137, 5, 0.47], [8635, 3, 4, 1.51], [6935, 2, 223, 5.26], [11685, 2, 222, 5.8], [326, 2, 87, 3.8], [8648, 2, 218, 4.07], [589, 2, 124, 3.05], [2327, 2, 111, 2.93], [205, 2, 44, 3.38], [593, 2, 186, 3.67], [11681, 2, 222, 5.79], [143, 2, 120, 3.88], [305, 2, 119, 3.38], [8915, 2, 139, 2.04], [8650, 2, 218, 3.21], [141, 2, 125, 4.03], [6936, 2, 223, 6.0], [2778, 2, 127, 3.51], [146, 2, 95, 4.01], [88, 10, 462, 3.29], [7004, 1, 57, 3.23], [7036, 1, 104, 4.72], [145, 2, 123, 4.27], [1446, 2, 124, 4.49], [8853, 2, 223, 4.82], [362, 2, 114, 3.36], [2055, 3, 374, 5.86], [417, 2, 125, 3.45], [10993, 2, 51, 2.73], [11737, 2, 14, 3.71], [3893, 1, 92, 3.33], [75, 2, 108, 3.67], [2050, 3, 374, 5.77], [159, 3, 579, 3.73], [3840, 1, 41, 1.53], [523, 2, 125, 3.5], [12870, 1, 102, 5.64], [3889, 1, 120, 2.38], [2057, 3, 374, 5.97], [7084, 3, 105, 3.88], [13280, 1, 303, 3.68], [20927, 1, 76, 3.17], [3, 2, 117, 2.73], [7005, 1, 76, 2.78], [997, 2, 177, 3.44], [3982, 3, 641, 4.81], [9760, 29, 58, 3.31], [10, 2, 101, 2.65], [3891, 1, 120, 2.38], [98, 11, 674, 3.35], [998, 2, 177, 3.27], [11739, 2, 34, 3.11], [6158, 2, 214, 3.69], [84, 2, 65, 3.09], [5165, 2, 357, 5.27], [346, 3, 589, 2.41], [9372, 1, 216, 3.96], [3980, 4, 356, 4.3], [5165, 1, 45, 5.79], [10388, 2, 159, 4.87], [2912, 1, 45, 4.47], [9491, 21, 1576, 2.84], [214, 3, 236, 1.72], [346, 1, 148, 2.26], [3981, 3, 1188, 4.05], [1492, 1, 36, 2.84]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.47], [2049, 3, 10, 0.21], [6935, 2, 9, 0.72], [362, 2, 5, 0.7], [141, 2, 5, 0.54], [75, 2, 4, 0.49], [1776, 1, 4, 0.58], [8672, 2, 6, 0.47], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [6936, 2, 6, 1.27], [305, 2, 4, 0.48], [593, 2, 6, 0.2], [1777, 1, 4, 0.93], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [151, 1, 4, 0.44], [206, 2, 4, 0.2], [88, 10, 12, 0.33], [2328, 2, 5, 0.2], [83, 2, 4, 0.52], [8650, 2, 5, 1.15], [2050, 3, 5, 0.66], [5151, 2, 4, 1.4], [412, 1, 4, 0.91], [144, 2, 4, 1.0], [2991, 3, 4, 2.1], [22247, 2, 6, 1.06], [361, 2, 4, 0.49], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [2054, 3, 4, 1.36], [417, 2, 4, 0.29], [146, 2, 4, 0.56], [3478, 2, 4, 0.77], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [167, 3, 5, 1.09], [12721, 2, 6, 0.96], [168, 3, 6, 0.74], [2055, 3, 4, 0.94], [74, 1, 4, 0.84], [1446, 2, 4, 0.65], [346, 1, 4, 0.2], [84, 2, 4, 0.4], [7036, 1, 4, 2.21], [335, 3, 11, 0.39], [3495, 3, 15, 0.92], [5081, 2, 4, 0.2], [10, 2, 4, 0.92], [13028, 3, 4, 0.5], [8649, 2, 4, 1.15], [12870, 1, 4, 2.83], [410, 1, 4, 0.2], [11404, 2, 5, 0.2], [79, 1, 4, 0.2], [96, 11, 16, 0.46], [3889, 1, 4, 0.2], [145, 2, 4, 0.38], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [23, 1, 4, 1.73], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.2], [7005, 1, 4, 0.49], [13260, 29, 4, 0.96], [9827, 3, 4, 0.2], [411, 2, 4, 0.2], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [25, 1, 4, 0.95], [21269, 3, 4, 1.45], [13280, 1, 4, 1.23], [998, 2, 4, 0.69], [9069, 1, 4, 1.62], [7567, 3, 4, 1.12], [5086, 1, 6, 1.11], [2878, 1, 6, 0.54], [1243, 2, 4, 1.0], [1703, 2, 4, 0.88], [9691, 1, 4, 1.9], [20927, 1, 4, 0.61], [997, 2, 4, 1.3], [5209, 3, 5, 0.19], [346, 3, 5, 0.21], [11914, 1, 5, 0.2], [5660, 2, 5, 1.05], [856, 1, 4, 0.44], [1124, 2, 5, 0.2], [5584, 3, 4, 0.44], [1070, 7, 11, 0.39], [159, 3, 6, 0.2], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [996, 2, 5, 1.21], [1519, 3, 12, 0.23], [23961, 3, 4, 1.0], [8898, 3, 4, 2.67], [5513, 2, 4, 0.66], [22317, 3, 5, 0.51], [1091, 1, 4, 0.2], [24, 1, 5, 0.95], [952, 4, 4, 2.89], [13034, 3, 6, 0.77], [9081, 3, 9, 0.79], [12661, 1, 4, 2.1], [27, 1, 4, 1.23], [336, 15, 4, 0.2], [1413, 15, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [10529, 29, 4, 0.94], [20498, 1, 4, 0.97], [9082, 3, 18, 1.17], [9372, 1, 4, 0.39], [1163, 3, 5, 0.2], [6097, 80, 4, 0.59], [6097, 29, 4, 0.2], [2109, 3, 9, 0.21], [82, 2, 4, 0.39], [972, 3, 5, 0.47], [995, 2, 4, 1.16], [66, 16, 4, 0.2], [2104, 3, 6, 1.63], [6098, 80, 4, 0.83], [20498, 3, 5, 0.94], [66, 1, 4, 0.46], [8635, 3, 5, 0.6], [12225, 1, 4, 0.52], [5813, 3, 4, 0.5], [10780, 10, 4, 1.48], [5946, 1, 4, 0.53], [6098, 29, 4, 0.8], [34, 1, 4, 1.05], [326, 2, 62, 3.13], [2049, 3, 432, 2.55], [6935, 2, 223, 4.7], [362, 2, 111, 3.97], [141, 2, 105, 3.14], [75, 2, 97, 4.11], [1776, 1, 76, 3.22], [8672, 2, 249, 3.02], [7886, 4, 57, 2.29], [2778, 2, 105, 3.21], [6936, 2, 190, 4.83], [305, 2, 98, 3.03], [593, 2, 153, 2.98], [1777, 1, 85, 3.88], [11681, 2, 182, 6.0], [8648, 2, 150, 5.36], [151, 1, 53, 2.46], [206, 2, 94, 1.82], [88, 10, 376, 4.6], [2328, 2, 102, 3.09], [83, 2, 37, 2.04], [8650, 2, 150, 5.4], [2050, 3, 318, 3.36], [5151, 2, 17, 3.81], [412, 1, 57, 3.83], [144, 2, 102, 3.09], [2991, 3, 108, 5.79], [22247, 2, 188, 4.65], [361, 2, 134, 2.05], [57, 1, 62, 2.85], [10149, 3, 676, 4.91], [2054, 3, 407, 4.61], [417, 2, 104, 4.53], [146, 2, 102, 4.34], [3478, 2, 66, 2.59], [45, 2, 73, 4.8], [143, 2, 100, 3.0], [7004, 1, 47, 2.43], [167, 3, 152, 4.16], [12721, 2, 188, 4.08], [168, 3, 273, 3.53], [2055, 3, 313, 4.85], [74, 1, 132, 4.67], [1446, 2, 79, 2.62], [346, 1, 107, 2.96], [84, 2, 58, 1.97], [7036, 1, 85, 5.36], [335, 3, 898, 5.59], [3495, 3, 641, 3.7], [5081, 2, 128, 3.15], [13028, 3, 99, 3.08], [8649, 2, 150, 5.12], [12870, 1, 92, 6.0], [410, 1, 72, 2.89], [11404, 2, 77, 2.67], [79, 1, 41, 1.5], [96, 11, 567, 2.96], [3889, 1, 84, 4.04], [145, 2, 130, 2.51], [5208, 3, 391, 2.1], [3893, 1, 84, 3.33], [1492, 1, 25, 2.86], [5812, 3, 391, 4.28]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 10, 0.19], [8915, 2, 5, 0.2], [2327, 2, 4, 0.52], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [6935, 2, 6, 1.69], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [326, 2, 5, 1.22], [8648, 2, 4, 1.65], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.74], [2049, 3, 6, 0.21], [205, 2, 4, 0.37], [144, 2, 5, 1.04], [143, 2, 4, 1.44], [10, 2, 5, 0.42], [94, 4, 4, 0.2], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.79], [146, 2, 5, 1.07], [2055, 3, 5, 0.2], [206, 2, 5, 0.2], [5208, 3, 5, 0.19], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [7886, 4, 6, 0.44], [12224, 1, 4, 0.46], [3889, 1, 5, 0.2], [21793, 1, 4, 0.41], [2054, 3, 4, 0.49], [3980, 4, 6, 1.21], [7005, 1, 4, 1.08], [7084, 3, 4, 1.57], [12870, 1, 4, 2.18], [10149, 3, 13, 1.7], [2050, 3, 5, 0.56], [145, 2, 4, 1.5], [8672, 2, 5, 1.19], [2912, 1, 4, 1.58], [5165, 1, 4, 2.3], [998, 2, 4, 0.31], [20927, 1, 4, 1.76], [9760, 29, 4, 0.2], [997, 2, 4, 0.41], [1886, 2, 4, 0.62], [2436, 4, 4, 0.56], [7887, 4, 4, 0.97], [3, 2, 4, 0.2], [2424, 80, 4, 0.86], [6158, 2, 4, 0.44], [229, 1, 4, 1.05], [142, 2, 4, 0.36], [3495, 3, 13, 0.92], [955, 2, 4, 0.54], [346, 3, 4, 0.48], [5076, 1, 4, 0.89], [74, 1, 4, 3.27], [5165, 2, 5, 2.22], [11953, 1, 4, 0.51], [11954, 1, 4, 0.45], [11770, 1, 4, 0.2], [996, 2, 4, 0.74], [12721, 2, 4, 0.66], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [9372, 1, 4, 0.59], [11772, 1, 4, 0.2], [7573, 1, 9, 2.45], [2912, 2, 7, 2.11], [2423, 80, 5, 1.47], [5584, 3, 4, 2.8], [6497, 1, 4, 0.49], [2438, 2, 5, 2.15], [12229, 2, 4, 0.49], [3975, 4, 5, 1.26], [346, 1, 4, 0.37], [5209, 3, 5, 0.19], [5434, 1, 4, 1.33], [9082, 3, 19, 0.83], [823, 1, 4, 0.44], [10407, 10, 7, 1.18], [12764, 2, 8, 0.23], [4253, 1, 4, 0.2], [1622, 1, 4, 0.2], [11812, 1, 4, 0.2], [6496, 1, 4, 0.37], [2424, 29, 4, 0.86], [10388, 2, 4, 0.92], [5946, 1, 4, 0.84], [3900, 3, 4, 1.81], [8676, 2, 4, 1.22], [1339, 3, 10, 0.42], [1703, 2, 4, 0.83], [11490, 1, 4, 0.39], [2805, 137, 4, 1.33], [24257, 1, 4, 0.48], [13893, 2, 4, 1.17], [6097, 80, 4, 0.81], [37, 1, 4, 1.54], [6805, 1, 5, 0.2], [7567, 3, 4, 1.58], [22247, 2, 4, 1.31], [1414, 15, 4, 0.42], [9784, 1, 4, 0.99], [8635, 3, 4, 1.36], [11814, 1, 4, 0.48], [38, 1, 4, 1.16], [35, 1, 4, 1.54], [95, 3, 15, 0.19], [1274, 1, 4, 0.2], [23611, 3, 5, 0.42], [10386, 2, 4, 0.92], [1895, 3, 4, 1.83], [8104, 1, 4, 1.38], [788, 2, 4, 0.45], [12212, 29, 4, 0.47], [413, 1, 4, 0.66], [3979, 3, 10, 0.19], [8283, 2, 5, 0.68], [114, 3, 4, 1.53], [10780, 10, 4, 2.11], [12979, 25, 7, 0.72], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [8659, 1, 4, 0.41], [9065, 2, 4, 0.84], [12501, 1, 4, 1.24], [440, 3, 4, 1.25], [4232, 80, 4, 1.82], [418, 2, 4, 0.54], [19931, 1, 4, 1.26], [83, 2, 4, 0.44], [589, 2, 108, 3.51], [88, 10, 526, 2.5], [8915, 2, 160, 2.94], [2327, 2, 107, 3.59], [2778, 2, 112, 3.56], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [326, 2, 81, 4.44], [8648, 2, 159, 5.71], [8650, 2, 159, 6.0], [2049, 3, 324, 3.34], [144, 2, 51, 4.06], [94, 4, 85, 4.74], [7036, 1, 91, 5.66], [3893, 1, 89, 3.35], [1124, 2, 172, 3.16], [146, 2, 107, 4.24], [2055, 3, 377, 2.57], [206, 2, 25, 2.22], [5208, 3, 326, 2.1], [3891, 1, 89, 3.4], [75, 2, 122, 4.52], [362, 2, 82, 3.59], [12224, 1, 154, 2.31], [3889, 1, 89, 4.01], [21793, 1, 222, 2.45], [2054, 3, 111, 2.25], [3980, 4, 403, 4.52], [12870, 1, 97, 5.83], [10149, 3, 625, 4.75], [2050, 3, 135, 2.57], [145, 2, 52, 4.06], [8672, 2, 199, 6.0], [2912, 1, 43, 4.46], [5165, 1, 43, 5.85], [998, 2, 169, 4.14], [9760, 29, 51, 3.87], [997, 2, 222, 3.07], [1886, 2, 144, 2.61], [2436, 4, 108, 2.5], [3, 2, 102, 3.96], [2424, 80, 156, 4.21], [6158, 2, 241, 2.98], [229, 1, 60, 3.53], [142, 2, 110, 3.29], [3495, 3, 676, 4.23], [955, 2, 100, 2.46], [346, 3, 568, 2.35], [5076, 1, 120, 3.44], [74, 1, 164, 6.0], [5165, 2, 344, 5.45], [11953, 1, 185, 2.4], [11954, 1, 187, 2.29], [11770, 1, 154, 3.85], [996, 2, 222, 2.84], [12721, 2, 262, 2.87], [9491, 21, 1499, 3.56], [22316, 3, 291, 2.58], [1492, 1, 27, 3.61], [9372, 1, 212, 4.51]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [205, 2, 5, 0.2], [6936, 2, 5, 1.35], [616, 2, 4, 0.45], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 4, 0.46], [8915, 2, 5, 0.42], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 5, 0.96], [2327, 2, 5, 0.2], [593, 2, 5, 0.52], [3893, 1, 5, 0.2], [141, 2, 5, 0.53], [7004, 1, 4, 1.01], [3840, 1, 4, 0.39], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3889, 1, 4, 0.53], [2055, 3, 4, 1.73], [143, 2, 5, 0.51], [3980, 4, 5, 1.2], [10, 2, 4, 0.67], [7885, 4, 5, 0.2], [8672, 2, 5, 0.73], [2054, 3, 5, 1.86], [7886, 4, 4, 0.9], [12870, 1, 5, 0.92], [2057, 3, 5, 1.78], [5165, 1, 4, 2.3], [3975, 4, 4, 1.26], [159, 3, 5, 0.58], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [523, 2, 4, 1.03], [21793, 1, 4, 0.41], [75, 2, 4, 0.46], [7005, 1, 4, 0.74], [3981, 3, 13, 1.15], [9760, 29, 5, 0.2], [3982, 3, 11, 1.18], [20927, 1, 4, 0.67], [6158, 2, 6, 0.2], [33, 1, 4, 1.33], [997, 2, 5, 1.18], [214, 3, 11, 0.2], [5165, 2, 5, 2.22], [2912, 1, 4, 1.58], [7887, 4, 5, 1.45], [22316, 3, 5, 0.51], [11953, 1, 5, 0.2], [229, 1, 4, 1.2], [998, 2, 4, 0.67], [35, 1, 4, 1.33], [346, 3, 5, 0.21], [6497, 1, 4, 0.45], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [1492, 1, 4, 0.7], [972, 3, 4, 1.51], [955, 2, 4, 0.73], [11490, 1, 4, 0.53], [6496, 1, 5, 0.55], [74, 1, 5, 0.62], [2336, 3, 5, 0.46], [22317, 3, 5, 0.51], [1413, 15, 4, 0.2], [4176, 4, 5, 1.31], [2912, 2, 5, 1.53], [336, 15, 5, 0.37], [12212, 29, 4, 0.5], [192, 3, 9, 1.01], [7573, 1, 5, 0.97], [8677, 3, 5, 0.9], [39, 1, 4, 0.51], [37, 1, 4, 0.66], [11085, 2, 5, 1.76], [201, 3, 4, 0.51], [345, 3, 4, 0.51], [1277, 1, 4, 0.65], [8676, 2, 4, 0.98], [1274, 1, 4, 0.67], [21269, 3, 4, 2.99], [13023, 3, 4, 1.26], [12271, 2, 4, 0.7], [6494, 1, 4, 0.2], [10388, 2, 5, 1.14], [3, 2, 5, 0.46], [10408, 10, 6, 1.64], [202, 2, 4, 0.44], [10936, 2, 4, 1.7], [36, 1, 4, 1.16], [2805, 137, 5, 0.47], [3577, 25, 4, 0.59], [9, 1, 4, 0.5], [5812, 3, 4, 0.51], [11489, 1, 4, 0.5], [11812, 1, 4, 0.2], [1414, 15, 4, 0.45], [20498, 3, 5, 0.99], [3048, 3, 4, 1.42], [9691, 1, 4, 1.25], [8675, 2, 4, 1.02], [9372, 1, 4, 1.35], [346, 1, 5, 0.2], [13928, 1, 4, 0.55], [12225, 1, 4, 1.14], [10386, 2, 4, 0.99], [12764, 2, 6, 0.35], [13893, 2, 4, 1.13], [13280, 1, 4, 0.59], [11814, 1, 4, 0.2], [8898, 3, 4, 2.31], [11089, 1, 4, 0.38], [10407, 10, 6, 1.31], [3576, 25, 4, 0.51], [491, 10, 6, 0.69], [13035, 3, 4, 1.32], [972, 1, 4, 0.5], [9069, 1, 4, 0.74], [10939, 2, 4, 1.93], [8659, 1, 4, 1.01], [19931, 1, 5, 0.76], [11087, 2, 4, 1.27], [2438, 2, 5, 1.87], [958, 2, 4, 0.47], [3577, 29, 4, 0.52], [23611, 3, 5, 0.5], [1523, 1, 4, 1.08], [6935, 2, 223, 5.26], [305, 2, 119, 3.38], [2778, 2, 127, 3.51], [205, 2, 39, 3.38], [6936, 2, 223, 5.64], [616, 2, 106, 2.23], [88, 10, 462, 3.29], [144, 2, 35, 3.5], [8648, 2, 185, 5.15], [8915, 2, 139, 2.04], [326, 2, 87, 3.3], [589, 2, 124, 3.05], [11681, 2, 222, 5.79], [7036, 1, 104, 4.72], [8650, 2, 185, 4.92], [2327, 2, 123, 3.43], [593, 2, 186, 3.67], [3893, 1, 97, 2.69], [141, 2, 125, 4.03], [7004, 1, 57, 3.23], [3840, 1, 41, 1.53], [3891, 1, 120, 2.38], [2050, 3, 374, 5.77], [146, 2, 123, 4.01], [3889, 1, 120, 2.38], [2055, 3, 374, 5.86], [143, 2, 120, 3.39], [3980, 4, 391, 4.8], [10, 2, 101, 2.65], [8672, 2, 232, 5.13], [2054, 3, 374, 6.0], [12870, 1, 112, 6.0], [2057, 3, 374, 5.97], [5165, 1, 45, 5.79], [3975, 4, 391, 4.93], [159, 3, 682, 2.38], [7084, 3, 105, 3.88], [145, 2, 54, 3.93], [523, 2, 125, 3.5], [21793, 1, 230, 2.38], [75, 2, 141, 2.25], [7005, 1, 76, 2.78], [3981, 3, 1310, 4.44], [9760, 29, 58, 3.31], [3982, 3, 641, 4.81], [20927, 1, 21, 3.02], [6158, 2, 63, 3.69], [997, 2, 194, 6.0], [214, 3, 194, 2.12], [5165, 2, 357, 5.27], [2912, 1, 45, 4.47], [22316, 3, 233, 2.92], [11953, 1, 49, 2.84], [229, 1, 62, 3.67], [998, 2, 143, 5.74], [346, 3, 457, 2.85], [6497, 1, 36, 2.23], [389, 4, 166, 4.21], [996, 2, 194, 6.0], [1492, 1, 36, 2.84], [955, 2, 102, 2.77], [11490, 1, 104, 2.38], [6496, 1, 30, 3.0], [74, 1, 164, 4.25], [2336, 3, 557, 2.18]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 5, 0.2], [8650, 2, 4, 1.46], [130, 1, 5, 0.45], [2327, 2, 5, 0.2], [589, 2, 6, 0.2], [8672, 2, 6, 0.41], [326, 2, 4, 1.62], [6935, 2, 9, 1.31], [206, 2, 4, 0.2], [142, 2, 5, 0.2], [11837, 2, 4, 0.55], [11838, 2, 5, 0.2], [6936, 2, 4, 1.59], [12721, 2, 5, 0.48], [8915, 2, 5, 0.2], [2049, 3, 11, 0.21], [1446, 2, 4, 0.2], [2778, 2, 6, 0.2], [8676, 2, 4, 0.52], [615, 2, 4, 0.44], [305, 2, 5, 0.98], [593, 2, 5, 0.48], [616, 2, 4, 0.45], [21793, 1, 4, 0.99], [413, 1, 4, 0.89], [11835, 2, 4, 0.55], [411, 2, 4, 0.2], [412, 1, 4, 0.5], [10574, 3, 6, 1.75], [12349, 1, 4, 0.52], [8675, 2, 6, 0.73], [145, 2, 6, 0.49], [8673, 2, 5, 0.47], [143, 2, 4, 0.57], [6158, 2, 4, 0.88], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [3495, 3, 13, 0.85], [2050, 3, 5, 0.34], [2055, 3, 5, 0.41], [146, 2, 4, 0.79], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [7885, 4, 5, 0.94], [88, 10, 8, 0.95], [416, 1, 4, 0.8], [144, 2, 4, 0.54], [7084, 3, 4, 0.55], [2859, 15, 4, 0.41], [21798, 1, 4, 0.59], [10993, 2, 4, 0.39], [346, 3, 5, 0.46], [335, 3, 10, 0.87], [2424, 29, 4, 2.32], [7705, 2, 4, 1.05], [2423, 80, 4, 0.58], [2423, 29, 4, 0.58], [3848, 2, 4, 1.07], [7704, 2, 4, 1.05], [5165, 1, 4, 2.3], [13023, 3, 6, 1.51], [346, 1, 4, 0.35], [1519, 3, 10, 0.23], [201, 3, 4, 1.01], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1414, 15, 4, 0.41], [410, 1, 4, 0.38], [6494, 1, 4, 0.47], [345, 3, 4, 1.04], [13034, 3, 5, 1.37], [11490, 1, 4, 0.46], [5208, 3, 8, 0.48], [11770, 1, 4, 0.39], [432, 3, 5, 2.04], [3430, 15, 4, 0.35], [11954, 1, 4, 0.68], [2703, 3, 4, 0.83], [6952, 1, 4, 0.48], [7004, 1, 4, 0.38], [7706, 2, 4, 0.55], [20927, 1, 4, 0.7], [3429, 15, 4, 0.42], [114, 3, 4, 0.2], [308, 1, 5, 1.49], [7886, 4, 6, 0.44], [1886, 2, 4, 0.41], [105, 3, 4, 0.2], [11811, 1, 4, 0.38], [13928, 1, 4, 0.55], [2331, 1, 4, 0.52], [11089, 1, 4, 0.42], [94, 4, 4, 0.79], [3981, 3, 8, 0.51], [944, 15, 4, 0.41], [10407, 10, 6, 1.14], [5584, 3, 4, 2.72], [1490, 1, 4, 0.87], [8274, 3, 4, 2.02], [11674, 1, 4, 0.87], [3, 2, 4, 0.41], [22317, 3, 5, 0.41], [13033, 3, 4, 0.4], [952, 4, 4, 1.77], [10410, 10, 6, 1.18], [9690, 1, 4, 0.71], [7708, 2, 4, 1.05], [9342, 2, 4, 0.49], [1339, 3, 10, 0.42], [10409, 10, 6, 1.15], [202, 2, 4, 0.38], [21003, 2, 4, 0.72], [8898, 3, 4, 0.71], [10398, 2, 4, 0.87], [5812, 3, 4, 1.51], [957, 2, 4, 0.37], [95, 3, 8, 0.72], [963, 3, 4, 0.92], [823, 1, 4, 1.64], [6497, 1, 4, 0.44], [20969, 3, 4, 0.86], [10516, 3, 9, 0.37], [9082, 3, 15, 0.83], [186, 3, 7, 0.54], [20196, 2, 4, 0.72], [11677, 1, 4, 0.78], [4253, 1, 4, 0.73], [3980, 4, 5, 1.26], [7703, 2, 4, 1.05], [20555, 2, 4, 0.5], [3478, 2, 4, 0.77], [20682, 1, 4, 0.53], [6630, 3, 4, 1.83], [5165, 2, 5, 2.22], [8897, 3, 4, 0.71], [141, 2, 114, 3.66], [2328, 2, 109, 4.64], [8650, 2, 164, 5.1], [2327, 2, 109, 4.61], [589, 2, 119, 3.73], [8672, 2, 208, 4.69], [326, 2, 83, 4.69], [6935, 2, 204, 6.0], [206, 2, 29, 1.69], [142, 2, 114, 3.83], [11837, 2, 247, 2.64], [11838, 2, 193, 3.8], [6936, 2, 204, 5.36], [12721, 2, 205, 4.24], [1446, 2, 85, 2.42], [2778, 2, 136, 3.62], [8676, 2, 264, 2.57], [615, 2, 102, 2.42], [305, 2, 39, 3.81], [593, 2, 211, 2.41], [616, 2, 102, 2.44], [21793, 1, 214, 3.75], [413, 1, 79, 3.28], [11835, 2, 247, 2.64], [411, 2, 48, 2.4], [412, 1, 77, 3.49], [10574, 3, 362, 5.28], [12349, 1, 533, 3.29], [8675, 2, 208, 4.72], [145, 2, 99, 4.41], [8673, 2, 244, 5.19], [143, 2, 136, 2.67], [6158, 2, 239, 3.75], [151, 1, 61, 2.48], [11836, 2, 193, 3.64], [10149, 3, 807, 3.07], [3495, 3, 886, 3.08], [2050, 3, 349, 2.92], [146, 2, 138, 4.38], [2054, 3, 137, 2.97], [75, 2, 104, 5.49], [88, 10, 515, 4.9], [416, 1, 79, 3.11], [144, 2, 136, 2.61], [7084, 3, 119, 3.58], [2859, 15, 63, 3.18], [21798, 1, 128, 2.72], [10993, 2, 14, 1.67], [346, 3, 566, 2.39], [2424, 29, 31, 6.0], [7705, 2, 163, 4.19], [2423, 80, 169, 3.13], [2423, 29, 34, 3.13], [3848, 2, 154, 3.64], [7704, 2, 163, 4.19], [5165, 1, 43, 6.0], [13023, 3, 543, 4.34], [346, 1, 142, 2.24], [201, 3, 216, 5.45], [2424, 80, 153, 6.0], [1414, 15, 91, 2.36], [6494, 1, 47, 2.47], [345, 3, 277, 4.39]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.3], [6936, 2, 4, 1.17], [305, 2, 4, 0.2], [8672, 2, 5, 0.41], [615, 2, 4, 0.2], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 1.12], [2328, 2, 4, 0.2], [11681, 2, 5, 1.31], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [8650, 2, 4, 1.03], [11835, 2, 4, 0.55], [144, 2, 5, 1.03], [8673, 2, 5, 0.73], [8676, 2, 4, 0.6], [308, 1, 5, 0.73], [417, 2, 4, 0.47], [11837, 2, 4, 0.55], [3, 2, 4, 0.66], [6097, 80, 5, 2.36], [22247, 2, 5, 1.21], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [990, 2, 4, 0.27], [593, 2, 5, 0.2], [6097, 29, 4, 2.86], [523, 2, 4, 0.66], [6098, 80, 4, 2.09], [11739, 2, 4, 0.2], [88, 10, 10, 0.19], [12350, 1, 4, 3.59], [8915, 2, 4, 0.2], [2054, 3, 4, 0.62], [326, 2, 4, 1.35], [13260, 29, 4, 0.73], [3429, 15, 4, 0.36], [75, 2, 4, 0.86], [336, 15, 4, 0.39], [1413, 15, 5, 0.2], [1492, 1, 4, 1.09], [411, 2, 4, 0.76], [6098, 29, 4, 3.09], [1050, 2, 4, 0.2], [1339, 3, 10, 0.42], [2422, 80, 4, 1.05], [6496, 1, 5, 1.05], [214, 3, 9, 0.54], [947, 15, 4, 0.44], [7704, 2, 4, 1.35], [10149, 3, 13, 0.88], [346, 1, 4, 0.35], [2859, 15, 4, 0.97], [346, 3, 5, 0.46], [345, 3, 4, 0.51], [11738, 2, 4, 0.8], [13264, 29, 5, 0.52], [13258, 29, 4, 0.7], [1490, 1, 4, 1.45], [1243, 2, 4, 0.61], [7004, 1, 5, 0.81], [229, 1, 4, 0.69], [5208, 3, 10, 0.54], [201, 3, 4, 1.05], [22558, 3, 6, 0.2], [10407, 10, 6, 1.14], [13259, 29, 4, 0.48], [2331, 1, 4, 0.52], [432, 3, 4, 0.9], [7705, 2, 4, 1.35], [12229, 2, 4, 0.45], [7706, 2, 4, 1.35], [418, 2, 4, 0.5], [114, 3, 4, 0.41], [957, 2, 5, 1.01], [13928, 1, 4, 0.55], [1163, 3, 4, 1.45], [3478, 2, 4, 0.77], [11844, 2, 4, 0.63], [8938, 2, 4, 0.43], [7036, 1, 4, 0.43], [9784, 1, 4, 1.01], [11490, 1, 4, 0.53], [11687, 2, 4, 0.79], [11404, 2, 4, 0.48], [2703, 3, 4, 0.83], [410, 1, 4, 0.63], [12348, 1, 4, 0.51], [13258, 25, 4, 0.66], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [12870, 1, 4, 0.94], [413, 1, 4, 1.68], [11690, 2, 4, 0.52], [956, 2, 4, 0.53], [7708, 2, 4, 1.35], [11161, 1, 5, 1.2], [11159, 1, 7, 0.84], [9760, 29, 4, 0.85], [11689, 2, 4, 0.77], [22125, 2, 4, 0.36], [5976, 1, 4, 1.12], [12373, 1, 5, 0.45], [105, 3, 4, 0.41], [21781, 2, 4, 0.47], [2991, 3, 4, 2.31], [1274, 1, 4, 1.97], [7005, 1, 4, 0.81], [5584, 3, 4, 2.72], [2805, 137, 5, 2.01], [9209, 29, 4, 0.73], [11811, 1, 4, 0.38], [3495, 3, 13, 0.85], [13259, 25, 4, 0.48], [11489, 1, 4, 1.02], [4253, 1, 4, 0.23], [8285, 2, 5, 0.49], [20927, 1, 4, 0.7], [8600, 1, 4, 0.86], [9372, 1, 4, 1.74], [247, 1, 4, 0.73], [10147, 1, 4, 0.36], [12764, 2, 5, 0.43], [21269, 3, 4, 1.4], [3722, 25, 5, 0.38], [9491, 21, 10, 1.69], [7007, 1, 4, 0.81], [11887, 2, 4, 0.57], [5076, 1, 4, 1.14], [6360, 10, 9, 0.65], [2778, 2, 133, 3.36], [6935, 2, 237, 6.0], [6936, 2, 242, 5.18], [305, 2, 107, 3.74], [8672, 2, 265, 3.47], [615, 2, 113, 2.8], [145, 2, 109, 3.69], [12721, 2, 204, 4.47], [2327, 2, 109, 4.61], [143, 2, 39, 4.22], [146, 2, 109, 4.42], [2328, 2, 109, 4.64], [11681, 2, 260, 5.33], [5491, 2, 100, 2.18], [205, 2, 29, 3.53], [8650, 2, 163, 6.0], [11835, 2, 247, 2.64], [144, 2, 115, 4.21], [8673, 2, 208, 5.73], [8676, 2, 208, 3.88], [308, 1, 159, 3.34], [417, 2, 121, 4.17], [11837, 2, 247, 2.64], [3, 2, 88, 3.99], [6097, 80, 49, 6.0], [22247, 2, 204, 5.02], [6497, 1, 29, 3.63], [11836, 2, 193, 3.72], [990, 2, 40, 3.84], [593, 2, 179, 3.67], [6097, 29, 25, 6.0], [523, 2, 114, 4.01], [11739, 2, 23, 3.32], [88, 10, 406, 5.3], [12350, 1, 555, 6.0], [8915, 2, 51, 2.36], [2054, 3, 126, 3.1], [326, 2, 79, 4.17], [13260, 29, 67, 3.85], [75, 2, 133, 3.41], [336, 15, 29, 1.67], [1413, 15, 26, 2.41], [1492, 1, 15, 3.32], [411, 2, 29, 2.38], [1339, 3, 461, 1.67], [2422, 80, 168, 3.75], [6496, 1, 34, 4.35], [214, 3, 584, 4.28], [947, 15, 36, 3.13], [7704, 2, 162, 4.45], [10149, 3, 795, 3.76], [346, 1, 142, 2.24], [2859, 15, 59, 3.98], [346, 3, 566, 2.39], [345, 3, 276, 4.24], [13264, 29, 63, 3.28], [13258, 29, 36, 4.07], [1490, 1, 45, 4.44], [229, 1, 75, 3.64], [5208, 3, 148, 3.08], [201, 3, 276, 4.63], [22558, 3, 347, 4.02], [10407, 10, 1103, 3.67], [13259, 29, 32, 3.02]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [362, 2, 4, 0.97], [361, 2, 5, 0.59], [12721, 2, 6, 1.21], [6935, 2, 8, 1.55], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [2049, 3, 12, 0.21], [3, 2, 6, 0.61], [22247, 2, 5, 1.0], [305, 2, 5, 0.98], [523, 2, 4, 0.66], [8650, 2, 5, 1.27], [11838, 2, 4, 0.41], [8648, 2, 5, 0.88], [2328, 2, 4, 1.16], [2776, 2, 5, 0.2], [11739, 2, 4, 0.2], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [411, 2, 4, 0.2], [12352, 1, 4, 2.59], [589, 2, 5, 0.2], [412, 1, 4, 0.64], [143, 2, 4, 0.51], [11835, 2, 4, 0.49], [146, 2, 4, 0.38], [583, 2, 4, 0.81], [6097, 80, 4, 2.61], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [145, 2, 4, 0.38], [11836, 2, 5, 0.54], [6097, 29, 5, 0.66], [144, 2, 4, 0.49], [10574, 3, 5, 0.6], [75, 2, 4, 0.87], [12344, 1, 4, 1.35], [6496, 1, 4, 1.37], [6494, 1, 4, 0.47], [2054, 3, 4, 1.21], [1413, 15, 4, 0.46], [6098, 80, 4, 0.83], [8915, 2, 5, 0.2], [1243, 2, 5, 0.23], [1886, 2, 6, 0.2], [21793, 1, 4, 0.99], [944, 15, 4, 0.2], [6098, 29, 4, 1.33], [1492, 1, 4, 0.47], [247, 1, 4, 1.91], [3429, 15, 4, 0.35], [2859, 15, 4, 0.39], [1490, 1, 4, 0.44], [1414, 15, 4, 0.35], [201, 3, 4, 0.44], [6158, 2, 4, 0.88], [3478, 2, 4, 0.77], [308, 1, 5, 0.29], [13928, 1, 4, 0.55], [336, 15, 4, 0.39], [7084, 3, 4, 0.55], [11489, 1, 4, 0.56], [3982, 3, 12, 0.19], [1703, 2, 4, 0.7], [12526, 2, 4, 1.05], [9342, 2, 4, 0.49], [5812, 3, 5, 2.0], [186, 3, 7, 0.54], [11490, 1, 4, 0.48], [4253, 1, 4, 0.73], [94, 4, 4, 0.39], [5813, 3, 6, 2.0], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5811, 3, 5, 1.48], [2821, 3, 8, 0.5], [5939, 3, 4, 0.47], [8599, 1, 4, 1.23], [11811, 1, 4, 0.38], [229, 1, 4, 1.71], [3980, 4, 5, 1.26], [8943, 3, 4, 0.52], [11771, 1, 4, 0.68], [8898, 3, 5, 3.26], [1339, 3, 10, 0.42], [3495, 3, 13, 0.85], [2991, 3, 5, 1.5], [1049, 2, 4, 0.36], [12764, 2, 5, 0.43], [346, 3, 5, 0.46], [13928, 2, 4, 0.55], [19687, 1, 4, 1.21], [192, 3, 7, 0.76], [7036, 1, 4, 0.43], [9690, 1, 4, 0.8], [22573, 2, 4, 0.99], [5584, 3, 4, 2.72], [10124, 1, 4, 2.17], [105, 3, 4, 0.38], [8897, 3, 5, 3.26], [8274, 3, 4, 1.73], [18964, 1, 4, 0.79], [11886, 2, 4, 0.75], [10147, 1, 4, 0.36], [3334, 5, 4, 2.01], [1701, 2, 4, 0.55], [1277, 1, 4, 0.44], [1523, 1, 4, 1.04], [20927, 1, 4, 0.64], [4001, 3, 15, 0.96], [8635, 3, 4, 1.73], [8286, 2, 5, 0.36], [1274, 1, 4, 2.04], [23275, 2, 4, 0.99], [11678, 1, 4, 0.38], [10516, 3, 9, 0.86], [13260, 29, 4, 0.73], [23031, 3, 4, 1.38], [3984, 3, 5, 0.62], [11677, 1, 4, 0.78], [3979, 3, 5, 0.88], [9065, 2, 4, 0.84], [45, 2, 4, 2.19], [21269, 3, 4, 1.4], [10181, 26, 5, 0.46], [346, 1, 4, 0.35], [9373, 5, 4, 0.36], [11690, 2, 4, 0.52], [973, 3, 5, 0.65], [9069, 1, 4, 0.62], [5976, 1, 4, 1.12], [7005, 1, 4, 0.74], [8285, 2, 5, 0.49], [8672, 2, 208, 4.69], [141, 2, 114, 3.66], [362, 2, 75, 3.31], [361, 2, 82, 3.87], [12721, 2, 75, 5.58], [6935, 2, 203, 6.0], [206, 2, 29, 1.69], [8676, 2, 208, 3.88], [8675, 2, 208, 4.17], [2049, 3, 290, 2.08], [3, 2, 88, 3.91], [22247, 2, 206, 4.61], [305, 2, 107, 3.67], [523, 2, 114, 4.01], [8650, 2, 164, 4.93], [11838, 2, 246, 2.36], [8648, 2, 164, 4.8], [2328, 2, 139, 3.8], [2776, 2, 114, 3.67], [11739, 2, 25, 2.88], [2327, 2, 130, 3.76], [11837, 2, 229, 3.15], [411, 2, 61, 3.48], [12352, 1, 560, 6.0], [412, 1, 77, 3.63], [143, 2, 136, 2.55], [11835, 2, 229, 3.22], [146, 2, 138, 3.59], [583, 2, 60, 3.03], [6097, 80, 48, 6.0], [326, 2, 79, 3.81], [10149, 3, 807, 3.07], [145, 2, 138, 3.28], [11836, 2, 229, 3.32], [6097, 29, 29, 3.55], [144, 2, 136, 2.51], [10574, 3, 460, 4.43], [75, 2, 134, 3.24], [12344, 1, 560, 4.17], [6496, 1, 36, 4.21], [6494, 1, 47, 2.47], [1413, 15, 91, 2.46], [6098, 80, 69, 3.79], [1243, 2, 26, 3.69], [1886, 2, 114, 3.71], [21793, 1, 214, 3.75], [944, 15, 12, 3.65], [6098, 29, 33, 4.49], [1492, 1, 30, 2.43], [247, 1, 80, 5.25], [2859, 15, 63, 2.32], [1490, 1, 47, 2.42], [1414, 15, 91, 2.24], [201, 3, 281, 2.42], [6158, 2, 239, 3.75], [3478, 2, 40, 2.86], [308, 1, 148, 4.19], [13928, 1, 43, 4.47], [336, 15, 29, 1.67], [7084, 3, 119, 3.58], [3982, 3, 698, 2.93], [1703, 2, 152, 3.14], [12526, 2, 253, 3.59], [9342, 2, 122, 1.85]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [8672, 2, 7, 0.2], [8650, 2, 4, 0.46], [248, 1, 5, 0.2], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [205, 2, 4, 0.37], [11681, 2, 5, 1.2], [417, 2, 4, 0.54], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [1124, 2, 8, 0.2], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [206, 2, 4, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [1005, 2, 4, 0.2], [11835, 2, 5, 0.36], [144, 2, 4, 0.46], [8915, 2, 5, 0.89], [308, 1, 5, 0.73], [88, 10, 10, 0.19], [434, 2, 5, 0.2], [11739, 2, 5, 0.89], [6158, 2, 6, 0.2], [11234, 2, 4, 0.2], [2424, 29, 4, 2.32], [11738, 2, 4, 0.2], [2423, 29, 4, 0.58], [7704, 2, 4, 1.35], [11836, 2, 4, 0.2], [2424, 80, 4, 2.32], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [2054, 3, 4, 0.65], [7706, 2, 4, 1.65], [10574, 3, 5, 1.75], [2423, 80, 4, 0.58], [3, 2, 4, 0.54], [412, 1, 4, 0.64], [2859, 15, 4, 1.87], [3478, 2, 4, 1.28], [12720, 2, 4, 0.98], [10149, 3, 13, 1.48], [74, 1, 4, 1.63], [12343, 1, 4, 1.57], [346, 3, 5, 0.46], [11919, 1, 4, 0.9], [1339, 3, 10, 0.42], [60, 3, 5, 1.7], [6497, 1, 4, 0.44], [346, 1, 4, 0.35], [418, 2, 4, 0.6], [13928, 1, 4, 0.55], [411, 2, 4, 0.37], [13034, 3, 6, 0.65], [18964, 1, 4, 0.79], [13028, 3, 4, 0.37], [11089, 1, 4, 0.42], [10993, 2, 4, 0.59], [413, 1, 4, 1.68], [13260, 29, 5, 1.17], [7036, 1, 4, 0.93], [94, 4, 5, 1.27], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [2991, 3, 4, 2.17], [22317, 3, 8, 0.2], [21793, 1, 5, 1.94], [7708, 2, 4, 1.55], [3889, 1, 5, 2.08], [345, 3, 5, 1.26], [6630, 3, 4, 2.4], [11490, 1, 4, 0.53], [5208, 3, 8, 0.48], [1243, 2, 5, 0.45], [1490, 1, 4, 0.87], [2912, 1, 4, 1.54], [3495, 3, 13, 0.85], [563, 2, 4, 0.93], [229, 1, 4, 0.69], [20680, 1, 4, 0.92], [1049, 2, 4, 0.2], [336, 15, 4, 0.2], [6627, 3, 4, 0.2], [5940, 3, 4, 0.2], [12229, 2, 4, 0.45], [192, 3, 7, 1.24], [11581, 29, 4, 0.87], [13033, 3, 4, 0.69], [23275, 2, 4, 0.99], [2331, 1, 4, 0.64], [1274, 1, 4, 1.57], [2805, 137, 5, 1.4], [247, 1, 4, 1.55], [5165, 1, 4, 2.3], [201, 3, 4, 1.21], [8635, 3, 4, 0.59], [114, 3, 4, 1.73], [942, 3, 4, 0.25], [11914, 1, 4, 0.41], [6496, 1, 4, 1.55], [8898, 3, 5, 0.48], [6629, 3, 4, 0.47], [1703, 2, 4, 0.47], [7886, 4, 4, 0.44], [11770, 1, 4, 1.57], [5812, 3, 5, 0.5], [9372, 1, 4, 1.74], [3934, 5, 6, 0.56], [9760, 29, 4, 1.96], [202, 2, 4, 0.93], [21269, 3, 5, 0.5], [186, 3, 9, 1.23], [332, 2, 4, 0.93], [951, 4, 4, 1.5], [83, 2, 4, 0.55], [4940, 1, 4, 0.36], [10527, 3, 8, 2.22], [6360, 10, 10, 0.83], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [21781, 2, 4, 0.47], [12373, 1, 5, 0.45], [9082, 3, 15, 0.83], [20927, 1, 4, 0.7], [5584, 3, 4, 2.72], [13498, 3, 4, 0.88], [12870, 1, 4, 1.74], [6935, 2, 204, 6.0], [305, 2, 125, 3.17], [2328, 2, 109, 4.64], [8672, 2, 208, 5.22], [8650, 2, 192, 4.6], [248, 1, 14, 1.58], [143, 2, 108, 3.72], [6936, 2, 204, 5.75], [145, 2, 110, 3.71], [11837, 2, 246, 2.45], [205, 2, 29, 3.53], [11681, 2, 261, 5.0], [417, 2, 134, 3.32], [75, 2, 106, 4.57], [146, 2, 110, 3.82], [1124, 2, 134, 4.52], [12721, 2, 205, 4.24], [8673, 2, 209, 5.48], [206, 2, 60, 3.53], [8853, 2, 204, 5.66], [326, 2, 83, 3.25], [1005, 2, 77, 4.76], [11835, 2, 229, 2.97], [144, 2, 110, 3.63], [8915, 2, 100, 3.75], [308, 1, 159, 3.34], [88, 10, 406, 5.3], [434, 2, 99, 2.42], [6158, 2, 189, 4.79], [11234, 2, 144, 3.13], [2424, 29, 31, 6.0], [2423, 29, 34, 3.13], [7704, 2, 162, 4.45], [11836, 2, 193, 3.64], [2424, 80, 153, 6.0], [7705, 2, 46, 5.39], [1413, 15, 55, 3.77], [2054, 3, 126, 2.85], [7706, 2, 46, 5.39], [10574, 3, 362, 5.43], [2423, 80, 169, 3.13], [3, 2, 87, 4.73], [412, 1, 77, 3.63], [12720, 2, 205, 4.24], [10149, 3, 801, 4.21], [74, 1, 183, 4.71], [12343, 1, 566, 4.59], [346, 3, 566, 2.39], [1339, 3, 461, 1.67], [6497, 1, 33, 3.13], [346, 1, 142, 2.24], [418, 2, 129, 2.73], [13928, 1, 43, 4.47], [411, 2, 85, 3.53], [13034, 3, 508, 4.57], [18964, 1, 49, 3.09], [13028, 3, 125, 4.24], [11089, 1, 159, 2.38], [10993, 2, 14, 3.78], [413, 1, 78, 4.8], [13260, 29, 53, 4.53]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.44], [2327, 2, 5, 0.64], [11681, 2, 10, 0.85], [362, 2, 4, 0.56], [8648, 2, 4, 1.08], [8650, 2, 4, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 0.97], [205, 2, 4, 0.46], [2328, 2, 4, 0.39], [1446, 2, 4, 0.2], [2049, 3, 6, 0.21], [130, 1, 4, 0.2], [2775, 2, 4, 0.2], [361, 2, 5, 0.4], [8853, 2, 5, 0.94], [593, 2, 6, 0.2], [143, 2, 5, 0.51], [140, 2, 4, 0.39], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [7004, 1, 4, 0.39], [413, 1, 4, 0.66], [21793, 1, 4, 1.65], [12350, 1, 4, 0.19], [1124, 2, 4, 0.2], [151, 1, 5, 0.37], [7036, 1, 4, 1.31], [990, 2, 5, 0.2], [5165, 1, 4, 2.3], [12349, 1, 4, 1.05], [145, 2, 4, 1.39], [201, 3, 6, 0.42], [248, 1, 4, 0.2], [8089, 1, 4, 1.36], [6952, 1, 4, 1.04], [6097, 80, 4, 2.88], [2050, 3, 4, 1.21], [2055, 3, 5, 0.71], [345, 3, 6, 0.2], [144, 2, 4, 0.49], [10993, 2, 4, 0.41], [7084, 3, 4, 3.17], [11770, 1, 4, 0.47], [2057, 3, 5, 0.49], [3891, 1, 4, 0.25], [2912, 1, 4, 0.86], [5165, 2, 7, 2.22], [998, 2, 4, 0.23], [3893, 1, 4, 0.63], [9372, 1, 4, 0.98], [12870, 1, 4, 0.47], [12343, 1, 4, 1.05], [7885, 4, 4, 0.99], [2424, 80, 4, 2.15], [12351, 1, 4, 1.05], [6098, 80, 4, 1.89], [6097, 29, 4, 2.41], [20927, 1, 4, 0.36], [10574, 3, 5, 1.59], [6158, 2, 5, 0.84], [3334, 5, 4, 0.38], [12345, 1, 4, 1.05], [11089, 1, 4, 0.37], [10149, 3, 15, 1.48], [1492, 1, 4, 0.56], [2912, 2, 5, 0.7], [3889, 1, 4, 0.63], [4032, 29, 4, 0.63], [12304, 1, 4, 1.07], [972, 3, 4, 1.01], [3576, 25, 4, 0.92], [1700, 2, 4, 0.49], [411, 2, 4, 0.93], [13034, 3, 4, 1.07], [2331, 1, 4, 1.01], [11583, 29, 5, 0.2], [229, 1, 4, 2.07], [11426, 25, 4, 0.51], [5151, 2, 4, 0.93], [11490, 1, 4, 0.93], [995, 2, 4, 0.62], [3, 2, 4, 0.32], [8677, 3, 6, 1.21], [12764, 2, 5, 0.43], [2160, 68, 4, 1.02], [3478, 2, 4, 1.12], [13893, 2, 4, 1.32], [2805, 137, 4, 0.83], [3575, 25, 4, 0.6], [13023, 3, 5, 1.52], [13280, 1, 4, 1.09], [5812, 3, 5, 2.0], [6494, 1, 4, 1.48], [3577, 25, 4, 0.45], [11814, 1, 4, 0.48], [4253, 1, 4, 1.41], [11813, 1, 4, 1.53], [2438, 2, 5, 1.68], [75, 2, 4, 0.36], [9289, 29, 4, 1.08], [11404, 2, 4, 0.43], [9971, 2, 4, 0.92], [957, 2, 5, 0.91], [9967, 2, 4, 0.92], [1413, 15, 4, 0.45], [11150, 2, 5, 0.44], [22317, 3, 4, 0.44], [8283, 2, 5, 0.74], [9069, 1, 4, 0.8], [4586, 10, 11, 0.8], [5584, 3, 4, 1.38], [2878, 1, 5, 0.44], [114, 3, 4, 1.53], [9491, 21, 8, 1.43], [21697, 3, 4, 0.44], [11812, 1, 4, 0.41], [9964, 2, 4, 0.92], [9965, 2, 4, 0.92], [4076, 3, 4, 1.42], [10407, 10, 7, 1.22], [10609, 1, 4, 1.55], [336, 15, 4, 0.39], [1163, 3, 4, 1.45], [8926, 1, 4, 2.31], [12647, 1, 4, 0.75], [11739, 2, 4, 0.39], [13249, 29, 4, 1.16], [3495, 3, 10, 0.82], [11687, 2, 4, 0.38], [7324, 1, 4, 0.56], [11425, 25, 4, 0.51], [8285, 2, 4, 0.52], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 89, 3.17], [2778, 2, 146, 2.77], [6936, 2, 202, 5.81], [2327, 2, 111, 3.3], [11681, 2, 220, 6.0], [362, 2, 111, 3.45], [8648, 2, 170, 5.97], [8650, 2, 179, 6.0], [326, 2, 71, 3.85], [2328, 2, 119, 4.01], [1446, 2, 68, 3.34], [2049, 3, 272, 2.27], [2775, 2, 146, 2.77], [361, 2, 123, 3.53], [8853, 2, 222, 6.0], [593, 2, 53, 3.38], [143, 2, 117, 3.68], [140, 2, 84, 2.91], [3840, 1, 40, 1.79], [523, 2, 123, 3.41], [7004, 1, 19, 2.03], [413, 1, 80, 2.72], [21793, 1, 220, 4.63], [12350, 1, 488, 3.41], [1124, 2, 147, 3.88], [7036, 1, 119, 4.05], [5165, 1, 36, 5.87], [12349, 1, 575, 5.14], [145, 2, 35, 3.51], [248, 1, 13, 3.27], [8089, 1, 65, 4.06], [6952, 1, 148, 5.46], [6097, 80, 54, 6.0], [2055, 3, 166, 3.43], [345, 3, 238, 4.1], [144, 2, 138, 2.39], [10993, 2, 19, 1.89], [11770, 1, 208, 2.35], [2057, 3, 166, 3.43], [3891, 1, 92, 3.38], [2912, 1, 43, 3.1], [5165, 2, 347, 5.64], [998, 2, 191, 4.68], [3893, 1, 116, 2.66], [9372, 1, 215, 4.91], [12870, 1, 129, 3.03], [12343, 1, 575, 5.14], [2424, 80, 154, 5.59], [12351, 1, 575, 5.14], [6098, 80, 59, 5.09], [6097, 29, 27, 6.0], [20927, 1, 19, 1.99], [10574, 3, 400, 4.31], [6158, 2, 207, 3.96], [3334, 5, 168, 3.45], [12345, 1, 575, 5.14], [11089, 1, 125, 3.59], [10149, 3, 809, 4.06], [1492, 1, 35, 2.53], [2912, 2, 348, 2.71], [3889, 1, 116, 2.66]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.2], [2049, 3, 10, 0.21], [141, 2, 4, 0.39], [205, 2, 4, 0.2], [326, 2, 4, 0.47], [130, 1, 4, 0.5], [144, 2, 4, 0.5], [589, 2, 6, 0.2], [151, 1, 4, 0.46], [362, 2, 4, 1.32], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [145, 2, 4, 0.38], [206, 2, 4, 0.2], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [1777, 1, 5, 0.93], [6936, 2, 6, 1.17], [5151, 2, 4, 1.55], [8650, 2, 5, 1.15], [2778, 2, 4, 0.2], [22247, 2, 4, 1.07], [8677, 3, 5, 2.06], [10, 2, 6, 0.2], [76, 2, 4, 1.11], [10149, 3, 17, 1.32], [8649, 2, 4, 1.15], [2050, 3, 5, 0.77], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [361, 2, 4, 0.74], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [411, 2, 4, 0.2], [410, 1, 4, 0.2], [3478, 2, 4, 0.78], [6158, 2, 6, 0.2], [308, 1, 4, 0.72], [167, 3, 4, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 17, 1.31], [45, 2, 4, 1.12], [7036, 1, 4, 1.64], [5812, 3, 5, 2.5], [9827, 3, 4, 0.2], [94, 4, 4, 0.51], [3893, 1, 4, 0.53], [168, 3, 5, 0.29], [3889, 1, 4, 0.53], [10574, 3, 5, 1.17], [3891, 1, 4, 0.53], [2049, 1, 4, 0.4], [13280, 1, 4, 1.23], [12870, 1, 4, 2.83], [2336, 3, 6, 0.5], [335, 3, 10, 1.08], [1504, 2, 6, 0.2], [6097, 29, 4, 2.36], [6097, 80, 4, 2.86], [11737, 2, 4, 1.04], [95, 3, 15, 0.19], [998, 2, 4, 1.27], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [79, 1, 4, 0.2], [6098, 29, 4, 2.02], [22316, 3, 5, 0.49], [9069, 1, 4, 1.09], [6098, 80, 4, 3.02], [1070, 7, 10, 0.43], [14017, 3, 4, 0.67], [8898, 3, 5, 2.17], [9760, 29, 4, 0.43], [346, 3, 5, 0.5], [997, 2, 4, 1.29], [20498, 1, 5, 0.55], [7887, 4, 4, 0.37], [13034, 3, 8, 0.77], [1622, 1, 5, 0.2], [8945, 3, 5, 1.31], [13260, 29, 4, 0.73], [22554, 10, 9, 0.48], [336, 15, 4, 0.2], [7567, 3, 4, 1.62], [5946, 1, 4, 0.53], [5811, 3, 4, 1.68], [5813, 3, 5, 1.08], [5513, 2, 4, 0.66], [22317, 3, 6, 0.2], [11085, 2, 6, 0.45], [5086, 1, 6, 0.2], [5209, 3, 4, 0.54], [12924, 1, 4, 0.2], [12350, 1, 4, 2.07], [20498, 3, 6, 0.6], [995, 2, 4, 1.31], [229, 1, 4, 2.57], [974, 3, 4, 0.88], [996, 2, 4, 0.74], [972, 3, 6, 0.35], [33, 1, 4, 0.74], [9691, 1, 4, 1.91], [8557, 3, 4, 0.2], [35, 1, 4, 1.05], [110, 4, 4, 0.44], [3049, 3, 4, 1.98], [1080, 3, 4, 0.3], [20486, 3, 6, 0.49], [1703, 2, 4, 1.38], [13023, 3, 5, 1.74], [2424, 80, 4, 1.45], [4076, 3, 4, 3.19], [5584, 3, 4, 0.5], [39, 1, 4, 1.05], [8104, 1, 4, 0.39], [14018, 3, 4, 0.5], [3900, 3, 4, 1.18], [952, 4, 4, 1.94], [215, 4, 4, 3.57], [11510, 3, 5, 0.48], [9081, 3, 9, 0.28], [9613, 1, 4, 0.45], [34, 1, 4, 1.05], [20486, 1, 4, 0.51], [114, 3, 4, 0.48], [972, 1, 4, 0.98], [1414, 15, 4, 0.2], [2854, 21, 10, 0.47], [20969, 3, 4, 1.28], [6497, 1, 5, 1.0], [3047, 3, 4, 1.05], [8672, 2, 190, 5.07], [305, 2, 98, 3.64], [6935, 2, 246, 4.24], [2049, 3, 432, 2.52], [141, 2, 105, 2.87], [205, 2, 64, 2.48], [326, 2, 62, 3.13], [130, 1, 20, 2.4], [144, 2, 128, 2.07], [589, 2, 61, 2.08], [151, 1, 46, 2.99], [362, 2, 122, 3.65], [1776, 1, 85, 4.51], [146, 2, 102, 4.05], [145, 2, 130, 2.51], [206, 2, 79, 2.86], [143, 2, 100, 3.21], [2328, 2, 102, 3.16], [8648, 2, 150, 4.67], [1777, 1, 85, 3.88], [6936, 2, 190, 4.62], [5151, 2, 17, 4.09], [8650, 2, 150, 5.32], [2778, 2, 105, 3.21], [22247, 2, 246, 3.76], [8677, 3, 197, 5.23], [10, 2, 91, 3.16], [76, 2, 73, 4.44], [10149, 3, 575, 5.41], [8649, 2, 150, 5.01], [2050, 3, 318, 3.54], [412, 1, 57, 3.82], [13028, 3, 99, 3.08], [361, 2, 134, 2.53], [413, 1, 58, 3.3], [7004, 1, 54, 2.88], [11404, 2, 91, 2.3], [411, 2, 38, 3.03], [410, 1, 54, 2.83], [6158, 2, 195, 2.69], [308, 1, 146, 3.55], [5081, 2, 128, 3.15], [7005, 1, 42, 2.88], [3495, 3, 641, 4.39], [45, 2, 73, 5.82], [7036, 1, 85, 4.63], [5812, 3, 203, 6.0], [9827, 3, 59, 3.04], [94, 4, 80, 4.7], [3893, 1, 108, 2.17], [168, 3, 273, 3.61], [3889, 1, 108, 2.17], [10574, 3, 438, 3.43], [3891, 1, 108, 2.17], [2049, 1, 20, 1.88], [13280, 1, 271, 3.48], [12870, 1, 92, 6.0], [2336, 3, 456, 3.41], [335, 3, 989, 5.46], [1504, 2, 137, 2.99], [6097, 29, 23, 6.0], [6097, 80, 46, 6.0], [11737, 2, 49, 3.14], [95, 3, 752, 3.08]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.18], [305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [2049, 3, 15, 1.54], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.91], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 15, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [206, 2, 9, 0.68], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 11, 3.26], [6936, 2, 10, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 3.02], [7886, 4, 7, 0.87], [248, 1, 7, 0.68], [2050, 3, 9, 1.03], [141, 2, 9, 1.62], [2991, 3, 7, 4.18], [74, 1, 7, 3.53], [2054, 3, 9, 1.08], [83, 2, 7, 1.12], [1446, 2, 7, 0.5], [1492, 1, 7, 1.85], [7004, 1, 7, 0.71], [2055, 3, 7, 0.82], [76, 2, 9, 2.08], [8649, 2, 11, 4.24], [345, 3, 9, 0.87], [11404, 2, 7, 0.67], [7084, 3, 9, 5.0], [3889, 1, 7, 0.8], [10825, 21, 13, 1.79], [61, 3, 7, 1.02], [10149, 3, 21, 1.67], [7036, 1, 7, 2.24], [21793, 1, 7, 3.94], [12870, 1, 9, 5.0], [33, 1, 9, 2.05], [94, 4, 9, 1.6], [5081, 2, 7, 1.33], [3478, 2, 9, 2.13], [10, 2, 7, 1.31], [11681, 2, 11, 3.47], [167, 3, 7, 2.54], [411, 2, 7, 0.71], [9827, 3, 7, 0.5], [308, 1, 7, 4.97], [1654, 2, 7, 1.54], [3891, 1, 7, 2.63], [1504, 2, 7, 2.8], [8677, 3, 9, 1.26], [201, 3, 9, 0.87], [168, 3, 9, 3.03], [3893, 1, 7, 2.63], [84, 2, 7, 0.86], [79, 1, 7, 1.16], [35, 1, 7, 2.45], [2336, 3, 9, 1.96], [13280, 1, 7, 2.96], [23, 1, 7, 1.29], [1490, 1, 7, 0.67], [9760, 29, 7, 1.04], [1243, 2, 7, 1.02], [6158, 2, 8, 0.86], [412, 1, 7, 2.69], [45, 2, 7, 2.72], [361, 2, 7, 2.25], [346, 1, 9, 1.08], [20927, 1, 7, 0.94], [1767, 25, 7, 1.14], [25, 1, 7, 1.46], [12225, 1, 7, 1.7], [9069, 1, 7, 0.73], [413, 1, 6, 2.06], [21269, 3, 7, 3.75], [3495, 3, 22, 2.26], [346, 3, 7, 0.98], [490, 1, 7, 1.52], [997, 2, 9, 2.24], [34, 1, 7, 1.69], [1766, 25, 9, 1.08], [8898, 3, 7, 2.78], [5946, 1, 7, 2.48], [9691, 1, 7, 3.41], [1070, 7, 15, 0.85], [1519, 3, 22, 0.73], [9372, 1, 7, 3.85], [14017, 3, 7, 1.6], [11954, 1, 7, 0.87], [20498, 1, 7, 1.3], [38, 1, 7, 1.9], [974, 3, 7, 2.64], [14037, 3, 11, 0.74], [22317, 3, 9, 0.98], [5584, 3, 7, 3.74], [972, 3, 8, 2.02], [1091, 1, 7, 1.77], [7567, 3, 7, 2.33], [20498, 3, 8, 1.9], [110, 4, 7, 0.68], [9828, 3, 9, 0.76], [8945, 3, 8, 1.04], [5813, 3, 9, 3.74], [2991, 1, 7, 3.22], [82, 2, 7, 1.0], [3048, 3, 7, 4.18], [39, 1, 7, 1.14], [1080, 3, 11, 1.59], [1414, 15, 9, 0.72], [24, 1, 7, 2.0], [13034, 3, 8, 2.65], [336, 15, 9, 0.68], [1767, 2, 9, 1.14], [202, 2, 7, 1.73], [13260, 29, 7, 2.28], [10780, 10, 7, 3.58], [5513, 2, 7, 1.1], [9082, 3, 24, 2.75], [11811, 1, 7, 3.28], [4203, 1, 9, 1.06], [2878, 1, 7, 2.34], [14018, 3, 7, 1.64], [8635, 3, 9, 0.8], [3900, 3, 7, 0.9], [8104, 1, 7, 0.85], [2336, 3, 588, 3.23], [13280, 1, 320, 4.24], [23, 1, 96, 3.54], [1490, 1, 43, 2.98], [9760, 29, 73, 2.31], [1243, 2, 99, 2.29], [6158, 2, 225, 3.16], [412, 1, 71, 4.36], [45, 2, 97, 4.53], [361, 2, 157, 3.51], [346, 1, 112, 2.88], [20927, 1, 40, 1.95], [1767, 25, 148, 3.4], [25, 1, 96, 3.71], [9069, 1, 123, 1.99], [413, 1, 73, 3.86], [21269, 3, 213, 5.55], [3495, 3, 827, 4.56], [346, 3, 448, 2.79], [997, 2, 174, 4.04], [34, 1, 81, 3.7], [1766, 25, 161, 3.33], [8898, 3, 247, 5.08], [5946, 1, 107, 3.78], [1070, 7, 510, 3.13], [1519, 3, 558, 1.46], [9372, 1, 165, 5.15], [14017, 3, 168, 4.21], [11954, 1, 174, 3.18], [20498, 1, 84, 4.11], [38, 1, 81, 3.7], [974, 3, 127, 3.95], [22317, 3, 229, 2.78], [5584, 3, 169, 5.54], [972, 3, 510, 3.45], [7567, 3, 71, 3.6], [20498, 3, 425, 3.7], [110, 4, 77, 2.1], [9828, 3, 64, 2.69], [8945, 3, 603, 2.29], [5813, 3, 428, 5.01], [2991, 1, 30, 4.52], [82, 2, 20, 1.76], [3048, 3, 198, 5.48], [39, 1, 81, 2.94], [1080, 3, 97, 3.39], [1414, 15, 85, 2.47], [24, 1, 57, 3.8], [13034, 3, 428, 3.96], [336, 15, 57, 1.69], [1767, 2, 25, 2.94], [202, 2, 73, 3.0], [13260, 29, 53, 3.55], [10780, 10, 278, 5.4], [5513, 2, 80, 2.37], [9082, 3, 1772, 4.58], [11811, 1, 328, 4.58], [4203, 1, 35, 2.86], [2878, 1, 58, 3.64], [14018, 3, 198, 2.9], [3900, 3, 45, 2.17], [8104, 1, 150, 2.65]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 0.93], [589, 2, 10, 0.87], [8915, 2, 8, 1.31], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 7, 0.74], [8648, 2, 11, 3.48], [2775, 2, 11, 0.61], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 2.81], [326, 2, 7, 2.24], [7036, 1, 11, 3.63], [2049, 3, 12, 0.71], [88, 10, 20, 2.1], [2776, 2, 11, 0.61], [141, 2, 7, 0.72], [7004, 1, 11, 2.57], [1446, 2, 7, 1.43], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2912, 1, 7, 3.11], [2055, 3, 7, 1.08], [142, 2, 7, 1.99], [3893, 1, 7, 0.71], [12870, 1, 9, 3.23], [5165, 1, 7, 4.43], [9372, 1, 7, 3.08], [7886, 4, 7, 0.8], [7084, 3, 7, 2.06], [3889, 1, 7, 1.38], [2054, 3, 7, 1.3], [2050, 3, 7, 1.57], [1622, 1, 7, 0.5], [10, 2, 7, 1.39], [21793, 1, 7, 1.02], [7573, 1, 16, 4.79], [3891, 1, 7, 0.76], [5208, 3, 11, 0.79], [75, 2, 7, 2.43], [10149, 3, 21, 3.07], [20927, 1, 9, 1.93], [997, 2, 9, 1.93], [3, 2, 9, 1.33], [11234, 2, 9, 1.3], [5165, 2, 8, 4.03], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [1886, 2, 9, 0.86], [94, 4, 9, 1.6], [346, 3, 9, 0.82], [35, 1, 7, 3.45], [22247, 2, 7, 2.52], [9491, 21, 32, 0.95], [996, 2, 9, 2.63], [955, 2, 7, 1.04], [83, 2, 9, 1.33], [229, 1, 7, 2.98], [33, 1, 7, 2.75], [7887, 4, 9, 2.4], [6158, 2, 7, 1.56], [2912, 2, 12, 3.18], [76, 2, 7, 1.69], [413, 1, 7, 3.62], [13928, 1, 7, 2.31], [2424, 80, 7, 2.78], [2805, 137, 7, 2.56], [5209, 3, 14, 2.79], [5076, 1, 7, 1.87], [346, 1, 7, 0.83], [8676, 2, 7, 3.15], [38, 1, 7, 3.14], [34, 1, 9, 2.65], [418, 2, 7, 1.04], [84, 2, 7, 2.7], [8104, 1, 7, 2.1], [12212, 29, 7, 1.4], [3495, 3, 18, 1.61], [11952, 1, 7, 0.83], [1414, 15, 7, 0.81], [39, 1, 7, 3.08], [11490, 1, 7, 1.85], [3048, 3, 7, 2.21], [11770, 1, 7, 1.65], [2424, 29, 7, 2.78], [411, 2, 7, 1.29], [10407, 10, 12, 3.71], [1703, 2, 7, 2.56], [9691, 1, 7, 2.35], [202, 2, 7, 1.68], [13928, 2, 7, 2.7], [11772, 1, 7, 2.43], [11953, 1, 7, 0.98], [5584, 3, 7, 5.0], [22316, 3, 7, 1.16], [23961, 3, 7, 4.58], [7567, 3, 7, 3.04], [13893, 2, 7, 2.25], [12764, 2, 10, 1.76], [13023, 3, 10, 1.41], [10410, 10, 15, 3.59], [1519, 3, 16, 0.62], [74, 1, 7, 5.0], [21269, 3, 7, 3.07], [1274, 1, 7, 1.26], [5164, 1, 7, 3.75], [410, 1, 7, 1.96], [2331, 1, 7, 1.23], [4253, 1, 7, 1.16], [1523, 1, 7, 1.16], [10408, 10, 8, 4.11], [1492, 1, 7, 0.87], [2438, 2, 8, 3.7], [12229, 2, 7, 1.44], [3430, 15, 7, 2.79], [6097, 80, 7, 2.43], [13034, 3, 7, 3.12], [3047, 3, 7, 3.16], [6805, 1, 7, 0.97], [8674, 2, 7, 2.33], [71, 15, 7, 0.67], [1243, 2, 7, 2.73], [21059, 1, 7, 3.09], [10780, 10, 7, 4.06], [11116, 1, 7, 1.08], [2436, 4, 7, 1.58], [6097, 29, 7, 1.52], [11812, 1, 7, 0.89], [1080, 3, 7, 2.78], [24257, 1, 7, 1.08], [3429, 15, 7, 0.71], [76, 2, 78, 3.73], [413, 1, 49, 4.92], [13928, 1, 34, 3.92], [2424, 80, 156, 4.21], [2805, 137, 151, 4.69], [5076, 1, 92, 4.0], [346, 1, 130, 2.96], [8676, 2, 263, 4.57], [38, 1, 26, 4.31], [34, 1, 77, 4.19], [418, 2, 131, 2.46], [84, 2, 51, 4.29], [8104, 1, 145, 4.33], [12212, 29, 101, 3.03], [3495, 3, 889, 3.02], [11952, 1, 185, 2.25], [1414, 15, 46, 2.03], [39, 1, 26, 4.25], [3048, 3, 249, 3.63], [11770, 1, 180, 3.78], [2424, 29, 31, 4.2], [411, 2, 50, 2.51], [1703, 2, 136, 3.98], [202, 2, 17, 2.49], [13928, 2, 21, 4.12], [11772, 1, 201, 3.85], [11953, 1, 185, 2.4], [5584, 3, 169, 6.0], [22316, 3, 291, 2.58], [23961, 3, 245, 6.0], [7567, 3, 16, 4.21], [13893, 2, 252, 3.67], [12764, 2, 621, 3.87], [13023, 3, 501, 3.53], [1519, 3, 382, 1.41], [74, 1, 164, 6.0], [21269, 3, 244, 4.71], [1274, 1, 76, 2.68], [5164, 1, 43, 5.17], [2331, 1, 109, 2.65], [4253, 1, 143, 3.29], [1523, 1, 43, 2.58], [1492, 1, 32, 3.0], [2438, 2, 522, 5.34], [12229, 2, 128, 3.07], [3430, 15, 24, 3.96], [6097, 80, 57, 3.85], [13034, 3, 491, 4.54], [3047, 3, 225, 4.59], [6805, 1, 379, 3.09], [8674, 2, 263, 3.76], [1243, 2, 82, 4.36], [21059, 1, 299, 4.51], [10780, 10, 312, 5.49], [11116, 1, 18, 1.89], [2436, 4, 40, 3.21], [6097, 29, 32, 2.94], [11812, 1, 187, 2.85], [1080, 3, 117, 4.2], [24257, 1, 49, 2.16], [3429, 15, 12, 1.52]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [205, 2, 9, 0.93], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [143, 2, 9, 1.44], [305, 2, 7, 0.98], [8915, 2, 8, 0.74], [8650, 2, 7, 1.85], [141, 2, 7, 1.58], [6936, 2, 11, 4.58], [2778, 2, 7, 1.57], [146, 2, 9, 2.65], [88, 10, 18, 0.73], [7004, 1, 7, 1.94], [7036, 1, 7, 3.33], [145, 2, 9, 2.06], [1446, 2, 11, 1.04], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [2055, 3, 7, 4.41], [417, 2, 7, 1.56], [10993, 2, 7, 1.37], [11737, 2, 7, 1.76], [3893, 1, 9, 1.0], [75, 2, 7, 2.23], [2050, 3, 7, 3.31], [159, 3, 12, 0.56], [3840, 1, 7, 0.75], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [3889, 1, 7, 1.02], [2057, 3, 7, 4.02], [7084, 3, 7, 1.77], [13280, 1, 7, 2.32], [20927, 1, 7, 1.82], [3, 2, 7, 1.37], [7005, 1, 7, 1.42], [997, 2, 7, 2.0], [3982, 3, 17, 2.85], [9760, 29, 9, 0.86], [10, 2, 7, 1.29], [3891, 1, 7, 1.02], [98, 11, 16, 0.96], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [6158, 2, 9, 1.48], [7885, 4, 9, 0.7], [84, 2, 7, 1.73], [5165, 2, 8, 3.91], [346, 3, 7, 1.05], [9372, 1, 7, 2.6], [3980, 4, 7, 2.36], [5165, 1, 7, 4.43], [411, 2, 7, 2.14], [10388, 2, 7, 3.52], [2912, 1, 7, 3.11], [9491, 21, 20, 0.87], [214, 3, 15, 0.69], [346, 1, 7, 0.91], [3981, 3, 22, 2.14], [1492, 1, 7, 1.48], [22316, 3, 7, 0.98], [10386, 2, 7, 1.91], [33, 1, 7, 4.53], [995, 2, 7, 2.23], [13928, 1, 7, 2.9], [418, 2, 7, 0.98], [22247, 2, 7, 3.08], [308, 1, 7, 3.52], [13893, 2, 7, 4.76], [336, 15, 7, 1.93], [7886, 4, 9, 0.94], [7567, 3, 7, 2.33], [2912, 2, 8, 4.0], [35, 1, 7, 3.52], [10631, 2, 7, 3.81], [11490, 1, 7, 2.02], [229, 1, 7, 2.31], [159, 1, 7, 0.98], [11953, 1, 7, 1.4], [83, 2, 7, 0.94], [11770, 1, 7, 1.35], [13283, 1, 7, 2.96], [22317, 3, 9, 1.92], [10780, 10, 7, 5.0], [10407, 10, 10, 3.8], [9691, 1, 7, 2.44], [13286, 1, 7, 1.85], [10149, 3, 21, 3.14], [10410, 10, 10, 2.33], [12271, 2, 7, 3.87], [6497, 1, 7, 0.87], [345, 3, 7, 1.94], [1413, 15, 7, 1.12], [74, 1, 7, 2.19], [8943, 3, 7, 0.73], [3478, 2, 7, 1.62], [37, 1, 7, 2.23], [9971, 2, 7, 3.45], [23611, 3, 9, 0.72], [10387, 2, 7, 1.83], [39, 1, 7, 1.04], [11085, 2, 8, 3.27], [4076, 3, 7, 2.6], [3048, 3, 7, 2.27], [2331, 1, 7, 2.86], [159, 16, 7, 0.98], [34, 1, 7, 1.79], [13281, 1, 7, 2.64], [20498, 3, 10, 2.22], [82, 2, 7, 1.37], [4001, 3, 14, 3.01], [11510, 3, 8, 2.0], [45, 2, 7, 2.96], [9, 1, 7, 0.96], [12338, 29, 7, 0.73], [9965, 2, 7, 2.62], [9964, 2, 7, 3.45], [10936, 2, 7, 3.27], [215, 4, 7, 2.81], [24257, 1, 7, 2.95], [105, 3, 7, 0.98], [1523, 1, 7, 2.08], [12764, 2, 8, 1.96], [1895, 3, 7, 1.42], [12212, 29, 7, 0.96], [12858, 1, 7, 1.41], [1080, 3, 7, 0.89], [11489, 1, 7, 0.96], [2805, 137, 8, 1.47], [8635, 3, 7, 2.91], [22316, 3, 233, 2.92], [10386, 2, 206, 3.27], [995, 2, 177, 4.17], [13928, 1, 44, 4.26], [418, 2, 135, 2.34], [22247, 2, 211, 4.44], [308, 1, 151, 4.88], [13893, 2, 255, 6.0], [336, 15, 102, 3.29], [7567, 3, 67, 3.69], [2912, 2, 304, 5.36], [10631, 2, 76, 4.85], [11490, 1, 26, 3.38], [229, 1, 62, 3.67], [159, 1, 24, 2.18], [11953, 1, 49, 2.84], [83, 2, 39, 2.23], [11770, 1, 181, 3.29], [13283, 1, 303, 4.32], [22317, 3, 257, 3.38], [10780, 10, 332, 6.0], [13286, 1, 303, 3.21], [10149, 3, 642, 4.59], [10410, 10, 1149, 3.67], [6497, 1, 36, 2.23], [345, 3, 220, 3.29], [1413, 15, 24, 2.52], [74, 1, 194, 3.54], [8943, 3, 92, 1.51], [3478, 2, 45, 2.86], [37, 1, 82, 3.58], [9971, 2, 259, 4.81], [23611, 3, 259, 2.75], [10387, 2, 206, 3.19], [39, 1, 106, 2.39], [11085, 2, 395, 4.73], [4076, 3, 148, 3.96], [3048, 3, 199, 3.72], [2331, 1, 110, 4.22], [159, 16, 48, 2.22], [34, 1, 82, 3.15], [13281, 1, 303, 4.0], [20498, 3, 430, 4.65], [82, 2, 14, 2.15], [4001, 3, 582, 4.46], [11510, 3, 563, 3.36], [45, 2, 106, 4.32], [9, 1, 33, 2.32], [12338, 29, 51, 2.09], [9965, 2, 259, 3.98], [9964, 2, 259, 4.81], [10936, 2, 127, 4.63], [215, 4, 35, 4.17], [24257, 1, 131, 4.31], [105, 3, 182, 2.92], [1523, 1, 45, 3.44], [12764, 2, 549, 3.42], [1895, 3, 225, 3.36], [12212, 29, 115, 2.32], [12858, 1, 430, 2.85], [1080, 3, 123, 2.25], [11489, 1, 104, 2.32], [2805, 137, 176, 2.83], [8635, 3, 248, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [2049, 3, 16, 0.79], [6935, 2, 23, 3.05], [362, 2, 9, 1.81], [141, 2, 7, 1.04], [75, 2, 11, 1.95], [1776, 1, 7, 1.12], [8672, 2, 15, 1.91], [7886, 4, 7, 1.01], [2778, 2, 8, 0.56], [6936, 2, 10, 2.79], [305, 2, 7, 0.92], [593, 2, 14, 0.66], [1777, 1, 7, 2.22], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [151, 1, 6, 0.85], [206, 2, 7, 0.71], [88, 10, 17, 1.44], [2328, 2, 7, 0.94], [83, 2, 7, 1.0], [8650, 2, 11, 3.25], [2050, 3, 7, 1.22], [5151, 2, 7, 2.7], [412, 1, 7, 2.67], [144, 2, 7, 1.93], [2991, 3, 7, 4.04], [22247, 2, 11, 3.0], [361, 2, 7, 0.94], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [2054, 3, 9, 3.5], [417, 2, 9, 1.37], [146, 2, 9, 2.18], [3478, 2, 7, 1.48], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 9, 0.93], [167, 3, 7, 2.5], [12721, 2, 10, 1.92], [168, 3, 7, 1.38], [2055, 3, 7, 2.83], [74, 1, 7, 2.52], [1446, 2, 7, 1.69], [346, 1, 7, 0.74], [84, 2, 7, 0.86], [7036, 1, 7, 4.25], [335, 3, 22, 3.91], [3495, 3, 21, 1.64], [5081, 2, 7, 0.84], [10, 2, 14, 3.54], [13028, 3, 7, 1.61], [8649, 2, 9, 2.97], [12870, 1, 7, 5.0], [410, 1, 7, 1.23], [11404, 2, 9, 1.56], [79, 1, 7, 0.73], [96, 11, 20, 0.84], [3889, 1, 7, 2.38], [145, 2, 7, 1.4], [5208, 3, 16, 1.06], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [23, 1, 7, 3.33], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.54], [7005, 1, 7, 1.44], [13260, 29, 7, 1.85], [9827, 3, 7, 0.86], [411, 2, 7, 1.71], [3891, 1, 7, 1.55], [1490, 1, 7, 1.35], [25, 1, 7, 2.33], [21269, 3, 7, 4.99], [13280, 1, 7, 2.37], [998, 2, 7, 2.91], [9069, 1, 7, 3.62], [7567, 3, 7, 3.13], [5086, 1, 9, 2.04], [2878, 1, 7, 1.63], [1243, 2, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 3.66], [20927, 1, 7, 2.0], [997, 2, 7, 2.5], [5209, 3, 7, 0.67], [346, 3, 10, 1.24], [11914, 1, 9, 1.02], [5660, 2, 7, 1.94], [856, 1, 7, 0.85], [1124, 2, 11, 0.76], [5584, 3, 7, 3.61], [1070, 7, 13, 1.16], [159, 3, 12, 0.83], [8274, 3, 7, 1.68], [11811, 1, 9, 2.48], [996, 2, 7, 4.92], [1519, 3, 26, 0.68], [23961, 3, 7, 2.61], [8898, 3, 7, 5.0], [5513, 2, 7, 2.49], [22317, 3, 8, 0.9], [1091, 1, 7, 1.1], [24, 1, 7, 2.76], [952, 4, 7, 5.0], [13034, 3, 10, 3.25], [9081, 3, 12, 3.15], [12661, 1, 7, 4.54], [27, 1, 7, 2.87], [336, 15, 7, 0.8], [1413, 15, 7, 1.69], [9760, 29, 9, 0.87], [4203, 1, 7, 1.52], [10529, 29, 7, 2.85], [20498, 1, 7, 1.87], [9082, 3, 21, 1.67], [9372, 1, 7, 1.55], [1163, 3, 9, 0.86], [6097, 80, 7, 3.08], [6097, 29, 9, 2.58], [2109, 3, 18, 0.78], [82, 2, 7, 0.75], [972, 3, 8, 0.84], [995, 2, 7, 4.5], [66, 16, 7, 0.87], [2104, 3, 10, 2.99], [6098, 80, 7, 2.49], [20498, 3, 8, 1.64], [66, 1, 7, 0.89], [8635, 3, 6, 1.16], [12225, 1, 7, 1.0], [5813, 3, 7, 2.46], [10780, 10, 7, 4.2], [5946, 1, 7, 1.06], [6098, 29, 7, 2.47], [34, 1, 7, 2.02], [1504, 2, 137, 3.04], [94, 4, 107, 3.65], [13260, 29, 49, 3.0], [9827, 3, 59, 3.01], [3891, 1, 84, 3.52], [1490, 1, 34, 3.01], [25, 1, 75, 3.9], [21269, 3, 196, 6.0], [13280, 1, 271, 3.48], [998, 2, 160, 5.07], [7567, 3, 27, 3.82], [5086, 1, 123, 4.19], [2878, 1, 54, 3.29], [1243, 2, 85, 3.04], [1703, 2, 149, 4.53], [997, 2, 160, 3.61], [5209, 3, 415, 2.85], [346, 3, 423, 2.89], [11914, 1, 58, 3.67], [5660, 2, 118, 4.09], [856, 1, 30, 1.96], [1124, 2, 147, 2.57], [5584, 3, 168, 5.27], [1070, 7, 397, 2.8], [159, 3, 496, 1.88], [11811, 1, 354, 3.58], [996, 2, 185, 6.0], [1519, 3, 573, 2.82], [23961, 3, 229, 4.26], [8898, 3, 188, 6.0], [5513, 2, 67, 3.6], [22317, 3, 248, 2.56], [1091, 1, 34, 3.25], [952, 4, 49, 6.0], [13034, 3, 391, 4.65], [9081, 3, 306, 5.8], [12661, 1, 41, 5.7], [27, 1, 38, 3.89], [336, 15, 45, 2.96], [9760, 29, 57, 2.53], [4203, 1, 39, 2.68], [10529, 29, 37, 4.0], [20498, 1, 85, 2.98], [9082, 3, 1662, 3.42], [9372, 1, 197, 2.66], [6097, 80, 60, 4.19], [6097, 29, 32, 4.24], [2109, 3, 369, 2.52], [82, 2, 32, 1.67], [972, 3, 519, 1.94], [995, 2, 204, 5.61], [66, 16, 61, 2.53], [2104, 3, 261, 4.1], [6098, 80, 65, 3.6], [20498, 3, 508, 2.74], [66, 1, 33, 2.0], [12225, 1, 144, 2.11], [5813, 3, 508, 3.56], [10780, 10, 314, 5.31], [5946, 1, 108, 2.17], [6098, 29, 33, 3.58], [34, 1, 97, 3.13]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 8, 0.87], [88, 10, 20, 1.09], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [2778, 2, 7, 0.5], [305, 2, 7, 1.32], [6935, 2, 11, 3.9], [2328, 2, 9, 1.46], [6936, 2, 7, 3.27], [326, 2, 9, 3.02], [8648, 2, 9, 4.08], [8650, 2, 9, 4.02], [1446, 2, 7, 1.82], [7004, 1, 11, 2.57], [2049, 3, 15, 0.71], [205, 2, 7, 1.24], [144, 2, 7, 2.5], [143, 2, 7, 2.77], [10, 2, 7, 2.55], [94, 4, 9, 1.6], [7036, 1, 11, 3.63], [3893, 1, 9, 0.71], [1124, 2, 7, 1.74], [146, 2, 7, 2.81], [2055, 3, 9, 0.85], [206, 2, 7, 1.24], [5208, 3, 11, 0.79], [3891, 1, 9, 0.76], [75, 2, 7, 2.89], [362, 2, 7, 2.21], [7886, 4, 7, 1.3], [12224, 1, 7, 0.89], [3889, 1, 7, 1.88], [21793, 1, 7, 1.02], [2054, 3, 9, 1.43], [3980, 4, 8, 2.39], [7005, 1, 7, 2.08], [7084, 3, 7, 3.02], [12870, 1, 7, 4.2], [10149, 3, 21, 3.04], [2050, 3, 9, 1.11], [145, 2, 7, 2.89], [8672, 2, 11, 3.11], [2912, 1, 7, 3.04], [5165, 1, 7, 4.43], [998, 2, 7, 1.5], [20927, 1, 7, 3.39], [9760, 29, 7, 0.97], [997, 2, 7, 1.64], [1886, 2, 7, 1.19], [2436, 4, 7, 1.08], [7887, 4, 7, 2.37], [3, 2, 9, 1.33], [2424, 80, 7, 2.78], [6158, 2, 7, 1.56], [229, 1, 7, 2.02], [142, 2, 7, 0.69], [3495, 3, 14, 1.61], [955, 2, 7, 1.04], [346, 3, 7, 0.92], [5076, 1, 7, 2.01], [74, 1, 7, 5.0], [5165, 2, 8, 4.03], [11953, 1, 7, 0.98], [11954, 1, 7, 0.87], [11770, 1, 7, 0.96], [996, 2, 7, 1.42], [12721, 2, 7, 1.45], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [9372, 1, 7, 3.08], [11772, 1, 9, 0.76], [7573, 1, 16, 4.79], [2912, 2, 12, 3.97], [2423, 80, 9, 3.29], [5584, 3, 7, 5.0], [6497, 1, 7, 0.94], [2438, 2, 8, 3.77], [12229, 2, 7, 0.94], [3975, 4, 7, 2.98], [346, 1, 7, 0.71], [5209, 3, 9, 1.29], [5434, 1, 7, 2.56], [9082, 3, 33, 3.08], [823, 1, 7, 2.33], [10407, 10, 12, 3.27], [12764, 2, 23, 1.61], [4253, 1, 7, 1.04], [1622, 1, 9, 0.75], [11812, 1, 7, 0.84], [6496, 1, 7, 0.71], [2424, 29, 7, 2.78], [10388, 2, 7, 4.03], [5946, 1, 7, 1.62], [3900, 3, 7, 3.48], [8676, 2, 7, 3.15], [1339, 3, 16, 0.72], [1703, 2, 7, 1.94], [11490, 1, 7, 0.75], [2805, 137, 7, 2.56], [24257, 1, 7, 0.92], [13893, 2, 7, 2.25], [6097, 80, 7, 1.56], [37, 1, 7, 2.96], [6805, 1, 9, 0.97], [7567, 3, 7, 3.04], [22247, 2, 7, 2.52], [1414, 15, 7, 0.81], [9784, 1, 7, 2.75], [8635, 3, 7, 2.64], [11814, 1, 7, 0.92], [38, 1, 7, 2.23], [35, 1, 7, 2.96], [95, 3, 27, 0.73], [1274, 1, 7, 1.26], [23611, 3, 8, 0.74], [10386, 2, 7, 3.88], [1895, 3, 7, 4.16], [8104, 1, 7, 2.66], [788, 2, 7, 1.08], [12212, 29, 7, 0.9], [413, 1, 7, 1.27], [3979, 3, 13, 1.25], [8283, 2, 8, 1.19], [114, 3, 7, 2.95], [10780, 10, 7, 4.06], [12979, 25, 12, 1.36], [8274, 3, 7, 2.19], [76, 2, 7, 0.9], [8659, 1, 7, 1.64], [9065, 2, 7, 1.62], [12501, 1, 7, 2.39], [440, 3, 7, 2.41], [4232, 80, 7, 3.58], [418, 2, 7, 1.04], [19931, 1, 7, 2.43], [83, 2, 7, 0.85], [11772, 1, 155, 3.47], [7573, 1, 261, 6.0], [2912, 2, 317, 5.4], [2423, 80, 129, 5.92], [5584, 3, 217, 6.0], [6497, 1, 35, 2.36], [2438, 2, 522, 5.34], [12229, 2, 141, 2.36], [3975, 4, 403, 4.61], [346, 1, 142, 2.13], [5209, 3, 130, 2.1], [9082, 3, 2259, 4.5], [823, 1, 34, 4.46], [10407, 10, 415, 5.88], [12764, 2, 520, 3.92], [4253, 1, 121, 3.63], [1622, 1, 25, 3.47], [11812, 1, 167, 3.48], [6496, 1, 36, 2.13], [2424, 29, 31, 4.2], [10388, 2, 200, 5.45], [5946, 1, 114, 3.04], [8676, 2, 263, 4.57], [1339, 3, 607, 1.79], [1703, 2, 150, 3.36], [11490, 1, 100, 2.17], [2805, 137, 166, 3.98], [24257, 1, 55, 2.4], [13893, 2, 252, 3.67], [6097, 80, 63, 2.98], [37, 1, 26, 4.35], [6805, 1, 379, 3.09], [7567, 3, 16, 4.21], [22247, 2, 262, 3.94], [1414, 15, 46, 2.03], [9784, 1, 66, 4.18], [11814, 1, 207, 2.34], [38, 1, 93, 3.65], [35, 1, 26, 4.3], [95, 3, 943, 2.96], [1274, 1, 69, 3.39], [23611, 3, 323, 2.17], [10386, 2, 200, 5.3], [1895, 3, 250, 6.0], [8104, 1, 71, 3.74], [12212, 29, 111, 2.32], [413, 1, 79, 2.69], [3979, 3, 681, 2.89], [8283, 2, 437, 2.61], [114, 3, 56, 4.15], [10780, 10, 328, 5.49], [12979, 25, 606, 2.79], [76, 2, 101, 2.32], [8659, 1, 101, 3.77], [9065, 2, 277, 3.04], [12501, 1, 274, 3.82], [440, 3, 45, 3.57], [4232, 80, 137, 5.0], [418, 2, 131, 2.46], [19931, 1, 376, 3.85], [83, 2, 19, 1.93]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [6936, 2, 9, 3.69], [616, 2, 7, 0.87], [88, 10, 14, 0.73], [144, 2, 7, 2.72], [8648, 2, 9, 2.71], [8915, 2, 8, 0.74], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 11, 1.29], [3893, 1, 7, 1.28], [141, 2, 7, 2.08], [7004, 1, 7, 1.94], [3840, 1, 7, 0.75], [3891, 1, 7, 1.02], [2050, 3, 7, 3.31], [146, 2, 7, 2.56], [3889, 1, 7, 1.02], [2055, 3, 7, 3.41], [143, 2, 7, 1.48], [3980, 4, 7, 2.36], [10, 2, 7, 1.29], [7885, 4, 7, 1.27], [8672, 2, 11, 2.68], [2054, 3, 7, 3.66], [7886, 4, 7, 1.73], [12870, 1, 7, 4.21], [2057, 3, 6, 3.52], [5165, 1, 7, 4.43], [3975, 4, 7, 2.49], [159, 3, 8, 1.02], [7084, 3, 7, 1.94], [145, 2, 7, 2.48], [523, 2, 7, 1.98], [21793, 1, 7, 1.02], [75, 2, 7, 0.89], [7005, 1, 7, 1.42], [3981, 3, 21, 2.03], [9760, 29, 7, 1.36], [3982, 3, 17, 2.85], [20927, 1, 7, 2.25], [6158, 2, 27, 2.25], [33, 1, 11, 4.03], [997, 2, 9, 4.26], [214, 3, 16, 0.74], [5165, 2, 8, 3.91], [2912, 1, 7, 3.11], [7887, 4, 7, 2.25], [22316, 3, 7, 1.48], [11953, 1, 7, 1.4], [229, 1, 7, 2.31], [998, 2, 9, 4.5], [35, 1, 11, 4.03], [346, 3, 7, 1.38], [6497, 1, 7, 0.87], [389, 4, 7, 2.77], [996, 2, 9, 3.58], [1492, 1, 7, 1.48], [972, 3, 11, 4.56], [955, 2, 7, 1.41], [11490, 1, 7, 1.02], [6496, 1, 7, 1.56], [74, 1, 7, 2.3], [2336, 3, 8, 0.81], [22317, 3, 7, 1.42], [1413, 15, 7, 1.12], [4176, 4, 7, 3.75], [2912, 2, 8, 3.02], [336, 15, 7, 1.91], [12212, 29, 7, 0.96], [192, 3, 18, 3.13], [7573, 1, 11, 4.14], [8677, 3, 7, 3.07], [39, 1, 7, 1.79], [37, 1, 7, 1.77], [11085, 2, 8, 3.16], [201, 3, 9, 2.36], [345, 3, 7, 0.98], [1277, 1, 7, 1.54], [8676, 2, 7, 1.94], [1274, 1, 7, 1.29], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 1.35], [6494, 1, 7, 0.87], [10388, 2, 7, 2.82], [3, 2, 7, 2.35], [10408, 10, 10, 3.18], [202, 2, 7, 1.68], [10936, 2, 7, 3.27], [36, 1, 7, 2.23], [2805, 137, 8, 1.47], [3577, 25, 7, 1.14], [9, 1, 7, 0.96], [5812, 3, 7, 1.86], [11489, 1, 7, 0.96], [11812, 1, 7, 0.89], [1414, 15, 7, 1.0], [20498, 3, 8, 2.71], [3048, 3, 7, 2.73], [9691, 1, 7, 2.41], [8675, 2, 7, 2.91], [9372, 1, 7, 2.6], [346, 1, 7, 1.56], [13928, 1, 7, 2.9], [12225, 1, 7, 2.19], [10386, 2, 7, 1.91], [12764, 2, 10, 1.46], [13893, 2, 7, 4.76], [13280, 1, 7, 2.32], [11814, 1, 7, 0.92], [8898, 3, 7, 4.45], [11089, 1, 7, 0.73], [10407, 10, 10, 2.41], [3576, 25, 7, 1.51], [491, 10, 10, 1.57], [13035, 3, 7, 2.54], [972, 1, 7, 1.51], [9069, 1, 7, 1.42], [10939, 2, 7, 3.72], [8659, 1, 7, 3.43], [19931, 1, 9, 2.43], [11087, 2, 7, 2.51], [2438, 2, 8, 3.7], [958, 2, 7, 0.9], [3577, 29, 7, 1.29], [23611, 3, 9, 0.99], [1523, 1, 7, 2.08], [22317, 3, 257, 3.38], [1413, 15, 24, 2.52], [4176, 4, 391, 5.2], [2912, 2, 358, 4.38], [336, 15, 80, 3.27], [12212, 29, 115, 2.32], [192, 3, 1045, 5.54], [7573, 1, 333, 5.5], [8677, 3, 238, 4.51], [39, 1, 82, 3.74], [37, 1, 82, 3.22], [11085, 2, 435, 5.15], [201, 3, 220, 4.31], [345, 3, 220, 2.92], [1277, 1, 184, 2.9], [8676, 2, 273, 3.3], [1274, 1, 78, 2.65], [21269, 3, 238, 6.0], [13023, 3, 563, 3.8], [12271, 2, 61, 2.71], [6494, 1, 39, 2.81], [10388, 2, 175, 4.71], [3, 2, 91, 3.8], [10408, 10, 563, 5.14], [202, 2, 26, 2.72], [10936, 2, 127, 4.63], [36, 1, 82, 3.58], [2805, 137, 176, 2.83], [3577, 25, 66, 3.09], [9, 1, 33, 2.32], [5812, 3, 442, 3.82], [11489, 1, 104, 2.32], [11812, 1, 177, 2.83], [1414, 15, 24, 1.77], [20498, 3, 430, 4.65], [3048, 3, 199, 4.09], [8675, 2, 273, 4.27], [9372, 1, 216, 3.96], [346, 1, 114, 3.01], [13928, 1, 44, 4.26], [12225, 1, 157, 3.55], [10386, 2, 206, 3.27], [12764, 2, 549, 3.42], [13893, 2, 255, 6.0], [13280, 1, 303, 3.68], [11814, 1, 166, 2.87], [8898, 3, 269, 5.81], [11089, 1, 164, 2.09], [10407, 10, 1149, 3.76], [3576, 25, 96, 2.87], [491, 10, 324, 4.01], [13035, 3, 286, 3.9], [972, 1, 94, 2.86], [9069, 1, 117, 2.78], [10939, 2, 127, 5.08], [8659, 1, 114, 4.79], [19931, 1, 301, 4.38], [11087, 2, 512, 3.87], [2438, 2, 599, 5.06], [958, 2, 103, 2.25], [3577, 29, 28, 2.64], [23611, 3, 333, 2.36], [1523, 1, 45, 3.44]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.81], [130, 1, 7, 1.86], [2327, 2, 11, 1.82], [589, 2, 9, 0.95], [8672, 2, 15, 1.9], [326, 2, 7, 3.12], [6935, 2, 23, 4.24], [206, 2, 7, 0.77], [142, 2, 7, 1.37], [11837, 2, 7, 1.06], [11838, 2, 11, 1.02], [6936, 2, 7, 3.06], [12721, 2, 11, 1.45], [8915, 2, 7, 1.21], [2049, 3, 37, 1.73], [1446, 2, 9, 0.74], [2778, 2, 13, 1.84], [8676, 2, 7, 1.0], [615, 2, 7, 0.85], [305, 2, 7, 2.39], [593, 2, 8, 0.84], [616, 2, 7, 0.87], [21793, 1, 8, 2.18], [413, 1, 7, 1.71], [11835, 2, 7, 1.06], [411, 2, 7, 0.83], [412, 1, 7, 1.92], [10574, 3, 9, 2.89], [12349, 1, 7, 1.03], [8675, 2, 11, 1.94], [145, 2, 13, 2.63], [8673, 2, 9, 2.91], [143, 2, 7, 1.1], [6158, 2, 9, 2.18], [151, 1, 7, 0.9], [11836, 2, 7, 1.36], [10149, 3, 21, 1.49], [3495, 3, 21, 1.51], [2050, 3, 7, 0.64], [2055, 3, 7, 2.55], [146, 2, 7, 2.81], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [7885, 4, 9, 1.86], [88, 10, 16, 3.31], [416, 1, 7, 1.54], [144, 2, 7, 1.04], [7084, 3, 7, 2.01], [2859, 15, 7, 1.61], [21798, 1, 7, 1.15], [10993, 2, 7, 0.75], [346, 3, 8, 0.82], [335, 3, 17, 4.35], [2424, 29, 7, 4.47], [7705, 2, 7, 2.62], [2423, 80, 7, 1.56], [2423, 29, 7, 1.56], [3848, 2, 7, 2.06], [7704, 2, 7, 2.62], [5165, 1, 7, 4.43], [13023, 3, 10, 2.77], [346, 1, 7, 0.67], [1519, 3, 16, 0.68], [201, 3, 7, 2.66], [2424, 80, 7, 4.47], [60, 3, 10, 4.24], [1414, 15, 7, 0.79], [410, 1, 7, 0.73], [6494, 1, 7, 0.9], [345, 3, 7, 2.81], [13034, 3, 8, 2.41], [11490, 1, 7, 0.89], [5208, 3, 13, 0.87], [11770, 1, 7, 0.75], [432, 3, 11, 4.94], [3430, 15, 7, 1.84], [11954, 1, 7, 2.23], [2703, 3, 7, 3.23], [6952, 1, 7, 1.12], [7004, 1, 7, 0.81], [7706, 2, 9, 2.62], [20927, 1, 7, 1.35], [3429, 15, 7, 0.81], [114, 3, 7, 1.1], [308, 1, 9, 2.95], [7886, 4, 8, 1.31], [1886, 2, 7, 0.79], [105, 3, 7, 1.05], [11811, 1, 7, 1.93], [13928, 1, 7, 2.9], [2331, 1, 7, 1.0], [11089, 1, 7, 0.81], [94, 4, 7, 3.81], [3981, 3, 13, 0.91], [944, 15, 7, 0.79], [10407, 10, 10, 2.08], [5584, 3, 7, 5.0], [1490, 1, 7, 3.83], [8274, 3, 7, 3.88], [11674, 1, 7, 1.67], [3, 2, 7, 0.79], [22317, 3, 8, 0.72], [13033, 3, 7, 1.19], [952, 4, 7, 3.47], [10410, 10, 10, 2.16], [9690, 1, 7, 1.37], [7708, 2, 7, 2.62], [9342, 2, 7, 0.93], [1339, 3, 17, 0.78], [10409, 10, 11, 2.3], [202, 2, 7, 1.13], [21003, 2, 7, 3.61], [8898, 3, 7, 3.13], [10398, 2, 7, 1.81], [5812, 3, 7, 2.91], [957, 2, 7, 0.71], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [823, 1, 7, 3.23], [6497, 1, 7, 0.85], [20969, 3, 7, 1.66], [10516, 3, 15, 0.67], [9082, 3, 24, 2.83], [186, 3, 12, 1.02], [20196, 2, 7, 3.8], [11677, 1, 7, 1.98], [4253, 1, 7, 1.41], [3980, 4, 7, 2.98], [7703, 2, 7, 2.62], [20555, 2, 7, 0.96], [3478, 2, 7, 1.48], [20682, 1, 7, 1.29], [6630, 3, 7, 3.58], [5165, 2, 8, 3.91], [8897, 3, 7, 3.1], [13034, 3, 543, 3.98], [11490, 1, 72, 2.36], [5208, 3, 223, 2.1], [11770, 1, 203, 2.32], [3430, 15, 63, 3.42], [11954, 1, 132, 3.69], [2703, 3, 282, 4.8], [6952, 1, 174, 2.7], [7004, 1, 73, 2.38], [7706, 2, 152, 4.9], [20927, 1, 42, 2.73], [3429, 15, 21, 2.03], [114, 3, 161, 3.38], [308, 1, 144, 5.0], [1886, 2, 145, 2.36], [105, 3, 161, 3.32], [11811, 1, 414, 3.51], [13928, 1, 43, 4.47], [2331, 1, 109, 2.57], [11089, 1, 159, 2.38], [94, 4, 107, 5.38], [3981, 3, 1545, 2.51], [944, 15, 12, 1.71], [10407, 10, 1103, 3.67], [5584, 3, 210, 6.0], [1490, 1, 45, 5.4], [11674, 1, 162, 3.2], [3, 2, 110, 2.36], [22317, 3, 293, 2.29], [13033, 3, 543, 2.75], [952, 4, 67, 5.04], [10410, 10, 1103, 3.76], [9690, 1, 40, 2.75], [7708, 2, 163, 4.19], [9342, 2, 122, 1.85], [1339, 3, 461, 1.67], [10409, 10, 1638, 3.88], [202, 2, 19, 2.04], [21003, 2, 261, 5.19], [8898, 3, 257, 4.7], [10398, 2, 134, 3.38], [5812, 3, 543, 4.48], [957, 2, 99, 2.28], [95, 3, 974, 4.29], [963, 3, 360, 5.57], [823, 1, 36, 4.81], [6497, 1, 35, 2.42], [20969, 3, 541, 3.24], [10516, 3, 549, 2.23], [9082, 3, 2253, 4.42], [186, 3, 611, 2.6], [20196, 2, 261, 5.37], [11677, 1, 413, 3.56], [4253, 1, 158, 2.98], [3980, 4, 413, 4.79], [7703, 2, 163, 4.19], [20555, 2, 53, 2.53], [3478, 2, 40, 2.86], [20682, 1, 572, 2.86], [6630, 3, 86, 5.16], [5165, 2, 343, 5.49], [8897, 3, 257, 4.68]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 1.9], [615, 2, 9, 1.23], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.16], [2328, 2, 11, 1.85], [11681, 2, 13, 3.75], [5491, 2, 11, 0.61], [205, 2, 7, 1.24], [8650, 2, 14, 4.13], [11835, 2, 7, 1.06], [144, 2, 7, 2.11], [8673, 2, 11, 2.44], [8676, 2, 9, 1.6], [308, 1, 11, 1.77], [417, 2, 9, 1.75], [11837, 2, 7, 1.06], [3, 2, 7, 1.77], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [6497, 1, 7, 0.85], [11836, 2, 9, 0.94], [990, 2, 7, 1.41], [593, 2, 12, 0.89], [6097, 29, 7, 5.0], [523, 2, 7, 1.27], [6098, 80, 9, 5.0], [11739, 2, 7, 1.04], [88, 10, 21, 1.51], [12350, 1, 7, 5.0], [8915, 2, 9, 0.71], [2054, 3, 9, 1.53], [326, 2, 7, 2.6], [13260, 29, 7, 2.28], [3429, 15, 7, 0.69], [75, 2, 7, 1.84], [336, 15, 7, 0.75], [1413, 15, 7, 1.49], [1492, 1, 7, 2.1], [411, 2, 7, 1.46], [6098, 29, 7, 5.0], [1050, 2, 7, 0.73], [1339, 3, 17, 0.78], [2422, 80, 7, 2.17], [6496, 1, 7, 2.07], [214, 3, 15, 2.7], [947, 15, 7, 0.85], [7704, 2, 7, 2.88], [10149, 3, 21, 2.21], [346, 1, 7, 0.67], [2859, 15, 7, 1.87], [346, 3, 8, 0.82], [345, 3, 7, 2.67], [11738, 2, 7, 1.54], [13264, 29, 7, 1.5], [13258, 29, 13, 2.5], [1490, 1, 7, 2.87], [1243, 2, 7, 2.14], [7004, 1, 7, 2.06], [229, 1, 7, 2.07], [5208, 3, 13, 1.47], [201, 3, 7, 3.06], [22558, 3, 9, 1.74], [10407, 10, 10, 2.08], [13259, 29, 11, 1.45], [2331, 1, 7, 1.0], [432, 3, 7, 2.04], [7705, 2, 7, 2.88], [12229, 2, 7, 0.87], [7706, 2, 7, 2.88], [418, 2, 7, 0.96], [114, 3, 7, 1.1], [957, 2, 7, 1.56], [13928, 1, 7, 2.9], [1163, 3, 7, 2.79], [3478, 2, 7, 1.48], [11844, 2, 7, 1.21], [8938, 2, 7, 0.83], [7036, 1, 7, 0.87], [9784, 1, 7, 2.81], [11490, 1, 7, 1.02], [11687, 2, 7, 1.52], [11404, 2, 7, 0.92], [2703, 3, 7, 3.23], [410, 1, 7, 1.21], [12348, 1, 7, 2.69], [13258, 25, 7, 2.3], [1886, 2, 7, 0.67], [19687, 1, 7, 2.33], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [12870, 1, 7, 3.68], [413, 1, 7, 3.23], [11690, 2, 7, 1.0], [956, 2, 7, 1.02], [7708, 2, 7, 2.88], [11161, 1, 10, 2.64], [11159, 1, 14, 3.5], [9760, 29, 7, 1.64], [11689, 2, 7, 1.48], [22125, 2, 7, 0.69], [5976, 1, 7, 4.23], [12373, 1, 11, 2.99], [105, 3, 7, 1.05], [21781, 2, 7, 0.9], [2991, 3, 7, 4.45], [1274, 1, 7, 3.79], [7005, 1, 7, 1.56], [5584, 3, 7, 5.0], [2805, 137, 10, 4.42], [9209, 29, 7, 1.41], [11811, 1, 7, 1.93], [3495, 3, 21, 1.51], [13259, 25, 7, 1.43], [11489, 1, 7, 1.96], [4253, 1, 7, 1.41], [8285, 2, 8, 0.85], [20927, 1, 7, 1.35], [8600, 1, 7, 1.84], [9372, 1, 7, 3.35], [247, 1, 7, 2.77], [10147, 1, 7, 0.69], [12764, 2, 8, 1.71], [21269, 3, 7, 3.75], [3722, 25, 8, 0.67], [9491, 21, 16, 3.25], [7007, 1, 7, 1.56], [11887, 2, 7, 1.1], [5076, 1, 7, 2.19], [6360, 10, 15, 1.18], [2331, 1, 109, 2.57], [432, 3, 276, 3.61], [7705, 2, 162, 4.45], [12229, 2, 131, 3.15], [7706, 2, 162, 4.45], [418, 2, 130, 2.53], [114, 3, 224, 2.67], [957, 2, 78, 3.71], [13928, 1, 43, 4.47], [3478, 2, 40, 2.86], [11844, 2, 253, 2.78], [8938, 2, 176, 2.4], [7036, 1, 117, 2.44], [9784, 1, 57, 4.34], [11490, 1, 100, 2.59], [11687, 2, 277, 3.1], [11404, 2, 96, 2.49], [2703, 3, 282, 4.8], [410, 1, 69, 2.68], [12348, 1, 555, 4.27], [13258, 25, 72, 3.87], [1886, 2, 145, 2.24], [19687, 1, 28, 3.9], [9065, 2, 277, 3.19], [94, 4, 105, 3.44], [12870, 1, 128, 5.25], [413, 1, 78, 4.8], [11690, 2, 277, 2.58], [956, 2, 98, 2.59], [7708, 2, 162, 4.45], [11161, 1, 458, 4.22], [11159, 1, 454, 5.08], [9760, 29, 66, 3.21], [11689, 2, 277, 3.06], [22125, 2, 25, 1.91], [5976, 1, 142, 5.8], [12373, 1, 489, 4.56], [105, 3, 224, 2.61], [21781, 2, 82, 2.43], [2991, 3, 147, 6.0], [1274, 1, 74, 5.36], [7005, 1, 31, 2.78], [5584, 3, 210, 6.0], [2805, 137, 167, 5.99], [9209, 29, 30, 2.98], [11811, 1, 414, 3.51], [3495, 3, 886, 3.08], [13259, 25, 64, 3.0], [4253, 1, 148, 3.69], [8285, 2, 443, 2.43], [20927, 1, 42, 2.73], [8600, 1, 133, 3.41], [9372, 1, 209, 4.92], [247, 1, 79, 4.34], [10147, 1, 62, 2.26], [12764, 2, 680, 3.27], [21269, 3, 270, 5.32], [3722, 25, 53, 1.59], [9491, 21, 1833, 4.81], [7007, 1, 31, 2.78], [11887, 2, 177, 2.67], [5076, 1, 120, 3.76], [6360, 10, 680, 2.74]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [362, 2, 7, 1.93], [361, 2, 9, 1.99], [12721, 2, 17, 3.77], [6935, 2, 19, 5.0], [206, 2, 7, 0.77], [8676, 2, 7, 1.6], [8675, 2, 9, 1.95], [2049, 3, 17, 0.71], [3, 2, 7, 1.13], [22247, 2, 7, 1.83], [305, 2, 7, 1.51], [523, 2, 7, 1.27], [8650, 2, 9, 2.94], [11838, 2, 7, 0.79], [8648, 2, 7, 2.52], [2328, 2, 7, 2.23], [2776, 2, 7, 1.38], [11739, 2, 9, 0.98], [2327, 2, 7, 1.48], [11837, 2, 7, 1.37], [411, 2, 7, 0.73], [12352, 1, 7, 4.99], [589, 2, 7, 1.17], [412, 1, 7, 2.06], [143, 2, 7, 0.98], [11835, 2, 7, 0.94], [146, 2, 7, 2.01], [583, 2, 7, 1.56], [6097, 80, 7, 5.0], [326, 2, 7, 2.23], [10149, 3, 21, 1.49], [145, 2, 7, 1.71], [11836, 2, 7, 1.54], [6097, 29, 7, 1.77], [144, 2, 7, 0.94], [10574, 3, 10, 2.86], [75, 2, 7, 1.67], [12344, 1, 7, 2.59], [6496, 1, 7, 2.64], [6494, 1, 7, 0.9], [2054, 3, 7, 2.83], [1413, 15, 7, 0.89], [6098, 80, 7, 2.22], [8915, 2, 7, 1.25], [1243, 2, 7, 1.91], [1886, 2, 23, 1.92], [21793, 1, 8, 2.18], [944, 15, 7, 0.77], [6098, 29, 7, 2.56], [1492, 1, 7, 0.9], [247, 1, 7, 3.68], [3429, 15, 7, 0.67], [2859, 15, 7, 0.75], [1490, 1, 7, 0.85], [1414, 15, 7, 0.67], [201, 3, 7, 0.85], [6158, 2, 9, 2.18], [3478, 2, 7, 1.48], [308, 1, 14, 1.41], [13928, 1, 7, 2.9], [336, 15, 7, 0.75], [7084, 3, 7, 2.01], [11489, 1, 7, 1.49], [3982, 3, 24, 0.66], [1703, 2, 7, 1.57], [12526, 2, 7, 2.02], [9342, 2, 7, 0.93], [5812, 3, 9, 3.96], [186, 3, 12, 1.02], [11490, 1, 7, 0.92], [4253, 1, 7, 1.41], [94, 4, 7, 0.75], [5813, 3, 10, 3.68], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [2821, 3, 13, 0.91], [5939, 3, 7, 0.9], [8599, 1, 7, 2.99], [11811, 1, 7, 1.93], [229, 1, 7, 3.29], [3980, 4, 7, 2.98], [8943, 3, 7, 1.0], [11771, 1, 7, 1.31], [8898, 3, 6, 5.0], [1339, 3, 17, 0.78], [3495, 3, 21, 1.51], [2991, 3, 7, 4.63], [1049, 2, 7, 0.69], [12764, 2, 8, 1.71], [346, 3, 8, 0.82], [13928, 2, 7, 2.9], [19687, 1, 7, 2.33], [192, 3, 15, 4.24], [7036, 1, 7, 0.87], [9690, 1, 7, 1.54], [22573, 2, 7, 1.91], [5584, 3, 7, 5.0], [10124, 1, 7, 4.18], [105, 3, 7, 0.73], [8897, 3, 7, 5.0], [8274, 3, 7, 3.33], [18964, 1, 7, 2.71], [11886, 2, 7, 1.44], [10147, 1, 7, 0.69], [3334, 5, 7, 3.87], [1701, 2, 7, 1.06], [1277, 1, 7, 0.85], [1523, 1, 7, 2.0], [20927, 1, 7, 1.28], [4001, 3, 24, 1.7], [8635, 3, 7, 3.33], [8286, 2, 8, 0.63], [1274, 1, 7, 3.93], [23275, 2, 7, 1.91], [11678, 1, 7, 1.98], [10516, 3, 15, 3.0], [13260, 29, 7, 2.28], [23031, 3, 7, 2.73], [3984, 3, 8, 1.07], [11677, 1, 7, 1.98], [3979, 3, 8, 1.56], [9065, 2, 7, 1.62], [45, 2, 7, 4.22], [21269, 3, 7, 3.75], [10181, 26, 8, 0.81], [346, 1, 7, 0.67], [9373, 5, 7, 1.87], [11690, 2, 7, 1.0], [973, 3, 8, 1.13], [9069, 1, 7, 1.44], [5976, 1, 7, 4.23], [7005, 1, 7, 1.42], [8285, 2, 8, 0.85], [5812, 3, 503, 6.0], [186, 3, 611, 2.6], [11490, 1, 43, 2.14], [4253, 1, 158, 2.98], [94, 4, 113, 2.33], [5813, 3, 503, 5.8], [10398, 2, 135, 2.9], [5811, 3, 459, 6.0], [2821, 3, 1053, 2.45], [5939, 3, 246, 2.47], [8599, 1, 133, 4.56], [11811, 1, 414, 3.51], [229, 1, 74, 4.86], [3980, 4, 413, 4.79], [8943, 3, 351, 2.57], [11771, 1, 183, 2.89], [8898, 3, 245, 6.0], [1339, 3, 461, 1.67], [3495, 3, 886, 3.08], [2991, 3, 138, 6.0], [12764, 2, 680, 3.27], [346, 3, 566, 2.39], [13928, 2, 21, 4.47], [19687, 1, 28, 3.9], [192, 3, 1093, 6.0], [7036, 1, 117, 2.44], [9690, 1, 40, 2.92], [22573, 2, 65, 3.48], [5584, 3, 210, 6.0], [10124, 1, 92, 5.75], [105, 3, 226, 2.3], [8897, 3, 245, 6.0], [11886, 2, 177, 3.01], [10147, 1, 62, 2.26], [3334, 5, 167, 5.44], [1701, 2, 155, 2.63], [1277, 1, 180, 2.42], [1523, 1, 43, 3.57], [20927, 1, 42, 2.66], [4001, 3, 741, 3.26], [8286, 2, 127, 1.55], [1274, 1, 74, 5.5], [23275, 2, 65, 3.48], [11678, 1, 408, 3.55], [10516, 3, 541, 4.58], [13260, 29, 67, 3.85], [23031, 3, 378, 4.29], [3984, 3, 1523, 2.65], [11677, 1, 413, 3.56], [3979, 3, 741, 3.12], [9065, 2, 277, 3.19], [45, 2, 103, 5.79], [21269, 3, 270, 5.32], [10181, 26, 128, 2.38], [346, 1, 142, 2.24], [9373, 5, 78, 3.44], [11690, 2, 277, 2.58], [973, 3, 1092, 2.71], [9069, 1, 111, 3.01], [5976, 1, 142, 5.8], [7005, 1, 31, 2.64], [8285, 2, 443, 2.43]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [8672, 2, 12, 1.94], [8650, 2, 9, 2.32], [248, 1, 7, 0.66], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [205, 2, 7, 1.24], [11681, 2, 13, 3.43], [417, 2, 9, 1.34], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [1124, 2, 15, 0.74], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [206, 2, 6, 0.74], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [1005, 2, 7, 2.48], [11835, 2, 7, 0.69], [144, 2, 7, 1.34], [8915, 2, 11, 2.38], [308, 1, 11, 1.77], [88, 10, 21, 1.51], [434, 2, 7, 0.85], [11739, 2, 9, 2.98], [6158, 2, 12, 1.0], [11234, 2, 11, 1.06], [2424, 29, 7, 4.47], [11738, 2, 7, 1.88], [2423, 29, 7, 1.56], [7704, 2, 7, 2.88], [11836, 2, 9, 1.36], [2424, 80, 7, 4.47], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [2054, 3, 9, 1.93], [7706, 2, 9, 4.08], [10574, 3, 10, 3.86], [2423, 80, 7, 1.56], [3, 2, 9, 1.94], [412, 1, 7, 2.06], [2859, 15, 7, 3.6], [3478, 2, 9, 3.17], [12720, 2, 7, 1.89], [10149, 3, 21, 2.64], [74, 1, 7, 3.14], [12343, 1, 7, 3.02], [346, 3, 8, 0.82], [11919, 1, 7, 2.91], [1339, 3, 17, 0.78], [60, 3, 10, 3.75], [6497, 1, 7, 0.85], [346, 1, 7, 0.67], [418, 2, 7, 1.16], [13928, 1, 7, 2.9], [411, 2, 7, 0.74], [13034, 3, 11, 2.28], [18964, 1, 7, 1.52], [13028, 3, 7, 1.96], [11089, 1, 7, 0.81], [10993, 2, 7, 2.86], [413, 1, 7, 3.23], [13260, 29, 7, 2.75], [7036, 1, 7, 1.79], [94, 4, 9, 4.31], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [14037, 3, 9, 2.38], [7707, 2, 7, 2.41], [2991, 3, 7, 4.18], [22317, 3, 14, 0.85], [21793, 1, 8, 4.0], [7708, 2, 7, 2.98], [3889, 1, 7, 4.33], [345, 3, 7, 2.93], [6630, 3, 7, 4.62], [11490, 1, 7, 1.02], [5208, 3, 13, 0.87], [1243, 2, 7, 2.33], [1490, 1, 7, 3.83], [2912, 1, 7, 3.02], [3495, 3, 21, 1.51], [563, 2, 7, 1.79], [229, 1, 7, 2.07], [20680, 1, 7, 1.78], [1049, 2, 7, 0.69], [336, 15, 7, 0.98], [6627, 3, 7, 0.85], [5940, 3, 9, 0.75], [12229, 2, 7, 0.87], [192, 3, 15, 4.24], [11581, 29, 7, 1.89], [13033, 3, 7, 2.22], [23275, 2, 7, 1.91], [2331, 1, 7, 1.23], [1274, 1, 7, 3.02], [2805, 137, 10, 3.08], [247, 1, 7, 2.98], [5165, 1, 7, 4.43], [201, 3, 7, 4.28], [8635, 3, 7, 1.14], [114, 3, 7, 3.33], [942, 3, 9, 1.76], [11914, 1, 7, 0.79], [6496, 1, 7, 2.98], [8898, 3, 7, 3.01], [6629, 3, 7, 0.9], [1703, 2, 7, 0.9], [7886, 4, 8, 0.97], [11770, 1, 7, 3.02], [5812, 3, 7, 2.49], [9372, 1, 7, 3.35], [3934, 5, 11, 1.13], [9760, 29, 7, 3.77], [202, 2, 7, 1.79], [21269, 3, 7, 2.59], [186, 3, 15, 2.32], [332, 2, 7, 1.79], [951, 4, 7, 2.96], [83, 2, 7, 1.1], [4940, 1, 7, 0.69], [10527, 3, 13, 3.97], [6360, 10, 15, 2.01], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [21781, 2, 7, 0.9], [12373, 1, 11, 2.99], [9082, 3, 24, 2.83], [20927, 1, 7, 1.35], [5584, 3, 7, 5.0], [13498, 3, 7, 3.06], [12870, 1, 7, 3.35], [7036, 1, 110, 4.02], [94, 4, 64, 5.69], [6952, 1, 136, 5.34], [3891, 1, 106, 4.71], [7707, 2, 152, 3.98], [2991, 3, 137, 6.0], [22317, 3, 249, 3.63], [21793, 1, 175, 6.0], [7708, 2, 152, 4.9], [3889, 1, 32, 6.0], [345, 3, 214, 4.71], [6630, 3, 68, 6.0], [11490, 1, 100, 2.59], [5208, 3, 223, 2.1], [1490, 1, 45, 5.4], [2912, 1, 43, 4.6], [3495, 3, 886, 3.08], [563, 2, 19, 2.71], [229, 1, 75, 3.64], [20680, 1, 566, 3.35], [6627, 3, 68, 3.13], [5940, 3, 180, 2.44], [12229, 2, 131, 3.15], [192, 3, 1093, 6.0], [11581, 29, 55, 3.46], [13033, 3, 546, 3.8], [23275, 2, 65, 3.48], [2331, 1, 109, 2.8], [1274, 1, 74, 4.59], [2805, 137, 168, 4.65], [247, 1, 80, 4.55], [5165, 1, 43, 6.0], [201, 3, 272, 5.85], [942, 3, 252, 4.54], [11914, 1, 74, 3.07], [6496, 1, 34, 4.55], [8898, 3, 240, 4.79], [6629, 3, 62, 2.43], [1703, 2, 153, 2.47], [11770, 1, 182, 4.59], [5812, 3, 500, 4.76], [9372, 1, 209, 4.92], [3934, 5, 538, 2.71], [202, 2, 19, 2.71], [21269, 3, 250, 4.37], [186, 3, 513, 4.42], [332, 2, 19, 2.71], [951, 4, 86, 4.54], [83, 2, 14, 2.02], [4940, 1, 111, 2.26], [10527, 3, 687, 5.51], [6360, 10, 291, 3.8], [5811, 3, 538, 3.96], [1886, 2, 144, 2.42], [21781, 2, 82, 2.43], [12373, 1, 489, 4.56], [9082, 3, 2253, 4.42], [20927, 1, 42, 2.73], [5584, 3, 210, 6.0], [13498, 3, 552, 4.63], [12870, 1, 125, 4.92]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [2327, 2, 9, 1.37], [11681, 2, 30, 4.17], [362, 2, 11, 1.69], [8648, 2, 9, 3.55], [8650, 2, 11, 4.78], [305, 2, 11, 3.03], [326, 2, 9, 2.4], [205, 2, 7, 1.64], [2328, 2, 7, 2.1], [1446, 2, 7, 0.92], [2049, 3, 11, 0.75], [130, 1, 9, 1.81], [2775, 2, 9, 1.33], [361, 2, 7, 1.61], [8853, 2, 14, 4.03], [593, 2, 9, 1.46], [143, 2, 7, 1.77], [140, 2, 7, 1.47], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [7004, 1, 9, 1.21], [413, 1, 7, 1.27], [21793, 1, 7, 3.18], [12350, 1, 7, 0.97], [1124, 2, 7, 1.09], [151, 1, 7, 1.53], [7036, 1, 7, 2.61], [990, 2, 9, 1.44], [5165, 1, 7, 4.43], [12349, 1, 7, 3.68], [145, 2, 7, 2.68], [201, 3, 23, 4.06], [248, 1, 7, 0.76], [8089, 1, 7, 2.62], [6952, 1, 9, 3.04], [6097, 80, 7, 5.0], [2050, 3, 9, 3.0], [2055, 3, 9, 2.33], [345, 3, 9, 2.18], [144, 2, 7, 0.94], [10993, 2, 7, 0.79], [7084, 3, 7, 5.0], [11770, 1, 7, 0.9], [2057, 3, 9, 2.33], [3891, 1, 7, 1.46], [2912, 1, 7, 1.66], [5165, 2, 12, 4.19], [998, 2, 11, 1.31], [3893, 1, 7, 1.21], [9372, 1, 7, 3.47], [12870, 1, 7, 1.58], [12343, 1, 7, 3.68], [7885, 4, 7, 1.91], [2424, 80, 7, 4.14], [12351, 1, 7, 3.68], [6098, 80, 7, 3.64], [6097, 29, 9, 5.0], [20927, 1, 9, 1.16], [10574, 3, 8, 2.79], [6158, 2, 9, 2.08], [3334, 5, 7, 2.0], [12345, 1, 7, 3.68], [11089, 1, 9, 1.67], [10149, 3, 24, 2.61], [1492, 1, 7, 1.08], [2912, 2, 8, 1.27], [3889, 1, 7, 1.21], [4032, 29, 7, 1.21], [12304, 1, 7, 2.06], [972, 3, 7, 1.94], [3576, 25, 9, 2.28], [1700, 2, 7, 1.34], [411, 2, 7, 1.79], [13034, 3, 7, 3.03], [2331, 1, 7, 1.94], [11583, 29, 9, 0.76], [229, 1, 7, 3.98], [11426, 25, 7, 0.98], [5151, 2, 7, 2.95], [11490, 1, 7, 1.79], [995, 2, 7, 1.98], [3, 2, 9, 1.12], [8677, 3, 8, 2.63], [12764, 2, 9, 1.86], [2160, 68, 7, 1.96], [3478, 2, 7, 2.16], [13893, 2, 7, 3.45], [2805, 137, 7, 2.45], [3575, 25, 7, 1.49], [13023, 3, 8, 2.67], [13280, 1, 7, 2.1], [5812, 3, 7, 4.34], [6494, 1, 7, 2.91], [3577, 25, 7, 0.87], [11814, 1, 7, 0.92], [4253, 1, 7, 2.71], [11813, 1, 7, 3.42], [2438, 2, 8, 3.32], [75, 2, 7, 0.79], [9289, 29, 7, 2.91], [11404, 2, 7, 0.83], [9971, 2, 7, 3.67], [957, 2, 7, 2.25], [9967, 2, 7, 3.67], [1413, 15, 7, 0.87], [11150, 2, 8, 0.77], [22317, 3, 7, 0.85], [8283, 2, 8, 1.31], [9069, 1, 7, 1.54], [4586, 10, 16, 1.4], [5584, 3, 7, 2.66], [2878, 1, 7, 1.35], [114, 3, 7, 2.95], [9491, 21, 13, 2.57], [21697, 3, 7, 0.85], [11812, 1, 7, 0.79], [9964, 2, 7, 1.83], [9965, 2, 7, 2.61], [4076, 3, 7, 2.73], [10407, 10, 12, 2.29], [10609, 1, 7, 2.98], [336, 15, 7, 0.75], [1163, 3, 7, 2.79], [8926, 1, 7, 4.45], [12647, 1, 7, 1.49], [11739, 2, 7, 1.86], [13249, 29, 7, 2.23], [3495, 3, 16, 1.44], [11687, 2, 7, 0.73], [7324, 1, 7, 1.59], [11425, 25, 7, 0.98], [8285, 2, 7, 1.0], [4032, 29, 89, 2.65], [12304, 1, 97, 3.51], [972, 3, 552, 3.39], [3576, 25, 24, 4.65], [1700, 2, 67, 2.79], [13034, 3, 552, 4.48], [2331, 1, 109, 3.38], [11583, 29, 45, 3.26], [229, 1, 75, 5.43], [11426, 25, 110, 2.42], [5151, 2, 22, 4.4], [11490, 1, 25, 2.61], [995, 2, 225, 3.42], [3, 2, 90, 3.5], [8677, 3, 216, 4.08], [12764, 2, 687, 3.3], [2160, 68, 123, 3.4], [13893, 2, 251, 4.89], [2805, 137, 168, 3.9], [3575, 25, 74, 3.41], [13023, 3, 435, 4.16], [13280, 1, 297, 3.54], [5812, 3, 430, 5.78], [6494, 1, 46, 4.36], [3577, 25, 82, 2.32], [11814, 1, 209, 2.37], [4253, 1, 157, 4.15], [11813, 1, 288, 4.86], [2438, 2, 581, 4.77], [75, 2, 135, 2.24], [9289, 29, 59, 4.36], [11404, 2, 77, 2.75], [9971, 2, 251, 5.12], [957, 2, 37, 3.67], [9967, 2, 251, 5.12], [1413, 15, 92, 2.32], [11150, 2, 286, 2.18], [22317, 3, 299, 2.3], [8283, 2, 441, 2.76], [9069, 1, 114, 2.98], [4586, 10, 1075, 3.3], [5584, 3, 216, 4.1], [2878, 1, 60, 2.79], [114, 3, 56, 4.11], [9491, 21, 1951, 4.0], [21697, 3, 169, 2.29], [11812, 1, 222, 2.24], [9964, 2, 251, 3.28], [9965, 2, 251, 4.06], [4076, 3, 186, 4.18], [10407, 10, 1115, 3.71], [10609, 1, 265, 4.43], [336, 15, 26, 1.58], [8926, 1, 57, 5.9], [12647, 1, 204, 2.94], [11739, 2, 13, 2.68], [13249, 29, 59, 3.67], [3495, 3, 896, 2.89], [11687, 2, 142, 1.97], [7324, 1, 56, 3.03], [11425, 25, 110, 2.42], [8285, 2, 446, 2.45]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.41], [305, 2, 7, 1.49], [6935, 2, 19, 3.14], [2049, 3, 16, 0.77], [141, 2, 7, 0.75], [205, 2, 7, 0.86], [326, 2, 8, 1.03], [130, 1, 7, 1.71], [144, 2, 7, 0.96], [589, 2, 12, 0.67], [151, 1, 7, 0.89], [362, 2, 7, 2.54], [1776, 1, 7, 2.85], [146, 2, 7, 2.94], [145, 2, 7, 1.4], [206, 2, 7, 0.69], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [1777, 1, 7, 2.22], [6936, 2, 10, 2.57], [5151, 2, 7, 2.98], [8650, 2, 7, 3.16], [2778, 2, 9, 1.06], [22247, 2, 9, 2.65], [8677, 3, 8, 3.63], [10, 2, 11, 2.05], [76, 2, 11, 3.36], [10149, 3, 25, 3.26], [8649, 2, 7, 3.36], [2050, 3, 9, 1.52], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [361, 2, 7, 1.42], [413, 1, 7, 2.14], [7004, 1, 7, 0.77], [11404, 2, 9, 1.19], [411, 2, 7, 1.42], [410, 1, 7, 1.67], [3478, 2, 7, 2.36], [6158, 2, 12, 0.75], [308, 1, 7, 2.44], [167, 3, 11, 4.08], [5081, 2, 18, 1.5], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [5812, 3, 10, 5.0], [9827, 3, 7, 1.38], [94, 4, 7, 3.04], [3893, 1, 7, 1.06], [168, 3, 9, 1.09], [3889, 1, 7, 1.06], [10574, 3, 9, 2.33], [3891, 1, 7, 1.06], [2049, 1, 7, 0.77], [13280, 1, 7, 2.37], [12870, 1, 7, 5.0], [2336, 3, 8, 1.29], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 5.0], [6097, 80, 7, 5.0], [11737, 2, 7, 2.04], [95, 3, 21, 0.92], [998, 2, 9, 3.14], [346, 1, 7, 1.58], [20927, 1, 7, 2.0], [79, 1, 7, 0.73], [6098, 29, 9, 5.0], [22316, 3, 9, 0.97], [9069, 1, 7, 2.6], [6098, 80, 7, 5.0], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [8898, 3, 7, 4.48], [9760, 29, 7, 1.15], [346, 3, 8, 0.9], [997, 2, 9, 3.19], [20498, 1, 7, 2.44], [7887, 4, 9, 0.92], [13034, 3, 10, 2.48], [1622, 1, 12, 0.53], [8945, 3, 8, 2.29], [13260, 29, 7, 2.28], [22554, 10, 15, 0.87], [336, 15, 9, 0.68], [7567, 3, 7, 3.89], [5946, 1, 7, 1.06], [5811, 3, 6, 2.76], [5813, 3, 7, 1.98], [5513, 2, 7, 2.49], [22317, 3, 10, 1.35], [11085, 2, 9, 1.33], [5086, 1, 11, 1.14], [5209, 3, 7, 1.04], [12924, 1, 7, 0.86], [12350, 1, 7, 4.0], [20498, 3, 10, 1.9], [995, 2, 9, 4.24], [229, 1, 7, 4.95], [974, 3, 7, 1.69], [996, 2, 9, 3.92], [972, 3, 8, 1.1], [33, 1, 7, 1.92], [9691, 1, 7, 3.68], [8557, 3, 7, 1.53], [35, 1, 7, 2.52], [110, 4, 9, 1.31], [3049, 3, 7, 4.11], [1080, 3, 7, 2.09], [20486, 3, 10, 3.27], [1703, 2, 7, 2.72], [13023, 3, 8, 3.06], [2424, 80, 7, 4.51], [4076, 3, 7, 5.0], [5584, 3, 7, 4.11], [39, 1, 7, 2.02], [8104, 1, 7, 0.75], [14018, 3, 7, 0.96], [3900, 3, 9, 2.92], [952, 4, 7, 3.81], [215, 4, 7, 5.0], [11510, 3, 10, 1.49], [9081, 3, 15, 2.8], [9613, 1, 7, 0.87], [34, 1, 7, 2.02], [20486, 1, 7, 2.87], [114, 3, 7, 1.42], [972, 1, 7, 1.89], [1414, 15, 7, 0.81], [2854, 21, 13, 0.84], [20969, 3, 7, 2.52], [6497, 1, 7, 2.43], [3047, 3, 7, 2.02], [998, 2, 185, 4.25], [346, 1, 121, 2.73], [79, 1, 34, 2.0], [6098, 29, 14, 5.15], [22316, 3, 249, 2.59], [9069, 1, 82, 4.16], [1070, 7, 397, 2.9], [14017, 3, 131, 3.39], [8898, 3, 188, 6.0], [9760, 29, 57, 2.81], [346, 3, 484, 2.55], [997, 2, 185, 4.3], [20498, 1, 66, 4.1], [13034, 3, 391, 4.65], [1622, 1, 38, 1.22], [8945, 3, 463, 3.4], [13260, 29, 63, 3.39], [22554, 10, 327, 1.98], [336, 15, 77, 1.72], [5946, 1, 108, 2.17], [5811, 3, 391, 4.32], [5813, 3, 391, 4.14], [5513, 2, 67, 3.6], [22317, 3, 211, 3.02], [11085, 2, 367, 3.0], [5086, 1, 123, 4.29], [5209, 3, 391, 2.08], [12924, 1, 36, 3.19], [12350, 1, 479, 5.68], [20498, 3, 391, 4.06], [995, 2, 185, 6.0], [974, 3, 128, 2.8], [996, 2, 185, 6.0], [972, 3, 470, 2.29], [33, 1, 88, 3.08], [8557, 3, 136, 3.68], [35, 1, 39, 3.68], [110, 4, 162, 3.47], [3049, 3, 92, 5.77], [1080, 3, 104, 3.24], [20486, 3, 396, 5.43], [1703, 2, 127, 4.37], [13023, 3, 391, 4.6], [2424, 80, 152, 5.66], [4076, 3, 132, 6.0], [5584, 3, 168, 5.27], [39, 1, 88, 3.13], [8104, 1, 144, 1.79], [14018, 3, 131, 3.07], [952, 4, 63, 4.91], [11510, 3, 456, 3.64], [9081, 3, 360, 4.97], [9613, 1, 32, 2.53], [34, 1, 97, 3.13], [20486, 1, 67, 5.02], [114, 3, 192, 2.57], [972, 1, 79, 3.0], [1414, 15, 79, 2.47], [2854, 21, 836, 2.51], [20969, 3, 508, 3.62], [6497, 1, 29, 3.59], [3047, 3, 211, 3.13]]</t>
   </si>
   <si>
     <t>1QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[8672, 2, 8, 0.73], [305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 0.47], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.99], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.2], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [206, 2, 4, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [8648, 2, 4, 1.02], [6936, 2, 5, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 1.52], [7886, 4, 5, 0.45], [248, 1, 4, 0.2], [2050, 3, 6, 0.41], [141, 2, 4, 0.2], [2991, 3, 4, 2.05], [74, 1, 4, 1.53], [2054, 3, 5, 0.54], [83, 2, 4, 0.58], [1446, 2, 4, 0.2], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2055, 3, 5, 0.42], [76, 2, 4, 0.84], [8649, 2, 4, 1.4], [345, 3, 4, 0.2], [11404, 2, 4, 0.35], [7084, 3, 4, 2.53], [3889, 1, 4, 0.2], [10825, 21, 10, 0.78], [61, 3, 4, 0.53], [10149, 3, 15, 0.99], [7036, 1, 4, 0.93], [21793, 1, 4, 1.93], [12870, 1, 4, 2.33], [33, 1, 4, 0.83], [94, 4, 4, 0.2], [5081, 2, 5, 0.69], [3478, 2, 4, 0.53], [10, 2, 4, 0.68], [11681, 2, 5, 1.41], [167, 3, 5, 1.65], [411, 2, 4, 0.2], [9827, 3, 4, 0.2], [308, 1, 4, 2.58], [1654, 2, 4, 0.2], [3891, 1, 4, 0.2], [1504, 2, 4, 0.55], [8677, 3, 6, 0.65], [201, 3, 5, 0.2], [168, 3, 4, 1.23], [3893, 1, 4, 0.2], [84, 2, 4, 0.4], [79, 1, 4, 0.2], [35, 1, 4, 0.83], [2336, 3, 5, 0.99], [13280, 1, 4, 0.81], [23, 1, 4, 0.67], [1490, 1, 4, 0.2], [9760, 29, 4, 0.24], [1243, 2, 4, 0.53], [6158, 2, 6, 0.51], [412, 1, 4, 1.14], [45, 2, 4, 0.64], [361, 2, 4, 0.66], [346, 1, 4, 0.2], [20927, 1, 4, 0.49], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [12225, 1, 4, 0.43], [9069, 1, 4, 0.37], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.5], [490, 1, 4, 0.53], [997, 2, 4, 0.77], [34, 1, 4, 0.88], [1766, 25, 4, 0.2], [8898, 3, 5, 0.75], [5946, 1, 4, 1.03], [9691, 1, 4, 1.77], [1070, 7, 9, 0.46], [1519, 3, 11, 0.34], [9372, 1, 5, 1.74], [14017, 3, 5, 1.04], [11954, 1, 4, 0.2], [20498, 1, 4, 0.2], [38, 1, 4, 0.88], [974, 3, 5, 0.88], [14037, 3, 4, 0.2], [22317, 3, 5, 0.2], [5584, 3, 4, 1.19], [972, 3, 5, 1.15], [1091, 1, 5, 0.2], [7567, 3, 4, 1.21], [20498, 3, 6, 0.58], [110, 4, 4, 0.2], [9828, 3, 4, 0.2], [8945, 3, 5, 0.51], [5813, 3, 4, 1.51], [2991, 1, 4, 0.52], [82, 2, 4, 0.52], [3048, 3, 4, 1.24], [39, 1, 4, 0.59], [1080, 3, 5, 0.3], [1414, 15, 4, 0.2], [24, 1, 4, 1.04], [13034, 3, 5, 1.09], [336, 15, 4, 0.2], [1767, 2, 4, 0.2], [202, 2, 4, 0.9], [13260, 29, 4, 0.73], [10780, 10, 4, 0.98], [5513, 2, 4, 0.57], [9082, 3, 15, 0.83], [11811, 1, 4, 0.94], [4203, 1, 4, 0.2], [2878, 1, 4, 0.61], [14018, 3, 4, 0.85], [8635, 3, 5, 0.2], [3900, 3, 4, 0.47], [8104, 1, 4, 0.44], [8672, 2, 247, 4.98], [305, 2, 117, 3.3], [326, 2, 78, 3.44], [589, 2, 52, 1.43], [143, 2, 127, 3.36], [130, 1, 20, 2.57], [6935, 2, 243, 5.31], [75, 2, 126, 3.91], [144, 2, 127, 3.21], [12721, 2, 245, 4.0], [145, 2, 129, 3.26], [8915, 2, 65, 1.26], [146, 2, 152, 2.27], [1776, 1, 93, 3.44], [2778, 2, 135, 3.37], [206, 2, 110, 1.95], [1777, 1, 80, 3.66], [151, 1, 67, 1.98], [8648, 2, 229, 4.53], [6936, 2, 243, 4.78], [2328, 2, 109, 3.35], [5151, 2, 17, 4.32], [7886, 4, 48, 1.63], [248, 1, 39, 2.99], [2050, 3, 412, 3.9], [141, 2, 113, 3.92], [2991, 3, 139, 6.0], [74, 1, 170, 5.84], [2054, 3, 347, 2.86], [83, 2, 18, 1.88], [1446, 2, 131, 3.74], [1492, 1, 19, 4.15], [7004, 1, 81, 1.98], [2055, 3, 412, 3.1], [76, 2, 80, 3.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.35], [11404, 2, 106, 1.94], [3889, 1, 107, 3.11], [10825, 21, 546, 4.5], [61, 3, 211, 2.29], [10149, 3, 753, 4.0], [7036, 1, 109, 4.05], [21793, 1, 234, 5.21], [12870, 1, 119, 6.0], [33, 1, 85, 3.75], [94, 4, 106, 4.41], [5081, 2, 163, 3.57], [10, 2, 106, 2.58], [11681, 2, 276, 4.73], [167, 3, 194, 4.58], [411, 2, 93, 2.99], [9827, 3, 75, 3.19], [308, 1, 170, 6.0], [1654, 2, 68, 2.84], [3891, 1, 107, 4.43], [1504, 2, 208, 4.06], [8677, 3, 254, 3.57], [201, 3, 260, 3.35], [168, 3, 137, 4.17], [3893, 1, 107, 4.43], [84, 2, 68, 2.12], [79, 1, 24, 2.97], [35, 1, 38, 3.61]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.2], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [589, 2, 5, 0.2], [8915, 2, 5, 0.2], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [205, 2, 4, 0.37], [8648, 2, 4, 1.15], [2775, 2, 4, 0.2], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.22], [7036, 1, 4, 1.2], [2049, 3, 8, 0.21], [88, 10, 11, 0.5], [2776, 2, 4, 0.2], [141, 2, 5, 0.39], [7004, 1, 4, 0.74], [1446, 2, 4, 0.39], [206, 2, 4, 0.2], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2912, 1, 4, 1.58], [2055, 3, 4, 0.56], [142, 2, 4, 0.4], [3893, 1, 4, 0.2], [12870, 1, 5, 1.18], [5165, 1, 4, 2.3], [9372, 1, 4, 0.59], [7886, 4, 5, 0.44], [7084, 3, 4, 1.07], [3889, 1, 4, 0.2], [2054, 3, 5, 0.2], [2050, 3, 5, 0.56], [1622, 1, 4, 0.2], [10, 2, 5, 0.36], [21793, 1, 4, 0.41], [7573, 1, 9, 2.45], [3891, 1, 4, 0.2], [5208, 3, 5, 0.19], [75, 2, 5, 1.0], [10149, 3, 17, 1.22], [20927, 1, 4, 0.76], [997, 2, 4, 0.76], [3, 2, 5, 0.62], [11234, 2, 5, 0.25], [5165, 2, 5, 2.22], [12721, 2, 5, 1.46], [998, 2, 4, 0.31], [1886, 2, 5, 0.2], [94, 4, 4, 0.4], [346, 3, 5, 0.21], [35, 1, 4, 1.79], [22247, 2, 4, 1.31], [9491, 21, 15, 0.22], [996, 2, 4, 0.2], [955, 2, 4, 0.54], [83, 2, 4, 0.45], [229, 1, 4, 1.55], [33, 1, 4, 1.43], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.74], [76, 2, 5, 1.1], [413, 1, 4, 1.88], [13928, 1, 4, 1.2], [2424, 80, 4, 0.86], [2805, 137, 4, 1.33], [5209, 3, 6, 0.46], [5076, 1, 4, 0.97], [346, 1, 4, 0.43], [8676, 2, 4, 1.22], [38, 1, 4, 1.63], [34, 1, 4, 1.07], [418, 2, 4, 0.54], [84, 2, 4, 1.4], [8104, 1, 4, 1.09], [12212, 29, 5, 0.2], [3495, 3, 10, 0.82], [11952, 1, 4, 0.43], [1414, 15, 4, 0.42], [39, 1, 4, 1.6], [11490, 1, 4, 0.96], [3048, 3, 4, 1.15], [11770, 1, 4, 0.6], [2424, 29, 4, 0.86], [411, 2, 4, 0.67], [10407, 10, 6, 1.67], [1703, 2, 4, 1.33], [9691, 1, 4, 1.22], [202, 2, 4, 0.47], [13928, 2, 4, 0.55], [11772, 1, 4, 1.23], [11953, 1, 4, 0.51], [5584, 3, 4, 2.8], [22316, 3, 4, 0.6], [23961, 3, 4, 2.38], [7567, 3, 4, 1.58], [13893, 2, 4, 1.17], [12764, 2, 5, 0.48], [13023, 3, 5, 0.31], [10410, 10, 10, 1.67], [1519, 3, 10, 0.34], [74, 1, 4, 3.27], [21269, 3, 5, 0.99], [1274, 1, 4, 0.41], [5164, 1, 4, 1.95], [410, 1, 4, 1.01], [2331, 1, 4, 0.64], [4253, 1, 4, 0.2], [1523, 1, 4, 0.6], [10408, 10, 6, 1.83], [1492, 1, 4, 0.2], [2438, 2, 6, 1.64], [12229, 2, 5, 0.2], [3430, 15, 4, 1.45], [6097, 80, 4, 1.26], [13034, 3, 5, 1.2], [3047, 3, 4, 1.64], [6805, 1, 4, 0.51], [8674, 2, 4, 1.21], [71, 15, 4, 0.35], [1243, 2, 5, 1.13], [21059, 1, 4, 1.6], [10780, 10, 4, 2.11], [11116, 1, 4, 0.56], [2436, 4, 5, 0.2], [6097, 29, 4, 0.79], [11812, 1, 4, 0.2], [1080, 3, 4, 1.41], [24257, 1, 4, 0.56], [3429, 15, 4, 0.37], [2327, 2, 125, 3.09], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2778, 2, 112, 3.56], [589, 2, 141, 2.29], [8915, 2, 155, 2.94], [144, 2, 107, 3.63], [143, 2, 105, 3.45], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [205, 2, 51, 2.81], [8648, 2, 159, 5.71], [2775, 2, 112, 3.56], [8650, 2, 159, 5.44], [145, 2, 107, 3.56], [146, 2, 107, 4.24], [326, 2, 81, 3.66], [7036, 1, 91, 5.66], [2049, 3, 324, 3.34], [88, 10, 397, 4.74], [2776, 2, 112, 3.77], [141, 2, 111, 3.36], [1446, 2, 35, 2.25], [206, 2, 85, 2.22], [9760, 29, 63, 3.37], [362, 2, 101, 3.59], [2912, 1, 43, 4.54], [2055, 3, 135, 2.57], [142, 2, 90, 3.29], [3893, 1, 89, 3.35], [12870, 1, 97, 5.83], [5165, 1, 43, 5.85], [9372, 1, 212, 4.51], [7886, 4, 33, 1.61], [7084, 3, 93, 4.19], [3889, 1, 89, 4.01], [2054, 3, 111, 2.89], [1622, 1, 56, 1.72], [10, 2, 88, 3.02], [21793, 1, 222, 2.45], [7573, 1, 261, 6.0], [3891, 1, 89, 3.4], [5208, 3, 326, 2.1], [75, 2, 102, 4.52], [10149, 3, 625, 4.75], [20927, 1, 18, 2.74], [997, 2, 169, 4.96], [3, 2, 86, 3.96], [11234, 2, 170, 2.72], [5165, 2, 344, 5.45], [12721, 2, 199, 4.94], [998, 2, 169, 4.14], [1886, 2, 111, 3.67], [94, 4, 85, 4.74], [346, 3, 447, 3.46], [22247, 2, 262, 3.94], [9491, 21, 1499, 3.56], [996, 2, 165, 5.77], [955, 2, 100, 2.46], [229, 1, 60, 4.4], [33, 1, 77, 4.35], [6158, 2, 241, 2.98], [2912, 2, 275, 5.31]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.46], [589, 2, 5, 0.2], [2327, 2, 5, 0.2], [205, 2, 5, 0.2], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [143, 2, 4, 0.51], [305, 2, 4, 0.51], [8915, 2, 5, 0.42], [8650, 2, 4, 0.96], [141, 2, 4, 0.53], [6936, 2, 5, 1.85], [2778, 2, 5, 0.2], [146, 2, 4, 1.07], [88, 10, 12, 0.19], [7004, 1, 4, 1.01], [7036, 1, 4, 1.73], [145, 2, 4, 0.48], [1446, 2, 4, 0.2], [8853, 2, 5, 1.2], [362, 2, 4, 0.5], [2055, 3, 6, 1.73], [417, 2, 4, 0.55], [10993, 2, 4, 0.59], [11737, 2, 5, 0.2], [3893, 1, 4, 0.2], [75, 2, 4, 0.9], [2050, 3, 4, 1.69], [159, 3, 6, 0.19], [3840, 1, 4, 0.39], [523, 2, 4, 0.53], [12870, 1, 4, 1.2], [3889, 1, 4, 0.53], [2057, 3, 5, 1.78], [7084, 3, 5, 0.28], [13280, 1, 4, 0.59], [20927, 1, 4, 0.47], [3, 2, 4, 0.71], [7005, 1, 4, 0.74], [997, 2, 5, 0.78], [3982, 3, 14, 1.18], [9760, 29, 4, 0.2], [10, 2, 4, 0.67], [3891, 1, 4, 0.53], [98, 11, 11, 0.54], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [6158, 2, 6, 0.2], [7885, 4, 5, 0.2], [84, 2, 4, 0.9], [5165, 2, 5, 2.22], [346, 3, 4, 0.52], [9372, 1, 4, 1.35], [3980, 4, 4, 1.2], [5165, 1, 4, 2.3], [411, 2, 4, 1.11], [10388, 2, 4, 1.83], [2912, 1, 4, 1.58], [9491, 21, 12, 0.22], [214, 3, 9, 0.38], [346, 1, 4, 0.39], [3981, 3, 13, 1.15], [1492, 1, 4, 0.7], [22316, 3, 4, 0.51], [10386, 2, 4, 0.99], [33, 1, 4, 2.33], [995, 2, 4, 1.16], [13928, 1, 4, 0.55], [418, 2, 4, 0.51], [22247, 2, 4, 1.6], [308, 1, 4, 0.67], [13893, 2, 4, 1.13], [336, 15, 4, 1.0], [7886, 4, 4, 0.2], [7567, 3, 4, 1.21], [2912, 2, 5, 2.27], [35, 1, 4, 1.83], [10631, 2, 4, 1.98], [11490, 1, 4, 1.05], [229, 1, 4, 1.2], [159, 1, 4, 0.2], [11953, 1, 5, 0.2], [83, 2, 4, 0.49], [11770, 1, 5, 0.2], [13283, 1, 4, 0.59], [22317, 3, 6, 0.51], [10780, 10, 4, 4.0], [10407, 10, 7, 1.35], [9691, 1, 5, 0.89], [13286, 1, 4, 0.59], [10149, 3, 15, 1.48], [10410, 10, 6, 1.27], [12271, 2, 4, 2.01], [6497, 1, 4, 0.45], [345, 3, 4, 1.01], [1413, 15, 4, 0.2], [74, 1, 4, 1.1], [8943, 3, 4, 0.38], [3478, 2, 4, 0.84], [37, 1, 4, 1.16], [9971, 2, 4, 0.69], [23611, 3, 4, 0.2], [10387, 2, 4, 0.95], [39, 1, 4, 0.43], [11085, 2, 5, 1.27], [4076, 3, 4, 1.35], [3048, 3, 5, 0.92], [2331, 1, 4, 1.45], [159, 16, 4, 0.51], [34, 1, 4, 0.93], [13281, 1, 4, 0.59], [20498, 3, 5, 0.5], [82, 2, 4, 0.62], [4001, 3, 8, 1.13], [11510, 3, 5, 0.5], [45, 2, 4, 0.56], [9, 1, 4, 0.5], [12338, 29, 4, 0.38], [9965, 2, 4, 0.69], [9964, 2, 4, 0.69], [10936, 2, 4, 1.7], [215, 4, 4, 0.78], [24257, 1, 4, 1.5], [105, 3, 4, 0.51], [1523, 1, 4, 1.08], [12764, 2, 6, 0.35], [1895, 3, 4, 0.74], [12212, 29, 4, 0.5], [12858, 1, 5, 0.2], [1080, 3, 4, 0.46], [11489, 1, 4, 0.5], [2805, 137, 5, 0.47], [8635, 3, 4, 1.51], [6935, 2, 223, 5.26], [11685, 2, 222, 5.8], [326, 2, 87, 3.8], [8648, 2, 218, 4.07], [589, 2, 124, 3.05], [2327, 2, 111, 2.93], [205, 2, 44, 3.38], [593, 2, 186, 3.67], [11681, 2, 222, 5.79], [143, 2, 120, 3.88], [305, 2, 119, 3.38], [8915, 2, 139, 2.04], [8650, 2, 218, 3.21], [141, 2, 125, 4.03], [6936, 2, 223, 6.0], [2778, 2, 127, 3.51], [146, 2, 95, 4.01], [88, 10, 462, 3.29], [7004, 1, 57, 3.23], [7036, 1, 104, 4.72], [145, 2, 123, 4.27], [1446, 2, 124, 4.49], [8853, 2, 223, 4.82], [362, 2, 114, 3.36], [2055, 3, 374, 5.86], [417, 2, 125, 3.45], [10993, 2, 51, 2.73], [11737, 2, 14, 3.71], [3893, 1, 92, 3.33], [75, 2, 108, 3.67], [2050, 3, 374, 5.77], [159, 3, 579, 3.73], [3840, 1, 41, 1.53], [523, 2, 125, 3.5], [12870, 1, 102, 5.64], [3889, 1, 120, 2.38], [2057, 3, 374, 5.97], [7084, 3, 105, 3.88], [13280, 1, 303, 3.68], [20927, 1, 76, 3.17], [3, 2, 117, 2.73], [7005, 1, 76, 2.78], [997, 2, 177, 3.44], [3982, 3, 641, 4.81], [9760, 29, 58, 3.31], [10, 2, 101, 2.65], [3891, 1, 120, 2.38], [98, 11, 674, 3.35], [998, 2, 177, 3.27], [11739, 2, 34, 3.11], [6158, 2, 214, 3.69], [84, 2, 65, 3.09], [5165, 2, 357, 5.27], [346, 3, 589, 2.41], [9372, 1, 216, 3.96], [3980, 4, 356, 4.3], [5165, 1, 45, 5.79], [10388, 2, 159, 4.87], [2912, 1, 45, 4.47], [9491, 21, 1576, 2.84], [214, 3, 236, 1.72], [346, 1, 148, 2.26], [3981, 3, 1188, 4.05], [1492, 1, 36, 2.84]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.47], [2049, 3, 10, 0.21], [6935, 2, 9, 0.72], [362, 2, 5, 0.7], [141, 2, 5, 0.54], [75, 2, 4, 0.49], [1776, 1, 4, 0.58], [8672, 2, 6, 0.47], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [6936, 2, 6, 1.27], [305, 2, 4, 0.48], [593, 2, 6, 0.2], [1777, 1, 4, 0.93], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [151, 1, 4, 0.44], [206, 2, 4, 0.2], [88, 10, 12, 0.33], [2328, 2, 5, 0.2], [83, 2, 4, 0.52], [8650, 2, 5, 1.15], [2050, 3, 5, 0.66], [5151, 2, 4, 1.4], [412, 1, 4, 0.91], [144, 2, 4, 1.0], [2991, 3, 4, 2.1], [22247, 2, 6, 1.06], [361, 2, 4, 0.49], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [2054, 3, 4, 1.36], [417, 2, 4, 0.29], [146, 2, 4, 0.56], [3478, 2, 4, 0.77], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [167, 3, 5, 1.09], [12721, 2, 6, 0.96], [168, 3, 6, 0.74], [2055, 3, 4, 0.94], [74, 1, 4, 0.84], [1446, 2, 4, 0.65], [346, 1, 4, 0.2], [84, 2, 4, 0.4], [7036, 1, 4, 2.21], [335, 3, 11, 0.39], [3495, 3, 15, 0.92], [5081, 2, 4, 0.2], [10, 2, 4, 0.92], [13028, 3, 4, 0.5], [8649, 2, 4, 1.15], [12870, 1, 4, 2.83], [410, 1, 4, 0.2], [11404, 2, 5, 0.2], [79, 1, 4, 0.2], [96, 11, 16, 0.46], [3889, 1, 4, 0.2], [145, 2, 4, 0.38], [5208, 3, 6, 0.19], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [23, 1, 4, 1.73], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.2], [7005, 1, 4, 0.49], [13260, 29, 4, 0.96], [9827, 3, 4, 0.2], [411, 2, 4, 0.2], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [25, 1, 4, 0.95], [21269, 3, 4, 1.45], [13280, 1, 4, 1.23], [998, 2, 4, 0.69], [9069, 1, 4, 1.62], [7567, 3, 4, 1.12], [5086, 1, 6, 1.11], [2878, 1, 6, 0.54], [1243, 2, 4, 1.0], [1703, 2, 4, 0.88], [9691, 1, 4, 1.9], [20927, 1, 4, 0.61], [997, 2, 4, 1.3], [5209, 3, 5, 0.19], [346, 3, 5, 0.21], [11914, 1, 5, 0.2], [5660, 2, 5, 1.05], [856, 1, 4, 0.44], [1124, 2, 5, 0.2], [5584, 3, 4, 0.44], [1070, 7, 11, 0.39], [159, 3, 6, 0.2], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [996, 2, 5, 1.21], [1519, 3, 12, 0.23], [23961, 3, 4, 1.0], [8898, 3, 4, 2.67], [5513, 2, 4, 0.66], [22317, 3, 5, 0.51], [1091, 1, 4, 0.2], [24, 1, 5, 0.95], [952, 4, 4, 2.89], [13034, 3, 6, 0.77], [9081, 3, 9, 0.79], [12661, 1, 4, 2.1], [27, 1, 4, 1.23], [336, 15, 4, 0.2], [1413, 15, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [10529, 29, 4, 0.94], [20498, 1, 4, 0.97], [9082, 3, 18, 1.17], [9372, 1, 4, 0.39], [1163, 3, 5, 0.2], [6097, 80, 4, 0.59], [6097, 29, 4, 0.2], [2109, 3, 9, 0.21], [82, 2, 4, 0.39], [972, 3, 5, 0.47], [995, 2, 4, 1.16], [66, 16, 4, 0.2], [2104, 3, 6, 1.63], [6098, 80, 4, 0.83], [20498, 3, 5, 0.94], [66, 1, 4, 0.46], [8635, 3, 5, 0.6], [12225, 1, 4, 0.52], [5813, 3, 4, 0.5], [10780, 10, 4, 1.48], [5946, 1, 4, 0.53], [6098, 29, 4, 0.8], [34, 1, 4, 1.05], [326, 2, 62, 3.13], [2049, 3, 432, 2.55], [6935, 2, 223, 4.7], [362, 2, 111, 3.97], [141, 2, 105, 3.14], [75, 2, 97, 4.11], [1776, 1, 76, 3.22], [8672, 2, 249, 3.02], [7886, 4, 57, 2.29], [2778, 2, 105, 3.21], [6936, 2, 190, 4.83], [305, 2, 98, 3.03], [593, 2, 153, 2.98], [1777, 1, 85, 3.88], [11681, 2, 182, 6.0], [8648, 2, 150, 5.36], [151, 1, 53, 2.46], [206, 2, 94, 1.82], [88, 10, 376, 4.6], [2328, 2, 102, 3.09], [83, 2, 37, 2.04], [8650, 2, 150, 5.4], [2050, 3, 318, 3.36], [5151, 2, 17, 3.81], [412, 1, 57, 3.83], [144, 2, 102, 3.09], [2991, 3, 108, 5.79], [22247, 2, 188, 4.65], [361, 2, 134, 2.05], [57, 1, 62, 2.85], [10149, 3, 676, 4.91], [2054, 3, 407, 4.61], [417, 2, 104, 4.53], [146, 2, 102, 4.34], [3478, 2, 66, 2.59], [45, 2, 73, 4.8], [143, 2, 100, 3.0], [7004, 1, 47, 2.43], [167, 3, 152, 4.16], [12721, 2, 188, 4.08], [168, 3, 273, 3.53], [2055, 3, 313, 4.85], [74, 1, 132, 4.67], [1446, 2, 79, 2.62], [346, 1, 107, 2.96], [84, 2, 58, 1.97], [7036, 1, 85, 5.36], [335, 3, 898, 5.59], [3495, 3, 641, 3.7], [5081, 2, 128, 3.15], [13028, 3, 99, 3.08], [8649, 2, 150, 5.12], [12870, 1, 92, 6.0], [410, 1, 72, 2.89], [11404, 2, 77, 2.67], [79, 1, 41, 1.5], [96, 11, 567, 2.96], [3889, 1, 84, 4.04], [145, 2, 130, 2.51], [5208, 3, 391, 2.1], [3893, 1, 84, 3.33], [1492, 1, 25, 2.86], [5812, 3, 391, 4.28]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 10, 0.19], [8915, 2, 5, 0.2], [2327, 2, 4, 0.52], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [6935, 2, 6, 1.69], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [326, 2, 5, 1.22], [8648, 2, 4, 1.65], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.74], [2049, 3, 6, 0.21], [205, 2, 4, 0.37], [144, 2, 5, 1.04], [143, 2, 4, 1.44], [10, 2, 5, 0.42], [94, 4, 4, 0.2], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.79], [146, 2, 5, 1.07], [2055, 3, 5, 0.2], [206, 2, 5, 0.2], [5208, 3, 5, 0.19], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [7886, 4, 6, 0.44], [12224, 1, 4, 0.46], [3889, 1, 5, 0.2], [21793, 1, 4, 0.41], [2054, 3, 4, 0.49], [3980, 4, 6, 1.21], [7005, 1, 4, 1.08], [7084, 3, 4, 1.57], [12870, 1, 4, 2.18], [10149, 3, 13, 1.7], [2050, 3, 5, 0.56], [145, 2, 4, 1.5], [8672, 2, 5, 1.19], [2912, 1, 4, 1.58], [5165, 1, 4, 2.3], [998, 2, 4, 0.31], [20927, 1, 4, 1.76], [9760, 29, 4, 0.2], [997, 2, 4, 0.41], [1886, 2, 4, 0.62], [2436, 4, 4, 0.56], [7887, 4, 4, 0.97], [3, 2, 4, 0.2], [2424, 80, 4, 0.86], [6158, 2, 4, 0.44], [229, 1, 4, 1.05], [142, 2, 4, 0.36], [3495, 3, 13, 0.92], [955, 2, 4, 0.54], [346, 3, 4, 0.48], [5076, 1, 4, 0.89], [74, 1, 4, 3.27], [5165, 2, 5, 2.22], [11953, 1, 4, 0.51], [11954, 1, 4, 0.45], [11770, 1, 4, 0.2], [996, 2, 4, 0.74], [12721, 2, 4, 0.66], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [9372, 1, 4, 0.59], [11772, 1, 4, 0.2], [7573, 1, 9, 2.45], [2912, 2, 7, 2.11], [2423, 80, 5, 1.47], [5584, 3, 4, 2.8], [6497, 1, 4, 0.49], [2438, 2, 5, 2.15], [12229, 2, 4, 0.49], [3975, 4, 5, 1.26], [346, 1, 4, 0.37], [5209, 3, 5, 0.19], [5434, 1, 4, 1.33], [9082, 3, 19, 0.83], [823, 1, 4, 0.44], [10407, 10, 7, 1.18], [12764, 2, 8, 0.23], [4253, 1, 4, 0.2], [1622, 1, 4, 0.2], [11812, 1, 4, 0.2], [6496, 1, 4, 0.37], [2424, 29, 4, 0.86], [10388, 2, 4, 0.92], [5946, 1, 4, 0.84], [3900, 3, 4, 1.81], [8676, 2, 4, 1.22], [1339, 3, 10, 0.42], [1703, 2, 4, 0.83], [11490, 1, 4, 0.39], [2805, 137, 4, 1.33], [24257, 1, 4, 0.48], [13893, 2, 4, 1.17], [6097, 80, 4, 0.81], [37, 1, 4, 1.54], [6805, 1, 5, 0.2], [7567, 3, 4, 1.58], [22247, 2, 4, 1.31], [1414, 15, 4, 0.42], [9784, 1, 4, 0.99], [8635, 3, 4, 1.36], [11814, 1, 4, 0.48], [38, 1, 4, 1.16], [35, 1, 4, 1.54], [95, 3, 15, 0.19], [1274, 1, 4, 0.2], [23611, 3, 5, 0.42], [10386, 2, 4, 0.92], [1895, 3, 4, 1.83], [8104, 1, 4, 1.38], [788, 2, 4, 0.45], [12212, 29, 4, 0.47], [413, 1, 4, 0.66], [3979, 3, 10, 0.19], [8283, 2, 5, 0.68], [114, 3, 4, 1.53], [10780, 10, 4, 2.11], [12979, 25, 7, 0.72], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [8659, 1, 4, 0.41], [9065, 2, 4, 0.84], [12501, 1, 4, 1.24], [440, 3, 4, 1.25], [4232, 80, 4, 1.82], [418, 2, 4, 0.54], [19931, 1, 4, 1.26], [83, 2, 4, 0.44], [589, 2, 108, 3.51], [88, 10, 526, 2.5], [8915, 2, 160, 2.94], [2327, 2, 107, 3.59], [2778, 2, 112, 3.56], [305, 2, 104, 3.46], [6935, 2, 198, 6.0], [2328, 2, 107, 4.03], [6936, 2, 198, 5.9], [326, 2, 81, 4.44], [8648, 2, 159, 5.71], [8650, 2, 159, 6.0], [2049, 3, 324, 3.34], [144, 2, 51, 4.06], [94, 4, 85, 4.74], [7036, 1, 91, 5.66], [3893, 1, 89, 3.35], [1124, 2, 172, 3.16], [146, 2, 107, 4.24], [2055, 3, 377, 2.57], [206, 2, 25, 2.22], [5208, 3, 326, 2.1], [3891, 1, 89, 3.4], [75, 2, 122, 4.52], [362, 2, 82, 3.59], [12224, 1, 154, 2.31], [3889, 1, 89, 4.01], [21793, 1, 222, 2.45], [2054, 3, 111, 2.25], [3980, 4, 403, 4.52], [12870, 1, 97, 5.83], [10149, 3, 625, 4.75], [2050, 3, 135, 2.57], [145, 2, 52, 4.06], [8672, 2, 199, 6.0], [2912, 1, 43, 4.46], [5165, 1, 43, 5.85], [998, 2, 169, 4.14], [9760, 29, 51, 3.87], [997, 2, 222, 3.07], [1886, 2, 144, 2.61], [2436, 4, 108, 2.5], [3, 2, 102, 3.96], [2424, 80, 156, 4.21], [6158, 2, 241, 2.98], [229, 1, 60, 3.53], [142, 2, 110, 3.29], [3495, 3, 676, 4.23], [955, 2, 100, 2.46], [346, 3, 568, 2.35], [5076, 1, 120, 3.44], [74, 1, 164, 6.0], [5165, 2, 344, 5.45], [11953, 1, 185, 2.4], [11954, 1, 187, 2.29], [11770, 1, 154, 3.85], [996, 2, 222, 2.84], [12721, 2, 262, 2.87], [9491, 21, 1499, 3.56], [22316, 3, 291, 2.58], [1492, 1, 27, 3.61], [9372, 1, 212, 4.51]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 5, 0.2], [205, 2, 5, 0.2], [6936, 2, 5, 1.35], [616, 2, 4, 0.45], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 4, 0.46], [8915, 2, 5, 0.42], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 5, 0.96], [2327, 2, 5, 0.2], [593, 2, 5, 0.52], [3893, 1, 5, 0.2], [141, 2, 5, 0.53], [7004, 1, 4, 1.01], [3840, 1, 4, 0.39], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3889, 1, 4, 0.53], [2055, 3, 4, 1.73], [143, 2, 5, 0.51], [3980, 4, 5, 1.2], [10, 2, 4, 0.67], [7885, 4, 5, 0.2], [8672, 2, 5, 0.73], [2054, 3, 5, 1.86], [7886, 4, 4, 0.9], [12870, 1, 5, 0.92], [2057, 3, 5, 1.78], [5165, 1, 4, 2.3], [3975, 4, 4, 1.26], [159, 3, 5, 0.58], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [523, 2, 4, 1.03], [21793, 1, 4, 0.41], [75, 2, 4, 0.46], [7005, 1, 4, 0.74], [3981, 3, 13, 1.15], [9760, 29, 5, 0.2], [3982, 3, 11, 1.18], [20927, 1, 4, 0.67], [6158, 2, 6, 0.2], [33, 1, 4, 1.33], [997, 2, 5, 1.18], [214, 3, 11, 0.2], [5165, 2, 5, 2.22], [2912, 1, 4, 1.58], [7887, 4, 5, 1.45], [22316, 3, 5, 0.51], [11953, 1, 5, 0.2], [229, 1, 4, 1.2], [998, 2, 4, 0.67], [35, 1, 4, 1.33], [346, 3, 5, 0.21], [6497, 1, 4, 0.45], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [1492, 1, 4, 0.7], [972, 3, 4, 1.51], [955, 2, 4, 0.73], [11490, 1, 4, 0.53], [6496, 1, 5, 0.55], [74, 1, 5, 0.62], [2336, 3, 5, 0.46], [22317, 3, 5, 0.51], [1413, 15, 4, 0.2], [4176, 4, 5, 1.31], [2912, 2, 5, 1.53], [336, 15, 5, 0.37], [12212, 29, 4, 0.5], [192, 3, 9, 1.01], [7573, 1, 5, 0.97], [8677, 3, 5, 0.9], [39, 1, 4, 0.51], [37, 1, 4, 0.66], [11085, 2, 5, 1.76], [201, 3, 4, 0.51], [345, 3, 4, 0.51], [1277, 1, 4, 0.65], [8676, 2, 4, 0.98], [1274, 1, 4, 0.67], [21269, 3, 4, 2.99], [13023, 3, 4, 1.26], [12271, 2, 4, 0.7], [6494, 1, 4, 0.2], [10388, 2, 5, 1.14], [3, 2, 5, 0.46], [10408, 10, 6, 1.64], [202, 2, 4, 0.44], [10936, 2, 4, 1.7], [36, 1, 4, 1.16], [2805, 137, 5, 0.47], [3577, 25, 4, 0.59], [9, 1, 4, 0.5], [5812, 3, 4, 0.51], [11489, 1, 4, 0.5], [11812, 1, 4, 0.2], [1414, 15, 4, 0.45], [20498, 3, 5, 0.99], [3048, 3, 4, 1.42], [9691, 1, 4, 1.25], [8675, 2, 4, 1.02], [9372, 1, 4, 1.35], [346, 1, 5, 0.2], [13928, 1, 4, 0.55], [12225, 1, 4, 1.14], [10386, 2, 4, 0.99], [12764, 2, 6, 0.35], [13893, 2, 4, 1.13], [13280, 1, 4, 0.59], [11814, 1, 4, 0.2], [8898, 3, 4, 2.31], [11089, 1, 4, 0.38], [10407, 10, 6, 1.31], [3576, 25, 4, 0.51], [491, 10, 6, 0.69], [13035, 3, 4, 1.32], [972, 1, 4, 0.5], [9069, 1, 4, 0.74], [10939, 2, 4, 1.93], [8659, 1, 4, 1.01], [19931, 1, 5, 0.76], [11087, 2, 4, 1.27], [2438, 2, 5, 1.87], [958, 2, 4, 0.47], [3577, 29, 4, 0.52], [23611, 3, 5, 0.5], [1523, 1, 4, 1.08], [6935, 2, 223, 5.26], [305, 2, 119, 3.38], [2778, 2, 127, 3.51], [205, 2, 39, 3.38], [6936, 2, 223, 5.64], [616, 2, 106, 2.23], [88, 10, 462, 3.29], [144, 2, 35, 3.5], [8648, 2, 185, 5.15], [8915, 2, 139, 2.04], [326, 2, 87, 3.3], [589, 2, 124, 3.05], [11681, 2, 222, 5.79], [7036, 1, 104, 4.72], [8650, 2, 185, 4.92], [2327, 2, 123, 3.43], [593, 2, 186, 3.67], [3893, 1, 97, 2.69], [141, 2, 125, 4.03], [7004, 1, 57, 3.23], [3840, 1, 41, 1.53], [3891, 1, 120, 2.38], [2050, 3, 374, 5.77], [146, 2, 123, 4.01], [3889, 1, 120, 2.38], [2055, 3, 374, 5.86], [143, 2, 120, 3.39], [3980, 4, 391, 4.8], [10, 2, 101, 2.65], [8672, 2, 232, 5.13], [2054, 3, 374, 6.0], [12870, 1, 112, 6.0], [2057, 3, 374, 5.97], [5165, 1, 45, 5.79], [3975, 4, 391, 4.93], [159, 3, 682, 2.38], [7084, 3, 105, 3.88], [145, 2, 54, 3.93], [523, 2, 125, 3.5], [21793, 1, 230, 2.38], [75, 2, 141, 2.25], [7005, 1, 76, 2.78], [3981, 3, 1310, 4.44], [9760, 29, 58, 3.31], [3982, 3, 641, 4.81], [20927, 1, 21, 3.02], [6158, 2, 63, 3.69], [997, 2, 194, 6.0], [214, 3, 194, 2.12], [5165, 2, 357, 5.27], [2912, 1, 45, 4.47], [22316, 3, 233, 2.92], [11953, 1, 49, 2.84], [229, 1, 62, 3.67], [998, 2, 143, 5.74], [346, 3, 457, 2.85], [6497, 1, 36, 2.23], [389, 4, 166, 4.21], [996, 2, 194, 6.0], [1492, 1, 36, 2.84], [955, 2, 102, 2.77], [11490, 1, 104, 2.38], [6496, 1, 30, 3.0], [74, 1, 164, 4.25], [2336, 3, 557, 2.18]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 5, 0.2], [8650, 2, 4, 1.46], [130, 1, 5, 0.45], [2327, 2, 5, 0.2], [589, 2, 6, 0.2], [8672, 2, 6, 0.41], [326, 2, 4, 1.62], [6935, 2, 9, 1.31], [206, 2, 4, 0.2], [142, 2, 5, 0.2], [11837, 2, 4, 0.55], [11838, 2, 5, 0.2], [6936, 2, 4, 1.59], [12721, 2, 5, 0.48], [8915, 2, 5, 0.2], [2049, 3, 11, 0.21], [1446, 2, 4, 0.2], [2778, 2, 6, 0.2], [8676, 2, 4, 0.52], [615, 2, 4, 0.44], [305, 2, 5, 0.98], [593, 2, 5, 0.48], [616, 2, 4, 0.45], [21793, 1, 4, 0.99], [413, 1, 4, 0.89], [11835, 2, 4, 0.55], [411, 2, 4, 0.2], [412, 1, 4, 0.5], [10574, 3, 6, 1.75], [12349, 1, 4, 0.52], [8675, 2, 6, 0.73], [145, 2, 6, 0.49], [8673, 2, 5, 0.47], [143, 2, 4, 0.57], [6158, 2, 4, 0.88], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [3495, 3, 13, 0.85], [2050, 3, 5, 0.34], [2055, 3, 5, 0.41], [146, 2, 4, 0.79], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [7885, 4, 5, 0.94], [88, 10, 8, 0.95], [416, 1, 4, 0.8], [144, 2, 4, 0.54], [7084, 3, 4, 0.55], [2859, 15, 4, 0.41], [21798, 1, 4, 0.59], [10993, 2, 4, 0.39], [346, 3, 5, 0.46], [335, 3, 10, 0.87], [2424, 29, 4, 2.32], [7705, 2, 4, 1.05], [2423, 80, 4, 0.58], [2423, 29, 4, 0.58], [3848, 2, 4, 1.07], [7704, 2, 4, 1.05], [5165, 1, 4, 2.3], [13023, 3, 6, 1.51], [346, 1, 4, 0.35], [1519, 3, 10, 0.23], [201, 3, 4, 1.01], [2424, 80, 4, 2.32], [60, 3, 5, 1.93], [1414, 15, 4, 0.41], [410, 1, 4, 0.38], [6494, 1, 4, 0.47], [345, 3, 4, 1.04], [13034, 3, 5, 1.37], [11490, 1, 4, 0.46], [5208, 3, 8, 0.48], [11770, 1, 4, 0.39], [432, 3, 5, 2.04], [3430, 15, 4, 0.35], [11954, 1, 4, 0.68], [2703, 3, 4, 0.83], [6952, 1, 4, 0.48], [7004, 1, 4, 0.38], [7706, 2, 4, 0.55], [20927, 1, 4, 0.7], [3429, 15, 4, 0.42], [114, 3, 4, 0.2], [308, 1, 5, 1.49], [7886, 4, 6, 0.44], [1886, 2, 4, 0.41], [105, 3, 4, 0.2], [11811, 1, 4, 0.38], [13928, 1, 4, 0.55], [2331, 1, 4, 0.52], [11089, 1, 4, 0.42], [94, 4, 4, 0.79], [3981, 3, 8, 0.51], [944, 15, 4, 0.41], [10407, 10, 6, 1.14], [5584, 3, 4, 2.72], [1490, 1, 4, 0.87], [8274, 3, 4, 2.02], [11674, 1, 4, 0.87], [3, 2, 4, 0.41], [22317, 3, 5, 0.41], [13033, 3, 4, 0.4], [952, 4, 4, 1.77], [10410, 10, 6, 1.18], [9690, 1, 4, 0.71], [7708, 2, 4, 1.05], [9342, 2, 4, 0.49], [1339, 3, 10, 0.42], [10409, 10, 6, 1.15], [202, 2, 4, 0.38], [21003, 2, 4, 0.72], [8898, 3, 4, 0.71], [10398, 2, 4, 0.87], [5812, 3, 4, 1.51], [957, 2, 4, 0.37], [95, 3, 8, 0.72], [963, 3, 4, 0.92], [823, 1, 4, 1.64], [6497, 1, 4, 0.44], [20969, 3, 4, 0.86], [10516, 3, 9, 0.37], [9082, 3, 15, 0.83], [186, 3, 7, 0.54], [20196, 2, 4, 0.72], [11677, 1, 4, 0.78], [4253, 1, 4, 0.73], [3980, 4, 5, 1.26], [7703, 2, 4, 1.05], [20555, 2, 4, 0.5], [3478, 2, 4, 0.77], [20682, 1, 4, 0.53], [6630, 3, 4, 1.83], [5165, 2, 5, 2.22], [8897, 3, 4, 0.71], [141, 2, 114, 3.66], [2328, 2, 109, 4.64], [8650, 2, 164, 5.1], [2327, 2, 109, 4.61], [589, 2, 119, 3.73], [8672, 2, 208, 4.69], [326, 2, 83, 4.69], [6935, 2, 204, 6.0], [206, 2, 29, 1.69], [142, 2, 114, 3.83], [11837, 2, 247, 2.64], [11838, 2, 193, 3.8], [6936, 2, 204, 5.36], [12721, 2, 205, 4.24], [1446, 2, 85, 2.42], [2778, 2, 136, 3.62], [8676, 2, 264, 2.57], [615, 2, 102, 2.42], [305, 2, 39, 3.81], [593, 2, 211, 2.41], [616, 2, 102, 2.44], [21793, 1, 214, 3.75], [413, 1, 79, 3.28], [11835, 2, 247, 2.64], [411, 2, 48, 2.4], [412, 1, 77, 3.49], [10574, 3, 362, 5.28], [12349, 1, 533, 3.29], [8675, 2, 208, 4.72], [145, 2, 99, 4.41], [8673, 2, 244, 5.19], [143, 2, 136, 2.67], [6158, 2, 239, 3.75], [151, 1, 61, 2.48], [11836, 2, 193, 3.64], [10149, 3, 807, 3.07], [3495, 3, 886, 3.08], [2050, 3, 349, 2.92], [146, 2, 138, 4.38], [2054, 3, 137, 2.97], [75, 2, 104, 5.49], [88, 10, 515, 4.9], [416, 1, 79, 3.11], [144, 2, 136, 2.61], [7084, 3, 119, 3.58], [2859, 15, 63, 3.18], [21798, 1, 128, 2.72], [10993, 2, 14, 1.67], [346, 3, 566, 2.39], [2424, 29, 31, 6.0], [7705, 2, 163, 4.19], [2423, 80, 169, 3.13], [2423, 29, 34, 3.13], [3848, 2, 154, 3.64], [7704, 2, 163, 4.19], [5165, 1, 43, 6.0], [13023, 3, 543, 4.34], [346, 1, 142, 2.24], [201, 3, 216, 5.45], [2424, 80, 153, 6.0], [1414, 15, 91, 2.36], [6494, 1, 47, 2.47], [345, 3, 277, 4.39]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.3], [6936, 2, 4, 1.17], [305, 2, 4, 0.2], [8672, 2, 5, 0.41], [615, 2, 4, 0.2], [145, 2, 5, 0.49], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 1.12], [2328, 2, 4, 0.2], [11681, 2, 5, 1.31], [5491, 2, 4, 0.2], [205, 2, 5, 0.37], [8650, 2, 4, 1.03], [11835, 2, 4, 0.55], [144, 2, 5, 1.03], [8673, 2, 5, 0.73], [8676, 2, 4, 0.6], [308, 1, 5, 0.73], [417, 2, 4, 0.47], [11837, 2, 4, 0.55], [3, 2, 4, 0.66], [6097, 80, 5, 2.36], [22247, 2, 5, 1.21], [6497, 1, 4, 0.2], [11836, 2, 5, 0.2], [990, 2, 4, 0.27], [593, 2, 5, 0.2], [6097, 29, 4, 2.86], [523, 2, 4, 0.66], [6098, 80, 4, 2.09], [11739, 2, 4, 0.2], [88, 10, 10, 0.19], [12350, 1, 4, 3.59], [8915, 2, 4, 0.2], [2054, 3, 4, 0.62], [326, 2, 4, 1.35], [13260, 29, 4, 0.73], [3429, 15, 4, 0.36], [75, 2, 4, 0.86], [336, 15, 4, 0.39], [1413, 15, 5, 0.2], [1492, 1, 4, 1.09], [411, 2, 4, 0.76], [6098, 29, 4, 3.09], [1050, 2, 4, 0.2], [1339, 3, 10, 0.42], [2422, 80, 4, 1.05], [6496, 1, 5, 1.05], [214, 3, 9, 0.54], [947, 15, 4, 0.44], [7704, 2, 4, 1.35], [10149, 3, 13, 0.88], [346, 1, 4, 0.35], [2859, 15, 4, 0.97], [346, 3, 5, 0.46], [345, 3, 4, 0.51], [11738, 2, 4, 0.8], [13264, 29, 5, 0.52], [13258, 29, 4, 0.7], [1490, 1, 4, 1.45], [1243, 2, 4, 0.61], [7004, 1, 5, 0.81], [229, 1, 4, 0.69], [5208, 3, 10, 0.54], [201, 3, 4, 1.05], [22558, 3, 6, 0.2], [10407, 10, 6, 1.14], [13259, 29, 4, 0.48], [2331, 1, 4, 0.52], [432, 3, 4, 0.9], [7705, 2, 4, 1.35], [12229, 2, 4, 0.45], [7706, 2, 4, 1.35], [418, 2, 4, 0.5], [114, 3, 4, 0.41], [957, 2, 5, 1.01], [13928, 1, 4, 0.55], [1163, 3, 4, 1.45], [3478, 2, 4, 0.77], [11844, 2, 4, 0.63], [8938, 2, 4, 0.43], [7036, 1, 4, 0.43], [9784, 1, 4, 1.01], [11490, 1, 4, 0.53], [11687, 2, 4, 0.79], [11404, 2, 4, 0.48], [2703, 3, 4, 0.83], [410, 1, 4, 0.63], [12348, 1, 4, 0.51], [13258, 25, 4, 0.66], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [12870, 1, 4, 0.94], [413, 1, 4, 1.68], [11690, 2, 4, 0.52], [956, 2, 4, 0.53], [7708, 2, 4, 1.35], [11161, 1, 5, 1.2], [11159, 1, 7, 0.84], [9760, 29, 4, 0.85], [11689, 2, 4, 0.77], [22125, 2, 4, 0.36], [5976, 1, 4, 1.12], [12373, 1, 5, 0.45], [105, 3, 4, 0.41], [21781, 2, 4, 0.47], [2991, 3, 4, 2.31], [1274, 1, 4, 1.97], [7005, 1, 4, 0.81], [5584, 3, 4, 2.72], [2805, 137, 5, 2.01], [9209, 29, 4, 0.73], [11811, 1, 4, 0.38], [3495, 3, 13, 0.85], [13259, 25, 4, 0.48], [11489, 1, 4, 1.02], [4253, 1, 4, 0.23], [8285, 2, 5, 0.49], [20927, 1, 4, 0.7], [8600, 1, 4, 0.86], [9372, 1, 4, 1.74], [247, 1, 4, 0.73], [10147, 1, 4, 0.36], [12764, 2, 5, 0.43], [21269, 3, 4, 1.4], [3722, 25, 5, 0.38], [9491, 21, 10, 1.69], [7007, 1, 4, 0.81], [11887, 2, 4, 0.57], [5076, 1, 4, 1.14], [6360, 10, 9, 0.65], [2778, 2, 133, 3.36], [6935, 2, 237, 6.0], [6936, 2, 242, 5.18], [305, 2, 107, 3.74], [8672, 2, 265, 3.47], [615, 2, 113, 2.8], [145, 2, 109, 3.69], [12721, 2, 204, 4.47], [2327, 2, 109, 4.61], [143, 2, 39, 4.22], [146, 2, 109, 4.42], [2328, 2, 109, 4.64], [11681, 2, 260, 5.33], [5491, 2, 100, 2.18], [205, 2, 29, 3.53], [8650, 2, 163, 6.0], [11835, 2, 247, 2.64], [144, 2, 115, 4.21], [8673, 2, 208, 5.73], [8676, 2, 208, 3.88], [308, 1, 159, 3.34], [417, 2, 121, 4.17], [11837, 2, 247, 2.64], [3, 2, 88, 3.99], [6097, 80, 49, 6.0], [22247, 2, 204, 5.02], [6497, 1, 29, 3.63], [11836, 2, 193, 3.72], [990, 2, 40, 3.84], [593, 2, 179, 3.67], [6097, 29, 25, 6.0], [523, 2, 114, 4.01], [11739, 2, 23, 3.32], [88, 10, 406, 5.3], [12350, 1, 555, 6.0], [8915, 2, 51, 2.36], [2054, 3, 126, 3.1], [326, 2, 79, 4.17], [13260, 29, 67, 3.85], [75, 2, 133, 3.41], [336, 15, 29, 1.67], [1413, 15, 26, 2.41], [1492, 1, 15, 3.32], [411, 2, 29, 2.38], [1339, 3, 461, 1.67], [2422, 80, 168, 3.75], [6496, 1, 34, 4.35], [214, 3, 584, 4.28], [947, 15, 36, 3.13], [7704, 2, 162, 4.45], [10149, 3, 795, 3.76], [346, 1, 142, 2.24], [2859, 15, 59, 3.98], [346, 3, 566, 2.39], [345, 3, 276, 4.24], [13264, 29, 63, 3.28], [13258, 29, 36, 4.07], [1490, 1, 45, 4.44], [229, 1, 75, 3.64], [5208, 3, 148, 3.08], [201, 3, 276, 4.63], [22558, 3, 347, 4.02], [10407, 10, 1103, 3.67], [13259, 29, 32, 3.02]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [362, 2, 4, 0.97], [361, 2, 5, 0.59], [12721, 2, 6, 1.21], [6935, 2, 8, 1.55], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [8675, 2, 5, 0.73], [2049, 3, 12, 0.21], [3, 2, 6, 0.61], [22247, 2, 5, 1.0], [305, 2, 5, 0.98], [523, 2, 4, 0.66], [8650, 2, 5, 1.27], [11838, 2, 4, 0.41], [8648, 2, 5, 0.88], [2328, 2, 4, 1.16], [2776, 2, 5, 0.2], [11739, 2, 4, 0.2], [2327, 2, 4, 0.64], [11837, 2, 4, 0.45], [411, 2, 4, 0.2], [12352, 1, 4, 2.59], [589, 2, 5, 0.2], [412, 1, 4, 0.64], [143, 2, 4, 0.51], [11835, 2, 4, 0.49], [146, 2, 4, 0.38], [583, 2, 4, 0.81], [6097, 80, 4, 2.61], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [145, 2, 4, 0.38], [11836, 2, 5, 0.54], [6097, 29, 5, 0.66], [144, 2, 4, 0.49], [10574, 3, 5, 0.6], [75, 2, 4, 0.87], [12344, 1, 4, 1.35], [6496, 1, 4, 1.37], [6494, 1, 4, 0.47], [2054, 3, 4, 1.21], [1413, 15, 4, 0.46], [6098, 80, 4, 0.83], [8915, 2, 5, 0.2], [1243, 2, 5, 0.23], [1886, 2, 6, 0.2], [21793, 1, 4, 0.99], [944, 15, 4, 0.2], [6098, 29, 4, 1.33], [1492, 1, 4, 0.47], [247, 1, 4, 1.91], [3429, 15, 4, 0.35], [2859, 15, 4, 0.39], [1490, 1, 4, 0.44], [1414, 15, 4, 0.35], [201, 3, 4, 0.44], [6158, 2, 4, 0.88], [3478, 2, 4, 0.77], [308, 1, 5, 0.29], [13928, 1, 4, 0.55], [336, 15, 4, 0.39], [7084, 3, 4, 0.55], [11489, 1, 4, 0.56], [3982, 3, 12, 0.19], [1703, 2, 4, 0.7], [12526, 2, 4, 1.05], [9342, 2, 4, 0.49], [5812, 3, 5, 2.0], [186, 3, 7, 0.54], [11490, 1, 4, 0.48], [4253, 1, 4, 0.73], [94, 4, 4, 0.39], [5813, 3, 6, 2.0], [1050, 2, 4, 0.36], [10398, 2, 4, 0.37], [5811, 3, 5, 1.48], [2821, 3, 8, 0.5], [5939, 3, 4, 0.47], [8599, 1, 4, 1.23], [11811, 1, 4, 0.38], [229, 1, 4, 1.71], [3980, 4, 5, 1.26], [8943, 3, 4, 0.52], [11771, 1, 4, 0.68], [8898, 3, 5, 3.26], [1339, 3, 10, 0.42], [3495, 3, 13, 0.85], [2991, 3, 5, 1.5], [1049, 2, 4, 0.36], [12764, 2, 5, 0.43], [346, 3, 5, 0.46], [13928, 2, 4, 0.55], [19687, 1, 4, 1.21], [192, 3, 7, 0.76], [7036, 1, 4, 0.43], [9690, 1, 4, 0.8], [22573, 2, 4, 0.99], [5584, 3, 4, 2.72], [10124, 1, 4, 2.17], [105, 3, 4, 0.38], [8897, 3, 5, 3.26], [8274, 3, 4, 1.73], [18964, 1, 4, 0.79], [11886, 2, 4, 0.75], [10147, 1, 4, 0.36], [3334, 5, 4, 2.01], [1701, 2, 4, 0.55], [1277, 1, 4, 0.44], [1523, 1, 4, 1.04], [20927, 1, 4, 0.64], [4001, 3, 15, 0.96], [8635, 3, 4, 1.73], [8286, 2, 5, 0.36], [1274, 1, 4, 2.04], [23275, 2, 4, 0.99], [11678, 1, 4, 0.38], [10516, 3, 9, 0.86], [13260, 29, 4, 0.73], [23031, 3, 4, 1.38], [3984, 3, 5, 0.62], [11677, 1, 4, 0.78], [3979, 3, 5, 0.88], [9065, 2, 4, 0.84], [45, 2, 4, 2.19], [21269, 3, 4, 1.4], [10181, 26, 5, 0.46], [346, 1, 4, 0.35], [9373, 5, 4, 0.36], [11690, 2, 4, 0.52], [973, 3, 5, 0.65], [9069, 1, 4, 0.62], [5976, 1, 4, 1.12], [7005, 1, 4, 0.74], [8285, 2, 5, 0.49], [8672, 2, 208, 4.69], [141, 2, 114, 3.66], [362, 2, 75, 3.31], [361, 2, 82, 3.87], [12721, 2, 75, 5.58], [6935, 2, 203, 6.0], [206, 2, 29, 1.69], [8676, 2, 208, 3.88], [8675, 2, 208, 4.17], [2049, 3, 290, 2.08], [3, 2, 88, 3.91], [22247, 2, 206, 4.61], [305, 2, 107, 3.67], [523, 2, 114, 4.01], [8650, 2, 164, 4.93], [11838, 2, 246, 2.36], [8648, 2, 164, 4.8], [2328, 2, 139, 3.8], [2776, 2, 114, 3.67], [11739, 2, 25, 2.88], [2327, 2, 130, 3.76], [11837, 2, 229, 3.15], [411, 2, 61, 3.48], [12352, 1, 560, 6.0], [412, 1, 77, 3.63], [143, 2, 136, 2.55], [11835, 2, 229, 3.22], [146, 2, 138, 3.59], [583, 2, 60, 3.03], [6097, 80, 48, 6.0], [326, 2, 79, 3.81], [10149, 3, 807, 3.07], [145, 2, 138, 3.28], [11836, 2, 229, 3.32], [6097, 29, 29, 3.55], [144, 2, 136, 2.51], [10574, 3, 460, 4.43], [75, 2, 134, 3.24], [12344, 1, 560, 4.17], [6496, 1, 36, 4.21], [6494, 1, 47, 2.47], [1413, 15, 91, 2.46], [6098, 80, 69, 3.79], [1243, 2, 26, 3.69], [1886, 2, 114, 3.71], [21793, 1, 214, 3.75], [944, 15, 12, 3.65], [6098, 29, 33, 4.49], [1492, 1, 30, 2.43], [247, 1, 80, 5.25], [2859, 15, 63, 2.32], [1490, 1, 47, 2.42], [1414, 15, 91, 2.24], [201, 3, 281, 2.42], [6158, 2, 239, 3.75], [3478, 2, 40, 2.86], [308, 1, 148, 4.19], [13928, 1, 43, 4.47], [336, 15, 29, 1.67], [7084, 3, 119, 3.58], [3982, 3, 698, 2.93], [1703, 2, 152, 3.14], [12526, 2, 253, 3.59], [9342, 2, 122, 1.85]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [8672, 2, 7, 0.2], [8650, 2, 4, 0.46], [248, 1, 5, 0.2], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [205, 2, 4, 0.37], [11681, 2, 5, 1.2], [417, 2, 4, 0.54], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [1124, 2, 8, 0.2], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [206, 2, 4, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [1005, 2, 4, 0.2], [11835, 2, 5, 0.36], [144, 2, 4, 0.46], [8915, 2, 5, 0.89], [308, 1, 5, 0.73], [88, 10, 10, 0.19], [434, 2, 5, 0.2], [11739, 2, 5, 0.89], [6158, 2, 6, 0.2], [11234, 2, 4, 0.2], [2424, 29, 4, 2.32], [11738, 2, 4, 0.2], [2423, 29, 4, 0.58], [7704, 2, 4, 1.35], [11836, 2, 4, 0.2], [2424, 80, 4, 2.32], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [2054, 3, 4, 0.65], [7706, 2, 4, 1.65], [10574, 3, 5, 1.75], [2423, 80, 4, 0.58], [3, 2, 4, 0.54], [412, 1, 4, 0.64], [2859, 15, 4, 1.87], [3478, 2, 4, 1.28], [12720, 2, 4, 0.98], [10149, 3, 13, 1.48], [74, 1, 4, 1.63], [12343, 1, 4, 1.57], [346, 3, 5, 0.46], [11919, 1, 4, 0.9], [1339, 3, 10, 0.42], [60, 3, 5, 1.7], [6497, 1, 4, 0.44], [346, 1, 4, 0.35], [418, 2, 4, 0.6], [13928, 1, 4, 0.55], [411, 2, 4, 0.37], [13034, 3, 6, 0.65], [18964, 1, 4, 0.79], [13028, 3, 4, 0.37], [11089, 1, 4, 0.42], [10993, 2, 4, 0.59], [413, 1, 4, 1.68], [13260, 29, 5, 1.17], [7036, 1, 4, 0.93], [94, 4, 5, 1.27], [6952, 1, 4, 1.59], [3891, 1, 4, 1.26], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [2991, 3, 4, 2.17], [22317, 3, 8, 0.2], [21793, 1, 5, 1.94], [7708, 2, 4, 1.55], [3889, 1, 5, 2.08], [345, 3, 5, 1.26], [6630, 3, 4, 2.4], [11490, 1, 4, 0.53], [5208, 3, 8, 0.48], [1243, 2, 5, 0.45], [1490, 1, 4, 0.87], [2912, 1, 4, 1.54], [3495, 3, 13, 0.85], [563, 2, 4, 0.93], [229, 1, 4, 0.69], [20680, 1, 4, 0.92], [1049, 2, 4, 0.2], [336, 15, 4, 0.2], [6627, 3, 4, 0.2], [5940, 3, 4, 0.2], [12229, 2, 4, 0.45], [192, 3, 7, 1.24], [11581, 29, 4, 0.87], [13033, 3, 4, 0.69], [23275, 2, 4, 0.99], [2331, 1, 4, 0.64], [1274, 1, 4, 1.57], [2805, 137, 5, 1.4], [247, 1, 4, 1.55], [5165, 1, 4, 2.3], [201, 3, 4, 1.21], [8635, 3, 4, 0.59], [114, 3, 4, 1.73], [942, 3, 4, 0.25], [11914, 1, 4, 0.41], [6496, 1, 4, 1.55], [8898, 3, 5, 0.48], [6629, 3, 4, 0.47], [1703, 2, 4, 0.47], [7886, 4, 4, 0.44], [11770, 1, 4, 1.57], [5812, 3, 5, 0.5], [9372, 1, 4, 1.74], [3934, 5, 6, 0.56], [9760, 29, 4, 1.96], [202, 2, 4, 0.93], [21269, 3, 5, 0.5], [186, 3, 9, 1.23], [332, 2, 4, 0.93], [951, 4, 4, 1.5], [83, 2, 4, 0.55], [4940, 1, 4, 0.36], [10527, 3, 8, 2.22], [6360, 10, 10, 0.83], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [21781, 2, 4, 0.47], [12373, 1, 5, 0.45], [9082, 3, 15, 0.83], [20927, 1, 4, 0.7], [5584, 3, 4, 2.72], [13498, 3, 4, 0.88], [12870, 1, 4, 1.74], [6935, 2, 204, 6.0], [305, 2, 125, 3.17], [2328, 2, 109, 4.64], [8672, 2, 208, 5.22], [8650, 2, 192, 4.6], [248, 1, 14, 1.58], [143, 2, 108, 3.72], [6936, 2, 204, 5.75], [145, 2, 110, 3.71], [11837, 2, 246, 2.45], [205, 2, 29, 3.53], [11681, 2, 261, 5.0], [417, 2, 134, 3.32], [75, 2, 106, 4.57], [146, 2, 110, 3.82], [1124, 2, 134, 4.52], [12721, 2, 205, 4.24], [8673, 2, 209, 5.48], [206, 2, 60, 3.53], [8853, 2, 204, 5.66], [326, 2, 83, 3.25], [1005, 2, 77, 4.76], [11835, 2, 229, 2.97], [144, 2, 110, 3.63], [8915, 2, 100, 3.75], [308, 1, 159, 3.34], [88, 10, 406, 5.3], [434, 2, 99, 2.42], [6158, 2, 189, 4.79], [11234, 2, 144, 3.13], [2424, 29, 31, 6.0], [2423, 29, 34, 3.13], [7704, 2, 162, 4.45], [11836, 2, 193, 3.64], [2424, 80, 153, 6.0], [7705, 2, 46, 5.39], [1413, 15, 55, 3.77], [2054, 3, 126, 2.85], [7706, 2, 46, 5.39], [10574, 3, 362, 5.43], [2423, 80, 169, 3.13], [3, 2, 87, 4.73], [412, 1, 77, 3.63], [12720, 2, 205, 4.24], [10149, 3, 801, 4.21], [74, 1, 183, 4.71], [12343, 1, 566, 4.59], [346, 3, 566, 2.39], [1339, 3, 461, 1.67], [6497, 1, 33, 3.13], [346, 1, 142, 2.24], [418, 2, 129, 2.73], [13928, 1, 43, 4.47], [411, 2, 85, 3.53], [13034, 3, 508, 4.57], [18964, 1, 49, 3.09], [13028, 3, 125, 4.24], [11089, 1, 159, 2.38], [10993, 2, 14, 3.78], [413, 1, 78, 4.8], [13260, 29, 53, 4.53]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.44], [2327, 2, 5, 0.64], [11681, 2, 10, 0.85], [362, 2, 4, 0.56], [8648, 2, 4, 1.08], [8650, 2, 4, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 0.97], [205, 2, 4, 0.46], [2328, 2, 4, 0.39], [1446, 2, 4, 0.2], [2049, 3, 6, 0.21], [130, 1, 4, 0.2], [2775, 2, 4, 0.2], [361, 2, 5, 0.4], [8853, 2, 5, 0.94], [593, 2, 6, 0.2], [143, 2, 5, 0.51], [140, 2, 4, 0.39], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [7004, 1, 4, 0.39], [413, 1, 4, 0.66], [21793, 1, 4, 1.65], [12350, 1, 4, 0.19], [1124, 2, 4, 0.2], [151, 1, 5, 0.37], [7036, 1, 4, 1.31], [990, 2, 5, 0.2], [5165, 1, 4, 2.3], [12349, 1, 4, 1.05], [145, 2, 4, 1.39], [201, 3, 6, 0.42], [248, 1, 4, 0.2], [8089, 1, 4, 1.36], [6952, 1, 4, 1.04], [6097, 80, 4, 2.88], [2050, 3, 4, 1.21], [2055, 3, 5, 0.71], [345, 3, 6, 0.2], [144, 2, 4, 0.49], [10993, 2, 4, 0.41], [7084, 3, 4, 3.17], [11770, 1, 4, 0.47], [2057, 3, 5, 0.49], [3891, 1, 4, 0.25], [2912, 1, 4, 0.86], [5165, 2, 7, 2.22], [998, 2, 4, 0.23], [3893, 1, 4, 0.63], [9372, 1, 4, 0.98], [12870, 1, 4, 0.47], [12343, 1, 4, 1.05], [7885, 4, 4, 0.99], [2424, 80, 4, 2.15], [12351, 1, 4, 1.05], [6098, 80, 4, 1.89], [6097, 29, 4, 2.41], [20927, 1, 4, 0.36], [10574, 3, 5, 1.59], [6158, 2, 5, 0.84], [3334, 5, 4, 0.38], [12345, 1, 4, 1.05], [11089, 1, 4, 0.37], [10149, 3, 15, 1.48], [1492, 1, 4, 0.56], [2912, 2, 5, 0.7], [3889, 1, 4, 0.63], [4032, 29, 4, 0.63], [12304, 1, 4, 1.07], [972, 3, 4, 1.01], [3576, 25, 4, 0.92], [1700, 2, 4, 0.49], [411, 2, 4, 0.93], [13034, 3, 4, 1.07], [2331, 1, 4, 1.01], [11583, 29, 5, 0.2], [229, 1, 4, 2.07], [11426, 25, 4, 0.51], [5151, 2, 4, 0.93], [11490, 1, 4, 0.93], [995, 2, 4, 0.62], [3, 2, 4, 0.32], [8677, 3, 6, 1.21], [12764, 2, 5, 0.43], [2160, 68, 4, 1.02], [3478, 2, 4, 1.12], [13893, 2, 4, 1.32], [2805, 137, 4, 0.83], [3575, 25, 4, 0.6], [13023, 3, 5, 1.52], [13280, 1, 4, 1.09], [5812, 3, 5, 2.0], [6494, 1, 4, 1.48], [3577, 25, 4, 0.45], [11814, 1, 4, 0.48], [4253, 1, 4, 1.41], [11813, 1, 4, 1.53], [2438, 2, 5, 1.68], [75, 2, 4, 0.36], [9289, 29, 4, 1.08], [11404, 2, 4, 0.43], [9971, 2, 4, 0.92], [957, 2, 5, 0.91], [9967, 2, 4, 0.92], [1413, 15, 4, 0.45], [11150, 2, 5, 0.44], [22317, 3, 4, 0.44], [8283, 2, 5, 0.74], [9069, 1, 4, 0.8], [4586, 10, 11, 0.8], [5584, 3, 4, 1.38], [2878, 1, 5, 0.44], [114, 3, 4, 1.53], [9491, 21, 8, 1.43], [21697, 3, 4, 0.44], [11812, 1, 4, 0.41], [9964, 2, 4, 0.92], [9965, 2, 4, 0.92], [4076, 3, 4, 1.42], [10407, 10, 7, 1.22], [10609, 1, 4, 1.55], [336, 15, 4, 0.39], [1163, 3, 4, 1.45], [8926, 1, 4, 2.31], [12647, 1, 4, 0.75], [11739, 2, 4, 0.39], [13249, 29, 4, 1.16], [3495, 3, 10, 0.82], [11687, 2, 4, 0.38], [7324, 1, 4, 0.56], [11425, 25, 4, 0.51], [8285, 2, 4, 0.52], [6935, 2, 202, 5.27], [141, 2, 114, 3.01], [589, 2, 89, 3.17], [2778, 2, 146, 2.77], [6936, 2, 202, 5.81], [2327, 2, 111, 3.3], [11681, 2, 220, 6.0], [362, 2, 111, 3.45], [8648, 2, 170, 5.97], [8650, 2, 179, 6.0], [326, 2, 71, 3.85], [2328, 2, 119, 4.01], [1446, 2, 68, 3.34], [2049, 3, 272, 2.27], [2775, 2, 146, 2.77], [361, 2, 123, 3.53], [8853, 2, 222, 6.0], [593, 2, 53, 3.38], [143, 2, 117, 3.68], [140, 2, 84, 2.91], [3840, 1, 40, 1.79], [523, 2, 123, 3.41], [7004, 1, 19, 2.03], [413, 1, 80, 2.72], [21793, 1, 220, 4.63], [12350, 1, 488, 3.41], [1124, 2, 147, 3.88], [7036, 1, 119, 4.05], [5165, 1, 36, 5.87], [12349, 1, 575, 5.14], [145, 2, 35, 3.51], [248, 1, 13, 3.27], [8089, 1, 65, 4.06], [6952, 1, 148, 5.46], [6097, 80, 54, 6.0], [2055, 3, 166, 3.43], [345, 3, 238, 4.1], [144, 2, 138, 2.39], [10993, 2, 19, 1.89], [11770, 1, 208, 2.35], [2057, 3, 166, 3.43], [3891, 1, 92, 3.38], [2912, 1, 43, 3.1], [5165, 2, 347, 5.64], [998, 2, 191, 4.68], [3893, 1, 116, 2.66], [9372, 1, 215, 4.91], [12870, 1, 129, 3.03], [12343, 1, 575, 5.14], [2424, 80, 154, 5.59], [12351, 1, 575, 5.14], [6098, 80, 59, 5.09], [6097, 29, 27, 6.0], [20927, 1, 19, 1.99], [10574, 3, 400, 4.31], [6158, 2, 207, 3.96], [3334, 5, 168, 3.45], [12345, 1, 575, 5.14], [11089, 1, 125, 3.59], [10149, 3, 809, 4.06], [1492, 1, 35, 2.53], [2912, 2, 348, 2.71], [3889, 1, 116, 2.66]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.2], [2049, 3, 10, 0.21], [141, 2, 4, 0.39], [205, 2, 4, 0.2], [326, 2, 4, 0.47], [130, 1, 4, 0.5], [144, 2, 4, 0.5], [589, 2, 6, 0.2], [151, 1, 4, 0.46], [362, 2, 4, 1.32], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [145, 2, 4, 0.38], [206, 2, 4, 0.2], [143, 2, 4, 0.58], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [1777, 1, 5, 0.93], [6936, 2, 6, 1.17], [5151, 2, 4, 1.55], [8650, 2, 5, 1.15], [2778, 2, 4, 0.2], [22247, 2, 4, 1.07], [8677, 3, 5, 2.06], [10, 2, 6, 0.2], [76, 2, 4, 1.11], [10149, 3, 17, 1.32], [8649, 2, 4, 1.15], [2050, 3, 5, 0.77], [412, 1, 4, 0.91], [13028, 3, 4, 0.5], [361, 2, 4, 0.74], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [411, 2, 4, 0.2], [410, 1, 4, 0.2], [3478, 2, 4, 0.78], [6158, 2, 6, 0.2], [308, 1, 4, 0.72], [167, 3, 4, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 17, 1.31], [45, 2, 4, 1.12], [7036, 1, 4, 1.64], [5812, 3, 5, 2.5], [9827, 3, 4, 0.2], [94, 4, 4, 0.51], [3893, 1, 4, 0.53], [168, 3, 5, 0.29], [3889, 1, 4, 0.53], [10574, 3, 5, 1.17], [3891, 1, 4, 0.53], [2049, 1, 4, 0.4], [13280, 1, 4, 1.23], [12870, 1, 4, 2.83], [2336, 3, 6, 0.5], [335, 3, 10, 1.08], [1504, 2, 6, 0.2], [6097, 29, 4, 2.36], [6097, 80, 4, 2.86], [11737, 2, 4, 1.04], [95, 3, 15, 0.19], [998, 2, 4, 1.27], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [79, 1, 4, 0.2], [6098, 29, 4, 2.02], [22316, 3, 5, 0.49], [9069, 1, 4, 1.09], [6098, 80, 4, 3.02], [1070, 7, 10, 0.43], [14017, 3, 4, 0.67], [8898, 3, 5, 2.17], [9760, 29, 4, 0.43], [346, 3, 5, 0.5], [997, 2, 4, 1.29], [20498, 1, 5, 0.55], [7887, 4, 4, 0.37], [13034, 3, 8, 0.77], [1622, 1, 5, 0.2], [8945, 3, 5, 1.31], [13260, 29, 4, 0.73], [22554, 10, 9, 0.48], [336, 15, 4, 0.2], [7567, 3, 4, 1.62], [5946, 1, 4, 0.53], [5811, 3, 4, 1.68], [5813, 3, 5, 1.08], [5513, 2, 4, 0.66], [22317, 3, 6, 0.2], [11085, 2, 6, 0.45], [5086, 1, 6, 0.2], [5209, 3, 4, 0.54], [12924, 1, 4, 0.2], [12350, 1, 4, 2.07], [20498, 3, 6, 0.6], [995, 2, 4, 1.31], [229, 1, 4, 2.57], [974, 3, 4, 0.88], [996, 2, 4, 0.74], [972, 3, 6, 0.35], [33, 1, 4, 0.74], [9691, 1, 4, 1.91], [8557, 3, 4, 0.2], [35, 1, 4, 1.05], [110, 4, 4, 0.44], [3049, 3, 4, 1.98], [1080, 3, 4, 0.3], [20486, 3, 6, 0.49], [1703, 2, 4, 1.38], [13023, 3, 5, 1.74], [2424, 80, 4, 1.45], [4076, 3, 4, 3.19], [5584, 3, 4, 0.5], [39, 1, 4, 1.05], [8104, 1, 4, 0.39], [14018, 3, 4, 0.5], [3900, 3, 4, 1.18], [952, 4, 4, 1.94], [215, 4, 4, 3.57], [11510, 3, 5, 0.48], [9081, 3, 9, 0.28], [9613, 1, 4, 0.45], [34, 1, 4, 1.05], [20486, 1, 4, 0.51], [114, 3, 4, 0.48], [972, 1, 4, 0.98], [1414, 15, 4, 0.2], [2854, 21, 10, 0.47], [20969, 3, 4, 1.28], [6497, 1, 5, 1.0], [3047, 3, 4, 1.05], [8672, 2, 190, 5.07], [305, 2, 98, 3.64], [6935, 2, 246, 4.24], [2049, 3, 432, 2.52], [141, 2, 105, 2.87], [205, 2, 64, 2.48], [326, 2, 62, 3.13], [130, 1, 20, 2.4], [144, 2, 128, 2.07], [589, 2, 61, 2.08], [151, 1, 46, 2.99], [362, 2, 122, 3.65], [1776, 1, 85, 4.51], [146, 2, 102, 4.05], [145, 2, 130, 2.51], [206, 2, 79, 2.86], [143, 2, 100, 3.21], [2328, 2, 102, 3.16], [8648, 2, 150, 4.67], [1777, 1, 85, 3.88], [6936, 2, 190, 4.62], [5151, 2, 17, 4.09], [8650, 2, 150, 5.32], [2778, 2, 105, 3.21], [22247, 2, 246, 3.76], [8677, 3, 197, 5.23], [10, 2, 91, 3.16], [76, 2, 73, 4.44], [10149, 3, 575, 5.41], [8649, 2, 150, 5.01], [2050, 3, 318, 3.54], [412, 1, 57, 3.82], [13028, 3, 99, 3.08], [361, 2, 134, 2.53], [413, 1, 58, 3.3], [7004, 1, 54, 2.88], [11404, 2, 91, 2.3], [411, 2, 38, 3.03], [410, 1, 54, 2.83], [6158, 2, 195, 2.69], [308, 1, 146, 3.55], [5081, 2, 128, 3.15], [7005, 1, 42, 2.88], [3495, 3, 641, 4.39], [45, 2, 73, 5.82], [7036, 1, 85, 4.63], [5812, 3, 203, 6.0], [9827, 3, 59, 3.04], [94, 4, 80, 4.7], [3893, 1, 108, 2.17], [168, 3, 273, 3.61], [3889, 1, 108, 2.17], [10574, 3, 438, 3.43], [3891, 1, 108, 2.17], [2049, 1, 20, 1.88], [13280, 1, 271, 3.48], [12870, 1, 92, 6.0], [2336, 3, 456, 3.41], [335, 3, 989, 5.46], [1504, 2, 137, 2.99], [6097, 29, 23, 6.0], [6097, 80, 46, 6.0], [11737, 2, 49, 3.14], [95, 3, 752, 3.08]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.18], [305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [2049, 3, 15, 1.54], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.91], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 15, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [206, 2, 9, 0.68], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [8648, 2, 11, 3.26], [6936, 2, 10, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 3.02], [7886, 4, 7, 0.87], [248, 1, 7, 0.68], [2050, 3, 9, 1.03], [141, 2, 9, 1.62], [2991, 3, 7, 4.18], [74, 1, 7, 3.53], [2054, 3, 9, 1.08], [83, 2, 7, 1.12], [1446, 2, 7, 0.5], [1492, 1, 7, 1.85], [7004, 1, 7, 0.71], [2055, 3, 7, 0.82], [76, 2, 9, 2.08], [8649, 2, 11, 4.24], [345, 3, 9, 0.87], [11404, 2, 7, 0.67], [7084, 3, 9, 5.0], [3889, 1, 7, 0.8], [10825, 21, 13, 1.79], [61, 3, 7, 1.02], [10149, 3, 21, 1.67], [7036, 1, 7, 2.24], [21793, 1, 7, 3.94], [12870, 1, 9, 5.0], [33, 1, 9, 2.05], [94, 4, 9, 1.6], [5081, 2, 7, 1.33], [3478, 2, 9, 2.13], [10, 2, 7, 1.31], [11681, 2, 11, 3.47], [167, 3, 7, 2.54], [411, 2, 7, 0.71], [9827, 3, 7, 0.5], [308, 1, 7, 4.97], [1654, 2, 7, 1.54], [3891, 1, 7, 2.63], [1504, 2, 7, 2.8], [8677, 3, 9, 1.26], [201, 3, 9, 0.87], [168, 3, 9, 3.03], [3893, 1, 7, 2.63], [84, 2, 7, 0.86], [79, 1, 7, 1.16], [35, 1, 7, 2.45], [2336, 3, 9, 1.96], [13280, 1, 7, 2.96], [23, 1, 7, 1.29], [1490, 1, 7, 0.67], [9760, 29, 7, 1.04], [1243, 2, 7, 1.02], [6158, 2, 8, 0.86], [412, 1, 7, 2.69], [45, 2, 7, 2.72], [361, 2, 7, 2.25], [346, 1, 9, 1.08], [20927, 1, 7, 0.94], [1767, 25, 7, 1.14], [25, 1, 7, 1.46], [12225, 1, 7, 1.7], [9069, 1, 7, 0.73], [413, 1, 6, 2.06], [21269, 3, 7, 3.75], [3495, 3, 22, 2.26], [346, 3, 7, 0.98], [490, 1, 7, 1.52], [997, 2, 9, 2.24], [34, 1, 7, 1.69], [1766, 25, 9, 1.08], [8898, 3, 7, 2.78], [5946, 1, 7, 2.48], [9691, 1, 7, 3.41], [1070, 7, 15, 0.85], [1519, 3, 22, 0.73], [9372, 1, 7, 3.85], [14017, 3, 7, 1.6], [11954, 1, 7, 0.87], [20498, 1, 7, 1.3], [38, 1, 7, 1.9], [974, 3, 7, 2.64], [14037, 3, 11, 0.74], [22317, 3, 9, 0.98], [5584, 3, 7, 3.74], [972, 3, 8, 2.02], [1091, 1, 7, 1.77], [7567, 3, 7, 2.33], [20498, 3, 8, 1.9], [110, 4, 7, 0.68], [9828, 3, 9, 0.76], [8945, 3, 8, 1.04], [5813, 3, 9, 3.74], [2991, 1, 7, 3.22], [82, 2, 7, 1.0], [3048, 3, 7, 4.18], [39, 1, 7, 1.14], [1080, 3, 11, 1.59], [1414, 15, 9, 0.72], [24, 1, 7, 2.0], [13034, 3, 8, 2.65], [336, 15, 9, 0.68], [1767, 2, 9, 1.14], [202, 2, 7, 1.73], [13260, 29, 7, 2.28], [10780, 10, 7, 3.58], [5513, 2, 7, 1.1], [9082, 3, 24, 2.75], [11811, 1, 7, 3.28], [4203, 1, 9, 1.06], [2878, 1, 7, 2.34], [14018, 3, 7, 1.64], [8635, 3, 9, 0.8], [3900, 3, 7, 0.9], [8104, 1, 7, 0.85], [2336, 3, 588, 3.23], [13280, 1, 320, 4.24], [23, 1, 96, 3.54], [1490, 1, 43, 2.98], [9760, 29, 73, 2.31], [1243, 2, 99, 2.29], [6158, 2, 225, 3.16], [412, 1, 71, 4.36], [45, 2, 97, 4.53], [361, 2, 157, 3.51], [346, 1, 112, 2.88], [20927, 1, 40, 1.95], [1767, 25, 148, 3.4], [25, 1, 96, 3.71], [9069, 1, 123, 1.99], [413, 1, 73, 3.86], [21269, 3, 213, 5.55], [3495, 3, 827, 4.56], [346, 3, 448, 2.79], [997, 2, 174, 4.04], [34, 1, 81, 3.7], [1766, 25, 161, 3.33], [8898, 3, 247, 5.08], [5946, 1, 107, 3.78], [1070, 7, 510, 3.13], [1519, 3, 558, 1.46], [9372, 1, 165, 5.15], [14017, 3, 168, 4.21], [11954, 1, 174, 3.18], [20498, 1, 84, 4.11], [38, 1, 81, 3.7], [974, 3, 127, 3.95], [22317, 3, 229, 2.78], [5584, 3, 169, 5.54], [972, 3, 510, 3.45], [7567, 3, 71, 3.6], [20498, 3, 425, 3.7], [110, 4, 77, 2.1], [9828, 3, 64, 2.69], [8945, 3, 603, 2.29], [5813, 3, 428, 5.01], [2991, 1, 30, 4.52], [82, 2, 20, 1.76], [3048, 3, 198, 5.48], [39, 1, 81, 2.94], [1080, 3, 97, 3.39], [1414, 15, 85, 2.47], [24, 1, 57, 3.8], [13034, 3, 428, 3.96], [336, 15, 57, 1.69], [1767, 2, 25, 2.94], [202, 2, 73, 3.0], [13260, 29, 53, 3.55], [10780, 10, 278, 5.4], [5513, 2, 80, 2.37], [9082, 3, 1772, 4.58], [11811, 1, 328, 4.58], [4203, 1, 35, 2.86], [2878, 1, 58, 3.64], [14018, 3, 198, 2.9], [3900, 3, 45, 2.17], [8104, 1, 150, 2.65]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 0.93], [589, 2, 10, 0.87], [8915, 2, 8, 1.31], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 7, 0.74], [8648, 2, 11, 3.48], [2775, 2, 11, 0.61], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 2.81], [326, 2, 7, 2.24], [7036, 1, 11, 3.63], [2049, 3, 12, 0.71], [88, 10, 20, 2.1], [2776, 2, 11, 0.61], [141, 2, 7, 0.72], [7004, 1, 11, 2.57], [1446, 2, 7, 1.43], [206, 2, 7, 0.74], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2912, 1, 7, 3.11], [2055, 3, 7, 1.08], [142, 2, 7, 1.99], [3893, 1, 7, 0.71], [12870, 1, 9, 3.23], [5165, 1, 7, 4.43], [9372, 1, 7, 3.08], [7886, 4, 7, 0.8], [7084, 3, 7, 2.06], [3889, 1, 7, 1.38], [2054, 3, 7, 1.3], [2050, 3, 7, 1.57], [1622, 1, 7, 0.5], [10, 2, 7, 1.39], [21793, 1, 7, 1.02], [7573, 1, 16, 4.79], [3891, 1, 7, 0.76], [5208, 3, 11, 0.79], [75, 2, 7, 2.43], [10149, 3, 21, 3.07], [20927, 1, 9, 1.93], [997, 2, 9, 1.93], [3, 2, 9, 1.33], [11234, 2, 9, 1.3], [5165, 2, 8, 4.03], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [1886, 2, 9, 0.86], [94, 4, 9, 1.6], [346, 3, 9, 0.82], [35, 1, 7, 3.45], [22247, 2, 7, 2.52], [9491, 21, 32, 0.95], [996, 2, 9, 2.63], [955, 2, 7, 1.04], [83, 2, 9, 1.33], [229, 1, 7, 2.98], [33, 1, 7, 2.75], [7887, 4, 9, 2.4], [6158, 2, 7, 1.56], [2912, 2, 12, 3.18], [76, 2, 7, 1.69], [413, 1, 7, 3.62], [13928, 1, 7, 2.31], [2424, 80, 7, 2.78], [2805, 137, 7, 2.56], [5209, 3, 14, 2.79], [5076, 1, 7, 1.87], [346, 1, 7, 0.83], [8676, 2, 7, 3.15], [38, 1, 7, 3.14], [34, 1, 9, 2.65], [418, 2, 7, 1.04], [84, 2, 7, 2.7], [8104, 1, 7, 2.1], [12212, 29, 7, 1.4], [3495, 3, 18, 1.61], [11952, 1, 7, 0.83], [1414, 15, 7, 0.81], [39, 1, 7, 3.08], [11490, 1, 7, 1.85], [3048, 3, 7, 2.21], [11770, 1, 7, 1.65], [2424, 29, 7, 2.78], [411, 2, 7, 1.29], [10407, 10, 12, 3.71], [1703, 2, 7, 2.56], [9691, 1, 7, 2.35], [202, 2, 7, 1.68], [13928, 2, 7, 2.7], [11772, 1, 7, 2.43], [11953, 1, 7, 0.98], [5584, 3, 7, 5.0], [22316, 3, 7, 1.16], [23961, 3, 7, 4.58], [7567, 3, 7, 3.04], [13893, 2, 7, 2.25], [12764, 2, 10, 1.76], [13023, 3, 10, 1.41], [10410, 10, 15, 3.59], [1519, 3, 16, 0.62], [74, 1, 7, 5.0], [21269, 3, 7, 3.07], [1274, 1, 7, 1.26], [5164, 1, 7, 3.75], [410, 1, 7, 1.96], [2331, 1, 7, 1.23], [4253, 1, 7, 1.16], [1523, 1, 7, 1.16], [10408, 10, 8, 4.11], [1492, 1, 7, 0.87], [2438, 2, 8, 3.7], [12229, 2, 7, 1.44], [3430, 15, 7, 2.79], [6097, 80, 7, 2.43], [13034, 3, 7, 3.12], [3047, 3, 7, 3.16], [6805, 1, 7, 0.97], [8674, 2, 7, 2.33], [71, 15, 7, 0.67], [1243, 2, 7, 2.73], [21059, 1, 7, 3.09], [10780, 10, 7, 4.06], [11116, 1, 7, 1.08], [2436, 4, 7, 1.58], [6097, 29, 7, 1.52], [11812, 1, 7, 0.89], [1080, 3, 7, 2.78], [24257, 1, 7, 1.08], [3429, 15, 7, 0.71], [76, 2, 78, 3.73], [413, 1, 49, 4.92], [13928, 1, 34, 3.92], [2424, 80, 156, 4.21], [2805, 137, 151, 4.69], [5076, 1, 92, 4.0], [346, 1, 130, 2.96], [8676, 2, 263, 4.57], [38, 1, 26, 4.31], [34, 1, 77, 4.19], [418, 2, 131, 2.46], [84, 2, 51, 4.29], [8104, 1, 145, 4.33], [12212, 29, 101, 3.03], [3495, 3, 889, 3.02], [11952, 1, 185, 2.25], [1414, 15, 46, 2.03], [39, 1, 26, 4.25], [3048, 3, 249, 3.63], [11770, 1, 180, 3.78], [2424, 29, 31, 4.2], [411, 2, 50, 2.51], [1703, 2, 136, 3.98], [202, 2, 17, 2.49], [13928, 2, 21, 4.12], [11772, 1, 201, 3.85], [11953, 1, 185, 2.4], [5584, 3, 169, 6.0], [22316, 3, 291, 2.58], [23961, 3, 245, 6.0], [7567, 3, 16, 4.21], [13893, 2, 252, 3.67], [12764, 2, 621, 3.87], [13023, 3, 501, 3.53], [1519, 3, 382, 1.41], [74, 1, 164, 6.0], [21269, 3, 244, 4.71], [1274, 1, 76, 2.68], [5164, 1, 43, 5.17], [2331, 1, 109, 2.65], [4253, 1, 143, 3.29], [1523, 1, 43, 2.58], [1492, 1, 32, 3.0], [2438, 2, 522, 5.34], [12229, 2, 128, 3.07], [3430, 15, 24, 3.96], [6097, 80, 57, 3.85], [13034, 3, 491, 4.54], [3047, 3, 225, 4.59], [6805, 1, 379, 3.09], [8674, 2, 263, 3.76], [1243, 2, 82, 4.36], [21059, 1, 299, 4.51], [10780, 10, 312, 5.49], [11116, 1, 18, 1.89], [2436, 4, 40, 3.21], [6097, 29, 32, 2.94], [11812, 1, 187, 2.85], [1080, 3, 117, 4.2], [24257, 1, 49, 2.16], [3429, 15, 12, 1.52]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [205, 2, 9, 0.93], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [143, 2, 9, 1.44], [305, 2, 7, 0.98], [8915, 2, 8, 0.74], [8650, 2, 7, 1.85], [141, 2, 7, 1.58], [6936, 2, 11, 4.58], [2778, 2, 7, 1.57], [146, 2, 9, 2.65], [88, 10, 18, 0.73], [7004, 1, 7, 1.94], [7036, 1, 7, 3.33], [145, 2, 9, 2.06], [1446, 2, 11, 1.04], [8853, 2, 7, 2.37], [362, 2, 7, 0.96], [2055, 3, 7, 4.41], [417, 2, 7, 1.56], [10993, 2, 7, 1.37], [11737, 2, 7, 1.76], [3893, 1, 9, 1.0], [75, 2, 7, 2.23], [2050, 3, 7, 3.31], [159, 3, 12, 0.56], [3840, 1, 7, 0.75], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [3889, 1, 7, 1.02], [2057, 3, 7, 4.02], [7084, 3, 7, 1.77], [13280, 1, 7, 2.32], [20927, 1, 7, 1.82], [3, 2, 7, 1.37], [7005, 1, 7, 1.42], [997, 2, 7, 2.0], [3982, 3, 17, 2.85], [9760, 29, 9, 0.86], [10, 2, 7, 1.29], [3891, 1, 7, 1.02], [98, 11, 16, 0.96], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [6158, 2, 9, 1.48], [7885, 4, 9, 0.7], [84, 2, 7, 1.73], [5165, 2, 8, 3.91], [346, 3, 7, 1.05], [9372, 1, 7, 2.6], [3980, 4, 7, 2.36], [5165, 1, 7, 4.43], [411, 2, 7, 2.14], [10388, 2, 7, 3.52], [2912, 1, 7, 3.11], [9491, 21, 20, 0.87], [214, 3, 15, 0.69], [346, 1, 7, 0.91], [3981, 3, 22, 2.14], [1492, 1, 7, 1.48], [22316, 3, 7, 0.98], [10386, 2, 7, 1.91], [33, 1, 7, 4.53], [995, 2, 7, 2.23], [13928, 1, 7, 2.9], [418, 2, 7, 0.98], [22247, 2, 7, 3.08], [308, 1, 7, 3.52], [13893, 2, 7, 4.76], [336, 15, 7, 1.93], [7886, 4, 9, 0.94], [7567, 3, 7, 2.33], [2912, 2, 8, 4.0], [35, 1, 7, 3.52], [10631, 2, 7, 3.81], [11490, 1, 7, 2.02], [229, 1, 7, 2.31], [159, 1, 7, 0.98], [11953, 1, 7, 1.4], [83, 2, 7, 0.94], [11770, 1, 7, 1.35], [13283, 1, 7, 2.96], [22317, 3, 9, 1.92], [10780, 10, 7, 5.0], [10407, 10, 10, 3.8], [9691, 1, 7, 2.44], [13286, 1, 7, 1.85], [10149, 3, 21, 3.14], [10410, 10, 10, 2.33], [12271, 2, 7, 3.87], [6497, 1, 7, 0.87], [345, 3, 7, 1.94], [1413, 15, 7, 1.12], [74, 1, 7, 2.19], [8943, 3, 7, 0.73], [3478, 2, 7, 1.62], [37, 1, 7, 2.23], [9971, 2, 7, 3.45], [23611, 3, 9, 0.72], [10387, 2, 7, 1.83], [39, 1, 7, 1.04], [11085, 2, 8, 3.27], [4076, 3, 7, 2.6], [3048, 3, 7, 2.27], [2331, 1, 7, 2.86], [159, 16, 7, 0.98], [34, 1, 7, 1.79], [13281, 1, 7, 2.64], [20498, 3, 10, 2.22], [82, 2, 7, 1.37], [4001, 3, 14, 3.01], [11510, 3, 8, 2.0], [45, 2, 7, 2.96], [9, 1, 7, 0.96], [12338, 29, 7, 0.73], [9965, 2, 7, 2.62], [9964, 2, 7, 3.45], [10936, 2, 7, 3.27], [215, 4, 7, 2.81], [24257, 1, 7, 2.95], [105, 3, 7, 0.98], [1523, 1, 7, 2.08], [12764, 2, 8, 1.96], [1895, 3, 7, 1.42], [12212, 29, 7, 0.96], [12858, 1, 7, 1.41], [1080, 3, 7, 0.89], [11489, 1, 7, 0.96], [2805, 137, 8, 1.47], [8635, 3, 7, 2.91], [22316, 3, 233, 2.92], [10386, 2, 206, 3.27], [995, 2, 177, 4.17], [13928, 1, 44, 4.26], [418, 2, 135, 2.34], [22247, 2, 211, 4.44], [308, 1, 151, 4.88], [13893, 2, 255, 6.0], [336, 15, 102, 3.29], [7567, 3, 67, 3.69], [2912, 2, 304, 5.36], [10631, 2, 76, 4.85], [11490, 1, 26, 3.38], [229, 1, 62, 3.67], [159, 1, 24, 2.18], [11953, 1, 49, 2.84], [83, 2, 39, 2.23], [11770, 1, 181, 3.29], [13283, 1, 303, 4.32], [22317, 3, 257, 3.38], [10780, 10, 332, 6.0], [13286, 1, 303, 3.21], [10149, 3, 642, 4.59], [10410, 10, 1149, 3.67], [6497, 1, 36, 2.23], [345, 3, 220, 3.29], [1413, 15, 24, 2.52], [74, 1, 194, 3.54], [8943, 3, 92, 1.51], [3478, 2, 45, 2.86], [37, 1, 82, 3.58], [9971, 2, 259, 4.81], [23611, 3, 259, 2.75], [10387, 2, 206, 3.19], [39, 1, 106, 2.39], [11085, 2, 395, 4.73], [4076, 3, 148, 3.96], [3048, 3, 199, 3.72], [2331, 1, 110, 4.22], [159, 16, 48, 2.22], [34, 1, 82, 3.15], [13281, 1, 303, 4.0], [20498, 3, 430, 4.65], [82, 2, 14, 2.15], [4001, 3, 582, 4.46], [11510, 3, 563, 3.36], [45, 2, 106, 4.32], [9, 1, 33, 2.32], [12338, 29, 51, 2.09], [9965, 2, 259, 3.98], [9964, 2, 259, 4.81], [10936, 2, 127, 4.63], [215, 4, 35, 4.17], [24257, 1, 131, 4.31], [105, 3, 182, 2.92], [1523, 1, 45, 3.44], [12764, 2, 549, 3.42], [1895, 3, 225, 3.36], [12212, 29, 115, 2.32], [12858, 1, 430, 2.85], [1080, 3, 123, 2.25], [11489, 1, 104, 2.32], [2805, 137, 176, 2.83], [8635, 3, 248, 4.8]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [2049, 3, 16, 0.79], [6935, 2, 23, 3.05], [362, 2, 9, 1.81], [141, 2, 7, 1.04], [75, 2, 11, 1.95], [1776, 1, 7, 1.12], [8672, 2, 15, 1.91], [7886, 4, 7, 1.01], [2778, 2, 8, 0.56], [6936, 2, 10, 2.79], [305, 2, 7, 0.92], [593, 2, 14, 0.66], [1777, 1, 7, 2.22], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [151, 1, 6, 0.85], [206, 2, 7, 0.71], [88, 10, 17, 1.44], [2328, 2, 7, 0.94], [83, 2, 7, 1.0], [8650, 2, 11, 3.25], [2050, 3, 7, 1.22], [5151, 2, 7, 2.7], [412, 1, 7, 2.67], [144, 2, 7, 1.93], [2991, 3, 7, 4.04], [22247, 2, 11, 3.0], [361, 2, 7, 0.94], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [2054, 3, 9, 3.5], [417, 2, 9, 1.37], [146, 2, 9, 2.18], [3478, 2, 7, 1.48], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 9, 0.93], [167, 3, 7, 2.5], [12721, 2, 10, 1.92], [168, 3, 7, 1.38], [2055, 3, 7, 2.83], [74, 1, 7, 2.52], [1446, 2, 7, 1.69], [346, 1, 7, 0.74], [84, 2, 7, 0.86], [7036, 1, 7, 4.25], [335, 3, 22, 3.91], [3495, 3, 21, 1.64], [5081, 2, 7, 0.84], [10, 2, 14, 3.54], [13028, 3, 7, 1.61], [8649, 2, 9, 2.97], [12870, 1, 7, 5.0], [410, 1, 7, 1.23], [11404, 2, 9, 1.56], [79, 1, 7, 0.73], [96, 11, 20, 0.84], [3889, 1, 7, 2.38], [145, 2, 7, 1.4], [5208, 3, 16, 1.06], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [23, 1, 7, 3.33], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.54], [7005, 1, 7, 1.44], [13260, 29, 7, 1.85], [9827, 3, 7, 0.86], [411, 2, 7, 1.71], [3891, 1, 7, 1.55], [1490, 1, 7, 1.35], [25, 1, 7, 2.33], [21269, 3, 7, 4.99], [13280, 1, 7, 2.37], [998, 2, 7, 2.91], [9069, 1, 7, 3.62], [7567, 3, 7, 3.13], [5086, 1, 9, 2.04], [2878, 1, 7, 1.63], [1243, 2, 7, 1.93], [1703, 2, 7, 3.38], [9691, 1, 7, 3.66], [20927, 1, 7, 2.0], [997, 2, 7, 2.5], [5209, 3, 7, 0.67], [346, 3, 10, 1.24], [11914, 1, 9, 1.02], [5660, 2, 7, 1.94], [856, 1, 7, 0.85], [1124, 2, 11, 0.76], [5584, 3, 7, 3.61], [1070, 7, 13, 1.16], [159, 3, 12, 0.83], [8274, 3, 7, 1.68], [11811, 1, 9, 2.48], [996, 2, 7, 4.92], [1519, 3, 26, 0.68], [23961, 3, 7, 2.61], [8898, 3, 7, 5.0], [5513, 2, 7, 2.49], [22317, 3, 8, 0.9], [1091, 1, 7, 1.1], [24, 1, 7, 2.76], [952, 4, 7, 5.0], [13034, 3, 10, 3.25], [9081, 3, 12, 3.15], [12661, 1, 7, 4.54], [27, 1, 7, 2.87], [336, 15, 7, 0.8], [1413, 15, 7, 1.69], [9760, 29, 9, 0.87], [4203, 1, 7, 1.52], [10529, 29, 7, 2.85], [20498, 1, 7, 1.87], [9082, 3, 21, 1.67], [9372, 1, 7, 1.55], [1163, 3, 9, 0.86], [6097, 80, 7, 3.08], [6097, 29, 9, 2.58], [2109, 3, 18, 0.78], [82, 2, 7, 0.75], [972, 3, 8, 0.84], [995, 2, 7, 4.5], [66, 16, 7, 0.87], [2104, 3, 10, 2.99], [6098, 80, 7, 2.49], [20498, 3, 8, 1.64], [66, 1, 7, 0.89], [8635, 3, 6, 1.16], [12225, 1, 7, 1.0], [5813, 3, 7, 2.46], [10780, 10, 7, 4.2], [5946, 1, 7, 1.06], [6098, 29, 7, 2.47], [34, 1, 7, 2.02], [1504, 2, 137, 3.04], [94, 4, 107, 3.65], [13260, 29, 49, 3.0], [9827, 3, 59, 3.01], [3891, 1, 84, 3.52], [1490, 1, 34, 3.01], [25, 1, 75, 3.9], [21269, 3, 196, 6.0], [13280, 1, 271, 3.48], [998, 2, 160, 5.07], [7567, 3, 27, 3.82], [5086, 1, 123, 4.19], [2878, 1, 54, 3.29], [1243, 2, 85, 3.04], [1703, 2, 149, 4.53], [997, 2, 160, 3.61], [5209, 3, 415, 2.85], [346, 3, 423, 2.89], [11914, 1, 58, 3.67], [5660, 2, 118, 4.09], [856, 1, 30, 1.96], [1124, 2, 147, 2.57], [5584, 3, 168, 5.27], [1070, 7, 397, 2.8], [159, 3, 496, 1.88], [11811, 1, 354, 3.58], [996, 2, 185, 6.0], [1519, 3, 573, 2.82], [23961, 3, 229, 4.26], [8898, 3, 188, 6.0], [5513, 2, 67, 3.6], [22317, 3, 248, 2.56], [1091, 1, 34, 3.25], [952, 4, 49, 6.0], [13034, 3, 391, 4.65], [9081, 3, 306, 5.8], [12661, 1, 41, 5.7], [27, 1, 38, 3.89], [336, 15, 45, 2.96], [9760, 29, 57, 2.53], [4203, 1, 39, 2.68], [10529, 29, 37, 4.0], [20498, 1, 85, 2.98], [9082, 3, 1662, 3.42], [9372, 1, 197, 2.66], [6097, 80, 60, 4.19], [6097, 29, 32, 4.24], [2109, 3, 369, 2.52], [82, 2, 32, 1.67], [972, 3, 519, 1.94], [995, 2, 204, 5.61], [66, 16, 61, 2.53], [2104, 3, 261, 4.1], [6098, 80, 65, 3.6], [20498, 3, 508, 2.74], [66, 1, 33, 2.0], [12225, 1, 144, 2.11], [5813, 3, 508, 3.56], [10780, 10, 314, 5.31], [5946, 1, 108, 2.17], [6098, 29, 33, 3.58], [34, 1, 97, 3.13]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 8, 0.87], [88, 10, 20, 1.09], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [2778, 2, 7, 0.5], [305, 2, 7, 1.32], [6935, 2, 11, 3.9], [2328, 2, 9, 1.46], [6936, 2, 7, 3.27], [326, 2, 9, 3.02], [8648, 2, 9, 4.08], [8650, 2, 9, 4.02], [1446, 2, 7, 1.82], [7004, 1, 11, 2.57], [2049, 3, 15, 0.71], [205, 2, 7, 1.24], [144, 2, 7, 2.5], [143, 2, 7, 2.77], [10, 2, 7, 2.55], [94, 4, 9, 1.6], [7036, 1, 11, 3.63], [3893, 1, 9, 0.71], [1124, 2, 7, 1.74], [146, 2, 7, 2.81], [2055, 3, 9, 0.85], [206, 2, 7, 1.24], [5208, 3, 11, 0.79], [3891, 1, 9, 0.76], [75, 2, 7, 2.89], [362, 2, 7, 2.21], [7886, 4, 7, 1.3], [12224, 1, 7, 0.89], [3889, 1, 7, 1.88], [21793, 1, 7, 1.02], [2054, 3, 9, 1.43], [3980, 4, 8, 2.39], [7005, 1, 7, 2.08], [7084, 3, 7, 3.02], [12870, 1, 7, 4.2], [10149, 3, 21, 3.04], [2050, 3, 9, 1.11], [145, 2, 7, 2.89], [8672, 2, 11, 3.11], [2912, 1, 7, 3.04], [5165, 1, 7, 4.43], [998, 2, 7, 1.5], [20927, 1, 7, 3.39], [9760, 29, 7, 0.97], [997, 2, 7, 1.64], [1886, 2, 7, 1.19], [2436, 4, 7, 1.08], [7887, 4, 7, 2.37], [3, 2, 9, 1.33], [2424, 80, 7, 2.78], [6158, 2, 7, 1.56], [229, 1, 7, 2.02], [142, 2, 7, 0.69], [3495, 3, 14, 1.61], [955, 2, 7, 1.04], [346, 3, 7, 0.92], [5076, 1, 7, 2.01], [74, 1, 7, 5.0], [5165, 2, 8, 4.03], [11953, 1, 7, 0.98], [11954, 1, 7, 0.87], [11770, 1, 7, 0.96], [996, 2, 7, 1.42], [12721, 2, 7, 1.45], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [9372, 1, 7, 3.08], [11772, 1, 9, 0.76], [7573, 1, 16, 4.79], [2912, 2, 12, 3.97], [2423, 80, 9, 3.29], [5584, 3, 7, 5.0], [6497, 1, 7, 0.94], [2438, 2, 8, 3.77], [12229, 2, 7, 0.94], [3975, 4, 7, 2.98], [346, 1, 7, 0.71], [5209, 3, 9, 1.29], [5434, 1, 7, 2.56], [9082, 3, 33, 3.08], [823, 1, 7, 2.33], [10407, 10, 12, 3.27], [12764, 2, 23, 1.61], [4253, 1, 7, 1.04], [1622, 1, 9, 0.75], [11812, 1, 7, 0.84], [6496, 1, 7, 0.71], [2424, 29, 7, 2.78], [10388, 2, 7, 4.03], [5946, 1, 7, 1.62], [3900, 3, 7, 3.48], [8676, 2, 7, 3.15], [1339, 3, 16, 0.72], [1703, 2, 7, 1.94], [11490, 1, 7, 0.75], [2805, 137, 7, 2.56], [24257, 1, 7, 0.92], [13893, 2, 7, 2.25], [6097, 80, 7, 1.56], [37, 1, 7, 2.96], [6805, 1, 9, 0.97], [7567, 3, 7, 3.04], [22247, 2, 7, 2.52], [1414, 15, 7, 0.81], [9784, 1, 7, 2.75], [8635, 3, 7, 2.64], [11814, 1, 7, 0.92], [38, 1, 7, 2.23], [35, 1, 7, 2.96], [95, 3, 27, 0.73], [1274, 1, 7, 1.26], [23611, 3, 8, 0.74], [10386, 2, 7, 3.88], [1895, 3, 7, 4.16], [8104, 1, 7, 2.66], [788, 2, 7, 1.08], [12212, 29, 7, 0.9], [413, 1, 7, 1.27], [3979, 3, 13, 1.25], [8283, 2, 8, 1.19], [114, 3, 7, 2.95], [10780, 10, 7, 4.06], [12979, 25, 12, 1.36], [8274, 3, 7, 2.19], [76, 2, 7, 0.9], [8659, 1, 7, 1.64], [9065, 2, 7, 1.62], [12501, 1, 7, 2.39], [440, 3, 7, 2.41], [4232, 80, 7, 3.58], [418, 2, 7, 1.04], [19931, 1, 7, 2.43], [83, 2, 7, 0.85], [11772, 1, 155, 3.47], [7573, 1, 261, 6.0], [2912, 2, 317, 5.4], [2423, 80, 129, 5.92], [5584, 3, 217, 6.0], [6497, 1, 35, 2.36], [2438, 2, 522, 5.34], [12229, 2, 141, 2.36], [3975, 4, 403, 4.61], [346, 1, 142, 2.13], [5209, 3, 130, 2.1], [9082, 3, 2259, 4.5], [823, 1, 34, 4.46], [10407, 10, 415, 5.88], [12764, 2, 520, 3.92], [4253, 1, 121, 3.63], [1622, 1, 25, 3.47], [11812, 1, 167, 3.48], [6496, 1, 36, 2.13], [2424, 29, 31, 4.2], [10388, 2, 200, 5.45], [5946, 1, 114, 3.04], [8676, 2, 263, 4.57], [1339, 3, 607, 1.79], [1703, 2, 150, 3.36], [11490, 1, 100, 2.17], [2805, 137, 166, 3.98], [24257, 1, 55, 2.4], [13893, 2, 252, 3.67], [6097, 80, 63, 2.98], [37, 1, 26, 4.35], [6805, 1, 379, 3.09], [7567, 3, 16, 4.21], [22247, 2, 262, 3.94], [1414, 15, 46, 2.03], [9784, 1, 66, 4.18], [11814, 1, 207, 2.34], [38, 1, 93, 3.65], [35, 1, 26, 4.3], [95, 3, 943, 2.96], [1274, 1, 69, 3.39], [23611, 3, 323, 2.17], [10386, 2, 200, 5.3], [1895, 3, 250, 6.0], [8104, 1, 71, 3.74], [12212, 29, 111, 2.32], [413, 1, 79, 2.69], [3979, 3, 681, 2.89], [8283, 2, 437, 2.61], [114, 3, 56, 4.15], [10780, 10, 328, 5.49], [12979, 25, 606, 2.79], [76, 2, 101, 2.32], [8659, 1, 101, 3.77], [9065, 2, 277, 3.04], [12501, 1, 274, 3.82], [440, 3, 45, 3.57], [4232, 80, 137, 5.0], [418, 2, 131, 2.46], [19931, 1, 376, 3.85], [83, 2, 19, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [6936, 2, 9, 3.69], [616, 2, 7, 0.87], [88, 10, 14, 0.73], [144, 2, 7, 2.72], [8648, 2, 9, 2.71], [8915, 2, 8, 0.74], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 11, 1.29], [3893, 1, 7, 1.28], [141, 2, 7, 2.08], [7004, 1, 7, 1.94], [3840, 1, 7, 0.75], [3891, 1, 7, 1.02], [2050, 3, 7, 3.31], [146, 2, 7, 2.56], [3889, 1, 7, 1.02], [2055, 3, 7, 3.41], [143, 2, 7, 1.48], [3980, 4, 7, 2.36], [10, 2, 7, 1.29], [7885, 4, 7, 1.27], [8672, 2, 11, 2.68], [2054, 3, 7, 3.66], [7886, 4, 7, 1.73], [12870, 1, 7, 4.21], [2057, 3, 6, 3.52], [5165, 1, 7, 4.43], [3975, 4, 7, 2.49], [159, 3, 8, 1.02], [7084, 3, 7, 1.94], [145, 2, 7, 2.48], [523, 2, 7, 1.98], [21793, 1, 7, 1.02], [75, 2, 7, 0.89], [7005, 1, 7, 1.42], [3981, 3, 21, 2.03], [9760, 29, 7, 1.36], [3982, 3, 17, 2.85], [20927, 1, 7, 2.25], [6158, 2, 27, 2.25], [33, 1, 11, 4.03], [997, 2, 9, 4.26], [214, 3, 16, 0.74], [5165, 2, 8, 3.91], [2912, 1, 7, 3.11], [7887, 4, 7, 2.25], [22316, 3, 7, 1.48], [11953, 1, 7, 1.4], [229, 1, 7, 2.31], [998, 2, 9, 4.5], [35, 1, 11, 4.03], [346, 3, 7, 1.38], [6497, 1, 7, 0.87], [389, 4, 7, 2.77], [996, 2, 9, 3.58], [1492, 1, 7, 1.48], [972, 3, 11, 4.56], [955, 2, 7, 1.41], [11490, 1, 7, 1.02], [6496, 1, 7, 1.56], [74, 1, 7, 2.3], [2336, 3, 8, 0.81], [22317, 3, 7, 1.42], [1413, 15, 7, 1.12], [4176, 4, 7, 3.75], [2912, 2, 8, 3.02], [336, 15, 7, 1.91], [12212, 29, 7, 0.96], [192, 3, 18, 3.13], [7573, 1, 11, 4.14], [8677, 3, 7, 3.07], [39, 1, 7, 1.79], [37, 1, 7, 1.77], [11085, 2, 8, 3.16], [201, 3, 9, 2.36], [345, 3, 7, 0.98], [1277, 1, 7, 1.54], [8676, 2, 7, 1.94], [1274, 1, 7, 1.29], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 1.35], [6494, 1, 7, 0.87], [10388, 2, 7, 2.82], [3, 2, 7, 2.35], [10408, 10, 10, 3.18], [202, 2, 7, 1.68], [10936, 2, 7, 3.27], [36, 1, 7, 2.23], [2805, 137, 8, 1.47], [3577, 25, 7, 1.14], [9, 1, 7, 0.96], [5812, 3, 7, 1.86], [11489, 1, 7, 0.96], [11812, 1, 7, 0.89], [1414, 15, 7, 1.0], [20498, 3, 8, 2.71], [3048, 3, 7, 2.73], [9691, 1, 7, 2.41], [8675, 2, 7, 2.91], [9372, 1, 7, 2.6], [346, 1, 7, 1.56], [13928, 1, 7, 2.9], [12225, 1, 7, 2.19], [10386, 2, 7, 1.91], [12764, 2, 10, 1.46], [13893, 2, 7, 4.76], [13280, 1, 7, 2.32], [11814, 1, 7, 0.92], [8898, 3, 7, 4.45], [11089, 1, 7, 0.73], [10407, 10, 10, 2.41], [3576, 25, 7, 1.51], [491, 10, 10, 1.57], [13035, 3, 7, 2.54], [972, 1, 7, 1.51], [9069, 1, 7, 1.42], [10939, 2, 7, 3.72], [8659, 1, 7, 3.43], [19931, 1, 9, 2.43], [11087, 2, 7, 2.51], [2438, 2, 8, 3.7], [958, 2, 7, 0.9], [3577, 29, 7, 1.29], [23611, 3, 9, 0.99], [1523, 1, 7, 2.08], [22317, 3, 257, 3.38], [1413, 15, 24, 2.52], [4176, 4, 391, 5.2], [2912, 2, 358, 4.38], [336, 15, 80, 3.27], [12212, 29, 115, 2.32], [192, 3, 1045, 5.54], [7573, 1, 333, 5.5], [8677, 3, 238, 4.51], [39, 1, 82, 3.74], [37, 1, 82, 3.22], [11085, 2, 435, 5.15], [201, 3, 220, 4.31], [345, 3, 220, 2.92], [1277, 1, 184, 2.9], [8676, 2, 273, 3.3], [1274, 1, 78, 2.65], [21269, 3, 238, 6.0], [13023, 3, 563, 3.8], [12271, 2, 61, 2.71], [6494, 1, 39, 2.81], [10388, 2, 175, 4.71], [3, 2, 91, 3.8], [10408, 10, 563, 5.14], [202, 2, 26, 2.72], [10936, 2, 127, 4.63], [36, 1, 82, 3.58], [2805, 137, 176, 2.83], [3577, 25, 66, 3.09], [9, 1, 33, 2.32], [5812, 3, 442, 3.82], [11489, 1, 104, 2.32], [11812, 1, 177, 2.83], [1414, 15, 24, 1.77], [20498, 3, 430, 4.65], [3048, 3, 199, 4.09], [8675, 2, 273, 4.27], [9372, 1, 216, 3.96], [346, 1, 114, 3.01], [13928, 1, 44, 4.26], [12225, 1, 157, 3.55], [10386, 2, 206, 3.27], [12764, 2, 549, 3.42], [13893, 2, 255, 6.0], [13280, 1, 303, 3.68], [11814, 1, 166, 2.87], [8898, 3, 269, 5.81], [11089, 1, 164, 2.09], [10407, 10, 1149, 3.76], [3576, 25, 96, 2.87], [491, 10, 324, 4.01], [13035, 3, 286, 3.9], [972, 1, 94, 2.86], [9069, 1, 117, 2.78], [10939, 2, 127, 5.08], [8659, 1, 114, 4.79], [19931, 1, 301, 4.38], [11087, 2, 512, 3.87], [2438, 2, 599, 5.06], [958, 2, 103, 2.25], [3577, 29, 28, 2.64], [23611, 3, 333, 2.36], [1523, 1, 45, 3.44]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.81], [130, 1, 7, 1.86], [2327, 2, 11, 1.82], [589, 2, 9, 0.95], [8672, 2, 15, 1.9], [326, 2, 7, 3.12], [6935, 2, 23, 4.24], [206, 2, 7, 0.77], [142, 2, 7, 1.37], [11837, 2, 7, 1.06], [11838, 2, 11, 1.02], [6936, 2, 7, 3.06], [12721, 2, 11, 1.45], [8915, 2, 7, 1.21], [2049, 3, 37, 1.73], [1446, 2, 9, 0.74], [2778, 2, 13, 1.84], [8676, 2, 7, 1.0], [615, 2, 7, 0.85], [305, 2, 7, 2.39], [593, 2, 8, 0.84], [616, 2, 7, 0.87], [21793, 1, 8, 2.18], [413, 1, 7, 1.71], [11835, 2, 7, 1.06], [411, 2, 7, 0.83], [412, 1, 7, 1.92], [10574, 3, 9, 2.89], [12349, 1, 7, 1.03], [8675, 2, 11, 1.94], [145, 2, 13, 2.63], [8673, 2, 9, 2.91], [143, 2, 7, 1.1], [6158, 2, 9, 2.18], [151, 1, 7, 0.9], [11836, 2, 7, 1.36], [10149, 3, 21, 1.49], [3495, 3, 21, 1.51], [2050, 3, 7, 0.64], [2055, 3, 7, 2.55], [146, 2, 7, 2.81], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [7885, 4, 9, 1.86], [88, 10, 16, 3.31], [416, 1, 7, 1.54], [144, 2, 7, 1.04], [7084, 3, 7, 2.01], [2859, 15, 7, 1.61], [21798, 1, 7, 1.15], [10993, 2, 7, 0.75], [346, 3, 8, 0.82], [335, 3, 17, 4.35], [2424, 29, 7, 4.47], [7705, 2, 7, 2.62], [2423, 80, 7, 1.56], [2423, 29, 7, 1.56], [3848, 2, 7, 2.06], [7704, 2, 7, 2.62], [5165, 1, 7, 4.43], [13023, 3, 10, 2.77], [346, 1, 7, 0.67], [1519, 3, 16, 0.68], [201, 3, 7, 2.66], [2424, 80, 7, 4.47], [60, 3, 10, 4.24], [1414, 15, 7, 0.79], [410, 1, 7, 0.73], [6494, 1, 7, 0.9], [345, 3, 7, 2.81], [13034, 3, 8, 2.41], [11490, 1, 7, 0.89], [5208, 3, 13, 0.87], [11770, 1, 7, 0.75], [432, 3, 11, 4.94], [3430, 15, 7, 1.84], [11954, 1, 7, 2.23], [2703, 3, 7, 3.23], [6952, 1, 7, 1.12], [7004, 1, 7, 0.81], [7706, 2, 9, 2.62], [20927, 1, 7, 1.35], [3429, 15, 7, 0.81], [114, 3, 7, 1.1], [308, 1, 9, 2.95], [7886, 4, 8, 1.31], [1886, 2, 7, 0.79], [105, 3, 7, 1.05], [11811, 1, 7, 1.93], [13928, 1, 7, 2.9], [2331, 1, 7, 1.0], [11089, 1, 7, 0.81], [94, 4, 7, 3.81], [3981, 3, 13, 0.91], [944, 15, 7, 0.79], [10407, 10, 10, 2.08], [5584, 3, 7, 5.0], [1490, 1, 7, 3.83], [8274, 3, 7, 3.88], [11674, 1, 7, 1.67], [3, 2, 7, 0.79], [22317, 3, 8, 0.72], [13033, 3, 7, 1.19], [952, 4, 7, 3.47], [10410, 10, 10, 2.16], [9690, 1, 7, 1.37], [7708, 2, 7, 2.62], [9342, 2, 7, 0.93], [1339, 3, 17, 0.78], [10409, 10, 11, 2.3], [202, 2, 7, 1.13], [21003, 2, 7, 3.61], [8898, 3, 7, 3.13], [10398, 2, 7, 1.81], [5812, 3, 7, 2.91], [957, 2, 7, 0.71], [95, 3, 13, 2.7], [963, 3, 7, 4.0], [823, 1, 7, 3.23], [6497, 1, 7, 0.85], [20969, 3, 7, 1.66], [10516, 3, 15, 0.67], [9082, 3, 24, 2.83], [186, 3, 12, 1.02], [20196, 2, 7, 3.8], [11677, 1, 7, 1.98], [4253, 1, 7, 1.41], [3980, 4, 7, 2.98], [7703, 2, 7, 2.62], [20555, 2, 7, 0.96], [3478, 2, 7, 1.48], [20682, 1, 7, 1.29], [6630, 3, 7, 3.58], [5165, 2, 8, 3.91], [8897, 3, 7, 3.1], [13034, 3, 543, 3.98], [11490, 1, 72, 2.36], [5208, 3, 223, 2.1], [11770, 1, 203, 2.32], [3430, 15, 63, 3.42], [11954, 1, 132, 3.69], [2703, 3, 282, 4.8], [6952, 1, 174, 2.7], [7004, 1, 73, 2.38], [7706, 2, 152, 4.9], [20927, 1, 42, 2.73], [3429, 15, 21, 2.03], [114, 3, 161, 3.38], [308, 1, 144, 5.0], [1886, 2, 145, 2.36], [105, 3, 161, 3.32], [11811, 1, 414, 3.51], [13928, 1, 43, 4.47], [2331, 1, 109, 2.57], [11089, 1, 159, 2.38], [94, 4, 107, 5.38], [3981, 3, 1545, 2.51], [944, 15, 12, 1.71], [10407, 10, 1103, 3.67], [5584, 3, 210, 6.0], [1490, 1, 45, 5.4], [11674, 1, 162, 3.2], [3, 2, 110, 2.36], [22317, 3, 293, 2.29], [13033, 3, 543, 2.75], [952, 4, 67, 5.04], [10410, 10, 1103, 3.76], [9690, 1, 40, 2.75], [7708, 2, 163, 4.19], [9342, 2, 122, 1.85], [1339, 3, 461, 1.67], [10409, 10, 1638, 3.88], [202, 2, 19, 2.04], [21003, 2, 261, 5.19], [8898, 3, 257, 4.7], [10398, 2, 134, 3.38], [5812, 3, 543, 4.48], [957, 2, 99, 2.28], [95, 3, 974, 4.29], [963, 3, 360, 5.57], [823, 1, 36, 4.81], [6497, 1, 35, 2.42], [20969, 3, 541, 3.24], [10516, 3, 549, 2.23], [9082, 3, 2253, 4.42], [186, 3, 611, 2.6], [20196, 2, 261, 5.37], [11677, 1, 413, 3.56], [4253, 1, 158, 2.98], [3980, 4, 413, 4.79], [7703, 2, 163, 4.19], [20555, 2, 53, 2.53], [3478, 2, 40, 2.86], [20682, 1, 572, 2.86], [6630, 3, 86, 5.16], [5165, 2, 343, 5.49], [8897, 3, 257, 4.68]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 1.9], [615, 2, 9, 1.23], [145, 2, 7, 0.9], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.16], [2328, 2, 11, 1.85], [11681, 2, 13, 3.75], [5491, 2, 11, 0.61], [205, 2, 7, 1.24], [8650, 2, 14, 4.13], [11835, 2, 7, 1.06], [144, 2, 7, 2.11], [8673, 2, 11, 2.44], [8676, 2, 9, 1.6], [308, 1, 11, 1.77], [417, 2, 9, 1.75], [11837, 2, 7, 1.06], [3, 2, 7, 1.77], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [6497, 1, 7, 0.85], [11836, 2, 9, 0.94], [990, 2, 7, 1.41], [593, 2, 12, 0.89], [6097, 29, 7, 5.0], [523, 2, 7, 1.27], [6098, 80, 9, 5.0], [11739, 2, 7, 1.04], [88, 10, 21, 1.51], [12350, 1, 7, 5.0], [8915, 2, 9, 0.71], [2054, 3, 9, 1.53], [326, 2, 7, 2.6], [13260, 29, 7, 2.28], [3429, 15, 7, 0.69], [75, 2, 7, 1.84], [336, 15, 7, 0.75], [1413, 15, 7, 1.49], [1492, 1, 7, 2.1], [411, 2, 7, 1.46], [6098, 29, 7, 5.0], [1050, 2, 7, 0.73], [1339, 3, 17, 0.78], [2422, 80, 7, 2.17], [6496, 1, 7, 2.07], [214, 3, 15, 2.7], [947, 15, 7, 0.85], [7704, 2, 7, 2.88], [10149, 3, 21, 2.21], [346, 1, 7, 0.67], [2859, 15, 7, 1.87], [346, 3, 8, 0.82], [345, 3, 7, 2.67], [11738, 2, 7, 1.54], [13264, 29, 7, 1.5], [13258, 29, 13, 2.5], [1490, 1, 7, 2.87], [1243, 2, 7, 2.14], [7004, 1, 7, 2.06], [229, 1, 7, 2.07], [5208, 3, 13, 1.47], [201, 3, 7, 3.06], [22558, 3, 9, 1.74], [10407, 10, 10, 2.08], [13259, 29, 11, 1.45], [2331, 1, 7, 1.0], [432, 3, 7, 2.04], [7705, 2, 7, 2.88], [12229, 2, 7, 0.87], [7706, 2, 7, 2.88], [418, 2, 7, 0.96], [114, 3, 7, 1.1], [957, 2, 7, 1.56], [13928, 1, 7, 2.9], [1163, 3, 7, 2.79], [3478, 2, 7, 1.48], [11844, 2, 7, 1.21], [8938, 2, 7, 0.83], [7036, 1, 7, 0.87], [9784, 1, 7, 2.81], [11490, 1, 7, 1.02], [11687, 2, 7, 1.52], [11404, 2, 7, 0.92], [2703, 3, 7, 3.23], [410, 1, 7, 1.21], [12348, 1, 7, 2.69], [13258, 25, 7, 2.3], [1886, 2, 7, 0.67], [19687, 1, 7, 2.33], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [12870, 1, 7, 3.68], [413, 1, 7, 3.23], [11690, 2, 7, 1.0], [956, 2, 7, 1.02], [7708, 2, 7, 2.88], [11161, 1, 10, 2.64], [11159, 1, 14, 3.5], [9760, 29, 7, 1.64], [11689, 2, 7, 1.48], [22125, 2, 7, 0.69], [5976, 1, 7, 4.23], [12373, 1, 11, 2.99], [105, 3, 7, 1.05], [21781, 2, 7, 0.9], [2991, 3, 7, 4.45], [1274, 1, 7, 3.79], [7005, 1, 7, 1.56], [5584, 3, 7, 5.0], [2805, 137, 10, 4.42], [9209, 29, 7, 1.41], [11811, 1, 7, 1.93], [3495, 3, 21, 1.51], [13259, 25, 7, 1.43], [11489, 1, 7, 1.96], [4253, 1, 7, 1.41], [8285, 2, 8, 0.85], [20927, 1, 7, 1.35], [8600, 1, 7, 1.84], [9372, 1, 7, 3.35], [247, 1, 7, 2.77], [10147, 1, 7, 0.69], [12764, 2, 8, 1.71], [21269, 3, 7, 3.75], [3722, 25, 8, 0.67], [9491, 21, 16, 3.25], [7007, 1, 7, 1.56], [11887, 2, 7, 1.1], [5076, 1, 7, 2.19], [6360, 10, 15, 1.18], [2331, 1, 109, 2.57], [432, 3, 276, 3.61], [7705, 2, 162, 4.45], [12229, 2, 131, 3.15], [7706, 2, 162, 4.45], [418, 2, 130, 2.53], [114, 3, 224, 2.67], [957, 2, 78, 3.71], [13928, 1, 43, 4.47], [3478, 2, 40, 2.86], [11844, 2, 253, 2.78], [8938, 2, 176, 2.4], [7036, 1, 117, 2.44], [9784, 1, 57, 4.34], [11490, 1, 100, 2.59], [11687, 2, 277, 3.1], [11404, 2, 96, 2.49], [2703, 3, 282, 4.8], [410, 1, 69, 2.68], [12348, 1, 555, 4.27], [13258, 25, 72, 3.87], [1886, 2, 145, 2.24], [19687, 1, 28, 3.9], [9065, 2, 277, 3.19], [94, 4, 105, 3.44], [12870, 1, 128, 5.25], [413, 1, 78, 4.8], [11690, 2, 277, 2.58], [956, 2, 98, 2.59], [7708, 2, 162, 4.45], [11161, 1, 458, 4.22], [11159, 1, 454, 5.08], [9760, 29, 66, 3.21], [11689, 2, 277, 3.06], [22125, 2, 25, 1.91], [5976, 1, 142, 5.8], [12373, 1, 489, 4.56], [105, 3, 224, 2.61], [21781, 2, 82, 2.43], [2991, 3, 147, 6.0], [1274, 1, 74, 5.36], [7005, 1, 31, 2.78], [5584, 3, 210, 6.0], [2805, 137, 167, 5.99], [9209, 29, 30, 2.98], [11811, 1, 414, 3.51], [3495, 3, 886, 3.08], [13259, 25, 64, 3.0], [4253, 1, 148, 3.69], [8285, 2, 443, 2.43], [20927, 1, 42, 2.73], [8600, 1, 133, 3.41], [9372, 1, 209, 4.92], [247, 1, 79, 4.34], [10147, 1, 62, 2.26], [12764, 2, 680, 3.27], [21269, 3, 270, 5.32], [3722, 25, 53, 1.59], [9491, 21, 1833, 4.81], [7007, 1, 31, 2.78], [11887, 2, 177, 2.67], [5076, 1, 120, 3.76], [6360, 10, 680, 2.74]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [362, 2, 7, 1.93], [361, 2, 9, 1.99], [12721, 2, 17, 3.77], [6935, 2, 19, 5.0], [206, 2, 7, 0.77], [8676, 2, 7, 1.6], [8675, 2, 9, 1.95], [2049, 3, 17, 0.71], [3, 2, 7, 1.13], [22247, 2, 7, 1.83], [305, 2, 7, 1.51], [523, 2, 7, 1.27], [8650, 2, 9, 2.94], [11838, 2, 7, 0.79], [8648, 2, 7, 2.52], [2328, 2, 7, 2.23], [2776, 2, 7, 1.38], [11739, 2, 9, 0.98], [2327, 2, 7, 1.48], [11837, 2, 7, 1.37], [411, 2, 7, 0.73], [12352, 1, 7, 4.99], [589, 2, 7, 1.17], [412, 1, 7, 2.06], [143, 2, 7, 0.98], [11835, 2, 7, 0.94], [146, 2, 7, 2.01], [583, 2, 7, 1.56], [6097, 80, 7, 5.0], [326, 2, 7, 2.23], [10149, 3, 21, 1.49], [145, 2, 7, 1.71], [11836, 2, 7, 1.54], [6097, 29, 7, 1.77], [144, 2, 7, 0.94], [10574, 3, 10, 2.86], [75, 2, 7, 1.67], [12344, 1, 7, 2.59], [6496, 1, 7, 2.64], [6494, 1, 7, 0.9], [2054, 3, 7, 2.83], [1413, 15, 7, 0.89], [6098, 80, 7, 2.22], [8915, 2, 7, 1.25], [1243, 2, 7, 1.91], [1886, 2, 23, 1.92], [21793, 1, 8, 2.18], [944, 15, 7, 0.77], [6098, 29, 7, 2.56], [1492, 1, 7, 0.9], [247, 1, 7, 3.68], [3429, 15, 7, 0.67], [2859, 15, 7, 0.75], [1490, 1, 7, 0.85], [1414, 15, 7, 0.67], [201, 3, 7, 0.85], [6158, 2, 9, 2.18], [3478, 2, 7, 1.48], [308, 1, 14, 1.41], [13928, 1, 7, 2.9], [336, 15, 7, 0.75], [7084, 3, 7, 2.01], [11489, 1, 7, 1.49], [3982, 3, 24, 0.66], [1703, 2, 7, 1.57], [12526, 2, 7, 2.02], [9342, 2, 7, 0.93], [5812, 3, 9, 3.96], [186, 3, 12, 1.02], [11490, 1, 7, 0.92], [4253, 1, 7, 1.41], [94, 4, 7, 0.75], [5813, 3, 10, 3.68], [1050, 2, 7, 0.69], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [2821, 3, 13, 0.91], [5939, 3, 7, 0.9], [8599, 1, 7, 2.99], [11811, 1, 7, 1.93], [229, 1, 7, 3.29], [3980, 4, 7, 2.98], [8943, 3, 7, 1.0], [11771, 1, 7, 1.31], [8898, 3, 6, 5.0], [1339, 3, 17, 0.78], [3495, 3, 21, 1.51], [2991, 3, 7, 4.63], [1049, 2, 7, 0.69], [12764, 2, 8, 1.71], [346, 3, 8, 0.82], [13928, 2, 7, 2.9], [19687, 1, 7, 2.33], [192, 3, 15, 4.24], [7036, 1, 7, 0.87], [9690, 1, 7, 1.54], [22573, 2, 7, 1.91], [5584, 3, 7, 5.0], [10124, 1, 7, 4.18], [105, 3, 7, 0.73], [8897, 3, 7, 5.0], [8274, 3, 7, 3.33], [18964, 1, 7, 2.71], [11886, 2, 7, 1.44], [10147, 1, 7, 0.69], [3334, 5, 7, 3.87], [1701, 2, 7, 1.06], [1277, 1, 7, 0.85], [1523, 1, 7, 2.0], [20927, 1, 7, 1.28], [4001, 3, 24, 1.7], [8635, 3, 7, 3.33], [8286, 2, 8, 0.63], [1274, 1, 7, 3.93], [23275, 2, 7, 1.91], [11678, 1, 7, 1.98], [10516, 3, 15, 3.0], [13260, 29, 7, 2.28], [23031, 3, 7, 2.73], [3984, 3, 8, 1.07], [11677, 1, 7, 1.98], [3979, 3, 8, 1.56], [9065, 2, 7, 1.62], [45, 2, 7, 4.22], [21269, 3, 7, 3.75], [10181, 26, 8, 0.81], [346, 1, 7, 0.67], [9373, 5, 7, 1.87], [11690, 2, 7, 1.0], [973, 3, 8, 1.13], [9069, 1, 7, 1.44], [5976, 1, 7, 4.23], [7005, 1, 7, 1.42], [8285, 2, 8, 0.85], [5812, 3, 503, 6.0], [186, 3, 611, 2.6], [11490, 1, 43, 2.14], [4253, 1, 158, 2.98], [94, 4, 113, 2.33], [5813, 3, 503, 5.8], [10398, 2, 135, 2.9], [5811, 3, 459, 6.0], [2821, 3, 1053, 2.45], [5939, 3, 246, 2.47], [8599, 1, 133, 4.56], [11811, 1, 414, 3.51], [229, 1, 74, 4.86], [3980, 4, 413, 4.79], [8943, 3, 351, 2.57], [11771, 1, 183, 2.89], [8898, 3, 245, 6.0], [1339, 3, 461, 1.67], [3495, 3, 886, 3.08], [2991, 3, 138, 6.0], [12764, 2, 680, 3.27], [346, 3, 566, 2.39], [13928, 2, 21, 4.47], [19687, 1, 28, 3.9], [192, 3, 1093, 6.0], [7036, 1, 117, 2.44], [9690, 1, 40, 2.92], [22573, 2, 65, 3.48], [5584, 3, 210, 6.0], [10124, 1, 92, 5.75], [105, 3, 226, 2.3], [8897, 3, 245, 6.0], [11886, 2, 177, 3.01], [10147, 1, 62, 2.26], [3334, 5, 167, 5.44], [1701, 2, 155, 2.63], [1277, 1, 180, 2.42], [1523, 1, 43, 3.57], [20927, 1, 42, 2.66], [4001, 3, 741, 3.26], [8286, 2, 127, 1.55], [1274, 1, 74, 5.5], [23275, 2, 65, 3.48], [11678, 1, 408, 3.55], [10516, 3, 541, 4.58], [13260, 29, 67, 3.85], [23031, 3, 378, 4.29], [3984, 3, 1523, 2.65], [11677, 1, 413, 3.56], [3979, 3, 741, 3.12], [9065, 2, 277, 3.19], [45, 2, 103, 5.79], [21269, 3, 270, 5.32], [10181, 26, 128, 2.38], [346, 1, 142, 2.24], [9373, 5, 78, 3.44], [11690, 2, 277, 2.58], [973, 3, 1092, 2.71], [9069, 1, 111, 3.01], [5976, 1, 142, 5.8], [7005, 1, 31, 2.64], [8285, 2, 443, 2.43]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [8672, 2, 12, 1.94], [8650, 2, 9, 2.32], [248, 1, 7, 0.66], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [205, 2, 7, 1.24], [11681, 2, 13, 3.43], [417, 2, 9, 1.34], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [1124, 2, 15, 0.74], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [206, 2, 6, 0.74], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [1005, 2, 7, 2.48], [11835, 2, 7, 0.69], [144, 2, 7, 1.34], [8915, 2, 11, 2.38], [308, 1, 11, 1.77], [88, 10, 21, 1.51], [434, 2, 7, 0.85], [11739, 2, 9, 2.98], [6158, 2, 12, 1.0], [11234, 2, 11, 1.06], [2424, 29, 7, 4.47], [11738, 2, 7, 1.88], [2423, 29, 7, 1.56], [7704, 2, 7, 2.88], [11836, 2, 9, 1.36], [2424, 80, 7, 4.47], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [2054, 3, 9, 1.93], [7706, 2, 9, 4.08], [10574, 3, 10, 3.86], [2423, 80, 7, 1.56], [3, 2, 9, 1.94], [412, 1, 7, 2.06], [2859, 15, 7, 3.6], [3478, 2, 9, 3.17], [12720, 2, 7, 1.89], [10149, 3, 21, 2.64], [74, 1, 7, 3.14], [12343, 1, 7, 3.02], [346, 3, 8, 0.82], [11919, 1, 7, 2.91], [1339, 3, 17, 0.78], [60, 3, 10, 3.75], [6497, 1, 7, 0.85], [346, 1, 7, 0.67], [418, 2, 7, 1.16], [13928, 1, 7, 2.9], [411, 2, 7, 0.74], [13034, 3, 11, 2.28], [18964, 1, 7, 1.52], [13028, 3, 7, 1.96], [11089, 1, 7, 0.81], [10993, 2, 7, 2.86], [413, 1, 7, 3.23], [13260, 29, 7, 2.75], [7036, 1, 7, 1.79], [94, 4, 9, 4.31], [6952, 1, 7, 3.06], [3891, 1, 7, 2.43], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [14037, 3, 9, 2.38], [7707, 2, 7, 2.41], [2991, 3, 7, 4.18], [22317, 3, 14, 0.85], [21793, 1, 8, 4.0], [7708, 2, 7, 2.98], [3889, 1, 7, 4.33], [345, 3, 7, 2.93], [6630, 3, 7, 4.62], [11490, 1, 7, 1.02], [5208, 3, 13, 0.87], [1243, 2, 7, 2.33], [1490, 1, 7, 3.83], [2912, 1, 7, 3.02], [3495, 3, 21, 1.51], [563, 2, 7, 1.79], [229, 1, 7, 2.07], [20680, 1, 7, 1.78], [1049, 2, 7, 0.69], [336, 15, 7, 0.98], [6627, 3, 7, 0.85], [5940, 3, 9, 0.75], [12229, 2, 7, 0.87], [192, 3, 15, 4.24], [11581, 29, 7, 1.89], [13033, 3, 7, 2.22], [23275, 2, 7, 1.91], [2331, 1, 7, 1.23], [1274, 1, 7, 3.02], [2805, 137, 10, 3.08], [247, 1, 7, 2.98], [5165, 1, 7, 4.43], [201, 3, 7, 4.28], [8635, 3, 7, 1.14], [114, 3, 7, 3.33], [942, 3, 9, 1.76], [11914, 1, 7, 0.79], [6496, 1, 7, 2.98], [8898, 3, 7, 3.01], [6629, 3, 7, 0.9], [1703, 2, 7, 0.9], [7886, 4, 8, 0.97], [11770, 1, 7, 3.02], [5812, 3, 7, 2.49], [9372, 1, 7, 3.35], [3934, 5, 11, 1.13], [9760, 29, 7, 3.77], [202, 2, 7, 1.79], [21269, 3, 7, 2.59], [186, 3, 15, 2.32], [332, 2, 7, 1.79], [951, 4, 7, 2.96], [83, 2, 7, 1.1], [4940, 1, 7, 0.69], [10527, 3, 13, 3.97], [6360, 10, 15, 2.01], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [21781, 2, 7, 0.9], [12373, 1, 11, 2.99], [9082, 3, 24, 2.83], [20927, 1, 7, 1.35], [5584, 3, 7, 5.0], [13498, 3, 7, 3.06], [12870, 1, 7, 3.35], [7036, 1, 110, 4.02], [94, 4, 64, 5.69], [6952, 1, 136, 5.34], [3891, 1, 106, 4.71], [7707, 2, 152, 3.98], [2991, 3, 137, 6.0], [22317, 3, 249, 3.63], [21793, 1, 175, 6.0], [7708, 2, 152, 4.9], [3889, 1, 32, 6.0], [345, 3, 214, 4.71], [6630, 3, 68, 6.0], [11490, 1, 100, 2.59], [5208, 3, 223, 2.1], [1490, 1, 45, 5.4], [2912, 1, 43, 4.6], [3495, 3, 886, 3.08], [563, 2, 19, 2.71], [229, 1, 75, 3.64], [20680, 1, 566, 3.35], [6627, 3, 68, 3.13], [5940, 3, 180, 2.44], [12229, 2, 131, 3.15], [192, 3, 1093, 6.0], [11581, 29, 55, 3.46], [13033, 3, 546, 3.8], [23275, 2, 65, 3.48], [2331, 1, 109, 2.8], [1274, 1, 74, 4.59], [2805, 137, 168, 4.65], [247, 1, 80, 4.55], [5165, 1, 43, 6.0], [201, 3, 272, 5.85], [942, 3, 252, 4.54], [11914, 1, 74, 3.07], [6496, 1, 34, 4.55], [8898, 3, 240, 4.79], [6629, 3, 62, 2.43], [1703, 2, 153, 2.47], [11770, 1, 182, 4.59], [5812, 3, 500, 4.76], [9372, 1, 209, 4.92], [3934, 5, 538, 2.71], [202, 2, 19, 2.71], [21269, 3, 250, 4.37], [186, 3, 513, 4.42], [332, 2, 19, 2.71], [951, 4, 86, 4.54], [83, 2, 14, 2.02], [4940, 1, 111, 2.26], [10527, 3, 687, 5.51], [6360, 10, 291, 3.8], [5811, 3, 538, 3.96], [1886, 2, 144, 2.42], [21781, 2, 82, 2.43], [12373, 1, 489, 4.56], [9082, 3, 2253, 4.42], [20927, 1, 42, 2.73], [5584, 3, 210, 6.0], [13498, 3, 552, 4.63], [12870, 1, 125, 4.92]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [2327, 2, 9, 1.37], [11681, 2, 30, 4.17], [362, 2, 11, 1.69], [8648, 2, 9, 3.55], [8650, 2, 11, 4.78], [305, 2, 11, 3.03], [326, 2, 9, 2.4], [205, 2, 7, 1.64], [2328, 2, 7, 2.1], [1446, 2, 7, 0.92], [2049, 3, 11, 0.75], [130, 1, 9, 1.81], [2775, 2, 9, 1.33], [361, 2, 7, 1.61], [8853, 2, 14, 4.03], [593, 2, 9, 1.46], [143, 2, 7, 1.77], [140, 2, 7, 1.47], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [7004, 1, 9, 1.21], [413, 1, 7, 1.27], [21793, 1, 7, 3.18], [12350, 1, 7, 0.97], [1124, 2, 7, 1.09], [151, 1, 7, 1.53], [7036, 1, 7, 2.61], [990, 2, 9, 1.44], [5165, 1, 7, 4.43], [12349, 1, 7, 3.68], [145, 2, 7, 2.68], [201, 3, 23, 4.06], [248, 1, 7, 0.76], [8089, 1, 7, 2.62], [6952, 1, 9, 3.04], [6097, 80, 7, 5.0], [2050, 3, 9, 3.0], [2055, 3, 9, 2.33], [345, 3, 9, 2.18], [144, 2, 7, 0.94], [10993, 2, 7, 0.79], [7084, 3, 7, 5.0], [11770, 1, 7, 0.9], [2057, 3, 9, 2.33], [3891, 1, 7, 1.46], [2912, 1, 7, 1.66], [5165, 2, 12, 4.19], [998, 2, 11, 1.31], [3893, 1, 7, 1.21], [9372, 1, 7, 3.47], [12870, 1, 7, 1.58], [12343, 1, 7, 3.68], [7885, 4, 7, 1.91], [2424, 80, 7, 4.14], [12351, 1, 7, 3.68], [6098, 80, 7, 3.64], [6097, 29, 9, 5.0], [20927, 1, 9, 1.16], [10574, 3, 8, 2.79], [6158, 2, 9, 2.08], [3334, 5, 7, 2.0], [12345, 1, 7, 3.68], [11089, 1, 9, 1.67], [10149, 3, 24, 2.61], [1492, 1, 7, 1.08], [2912, 2, 8, 1.27], [3889, 1, 7, 1.21], [4032, 29, 7, 1.21], [12304, 1, 7, 2.06], [972, 3, 7, 1.94], [3576, 25, 9, 2.28], [1700, 2, 7, 1.34], [411, 2, 7, 1.79], [13034, 3, 7, 3.03], [2331, 1, 7, 1.94], [11583, 29, 9, 0.76], [229, 1, 7, 3.98], [11426, 25, 7, 0.98], [5151, 2, 7, 2.95], [11490, 1, 7, 1.79], [995, 2, 7, 1.98], [3, 2, 9, 1.12], [8677, 3, 8, 2.63], [12764, 2, 9, 1.86], [2160, 68, 7, 1.96], [3478, 2, 7, 2.16], [13893, 2, 7, 3.45], [2805, 137, 7, 2.45], [3575, 25, 7, 1.49], [13023, 3, 8, 2.67], [13280, 1, 7, 2.1], [5812, 3, 7, 4.34], [6494, 1, 7, 2.91], [3577, 25, 7, 0.87], [11814, 1, 7, 0.92], [4253, 1, 7, 2.71], [11813, 1, 7, 3.42], [2438, 2, 8, 3.32], [75, 2, 7, 0.79], [9289, 29, 7, 2.91], [11404, 2, 7, 0.83], [9971, 2, 7, 3.67], [957, 2, 7, 2.25], [9967, 2, 7, 3.67], [1413, 15, 7, 0.87], [11150, 2, 8, 0.77], [22317, 3, 7, 0.85], [8283, 2, 8, 1.31], [9069, 1, 7, 1.54], [4586, 10, 16, 1.4], [5584, 3, 7, 2.66], [2878, 1, 7, 1.35], [114, 3, 7, 2.95], [9491, 21, 13, 2.57], [21697, 3, 7, 0.85], [11812, 1, 7, 0.79], [9964, 2, 7, 1.83], [9965, 2, 7, 2.61], [4076, 3, 7, 2.73], [10407, 10, 12, 2.29], [10609, 1, 7, 2.98], [336, 15, 7, 0.75], [1163, 3, 7, 2.79], [8926, 1, 7, 4.45], [12647, 1, 7, 1.49], [11739, 2, 7, 1.86], [13249, 29, 7, 2.23], [3495, 3, 16, 1.44], [11687, 2, 7, 0.73], [7324, 1, 7, 1.59], [11425, 25, 7, 0.98], [8285, 2, 7, 1.0], [4032, 29, 89, 2.65], [12304, 1, 97, 3.51], [972, 3, 552, 3.39], [3576, 25, 24, 4.65], [1700, 2, 67, 2.79], [13034, 3, 552, 4.48], [2331, 1, 109, 3.38], [11583, 29, 45, 3.26], [229, 1, 75, 5.43], [11426, 25, 110, 2.42], [5151, 2, 22, 4.4], [11490, 1, 25, 2.61], [995, 2, 225, 3.42], [3, 2, 90, 3.5], [8677, 3, 216, 4.08], [12764, 2, 687, 3.3], [2160, 68, 123, 3.4], [13893, 2, 251, 4.89], [2805, 137, 168, 3.9], [3575, 25, 74, 3.41], [13023, 3, 435, 4.16], [13280, 1, 297, 3.54], [5812, 3, 430, 5.78], [6494, 1, 46, 4.36], [3577, 25, 82, 2.32], [11814, 1, 209, 2.37], [4253, 1, 157, 4.15], [11813, 1, 288, 4.86], [2438, 2, 581, 4.77], [75, 2, 135, 2.24], [9289, 29, 59, 4.36], [11404, 2, 77, 2.75], [9971, 2, 251, 5.12], [957, 2, 37, 3.67], [9967, 2, 251, 5.12], [1413, 15, 92, 2.32], [11150, 2, 286, 2.18], [22317, 3, 299, 2.3], [8283, 2, 441, 2.76], [9069, 1, 114, 2.98], [4586, 10, 1075, 3.3], [5584, 3, 216, 4.1], [2878, 1, 60, 2.79], [114, 3, 56, 4.11], [9491, 21, 1951, 4.0], [21697, 3, 169, 2.29], [11812, 1, 222, 2.24], [9964, 2, 251, 3.28], [9965, 2, 251, 4.06], [4076, 3, 186, 4.18], [10407, 10, 1115, 3.71], [10609, 1, 265, 4.43], [336, 15, 26, 1.58], [8926, 1, 57, 5.9], [12647, 1, 204, 2.94], [11739, 2, 13, 2.68], [13249, 29, 59, 3.67], [3495, 3, 896, 2.89], [11687, 2, 142, 1.97], [7324, 1, 56, 3.03], [11425, 25, 110, 2.42], [8285, 2, 446, 2.45]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.41], [305, 2, 7, 1.49], [6935, 2, 19, 3.14], [2049, 3, 16, 0.77], [141, 2, 7, 0.75], [205, 2, 7, 0.86], [326, 2, 8, 1.03], [130, 1, 7, 1.71], [144, 2, 7, 0.96], [589, 2, 12, 0.67], [151, 1, 7, 0.89], [362, 2, 7, 2.54], [1776, 1, 7, 2.85], [146, 2, 7, 2.94], [145, 2, 7, 1.4], [206, 2, 7, 0.69], [143, 2, 7, 1.12], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [1777, 1, 7, 2.22], [6936, 2, 10, 2.57], [5151, 2, 7, 2.98], [8650, 2, 7, 3.16], [2778, 2, 9, 1.06], [22247, 2, 9, 2.65], [8677, 3, 8, 3.63], [10, 2, 11, 2.05], [76, 2, 11, 3.36], [10149, 3, 25, 3.26], [8649, 2, 7, 3.36], [2050, 3, 9, 1.52], [412, 1, 7, 1.75], [13028, 3, 7, 0.96], [361, 2, 7, 1.42], [413, 1, 7, 2.14], [7004, 1, 7, 0.77], [11404, 2, 9, 1.19], [411, 2, 7, 1.42], [410, 1, 7, 1.67], [3478, 2, 7, 2.36], [6158, 2, 12, 0.75], [308, 1, 7, 2.44], [167, 3, 11, 4.08], [5081, 2, 18, 1.5], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [5812, 3, 10, 5.0], [9827, 3, 7, 1.38], [94, 4, 7, 3.04], [3893, 1, 7, 1.06], [168, 3, 9, 1.09], [3889, 1, 7, 1.06], [10574, 3, 9, 2.33], [3891, 1, 7, 1.06], [2049, 1, 7, 0.77], [13280, 1, 7, 2.37], [12870, 1, 7, 5.0], [2336, 3, 8, 1.29], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 5.0], [6097, 80, 7, 5.0], [11737, 2, 7, 2.04], [95, 3, 21, 0.92], [998, 2, 9, 3.14], [346, 1, 7, 1.58], [20927, 1, 7, 2.0], [79, 1, 7, 0.73], [6098, 29, 9, 5.0], [22316, 3, 9, 0.97], [9069, 1, 7, 2.6], [6098, 80, 7, 5.0], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [8898, 3, 7, 4.48], [9760, 29, 7, 1.15], [346, 3, 8, 0.9], [997, 2, 9, 3.19], [20498, 1, 7, 2.44], [7887, 4, 9, 0.92], [13034, 3, 10, 2.48], [1622, 1, 12, 0.53], [8945, 3, 8, 2.29], [13260, 29, 7, 2.28], [22554, 10, 15, 0.87], [336, 15, 9, 0.68], [7567, 3, 7, 3.89], [5946, 1, 7, 1.06], [5811, 3, 6, 2.76], [5813, 3, 7, 1.98], [5513, 2, 7, 2.49], [22317, 3, 10, 1.35], [11085, 2, 9, 1.33], [5086, 1, 11, 1.14], [5209, 3, 7, 1.04], [12924, 1, 7, 0.86], [12350, 1, 7, 4.0], [20498, 3, 10, 1.9], [995, 2, 9, 4.24], [229, 1, 7, 4.95], [974, 3, 7, 1.69], [996, 2, 9, 3.92], [972, 3, 8, 1.1], [33, 1, 7, 1.92], [9691, 1, 7, 3.68], [8557, 3, 7, 1.53], [35, 1, 7, 2.52], [110, 4, 9, 1.31], [3049, 3, 7, 4.11], [1080, 3, 7, 2.09], [20486, 3, 10, 3.27], [1703, 2, 7, 2.72], [13023, 3, 8, 3.06], [2424, 80, 7, 4.51], [4076, 3, 7, 5.0], [5584, 3, 7, 4.11], [39, 1, 7, 2.02], [8104, 1, 7, 0.75], [14018, 3, 7, 0.96], [3900, 3, 9, 2.92], [952, 4, 7, 3.81], [215, 4, 7, 5.0], [11510, 3, 10, 1.49], [9081, 3, 15, 2.8], [9613, 1, 7, 0.87], [34, 1, 7, 2.02], [20486, 1, 7, 2.87], [114, 3, 7, 1.42], [972, 1, 7, 1.89], [1414, 15, 7, 0.81], [2854, 21, 13, 0.84], [20969, 3, 7, 2.52], [6497, 1, 7, 2.43], [3047, 3, 7, 2.02], [998, 2, 185, 4.25], [346, 1, 121, 2.73], [79, 1, 34, 2.0], [6098, 29, 14, 5.15], [22316, 3, 249, 2.59], [9069, 1, 82, 4.16], [1070, 7, 397, 2.9], [14017, 3, 131, 3.39], [8898, 3, 188, 6.0], [9760, 29, 57, 2.81], [346, 3, 484, 2.55], [997, 2, 185, 4.3], [20498, 1, 66, 4.1], [13034, 3, 391, 4.65], [1622, 1, 38, 1.22], [8945, 3, 463, 3.4], [13260, 29, 63, 3.39], [22554, 10, 327, 1.98], [336, 15, 77, 1.72], [5946, 1, 108, 2.17], [5811, 3, 391, 4.32], [5813, 3, 391, 4.14], [5513, 2, 67, 3.6], [22317, 3, 211, 3.02], [11085, 2, 367, 3.0], [5086, 1, 123, 4.29], [5209, 3, 391, 2.08], [12924, 1, 36, 3.19], [12350, 1, 479, 5.68], [20498, 3, 391, 4.06], [995, 2, 185, 6.0], [974, 3, 128, 2.8], [996, 2, 185, 6.0], [972, 3, 470, 2.29], [33, 1, 88, 3.08], [8557, 3, 136, 3.68], [35, 1, 39, 3.68], [110, 4, 162, 3.47], [3049, 3, 92, 5.77], [1080, 3, 104, 3.24], [20486, 3, 396, 5.43], [1703, 2, 127, 4.37], [13023, 3, 391, 4.6], [2424, 80, 152, 5.66], [4076, 3, 132, 6.0], [5584, 3, 168, 5.27], [39, 1, 88, 3.13], [8104, 1, 144, 1.79], [14018, 3, 131, 3.07], [952, 4, 63, 4.91], [11510, 3, 456, 3.64], [9081, 3, 360, 4.97], [9613, 1, 32, 2.53], [34, 1, 97, 3.13], [20486, 1, 67, 5.02], [114, 3, 192, 2.57], [972, 1, 79, 3.0], [1414, 15, 79, 2.47], [2854, 21, 836, 2.51], [20969, 3, 508, 3.62], [6497, 1, 29, 3.59], [3047, 3, 211, 3.13]]</t>
+    <t>[[305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [205, 2, 4, 0.2], [2049, 3, 9, 1.4], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.74], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.27], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [206, 2, 4, 0.2], [20252, 2, 4, 0.44], [8648, 2, 4, 1.27], [6936, 2, 5, 1.17], [990, 2, 4, 0.95], [2328, 2, 4, 0.2], [7886, 4, 5, 0.45], [8650, 2, 4, 1.65], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [2054, 3, 5, 0.54], [2057, 3, 6, 0.47], [7004, 1, 4, 0.2], [1492, 1, 5, 0.97], [2055, 3, 5, 0.42], [8649, 2, 4, 1.65], [345, 3, 4, 0.32], [21798, 1, 4, 0.36], [7005, 1, 4, 0.2], [7084, 3, 4, 2.28], [3889, 1, 4, 0.2], [10825, 21, 10, 1.04], [7887, 4, 4, 0.35], [33, 1, 4, 0.83], [61, 3, 4, 0.71], [21793, 1, 4, 1.14], [10149, 3, 15, 0.99], [94, 4, 4, 0.2], [432, 3, 6, 0.62], [7036, 1, 4, 0.43], [5081, 2, 5, 0.69], [12870, 1, 4, 2.33], [3478, 2, 4, 0.78], [167, 3, 5, 1.4], [308, 1, 4, 0.49], [11681, 2, 5, 1.79], [411, 2, 4, 0.2], [10, 2, 4, 0.68], [13028, 3, 4, 0.62], [9827, 3, 4, 0.2], [1504, 2, 4, 0.52], [201, 3, 5, 0.32], [3891, 1, 4, 0.2], [84, 2, 4, 1.54], [8677, 3, 6, 0.65], [168, 3, 4, 1.23], [35, 1, 4, 0.83], [1124, 2, 6, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.2], [5812, 3, 6, 0.81], [2336, 3, 5, 0.99], [13280, 1, 4, 0.54], [23, 1, 4, 0.67], [9760, 29, 4, 0.49], [1490, 1, 4, 0.2], [1243, 2, 4, 0.66], [11737, 2, 4, 0.2], [6158, 2, 6, 0.51], [5208, 3, 5, 0.39], [335, 3, 11, 0.22], [412, 1, 4, 1.14], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [45, 2, 4, 0.64], [214, 3, 9, 0.38], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [95, 3, 14, 0.31], [9069, 1, 4, 0.42], [10574, 3, 5, 0.58], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.52], [34, 1, 4, 0.63], [997, 2, 4, 0.77], [8898, 3, 5, 0.75], [11116, 1, 4, 0.56], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [417, 2, 4, 0.53], [9691, 1, 4, 1.52], [1070, 7, 9, 0.46], [1413, 15, 4, 0.53], [14017, 3, 5, 1.04], [38, 1, 4, 0.63], [20498, 1, 4, 0.23], [9372, 1, 5, 1.74], [11954, 1, 4, 0.2], [974, 3, 5, 0.88], [5209, 3, 4, 0.37], [22317, 3, 5, 0.51], [7567, 3, 4, 0.41], [14037, 3, 4, 0.2], [972, 3, 5, 0.91], [5584, 3, 4, 1.19], [20498, 3, 6, 0.82], [9828, 3, 4, 0.21], [8945, 3, 5, 1.51], [5813, 3, 4, 1.51], [82, 2, 4, 0.46], [39, 1, 4, 0.59], [3048, 3, 4, 1.24], [1080, 3, 5, 0.55], [13034, 3, 5, 1.09], [24, 1, 4, 1.04], [955, 2, 4, 0.22], [1414, 15, 4, 0.2], [336, 15, 4, 0.2], [1767, 2, 4, 0.59], [10780, 10, 4, 0.98], [13260, 29, 4, 0.73], [4203, 1, 5, 0.3], [305, 2, 119, 3.05], [326, 2, 79, 3.44], [589, 2, 157, 1.41], [143, 2, 127, 3.11], [205, 2, 94, 2.56], [130, 1, 60, 2.55], [6935, 2, 243, 5.06], [75, 2, 127, 3.66], [144, 2, 127, 2.96], [12721, 2, 246, 3.75], [145, 2, 130, 3.01], [8915, 2, 197, 1.25], [146, 2, 153, 1.74], [1776, 1, 93, 3.19], [2778, 2, 134, 3.12], [1777, 1, 84, 3.41], [151, 1, 67, 1.45], [206, 2, 111, 1.67], [20252, 2, 95, 1.59], [8648, 2, 194, 5.59], [6936, 2, 243, 4.53], [990, 2, 44, 2.54], [2328, 2, 109, 3.35], [7886, 4, 146, 1.62], [8650, 2, 194, 6.0], [141, 2, 119, 3.67], [74, 1, 173, 5.59], [83, 2, 37, 1.52], [2054, 3, 368, 2.6], [2057, 3, 411, 2.93], [7004, 1, 81, 1.45], [1492, 1, 29, 3.24], [2055, 3, 411, 2.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.1], [21798, 1, 141, 1.7], [7005, 1, 81, 1.47], [3889, 1, 107, 2.86], [10825, 21, 547, 3.52], [7887, 4, 142, 1.41], [33, 1, 90, 3.5], [61, 3, 210, 2.11], [21793, 1, 230, 4.76], [10149, 3, 760, 3.73], [94, 4, 106, 4.16], [432, 3, 259, 3.2], [7036, 1, 110, 3.8], [5081, 2, 164, 3.32], [12870, 1, 119, 6.0], [167, 3, 196, 3.83], [308, 1, 170, 3.3], [11681, 2, 266, 5.07], [411, 2, 94, 2.74], [10, 2, 107, 2.06], [13028, 3, 148, 3.95], [9827, 3, 75, 2.94], [1504, 2, 208, 3.46], [201, 3, 260, 3.1], [3891, 1, 107, 3.74], [84, 2, 69, 3.78], [8677, 3, 254, 3.32], [168, 3, 137, 3.83], [35, 1, 86, 3.36], [1124, 2, 160, 3.48], [3893, 1, 107, 3.7], [79, 1, 40, 2.72]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.27], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [8915, 2, 5, 0.21], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [8648, 2, 4, 1.15], [205, 2, 4, 0.37], [593, 2, 6, 0.4], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.47], [5493, 2, 4, 0.2], [7036, 1, 4, 1.2], [2049, 3, 8, 0.2], [88, 10, 11, 0.77], [141, 2, 5, 0.39], [7004, 1, 4, 0.99], [1446, 2, 4, 0.78], [206, 2, 4, 0.2], [1124, 2, 4, 0.95], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.55], [2912, 1, 4, 0.91], [10993, 2, 4, 0.35], [12870, 1, 5, 1.43], [3893, 1, 4, 0.2], [5165, 1, 4, 0.86], [9372, 1, 4, 1.33], [7886, 4, 5, 0.44], [2054, 3, 5, 0.2], [3889, 1, 4, 0.2], [2050, 3, 5, 0.55], [1622, 1, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.61], [7885, 4, 4, 0.49], [7573, 1, 9, 2.21], [10, 2, 5, 0.36], [5208, 3, 5, 0.21], [10149, 3, 17, 1.21], [75, 2, 5, 1.0], [20927, 1, 4, 1.01], [997, 2, 4, 1.01], [3, 2, 5, 0.62], [11234, 2, 5, 0.5], [5165, 2, 5, 0.86], [12721, 2, 5, 1.46], [998, 2, 4, 0.56], [35, 1, 4, 1.54], [1886, 2, 5, 0.2], [972, 3, 5, 0.75], [22247, 2, 4, 1.14], [9491, 21, 15, 0.22], [996, 2, 4, 0.35], [955, 2, 4, 0.52], [33, 1, 4, 1.18], [83, 2, 4, 0.7], [229, 1, 4, 1.3], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.99], [76, 2, 5, 0.85], [413, 1, 4, 1.63], [2424, 80, 4, 0.86], [34, 1, 4, 1.32], [13028, 3, 4, 1.36], [38, 1, 4, 1.38], [5209, 3, 6, 0.71], [13928, 1, 4, 0.95], [8676, 2, 4, 1.22], [8898, 3, 4, 2.55], [418, 2, 4, 0.65], [12212, 29, 5, 0.22], [3495, 3, 10, 1.25], [11952, 1, 4, 0.85], [39, 1, 4, 1.35], [9690, 1, 4, 0.22], [1414, 15, 4, 0.45], [5946, 1, 4, 0.53], [11490, 1, 4, 0.71], [2424, 29, 4, 0.37], [9691, 1, 4, 0.97], [411, 2, 4, 0.85], [415, 1, 4, 0.55], [1703, 2, 4, 1.08], [10407, 10, 6, 1.43], [7567, 3, 4, 1.33], [23961, 3, 4, 2.13], [11953, 1, 4, 0.45], [11772, 1, 4, 1.43], [13023, 3, 5, 0.55], [22316, 3, 4, 0.6], [12764, 2, 5, 0.73], [214, 3, 9, 0.42], [13928, 2, 4, 0.55], [74, 1, 4, 2.78], [21269, 3, 5, 0.99], [10410, 10, 10, 1.66], [13893, 2, 4, 0.91], [1163, 3, 4, 0.46], [972, 1, 4, 0.68], [2331, 1, 4, 0.69], [410, 1, 4, 0.55], [1274, 1, 4, 0.55], [5164, 1, 4, 0.9], [1523, 1, 4, 0.4], [24257, 1, 4, 0.52], [10408, 10, 6, 1.84], [1492, 1, 4, 0.2], [3430, 15, 4, 1.2], [6097, 80, 4, 1.01], [2438, 2, 6, 1.63], [13034, 3, 5, 1.2], [6097, 29, 4, 0.44], [3047, 3, 4, 1.39], [1243, 2, 5, 1.13], [10780, 10, 4, 1.62], [71, 15, 4, 0.39], [6805, 1, 4, 0.51], [1080, 3, 4, 1.41], [2436, 4, 5, 0.31], [1277, 1, 4, 0.36], [7704, 2, 4, 1.64], [7705, 2, 4, 1.64], [3429, 15, 4, 0.37], [6497, 1, 4, 1.11], [8659, 1, 4, 0.82], [19931, 1, 4, 1.26], [20486, 3, 5, 0.5], [2327, 2, 125, 3.09], [305, 2, 110, 3.21], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [8915, 2, 170, 2.69], [144, 2, 113, 3.38], [143, 2, 111, 3.2], [2328, 2, 113, 3.78], [6936, 2, 209, 5.65], [8648, 2, 168, 5.46], [205, 2, 81, 2.35], [593, 2, 171, 3.32], [8650, 2, 168, 5.19], [145, 2, 113, 3.31], [146, 2, 113, 3.43], [326, 2, 81, 3.07], [5493, 2, 113, 1.57], [7036, 1, 97, 5.41], [2049, 3, 429, 3.11], [141, 2, 117, 3.11], [1446, 2, 140, 2.34], [206, 2, 33, 2.33], [1124, 2, 172, 2.73], [9760, 29, 66, 3.12], [362, 2, 107, 3.34], [2055, 3, 375, 2.33], [2912, 1, 44, 2.59], [10993, 2, 49, 1.84], [12870, 1, 103, 5.58], [3893, 1, 94, 3.1], [5165, 1, 44, 2.5], [9372, 1, 211, 4.09], [7886, 4, 133, 1.64], [2054, 3, 166, 3.07], [3889, 1, 94, 3.61], [2050, 3, 375, 2.44], [1622, 1, 100, 1.42], [3891, 1, 94, 3.15], [21793, 1, 222, 2.06], [7885, 4, 32, 1.42], [7573, 1, 276, 5.69], [10, 2, 93, 2.77], [5208, 3, 522, 1.87], [10149, 3, 662, 4.5], [75, 2, 108, 4.27], [997, 2, 179, 4.71], [3, 2, 91, 3.71], [11234, 2, 170, 2.39], [5165, 2, 354, 2.35], [12721, 2, 210, 4.69], [998, 2, 179, 3.89], [35, 1, 39, 3.84], [1886, 2, 117, 3.42], [972, 3, 444, 3.65], [22247, 2, 261, 3.11], [9491, 21, 1587, 3.27], [996, 2, 174, 5.39], [955, 2, 100, 1.84], [33, 1, 83, 3.95], [229, 1, 63, 3.9], [6158, 2, 241, 2.39], [76, 2, 82, 3.48], [413, 1, 20, 3.93], [2424, 80, 157, 3.61], [34, 1, 83, 3.87]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.71], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [143, 2, 4, 0.76], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [2778, 2, 5, 0.2], [6936, 2, 5, 1.85], [2049, 3, 8, 0.2], [146, 2, 4, 0.82], [88, 10, 12, 0.2], [7004, 1, 4, 0.61], [615, 2, 4, 0.62], [7036, 1, 4, 1.48], [145, 2, 4, 0.73], [362, 2, 4, 0.5], [8853, 2, 5, 1.2], [2055, 3, 6, 1.74], [10993, 2, 4, 0.63], [11737, 2, 5, 0.2], [3840, 1, 4, 0.38], [159, 3, 6, 0.2], [523, 2, 4, 0.53], [12870, 1, 4, 1.17], [2057, 3, 5, 1.78], [3889, 1, 4, 0.6], [10574, 3, 5, 0.53], [13280, 1, 4, 0.75], [7084, 3, 5, 0.28], [20927, 1, 4, 0.61], [2054, 3, 4, 0.78], [997, 2, 5, 0.78], [3, 2, 4, 0.53], [3982, 3, 14, 1.18], [21793, 1, 4, 1.09], [10, 2, 4, 0.39], [3891, 1, 4, 0.53], [61, 3, 4, 1.23], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [7885, 4, 5, 0.2], [6158, 2, 6, 0.2], [8672, 2, 5, 0.73], [5165, 1, 4, 0.67], [972, 3, 4, 1.77], [5165, 2, 5, 0.66], [346, 3, 4, 0.87], [3980, 4, 4, 1.19], [9372, 1, 4, 1.49], [411, 2, 4, 0.65], [2912, 1, 4, 0.91], [956, 2, 4, 0.39], [10388, 2, 4, 1.33], [214, 3, 9, 0.38], [9491, 21, 12, 0.29], [3981, 3, 13, 1.15], [346, 1, 4, 0.99], [1492, 1, 4, 0.46], [995, 2, 4, 1.16], [7573, 1, 5, 0.93], [33, 1, 4, 2.08], [22316, 3, 4, 0.51], [7886, 4, 4, 0.24], [13928, 1, 4, 0.47], [10386, 2, 4, 0.36], [336, 15, 4, 0.37], [161, 3, 5, 1.51], [35, 1, 4, 1.58], [7567, 3, 4, 0.71], [11770, 1, 5, 0.2], [2912, 2, 5, 2.03], [308, 1, 4, 1.07], [10631, 2, 4, 1.27], [11490, 1, 4, 0.8], [229, 1, 4, 1.25], [11953, 1, 5, 0.22], [83, 2, 4, 0.67], [22317, 3, 6, 0.51], [10780, 10, 4, 1.58], [414, 1, 4, 0.51], [10407, 10, 6, 1.35], [10149, 3, 15, 1.47], [10410, 10, 6, 1.31], [12271, 2, 4, 1.76], [972, 1, 5, 1.76], [6497, 1, 4, 0.47], [1413, 15, 4, 0.28], [23611, 3, 4, 0.2], [11767, 1, 4, 0.43], [345, 3, 4, 0.76], [8104, 1, 4, 0.38], [37, 1, 4, 0.91], [3478, 2, 4, 0.52], [74, 1, 4, 2.85], [39, 1, 4, 0.43], [10387, 2, 4, 0.37], [9971, 2, 4, 1.0], [4076, 3, 4, 1.19], [3048, 3, 4, 0.46], [152, 21, 4, 0.59], [34, 1, 4, 0.68], [24257, 1, 4, 1.38], [2331, 1, 4, 1.35], [82, 2, 4, 0.41], [20498, 3, 5, 0.73], [4001, 3, 8, 1.13], [4253, 1, 4, 0.73], [11510, 3, 5, 0.5], [45, 2, 4, 2.7], [9, 1, 4, 0.36], [416, 1, 4, 0.51], [215, 4, 4, 0.95], [12338, 29, 4, 0.39], [10936, 2, 4, 0.45], [12764, 2, 6, 0.58], [9965, 2, 4, 2.17], [202, 2, 4, 0.38], [1523, 1, 4, 0.64], [1895, 3, 4, 0.74], [105, 3, 4, 0.51], [12858, 1, 5, 0.22], [1080, 3, 4, 0.46], [2805, 137, 8, 0.94], [11489, 1, 4, 0.39], [8635, 3, 4, 1.26], [7705, 2, 4, 1.2], [3047, 3, 4, 0.9], [10093, 3, 9, 0.9], [6935, 2, 188, 5.01], [11685, 2, 221, 5.55], [326, 2, 88, 3.24], [8648, 2, 217, 3.51], [589, 2, 124, 2.8], [2327, 2, 111, 2.93], [593, 2, 187, 2.96], [11681, 2, 221, 5.54], [305, 2, 119, 3.13], [143, 2, 120, 3.63], [141, 2, 125, 3.78], [8650, 2, 217, 3.05], [2778, 2, 126, 3.26], [6936, 2, 188, 6.0], [2049, 3, 445, 3.07], [146, 2, 123, 3.76], [88, 10, 471, 3.03], [7004, 1, 76, 1.97], [615, 2, 89, 3.8], [7036, 1, 104, 4.47], [145, 2, 55, 3.54], [362, 2, 114, 3.11], [8853, 2, 188, 4.57], [2055, 3, 371, 5.61], [10993, 2, 51, 2.01], [11737, 2, 40, 3.02], [3840, 1, 166, 1.53], [159, 3, 583, 2.54], [523, 2, 125, 3.25], [12870, 1, 108, 5.39], [2057, 3, 371, 5.72], [3889, 1, 120, 1.96], [10574, 3, 374, 1.7], [13280, 1, 303, 3.38], [7084, 3, 106, 3.63], [20927, 1, 76, 2.35], [2054, 3, 437, 4.28], [997, 2, 188, 3.19], [3, 2, 118, 1.82], [3982, 3, 642, 4.54], [21793, 1, 233, 2.97], [10, 2, 102, 1.55], [3891, 1, 120, 1.82], [61, 3, 199, 3.17], [998, 2, 188, 3.02], [11739, 2, 46, 2.86], [7885, 4, 135, 1.5], [6158, 2, 213, 3.44], [8672, 2, 232, 4.88], [5165, 1, 46, 2.09], [5165, 2, 367, 1.95], [346, 3, 584, 2.49], [3980, 4, 377, 4.05], [9372, 1, 219, 3.75], [411, 2, 105, 2.05], [2912, 1, 46, 2.55], [956, 2, 103, 1.55], [10388, 2, 169, 3.83], [214, 3, 629, 1.5], [9491, 21, 1669, 2.55], [3981, 3, 1258, 3.84], [346, 1, 146, 2.71], [1492, 1, 36, 1.69], [995, 2, 188, 3.92], [7573, 1, 334, 4.65], [22316, 3, 247, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[2049, 3, 10, 0.24], [326, 2, 5, 0.47], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 4, 0.74], [1776, 1, 4, 0.58], [130, 1, 4, 0.5], [8672, 2, 6, 0.72], [20252, 2, 4, 0.44], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [1777, 1, 4, 0.93], [6936, 2, 6, 1.27], [593, 2, 6, 0.2], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [88, 10, 12, 0.58], [2328, 2, 5, 0.2], [83, 2, 4, 0.5], [8650, 2, 5, 1.15], [5151, 2, 4, 1.15], [2050, 3, 5, 0.66], [412, 1, 4, 0.91], [361, 2, 4, 0.49], [144, 2, 4, 0.75], [2991, 3, 4, 2.17], [21798, 1, 4, 0.36], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [76, 2, 4, 0.86], [21793, 1, 4, 1.03], [2054, 3, 4, 1.35], [146, 2, 4, 0.56], [3478, 2, 4, 0.45], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [2057, 3, 4, 1.61], [167, 3, 5, 1.09], [168, 3, 6, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [84, 2, 4, 1.54], [3495, 3, 15, 0.92], [335, 3, 11, 0.39], [7036, 1, 4, 1.96], [432, 3, 4, 0.39], [5081, 2, 4, 0.2], [214, 3, 9, 0.42], [10, 2, 4, 0.67], [13028, 3, 4, 0.5], [7887, 4, 4, 0.4], [11404, 2, 5, 0.2], [8649, 2, 4, 1.15], [12870, 1, 4, 2.58], [410, 1, 4, 0.2], [79, 1, 4, 0.2], [142, 2, 4, 0.51], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [3889, 1, 4, 0.27], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.26], [9827, 3, 4, 0.2], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [13260, 29, 4, 0.85], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [998, 2, 4, 0.69], [10574, 3, 5, 0.43], [21269, 3, 4, 1.45], [7567, 3, 4, 1.37], [9069, 1, 4, 1.62], [5086, 1, 6, 1.11], [11954, 1, 4, 0.48], [2878, 1, 5, 0.54], [1243, 2, 4, 1.13], [997, 2, 4, 1.37], [9691, 1, 4, 1.65], [20927, 1, 4, 0.61], [5209, 3, 5, 0.19], [1703, 2, 4, 1.13], [11914, 1, 5, 0.2], [1124, 2, 5, 0.21], [856, 1, 4, 0.48], [5660, 2, 5, 1.05], [5584, 3, 4, 0.44], [1070, 7, 11, 0.38], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [1519, 3, 12, 0.22], [23961, 3, 4, 2.43], [8898, 3, 4, 2.67], [952, 4, 4, 2.64], [1091, 1, 4, 0.2], [22317, 3, 5, 0.51], [9081, 3, 9, 1.03], [24, 1, 5, 0.95], [5513, 2, 4, 0.52], [13034, 3, 6, 1.01], [12661, 1, 4, 2.35], [336, 15, 4, 0.2], [11767, 1, 4, 0.47], [1413, 15, 4, 0.37], [20498, 1, 4, 2.08], [6097, 80, 4, 0.41], [9760, 29, 4, 0.2], [9082, 3, 18, 0.92], [8945, 3, 6, 2.49], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [1163, 3, 5, 0.22], [6097, 29, 4, 0.34], [2109, 3, 9, 0.24], [995, 2, 4, 1.23], [82, 2, 4, 0.35], [20498, 3, 5, 2.0], [11769, 1, 4, 0.47], [972, 3, 5, 0.51], [9372, 1, 4, 1.47], [6098, 80, 4, 0.9], [2104, 3, 6, 1.38], [5813, 3, 4, 1.06], [8635, 3, 5, 0.6], [10780, 10, 4, 2.08], [34, 1, 4, 0.47], [2049, 3, 458, 2.3], [326, 2, 65, 2.88], [6935, 2, 236, 4.45], [362, 2, 117, 3.72], [589, 2, 134, 1.15], [141, 2, 111, 2.89], [75, 2, 103, 3.77], [1776, 1, 81, 2.97], [130, 1, 51, 2.31], [8672, 2, 246, 2.81], [20252, 2, 81, 1.5], [7886, 4, 105, 2.04], [2778, 2, 111, 2.96], [305, 2, 104, 2.78], [1777, 1, 90, 3.63], [6936, 2, 201, 4.58], [593, 2, 162, 2.73], [11681, 2, 193, 6.0], [8648, 2, 159, 5.11], [206, 2, 95, 1.61], [151, 1, 53, 2.46], [88, 10, 398, 4.25], [2328, 2, 108, 2.84], [83, 2, 47, 1.61], [8650, 2, 159, 5.15], [5151, 2, 18, 3.14], [2050, 3, 336, 3.11], [412, 1, 60, 3.58], [361, 2, 134, 1.59], [144, 2, 108, 2.84], [2991, 3, 115, 5.54], [21798, 1, 121, 1.6], [57, 1, 54, 2.6], [10149, 3, 676, 4.91], [76, 2, 77, 4.16], [21793, 1, 171, 5.53], [146, 2, 108, 3.51], [3478, 2, 66, 1.52], [45, 2, 77, 4.55], [143, 2, 106, 2.75], [7004, 1, 50, 2.18], [2057, 3, 328, 3.84], [167, 3, 161, 3.91], [168, 3, 289, 3.28], [74, 1, 140, 4.42], [346, 1, 113, 2.71], [84, 2, 59, 3.68], [3495, 3, 679, 3.48], [335, 3, 951, 4.78], [7036, 1, 90, 4.74], [432, 3, 261, 2.26], [5081, 2, 135, 2.9], [214, 3, 565, 1.42], [13028, 3, 105, 2.83], [7887, 4, 122, 1.42], [11404, 2, 66, 2.34], [8649, 2, 159, 4.87], [12870, 1, 98, 6.0], [410, 1, 76, 2.64], [79, 1, 34, 1.75], [142, 2, 134, 1.63], [145, 2, 132, 1.48], [5208, 3, 489, 1.96], [3889, 1, 89, 3.61], [3893, 1, 89, 3.08]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.26], [8915, 2, 5, 0.21], [2327, 2, 4, 0.52], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.51], [615, 2, 4, 0.62], [5493, 2, 4, 0.2], [616, 2, 4, 0.55], [326, 2, 5, 1.22], [6936, 2, 5, 1.66], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [143, 2, 4, 1.19], [144, 2, 5, 1.04], [593, 2, 5, 0.4], [10, 2, 5, 0.67], [5491, 2, 4, 0.51], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.95], [146, 2, 5, 1.07], [7885, 4, 4, 0.49], [7886, 4, 6, 0.44], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [5208, 3, 5, 0.21], [21793, 1, 4, 0.61], [3889, 1, 5, 0.2], [2054, 3, 4, 0.75], [3980, 4, 6, 1.21], [7084, 3, 4, 1.32], [12870, 1, 4, 1.93], [2050, 3, 5, 0.55], [145, 2, 4, 1.25], [5165, 1, 4, 0.86], [10149, 3, 13, 1.47], [13028, 3, 4, 1.36], [8672, 2, 5, 1.19], [2912, 1, 4, 1.02], [998, 2, 4, 0.31], [20927, 1, 4, 1.51], [9760, 29, 4, 0.2], [997, 2, 4, 1.02], [1886, 2, 4, 0.44], [2436, 4, 4, 0.68], [3, 2, 4, 0.37], [7887, 4, 4, 0.97], [972, 3, 5, 0.51], [214, 3, 9, 0.42], [6158, 2, 4, 0.44], [2424, 80, 4, 0.86], [229, 1, 4, 0.91], [955, 2, 4, 0.52], [346, 3, 5, 0.2], [5076, 1, 4, 0.81], [3495, 3, 13, 0.92], [74, 1, 4, 2.78], [5165, 2, 5, 0.86], [11953, 1, 4, 0.45], [996, 2, 4, 1.02], [11770, 1, 4, 0.2], [12721, 2, 4, 1.13], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [7573, 1, 9, 2.21], [9372, 1, 4, 1.33], [11772, 1, 4, 0.21], [2423, 80, 5, 1.72], [2912, 2, 7, 1.86], [2438, 2, 5, 1.88], [3975, 4, 5, 1.26], [11952, 1, 4, 0.85], [6497, 1, 4, 1.11], [5584, 3, 4, 2.61], [346, 1, 4, 0.95], [5209, 3, 5, 0.21], [5434, 1, 4, 1.08], [24257, 1, 4, 0.48], [823, 1, 4, 0.44], [9082, 3, 19, 0.83], [335, 3, 9, 0.87], [10407, 10, 7, 1.19], [1622, 1, 4, 0.49], [8898, 3, 4, 4.0], [2424, 29, 4, 0.37], [12764, 2, 8, 0.23], [8676, 2, 4, 1.22], [6496, 1, 4, 1.31], [3900, 3, 4, 1.65], [5946, 1, 4, 0.53], [11490, 1, 4, 0.48], [33, 1, 4, 0.66], [10388, 2, 4, 0.7], [2805, 137, 4, 1.25], [1339, 3, 10, 0.36], [7567, 3, 4, 1.33], [972, 1, 4, 0.68], [1703, 2, 4, 0.5], [13893, 2, 4, 0.91], [6805, 1, 5, 0.26], [6097, 80, 4, 0.41], [22247, 2, 4, 1.14], [2104, 3, 9, 1.27], [1163, 3, 4, 0.46], [11814, 1, 4, 0.48], [1414, 15, 4, 0.45], [8635, 3, 4, 1.12], [38, 1, 4, 0.91], [9784, 1, 4, 0.58], [1895, 3, 4, 1.49], [1274, 1, 4, 0.23], [95, 3, 15, 0.19], [11116, 1, 4, 0.56], [8283, 2, 5, 1.21], [788, 2, 4, 0.38], [8104, 1, 4, 0.93], [10386, 2, 4, 0.85], [12212, 29, 4, 0.52], [8274, 3, 4, 0.87], [114, 3, 4, 1.28], [9690, 1, 4, 0.22], [8659, 1, 4, 0.41], [19931, 1, 4, 1.26], [76, 2, 4, 0.55], [9065, 2, 4, 0.72], [4232, 80, 4, 0.38], [418, 2, 4, 0.65], [12979, 25, 7, 0.58], [12501, 1, 4, 1.24], [589, 2, 115, 2.97], [88, 10, 421, 3.17], [8915, 2, 170, 2.69], [2327, 2, 113, 3.34], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [305, 2, 110, 3.21], [2328, 2, 113, 3.78], [615, 2, 101, 3.09], [5493, 2, 113, 1.57], [616, 2, 101, 1.9], [326, 2, 81, 3.85], [6936, 2, 209, 5.65], [8650, 2, 168, 5.79], [1446, 2, 119, 3.63], [143, 2, 111, 3.59], [144, 2, 111, 3.68], [593, 2, 171, 3.32], [10, 2, 31, 3.03], [5491, 2, 100, 1.82], [7036, 1, 97, 5.41], [3893, 1, 94, 3.1], [1124, 2, 172, 2.73], [146, 2, 113, 3.79], [7885, 4, 32, 1.42], [7886, 4, 50, 1.69], [3891, 1, 94, 3.15], [75, 2, 129, 4.27], [362, 2, 107, 3.49], [5208, 3, 522, 1.87], [21793, 1, 222, 2.06], [3889, 1, 94, 3.61], [2054, 3, 442, 2.68], [3980, 4, 426, 4.28], [7084, 3, 99, 3.94], [12870, 1, 103, 5.58], [2050, 3, 375, 2.33], [145, 2, 113, 3.54], [5165, 1, 44, 2.5], [10149, 3, 662, 4.5], [13028, 3, 134, 3.45], [8672, 2, 211, 5.36], [2912, 1, 44, 3.71], [998, 2, 179, 3.89], [9760, 29, 54, 3.6], [997, 2, 221, 3.08], [1886, 2, 145, 1.69], [2436, 4, 107, 2.19], [3, 2, 108, 3.71], [972, 3, 444, 3.65], [214, 3, 607, 1.59], [6158, 2, 241, 2.39], [2424, 80, 157, 3.61], [229, 1, 63, 3.28], [955, 2, 100, 1.84], [346, 3, 473, 3.2], [5076, 1, 122, 2.79], [3495, 3, 716, 4.0], [74, 1, 173, 6.0], [5165, 2, 354, 2.35], [11953, 1, 186, 1.71], [996, 2, 221, 2.8], [11770, 1, 163, 3.6], [12721, 2, 261, 3.02], [9491, 21, 1587, 3.27]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [205, 2, 5, 0.26], [5493, 2, 4, 0.37], [6936, 2, 5, 1.35], [616, 2, 4, 0.47], [88, 10, 11, 0.2], [2049, 3, 8, 0.2], [144, 2, 5, 0.47], [8648, 2, 4, 0.71], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 6, 0.96], [593, 2, 5, 0.52], [2327, 2, 5, 0.29], [141, 2, 5, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.61], [3840, 1, 4, 0.38], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3980, 4, 5, 1.19], [2055, 3, 4, 1.74], [143, 2, 5, 0.51], [3889, 1, 4, 0.6], [10, 2, 4, 0.39], [7885, 4, 5, 0.2], [2054, 3, 5, 1.86], [7886, 4, 4, 0.65], [8672, 2, 5, 0.73], [12870, 1, 5, 0.92], [10993, 2, 4, 0.63], [2057, 3, 5, 1.78], [5165, 1, 4, 0.67], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [21793, 1, 4, 1.09], [523, 2, 4, 0.78], [159, 3, 5, 0.37], [7005, 1, 4, 0.47], [3981, 3, 13, 1.42], [3982, 3, 11, 1.18], [142, 2, 5, 0.52], [20927, 1, 4, 0.92], [33, 1, 4, 1.58], [956, 2, 4, 0.39], [997, 2, 5, 1.43], [6158, 2, 6, 0.43], [214, 3, 11, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.66], [22316, 3, 5, 0.51], [2912, 1, 4, 0.91], [11953, 1, 5, 0.22], [35, 1, 4, 1.58], [229, 1, 4, 1.25], [998, 2, 4, 0.92], [346, 3, 5, 0.21], [82, 2, 4, 0.41], [6497, 1, 4, 0.47], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [5946, 1, 4, 0.53], [1492, 1, 4, 0.46], [972, 3, 4, 1.51], [7567, 3, 4, 1.47], [11767, 1, 4, 0.43], [192, 3, 9, 1.01], [11490, 1, 4, 0.48], [6496, 1, 5, 0.55], [4176, 4, 5, 1.31], [74, 1, 5, 0.62], [411, 2, 4, 0.65], [1413, 15, 4, 0.28], [22317, 3, 5, 0.51], [2104, 3, 8, 0.2], [4253, 1, 4, 0.73], [2912, 2, 5, 0.88], [8677, 3, 5, 0.9], [2436, 4, 4, 0.44], [336, 15, 5, 0.37], [39, 1, 4, 0.51], [12212, 29, 4, 0.49], [37, 1, 4, 0.66], [201, 3, 4, 0.51], [345, 3, 4, 0.76], [11085, 2, 5, 1.53], [1274, 1, 4, 0.73], [1277, 1, 4, 0.36], [13023, 3, 4, 1.26], [21269, 3, 4, 2.99], [6494, 1, 4, 0.2], [12271, 2, 4, 0.84], [8676, 2, 4, 0.98], [22247, 2, 4, 1.39], [3979, 3, 5, 1.18], [3, 2, 4, 0.71], [823, 1, 4, 0.49], [10408, 10, 6, 1.64], [36, 1, 4, 0.91], [10388, 2, 5, 1.14], [9784, 1, 4, 0.72], [10631, 2, 4, 1.73], [2805, 137, 8, 0.94], [9, 1, 4, 0.36], [10936, 2, 4, 0.45], [202, 2, 4, 0.38], [1414, 15, 4, 0.45], [11489, 1, 4, 0.39], [8675, 2, 4, 1.02], [3048, 3, 4, 1.17], [161, 3, 5, 1.51], [13928, 1, 4, 0.47], [346, 1, 5, 0.3], [9372, 1, 4, 1.49], [12764, 2, 6, 0.58], [12225, 1, 4, 0.69], [11814, 1, 4, 0.23], [13280, 1, 4, 0.75], [10386, 2, 4, 0.36], [10407, 10, 6, 1.35], [4076, 3, 4, 1.19], [8898, 3, 4, 1.18], [79, 1, 4, 0.48], [2878, 1, 4, 0.39], [11089, 1, 4, 0.57], [13035, 3, 4, 1.32], [491, 10, 6, 0.93], [3576, 25, 4, 0.52], [23611, 3, 5, 0.5], [972, 1, 4, 0.5], [6935, 2, 188, 5.01], [305, 2, 119, 3.13], [615, 2, 95, 2.87], [2778, 2, 126, 3.26], [205, 2, 26, 2.28], [5493, 2, 104, 1.79], [6936, 2, 188, 5.39], [616, 2, 105, 1.7], [88, 10, 471, 3.03], [2049, 3, 445, 3.07], [144, 2, 100, 3.64], [8648, 2, 184, 4.9], [326, 2, 88, 2.74], [589, 2, 124, 2.8], [11681, 2, 221, 5.54], [7036, 1, 104, 4.47], [8650, 2, 184, 4.67], [593, 2, 187, 2.96], [2327, 2, 123, 3.18], [141, 2, 125, 3.78], [206, 2, 39, 1.86], [7004, 1, 76, 1.97], [3840, 1, 166, 1.53], [3891, 1, 120, 1.82], [2050, 3, 371, 5.52], [146, 2, 123, 3.76], [3980, 4, 391, 4.56], [2055, 3, 371, 5.61], [143, 2, 120, 3.14], [3889, 1, 120, 1.96], [10, 2, 102, 1.55], [7885, 4, 34, 1.47], [2054, 3, 371, 5.86], [8672, 2, 232, 4.88], [12870, 1, 111, 5.91], [10993, 2, 51, 2.01], [2057, 3, 371, 5.72], [5165, 1, 46, 2.09], [7084, 3, 106, 3.63], [145, 2, 123, 3.54], [21793, 1, 233, 2.97], [523, 2, 125, 3.25], [159, 3, 687, 1.46], [7005, 1, 76, 1.81], [3981, 3, 1311, 4.22], [3982, 3, 642, 4.54], [142, 2, 125, 3.14], [20927, 1, 47, 2.98], [956, 2, 103, 1.55], [997, 2, 58, 5.09], [6158, 2, 213, 3.44], [214, 3, 534, 1.88], [5165, 2, 367, 1.95], [22316, 3, 247, 2.67], [2912, 1, 46, 2.55], [11953, 1, 159, 2.59], [229, 1, 65, 3.21], [346, 3, 484, 2.59], [82, 2, 58, 1.62], [6497, 1, 36, 1.7], [389, 4, 138, 4.2], [996, 2, 196, 4.95], [5946, 1, 120, 1.82], [1492, 1, 36, 1.69]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [2327, 2, 5, 0.26], [5493, 2, 4, 0.37], [589, 2, 5, 0.27], [8672, 2, 6, 0.66], [326, 2, 4, 1.37], [6935, 2, 9, 1.31], [205, 2, 4, 0.36], [206, 2, 4, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [6936, 2, 4, 1.5], [8915, 2, 5, 0.2], [2049, 3, 11, 0.2], [2778, 2, 6, 0.22], [1446, 2, 4, 0.2], [8676, 2, 4, 0.52], [305, 2, 5, 0.98], [615, 2, 4, 0.47], [593, 2, 5, 0.36], [21793, 1, 4, 1.62], [616, 2, 4, 0.48], [413, 1, 4, 0.66], [411, 2, 4, 0.2], [10574, 3, 6, 1.51], [412, 1, 4, 0.85], [8675, 2, 6, 0.98], [8673, 2, 5, 0.72], [143, 2, 4, 0.5], [6158, 2, 5, 0.89], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [2050, 3, 5, 0.34], [3495, 3, 13, 1.28], [146, 2, 4, 0.49], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [88, 10, 9, 0.95], [7885, 4, 5, 0.69], [416, 1, 4, 0.66], [144, 2, 4, 0.47], [21798, 1, 4, 0.36], [10993, 2, 4, 0.65], [2859, 15, 4, 0.52], [346, 3, 5, 1.02], [335, 3, 10, 0.87], [2423, 80, 4, 0.79], [7705, 2, 4, 0.9], [2424, 29, 4, 1.45], [214, 3, 9, 1.24], [2423, 29, 4, 0.72], [7704, 2, 4, 0.9], [9784, 1, 4, 0.52], [5165, 1, 4, 0.65], [3848, 2, 4, 1.01], [13023, 3, 6, 1.51], [2424, 80, 4, 1.48], [346, 1, 4, 0.94], [1519, 3, 10, 0.22], [201, 3, 4, 1.01], [410, 1, 4, 0.55], [13034, 3, 5, 1.37], [345, 3, 4, 1.04], [5208, 3, 5, 0.48], [11490, 1, 4, 0.42], [6494, 1, 4, 0.48], [11770, 1, 4, 1.72], [432, 3, 5, 2.04], [7004, 1, 4, 0.41], [12373, 1, 5, 1.06], [308, 1, 5, 1.24], [2703, 3, 4, 0.83], [3430, 15, 4, 0.91], [7706, 2, 4, 0.8], [6952, 1, 4, 0.48], [20927, 1, 4, 0.7], [114, 3, 4, 0.2], [1886, 2, 4, 0.44], [3429, 15, 4, 0.42], [7886, 4, 6, 0.44], [94, 4, 4, 0.53], [1492, 1, 4, 1.09], [13928, 1, 4, 0.47], [105, 3, 4, 0.47], [11811, 1, 4, 0.94], [3981, 3, 9, 0.51], [3893, 1, 4, 1.47], [2331, 1, 4, 0.69], [3891, 1, 4, 1.47], [11089, 1, 4, 0.81], [10407, 10, 6, 1.9], [3, 2, 4, 1.8], [1490, 1, 4, 1.03], [13033, 3, 4, 0.5], [22317, 3, 5, 0.47], [5584, 3, 4, 3.29], [11674, 1, 4, 0.35], [944, 15, 4, 0.4], [1274, 1, 4, 0.36], [952, 4, 4, 1.83], [10410, 10, 6, 1.9], [7708, 2, 4, 0.9], [5812, 3, 4, 1.51], [9690, 1, 4, 1.2], [9342, 2, 4, 0.57], [10409, 10, 6, 1.67], [5946, 1, 4, 1.47], [202, 2, 4, 0.62], [1339, 3, 10, 0.36], [10398, 2, 4, 1.36], [8898, 3, 4, 0.47], [95, 3, 8, 2.52], [957, 2, 4, 0.54], [963, 3, 4, 0.93], [21003, 2, 4, 0.48], [1339, 1, 4, 0.43], [3478, 2, 4, 0.45], [20969, 3, 4, 0.86], [7703, 2, 4, 0.9], [11677, 1, 4, 1.16], [10516, 3, 5, 0.37], [823, 1, 4, 0.41], [9082, 3, 15, 0.83], [3980, 4, 5, 1.26], [14041, 3, 4, 1.27], [186, 3, 7, 0.45], [20196, 2, 4, 0.96], [3889, 1, 4, 1.47], [4253, 1, 4, 1.02], [141, 2, 120, 3.41], [2328, 2, 116, 4.39], [8650, 2, 173, 4.85], [5491, 2, 100, 1.58], [2327, 2, 116, 4.36], [5493, 2, 100, 1.96], [589, 2, 119, 3.07], [8672, 2, 220, 4.44], [326, 2, 84, 3.57], [6935, 2, 216, 6.0], [205, 2, 72, 1.55], [206, 2, 101, 1.7], [11838, 2, 205, 3.55], [12721, 2, 217, 3.99], [6936, 2, 216, 5.11], [2049, 3, 143, 3.44], [2778, 2, 144, 3.37], [1446, 2, 119, 2.17], [8676, 2, 265, 1.93], [305, 2, 115, 3.43], [615, 2, 101, 1.83], [593, 2, 153, 1.5], [21793, 1, 219, 4.86], [616, 2, 101, 1.85], [413, 1, 80, 2.2], [411, 2, 85, 2.15], [10574, 3, 383, 4.64], [412, 1, 77, 3.2], [8675, 2, 220, 4.47], [8673, 2, 259, 4.94], [143, 2, 137, 1.89], [6158, 2, 242, 3.08], [151, 1, 61, 1.83], [11836, 2, 205, 3.39], [10149, 3, 815, 4.12], [2050, 3, 369, 2.68], [3495, 3, 888, 3.48], [146, 2, 140, 1.87], [2054, 3, 375, 2.73], [75, 2, 110, 5.24], [88, 10, 516, 4.25], [7885, 4, 37, 1.91], [416, 1, 80, 2.2], [144, 2, 137, 1.83], [21798, 1, 129, 1.89], [10993, 2, 49, 2.18], [2859, 15, 64, 1.93], [346, 3, 553, 3.98], [335, 3, 1178, 4.78], [2423, 80, 170, 3.16], [7705, 2, 163, 3.42], [2424, 29, 31, 3.72], [214, 3, 337, 4.39], [2423, 29, 34, 3.1], [7704, 2, 163, 3.42], [9784, 1, 67, 1.93], [5165, 1, 44, 2.95], [3848, 2, 155, 2.87], [13023, 3, 545, 3.74], [2424, 80, 154, 3.78], [346, 1, 139, 3.74], [1519, 3, 1275, 3.06], [201, 3, 228, 4.48], [410, 1, 97, 1.99], [13034, 3, 539, 3.62], [345, 3, 277, 2.93], [5208, 3, 521, 2.08]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.55], [6936, 2, 4, 1.17], [305, 2, 4, 0.23], [8672, 2, 5, 0.66], [1504, 2, 6, 0.58], [615, 2, 4, 0.2], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.87], [2328, 2, 4, 0.26], [11681, 2, 5, 0.46], [205, 2, 5, 0.37], [5491, 2, 4, 0.2], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [11835, 2, 4, 0.55], [8650, 2, 5, 1.28], [144, 2, 5, 0.78], [308, 1, 5, 1.73], [11837, 2, 4, 0.55], [3, 2, 5, 0.66], [6097, 80, 5, 2.11], [22247, 2, 5, 1.21], [11836, 2, 5, 0.2], [6497, 1, 4, 0.2], [6097, 29, 4, 2.61], [2424, 29, 4, 0.37], [6098, 80, 4, 2.34], [11739, 2, 4, 1.36], [2054, 3, 4, 0.62], [13260, 29, 4, 0.73], [6494, 1, 4, 0.48], [3429, 15, 4, 0.36], [326, 2, 4, 0.66], [2424, 80, 4, 0.86], [75, 2, 4, 0.37], [335, 3, 10, 1.23], [1339, 1, 4, 0.43], [411, 2, 4, 0.46], [1492, 1, 4, 1.09], [1339, 3, 10, 0.36], [1050, 2, 4, 0.2], [6496, 1, 5, 1.05], [7704, 2, 4, 1.79], [214, 3, 9, 1.24], [346, 1, 4, 0.49], [346, 3, 5, 0.47], [2859, 15, 4, 0.72], [10149, 3, 13, 0.75], [345, 3, 4, 0.51], [13264, 29, 5, 0.52], [13258, 29, 4, 0.73], [1490, 1, 4, 1.03], [1243, 2, 4, 0.86], [22558, 3, 6, 0.21], [5208, 3, 10, 0.53], [201, 3, 4, 1.05], [229, 1, 4, 1.25], [10407, 10, 6, 1.9], [8943, 3, 4, 0.37], [432, 3, 4, 0.9], [2438, 1, 4, 0.62], [7705, 2, 4, 1.79], [2331, 1, 4, 0.91], [13259, 29, 4, 1.38], [2912, 1, 4, 0.96], [7706, 2, 4, 1.79], [12229, 2, 4, 0.45], [957, 2, 5, 0.76], [13928, 1, 4, 0.47], [114, 3, 4, 0.62], [3478, 2, 4, 0.45], [1163, 3, 4, 1.16], [1548, 1, 4, 1.09], [21793, 1, 4, 2.34], [9784, 1, 4, 0.74], [7036, 1, 4, 1.63], [8938, 2, 4, 0.58], [11844, 2, 4, 0.63], [11490, 1, 4, 0.46], [2703, 3, 4, 1.72], [11687, 2, 4, 0.79], [11404, 2, 4, 0.5], [13258, 25, 4, 0.73], [410, 1, 4, 0.55], [1886, 2, 4, 0.44], [159, 16, 4, 0.36], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [11690, 2, 4, 0.52], [19687, 1, 4, 0.43], [12870, 1, 4, 0.94], [413, 1, 4, 0.53], [7708, 2, 4, 1.79], [414, 1, 4, 0.61], [2438, 2, 5, 0.53], [11689, 2, 4, 0.77], [956, 2, 4, 0.57], [11161, 1, 5, 1.64], [11159, 1, 7, 1.23], [22125, 2, 4, 0.36], [5976, 1, 4, 0.85], [9760, 29, 4, 0.85], [21781, 2, 4, 0.47], [12373, 1, 5, 1.42], [105, 3, 4, 0.62], [7005, 1, 4, 0.81], [1274, 1, 4, 2.11], [5584, 3, 4, 3.29], [2991, 3, 4, 1.0], [2805, 137, 5, 1.09], [13259, 25, 4, 1.35], [11811, 1, 4, 0.94], [9785, 1, 4, 0.74], [4253, 1, 4, 0.48], [3495, 3, 13, 1.28], [20927, 1, 4, 0.7], [8600, 1, 4, 1.1], [9209, 29, 4, 0.37], [11489, 1, 4, 0.46], [9372, 1, 4, 1.06], [247, 1, 4, 1.31], [10147, 1, 4, 0.36], [9690, 1, 4, 1.2], [9491, 21, 10, 1.0], [6360, 10, 9, 0.65], [12764, 2, 5, 0.43], [8285, 2, 5, 0.49], [5769, 3, 6, 0.52], [7007, 1, 4, 0.81], [21269, 3, 4, 1.96], [5076, 1, 4, 0.91], [2778, 2, 141, 3.11], [6935, 2, 226, 6.0], [6936, 2, 256, 4.93], [305, 2, 113, 3.49], [8672, 2, 265, 3.11], [1504, 2, 156, 3.88], [615, 2, 113, 2.41], [12721, 2, 216, 4.22], [2327, 2, 116, 4.36], [143, 2, 114, 3.86], [146, 2, 116, 3.79], [2328, 2, 116, 4.39], [11681, 2, 250, 3.24], [5491, 2, 100, 1.54], [8676, 2, 220, 3.63], [8673, 2, 220, 5.48], [11835, 2, 248, 1.99], [8650, 2, 172, 6.0], [144, 2, 115, 3.95], [308, 1, 157, 5.12], [11837, 2, 248, 1.99], [3, 2, 93, 3.74], [6097, 80, 52, 5.96], [22247, 2, 216, 4.77], [11836, 2, 205, 3.47], [6497, 1, 30, 3.28], [6097, 29, 27, 6.0], [2424, 29, 31, 1.82], [11739, 2, 23, 3.34], [2054, 3, 375, 2.86], [13260, 29, 67, 3.21], [6494, 1, 47, 1.85], [3429, 15, 35, 1.56], [326, 2, 83, 2.88], [2424, 80, 156, 3.5], [75, 2, 134, 2.28], [335, 3, 1153, 3.91], [1339, 1, 67, 1.76], [411, 2, 100, 2.05], [1492, 1, 34, 3.03], [1339, 3, 1618, 1.61], [1050, 2, 44, 1.45], [6496, 1, 36, 4.1], [7704, 2, 162, 4.38], [214, 3, 337, 4.39], [346, 1, 143, 1.87], [346, 3, 573, 1.76], [2859, 15, 63, 3.73], [10149, 3, 809, 2.42], [345, 3, 276, 2.94], [13264, 29, 66, 3.03], [13258, 29, 36, 3.54], [1490, 1, 45, 4.84], [1243, 2, 90, 4.17], [22558, 3, 368, 3.76], [5208, 3, 438, 2.84], [201, 3, 276, 3.99], [229, 1, 75, 3.89], [10407, 10, 1073, 4.63], [8943, 3, 305, 1.61], [432, 3, 276, 2.97], [2438, 1, 48, 4.17], [7705, 2, 162, 4.38], [2331, 1, 108, 2.68], [13259, 29, 32, 5.1], [2912, 1, 44, 2.78]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [2778, 2, 5, 0.59], [362, 2, 4, 0.73], [205, 2, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [2049, 3, 12, 0.2], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [305, 2, 5, 0.73], [8650, 2, 5, 1.27], [8648, 2, 5, 0.88], [2776, 2, 5, 0.2], [2328, 2, 4, 1.29], [616, 2, 4, 1.29], [2327, 2, 4, 0.64], [8674, 2, 4, 0.67], [589, 2, 5, 0.2], [11835, 2, 4, 0.49], [412, 1, 4, 0.92], [143, 2, 4, 0.57], [146, 2, 4, 0.51], [6497, 1, 5, 0.2], [6097, 80, 4, 2.36], [583, 2, 4, 0.45], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [6097, 29, 5, 0.66], [11836, 2, 5, 0.54], [145, 2, 4, 0.42], [144, 2, 4, 0.54], [10574, 3, 5, 0.6], [6494, 1, 4, 0.48], [6496, 1, 4, 1.05], [2054, 3, 4, 0.81], [1413, 15, 4, 0.43], [6098, 80, 4, 0.71], [1886, 2, 6, 0.2], [944, 15, 4, 0.2], [21793, 1, 4, 2.34], [6098, 29, 4, 1.08], [247, 1, 4, 2.27], [335, 3, 10, 0.87], [3429, 15, 4, 0.36], [201, 3, 4, 0.49], [1490, 1, 4, 1.35], [21798, 1, 4, 0.36], [308, 1, 5, 0.54], [2859, 15, 4, 0.44], [6158, 2, 5, 0.89], [9998, 80, 4, 1.38], [3478, 2, 4, 0.45], [13928, 1, 4, 0.47], [7084, 3, 4, 0.7], [11489, 1, 4, 0.37], [1703, 2, 4, 0.64], [107, 2, 4, 1.42], [5812, 3, 5, 2.0], [4253, 1, 4, 1.02], [107, 7, 5, 1.39], [9342, 2, 4, 0.57], [1050, 2, 4, 0.38], [94, 4, 4, 0.48], [186, 3, 7, 0.45], [11490, 1, 4, 0.42], [1309, 1, 4, 0.9], [214, 3, 9, 1.24], [5813, 3, 6, 2.0], [10398, 2, 4, 0.37], [5811, 3, 5, 1.24], [11767, 1, 4, 0.43], [2821, 3, 8, 0.5], [9491, 21, 10, 0.51], [8599, 1, 4, 0.49], [3980, 4, 5, 1.26], [11811, 1, 4, 0.94], [11771, 1, 4, 2.24], [229, 1, 4, 0.89], [8898, 3, 5, 3.26], [8944, 3, 4, 0.37], [3495, 3, 13, 1.28], [1339, 3, 10, 0.36], [1049, 2, 4, 0.38], [9358, 1, 4, 1.42], [409, 1, 4, 1.06], [955, 2, 4, 0.52], [192, 3, 7, 1.01], [346, 3, 5, 0.47], [2991, 3, 5, 1.5], [19687, 1, 4, 0.43], [12764, 2, 5, 0.43], [13928, 2, 4, 0.49], [7036, 1, 4, 1.63], [9690, 1, 4, 1.2], [22573, 2, 4, 0.8], [10124, 1, 4, 2.18], [6575, 3, 4, 1.62], [5584, 3, 4, 3.29], [3334, 5, 4, 0.63], [8897, 3, 5, 3.26], [10147, 1, 4, 0.36], [1277, 1, 4, 0.48], [1701, 2, 4, 0.55], [11886, 2, 4, 0.75], [20927, 1, 4, 0.7], [1523, 1, 4, 0.67], [11678, 1, 4, 0.38], [4001, 3, 8, 0.93], [13260, 29, 4, 0.91], [23275, 2, 4, 0.81], [10516, 3, 5, 0.86], [11677, 1, 4, 1.16], [9065, 2, 4, 0.84], [973, 3, 5, 1.08], [45, 2, 4, 0.39], [3984, 3, 5, 0.62], [346, 1, 4, 0.49], [3979, 3, 5, 0.88], [21269, 3, 4, 0.44], [23031, 3, 4, 1.65], [19924, 2, 4, 0.73], [9373, 5, 4, 1.21], [10181, 26, 5, 0.46], [958, 2, 4, 0.36], [11690, 2, 4, 0.52], [5976, 1, 4, 1.32], [9069, 1, 4, 0.41], [23032, 3, 4, 1.46], [7005, 1, 4, 0.81], [1339, 1, 4, 0.43], [8672, 2, 220, 4.44], [141, 2, 120, 3.41], [2778, 2, 144, 2.62], [362, 2, 131, 2.62], [205, 2, 72, 1.55], [6935, 2, 215, 6.0], [12721, 2, 218, 4.83], [206, 2, 58, 1.58], [8676, 2, 220, 3.63], [2049, 3, 504, 1.66], [22247, 2, 218, 4.36], [523, 2, 120, 3.58], [305, 2, 113, 3.42], [8650, 2, 173, 4.68], [8648, 2, 173, 4.55], [2776, 2, 121, 3.42], [2328, 2, 139, 3.41], [616, 2, 100, 3.41], [2327, 2, 137, 3.51], [8674, 2, 265, 2.22], [589, 2, 141, 2.49], [11835, 2, 243, 2.97], [412, 1, 77, 3.26], [143, 2, 136, 2.03], [146, 2, 139, 1.9], [6497, 1, 30, 3.28], [6097, 80, 51, 6.0], [583, 2, 83, 2.31], [326, 2, 83, 2.88], [10149, 3, 815, 4.12], [6097, 29, 31, 3.3], [11836, 2, 243, 3.07], [145, 2, 139, 1.73], [144, 2, 136, 1.97], [10574, 3, 461, 3.81], [6494, 1, 47, 1.85], [6496, 1, 37, 3.01], [2054, 3, 126, 2.98], [1413, 15, 92, 1.76], [6098, 80, 70, 3.04], [1886, 2, 120, 3.46], [944, 15, 14, 2.26], [21793, 1, 212, 6.0], [6098, 29, 35, 4.24], [247, 1, 80, 5.3], [335, 3, 1178, 4.78], [3429, 15, 35, 1.56], [201, 3, 280, 1.87], [1490, 1, 45, 3.59], [21798, 1, 129, 1.89], [308, 1, 157, 3.94], [2859, 15, 63, 1.78], [6158, 2, 242, 3.08], [9998, 80, 108, 4.32], [3478, 2, 70, 1.8], [13928, 1, 43, 3.42], [7084, 3, 119, 2.35], [11489, 1, 43, 2.03], [1703, 2, 151, 2.46], [107, 2, 44, 3.72], [5812, 3, 532, 5.88], [4253, 1, 158, 2.89], [107, 7, 220, 3.67], [9342, 2, 427, 2.03], [1050, 2, 44, 1.45], [94, 4, 114, 1.85], [186, 3, 616, 1.77]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [2778, 2, 5, 0.65], [8650, 2, 4, 0.46], [8672, 2, 7, 0.2], [5491, 2, 4, 0.44], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [11681, 2, 5, 0.46], [5493, 2, 5, 0.6], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [1005, 2, 4, 0.2], [144, 2, 4, 0.46], [990, 2, 4, 0.46], [8915, 2, 5, 1.14], [308, 1, 5, 1.73], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [6158, 2, 6, 0.2], [2424, 29, 4, 0.37], [7704, 2, 4, 1.5], [2423, 29, 4, 0.72], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [7706, 2, 4, 1.4], [10574, 3, 5, 1.51], [2054, 3, 4, 0.65], [2423, 80, 4, 0.79], [3, 2, 4, 0.79], [944, 15, 5, 0.2], [412, 1, 4, 0.92], [3478, 2, 4, 1.53], [2859, 15, 4, 1.62], [10149, 3, 13, 0.75], [12720, 2, 4, 0.98], [7004, 1, 4, 1.06], [74, 1, 4, 0.45], [346, 3, 5, 1.02], [11919, 1, 4, 0.77], [6497, 1, 4, 0.44], [1339, 3, 10, 0.36], [346, 1, 4, 0.94], [10993, 2, 4, 0.65], [13928, 1, 4, 0.47], [418, 2, 4, 0.49], [411, 2, 4, 0.37], [13260, 29, 5, 1.17], [13034, 3, 6, 0.9], [11089, 1, 4, 0.81], [7036, 1, 4, 1.63], [6952, 1, 4, 1.59], [13028, 3, 4, 0.37], [14037, 3, 4, 1.21], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [7707, 2, 4, 1.0], [2991, 3, 4, 2.17], [1339, 1, 4, 0.43], [22317, 3, 8, 0.2], [9784, 1, 4, 0.71], [6494, 1, 4, 0.48], [7708, 2, 4, 1.5], [21793, 1, 5, 1.69], [6630, 3, 4, 2.4], [8943, 3, 4, 0.37], [1243, 2, 5, 0.7], [1490, 1, 4, 1.03], [3495, 3, 13, 1.28], [5208, 3, 5, 0.48], [2912, 1, 4, 0.85], [563, 2, 4, 0.44], [11491, 2, 4, 0.74], [11490, 1, 4, 0.37], [229, 1, 4, 1.25], [8944, 3, 4, 0.37], [5940, 3, 4, 0.2], [192, 3, 7, 1.26], [1049, 2, 4, 0.2], [6627, 3, 4, 0.2], [12229, 2, 4, 0.45], [11581, 29, 4, 0.87], [13033, 3, 4, 0.9], [2331, 1, 4, 0.91], [23275, 2, 4, 0.81], [201, 3, 4, 0.6], [5165, 1, 4, 0.73], [247, 1, 4, 1.19], [1274, 1, 4, 0.41], [214, 3, 9, 1.24], [7886, 4, 5, 0.44], [2805, 137, 5, 0.53], [21798, 1, 4, 0.47], [335, 3, 10, 0.87], [20555, 2, 4, 1.02], [8635, 3, 4, 0.58], [114, 3, 4, 1.48], [8898, 3, 5, 0.48], [6496, 1, 4, 1.3], [942, 3, 4, 0.5], [6629, 3, 4, 0.47], [1703, 2, 4, 0.53], [11770, 1, 4, 1.32], [5812, 3, 5, 0.5], [10406, 10, 7, 1.73], [202, 2, 4, 0.44], [83, 2, 4, 0.5], [9760, 29, 4, 1.71], [21269, 3, 5, 0.5], [332, 2, 4, 0.44], [215, 4, 4, 2.61], [186, 3, 9, 1.22], [9372, 1, 4, 1.06], [9827, 3, 4, 0.39], [4940, 1, 4, 0.35], [2821, 3, 8, 0.5], [10527, 3, 8, 2.22], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [11767, 1, 4, 0.43], [11489, 1, 4, 0.37], [12373, 1, 5, 1.42], [21781, 2, 4, 0.47], [12870, 1, 4, 2.19], [6935, 2, 216, 6.0], [305, 2, 132, 2.92], [2328, 2, 116, 4.39], [2778, 2, 143, 2.79], [8650, 2, 203, 4.35], [8672, 2, 220, 4.66], [5491, 2, 100, 1.78], [143, 2, 114, 3.47], [6936, 2, 216, 5.5], [145, 2, 117, 3.46], [11837, 2, 246, 1.8], [11681, 2, 250, 3.24], [5493, 2, 83, 4.09], [589, 2, 102, 1.56], [75, 2, 112, 4.32], [146, 2, 117, 3.57], [12721, 2, 217, 3.99], [8673, 2, 221, 4.66], [8853, 2, 216, 5.41], [326, 2, 84, 2.61], [11835, 2, 243, 2.72], [1005, 2, 42, 3.58], [144, 2, 117, 3.38], [990, 2, 41, 2.06], [8915, 2, 173, 3.69], [308, 1, 157, 5.12], [88, 10, 430, 4.6], [434, 2, 98, 1.97], [6158, 2, 200, 3.82], [2424, 29, 31, 1.82], [7704, 2, 162, 3.94], [2423, 29, 34, 3.1], [11836, 2, 205, 3.39], [2424, 80, 156, 3.5], [7705, 2, 134, 5.14], [1413, 15, 78, 2.92], [7706, 2, 134, 5.14], [10574, 3, 383, 4.64], [2054, 3, 315, 3.06], [2423, 80, 170, 3.16], [3, 2, 92, 4.48], [944, 15, 34, 2.09], [412, 1, 77, 3.26], [10149, 3, 809, 2.42], [12720, 2, 217, 3.99], [74, 1, 186, 1.8], [346, 3, 553, 3.98], [11919, 1, 137, 2.41], [6497, 1, 35, 2.88], [1339, 3, 1618, 1.61], [346, 1, 139, 3.74], [10993, 2, 49, 2.18], [13928, 1, 43, 3.42], [418, 2, 130, 1.87], [411, 2, 85, 3.28], [13260, 29, 56, 4.28], [13034, 3, 538, 4.32], [11089, 1, 158, 2.49], [7036, 1, 117, 4.07], [6952, 1, 144, 5.09], [13028, 3, 133, 3.99], [1050, 2, 74, 1.52], [7707, 2, 161, 3.47], [2991, 3, 145, 6.0], [1339, 1, 67, 1.76]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.25], [6936, 2, 5, 0.44], [11681, 2, 10, 0.85], [2327, 2, 5, 0.64], [362, 2, 4, 0.56], [8648, 2, 5, 1.33], [8650, 2, 5, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 1.06], [2328, 2, 5, 0.39], [2775, 2, 4, 0.25], [8853, 2, 5, 0.94], [361, 2, 5, 0.4], [143, 2, 5, 0.51], [593, 2, 6, 0.2], [140, 2, 4, 0.62], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [21793, 1, 4, 0.61], [151, 1, 5, 0.37], [412, 1, 4, 0.5], [7036, 1, 4, 0.41], [990, 2, 5, 0.2], [21798, 1, 4, 0.36], [5165, 1, 4, 0.95], [145, 2, 4, 0.88], [12349, 1, 4, 1.57], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [2050, 3, 4, 1.21], [6097, 80, 4, 2.63], [2055, 3, 5, 0.96], [345, 3, 6, 0.2], [10993, 2, 4, 0.73], [144, 2, 4, 0.61], [7084, 3, 4, 2.49], [2057, 3, 5, 0.74], [3891, 1, 4, 0.5], [11770, 1, 4, 0.44], [998, 2, 4, 0.48], [2912, 1, 4, 0.91], [5165, 2, 7, 0.53], [3893, 1, 4, 0.74], [9372, 1, 4, 0.79], [12870, 1, 4, 0.94], [12343, 1, 4, 1.57], [1886, 2, 4, 0.5], [5208, 3, 5, 0.35], [7885, 4, 4, 0.74], [12351, 1, 4, 0.82], [6097, 29, 4, 2.41], [6098, 80, 4, 1.64], [6158, 2, 5, 1.09], [2424, 80, 4, 0.86], [3334, 5, 4, 0.53], [11089, 1, 4, 0.62], [10149, 3, 15, 0.75], [12345, 1, 4, 1.57], [12344, 1, 4, 0.52], [1492, 1, 4, 0.56], [1519, 3, 12, 0.22], [4032, 29, 4, 0.55], [3889, 1, 4, 0.85], [2912, 2, 5, 0.88], [12304, 1, 4, 0.72], [13028, 3, 4, 1.36], [3576, 25, 4, 1.17], [972, 3, 4, 0.51], [411, 2, 4, 0.65], [13034, 3, 4, 1.51], [2331, 1, 4, 0.89], [229, 1, 4, 2.27], [11583, 29, 4, 0.46], [11426, 25, 4, 0.4], [11490, 1, 4, 0.65], [5151, 2, 4, 0.45], [3, 2, 4, 0.57], [5076, 1, 4, 0.55], [12764, 2, 5, 0.43], [13893, 2, 4, 0.73], [2805, 137, 4, 0.98], [3478, 2, 4, 0.87], [1703, 2, 4, 0.5], [2160, 68, 4, 1.17], [3575, 25, 4, 0.6], [13023, 3, 5, 1.25], [5812, 3, 5, 2.0], [13280, 1, 4, 1.09], [4253, 1, 4, 0.98], [2438, 2, 5, 0.53], [11404, 2, 4, 0.43], [11814, 1, 4, 0.48], [3577, 25, 4, 0.52], [9289, 29, 4, 0.48], [75, 2, 4, 0.37], [11813, 1, 4, 0.74], [9971, 2, 4, 1.82], [957, 2, 5, 0.91], [9967, 2, 4, 0.73], [11150, 2, 5, 0.4], [9069, 1, 4, 0.63], [22317, 3, 4, 0.44], [8283, 2, 5, 1.27], [1413, 15, 4, 0.68], [2878, 1, 4, 0.76], [5584, 3, 4, 1.03], [4586, 10, 11, 0.8], [9964, 2, 4, 2.27], [10407, 10, 7, 0.36], [9491, 21, 9, 1.43], [9965, 2, 4, 1.82], [114, 3, 4, 1.28], [10609, 1, 4, 0.96], [289, 3, 4, 0.84], [13249, 29, 4, 0.93], [4076, 3, 4, 1.59], [21697, 3, 4, 0.45], [14041, 3, 4, 1.27], [8926, 1, 4, 1.74], [12647, 1, 4, 0.37], [192, 3, 8, 1.79], [24257, 1, 4, 0.97], [11739, 2, 4, 0.43], [1277, 1, 4, 0.43], [336, 15, 4, 0.4], [11687, 2, 4, 0.38], [3495, 3, 10, 1.25], [1163, 3, 4, 1.16], [7324, 1, 4, 1.03], [2528, 29, 4, 0.72], [11425, 25, 4, 0.4], [1801, 1, 4, 0.86], [6935, 2, 214, 5.02], [141, 2, 121, 2.76], [589, 2, 121, 2.92], [2778, 2, 146, 2.18], [6936, 2, 214, 5.56], [11681, 2, 219, 5.84], [2327, 2, 117, 3.05], [362, 2, 93, 3.2], [8648, 2, 180, 5.72], [8650, 2, 179, 5.99], [305, 2, 51, 3.89], [326, 2, 61, 3.49], [2328, 2, 99, 3.76], [2775, 2, 146, 2.18], [8853, 2, 223, 6.0], [361, 2, 103, 3.28], [143, 2, 98, 3.43], [593, 2, 151, 3.1], [140, 2, 85, 2.04], [3840, 1, 161, 1.81], [523, 2, 103, 3.16], [21793, 1, 224, 4.07], [151, 1, 45, 2.85], [412, 1, 78, 2.04], [7036, 1, 119, 2.48], [21798, 1, 130, 1.81], [5165, 1, 32, 3.8], [145, 2, 142, 3.02], [12349, 1, 575, 5.05], [201, 3, 105, 4.45], [6952, 1, 125, 5.21], [6097, 80, 45, 6.0], [2055, 3, 444, 3.43], [345, 3, 198, 3.85], [10993, 2, 50, 2.26], [144, 2, 139, 2.02], [2057, 3, 444, 3.43], [3891, 1, 98, 3.13], [11770, 1, 209, 1.7], [998, 2, 159, 4.43], [2912, 1, 45, 2.6], [5165, 2, 357, 1.85], [3893, 1, 116, 2.27], [9372, 1, 216, 4.37], [12870, 1, 129, 2.84], [12343, 1, 575, 5.05], [1886, 2, 146, 1.81], [5208, 3, 530, 1.47], [7885, 4, 33, 2.07], [12351, 1, 575, 2.43], [6097, 29, 23, 6.0], [6098, 80, 50, 4.35], [2424, 80, 158, 4.01], [3334, 5, 168, 3.15], [11089, 1, 133, 3.34], [10149, 3, 819, 2.33], [12345, 1, 575, 5.05], [12344, 1, 482, 2.68], [1492, 1, 35, 1.93], [1519, 3, 1100, 2.83], [4032, 29, 90, 1.91], [3889, 1, 116, 2.49], [2912, 2, 359, 2.41], [12304, 1, 99, 3.73], [13028, 3, 135, 5.02]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [2049, 3, 10, 0.22], [141, 2, 4, 0.39], [205, 2, 4, 0.31], [326, 2, 4, 0.47], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.32], [151, 1, 4, 0.46], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [143, 2, 4, 0.58], [206, 2, 4, 0.2], [1777, 1, 5, 0.93], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [20252, 2, 4, 0.44], [6936, 2, 6, 1.17], [5151, 2, 4, 1.3], [8650, 2, 5, 1.15], [1007, 2, 5, 0.36], [2778, 2, 4, 0.2], [8677, 3, 5, 1.81], [76, 2, 4, 1.11], [10, 2, 5, 0.22], [8649, 2, 4, 1.15], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [7084, 3, 4, 1.38], [411, 2, 4, 0.23], [410, 1, 4, 0.36], [3478, 2, 4, 0.78], [308, 1, 4, 0.72], [167, 3, 5, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 15, 1.31], [1124, 2, 5, 0.45], [432, 3, 4, 0.39], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [94, 4, 4, 0.51], [7036, 1, 4, 1.39], [3893, 1, 4, 0.53], [3889, 1, 4, 0.53], [168, 3, 5, 0.29], [10574, 3, 5, 0.43], [3891, 1, 4, 0.53], [2049, 1, 4, 0.8], [2336, 3, 6, 0.73], [12870, 1, 4, 2.58], [335, 3, 10, 1.09], [1504, 2, 6, 0.2], [6097, 29, 4, 2.11], [6097, 80, 4, 2.61], [998, 2, 4, 1.27], [214, 3, 9, 0.44], [11737, 2, 4, 0.66], [95, 3, 15, 0.31], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [6098, 29, 4, 2.27], [1490, 1, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 5, 0.54], [9069, 1, 5, 1.09], [22316, 3, 5, 0.49], [6098, 80, 4, 2.48], [8898, 3, 5, 2.17], [1070, 7, 10, 0.42], [14017, 3, 4, 0.67], [997, 2, 4, 1.04], [20498, 1, 5, 0.55], [346, 3, 5, 0.51], [13034, 3, 8, 1.01], [83, 2, 4, 0.44], [22554, 10, 9, 0.48], [1622, 1, 5, 0.2], [13260, 29, 4, 0.85], [7567, 3, 4, 1.37], [11116, 1, 4, 0.42], [8945, 3, 5, 1.06], [5811, 3, 4, 1.44], [22317, 3, 6, 0.26], [5946, 1, 4, 0.53], [5813, 3, 5, 1.08], [20498, 3, 6, 0.84], [5513, 2, 4, 0.52], [5209, 3, 4, 0.52], [12924, 1, 4, 0.2], [5086, 1, 6, 0.33], [995, 2, 4, 1.31], [996, 2, 4, 0.99], [33, 1, 4, 0.74], [974, 3, 4, 0.88], [972, 3, 6, 0.35], [229, 1, 4, 2.32], [1413, 15, 4, 0.45], [9691, 1, 4, 1.66], [35, 1, 4, 1.05], [8557, 3, 4, 0.2], [3049, 3, 4, 1.73], [20486, 3, 6, 0.75], [5584, 3, 4, 1.4], [8943, 3, 4, 0.37], [1703, 2, 4, 1.38], [13023, 3, 5, 1.48], [4076, 3, 4, 2.94], [2424, 80, 4, 1.7], [39, 1, 4, 0.8], [952, 4, 4, 2.23], [3900, 3, 4, 1.43], [8104, 1, 4, 0.39], [9081, 3, 7, 0.53], [11510, 3, 5, 0.72], [215, 4, 4, 3.32], [20486, 1, 4, 0.51], [34, 1, 4, 0.47], [972, 1, 4, 0.73], [114, 3, 4, 0.48], [6497, 1, 5, 1.0], [2854, 21, 10, 0.47], [3047, 3, 4, 1.0], [38, 1, 4, 0.47], [1414, 15, 4, 0.2], [20969, 3, 4, 1.11], [23611, 3, 4, 0.42], [8635, 3, 4, 0.57], [1339, 3, 12, 0.18], [8672, 2, 201, 4.82], [305, 2, 104, 3.39], [6935, 2, 243, 4.41], [2049, 3, 458, 2.26], [141, 2, 111, 2.62], [205, 2, 80, 2.23], [326, 2, 65, 2.88], [144, 2, 128, 1.59], [589, 2, 113, 1.83], [362, 2, 122, 3.19], [151, 1, 48, 2.74], [1776, 1, 90, 4.26], [146, 2, 108, 2.97], [143, 2, 106, 2.96], [206, 2, 80, 2.46], [1777, 1, 90, 3.63], [2328, 2, 108, 2.91], [8648, 2, 159, 4.42], [20252, 2, 81, 1.5], [6936, 2, 201, 4.37], [5151, 2, 18, 3.43], [8650, 2, 159, 5.07], [1007, 2, 236, 1.44], [2778, 2, 111, 2.96], [8677, 3, 208, 4.98], [76, 2, 77, 4.19], [8649, 2, 159, 4.76], [10149, 3, 609, 5.15], [2054, 3, 332, 4.02], [412, 1, 60, 3.57], [13028, 3, 105, 2.83], [361, 2, 134, 1.9], [413, 1, 62, 3.05], [7004, 1, 57, 2.6], [11404, 2, 91, 1.57], [7084, 3, 90, 3.52], [411, 2, 69, 2.76], [410, 1, 87, 2.58], [308, 1, 146, 3.09], [5081, 2, 135, 2.9], [7005, 1, 57, 2.6], [3495, 3, 679, 4.16], [1124, 2, 162, 1.64], [432, 3, 261, 2.69], [9827, 3, 63, 2.79], [45, 2, 77, 5.57], [94, 4, 85, 4.45], [7036, 1, 90, 4.38], [3893, 1, 108, 1.67], [3889, 1, 108, 1.67], [168, 3, 289, 3.37], [10574, 3, 437, 2.97], [3891, 1, 108, 1.67], [2049, 1, 12, 3.56], [2336, 3, 483, 3.17], [12870, 1, 98, 6.0], [335, 3, 1047, 4.78], [1504, 2, 145, 2.74], [6097, 29, 27, 5.7], [6097, 80, 48, 5.95], [998, 2, 196, 3.9], [214, 3, 565, 1.62], [11737, 2, 50, 2.3]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [205, 2, 7, 0.96], [2049, 3, 15, 2.57], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.42], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [206, 2, 9, 0.93], [20252, 2, 7, 0.85], [8648, 2, 11, 3.84], [6936, 2, 10, 2.57], [990, 2, 7, 1.83], [2328, 2, 9, 1.55], [7886, 4, 7, 0.87], [8650, 2, 11, 4.99], [141, 2, 9, 1.87], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [2054, 3, 7, 1.04], [2057, 3, 7, 0.88], [7004, 1, 7, 0.71], [1492, 1, 7, 2.1], [2055, 3, 7, 0.81], [8649, 2, 11, 4.99], [345, 3, 9, 0.87], [21798, 1, 7, 0.96], [7005, 1, 7, 0.73], [7084, 3, 9, 3.68], [3889, 1, 7, 0.8], [10825, 21, 13, 2.03], [7887, 4, 7, 0.67], [33, 1, 9, 2.05], [61, 3, 7, 1.37], [21793, 1, 7, 4.02], [10149, 3, 21, 1.68], [94, 4, 9, 1.85], [432, 3, 7, 1.15], [7036, 1, 7, 2.24], [5081, 2, 7, 1.33], [12870, 1, 9, 5.0], [3478, 2, 9, 2.38], [167, 3, 7, 2.27], [308, 1, 7, 2.55], [11681, 2, 11, 4.33], [411, 2, 7, 0.71], [10, 2, 7, 1.31], [13028, 3, 7, 3.2], [9827, 3, 7, 0.53], [1504, 2, 7, 2.72], [201, 3, 9, 0.87], [3891, 1, 7, 2.38], [84, 2, 7, 3.04], [8677, 3, 9, 1.26], [168, 3, 9, 3.04], [35, 1, 7, 2.2], [1124, 2, 14, 0.93], [3893, 1, 7, 2.38], [79, 1, 7, 0.91], [5812, 3, 8, 1.9], [2336, 3, 9, 1.96], [13280, 1, 7, 1.08], [23, 1, 7, 2.78], [9760, 29, 7, 1.17], [1490, 1, 7, 0.67], [1243, 2, 7, 1.27], [11737, 2, 7, 1.03], [6158, 2, 8, 0.86], [5208, 3, 13, 1.12], [335, 3, 20, 0.7], [412, 1, 7, 2.54], [361, 2, 7, 2.12], [20927, 1, 7, 1.14], [45, 2, 7, 2.72], [214, 3, 15, 0.69], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [95, 3, 22, 0.85], [9069, 1, 7, 1.46], [10574, 3, 10, 1.28], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [3495, 3, 18, 2.25], [346, 3, 7, 0.99], [34, 1, 7, 1.65], [997, 2, 9, 2.24], [8898, 3, 7, 2.78], [11116, 1, 7, 1.08], [1766, 25, 7, 1.08], [5946, 1, 7, 2.23], [417, 2, 7, 2.12], [9691, 1, 7, 2.93], [1070, 7, 15, 0.85], [1413, 15, 7, 1.08], [14017, 3, 7, 1.75], [38, 1, 7, 1.9], [20498, 1, 9, 1.55], [9372, 1, 7, 3.6], [11954, 1, 7, 0.87], [974, 3, 7, 2.39], [5209, 3, 7, 0.71], [22317, 3, 9, 1.01], [7567, 3, 7, 0.79], [14037, 3, 11, 0.84], [972, 3, 8, 1.64], [5584, 3, 7, 3.74], [20498, 3, 8, 1.91], [9828, 3, 9, 0.76], [8945, 3, 8, 2.65], [5813, 3, 9, 3.74], [82, 2, 7, 1.88], [39, 1, 7, 1.14], [3048, 3, 7, 3.93], [1080, 3, 7, 1.59], [13034, 3, 8, 2.39], [24, 1, 7, 2.0], [955, 2, 7, 0.9], [1414, 15, 9, 0.72], [336, 15, 7, 0.98], [1767, 2, 9, 1.46], [10780, 10, 7, 3.58], [13260, 29, 7, 2.46], [4203, 1, 9, 1.06], [5812, 3, 510, 3.43], [2336, 3, 589, 2.71], [13280, 1, 320, 1.82], [23, 1, 96, 3.52], [9760, 29, 73, 1.92], [1490, 1, 42, 2.73], [1243, 2, 99, 2.01], [11737, 2, 49, 3.09], [6158, 2, 226, 2.91], [5208, 3, 192, 1.57], [335, 3, 1012, 2.3], [412, 1, 71, 4.11], [361, 2, 157, 2.86], [20927, 1, 81, 1.88], [45, 2, 94, 4.28], [214, 3, 665, 1.43], [25, 1, 96, 3.46], [1767, 25, 148, 3.15], [95, 3, 973, 3.04], [9069, 1, 124, 2.2], [10574, 3, 522, 2.02], [413, 1, 74, 3.61], [21269, 3, 225, 5.3], [3495, 3, 850, 3.93], [346, 3, 474, 2.55], [34, 1, 86, 3.45], [997, 2, 184, 3.79], [8898, 3, 243, 4.83], [11116, 1, 81, 1.82], [1766, 25, 161, 3.08], [5946, 1, 107, 3.53], [417, 2, 157, 2.86], [9691, 1, 64, 3.99], [1070, 7, 510, 2.89], [1413, 15, 101, 1.83], [14017, 3, 169, 3.96], [38, 1, 86, 3.45], [20498, 1, 85, 3.86], [9372, 1, 174, 4.9], [11954, 1, 171, 2.93], [974, 3, 127, 3.7], [5209, 3, 575, 1.47], [22317, 3, 243, 2.53], [7567, 3, 71, 1.53], [14037, 3, 350, 1.58], [972, 3, 510, 3.19], [5584, 3, 179, 5.29], [20498, 3, 450, 3.46], [9828, 3, 68, 2.44], [8945, 3, 598, 3.4], [5813, 3, 453, 4.48], [82, 2, 60, 2.62], [39, 1, 86, 2.69], [3048, 3, 209, 5.23], [1080, 3, 102, 3.14], [13034, 3, 453, 3.72], [24, 1, 86, 3.39], [955, 2, 84, 2.45], [1414, 15, 85, 2.22], [336, 15, 38, 1.43], [1767, 2, 27, 2.69], [10780, 10, 294, 5.14], [13260, 29, 56, 3.21], [4203, 1, 37, 2.61]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 1.18], [8915, 2, 8, 1.06], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [8648, 2, 11, 3.48], [205, 2, 7, 0.74], [593, 2, 14, 1.03], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [326, 2, 7, 2.24], [5493, 2, 9, 0.74], [7036, 1, 11, 3.63], [2049, 3, 12, 0.73], [88, 10, 20, 2.34], [141, 2, 7, 0.72], [7004, 1, 11, 2.54], [1446, 2, 7, 1.5], [206, 2, 7, 1.7], [1124, 2, 7, 1.9], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2055, 3, 7, 1.07], [2912, 1, 7, 1.75], [10993, 2, 9, 1.0], [12870, 1, 9, 3.23], [3893, 1, 7, 0.71], [5165, 1, 7, 1.66], [9372, 1, 7, 3.26], [7886, 4, 7, 0.8], [2054, 3, 7, 2.44], [3889, 1, 7, 1.38], [2050, 3, 7, 1.61], [1622, 1, 9, 0.59], [3891, 1, 7, 0.76], [21793, 1, 7, 1.22], [7885, 4, 7, 0.94], [7573, 1, 16, 4.3], [10, 2, 7, 1.14], [5208, 3, 11, 1.04], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 9, 2.5], [997, 2, 9, 2.5], [3, 2, 9, 1.58], [11234, 2, 9, 1.55], [5165, 2, 8, 1.51], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [35, 1, 7, 2.96], [1886, 2, 9, 0.86], [972, 3, 10, 1.66], [22247, 2, 7, 2.27], [9491, 21, 32, 0.95], [996, 2, 9, 2.88], [955, 2, 7, 1.0], [33, 1, 7, 2.27], [83, 2, 9, 1.73], [229, 1, 7, 2.5], [7887, 4, 9, 2.05], [6158, 2, 7, 1.56], [2912, 2, 12, 3.02], [76, 2, 7, 1.6], [413, 1, 7, 3.14], [2424, 80, 7, 2.78], [34, 1, 7, 2.54], [13028, 3, 7, 2.62], [38, 1, 7, 2.66], [5209, 3, 7, 2.17], [13928, 1, 7, 1.83], [8676, 2, 7, 3.15], [8898, 3, 7, 4.91], [418, 2, 7, 1.25], [12212, 29, 7, 1.15], [3495, 3, 18, 2.49], [11952, 1, 7, 2.68], [39, 1, 7, 2.6], [9690, 1, 7, 0.9], [1414, 15, 7, 1.0], [5946, 1, 7, 1.02], [11490, 1, 7, 1.37], [2424, 29, 7, 0.89], [9691, 1, 7, 1.87], [411, 2, 7, 1.64], [415, 1, 7, 1.06], [1703, 2, 7, 2.08], [10407, 10, 12, 3.52], [7567, 3, 7, 2.56], [23961, 3, 7, 4.1], [11953, 1, 7, 0.87], [11772, 1, 7, 4.14], [13023, 3, 10, 1.41], [22316, 3, 7, 1.16], [12764, 2, 10, 1.76], [214, 3, 15, 0.76], [13928, 2, 7, 2.72], [74, 1, 7, 5.0], [21269, 3, 7, 2.82], [10410, 10, 15, 3.8], [13893, 2, 7, 4.55], [1163, 3, 7, 0.89], [972, 1, 7, 1.61], [2331, 1, 7, 3.07], [410, 1, 7, 1.79], [1274, 1, 7, 1.3], [5164, 1, 7, 1.73], [1523, 1, 7, 0.81], [24257, 1, 7, 1.0], [10408, 10, 8, 3.87], [1492, 1, 7, 0.87], [3430, 15, 7, 2.31], [6097, 80, 7, 1.94], [2438, 2, 8, 3.45], [13034, 3, 7, 2.6], [6097, 29, 7, 2.31], [3047, 3, 7, 2.68], [1243, 2, 7, 2.48], [10780, 10, 7, 3.18], [71, 15, 7, 0.75], [6805, 1, 7, 0.97], [1080, 3, 7, 2.78], [2436, 4, 7, 1.36], [1277, 1, 7, 1.14], [7704, 2, 7, 3.16], [7705, 2, 7, 3.16], [3429, 15, 7, 0.97], [6497, 1, 7, 2.2], [8659, 1, 7, 2.04], [19931, 1, 7, 2.43], [20486, 3, 8, 2.3], [13028, 3, 134, 3.45], [38, 1, 83, 3.92], [13928, 1, 36, 3.67], [8676, 2, 263, 3.98], [8898, 3, 219, 6.0], [418, 2, 131, 2.09], [12212, 29, 107, 2.78], [3495, 3, 890, 3.31], [11952, 1, 182, 3.52], [39, 1, 83, 3.89], [9690, 1, 59, 2.13], [1414, 15, 58, 1.76], [5946, 1, 116, 1.86], [11490, 1, 97, 2.77], [2424, 29, 31, 1.73], [9691, 1, 68, 3.27], [411, 2, 100, 2.48], [415, 1, 80, 1.89], [1703, 2, 144, 3.48], [10407, 10, 891, 5.62], [7567, 3, 63, 3.96], [23961, 3, 260, 5.56], [11953, 1, 186, 1.71], [11772, 1, 194, 4.98], [13023, 3, 531, 3.29], [22316, 3, 292, 2.0], [12764, 2, 657, 3.62], [214, 3, 607, 1.59], [13928, 2, 21, 3.56], [74, 1, 173, 6.0], [21269, 3, 258, 4.46], [10410, 10, 891, 4.95], [13893, 2, 247, 5.38], [1163, 3, 80, 1.38], [972, 1, 92, 2.45], [2331, 1, 107, 3.9], [410, 1, 48, 2.5], [1274, 1, 76, 2.14], [5164, 1, 44, 2.57], [1523, 1, 44, 1.64], [24257, 1, 131, 1.84], [10408, 10, 675, 5.51], [1492, 1, 34, 2.75], [3430, 15, 62, 3.71], [6097, 80, 61, 3.34], [2438, 2, 553, 5.1], [13034, 3, 520, 4.24], [6097, 29, 32, 3.15], [3047, 3, 238, 4.34], [1243, 2, 87, 4.11], [10780, 10, 331, 5.07], [71, 15, 52, 1.23], [6805, 1, 419, 1.81], [1080, 3, 117, 3.62], [2436, 4, 104, 2.96], [1277, 1, 177, 1.97], [7704, 2, 162, 4.0], [7705, 2, 162, 4.0], [3429, 15, 25, 1.68], [6497, 1, 34, 3.04], [8659, 1, 111, 2.88], [19931, 1, 377, 3.26], [20486, 3, 543, 3.14]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [143, 2, 9, 1.88], [141, 2, 7, 1.83], [8650, 2, 7, 2.25], [2778, 2, 7, 1.43], [6936, 2, 11, 4.58], [2049, 3, 17, 0.71], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [7004, 1, 7, 1.17], [615, 2, 9, 1.53], [7036, 1, 7, 2.85], [145, 2, 7, 2.56], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [2055, 3, 7, 4.16], [10993, 2, 7, 1.21], [11737, 2, 7, 1.76], [3840, 1, 7, 0.73], [159, 3, 12, 0.8], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [2057, 3, 7, 3.77], [3889, 1, 7, 1.16], [10574, 3, 8, 0.94], [13280, 1, 7, 2.58], [7084, 3, 7, 1.6], [20927, 1, 7, 1.55], [2054, 3, 7, 3.49], [997, 2, 7, 1.75], [3, 2, 7, 1.02], [3982, 3, 17, 2.58], [21793, 1, 7, 2.17], [10, 2, 7, 0.75], [3891, 1, 7, 1.02], [61, 3, 7, 2.37], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [7885, 4, 9, 0.7], [6158, 2, 9, 1.24], [8672, 2, 11, 2.68], [5165, 1, 7, 1.29], [972, 3, 9, 3.54], [5165, 2, 8, 1.16], [346, 3, 7, 1.68], [3980, 4, 7, 2.37], [9372, 1, 7, 2.95], [411, 2, 7, 1.25], [2912, 1, 7, 1.75], [956, 2, 7, 0.75], [10388, 2, 7, 2.56], [214, 3, 15, 0.69], [9491, 21, 20, 0.87], [3981, 3, 22, 2.14], [346, 1, 7, 1.91], [1492, 1, 7, 0.89], [995, 2, 7, 2.23], [7573, 1, 11, 3.86], [33, 1, 7, 3.41], [22316, 3, 7, 0.98], [7886, 4, 9, 0.94], [13928, 1, 7, 2.49], [10386, 2, 7, 0.69], [336, 15, 7, 1.28], [161, 3, 8, 4.88], [35, 1, 7, 3.29], [7567, 3, 7, 2.7], [11770, 1, 7, 3.36], [2912, 2, 8, 3.02], [308, 1, 7, 3.55], [10631, 2, 7, 2.44], [11490, 1, 7, 1.54], [229, 1, 7, 2.41], [11953, 1, 7, 1.15], [83, 2, 7, 1.41], [22317, 3, 7, 1.67], [10780, 10, 7, 3.1], [414, 1, 7, 1.1], [10407, 10, 10, 3.29], [10149, 3, 21, 2.88], [10410, 10, 10, 3.21], [12271, 2, 7, 3.39], [972, 1, 9, 3.54], [6497, 1, 7, 0.9], [1413, 15, 7, 1.12], [23611, 3, 9, 0.72], [11767, 1, 7, 0.83], [345, 3, 7, 1.46], [8104, 1, 7, 0.73], [37, 1, 7, 1.75], [3478, 2, 7, 1.24], [74, 1, 7, 5.0], [39, 1, 7, 1.04], [10387, 2, 7, 1.96], [9971, 2, 7, 3.0], [4076, 3, 7, 2.29], [3048, 3, 7, 0.92], [152, 21, 7, 1.14], [34, 1, 7, 1.31], [24257, 1, 7, 2.73], [2331, 1, 7, 3.76], [82, 2, 7, 0.82], [20498, 3, 10, 2.46], [4001, 3, 14, 2.74], [4253, 1, 7, 1.41], [11510, 3, 8, 2.0], [45, 2, 7, 5.0], [9, 1, 7, 0.69], [416, 1, 7, 1.1], [215, 4, 7, 3.25], [12338, 29, 7, 0.75], [10936, 2, 7, 1.81], [12764, 2, 8, 1.71], [9965, 2, 7, 4.18], [202, 2, 7, 0.73], [1523, 1, 7, 3.0], [1895, 3, 7, 1.42], [105, 3, 7, 0.98], [12858, 1, 7, 1.17], [1080, 3, 7, 0.89], [2805, 137, 13, 1.88], [11489, 1, 7, 0.75], [8635, 3, 7, 2.86], [7705, 2, 7, 2.59], [3047, 3, 7, 2.68], [10093, 3, 15, 1.65], [7886, 4, 35, 1.4], [13928, 1, 44, 3.29], [10386, 2, 210, 1.49], [336, 15, 103, 2.08], [161, 3, 687, 5.68], [35, 1, 53, 3.97], [7567, 3, 67, 3.49], [11770, 1, 175, 4.15], [308, 1, 151, 4.35], [10631, 2, 204, 3.24], [11490, 1, 85, 2.88], [229, 1, 65, 3.21], [11953, 1, 159, 2.59], [83, 2, 51, 2.21], [22317, 3, 257, 3.13], [10780, 10, 355, 3.9], [414, 1, 82, 1.9], [10407, 10, 1115, 4.08], [10149, 3, 680, 4.35], [10410, 10, 1115, 4.0], [12271, 2, 51, 4.36], [972, 1, 59, 4.35], [6497, 1, 36, 1.7], [1413, 15, 81, 2.27], [23611, 3, 274, 2.5], [11767, 1, 157, 1.62], [345, 3, 233, 2.67], [8104, 1, 50, 1.18], [37, 1, 87, 2.97], [3478, 2, 73, 2.04], [74, 1, 189, 6.0], [39, 1, 106, 1.84], [10387, 2, 210, 2.76], [9971, 2, 260, 3.8], [4076, 3, 157, 3.34], [3048, 3, 260, 1.72], [34, 1, 87, 2.74], [24257, 1, 131, 3.53], [2331, 1, 109, 4.56], [82, 2, 58, 1.62], [20498, 3, 455, 4.42], [4001, 3, 616, 4.19], [4253, 1, 164, 2.21], [11510, 3, 563, 2.8], [45, 2, 103, 6.0], [9, 1, 33, 1.49], [416, 1, 82, 1.9], [215, 4, 36, 4.04], [12338, 29, 51, 1.55], [10936, 2, 127, 2.61], [12764, 2, 581, 3.17], [9965, 2, 260, 4.97], [202, 2, 71, 1.53], [1523, 1, 46, 3.8], [1895, 3, 238, 3.11], [105, 3, 192, 2.67], [12858, 1, 455, 2.61], [1080, 3, 123, 1.69], [2805, 137, 176, 2.68], [11489, 1, 105, 1.55], [8635, 3, 262, 4.54], [7705, 2, 169, 3.39], [3047, 3, 257, 3.48], [10093, 3, 788, 2.46]]</t>
+  </si>
+  <si>
+    <t>[[2049, 3, 16, 0.8], [326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 2.06], [589, 2, 10, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 2.24], [1776, 1, 7, 1.12], [130, 1, 7, 1.66], [8672, 2, 15, 2.16], [20252, 2, 7, 0.85], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [305, 2, 7, 0.92], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [593, 2, 14, 0.86], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [206, 2, 7, 0.96], [151, 1, 7, 0.85], [88, 10, 17, 1.69], [2328, 2, 7, 0.94], [83, 2, 7, 0.96], [8650, 2, 11, 3.25], [5151, 2, 7, 2.21], [2050, 3, 7, 1.23], [412, 1, 7, 2.42], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [2991, 3, 7, 4.18], [21798, 1, 7, 0.96], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [76, 2, 11, 2.6], [21793, 1, 7, 3.62], [2054, 3, 9, 3.24], [146, 2, 9, 2.43], [3478, 2, 7, 0.87], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 7, 0.9], [2057, 3, 7, 3.23], [167, 3, 7, 2.25], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [84, 2, 7, 3.03], [3495, 3, 21, 1.64], [335, 3, 22, 3.87], [7036, 1, 7, 3.77], [432, 3, 7, 1.61], [5081, 2, 7, 0.84], [214, 3, 15, 0.78], [10, 2, 14, 2.41], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [11404, 2, 7, 1.31], [8649, 2, 9, 2.97], [12870, 1, 7, 4.97], [410, 1, 7, 1.23], [79, 1, 7, 0.73], [142, 2, 7, 0.98], [145, 2, 7, 0.83], [5208, 3, 16, 1.31], [3889, 1, 7, 2.38], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.79], [9827, 3, 7, 0.86], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [13260, 29, 7, 1.64], [3891, 1, 7, 1.3], [1490, 1, 7, 1.35], [998, 2, 7, 2.66], [10574, 3, 9, 2.32], [21269, 3, 7, 4.99], [7567, 3, 7, 3.13], [9069, 1, 7, 2.53], [5086, 1, 9, 2.04], [11954, 1, 7, 0.92], [2878, 1, 7, 1.63], [1243, 2, 7, 2.18], [997, 2, 7, 2.64], [9691, 1, 7, 3.18], [20927, 1, 7, 1.75], [5209, 3, 7, 0.92], [1703, 2, 7, 3.38], [11914, 1, 9, 1.27], [1124, 2, 11, 0.76], [856, 1, 7, 0.92], [5660, 2, 7, 1.94], [5584, 3, 7, 3.61], [1070, 7, 13, 1.15], [8274, 3, 7, 1.76], [11811, 1, 9, 2.48], [1519, 3, 26, 0.67], [23961, 3, 7, 4.68], [8898, 3, 7, 5.0], [952, 4, 7, 5.0], [1091, 1, 7, 1.1], [22317, 3, 8, 0.9], [9081, 3, 11, 3.64], [24, 1, 7, 2.51], [5513, 2, 7, 1.0], [13034, 3, 10, 3.0], [12661, 1, 7, 4.32], [336, 15, 7, 0.8], [11767, 1, 7, 0.9], [1413, 15, 7, 1.44], [20498, 1, 7, 4.0], [6097, 80, 7, 2.16], [9760, 29, 9, 0.87], [9082, 3, 21, 1.17], [8945, 3, 10, 4.45], [4203, 1, 7, 1.27], [10529, 29, 7, 2.85], [1163, 3, 9, 1.11], [6097, 29, 9, 2.83], [2109, 3, 18, 0.77], [995, 2, 7, 4.69], [82, 2, 7, 0.67], [20498, 3, 8, 3.52], [11769, 1, 7, 0.9], [972, 3, 8, 1.2], [9372, 1, 7, 3.6], [6098, 80, 7, 1.73], [2104, 3, 10, 2.53], [5813, 3, 7, 2.12], [8635, 3, 7, 1.16], [10780, 10, 7, 4.1], [34, 1, 7, 1.23], [1492, 1, 27, 2.61], [5812, 3, 414, 4.04], [1504, 2, 145, 2.79], [94, 4, 107, 3.44], [9827, 3, 63, 2.76], [411, 2, 80, 2.23], [7005, 1, 50, 2.22], [13260, 29, 52, 2.75], [3891, 1, 89, 3.27], [1490, 1, 36, 2.76], [998, 2, 170, 4.82], [10574, 3, 437, 2.97], [21269, 3, 207, 6.0], [7567, 3, 60, 3.78], [5086, 1, 130, 3.94], [11954, 1, 172, 1.57], [2878, 1, 57, 3.04], [1243, 2, 85, 2.83], [997, 2, 170, 3.29], [9691, 1, 54, 4.56], [5209, 3, 415, 2.6], [1703, 2, 149, 4.53], [11914, 1, 62, 3.42], [1124, 2, 155, 2.32], [856, 1, 30, 1.57], [5660, 2, 125, 3.84], [5584, 3, 178, 5.02], [1070, 7, 421, 2.57], [11811, 1, 375, 3.32], [1519, 3, 1182, 2.56], [23961, 3, 243, 5.33], [8898, 3, 199, 6.0], [952, 4, 52, 6.0], [1091, 1, 34, 2.68], [22317, 3, 262, 2.31], [9081, 3, 324, 5.55], [24, 1, 80, 3.67], [5513, 2, 69, 1.65], [13034, 3, 414, 4.4], [12661, 1, 58, 5.34], [336, 15, 81, 2.71], [11767, 1, 142, 1.55], [1413, 15, 63, 2.47], [20498, 1, 85, 4.65], [6097, 80, 60, 2.81], [9760, 29, 60, 2.28], [9082, 3, 1760, 3.17], [8945, 3, 199, 5.41], [4203, 1, 41, 2.43], [10529, 29, 37, 4.0], [6097, 29, 30, 4.49], [2109, 3, 390, 2.28], [995, 2, 204, 5.34], [82, 2, 53, 1.32], [20498, 3, 509, 4.16], [11769, 1, 142, 1.55], [972, 3, 516, 1.85], [9372, 1, 198, 4.25], [6098, 80, 66, 2.38], [2104, 3, 276, 3.64], [5813, 3, 509, 2.76], [10780, 10, 321, 4.74], [34, 1, 97, 1.88]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 8, 0.87], [88, 10, 24, 1.34], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [6935, 2, 11, 3.9], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 9, 1.46], [615, 2, 11, 2.25], [5493, 2, 9, 0.74], [616, 2, 7, 1.06], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 9, 4.02], [1446, 2, 7, 1.57], [7004, 1, 11, 2.54], [143, 2, 7, 2.29], [144, 2, 7, 2.25], [593, 2, 14, 1.23], [10, 2, 7, 2.55], [5491, 2, 7, 0.98], [7036, 1, 11, 3.63], [3893, 1, 9, 0.96], [1124, 2, 7, 1.9], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [7886, 4, 7, 1.05], [3891, 1, 9, 1.01], [75, 2, 7, 2.64], [362, 2, 7, 2.65], [5208, 3, 11, 1.04], [21793, 1, 7, 1.22], [3889, 1, 7, 1.88], [2054, 3, 9, 1.85], [3980, 4, 8, 2.38], [7084, 3, 7, 2.54], [12870, 1, 7, 3.72], [2050, 3, 9, 1.11], [145, 2, 7, 2.41], [5165, 1, 7, 1.66], [10149, 3, 21, 2.59], [13028, 3, 7, 2.62], [8672, 2, 11, 3.11], [2912, 1, 7, 2.33], [998, 2, 7, 1.5], [20927, 1, 7, 2.54], [9760, 29, 7, 0.97], [997, 2, 7, 2.24], [1886, 2, 7, 0.85], [2436, 4, 7, 1.36], [3, 2, 9, 1.58], [7887, 4, 7, 2.05], [972, 3, 12, 1.52], [214, 3, 15, 0.76], [6158, 2, 7, 1.56], [2424, 80, 7, 2.78], [229, 1, 7, 1.75], [955, 2, 7, 1.0], [346, 3, 7, 1.31], [5076, 1, 7, 1.95], [3495, 3, 14, 1.61], [74, 1, 7, 5.0], [5165, 2, 8, 1.51], [11953, 1, 7, 0.87], [996, 2, 7, 1.96], [11770, 1, 7, 0.96], [12721, 2, 7, 2.18], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [7573, 1, 16, 4.3], [9372, 1, 7, 3.26], [11772, 1, 9, 0.76], [2423, 80, 9, 3.54], [2912, 2, 12, 3.02], [2438, 2, 8, 3.32], [3975, 4, 7, 2.76], [11952, 1, 7, 2.68], [6497, 1, 7, 2.2], [5584, 3, 7, 5.0], [346, 1, 7, 2.81], [5209, 3, 9, 1.29], [5434, 1, 7, 2.08], [24257, 1, 7, 0.92], [823, 1, 7, 2.33], [9082, 3, 32, 3.08], [335, 3, 15, 3.87], [10407, 10, 12, 3.52], [1622, 1, 7, 0.94], [8898, 3, 7, 5.0], [2424, 29, 7, 0.89], [12764, 2, 23, 1.61], [8676, 2, 7, 3.15], [6496, 1, 7, 2.59], [3900, 3, 7, 2.45], [5946, 1, 7, 1.02], [11490, 1, 7, 0.92], [33, 1, 7, 1.27], [10388, 2, 7, 3.31], [2805, 137, 7, 2.41], [1339, 3, 16, 0.66], [7567, 3, 7, 2.56], [972, 1, 7, 1.61], [1703, 2, 7, 1.39], [13893, 2, 7, 4.55], [6805, 1, 9, 0.97], [6097, 80, 7, 2.16], [22247, 2, 7, 2.27], [2104, 3, 15, 2.33], [1163, 3, 7, 0.89], [11814, 1, 7, 0.92], [1414, 15, 7, 1.0], [8635, 3, 7, 2.25], [38, 1, 7, 1.75], [9784, 1, 7, 1.12], [1895, 3, 7, 4.16], [1274, 1, 7, 1.26], [95, 3, 22, 1.12], [11116, 1, 7, 1.08], [8283, 2, 8, 2.14], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [10386, 2, 7, 3.17], [12212, 29, 7, 1.0], [8274, 3, 7, 2.18], [114, 3, 7, 2.46], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [19931, 1, 7, 2.43], [76, 2, 7, 2.69], [9065, 2, 7, 1.39], [4232, 80, 7, 1.98], [418, 2, 7, 1.25], [12979, 25, 12, 1.1], [12501, 1, 7, 2.39], [22316, 3, 292, 2.0], [1492, 1, 28, 3.35], [7573, 1, 276, 5.69], [9372, 1, 211, 4.09], [11772, 1, 164, 3.22], [2423, 80, 136, 5.38], [2438, 2, 553, 5.1], [3975, 4, 426, 4.36], [11952, 1, 182, 3.52], [6497, 1, 34, 3.04], [5584, 3, 218, 5.85], [346, 1, 139, 3.65], [5209, 3, 522, 2.12], [5434, 1, 44, 3.48], [24257, 1, 111, 2.15], [823, 1, 36, 4.21], [9082, 3, 2263, 3.92], [335, 3, 1181, 4.7], [10407, 10, 891, 5.62], [1622, 1, 100, 1.78], [8898, 3, 261, 6.0], [2424, 29, 31, 1.73], [12764, 2, 550, 3.67], [8676, 2, 263, 3.98], [6496, 1, 37, 3.42], [5946, 1, 116, 1.86], [11490, 1, 100, 1.76], [33, 1, 103, 2.1], [10388, 2, 202, 4.15], [2805, 137, 167, 3.24], [1339, 3, 1621, 1.49], [7567, 3, 63, 3.96], [972, 1, 92, 2.45], [1703, 2, 151, 2.23], [13893, 2, 247, 5.38], [6805, 1, 401, 2.84], [6097, 80, 64, 2.99], [22247, 2, 261, 3.11], [2104, 3, 308, 3.17], [1163, 3, 80, 1.38], [11814, 1, 207, 1.76], [1414, 15, 58, 1.76], [38, 1, 99, 3.15], [9784, 1, 67, 1.96], [1895, 3, 264, 6.0], [1274, 1, 73, 3.14], [95, 3, 999, 2.69], [11116, 1, 74, 1.92], [8283, 2, 433, 2.96], [788, 2, 17, 1.5], [8104, 1, 189, 2.63], [10386, 2, 202, 4.0], [12212, 29, 111, 1.84], [114, 3, 215, 3.83], [9690, 1, 59, 2.13], [8659, 1, 107, 3.52], [19931, 1, 377, 3.26], [76, 2, 101, 3.52], [9065, 2, 278, 2.23], [4232, 80, 137, 2.82], [418, 2, 131, 2.09], [12979, 25, 610, 1.93], [12501, 1, 274, 3.23]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [615, 2, 9, 0.92], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [5493, 2, 7, 1.0], [6936, 2, 9, 3.69], [616, 2, 7, 0.9], [88, 10, 14, 0.73], [2049, 3, 17, 0.71], [144, 2, 7, 2.84], [8648, 2, 9, 2.71], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [593, 2, 11, 1.29], [2327, 2, 7, 0.98], [141, 2, 7, 1.83], [206, 2, 7, 1.25], [7004, 1, 7, 1.17], [3840, 1, 7, 0.73], [3891, 1, 7, 1.02], [2050, 3, 7, 3.3], [146, 2, 7, 2.31], [3980, 4, 7, 2.37], [2055, 3, 7, 3.41], [143, 2, 7, 1.23], [3889, 1, 7, 1.16], [10, 2, 7, 0.75], [7885, 4, 7, 1.02], [2054, 3, 7, 3.66], [7886, 4, 7, 1.25], [8672, 2, 11, 2.68], [12870, 1, 7, 3.96], [10993, 2, 7, 1.21], [2057, 3, 7, 3.52], [5165, 1, 7, 1.29], [7084, 3, 7, 1.69], [145, 2, 7, 2.23], [21793, 1, 7, 2.17], [523, 2, 7, 1.5], [159, 3, 8, 0.66], [7005, 1, 7, 1.01], [3981, 3, 21, 2.47], [3982, 3, 17, 2.58], [142, 2, 7, 1.25], [20927, 1, 7, 2.25], [33, 1, 11, 3.41], [956, 2, 7, 0.75], [997, 2, 9, 4.11], [6158, 2, 11, 2.0], [214, 3, 14, 0.74], [7887, 4, 7, 2.05], [5165, 2, 8, 1.16], [22316, 3, 7, 1.23], [2912, 1, 7, 1.75], [11953, 1, 7, 1.15], [35, 1, 11, 3.32], [229, 1, 7, 2.41], [998, 2, 9, 4.07], [346, 3, 7, 1.53], [82, 2, 7, 0.82], [6497, 1, 7, 0.9], [389, 4, 7, 3.4], [996, 2, 9, 3.33], [5946, 1, 7, 1.02], [1492, 1, 7, 0.89], [972, 3, 11, 3.54], [7567, 3, 11, 3.69], [11767, 1, 7, 0.83], [192, 3, 22, 3.37], [11490, 1, 7, 0.92], [6496, 1, 7, 1.59], [4176, 4, 7, 3.49], [74, 1, 7, 4.19], [411, 2, 7, 1.25], [1413, 15, 7, 1.12], [22317, 3, 7, 1.42], [2104, 3, 12, 0.7], [4253, 1, 7, 1.41], [2912, 2, 8, 1.56], [8677, 3, 7, 2.82], [2436, 4, 7, 0.85], [336, 15, 7, 1.53], [39, 1, 7, 1.79], [12212, 29, 7, 0.94], [37, 1, 7, 1.52], [201, 3, 9, 2.36], [345, 3, 7, 1.46], [11085, 2, 8, 3.16], [1274, 1, 7, 1.41], [1277, 1, 7, 1.14], [13023, 3, 7, 2.44], [21269, 3, 7, 5.0], [6494, 1, 7, 0.87], [12271, 2, 7, 2.76], [8676, 2, 7, 1.94], [22247, 2, 9, 3.44], [3979, 3, 8, 2.31], [3, 2, 7, 2.1], [823, 1, 7, 1.26], [10408, 10, 10, 3.19], [36, 1, 7, 1.75], [10388, 2, 7, 2.51], [9784, 1, 7, 1.39], [10631, 2, 9, 3.46], [2805, 137, 13, 1.88], [9, 1, 7, 0.69], [10936, 2, 7, 1.81], [202, 2, 7, 0.73], [1414, 15, 7, 1.0], [11489, 1, 7, 0.75], [8675, 2, 7, 2.91], [3048, 3, 7, 2.25], [161, 3, 8, 4.88], [13928, 1, 7, 2.49], [346, 1, 7, 1.72], [9372, 1, 7, 2.95], [12764, 2, 8, 1.46], [12225, 1, 7, 2.51], [11814, 1, 7, 0.92], [13280, 1, 7, 2.58], [10386, 2, 7, 0.69], [10407, 10, 10, 3.29], [4076, 3, 7, 2.29], [8898, 3, 7, 2.27], [79, 1, 7, 0.92], [2878, 1, 9, 0.97], [11089, 1, 7, 1.95], [13035, 3, 7, 2.54], [491, 10, 10, 1.82], [3576, 25, 7, 1.0], [23611, 3, 9, 0.99], [972, 1, 7, 1.51], [11767, 1, 157, 1.62], [192, 3, 1107, 5.01], [11490, 1, 105, 1.72], [6496, 1, 32, 2.75], [4176, 4, 391, 4.95], [74, 1, 134, 4.98], [411, 2, 105, 2.05], [1413, 15, 81, 2.27], [22317, 3, 257, 3.13], [2104, 3, 316, 1.49], [4253, 1, 164, 2.21], [2912, 2, 368, 2.35], [8677, 3, 241, 4.26], [2436, 4, 112, 1.65], [336, 15, 84, 2.97], [39, 1, 87, 3.49], [12212, 29, 115, 1.74], [37, 1, 87, 2.97], [201, 3, 233, 4.06], [345, 3, 233, 2.67], [11085, 2, 435, 4.89], [1274, 1, 78, 2.21], [1277, 1, 183, 1.94], [13023, 3, 563, 3.24], [21269, 3, 239, 6.0], [6494, 1, 41, 2.56], [12271, 2, 61, 3.55], [8676, 2, 273, 2.74], [22247, 2, 231, 4.85], [3979, 3, 756, 3.11], [3, 2, 96, 3.55], [823, 1, 38, 2.06], [10408, 10, 596, 4.91], [36, 1, 87, 2.97], [10388, 2, 178, 4.46], [9784, 1, 69, 2.19], [2805, 137, 176, 2.68], [9, 1, 33, 1.49], [10936, 2, 127, 2.61], [202, 2, 71, 1.53], [1414, 15, 84, 1.78], [11489, 1, 105, 1.55], [8675, 2, 273, 3.71], [3048, 3, 211, 3.47], [161, 3, 687, 5.68], [13928, 1, 44, 3.29], [346, 1, 121, 2.76], [9372, 1, 219, 3.75], [12764, 2, 581, 3.17], [12225, 1, 156, 3.31], [11814, 1, 176, 2.62], [13280, 1, 303, 3.38], [10386, 2, 210, 1.49], [10407, 10, 1115, 4.08], [4076, 3, 191, 3.09], [8898, 3, 265, 3.07], [79, 1, 46, 1.72], [2878, 1, 64, 2.45], [11089, 1, 162, 2.75], [13035, 3, 287, 3.34], [491, 10, 343, 3.77], [3576, 25, 97, 1.8], [23611, 3, 333, 1.79], [972, 1, 94, 2.3]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.38], [5491, 2, 11, 0.65], [2327, 2, 11, 1.82], [5493, 2, 7, 1.03], [589, 2, 9, 1.2], [8672, 2, 15, 2.15], [326, 2, 7, 2.64], [6935, 2, 23, 4.24], [205, 2, 7, 0.69], [206, 2, 7, 0.77], [11838, 2, 11, 1.02], [12721, 2, 11, 1.45], [6936, 2, 7, 2.89], [8915, 2, 7, 1.21], [2049, 3, 63, 2.91], [2778, 2, 13, 1.59], [1446, 2, 9, 0.74], [8676, 2, 7, 1.0], [305, 2, 7, 2.14], [615, 2, 7, 0.9], [593, 2, 8, 0.63], [21793, 1, 8, 3.94], [616, 2, 7, 0.92], [413, 1, 7, 1.27], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [412, 1, 7, 2.27], [8675, 2, 11, 2.19], [8673, 2, 9, 2.91], [143, 2, 7, 0.96], [6158, 2, 11, 2.15], [151, 1, 7, 0.9], [11836, 2, 7, 1.11], [10149, 3, 21, 3.19], [2050, 3, 7, 0.64], [3495, 3, 21, 2.56], [146, 2, 7, 0.94], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [88, 10, 16, 3.31], [7885, 4, 9, 1.37], [416, 1, 7, 1.27], [144, 2, 7, 0.9], [21798, 1, 7, 0.96], [10993, 2, 7, 1.25], [2859, 15, 7, 1.0], [346, 3, 8, 3.06], [335, 3, 17, 3.87], [2423, 80, 7, 2.23], [7705, 2, 7, 2.49], [2424, 29, 7, 2.79], [214, 3, 15, 3.59], [2423, 29, 7, 2.17], [7704, 2, 7, 2.49], [9784, 1, 7, 1.0], [5165, 1, 7, 2.02], [3848, 2, 7, 1.94], [13023, 3, 10, 2.81], [2424, 80, 7, 2.85], [346, 1, 7, 2.81], [1519, 3, 16, 0.67], [201, 3, 7, 2.66], [410, 1, 7, 1.06], [13034, 3, 8, 2.69], [345, 3, 7, 1.99], [5208, 3, 11, 1.15], [11490, 1, 7, 0.81], [6494, 1, 7, 0.92], [11770, 1, 7, 3.31], [432, 3, 11, 4.94], [7004, 1, 7, 0.81], [12373, 1, 11, 2.57], [308, 1, 9, 2.72], [2703, 3, 7, 3.33], [3430, 15, 7, 1.75], [7706, 2, 9, 2.62], [6952, 1, 7, 1.12], [20927, 1, 7, 1.35], [114, 3, 7, 1.1], [1886, 2, 7, 0.85], [3429, 15, 7, 0.81], [7886, 4, 9, 1.06], [94, 4, 7, 2.07], [1492, 1, 7, 2.1], [13928, 1, 7, 2.49], [105, 3, 7, 0.9], [11811, 1, 7, 1.82], [3981, 3, 15, 0.91], [3893, 1, 7, 2.83], [2331, 1, 7, 3.07], [3891, 1, 7, 2.83], [11089, 1, 7, 1.56], [10407, 10, 10, 3.72], [3, 2, 7, 3.47], [1490, 1, 7, 3.91], [13033, 3, 7, 1.39], [22317, 3, 8, 0.83], [5584, 3, 7, 5.0], [11674, 1, 7, 0.88], [944, 15, 7, 0.77], [1274, 1, 7, 0.69], [952, 4, 7, 3.58], [10410, 10, 10, 3.76], [7708, 2, 7, 2.49], [5812, 3, 7, 2.91], [9690, 1, 7, 3.09], [9342, 2, 7, 1.1], [10409, 10, 11, 3.34], [5946, 1, 7, 2.83], [202, 2, 7, 1.37], [1339, 3, 17, 0.66], [10398, 2, 7, 2.62], [8898, 3, 7, 1.18], [95, 3, 13, 4.54], [957, 2, 7, 1.04], [963, 3, 7, 2.7], [21003, 2, 7, 0.96], [1339, 1, 7, 0.83], [3478, 2, 7, 0.87], [20969, 3, 7, 1.66], [7703, 2, 7, 2.49], [11677, 1, 7, 2.4], [10516, 3, 8, 0.65], [823, 1, 7, 0.79], [9082, 3, 24, 2.83], [3980, 4, 7, 2.76], [14041, 3, 7, 2.5], [186, 3, 12, 0.84], [20196, 2, 7, 4.04], [3889, 1, 7, 2.83], [4253, 1, 7, 1.96], [11490, 1, 101, 1.74], [6494, 1, 47, 1.85], [11770, 1, 193, 4.23], [432, 3, 231, 6.0], [7004, 1, 73, 1.74], [12373, 1, 502, 3.5], [308, 1, 153, 4.75], [2703, 3, 282, 4.26], [3430, 15, 64, 2.68], [7706, 2, 161, 4.65], [6952, 1, 174, 2.05], [20927, 1, 73, 2.28], [114, 3, 221, 3.13], [1886, 2, 145, 1.78], [3429, 15, 49, 1.74], [7886, 4, 64, 2.53], [94, 4, 111, 3.0], [1492, 1, 34, 3.03], [13928, 1, 43, 3.42], [105, 3, 225, 1.83], [11811, 1, 417, 2.74], [3981, 3, 1548, 1.83], [3893, 1, 114, 3.76], [2331, 1, 107, 4.0], [3891, 1, 114, 3.76], [11089, 1, 158, 2.49], [10407, 10, 1073, 4.63], [3, 2, 109, 4.4], [1490, 1, 45, 4.84], [13033, 3, 539, 2.33], [22317, 3, 295, 1.75], [5584, 3, 210, 6.0], [11674, 1, 190, 1.8], [944, 15, 41, 1.7], [1274, 1, 75, 1.62], [952, 4, 67, 4.51], [10410, 10, 1073, 4.67], [7708, 2, 163, 3.42], [5812, 3, 545, 3.84], [9690, 1, 69, 4.01], [9342, 2, 427, 2.03], [10409, 10, 1618, 4.3], [5946, 1, 114, 3.76], [202, 2, 68, 2.3], [1339, 3, 1618, 1.61], [10398, 2, 134, 3.55], [8898, 3, 257, 2.11], [95, 3, 911, 5.48], [957, 2, 99, 1.97], [963, 3, 366, 3.64], [21003, 2, 261, 1.89], [1339, 1, 67, 1.76], [3478, 2, 70, 1.8], [20969, 3, 542, 2.58], [7703, 2, 163, 3.42], [11677, 1, 412, 3.33], [10516, 3, 550, 1.58], [823, 1, 37, 1.72], [9082, 3, 2258, 3.75], [3980, 4, 437, 4.52], [14041, 3, 605, 3.44], [186, 3, 616, 1.77], [20196, 2, 261, 4.97], [3889, 1, 114, 3.76], [4253, 1, 158, 2.89]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 2.18], [1504, 2, 14, 1.49], [615, 2, 9, 1.48], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.14], [2328, 2, 11, 1.85], [11681, 2, 13, 2.3], [205, 2, 7, 1.24], [5491, 2, 11, 0.61], [8676, 2, 9, 1.6], [8673, 2, 11, 2.44], [11835, 2, 7, 1.06], [8650, 2, 14, 4.38], [144, 2, 7, 2.11], [308, 1, 11, 4.19], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [11836, 2, 9, 1.19], [6497, 1, 7, 0.85], [6097, 29, 7, 4.96], [2424, 29, 7, 0.89], [6098, 80, 9, 4.33], [11739, 2, 7, 2.62], [2054, 3, 9, 1.53], [13260, 29, 7, 2.28], [6494, 1, 7, 0.92], [3429, 15, 7, 0.69], [326, 2, 7, 1.27], [2424, 80, 7, 2.57], [75, 2, 7, 1.36], [335, 3, 17, 2.98], [1339, 1, 7, 0.83], [411, 2, 7, 1.12], [1492, 1, 7, 2.1], [1339, 3, 17, 0.66], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [7704, 2, 7, 3.45], [214, 3, 15, 3.59], [346, 1, 7, 0.94], [346, 3, 8, 0.83], [2859, 15, 7, 1.7], [10149, 3, 21, 1.49], [345, 3, 7, 2.01], [13264, 29, 7, 1.25], [13258, 29, 13, 2.61], [1490, 1, 7, 3.91], [1243, 2, 7, 2.14], [22558, 3, 9, 1.74], [5208, 3, 13, 1.3], [201, 3, 7, 3.06], [229, 1, 7, 2.96], [10407, 10, 10, 3.72], [8943, 3, 7, 0.71], [432, 3, 7, 2.04], [2438, 1, 7, 3.24], [7705, 2, 7, 3.45], [2331, 1, 7, 1.75], [13259, 29, 11, 4.17], [2912, 1, 7, 1.85], [7706, 2, 7, 3.45], [12229, 2, 7, 0.87], [957, 2, 7, 1.43], [13928, 1, 7, 2.49], [114, 3, 7, 1.39], [3478, 2, 7, 0.87], [1163, 3, 7, 2.33], [1548, 1, 7, 2.1], [21793, 1, 8, 5.0], [9784, 1, 7, 1.42], [7036, 1, 7, 3.69], [8938, 2, 7, 1.12], [11844, 2, 7, 1.21], [11490, 1, 7, 1.38], [2703, 3, 7, 4.45], [11687, 2, 7, 1.52], [11404, 2, 7, 0.96], [13258, 25, 7, 2.57], [410, 1, 7, 1.06], [1886, 2, 7, 0.85], [159, 16, 7, 0.69], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [11690, 2, 7, 1.0], [19687, 1, 7, 2.28], [12870, 1, 7, 3.68], [413, 1, 7, 1.02], [7708, 2, 7, 3.45], [414, 1, 7, 1.17], [2438, 2, 8, 2.54], [11689, 2, 7, 1.48], [956, 2, 7, 1.1], [11161, 1, 10, 3.62], [11159, 1, 14, 2.72], [22125, 2, 7, 0.69], [5976, 1, 7, 1.64], [9760, 29, 7, 1.64], [21781, 2, 7, 0.9], [12373, 1, 11, 3.44], [105, 3, 7, 1.24], [7005, 1, 7, 1.56], [1274, 1, 7, 4.06], [5584, 3, 7, 5.0], [2991, 3, 7, 2.7], [2805, 137, 10, 2.4], [13259, 25, 7, 2.6], [11811, 1, 7, 1.82], [9785, 1, 7, 1.42], [4253, 1, 7, 1.41], [3495, 3, 21, 2.56], [20927, 1, 7, 1.35], [8600, 1, 7, 2.12], [9209, 29, 7, 0.71], [11489, 1, 7, 1.38], [9372, 1, 7, 4.12], [247, 1, 7, 3.34], [10147, 1, 7, 0.69], [9690, 1, 7, 3.09], [9491, 21, 16, 3.13], [6360, 10, 15, 1.18], [12764, 2, 8, 1.69], [8285, 2, 8, 0.85], [5769, 3, 10, 0.93], [7007, 1, 7, 1.56], [21269, 3, 7, 3.77], [5076, 1, 7, 1.75], [7706, 2, 162, 4.38], [12229, 2, 138, 2.9], [957, 2, 82, 3.46], [13928, 1, 43, 3.42], [114, 3, 224, 2.32], [3478, 2, 70, 1.8], [1548, 1, 91, 3.03], [21793, 1, 212, 6.0], [9784, 1, 67, 2.35], [7036, 1, 118, 4.62], [8938, 2, 175, 2.05], [11844, 2, 253, 2.13], [11490, 1, 100, 2.31], [2703, 3, 266, 5.38], [11687, 2, 277, 2.46], [11404, 2, 96, 1.89], [13258, 25, 72, 3.5], [410, 1, 97, 1.99], [1886, 2, 145, 1.78], [159, 16, 42, 1.5], [9065, 2, 277, 2.55], [94, 4, 111, 3.19], [11690, 2, 277, 1.93], [19687, 1, 28, 3.21], [12870, 1, 128, 4.61], [413, 1, 79, 1.95], [7708, 2, 162, 4.38], [414, 1, 79, 2.1], [2438, 2, 573, 3.47], [11689, 2, 277, 2.41], [956, 2, 98, 2.03], [11161, 1, 453, 4.54], [11159, 1, 446, 3.64], [22125, 2, 58, 1.62], [5976, 1, 145, 2.57], [9760, 29, 66, 2.57], [21781, 2, 96, 1.83], [12373, 1, 493, 4.36], [105, 3, 224, 2.17], [7005, 1, 73, 2.49], [1274, 1, 74, 4.99], [5584, 3, 210, 6.0], [2991, 3, 146, 3.63], [2805, 137, 169, 3.33], [13259, 25, 64, 3.53], [11811, 1, 417, 2.74], [9785, 1, 67, 2.35], [4253, 1, 156, 3.44], [3495, 3, 888, 3.48], [20927, 1, 73, 2.28], [8600, 1, 133, 3.05], [9209, 29, 30, 1.64], [11489, 1, 100, 2.31], [9372, 1, 211, 5.04], [247, 1, 79, 4.27], [10147, 1, 62, 1.62], [9690, 1, 69, 4.01], [9491, 21, 1806, 4.07], [6360, 10, 682, 2.11], [12764, 2, 682, 2.62], [8285, 2, 444, 1.79], [5769, 3, 1013, 1.87], [7007, 1, 73, 2.49], [21269, 3, 266, 4.71], [5076, 1, 121, 2.68]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [2778, 2, 13, 1.69], [362, 2, 7, 1.69], [205, 2, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 17, 3.77], [206, 2, 7, 0.77], [8676, 2, 7, 1.35], [2049, 3, 17, 0.73], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [305, 2, 7, 1.12], [8650, 2, 9, 2.89], [8648, 2, 7, 3.37], [2776, 2, 7, 1.38], [2328, 2, 7, 2.48], [616, 2, 7, 2.48], [2327, 2, 7, 1.48], [8674, 2, 7, 1.29], [589, 2, 7, 1.56], [11835, 2, 7, 0.94], [412, 1, 7, 2.34], [143, 2, 7, 1.1], [146, 2, 7, 0.98], [6497, 1, 9, 0.85], [6097, 80, 7, 4.54], [583, 2, 7, 1.39], [326, 2, 7, 1.48], [10149, 3, 21, 3.19], [6097, 29, 7, 1.85], [11836, 2, 7, 1.29], [145, 2, 7, 0.81], [144, 2, 7, 1.04], [10574, 3, 10, 2.88], [6494, 1, 7, 0.92], [6496, 1, 7, 2.09], [2054, 3, 7, 2.44], [1413, 15, 7, 0.83], [6098, 80, 7, 2.11], [1886, 2, 20, 1.67], [944, 15, 7, 0.77], [21793, 1, 8, 5.0], [6098, 29, 7, 2.21], [247, 1, 7, 4.37], [335, 3, 17, 3.87], [3429, 15, 7, 0.69], [201, 3, 7, 0.94], [1490, 1, 7, 2.66], [21798, 1, 7, 0.96], [308, 1, 14, 1.66], [2859, 15, 7, 0.85], [6158, 2, 11, 2.15], [9998, 80, 7, 3.39], [3478, 2, 7, 0.87], [13928, 1, 7, 2.49], [7084, 3, 7, 1.42], [11489, 1, 7, 1.3], [1703, 2, 7, 1.53], [107, 2, 7, 2.8], [5812, 3, 9, 3.96], [4253, 1, 7, 1.96], [107, 7, 8, 2.74], [9342, 2, 7, 1.1], [1050, 2, 7, 0.73], [94, 4, 7, 0.92], [186, 3, 12, 0.84], [11490, 1, 7, 0.81], [1309, 1, 7, 3.14], [214, 3, 15, 3.59], [5813, 3, 10, 3.68], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [11767, 1, 7, 0.83], [2821, 3, 13, 0.91], [9491, 21, 16, 0.87], [8599, 1, 7, 1.48], [3980, 4, 7, 2.76], [11811, 1, 7, 1.82], [11771, 1, 7, 4.31], [229, 1, 7, 2.27], [8898, 3, 7, 5.0], [8944, 3, 7, 0.71], [3495, 3, 21, 2.56], [1339, 3, 17, 0.66], [1049, 2, 7, 0.73], [9358, 1, 7, 2.79], [409, 1, 7, 2.04], [955, 2, 7, 1.0], [192, 3, 21, 4.05], [346, 3, 8, 0.83], [2991, 3, 7, 4.73], [19687, 1, 7, 2.28], [12764, 2, 8, 1.69], [13928, 2, 7, 2.59], [7036, 1, 7, 3.69], [9690, 1, 7, 3.09], [22573, 2, 7, 1.54], [10124, 1, 7, 4.2], [6575, 3, 7, 3.12], [5584, 3, 7, 5.0], [3334, 5, 7, 1.41], [8897, 3, 7, 5.0], [10147, 1, 7, 0.69], [1277, 1, 7, 0.92], [1701, 2, 7, 1.06], [11886, 2, 7, 1.44], [20927, 1, 7, 1.35], [1523, 1, 7, 1.29], [11678, 1, 7, 1.98], [4001, 3, 14, 1.78], [13260, 29, 7, 2.46], [23275, 2, 7, 1.56], [10516, 3, 8, 3.0], [11677, 1, 7, 2.4], [9065, 2, 7, 1.62], [973, 3, 8, 1.92], [45, 2, 7, 1.2], [3984, 3, 8, 1.07], [346, 1, 7, 0.94], [3979, 3, 8, 1.56], [21269, 3, 7, 2.2], [23031, 3, 7, 3.25], [19924, 2, 7, 1.41], [9373, 5, 7, 2.33], [10181, 26, 8, 0.81], [958, 2, 7, 0.69], [11690, 2, 7, 1.0], [5976, 1, 7, 2.54], [9069, 1, 7, 1.23], [23032, 3, 7, 2.86], [7005, 1, 7, 1.56], [1339, 1, 7, 0.83], [11490, 1, 101, 1.74], [1309, 1, 47, 4.07], [214, 3, 337, 4.39], [5813, 3, 532, 5.42], [10398, 2, 135, 2.25], [5811, 3, 460, 5.34], [11767, 1, 151, 1.76], [2821, 3, 1232, 1.82], [9491, 21, 1971, 1.82], [8599, 1, 133, 2.4], [3980, 4, 437, 4.52], [11811, 1, 417, 2.74], [11771, 1, 192, 5.24], [229, 1, 75, 3.2], [8898, 3, 257, 6.0], [8944, 3, 206, 1.64], [3495, 3, 888, 3.48], [1339, 3, 1618, 1.61], [1049, 2, 44, 1.45], [9358, 1, 52, 3.72], [409, 1, 14, 2.58], [955, 2, 100, 1.93], [346, 3, 573, 1.76], [2991, 3, 146, 6.0], [19687, 1, 28, 3.21], [12764, 2, 682, 2.62], [13928, 2, 21, 3.52], [7036, 1, 118, 4.62], [9690, 1, 69, 4.01], [22573, 2, 65, 2.47], [10124, 1, 92, 5.13], [6575, 3, 231, 4.05], [5584, 3, 210, 6.0], [3334, 5, 170, 2.33], [8897, 3, 257, 6.0], [10147, 1, 62, 1.62], [1277, 1, 180, 1.84], [1701, 2, 156, 1.99], [11886, 2, 177, 2.37], [20927, 1, 73, 2.28], [1523, 1, 44, 2.22], [11678, 1, 409, 2.9], [4001, 3, 742, 2.71], [13260, 29, 67, 3.39], [23275, 2, 65, 2.49], [10516, 3, 542, 3.92], [11677, 1, 412, 3.33], [9065, 2, 277, 2.55], [973, 3, 1084, 2.84], [45, 2, 105, 2.12], [3984, 3, 1527, 1.97], [346, 1, 143, 1.87], [3979, 3, 742, 2.49], [21269, 3, 265, 3.13], [23031, 3, 376, 4.18], [19924, 2, 59, 2.34], [9373, 5, 84, 3.26], [10181, 26, 128, 1.74], [958, 2, 99, 1.62], [11690, 2, 277, 1.93], [5976, 1, 143, 3.47], [9069, 1, 112, 2.16], [23032, 3, 475, 3.79], [7005, 1, 73, 2.49], [1339, 1, 67, 1.76]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [2778, 2, 13, 1.86], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [5491, 2, 7, 0.85], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [11681, 2, 13, 2.3], [5493, 2, 9, 1.81], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [1005, 2, 7, 2.48], [144, 2, 7, 1.34], [990, 2, 7, 1.16], [8915, 2, 11, 2.76], [308, 1, 11, 4.19], [88, 10, 21, 1.78], [434, 2, 7, 1.04], [6158, 2, 12, 1.25], [2424, 29, 7, 0.89], [7704, 2, 7, 3.01], [2423, 29, 7, 2.17], [11836, 2, 9, 1.36], [2424, 80, 7, 2.57], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [7706, 2, 9, 3.46], [10574, 3, 10, 3.31], [2054, 3, 9, 2.2], [2423, 80, 7, 2.23], [3, 2, 9, 2.19], [944, 15, 7, 1.02], [412, 1, 7, 2.34], [3478, 2, 9, 2.45], [2859, 15, 7, 2.42], [10149, 3, 21, 1.49], [12720, 2, 7, 1.89], [7004, 1, 9, 2.58], [74, 1, 7, 0.87], [346, 3, 8, 3.06], [11919, 1, 7, 1.48], [6497, 1, 7, 0.85], [1339, 3, 17, 0.66], [346, 1, 7, 2.81], [10993, 2, 7, 1.25], [13928, 1, 7, 2.49], [418, 2, 7, 0.94], [411, 2, 7, 0.74], [13260, 29, 7, 2.5], [13034, 3, 11, 2.28], [11089, 1, 7, 1.56], [7036, 1, 7, 3.14], [6952, 1, 7, 3.06], [13028, 3, 7, 1.96], [14037, 3, 7, 1.91], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [7707, 2, 7, 1.93], [2991, 3, 7, 4.18], [1339, 1, 7, 0.83], [22317, 3, 18, 1.09], [9784, 1, 7, 1.37], [6494, 1, 7, 0.92], [7708, 2, 7, 2.89], [21793, 1, 8, 4.0], [6630, 3, 7, 4.62], [8943, 3, 7, 0.71], [1243, 2, 7, 2.08], [1490, 1, 7, 3.91], [3495, 3, 21, 2.56], [5208, 3, 11, 1.15], [2912, 1, 7, 1.64], [563, 2, 7, 1.19], [11491, 2, 7, 1.42], [11490, 1, 7, 1.29], [229, 1, 7, 2.96], [8944, 3, 7, 0.71], [5940, 3, 9, 0.75], [192, 3, 21, 4.51], [1049, 2, 7, 0.69], [6627, 3, 7, 0.85], [12229, 2, 7, 0.87], [11581, 29, 7, 1.89], [13033, 3, 7, 1.72], [2331, 1, 7, 1.75], [23275, 2, 7, 1.56], [201, 3, 7, 1.16], [5165, 1, 7, 1.41], [247, 1, 7, 2.39], [1274, 1, 7, 1.58], [214, 3, 15, 3.59], [7886, 4, 9, 0.87], [2805, 137, 10, 1.17], [21798, 1, 7, 1.13], [335, 3, 17, 3.87], [20555, 2, 7, 2.66], [8635, 3, 7, 1.12], [114, 3, 7, 2.85], [8898, 3, 7, 2.76], [6496, 1, 7, 2.5], [942, 3, 9, 2.01], [6629, 3, 7, 0.9], [1703, 2, 7, 1.02], [11770, 1, 7, 2.54], [5812, 3, 7, 2.49], [10406, 10, 12, 3.4], [202, 2, 7, 1.19], [83, 2, 7, 0.96], [9760, 29, 7, 3.29], [21269, 3, 7, 2.34], [332, 2, 7, 1.19], [215, 4, 7, 5.0], [186, 3, 15, 2.31], [9372, 1, 7, 4.12], [9827, 3, 7, 0.75], [4940, 1, 7, 0.67], [2821, 3, 13, 0.91], [10527, 3, 13, 3.97], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [11767, 1, 7, 0.83], [11489, 1, 7, 1.29], [12373, 1, 11, 3.44], [21781, 2, 7, 0.9], [12870, 1, 7, 4.22], [22317, 3, 249, 3.38], [9784, 1, 67, 2.3], [6494, 1, 47, 1.85], [7708, 2, 161, 4.65], [21793, 1, 185, 6.0], [6630, 3, 72, 6.0], [8943, 3, 305, 1.61], [1243, 2, 77, 3.86], [1490, 1, 45, 4.84], [3495, 3, 888, 3.48], [5208, 3, 521, 2.08], [2912, 1, 44, 2.57], [563, 2, 68, 2.12], [11491, 2, 130, 2.35], [11490, 1, 100, 2.22], [229, 1, 75, 3.89], [8944, 3, 206, 1.64], [5940, 3, 201, 2.19], [192, 3, 1071, 6.0], [1049, 2, 59, 1.5], [6627, 3, 72, 2.88], [12229, 2, 138, 2.9], [11581, 29, 55, 2.82], [13033, 3, 542, 2.64], [2331, 1, 108, 2.68], [23275, 2, 65, 2.49], [201, 3, 279, 2.09], [5165, 1, 44, 2.34], [247, 1, 80, 3.32], [1274, 1, 75, 2.51], [214, 3, 337, 4.39], [7886, 4, 132, 1.8], [2805, 137, 171, 2.1], [21798, 1, 128, 2.06], [335, 3, 1178, 4.78], [20555, 2, 52, 3.59], [114, 3, 189, 4.14], [8898, 3, 254, 4.54], [6496, 1, 36, 4.1], [942, 3, 267, 4.29], [6629, 3, 73, 1.83], [1703, 2, 153, 1.95], [11770, 1, 193, 4.09], [5812, 3, 530, 4.52], [10406, 10, 1618, 4.36], [202, 2, 68, 2.12], [83, 2, 49, 1.89], [9760, 29, 19, 4.09], [21269, 3, 265, 4.12], [332, 2, 68, 2.12], [215, 4, 34, 5.95], [186, 3, 511, 4.18], [9372, 1, 211, 5.04], [9827, 3, 80, 1.68], [4940, 1, 112, 1.6], [2821, 3, 1232, 1.82], [10527, 3, 803, 4.89], [5811, 3, 539, 3.32], [1886, 2, 145, 1.78], [11767, 1, 151, 1.76], [11489, 1, 100, 2.22], [12373, 1, 493, 4.36], [21781, 2, 96, 1.83], [12870, 1, 125, 5.15]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [11681, 2, 30, 4.17], [2327, 2, 9, 1.37], [362, 2, 11, 1.69], [8648, 2, 9, 3.8], [8650, 2, 11, 3.82], [305, 2, 11, 3.03], [326, 2, 9, 2.62], [2328, 2, 7, 1.85], [2775, 2, 9, 1.33], [8853, 2, 14, 4.03], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [140, 2, 7, 1.19], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [151, 1, 7, 0.96], [412, 1, 7, 1.19], [7036, 1, 7, 1.63], [990, 2, 9, 1.69], [21798, 1, 7, 0.96], [5165, 1, 7, 1.87], [145, 2, 7, 2.17], [12349, 1, 7, 4.19], [201, 3, 13, 3.61], [6952, 1, 9, 3.19], [2050, 3, 9, 3.0], [6097, 80, 7, 5.0], [2055, 3, 9, 2.57], [345, 3, 9, 1.93], [10993, 2, 7, 1.41], [144, 2, 7, 1.17], [7084, 3, 7, 3.68], [2057, 3, 9, 2.57], [3891, 1, 7, 1.46], [11770, 1, 7, 0.85], [998, 2, 11, 1.56], [2912, 1, 7, 1.75], [5165, 2, 12, 1.0], [3893, 1, 7, 1.42], [9372, 1, 7, 3.52], [12870, 1, 7, 2.0], [12343, 1, 7, 4.19], [1886, 2, 7, 0.96], [5208, 3, 8, 0.62], [7885, 4, 7, 1.42], [12351, 1, 7, 1.57], [6097, 29, 9, 5.0], [6098, 80, 7, 3.16], [6158, 2, 9, 2.33], [2424, 80, 7, 3.16], [3334, 5, 7, 2.3], [11089, 1, 9, 1.67], [10149, 3, 24, 1.49], [12345, 1, 7, 4.19], [12344, 1, 7, 1.03], [1492, 1, 7, 1.08], [1519, 3, 20, 0.67], [4032, 29, 7, 1.06], [3889, 1, 7, 1.64], [2912, 2, 8, 1.56], [12304, 1, 7, 2.88], [13028, 3, 7, 4.17], [3576, 25, 9, 2.9], [972, 3, 7, 1.44], [411, 2, 7, 1.25], [13034, 3, 7, 4.12], [2331, 1, 7, 3.07], [229, 1, 7, 4.37], [11583, 29, 7, 0.89], [11426, 25, 7, 0.81], [11490, 1, 7, 1.25], [5151, 2, 7, 0.87], [3, 2, 9, 1.41], [5076, 1, 7, 1.06], [12764, 2, 9, 1.76], [13893, 2, 7, 3.82], [2805, 137, 7, 2.3], [3478, 2, 7, 1.67], [1703, 2, 7, 1.39], [2160, 68, 7, 2.25], [3575, 25, 7, 1.49], [13023, 3, 8, 2.24], [5812, 3, 8, 4.08], [13280, 1, 7, 2.1], [4253, 1, 7, 2.02], [2438, 2, 8, 2.54], [11404, 2, 7, 0.83], [11814, 1, 7, 0.92], [3577, 25, 7, 1.0], [9289, 29, 7, 1.55], [75, 2, 7, 0.71], [11813, 1, 7, 2.65], [9971, 2, 7, 3.5], [957, 2, 7, 2.0], [9967, 2, 7, 1.82], [11150, 2, 8, 0.69], [9069, 1, 7, 1.21], [22317, 3, 7, 0.85], [8283, 2, 8, 2.25], [1413, 15, 7, 1.31], [2878, 1, 7, 1.46], [5584, 3, 7, 3.36], [4586, 10, 15, 1.4], [9964, 2, 7, 4.37], [10407, 10, 12, 0.87], [9491, 21, 15, 2.64], [9965, 2, 7, 3.5], [114, 3, 7, 2.46], [10609, 1, 7, 2.27], [289, 3, 7, 1.63], [13249, 29, 7, 1.79], [4076, 3, 7, 3.06], [21697, 3, 7, 0.87], [14041, 3, 7, 2.5], [8926, 1, 7, 3.87], [12647, 1, 7, 1.12], [192, 3, 13, 3.54], [24257, 1, 7, 2.78], [11739, 2, 7, 0.83], [1277, 1, 7, 0.83], [336, 15, 7, 0.77], [11687, 2, 7, 0.73], [3495, 3, 16, 2.43], [1163, 3, 7, 2.33], [7324, 1, 7, 1.98], [2528, 29, 7, 2.63], [11425, 25, 7, 0.81], [1801, 1, 7, 2.7], [3576, 25, 47, 3.86], [972, 3, 557, 2.29], [411, 2, 102, 2.1], [13034, 3, 551, 4.96], [2331, 1, 109, 3.92], [229, 1, 76, 5.22], [11583, 29, 53, 1.74], [11426, 25, 111, 1.66], [11490, 1, 102, 2.1], [5151, 2, 23, 1.72], [3, 2, 95, 3.25], [5076, 1, 121, 1.91], [12764, 2, 690, 2.62], [13893, 2, 249, 4.67], [2805, 137, 168, 3.15], [3478, 2, 59, 2.86], [1703, 2, 153, 2.25], [2160, 68, 123, 3.1], [3575, 25, 79, 3.16], [13023, 3, 460, 3.92], [5812, 3, 455, 5.52], [13280, 1, 298, 2.95], [4253, 1, 158, 2.87], [2438, 2, 581, 3.39], [11404, 2, 81, 2.5], [11814, 1, 209, 1.77], [3577, 25, 83, 1.85], [9289, 29, 59, 2.4], [75, 2, 137, 1.56], [11813, 1, 291, 3.5], [9971, 2, 249, 4.35], [957, 2, 83, 3.42], [9967, 2, 249, 2.67], [11150, 2, 329, 1.54], [9069, 1, 115, 2.06], [22317, 3, 300, 1.7], [8283, 2, 437, 3.09], [1413, 15, 92, 2.16], [2878, 1, 63, 2.52], [5584, 3, 226, 4.21], [4586, 10, 1138, 3.05], [9964, 2, 249, 5.23], [10407, 10, 1086, 1.7], [9491, 21, 1959, 3.5], [9965, 2, 249, 4.35], [10609, 1, 264, 3.11], [289, 3, 538, 2.47], [13249, 29, 60, 2.64], [4076, 3, 186, 3.91], [21697, 3, 170, 1.72], [14041, 3, 613, 3.35], [8926, 1, 57, 4.72], [12647, 1, 205, 1.98], [192, 3, 1261, 4.37], [24257, 1, 49, 3.43], [11739, 2, 54, 1.68], [1277, 1, 184, 1.68], [336, 15, 39, 1.42], [11687, 2, 284, 1.58], [3495, 3, 899, 3.28], [7324, 1, 57, 2.83], [2528, 29, 88, 3.48], [11425, 25, 111, 1.66], [1801, 1, 87, 3.55]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 19, 3.76], [2049, 3, 16, 0.78], [141, 2, 7, 0.75], [205, 2, 7, 0.96], [326, 2, 8, 1.03], [144, 2, 7, 0.94], [589, 2, 12, 0.67], [362, 2, 7, 2.54], [151, 1, 7, 0.89], [1776, 1, 7, 2.85], [146, 2, 7, 1.37], [143, 2, 7, 1.12], [206, 2, 7, 0.69], [1777, 1, 7, 2.22], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [20252, 2, 7, 0.85], [6936, 2, 10, 2.57], [5151, 2, 7, 2.5], [8650, 2, 7, 3.41], [1007, 2, 10, 0.79], [2778, 2, 9, 1.06], [8677, 3, 8, 3.19], [76, 2, 11, 3.36], [10, 2, 11, 2.3], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 9, 2.1], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [361, 2, 7, 1.25], [413, 1, 7, 1.89], [7004, 1, 7, 0.77], [11404, 2, 7, 0.92], [7084, 3, 7, 2.91], [411, 2, 7, 1.17], [410, 1, 7, 1.42], [3478, 2, 7, 2.36], [308, 1, 7, 2.44], [167, 3, 7, 3.2], [5081, 2, 15, 1.3], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [1124, 2, 10, 0.99], [432, 3, 7, 2.04], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [94, 4, 7, 3.04], [7036, 1, 7, 2.68], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [168, 3, 9, 1.09], [10574, 3, 9, 2.32], [3891, 1, 7, 1.02], [2049, 1, 7, 3.02], [2336, 3, 8, 1.49], [12870, 1, 7, 4.97], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 4.96], [6097, 80, 7, 4.94], [998, 2, 9, 3.14], [214, 3, 15, 0.98], [11737, 2, 7, 1.66], [95, 3, 21, 0.92], [346, 1, 7, 1.33], [20927, 1, 7, 1.75], [6098, 29, 7, 3.7], [1490, 1, 7, 1.12], [79, 1, 7, 0.73], [5208, 3, 13, 1.54], [9069, 1, 7, 2.35], [22316, 3, 9, 0.97], [6098, 80, 7, 3.68], [8898, 3, 7, 4.23], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [997, 2, 9, 2.57], [20498, 1, 7, 2.44], [346, 3, 8, 0.91], [13034, 3, 10, 2.73], [83, 2, 7, 0.85], [22554, 10, 15, 0.87], [1622, 1, 12, 0.53], [13260, 29, 7, 2.4], [7567, 3, 7, 3.69], [11116, 1, 7, 0.81], [8945, 3, 8, 1.84], [5811, 3, 6, 2.36], [22317, 3, 10, 1.35], [5946, 1, 7, 1.02], [5813, 3, 7, 1.98], [20498, 3, 10, 2.16], [5513, 2, 7, 1.0], [5209, 3, 7, 1.0], [12924, 1, 7, 0.86], [5086, 1, 11, 1.39], [995, 2, 9, 4.49], [996, 2, 9, 4.17], [33, 1, 7, 1.99], [974, 3, 7, 1.69], [972, 3, 8, 0.85], [229, 1, 7, 3.67], [1413, 15, 7, 0.87], [9691, 1, 7, 3.2], [35, 1, 7, 2.27], [8557, 3, 7, 1.53], [3049, 3, 7, 4.11], [20486, 3, 10, 3.51], [5584, 3, 7, 3.61], [8943, 3, 7, 0.71], [1703, 2, 7, 2.72], [13023, 3, 8, 2.62], [4076, 3, 7, 5.0], [2424, 80, 7, 4.51], [39, 1, 7, 1.54], [952, 4, 7, 4.29], [3900, 3, 9, 2.43], [8104, 1, 7, 0.75], [9081, 3, 15, 3.06], [11510, 3, 10, 1.73], [215, 4, 7, 5.0], [20486, 1, 7, 2.87], [34, 1, 7, 1.23], [972, 1, 7, 1.41], [114, 3, 7, 0.92], [6497, 1, 7, 2.18], [2854, 21, 13, 0.84], [3047, 3, 7, 1.93], [38, 1, 7, 1.99], [1414, 15, 7, 0.81], [20969, 3, 7, 2.17], [23611, 3, 7, 0.81], [8635, 3, 7, 1.1], [1339, 3, 20, 0.72], [95, 3, 796, 2.85], [346, 1, 128, 2.48], [1490, 1, 43, 2.28], [79, 1, 34, 1.75], [5208, 3, 293, 2.08], [22316, 3, 263, 2.34], [8898, 3, 199, 5.88], [1070, 7, 421, 2.65], [14017, 3, 139, 3.14], [997, 2, 196, 3.94], [20498, 1, 70, 3.85], [346, 3, 513, 2.32], [13034, 3, 414, 4.4], [83, 2, 47, 1.5], [22554, 10, 327, 1.52], [1622, 1, 94, 1.18], [13260, 29, 63, 3.05], [7567, 3, 60, 4.54], [11116, 1, 70, 1.46], [8945, 3, 490, 2.82], [5811, 3, 414, 4.08], [22317, 3, 224, 2.77], [5946, 1, 108, 1.67], [5813, 3, 414, 3.88], [20498, 3, 414, 3.8], [5513, 2, 69, 1.65], [5209, 3, 489, 1.65], [12924, 1, 38, 2.94], [5086, 1, 130, 4.04], [995, 2, 196, 6.0], [996, 2, 196, 5.82], [33, 1, 93, 2.83], [974, 3, 128, 2.34], [972, 3, 497, 2.03], [1413, 15, 86, 1.52], [9691, 1, 54, 4.56], [35, 1, 93, 3.43], [8557, 3, 144, 3.43], [3049, 3, 98, 5.52], [20486, 3, 419, 5.18], [5584, 3, 178, 5.02], [8943, 3, 334, 1.35], [1703, 2, 135, 4.12], [13023, 3, 414, 4.36], [4076, 3, 140, 6.0], [2424, 80, 152, 5.66], [39, 1, 93, 2.47], [952, 4, 62, 4.94], [8104, 1, 180, 1.4], [9081, 3, 381, 4.72], [11510, 3, 483, 3.4], [20486, 1, 71, 4.77], [34, 1, 97, 1.88], [972, 1, 83, 2.33], [114, 3, 203, 2.32], [6497, 1, 31, 3.34], [2854, 21, 885, 2.25], [3047, 3, 224, 2.58], [38, 1, 97, 2.64], [1414, 15, 83, 2.22], [20969, 3, 511, 2.81], [23611, 3, 300, 1.46], [1339, 3, 1518, 1.37]]</t>
   </si>
   <si>
     <t>1QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[305, 2, 4, 0.25], [326, 2, 4, 0.54], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [205, 2, 4, 0.2], [2049, 3, 9, 1.4], [130, 1, 4, 0.6], [6935, 2, 8, 1.27], [75, 2, 5, 0.87], [144, 2, 4, 0.74], [12721, 2, 6, 0.72], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [7885, 4, 4, 0.4], [146, 2, 4, 0.27], [1776, 1, 4, 0.61], [2778, 2, 5, 0.2], [1777, 1, 4, 0.74], [151, 1, 4, 0.2], [206, 2, 4, 0.2], [20252, 2, 4, 0.44], [8648, 2, 4, 1.27], [6936, 2, 5, 1.17], [990, 2, 4, 0.95], [2328, 2, 4, 0.2], [7886, 4, 5, 0.45], [8650, 2, 4, 1.65], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [2054, 3, 5, 0.54], [2057, 3, 6, 0.47], [7004, 1, 4, 0.2], [1492, 1, 5, 0.97], [2055, 3, 5, 0.42], [8649, 2, 4, 1.65], [345, 3, 4, 0.32], [21798, 1, 4, 0.36], [7005, 1, 4, 0.2], [7084, 3, 4, 2.28], [3889, 1, 4, 0.2], [10825, 21, 10, 1.04], [7887, 4, 4, 0.35], [33, 1, 4, 0.83], [61, 3, 4, 0.71], [21793, 1, 4, 1.14], [10149, 3, 15, 0.99], [94, 4, 4, 0.2], [432, 3, 6, 0.62], [7036, 1, 4, 0.43], [5081, 2, 5, 0.69], [12870, 1, 4, 2.33], [3478, 2, 4, 0.78], [167, 3, 5, 1.4], [308, 1, 4, 0.49], [11681, 2, 5, 1.79], [411, 2, 4, 0.2], [10, 2, 4, 0.68], [13028, 3, 4, 0.62], [9827, 3, 4, 0.2], [1504, 2, 4, 0.52], [201, 3, 5, 0.32], [3891, 1, 4, 0.2], [84, 2, 4, 1.54], [8677, 3, 6, 0.65], [168, 3, 4, 1.23], [35, 1, 4, 0.83], [1124, 2, 6, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.2], [5812, 3, 6, 0.81], [2336, 3, 5, 0.99], [13280, 1, 4, 0.54], [23, 1, 4, 0.67], [9760, 29, 4, 0.49], [1490, 1, 4, 0.2], [1243, 2, 4, 0.66], [11737, 2, 4, 0.2], [6158, 2, 6, 0.51], [5208, 3, 5, 0.39], [335, 3, 11, 0.22], [412, 1, 4, 1.14], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [45, 2, 4, 0.64], [214, 3, 9, 0.38], [25, 1, 4, 0.76], [1767, 25, 4, 0.59], [95, 3, 14, 0.31], [9069, 1, 4, 0.42], [10574, 3, 5, 0.58], [413, 1, 5, 1.07], [21269, 3, 4, 1.6], [3495, 3, 15, 1.31], [346, 3, 4, 0.52], [34, 1, 4, 0.63], [997, 2, 4, 0.77], [8898, 3, 5, 0.75], [11116, 1, 4, 0.56], [1766, 25, 4, 0.56], [5946, 1, 4, 1.03], [417, 2, 4, 0.53], [9691, 1, 4, 1.52], [1070, 7, 9, 0.46], [1413, 15, 4, 0.53], [14017, 3, 5, 1.04], [38, 1, 4, 0.63], [20498, 1, 4, 0.23], [9372, 1, 5, 1.74], [11954, 1, 4, 0.2], [974, 3, 5, 0.88], [5209, 3, 4, 0.37], [22317, 3, 5, 0.51], [7567, 3, 4, 0.41], [14037, 3, 4, 0.2], [972, 3, 5, 0.91], [5584, 3, 4, 1.19], [20498, 3, 6, 0.82], [9828, 3, 4, 0.21], [8945, 3, 5, 1.51], [5813, 3, 4, 1.51], [82, 2, 4, 0.46], [39, 1, 4, 0.59], [3048, 3, 4, 1.24], [1080, 3, 5, 0.55], [13034, 3, 5, 1.09], [24, 1, 4, 1.04], [955, 2, 4, 0.22], [1414, 15, 4, 0.2], [336, 15, 4, 0.2], [1767, 2, 4, 0.59], [10780, 10, 4, 0.98], [13260, 29, 4, 0.73], [4203, 1, 5, 0.3], [305, 2, 119, 3.05], [326, 2, 79, 3.44], [589, 2, 157, 1.41], [143, 2, 127, 3.11], [205, 2, 94, 2.56], [130, 1, 60, 2.55], [6935, 2, 243, 5.06], [75, 2, 127, 3.66], [144, 2, 127, 2.96], [12721, 2, 246, 3.75], [145, 2, 130, 3.01], [8915, 2, 197, 1.25], [146, 2, 153, 1.74], [1776, 1, 93, 3.19], [2778, 2, 134, 3.12], [1777, 1, 84, 3.41], [151, 1, 67, 1.45], [206, 2, 111, 1.67], [20252, 2, 95, 1.59], [8648, 2, 194, 5.59], [6936, 2, 243, 4.53], [990, 2, 44, 2.54], [2328, 2, 109, 3.35], [7886, 4, 146, 1.62], [8650, 2, 194, 6.0], [141, 2, 119, 3.67], [74, 1, 173, 5.59], [83, 2, 37, 1.52], [2054, 3, 368, 2.6], [2057, 3, 411, 2.93], [7004, 1, 81, 1.45], [1492, 1, 29, 3.24], [2055, 3, 411, 2.85], [8649, 2, 194, 6.0], [345, 3, 260, 3.1], [21798, 1, 141, 1.7], [7005, 1, 81, 1.47], [3889, 1, 107, 2.86], [10825, 21, 547, 3.52], [7887, 4, 142, 1.41], [33, 1, 90, 3.5], [61, 3, 210, 2.11], [21793, 1, 230, 4.76], [10149, 3, 760, 3.73], [94, 4, 106, 4.16], [432, 3, 259, 3.2], [7036, 1, 110, 3.8], [5081, 2, 164, 3.32], [12870, 1, 119, 6.0], [167, 3, 196, 3.83], [308, 1, 170, 3.3], [11681, 2, 266, 5.07], [411, 2, 94, 2.74], [10, 2, 107, 2.06], [13028, 3, 148, 3.95], [9827, 3, 75, 2.94], [1504, 2, 208, 3.46], [201, 3, 260, 3.1], [3891, 1, 107, 3.74], [84, 2, 69, 3.78], [8677, 3, 254, 3.32], [168, 3, 137, 3.83], [35, 1, 86, 3.36], [1124, 2, 160, 3.48], [3893, 1, 107, 3.7], [79, 1, 40, 2.72]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.27], [305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 4, 0.2], [8915, 2, 5, 0.21], [144, 2, 4, 0.54], [143, 2, 4, 0.44], [2328, 2, 4, 0.26], [6936, 2, 5, 1.66], [8648, 2, 4, 1.15], [205, 2, 4, 0.37], [593, 2, 6, 0.4], [8650, 2, 5, 1.53], [145, 2, 4, 0.5], [146, 2, 5, 0.57], [326, 2, 4, 0.47], [5493, 2, 4, 0.2], [7036, 1, 4, 1.2], [2049, 3, 8, 0.2], [88, 10, 11, 0.77], [141, 2, 5, 0.39], [7004, 1, 4, 0.99], [1446, 2, 4, 0.78], [206, 2, 4, 0.2], [1124, 2, 4, 0.95], [9760, 29, 4, 0.2], [362, 2, 4, 0.52], [2055, 3, 4, 0.55], [2912, 1, 4, 0.91], [10993, 2, 4, 0.35], [12870, 1, 5, 1.43], [3893, 1, 4, 0.2], [5165, 1, 4, 0.86], [9372, 1, 4, 1.33], [7886, 4, 5, 0.44], [2054, 3, 5, 0.2], [3889, 1, 4, 0.2], [2050, 3, 5, 0.55], [1622, 1, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.61], [7885, 4, 4, 0.49], [7573, 1, 9, 2.21], [10, 2, 5, 0.36], [5208, 3, 5, 0.21], [10149, 3, 17, 1.21], [75, 2, 5, 1.0], [20927, 1, 4, 1.01], [997, 2, 4, 1.01], [3, 2, 5, 0.62], [11234, 2, 5, 0.5], [5165, 2, 5, 0.86], [12721, 2, 5, 1.46], [998, 2, 4, 0.56], [35, 1, 4, 1.54], [1886, 2, 5, 0.2], [972, 3, 5, 0.75], [22247, 2, 4, 1.14], [9491, 21, 15, 0.22], [996, 2, 4, 0.35], [955, 2, 4, 0.52], [33, 1, 4, 1.18], [83, 2, 4, 0.7], [229, 1, 4, 1.3], [7887, 4, 4, 0.97], [6158, 2, 4, 0.44], [2912, 2, 7, 0.99], [76, 2, 5, 0.85], [413, 1, 4, 1.63], [2424, 80, 4, 0.86], [34, 1, 4, 1.32], [13028, 3, 4, 1.36], [38, 1, 4, 1.38], [5209, 3, 6, 0.71], [13928, 1, 4, 0.95], [8676, 2, 4, 1.22], [8898, 3, 4, 2.55], [418, 2, 4, 0.65], [12212, 29, 5, 0.22], [3495, 3, 10, 1.25], [11952, 1, 4, 0.85], [39, 1, 4, 1.35], [9690, 1, 4, 0.22], [1414, 15, 4, 0.45], [5946, 1, 4, 0.53], [11490, 1, 4, 0.71], [2424, 29, 4, 0.37], [9691, 1, 4, 0.97], [411, 2, 4, 0.85], [415, 1, 4, 0.55], [1703, 2, 4, 1.08], [10407, 10, 6, 1.43], [7567, 3, 4, 1.33], [23961, 3, 4, 2.13], [11953, 1, 4, 0.45], [11772, 1, 4, 1.43], [13023, 3, 5, 0.55], [22316, 3, 4, 0.6], [12764, 2, 5, 0.73], [214, 3, 9, 0.42], [13928, 2, 4, 0.55], [74, 1, 4, 2.78], [21269, 3, 5, 0.99], [10410, 10, 10, 1.66], [13893, 2, 4, 0.91], [1163, 3, 4, 0.46], [972, 1, 4, 0.68], [2331, 1, 4, 0.69], [410, 1, 4, 0.55], [1274, 1, 4, 0.55], [5164, 1, 4, 0.9], [1523, 1, 4, 0.4], [24257, 1, 4, 0.52], [10408, 10, 6, 1.84], [1492, 1, 4, 0.2], [3430, 15, 4, 1.2], [6097, 80, 4, 1.01], [2438, 2, 6, 1.63], [13034, 3, 5, 1.2], [6097, 29, 4, 0.44], [3047, 3, 4, 1.39], [1243, 2, 5, 1.13], [10780, 10, 4, 1.62], [71, 15, 4, 0.39], [6805, 1, 4, 0.51], [1080, 3, 4, 1.41], [2436, 4, 5, 0.31], [1277, 1, 4, 0.36], [7704, 2, 4, 1.64], [7705, 2, 4, 1.64], [3429, 15, 4, 0.37], [6497, 1, 4, 1.11], [8659, 1, 4, 0.82], [19931, 1, 4, 1.26], [20486, 3, 5, 0.5], [2327, 2, 125, 3.09], [305, 2, 110, 3.21], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [8915, 2, 170, 2.69], [144, 2, 113, 3.38], [143, 2, 111, 3.2], [2328, 2, 113, 3.78], [6936, 2, 209, 5.65], [8648, 2, 168, 5.46], [205, 2, 81, 2.35], [593, 2, 171, 3.32], [8650, 2, 168, 5.19], [145, 2, 113, 3.31], [146, 2, 113, 3.43], [326, 2, 81, 3.07], [5493, 2, 113, 1.57], [7036, 1, 97, 5.41], [2049, 3, 429, 3.11], [141, 2, 117, 3.11], [1446, 2, 140, 2.34], [206, 2, 33, 2.33], [1124, 2, 172, 2.73], [9760, 29, 66, 3.12], [362, 2, 107, 3.34], [2055, 3, 375, 2.33], [2912, 1, 44, 2.59], [10993, 2, 49, 1.84], [12870, 1, 103, 5.58], [3893, 1, 94, 3.1], [5165, 1, 44, 2.5], [9372, 1, 211, 4.09], [7886, 4, 133, 1.64], [2054, 3, 166, 3.07], [3889, 1, 94, 3.61], [2050, 3, 375, 2.44], [1622, 1, 100, 1.42], [3891, 1, 94, 3.15], [21793, 1, 222, 2.06], [7885, 4, 32, 1.42], [7573, 1, 276, 5.69], [10, 2, 93, 2.77], [5208, 3, 522, 1.87], [10149, 3, 662, 4.5], [75, 2, 108, 4.27], [997, 2, 179, 4.71], [3, 2, 91, 3.71], [11234, 2, 170, 2.39], [5165, 2, 354, 2.35], [12721, 2, 210, 4.69], [998, 2, 179, 3.89], [35, 1, 39, 3.84], [1886, 2, 117, 3.42], [972, 3, 444, 3.65], [22247, 2, 261, 3.11], [9491, 21, 1587, 3.27], [996, 2, 174, 5.39], [955, 2, 100, 1.84], [33, 1, 83, 3.95], [229, 1, 63, 3.9], [6158, 2, 241, 2.39], [76, 2, 82, 3.48], [413, 1, 20, 3.93], [2424, 80, 157, 3.61], [34, 1, 83, 3.87]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.34], [11685, 2, 4, 1.87], [326, 2, 5, 0.7], [8648, 2, 4, 0.71], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [593, 2, 5, 0.52], [11681, 2, 5, 1.37], [305, 2, 4, 0.51], [143, 2, 4, 0.76], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [2778, 2, 5, 0.2], [6936, 2, 5, 1.85], [2049, 3, 8, 0.2], [146, 2, 4, 0.82], [88, 10, 12, 0.2], [7004, 1, 4, 0.61], [615, 2, 4, 0.62], [7036, 1, 4, 1.48], [145, 2, 4, 0.73], [362, 2, 4, 0.5], [8853, 2, 5, 1.2], [2055, 3, 6, 1.74], [10993, 2, 4, 0.63], [11737, 2, 5, 0.2], [3840, 1, 4, 0.38], [159, 3, 6, 0.2], [523, 2, 4, 0.53], [12870, 1, 4, 1.17], [2057, 3, 5, 1.78], [3889, 1, 4, 0.6], [10574, 3, 5, 0.53], [13280, 1, 4, 0.75], [7084, 3, 5, 0.28], [20927, 1, 4, 0.61], [2054, 3, 4, 0.78], [997, 2, 5, 0.78], [3, 2, 4, 0.53], [3982, 3, 14, 1.18], [21793, 1, 4, 1.09], [10, 2, 4, 0.39], [3891, 1, 4, 0.53], [61, 3, 4, 1.23], [998, 2, 4, 0.69], [11739, 2, 4, 0.73], [7885, 4, 5, 0.2], [6158, 2, 6, 0.2], [8672, 2, 5, 0.73], [5165, 1, 4, 0.67], [972, 3, 4, 1.77], [5165, 2, 5, 0.66], [346, 3, 4, 0.87], [3980, 4, 4, 1.19], [9372, 1, 4, 1.49], [411, 2, 4, 0.65], [2912, 1, 4, 0.91], [956, 2, 4, 0.39], [10388, 2, 4, 1.33], [214, 3, 9, 0.38], [9491, 21, 12, 0.29], [3981, 3, 13, 1.15], [346, 1, 4, 0.99], [1492, 1, 4, 0.46], [995, 2, 4, 1.16], [7573, 1, 5, 0.93], [33, 1, 4, 2.08], [22316, 3, 4, 0.51], [7886, 4, 4, 0.24], [13928, 1, 4, 0.47], [10386, 2, 4, 0.36], [336, 15, 4, 0.37], [161, 3, 5, 1.51], [35, 1, 4, 1.58], [7567, 3, 4, 0.71], [11770, 1, 5, 0.2], [2912, 2, 5, 2.03], [308, 1, 4, 1.07], [10631, 2, 4, 1.27], [11490, 1, 4, 0.8], [229, 1, 4, 1.25], [11953, 1, 5, 0.22], [83, 2, 4, 0.67], [22317, 3, 6, 0.51], [10780, 10, 4, 1.58], [414, 1, 4, 0.51], [10407, 10, 6, 1.35], [10149, 3, 15, 1.47], [10410, 10, 6, 1.31], [12271, 2, 4, 1.76], [972, 1, 5, 1.76], [6497, 1, 4, 0.47], [1413, 15, 4, 0.28], [23611, 3, 4, 0.2], [11767, 1, 4, 0.43], [345, 3, 4, 0.76], [8104, 1, 4, 0.38], [37, 1, 4, 0.91], [3478, 2, 4, 0.52], [74, 1, 4, 2.85], [39, 1, 4, 0.43], [10387, 2, 4, 0.37], [9971, 2, 4, 1.0], [4076, 3, 4, 1.19], [3048, 3, 4, 0.46], [152, 21, 4, 0.59], [34, 1, 4, 0.68], [24257, 1, 4, 1.38], [2331, 1, 4, 1.35], [82, 2, 4, 0.41], [20498, 3, 5, 0.73], [4001, 3, 8, 1.13], [4253, 1, 4, 0.73], [11510, 3, 5, 0.5], [45, 2, 4, 2.7], [9, 1, 4, 0.36], [416, 1, 4, 0.51], [215, 4, 4, 0.95], [12338, 29, 4, 0.39], [10936, 2, 4, 0.45], [12764, 2, 6, 0.58], [9965, 2, 4, 2.17], [202, 2, 4, 0.38], [1523, 1, 4, 0.64], [1895, 3, 4, 0.74], [105, 3, 4, 0.51], [12858, 1, 5, 0.22], [1080, 3, 4, 0.46], [2805, 137, 8, 0.94], [11489, 1, 4, 0.39], [8635, 3, 4, 1.26], [7705, 2, 4, 1.2], [3047, 3, 4, 0.9], [10093, 3, 9, 0.9], [6935, 2, 188, 5.01], [11685, 2, 221, 5.55], [326, 2, 88, 3.24], [8648, 2, 217, 3.51], [589, 2, 124, 2.8], [2327, 2, 111, 2.93], [593, 2, 187, 2.96], [11681, 2, 221, 5.54], [305, 2, 119, 3.13], [143, 2, 120, 3.63], [141, 2, 125, 3.78], [8650, 2, 217, 3.05], [2778, 2, 126, 3.26], [6936, 2, 188, 6.0], [2049, 3, 445, 3.07], [146, 2, 123, 3.76], [88, 10, 471, 3.03], [7004, 1, 76, 1.97], [615, 2, 89, 3.8], [7036, 1, 104, 4.47], [145, 2, 55, 3.54], [362, 2, 114, 3.11], [8853, 2, 188, 4.57], [2055, 3, 371, 5.61], [10993, 2, 51, 2.01], [11737, 2, 40, 3.02], [3840, 1, 166, 1.53], [159, 3, 583, 2.54], [523, 2, 125, 3.25], [12870, 1, 108, 5.39], [2057, 3, 371, 5.72], [3889, 1, 120, 1.96], [10574, 3, 374, 1.7], [13280, 1, 303, 3.38], [7084, 3, 106, 3.63], [20927, 1, 76, 2.35], [2054, 3, 437, 4.28], [997, 2, 188, 3.19], [3, 2, 118, 1.82], [3982, 3, 642, 4.54], [21793, 1, 233, 2.97], [10, 2, 102, 1.55], [3891, 1, 120, 1.82], [61, 3, 199, 3.17], [998, 2, 188, 3.02], [11739, 2, 46, 2.86], [7885, 4, 135, 1.5], [6158, 2, 213, 3.44], [8672, 2, 232, 4.88], [5165, 1, 46, 2.09], [5165, 2, 367, 1.95], [346, 3, 584, 2.49], [3980, 4, 377, 4.05], [9372, 1, 219, 3.75], [411, 2, 105, 2.05], [2912, 1, 46, 2.55], [956, 2, 103, 1.55], [10388, 2, 169, 3.83], [214, 3, 629, 1.5], [9491, 21, 1669, 2.55], [3981, 3, 1258, 3.84], [346, 1, 146, 2.71], [1492, 1, 36, 1.69], [995, 2, 188, 3.92], [7573, 1, 334, 4.65], [22316, 3, 247, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[2049, 3, 10, 0.24], [326, 2, 5, 0.47], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 4, 0.74], [1776, 1, 4, 0.58], [130, 1, 4, 0.5], [8672, 2, 6, 0.72], [20252, 2, 4, 0.44], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [1777, 1, 4, 0.93], [6936, 2, 6, 1.27], [593, 2, 6, 0.2], [11681, 2, 5, 2.33], [8648, 2, 5, 0.77], [206, 2, 4, 0.2], [151, 1, 4, 0.44], [88, 10, 12, 0.58], [2328, 2, 5, 0.2], [83, 2, 4, 0.5], [8650, 2, 5, 1.15], [5151, 2, 4, 1.15], [2050, 3, 5, 0.66], [412, 1, 4, 0.91], [361, 2, 4, 0.49], [144, 2, 4, 0.75], [2991, 3, 4, 2.17], [21798, 1, 4, 0.36], [57, 1, 5, 0.2], [10149, 3, 15, 1.32], [76, 2, 4, 0.86], [21793, 1, 4, 1.03], [2054, 3, 4, 1.35], [146, 2, 4, 0.56], [3478, 2, 4, 0.45], [45, 2, 4, 1.12], [143, 2, 4, 0.46], [7004, 1, 5, 0.47], [2057, 3, 4, 1.61], [167, 3, 5, 1.09], [168, 3, 6, 0.74], [74, 1, 4, 0.84], [346, 1, 4, 0.2], [84, 2, 4, 1.54], [3495, 3, 15, 0.92], [335, 3, 11, 0.39], [7036, 1, 4, 1.96], [432, 3, 4, 0.39], [5081, 2, 4, 0.2], [214, 3, 9, 0.42], [10, 2, 4, 0.67], [13028, 3, 4, 0.5], [7887, 4, 4, 0.4], [11404, 2, 5, 0.2], [8649, 2, 4, 1.15], [12870, 1, 4, 2.58], [410, 1, 4, 0.2], [79, 1, 4, 0.2], [142, 2, 4, 0.51], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [3889, 1, 4, 0.27], [3893, 1, 5, 0.2], [1492, 1, 4, 0.2], [5812, 3, 5, 1.22], [1504, 2, 6, 0.2], [94, 4, 4, 0.26], [9827, 3, 4, 0.2], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [13260, 29, 4, 0.85], [3891, 1, 4, 0.2], [1490, 1, 5, 0.2], [998, 2, 4, 0.69], [10574, 3, 5, 0.43], [21269, 3, 4, 1.45], [7567, 3, 4, 1.37], [9069, 1, 4, 1.62], [5086, 1, 6, 1.11], [11954, 1, 4, 0.48], [2878, 1, 5, 0.54], [1243, 2, 4, 1.13], [997, 2, 4, 1.37], [9691, 1, 4, 1.65], [20927, 1, 4, 0.61], [5209, 3, 5, 0.19], [1703, 2, 4, 1.13], [11914, 1, 5, 0.2], [1124, 2, 5, 0.21], [856, 1, 4, 0.48], [5660, 2, 5, 1.05], [5584, 3, 4, 0.44], [1070, 7, 11, 0.38], [8274, 3, 5, 1.09], [11811, 1, 4, 1.0], [1519, 3, 12, 0.22], [23961, 3, 4, 2.43], [8898, 3, 4, 2.67], [952, 4, 4, 2.64], [1091, 1, 4, 0.2], [22317, 3, 5, 0.51], [9081, 3, 9, 1.03], [24, 1, 5, 0.95], [5513, 2, 4, 0.52], [13034, 3, 6, 1.01], [12661, 1, 4, 2.35], [336, 15, 4, 0.2], [11767, 1, 4, 0.47], [1413, 15, 4, 0.37], [20498, 1, 4, 2.08], [6097, 80, 4, 0.41], [9760, 29, 4, 0.2], [9082, 3, 18, 0.92], [8945, 3, 6, 2.49], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [1163, 3, 5, 0.22], [6097, 29, 4, 0.34], [2109, 3, 9, 0.24], [995, 2, 4, 1.23], [82, 2, 4, 0.35], [20498, 3, 5, 2.0], [11769, 1, 4, 0.47], [972, 3, 5, 0.51], [9372, 1, 4, 1.47], [6098, 80, 4, 0.9], [2104, 3, 6, 1.38], [5813, 3, 4, 1.06], [8635, 3, 5, 0.6], [10780, 10, 4, 2.08], [34, 1, 4, 0.47], [2049, 3, 458, 2.3], [326, 2, 65, 2.88], [6935, 2, 236, 4.45], [362, 2, 117, 3.72], [589, 2, 134, 1.15], [141, 2, 111, 2.89], [75, 2, 103, 3.77], [1776, 1, 81, 2.97], [130, 1, 51, 2.31], [8672, 2, 246, 2.81], [20252, 2, 81, 1.5], [7886, 4, 105, 2.04], [2778, 2, 111, 2.96], [305, 2, 104, 2.78], [1777, 1, 90, 3.63], [6936, 2, 201, 4.58], [593, 2, 162, 2.73], [11681, 2, 193, 6.0], [8648, 2, 159, 5.11], [206, 2, 95, 1.61], [151, 1, 53, 2.46], [88, 10, 398, 4.25], [2328, 2, 108, 2.84], [83, 2, 47, 1.61], [8650, 2, 159, 5.15], [5151, 2, 18, 3.14], [2050, 3, 336, 3.11], [412, 1, 60, 3.58], [361, 2, 134, 1.59], [144, 2, 108, 2.84], [2991, 3, 115, 5.54], [21798, 1, 121, 1.6], [57, 1, 54, 2.6], [10149, 3, 676, 4.91], [76, 2, 77, 4.16], [21793, 1, 171, 5.53], [146, 2, 108, 3.51], [3478, 2, 66, 1.52], [45, 2, 77, 4.55], [143, 2, 106, 2.75], [7004, 1, 50, 2.18], [2057, 3, 328, 3.84], [167, 3, 161, 3.91], [168, 3, 289, 3.28], [74, 1, 140, 4.42], [346, 1, 113, 2.71], [84, 2, 59, 3.68], [3495, 3, 679, 3.48], [335, 3, 951, 4.78], [7036, 1, 90, 4.74], [432, 3, 261, 2.26], [5081, 2, 135, 2.9], [214, 3, 565, 1.42], [13028, 3, 105, 2.83], [7887, 4, 122, 1.42], [11404, 2, 66, 2.34], [8649, 2, 159, 4.87], [12870, 1, 98, 6.0], [410, 1, 76, 2.64], [79, 1, 34, 1.75], [142, 2, 134, 1.63], [145, 2, 132, 1.48], [5208, 3, 489, 1.96], [3889, 1, 89, 3.61], [3893, 1, 89, 3.08]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.26], [8915, 2, 5, 0.21], [2327, 2, 4, 0.52], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.51], [615, 2, 4, 0.62], [5493, 2, 4, 0.2], [616, 2, 4, 0.55], [326, 2, 5, 1.22], [6936, 2, 5, 1.66], [8650, 2, 5, 2.03], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [143, 2, 4, 1.19], [144, 2, 5, 1.04], [593, 2, 5, 0.4], [10, 2, 5, 0.67], [5491, 2, 4, 0.51], [7036, 1, 4, 1.2], [3893, 1, 4, 0.2], [1124, 2, 4, 0.95], [146, 2, 5, 1.07], [7885, 4, 4, 0.49], [7886, 4, 6, 0.44], [3891, 1, 4, 0.2], [75, 2, 5, 1.24], [362, 2, 4, 0.52], [5208, 3, 5, 0.21], [21793, 1, 4, 0.61], [3889, 1, 5, 0.2], [2054, 3, 4, 0.75], [3980, 4, 6, 1.21], [7084, 3, 4, 1.32], [12870, 1, 4, 1.93], [2050, 3, 5, 0.55], [145, 2, 4, 1.25], [5165, 1, 4, 0.86], [10149, 3, 13, 1.47], [13028, 3, 4, 1.36], [8672, 2, 5, 1.19], [2912, 1, 4, 1.02], [998, 2, 4, 0.31], [20927, 1, 4, 1.51], [9760, 29, 4, 0.2], [997, 2, 4, 1.02], [1886, 2, 4, 0.44], [2436, 4, 4, 0.68], [3, 2, 4, 0.37], [7887, 4, 4, 0.97], [972, 3, 5, 0.51], [214, 3, 9, 0.42], [6158, 2, 4, 0.44], [2424, 80, 4, 0.86], [229, 1, 4, 0.91], [955, 2, 4, 0.52], [346, 3, 5, 0.2], [5076, 1, 4, 0.81], [3495, 3, 13, 0.92], [74, 1, 4, 2.78], [5165, 2, 5, 0.86], [11953, 1, 4, 0.45], [996, 2, 4, 1.02], [11770, 1, 4, 0.2], [12721, 2, 4, 1.13], [9491, 21, 12, 0.22], [22316, 3, 4, 0.6], [1492, 1, 4, 0.2], [7573, 1, 9, 2.21], [9372, 1, 4, 1.33], [11772, 1, 4, 0.21], [2423, 80, 5, 1.72], [2912, 2, 7, 1.86], [2438, 2, 5, 1.88], [3975, 4, 5, 1.26], [11952, 1, 4, 0.85], [6497, 1, 4, 1.11], [5584, 3, 4, 2.61], [346, 1, 4, 0.95], [5209, 3, 5, 0.21], [5434, 1, 4, 1.08], [24257, 1, 4, 0.48], [823, 1, 4, 0.44], [9082, 3, 19, 0.83], [335, 3, 9, 0.87], [10407, 10, 7, 1.19], [1622, 1, 4, 0.49], [8898, 3, 4, 4.0], [2424, 29, 4, 0.37], [12764, 2, 8, 0.23], [8676, 2, 4, 1.22], [6496, 1, 4, 1.31], [3900, 3, 4, 1.65], [5946, 1, 4, 0.53], [11490, 1, 4, 0.48], [33, 1, 4, 0.66], [10388, 2, 4, 0.7], [2805, 137, 4, 1.25], [1339, 3, 10, 0.36], [7567, 3, 4, 1.33], [972, 1, 4, 0.68], [1703, 2, 4, 0.5], [13893, 2, 4, 0.91], [6805, 1, 5, 0.26], [6097, 80, 4, 0.41], [22247, 2, 4, 1.14], [2104, 3, 9, 1.27], [1163, 3, 4, 0.46], [11814, 1, 4, 0.48], [1414, 15, 4, 0.45], [8635, 3, 4, 1.12], [38, 1, 4, 0.91], [9784, 1, 4, 0.58], [1895, 3, 4, 1.49], [1274, 1, 4, 0.23], [95, 3, 15, 0.19], [11116, 1, 4, 0.56], [8283, 2, 5, 1.21], [788, 2, 4, 0.38], [8104, 1, 4, 0.93], [10386, 2, 4, 0.85], [12212, 29, 4, 0.52], [8274, 3, 4, 0.87], [114, 3, 4, 1.28], [9690, 1, 4, 0.22], [8659, 1, 4, 0.41], [19931, 1, 4, 1.26], [76, 2, 4, 0.55], [9065, 2, 4, 0.72], [4232, 80, 4, 0.38], [418, 2, 4, 0.65], [12979, 25, 7, 0.58], [12501, 1, 4, 1.24], [589, 2, 115, 2.97], [88, 10, 421, 3.17], [8915, 2, 170, 2.69], [2327, 2, 113, 3.34], [6935, 2, 209, 6.0], [2778, 2, 118, 3.31], [305, 2, 110, 3.21], [2328, 2, 113, 3.78], [615, 2, 101, 3.09], [5493, 2, 113, 1.57], [616, 2, 101, 1.9], [326, 2, 81, 3.85], [6936, 2, 209, 5.65], [8650, 2, 168, 5.79], [1446, 2, 119, 3.63], [143, 2, 111, 3.59], [144, 2, 111, 3.68], [593, 2, 171, 3.32], [10, 2, 31, 3.03], [5491, 2, 100, 1.82], [7036, 1, 97, 5.41], [3893, 1, 94, 3.1], [1124, 2, 172, 2.73], [146, 2, 113, 3.79], [7885, 4, 32, 1.42], [7886, 4, 50, 1.69], [3891, 1, 94, 3.15], [75, 2, 129, 4.27], [362, 2, 107, 3.49], [5208, 3, 522, 1.87], [21793, 1, 222, 2.06], [3889, 1, 94, 3.61], [2054, 3, 442, 2.68], [3980, 4, 426, 4.28], [7084, 3, 99, 3.94], [12870, 1, 103, 5.58], [2050, 3, 375, 2.33], [145, 2, 113, 3.54], [5165, 1, 44, 2.5], [10149, 3, 662, 4.5], [13028, 3, 134, 3.45], [8672, 2, 211, 5.36], [2912, 1, 44, 3.71], [998, 2, 179, 3.89], [9760, 29, 54, 3.6], [997, 2, 221, 3.08], [1886, 2, 145, 1.69], [2436, 4, 107, 2.19], [3, 2, 108, 3.71], [972, 3, 444, 3.65], [214, 3, 607, 1.59], [6158, 2, 241, 2.39], [2424, 80, 157, 3.61], [229, 1, 63, 3.28], [955, 2, 100, 1.84], [346, 3, 473, 3.2], [5076, 1, 122, 2.79], [3495, 3, 716, 4.0], [74, 1, 173, 6.0], [5165, 2, 354, 2.35], [11953, 1, 186, 1.71], [996, 2, 221, 2.8], [11770, 1, 163, 3.6], [12721, 2, 261, 3.02], [9491, 21, 1587, 3.27]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [205, 2, 5, 0.26], [5493, 2, 4, 0.37], [6936, 2, 5, 1.35], [616, 2, 4, 0.47], [88, 10, 11, 0.2], [2049, 3, 8, 0.2], [144, 2, 5, 0.47], [8648, 2, 4, 0.71], [326, 2, 5, 0.7], [589, 2, 5, 0.2], [11681, 2, 5, 1.37], [7036, 1, 4, 1.23], [8650, 2, 6, 0.96], [593, 2, 5, 0.52], [2327, 2, 5, 0.29], [141, 2, 5, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.61], [3840, 1, 4, 0.38], [3891, 1, 4, 0.53], [2050, 3, 5, 1.69], [146, 2, 5, 1.07], [3980, 4, 5, 1.19], [2055, 3, 4, 1.74], [143, 2, 5, 0.51], [3889, 1, 4, 0.6], [10, 2, 4, 0.39], [7885, 4, 5, 0.2], [2054, 3, 5, 1.86], [7886, 4, 4, 0.65], [8672, 2, 5, 0.73], [12870, 1, 5, 0.92], [10993, 2, 4, 0.63], [2057, 3, 5, 1.78], [5165, 1, 4, 0.67], [7084, 3, 4, 0.28], [145, 2, 4, 1.03], [21793, 1, 4, 1.09], [523, 2, 4, 0.78], [159, 3, 5, 0.37], [7005, 1, 4, 0.47], [3981, 3, 13, 1.42], [3982, 3, 11, 1.18], [142, 2, 5, 0.52], [20927, 1, 4, 0.92], [33, 1, 4, 1.58], [956, 2, 4, 0.39], [997, 2, 5, 1.43], [6158, 2, 6, 0.43], [214, 3, 11, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.66], [22316, 3, 5, 0.51], [2912, 1, 4, 0.91], [11953, 1, 5, 0.22], [35, 1, 4, 1.58], [229, 1, 4, 1.25], [998, 2, 4, 0.92], [346, 3, 5, 0.21], [82, 2, 4, 0.41], [6497, 1, 4, 0.47], [389, 4, 5, 0.88], [996, 2, 6, 1.47], [5946, 1, 4, 0.53], [1492, 1, 4, 0.46], [972, 3, 4, 1.51], [7567, 3, 4, 1.47], [11767, 1, 4, 0.43], [192, 3, 9, 1.01], [11490, 1, 4, 0.48], [6496, 1, 5, 0.55], [4176, 4, 5, 1.31], [74, 1, 5, 0.62], [411, 2, 4, 0.65], [1413, 15, 4, 0.28], [22317, 3, 5, 0.51], [2104, 3, 8, 0.2], [4253, 1, 4, 0.73], [2912, 2, 5, 0.88], [8677, 3, 5, 0.9], [2436, 4, 4, 0.44], [336, 15, 5, 0.37], [39, 1, 4, 0.51], [12212, 29, 4, 0.49], [37, 1, 4, 0.66], [201, 3, 4, 0.51], [345, 3, 4, 0.76], [11085, 2, 5, 1.53], [1274, 1, 4, 0.73], [1277, 1, 4, 0.36], [13023, 3, 4, 1.26], [21269, 3, 4, 2.99], [6494, 1, 4, 0.2], [12271, 2, 4, 0.84], [8676, 2, 4, 0.98], [22247, 2, 4, 1.39], [3979, 3, 5, 1.18], [3, 2, 4, 0.71], [823, 1, 4, 0.49], [10408, 10, 6, 1.64], [36, 1, 4, 0.91], [10388, 2, 5, 1.14], [9784, 1, 4, 0.72], [10631, 2, 4, 1.73], [2805, 137, 8, 0.94], [9, 1, 4, 0.36], [10936, 2, 4, 0.45], [202, 2, 4, 0.38], [1414, 15, 4, 0.45], [11489, 1, 4, 0.39], [8675, 2, 4, 1.02], [3048, 3, 4, 1.17], [161, 3, 5, 1.51], [13928, 1, 4, 0.47], [346, 1, 5, 0.3], [9372, 1, 4, 1.49], [12764, 2, 6, 0.58], [12225, 1, 4, 0.69], [11814, 1, 4, 0.23], [13280, 1, 4, 0.75], [10386, 2, 4, 0.36], [10407, 10, 6, 1.35], [4076, 3, 4, 1.19], [8898, 3, 4, 1.18], [79, 1, 4, 0.48], [2878, 1, 4, 0.39], [11089, 1, 4, 0.57], [13035, 3, 4, 1.32], [491, 10, 6, 0.93], [3576, 25, 4, 0.52], [23611, 3, 5, 0.5], [972, 1, 4, 0.5], [6935, 2, 188, 5.01], [305, 2, 119, 3.13], [615, 2, 95, 2.87], [2778, 2, 126, 3.26], [205, 2, 26, 2.28], [5493, 2, 104, 1.79], [6936, 2, 188, 5.39], [616, 2, 105, 1.7], [88, 10, 471, 3.03], [2049, 3, 445, 3.07], [144, 2, 100, 3.64], [8648, 2, 184, 4.9], [326, 2, 88, 2.74], [589, 2, 124, 2.8], [11681, 2, 221, 5.54], [7036, 1, 104, 4.47], [8650, 2, 184, 4.67], [593, 2, 187, 2.96], [2327, 2, 123, 3.18], [141, 2, 125, 3.78], [206, 2, 39, 1.86], [7004, 1, 76, 1.97], [3840, 1, 166, 1.53], [3891, 1, 120, 1.82], [2050, 3, 371, 5.52], [146, 2, 123, 3.76], [3980, 4, 391, 4.56], [2055, 3, 371, 5.61], [143, 2, 120, 3.14], [3889, 1, 120, 1.96], [10, 2, 102, 1.55], [7885, 4, 34, 1.47], [2054, 3, 371, 5.86], [8672, 2, 232, 4.88], [12870, 1, 111, 5.91], [10993, 2, 51, 2.01], [2057, 3, 371, 5.72], [5165, 1, 46, 2.09], [7084, 3, 106, 3.63], [145, 2, 123, 3.54], [21793, 1, 233, 2.97], [523, 2, 125, 3.25], [159, 3, 687, 1.46], [7005, 1, 76, 1.81], [3981, 3, 1311, 4.22], [3982, 3, 642, 4.54], [142, 2, 125, 3.14], [20927, 1, 47, 2.98], [956, 2, 103, 1.55], [997, 2, 58, 5.09], [6158, 2, 213, 3.44], [214, 3, 534, 1.88], [5165, 2, 367, 1.95], [22316, 3, 247, 2.67], [2912, 1, 46, 2.55], [11953, 1, 159, 2.59], [229, 1, 65, 3.21], [346, 3, 484, 2.59], [82, 2, 58, 1.62], [6497, 1, 36, 1.7], [389, 4, 138, 4.2], [996, 2, 196, 4.95], [5946, 1, 120, 1.82], [1492, 1, 36, 1.69]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.2], [2328, 2, 4, 0.2], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [2327, 2, 5, 0.26], [5493, 2, 4, 0.37], [589, 2, 5, 0.27], [8672, 2, 6, 0.66], [326, 2, 4, 1.37], [6935, 2, 9, 1.31], [205, 2, 4, 0.36], [206, 2, 4, 0.2], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [6936, 2, 4, 1.5], [8915, 2, 5, 0.2], [2049, 3, 11, 0.2], [2778, 2, 6, 0.22], [1446, 2, 4, 0.2], [8676, 2, 4, 0.52], [305, 2, 5, 0.98], [615, 2, 4, 0.47], [593, 2, 5, 0.36], [21793, 1, 4, 1.62], [616, 2, 4, 0.48], [413, 1, 4, 0.66], [411, 2, 4, 0.2], [10574, 3, 6, 1.51], [412, 1, 4, 0.85], [8675, 2, 6, 0.98], [8673, 2, 5, 0.72], [143, 2, 4, 0.5], [6158, 2, 5, 0.89], [151, 1, 4, 0.45], [11836, 2, 5, 0.2], [10149, 3, 13, 0.75], [2050, 3, 5, 0.34], [3495, 3, 13, 1.28], [146, 2, 4, 0.49], [2054, 3, 5, 0.51], [75, 2, 5, 1.67], [88, 10, 9, 0.95], [7885, 4, 5, 0.69], [416, 1, 4, 0.66], [144, 2, 4, 0.47], [21798, 1, 4, 0.36], [10993, 2, 4, 0.65], [2859, 15, 4, 0.52], [346, 3, 5, 1.02], [335, 3, 10, 0.87], [2423, 80, 4, 0.79], [7705, 2, 4, 0.9], [2424, 29, 4, 1.45], [214, 3, 9, 1.24], [2423, 29, 4, 0.72], [7704, 2, 4, 0.9], [9784, 1, 4, 0.52], [5165, 1, 4, 0.65], [3848, 2, 4, 1.01], [13023, 3, 6, 1.51], [2424, 80, 4, 1.48], [346, 1, 4, 0.94], [1519, 3, 10, 0.22], [201, 3, 4, 1.01], [410, 1, 4, 0.55], [13034, 3, 5, 1.37], [345, 3, 4, 1.04], [5208, 3, 5, 0.48], [11490, 1, 4, 0.42], [6494, 1, 4, 0.48], [11770, 1, 4, 1.72], [432, 3, 5, 2.04], [7004, 1, 4, 0.41], [12373, 1, 5, 1.06], [308, 1, 5, 1.24], [2703, 3, 4, 0.83], [3430, 15, 4, 0.91], [7706, 2, 4, 0.8], [6952, 1, 4, 0.48], [20927, 1, 4, 0.7], [114, 3, 4, 0.2], [1886, 2, 4, 0.44], [3429, 15, 4, 0.42], [7886, 4, 6, 0.44], [94, 4, 4, 0.53], [1492, 1, 4, 1.09], [13928, 1, 4, 0.47], [105, 3, 4, 0.47], [11811, 1, 4, 0.94], [3981, 3, 9, 0.51], [3893, 1, 4, 1.47], [2331, 1, 4, 0.69], [3891, 1, 4, 1.47], [11089, 1, 4, 0.81], [10407, 10, 6, 1.9], [3, 2, 4, 1.8], [1490, 1, 4, 1.03], [13033, 3, 4, 0.5], [22317, 3, 5, 0.47], [5584, 3, 4, 3.29], [11674, 1, 4, 0.35], [944, 15, 4, 0.4], [1274, 1, 4, 0.36], [952, 4, 4, 1.83], [10410, 10, 6, 1.9], [7708, 2, 4, 0.9], [5812, 3, 4, 1.51], [9690, 1, 4, 1.2], [9342, 2, 4, 0.57], [10409, 10, 6, 1.67], [5946, 1, 4, 1.47], [202, 2, 4, 0.62], [1339, 3, 10, 0.36], [10398, 2, 4, 1.36], [8898, 3, 4, 0.47], [95, 3, 8, 2.52], [957, 2, 4, 0.54], [963, 3, 4, 0.93], [21003, 2, 4, 0.48], [1339, 1, 4, 0.43], [3478, 2, 4, 0.45], [20969, 3, 4, 0.86], [7703, 2, 4, 0.9], [11677, 1, 4, 1.16], [10516, 3, 5, 0.37], [823, 1, 4, 0.41], [9082, 3, 15, 0.83], [3980, 4, 5, 1.26], [14041, 3, 4, 1.27], [186, 3, 7, 0.45], [20196, 2, 4, 0.96], [3889, 1, 4, 1.47], [4253, 1, 4, 1.02], [141, 2, 120, 3.41], [2328, 2, 116, 4.39], [8650, 2, 173, 4.85], [5491, 2, 100, 1.58], [2327, 2, 116, 4.36], [5493, 2, 100, 1.96], [589, 2, 119, 3.07], [8672, 2, 220, 4.44], [326, 2, 84, 3.57], [6935, 2, 216, 6.0], [205, 2, 72, 1.55], [206, 2, 101, 1.7], [11838, 2, 205, 3.55], [12721, 2, 217, 3.99], [6936, 2, 216, 5.11], [2049, 3, 143, 3.44], [2778, 2, 144, 3.37], [1446, 2, 119, 2.17], [8676, 2, 265, 1.93], [305, 2, 115, 3.43], [615, 2, 101, 1.83], [593, 2, 153, 1.5], [21793, 1, 219, 4.86], [616, 2, 101, 1.85], [413, 1, 80, 2.2], [411, 2, 85, 2.15], [10574, 3, 383, 4.64], [412, 1, 77, 3.2], [8675, 2, 220, 4.47], [8673, 2, 259, 4.94], [143, 2, 137, 1.89], [6158, 2, 242, 3.08], [151, 1, 61, 1.83], [11836, 2, 205, 3.39], [10149, 3, 815, 4.12], [2050, 3, 369, 2.68], [3495, 3, 888, 3.48], [146, 2, 140, 1.87], [2054, 3, 375, 2.73], [75, 2, 110, 5.24], [88, 10, 516, 4.25], [7885, 4, 37, 1.91], [416, 1, 80, 2.2], [144, 2, 137, 1.83], [21798, 1, 129, 1.89], [10993, 2, 49, 2.18], [2859, 15, 64, 1.93], [346, 3, 553, 3.98], [335, 3, 1178, 4.78], [2423, 80, 170, 3.16], [7705, 2, 163, 3.42], [2424, 29, 31, 3.72], [214, 3, 337, 4.39], [2423, 29, 34, 3.1], [7704, 2, 163, 3.42], [9784, 1, 67, 1.93], [5165, 1, 44, 2.95], [3848, 2, 155, 2.87], [13023, 3, 545, 3.74], [2424, 80, 154, 3.78], [346, 1, 139, 3.74], [1519, 3, 1275, 3.06], [201, 3, 228, 4.48], [410, 1, 97, 1.99], [13034, 3, 539, 3.62], [345, 3, 277, 2.93], [5208, 3, 521, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 6, 0.2], [6935, 2, 7, 1.55], [6936, 2, 4, 1.17], [305, 2, 4, 0.23], [8672, 2, 5, 0.66], [1504, 2, 6, 0.58], [615, 2, 4, 0.2], [12721, 2, 5, 0.72], [2327, 2, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.87], [2328, 2, 4, 0.26], [11681, 2, 5, 0.46], [205, 2, 5, 0.37], [5491, 2, 4, 0.2], [8676, 2, 4, 0.6], [8673, 2, 5, 0.73], [11835, 2, 4, 0.55], [8650, 2, 5, 1.28], [144, 2, 5, 0.78], [308, 1, 5, 1.73], [11837, 2, 4, 0.55], [3, 2, 5, 0.66], [6097, 80, 5, 2.11], [22247, 2, 5, 1.21], [11836, 2, 5, 0.2], [6497, 1, 4, 0.2], [6097, 29, 4, 2.61], [2424, 29, 4, 0.37], [6098, 80, 4, 2.34], [11739, 2, 4, 1.36], [2054, 3, 4, 0.62], [13260, 29, 4, 0.73], [6494, 1, 4, 0.48], [3429, 15, 4, 0.36], [326, 2, 4, 0.66], [2424, 80, 4, 0.86], [75, 2, 4, 0.37], [335, 3, 10, 1.23], [1339, 1, 4, 0.43], [411, 2, 4, 0.46], [1492, 1, 4, 1.09], [1339, 3, 10, 0.36], [1050, 2, 4, 0.2], [6496, 1, 5, 1.05], [7704, 2, 4, 1.79], [214, 3, 9, 1.24], [346, 1, 4, 0.49], [346, 3, 5, 0.47], [2859, 15, 4, 0.72], [10149, 3, 13, 0.75], [345, 3, 4, 0.51], [13264, 29, 5, 0.52], [13258, 29, 4, 0.73], [1490, 1, 4, 1.03], [1243, 2, 4, 0.86], [22558, 3, 6, 0.21], [5208, 3, 10, 0.53], [201, 3, 4, 1.05], [229, 1, 4, 1.25], [10407, 10, 6, 1.9], [8943, 3, 4, 0.37], [432, 3, 4, 0.9], [2438, 1, 4, 0.62], [7705, 2, 4, 1.79], [2331, 1, 4, 0.91], [13259, 29, 4, 1.38], [2912, 1, 4, 0.96], [7706, 2, 4, 1.79], [12229, 2, 4, 0.45], [957, 2, 5, 0.76], [13928, 1, 4, 0.47], [114, 3, 4, 0.62], [3478, 2, 4, 0.45], [1163, 3, 4, 1.16], [1548, 1, 4, 1.09], [21793, 1, 4, 2.34], [9784, 1, 4, 0.74], [7036, 1, 4, 1.63], [8938, 2, 4, 0.58], [11844, 2, 4, 0.63], [11490, 1, 4, 0.46], [2703, 3, 4, 1.72], [11687, 2, 4, 0.79], [11404, 2, 4, 0.5], [13258, 25, 4, 0.73], [410, 1, 4, 0.55], [1886, 2, 4, 0.44], [159, 16, 4, 0.36], [9065, 2, 4, 0.84], [94, 4, 4, 0.6], [11690, 2, 4, 0.52], [19687, 1, 4, 0.43], [12870, 1, 4, 0.94], [413, 1, 4, 0.53], [7708, 2, 4, 1.79], [414, 1, 4, 0.61], [2438, 2, 5, 0.53], [11689, 2, 4, 0.77], [956, 2, 4, 0.57], [11161, 1, 5, 1.64], [11159, 1, 7, 1.23], [22125, 2, 4, 0.36], [5976, 1, 4, 0.85], [9760, 29, 4, 0.85], [21781, 2, 4, 0.47], [12373, 1, 5, 1.42], [105, 3, 4, 0.62], [7005, 1, 4, 0.81], [1274, 1, 4, 2.11], [5584, 3, 4, 3.29], [2991, 3, 4, 1.0], [2805, 137, 5, 1.09], [13259, 25, 4, 1.35], [11811, 1, 4, 0.94], [9785, 1, 4, 0.74], [4253, 1, 4, 0.48], [3495, 3, 13, 1.28], [20927, 1, 4, 0.7], [8600, 1, 4, 1.1], [9209, 29, 4, 0.37], [11489, 1, 4, 0.46], [9372, 1, 4, 1.06], [247, 1, 4, 1.31], [10147, 1, 4, 0.36], [9690, 1, 4, 1.2], [9491, 21, 10, 1.0], [6360, 10, 9, 0.65], [12764, 2, 5, 0.43], [8285, 2, 5, 0.49], [5769, 3, 6, 0.52], [7007, 1, 4, 0.81], [21269, 3, 4, 1.96], [5076, 1, 4, 0.91], [2778, 2, 141, 3.11], [6935, 2, 226, 6.0], [6936, 2, 256, 4.93], [305, 2, 113, 3.49], [8672, 2, 265, 3.11], [1504, 2, 156, 3.88], [615, 2, 113, 2.41], [12721, 2, 216, 4.22], [2327, 2, 116, 4.36], [143, 2, 114, 3.86], [146, 2, 116, 3.79], [2328, 2, 116, 4.39], [11681, 2, 250, 3.24], [5491, 2, 100, 1.54], [8676, 2, 220, 3.63], [8673, 2, 220, 5.48], [11835, 2, 248, 1.99], [8650, 2, 172, 6.0], [144, 2, 115, 3.95], [308, 1, 157, 5.12], [11837, 2, 248, 1.99], [3, 2, 93, 3.74], [6097, 80, 52, 5.96], [22247, 2, 216, 4.77], [11836, 2, 205, 3.47], [6497, 1, 30, 3.28], [6097, 29, 27, 6.0], [2424, 29, 31, 1.82], [11739, 2, 23, 3.34], [2054, 3, 375, 2.86], [13260, 29, 67, 3.21], [6494, 1, 47, 1.85], [3429, 15, 35, 1.56], [326, 2, 83, 2.88], [2424, 80, 156, 3.5], [75, 2, 134, 2.28], [335, 3, 1153, 3.91], [1339, 1, 67, 1.76], [411, 2, 100, 2.05], [1492, 1, 34, 3.03], [1339, 3, 1618, 1.61], [1050, 2, 44, 1.45], [6496, 1, 36, 4.1], [7704, 2, 162, 4.38], [214, 3, 337, 4.39], [346, 1, 143, 1.87], [346, 3, 573, 1.76], [2859, 15, 63, 3.73], [10149, 3, 809, 2.42], [345, 3, 276, 2.94], [13264, 29, 66, 3.03], [13258, 29, 36, 3.54], [1490, 1, 45, 4.84], [1243, 2, 90, 4.17], [22558, 3, 368, 3.76], [5208, 3, 438, 2.84], [201, 3, 276, 3.99], [229, 1, 75, 3.89], [10407, 10, 1073, 4.63], [8943, 3, 305, 1.61], [432, 3, 276, 2.97], [2438, 1, 48, 4.17], [7705, 2, 162, 4.38], [2331, 1, 108, 2.68], [13259, 29, 32, 5.1], [2912, 1, 44, 2.78]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.48], [2778, 2, 5, 0.59], [362, 2, 4, 0.73], [205, 2, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 6, 1.21], [206, 2, 4, 0.2], [8676, 2, 5, 0.6], [2049, 3, 12, 0.2], [22247, 2, 5, 1.0], [523, 2, 4, 0.66], [305, 2, 5, 0.73], [8650, 2, 5, 1.27], [8648, 2, 5, 0.88], [2776, 2, 5, 0.2], [2328, 2, 4, 1.29], [616, 2, 4, 1.29], [2327, 2, 4, 0.64], [8674, 2, 4, 0.67], [589, 2, 5, 0.2], [11835, 2, 4, 0.49], [412, 1, 4, 0.92], [143, 2, 4, 0.57], [146, 2, 4, 0.51], [6497, 1, 5, 0.2], [6097, 80, 4, 2.36], [583, 2, 4, 0.45], [326, 2, 5, 0.41], [10149, 3, 13, 0.75], [6097, 29, 5, 0.66], [11836, 2, 5, 0.54], [145, 2, 4, 0.42], [144, 2, 4, 0.54], [10574, 3, 5, 0.6], [6494, 1, 4, 0.48], [6496, 1, 4, 1.05], [2054, 3, 4, 0.81], [1413, 15, 4, 0.43], [6098, 80, 4, 0.71], [1886, 2, 6, 0.2], [944, 15, 4, 0.2], [21793, 1, 4, 2.34], [6098, 29, 4, 1.08], [247, 1, 4, 2.27], [335, 3, 10, 0.87], [3429, 15, 4, 0.36], [201, 3, 4, 0.49], [1490, 1, 4, 1.35], [21798, 1, 4, 0.36], [308, 1, 5, 0.54], [2859, 15, 4, 0.44], [6158, 2, 5, 0.89], [9998, 80, 4, 1.38], [3478, 2, 4, 0.45], [13928, 1, 4, 0.47], [7084, 3, 4, 0.7], [11489, 1, 4, 0.37], [1703, 2, 4, 0.64], [107, 2, 4, 1.42], [5812, 3, 5, 2.0], [4253, 1, 4, 1.02], [107, 7, 5, 1.39], [9342, 2, 4, 0.57], [1050, 2, 4, 0.38], [94, 4, 4, 0.48], [186, 3, 7, 0.45], [11490, 1, 4, 0.42], [1309, 1, 4, 0.9], [214, 3, 9, 1.24], [5813, 3, 6, 2.0], [10398, 2, 4, 0.37], [5811, 3, 5, 1.24], [11767, 1, 4, 0.43], [2821, 3, 8, 0.5], [9491, 21, 10, 0.51], [8599, 1, 4, 0.49], [3980, 4, 5, 1.26], [11811, 1, 4, 0.94], [11771, 1, 4, 2.24], [229, 1, 4, 0.89], [8898, 3, 5, 3.26], [8944, 3, 4, 0.37], [3495, 3, 13, 1.28], [1339, 3, 10, 0.36], [1049, 2, 4, 0.38], [9358, 1, 4, 1.42], [409, 1, 4, 1.06], [955, 2, 4, 0.52], [192, 3, 7, 1.01], [346, 3, 5, 0.47], [2991, 3, 5, 1.5], [19687, 1, 4, 0.43], [12764, 2, 5, 0.43], [13928, 2, 4, 0.49], [7036, 1, 4, 1.63], [9690, 1, 4, 1.2], [22573, 2, 4, 0.8], [10124, 1, 4, 2.18], [6575, 3, 4, 1.62], [5584, 3, 4, 3.29], [3334, 5, 4, 0.63], [8897, 3, 5, 3.26], [10147, 1, 4, 0.36], [1277, 1, 4, 0.48], [1701, 2, 4, 0.55], [11886, 2, 4, 0.75], [20927, 1, 4, 0.7], [1523, 1, 4, 0.67], [11678, 1, 4, 0.38], [4001, 3, 8, 0.93], [13260, 29, 4, 0.91], [23275, 2, 4, 0.81], [10516, 3, 5, 0.86], [11677, 1, 4, 1.16], [9065, 2, 4, 0.84], [973, 3, 5, 1.08], [45, 2, 4, 0.39], [3984, 3, 5, 0.62], [346, 1, 4, 0.49], [3979, 3, 5, 0.88], [21269, 3, 4, 0.44], [23031, 3, 4, 1.65], [19924, 2, 4, 0.73], [9373, 5, 4, 1.21], [10181, 26, 5, 0.46], [958, 2, 4, 0.36], [11690, 2, 4, 0.52], [5976, 1, 4, 1.32], [9069, 1, 4, 0.41], [23032, 3, 4, 1.46], [7005, 1, 4, 0.81], [1339, 1, 4, 0.43], [8672, 2, 220, 4.44], [141, 2, 120, 3.41], [2778, 2, 144, 2.62], [362, 2, 131, 2.62], [205, 2, 72, 1.55], [6935, 2, 215, 6.0], [12721, 2, 218, 4.83], [206, 2, 58, 1.58], [8676, 2, 220, 3.63], [2049, 3, 504, 1.66], [22247, 2, 218, 4.36], [523, 2, 120, 3.58], [305, 2, 113, 3.42], [8650, 2, 173, 4.68], [8648, 2, 173, 4.55], [2776, 2, 121, 3.42], [2328, 2, 139, 3.41], [616, 2, 100, 3.41], [2327, 2, 137, 3.51], [8674, 2, 265, 2.22], [589, 2, 141, 2.49], [11835, 2, 243, 2.97], [412, 1, 77, 3.26], [143, 2, 136, 2.03], [146, 2, 139, 1.9], [6497, 1, 30, 3.28], [6097, 80, 51, 6.0], [583, 2, 83, 2.31], [326, 2, 83, 2.88], [10149, 3, 815, 4.12], [6097, 29, 31, 3.3], [11836, 2, 243, 3.07], [145, 2, 139, 1.73], [144, 2, 136, 1.97], [10574, 3, 461, 3.81], [6494, 1, 47, 1.85], [6496, 1, 37, 3.01], [2054, 3, 126, 2.98], [1413, 15, 92, 1.76], [6098, 80, 70, 3.04], [1886, 2, 120, 3.46], [944, 15, 14, 2.26], [21793, 1, 212, 6.0], [6098, 29, 35, 4.24], [247, 1, 80, 5.3], [335, 3, 1178, 4.78], [3429, 15, 35, 1.56], [201, 3, 280, 1.87], [1490, 1, 45, 3.59], [21798, 1, 129, 1.89], [308, 1, 157, 3.94], [2859, 15, 63, 1.78], [6158, 2, 242, 3.08], [9998, 80, 108, 4.32], [3478, 2, 70, 1.8], [13928, 1, 43, 3.42], [7084, 3, 119, 2.35], [11489, 1, 43, 2.03], [1703, 2, 151, 2.46], [107, 2, 44, 3.72], [5812, 3, 532, 5.88], [4253, 1, 158, 2.89], [107, 7, 220, 3.67], [9342, 2, 427, 2.03], [1050, 2, 44, 1.45], [94, 4, 114, 1.85], [186, 3, 616, 1.77]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.97], [305, 2, 4, 0.2], [2328, 2, 5, 0.2], [2778, 2, 5, 0.65], [8650, 2, 4, 0.46], [8672, 2, 7, 0.2], [5491, 2, 4, 0.44], [143, 2, 5, 0.51], [6936, 2, 4, 1.26], [145, 2, 4, 0.5], [11837, 2, 4, 0.45], [11681, 2, 5, 0.46], [5493, 2, 5, 0.6], [589, 2, 4, 0.36], [75, 2, 5, 0.97], [146, 2, 4, 0.57], [12721, 2, 5, 0.48], [8673, 2, 5, 0.2], [8853, 2, 4, 1.46], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [1005, 2, 4, 0.2], [144, 2, 4, 0.46], [990, 2, 4, 0.46], [8915, 2, 5, 1.14], [308, 1, 5, 1.73], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [6158, 2, 6, 0.2], [2424, 29, 4, 0.37], [7704, 2, 4, 1.5], [2423, 29, 4, 0.72], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [7705, 2, 4, 1.65], [1413, 15, 4, 0.2], [7706, 2, 4, 1.4], [10574, 3, 5, 1.51], [2054, 3, 4, 0.65], [2423, 80, 4, 0.79], [3, 2, 4, 0.79], [944, 15, 5, 0.2], [412, 1, 4, 0.92], [3478, 2, 4, 1.53], [2859, 15, 4, 1.62], [10149, 3, 13, 0.75], [12720, 2, 4, 0.98], [7004, 1, 4, 1.06], [74, 1, 4, 0.45], [346, 3, 5, 1.02], [11919, 1, 4, 0.77], [6497, 1, 4, 0.44], [1339, 3, 10, 0.36], [346, 1, 4, 0.94], [10993, 2, 4, 0.65], [13928, 1, 4, 0.47], [418, 2, 4, 0.49], [411, 2, 4, 0.37], [13260, 29, 5, 1.17], [13034, 3, 6, 0.9], [11089, 1, 4, 0.81], [7036, 1, 4, 1.63], [6952, 1, 4, 1.59], [13028, 3, 4, 0.37], [14037, 3, 4, 1.21], [1050, 2, 4, 0.2], [8274, 3, 4, 0.58], [7707, 2, 4, 1.0], [2991, 3, 4, 2.17], [1339, 1, 4, 0.43], [22317, 3, 8, 0.2], [9784, 1, 4, 0.71], [6494, 1, 4, 0.48], [7708, 2, 4, 1.5], [21793, 1, 5, 1.69], [6630, 3, 4, 2.4], [8943, 3, 4, 0.37], [1243, 2, 5, 0.7], [1490, 1, 4, 1.03], [3495, 3, 13, 1.28], [5208, 3, 5, 0.48], [2912, 1, 4, 0.85], [563, 2, 4, 0.44], [11491, 2, 4, 0.74], [11490, 1, 4, 0.37], [229, 1, 4, 1.25], [8944, 3, 4, 0.37], [5940, 3, 4, 0.2], [192, 3, 7, 1.26], [1049, 2, 4, 0.2], [6627, 3, 4, 0.2], [12229, 2, 4, 0.45], [11581, 29, 4, 0.87], [13033, 3, 4, 0.9], [2331, 1, 4, 0.91], [23275, 2, 4, 0.81], [201, 3, 4, 0.6], [5165, 1, 4, 0.73], [247, 1, 4, 1.19], [1274, 1, 4, 0.41], [214, 3, 9, 1.24], [7886, 4, 5, 0.44], [2805, 137, 5, 0.53], [21798, 1, 4, 0.47], [335, 3, 10, 0.87], [20555, 2, 4, 1.02], [8635, 3, 4, 0.58], [114, 3, 4, 1.48], [8898, 3, 5, 0.48], [6496, 1, 4, 1.3], [942, 3, 4, 0.5], [6629, 3, 4, 0.47], [1703, 2, 4, 0.53], [11770, 1, 4, 1.32], [5812, 3, 5, 0.5], [10406, 10, 7, 1.73], [202, 2, 4, 0.44], [83, 2, 4, 0.5], [9760, 29, 4, 1.71], [21269, 3, 5, 0.5], [332, 2, 4, 0.44], [215, 4, 4, 2.61], [186, 3, 9, 1.22], [9372, 1, 4, 1.06], [9827, 3, 4, 0.39], [4940, 1, 4, 0.35], [2821, 3, 8, 0.5], [10527, 3, 8, 2.22], [5811, 3, 5, 0.5], [1886, 2, 4, 0.44], [11767, 1, 4, 0.43], [11489, 1, 4, 0.37], [12373, 1, 5, 1.42], [21781, 2, 4, 0.47], [12870, 1, 4, 2.19], [6935, 2, 216, 6.0], [305, 2, 132, 2.92], [2328, 2, 116, 4.39], [2778, 2, 143, 2.79], [8650, 2, 203, 4.35], [8672, 2, 220, 4.66], [5491, 2, 100, 1.78], [143, 2, 114, 3.47], [6936, 2, 216, 5.5], [145, 2, 117, 3.46], [11837, 2, 246, 1.8], [11681, 2, 250, 3.24], [5493, 2, 83, 4.09], [589, 2, 102, 1.56], [75, 2, 112, 4.32], [146, 2, 117, 3.57], [12721, 2, 217, 3.99], [8673, 2, 221, 4.66], [8853, 2, 216, 5.41], [326, 2, 84, 2.61], [11835, 2, 243, 2.72], [1005, 2, 42, 3.58], [144, 2, 117, 3.38], [990, 2, 41, 2.06], [8915, 2, 173, 3.69], [308, 1, 157, 5.12], [88, 10, 430, 4.6], [434, 2, 98, 1.97], [6158, 2, 200, 3.82], [2424, 29, 31, 1.82], [7704, 2, 162, 3.94], [2423, 29, 34, 3.1], [11836, 2, 205, 3.39], [2424, 80, 156, 3.5], [7705, 2, 134, 5.14], [1413, 15, 78, 2.92], [7706, 2, 134, 5.14], [10574, 3, 383, 4.64], [2054, 3, 315, 3.06], [2423, 80, 170, 3.16], [3, 2, 92, 4.48], [944, 15, 34, 2.09], [412, 1, 77, 3.26], [10149, 3, 809, 2.42], [12720, 2, 217, 3.99], [74, 1, 186, 1.8], [346, 3, 553, 3.98], [11919, 1, 137, 2.41], [6497, 1, 35, 2.88], [1339, 3, 1618, 1.61], [346, 1, 139, 3.74], [10993, 2, 49, 2.18], [13928, 1, 43, 3.42], [418, 2, 130, 1.87], [411, 2, 85, 3.28], [13260, 29, 56, 4.28], [13034, 3, 538, 4.32], [11089, 1, 158, 2.49], [7036, 1, 117, 4.07], [6952, 1, 144, 5.09], [13028, 3, 133, 3.99], [1050, 2, 74, 1.52], [7707, 2, 161, 3.47], [2991, 3, 145, 6.0], [1339, 1, 67, 1.76]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2778, 2, 4, 0.25], [6936, 2, 5, 0.44], [11681, 2, 10, 0.85], [2327, 2, 5, 0.64], [362, 2, 4, 0.56], [8648, 2, 5, 1.33], [8650, 2, 5, 1.58], [305, 2, 4, 1.0], [326, 2, 4, 1.06], [2328, 2, 5, 0.39], [2775, 2, 4, 0.25], [8853, 2, 5, 0.94], [361, 2, 5, 0.4], [143, 2, 5, 0.51], [593, 2, 6, 0.2], [140, 2, 4, 0.62], [3840, 1, 4, 0.5], [523, 2, 5, 0.54], [21793, 1, 4, 0.61], [151, 1, 5, 0.37], [412, 1, 4, 0.5], [7036, 1, 4, 0.41], [990, 2, 5, 0.2], [21798, 1, 4, 0.36], [5165, 1, 4, 0.95], [145, 2, 4, 0.88], [12349, 1, 4, 1.57], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [2050, 3, 4, 1.21], [6097, 80, 4, 2.63], [2055, 3, 5, 0.96], [345, 3, 6, 0.2], [10993, 2, 4, 0.73], [144, 2, 4, 0.61], [7084, 3, 4, 2.49], [2057, 3, 5, 0.74], [3891, 1, 4, 0.5], [11770, 1, 4, 0.44], [998, 2, 4, 0.48], [2912, 1, 4, 0.91], [5165, 2, 7, 0.53], [3893, 1, 4, 0.74], [9372, 1, 4, 0.79], [12870, 1, 4, 0.94], [12343, 1, 4, 1.57], [1886, 2, 4, 0.5], [5208, 3, 5, 0.35], [7885, 4, 4, 0.74], [12351, 1, 4, 0.82], [6097, 29, 4, 2.41], [6098, 80, 4, 1.64], [6158, 2, 5, 1.09], [2424, 80, 4, 0.86], [3334, 5, 4, 0.53], [11089, 1, 4, 0.62], [10149, 3, 15, 0.75], [12345, 1, 4, 1.57], [12344, 1, 4, 0.52], [1492, 1, 4, 0.56], [1519, 3, 12, 0.22], [4032, 29, 4, 0.55], [3889, 1, 4, 0.85], [2912, 2, 5, 0.88], [12304, 1, 4, 0.72], [13028, 3, 4, 1.36], [3576, 25, 4, 1.17], [972, 3, 4, 0.51], [411, 2, 4, 0.65], [13034, 3, 4, 1.51], [2331, 1, 4, 0.89], [229, 1, 4, 2.27], [11583, 29, 4, 0.46], [11426, 25, 4, 0.4], [11490, 1, 4, 0.65], [5151, 2, 4, 0.45], [3, 2, 4, 0.57], [5076, 1, 4, 0.55], [12764, 2, 5, 0.43], [13893, 2, 4, 0.73], [2805, 137, 4, 0.98], [3478, 2, 4, 0.87], [1703, 2, 4, 0.5], [2160, 68, 4, 1.17], [3575, 25, 4, 0.6], [13023, 3, 5, 1.25], [5812, 3, 5, 2.0], [13280, 1, 4, 1.09], [4253, 1, 4, 0.98], [2438, 2, 5, 0.53], [11404, 2, 4, 0.43], [11814, 1, 4, 0.48], [3577, 25, 4, 0.52], [9289, 29, 4, 0.48], [75, 2, 4, 0.37], [11813, 1, 4, 0.74], [9971, 2, 4, 1.82], [957, 2, 5, 0.91], [9967, 2, 4, 0.73], [11150, 2, 5, 0.4], [9069, 1, 4, 0.63], [22317, 3, 4, 0.44], [8283, 2, 5, 1.27], [1413, 15, 4, 0.68], [2878, 1, 4, 0.76], [5584, 3, 4, 1.03], [4586, 10, 11, 0.8], [9964, 2, 4, 2.27], [10407, 10, 7, 0.36], [9491, 21, 9, 1.43], [9965, 2, 4, 1.82], [114, 3, 4, 1.28], [10609, 1, 4, 0.96], [289, 3, 4, 0.84], [13249, 29, 4, 0.93], [4076, 3, 4, 1.59], [21697, 3, 4, 0.45], [14041, 3, 4, 1.27], [8926, 1, 4, 1.74], [12647, 1, 4, 0.37], [192, 3, 8, 1.79], [24257, 1, 4, 0.97], [11739, 2, 4, 0.43], [1277, 1, 4, 0.43], [336, 15, 4, 0.4], [11687, 2, 4, 0.38], [3495, 3, 10, 1.25], [1163, 3, 4, 1.16], [7324, 1, 4, 1.03], [2528, 29, 4, 0.72], [11425, 25, 4, 0.4], [1801, 1, 4, 0.86], [6935, 2, 214, 5.02], [141, 2, 121, 2.76], [589, 2, 121, 2.92], [2778, 2, 146, 2.18], [6936, 2, 214, 5.56], [11681, 2, 219, 5.84], [2327, 2, 117, 3.05], [362, 2, 93, 3.2], [8648, 2, 180, 5.72], [8650, 2, 179, 5.99], [305, 2, 51, 3.89], [326, 2, 61, 3.49], [2328, 2, 99, 3.76], [2775, 2, 146, 2.18], [8853, 2, 223, 6.0], [361, 2, 103, 3.28], [143, 2, 98, 3.43], [593, 2, 151, 3.1], [140, 2, 85, 2.04], [3840, 1, 161, 1.81], [523, 2, 103, 3.16], [21793, 1, 224, 4.07], [151, 1, 45, 2.85], [412, 1, 78, 2.04], [7036, 1, 119, 2.48], [21798, 1, 130, 1.81], [5165, 1, 32, 3.8], [145, 2, 142, 3.02], [12349, 1, 575, 5.05], [201, 3, 105, 4.45], [6952, 1, 125, 5.21], [6097, 80, 45, 6.0], [2055, 3, 444, 3.43], [345, 3, 198, 3.85], [10993, 2, 50, 2.26], [144, 2, 139, 2.02], [2057, 3, 444, 3.43], [3891, 1, 98, 3.13], [11770, 1, 209, 1.7], [998, 2, 159, 4.43], [2912, 1, 45, 2.6], [5165, 2, 357, 1.85], [3893, 1, 116, 2.27], [9372, 1, 216, 4.37], [12870, 1, 129, 2.84], [12343, 1, 575, 5.05], [1886, 2, 146, 1.81], [5208, 3, 530, 1.47], [7885, 4, 33, 2.07], [12351, 1, 575, 2.43], [6097, 29, 23, 6.0], [6098, 80, 50, 4.35], [2424, 80, 158, 4.01], [3334, 5, 168, 3.15], [11089, 1, 133, 3.34], [10149, 3, 819, 2.33], [12345, 1, 575, 5.05], [12344, 1, 482, 2.68], [1492, 1, 35, 1.93], [1519, 3, 1100, 2.83], [4032, 29, 90, 1.91], [3889, 1, 116, 2.49], [2912, 2, 359, 2.41], [12304, 1, 99, 3.73], [13028, 3, 135, 5.02]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 7, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [2049, 3, 10, 0.22], [141, 2, 4, 0.39], [205, 2, 4, 0.31], [326, 2, 4, 0.47], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.32], [151, 1, 4, 0.46], [1776, 1, 5, 1.48], [146, 2, 4, 0.58], [143, 2, 4, 0.58], [206, 2, 4, 0.2], [1777, 1, 5, 0.93], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [20252, 2, 4, 0.44], [6936, 2, 6, 1.17], [5151, 2, 4, 1.3], [8650, 2, 5, 1.15], [1007, 2, 5, 0.36], [2778, 2, 4, 0.2], [8677, 3, 5, 1.81], [76, 2, 4, 1.11], [10, 2, 5, 0.22], [8649, 2, 4, 1.15], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [11404, 2, 4, 0.48], [7084, 3, 4, 1.38], [411, 2, 4, 0.23], [410, 1, 4, 0.36], [3478, 2, 4, 0.78], [308, 1, 4, 0.72], [167, 3, 5, 1.35], [5081, 2, 6, 0.2], [7005, 1, 4, 0.4], [3495, 3, 15, 1.31], [1124, 2, 5, 0.45], [432, 3, 4, 0.39], [9827, 3, 4, 0.2], [45, 2, 4, 1.12], [94, 4, 4, 0.51], [7036, 1, 4, 1.39], [3893, 1, 4, 0.53], [3889, 1, 4, 0.53], [168, 3, 5, 0.29], [10574, 3, 5, 0.43], [3891, 1, 4, 0.53], [2049, 1, 4, 0.8], [2336, 3, 6, 0.73], [12870, 1, 4, 2.58], [335, 3, 10, 1.09], [1504, 2, 6, 0.2], [6097, 29, 4, 2.11], [6097, 80, 4, 2.61], [998, 2, 4, 1.27], [214, 3, 9, 0.44], [11737, 2, 4, 0.66], [95, 3, 15, 0.31], [346, 1, 4, 0.56], [20927, 1, 4, 0.61], [6098, 29, 4, 2.27], [1490, 1, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 5, 0.54], [9069, 1, 5, 1.09], [22316, 3, 5, 0.49], [6098, 80, 4, 2.48], [8898, 3, 5, 2.17], [1070, 7, 10, 0.42], [14017, 3, 4, 0.67], [997, 2, 4, 1.04], [20498, 1, 5, 0.55], [346, 3, 5, 0.51], [13034, 3, 8, 1.01], [83, 2, 4, 0.44], [22554, 10, 9, 0.48], [1622, 1, 5, 0.2], [13260, 29, 4, 0.85], [7567, 3, 4, 1.37], [11116, 1, 4, 0.42], [8945, 3, 5, 1.06], [5811, 3, 4, 1.44], [22317, 3, 6, 0.26], [5946, 1, 4, 0.53], [5813, 3, 5, 1.08], [20498, 3, 6, 0.84], [5513, 2, 4, 0.52], [5209, 3, 4, 0.52], [12924, 1, 4, 0.2], [5086, 1, 6, 0.33], [995, 2, 4, 1.31], [996, 2, 4, 0.99], [33, 1, 4, 0.74], [974, 3, 4, 0.88], [972, 3, 6, 0.35], [229, 1, 4, 2.32], [1413, 15, 4, 0.45], [9691, 1, 4, 1.66], [35, 1, 4, 1.05], [8557, 3, 4, 0.2], [3049, 3, 4, 1.73], [20486, 3, 6, 0.75], [5584, 3, 4, 1.4], [8943, 3, 4, 0.37], [1703, 2, 4, 1.38], [13023, 3, 5, 1.48], [4076, 3, 4, 2.94], [2424, 80, 4, 1.7], [39, 1, 4, 0.8], [952, 4, 4, 2.23], [3900, 3, 4, 1.43], [8104, 1, 4, 0.39], [9081, 3, 7, 0.53], [11510, 3, 5, 0.72], [215, 4, 4, 3.32], [20486, 1, 4, 0.51], [34, 1, 4, 0.47], [972, 1, 4, 0.73], [114, 3, 4, 0.48], [6497, 1, 5, 1.0], [2854, 21, 10, 0.47], [3047, 3, 4, 1.0], [38, 1, 4, 0.47], [1414, 15, 4, 0.2], [20969, 3, 4, 1.11], [23611, 3, 4, 0.42], [8635, 3, 4, 0.57], [1339, 3, 12, 0.18], [8672, 2, 201, 4.82], [305, 2, 104, 3.39], [6935, 2, 243, 4.41], [2049, 3, 458, 2.26], [141, 2, 111, 2.62], [205, 2, 80, 2.23], [326, 2, 65, 2.88], [144, 2, 128, 1.59], [589, 2, 113, 1.83], [362, 2, 122, 3.19], [151, 1, 48, 2.74], [1776, 1, 90, 4.26], [146, 2, 108, 2.97], [143, 2, 106, 2.96], [206, 2, 80, 2.46], [1777, 1, 90, 3.63], [2328, 2, 108, 2.91], [8648, 2, 159, 4.42], [20252, 2, 81, 1.5], [6936, 2, 201, 4.37], [5151, 2, 18, 3.43], [8650, 2, 159, 5.07], [1007, 2, 236, 1.44], [2778, 2, 111, 2.96], [8677, 3, 208, 4.98], [76, 2, 77, 4.19], [8649, 2, 159, 4.76], [10149, 3, 609, 5.15], [2054, 3, 332, 4.02], [412, 1, 60, 3.57], [13028, 3, 105, 2.83], [361, 2, 134, 1.9], [413, 1, 62, 3.05], [7004, 1, 57, 2.6], [11404, 2, 91, 1.57], [7084, 3, 90, 3.52], [411, 2, 69, 2.76], [410, 1, 87, 2.58], [308, 1, 146, 3.09], [5081, 2, 135, 2.9], [7005, 1, 57, 2.6], [3495, 3, 679, 4.16], [1124, 2, 162, 1.64], [432, 3, 261, 2.69], [9827, 3, 63, 2.79], [45, 2, 77, 5.57], [94, 4, 85, 4.45], [7036, 1, 90, 4.38], [3893, 1, 108, 1.67], [3889, 1, 108, 1.67], [168, 3, 289, 3.37], [10574, 3, 437, 2.97], [3891, 1, 108, 1.67], [2049, 1, 12, 3.56], [2336, 3, 483, 3.17], [12870, 1, 98, 6.0], [335, 3, 1047, 4.78], [1504, 2, 145, 2.74], [6097, 29, 27, 5.7], [6097, 80, 48, 5.95], [998, 2, 196, 3.9], [214, 3, 565, 1.62], [11737, 2, 50, 2.3]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.49], [326, 2, 11, 1.63], [589, 2, 12, 0.67], [143, 2, 7, 1.12], [205, 2, 7, 0.96], [2049, 3, 15, 2.57], [130, 1, 7, 1.81], [6935, 2, 18, 3.14], [75, 2, 11, 2.11], [144, 2, 7, 1.42], [12721, 2, 10, 1.69], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [7885, 4, 7, 0.77], [146, 2, 7, 1.0], [1776, 1, 7, 1.17], [2778, 2, 11, 1.07], [1777, 1, 7, 1.85], [151, 1, 7, 0.71], [206, 2, 9, 0.93], [20252, 2, 7, 0.85], [8648, 2, 11, 3.84], [6936, 2, 10, 2.57], [990, 2, 7, 1.83], [2328, 2, 9, 1.55], [7886, 4, 7, 0.87], [8650, 2, 11, 4.99], [141, 2, 9, 1.87], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [2054, 3, 7, 1.04], [2057, 3, 7, 0.88], [7004, 1, 7, 0.71], [1492, 1, 7, 2.1], [2055, 3, 7, 0.81], [8649, 2, 11, 4.99], [345, 3, 9, 0.87], [21798, 1, 7, 0.96], [7005, 1, 7, 0.73], [7084, 3, 9, 3.68], [3889, 1, 7, 0.8], [10825, 21, 13, 2.03], [7887, 4, 7, 0.67], [33, 1, 9, 2.05], [61, 3, 7, 1.37], [21793, 1, 7, 4.02], [10149, 3, 21, 1.68], [94, 4, 9, 1.85], [432, 3, 7, 1.15], [7036, 1, 7, 2.24], [5081, 2, 7, 1.33], [12870, 1, 9, 5.0], [3478, 2, 9, 2.38], [167, 3, 7, 2.27], [308, 1, 7, 2.55], [11681, 2, 11, 4.33], [411, 2, 7, 0.71], [10, 2, 7, 1.31], [13028, 3, 7, 3.2], [9827, 3, 7, 0.53], [1504, 2, 7, 2.72], [201, 3, 9, 0.87], [3891, 1, 7, 2.38], [84, 2, 7, 3.04], [8677, 3, 9, 1.26], [168, 3, 9, 3.04], [35, 1, 7, 2.2], [1124, 2, 14, 0.93], [3893, 1, 7, 2.38], [79, 1, 7, 0.91], [5812, 3, 8, 1.9], [2336, 3, 9, 1.96], [13280, 1, 7, 1.08], [23, 1, 7, 2.78], [9760, 29, 7, 1.17], [1490, 1, 7, 0.67], [1243, 2, 7, 1.27], [11737, 2, 7, 1.03], [6158, 2, 8, 0.86], [5208, 3, 13, 1.12], [335, 3, 20, 0.7], [412, 1, 7, 2.54], [361, 2, 7, 2.12], [20927, 1, 7, 1.14], [45, 2, 7, 2.72], [214, 3, 15, 0.69], [25, 1, 7, 1.46], [1767, 25, 7, 1.14], [95, 3, 22, 0.85], [9069, 1, 7, 1.46], [10574, 3, 10, 1.28], [413, 1, 7, 2.06], [21269, 3, 7, 3.75], [3495, 3, 18, 2.25], [346, 3, 7, 0.99], [34, 1, 7, 1.65], [997, 2, 9, 2.24], [8898, 3, 7, 2.78], [11116, 1, 7, 1.08], [1766, 25, 7, 1.08], [5946, 1, 7, 2.23], [417, 2, 7, 2.12], [9691, 1, 7, 2.93], [1070, 7, 15, 0.85], [1413, 15, 7, 1.08], [14017, 3, 7, 1.75], [38, 1, 7, 1.9], [20498, 1, 9, 1.55], [9372, 1, 7, 3.6], [11954, 1, 7, 0.87], [974, 3, 7, 2.39], [5209, 3, 7, 0.71], [22317, 3, 9, 1.01], [7567, 3, 7, 0.79], [14037, 3, 11, 0.84], [972, 3, 8, 1.64], [5584, 3, 7, 3.74], [20498, 3, 8, 1.91], [9828, 3, 9, 0.76], [8945, 3, 8, 2.65], [5813, 3, 9, 3.74], [82, 2, 7, 1.88], [39, 1, 7, 1.14], [3048, 3, 7, 3.93], [1080, 3, 7, 1.59], [13034, 3, 8, 2.39], [24, 1, 7, 2.0], [955, 2, 7, 0.9], [1414, 15, 9, 0.72], [336, 15, 7, 0.98], [1767, 2, 9, 1.46], [10780, 10, 7, 3.58], [13260, 29, 7, 2.46], [4203, 1, 9, 1.06], [5812, 3, 510, 3.43], [2336, 3, 589, 2.71], [13280, 1, 320, 1.82], [23, 1, 96, 3.52], [9760, 29, 73, 1.92], [1490, 1, 42, 2.73], [1243, 2, 99, 2.01], [11737, 2, 49, 3.09], [6158, 2, 226, 2.91], [5208, 3, 192, 1.57], [335, 3, 1012, 2.3], [412, 1, 71, 4.11], [361, 2, 157, 2.86], [20927, 1, 81, 1.88], [45, 2, 94, 4.28], [214, 3, 665, 1.43], [25, 1, 96, 3.46], [1767, 25, 148, 3.15], [95, 3, 973, 3.04], [9069, 1, 124, 2.2], [10574, 3, 522, 2.02], [413, 1, 74, 3.61], [21269, 3, 225, 5.3], [3495, 3, 850, 3.93], [346, 3, 474, 2.55], [34, 1, 86, 3.45], [997, 2, 184, 3.79], [8898, 3, 243, 4.83], [11116, 1, 81, 1.82], [1766, 25, 161, 3.08], [5946, 1, 107, 3.53], [417, 2, 157, 2.86], [9691, 1, 64, 3.99], [1070, 7, 510, 2.89], [1413, 15, 101, 1.83], [14017, 3, 169, 3.96], [38, 1, 86, 3.45], [20498, 1, 85, 3.86], [9372, 1, 174, 4.9], [11954, 1, 171, 2.93], [974, 3, 127, 3.7], [5209, 3, 575, 1.47], [22317, 3, 243, 2.53], [7567, 3, 71, 1.53], [14037, 3, 350, 1.58], [972, 3, 510, 3.19], [5584, 3, 179, 5.29], [20498, 3, 450, 3.46], [9828, 3, 68, 2.44], [8945, 3, 598, 3.4], [5813, 3, 453, 4.48], [82, 2, 60, 2.62], [39, 1, 86, 2.69], [3048, 3, 209, 5.23], [1080, 3, 102, 3.14], [13034, 3, 453, 3.72], [24, 1, 86, 3.39], [955, 2, 84, 2.45], [1414, 15, 85, 2.22], [336, 15, 38, 1.43], [1767, 2, 27, 2.69], [10780, 10, 294, 5.14], [13260, 29, 56, 3.21], [4203, 1, 37, 2.61]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 9, 1.18], [8915, 2, 8, 1.06], [144, 2, 7, 1.04], [143, 2, 7, 0.85], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [8648, 2, 11, 3.48], [205, 2, 7, 0.74], [593, 2, 14, 1.03], [8650, 2, 7, 2.95], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [326, 2, 7, 2.24], [5493, 2, 9, 0.74], [7036, 1, 11, 3.63], [2049, 3, 12, 0.73], [88, 10, 20, 2.34], [141, 2, 7, 0.72], [7004, 1, 11, 2.54], [1446, 2, 7, 1.5], [206, 2, 7, 1.7], [1124, 2, 7, 1.9], [9760, 29, 7, 1.24], [362, 2, 7, 1.0], [2055, 3, 7, 1.07], [2912, 1, 7, 1.75], [10993, 2, 9, 1.0], [12870, 1, 9, 3.23], [3893, 1, 7, 0.71], [5165, 1, 7, 1.66], [9372, 1, 7, 3.26], [7886, 4, 7, 0.8], [2054, 3, 7, 2.44], [3889, 1, 7, 1.38], [2050, 3, 7, 1.61], [1622, 1, 9, 0.59], [3891, 1, 7, 0.76], [21793, 1, 7, 1.22], [7885, 4, 7, 0.94], [7573, 1, 16, 4.3], [10, 2, 7, 1.14], [5208, 3, 11, 1.04], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 9, 2.5], [997, 2, 9, 2.5], [3, 2, 9, 1.58], [11234, 2, 9, 1.55], [5165, 2, 8, 1.51], [12721, 2, 7, 2.81], [998, 2, 9, 1.56], [35, 1, 7, 2.96], [1886, 2, 9, 0.86], [972, 3, 10, 1.66], [22247, 2, 7, 2.27], [9491, 21, 32, 0.95], [996, 2, 9, 2.88], [955, 2, 7, 1.0], [33, 1, 7, 2.27], [83, 2, 9, 1.73], [229, 1, 7, 2.5], [7887, 4, 9, 2.05], [6158, 2, 7, 1.56], [2912, 2, 12, 3.02], [76, 2, 7, 1.6], [413, 1, 7, 3.14], [2424, 80, 7, 2.78], [34, 1, 7, 2.54], [13028, 3, 7, 2.62], [38, 1, 7, 2.66], [5209, 3, 7, 2.17], [13928, 1, 7, 1.83], [8676, 2, 7, 3.15], [8898, 3, 7, 4.91], [418, 2, 7, 1.25], [12212, 29, 7, 1.15], [3495, 3, 18, 2.49], [11952, 1, 7, 2.68], [39, 1, 7, 2.6], [9690, 1, 7, 0.9], [1414, 15, 7, 1.0], [5946, 1, 7, 1.02], [11490, 1, 7, 1.37], [2424, 29, 7, 0.89], [9691, 1, 7, 1.87], [411, 2, 7, 1.64], [415, 1, 7, 1.06], [1703, 2, 7, 2.08], [10407, 10, 12, 3.52], [7567, 3, 7, 2.56], [23961, 3, 7, 4.1], [11953, 1, 7, 0.87], [11772, 1, 7, 4.14], [13023, 3, 10, 1.41], [22316, 3, 7, 1.16], [12764, 2, 10, 1.76], [214, 3, 15, 0.76], [13928, 2, 7, 2.72], [74, 1, 7, 5.0], [21269, 3, 7, 2.82], [10410, 10, 15, 3.8], [13893, 2, 7, 4.55], [1163, 3, 7, 0.89], [972, 1, 7, 1.61], [2331, 1, 7, 3.07], [410, 1, 7, 1.79], [1274, 1, 7, 1.3], [5164, 1, 7, 1.73], [1523, 1, 7, 0.81], [24257, 1, 7, 1.0], [10408, 10, 8, 3.87], [1492, 1, 7, 0.87], [3430, 15, 7, 2.31], [6097, 80, 7, 1.94], [2438, 2, 8, 3.45], [13034, 3, 7, 2.6], [6097, 29, 7, 2.31], [3047, 3, 7, 2.68], [1243, 2, 7, 2.48], [10780, 10, 7, 3.18], [71, 15, 7, 0.75], [6805, 1, 7, 0.97], [1080, 3, 7, 2.78], [2436, 4, 7, 1.36], [1277, 1, 7, 1.14], [7704, 2, 7, 3.16], [7705, 2, 7, 3.16], [3429, 15, 7, 0.97], [6497, 1, 7, 2.2], [8659, 1, 7, 2.04], [19931, 1, 7, 2.43], [20486, 3, 8, 2.3], [13028, 3, 134, 3.45], [38, 1, 83, 3.92], [13928, 1, 36, 3.67], [8676, 2, 263, 3.98], [8898, 3, 219, 6.0], [418, 2, 131, 2.09], [12212, 29, 107, 2.78], [3495, 3, 890, 3.31], [11952, 1, 182, 3.52], [39, 1, 83, 3.89], [9690, 1, 59, 2.13], [1414, 15, 58, 1.76], [5946, 1, 116, 1.86], [11490, 1, 97, 2.77], [2424, 29, 31, 1.73], [9691, 1, 68, 3.27], [411, 2, 100, 2.48], [415, 1, 80, 1.89], [1703, 2, 144, 3.48], [10407, 10, 891, 5.62], [7567, 3, 63, 3.96], [23961, 3, 260, 5.56], [11953, 1, 186, 1.71], [11772, 1, 194, 4.98], [13023, 3, 531, 3.29], [22316, 3, 292, 2.0], [12764, 2, 657, 3.62], [214, 3, 607, 1.59], [13928, 2, 21, 3.56], [74, 1, 173, 6.0], [21269, 3, 258, 4.46], [10410, 10, 891, 4.95], [13893, 2, 247, 5.38], [1163, 3, 80, 1.38], [972, 1, 92, 2.45], [2331, 1, 107, 3.9], [410, 1, 48, 2.5], [1274, 1, 76, 2.14], [5164, 1, 44, 2.57], [1523, 1, 44, 1.64], [24257, 1, 131, 1.84], [10408, 10, 675, 5.51], [1492, 1, 34, 2.75], [3430, 15, 62, 3.71], [6097, 80, 61, 3.34], [2438, 2, 553, 5.1], [13034, 3, 520, 4.24], [6097, 29, 32, 3.15], [3047, 3, 238, 4.34], [1243, 2, 87, 4.11], [10780, 10, 331, 5.07], [71, 15, 52, 1.23], [6805, 1, 419, 1.81], [1080, 3, 117, 3.62], [2436, 4, 104, 2.96], [1277, 1, 177, 1.97], [7704, 2, 162, 4.0], [7705, 2, 162, 4.0], [3429, 15, 25, 1.68], [6497, 1, 34, 3.04], [8659, 1, 111, 2.88], [19931, 1, 377, 3.26], [20486, 3, 543, 3.14]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [11685, 2, 7, 3.6], [326, 2, 7, 2.44], [8648, 2, 9, 2.71], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [593, 2, 11, 1.26], [11681, 2, 9, 3.34], [305, 2, 7, 0.98], [143, 2, 9, 1.88], [141, 2, 7, 1.83], [8650, 2, 7, 2.25], [2778, 2, 7, 1.43], [6936, 2, 11, 4.58], [2049, 3, 17, 0.71], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [7004, 1, 7, 1.17], [615, 2, 9, 1.53], [7036, 1, 7, 2.85], [145, 2, 7, 2.56], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [2055, 3, 7, 4.16], [10993, 2, 7, 1.21], [11737, 2, 7, 1.76], [3840, 1, 7, 0.73], [159, 3, 12, 0.8], [523, 2, 9, 1.31], [12870, 1, 7, 3.69], [2057, 3, 7, 3.77], [3889, 1, 7, 1.16], [10574, 3, 8, 0.94], [13280, 1, 7, 2.58], [7084, 3, 7, 1.6], [20927, 1, 7, 1.55], [2054, 3, 7, 3.49], [997, 2, 7, 1.75], [3, 2, 7, 1.02], [3982, 3, 17, 2.58], [21793, 1, 7, 2.17], [10, 2, 7, 0.75], [3891, 1, 7, 1.02], [61, 3, 7, 2.37], [998, 2, 7, 1.33], [11739, 2, 7, 1.41], [7885, 4, 9, 0.7], [6158, 2, 9, 1.24], [8672, 2, 11, 2.68], [5165, 1, 7, 1.29], [972, 3, 9, 3.54], [5165, 2, 8, 1.16], [346, 3, 7, 1.68], [3980, 4, 7, 2.37], [9372, 1, 7, 2.95], [411, 2, 7, 1.25], [2912, 1, 7, 1.75], [956, 2, 7, 0.75], [10388, 2, 7, 2.56], [214, 3, 15, 0.69], [9491, 21, 20, 0.87], [3981, 3, 22, 2.14], [346, 1, 7, 1.91], [1492, 1, 7, 0.89], [995, 2, 7, 2.23], [7573, 1, 11, 3.86], [33, 1, 7, 3.41], [22316, 3, 7, 0.98], [7886, 4, 9, 0.94], [13928, 1, 7, 2.49], [10386, 2, 7, 0.69], [336, 15, 7, 1.28], [161, 3, 8, 4.88], [35, 1, 7, 3.29], [7567, 3, 7, 2.7], [11770, 1, 7, 3.36], [2912, 2, 8, 3.02], [308, 1, 7, 3.55], [10631, 2, 7, 2.44], [11490, 1, 7, 1.54], [229, 1, 7, 2.41], [11953, 1, 7, 1.15], [83, 2, 7, 1.41], [22317, 3, 7, 1.67], [10780, 10, 7, 3.1], [414, 1, 7, 1.1], [10407, 10, 10, 3.29], [10149, 3, 21, 2.88], [10410, 10, 10, 3.21], [12271, 2, 7, 3.39], [972, 1, 9, 3.54], [6497, 1, 7, 0.9], [1413, 15, 7, 1.12], [23611, 3, 9, 0.72], [11767, 1, 7, 0.83], [345, 3, 7, 1.46], [8104, 1, 7, 0.73], [37, 1, 7, 1.75], [3478, 2, 7, 1.24], [74, 1, 7, 5.0], [39, 1, 7, 1.04], [10387, 2, 7, 1.96], [9971, 2, 7, 3.0], [4076, 3, 7, 2.29], [3048, 3, 7, 0.92], [152, 21, 7, 1.14], [34, 1, 7, 1.31], [24257, 1, 7, 2.73], [2331, 1, 7, 3.76], [82, 2, 7, 0.82], [20498, 3, 10, 2.46], [4001, 3, 14, 2.74], [4253, 1, 7, 1.41], [11510, 3, 8, 2.0], [45, 2, 7, 5.0], [9, 1, 7, 0.69], [416, 1, 7, 1.1], [215, 4, 7, 3.25], [12338, 29, 7, 0.75], [10936, 2, 7, 1.81], [12764, 2, 8, 1.71], [9965, 2, 7, 4.18], [202, 2, 7, 0.73], [1523, 1, 7, 3.0], [1895, 3, 7, 1.42], [105, 3, 7, 0.98], [12858, 1, 7, 1.17], [1080, 3, 7, 0.89], [2805, 137, 13, 1.88], [11489, 1, 7, 0.75], [8635, 3, 7, 2.86], [7705, 2, 7, 2.59], [3047, 3, 7, 2.68], [10093, 3, 15, 1.65], [7886, 4, 35, 1.4], [13928, 1, 44, 3.29], [10386, 2, 210, 1.49], [336, 15, 103, 2.08], [161, 3, 687, 5.68], [35, 1, 53, 3.97], [7567, 3, 67, 3.49], [11770, 1, 175, 4.15], [308, 1, 151, 4.35], [10631, 2, 204, 3.24], [11490, 1, 85, 2.88], [229, 1, 65, 3.21], [11953, 1, 159, 2.59], [83, 2, 51, 2.21], [22317, 3, 257, 3.13], [10780, 10, 355, 3.9], [414, 1, 82, 1.9], [10407, 10, 1115, 4.08], [10149, 3, 680, 4.35], [10410, 10, 1115, 4.0], [12271, 2, 51, 4.36], [972, 1, 59, 4.35], [6497, 1, 36, 1.7], [1413, 15, 81, 2.27], [23611, 3, 274, 2.5], [11767, 1, 157, 1.62], [345, 3, 233, 2.67], [8104, 1, 50, 1.18], [37, 1, 87, 2.97], [3478, 2, 73, 2.04], [74, 1, 189, 6.0], [39, 1, 106, 1.84], [10387, 2, 210, 2.76], [9971, 2, 260, 3.8], [4076, 3, 157, 3.34], [3048, 3, 260, 1.72], [34, 1, 87, 2.74], [24257, 1, 131, 3.53], [2331, 1, 109, 4.56], [82, 2, 58, 1.62], [20498, 3, 455, 4.42], [4001, 3, 616, 4.19], [4253, 1, 164, 2.21], [11510, 3, 563, 2.8], [45, 2, 103, 6.0], [9, 1, 33, 1.49], [416, 1, 82, 1.9], [215, 4, 36, 4.04], [12338, 29, 51, 1.55], [10936, 2, 127, 2.61], [12764, 2, 581, 3.17], [9965, 2, 260, 4.97], [202, 2, 71, 1.53], [1523, 1, 46, 3.8], [1895, 3, 238, 3.11], [105, 3, 192, 2.67], [12858, 1, 455, 2.61], [1080, 3, 123, 1.69], [2805, 137, 176, 2.68], [11489, 1, 105, 1.55], [8635, 3, 262, 4.54], [7705, 2, 169, 3.39], [3047, 3, 257, 3.48], [10093, 3, 788, 2.46]]</t>
-  </si>
-  <si>
-    <t>[[2049, 3, 16, 0.8], [326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 2.06], [589, 2, 10, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 2.24], [1776, 1, 7, 1.12], [130, 1, 7, 1.66], [8672, 2, 15, 2.16], [20252, 2, 7, 0.85], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [305, 2, 7, 0.92], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [593, 2, 14, 0.86], [11681, 2, 10, 5.0], [8648, 2, 9, 3.21], [206, 2, 7, 0.96], [151, 1, 7, 0.85], [88, 10, 17, 1.69], [2328, 2, 7, 0.94], [83, 2, 7, 0.96], [8650, 2, 11, 3.25], [5151, 2, 7, 2.21], [2050, 3, 7, 1.23], [412, 1, 7, 2.42], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [2991, 3, 7, 4.18], [21798, 1, 7, 0.96], [57, 1, 9, 0.68], [10149, 3, 25, 3.26], [76, 2, 11, 2.6], [21793, 1, 7, 3.62], [2054, 3, 9, 3.24], [146, 2, 9, 2.43], [3478, 2, 7, 0.87], [45, 2, 7, 2.65], [143, 2, 7, 1.34], [7004, 1, 7, 0.9], [2057, 3, 7, 3.23], [167, 3, 7, 2.25], [168, 3, 7, 1.38], [74, 1, 7, 2.52], [346, 1, 7, 0.74], [84, 2, 7, 3.03], [3495, 3, 21, 1.64], [335, 3, 22, 3.87], [7036, 1, 7, 3.77], [432, 3, 7, 1.61], [5081, 2, 7, 0.84], [214, 3, 15, 0.78], [10, 2, 14, 2.41], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [11404, 2, 7, 1.31], [8649, 2, 9, 2.97], [12870, 1, 7, 4.97], [410, 1, 7, 1.23], [79, 1, 7, 0.73], [142, 2, 7, 0.98], [145, 2, 7, 0.83], [5208, 3, 16, 1.31], [3889, 1, 7, 2.38], [3893, 1, 7, 1.67], [1492, 1, 7, 1.2], [5812, 3, 8, 2.16], [1504, 2, 9, 0.89], [94, 4, 7, 2.79], [9827, 3, 7, 0.86], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [13260, 29, 7, 1.64], [3891, 1, 7, 1.3], [1490, 1, 7, 1.35], [998, 2, 7, 2.66], [10574, 3, 9, 2.32], [21269, 3, 7, 4.99], [7567, 3, 7, 3.13], [9069, 1, 7, 2.53], [5086, 1, 9, 2.04], [11954, 1, 7, 0.92], [2878, 1, 7, 1.63], [1243, 2, 7, 2.18], [997, 2, 7, 2.64], [9691, 1, 7, 3.18], [20927, 1, 7, 1.75], [5209, 3, 7, 0.92], [1703, 2, 7, 3.38], [11914, 1, 9, 1.27], [1124, 2, 11, 0.76], [856, 1, 7, 0.92], [5660, 2, 7, 1.94], [5584, 3, 7, 3.61], [1070, 7, 13, 1.15], [8274, 3, 7, 1.76], [11811, 1, 9, 2.48], [1519, 3, 26, 0.67], [23961, 3, 7, 4.68], [8898, 3, 7, 5.0], [952, 4, 7, 5.0], [1091, 1, 7, 1.1], [22317, 3, 8, 0.9], [9081, 3, 11, 3.64], [24, 1, 7, 2.51], [5513, 2, 7, 1.0], [13034, 3, 10, 3.0], [12661, 1, 7, 4.32], [336, 15, 7, 0.8], [11767, 1, 7, 0.9], [1413, 15, 7, 1.44], [20498, 1, 7, 4.0], [6097, 80, 7, 2.16], [9760, 29, 9, 0.87], [9082, 3, 21, 1.17], [8945, 3, 10, 4.45], [4203, 1, 7, 1.27], [10529, 29, 7, 2.85], [1163, 3, 9, 1.11], [6097, 29, 9, 2.83], [2109, 3, 18, 0.77], [995, 2, 7, 4.69], [82, 2, 7, 0.67], [20498, 3, 8, 3.52], [11769, 1, 7, 0.9], [972, 3, 8, 1.2], [9372, 1, 7, 3.6], [6098, 80, 7, 1.73], [2104, 3, 10, 2.53], [5813, 3, 7, 2.12], [8635, 3, 7, 1.16], [10780, 10, 7, 4.1], [34, 1, 7, 1.23], [1492, 1, 27, 2.61], [5812, 3, 414, 4.04], [1504, 2, 145, 2.79], [94, 4, 107, 3.44], [9827, 3, 63, 2.76], [411, 2, 80, 2.23], [7005, 1, 50, 2.22], [13260, 29, 52, 2.75], [3891, 1, 89, 3.27], [1490, 1, 36, 2.76], [998, 2, 170, 4.82], [10574, 3, 437, 2.97], [21269, 3, 207, 6.0], [7567, 3, 60, 3.78], [5086, 1, 130, 3.94], [11954, 1, 172, 1.57], [2878, 1, 57, 3.04], [1243, 2, 85, 2.83], [997, 2, 170, 3.29], [9691, 1, 54, 4.56], [5209, 3, 415, 2.6], [1703, 2, 149, 4.53], [11914, 1, 62, 3.42], [1124, 2, 155, 2.32], [856, 1, 30, 1.57], [5660, 2, 125, 3.84], [5584, 3, 178, 5.02], [1070, 7, 421, 2.57], [11811, 1, 375, 3.32], [1519, 3, 1182, 2.56], [23961, 3, 243, 5.33], [8898, 3, 199, 6.0], [952, 4, 52, 6.0], [1091, 1, 34, 2.68], [22317, 3, 262, 2.31], [9081, 3, 324, 5.55], [24, 1, 80, 3.67], [5513, 2, 69, 1.65], [13034, 3, 414, 4.4], [12661, 1, 58, 5.34], [336, 15, 81, 2.71], [11767, 1, 142, 1.55], [1413, 15, 63, 2.47], [20498, 1, 85, 4.65], [6097, 80, 60, 2.81], [9760, 29, 60, 2.28], [9082, 3, 1760, 3.17], [8945, 3, 199, 5.41], [4203, 1, 41, 2.43], [10529, 29, 37, 4.0], [6097, 29, 30, 4.49], [2109, 3, 390, 2.28], [995, 2, 204, 5.34], [82, 2, 53, 1.32], [20498, 3, 509, 4.16], [11769, 1, 142, 1.55], [972, 3, 516, 1.85], [9372, 1, 198, 4.25], [6098, 80, 66, 2.38], [2104, 3, 276, 3.64], [5813, 3, 509, 2.76], [10780, 10, 321, 4.74], [34, 1, 97, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 8, 0.87], [88, 10, 24, 1.34], [8915, 2, 10, 0.81], [2327, 2, 7, 1.0], [6935, 2, 11, 3.9], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 9, 1.46], [615, 2, 11, 2.25], [5493, 2, 9, 0.74], [616, 2, 7, 1.06], [326, 2, 9, 3.02], [6936, 2, 7, 3.27], [8650, 2, 9, 4.02], [1446, 2, 7, 1.57], [7004, 1, 11, 2.54], [143, 2, 7, 2.29], [144, 2, 7, 2.25], [593, 2, 14, 1.23], [10, 2, 7, 2.55], [5491, 2, 7, 0.98], [7036, 1, 11, 3.63], [3893, 1, 9, 0.96], [1124, 2, 7, 1.9], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [7886, 4, 7, 1.05], [3891, 1, 9, 1.01], [75, 2, 7, 2.64], [362, 2, 7, 2.65], [5208, 3, 11, 1.04], [21793, 1, 7, 1.22], [3889, 1, 7, 1.88], [2054, 3, 9, 1.85], [3980, 4, 8, 2.38], [7084, 3, 7, 2.54], [12870, 1, 7, 3.72], [2050, 3, 9, 1.11], [145, 2, 7, 2.41], [5165, 1, 7, 1.66], [10149, 3, 21, 2.59], [13028, 3, 7, 2.62], [8672, 2, 11, 3.11], [2912, 1, 7, 2.33], [998, 2, 7, 1.5], [20927, 1, 7, 2.54], [9760, 29, 7, 0.97], [997, 2, 7, 2.24], [1886, 2, 7, 0.85], [2436, 4, 7, 1.36], [3, 2, 9, 1.58], [7887, 4, 7, 2.05], [972, 3, 12, 1.52], [214, 3, 15, 0.76], [6158, 2, 7, 1.56], [2424, 80, 7, 2.78], [229, 1, 7, 1.75], [955, 2, 7, 1.0], [346, 3, 7, 1.31], [5076, 1, 7, 1.95], [3495, 3, 14, 1.61], [74, 1, 7, 5.0], [5165, 2, 8, 1.51], [11953, 1, 7, 0.87], [996, 2, 7, 1.96], [11770, 1, 7, 0.96], [12721, 2, 7, 2.18], [9491, 21, 32, 0.95], [22316, 3, 7, 1.16], [1492, 1, 7, 0.97], [7573, 1, 16, 4.3], [9372, 1, 7, 3.26], [11772, 1, 9, 0.76], [2423, 80, 9, 3.54], [2912, 2, 12, 3.02], [2438, 2, 8, 3.32], [3975, 4, 7, 2.76], [11952, 1, 7, 2.68], [6497, 1, 7, 2.2], [5584, 3, 7, 5.0], [346, 1, 7, 2.81], [5209, 3, 9, 1.29], [5434, 1, 7, 2.08], [24257, 1, 7, 0.92], [823, 1, 7, 2.33], [9082, 3, 32, 3.08], [335, 3, 15, 3.87], [10407, 10, 12, 3.52], [1622, 1, 7, 0.94], [8898, 3, 7, 5.0], [2424, 29, 7, 0.89], [12764, 2, 23, 1.61], [8676, 2, 7, 3.15], [6496, 1, 7, 2.59], [3900, 3, 7, 2.45], [5946, 1, 7, 1.02], [11490, 1, 7, 0.92], [33, 1, 7, 1.27], [10388, 2, 7, 3.31], [2805, 137, 7, 2.41], [1339, 3, 16, 0.66], [7567, 3, 7, 2.56], [972, 1, 7, 1.61], [1703, 2, 7, 1.39], [13893, 2, 7, 4.55], [6805, 1, 9, 0.97], [6097, 80, 7, 2.16], [22247, 2, 7, 2.27], [2104, 3, 15, 2.33], [1163, 3, 7, 0.89], [11814, 1, 7, 0.92], [1414, 15, 7, 1.0], [8635, 3, 7, 2.25], [38, 1, 7, 1.75], [9784, 1, 7, 1.12], [1895, 3, 7, 4.16], [1274, 1, 7, 1.26], [95, 3, 22, 1.12], [11116, 1, 7, 1.08], [8283, 2, 8, 2.14], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [10386, 2, 7, 3.17], [12212, 29, 7, 1.0], [8274, 3, 7, 2.18], [114, 3, 7, 2.46], [9690, 1, 7, 0.9], [8659, 1, 7, 1.64], [19931, 1, 7, 2.43], [76, 2, 7, 2.69], [9065, 2, 7, 1.39], [4232, 80, 7, 1.98], [418, 2, 7, 1.25], [12979, 25, 12, 1.1], [12501, 1, 7, 2.39], [22316, 3, 292, 2.0], [1492, 1, 28, 3.35], [7573, 1, 276, 5.69], [9372, 1, 211, 4.09], [11772, 1, 164, 3.22], [2423, 80, 136, 5.38], [2438, 2, 553, 5.1], [3975, 4, 426, 4.36], [11952, 1, 182, 3.52], [6497, 1, 34, 3.04], [5584, 3, 218, 5.85], [346, 1, 139, 3.65], [5209, 3, 522, 2.12], [5434, 1, 44, 3.48], [24257, 1, 111, 2.15], [823, 1, 36, 4.21], [9082, 3, 2263, 3.92], [335, 3, 1181, 4.7], [10407, 10, 891, 5.62], [1622, 1, 100, 1.78], [8898, 3, 261, 6.0], [2424, 29, 31, 1.73], [12764, 2, 550, 3.67], [8676, 2, 263, 3.98], [6496, 1, 37, 3.42], [5946, 1, 116, 1.86], [11490, 1, 100, 1.76], [33, 1, 103, 2.1], [10388, 2, 202, 4.15], [2805, 137, 167, 3.24], [1339, 3, 1621, 1.49], [7567, 3, 63, 3.96], [972, 1, 92, 2.45], [1703, 2, 151, 2.23], [13893, 2, 247, 5.38], [6805, 1, 401, 2.84], [6097, 80, 64, 2.99], [22247, 2, 261, 3.11], [2104, 3, 308, 3.17], [1163, 3, 80, 1.38], [11814, 1, 207, 1.76], [1414, 15, 58, 1.76], [38, 1, 99, 3.15], [9784, 1, 67, 1.96], [1895, 3, 264, 6.0], [1274, 1, 73, 3.14], [95, 3, 999, 2.69], [11116, 1, 74, 1.92], [8283, 2, 433, 2.96], [788, 2, 17, 1.5], [8104, 1, 189, 2.63], [10386, 2, 202, 4.0], [12212, 29, 111, 1.84], [114, 3, 215, 3.83], [9690, 1, 59, 2.13], [8659, 1, 107, 3.52], [19931, 1, 377, 3.26], [76, 2, 101, 3.52], [9065, 2, 278, 2.23], [4232, 80, 137, 2.82], [418, 2, 131, 2.09], [12979, 25, 610, 1.93], [12501, 1, 274, 3.23]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 0.98], [615, 2, 9, 0.92], [2778, 2, 9, 1.07], [205, 2, 9, 0.98], [5493, 2, 7, 1.0], [6936, 2, 9, 3.69], [616, 2, 7, 0.9], [88, 10, 14, 0.73], [2049, 3, 17, 0.71], [144, 2, 7, 2.84], [8648, 2, 9, 2.71], [326, 2, 7, 1.94], [589, 2, 8, 0.61], [11681, 2, 9, 3.84], [7036, 1, 7, 2.37], [8650, 2, 9, 2.48], [593, 2, 11, 1.29], [2327, 2, 7, 0.98], [141, 2, 7, 1.83], [206, 2, 7, 1.25], [7004, 1, 7, 1.17], [3840, 1, 7, 0.73], [3891, 1, 7, 1.02], [2050, 3, 7, 3.3], [146, 2, 7, 2.31], [3980, 4, 7, 2.37], [2055, 3, 7, 3.41], [143, 2, 7, 1.23], [3889, 1, 7, 1.16], [10, 2, 7, 0.75], [7885, 4, 7, 1.02], [2054, 3, 7, 3.66], [7886, 4, 7, 1.25], [8672, 2, 11, 2.68], [12870, 1, 7, 3.96], [10993, 2, 7, 1.21], [2057, 3, 7, 3.52], [5165, 1, 7, 1.29], [7084, 3, 7, 1.69], [145, 2, 7, 2.23], [21793, 1, 7, 2.17], [523, 2, 7, 1.5], [159, 3, 8, 0.66], [7005, 1, 7, 1.01], [3981, 3, 21, 2.47], [3982, 3, 17, 2.58], [142, 2, 7, 1.25], [20927, 1, 7, 2.25], [33, 1, 11, 3.41], [956, 2, 7, 0.75], [997, 2, 9, 4.11], [6158, 2, 11, 2.0], [214, 3, 14, 0.74], [7887, 4, 7, 2.05], [5165, 2, 8, 1.16], [22316, 3, 7, 1.23], [2912, 1, 7, 1.75], [11953, 1, 7, 1.15], [35, 1, 11, 3.32], [229, 1, 7, 2.41], [998, 2, 9, 4.07], [346, 3, 7, 1.53], [82, 2, 7, 0.82], [6497, 1, 7, 0.9], [389, 4, 7, 3.4], [996, 2, 9, 3.33], [5946, 1, 7, 1.02], [1492, 1, 7, 0.89], [972, 3, 11, 3.54], [7567, 3, 11, 3.69], [11767, 1, 7, 0.83], [192, 3, 22, 3.37], [11490, 1, 7, 0.92], [6496, 1, 7, 1.59], [4176, 4, 7, 3.49], [74, 1, 7, 4.19], [411, 2, 7, 1.25], [1413, 15, 7, 1.12], [22317, 3, 7, 1.42], [2104, 3, 12, 0.7], [4253, 1, 7, 1.41], [2912, 2, 8, 1.56], [8677, 3, 7, 2.82], [2436, 4, 7, 0.85], [336, 15, 7, 1.53], [39, 1, 7, 1.79], [12212, 29, 7, 0.94], [37, 1, 7, 1.52], [201, 3, 9, 2.36], [345, 3, 7, 1.46], [11085, 2, 8, 3.16], [1274, 1, 7, 1.41], [1277, 1, 7, 1.14], [13023, 3, 7, 2.44], [21269, 3, 7, 5.0], [6494, 1, 7, 0.87], [12271, 2, 7, 2.76], [8676, 2, 7, 1.94], [22247, 2, 9, 3.44], [3979, 3, 8, 2.31], [3, 2, 7, 2.1], [823, 1, 7, 1.26], [10408, 10, 10, 3.19], [36, 1, 7, 1.75], [10388, 2, 7, 2.51], [9784, 1, 7, 1.39], [10631, 2, 9, 3.46], [2805, 137, 13, 1.88], [9, 1, 7, 0.69], [10936, 2, 7, 1.81], [202, 2, 7, 0.73], [1414, 15, 7, 1.0], [11489, 1, 7, 0.75], [8675, 2, 7, 2.91], [3048, 3, 7, 2.25], [161, 3, 8, 4.88], [13928, 1, 7, 2.49], [346, 1, 7, 1.72], [9372, 1, 7, 2.95], [12764, 2, 8, 1.46], [12225, 1, 7, 2.51], [11814, 1, 7, 0.92], [13280, 1, 7, 2.58], [10386, 2, 7, 0.69], [10407, 10, 10, 3.29], [4076, 3, 7, 2.29], [8898, 3, 7, 2.27], [79, 1, 7, 0.92], [2878, 1, 9, 0.97], [11089, 1, 7, 1.95], [13035, 3, 7, 2.54], [491, 10, 10, 1.82], [3576, 25, 7, 1.0], [23611, 3, 9, 0.99], [972, 1, 7, 1.51], [11767, 1, 157, 1.62], [192, 3, 1107, 5.01], [11490, 1, 105, 1.72], [6496, 1, 32, 2.75], [4176, 4, 391, 4.95], [74, 1, 134, 4.98], [411, 2, 105, 2.05], [1413, 15, 81, 2.27], [22317, 3, 257, 3.13], [2104, 3, 316, 1.49], [4253, 1, 164, 2.21], [2912, 2, 368, 2.35], [8677, 3, 241, 4.26], [2436, 4, 112, 1.65], [336, 15, 84, 2.97], [39, 1, 87, 3.49], [12212, 29, 115, 1.74], [37, 1, 87, 2.97], [201, 3, 233, 4.06], [345, 3, 233, 2.67], [11085, 2, 435, 4.89], [1274, 1, 78, 2.21], [1277, 1, 183, 1.94], [13023, 3, 563, 3.24], [21269, 3, 239, 6.0], [6494, 1, 41, 2.56], [12271, 2, 61, 3.55], [8676, 2, 273, 2.74], [22247, 2, 231, 4.85], [3979, 3, 756, 3.11], [3, 2, 96, 3.55], [823, 1, 38, 2.06], [10408, 10, 596, 4.91], [36, 1, 87, 2.97], [10388, 2, 178, 4.46], [9784, 1, 69, 2.19], [2805, 137, 176, 2.68], [9, 1, 33, 1.49], [10936, 2, 127, 2.61], [202, 2, 71, 1.53], [1414, 15, 84, 1.78], [11489, 1, 105, 1.55], [8675, 2, 273, 3.71], [3048, 3, 211, 3.47], [161, 3, 687, 5.68], [13928, 1, 44, 3.29], [346, 1, 121, 2.76], [9372, 1, 219, 3.75], [12764, 2, 581, 3.17], [12225, 1, 156, 3.31], [11814, 1, 176, 2.62], [13280, 1, 303, 3.38], [10386, 2, 210, 1.49], [10407, 10, 1115, 4.08], [4076, 3, 191, 3.09], [8898, 3, 265, 3.07], [79, 1, 46, 1.72], [2878, 1, 64, 2.45], [11089, 1, 162, 2.75], [13035, 3, 287, 3.34], [491, 10, 343, 3.77], [3576, 25, 97, 1.8], [23611, 3, 333, 1.79], [972, 1, 94, 2.3]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [2328, 2, 11, 1.85], [8650, 2, 7, 2.38], [5491, 2, 11, 0.65], [2327, 2, 11, 1.82], [5493, 2, 7, 1.03], [589, 2, 9, 1.2], [8672, 2, 15, 2.15], [326, 2, 7, 2.64], [6935, 2, 23, 4.24], [205, 2, 7, 0.69], [206, 2, 7, 0.77], [11838, 2, 11, 1.02], [12721, 2, 11, 1.45], [6936, 2, 7, 2.89], [8915, 2, 7, 1.21], [2049, 3, 63, 2.91], [2778, 2, 13, 1.59], [1446, 2, 9, 0.74], [8676, 2, 7, 1.0], [305, 2, 7, 2.14], [615, 2, 7, 0.9], [593, 2, 8, 0.63], [21793, 1, 8, 3.94], [616, 2, 7, 0.92], [413, 1, 7, 1.27], [411, 2, 7, 0.83], [10574, 3, 9, 2.49], [412, 1, 7, 2.27], [8675, 2, 11, 2.19], [8673, 2, 9, 2.91], [143, 2, 7, 0.96], [6158, 2, 11, 2.15], [151, 1, 7, 0.9], [11836, 2, 7, 1.11], [10149, 3, 21, 3.19], [2050, 3, 7, 0.64], [3495, 3, 21, 2.56], [146, 2, 7, 0.94], [2054, 3, 7, 1.4], [75, 2, 7, 3.21], [88, 10, 16, 3.31], [7885, 4, 9, 1.37], [416, 1, 7, 1.27], [144, 2, 7, 0.9], [21798, 1, 7, 0.96], [10993, 2, 7, 1.25], [2859, 15, 7, 1.0], [346, 3, 8, 3.06], [335, 3, 17, 3.87], [2423, 80, 7, 2.23], [7705, 2, 7, 2.49], [2424, 29, 7, 2.79], [214, 3, 15, 3.59], [2423, 29, 7, 2.17], [7704, 2, 7, 2.49], [9784, 1, 7, 1.0], [5165, 1, 7, 2.02], [3848, 2, 7, 1.94], [13023, 3, 10, 2.81], [2424, 80, 7, 2.85], [346, 1, 7, 2.81], [1519, 3, 16, 0.67], [201, 3, 7, 2.66], [410, 1, 7, 1.06], [13034, 3, 8, 2.69], [345, 3, 7, 1.99], [5208, 3, 11, 1.15], [11490, 1, 7, 0.81], [6494, 1, 7, 0.92], [11770, 1, 7, 3.31], [432, 3, 11, 4.94], [7004, 1, 7, 0.81], [12373, 1, 11, 2.57], [308, 1, 9, 2.72], [2703, 3, 7, 3.33], [3430, 15, 7, 1.75], [7706, 2, 9, 2.62], [6952, 1, 7, 1.12], [20927, 1, 7, 1.35], [114, 3, 7, 1.1], [1886, 2, 7, 0.85], [3429, 15, 7, 0.81], [7886, 4, 9, 1.06], [94, 4, 7, 2.07], [1492, 1, 7, 2.1], [13928, 1, 7, 2.49], [105, 3, 7, 0.9], [11811, 1, 7, 1.82], [3981, 3, 15, 0.91], [3893, 1, 7, 2.83], [2331, 1, 7, 3.07], [3891, 1, 7, 2.83], [11089, 1, 7, 1.56], [10407, 10, 10, 3.72], [3, 2, 7, 3.47], [1490, 1, 7, 3.91], [13033, 3, 7, 1.39], [22317, 3, 8, 0.83], [5584, 3, 7, 5.0], [11674, 1, 7, 0.88], [944, 15, 7, 0.77], [1274, 1, 7, 0.69], [952, 4, 7, 3.58], [10410, 10, 10, 3.76], [7708, 2, 7, 2.49], [5812, 3, 7, 2.91], [9690, 1, 7, 3.09], [9342, 2, 7, 1.1], [10409, 10, 11, 3.34], [5946, 1, 7, 2.83], [202, 2, 7, 1.37], [1339, 3, 17, 0.66], [10398, 2, 7, 2.62], [8898, 3, 7, 1.18], [95, 3, 13, 4.54], [957, 2, 7, 1.04], [963, 3, 7, 2.7], [21003, 2, 7, 0.96], [1339, 1, 7, 0.83], [3478, 2, 7, 0.87], [20969, 3, 7, 1.66], [7703, 2, 7, 2.49], [11677, 1, 7, 2.4], [10516, 3, 8, 0.65], [823, 1, 7, 0.79], [9082, 3, 24, 2.83], [3980, 4, 7, 2.76], [14041, 3, 7, 2.5], [186, 3, 12, 0.84], [20196, 2, 7, 4.04], [3889, 1, 7, 2.83], [4253, 1, 7, 1.96], [11490, 1, 101, 1.74], [6494, 1, 47, 1.85], [11770, 1, 193, 4.23], [432, 3, 231, 6.0], [7004, 1, 73, 1.74], [12373, 1, 502, 3.5], [308, 1, 153, 4.75], [2703, 3, 282, 4.26], [3430, 15, 64, 2.68], [7706, 2, 161, 4.65], [6952, 1, 174, 2.05], [20927, 1, 73, 2.28], [114, 3, 221, 3.13], [1886, 2, 145, 1.78], [3429, 15, 49, 1.74], [7886, 4, 64, 2.53], [94, 4, 111, 3.0], [1492, 1, 34, 3.03], [13928, 1, 43, 3.42], [105, 3, 225, 1.83], [11811, 1, 417, 2.74], [3981, 3, 1548, 1.83], [3893, 1, 114, 3.76], [2331, 1, 107, 4.0], [3891, 1, 114, 3.76], [11089, 1, 158, 2.49], [10407, 10, 1073, 4.63], [3, 2, 109, 4.4], [1490, 1, 45, 4.84], [13033, 3, 539, 2.33], [22317, 3, 295, 1.75], [5584, 3, 210, 6.0], [11674, 1, 190, 1.8], [944, 15, 41, 1.7], [1274, 1, 75, 1.62], [952, 4, 67, 4.51], [10410, 10, 1073, 4.67], [7708, 2, 163, 3.42], [5812, 3, 545, 3.84], [9690, 1, 69, 4.01], [9342, 2, 427, 2.03], [10409, 10, 1618, 4.3], [5946, 1, 114, 3.76], [202, 2, 68, 2.3], [1339, 3, 1618, 1.61], [10398, 2, 134, 3.55], [8898, 3, 257, 2.11], [95, 3, 911, 5.48], [957, 2, 99, 1.97], [963, 3, 366, 3.64], [21003, 2, 261, 1.89], [1339, 1, 67, 1.76], [3478, 2, 70, 1.8], [20969, 3, 542, 2.58], [7703, 2, 163, 3.42], [11677, 1, 412, 3.33], [10516, 3, 550, 1.58], [823, 1, 37, 1.72], [9082, 3, 2258, 3.75], [3980, 4, 437, 4.52], [14041, 3, 605, 3.44], [186, 3, 616, 1.77], [20196, 2, 261, 4.97], [3889, 1, 114, 3.76], [4253, 1, 158, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 17, 1.08], [6935, 2, 28, 5.0], [6936, 2, 9, 2.9], [305, 2, 9, 1.46], [8672, 2, 15, 2.18], [1504, 2, 14, 1.49], [615, 2, 9, 1.48], [12721, 2, 11, 1.74], [2327, 2, 11, 1.82], [143, 2, 9, 2.5], [146, 2, 7, 2.14], [2328, 2, 11, 1.85], [11681, 2, 13, 2.3], [205, 2, 7, 1.24], [5491, 2, 11, 0.61], [8676, 2, 9, 1.6], [8673, 2, 11, 2.44], [11835, 2, 7, 1.06], [8650, 2, 14, 4.38], [144, 2, 7, 2.11], [308, 1, 11, 4.19], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 7, 3.92], [22247, 2, 7, 2.33], [11836, 2, 9, 1.19], [6497, 1, 7, 0.85], [6097, 29, 7, 4.96], [2424, 29, 7, 0.89], [6098, 80, 9, 4.33], [11739, 2, 7, 2.62], [2054, 3, 9, 1.53], [13260, 29, 7, 2.28], [6494, 1, 7, 0.92], [3429, 15, 7, 0.69], [326, 2, 7, 1.27], [2424, 80, 7, 2.57], [75, 2, 7, 1.36], [335, 3, 17, 2.98], [1339, 1, 7, 0.83], [411, 2, 7, 1.12], [1492, 1, 7, 2.1], [1339, 3, 17, 0.66], [1050, 2, 7, 0.73], [6496, 1, 7, 2.07], [7704, 2, 7, 3.45], [214, 3, 15, 3.59], [346, 1, 7, 0.94], [346, 3, 8, 0.83], [2859, 15, 7, 1.7], [10149, 3, 21, 1.49], [345, 3, 7, 2.01], [13264, 29, 7, 1.25], [13258, 29, 13, 2.61], [1490, 1, 7, 3.91], [1243, 2, 7, 2.14], [22558, 3, 9, 1.74], [5208, 3, 13, 1.3], [201, 3, 7, 3.06], [229, 1, 7, 2.96], [10407, 10, 10, 3.72], [8943, 3, 7, 0.71], [432, 3, 7, 2.04], [2438, 1, 7, 3.24], [7705, 2, 7, 3.45], [2331, 1, 7, 1.75], [13259, 29, 11, 4.17], [2912, 1, 7, 1.85], [7706, 2, 7, 3.45], [12229, 2, 7, 0.87], [957, 2, 7, 1.43], [13928, 1, 7, 2.49], [114, 3, 7, 1.39], [3478, 2, 7, 0.87], [1163, 3, 7, 2.33], [1548, 1, 7, 2.1], [21793, 1, 8, 5.0], [9784, 1, 7, 1.42], [7036, 1, 7, 3.69], [8938, 2, 7, 1.12], [11844, 2, 7, 1.21], [11490, 1, 7, 1.38], [2703, 3, 7, 4.45], [11687, 2, 7, 1.52], [11404, 2, 7, 0.96], [13258, 25, 7, 2.57], [410, 1, 7, 1.06], [1886, 2, 7, 0.85], [159, 16, 7, 0.69], [9065, 2, 7, 1.62], [94, 4, 7, 1.16], [11690, 2, 7, 1.0], [19687, 1, 7, 2.28], [12870, 1, 7, 3.68], [413, 1, 7, 1.02], [7708, 2, 7, 3.45], [414, 1, 7, 1.17], [2438, 2, 8, 2.54], [11689, 2, 7, 1.48], [956, 2, 7, 1.1], [11161, 1, 10, 3.62], [11159, 1, 14, 2.72], [22125, 2, 7, 0.69], [5976, 1, 7, 1.64], [9760, 29, 7, 1.64], [21781, 2, 7, 0.9], [12373, 1, 11, 3.44], [105, 3, 7, 1.24], [7005, 1, 7, 1.56], [1274, 1, 7, 4.06], [5584, 3, 7, 5.0], [2991, 3, 7, 2.7], [2805, 137, 10, 2.4], [13259, 25, 7, 2.6], [11811, 1, 7, 1.82], [9785, 1, 7, 1.42], [4253, 1, 7, 1.41], [3495, 3, 21, 2.56], [20927, 1, 7, 1.35], [8600, 1, 7, 2.12], [9209, 29, 7, 0.71], [11489, 1, 7, 1.38], [9372, 1, 7, 4.12], [247, 1, 7, 3.34], [10147, 1, 7, 0.69], [9690, 1, 7, 3.09], [9491, 21, 16, 3.13], [6360, 10, 15, 1.18], [12764, 2, 8, 1.69], [8285, 2, 8, 0.85], [5769, 3, 10, 0.93], [7007, 1, 7, 1.56], [21269, 3, 7, 3.77], [5076, 1, 7, 1.75], [7706, 2, 162, 4.38], [12229, 2, 138, 2.9], [957, 2, 82, 3.46], [13928, 1, 43, 3.42], [114, 3, 224, 2.32], [3478, 2, 70, 1.8], [1548, 1, 91, 3.03], [21793, 1, 212, 6.0], [9784, 1, 67, 2.35], [7036, 1, 118, 4.62], [8938, 2, 175, 2.05], [11844, 2, 253, 2.13], [11490, 1, 100, 2.31], [2703, 3, 266, 5.38], [11687, 2, 277, 2.46], [11404, 2, 96, 1.89], [13258, 25, 72, 3.5], [410, 1, 97, 1.99], [1886, 2, 145, 1.78], [159, 16, 42, 1.5], [9065, 2, 277, 2.55], [94, 4, 111, 3.19], [11690, 2, 277, 1.93], [19687, 1, 28, 3.21], [12870, 1, 128, 4.61], [413, 1, 79, 1.95], [7708, 2, 162, 4.38], [414, 1, 79, 2.1], [2438, 2, 573, 3.47], [11689, 2, 277, 2.41], [956, 2, 98, 2.03], [11161, 1, 453, 4.54], [11159, 1, 446, 3.64], [22125, 2, 58, 1.62], [5976, 1, 145, 2.57], [9760, 29, 66, 2.57], [21781, 2, 96, 1.83], [12373, 1, 493, 4.36], [105, 3, 224, 2.17], [7005, 1, 73, 2.49], [1274, 1, 74, 4.99], [5584, 3, 210, 6.0], [2991, 3, 146, 3.63], [2805, 137, 169, 3.33], [13259, 25, 64, 3.53], [11811, 1, 417, 2.74], [9785, 1, 67, 2.35], [4253, 1, 156, 3.44], [3495, 3, 888, 3.48], [20927, 1, 73, 2.28], [8600, 1, 133, 3.05], [9209, 29, 30, 1.64], [11489, 1, 100, 2.31], [9372, 1, 211, 5.04], [247, 1, 79, 4.27], [10147, 1, 62, 1.62], [9690, 1, 69, 4.01], [9491, 21, 1806, 4.07], [6360, 10, 682, 2.11], [12764, 2, 682, 2.62], [8285, 2, 444, 1.79], [5769, 3, 1013, 1.87], [7007, 1, 73, 2.49], [21269, 3, 266, 4.71], [5076, 1, 121, 2.68]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.4], [141, 2, 7, 0.92], [2778, 2, 13, 1.69], [362, 2, 7, 1.69], [205, 2, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 17, 3.77], [206, 2, 7, 0.77], [8676, 2, 7, 1.35], [2049, 3, 17, 0.73], [22247, 2, 7, 1.83], [523, 2, 7, 1.27], [305, 2, 7, 1.12], [8650, 2, 9, 2.89], [8648, 2, 7, 3.37], [2776, 2, 7, 1.38], [2328, 2, 7, 2.48], [616, 2, 7, 2.48], [2327, 2, 7, 1.48], [8674, 2, 7, 1.29], [589, 2, 7, 1.56], [11835, 2, 7, 0.94], [412, 1, 7, 2.34], [143, 2, 7, 1.1], [146, 2, 7, 0.98], [6497, 1, 9, 0.85], [6097, 80, 7, 4.54], [583, 2, 7, 1.39], [326, 2, 7, 1.48], [10149, 3, 21, 3.19], [6097, 29, 7, 1.85], [11836, 2, 7, 1.29], [145, 2, 7, 0.81], [144, 2, 7, 1.04], [10574, 3, 10, 2.88], [6494, 1, 7, 0.92], [6496, 1, 7, 2.09], [2054, 3, 7, 2.44], [1413, 15, 7, 0.83], [6098, 80, 7, 2.11], [1886, 2, 20, 1.67], [944, 15, 7, 0.77], [21793, 1, 8, 5.0], [6098, 29, 7, 2.21], [247, 1, 7, 4.37], [335, 3, 17, 3.87], [3429, 15, 7, 0.69], [201, 3, 7, 0.94], [1490, 1, 7, 2.66], [21798, 1, 7, 0.96], [308, 1, 14, 1.66], [2859, 15, 7, 0.85], [6158, 2, 11, 2.15], [9998, 80, 7, 3.39], [3478, 2, 7, 0.87], [13928, 1, 7, 2.49], [7084, 3, 7, 1.42], [11489, 1, 7, 1.3], [1703, 2, 7, 1.53], [107, 2, 7, 2.8], [5812, 3, 9, 3.96], [4253, 1, 7, 1.96], [107, 7, 8, 2.74], [9342, 2, 7, 1.1], [1050, 2, 7, 0.73], [94, 4, 7, 0.92], [186, 3, 12, 0.84], [11490, 1, 7, 0.81], [1309, 1, 7, 3.14], [214, 3, 15, 3.59], [5813, 3, 10, 3.68], [10398, 2, 7, 1.32], [5811, 3, 8, 4.0], [11767, 1, 7, 0.83], [2821, 3, 13, 0.91], [9491, 21, 16, 0.87], [8599, 1, 7, 1.48], [3980, 4, 7, 2.76], [11811, 1, 7, 1.82], [11771, 1, 7, 4.31], [229, 1, 7, 2.27], [8898, 3, 7, 5.0], [8944, 3, 7, 0.71], [3495, 3, 21, 2.56], [1339, 3, 17, 0.66], [1049, 2, 7, 0.73], [9358, 1, 7, 2.79], [409, 1, 7, 2.04], [955, 2, 7, 1.0], [192, 3, 21, 4.05], [346, 3, 8, 0.83], [2991, 3, 7, 4.73], [19687, 1, 7, 2.28], [12764, 2, 8, 1.69], [13928, 2, 7, 2.59], [7036, 1, 7, 3.69], [9690, 1, 7, 3.09], [22573, 2, 7, 1.54], [10124, 1, 7, 4.2], [6575, 3, 7, 3.12], [5584, 3, 7, 5.0], [3334, 5, 7, 1.41], [8897, 3, 7, 5.0], [10147, 1, 7, 0.69], [1277, 1, 7, 0.92], [1701, 2, 7, 1.06], [11886, 2, 7, 1.44], [20927, 1, 7, 1.35], [1523, 1, 7, 1.29], [11678, 1, 7, 1.98], [4001, 3, 14, 1.78], [13260, 29, 7, 2.46], [23275, 2, 7, 1.56], [10516, 3, 8, 3.0], [11677, 1, 7, 2.4], [9065, 2, 7, 1.62], [973, 3, 8, 1.92], [45, 2, 7, 1.2], [3984, 3, 8, 1.07], [346, 1, 7, 0.94], [3979, 3, 8, 1.56], [21269, 3, 7, 2.2], [23031, 3, 7, 3.25], [19924, 2, 7, 1.41], [9373, 5, 7, 2.33], [10181, 26, 8, 0.81], [958, 2, 7, 0.69], [11690, 2, 7, 1.0], [5976, 1, 7, 2.54], [9069, 1, 7, 1.23], [23032, 3, 7, 2.86], [7005, 1, 7, 1.56], [1339, 1, 7, 0.83], [11490, 1, 101, 1.74], [1309, 1, 47, 4.07], [214, 3, 337, 4.39], [5813, 3, 532, 5.42], [10398, 2, 135, 2.25], [5811, 3, 460, 5.34], [11767, 1, 151, 1.76], [2821, 3, 1232, 1.82], [9491, 21, 1971, 1.82], [8599, 1, 133, 2.4], [3980, 4, 437, 4.52], [11811, 1, 417, 2.74], [11771, 1, 192, 5.24], [229, 1, 75, 3.2], [8898, 3, 257, 6.0], [8944, 3, 206, 1.64], [3495, 3, 888, 3.48], [1339, 3, 1618, 1.61], [1049, 2, 44, 1.45], [9358, 1, 52, 3.72], [409, 1, 14, 2.58], [955, 2, 100, 1.93], [346, 3, 573, 1.76], [2991, 3, 146, 6.0], [19687, 1, 28, 3.21], [12764, 2, 682, 2.62], [13928, 2, 21, 3.52], [7036, 1, 118, 4.62], [9690, 1, 69, 4.01], [22573, 2, 65, 2.47], [10124, 1, 92, 5.13], [6575, 3, 231, 4.05], [5584, 3, 210, 6.0], [3334, 5, 170, 2.33], [8897, 3, 257, 6.0], [10147, 1, 62, 1.62], [1277, 1, 180, 1.84], [1701, 2, 156, 1.99], [11886, 2, 177, 2.37], [20927, 1, 73, 2.28], [1523, 1, 44, 2.22], [11678, 1, 409, 2.9], [4001, 3, 742, 2.71], [13260, 29, 67, 3.39], [23275, 2, 65, 2.49], [10516, 3, 542, 3.92], [11677, 1, 412, 3.33], [9065, 2, 277, 2.55], [973, 3, 1084, 2.84], [45, 2, 105, 2.12], [3984, 3, 1527, 1.97], [346, 1, 143, 1.87], [3979, 3, 742, 2.49], [21269, 3, 265, 3.13], [23031, 3, 376, 4.18], [19924, 2, 59, 2.34], [9373, 5, 84, 3.26], [10181, 26, 128, 1.74], [958, 2, 99, 1.62], [11690, 2, 277, 1.93], [5976, 1, 143, 3.47], [9069, 1, 112, 2.16], [23032, 3, 475, 3.79], [7005, 1, 73, 2.49], [1339, 1, 67, 1.76]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 28, 4.18], [305, 2, 7, 0.88], [2328, 2, 11, 1.85], [2778, 2, 13, 1.86], [8650, 2, 9, 2.32], [8672, 2, 12, 1.94], [5491, 2, 7, 0.85], [143, 2, 7, 0.93], [6936, 2, 9, 3.12], [145, 2, 7, 0.96], [11837, 2, 7, 0.87], [11681, 2, 13, 2.3], [5493, 2, 9, 1.81], [589, 2, 7, 0.69], [75, 2, 7, 1.79], [146, 2, 7, 1.1], [12721, 2, 11, 1.45], [8673, 2, 11, 2.2], [8853, 2, 7, 2.88], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [1005, 2, 7, 2.48], [144, 2, 7, 1.34], [990, 2, 7, 1.16], [8915, 2, 11, 2.76], [308, 1, 11, 4.19], [88, 10, 21, 1.78], [434, 2, 7, 1.04], [6158, 2, 12, 1.25], [2424, 29, 7, 0.89], [7704, 2, 7, 3.01], [2423, 29, 7, 2.17], [11836, 2, 9, 1.36], [2424, 80, 7, 2.57], [7705, 2, 9, 4.08], [1413, 15, 7, 0.99], [7706, 2, 9, 3.46], [10574, 3, 10, 3.31], [2054, 3, 9, 2.2], [2423, 80, 7, 2.23], [3, 2, 9, 2.19], [944, 15, 7, 1.02], [412, 1, 7, 2.34], [3478, 2, 9, 2.45], [2859, 15, 7, 2.42], [10149, 3, 21, 1.49], [12720, 2, 7, 1.89], [7004, 1, 9, 2.58], [74, 1, 7, 0.87], [346, 3, 8, 3.06], [11919, 1, 7, 1.48], [6497, 1, 7, 0.85], [1339, 3, 17, 0.66], [346, 1, 7, 2.81], [10993, 2, 7, 1.25], [13928, 1, 7, 2.49], [418, 2, 7, 0.94], [411, 2, 7, 0.74], [13260, 29, 7, 2.5], [13034, 3, 11, 2.28], [11089, 1, 7, 1.56], [7036, 1, 7, 3.14], [6952, 1, 7, 3.06], [13028, 3, 7, 1.96], [14037, 3, 7, 1.91], [1050, 2, 7, 0.66], [8274, 3, 9, 1.44], [7707, 2, 7, 1.93], [2991, 3, 7, 4.18], [1339, 1, 7, 0.83], [22317, 3, 18, 1.09], [9784, 1, 7, 1.37], [6494, 1, 7, 0.92], [7708, 2, 7, 2.89], [21793, 1, 8, 4.0], [6630, 3, 7, 4.62], [8943, 3, 7, 0.71], [1243, 2, 7, 2.08], [1490, 1, 7, 3.91], [3495, 3, 21, 2.56], [5208, 3, 11, 1.15], [2912, 1, 7, 1.64], [563, 2, 7, 1.19], [11491, 2, 7, 1.42], [11490, 1, 7, 1.29], [229, 1, 7, 2.96], [8944, 3, 7, 0.71], [5940, 3, 9, 0.75], [192, 3, 21, 4.51], [1049, 2, 7, 0.69], [6627, 3, 7, 0.85], [12229, 2, 7, 0.87], [11581, 29, 7, 1.89], [13033, 3, 7, 1.72], [2331, 1, 7, 1.75], [23275, 2, 7, 1.56], [201, 3, 7, 1.16], [5165, 1, 7, 1.41], [247, 1, 7, 2.39], [1274, 1, 7, 1.58], [214, 3, 15, 3.59], [7886, 4, 9, 0.87], [2805, 137, 10, 1.17], [21798, 1, 7, 1.13], [335, 3, 17, 3.87], [20555, 2, 7, 2.66], [8635, 3, 7, 1.12], [114, 3, 7, 2.85], [8898, 3, 7, 2.76], [6496, 1, 7, 2.5], [942, 3, 9, 2.01], [6629, 3, 7, 0.9], [1703, 2, 7, 1.02], [11770, 1, 7, 2.54], [5812, 3, 7, 2.49], [10406, 10, 12, 3.4], [202, 2, 7, 1.19], [83, 2, 7, 0.96], [9760, 29, 7, 3.29], [21269, 3, 7, 2.34], [332, 2, 7, 1.19], [215, 4, 7, 5.0], [186, 3, 15, 2.31], [9372, 1, 7, 4.12], [9827, 3, 7, 0.75], [4940, 1, 7, 0.67], [2821, 3, 13, 0.91], [10527, 3, 13, 3.97], [5811, 3, 8, 2.39], [1886, 2, 7, 0.85], [11767, 1, 7, 0.83], [11489, 1, 7, 1.29], [12373, 1, 11, 3.44], [21781, 2, 7, 0.9], [12870, 1, 7, 4.22], [22317, 3, 249, 3.38], [9784, 1, 67, 2.3], [6494, 1, 47, 1.85], [7708, 2, 161, 4.65], [21793, 1, 185, 6.0], [6630, 3, 72, 6.0], [8943, 3, 305, 1.61], [1243, 2, 77, 3.86], [1490, 1, 45, 4.84], [3495, 3, 888, 3.48], [5208, 3, 521, 2.08], [2912, 1, 44, 2.57], [563, 2, 68, 2.12], [11491, 2, 130, 2.35], [11490, 1, 100, 2.22], [229, 1, 75, 3.89], [8944, 3, 206, 1.64], [5940, 3, 201, 2.19], [192, 3, 1071, 6.0], [1049, 2, 59, 1.5], [6627, 3, 72, 2.88], [12229, 2, 138, 2.9], [11581, 29, 55, 2.82], [13033, 3, 542, 2.64], [2331, 1, 108, 2.68], [23275, 2, 65, 2.49], [201, 3, 279, 2.09], [5165, 1, 44, 2.34], [247, 1, 80, 3.32], [1274, 1, 75, 2.51], [214, 3, 337, 4.39], [7886, 4, 132, 1.8], [2805, 137, 171, 2.1], [21798, 1, 128, 2.06], [335, 3, 1178, 4.78], [20555, 2, 52, 3.59], [114, 3, 189, 4.14], [8898, 3, 254, 4.54], [6496, 1, 36, 4.1], [942, 3, 267, 4.29], [6629, 3, 73, 1.83], [1703, 2, 153, 1.95], [11770, 1, 193, 4.09], [5812, 3, 530, 4.52], [10406, 10, 1618, 4.36], [202, 2, 68, 2.12], [83, 2, 49, 1.89], [9760, 29, 19, 4.09], [21269, 3, 265, 4.12], [332, 2, 68, 2.12], [215, 4, 34, 5.95], [186, 3, 511, 4.18], [9372, 1, 211, 5.04], [9827, 3, 80, 1.68], [4940, 1, 112, 1.6], [2821, 3, 1232, 1.82], [10527, 3, 803, 4.89], [5811, 3, 539, 3.32], [1886, 2, 145, 1.78], [11767, 1, 151, 1.76], [11489, 1, 100, 2.22], [12373, 1, 493, 4.36], [21781, 2, 96, 1.83], [12870, 1, 125, 5.15]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 9, 1.09], [589, 2, 10, 0.75], [2778, 2, 11, 1.33], [6936, 2, 13, 3.9], [11681, 2, 30, 4.17], [2327, 2, 9, 1.37], [362, 2, 11, 1.69], [8648, 2, 9, 3.8], [8650, 2, 11, 3.82], [305, 2, 11, 3.03], [326, 2, 9, 2.62], [2328, 2, 7, 1.85], [2775, 2, 9, 1.33], [8853, 2, 14, 4.03], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [140, 2, 7, 1.19], [3840, 1, 7, 0.96], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [151, 1, 7, 0.96], [412, 1, 7, 1.19], [7036, 1, 7, 1.63], [990, 2, 9, 1.69], [21798, 1, 7, 0.96], [5165, 1, 7, 1.87], [145, 2, 7, 2.17], [12349, 1, 7, 4.19], [201, 3, 13, 3.61], [6952, 1, 9, 3.19], [2050, 3, 9, 3.0], [6097, 80, 7, 5.0], [2055, 3, 9, 2.57], [345, 3, 9, 1.93], [10993, 2, 7, 1.41], [144, 2, 7, 1.17], [7084, 3, 7, 3.68], [2057, 3, 9, 2.57], [3891, 1, 7, 1.46], [11770, 1, 7, 0.85], [998, 2, 11, 1.56], [2912, 1, 7, 1.75], [5165, 2, 12, 1.0], [3893, 1, 7, 1.42], [9372, 1, 7, 3.52], [12870, 1, 7, 2.0], [12343, 1, 7, 4.19], [1886, 2, 7, 0.96], [5208, 3, 8, 0.62], [7885, 4, 7, 1.42], [12351, 1, 7, 1.57], [6097, 29, 9, 5.0], [6098, 80, 7, 3.16], [6158, 2, 9, 2.33], [2424, 80, 7, 3.16], [3334, 5, 7, 2.3], [11089, 1, 9, 1.67], [10149, 3, 24, 1.49], [12345, 1, 7, 4.19], [12344, 1, 7, 1.03], [1492, 1, 7, 1.08], [1519, 3, 20, 0.67], [4032, 29, 7, 1.06], [3889, 1, 7, 1.64], [2912, 2, 8, 1.56], [12304, 1, 7, 2.88], [13028, 3, 7, 4.17], [3576, 25, 9, 2.9], [972, 3, 7, 1.44], [411, 2, 7, 1.25], [13034, 3, 7, 4.12], [2331, 1, 7, 3.07], [229, 1, 7, 4.37], [11583, 29, 7, 0.89], [11426, 25, 7, 0.81], [11490, 1, 7, 1.25], [5151, 2, 7, 0.87], [3, 2, 9, 1.41], [5076, 1, 7, 1.06], [12764, 2, 9, 1.76], [13893, 2, 7, 3.82], [2805, 137, 7, 2.3], [3478, 2, 7, 1.67], [1703, 2, 7, 1.39], [2160, 68, 7, 2.25], [3575, 25, 7, 1.49], [13023, 3, 8, 2.24], [5812, 3, 8, 4.08], [13280, 1, 7, 2.1], [4253, 1, 7, 2.02], [2438, 2, 8, 2.54], [11404, 2, 7, 0.83], [11814, 1, 7, 0.92], [3577, 25, 7, 1.0], [9289, 29, 7, 1.55], [75, 2, 7, 0.71], [11813, 1, 7, 2.65], [9971, 2, 7, 3.5], [957, 2, 7, 2.0], [9967, 2, 7, 1.82], [11150, 2, 8, 0.69], [9069, 1, 7, 1.21], [22317, 3, 7, 0.85], [8283, 2, 8, 2.25], [1413, 15, 7, 1.31], [2878, 1, 7, 1.46], [5584, 3, 7, 3.36], [4586, 10, 15, 1.4], [9964, 2, 7, 4.37], [10407, 10, 12, 0.87], [9491, 21, 15, 2.64], [9965, 2, 7, 3.5], [114, 3, 7, 2.46], [10609, 1, 7, 2.27], [289, 3, 7, 1.63], [13249, 29, 7, 1.79], [4076, 3, 7, 3.06], [21697, 3, 7, 0.87], [14041, 3, 7, 2.5], [8926, 1, 7, 3.87], [12647, 1, 7, 1.12], [192, 3, 13, 3.54], [24257, 1, 7, 2.78], [11739, 2, 7, 0.83], [1277, 1, 7, 0.83], [336, 15, 7, 0.77], [11687, 2, 7, 0.73], [3495, 3, 16, 2.43], [1163, 3, 7, 2.33], [7324, 1, 7, 1.98], [2528, 29, 7, 2.63], [11425, 25, 7, 0.81], [1801, 1, 7, 2.7], [3576, 25, 47, 3.86], [972, 3, 557, 2.29], [411, 2, 102, 2.1], [13034, 3, 551, 4.96], [2331, 1, 109, 3.92], [229, 1, 76, 5.22], [11583, 29, 53, 1.74], [11426, 25, 111, 1.66], [11490, 1, 102, 2.1], [5151, 2, 23, 1.72], [3, 2, 95, 3.25], [5076, 1, 121, 1.91], [12764, 2, 690, 2.62], [13893, 2, 249, 4.67], [2805, 137, 168, 3.15], [3478, 2, 59, 2.86], [1703, 2, 153, 2.25], [2160, 68, 123, 3.1], [3575, 25, 79, 3.16], [13023, 3, 460, 3.92], [5812, 3, 455, 5.52], [13280, 1, 298, 2.95], [4253, 1, 158, 2.87], [2438, 2, 581, 3.39], [11404, 2, 81, 2.5], [11814, 1, 209, 1.77], [3577, 25, 83, 1.85], [9289, 29, 59, 2.4], [75, 2, 137, 1.56], [11813, 1, 291, 3.5], [9971, 2, 249, 4.35], [957, 2, 83, 3.42], [9967, 2, 249, 2.67], [11150, 2, 329, 1.54], [9069, 1, 115, 2.06], [22317, 3, 300, 1.7], [8283, 2, 437, 3.09], [1413, 15, 92, 2.16], [2878, 1, 63, 2.52], [5584, 3, 226, 4.21], [4586, 10, 1138, 3.05], [9964, 2, 249, 5.23], [10407, 10, 1086, 1.7], [9491, 21, 1959, 3.5], [9965, 2, 249, 4.35], [10609, 1, 264, 3.11], [289, 3, 538, 2.47], [13249, 29, 60, 2.64], [4076, 3, 186, 3.91], [21697, 3, 170, 1.72], [14041, 3, 613, 3.35], [8926, 1, 57, 4.72], [12647, 1, 205, 1.98], [192, 3, 1261, 4.37], [24257, 1, 49, 3.43], [11739, 2, 54, 1.68], [1277, 1, 184, 1.68], [336, 15, 39, 1.42], [11687, 2, 284, 1.58], [3495, 3, 899, 3.28], [7324, 1, 57, 2.83], [2528, 29, 88, 3.48], [11425, 25, 111, 1.66], [1801, 1, 87, 3.55]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 19, 3.76], [2049, 3, 16, 0.78], [141, 2, 7, 0.75], [205, 2, 7, 0.96], [326, 2, 8, 1.03], [144, 2, 7, 0.94], [589, 2, 12, 0.67], [362, 2, 7, 2.54], [151, 1, 7, 0.89], [1776, 1, 7, 2.85], [146, 2, 7, 1.37], [143, 2, 7, 1.12], [206, 2, 7, 0.69], [1777, 1, 7, 2.22], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [20252, 2, 7, 0.85], [6936, 2, 10, 2.57], [5151, 2, 7, 2.5], [8650, 2, 7, 3.41], [1007, 2, 10, 0.79], [2778, 2, 9, 1.06], [8677, 3, 8, 3.19], [76, 2, 11, 3.36], [10, 2, 11, 2.3], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 9, 2.1], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [361, 2, 7, 1.25], [413, 1, 7, 1.89], [7004, 1, 7, 0.77], [11404, 2, 7, 0.92], [7084, 3, 7, 2.91], [411, 2, 7, 1.17], [410, 1, 7, 1.42], [3478, 2, 7, 2.36], [308, 1, 7, 2.44], [167, 3, 7, 3.2], [5081, 2, 15, 1.3], [7005, 1, 9, 0.99], [3495, 3, 26, 2.98], [1124, 2, 10, 0.99], [432, 3, 7, 2.04], [9827, 3, 7, 1.38], [45, 2, 7, 3.67], [94, 4, 7, 3.04], [7036, 1, 7, 2.68], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [168, 3, 9, 1.09], [10574, 3, 9, 2.32], [3891, 1, 7, 1.02], [2049, 1, 7, 3.02], [2336, 3, 8, 1.49], [12870, 1, 7, 4.97], [335, 3, 22, 3.78], [1504, 2, 16, 1.33], [6097, 29, 9, 4.96], [6097, 80, 7, 4.94], [998, 2, 9, 3.14], [214, 3, 15, 0.98], [11737, 2, 7, 1.66], [95, 3, 21, 0.92], [346, 1, 7, 1.33], [20927, 1, 7, 1.75], [6098, 29, 7, 3.7], [1490, 1, 7, 1.12], [79, 1, 7, 0.73], [5208, 3, 13, 1.54], [9069, 1, 7, 2.35], [22316, 3, 9, 0.97], [6098, 80, 7, 3.68], [8898, 3, 7, 4.23], [1070, 7, 13, 0.73], [14017, 3, 7, 1.29], [997, 2, 9, 2.57], [20498, 1, 7, 2.44], [346, 3, 8, 0.91], [13034, 3, 10, 2.73], [83, 2, 7, 0.85], [22554, 10, 15, 0.87], [1622, 1, 12, 0.53], [13260, 29, 7, 2.4], [7567, 3, 7, 3.69], [11116, 1, 7, 0.81], [8945, 3, 8, 1.84], [5811, 3, 6, 2.36], [22317, 3, 10, 1.35], [5946, 1, 7, 1.02], [5813, 3, 7, 1.98], [20498, 3, 10, 2.16], [5513, 2, 7, 1.0], [5209, 3, 7, 1.0], [12924, 1, 7, 0.86], [5086, 1, 11, 1.39], [995, 2, 9, 4.49], [996, 2, 9, 4.17], [33, 1, 7, 1.99], [974, 3, 7, 1.69], [972, 3, 8, 0.85], [229, 1, 7, 3.67], [1413, 15, 7, 0.87], [9691, 1, 7, 3.2], [35, 1, 7, 2.27], [8557, 3, 7, 1.53], [3049, 3, 7, 4.11], [20486, 3, 10, 3.51], [5584, 3, 7, 3.61], [8943, 3, 7, 0.71], [1703, 2, 7, 2.72], [13023, 3, 8, 2.62], [4076, 3, 7, 5.0], [2424, 80, 7, 4.51], [39, 1, 7, 1.54], [952, 4, 7, 4.29], [3900, 3, 9, 2.43], [8104, 1, 7, 0.75], [9081, 3, 15, 3.06], [11510, 3, 10, 1.73], [215, 4, 7, 5.0], [20486, 1, 7, 2.87], [34, 1, 7, 1.23], [972, 1, 7, 1.41], [114, 3, 7, 0.92], [6497, 1, 7, 2.18], [2854, 21, 13, 0.84], [3047, 3, 7, 1.93], [38, 1, 7, 1.99], [1414, 15, 7, 0.81], [20969, 3, 7, 2.17], [23611, 3, 7, 0.81], [8635, 3, 7, 1.1], [1339, 3, 20, 0.72], [95, 3, 796, 2.85], [346, 1, 128, 2.48], [1490, 1, 43, 2.28], [79, 1, 34, 1.75], [5208, 3, 293, 2.08], [22316, 3, 263, 2.34], [8898, 3, 199, 5.88], [1070, 7, 421, 2.65], [14017, 3, 139, 3.14], [997, 2, 196, 3.94], [20498, 1, 70, 3.85], [346, 3, 513, 2.32], [13034, 3, 414, 4.4], [83, 2, 47, 1.5], [22554, 10, 327, 1.52], [1622, 1, 94, 1.18], [13260, 29, 63, 3.05], [7567, 3, 60, 4.54], [11116, 1, 70, 1.46], [8945, 3, 490, 2.82], [5811, 3, 414, 4.08], [22317, 3, 224, 2.77], [5946, 1, 108, 1.67], [5813, 3, 414, 3.88], [20498, 3, 414, 3.8], [5513, 2, 69, 1.65], [5209, 3, 489, 1.65], [12924, 1, 38, 2.94], [5086, 1, 130, 4.04], [995, 2, 196, 6.0], [996, 2, 196, 5.82], [33, 1, 93, 2.83], [974, 3, 128, 2.34], [972, 3, 497, 2.03], [1413, 15, 86, 1.52], [9691, 1, 54, 4.56], [35, 1, 93, 3.43], [8557, 3, 144, 3.43], [3049, 3, 98, 5.52], [20486, 3, 419, 5.18], [5584, 3, 178, 5.02], [8943, 3, 334, 1.35], [1703, 2, 135, 4.12], [13023, 3, 414, 4.36], [4076, 3, 140, 6.0], [2424, 80, 152, 5.66], [39, 1, 93, 2.47], [952, 4, 62, 4.94], [8104, 1, 180, 1.4], [9081, 3, 381, 4.72], [11510, 3, 483, 3.4], [20486, 1, 71, 4.77], [34, 1, 97, 1.88], [972, 1, 83, 2.33], [114, 3, 203, 2.32], [6497, 1, 31, 3.34], [2854, 21, 885, 2.25], [3047, 3, 224, 2.58], [38, 1, 97, 2.64], [1414, 15, 83, 2.22], [20969, 3, 511, 2.81], [23611, 3, 300, 1.46], [1339, 3, 1518, 1.37]]</t>
+    <t>[[8672, 2, 6, 0.73], [3, 2, 4, 1.22], [326, 2, 4, 0.29], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 1.15], [6935, 2, 8, 1.27], [130, 1, 5, 0.6], [205, 2, 4, 0.2], [75, 2, 6, 0.87], [12721, 2, 6, 0.72], [144, 2, 4, 0.74], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [1776, 1, 4, 0.61], [593, 2, 5, 0.59], [146, 2, 4, 1.17], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [20252, 2, 5, 0.2], [206, 2, 4, 0.2], [8648, 2, 4, 1.27], [990, 2, 4, 0.7], [2328, 2, 4, 0.2], [6936, 2, 6, 1.17], [5151, 2, 4, 0.47], [7886, 4, 5, 0.45], [8650, 2, 5, 1.65], [88, 10, 8, 0.44], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2054, 3, 5, 0.53], [362, 2, 4, 0.96], [2057, 3, 6, 0.47], [10825, 21, 10, 1.03], [8649, 2, 4, 1.4], [2055, 3, 5, 0.42], [345, 3, 4, 0.32], [7084, 3, 4, 2.28], [7005, 1, 4, 0.2], [307, 2, 4, 1.0], [3889, 1, 4, 0.2], [21793, 1, 5, 1.14], [410, 1, 4, 0.52], [432, 3, 6, 0.62], [7887, 4, 4, 0.35], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [11681, 2, 5, 1.79], [10149, 3, 15, 0.99], [308, 1, 4, 0.49], [7036, 1, 4, 0.68], [94, 4, 4, 0.2], [12870, 1, 4, 2.33], [5081, 2, 5, 0.44], [9827, 3, 4, 0.2], [201, 3, 5, 0.2], [167, 3, 5, 1.4], [13028, 3, 4, 0.62], [8677, 3, 6, 0.65], [1504, 2, 5, 0.52], [1124, 2, 8, 0.2], [3891, 1, 4, 0.2], [35, 1, 4, 0.83], [3893, 1, 4, 0.2], [8676, 2, 4, 0.73], [168, 3, 4, 1.23], [9760, 29, 4, 0.24], [5812, 3, 6, 0.8], [1243, 2, 4, 0.66], [6158, 2, 6, 0.51], [412, 1, 4, 1.39], [45, 2, 4, 0.64], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [335, 3, 11, 0.22], [1767, 25, 4, 0.59], [3980, 4, 4, 1.39], [346, 1, 4, 0.85], [95, 3, 14, 0.3], [9069, 1, 4, 0.42], [214, 3, 9, 0.2], [998, 2, 4, 1.22], [2049, 1, 4, 0.48], [413, 1, 5, 1.32], [3495, 3, 13, 1.31], [8674, 2, 4, 0.73], [856, 1, 4, 0.38], [34, 1, 4, 0.63], [8898, 3, 5, 0.75], [11116, 1, 5, 0.56], [346, 3, 4, 0.82], [1766, 25, 4, 0.56], [5946, 1, 4, 0.78], [1070, 7, 10, 0.46], [997, 2, 4, 0.77], [9691, 1, 4, 1.77], [20498, 1, 4, 0.23], [38, 1, 4, 0.88], [974, 3, 5, 1.13], [152, 21, 4, 0.43], [9372, 1, 5, 1.99], [14017, 3, 5, 1.04], [1091, 1, 4, 0.78], [22317, 3, 6, 0.51], [11954, 1, 5, 0.2], [20498, 3, 8, 0.57], [996, 2, 4, 1.22], [82, 2, 4, 0.46], [1080, 3, 5, 0.3], [9828, 3, 4, 0.2], [14037, 3, 4, 0.2], [39, 1, 4, 0.84], [5811, 3, 4, 2.2], [3048, 3, 4, 1.24], [972, 3, 5, 0.91], [1767, 2, 4, 0.59], [13260, 29, 4, 0.73], [24, 1, 4, 0.79], [4203, 1, 5, 0.3], [5813, 3, 5, 1.52], [10780, 10, 4, 1.3], [13034, 3, 5, 1.09], [5513, 2, 4, 1.0], [8945, 3, 5, 1.5], [952, 4, 4, 2.16], [202, 2, 4, 1.59], [3981, 3, 10, 1.42], [3900, 3, 4, 0.49], [995, 2, 4, 1.22], [6497, 1, 4, 0.47], [8672, 2, 339, 3.45], [3, 2, 142, 3.44], [326, 2, 110, 2.14], [589, 2, 172, 1.66], [143, 2, 168, 3.36], [6935, 2, 315, 5.06], [130, 1, 66, 2.8], [205, 2, 122, 2.81], [75, 2, 165, 3.91], [12721, 2, 321, 4.0], [144, 2, 180, 2.18], [145, 2, 171, 3.26], [8915, 2, 218, 1.5], [1776, 1, 122, 3.44], [593, 2, 77, 2.77], [146, 2, 171, 3.01], [151, 1, 75, 1.7], [2778, 2, 174, 3.37], [1777, 1, 122, 3.66], [20252, 2, 105, 1.86], [206, 2, 55, 2.12], [8648, 2, 248, 5.84], [2328, 2, 169, 3.6], [6936, 2, 315, 4.78], [5151, 2, 29, 1.66], [7886, 4, 132, 1.87], [8650, 2, 248, 6.0], [88, 10, 669, 2.75], [141, 2, 173, 3.92], [74, 1, 222, 5.84], [83, 2, 60, 1.77], [1492, 1, 41, 3.2], [7004, 1, 90, 1.73], [2054, 3, 532, 2.85], [362, 2, 167, 3.17], [2057, 3, 532, 3.18], [10825, 21, 710, 3.76], [8649, 2, 248, 6.0], [2055, 3, 532, 3.1], [345, 3, 337, 3.35], [7005, 1, 90, 1.72], [307, 2, 174, 2.69], [3889, 1, 138, 3.11], [21793, 1, 256, 5.01], [410, 1, 124, 1.76], [432, 3, 339, 3.45], [7887, 4, 157, 1.66], [22247, 2, 338, 3.49], [57, 1, 101, 1.76], [11681, 2, 295, 6.0], [10149, 3, 986, 3.97], [308, 1, 188, 3.55], [7036, 1, 143, 4.05], [94, 4, 133, 4.41], [12870, 1, 70, 6.0], [5081, 2, 213, 3.57], [9827, 3, 98, 3.03], [201, 3, 337, 3.35], [167, 3, 255, 3.97], [13028, 3, 163, 4.2], [8677, 3, 330, 3.57], [1504, 2, 228, 3.71], [1124, 2, 209, 3.48], [3891, 1, 138, 3.99], [35, 1, 125, 3.56]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [589, 2, 5, 0.91], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [130, 1, 4, 0.36], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [205, 2, 4, 0.2], [8648, 2, 5, 1.15], [2775, 2, 4, 1.33], [593, 2, 6, 0.4], [145, 2, 4, 0.25], [146, 2, 5, 0.32], [5493, 2, 4, 0.2], [11681, 2, 4, 2.0], [7036, 1, 4, 1.53], [88, 10, 14, 0.52], [2776, 2, 4, 1.06], [141, 2, 5, 0.39], [151, 1, 4, 0.51], [1446, 2, 4, 0.53], [206, 2, 4, 0.2], [990, 2, 4, 0.39], [9760, 29, 4, 0.2], [248, 1, 4, 0.53], [5491, 2, 4, 0.4], [1007, 2, 4, 0.38], [8672, 2, 4, 2.86], [142, 2, 4, 0.92], [362, 2, 4, 0.52], [2912, 1, 4, 0.66], [10993, 2, 5, 0.35], [3893, 1, 4, 0.2], [12870, 1, 5, 1.68], [5165, 1, 4, 1.11], [7886, 4, 5, 0.44], [2055, 3, 5, 0.55], [417, 2, 4, 0.92], [9372, 1, 4, 1.17], [1622, 1, 5, 0.2], [3889, 1, 4, 0.2], [523, 2, 4, 0.55], [2054, 3, 5, 0.19], [7573, 1, 10, 2.21], [21793, 1, 5, 0.61], [10, 2, 5, 0.36], [7885, 4, 4, 0.49], [3891, 1, 4, 0.2], [10149, 3, 17, 1.21], [75, 2, 5, 1.25], [20927, 1, 4, 1.26], [61, 3, 4, 1.23], [5208, 3, 5, 0.19], [997, 2, 5, 1.01], [3, 2, 5, 0.62], [9491, 21, 17, 0.22], [12721, 2, 6, 1.46], [5165, 2, 5, 1.11], [35, 1, 5, 1.54], [83, 2, 4, 0.45], [998, 2, 4, 0.56], [22247, 2, 4, 1.14], [33, 1, 4, 1.18], [996, 2, 4, 0.35], [346, 3, 4, 1.66], [7887, 4, 4, 0.97], [972, 3, 5, 0.75], [5076, 1, 4, 0.96], [2805, 137, 4, 1.17], [229, 1, 4, 1.55], [6158, 2, 5, 0.2], [2424, 80, 4, 1.11], [34, 1, 4, 1.32], [13028, 3, 5, 1.36], [2912, 2, 7, 0.99], [13928, 1, 4, 1.33], [38, 1, 4, 1.38], [8898, 3, 4, 4.0], [346, 1, 4, 1.67], [76, 2, 5, 1.1], [12212, 29, 5, 0.2], [8104, 1, 4, 0.93], [2336, 3, 5, 0.5], [9690, 1, 4, 0.62], [5209, 3, 6, 0.46], [39, 1, 4, 1.35], [3495, 3, 11, 1.25], [11952, 1, 4, 0.66], [7567, 3, 4, 1.58], [2424, 29, 4, 0.66], [5946, 1, 4, 0.28], [11490, 1, 4, 0.46], [24257, 1, 4, 0.52], [9691, 1, 4, 0.9], [3048, 3, 4, 0.92], [11770, 1, 4, 1.08], [411, 2, 4, 0.85], [21798, 1, 4, 0.59], [1703, 2, 4, 1.33], [13928, 2, 4, 1.33], [632, 11, 13, 0.48], [11953, 1, 4, 0.2], [74, 1, 5, 2.78], [161, 3, 5, 1.48], [10407, 10, 6, 1.41], [22316, 3, 5, 0.35], [13023, 3, 6, 0.55], [1523, 1, 4, 0.4], [21269, 3, 4, 0.98], [10410, 10, 10, 1.92], [192, 3, 9, 1.05], [12764, 2, 6, 0.48], [214, 3, 11, 0.2], [2331, 1, 4, 0.79], [972, 1, 4, 1.01], [3430, 15, 4, 1.45], [5164, 1, 4, 1.0], [13893, 2, 4, 1.0], [1274, 1, 5, 0.3], [4076, 3, 4, 1.42], [6097, 80, 4, 1.26], [6097, 29, 4, 0.69], [11116, 1, 4, 0.56], [3576, 29, 4, 1.27], [10408, 10, 5, 1.58], [1080, 3, 4, 1.41], [1243, 2, 5, 0.88], [3047, 3, 4, 1.39], [10780, 10, 4, 1.87], [2438, 2, 6, 1.88], [8674, 2, 4, 1.9], [11813, 1, 4, 0.73], [3334, 5, 4, 1.2], [2436, 4, 5, 0.2], [305, 2, 161, 3.46], [6935, 2, 311, 6.0], [589, 2, 159, 2.45], [2778, 2, 171, 3.56], [144, 2, 176, 1.9], [8915, 2, 209, 2.94], [130, 1, 69, 1.55], [2328, 2, 165, 3.78], [6936, 2, 311, 5.9], [205, 2, 119, 2.56], [8648, 2, 243, 5.71], [2775, 2, 180, 3.42], [593, 2, 53, 3.44], [145, 2, 176, 1.82], [146, 2, 176, 2.21], [5493, 2, 119, 1.82], [11681, 2, 302, 5.82], [7036, 1, 140, 5.66], [88, 10, 652, 2.96], [2776, 2, 180, 2.9], [141, 2, 170, 3.36], [151, 1, 23, 1.62], [1446, 2, 166, 2.59], [206, 2, 101, 2.58], [990, 2, 60, 1.61], [9760, 29, 78, 3.37], [248, 1, 63, 1.88], [5491, 2, 126, 1.63], [1007, 2, 312, 1.59], [8672, 2, 323, 6.0], [142, 2, 179, 2.63], [362, 2, 154, 3.59], [2912, 1, 52, 2.59], [10993, 2, 58, 2.11], [3893, 1, 135, 3.35], [12870, 1, 152, 5.83], [5165, 1, 52, 3.0], [7886, 4, 157, 1.89], [2055, 3, 521, 2.57], [417, 2, 179, 2.63], [9372, 1, 264, 4.75], [1622, 1, 118, 1.67], [3889, 1, 135, 3.86], [523, 2, 179, 2.04], [2054, 3, 494, 3.32], [7573, 1, 378, 5.97], [21793, 1, 261, 2.56], [10, 2, 114, 3.02], [7885, 4, 29, 1.67], [3891, 1, 135, 3.4], [10149, 3, 947, 4.76], [75, 2, 160, 4.5], [61, 3, 239, 3.23], [5208, 3, 619, 2.12], [997, 2, 262, 4.96], [3, 2, 131, 3.96], [9491, 21, 2386, 3.56], [12721, 2, 311, 4.94], [5165, 2, 416, 2.81], [83, 2, 25, 2.2], [998, 2, 262, 4.14], [22247, 2, 311, 3.38], [33, 1, 39, 3.81], [996, 2, 262, 5.57]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.09], [130, 1, 4, 0.35], [11685, 2, 4, 1.87], [8648, 2, 4, 0.71], [144, 2, 4, 1.3], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [11681, 2, 5, 1.37], [205, 2, 4, 0.37], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 5, 0.53], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [151, 1, 4, 0.4], [6936, 2, 6, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.46], [146, 2, 5, 0.82], [88, 10, 12, 0.19], [615, 2, 4, 0.37], [7036, 1, 4, 1.48], [1446, 2, 4, 0.9], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [8853, 2, 5, 1.45], [417, 2, 4, 0.4], [248, 1, 4, 0.39], [2055, 3, 6, 1.98], [523, 2, 5, 0.53], [3893, 1, 4, 0.43], [12870, 1, 4, 1.42], [142, 2, 4, 0.4], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [3889, 1, 5, 0.35], [7084, 3, 5, 1.07], [20927, 1, 4, 0.86], [7005, 1, 4, 0.67], [997, 2, 6, 0.78], [12349, 1, 4, 2.59], [21793, 1, 4, 1.34], [3891, 1, 5, 0.28], [61, 3, 4, 0.98], [7885, 4, 5, 0.52], [5165, 1, 4, 0.65], [6158, 2, 7, 0.2], [8672, 2, 5, 0.73], [5165, 2, 5, 0.65], [9491, 21, 14, 0.3], [2912, 1, 4, 0.87], [98, 11, 10, 0.68], [972, 3, 4, 1.77], [411, 2, 4, 0.9], [9372, 1, 4, 0.97], [10388, 2, 4, 0.6], [214, 3, 11, 0.2], [33, 1, 4, 2.08], [410, 1, 4, 0.8], [7886, 4, 5, 0.24], [13928, 1, 4, 1.1], [7567, 3, 4, 0.96], [9081, 3, 10, 0.8], [3981, 3, 13, 1.15], [22316, 3, 5, 0.51], [83, 2, 4, 0.42], [22247, 2, 4, 1.1], [336, 15, 4, 0.92], [308, 1, 4, 1.32], [2912, 2, 6, 2.03], [10631, 2, 4, 0.42], [161, 3, 5, 1.77], [229, 1, 4, 1.32], [5946, 1, 4, 0.38], [11953, 1, 4, 0.55], [10780, 10, 4, 1.74], [22317, 3, 6, 0.51], [6497, 1, 4, 0.22], [345, 3, 4, 0.76], [12271, 2, 4, 0.47], [3478, 2, 4, 1.0], [11767, 1, 4, 0.2], [10407, 10, 7, 1.36], [10410, 10, 6, 1.94], [9082, 3, 18, 0.83], [37, 1, 4, 1.16], [972, 1, 4, 0.5], [6097, 80, 4, 1.28], [39, 1, 4, 0.89], [8104, 1, 4, 0.38], [74, 1, 4, 2.03], [1413, 15, 4, 0.36], [34, 1, 4, 0.93], [82, 2, 4, 0.66], [7704, 2, 4, 1.2], [3048, 3, 4, 0.46], [24257, 1, 5, 1.38], [2331, 1, 4, 0.97], [192, 3, 10, 0.72], [335, 3, 9, 1.1], [152, 21, 4, 0.34], [38, 1, 4, 0.66], [9971, 2, 4, 0.72], [12338, 29, 4, 0.2], [9, 1, 4, 0.45], [4253, 1, 4, 0.59], [1523, 1, 4, 0.44], [45, 2, 5, 2.7], [12721, 2, 4, 0.97], [11510, 3, 5, 0.5], [6097, 29, 4, 1.28], [10936, 2, 4, 0.45], [8673, 2, 4, 2.14], [2805, 137, 4, 0.58], [10093, 3, 9, 0.92], [1080, 3, 4, 0.37], [7007, 1, 4, 1.21], [12764, 2, 5, 0.43], [3047, 3, 4, 2.46], [12212, 29, 4, 0.49], [7705, 2, 4, 1.2], [1895, 3, 4, 1.83], [8659, 1, 4, 0.91], [7706, 2, 4, 1.2], [9965, 2, 4, 2.42], [6496, 1, 4, 0.46], [8676, 2, 4, 0.49], [11812, 1, 4, 0.47], [201, 3, 4, 1.36], [2424, 80, 4, 1.31], [8635, 3, 4, 0.98], [4203, 1, 4, 0.54], [1703, 2, 4, 0.83], [3475, 2, 4, 1.08], [2438, 2, 5, 0.53], [6935, 2, 291, 5.01], [130, 1, 64, 1.48], [11685, 2, 275, 5.8], [8648, 2, 228, 3.76], [144, 2, 164, 3.31], [589, 2, 154, 3.05], [2327, 2, 154, 3.18], [11681, 2, 275, 5.79], [205, 2, 118, 1.55], [593, 2, 232, 3.21], [305, 2, 151, 3.38], [8915, 2, 206, 1.74], [141, 2, 158, 4.03], [8650, 2, 228, 3.3], [151, 1, 48, 1.53], [6936, 2, 291, 6.0], [2778, 2, 159, 3.51], [206, 2, 117, 2.38], [146, 2, 155, 4.01], [88, 10, 582, 3.29], [615, 2, 118, 2.34], [7036, 1, 131, 4.72], [1446, 2, 163, 2.54], [990, 2, 57, 1.5], [362, 2, 144, 3.36], [8853, 2, 291, 4.82], [417, 2, 167, 1.74], [248, 1, 59, 1.56], [2055, 3, 467, 5.86], [523, 2, 158, 3.5], [3893, 1, 135, 1.64], [12870, 1, 140, 5.64], [142, 2, 167, 1.74], [12350, 1, 658, 3.19], [2057, 3, 467, 5.97], [3889, 1, 128, 2.56], [7084, 3, 133, 3.88], [20927, 1, 80, 2.6], [7005, 1, 85, 2.1], [997, 2, 244, 3.44], [12349, 1, 658, 5.8], [21793, 1, 210, 3.39], [3891, 1, 128, 2.3], [61, 3, 211, 3.42], [7885, 4, 34, 1.75], [5165, 1, 51, 2.95], [6158, 2, 266, 3.69], [8672, 2, 294, 4.83], [5165, 2, 409, 2.97], [9491, 21, 2274, 2.79], [2912, 1, 52, 2.48], [98, 11, 894, 2.03], [411, 2, 111, 2.54], [9372, 1, 247, 5.04], [10388, 2, 237, 1.97], [214, 3, 673, 1.74], [410, 1, 37, 3.17], [13928, 1, 50, 2.99], [7567, 3, 71, 3.74], [9081, 3, 520, 2.21], [3981, 3, 1651, 4.11], [22316, 3, 323, 2.92], [83, 2, 51, 2.21], [22247, 2, 308, 2.92], [336, 15, 110, 2.58]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.22], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [2049, 3, 10, 0.2], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 5, 0.74], [1776, 1, 4, 0.58], [8672, 2, 6, 0.72], [20252, 2, 4, 0.2], [205, 2, 4, 0.46], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [1777, 1, 4, 0.93], [305, 2, 4, 0.23], [11681, 2, 5, 2.58], [593, 2, 7, 0.2], [8648, 2, 5, 0.77], [6936, 2, 5, 1.27], [2328, 2, 5, 0.2], [1007, 2, 5, 0.37], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [5151, 2, 4, 0.9], [8650, 2, 5, 1.15], [412, 1, 4, 0.91], [345, 3, 4, 0.57], [2991, 3, 4, 2.17], [22247, 2, 4, 0.97], [361, 2, 4, 0.49], [144, 2, 4, 0.5], [57, 1, 6, 0.2], [201, 3, 5, 0.57], [21793, 1, 4, 1.03], [10149, 3, 15, 1.32], [45, 2, 5, 1.12], [3478, 2, 4, 0.45], [146, 2, 5, 0.56], [2054, 3, 5, 1.34], [7004, 1, 5, 0.47], [12721, 2, 6, 0.97], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [413, 1, 4, 0.73], [10825, 21, 8, 1.17], [6158, 2, 5, 0.87], [74, 1, 4, 0.84], [168, 3, 6, 0.74], [308, 1, 4, 0.72], [346, 1, 4, 0.2], [2055, 3, 4, 0.8], [10, 2, 4, 0.42], [7036, 1, 4, 1.96], [13028, 3, 4, 0.5], [3495, 3, 15, 0.92], [335, 3, 13, 0.4], [432, 3, 4, 0.39], [5081, 2, 5, 0.2], [7887, 4, 5, 0.4], [12870, 1, 4, 2.58], [214, 3, 9, 0.42], [8649, 2, 4, 1.4], [79, 1, 4, 0.2], [410, 1, 4, 0.8], [1492, 1, 4, 0.2], [3889, 1, 5, 0.2], [145, 2, 4, 0.2], [9827, 3, 4, 0.2], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [5208, 3, 6, 0.19], [95, 3, 13, 0.86], [13260, 29, 4, 0.85], [5812, 3, 5, 1.22], [23, 1, 4, 1.51], [94, 4, 4, 0.81], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [3891, 1, 4, 0.2], [998, 2, 4, 0.69], [25, 1, 4, 1.51], [21269, 3, 4, 3.75], [7567, 3, 4, 1.62], [10574, 3, 5, 0.43], [5086, 1, 6, 1.11], [1243, 2, 4, 1.13], [9069, 1, 4, 1.62], [2878, 1, 5, 1.57], [997, 2, 4, 1.37], [11954, 1, 5, 0.48], [9691, 1, 4, 1.9], [856, 1, 4, 0.23], [11914, 1, 5, 0.2], [20927, 1, 4, 0.61], [1703, 2, 4, 1.38], [5660, 2, 5, 2.37], [5584, 3, 5, 0.44], [952, 4, 4, 2.64], [5209, 3, 5, 0.19], [9081, 3, 10, 1.03], [8898, 3, 5, 2.67], [996, 2, 4, 1.37], [1070, 7, 8, 0.64], [346, 3, 5, 0.64], [1622, 1, 5, 0.35], [8676, 2, 4, 0.97], [12661, 1, 4, 2.35], [23961, 3, 4, 2.68], [5513, 2, 4, 0.52], [1091, 1, 4, 0.2], [22317, 3, 6, 0.51], [8274, 3, 5, 1.09], [13034, 3, 6, 1.01], [11811, 1, 5, 1.0], [24, 1, 5, 0.95], [1519, 3, 14, 0.22], [27, 1, 4, 1.51], [8674, 2, 6, 0.97], [6097, 29, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [6097, 80, 4, 0.41], [10529, 29, 4, 1.44], [82, 2, 4, 0.35], [1413, 15, 4, 0.37], [995, 2, 4, 0.98], [9082, 3, 18, 0.92], [20498, 3, 6, 1.76], [66, 1, 4, 0.42], [2104, 3, 6, 1.63], [6098, 80, 4, 1.15], [9372, 1, 4, 0.42], [6098, 29, 4, 0.35], [34, 1, 4, 0.47], [326, 2, 96, 1.71], [6935, 2, 278, 4.7], [362, 2, 139, 3.93], [2049, 3, 539, 2.4], [589, 2, 152, 1.4], [141, 2, 152, 3.14], [75, 2, 145, 4.02], [1776, 1, 107, 3.22], [8672, 2, 281, 3.06], [20252, 2, 92, 1.75], [205, 2, 113, 1.61], [7886, 4, 141, 2.29], [2778, 2, 153, 3.21], [1777, 1, 107, 3.88], [305, 2, 145, 2.78], [11681, 2, 260, 6.0], [593, 2, 119, 2.98], [8648, 2, 218, 5.36], [6936, 2, 278, 4.83], [2328, 2, 148, 3.09], [1007, 2, 281, 1.71], [88, 10, 557, 4.5], [83, 2, 53, 1.86], [5151, 2, 26, 2.64], [8650, 2, 218, 5.4], [412, 1, 82, 3.83], [345, 3, 315, 1.78], [2991, 3, 156, 5.79], [22247, 2, 296, 3.08], [361, 2, 152, 1.84], [144, 2, 159, 2.12], [57, 1, 84, 2.78], [201, 3, 315, 1.68], [21793, 1, 232, 5.78], [10149, 3, 853, 4.91], [45, 2, 108, 4.8], [3478, 2, 74, 1.77], [146, 2, 151, 3.76], [2054, 3, 488, 3.9], [7004, 1, 78, 2.43], [12721, 2, 296, 2.46], [167, 3, 224, 3.97], [2057, 3, 463, 4.1], [413, 1, 90, 2.74], [10825, 21, 675, 2.78], [6158, 2, 270, 3.55], [74, 1, 198, 4.67], [168, 3, 399, 3.53], [308, 1, 175, 3.12], [346, 1, 150, 2.96], [2055, 3, 488, 2.59], [10, 2, 55, 2.7], [7036, 1, 125, 5.53], [13028, 3, 145, 3.08], [3495, 3, 950, 3.74], [432, 3, 297, 2.51], [5081, 2, 189, 3.15], [7887, 4, 138, 1.67], [12870, 1, 135, 6.0], [214, 3, 637, 1.67], [8649, 2, 218, 5.12], [79, 1, 47, 2.0], [410, 1, 102, 2.89], [1492, 1, 39, 1.88], [3889, 1, 121, 3.86], [145, 2, 151, 1.73]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [2327, 2, 4, 0.52], [8915, 2, 5, 0.21], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.26], [130, 1, 4, 0.36], [5493, 2, 5, 0.2], [616, 2, 4, 0.3], [326, 2, 5, 0.97], [6936, 2, 5, 1.66], [8648, 2, 4, 1.7], [8650, 2, 5, 2.46], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.44], [2049, 3, 5, 0.47], [144, 2, 5, 1.04], [10, 2, 5, 0.42], [151, 1, 4, 0.51], [990, 2, 4, 0.39], [7036, 1, 4, 1.2], [3893, 1, 5, 0.2], [146, 2, 5, 1.32], [7885, 4, 4, 0.49], [141, 2, 4, 0.92], [3891, 1, 4, 0.2], [206, 2, 4, 0.46], [75, 2, 5, 0.99], [2055, 3, 4, 0.99], [362, 2, 4, 0.52], [10993, 2, 4, 0.45], [21793, 1, 4, 0.86], [5208, 3, 6, 0.19], [3889, 1, 6, 0.2], [7084, 3, 4, 1.57], [11234, 2, 4, 1.4], [7005, 1, 4, 0.68], [3980, 4, 6, 1.21], [12870, 1, 4, 1.93], [2912, 1, 4, 0.77], [145, 2, 4, 1.5], [5165, 1, 4, 0.65], [10149, 3, 13, 1.47], [8672, 2, 4, 2.86], [9760, 29, 4, 0.2], [998, 2, 4, 0.31], [20927, 1, 4, 1.68], [997, 2, 4, 1.02], [2436, 4, 4, 0.43], [417, 2, 4, 0.92], [2424, 80, 5, 0.86], [7887, 4, 4, 0.97], [6158, 2, 4, 0.2], [3, 2, 4, 0.37], [5076, 1, 5, 0.56], [632, 11, 13, 0.48], [229, 1, 5, 0.91], [972, 3, 5, 0.51], [3495, 3, 13, 1.25], [74, 1, 4, 1.22], [9491, 21, 10, 1.33], [523, 2, 4, 0.55], [11770, 1, 4, 1.08], [346, 3, 5, 1.66], [11953, 1, 4, 0.45], [5165, 2, 5, 0.65], [7573, 1, 9, 2.46], [12721, 2, 4, 0.6], [996, 2, 4, 1.02], [22316, 3, 5, 0.35], [2423, 80, 6, 1.72], [11772, 1, 4, 1.08], [9372, 1, 4, 1.17], [3981, 3, 11, 0.51], [6497, 1, 4, 0.49], [24257, 1, 4, 0.48], [2912, 2, 7, 2.03], [11952, 1, 4, 0.66], [2438, 2, 5, 1.88], [12229, 2, 4, 0.36], [823, 1, 4, 0.65], [361, 2, 4, 0.92], [2424, 29, 4, 0.37], [8898, 3, 4, 4.0], [3975, 4, 5, 1.26], [346, 1, 4, 1.67], [1622, 1, 4, 0.49], [6496, 1, 4, 1.2], [192, 3, 9, 1.05], [10407, 10, 8, 1.18], [3900, 3, 4, 0.71], [5209, 3, 6, 0.19], [2805, 137, 4, 1.0], [9081, 3, 7, 0.66], [5946, 1, 4, 0.28], [33, 1, 4, 0.47], [11812, 1, 4, 0.47], [335, 3, 9, 0.62], [1703, 2, 4, 0.5], [7567, 3, 4, 1.58], [12764, 2, 5, 0.43], [10388, 2, 4, 0.61], [11490, 1, 4, 0.23], [37, 1, 4, 0.47], [8676, 2, 4, 2.86], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [202, 2, 4, 0.88], [220, 4, 4, 1.31], [1519, 3, 10, 0.39], [22247, 2, 4, 1.3], [23611, 3, 5, 0.5], [161, 3, 5, 1.48], [35, 1, 4, 0.47], [38, 1, 4, 0.47], [13893, 2, 4, 1.0], [2104, 3, 9, 1.26], [11814, 1, 4, 0.23], [95, 3, 12, 0.42], [83, 2, 4, 0.46], [4232, 80, 4, 1.82], [1895, 3, 4, 1.65], [11813, 1, 4, 0.73], [11116, 1, 4, 0.56], [12212, 29, 4, 0.27], [8635, 3, 4, 0.87], [788, 2, 5, 0.2], [8104, 1, 4, 0.93], [12979, 25, 7, 0.72], [76, 2, 4, 0.51], [1309, 1, 4, 0.46], [13928, 1, 4, 1.33], [10386, 2, 4, 0.77], [589, 2, 168, 2.97], [88, 10, 619, 3.42], [2327, 2, 165, 3.59], [8915, 2, 209, 2.94], [6935, 2, 311, 6.0], [2778, 2, 171, 3.56], [305, 2, 161, 3.46], [2328, 2, 165, 4.03], [130, 1, 69, 1.55], [5493, 2, 119, 1.82], [616, 2, 120, 2.15], [326, 2, 21, 3.65], [6936, 2, 311, 5.9], [8648, 2, 256, 4.13], [8650, 2, 243, 6.0], [1446, 2, 166, 3.73], [205, 2, 126, 1.71], [2049, 3, 126, 1.66], [144, 2, 167, 3.93], [151, 1, 23, 1.62], [990, 2, 60, 1.61], [7036, 1, 140, 5.66], [3893, 1, 135, 3.35], [146, 2, 167, 4.04], [7885, 4, 116, 1.77], [141, 2, 179, 2.63], [3891, 1, 135, 3.4], [206, 2, 125, 1.88], [75, 2, 160, 4.5], [2055, 3, 549, 2.77], [362, 2, 97, 3.74], [10993, 2, 62, 1.73], [21793, 1, 261, 2.52], [5208, 3, 619, 2.12], [3889, 1, 135, 3.86], [7084, 3, 141, 4.19], [11234, 2, 212, 3.56], [7005, 1, 92, 2.17], [3980, 4, 528, 4.52], [12870, 1, 152, 5.83], [2912, 1, 52, 3.74], [145, 2, 53, 3.79], [5165, 1, 55, 2.93], [10149, 3, 947, 4.76], [8672, 2, 323, 6.0], [9760, 29, 78, 3.4], [998, 2, 262, 4.14], [997, 2, 262, 3.36], [2436, 4, 126, 2.44], [417, 2, 179, 2.63], [2424, 80, 186, 3.86], [6158, 2, 285, 2.64], [3, 2, 131, 3.96], [5076, 1, 142, 3.04], [632, 11, 949, 1.71], [229, 1, 89, 4.03], [972, 3, 650, 3.9], [3495, 3, 1056, 4.26], [74, 1, 231, 3.2], [9491, 21, 2512, 3.93], [523, 2, 179, 2.04], [11770, 1, 230, 3.85], [346, 3, 644, 3.44], [11953, 1, 218, 1.96]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [6936, 2, 5, 1.35], [5493, 2, 4, 0.2], [205, 2, 6, 0.2], [130, 1, 4, 0.35], [616, 2, 5, 0.22], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 5, 0.71], [2049, 3, 10, 0.2], [11681, 2, 5, 1.86], [8915, 2, 5, 0.53], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [7036, 1, 4, 1.48], [8650, 2, 6, 0.96], [2327, 2, 5, 0.29], [593, 2, 6, 0.27], [3893, 1, 4, 0.43], [141, 2, 6, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.94], [151, 1, 4, 0.4], [3891, 1, 4, 0.28], [248, 1, 4, 0.39], [143, 2, 5, 1.53], [3980, 4, 6, 1.19], [146, 2, 5, 1.32], [2050, 3, 6, 1.69], [990, 2, 4, 0.36], [2055, 3, 5, 1.74], [7885, 4, 5, 0.2], [7886, 4, 4, 0.4], [2054, 3, 6, 1.86], [12870, 1, 5, 1.4], [362, 2, 4, 0.82], [8672, 2, 5, 0.73], [10993, 2, 4, 0.63], [3975, 4, 4, 1.39], [2057, 3, 6, 1.78], [5165, 1, 4, 0.65], [21793, 1, 4, 1.09], [13028, 3, 4, 0.62], [7084, 3, 4, 1.07], [145, 2, 4, 1.3], [2991, 3, 4, 0.88], [523, 2, 4, 1.03], [75, 2, 4, 0.46], [7005, 1, 4, 0.72], [3982, 3, 14, 1.18], [3981, 3, 13, 1.42], [33, 1, 5, 1.58], [142, 2, 6, 0.52], [20927, 1, 4, 1.17], [2912, 1, 4, 1.16], [6158, 2, 6, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.92], [82, 2, 4, 0.66], [417, 2, 4, 0.4], [35, 1, 5, 1.58], [22316, 3, 6, 0.51], [214, 3, 11, 0.2], [11953, 1, 6, 0.2], [6497, 1, 4, 0.22], [61, 3, 4, 1.41], [229, 1, 4, 1.5], [192, 3, 11, 0.77], [11772, 1, 4, 1.28], [950, 1, 4, 0.38], [996, 2, 6, 1.47], [7567, 3, 4, 0.71], [11769, 1, 4, 0.96], [5946, 1, 4, 0.28], [346, 3, 5, 1.27], [6496, 1, 4, 0.46], [4176, 4, 5, 1.31], [972, 3, 5, 1.77], [39, 1, 4, 0.51], [74, 1, 5, 2.03], [411, 2, 4, 0.9], [7573, 1, 5, 0.97], [8677, 3, 4, 1.15], [12721, 2, 4, 0.97], [37, 1, 4, 0.66], [4253, 1, 4, 0.48], [2436, 4, 5, 0.44], [22317, 3, 5, 0.26], [2912, 2, 5, 0.88], [2104, 3, 6, 1.46], [1413, 15, 4, 0.2], [12212, 29, 4, 0.24], [336, 15, 5, 0.92], [1277, 1, 4, 0.65], [201, 3, 5, 0.51], [345, 3, 4, 1.01], [11085, 2, 6, 1.53], [21269, 3, 4, 3.24], [13023, 3, 5, 1.26], [12271, 2, 5, 0.84], [823, 1, 4, 0.56], [3, 2, 5, 0.71], [8673, 2, 4, 2.14], [22247, 2, 5, 1.39], [38, 1, 4, 0.66], [8676, 2, 4, 0.98], [10631, 2, 4, 1.48], [9, 1, 4, 0.2], [2805, 137, 4, 0.58], [10408, 10, 5, 1.64], [3577, 25, 4, 0.53], [3048, 3, 5, 1.17], [10388, 2, 4, 0.6], [1414, 15, 4, 0.2], [10936, 2, 4, 0.45], [13928, 1, 4, 1.1], [9081, 3, 10, 0.8], [11812, 1, 4, 0.47], [346, 1, 5, 1.27], [20498, 3, 5, 0.4], [9491, 21, 10, 0.6], [13244, 1, 4, 0.45], [4076, 3, 5, 1.19], [161, 3, 6, 1.5], [11814, 1, 4, 0.48], [9372, 1, 4, 0.97], [10407, 10, 6, 1.94], [12764, 2, 8, 0.33], [491, 10, 5, 1.64], [1523, 1, 4, 0.44], [972, 1, 4, 0.75], [11089, 1, 4, 1.73], [3576, 25, 4, 0.75], [6935, 2, 291, 5.26], [305, 2, 151, 3.38], [615, 2, 118, 1.48], [2778, 2, 159, 3.51], [6936, 2, 291, 5.64], [5493, 2, 112, 2.04], [205, 2, 106, 2.53], [130, 1, 64, 1.48], [616, 2, 112, 1.95], [88, 10, 582, 3.29], [144, 2, 155, 3.9], [8648, 2, 228, 5.15], [2049, 3, 555, 3.08], [11681, 2, 275, 5.79], [8915, 2, 206, 1.74], [589, 2, 154, 3.05], [326, 2, 95, 2.99], [7036, 1, 131, 4.72], [8650, 2, 228, 4.92], [2327, 2, 154, 3.43], [593, 2, 232, 3.21], [3893, 1, 135, 1.64], [141, 2, 158, 4.03], [206, 2, 111, 2.11], [7004, 1, 80, 2.62], [151, 1, 48, 1.53], [3891, 1, 128, 2.3], [248, 1, 59, 1.56], [143, 2, 153, 3.39], [3980, 4, 492, 4.82], [146, 2, 155, 4.01], [2050, 3, 467, 5.77], [990, 2, 57, 1.5], [2055, 3, 467, 5.86], [2054, 3, 467, 6.0], [12870, 1, 140, 6.0], [362, 2, 152, 2.39], [8672, 2, 294, 4.83], [10993, 2, 55, 2.37], [3975, 4, 518, 3.58], [2057, 3, 467, 5.97], [5165, 1, 51, 2.95], [21793, 1, 210, 3.22], [13028, 3, 159, 2.06], [7084, 3, 133, 3.88], [145, 2, 155, 3.79], [2991, 3, 171, 3.51], [523, 2, 158, 3.5], [75, 2, 159, 1.7], [7005, 1, 80, 2.2], [3982, 3, 809, 4.78], [3981, 3, 1651, 4.49], [33, 1, 53, 4.09], [142, 2, 158, 3.39], [2912, 1, 49, 3.04], [6158, 2, 266, 3.69], [5165, 2, 388, 2.41], [82, 2, 61, 2.08], [417, 2, 167, 1.74], [35, 1, 40, 3.93], [22316, 3, 323, 2.92], [214, 3, 673, 2.12], [11953, 1, 206, 2.84], [6497, 1, 38, 1.95]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.57], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [361, 2, 4, 0.4], [5493, 2, 5, 0.2], [589, 2, 5, 0.2], [8672, 2, 7, 0.66], [11685, 2, 4, 0.42], [417, 2, 4, 0.37], [6935, 2, 11, 1.06], [205, 2, 4, 0.2], [11681, 2, 5, 2.04], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [248, 1, 4, 0.51], [11837, 2, 4, 0.58], [142, 2, 4, 0.38], [6936, 2, 5, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 0.2], [8676, 2, 4, 0.73], [615, 2, 4, 0.74], [21793, 1, 4, 1.01], [305, 2, 5, 0.98], [593, 2, 6, 0.2], [22247, 2, 4, 1.0], [11835, 2, 4, 0.48], [616, 2, 5, 0.23], [411, 2, 4, 0.2], [990, 2, 4, 0.38], [8675, 2, 6, 0.98], [10574, 3, 6, 1.5], [145, 2, 4, 1.17], [1429, 2, 4, 0.39], [6158, 2, 6, 0.89], [10149, 3, 13, 0.75], [3495, 3, 16, 1.03], [2050, 3, 6, 0.34], [146, 2, 5, 0.49], [88, 10, 11, 0.95], [2054, 3, 6, 0.51], [75, 2, 4, 1.68], [10993, 2, 4, 0.4], [7885, 4, 5, 0.69], [144, 2, 4, 1.17], [7705, 2, 5, 0.9], [2424, 29, 4, 1.98], [346, 3, 6, 1.03], [2423, 80, 4, 1.56], [2859, 15, 4, 0.35], [7704, 2, 5, 0.9], [61, 3, 4, 0.36], [2423, 29, 4, 1.53], [9126, 1, 4, 1.13], [335, 3, 10, 0.49], [5165, 1, 4, 0.65], [2424, 80, 4, 1.98], [13028, 3, 4, 0.37], [201, 3, 5, 0.76], [346, 1, 4, 0.88], [214, 3, 9, 1.24], [60, 3, 5, 1.93], [1519, 3, 12, 0.22], [13023, 3, 5, 1.51], [308, 1, 5, 1.49], [1414, 15, 4, 0.42], [13034, 3, 5, 1.13], [2703, 3, 4, 0.96], [345, 3, 4, 0.49], [6494, 1, 4, 0.46], [7004, 1, 4, 0.66], [410, 1, 4, 0.52], [11770, 1, 4, 0.7], [7706, 2, 5, 0.8], [432, 3, 4, 1.01], [5208, 3, 5, 0.48], [3430, 15, 4, 0.35], [6952, 1, 4, 0.73], [13928, 1, 4, 1.15], [12373, 1, 5, 1.45], [20927, 1, 4, 1.05], [11954, 1, 4, 0.44], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [2331, 1, 4, 0.79], [3893, 1, 4, 0.52], [3891, 1, 4, 0.52], [114, 3, 4, 0.2], [11811, 1, 4, 0.38], [105, 3, 4, 0.48], [7886, 4, 6, 0.69], [3981, 3, 8, 0.51], [1274, 1, 4, 0.82], [952, 4, 4, 1.87], [13033, 3, 4, 0.5], [944, 15, 4, 0.37], [9690, 1, 4, 1.08], [11089, 1, 4, 1.16], [3, 2, 4, 2.0], [1490, 1, 4, 0.44], [1309, 1, 4, 0.73], [5946, 1, 4, 0.52], [5584, 3, 4, 1.16], [8898, 3, 4, 0.71], [5812, 3, 4, 1.51], [5733, 2, 5, 1.37], [7708, 2, 4, 1.05], [10407, 10, 6, 1.9], [10410, 10, 6, 1.9], [95, 3, 8, 2.52], [3028, 3, 4, 0.44], [3478, 2, 4, 1.0], [8274, 3, 4, 1.45], [7703, 2, 4, 1.05], [9342, 2, 4, 0.49], [10398, 2, 4, 1.36], [20555, 2, 4, 0.78], [3889, 1, 4, 0.52], [21003, 2, 4, 0.72], [13258, 29, 4, 1.02], [22558, 3, 4, 0.88], [9082, 3, 14, 0.83], [3980, 4, 4, 1.4], [10406, 10, 7, 1.73], [6497, 1, 4, 1.69], [20969, 3, 4, 0.86], [1339, 3, 10, 0.47], [963, 3, 4, 0.72], [192, 3, 13, 0.92], [5165, 2, 5, 0.65], [20196, 2, 4, 0.72], [10516, 3, 4, 1.94], [11603, 2, 4, 1.37], [141, 2, 177, 3.21], [362, 2, 170, 2.41], [8650, 2, 250, 5.1], [5491, 2, 123, 1.83], [361, 2, 187, 1.73], [5493, 2, 123, 2.24], [589, 2, 181, 2.16], [8672, 2, 323, 4.69], [11685, 2, 317, 3.77], [417, 2, 187, 1.67], [6935, 2, 319, 6.0], [205, 2, 123, 1.8], [11681, 2, 317, 6.0], [11838, 2, 303, 3.8], [12721, 2, 322, 4.24], [248, 1, 65, 1.94], [11837, 2, 319, 2.08], [142, 2, 187, 1.69], [6936, 2, 319, 5.36], [2778, 2, 178, 3.62], [1446, 2, 171, 2.42], [8676, 2, 340, 2.67], [615, 2, 130, 2.38], [21793, 1, 282, 5.05], [305, 2, 167, 3.68], [593, 2, 257, 1.75], [22247, 2, 339, 2.89], [11835, 2, 319, 1.88], [616, 2, 123, 2.27], [411, 2, 122, 2.4], [990, 2, 62, 1.69], [8675, 2, 323, 4.72], [10574, 3, 568, 4.89], [145, 2, 181, 3.21], [1429, 2, 181, 1.86], [6158, 2, 294, 3.33], [10149, 3, 1044, 2.45], [2050, 3, 542, 2.92], [146, 2, 171, 2.68], [88, 10, 632, 4.5], [2054, 3, 127, 2.99], [75, 2, 170, 4.19], [10993, 2, 60, 2.43], [144, 2, 181, 3.21], [7705, 2, 199, 3.7], [2424, 29, 40, 4.77], [346, 3, 682, 4.23], [2423, 80, 207, 3.96], [2859, 15, 82, 2.36], [7704, 2, 199, 3.7], [61, 3, 249, 1.65], [2423, 29, 44, 4.18], [9126, 1, 83, 3.14], [335, 3, 1555, 1.91], [5165, 1, 56, 2.94], [2424, 80, 198, 4.77], [13028, 3, 174, 2.92], [201, 3, 340, 4.48], [346, 1, 179, 3.77], [214, 3, 253, 4.28], [60, 3, 952, 4.46], [1519, 3, 1845, 2.61], [13023, 3, 703, 3.62], [308, 1, 190, 5.0], [1414, 15, 117, 1.77], [13034, 3, 667, 3.88]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 8, 0.2], [6936, 2, 4, 1.17], [8672, 2, 6, 0.66], [305, 2, 5, 0.23], [615, 2, 4, 0.2], [145, 2, 4, 1.17], [12721, 2, 6, 0.72], [130, 1, 4, 0.36], [2327, 2, 5, 0.2], [361, 2, 4, 0.4], [2328, 2, 5, 0.26], [146, 2, 4, 0.87], [8675, 2, 4, 0.73], [11681, 2, 5, 0.71], [141, 2, 4, 0.4], [362, 2, 4, 0.69], [205, 2, 5, 0.2], [5491, 2, 4, 0.2], [8673, 2, 6, 0.73], [8676, 2, 5, 0.6], [144, 2, 5, 1.17], [8650, 2, 5, 1.28], [417, 2, 4, 0.4], [11837, 2, 5, 0.3], [3, 2, 5, 0.41], [6097, 80, 5, 2.36], [2423, 29, 4, 1.19], [6497, 1, 4, 0.2], [6097, 29, 4, 2.36], [11836, 2, 6, 0.2], [990, 2, 4, 0.45], [2424, 29, 4, 0.37], [593, 2, 5, 1.55], [6098, 80, 4, 2.59], [523, 2, 4, 0.76], [11739, 2, 4, 0.59], [944, 15, 4, 0.4], [88, 10, 9, 0.44], [10993, 2, 4, 0.52], [13260, 29, 4, 0.98], [8915, 2, 4, 0.78], [326, 2, 4, 0.5], [75, 2, 4, 1.56], [1413, 15, 4, 0.5], [10574, 3, 5, 1.08], [335, 3, 11, 1.25], [411, 2, 4, 0.92], [1339, 1, 4, 0.43], [1050, 2, 4, 0.2], [947, 15, 4, 0.51], [1339, 3, 12, 0.18], [151, 1, 4, 0.45], [6496, 1, 4, 1.31], [2859, 15, 4, 0.72], [7704, 2, 4, 1.79], [346, 1, 4, 0.43], [214, 3, 10, 1.24], [13258, 29, 4, 0.79], [345, 3, 4, 0.5], [10149, 3, 15, 0.74], [1490, 1, 4, 1.35], [346, 3, 5, 0.21], [1243, 2, 5, 0.86], [7004, 1, 4, 0.82], [11738, 2, 4, 0.94], [201, 3, 5, 1.05], [22558, 3, 7, 0.21], [432, 3, 4, 1.15], [2438, 1, 4, 0.4], [7705, 2, 4, 2.04], [5208, 3, 5, 0.54], [2912, 1, 4, 0.95], [229, 1, 4, 1.32], [61, 3, 4, 0.44], [963, 3, 4, 0.4], [10407, 10, 6, 1.9], [7706, 2, 4, 1.79], [2331, 1, 4, 1.05], [21793, 1, 4, 2.59], [13928, 1, 4, 1.15], [12229, 2, 5, 0.45], [3478, 2, 4, 1.0], [1548, 1, 4, 1.09], [2703, 3, 4, 1.97], [11844, 2, 4, 0.64], [13258, 25, 4, 0.79], [11490, 1, 4, 0.45], [114, 3, 4, 0.41], [7036, 1, 4, 0.43], [8938, 2, 4, 0.43], [9126, 1, 4, 1.19], [11687, 2, 4, 0.67], [10408, 10, 6, 1.66], [956, 2, 5, 0.57], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [410, 1, 4, 0.52], [11159, 1, 7, 0.67], [7708, 2, 5, 1.79], [2438, 2, 5, 0.53], [11690, 2, 4, 0.52], [9065, 2, 4, 0.54], [12870, 1, 4, 0.94], [9760, 29, 4, 0.92], [11161, 1, 5, 1.64], [11689, 2, 4, 0.66], [5976, 1, 4, 1.13], [7005, 1, 4, 1.06], [21781, 2, 4, 0.47], [1274, 1, 4, 1.98], [2805, 137, 5, 1.39], [20927, 1, 4, 0.47], [12373, 1, 5, 1.45], [2991, 3, 4, 2.12], [1699, 3, 4, 1.18], [5584, 3, 4, 1.16], [9209, 29, 4, 1.12], [3495, 3, 13, 1.28], [9690, 1, 4, 1.08], [7007, 1, 4, 1.28], [9239, 29, 4, 0.48], [11811, 1, 4, 0.38], [8600, 1, 4, 0.86], [9239, 25, 4, 0.48], [247, 1, 4, 1.54], [5769, 3, 6, 0.52], [9491, 21, 10, 1.75], [5076, 1, 4, 1.95], [13198, 29, 4, 0.94], [12764, 2, 6, 0.2], [9372, 1, 4, 1.74], [5869, 1, 4, 2.12], [7702, 2, 28, 1.25], [95, 3, 8, 0.42], [2778, 2, 175, 3.36], [6936, 2, 322, 5.18], [8672, 2, 324, 3.36], [305, 2, 167, 3.74], [615, 2, 123, 2.66], [145, 2, 181, 3.21], [12721, 2, 321, 4.47], [130, 1, 71, 1.65], [2327, 2, 170, 4.61], [361, 2, 185, 1.73], [2328, 2, 170, 4.64], [146, 2, 171, 4.04], [8675, 2, 342, 2.57], [11681, 2, 299, 3.49], [141, 2, 185, 1.73], [362, 2, 170, 2.54], [205, 2, 130, 1.95], [5491, 2, 121, 1.79], [8673, 2, 323, 4.83], [8676, 2, 324, 3.88], [144, 2, 171, 4.15], [8650, 2, 249, 6.0], [417, 2, 185, 1.73], [11837, 2, 304, 2.24], [3, 2, 135, 3.74], [6097, 80, 77, 6.0], [2423, 29, 44, 3.89], [6497, 1, 45, 1.56], [11836, 2, 304, 3.72], [990, 2, 21, 1.72], [2424, 29, 38, 3.3], [593, 2, 60, 3.77], [523, 2, 185, 2.42], [11739, 2, 68, 2.13], [944, 15, 12, 1.31], [88, 10, 673, 3.12], [10993, 2, 64, 1.96], [13260, 29, 81, 3.46], [8915, 2, 226, 2.46], [326, 2, 110, 1.92], [75, 2, 162, 3.96], [1413, 15, 117, 1.92], [10574, 3, 598, 3.33], [335, 3, 1428, 4.39], [411, 2, 121, 2.73], [1339, 1, 81, 2.01], [1050, 2, 30, 1.7], [947, 15, 49, 1.94], [1339, 3, 1955, 1.88], [151, 1, 26, 1.97], [6496, 1, 47, 3.48], [2859, 15, 77, 3.49], [7704, 2, 176, 5.37], [346, 1, 184, 1.79], [13258, 29, 46, 3.78], [345, 3, 357, 1.92], [10149, 3, 984, 2.7], [1490, 1, 58, 5.92], [346, 3, 699, 2.0], [1243, 2, 112, 4.28], [7004, 1, 94, 2.54], [11738, 2, 23, 2.53], [201, 3, 339, 4.27], [22558, 3, 529, 4.33], [432, 3, 339, 3.22], [2438, 1, 62, 2.95]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 6, 0.34], [362, 2, 5, 0.48], [361, 2, 4, 0.37], [130, 1, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 8, 1.21], [8676, 2, 5, 0.6], [2049, 3, 15, 0.2], [417, 2, 4, 0.37], [3, 2, 4, 1.22], [22247, 2, 5, 1.0], [6936, 2, 4, 0.47], [523, 2, 4, 0.41], [305, 2, 5, 0.73], [8650, 2, 4, 0.94], [2328, 2, 4, 1.04], [11739, 2, 4, 0.68], [8648, 2, 4, 1.69], [2776, 2, 4, 1.19], [2327, 2, 4, 0.39], [616, 2, 4, 1.04], [411, 2, 4, 0.37], [8674, 2, 5, 0.67], [2423, 29, 4, 1.0], [589, 2, 4, 0.9], [6497, 1, 6, 0.2], [2805, 137, 5, 0.94], [11835, 2, 4, 0.49], [6097, 80, 4, 2.11], [146, 2, 4, 1.17], [326, 2, 5, 0.66], [6097, 29, 5, 0.91], [583, 2, 4, 0.45], [2423, 80, 4, 0.94], [10149, 3, 13, 0.75], [145, 2, 4, 1.17], [11836, 2, 5, 0.54], [144, 2, 4, 1.17], [75, 2, 4, 1.56], [10574, 3, 5, 0.85], [6496, 1, 4, 1.31], [308, 1, 6, 0.54], [1413, 15, 4, 0.2], [2054, 3, 5, 0.81], [2422, 29, 4, 1.9], [1243, 2, 4, 1.06], [21793, 1, 4, 2.34], [1886, 2, 4, 0.44], [8915, 2, 4, 0.78], [944, 15, 4, 0.2], [247, 1, 4, 1.47], [1490, 1, 4, 1.35], [2859, 15, 4, 0.35], [335, 3, 11, 0.89], [1414, 15, 4, 0.48], [201, 3, 4, 0.24], [13928, 1, 4, 1.15], [3478, 2, 4, 1.0], [6158, 2, 6, 0.89], [7084, 3, 4, 0.95], [3934, 5, 7, 1.36], [11489, 1, 4, 0.41], [12526, 2, 4, 0.7], [1703, 2, 4, 0.56], [5812, 3, 4, 2.0], [11767, 1, 4, 1.1], [61, 3, 4, 0.44], [94, 4, 4, 1.04], [186, 3, 7, 0.56], [214, 3, 10, 1.24], [1519, 3, 9, 0.39], [1050, 2, 4, 0.37], [9491, 21, 10, 1.33], [11490, 1, 4, 0.35], [1309, 1, 4, 0.73], [2821, 3, 10, 0.27], [10398, 2, 4, 0.37], [5813, 3, 4, 2.0], [192, 3, 13, 1.01], [8898, 3, 4, 0.47], [8599, 1, 4, 0.37], [5811, 3, 5, 2.2], [229, 1, 4, 1.37], [11771, 1, 4, 0.82], [1699, 3, 4, 1.53], [2438, 2, 5, 0.53], [2991, 3, 5, 1.75], [3495, 3, 13, 1.28], [11769, 1, 4, 1.1], [8943, 3, 4, 0.39], [11811, 1, 4, 0.38], [1339, 3, 12, 0.18], [13928, 2, 4, 1.15], [12764, 2, 5, 0.43], [19687, 1, 4, 1.21], [7036, 1, 4, 0.43], [346, 3, 5, 0.42], [13260, 29, 4, 1.26], [22573, 2, 4, 0.99], [10124, 1, 4, 2.17], [9690, 1, 4, 1.08], [5584, 3, 4, 3.54], [3334, 5, 4, 1.1], [18964, 1, 4, 1.13], [7004, 1, 4, 0.75], [1277, 1, 4, 0.48], [2438, 1, 4, 0.4], [20927, 1, 4, 0.4], [1523, 1, 4, 1.01], [4001, 3, 9, 0.96], [11886, 2, 4, 0.75], [1701, 2, 4, 0.5], [45, 2, 4, 1.79], [11678, 1, 4, 1.44], [21269, 3, 4, 2.18], [8286, 2, 5, 0.62], [9373, 5, 4, 2.8], [10181, 26, 5, 0.46], [23031, 3, 4, 1.65], [3984, 3, 5, 0.62], [10516, 3, 4, 0.99], [11677, 1, 4, 1.53], [346, 1, 4, 0.43], [1339, 1, 4, 0.48], [3979, 3, 5, 0.88], [19924, 2, 4, 0.41], [23032, 3, 4, 1.46], [9069, 1, 4, 0.41], [9065, 2, 4, 0.54], [5976, 1, 4, 1.13], [8285, 2, 5, 0.49], [7005, 1, 4, 1.21], [8672, 2, 324, 4.66], [141, 2, 176, 3.4], [2778, 2, 175, 2.87], [362, 2, 160, 2.87], [361, 2, 186, 2.55], [130, 1, 71, 1.65], [6935, 2, 314, 6.0], [12721, 2, 323, 5.01], [8676, 2, 324, 3.88], [2049, 3, 618, 1.92], [417, 2, 186, 2.55], [3, 2, 143, 3.42], [22247, 2, 323, 4.61], [6936, 2, 331, 2.61], [523, 2, 176, 3.3], [305, 2, 166, 3.67], [8650, 2, 263, 4.15], [2328, 2, 170, 3.66], [11739, 2, 68, 2.27], [8648, 2, 263, 4.21], [2776, 2, 185, 3.25], [2327, 2, 170, 3.76], [616, 2, 120, 3.66], [411, 2, 129, 2.44], [8674, 2, 324, 2.49], [2423, 29, 44, 3.72], [589, 2, 181, 2.9], [6497, 1, 42, 3.28], [2805, 137, 212, 4.89], [11835, 2, 303, 3.22], [6097, 80, 52, 6.0], [146, 2, 181, 3.21], [326, 2, 104, 3.13], [6097, 29, 38, 3.55], [583, 2, 102, 2.56], [2423, 80, 220, 3.67], [10149, 3, 1052, 4.18], [145, 2, 181, 3.21], [11836, 2, 303, 3.32], [144, 2, 181, 3.21], [75, 2, 171, 3.96], [10574, 3, 565, 4.07], [6496, 1, 47, 3.48], [308, 1, 194, 4.19], [1413, 15, 111, 2.01], [2054, 3, 114, 3.24], [2422, 29, 44, 5.23], [1243, 2, 117, 3.0], [21793, 1, 273, 6.0], [1886, 2, 187, 1.81], [8915, 2, 226, 2.46], [944, 15, 46, 2.51], [247, 1, 103, 3.79], [1490, 1, 58, 5.92], [2859, 15, 82, 2.36], [1414, 15, 117, 1.88], [201, 3, 344, 2.12], [13928, 1, 53, 3.67], [3478, 2, 90, 2.89], [6158, 2, 294, 3.35], [7084, 3, 145, 2.79], [3934, 5, 619, 3.65], [11489, 1, 130, 1.75], [12526, 2, 325, 3.97], [1703, 2, 194, 2.63], [5812, 3, 700, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.2], [2328, 2, 5, 0.2], [130, 1, 4, 0.36], [8650, 2, 4, 0.46], [2778, 2, 5, 0.4], [5491, 2, 4, 0.2], [8672, 2, 7, 0.2], [143, 2, 6, 0.51], [362, 2, 4, 0.48], [145, 2, 5, 0.5], [6936, 2, 4, 1.26], [5493, 2, 5, 0.35], [361, 2, 4, 0.63], [417, 2, 4, 0.63], [11681, 2, 5, 0.71], [205, 2, 4, 0.56], [589, 2, 5, 0.2], [75, 2, 5, 0.97], [11737, 2, 4, 0.78], [146, 2, 4, 0.57], [523, 2, 4, 0.63], [12721, 2, 5, 0.48], [8853, 2, 4, 1.92], [8673, 2, 6, 0.2], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [308, 1, 5, 1.48], [8915, 2, 6, 1.14], [144, 2, 5, 0.46], [1005, 2, 4, 0.89], [8675, 2, 4, 1.2], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [11739, 2, 4, 0.78], [142, 2, 4, 0.63], [8676, 2, 4, 2.16], [2424, 29, 4, 0.37], [6158, 2, 7, 0.2], [7704, 2, 4, 1.5], [2423, 29, 4, 1.19], [11738, 2, 4, 0.78], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [1413, 15, 4, 0.2], [7705, 2, 4, 1.9], [2423, 80, 4, 0.79], [944, 15, 5, 0.2], [3, 2, 4, 0.79], [3478, 2, 4, 1.78], [7004, 1, 4, 1.31], [1414, 15, 4, 0.42], [2859, 15, 4, 1.62], [74, 1, 4, 1.09], [10149, 3, 13, 0.75], [6497, 1, 4, 0.45], [3429, 15, 4, 0.41], [10993, 2, 4, 0.4], [13928, 1, 4, 1.15], [346, 1, 4, 0.88], [18964, 1, 4, 1.13], [11919, 1, 4, 0.59], [346, 3, 5, 1.27], [60, 3, 5, 1.93], [13260, 29, 5, 1.42], [7036, 1, 4, 1.63], [94, 4, 4, 1.96], [1339, 3, 12, 0.18], [6952, 1, 4, 1.59], [3893, 1, 4, 1.35], [2991, 3, 4, 2.17], [13034, 3, 6, 0.9], [411, 2, 4, 1.01], [11089, 1, 4, 1.16], [1050, 2, 5, 0.2], [3891, 1, 4, 1.35], [1339, 1, 4, 0.43], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [21793, 1, 4, 1.01], [563, 2, 4, 0.2], [8274, 3, 4, 0.83], [6630, 3, 4, 1.8], [3889, 1, 4, 1.35], [2912, 1, 4, 0.6], [1243, 2, 6, 0.7], [1490, 1, 4, 1.35], [7708, 2, 4, 1.5], [192, 3, 13, 1.24], [11581, 29, 4, 0.87], [9126, 1, 4, 1.25], [7886, 4, 5, 0.44], [13023, 3, 5, 0.45], [3495, 3, 13, 1.28], [5208, 3, 6, 0.23], [5940, 3, 4, 1.33], [11490, 1, 4, 0.48], [1309, 1, 4, 0.73], [1049, 2, 4, 0.2], [229, 1, 4, 1.32], [5165, 1, 4, 0.87], [22558, 3, 4, 0.88], [12229, 2, 5, 0.45], [13033, 3, 4, 0.8], [2331, 1, 4, 1.18], [201, 3, 4, 0.6], [2805, 137, 5, 1.01], [247, 1, 4, 0.37], [83, 2, 4, 0.75], [1274, 1, 4, 1.17], [6496, 1, 4, 1.55], [332, 2, 4, 0.2], [214, 3, 9, 1.24], [202, 2, 4, 0.2], [951, 4, 4, 1.56], [8898, 3, 4, 0.71], [20555, 2, 4, 0.58], [1703, 2, 4, 2.69], [9690, 1, 4, 1.08], [11770, 1, 4, 1.78], [335, 3, 10, 0.62], [942, 3, 4, 0.75], [7005, 1, 4, 1.01], [5812, 3, 4, 0.76], [114, 3, 4, 2.04], [21269, 3, 4, 4.0], [3934, 5, 7, 1.36], [8635, 3, 4, 0.83], [9827, 3, 4, 0.39], [10406, 10, 8, 1.73], [4940, 1, 4, 0.42], [186, 3, 7, 1.23], [1886, 2, 4, 0.2], [10527, 3, 8, 0.82], [10411, 10, 6, 1.79], [7885, 4, 4, 0.56], [9491, 21, 10, 1.33], [305, 2, 166, 3.17], [2328, 2, 170, 4.64], [130, 1, 71, 1.65], [8650, 2, 250, 4.6], [2778, 2, 175, 3.04], [5491, 2, 123, 2.03], [8672, 2, 319, 4.91], [143, 2, 170, 3.72], [362, 2, 169, 2.01], [145, 2, 171, 3.71], [6936, 2, 319, 5.75], [5493, 2, 130, 3.02], [361, 2, 186, 2.82], [417, 2, 186, 2.82], [11681, 2, 299, 3.49], [205, 2, 130, 2.04], [589, 2, 173, 1.81], [75, 2, 164, 4.57], [11737, 2, 68, 2.71], [146, 2, 171, 3.82], [523, 2, 186, 2.17], [12721, 2, 322, 4.26], [8853, 2, 319, 5.66], [8673, 2, 323, 4.83], [326, 2, 104, 2.86], [11835, 2, 302, 2.97], [308, 1, 201, 4.9], [8915, 2, 212, 3.94], [144, 2, 171, 3.63], [1005, 2, 67, 3.65], [8675, 2, 336, 3.6], [88, 10, 639, 4.85], [434, 2, 120, 2.22], [11739, 2, 68, 2.46], [142, 2, 186, 2.82], [8676, 2, 336, 5.12], [2424, 29, 38, 3.3], [6158, 2, 296, 3.82], [7704, 2, 198, 4.67], [2423, 29, 41, 3.35], [11738, 2, 68, 2.48], [11836, 2, 302, 3.64], [2424, 80, 191, 3.75], [1413, 15, 111, 3.12], [7705, 2, 198, 5.16], [2423, 80, 208, 3.41], [944, 15, 49, 2.34], [3, 2, 134, 4.73], [1414, 15, 117, 1.77], [74, 1, 241, 3.11], [10149, 3, 1044, 2.45], [6497, 1, 45, 1.83], [3429, 15, 63, 1.75], [10993, 2, 60, 2.43], [13928, 1, 53, 3.67], [346, 1, 179, 3.77], [18964, 1, 80, 3.14], [11919, 1, 177, 2.1], [346, 3, 682, 4.23], [60, 3, 952, 4.46], [13260, 29, 81, 4.53], [7036, 1, 144, 4.32], [94, 4, 137, 5.0], [1339, 3, 1955, 1.88]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2327, 2, 5, 0.64], [2778, 2, 4, 0.2], [11681, 2, 10, 1.14], [6936, 2, 6, 0.44], [362, 2, 4, 0.56], [2328, 2, 5, 0.2], [205, 2, 4, 0.47], [130, 1, 4, 0.36], [2775, 2, 4, 0.2], [2049, 3, 5, 0.37], [8649, 2, 4, 0.64], [2776, 2, 4, 0.67], [361, 2, 5, 0.4], [143, 2, 5, 0.76], [593, 2, 6, 0.2], [206, 2, 4, 1.19], [5493, 2, 4, 0.6], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [7004, 1, 4, 0.53], [21793, 1, 4, 0.61], [413, 1, 4, 0.81], [12350, 1, 4, 2.08], [1124, 2, 4, 0.79], [7036, 1, 4, 1.53], [5165, 1, 4, 1.2], [12353, 1, 4, 2.08], [12349, 1, 5, 1.31], [145, 2, 4, 1.17], [434, 2, 4, 0.44], [248, 1, 4, 0.48], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [6097, 80, 5, 2.63], [10993, 2, 5, 0.73], [345, 3, 6, 0.2], [146, 2, 4, 1.17], [144, 2, 5, 0.61], [7084, 3, 5, 2.49], [11770, 1, 4, 0.2], [2050, 3, 4, 1.46], [12352, 1, 4, 2.08], [3891, 1, 4, 0.25], [2912, 1, 4, 1.16], [7005, 1, 4, 0.57], [998, 2, 5, 0.23], [997, 2, 4, 0.41], [432, 3, 4, 0.39], [3893, 1, 4, 0.49], [5165, 2, 7, 0.66], [12870, 1, 4, 1.19], [9372, 1, 4, 1.04], [6097, 29, 4, 2.66], [2424, 80, 4, 0.86], [20927, 1, 4, 0.51], [11772, 1, 4, 1.66], [6098, 80, 4, 1.64], [7885, 4, 4, 0.74], [10149, 3, 17, 0.75], [11089, 1, 4, 0.57], [3334, 5, 4, 0.7], [10574, 3, 5, 0.56], [12351, 1, 5, 0.56], [1492, 1, 5, 0.31], [4032, 29, 4, 0.8], [346, 3, 4, 0.93], [3889, 1, 4, 1.16], [1700, 2, 4, 0.64], [12304, 1, 4, 2.17], [1519, 3, 12, 0.22], [3576, 25, 4, 1.76], [13028, 3, 5, 1.36], [2912, 2, 5, 1.2], [214, 3, 9, 0.66], [1490, 1, 4, 0.72], [13034, 3, 5, 1.52], [972, 3, 4, 1.01], [229, 1, 4, 2.2], [11583, 29, 4, 0.49], [161, 3, 5, 1.45], [11426, 25, 4, 0.4], [5151, 2, 4, 0.45], [346, 1, 4, 0.93], [2331, 1, 4, 0.49], [8120, 3, 4, 0.6], [11490, 1, 4, 0.4], [995, 2, 4, 1.16], [3478, 2, 4, 0.62], [5076, 1, 4, 0.46], [5812, 3, 5, 2.0], [13893, 2, 4, 1.24], [10, 2, 4, 0.39], [9289, 29, 4, 1.08], [1309, 1, 4, 0.36], [410, 1, 4, 0.39], [12764, 2, 5, 0.43], [13023, 3, 6, 1.25], [2160, 68, 4, 1.02], [3575, 25, 4, 0.94], [2805, 137, 4, 0.94], [11404, 2, 5, 0.2], [3577, 25, 4, 0.52], [13280, 1, 4, 1.36], [75, 2, 5, 0.37], [2438, 2, 5, 0.53], [957, 2, 5, 0.91], [11814, 1, 4, 0.57], [11813, 1, 4, 0.84], [9069, 1, 4, 0.63], [9971, 2, 4, 1.14], [9967, 2, 4, 0.59], [11150, 2, 5, 0.45], [192, 3, 8, 1.79], [8943, 3, 4, 0.39], [9491, 21, 8, 1.33], [8283, 2, 6, 1.27], [5584, 3, 4, 4.0], [22317, 3, 4, 0.44], [24257, 1, 4, 1.22], [13249, 29, 4, 1.12], [9964, 2, 4, 1.6], [21697, 3, 4, 0.2], [9081, 3, 12, 0.98], [4586, 10, 10, 0.8], [105, 3, 4, 0.83], [4076, 3, 4, 1.42], [10609, 1, 4, 0.48], [9965, 2, 4, 1.14], [1413, 15, 4, 0.66], [335, 3, 9, 0.92], [10407, 10, 7, 1.94], [6935, 2, 311, 5.27], [141, 2, 173, 3.01], [589, 2, 172, 2.58], [2327, 2, 169, 3.3], [2778, 2, 174, 2.43], [11681, 2, 301, 6.0], [6936, 2, 311, 5.81], [362, 2, 157, 3.45], [2328, 2, 169, 4.01], [205, 2, 129, 1.78], [130, 1, 42, 1.5], [2775, 2, 174, 2.43], [2049, 3, 644, 1.69], [8649, 2, 261, 3.71], [2776, 2, 184, 2.34], [361, 2, 173, 3.53], [143, 2, 168, 3.68], [593, 2, 269, 2.09], [206, 2, 25, 2.78], [5493, 2, 127, 2.04], [1429, 2, 89, 4.32], [523, 2, 173, 3.41], [7004, 1, 94, 1.9], [21793, 1, 266, 4.32], [413, 1, 102, 2.44], [12350, 1, 722, 5.56], [1124, 2, 218, 2.61], [7036, 1, 143, 3.83], [5165, 1, 53, 4.04], [12353, 1, 722, 5.56], [12349, 1, 685, 5.29], [145, 2, 171, 3.27], [434, 2, 126, 2.14], [248, 1, 64, 1.8], [201, 3, 168, 4.66], [6952, 1, 210, 5.46], [6097, 80, 76, 6.0], [10993, 2, 59, 2.54], [345, 3, 335, 4.1], [146, 2, 180, 3.13], [144, 2, 171, 2.59], [7084, 3, 30, 4.42], [11770, 1, 246, 1.95], [12352, 1, 722, 5.56], [3891, 1, 138, 3.38], [2912, 1, 53, 3.11], [7005, 1, 94, 1.98], [998, 2, 272, 4.32], [997, 2, 287, 2.54], [432, 3, 355, 2.92], [3893, 1, 138, 2.52], [5165, 2, 450, 2.12], [12870, 1, 154, 3.17], [9372, 1, 260, 4.62], [6097, 29, 38, 6.0], [2424, 80, 198, 2.59], [20927, 1, 94, 1.86], [11772, 1, 251, 4.13], [6098, 80, 84, 4.94], [10149, 3, 982, 2.6], [11089, 1, 199, 2.89], [3334, 5, 212, 3.79], [10574, 3, 608, 1.86], [12351, 1, 685, 3.1], [1492, 1, 41, 2.21], [4032, 29, 107, 2.42]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [141, 2, 5, 0.39], [2049, 3, 12, 0.2], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [130, 1, 4, 0.51], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 5, 0.59], [990, 2, 4, 0.44], [1777, 1, 5, 0.93], [8915, 2, 5, 0.43], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [6936, 2, 6, 1.17], [8650, 2, 5, 1.15], [22247, 2, 4, 0.95], [2778, 2, 5, 0.2], [1007, 2, 6, 0.2], [88, 10, 8, 0.44], [10, 2, 6, 0.2], [8677, 3, 5, 1.81], [8649, 2, 4, 1.4], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [10825, 21, 8, 1.13], [11681, 2, 5, 1.12], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [7084, 3, 4, 1.63], [411, 2, 4, 0.23], [308, 1, 5, 0.72], [410, 1, 4, 0.36], [6158, 2, 5, 0.9], [8938, 2, 5, 0.9], [8676, 2, 4, 0.97], [1124, 2, 6, 0.2], [432, 3, 5, 0.39], [167, 3, 5, 1.1], [45, 2, 4, 1.37], [7036, 1, 4, 1.64], [3495, 3, 17, 1.31], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 0.51], [9827, 3, 4, 0.2], [5812, 3, 5, 2.5], [3893, 1, 4, 0.28], [3889, 1, 4, 0.28], [12870, 1, 4, 2.58], [2049, 1, 4, 0.55], [3891, 1, 4, 0.28], [168, 3, 6, 0.29], [6097, 29, 4, 1.86], [1504, 2, 7, 0.2], [335, 3, 11, 1.1], [6097, 80, 4, 2.61], [11737, 2, 4, 0.41], [95, 3, 17, 0.32], [6098, 29, 4, 2.02], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [79, 1, 4, 0.2], [214, 3, 9, 0.44], [3980, 4, 4, 1.39], [20927, 1, 4, 0.61], [9069, 1, 5, 1.09], [22316, 3, 6, 0.49], [83, 2, 4, 0.44], [6098, 80, 4, 2.48], [20498, 1, 5, 0.55], [8898, 3, 6, 2.17], [9760, 29, 4, 0.49], [1070, 7, 11, 0.42], [997, 2, 4, 1.04], [1622, 1, 5, 0.2], [14017, 3, 5, 0.42], [7567, 3, 4, 1.37], [13034, 3, 8, 1.01], [22554, 10, 11, 0.23], [13260, 29, 4, 0.85], [11116, 1, 5, 0.2], [1243, 2, 4, 0.79], [12924, 1, 4, 0.2], [22317, 3, 8, 0.26], [20498, 3, 6, 0.84], [5946, 1, 4, 0.28], [996, 2, 4, 1.39], [35, 1, 4, 1.05], [5086, 1, 8, 0.2], [5813, 3, 5, 1.32], [9691, 1, 5, 1.66], [995, 2, 4, 1.56], [1413, 15, 4, 0.2], [1080, 3, 4, 0.63], [952, 4, 4, 2.48], [11085, 2, 4, 0.45], [2424, 80, 4, 1.45], [8557, 3, 4, 0.2], [3049, 3, 5, 1.73], [1703, 2, 5, 1.38], [215, 4, 5, 3.32], [20486, 3, 8, 0.5], [39, 1, 4, 0.8], [3900, 3, 5, 1.18], [4076, 3, 4, 2.94], [9081, 3, 8, 0.53], [13023, 3, 5, 1.48], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [34, 1, 4, 0.47], [20486, 1, 4, 0.51], [6497, 1, 5, 1.25], [8104, 1, 4, 0.2], [11510, 3, 5, 0.71], [2854, 21, 11, 0.45], [38, 1, 4, 0.47], [23611, 3, 4, 0.42], [3047, 3, 5, 1.0], [20969, 3, 5, 1.12], [1414, 15, 4, 0.2], [2878, 1, 4, 1.57], [114, 3, 4, 0.23], [12923, 1, 4, 0.5], [10529, 29, 4, 0.48], [8672, 2, 281, 5.07], [305, 2, 145, 3.64], [6935, 2, 278, 5.23], [141, 2, 152, 3.06], [2049, 3, 539, 2.4], [205, 2, 107, 2.48], [12721, 2, 296, 2.46], [130, 1, 62, 1.66], [144, 2, 151, 1.84], [589, 2, 161, 1.23], [362, 2, 139, 3.44], [146, 2, 151, 3.22], [145, 2, 159, 1.59], [593, 2, 119, 2.87], [990, 2, 54, 1.72], [1777, 1, 107, 3.88], [8915, 2, 200, 1.63], [2328, 2, 148, 3.16], [8648, 2, 218, 4.67], [6936, 2, 278, 4.62], [8650, 2, 218, 5.32], [22247, 2, 296, 3.03], [2778, 2, 153, 3.21], [1007, 2, 266, 1.69], [88, 10, 587, 2.65], [10, 2, 109, 2.73], [8677, 3, 289, 5.23], [8649, 2, 218, 5.01], [10149, 3, 853, 5.41], [2054, 3, 463, 4.27], [412, 1, 82, 3.82], [13028, 3, 145, 3.08], [10825, 21, 675, 2.7], [11681, 2, 274, 3.6], [361, 2, 152, 2.18], [413, 1, 85, 3.3], [7004, 1, 78, 2.8], [2055, 3, 488, 2.59], [2057, 3, 488, 4.38], [7084, 3, 127, 3.82], [411, 2, 107, 2.92], [308, 1, 166, 3.34], [410, 1, 102, 2.83], [6158, 2, 270, 3.55], [8938, 2, 198, 2.26], [8676, 2, 296, 2.62], [1124, 2, 184, 1.89], [432, 3, 297, 2.94], [167, 3, 236, 3.63], [45, 2, 108, 5.82], [7036, 1, 125, 4.63], [3495, 3, 950, 4.43], [7005, 1, 78, 2.8], [5081, 2, 189, 3.15], [94, 4, 117, 4.7], [9827, 3, 86, 3.03], [5812, 3, 611, 5.08], [3893, 1, 121, 1.92], [3889, 1, 121, 1.92], [12870, 1, 135, 6.0], [3891, 1, 121, 1.92], [168, 3, 399, 3.61], [1504, 2, 200, 2.99], [6097, 80, 68, 5.83], [11737, 2, 56, 2.55]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.68], [3, 2, 7, 2.67], [326, 2, 11, 1.38], [589, 2, 15, 0.55], [143, 2, 7, 1.12], [2049, 3, 18, 1.93], [6935, 2, 18, 3.14], [130, 1, 7, 1.56], [205, 2, 7, 0.71], [75, 2, 7, 1.86], [12721, 2, 10, 1.69], [144, 2, 7, 1.42], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [1776, 1, 7, 1.17], [593, 2, 10, 2.33], [146, 2, 7, 2.25], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [20252, 2, 7, 1.1], [206, 2, 7, 1.53], [8648, 2, 14, 4.89], [990, 2, 9, 1.73], [2328, 2, 9, 1.55], [6936, 2, 10, 2.57], [5151, 2, 7, 0.9], [7886, 4, 7, 0.87], [8650, 2, 14, 5.0], [88, 10, 17, 1.98], [141, 2, 7, 2.63], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [1492, 1, 7, 1.85], [7004, 1, 7, 0.96], [2054, 3, 7, 1.03], [362, 2, 7, 2.4], [2057, 3, 7, 0.89], [10825, 21, 13, 2.02], [8649, 2, 14, 5.0], [2055, 3, 7, 0.81], [345, 3, 11, 0.97], [7084, 3, 7, 3.88], [7005, 1, 7, 0.73], [307, 2, 7, 1.93], [3889, 1, 7, 0.8], [21793, 1, 7, 4.02], [410, 1, 7, 1.0], [432, 3, 7, 1.15], [7887, 4, 7, 0.67], [22247, 2, 13, 2.72], [57, 1, 7, 1.0], [11681, 2, 14, 5.0], [10149, 3, 21, 1.67], [308, 1, 7, 2.55], [7036, 1, 7, 2.24], [94, 4, 7, 1.85], [12870, 1, 11, 5.0], [5081, 2, 9, 1.33], [9827, 3, 7, 0.53], [201, 3, 11, 0.87], [167, 3, 9, 2.77], [13028, 3, 7, 2.95], [8677, 3, 9, 1.26], [1504, 2, 7, 2.47], [1124, 2, 14, 0.68], [3891, 1, 7, 2.38], [35, 1, 9, 2.05], [3893, 1, 7, 2.38], [8676, 2, 7, 1.7], [168, 3, 11, 3.71], [9760, 29, 9, 0.92], [5812, 3, 8, 1.91], [1243, 2, 7, 1.27], [6158, 2, 10, 0.94], [412, 1, 7, 2.68], [45, 2, 7, 2.72], [361, 2, 7, 1.87], [20927, 1, 7, 1.14], [335, 3, 20, 0.93], [1767, 25, 7, 1.14], [3980, 4, 7, 2.74], [346, 1, 7, 3.18], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [214, 3, 18, 0.69], [998, 2, 7, 2.35], [2049, 1, 7, 1.19], [413, 1, 7, 2.06], [3495, 3, 18, 2.26], [8674, 2, 7, 1.7], [856, 1, 7, 0.73], [34, 1, 7, 1.65], [8898, 3, 7, 2.78], [11116, 1, 7, 0.86], [346, 3, 7, 1.57], [1766, 25, 9, 1.39], [5946, 1, 7, 2.23], [1070, 7, 15, 0.84], [997, 2, 9, 2.24], [9691, 1, 7, 3.41], [20498, 1, 7, 2.97], [38, 1, 7, 1.9], [974, 3, 9, 2.39], [152, 21, 7, 0.83], [9372, 1, 7, 3.6], [14017, 3, 7, 1.75], [1091, 1, 7, 1.5], [22317, 3, 9, 1.01], [11954, 1, 7, 3.89], [20498, 3, 10, 1.9], [996, 2, 7, 2.35], [82, 2, 7, 1.88], [1080, 3, 7, 1.59], [9828, 3, 7, 0.76], [14037, 3, 7, 1.09], [39, 1, 7, 1.62], [5811, 3, 7, 4.24], [3048, 3, 7, 3.93], [972, 3, 8, 1.9], [1767, 2, 7, 1.46], [13260, 29, 9, 2.46], [24, 1, 9, 1.96], [4203, 1, 9, 1.06], [5813, 3, 7, 4.0], [10780, 10, 7, 3.58], [13034, 3, 8, 2.39], [5513, 2, 7, 1.93], [8945, 3, 8, 2.34], [952, 4, 7, 4.16], [202, 2, 7, 3.13], [3981, 3, 17, 2.74], [3900, 3, 7, 0.94], [995, 2, 7, 2.53], [6497, 1, 7, 0.9], [3893, 1, 138, 3.95], [8676, 2, 339, 2.47], [168, 3, 427, 4.48], [9760, 29, 80, 2.17], [5812, 3, 664, 3.68], [1243, 2, 110, 2.26], [6158, 2, 295, 3.16], [412, 1, 93, 4.36], [45, 2, 120, 4.53], [361, 2, 173, 3.11], [20927, 1, 90, 2.13], [335, 3, 1468, 2.53], [1767, 25, 193, 3.4], [3980, 4, 568, 3.51], [346, 1, 177, 3.95], [95, 3, 1223, 3.3], [9069, 1, 136, 2.45], [214, 3, 734, 1.69], [998, 2, 284, 3.12], [2049, 1, 8, 1.64], [413, 1, 96, 3.86], [3495, 3, 1083, 4.16], [8674, 2, 339, 2.47], [856, 1, 41, 1.49], [34, 1, 125, 3.59], [8898, 3, 316, 5.08], [11116, 1, 90, 2.07], [346, 3, 674, 2.8], [1766, 25, 210, 3.33], [5946, 1, 138, 3.78], [1070, 7, 661, 3.14], [997, 2, 269, 4.04], [9691, 1, 84, 4.24], [20498, 1, 109, 4.11], [38, 1, 125, 3.64], [974, 3, 166, 3.95], [9372, 1, 256, 5.15], [14017, 3, 220, 4.21], [1091, 1, 56, 2.26], [22317, 3, 355, 2.78], [11954, 1, 218, 4.66], [20498, 3, 654, 3.7], [996, 2, 284, 3.12], [82, 2, 67, 2.87], [1080, 3, 148, 3.39], [9828, 3, 98, 2.69], [39, 1, 125, 2.94], [5811, 3, 696, 5.0], [3048, 3, 303, 5.48], [972, 3, 667, 3.43], [1767, 2, 38, 2.94], [13260, 29, 81, 3.46], [24, 1, 126, 3.39], [4203, 1, 55, 2.86], [5813, 3, 661, 4.76], [10780, 10, 429, 5.39], [13034, 3, 664, 3.98], [5513, 2, 93, 2.69], [952, 4, 85, 4.92], [202, 2, 85, 3.89], [3981, 3, 1906, 3.51], [3900, 3, 52, 1.71], [995, 2, 284, 3.3], [6497, 1, 44, 1.66]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [589, 2, 8, 1.6], [2778, 2, 11, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [130, 1, 7, 0.69], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 9, 0.67], [8648, 2, 14, 3.54], [2775, 2, 7, 2.56], [593, 2, 11, 2.52], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [5493, 2, 7, 0.74], [11681, 2, 9, 4.95], [7036, 1, 7, 3.63], [88, 10, 24, 2.1], [2776, 2, 7, 2.04], [141, 2, 7, 0.72], [151, 1, 7, 0.98], [1446, 2, 7, 1.5], [206, 2, 7, 1.45], [990, 2, 7, 0.75], [9760, 29, 9, 1.24], [248, 1, 7, 1.02], [5491, 2, 7, 0.77], [1007, 2, 7, 0.73], [8672, 2, 7, 5.0], [142, 2, 7, 1.77], [362, 2, 7, 1.0], [2912, 1, 7, 1.75], [10993, 2, 7, 1.25], [3893, 1, 7, 0.71], [12870, 1, 9, 3.33], [5165, 1, 7, 2.14], [7886, 4, 7, 0.8], [2055, 3, 7, 1.07], [417, 2, 7, 1.77], [9372, 1, 7, 3.88], [1622, 1, 11, 0.59], [3889, 1, 9, 1.13], [523, 2, 7, 1.19], [2054, 3, 7, 2.19], [7573, 1, 21, 5.0], [21793, 1, 7, 1.7], [10, 2, 9, 1.14], [7885, 4, 7, 1.19], [3891, 1, 7, 0.76], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 7, 2.5], [61, 3, 7, 2.37], [5208, 3, 14, 0.79], [997, 2, 7, 2.75], [3, 2, 9, 1.83], [9491, 21, 29, 0.96], [12721, 2, 7, 3.06], [5165, 2, 8, 1.95], [35, 1, 9, 2.98], [83, 2, 11, 1.48], [998, 2, 7, 1.56], [22247, 2, 7, 2.52], [33, 1, 9, 2.92], [996, 2, 7, 2.88], [346, 3, 7, 5.0], [7887, 4, 7, 2.05], [972, 3, 10, 1.66], [5076, 1, 7, 2.68], [2805, 137, 7, 4.94], [229, 1, 7, 2.98], [6158, 2, 9, 1.56], [2424, 80, 7, 2.78], [34, 1, 9, 3.0], [13028, 3, 7, 4.0], [2912, 2, 12, 3.01], [13928, 1, 7, 2.56], [38, 1, 9, 3.05], [8898, 3, 7, 5.0], [346, 1, 7, 5.0], [76, 2, 7, 1.69], [12212, 29, 9, 0.9], [8104, 1, 7, 1.79], [2336, 3, 8, 1.19], [9690, 1, 7, 1.19], [5209, 3, 9, 1.92], [39, 1, 9, 3.02], [3495, 3, 18, 2.75], [11952, 1, 7, 1.27], [7567, 3, 7, 3.04], [2424, 29, 7, 1.27], [5946, 1, 7, 1.02], [11490, 1, 9, 1.14], [24257, 1, 7, 1.0], [9691, 1, 7, 2.06], [3048, 3, 7, 1.77], [11770, 1, 7, 3.84], [411, 2, 7, 1.64], [21798, 1, 7, 1.14], [1703, 2, 7, 2.56], [13928, 2, 7, 2.56], [632, 11, 21, 0.84], [11953, 1, 9, 0.75], [74, 1, 7, 5.0], [161, 3, 9, 4.12], [10407, 10, 12, 3.76], [22316, 3, 9, 1.16], [13023, 3, 10, 1.41], [1523, 1, 7, 0.81], [21269, 3, 7, 1.96], [10410, 10, 15, 3.8], [192, 3, 15, 2.1], [12764, 2, 10, 2.01], [214, 3, 15, 1.01], [2331, 1, 7, 3.16], [972, 1, 7, 1.94], [3430, 15, 7, 2.79], [5164, 1, 7, 1.93], [13893, 2, 7, 4.11], [1274, 1, 7, 1.55], [4076, 3, 7, 2.73], [6097, 80, 7, 2.43], [6097, 29, 7, 2.31], [11116, 1, 7, 1.08], [3576, 29, 7, 2.44], [10408, 10, 8, 3.12], [1080, 3, 7, 2.78], [1243, 2, 9, 2.48], [3047, 3, 7, 2.68], [10780, 10, 7, 3.61], [2438, 2, 8, 3.45], [8674, 2, 7, 3.66], [11813, 1, 7, 1.41], [3334, 5, 7, 4.94], [2436, 4, 7, 1.36], [346, 3, 678, 5.86], [972, 3, 650, 3.9], [5076, 1, 150, 3.54], [2805, 137, 203, 5.8], [229, 1, 89, 4.15], [6158, 2, 285, 2.64], [2424, 80, 186, 3.86], [13028, 3, 161, 4.86], [13928, 1, 51, 3.92], [8898, 3, 327, 6.0], [346, 1, 170, 5.86], [76, 2, 119, 3.73], [12212, 29, 131, 3.03], [8104, 1, 236, 2.65], [2336, 3, 675, 2.05], [9690, 1, 83, 2.38], [3495, 3, 1056, 3.61], [11952, 1, 230, 2.13], [7567, 3, 76, 4.21], [2424, 29, 37, 2.13], [5946, 1, 135, 2.11], [11490, 1, 63, 2.57], [24257, 1, 154, 2.09], [9691, 1, 87, 2.92], [3048, 3, 313, 2.63], [11770, 1, 243, 4.7], [411, 2, 118, 2.73], [21798, 1, 161, 2.0], [1703, 2, 179, 3.73], [13928, 2, 27, 3.42], [632, 11, 949, 1.71], [11953, 1, 218, 1.96], [74, 1, 219, 6.0], [161, 3, 837, 4.99], [10407, 10, 1263, 5.88], [22316, 3, 346, 2.25], [13023, 3, 657, 3.53], [1523, 1, 51, 1.89], [21269, 3, 332, 2.82], [10410, 10, 1263, 5.22], [192, 3, 1615, 2.95], [12764, 2, 810, 3.87], [2331, 1, 134, 4.02], [972, 1, 108, 2.8], [3430, 15, 75, 3.89], [5164, 1, 55, 2.79], [13893, 2, 310, 4.97], [1274, 1, 90, 2.41], [4076, 3, 230, 3.59], [6097, 80, 76, 3.59], [6097, 29, 38, 3.4], [11116, 1, 92, 1.94], [3576, 29, 39, 3.3], [10408, 10, 881, 3.97], [1080, 3, 138, 3.87], [1243, 2, 107, 4.36], [3047, 3, 294, 4.59], [10780, 10, 410, 5.32], [2438, 2, 682, 5.35], [8674, 2, 323, 4.51], [11813, 1, 362, 2.27], [3334, 5, 203, 5.8], [2436, 4, 126, 3.21]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [130, 1, 7, 0.67], [11685, 2, 7, 3.6], [8648, 2, 9, 2.71], [144, 2, 7, 2.5], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [11681, 2, 9, 3.34], [205, 2, 7, 0.74], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [141, 2, 9, 1.58], [8650, 2, 7, 2.25], [151, 1, 7, 0.77], [6936, 2, 14, 4.75], [2778, 2, 9, 1.43], [206, 2, 7, 1.57], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.53], [7036, 1, 7, 2.85], [1446, 2, 7, 1.73], [990, 2, 7, 0.69], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [417, 2, 7, 0.93], [248, 1, 7, 0.75], [2055, 3, 7, 4.16], [523, 2, 7, 1.56], [3893, 1, 7, 0.83], [12870, 1, 7, 3.69], [142, 2, 7, 0.93], [12350, 1, 7, 2.38], [2057, 3, 7, 3.77], [3889, 1, 7, 1.75], [7084, 3, 7, 1.65], [20927, 1, 7, 1.66], [7005, 1, 7, 1.29], [997, 2, 7, 1.75], [12349, 1, 7, 4.99], [21793, 1, 7, 2.58], [3891, 1, 7, 1.49], [61, 3, 9, 2.43], [7885, 4, 9, 1.03], [5165, 1, 7, 2.14], [6158, 2, 21, 1.5], [8672, 2, 14, 2.68], [5165, 2, 8, 2.15], [9491, 21, 20, 1.13], [2912, 1, 7, 1.67], [98, 11, 16, 1.21], [972, 3, 11, 3.54], [411, 2, 7, 1.73], [9372, 1, 7, 4.23], [10388, 2, 7, 1.16], [214, 3, 18, 0.67], [33, 1, 7, 3.41], [410, 1, 7, 2.57], [7886, 4, 7, 1.19], [13928, 1, 7, 2.18], [7567, 3, 7, 2.7], [9081, 3, 16, 1.41], [3981, 3, 22, 2.41], [22316, 3, 7, 0.98], [83, 2, 7, 1.41], [22247, 2, 7, 2.12], [336, 15, 7, 1.77], [308, 1, 7, 3.55], [2912, 2, 8, 3.01], [10631, 2, 7, 0.81], [161, 3, 8, 4.87], [229, 1, 7, 3.17], [5946, 1, 7, 1.49], [11953, 1, 7, 1.06], [10780, 10, 7, 3.43], [22317, 3, 7, 1.67], [6497, 1, 7, 0.9], [345, 3, 7, 1.46], [12271, 2, 7, 0.9], [3478, 2, 7, 1.93], [11767, 1, 7, 0.83], [10407, 10, 10, 3.53], [10410, 10, 10, 3.57], [9082, 3, 33, 2.42], [37, 1, 7, 2.23], [972, 1, 7, 1.51], [6097, 80, 7, 3.68], [39, 1, 7, 1.71], [8104, 1, 7, 0.73], [74, 1, 7, 4.11], [1413, 15, 7, 0.69], [34, 1, 7, 1.79], [82, 2, 7, 1.27], [7704, 2, 7, 2.41], [3048, 3, 7, 0.92], [24257, 1, 7, 2.73], [2331, 1, 7, 3.53], [192, 3, 20, 1.59], [335, 3, 15, 2.02], [152, 21, 9, 0.89], [38, 1, 7, 1.27], [9971, 2, 7, 3.23], [12338, 29, 9, 0.69], [9, 1, 7, 0.87], [4253, 1, 7, 1.29], [1523, 1, 7, 0.85], [45, 2, 7, 5.0], [12721, 2, 7, 2.09], [11510, 3, 8, 2.0], [6097, 29, 7, 3.68], [10936, 2, 7, 2.38], [8673, 2, 7, 4.12], [2805, 137, 7, 3.07], [10093, 3, 15, 1.68], [1080, 3, 7, 0.71], [7007, 1, 7, 2.33], [12764, 2, 8, 1.43], [3047, 3, 7, 4.74], [12212, 29, 7, 0.94], [7705, 2, 7, 2.56], [1895, 3, 7, 3.57], [8659, 1, 7, 3.34], [7706, 2, 7, 2.31], [9965, 2, 7, 4.66], [6496, 1, 7, 2.09], [8676, 2, 7, 1.46], [11812, 1, 7, 0.9], [201, 3, 7, 2.62], [2424, 80, 7, 2.59], [8635, 3, 7, 2.86], [4203, 1, 7, 1.08], [1703, 2, 7, 2.63], [3475, 2, 7, 3.15], [2438, 2, 8, 2.12], [308, 1, 161, 4.6], [10631, 2, 234, 1.62], [161, 3, 730, 5.94], [229, 1, 88, 3.97], [5946, 1, 135, 2.3], [11953, 1, 217, 1.87], [10780, 10, 395, 4.24], [22317, 3, 323, 3.38], [6497, 1, 38, 1.95], [345, 3, 304, 2.92], [12271, 2, 69, 1.71], [3478, 2, 76, 2.74], [11767, 1, 166, 1.87], [10407, 10, 1170, 4.35], [10410, 10, 1232, 4.39], [9082, 3, 2644, 3.25], [37, 1, 114, 3.22], [972, 1, 106, 2.32], [6097, 80, 74, 4.49], [39, 1, 114, 2.52], [8104, 1, 95, 1.43], [74, 1, 214, 4.92], [1413, 15, 96, 1.49], [34, 1, 114, 2.99], [82, 2, 61, 2.08], [7704, 2, 191, 3.22], [3048, 3, 277, 1.97], [24257, 1, 140, 3.78], [2331, 1, 123, 4.34], [192, 3, 1529, 2.41], [335, 3, 1394, 2.81], [38, 1, 120, 2.08], [9971, 2, 292, 4.04], [12338, 29, 54, 1.8], [9, 1, 37, 1.68], [4253, 1, 187, 2.11], [1523, 1, 51, 1.66], [45, 2, 110, 6.0], [12721, 2, 308, 2.89], [11510, 3, 602, 3.04], [6097, 29, 37, 4.49], [10936, 2, 144, 3.19], [8673, 2, 301, 4.93], [2805, 137, 186, 3.88], [10093, 3, 887, 2.49], [1080, 3, 139, 1.52], [7007, 1, 85, 3.14], [12764, 2, 798, 2.24], [3047, 3, 275, 5.55], [12212, 29, 129, 1.75], [7705, 2, 191, 3.38], [1895, 3, 316, 4.38], [8659, 1, 128, 4.15], [7706, 2, 191, 3.12], [9965, 2, 277, 5.47], [6496, 1, 43, 2.9], [8676, 2, 310, 2.27], [11812, 1, 258, 1.7], [201, 3, 320, 3.42], [2424, 80, 182, 3.4], [8635, 3, 363, 3.67], [4203, 1, 53, 1.88], [1703, 2, 176, 3.43], [3475, 2, 63, 3.96], [2438, 2, 671, 2.92]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 1.88], [2049, 3, 16, 0.8], [589, 2, 12, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 1.99], [1776, 1, 7, 1.12], [8672, 2, 15, 2.16], [20252, 2, 7, 0.74], [205, 2, 7, 0.93], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [1777, 1, 7, 2.22], [305, 2, 7, 0.92], [11681, 2, 10, 5.0], [593, 2, 11, 2.33], [8648, 2, 9, 3.46], [6936, 2, 10, 2.79], [2328, 2, 7, 0.94], [1007, 2, 10, 1.03], [88, 10, 21, 1.69], [83, 2, 7, 0.96], [5151, 2, 7, 1.96], [8650, 2, 9, 3.5], [412, 1, 7, 2.67], [345, 3, 7, 1.1], [2991, 3, 7, 4.78], [22247, 2, 9, 2.4], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [57, 1, 9, 0.93], [201, 3, 8, 1.0], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [3478, 2, 7, 0.87], [146, 2, 7, 2.68], [2054, 3, 9, 3.23], [7004, 1, 7, 0.9], [12721, 2, 10, 1.78], [167, 3, 7, 2.5], [2057, 3, 7, 3.23], [413, 1, 7, 2.06], [10825, 21, 13, 2.1], [6158, 2, 10, 2.87], [74, 1, 7, 3.5], [168, 3, 7, 1.38], [308, 1, 7, 2.44], [346, 1, 7, 0.74], [2055, 3, 7, 1.92], [10, 2, 17, 2.16], [7036, 1, 9, 4.85], [13028, 3, 7, 1.61], [3495, 3, 21, 1.64], [335, 3, 27, 3.16], [432, 3, 7, 1.61], [5081, 2, 9, 0.59], [7887, 4, 7, 0.77], [12870, 1, 9, 5.0], [214, 3, 15, 0.77], [8649, 2, 7, 2.97], [79, 1, 7, 0.73], [410, 1, 7, 1.54], [1492, 1, 7, 1.2], [3889, 1, 7, 2.63], [145, 2, 9, 0.73], [9827, 3, 7, 0.86], [3893, 1, 7, 1.67], [1504, 2, 9, 0.89], [5208, 3, 16, 1.05], [95, 3, 21, 3.57], [13260, 29, 7, 1.89], [5812, 3, 8, 2.16], [23, 1, 7, 2.91], [94, 4, 7, 2.79], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [3891, 1, 7, 1.3], [998, 2, 7, 2.66], [25, 1, 7, 2.91], [21269, 3, 7, 5.0], [7567, 3, 7, 3.13], [10574, 3, 9, 2.33], [5086, 1, 9, 2.04], [1243, 2, 9, 2.8], [9069, 1, 7, 2.45], [2878, 1, 7, 2.42], [997, 2, 9, 3.39], [11954, 1, 7, 1.34], [9691, 1, 7, 3.66], [856, 1, 7, 0.92], [11914, 1, 11, 1.02], [20927, 1, 7, 2.0], [1703, 2, 7, 3.38], [5660, 2, 7, 3.65], [5584, 3, 7, 4.0], [952, 4, 7, 5.0], [5209, 3, 9, 0.67], [9081, 3, 14, 3.64], [8898, 3, 7, 5.0], [996, 2, 7, 4.61], [1070, 7, 13, 1.16], [346, 3, 8, 1.14], [1622, 1, 11, 0.85], [8676, 2, 7, 1.94], [12661, 1, 7, 4.53], [23961, 3, 7, 5.0], [5513, 2, 7, 1.63], [1091, 1, 7, 1.1], [22317, 3, 8, 1.15], [8274, 3, 7, 1.92], [13034, 3, 12, 3.0], [11811, 1, 7, 3.08], [24, 1, 7, 2.51], [1519, 3, 21, 0.94], [27, 1, 7, 2.91], [8674, 2, 10, 1.94], [6097, 29, 11, 2.58], [9760, 29, 11, 0.62], [4203, 1, 7, 1.27], [6097, 80, 7, 2.41], [10529, 29, 7, 2.85], [82, 2, 7, 0.67], [1413, 15, 7, 1.44], [995, 2, 9, 4.44], [9082, 3, 21, 1.17], [20498, 3, 8, 3.76], [66, 1, 7, 0.81], [2104, 3, 10, 2.99], [6098, 80, 7, 2.21], [9372, 1, 7, 1.93], [6098, 29, 7, 1.86], [34, 1, 7, 1.48], [9827, 3, 86, 3.01], [3893, 1, 121, 3.33], [1504, 2, 200, 3.04], [5208, 3, 554, 2.2], [95, 3, 1090, 4.25], [13260, 29, 71, 3.0], [5812, 3, 580, 4.28], [23, 1, 115, 3.59], [94, 4, 117, 3.69], [411, 2, 107, 2.48], [7005, 1, 78, 2.47], [3891, 1, 121, 3.52], [998, 2, 232, 5.07], [25, 1, 115, 3.59], [21269, 3, 289, 6.0], [7567, 3, 68, 4.03], [10574, 3, 499, 3.22], [5086, 1, 181, 4.19], [1243, 2, 96, 3.48], [2878, 1, 78, 3.29], [997, 2, 232, 4.07], [11954, 1, 194, 2.02], [9691, 1, 73, 4.81], [856, 1, 34, 1.82], [11914, 1, 83, 3.67], [1703, 2, 159, 4.78], [5660, 2, 171, 4.33], [5584, 3, 231, 5.27], [952, 4, 71, 6.0], [5209, 3, 554, 2.85], [9081, 3, 453, 5.8], [8898, 3, 274, 6.0], [996, 2, 245, 5.29], [1070, 7, 580, 2.82], [346, 3, 633, 1.82], [1622, 1, 56, 1.39], [8676, 2, 296, 2.62], [12661, 1, 77, 5.59], [23961, 3, 282, 5.84], [5513, 2, 76, 2.31], [1091, 1, 47, 2.93], [22317, 3, 311, 2.56], [13034, 3, 577, 4.66], [11811, 1, 446, 3.75], [24, 1, 110, 3.81], [1519, 3, 1611, 2.61], [27, 1, 115, 3.59], [8674, 2, 296, 2.62], [6097, 29, 36, 3.26], [9760, 29, 71, 2.53], [4203, 1, 47, 2.68], [6097, 80, 68, 3.09], [10529, 29, 39, 4.25], [82, 2, 59, 1.57], [1413, 15, 96, 2.72], [995, 2, 232, 5.59], [9082, 3, 2416, 3.42], [20498, 3, 580, 4.44], [66, 1, 40, 1.49], [2104, 3, 328, 3.89], [6098, 80, 75, 2.89], [9372, 1, 236, 2.61], [6098, 29, 39, 2.54], [34, 1, 110, 2.16]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [2327, 2, 7, 1.0], [8915, 2, 10, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [130, 1, 7, 0.69], [5493, 2, 11, 0.5], [616, 2, 9, 0.85], [326, 2, 11, 2.77], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 9, 4.87], [1446, 2, 9, 1.57], [7004, 1, 7, 2.5], [205, 2, 7, 0.85], [2049, 3, 10, 1.17], [144, 2, 7, 2.5], [10, 2, 7, 2.3], [151, 1, 7, 0.98], [990, 2, 7, 0.75], [7036, 1, 14, 4.62], [3893, 1, 7, 2.11], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [141, 2, 7, 1.77], [3891, 1, 7, 1.55], [206, 2, 7, 1.02], [75, 2, 9, 2.39], [2055, 3, 7, 1.91], [362, 2, 7, 2.9], [10993, 2, 7, 0.87], [21793, 1, 7, 1.66], [5208, 3, 14, 0.79], [3889, 1, 26, 2.13], [7084, 3, 7, 3.02], [11234, 2, 7, 2.7], [7005, 1, 7, 1.31], [3980, 4, 8, 2.38], [12870, 1, 7, 3.72], [2912, 1, 9, 2.08], [145, 2, 7, 2.89], [5165, 1, 7, 2.07], [10149, 3, 21, 2.85], [8672, 2, 7, 5.0], [9760, 29, 7, 0.97], [998, 2, 7, 1.5], [20927, 1, 7, 2.5], [997, 2, 7, 2.49], [2436, 4, 7, 1.36], [417, 2, 7, 1.77], [2424, 80, 7, 2.78], [7887, 4, 9, 2.05], [6158, 2, 9, 1.56], [3, 2, 11, 1.58], [5076, 1, 9, 1.7], [632, 11, 21, 0.84], [229, 1, 7, 3.17], [972, 3, 9, 1.92], [3495, 3, 14, 1.61], [74, 1, 7, 2.35], [9491, 21, 21, 3.04], [523, 2, 7, 1.19], [11770, 1, 7, 2.08], [346, 3, 7, 2.56], [11953, 1, 7, 0.87], [5165, 2, 8, 2.08], [7573, 1, 16, 4.81], [12721, 2, 7, 1.45], [996, 2, 7, 1.96], [22316, 3, 9, 1.16], [2423, 80, 9, 3.79], [11772, 1, 7, 3.73], [9372, 1, 7, 3.88], [3981, 3, 22, 1.14], [6497, 1, 7, 0.94], [24257, 1, 9, 1.19], [2912, 2, 12, 3.01], [11952, 1, 7, 1.27], [2438, 2, 8, 3.32], [12229, 2, 7, 0.69], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 0.89], [8898, 3, 9, 5.0], [3975, 4, 9, 2.75], [346, 1, 7, 3.21], [1622, 1, 7, 0.94], [6496, 1, 7, 2.37], [192, 3, 15, 2.1], [10407, 10, 12, 3.53], [3900, 3, 7, 1.43], [5209, 3, 9, 1.54], [2805, 137, 7, 2.41], [9081, 3, 12, 1.23], [5946, 1, 7, 1.02], [33, 1, 7, 1.23], [11812, 1, 7, 0.9], [335, 3, 18, 2.53], [1703, 2, 7, 1.39], [7567, 3, 7, 3.04], [12764, 2, 8, 1.48], [10388, 2, 7, 3.21], [11490, 1, 7, 0.92], [37, 1, 7, 0.9], [8676, 2, 7, 5.0], [6097, 80, 7, 2.16], [972, 1, 7, 1.94], [202, 2, 7, 1.69], [220, 4, 7, 2.52], [1519, 3, 18, 0.78], [22247, 2, 7, 2.5], [23611, 3, 8, 0.88], [161, 3, 9, 4.12], [35, 1, 7, 1.23], [38, 1, 7, 1.8], [13893, 2, 7, 4.11], [2104, 3, 15, 2.31], [11814, 1, 7, 0.92], [95, 3, 22, 0.85], [83, 2, 7, 1.1], [4232, 80, 7, 3.5], [1895, 3, 7, 4.76], [11813, 1, 7, 1.41], [11116, 1, 7, 1.08], [12212, 29, 9, 1.0], [8635, 3, 7, 2.27], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [12979, 25, 12, 1.36], [76, 2, 7, 0.98], [1309, 1, 7, 0.89], [13928, 1, 7, 2.56], [10386, 2, 7, 2.99], [5165, 2, 438, 2.94], [7573, 1, 378, 5.94], [12721, 2, 328, 2.31], [996, 2, 262, 3.05], [22316, 3, 346, 2.25], [2423, 80, 203, 5.23], [11772, 1, 243, 4.59], [9372, 1, 264, 4.75], [3981, 3, 1938, 2.0], [6497, 1, 43, 1.8], [24257, 1, 154, 2.4], [11952, 1, 230, 2.13], [2438, 2, 682, 5.35], [12229, 2, 176, 1.55], [823, 1, 46, 2.11], [361, 2, 179, 2.63], [2424, 29, 37, 1.98], [8898, 3, 310, 6.0], [3975, 4, 528, 4.61], [346, 1, 161, 4.07], [1622, 1, 125, 1.8], [6496, 1, 46, 3.23], [192, 3, 1615, 2.95], [10407, 10, 1263, 5.88], [3900, 3, 51, 2.29], [5209, 3, 130, 2.37], [2805, 137, 192, 3.49], [9081, 3, 558, 2.09], [5946, 1, 135, 2.11], [33, 1, 129, 2.09], [11812, 1, 276, 1.76], [1703, 2, 179, 2.48], [7567, 3, 76, 4.21], [12764, 2, 853, 2.34], [10388, 2, 253, 4.07], [11490, 1, 119, 2.01], [37, 1, 129, 1.76], [8676, 2, 323, 6.0], [6097, 80, 76, 3.24], [972, 1, 114, 2.8], [202, 2, 84, 2.55], [220, 4, 55, 3.38], [1519, 3, 1884, 1.61], [22247, 2, 328, 3.36], [23611, 3, 401, 1.74], [161, 3, 837, 4.99], [35, 1, 129, 2.09], [38, 1, 129, 2.66], [13893, 2, 310, 4.97], [2104, 3, 384, 3.17], [11814, 1, 246, 2.01], [95, 3, 1304, 1.69], [83, 2, 62, 1.96], [4232, 80, 162, 4.36], [1895, 3, 340, 5.62], [11813, 1, 362, 2.27], [11116, 1, 92, 1.94], [12212, 29, 131, 2.09], [8104, 1, 236, 2.65], [12979, 25, 758, 2.21], [76, 2, 126, 1.84], [1309, 1, 59, 1.75], [13928, 1, 54, 3.42], [10386, 2, 253, 3.84]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [615, 2, 11, 0.67], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [5493, 2, 9, 0.75], [205, 2, 9, 1.23], [130, 1, 7, 0.67], [616, 2, 9, 0.77], [88, 10, 14, 0.73], [144, 2, 7, 3.09], [8648, 2, 9, 2.71], [2049, 3, 21, 0.5], [11681, 2, 9, 3.84], [8915, 2, 8, 0.93], [589, 2, 8, 0.61], [326, 2, 9, 1.94], [7036, 1, 7, 2.85], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 14, 1.04], [3893, 1, 7, 0.83], [141, 2, 9, 1.58], [206, 2, 7, 1.25], [7004, 1, 7, 1.81], [151, 1, 7, 0.77], [3891, 1, 7, 1.49], [248, 1, 7, 0.75], [143, 2, 7, 2.36], [3980, 4, 7, 2.37], [146, 2, 7, 2.31], [2050, 3, 7, 3.3], [990, 2, 7, 0.69], [2055, 3, 9, 3.46], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [2054, 3, 7, 3.66], [12870, 1, 9, 3.96], [362, 2, 7, 1.58], [8672, 2, 14, 2.43], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 9, 3.27], [5165, 1, 7, 2.14], [21793, 1, 7, 2.17], [13028, 3, 7, 1.25], [7084, 3, 7, 2.06], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 1.98], [75, 2, 7, 0.89], [7005, 1, 7, 1.39], [3982, 3, 21, 2.58], [3981, 3, 21, 2.52], [33, 1, 7, 3.41], [142, 2, 9, 1.25], [20927, 1, 9, 2.82], [2912, 1, 7, 2.23], [6158, 2, 14, 1.75], [7887, 4, 9, 1.98], [5165, 2, 8, 1.6], [82, 2, 7, 1.27], [417, 2, 7, 0.93], [35, 1, 7, 3.32], [22316, 3, 9, 1.23], [214, 3, 14, 0.74], [11953, 1, 9, 0.9], [6497, 1, 9, 0.77], [61, 3, 7, 2.71], [229, 1, 7, 2.89], [192, 3, 27, 3.13], [11772, 1, 7, 2.54], [950, 1, 7, 0.73], [996, 2, 9, 3.33], [7567, 3, 7, 2.7], [11769, 1, 7, 1.85], [5946, 1, 7, 1.02], [346, 3, 7, 1.97], [6496, 1, 7, 2.09], [4176, 4, 9, 3.49], [972, 3, 14, 3.54], [39, 1, 7, 1.79], [74, 1, 7, 4.19], [411, 2, 7, 1.73], [7573, 1, 11, 4.14], [8677, 3, 7, 2.82], [12721, 2, 7, 2.09], [37, 1, 7, 1.52], [4253, 1, 7, 1.41], [2436, 4, 7, 0.85], [22317, 3, 9, 1.42], [2912, 2, 8, 1.8], [2104, 3, 10, 2.87], [1413, 15, 7, 1.12], [12212, 29, 7, 0.94], [336, 15, 7, 1.53], [1277, 1, 7, 1.25], [201, 3, 7, 2.61], [345, 3, 7, 1.94], [11085, 2, 8, 3.16], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 2.96], [823, 1, 7, 1.08], [3, 2, 7, 2.43], [8673, 2, 7, 4.12], [22247, 2, 7, 3.69], [38, 1, 7, 1.27], [8676, 2, 7, 1.94], [10631, 2, 11, 2.59], [9, 1, 7, 0.69], [2805, 137, 7, 3.07], [10408, 10, 8, 3.22], [3577, 25, 7, 1.02], [3048, 3, 7, 2.5], [10388, 2, 7, 1.16], [1414, 15, 7, 1.0], [10936, 2, 7, 2.38], [13928, 1, 7, 2.18], [9081, 3, 16, 1.41], [11812, 1, 7, 0.9], [346, 1, 7, 1.96], [20498, 3, 8, 1.25], [9491, 21, 16, 1.06], [13244, 1, 7, 0.87], [4076, 3, 7, 2.54], [161, 3, 8, 4.87], [11814, 1, 7, 0.92], [9372, 1, 7, 4.23], [10407, 10, 10, 3.57], [12764, 2, 12, 1.71], [491, 10, 8, 3.21], [1523, 1, 7, 0.85], [972, 1, 7, 1.51], [11089, 1, 7, 3.33], [3576, 25, 7, 1.44], [61, 3, 223, 3.52], [229, 1, 83, 3.7], [192, 3, 1452, 4.58], [11772, 1, 232, 3.35], [950, 1, 64, 1.54], [996, 2, 244, 5.2], [7567, 3, 75, 3.5], [11769, 1, 175, 2.66], [5946, 1, 128, 2.07], [346, 3, 618, 2.83], [6496, 1, 43, 2.9], [4176, 4, 492, 5.21], [39, 1, 114, 3.74], [74, 1, 203, 5.23], [411, 2, 111, 2.54], [7573, 1, 375, 4.95], [8677, 3, 295, 4.51], [12721, 2, 308, 2.89], [37, 1, 114, 3.22], [4253, 1, 177, 2.46], [2436, 4, 114, 1.9], [22317, 3, 323, 3.38], [2912, 2, 394, 2.61], [2104, 3, 355, 3.68], [12212, 29, 122, 1.99], [336, 15, 110, 3.22], [1277, 1, 196, 2.19], [201, 3, 304, 4.31], [345, 3, 304, 2.92], [11085, 2, 548, 5.15], [21269, 3, 299, 6.0], [13023, 3, 602, 3.48], [823, 1, 43, 1.89], [3, 2, 122, 3.8], [8673, 2, 301, 4.93], [22247, 2, 292, 5.1], [38, 1, 120, 2.08], [8676, 2, 294, 2.99], [9, 1, 35, 1.74], [2805, 137, 186, 3.88], [10408, 10, 824, 4.03], [3577, 25, 95, 1.83], [3048, 3, 277, 3.72], [10388, 2, 237, 1.97], [1414, 15, 24, 2.03], [10936, 2, 144, 3.19], [13928, 1, 50, 2.99], [9081, 3, 520, 2.21], [11812, 1, 258, 1.7], [346, 1, 154, 3.01], [20498, 3, 631, 2.07], [9491, 21, 2394, 1.89], [13244, 1, 54, 1.68], [4076, 3, 205, 3.35], [161, 3, 730, 5.94], [11814, 1, 243, 1.73], [9372, 1, 247, 5.04], [10407, 10, 1232, 4.39], [12764, 2, 758, 3.42], [491, 10, 463, 4.01], [1523, 1, 51, 1.66], [972, 1, 100, 2.55], [11089, 1, 183, 4.14], [3576, 25, 109, 2.25]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [362, 2, 7, 1.46], [8650, 2, 7, 2.38], [5491, 2, 14, 0.77], [361, 2, 7, 0.77], [5493, 2, 7, 1.28], [589, 2, 9, 1.2], [8672, 2, 18, 2.15], [11685, 2, 9, 2.81], [417, 2, 7, 0.71], [6935, 2, 28, 3.99], [205, 2, 7, 0.69], [11681, 2, 13, 5.0], [11838, 2, 9, 1.27], [12721, 2, 14, 1.48], [248, 1, 7, 0.98], [11837, 2, 7, 1.12], [142, 2, 7, 0.73], [6936, 2, 9, 2.64], [2778, 2, 11, 1.59], [1446, 2, 11, 0.61], [8676, 2, 7, 1.7], [615, 2, 7, 1.42], [21793, 1, 8, 4.09], [305, 2, 9, 1.94], [593, 2, 10, 0.66], [22247, 2, 7, 1.93], [11835, 2, 7, 0.92], [616, 2, 7, 1.31], [411, 2, 7, 0.83], [990, 2, 7, 0.73], [8675, 2, 11, 2.44], [10574, 3, 9, 2.5], [145, 2, 7, 2.25], [1429, 2, 7, 0.9], [6158, 2, 10, 2.15], [10149, 3, 21, 1.49], [3495, 3, 26, 2.15], [2050, 3, 8, 1.22], [146, 2, 7, 1.72], [88, 10, 20, 3.07], [2054, 3, 10, 2.04], [75, 2, 7, 3.23], [10993, 2, 9, 1.25], [7885, 4, 11, 1.67], [144, 2, 7, 2.25], [7705, 2, 7, 2.74], [2424, 29, 7, 3.81], [346, 3, 10, 2.81], [2423, 80, 7, 3.0], [2859, 15, 7, 1.4], [7704, 2, 7, 2.74], [61, 3, 7, 0.69], [2423, 29, 7, 3.22], [9126, 1, 7, 2.18], [335, 3, 17, 0.93], [5165, 1, 7, 1.98], [2424, 80, 7, 3.81], [13028, 3, 7, 1.96], [201, 3, 9, 2.41], [346, 1, 7, 2.81], [214, 3, 15, 3.57], [60, 3, 8, 3.51], [1519, 3, 16, 0.67], [13023, 3, 8, 2.65], [308, 1, 9, 2.95], [1414, 15, 7, 0.81], [13034, 3, 10, 2.45], [2703, 3, 7, 3.36], [345, 3, 7, 0.94], [6494, 1, 7, 0.89], [7004, 1, 7, 1.27], [410, 1, 7, 1.0], [11770, 1, 7, 3.5], [7706, 2, 11, 2.62], [432, 3, 7, 2.39], [5208, 3, 11, 1.15], [3430, 15, 7, 1.66], [6952, 1, 7, 1.41], [13928, 1, 7, 2.28], [12373, 1, 11, 3.51], [20927, 1, 7, 2.02], [11954, 1, 7, 0.85], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [2331, 1, 7, 3.16], [3893, 1, 7, 1.78], [3891, 1, 7, 1.78], [114, 3, 7, 1.1], [11811, 1, 7, 1.93], [105, 3, 7, 0.92], [7886, 4, 9, 1.14], [3981, 3, 13, 0.91], [1274, 1, 7, 1.6], [952, 4, 7, 3.68], [13033, 3, 7, 1.39], [944, 15, 7, 0.71], [9690, 1, 7, 2.13], [11089, 1, 7, 2.23], [3, 2, 7, 3.85], [1490, 1, 7, 0.85], [1309, 1, 7, 1.41], [5946, 1, 7, 1.78], [5584, 3, 7, 2.72], [8898, 3, 7, 1.42], [5812, 3, 7, 2.91], [5733, 2, 8, 2.41], [7708, 2, 7, 2.62], [10407, 10, 10, 3.72], [10410, 10, 10, 3.76], [95, 3, 13, 4.5], [3028, 3, 7, 0.85], [3478, 2, 7, 1.93], [8274, 3, 7, 2.79], [7703, 2, 7, 2.62], [9342, 2, 7, 0.93], [10398, 2, 7, 2.62], [20555, 2, 7, 1.5], [3889, 1, 7, 1.78], [21003, 2, 7, 3.61], [13258, 29, 13, 3.65], [22558, 3, 7, 4.38], [9082, 3, 23, 2.83], [3980, 4, 7, 2.76], [10406, 10, 12, 3.4], [6497, 1, 7, 3.33], [20969, 3, 7, 1.66], [1339, 3, 19, 1.0], [963, 3, 7, 2.7], [192, 3, 21, 1.64], [5165, 2, 8, 1.99], [20196, 2, 7, 3.8], [10516, 3, 7, 3.73], [11603, 2, 7, 2.64], [2703, 3, 362, 4.32], [345, 3, 358, 1.9], [6494, 1, 62, 1.85], [7004, 1, 89, 2.23], [410, 1, 125, 1.96], [11770, 1, 245, 4.45], [7706, 2, 199, 4.84], [432, 3, 352, 3.35], [5208, 3, 598, 2.1], [3430, 15, 82, 2.62], [6952, 1, 213, 2.37], [13928, 1, 56, 3.24], [12373, 1, 636, 4.47], [20927, 1, 94, 2.98], [11954, 1, 238, 1.81], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [2331, 1, 138, 4.12], [3893, 1, 146, 2.73], [3891, 1, 146, 2.73], [114, 3, 276, 3.23], [11811, 1, 536, 2.9], [105, 3, 291, 1.88], [7886, 4, 57, 2.53], [3981, 3, 1999, 1.89], [1274, 1, 98, 2.56], [952, 4, 87, 4.63], [13033, 3, 667, 2.57], [944, 15, 52, 1.67], [9690, 1, 89, 3.09], [11089, 1, 203, 3.19], [3, 2, 140, 4.81], [1490, 1, 61, 1.81], [1309, 1, 61, 2.37], [5946, 1, 146, 2.73], [5584, 3, 272, 3.68], [8898, 3, 331, 2.37], [5812, 3, 703, 3.88], [5733, 2, 47, 3.33], [7708, 2, 210, 3.57], [10407, 10, 1385, 4.67], [10410, 10, 1385, 4.71], [95, 3, 1176, 5.48], [3028, 3, 196, 1.81], [3478, 2, 90, 2.89], [7703, 2, 210, 3.57], [9342, 2, 553, 1.9], [10398, 2, 173, 3.58], [20555, 2, 68, 2.46], [3889, 1, 146, 2.73], [21003, 2, 337, 4.57], [13258, 29, 46, 4.61], [22558, 3, 557, 5.34], [9082, 3, 2915, 3.83], [3980, 4, 571, 3.72], [10406, 10, 2088, 4.36], [6497, 1, 42, 4.28], [20969, 3, 700, 2.62], [1339, 3, 2058, 1.94], [963, 3, 473, 3.66], [192, 3, 1686, 2.6], [5165, 2, 451, 2.94], [20196, 2, 337, 4.75], [10516, 3, 679, 4.68], [11603, 2, 126, 3.5]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 21, 1.08], [6936, 2, 9, 2.9], [8672, 2, 18, 2.18], [305, 2, 9, 1.46], [615, 2, 11, 1.23], [145, 2, 7, 2.25], [12721, 2, 11, 1.74], [130, 1, 7, 0.69], [2327, 2, 7, 1.82], [361, 2, 7, 0.77], [2328, 2, 7, 2.1], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [11681, 2, 9, 2.3], [141, 2, 7, 0.77], [362, 2, 7, 1.58], [205, 2, 9, 0.99], [5491, 2, 14, 0.77], [8673, 2, 14, 2.44], [8676, 2, 9, 1.6], [144, 2, 9, 2.32], [8650, 2, 9, 4.63], [417, 2, 7, 0.77], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 9, 4.67], [2423, 29, 7, 2.93], [6497, 1, 9, 0.6], [6097, 29, 9, 4.96], [11836, 2, 9, 1.44], [990, 2, 7, 1.0], [2424, 29, 7, 2.34], [593, 2, 8, 3.23], [6098, 80, 7, 4.37], [523, 2, 7, 1.46], [11739, 2, 7, 1.17], [944, 15, 7, 0.77], [88, 10, 19, 2.15], [10993, 2, 7, 1.0], [13260, 29, 7, 2.28], [8915, 2, 7, 1.5], [326, 2, 7, 0.96], [75, 2, 7, 3.0], [1413, 15, 7, 0.96], [10574, 3, 10, 2.38], [335, 3, 17, 3.44], [411, 2, 7, 1.77], [1339, 1, 7, 0.83], [1050, 2, 7, 0.73], [947, 15, 7, 0.98], [1339, 3, 21, 0.65], [151, 1, 7, 1.25], [6496, 1, 7, 2.52], [2859, 15, 7, 1.7], [7704, 2, 9, 4.35], [346, 1, 7, 0.83], [214, 3, 15, 3.57], [13258, 29, 13, 2.82], [345, 3, 7, 0.96], [10149, 3, 21, 1.75], [1490, 1, 7, 4.96], [346, 3, 8, 0.82], [1243, 2, 7, 2.39], [7004, 1, 7, 1.58], [11738, 2, 7, 1.81], [201, 3, 7, 3.31], [22558, 3, 46, 3.38], [432, 3, 7, 2.21], [2438, 1, 7, 1.99], [7705, 2, 9, 4.35], [5208, 3, 11, 1.3], [2912, 1, 7, 1.83], [229, 1, 7, 2.59], [61, 3, 7, 0.85], [963, 3, 7, 0.76], [10407, 10, 10, 3.72], [7706, 2, 9, 4.35], [2331, 1, 7, 2.02], [21793, 1, 8, 5.0], [13928, 1, 7, 2.28], [12229, 2, 7, 1.12], [3478, 2, 7, 1.93], [1548, 1, 7, 2.1], [2703, 3, 7, 4.45], [11844, 2, 7, 1.23], [13258, 25, 7, 2.31], [11490, 1, 7, 0.87], [114, 3, 7, 1.05], [7036, 1, 7, 0.87], [8938, 2, 7, 0.83], [9126, 1, 7, 2.29], [11687, 2, 7, 1.29], [10408, 10, 10, 3.27], [956, 2, 7, 1.35], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [410, 1, 7, 1.0], [11159, 1, 14, 1.67], [7708, 2, 7, 3.7], [2438, 2, 8, 2.12], [11690, 2, 7, 1.01], [9065, 2, 7, 1.04], [12870, 1, 7, 1.89], [9760, 29, 7, 1.77], [11161, 1, 10, 3.62], [11689, 2, 7, 1.27], [5976, 1, 7, 2.23], [7005, 1, 7, 2.04], [21781, 2, 7, 0.9], [1274, 1, 7, 3.81], [2805, 137, 10, 3.39], [20927, 1, 7, 1.25], [12373, 1, 11, 3.51], [2991, 3, 7, 4.76], [1699, 3, 7, 2.27], [5584, 3, 7, 2.72], [9209, 29, 7, 2.36], [3495, 3, 21, 2.56], [9690, 1, 7, 2.13], [7007, 1, 7, 2.46], [9239, 29, 7, 0.92], [11811, 1, 7, 1.93], [8600, 1, 7, 1.84], [9239, 25, 7, 0.92], [247, 1, 7, 2.96], [5769, 3, 10, 0.93], [9491, 21, 16, 3.09], [5076, 1, 7, 3.75], [13198, 29, 7, 2.55], [12764, 2, 10, 1.43], [9372, 1, 7, 4.36], [5869, 1, 7, 4.08], [7702, 2, 45, 2.47], [95, 3, 13, 0.77], [5208, 3, 669, 2.26], [2912, 1, 57, 2.79], [229, 1, 97, 3.55], [61, 3, 251, 1.81], [963, 3, 486, 1.72], [10407, 10, 1385, 4.67], [7706, 2, 176, 5.37], [2331, 1, 139, 2.98], [21793, 1, 259, 6.0], [13928, 1, 56, 3.24], [12229, 2, 171, 3.15], [3478, 2, 85, 2.89], [1548, 1, 111, 3.28], [2703, 3, 327, 5.63], [11844, 2, 327, 2.2], [13258, 25, 93, 3.26], [11490, 1, 130, 1.83], [114, 3, 290, 2.02], [7036, 1, 151, 1.82], [8938, 2, 229, 1.79], [9126, 1, 83, 3.25], [11687, 2, 359, 2.25], [10408, 10, 909, 4.23], [956, 2, 122, 2.31], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [410, 1, 125, 1.96], [11159, 1, 583, 2.63], [7708, 2, 198, 4.66], [2438, 2, 740, 3.07], [11690, 2, 359, 1.96], [9065, 2, 359, 1.99], [12870, 1, 165, 2.84], [9760, 29, 85, 2.73], [11161, 1, 585, 4.57], [11689, 2, 359, 2.23], [5976, 1, 184, 3.19], [7005, 1, 89, 3.0], [21781, 2, 124, 1.86], [1274, 1, 95, 4.77], [2805, 137, 208, 4.36], [20927, 1, 94, 2.21], [12373, 1, 636, 4.47], [2991, 3, 185, 5.72], [1699, 3, 248, 3.23], [5584, 3, 272, 3.68], [9209, 29, 39, 3.32], [3495, 3, 1147, 3.51], [9690, 1, 89, 3.09], [7007, 1, 31, 3.18], [9239, 29, 34, 1.88], [11811, 1, 536, 2.9], [8600, 1, 172, 2.8], [9239, 25, 103, 1.88], [247, 1, 103, 3.92], [5769, 3, 1242, 2.13], [9491, 21, 2455, 4.07], [5076, 1, 151, 4.71], [13198, 29, 73, 3.51], [12764, 2, 836, 2.87], [9372, 1, 271, 5.32], [5869, 1, 243, 5.04], [7702, 2, 209, 3.43], [95, 3, 1345, 1.73]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 16, 1.69], [362, 2, 7, 1.44], [361, 2, 7, 1.6], [130, 1, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 21, 3.52], [8676, 2, 7, 1.6], [2049, 3, 21, 0.73], [417, 2, 7, 1.6], [3, 2, 7, 2.47], [22247, 2, 7, 1.83], [6936, 2, 9, 1.65], [523, 2, 7, 1.52], [305, 2, 7, 1.12], [8650, 2, 9, 3.19], [2328, 2, 9, 2.57], [11739, 2, 7, 1.31], [8648, 2, 7, 3.25], [2776, 2, 7, 2.29], [2327, 2, 7, 1.48], [616, 2, 9, 2.57], [411, 2, 7, 1.48], [8674, 2, 7, 1.54], [2423, 29, 7, 2.76], [589, 2, 7, 1.94], [6497, 1, 9, 1.1], [2805, 137, 10, 3.93], [11835, 2, 7, 1.19], [6097, 80, 9, 4.96], [146, 2, 7, 2.25], [326, 2, 7, 1.48], [6097, 29, 7, 1.85], [583, 2, 7, 1.39], [2423, 80, 7, 2.71], [10149, 3, 21, 3.22], [145, 2, 7, 2.25], [11836, 2, 7, 1.29], [144, 2, 7, 2.25], [75, 2, 7, 3.0], [10574, 3, 10, 2.88], [6496, 1, 7, 2.52], [308, 1, 13, 1.91], [1413, 15, 7, 0.83], [2054, 3, 7, 2.44], [2422, 29, 7, 4.27], [1243, 2, 7, 2.04], [21793, 1, 8, 5.0], [1886, 2, 7, 0.85], [8915, 2, 7, 1.5], [944, 15, 7, 0.77], [247, 1, 7, 2.83], [1490, 1, 7, 4.96], [2859, 15, 7, 1.4], [335, 3, 17, 2.53], [1414, 15, 7, 0.92], [201, 3, 9, 0.79], [13928, 1, 7, 2.49], [3478, 2, 7, 1.93], [6158, 2, 11, 2.4], [7084, 3, 7, 1.83], [3934, 5, 12, 2.69], [11489, 1, 7, 0.79], [12526, 2, 7, 3.02], [1703, 2, 7, 1.67], [5812, 3, 7, 3.84], [11767, 1, 7, 2.2], [61, 3, 7, 0.85], [94, 4, 7, 2.68], [186, 3, 12, 1.06], [214, 3, 15, 3.57], [1519, 3, 15, 0.72], [1050, 2, 7, 0.71], [9491, 21, 16, 2.74], [11490, 1, 7, 0.67], [1309, 1, 7, 1.41], [2821, 3, 16, 0.91], [10398, 2, 7, 1.37], [5813, 3, 7, 3.84], [192, 3, 21, 3.71], [8898, 3, 7, 1.18], [8599, 1, 7, 1.36], [5811, 3, 8, 4.0], [229, 1, 7, 2.74], [11771, 1, 7, 2.99], [1699, 3, 7, 2.95], [2438, 2, 8, 2.12], [2991, 3, 7, 4.73], [3495, 3, 21, 2.56], [11769, 1, 7, 2.2], [8943, 3, 7, 0.75], [11811, 1, 7, 1.93], [1339, 3, 21, 0.65], [13928, 2, 7, 2.28], [12764, 2, 8, 1.16], [19687, 1, 7, 2.33], [7036, 1, 7, 0.87], [346, 3, 8, 0.74], [13260, 29, 7, 2.46], [22573, 2, 7, 1.91], [10124, 1, 7, 4.18], [9690, 1, 7, 2.13], [5584, 3, 7, 5.0], [3334, 5, 7, 3.93], [18964, 1, 7, 2.18], [7004, 1, 7, 1.44], [1277, 1, 7, 0.92], [2438, 1, 7, 1.99], [20927, 1, 7, 1.18], [1523, 1, 7, 2.51], [4001, 3, 17, 2.0], [11886, 2, 7, 1.44], [1701, 2, 7, 0.96], [45, 2, 7, 4.64], [11678, 1, 7, 2.86], [21269, 3, 7, 4.2], [8286, 2, 8, 1.09], [9373, 5, 7, 5.0], [10181, 26, 8, 0.81], [23031, 3, 7, 3.25], [3984, 3, 8, 1.07], [10516, 3, 7, 2.5], [11677, 1, 7, 2.95], [346, 1, 7, 0.83], [1339, 1, 7, 0.92], [3979, 3, 8, 1.56], [19924, 2, 7, 0.79], [23032, 3, 7, 2.86], [9069, 1, 7, 2.13], [9065, 2, 7, 1.04], [5976, 1, 7, 2.23], [8285, 2, 8, 0.85], [7005, 1, 7, 2.33], [11767, 1, 192, 3.15], [61, 3, 251, 1.81], [94, 4, 141, 3.64], [186, 3, 790, 2.01], [1519, 3, 1943, 1.67], [9491, 21, 2591, 3.7], [11490, 1, 130, 1.63], [1309, 1, 61, 2.37], [2821, 3, 1510, 2.09], [10398, 2, 175, 2.33], [5813, 3, 700, 4.8], [8898, 3, 332, 2.14], [8599, 1, 173, 2.31], [5811, 3, 700, 4.96], [229, 1, 96, 3.7], [11771, 1, 246, 3.94], [1699, 3, 247, 3.91], [2438, 2, 740, 3.07], [2991, 3, 179, 6.0], [3495, 3, 1147, 3.51], [11769, 1, 192, 3.15], [8943, 3, 457, 1.7], [11811, 1, 536, 2.9], [1339, 3, 1955, 1.88], [13928, 2, 28, 3.24], [12764, 2, 880, 2.11], [19687, 1, 36, 3.29], [7036, 1, 151, 1.82], [346, 3, 736, 1.71], [13260, 29, 81, 3.64], [22573, 2, 84, 2.87], [10124, 1, 119, 5.14], [9690, 1, 89, 3.09], [5584, 3, 258, 6.0], [3334, 5, 212, 4.89], [18964, 1, 80, 3.14], [7004, 1, 94, 2.4], [1277, 1, 233, 1.88], [2438, 1, 62, 2.95], [20927, 1, 94, 2.14], [1523, 1, 56, 3.47], [4001, 3, 958, 2.96], [11886, 2, 229, 2.4], [1701, 2, 201, 1.92], [45, 2, 125, 5.6], [11678, 1, 532, 3.82], [21269, 3, 339, 5.16], [8286, 2, 566, 2.04], [9373, 5, 103, 6.0], [10181, 26, 165, 1.77], [23031, 3, 486, 4.21], [3984, 3, 1971, 2.03], [10516, 3, 693, 3.45], [11677, 1, 530, 3.91], [346, 1, 184, 1.79], [1339, 1, 86, 1.88], [3979, 3, 958, 2.52], [19924, 2, 77, 1.75], [23032, 3, 614, 3.82], [9069, 1, 142, 3.09], [9065, 2, 359, 1.99], [5976, 1, 184, 3.19], [8285, 2, 573, 1.8], [7005, 1, 42, 3.14]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 0.88], [2328, 2, 14, 1.85], [130, 1, 7, 0.69], [8650, 2, 9, 2.32], [2778, 2, 16, 1.61], [5491, 2, 9, 0.74], [8672, 2, 15, 1.94], [143, 2, 7, 0.93], [362, 2, 7, 1.05], [145, 2, 7, 1.91], [6936, 2, 9, 3.12], [5493, 2, 9, 2.06], [361, 2, 7, 1.86], [417, 2, 7, 1.86], [11681, 2, 9, 2.3], [205, 2, 7, 1.08], [589, 2, 9, 0.66], [75, 2, 9, 1.92], [11737, 2, 7, 1.75], [146, 2, 7, 1.1], [523, 2, 7, 1.21], [12721, 2, 13, 3.3], [8853, 2, 7, 3.7], [8673, 2, 27, 2.2], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [308, 1, 11, 3.94], [8915, 2, 7, 2.76], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [8675, 2, 8, 2.64], [88, 10, 26, 1.79], [434, 2, 9, 1.04], [11739, 2, 7, 1.5], [142, 2, 7, 1.86], [8676, 2, 7, 4.16], [2424, 29, 7, 2.34], [6158, 2, 12, 1.79], [7704, 2, 9, 3.71], [2423, 29, 7, 2.29], [11738, 2, 7, 1.52], [11836, 2, 11, 1.36], [2424, 80, 7, 2.57], [1413, 15, 7, 1.24], [7705, 2, 7, 4.08], [2423, 80, 7, 2.23], [944, 15, 7, 1.02], [3, 2, 9, 2.19], [3478, 2, 7, 2.95], [7004, 1, 7, 2.58], [1414, 15, 7, 0.81], [2859, 15, 7, 2.81], [74, 1, 7, 2.15], [10149, 3, 21, 1.49], [6497, 1, 7, 0.87], [3429, 15, 7, 0.79], [10993, 2, 9, 1.25], [13928, 1, 7, 2.49], [346, 1, 7, 2.81], [18964, 1, 7, 2.18], [11919, 1, 7, 1.14], [346, 3, 8, 3.06], [60, 3, 8, 3.51], [13260, 29, 7, 2.5], [7036, 1, 7, 3.14], [94, 4, 7, 4.04], [1339, 3, 21, 0.65], [6952, 1, 7, 3.06], [3893, 1, 7, 2.6], [2991, 3, 7, 4.18], [13034, 3, 11, 2.28], [411, 2, 7, 1.94], [11089, 1, 7, 2.23], [1050, 2, 7, 0.66], [3891, 1, 7, 2.6], [1339, 1, 7, 0.83], [14037, 3, 9, 1.91], [7707, 2, 7, 2.41], [21793, 1, 8, 4.09], [563, 2, 7, 1.19], [8274, 3, 7, 1.6], [6630, 3, 7, 3.55], [3889, 1, 7, 2.6], [2912, 1, 9, 1.48], [1243, 2, 7, 2.33], [1490, 1, 7, 4.96], [7708, 2, 7, 3.01], [192, 3, 26, 4.24], [11581, 29, 7, 1.89], [9126, 1, 7, 2.41], [7886, 4, 9, 0.87], [13023, 3, 8, 0.8], [3495, 3, 21, 2.56], [5208, 3, 11, 1.4], [5940, 3, 7, 2.56], [11490, 1, 7, 0.92], [1309, 1, 7, 1.41], [1049, 2, 7, 0.69], [229, 1, 7, 2.59], [5165, 1, 7, 1.67], [22558, 3, 7, 4.38], [12229, 2, 7, 1.12], [13033, 3, 7, 1.68], [2331, 1, 7, 3.54], [201, 3, 7, 1.16], [2805, 137, 10, 4.22], [247, 1, 7, 0.97], [83, 2, 7, 1.44], [1274, 1, 7, 2.25], [6496, 1, 7, 2.98], [332, 2, 7, 1.19], [214, 3, 15, 3.57], [202, 2, 7, 1.19], [951, 4, 7, 3.07], [8898, 3, 7, 1.42], [20555, 2, 7, 1.12], [1703, 2, 7, 5.0], [9690, 1, 7, 2.13], [11770, 1, 7, 3.89], [335, 3, 21, 2.53], [942, 3, 7, 2.26], [7005, 1, 7, 1.94], [5812, 3, 7, 2.49], [114, 3, 7, 3.82], [21269, 3, 7, 5.0], [3934, 5, 12, 2.69], [8635, 3, 7, 1.6], [9827, 3, 7, 0.75], [10406, 10, 12, 3.64], [4940, 1, 7, 0.81], [186, 3, 12, 2.32], [1886, 2, 9, 0.85], [10527, 3, 13, 2.94], [10411, 10, 10, 3.51], [7885, 4, 7, 1.08], [9491, 21, 16, 2.74], [6952, 1, 213, 5.34], [3893, 1, 145, 3.56], [2991, 3, 179, 6.0], [13034, 3, 665, 4.56], [411, 2, 121, 3.53], [11089, 1, 203, 3.19], [3891, 1, 145, 3.56], [1339, 1, 81, 2.01], [7707, 2, 198, 3.72], [21793, 1, 282, 5.05], [563, 2, 82, 2.37], [6630, 3, 111, 4.51], [3889, 1, 145, 3.56], [2912, 1, 13, 2.77], [1243, 2, 111, 4.11], [1490, 1, 58, 5.92], [7708, 2, 209, 3.97], [192, 3, 1582, 5.48], [11581, 29, 71, 2.85], [9126, 1, 83, 3.37], [7886, 4, 162, 2.05], [13023, 3, 714, 1.76], [3495, 3, 1147, 3.51], [5208, 3, 149, 2.33], [5940, 3, 282, 3.52], [11490, 1, 130, 1.88], [1309, 1, 61, 2.37], [229, 1, 97, 3.55], [5165, 1, 57, 2.63], [22558, 3, 557, 5.34], [12229, 2, 171, 3.15], [13033, 3, 700, 2.64], [2331, 1, 138, 4.5], [201, 3, 334, 2.34], [2805, 137, 211, 5.18], [247, 1, 104, 1.92], [83, 2, 60, 2.4], [1274, 1, 97, 3.21], [6496, 1, 44, 4.35], [332, 2, 82, 2.37], [214, 3, 253, 4.28], [202, 2, 82, 2.37], [951, 4, 111, 4.03], [8898, 3, 331, 2.37], [20555, 2, 68, 2.08], [1703, 2, 188, 6.0], [9690, 1, 89, 3.09], [11770, 1, 249, 4.85], [942, 3, 351, 3.22], [7005, 1, 94, 2.9], [5812, 3, 661, 4.78], [114, 3, 95, 4.64], [21269, 3, 332, 6.0], [3934, 5, 619, 3.65], [9827, 3, 98, 1.93], [10406, 10, 1983, 4.6], [4940, 1, 144, 1.77], [186, 3, 782, 3.28], [1886, 2, 177, 2.03], [10527, 3, 1029, 3.91], [10411, 10, 909, 4.47], [7885, 4, 74, 1.89], [9491, 21, 2591, 3.7]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 12, 0.75], [2327, 2, 9, 1.37], [2778, 2, 14, 1.33], [11681, 2, 30, 4.17], [6936, 2, 13, 3.9], [362, 2, 7, 1.69], [2328, 2, 9, 1.85], [205, 2, 7, 0.9], [130, 1, 7, 0.69], [2775, 2, 7, 1.33], [2049, 3, 10, 0.82], [8649, 2, 7, 2.82], [2776, 2, 7, 1.46], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [206, 2, 7, 2.29], [5493, 2, 7, 1.16], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [7004, 1, 7, 1.02], [21793, 1, 7, 3.22], [413, 1, 7, 1.56], [12350, 1, 7, 4.69], [1124, 2, 7, 1.73], [7036, 1, 7, 2.95], [5165, 1, 7, 2.31], [12353, 1, 7, 4.69], [12349, 1, 9, 3.94], [145, 2, 7, 2.25], [434, 2, 7, 1.26], [248, 1, 7, 0.92], [201, 3, 11, 3.77], [6952, 1, 11, 3.9], [6097, 80, 7, 5.0], [10993, 2, 7, 1.66], [345, 3, 9, 1.93], [146, 2, 7, 2.25], [144, 2, 7, 1.72], [7084, 3, 7, 3.68], [11770, 1, 9, 0.74], [2050, 3, 7, 2.76], [12352, 1, 7, 4.69], [3891, 1, 7, 1.46], [2912, 1, 7, 2.23], [7005, 1, 7, 1.1], [998, 2, 7, 1.56], [997, 2, 7, 1.66], [432, 3, 7, 2.04], [3893, 1, 7, 1.42], [5165, 2, 12, 1.23], [12870, 1, 7, 2.29], [9372, 1, 7, 3.52], [6097, 29, 7, 5.0], [2424, 80, 7, 1.71], [20927, 1, 7, 0.98], [11772, 1, 7, 3.25], [6098, 80, 9, 4.06], [7885, 4, 7, 1.67], [10149, 3, 24, 1.73], [11089, 1, 7, 2.01], [3334, 5, 7, 2.91], [10574, 3, 8, 0.98], [12351, 1, 7, 2.23], [1492, 1, 7, 1.33], [4032, 29, 7, 1.54], [346, 3, 7, 3.55], [3889, 1, 7, 2.23], [1700, 2, 7, 1.23], [12304, 1, 7, 4.18], [1519, 3, 20, 0.94], [3576, 25, 7, 3.39], [13028, 3, 7, 4.42], [2912, 2, 8, 2.37], [214, 3, 15, 1.34], [1490, 1, 7, 1.39], [13034, 3, 7, 4.12], [972, 3, 7, 1.94], [229, 1, 7, 4.24], [11583, 29, 7, 0.94], [161, 3, 8, 4.24], [11426, 25, 7, 0.81], [5151, 2, 7, 0.87], [346, 1, 7, 3.55], [2331, 1, 7, 1.09], [8120, 3, 7, 3.15], [11490, 1, 7, 1.25], [995, 2, 7, 2.23], [3478, 2, 7, 1.19], [5076, 1, 7, 0.99], [5812, 3, 10, 4.4], [13893, 2, 7, 4.11], [10, 2, 7, 0.75], [9289, 29, 7, 2.08], [1309, 1, 7, 0.69], [410, 1, 7, 1.61], [12764, 2, 9, 1.46], [13023, 3, 10, 2.28], [2160, 68, 7, 1.96], [3575, 25, 7, 1.83], [2805, 137, 7, 2.91], [11404, 2, 7, 1.08], [3577, 25, 7, 1.0], [13280, 1, 7, 2.62], [75, 2, 7, 0.71], [2438, 2, 8, 2.12], [957, 2, 7, 2.0], [11814, 1, 7, 1.1], [11813, 1, 7, 2.91], [9069, 1, 7, 1.21], [9971, 2, 7, 2.19], [9967, 2, 7, 1.14], [11150, 2, 8, 0.79], [192, 3, 13, 3.54], [8943, 3, 7, 0.75], [9491, 21, 13, 2.59], [8283, 2, 8, 3.44], [5584, 3, 7, 5.0], [22317, 3, 7, 0.85], [24257, 1, 7, 2.78], [13249, 29, 7, 2.16], [9964, 2, 7, 3.08], [21697, 3, 7, 0.87], [9081, 3, 20, 1.8], [4586, 10, 17, 1.5], [105, 3, 7, 1.6], [4076, 3, 7, 2.73], [10609, 1, 7, 1.79], [9965, 2, 7, 2.19], [1413, 15, 7, 3.17], [335, 3, 15, 3.16], [10407, 10, 12, 3.8], [346, 3, 703, 4.43], [3889, 1, 146, 3.11], [1700, 2, 84, 2.11], [12304, 1, 125, 5.06], [1519, 3, 1827, 2.61], [3576, 25, 112, 4.27], [13028, 3, 164, 5.3], [2912, 2, 445, 3.24], [214, 3, 761, 2.22], [1490, 1, 59, 2.27], [13034, 3, 665, 5.21], [972, 3, 665, 2.81], [229, 1, 95, 5.12], [11583, 29, 66, 1.82], [161, 3, 840, 5.12], [11426, 25, 133, 1.91], [5151, 2, 27, 1.97], [346, 1, 176, 4.43], [2331, 1, 137, 1.97], [8120, 3, 277, 4.02], [11490, 1, 92, 2.35], [995, 2, 287, 3.11], [3478, 2, 89, 2.07], [5076, 1, 152, 1.87], [5812, 3, 658, 5.76], [13893, 2, 316, 4.99], [10, 2, 25, 1.24], [9289, 29, 70, 2.96], [1309, 1, 61, 1.57], [410, 1, 25, 2.1], [12764, 2, 871, 2.34], [13023, 3, 665, 4.16], [2160, 68, 155, 2.84], [3575, 25, 118, 2.71], [2805, 137, 212, 3.79], [11404, 2, 115, 2.75], [3577, 25, 98, 2.1], [13280, 1, 375, 3.5], [75, 2, 163, 1.81], [2438, 2, 733, 3.01], [957, 2, 25, 3.03], [11814, 1, 265, 1.98], [11813, 1, 367, 3.79], [9069, 1, 137, 2.31], [9971, 2, 317, 3.07], [9967, 2, 317, 2.02], [11150, 2, 414, 1.67], [192, 3, 1512, 4.6], [8943, 3, 136, 1.4], [9491, 21, 2566, 3.48], [8283, 2, 522, 4.32], [5584, 3, 266, 6.0], [22317, 3, 379, 1.73], [24257, 1, 45, 3.68], [13249, 29, 75, 3.04], [9964, 2, 317, 3.95], [21697, 3, 203, 1.97], [9081, 3, 565, 2.68], [4586, 10, 1732, 2.4], [105, 3, 286, 2.48], [4076, 3, 235, 3.61], [10609, 1, 335, 2.67], [9965, 2, 317, 3.07], [1413, 15, 92, 4.02], [335, 3, 304, 3.65], [10407, 10, 1372, 4.67]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 23, 4.55], [141, 2, 7, 2.37], [2049, 3, 16, 0.52], [205, 2, 9, 0.71], [12721, 2, 10, 1.78], [130, 1, 7, 0.98], [144, 2, 7, 0.94], [589, 2, 15, 0.55], [362, 2, 9, 2.65], [146, 2, 7, 1.67], [145, 2, 7, 0.91], [593, 2, 11, 2.33], [990, 2, 7, 1.04], [1777, 1, 7, 2.22], [8915, 2, 10, 0.95], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [6936, 2, 10, 2.57], [8650, 2, 7, 3.41], [22247, 2, 9, 2.35], [2778, 2, 7, 1.63], [1007, 2, 12, 0.66], [88, 10, 16, 1.98], [10, 2, 14, 2.05], [8677, 3, 8, 3.19], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [10825, 21, 13, 2.01], [11681, 2, 11, 2.92], [361, 2, 7, 1.5], [413, 1, 7, 1.89], [7004, 1, 9, 0.99], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [7084, 3, 7, 3.14], [411, 2, 7, 1.17], [308, 1, 7, 2.44], [410, 1, 7, 1.42], [6158, 2, 10, 2.87], [8938, 2, 8, 1.58], [8676, 2, 7, 1.94], [1124, 2, 12, 0.75], [432, 3, 7, 2.04], [167, 3, 9, 2.95], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [3495, 3, 26, 2.72], [7005, 1, 7, 0.99], [5081, 2, 12, 1.3], [94, 4, 7, 3.29], [9827, 3, 7, 1.13], [5812, 3, 8, 4.4], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [12870, 1, 9, 5.0], [2049, 1, 7, 2.01], [3891, 1, 7, 1.02], [168, 3, 9, 2.11], [6097, 29, 11, 4.7], [1504, 2, 11, 1.58], [335, 3, 22, 3.16], [6097, 80, 7, 4.71], [11737, 2, 9, 1.41], [95, 3, 21, 0.93], [6098, 29, 9, 4.12], [346, 1, 9, 1.11], [998, 2, 7, 3.14], [79, 1, 7, 0.98], [214, 3, 15, 0.99], [3980, 4, 7, 2.74], [20927, 1, 7, 1.75], [9069, 1, 9, 2.16], [22316, 3, 9, 1.22], [83, 2, 7, 0.85], [6098, 80, 7, 4.14], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [9760, 29, 7, 0.94], [1070, 7, 29, 2.72], [997, 2, 7, 2.84], [1622, 1, 9, 0.53], [14017, 3, 7, 1.29], [7567, 3, 9, 3.44], [13034, 3, 10, 2.73], [22554, 10, 15, 0.87], [13260, 29, 9, 2.4], [11116, 1, 9, 0.81], [1243, 2, 7, 1.52], [12924, 1, 9, 0.61], [22317, 3, 20, 1.6], [20498, 3, 10, 3.5], [5946, 1, 7, 1.02], [996, 2, 7, 4.17], [35, 1, 9, 2.6], [5086, 1, 11, 2.14], [5813, 3, 7, 2.04], [9691, 1, 7, 3.2], [995, 2, 7, 4.49], [1413, 15, 9, 0.75], [1080, 3, 7, 1.21], [952, 4, 7, 4.77], [11085, 2, 7, 0.86], [2424, 80, 7, 4.26], [8557, 3, 7, 2.36], [3049, 3, 7, 4.11], [1703, 2, 7, 2.72], [215, 4, 7, 5.0], [20486, 3, 12, 3.26], [39, 1, 7, 1.79], [3900, 3, 7, 2.68], [4076, 3, 7, 5.0], [9081, 3, 15, 3.06], [13023, 3, 8, 2.62], [8274, 3, 7, 1.02], [8943, 3, 7, 0.96], [34, 1, 7, 1.23], [20486, 1, 7, 2.87], [6497, 1, 7, 2.18], [8104, 1, 9, 0.75], [11510, 3, 10, 2.97], [2854, 21, 13, 1.09], [38, 1, 7, 2.24], [23611, 3, 9, 1.04], [3047, 3, 7, 1.93], [20969, 3, 7, 2.16], [1414, 15, 9, 0.56], [2878, 1, 7, 3.02], [114, 3, 7, 0.92], [12923, 1, 7, 0.96], [10529, 29, 7, 2.54], [95, 3, 1035, 3.11], [346, 1, 150, 2.73], [998, 2, 232, 4.15], [79, 1, 47, 2.0], [214, 3, 637, 1.87], [3980, 4, 498, 3.43], [20927, 1, 28, 2.16], [22316, 3, 312, 2.59], [83, 2, 53, 1.75], [20498, 1, 96, 4.1], [8898, 3, 274, 6.0], [9760, 29, 75, 1.62], [1070, 7, 580, 3.4], [997, 2, 232, 4.19], [1622, 1, 113, 1.18], [14017, 3, 195, 3.39], [7567, 3, 68, 4.57], [13034, 3, 577, 4.66], [22554, 10, 373, 1.77], [13260, 29, 71, 3.3], [11116, 1, 78, 1.71], [1243, 2, 102, 2.2], [12924, 1, 52, 3.1], [22317, 3, 311, 3.02], [20498, 3, 580, 4.18], [5946, 1, 121, 1.92], [996, 2, 232, 6.0], [35, 1, 110, 3.63], [5086, 1, 181, 4.29], [5813, 3, 580, 4.12], [9691, 1, 73, 4.81], [995, 2, 232, 6.0], [1413, 15, 96, 1.77], [1080, 3, 138, 1.89], [952, 4, 71, 5.45], [11085, 2, 573, 1.54], [2424, 80, 175, 4.94], [8557, 3, 195, 3.68], [3049, 3, 134, 5.77], [1703, 2, 159, 4.37], [215, 4, 39, 5.79], [20486, 3, 580, 5.44], [39, 1, 110, 2.72], [3900, 3, 45, 3.36], [4076, 3, 196, 6.0], [9081, 3, 453, 4.97], [13023, 3, 580, 4.6], [8274, 3, 299, 1.67], [8943, 3, 133, 1.6], [34, 1, 110, 2.13], [20486, 1, 96, 5.02], [6497, 1, 37, 3.59], [8104, 1, 206, 1.65], [11510, 3, 574, 3.64], [2854, 21, 1094, 2.49], [38, 1, 110, 2.92], [23611, 3, 339, 1.72], [3047, 3, 265, 2.83], [20969, 3, 580, 3.06], [1414, 15, 96, 2.47], [2878, 1, 83, 3.7], [114, 3, 242, 2.57], [12923, 1, 39, 1.64], [10529, 29, 42, 3.21]]</t>
   </si>
   <si>
     <t>1QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[8672, 2, 6, 0.73], [3, 2, 4, 1.22], [326, 2, 4, 0.29], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 1.15], [6935, 2, 8, 1.27], [130, 1, 5, 0.6], [205, 2, 4, 0.2], [75, 2, 6, 0.87], [12721, 2, 6, 0.72], [144, 2, 4, 0.74], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [1776, 1, 4, 0.61], [593, 2, 5, 0.59], [146, 2, 4, 1.17], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [20252, 2, 5, 0.2], [206, 2, 4, 0.2], [8648, 2, 4, 1.27], [990, 2, 4, 0.7], [2328, 2, 4, 0.2], [6936, 2, 6, 1.17], [5151, 2, 4, 0.47], [7886, 4, 5, 0.45], [8650, 2, 5, 1.65], [88, 10, 8, 0.44], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2054, 3, 5, 0.53], [362, 2, 4, 0.96], [2057, 3, 6, 0.47], [10825, 21, 10, 1.03], [8649, 2, 4, 1.4], [2055, 3, 5, 0.42], [345, 3, 4, 0.32], [7084, 3, 4, 2.28], [7005, 1, 4, 0.2], [307, 2, 4, 1.0], [3889, 1, 4, 0.2], [21793, 1, 5, 1.14], [410, 1, 4, 0.52], [432, 3, 6, 0.62], [7887, 4, 4, 0.35], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [11681, 2, 5, 1.79], [10149, 3, 15, 0.99], [308, 1, 4, 0.49], [7036, 1, 4, 0.68], [94, 4, 4, 0.2], [12870, 1, 4, 2.33], [5081, 2, 5, 0.44], [9827, 3, 4, 0.2], [201, 3, 5, 0.2], [167, 3, 5, 1.4], [13028, 3, 4, 0.62], [8677, 3, 6, 0.65], [1504, 2, 5, 0.52], [1124, 2, 8, 0.2], [3891, 1, 4, 0.2], [35, 1, 4, 0.83], [3893, 1, 4, 0.2], [8676, 2, 4, 0.73], [168, 3, 4, 1.23], [9760, 29, 4, 0.24], [5812, 3, 6, 0.8], [1243, 2, 4, 0.66], [6158, 2, 6, 0.51], [412, 1, 4, 1.39], [45, 2, 4, 0.64], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [335, 3, 11, 0.22], [1767, 25, 4, 0.59], [3980, 4, 4, 1.39], [346, 1, 4, 0.85], [95, 3, 14, 0.3], [9069, 1, 4, 0.42], [214, 3, 9, 0.2], [998, 2, 4, 1.22], [2049, 1, 4, 0.48], [413, 1, 5, 1.32], [3495, 3, 13, 1.31], [8674, 2, 4, 0.73], [856, 1, 4, 0.38], [34, 1, 4, 0.63], [8898, 3, 5, 0.75], [11116, 1, 5, 0.56], [346, 3, 4, 0.82], [1766, 25, 4, 0.56], [5946, 1, 4, 0.78], [1070, 7, 10, 0.46], [997, 2, 4, 0.77], [9691, 1, 4, 1.77], [20498, 1, 4, 0.23], [38, 1, 4, 0.88], [974, 3, 5, 1.13], [152, 21, 4, 0.43], [9372, 1, 5, 1.99], [14017, 3, 5, 1.04], [1091, 1, 4, 0.78], [22317, 3, 6, 0.51], [11954, 1, 5, 0.2], [20498, 3, 8, 0.57], [996, 2, 4, 1.22], [82, 2, 4, 0.46], [1080, 3, 5, 0.3], [9828, 3, 4, 0.2], [14037, 3, 4, 0.2], [39, 1, 4, 0.84], [5811, 3, 4, 2.2], [3048, 3, 4, 1.24], [972, 3, 5, 0.91], [1767, 2, 4, 0.59], [13260, 29, 4, 0.73], [24, 1, 4, 0.79], [4203, 1, 5, 0.3], [5813, 3, 5, 1.52], [10780, 10, 4, 1.3], [13034, 3, 5, 1.09], [5513, 2, 4, 1.0], [8945, 3, 5, 1.5], [952, 4, 4, 2.16], [202, 2, 4, 1.59], [3981, 3, 10, 1.42], [3900, 3, 4, 0.49], [995, 2, 4, 1.22], [6497, 1, 4, 0.47], [8672, 2, 339, 3.45], [3, 2, 142, 3.44], [326, 2, 110, 2.14], [589, 2, 172, 1.66], [143, 2, 168, 3.36], [6935, 2, 315, 5.06], [130, 1, 66, 2.8], [205, 2, 122, 2.81], [75, 2, 165, 3.91], [12721, 2, 321, 4.0], [144, 2, 180, 2.18], [145, 2, 171, 3.26], [8915, 2, 218, 1.5], [1776, 1, 122, 3.44], [593, 2, 77, 2.77], [146, 2, 171, 3.01], [151, 1, 75, 1.7], [2778, 2, 174, 3.37], [1777, 1, 122, 3.66], [20252, 2, 105, 1.86], [206, 2, 55, 2.12], [8648, 2, 248, 5.84], [2328, 2, 169, 3.6], [6936, 2, 315, 4.78], [5151, 2, 29, 1.66], [7886, 4, 132, 1.87], [8650, 2, 248, 6.0], [88, 10, 669, 2.75], [141, 2, 173, 3.92], [74, 1, 222, 5.84], [83, 2, 60, 1.77], [1492, 1, 41, 3.2], [7004, 1, 90, 1.73], [2054, 3, 532, 2.85], [362, 2, 167, 3.17], [2057, 3, 532, 3.18], [10825, 21, 710, 3.76], [8649, 2, 248, 6.0], [2055, 3, 532, 3.1], [345, 3, 337, 3.35], [7005, 1, 90, 1.72], [307, 2, 174, 2.69], [3889, 1, 138, 3.11], [21793, 1, 256, 5.01], [410, 1, 124, 1.76], [432, 3, 339, 3.45], [7887, 4, 157, 1.66], [22247, 2, 338, 3.49], [57, 1, 101, 1.76], [11681, 2, 295, 6.0], [10149, 3, 986, 3.97], [308, 1, 188, 3.55], [7036, 1, 143, 4.05], [94, 4, 133, 4.41], [12870, 1, 70, 6.0], [5081, 2, 213, 3.57], [9827, 3, 98, 3.03], [201, 3, 337, 3.35], [167, 3, 255, 3.97], [13028, 3, 163, 4.2], [8677, 3, 330, 3.57], [1504, 2, 228, 3.71], [1124, 2, 209, 3.48], [3891, 1, 138, 3.99], [35, 1, 125, 3.56]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [589, 2, 5, 0.91], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [130, 1, 4, 0.36], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [205, 2, 4, 0.2], [8648, 2, 5, 1.15], [2775, 2, 4, 1.33], [593, 2, 6, 0.4], [145, 2, 4, 0.25], [146, 2, 5, 0.32], [5493, 2, 4, 0.2], [11681, 2, 4, 2.0], [7036, 1, 4, 1.53], [88, 10, 14, 0.52], [2776, 2, 4, 1.06], [141, 2, 5, 0.39], [151, 1, 4, 0.51], [1446, 2, 4, 0.53], [206, 2, 4, 0.2], [990, 2, 4, 0.39], [9760, 29, 4, 0.2], [248, 1, 4, 0.53], [5491, 2, 4, 0.4], [1007, 2, 4, 0.38], [8672, 2, 4, 2.86], [142, 2, 4, 0.92], [362, 2, 4, 0.52], [2912, 1, 4, 0.66], [10993, 2, 5, 0.35], [3893, 1, 4, 0.2], [12870, 1, 5, 1.68], [5165, 1, 4, 1.11], [7886, 4, 5, 0.44], [2055, 3, 5, 0.55], [417, 2, 4, 0.92], [9372, 1, 4, 1.17], [1622, 1, 5, 0.2], [3889, 1, 4, 0.2], [523, 2, 4, 0.55], [2054, 3, 5, 0.19], [7573, 1, 10, 2.21], [21793, 1, 5, 0.61], [10, 2, 5, 0.36], [7885, 4, 4, 0.49], [3891, 1, 4, 0.2], [10149, 3, 17, 1.21], [75, 2, 5, 1.25], [20927, 1, 4, 1.26], [61, 3, 4, 1.23], [5208, 3, 5, 0.19], [997, 2, 5, 1.01], [3, 2, 5, 0.62], [9491, 21, 17, 0.22], [12721, 2, 6, 1.46], [5165, 2, 5, 1.11], [35, 1, 5, 1.54], [83, 2, 4, 0.45], [998, 2, 4, 0.56], [22247, 2, 4, 1.14], [33, 1, 4, 1.18], [996, 2, 4, 0.35], [346, 3, 4, 1.66], [7887, 4, 4, 0.97], [972, 3, 5, 0.75], [5076, 1, 4, 0.96], [2805, 137, 4, 1.17], [229, 1, 4, 1.55], [6158, 2, 5, 0.2], [2424, 80, 4, 1.11], [34, 1, 4, 1.32], [13028, 3, 5, 1.36], [2912, 2, 7, 0.99], [13928, 1, 4, 1.33], [38, 1, 4, 1.38], [8898, 3, 4, 4.0], [346, 1, 4, 1.67], [76, 2, 5, 1.1], [12212, 29, 5, 0.2], [8104, 1, 4, 0.93], [2336, 3, 5, 0.5], [9690, 1, 4, 0.62], [5209, 3, 6, 0.46], [39, 1, 4, 1.35], [3495, 3, 11, 1.25], [11952, 1, 4, 0.66], [7567, 3, 4, 1.58], [2424, 29, 4, 0.66], [5946, 1, 4, 0.28], [11490, 1, 4, 0.46], [24257, 1, 4, 0.52], [9691, 1, 4, 0.9], [3048, 3, 4, 0.92], [11770, 1, 4, 1.08], [411, 2, 4, 0.85], [21798, 1, 4, 0.59], [1703, 2, 4, 1.33], [13928, 2, 4, 1.33], [632, 11, 13, 0.48], [11953, 1, 4, 0.2], [74, 1, 5, 2.78], [161, 3, 5, 1.48], [10407, 10, 6, 1.41], [22316, 3, 5, 0.35], [13023, 3, 6, 0.55], [1523, 1, 4, 0.4], [21269, 3, 4, 0.98], [10410, 10, 10, 1.92], [192, 3, 9, 1.05], [12764, 2, 6, 0.48], [214, 3, 11, 0.2], [2331, 1, 4, 0.79], [972, 1, 4, 1.01], [3430, 15, 4, 1.45], [5164, 1, 4, 1.0], [13893, 2, 4, 1.0], [1274, 1, 5, 0.3], [4076, 3, 4, 1.42], [6097, 80, 4, 1.26], [6097, 29, 4, 0.69], [11116, 1, 4, 0.56], [3576, 29, 4, 1.27], [10408, 10, 5, 1.58], [1080, 3, 4, 1.41], [1243, 2, 5, 0.88], [3047, 3, 4, 1.39], [10780, 10, 4, 1.87], [2438, 2, 6, 1.88], [8674, 2, 4, 1.9], [11813, 1, 4, 0.73], [3334, 5, 4, 1.2], [2436, 4, 5, 0.2], [305, 2, 161, 3.46], [6935, 2, 311, 6.0], [589, 2, 159, 2.45], [2778, 2, 171, 3.56], [144, 2, 176, 1.9], [8915, 2, 209, 2.94], [130, 1, 69, 1.55], [2328, 2, 165, 3.78], [6936, 2, 311, 5.9], [205, 2, 119, 2.56], [8648, 2, 243, 5.71], [2775, 2, 180, 3.42], [593, 2, 53, 3.44], [145, 2, 176, 1.82], [146, 2, 176, 2.21], [5493, 2, 119, 1.82], [11681, 2, 302, 5.82], [7036, 1, 140, 5.66], [88, 10, 652, 2.96], [2776, 2, 180, 2.9], [141, 2, 170, 3.36], [151, 1, 23, 1.62], [1446, 2, 166, 2.59], [206, 2, 101, 2.58], [990, 2, 60, 1.61], [9760, 29, 78, 3.37], [248, 1, 63, 1.88], [5491, 2, 126, 1.63], [1007, 2, 312, 1.59], [8672, 2, 323, 6.0], [142, 2, 179, 2.63], [362, 2, 154, 3.59], [2912, 1, 52, 2.59], [10993, 2, 58, 2.11], [3893, 1, 135, 3.35], [12870, 1, 152, 5.83], [5165, 1, 52, 3.0], [7886, 4, 157, 1.89], [2055, 3, 521, 2.57], [417, 2, 179, 2.63], [9372, 1, 264, 4.75], [1622, 1, 118, 1.67], [3889, 1, 135, 3.86], [523, 2, 179, 2.04], [2054, 3, 494, 3.32], [7573, 1, 378, 5.97], [21793, 1, 261, 2.56], [10, 2, 114, 3.02], [7885, 4, 29, 1.67], [3891, 1, 135, 3.4], [10149, 3, 947, 4.76], [75, 2, 160, 4.5], [61, 3, 239, 3.23], [5208, 3, 619, 2.12], [997, 2, 262, 4.96], [3, 2, 131, 3.96], [9491, 21, 2386, 3.56], [12721, 2, 311, 4.94], [5165, 2, 416, 2.81], [83, 2, 25, 2.2], [998, 2, 262, 4.14], [22247, 2, 311, 3.38], [33, 1, 39, 3.81], [996, 2, 262, 5.57]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.09], [130, 1, 4, 0.35], [11685, 2, 4, 1.87], [8648, 2, 4, 0.71], [144, 2, 4, 1.3], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [11681, 2, 5, 1.37], [205, 2, 4, 0.37], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 5, 0.53], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [151, 1, 4, 0.4], [6936, 2, 6, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.46], [146, 2, 5, 0.82], [88, 10, 12, 0.19], [615, 2, 4, 0.37], [7036, 1, 4, 1.48], [1446, 2, 4, 0.9], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [8853, 2, 5, 1.45], [417, 2, 4, 0.4], [248, 1, 4, 0.39], [2055, 3, 6, 1.98], [523, 2, 5, 0.53], [3893, 1, 4, 0.43], [12870, 1, 4, 1.42], [142, 2, 4, 0.4], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [3889, 1, 5, 0.35], [7084, 3, 5, 1.07], [20927, 1, 4, 0.86], [7005, 1, 4, 0.67], [997, 2, 6, 0.78], [12349, 1, 4, 2.59], [21793, 1, 4, 1.34], [3891, 1, 5, 0.28], [61, 3, 4, 0.98], [7885, 4, 5, 0.52], [5165, 1, 4, 0.65], [6158, 2, 7, 0.2], [8672, 2, 5, 0.73], [5165, 2, 5, 0.65], [9491, 21, 14, 0.3], [2912, 1, 4, 0.87], [98, 11, 10, 0.68], [972, 3, 4, 1.77], [411, 2, 4, 0.9], [9372, 1, 4, 0.97], [10388, 2, 4, 0.6], [214, 3, 11, 0.2], [33, 1, 4, 2.08], [410, 1, 4, 0.8], [7886, 4, 5, 0.24], [13928, 1, 4, 1.1], [7567, 3, 4, 0.96], [9081, 3, 10, 0.8], [3981, 3, 13, 1.15], [22316, 3, 5, 0.51], [83, 2, 4, 0.42], [22247, 2, 4, 1.1], [336, 15, 4, 0.92], [308, 1, 4, 1.32], [2912, 2, 6, 2.03], [10631, 2, 4, 0.42], [161, 3, 5, 1.77], [229, 1, 4, 1.32], [5946, 1, 4, 0.38], [11953, 1, 4, 0.55], [10780, 10, 4, 1.74], [22317, 3, 6, 0.51], [6497, 1, 4, 0.22], [345, 3, 4, 0.76], [12271, 2, 4, 0.47], [3478, 2, 4, 1.0], [11767, 1, 4, 0.2], [10407, 10, 7, 1.36], [10410, 10, 6, 1.94], [9082, 3, 18, 0.83], [37, 1, 4, 1.16], [972, 1, 4, 0.5], [6097, 80, 4, 1.28], [39, 1, 4, 0.89], [8104, 1, 4, 0.38], [74, 1, 4, 2.03], [1413, 15, 4, 0.36], [34, 1, 4, 0.93], [82, 2, 4, 0.66], [7704, 2, 4, 1.2], [3048, 3, 4, 0.46], [24257, 1, 5, 1.38], [2331, 1, 4, 0.97], [192, 3, 10, 0.72], [335, 3, 9, 1.1], [152, 21, 4, 0.34], [38, 1, 4, 0.66], [9971, 2, 4, 0.72], [12338, 29, 4, 0.2], [9, 1, 4, 0.45], [4253, 1, 4, 0.59], [1523, 1, 4, 0.44], [45, 2, 5, 2.7], [12721, 2, 4, 0.97], [11510, 3, 5, 0.5], [6097, 29, 4, 1.28], [10936, 2, 4, 0.45], [8673, 2, 4, 2.14], [2805, 137, 4, 0.58], [10093, 3, 9, 0.92], [1080, 3, 4, 0.37], [7007, 1, 4, 1.21], [12764, 2, 5, 0.43], [3047, 3, 4, 2.46], [12212, 29, 4, 0.49], [7705, 2, 4, 1.2], [1895, 3, 4, 1.83], [8659, 1, 4, 0.91], [7706, 2, 4, 1.2], [9965, 2, 4, 2.42], [6496, 1, 4, 0.46], [8676, 2, 4, 0.49], [11812, 1, 4, 0.47], [201, 3, 4, 1.36], [2424, 80, 4, 1.31], [8635, 3, 4, 0.98], [4203, 1, 4, 0.54], [1703, 2, 4, 0.83], [3475, 2, 4, 1.08], [2438, 2, 5, 0.53], [6935, 2, 291, 5.01], [130, 1, 64, 1.48], [11685, 2, 275, 5.8], [8648, 2, 228, 3.76], [144, 2, 164, 3.31], [589, 2, 154, 3.05], [2327, 2, 154, 3.18], [11681, 2, 275, 5.79], [205, 2, 118, 1.55], [593, 2, 232, 3.21], [305, 2, 151, 3.38], [8915, 2, 206, 1.74], [141, 2, 158, 4.03], [8650, 2, 228, 3.3], [151, 1, 48, 1.53], [6936, 2, 291, 6.0], [2778, 2, 159, 3.51], [206, 2, 117, 2.38], [146, 2, 155, 4.01], [88, 10, 582, 3.29], [615, 2, 118, 2.34], [7036, 1, 131, 4.72], [1446, 2, 163, 2.54], [990, 2, 57, 1.5], [362, 2, 144, 3.36], [8853, 2, 291, 4.82], [417, 2, 167, 1.74], [248, 1, 59, 1.56], [2055, 3, 467, 5.86], [523, 2, 158, 3.5], [3893, 1, 135, 1.64], [12870, 1, 140, 5.64], [142, 2, 167, 1.74], [12350, 1, 658, 3.19], [2057, 3, 467, 5.97], [3889, 1, 128, 2.56], [7084, 3, 133, 3.88], [20927, 1, 80, 2.6], [7005, 1, 85, 2.1], [997, 2, 244, 3.44], [12349, 1, 658, 5.8], [21793, 1, 210, 3.39], [3891, 1, 128, 2.3], [61, 3, 211, 3.42], [7885, 4, 34, 1.75], [5165, 1, 51, 2.95], [6158, 2, 266, 3.69], [8672, 2, 294, 4.83], [5165, 2, 409, 2.97], [9491, 21, 2274, 2.79], [2912, 1, 52, 2.48], [98, 11, 894, 2.03], [411, 2, 111, 2.54], [9372, 1, 247, 5.04], [10388, 2, 237, 1.97], [214, 3, 673, 1.74], [410, 1, 37, 3.17], [13928, 1, 50, 2.99], [7567, 3, 71, 3.74], [9081, 3, 520, 2.21], [3981, 3, 1651, 4.11], [22316, 3, 323, 2.92], [83, 2, 51, 2.21], [22247, 2, 308, 2.92], [336, 15, 110, 2.58]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.22], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [2049, 3, 10, 0.2], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 5, 0.74], [1776, 1, 4, 0.58], [8672, 2, 6, 0.72], [20252, 2, 4, 0.2], [205, 2, 4, 0.46], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [1777, 1, 4, 0.93], [305, 2, 4, 0.23], [11681, 2, 5, 2.58], [593, 2, 7, 0.2], [8648, 2, 5, 0.77], [6936, 2, 5, 1.27], [2328, 2, 5, 0.2], [1007, 2, 5, 0.37], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [5151, 2, 4, 0.9], [8650, 2, 5, 1.15], [412, 1, 4, 0.91], [345, 3, 4, 0.57], [2991, 3, 4, 2.17], [22247, 2, 4, 0.97], [361, 2, 4, 0.49], [144, 2, 4, 0.5], [57, 1, 6, 0.2], [201, 3, 5, 0.57], [21793, 1, 4, 1.03], [10149, 3, 15, 1.32], [45, 2, 5, 1.12], [3478, 2, 4, 0.45], [146, 2, 5, 0.56], [2054, 3, 5, 1.34], [7004, 1, 5, 0.47], [12721, 2, 6, 0.97], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [413, 1, 4, 0.73], [10825, 21, 8, 1.17], [6158, 2, 5, 0.87], [74, 1, 4, 0.84], [168, 3, 6, 0.74], [308, 1, 4, 0.72], [346, 1, 4, 0.2], [2055, 3, 4, 0.8], [10, 2, 4, 0.42], [7036, 1, 4, 1.96], [13028, 3, 4, 0.5], [3495, 3, 15, 0.92], [335, 3, 13, 0.4], [432, 3, 4, 0.39], [5081, 2, 5, 0.2], [7887, 4, 5, 0.4], [12870, 1, 4, 2.58], [214, 3, 9, 0.42], [8649, 2, 4, 1.4], [79, 1, 4, 0.2], [410, 1, 4, 0.8], [1492, 1, 4, 0.2], [3889, 1, 5, 0.2], [145, 2, 4, 0.2], [9827, 3, 4, 0.2], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [5208, 3, 6, 0.19], [95, 3, 13, 0.86], [13260, 29, 4, 0.85], [5812, 3, 5, 1.22], [23, 1, 4, 1.51], [94, 4, 4, 0.81], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [3891, 1, 4, 0.2], [998, 2, 4, 0.69], [25, 1, 4, 1.51], [21269, 3, 4, 3.75], [7567, 3, 4, 1.62], [10574, 3, 5, 0.43], [5086, 1, 6, 1.11], [1243, 2, 4, 1.13], [9069, 1, 4, 1.62], [2878, 1, 5, 1.57], [997, 2, 4, 1.37], [11954, 1, 5, 0.48], [9691, 1, 4, 1.9], [856, 1, 4, 0.23], [11914, 1, 5, 0.2], [20927, 1, 4, 0.61], [1703, 2, 4, 1.38], [5660, 2, 5, 2.37], [5584, 3, 5, 0.44], [952, 4, 4, 2.64], [5209, 3, 5, 0.19], [9081, 3, 10, 1.03], [8898, 3, 5, 2.67], [996, 2, 4, 1.37], [1070, 7, 8, 0.64], [346, 3, 5, 0.64], [1622, 1, 5, 0.35], [8676, 2, 4, 0.97], [12661, 1, 4, 2.35], [23961, 3, 4, 2.68], [5513, 2, 4, 0.52], [1091, 1, 4, 0.2], [22317, 3, 6, 0.51], [8274, 3, 5, 1.09], [13034, 3, 6, 1.01], [11811, 1, 5, 1.0], [24, 1, 5, 0.95], [1519, 3, 14, 0.22], [27, 1, 4, 1.51], [8674, 2, 6, 0.97], [6097, 29, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [6097, 80, 4, 0.41], [10529, 29, 4, 1.44], [82, 2, 4, 0.35], [1413, 15, 4, 0.37], [995, 2, 4, 0.98], [9082, 3, 18, 0.92], [20498, 3, 6, 1.76], [66, 1, 4, 0.42], [2104, 3, 6, 1.63], [6098, 80, 4, 1.15], [9372, 1, 4, 0.42], [6098, 29, 4, 0.35], [34, 1, 4, 0.47], [326, 2, 96, 1.71], [6935, 2, 278, 4.7], [362, 2, 139, 3.93], [2049, 3, 539, 2.4], [589, 2, 152, 1.4], [141, 2, 152, 3.14], [75, 2, 145, 4.02], [1776, 1, 107, 3.22], [8672, 2, 281, 3.06], [20252, 2, 92, 1.75], [205, 2, 113, 1.61], [7886, 4, 141, 2.29], [2778, 2, 153, 3.21], [1777, 1, 107, 3.88], [305, 2, 145, 2.78], [11681, 2, 260, 6.0], [593, 2, 119, 2.98], [8648, 2, 218, 5.36], [6936, 2, 278, 4.83], [2328, 2, 148, 3.09], [1007, 2, 281, 1.71], [88, 10, 557, 4.5], [83, 2, 53, 1.86], [5151, 2, 26, 2.64], [8650, 2, 218, 5.4], [412, 1, 82, 3.83], [345, 3, 315, 1.78], [2991, 3, 156, 5.79], [22247, 2, 296, 3.08], [361, 2, 152, 1.84], [144, 2, 159, 2.12], [57, 1, 84, 2.78], [201, 3, 315, 1.68], [21793, 1, 232, 5.78], [10149, 3, 853, 4.91], [45, 2, 108, 4.8], [3478, 2, 74, 1.77], [146, 2, 151, 3.76], [2054, 3, 488, 3.9], [7004, 1, 78, 2.43], [12721, 2, 296, 2.46], [167, 3, 224, 3.97], [2057, 3, 463, 4.1], [413, 1, 90, 2.74], [10825, 21, 675, 2.78], [6158, 2, 270, 3.55], [74, 1, 198, 4.67], [168, 3, 399, 3.53], [308, 1, 175, 3.12], [346, 1, 150, 2.96], [2055, 3, 488, 2.59], [10, 2, 55, 2.7], [7036, 1, 125, 5.53], [13028, 3, 145, 3.08], [3495, 3, 950, 3.74], [432, 3, 297, 2.51], [5081, 2, 189, 3.15], [7887, 4, 138, 1.67], [12870, 1, 135, 6.0], [214, 3, 637, 1.67], [8649, 2, 218, 5.12], [79, 1, 47, 2.0], [410, 1, 102, 2.89], [1492, 1, 39, 1.88], [3889, 1, 121, 3.86], [145, 2, 151, 1.73]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [2327, 2, 4, 0.52], [8915, 2, 5, 0.21], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.26], [130, 1, 4, 0.36], [5493, 2, 5, 0.2], [616, 2, 4, 0.3], [326, 2, 5, 0.97], [6936, 2, 5, 1.66], [8648, 2, 4, 1.7], [8650, 2, 5, 2.46], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.44], [2049, 3, 5, 0.47], [144, 2, 5, 1.04], [10, 2, 5, 0.42], [151, 1, 4, 0.51], [990, 2, 4, 0.39], [7036, 1, 4, 1.2], [3893, 1, 5, 0.2], [146, 2, 5, 1.32], [7885, 4, 4, 0.49], [141, 2, 4, 0.92], [3891, 1, 4, 0.2], [206, 2, 4, 0.46], [75, 2, 5, 0.99], [2055, 3, 4, 0.99], [362, 2, 4, 0.52], [10993, 2, 4, 0.45], [21793, 1, 4, 0.86], [5208, 3, 6, 0.19], [3889, 1, 6, 0.2], [7084, 3, 4, 1.57], [11234, 2, 4, 1.4], [7005, 1, 4, 0.68], [3980, 4, 6, 1.21], [12870, 1, 4, 1.93], [2912, 1, 4, 0.77], [145, 2, 4, 1.5], [5165, 1, 4, 0.65], [10149, 3, 13, 1.47], [8672, 2, 4, 2.86], [9760, 29, 4, 0.2], [998, 2, 4, 0.31], [20927, 1, 4, 1.68], [997, 2, 4, 1.02], [2436, 4, 4, 0.43], [417, 2, 4, 0.92], [2424, 80, 5, 0.86], [7887, 4, 4, 0.97], [6158, 2, 4, 0.2], [3, 2, 4, 0.37], [5076, 1, 5, 0.56], [632, 11, 13, 0.48], [229, 1, 5, 0.91], [972, 3, 5, 0.51], [3495, 3, 13, 1.25], [74, 1, 4, 1.22], [9491, 21, 10, 1.33], [523, 2, 4, 0.55], [11770, 1, 4, 1.08], [346, 3, 5, 1.66], [11953, 1, 4, 0.45], [5165, 2, 5, 0.65], [7573, 1, 9, 2.46], [12721, 2, 4, 0.6], [996, 2, 4, 1.02], [22316, 3, 5, 0.35], [2423, 80, 6, 1.72], [11772, 1, 4, 1.08], [9372, 1, 4, 1.17], [3981, 3, 11, 0.51], [6497, 1, 4, 0.49], [24257, 1, 4, 0.48], [2912, 2, 7, 2.03], [11952, 1, 4, 0.66], [2438, 2, 5, 1.88], [12229, 2, 4, 0.36], [823, 1, 4, 0.65], [361, 2, 4, 0.92], [2424, 29, 4, 0.37], [8898, 3, 4, 4.0], [3975, 4, 5, 1.26], [346, 1, 4, 1.67], [1622, 1, 4, 0.49], [6496, 1, 4, 1.2], [192, 3, 9, 1.05], [10407, 10, 8, 1.18], [3900, 3, 4, 0.71], [5209, 3, 6, 0.19], [2805, 137, 4, 1.0], [9081, 3, 7, 0.66], [5946, 1, 4, 0.28], [33, 1, 4, 0.47], [11812, 1, 4, 0.47], [335, 3, 9, 0.62], [1703, 2, 4, 0.5], [7567, 3, 4, 1.58], [12764, 2, 5, 0.43], [10388, 2, 4, 0.61], [11490, 1, 4, 0.23], [37, 1, 4, 0.47], [8676, 2, 4, 2.86], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [202, 2, 4, 0.88], [220, 4, 4, 1.31], [1519, 3, 10, 0.39], [22247, 2, 4, 1.3], [23611, 3, 5, 0.5], [161, 3, 5, 1.48], [35, 1, 4, 0.47], [38, 1, 4, 0.47], [13893, 2, 4, 1.0], [2104, 3, 9, 1.26], [11814, 1, 4, 0.23], [95, 3, 12, 0.42], [83, 2, 4, 0.46], [4232, 80, 4, 1.82], [1895, 3, 4, 1.65], [11813, 1, 4, 0.73], [11116, 1, 4, 0.56], [12212, 29, 4, 0.27], [8635, 3, 4, 0.87], [788, 2, 5, 0.2], [8104, 1, 4, 0.93], [12979, 25, 7, 0.72], [76, 2, 4, 0.51], [1309, 1, 4, 0.46], [13928, 1, 4, 1.33], [10386, 2, 4, 0.77], [589, 2, 168, 2.97], [88, 10, 619, 3.42], [2327, 2, 165, 3.59], [8915, 2, 209, 2.94], [6935, 2, 311, 6.0], [2778, 2, 171, 3.56], [305, 2, 161, 3.46], [2328, 2, 165, 4.03], [130, 1, 69, 1.55], [5493, 2, 119, 1.82], [616, 2, 120, 2.15], [326, 2, 21, 3.65], [6936, 2, 311, 5.9], [8648, 2, 256, 4.13], [8650, 2, 243, 6.0], [1446, 2, 166, 3.73], [205, 2, 126, 1.71], [2049, 3, 126, 1.66], [144, 2, 167, 3.93], [151, 1, 23, 1.62], [990, 2, 60, 1.61], [7036, 1, 140, 5.66], [3893, 1, 135, 3.35], [146, 2, 167, 4.04], [7885, 4, 116, 1.77], [141, 2, 179, 2.63], [3891, 1, 135, 3.4], [206, 2, 125, 1.88], [75, 2, 160, 4.5], [2055, 3, 549, 2.77], [362, 2, 97, 3.74], [10993, 2, 62, 1.73], [21793, 1, 261, 2.52], [5208, 3, 619, 2.12], [3889, 1, 135, 3.86], [7084, 3, 141, 4.19], [11234, 2, 212, 3.56], [7005, 1, 92, 2.17], [3980, 4, 528, 4.52], [12870, 1, 152, 5.83], [2912, 1, 52, 3.74], [145, 2, 53, 3.79], [5165, 1, 55, 2.93], [10149, 3, 947, 4.76], [8672, 2, 323, 6.0], [9760, 29, 78, 3.4], [998, 2, 262, 4.14], [997, 2, 262, 3.36], [2436, 4, 126, 2.44], [417, 2, 179, 2.63], [2424, 80, 186, 3.86], [6158, 2, 285, 2.64], [3, 2, 131, 3.96], [5076, 1, 142, 3.04], [632, 11, 949, 1.71], [229, 1, 89, 4.03], [972, 3, 650, 3.9], [3495, 3, 1056, 4.26], [74, 1, 231, 3.2], [9491, 21, 2512, 3.93], [523, 2, 179, 2.04], [11770, 1, 230, 3.85], [346, 3, 644, 3.44], [11953, 1, 218, 1.96]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [6936, 2, 5, 1.35], [5493, 2, 4, 0.2], [205, 2, 6, 0.2], [130, 1, 4, 0.35], [616, 2, 5, 0.22], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 5, 0.71], [2049, 3, 10, 0.2], [11681, 2, 5, 1.86], [8915, 2, 5, 0.53], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [7036, 1, 4, 1.48], [8650, 2, 6, 0.96], [2327, 2, 5, 0.29], [593, 2, 6, 0.27], [3893, 1, 4, 0.43], [141, 2, 6, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.94], [151, 1, 4, 0.4], [3891, 1, 4, 0.28], [248, 1, 4, 0.39], [143, 2, 5, 1.53], [3980, 4, 6, 1.19], [146, 2, 5, 1.32], [2050, 3, 6, 1.69], [990, 2, 4, 0.36], [2055, 3, 5, 1.74], [7885, 4, 5, 0.2], [7886, 4, 4, 0.4], [2054, 3, 6, 1.86], [12870, 1, 5, 1.4], [362, 2, 4, 0.82], [8672, 2, 5, 0.73], [10993, 2, 4, 0.63], [3975, 4, 4, 1.39], [2057, 3, 6, 1.78], [5165, 1, 4, 0.65], [21793, 1, 4, 1.09], [13028, 3, 4, 0.62], [7084, 3, 4, 1.07], [145, 2, 4, 1.3], [2991, 3, 4, 0.88], [523, 2, 4, 1.03], [75, 2, 4, 0.46], [7005, 1, 4, 0.72], [3982, 3, 14, 1.18], [3981, 3, 13, 1.42], [33, 1, 5, 1.58], [142, 2, 6, 0.52], [20927, 1, 4, 1.17], [2912, 1, 4, 1.16], [6158, 2, 6, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.92], [82, 2, 4, 0.66], [417, 2, 4, 0.4], [35, 1, 5, 1.58], [22316, 3, 6, 0.51], [214, 3, 11, 0.2], [11953, 1, 6, 0.2], [6497, 1, 4, 0.22], [61, 3, 4, 1.41], [229, 1, 4, 1.5], [192, 3, 11, 0.77], [11772, 1, 4, 1.28], [950, 1, 4, 0.38], [996, 2, 6, 1.47], [7567, 3, 4, 0.71], [11769, 1, 4, 0.96], [5946, 1, 4, 0.28], [346, 3, 5, 1.27], [6496, 1, 4, 0.46], [4176, 4, 5, 1.31], [972, 3, 5, 1.77], [39, 1, 4, 0.51], [74, 1, 5, 2.03], [411, 2, 4, 0.9], [7573, 1, 5, 0.97], [8677, 3, 4, 1.15], [12721, 2, 4, 0.97], [37, 1, 4, 0.66], [4253, 1, 4, 0.48], [2436, 4, 5, 0.44], [22317, 3, 5, 0.26], [2912, 2, 5, 0.88], [2104, 3, 6, 1.46], [1413, 15, 4, 0.2], [12212, 29, 4, 0.24], [336, 15, 5, 0.92], [1277, 1, 4, 0.65], [201, 3, 5, 0.51], [345, 3, 4, 1.01], [11085, 2, 6, 1.53], [21269, 3, 4, 3.24], [13023, 3, 5, 1.26], [12271, 2, 5, 0.84], [823, 1, 4, 0.56], [3, 2, 5, 0.71], [8673, 2, 4, 2.14], [22247, 2, 5, 1.39], [38, 1, 4, 0.66], [8676, 2, 4, 0.98], [10631, 2, 4, 1.48], [9, 1, 4, 0.2], [2805, 137, 4, 0.58], [10408, 10, 5, 1.64], [3577, 25, 4, 0.53], [3048, 3, 5, 1.17], [10388, 2, 4, 0.6], [1414, 15, 4, 0.2], [10936, 2, 4, 0.45], [13928, 1, 4, 1.1], [9081, 3, 10, 0.8], [11812, 1, 4, 0.47], [346, 1, 5, 1.27], [20498, 3, 5, 0.4], [9491, 21, 10, 0.6], [13244, 1, 4, 0.45], [4076, 3, 5, 1.19], [161, 3, 6, 1.5], [11814, 1, 4, 0.48], [9372, 1, 4, 0.97], [10407, 10, 6, 1.94], [12764, 2, 8, 0.33], [491, 10, 5, 1.64], [1523, 1, 4, 0.44], [972, 1, 4, 0.75], [11089, 1, 4, 1.73], [3576, 25, 4, 0.75], [6935, 2, 291, 5.26], [305, 2, 151, 3.38], [615, 2, 118, 1.48], [2778, 2, 159, 3.51], [6936, 2, 291, 5.64], [5493, 2, 112, 2.04], [205, 2, 106, 2.53], [130, 1, 64, 1.48], [616, 2, 112, 1.95], [88, 10, 582, 3.29], [144, 2, 155, 3.9], [8648, 2, 228, 5.15], [2049, 3, 555, 3.08], [11681, 2, 275, 5.79], [8915, 2, 206, 1.74], [589, 2, 154, 3.05], [326, 2, 95, 2.99], [7036, 1, 131, 4.72], [8650, 2, 228, 4.92], [2327, 2, 154, 3.43], [593, 2, 232, 3.21], [3893, 1, 135, 1.64], [141, 2, 158, 4.03], [206, 2, 111, 2.11], [7004, 1, 80, 2.62], [151, 1, 48, 1.53], [3891, 1, 128, 2.3], [248, 1, 59, 1.56], [143, 2, 153, 3.39], [3980, 4, 492, 4.82], [146, 2, 155, 4.01], [2050, 3, 467, 5.77], [990, 2, 57, 1.5], [2055, 3, 467, 5.86], [2054, 3, 467, 6.0], [12870, 1, 140, 6.0], [362, 2, 152, 2.39], [8672, 2, 294, 4.83], [10993, 2, 55, 2.37], [3975, 4, 518, 3.58], [2057, 3, 467, 5.97], [5165, 1, 51, 2.95], [21793, 1, 210, 3.22], [13028, 3, 159, 2.06], [7084, 3, 133, 3.88], [145, 2, 155, 3.79], [2991, 3, 171, 3.51], [523, 2, 158, 3.5], [75, 2, 159, 1.7], [7005, 1, 80, 2.2], [3982, 3, 809, 4.78], [3981, 3, 1651, 4.49], [33, 1, 53, 4.09], [142, 2, 158, 3.39], [2912, 1, 49, 3.04], [6158, 2, 266, 3.69], [5165, 2, 388, 2.41], [82, 2, 61, 2.08], [417, 2, 167, 1.74], [35, 1, 40, 3.93], [22316, 3, 323, 2.92], [214, 3, 673, 2.12], [11953, 1, 206, 2.84], [6497, 1, 38, 1.95]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.57], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [361, 2, 4, 0.4], [5493, 2, 5, 0.2], [589, 2, 5, 0.2], [8672, 2, 7, 0.66], [11685, 2, 4, 0.42], [417, 2, 4, 0.37], [6935, 2, 11, 1.06], [205, 2, 4, 0.2], [11681, 2, 5, 2.04], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [248, 1, 4, 0.51], [11837, 2, 4, 0.58], [142, 2, 4, 0.38], [6936, 2, 5, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 0.2], [8676, 2, 4, 0.73], [615, 2, 4, 0.74], [21793, 1, 4, 1.01], [305, 2, 5, 0.98], [593, 2, 6, 0.2], [22247, 2, 4, 1.0], [11835, 2, 4, 0.48], [616, 2, 5, 0.23], [411, 2, 4, 0.2], [990, 2, 4, 0.38], [8675, 2, 6, 0.98], [10574, 3, 6, 1.5], [145, 2, 4, 1.17], [1429, 2, 4, 0.39], [6158, 2, 6, 0.89], [10149, 3, 13, 0.75], [3495, 3, 16, 1.03], [2050, 3, 6, 0.34], [146, 2, 5, 0.49], [88, 10, 11, 0.95], [2054, 3, 6, 0.51], [75, 2, 4, 1.68], [10993, 2, 4, 0.4], [7885, 4, 5, 0.69], [144, 2, 4, 1.17], [7705, 2, 5, 0.9], [2424, 29, 4, 1.98], [346, 3, 6, 1.03], [2423, 80, 4, 1.56], [2859, 15, 4, 0.35], [7704, 2, 5, 0.9], [61, 3, 4, 0.36], [2423, 29, 4, 1.53], [9126, 1, 4, 1.13], [335, 3, 10, 0.49], [5165, 1, 4, 0.65], [2424, 80, 4, 1.98], [13028, 3, 4, 0.37], [201, 3, 5, 0.76], [346, 1, 4, 0.88], [214, 3, 9, 1.24], [60, 3, 5, 1.93], [1519, 3, 12, 0.22], [13023, 3, 5, 1.51], [308, 1, 5, 1.49], [1414, 15, 4, 0.42], [13034, 3, 5, 1.13], [2703, 3, 4, 0.96], [345, 3, 4, 0.49], [6494, 1, 4, 0.46], [7004, 1, 4, 0.66], [410, 1, 4, 0.52], [11770, 1, 4, 0.7], [7706, 2, 5, 0.8], [432, 3, 4, 1.01], [5208, 3, 5, 0.48], [3430, 15, 4, 0.35], [6952, 1, 4, 0.73], [13928, 1, 4, 1.15], [12373, 1, 5, 1.45], [20927, 1, 4, 1.05], [11954, 1, 4, 0.44], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [2331, 1, 4, 0.79], [3893, 1, 4, 0.52], [3891, 1, 4, 0.52], [114, 3, 4, 0.2], [11811, 1, 4, 0.38], [105, 3, 4, 0.48], [7886, 4, 6, 0.69], [3981, 3, 8, 0.51], [1274, 1, 4, 0.82], [952, 4, 4, 1.87], [13033, 3, 4, 0.5], [944, 15, 4, 0.37], [9690, 1, 4, 1.08], [11089, 1, 4, 1.16], [3, 2, 4, 2.0], [1490, 1, 4, 0.44], [1309, 1, 4, 0.73], [5946, 1, 4, 0.52], [5584, 3, 4, 1.16], [8898, 3, 4, 0.71], [5812, 3, 4, 1.51], [5733, 2, 5, 1.37], [7708, 2, 4, 1.05], [10407, 10, 6, 1.9], [10410, 10, 6, 1.9], [95, 3, 8, 2.52], [3028, 3, 4, 0.44], [3478, 2, 4, 1.0], [8274, 3, 4, 1.45], [7703, 2, 4, 1.05], [9342, 2, 4, 0.49], [10398, 2, 4, 1.36], [20555, 2, 4, 0.78], [3889, 1, 4, 0.52], [21003, 2, 4, 0.72], [13258, 29, 4, 1.02], [22558, 3, 4, 0.88], [9082, 3, 14, 0.83], [3980, 4, 4, 1.4], [10406, 10, 7, 1.73], [6497, 1, 4, 1.69], [20969, 3, 4, 0.86], [1339, 3, 10, 0.47], [963, 3, 4, 0.72], [192, 3, 13, 0.92], [5165, 2, 5, 0.65], [20196, 2, 4, 0.72], [10516, 3, 4, 1.94], [11603, 2, 4, 1.37], [141, 2, 177, 3.21], [362, 2, 170, 2.41], [8650, 2, 250, 5.1], [5491, 2, 123, 1.83], [361, 2, 187, 1.73], [5493, 2, 123, 2.24], [589, 2, 181, 2.16], [8672, 2, 323, 4.69], [11685, 2, 317, 3.77], [417, 2, 187, 1.67], [6935, 2, 319, 6.0], [205, 2, 123, 1.8], [11681, 2, 317, 6.0], [11838, 2, 303, 3.8], [12721, 2, 322, 4.24], [248, 1, 65, 1.94], [11837, 2, 319, 2.08], [142, 2, 187, 1.69], [6936, 2, 319, 5.36], [2778, 2, 178, 3.62], [1446, 2, 171, 2.42], [8676, 2, 340, 2.67], [615, 2, 130, 2.38], [21793, 1, 282, 5.05], [305, 2, 167, 3.68], [593, 2, 257, 1.75], [22247, 2, 339, 2.89], [11835, 2, 319, 1.88], [616, 2, 123, 2.27], [411, 2, 122, 2.4], [990, 2, 62, 1.69], [8675, 2, 323, 4.72], [10574, 3, 568, 4.89], [145, 2, 181, 3.21], [1429, 2, 181, 1.86], [6158, 2, 294, 3.33], [10149, 3, 1044, 2.45], [2050, 3, 542, 2.92], [146, 2, 171, 2.68], [88, 10, 632, 4.5], [2054, 3, 127, 2.99], [75, 2, 170, 4.19], [10993, 2, 60, 2.43], [144, 2, 181, 3.21], [7705, 2, 199, 3.7], [2424, 29, 40, 4.77], [346, 3, 682, 4.23], [2423, 80, 207, 3.96], [2859, 15, 82, 2.36], [7704, 2, 199, 3.7], [61, 3, 249, 1.65], [2423, 29, 44, 4.18], [9126, 1, 83, 3.14], [335, 3, 1555, 1.91], [5165, 1, 56, 2.94], [2424, 80, 198, 4.77], [13028, 3, 174, 2.92], [201, 3, 340, 4.48], [346, 1, 179, 3.77], [214, 3, 253, 4.28], [60, 3, 952, 4.46], [1519, 3, 1845, 2.61], [13023, 3, 703, 3.62], [308, 1, 190, 5.0], [1414, 15, 117, 1.77], [13034, 3, 667, 3.88]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 8, 0.2], [6936, 2, 4, 1.17], [8672, 2, 6, 0.66], [305, 2, 5, 0.23], [615, 2, 4, 0.2], [145, 2, 4, 1.17], [12721, 2, 6, 0.72], [130, 1, 4, 0.36], [2327, 2, 5, 0.2], [361, 2, 4, 0.4], [2328, 2, 5, 0.26], [146, 2, 4, 0.87], [8675, 2, 4, 0.73], [11681, 2, 5, 0.71], [141, 2, 4, 0.4], [362, 2, 4, 0.69], [205, 2, 5, 0.2], [5491, 2, 4, 0.2], [8673, 2, 6, 0.73], [8676, 2, 5, 0.6], [144, 2, 5, 1.17], [8650, 2, 5, 1.28], [417, 2, 4, 0.4], [11837, 2, 5, 0.3], [3, 2, 5, 0.41], [6097, 80, 5, 2.36], [2423, 29, 4, 1.19], [6497, 1, 4, 0.2], [6097, 29, 4, 2.36], [11836, 2, 6, 0.2], [990, 2, 4, 0.45], [2424, 29, 4, 0.37], [593, 2, 5, 1.55], [6098, 80, 4, 2.59], [523, 2, 4, 0.76], [11739, 2, 4, 0.59], [944, 15, 4, 0.4], [88, 10, 9, 0.44], [10993, 2, 4, 0.52], [13260, 29, 4, 0.98], [8915, 2, 4, 0.78], [326, 2, 4, 0.5], [75, 2, 4, 1.56], [1413, 15, 4, 0.5], [10574, 3, 5, 1.08], [335, 3, 11, 1.25], [411, 2, 4, 0.92], [1339, 1, 4, 0.43], [1050, 2, 4, 0.2], [947, 15, 4, 0.51], [1339, 3, 12, 0.18], [151, 1, 4, 0.45], [6496, 1, 4, 1.31], [2859, 15, 4, 0.72], [7704, 2, 4, 1.79], [346, 1, 4, 0.43], [214, 3, 10, 1.24], [13258, 29, 4, 0.79], [345, 3, 4, 0.5], [10149, 3, 15, 0.74], [1490, 1, 4, 1.35], [346, 3, 5, 0.21], [1243, 2, 5, 0.86], [7004, 1, 4, 0.82], [11738, 2, 4, 0.94], [201, 3, 5, 1.05], [22558, 3, 7, 0.21], [432, 3, 4, 1.15], [2438, 1, 4, 0.4], [7705, 2, 4, 2.04], [5208, 3, 5, 0.54], [2912, 1, 4, 0.95], [229, 1, 4, 1.32], [61, 3, 4, 0.44], [963, 3, 4, 0.4], [10407, 10, 6, 1.9], [7706, 2, 4, 1.79], [2331, 1, 4, 1.05], [21793, 1, 4, 2.59], [13928, 1, 4, 1.15], [12229, 2, 5, 0.45], [3478, 2, 4, 1.0], [1548, 1, 4, 1.09], [2703, 3, 4, 1.97], [11844, 2, 4, 0.64], [13258, 25, 4, 0.79], [11490, 1, 4, 0.45], [114, 3, 4, 0.41], [7036, 1, 4, 0.43], [8938, 2, 4, 0.43], [9126, 1, 4, 1.19], [11687, 2, 4, 0.67], [10408, 10, 6, 1.66], [956, 2, 5, 0.57], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [410, 1, 4, 0.52], [11159, 1, 7, 0.67], [7708, 2, 5, 1.79], [2438, 2, 5, 0.53], [11690, 2, 4, 0.52], [9065, 2, 4, 0.54], [12870, 1, 4, 0.94], [9760, 29, 4, 0.92], [11161, 1, 5, 1.64], [11689, 2, 4, 0.66], [5976, 1, 4, 1.13], [7005, 1, 4, 1.06], [21781, 2, 4, 0.47], [1274, 1, 4, 1.98], [2805, 137, 5, 1.39], [20927, 1, 4, 0.47], [12373, 1, 5, 1.45], [2991, 3, 4, 2.12], [1699, 3, 4, 1.18], [5584, 3, 4, 1.16], [9209, 29, 4, 1.12], [3495, 3, 13, 1.28], [9690, 1, 4, 1.08], [7007, 1, 4, 1.28], [9239, 29, 4, 0.48], [11811, 1, 4, 0.38], [8600, 1, 4, 0.86], [9239, 25, 4, 0.48], [247, 1, 4, 1.54], [5769, 3, 6, 0.52], [9491, 21, 10, 1.75], [5076, 1, 4, 1.95], [13198, 29, 4, 0.94], [12764, 2, 6, 0.2], [9372, 1, 4, 1.74], [5869, 1, 4, 2.12], [7702, 2, 28, 1.25], [95, 3, 8, 0.42], [2778, 2, 175, 3.36], [6936, 2, 322, 5.18], [8672, 2, 324, 3.36], [305, 2, 167, 3.74], [615, 2, 123, 2.66], [145, 2, 181, 3.21], [12721, 2, 321, 4.47], [130, 1, 71, 1.65], [2327, 2, 170, 4.61], [361, 2, 185, 1.73], [2328, 2, 170, 4.64], [146, 2, 171, 4.04], [8675, 2, 342, 2.57], [11681, 2, 299, 3.49], [141, 2, 185, 1.73], [362, 2, 170, 2.54], [205, 2, 130, 1.95], [5491, 2, 121, 1.79], [8673, 2, 323, 4.83], [8676, 2, 324, 3.88], [144, 2, 171, 4.15], [8650, 2, 249, 6.0], [417, 2, 185, 1.73], [11837, 2, 304, 2.24], [3, 2, 135, 3.74], [6097, 80, 77, 6.0], [2423, 29, 44, 3.89], [6497, 1, 45, 1.56], [11836, 2, 304, 3.72], [990, 2, 21, 1.72], [2424, 29, 38, 3.3], [593, 2, 60, 3.77], [523, 2, 185, 2.42], [11739, 2, 68, 2.13], [944, 15, 12, 1.31], [88, 10, 673, 3.12], [10993, 2, 64, 1.96], [13260, 29, 81, 3.46], [8915, 2, 226, 2.46], [326, 2, 110, 1.92], [75, 2, 162, 3.96], [1413, 15, 117, 1.92], [10574, 3, 598, 3.33], [335, 3, 1428, 4.39], [411, 2, 121, 2.73], [1339, 1, 81, 2.01], [1050, 2, 30, 1.7], [947, 15, 49, 1.94], [1339, 3, 1955, 1.88], [151, 1, 26, 1.97], [6496, 1, 47, 3.48], [2859, 15, 77, 3.49], [7704, 2, 176, 5.37], [346, 1, 184, 1.79], [13258, 29, 46, 3.78], [345, 3, 357, 1.92], [10149, 3, 984, 2.7], [1490, 1, 58, 5.92], [346, 3, 699, 2.0], [1243, 2, 112, 4.28], [7004, 1, 94, 2.54], [11738, 2, 23, 2.53], [201, 3, 339, 4.27], [22558, 3, 529, 4.33], [432, 3, 339, 3.22], [2438, 1, 62, 2.95]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 6, 0.34], [362, 2, 5, 0.48], [361, 2, 4, 0.37], [130, 1, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 8, 1.21], [8676, 2, 5, 0.6], [2049, 3, 15, 0.2], [417, 2, 4, 0.37], [3, 2, 4, 1.22], [22247, 2, 5, 1.0], [6936, 2, 4, 0.47], [523, 2, 4, 0.41], [305, 2, 5, 0.73], [8650, 2, 4, 0.94], [2328, 2, 4, 1.04], [11739, 2, 4, 0.68], [8648, 2, 4, 1.69], [2776, 2, 4, 1.19], [2327, 2, 4, 0.39], [616, 2, 4, 1.04], [411, 2, 4, 0.37], [8674, 2, 5, 0.67], [2423, 29, 4, 1.0], [589, 2, 4, 0.9], [6497, 1, 6, 0.2], [2805, 137, 5, 0.94], [11835, 2, 4, 0.49], [6097, 80, 4, 2.11], [146, 2, 4, 1.17], [326, 2, 5, 0.66], [6097, 29, 5, 0.91], [583, 2, 4, 0.45], [2423, 80, 4, 0.94], [10149, 3, 13, 0.75], [145, 2, 4, 1.17], [11836, 2, 5, 0.54], [144, 2, 4, 1.17], [75, 2, 4, 1.56], [10574, 3, 5, 0.85], [6496, 1, 4, 1.31], [308, 1, 6, 0.54], [1413, 15, 4, 0.2], [2054, 3, 5, 0.81], [2422, 29, 4, 1.9], [1243, 2, 4, 1.06], [21793, 1, 4, 2.34], [1886, 2, 4, 0.44], [8915, 2, 4, 0.78], [944, 15, 4, 0.2], [247, 1, 4, 1.47], [1490, 1, 4, 1.35], [2859, 15, 4, 0.35], [335, 3, 11, 0.89], [1414, 15, 4, 0.48], [201, 3, 4, 0.24], [13928, 1, 4, 1.15], [3478, 2, 4, 1.0], [6158, 2, 6, 0.89], [7084, 3, 4, 0.95], [3934, 5, 7, 1.36], [11489, 1, 4, 0.41], [12526, 2, 4, 0.7], [1703, 2, 4, 0.56], [5812, 3, 4, 2.0], [11767, 1, 4, 1.1], [61, 3, 4, 0.44], [94, 4, 4, 1.04], [186, 3, 7, 0.56], [214, 3, 10, 1.24], [1519, 3, 9, 0.39], [1050, 2, 4, 0.37], [9491, 21, 10, 1.33], [11490, 1, 4, 0.35], [1309, 1, 4, 0.73], [2821, 3, 10, 0.27], [10398, 2, 4, 0.37], [5813, 3, 4, 2.0], [192, 3, 13, 1.01], [8898, 3, 4, 0.47], [8599, 1, 4, 0.37], [5811, 3, 5, 2.2], [229, 1, 4, 1.37], [11771, 1, 4, 0.82], [1699, 3, 4, 1.53], [2438, 2, 5, 0.53], [2991, 3, 5, 1.75], [3495, 3, 13, 1.28], [11769, 1, 4, 1.1], [8943, 3, 4, 0.39], [11811, 1, 4, 0.38], [1339, 3, 12, 0.18], [13928, 2, 4, 1.15], [12764, 2, 5, 0.43], [19687, 1, 4, 1.21], [7036, 1, 4, 0.43], [346, 3, 5, 0.42], [13260, 29, 4, 1.26], [22573, 2, 4, 0.99], [10124, 1, 4, 2.17], [9690, 1, 4, 1.08], [5584, 3, 4, 3.54], [3334, 5, 4, 1.1], [18964, 1, 4, 1.13], [7004, 1, 4, 0.75], [1277, 1, 4, 0.48], [2438, 1, 4, 0.4], [20927, 1, 4, 0.4], [1523, 1, 4, 1.01], [4001, 3, 9, 0.96], [11886, 2, 4, 0.75], [1701, 2, 4, 0.5], [45, 2, 4, 1.79], [11678, 1, 4, 1.44], [21269, 3, 4, 2.18], [8286, 2, 5, 0.62], [9373, 5, 4, 2.8], [10181, 26, 5, 0.46], [23031, 3, 4, 1.65], [3984, 3, 5, 0.62], [10516, 3, 4, 0.99], [11677, 1, 4, 1.53], [346, 1, 4, 0.43], [1339, 1, 4, 0.48], [3979, 3, 5, 0.88], [19924, 2, 4, 0.41], [23032, 3, 4, 1.46], [9069, 1, 4, 0.41], [9065, 2, 4, 0.54], [5976, 1, 4, 1.13], [8285, 2, 5, 0.49], [7005, 1, 4, 1.21], [8672, 2, 324, 4.66], [141, 2, 176, 3.4], [2778, 2, 175, 2.87], [362, 2, 160, 2.87], [361, 2, 186, 2.55], [130, 1, 71, 1.65], [6935, 2, 314, 6.0], [12721, 2, 323, 5.01], [8676, 2, 324, 3.88], [2049, 3, 618, 1.92], [417, 2, 186, 2.55], [3, 2, 143, 3.42], [22247, 2, 323, 4.61], [6936, 2, 331, 2.61], [523, 2, 176, 3.3], [305, 2, 166, 3.67], [8650, 2, 263, 4.15], [2328, 2, 170, 3.66], [11739, 2, 68, 2.27], [8648, 2, 263, 4.21], [2776, 2, 185, 3.25], [2327, 2, 170, 3.76], [616, 2, 120, 3.66], [411, 2, 129, 2.44], [8674, 2, 324, 2.49], [2423, 29, 44, 3.72], [589, 2, 181, 2.9], [6497, 1, 42, 3.28], [2805, 137, 212, 4.89], [11835, 2, 303, 3.22], [6097, 80, 52, 6.0], [146, 2, 181, 3.21], [326, 2, 104, 3.13], [6097, 29, 38, 3.55], [583, 2, 102, 2.56], [2423, 80, 220, 3.67], [10149, 3, 1052, 4.18], [145, 2, 181, 3.21], [11836, 2, 303, 3.32], [144, 2, 181, 3.21], [75, 2, 171, 3.96], [10574, 3, 565, 4.07], [6496, 1, 47, 3.48], [308, 1, 194, 4.19], [1413, 15, 111, 2.01], [2054, 3, 114, 3.24], [2422, 29, 44, 5.23], [1243, 2, 117, 3.0], [21793, 1, 273, 6.0], [1886, 2, 187, 1.81], [8915, 2, 226, 2.46], [944, 15, 46, 2.51], [247, 1, 103, 3.79], [1490, 1, 58, 5.92], [2859, 15, 82, 2.36], [1414, 15, 117, 1.88], [201, 3, 344, 2.12], [13928, 1, 53, 3.67], [3478, 2, 90, 2.89], [6158, 2, 294, 3.35], [7084, 3, 145, 2.79], [3934, 5, 619, 3.65], [11489, 1, 130, 1.75], [12526, 2, 325, 3.97], [1703, 2, 194, 2.63], [5812, 3, 700, 4.8]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.2], [2328, 2, 5, 0.2], [130, 1, 4, 0.36], [8650, 2, 4, 0.46], [2778, 2, 5, 0.4], [5491, 2, 4, 0.2], [8672, 2, 7, 0.2], [143, 2, 6, 0.51], [362, 2, 4, 0.48], [145, 2, 5, 0.5], [6936, 2, 4, 1.26], [5493, 2, 5, 0.35], [361, 2, 4, 0.63], [417, 2, 4, 0.63], [11681, 2, 5, 0.71], [205, 2, 4, 0.56], [589, 2, 5, 0.2], [75, 2, 5, 0.97], [11737, 2, 4, 0.78], [146, 2, 4, 0.57], [523, 2, 4, 0.63], [12721, 2, 5, 0.48], [8853, 2, 4, 1.92], [8673, 2, 6, 0.2], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [308, 1, 5, 1.48], [8915, 2, 6, 1.14], [144, 2, 5, 0.46], [1005, 2, 4, 0.89], [8675, 2, 4, 1.2], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [11739, 2, 4, 0.78], [142, 2, 4, 0.63], [8676, 2, 4, 2.16], [2424, 29, 4, 0.37], [6158, 2, 7, 0.2], [7704, 2, 4, 1.5], [2423, 29, 4, 1.19], [11738, 2, 4, 0.78], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [1413, 15, 4, 0.2], [7705, 2, 4, 1.9], [2423, 80, 4, 0.79], [944, 15, 5, 0.2], [3, 2, 4, 0.79], [3478, 2, 4, 1.78], [7004, 1, 4, 1.31], [1414, 15, 4, 0.42], [2859, 15, 4, 1.62], [74, 1, 4, 1.09], [10149, 3, 13, 0.75], [6497, 1, 4, 0.45], [3429, 15, 4, 0.41], [10993, 2, 4, 0.4], [13928, 1, 4, 1.15], [346, 1, 4, 0.88], [18964, 1, 4, 1.13], [11919, 1, 4, 0.59], [346, 3, 5, 1.27], [60, 3, 5, 1.93], [13260, 29, 5, 1.42], [7036, 1, 4, 1.63], [94, 4, 4, 1.96], [1339, 3, 12, 0.18], [6952, 1, 4, 1.59], [3893, 1, 4, 1.35], [2991, 3, 4, 2.17], [13034, 3, 6, 0.9], [411, 2, 4, 1.01], [11089, 1, 4, 1.16], [1050, 2, 5, 0.2], [3891, 1, 4, 1.35], [1339, 1, 4, 0.43], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [21793, 1, 4, 1.01], [563, 2, 4, 0.2], [8274, 3, 4, 0.83], [6630, 3, 4, 1.8], [3889, 1, 4, 1.35], [2912, 1, 4, 0.6], [1243, 2, 6, 0.7], [1490, 1, 4, 1.35], [7708, 2, 4, 1.5], [192, 3, 13, 1.24], [11581, 29, 4, 0.87], [9126, 1, 4, 1.25], [7886, 4, 5, 0.44], [13023, 3, 5, 0.45], [3495, 3, 13, 1.28], [5208, 3, 6, 0.23], [5940, 3, 4, 1.33], [11490, 1, 4, 0.48], [1309, 1, 4, 0.73], [1049, 2, 4, 0.2], [229, 1, 4, 1.32], [5165, 1, 4, 0.87], [22558, 3, 4, 0.88], [12229, 2, 5, 0.45], [13033, 3, 4, 0.8], [2331, 1, 4, 1.18], [201, 3, 4, 0.6], [2805, 137, 5, 1.01], [247, 1, 4, 0.37], [83, 2, 4, 0.75], [1274, 1, 4, 1.17], [6496, 1, 4, 1.55], [332, 2, 4, 0.2], [214, 3, 9, 1.24], [202, 2, 4, 0.2], [951, 4, 4, 1.56], [8898, 3, 4, 0.71], [20555, 2, 4, 0.58], [1703, 2, 4, 2.69], [9690, 1, 4, 1.08], [11770, 1, 4, 1.78], [335, 3, 10, 0.62], [942, 3, 4, 0.75], [7005, 1, 4, 1.01], [5812, 3, 4, 0.76], [114, 3, 4, 2.04], [21269, 3, 4, 4.0], [3934, 5, 7, 1.36], [8635, 3, 4, 0.83], [9827, 3, 4, 0.39], [10406, 10, 8, 1.73], [4940, 1, 4, 0.42], [186, 3, 7, 1.23], [1886, 2, 4, 0.2], [10527, 3, 8, 0.82], [10411, 10, 6, 1.79], [7885, 4, 4, 0.56], [9491, 21, 10, 1.33], [305, 2, 166, 3.17], [2328, 2, 170, 4.64], [130, 1, 71, 1.65], [8650, 2, 250, 4.6], [2778, 2, 175, 3.04], [5491, 2, 123, 2.03], [8672, 2, 319, 4.91], [143, 2, 170, 3.72], [362, 2, 169, 2.01], [145, 2, 171, 3.71], [6936, 2, 319, 5.75], [5493, 2, 130, 3.02], [361, 2, 186, 2.82], [417, 2, 186, 2.82], [11681, 2, 299, 3.49], [205, 2, 130, 2.04], [589, 2, 173, 1.81], [75, 2, 164, 4.57], [11737, 2, 68, 2.71], [146, 2, 171, 3.82], [523, 2, 186, 2.17], [12721, 2, 322, 4.26], [8853, 2, 319, 5.66], [8673, 2, 323, 4.83], [326, 2, 104, 2.86], [11835, 2, 302, 2.97], [308, 1, 201, 4.9], [8915, 2, 212, 3.94], [144, 2, 171, 3.63], [1005, 2, 67, 3.65], [8675, 2, 336, 3.6], [88, 10, 639, 4.85], [434, 2, 120, 2.22], [11739, 2, 68, 2.46], [142, 2, 186, 2.82], [8676, 2, 336, 5.12], [2424, 29, 38, 3.3], [6158, 2, 296, 3.82], [7704, 2, 198, 4.67], [2423, 29, 41, 3.35], [11738, 2, 68, 2.48], [11836, 2, 302, 3.64], [2424, 80, 191, 3.75], [1413, 15, 111, 3.12], [7705, 2, 198, 5.16], [2423, 80, 208, 3.41], [944, 15, 49, 2.34], [3, 2, 134, 4.73], [1414, 15, 117, 1.77], [74, 1, 241, 3.11], [10149, 3, 1044, 2.45], [6497, 1, 45, 1.83], [3429, 15, 63, 1.75], [10993, 2, 60, 2.43], [13928, 1, 53, 3.67], [346, 1, 179, 3.77], [18964, 1, 80, 3.14], [11919, 1, 177, 2.1], [346, 3, 682, 4.23], [60, 3, 952, 4.46], [13260, 29, 81, 4.53], [7036, 1, 144, 4.32], [94, 4, 137, 5.0], [1339, 3, 1955, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2327, 2, 5, 0.64], [2778, 2, 4, 0.2], [11681, 2, 10, 1.14], [6936, 2, 6, 0.44], [362, 2, 4, 0.56], [2328, 2, 5, 0.2], [205, 2, 4, 0.47], [130, 1, 4, 0.36], [2775, 2, 4, 0.2], [2049, 3, 5, 0.37], [8649, 2, 4, 0.64], [2776, 2, 4, 0.67], [361, 2, 5, 0.4], [143, 2, 5, 0.76], [593, 2, 6, 0.2], [206, 2, 4, 1.19], [5493, 2, 4, 0.6], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [7004, 1, 4, 0.53], [21793, 1, 4, 0.61], [413, 1, 4, 0.81], [12350, 1, 4, 2.08], [1124, 2, 4, 0.79], [7036, 1, 4, 1.53], [5165, 1, 4, 1.2], [12353, 1, 4, 2.08], [12349, 1, 5, 1.31], [145, 2, 4, 1.17], [434, 2, 4, 0.44], [248, 1, 4, 0.48], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [6097, 80, 5, 2.63], [10993, 2, 5, 0.73], [345, 3, 6, 0.2], [146, 2, 4, 1.17], [144, 2, 5, 0.61], [7084, 3, 5, 2.49], [11770, 1, 4, 0.2], [2050, 3, 4, 1.46], [12352, 1, 4, 2.08], [3891, 1, 4, 0.25], [2912, 1, 4, 1.16], [7005, 1, 4, 0.57], [998, 2, 5, 0.23], [997, 2, 4, 0.41], [432, 3, 4, 0.39], [3893, 1, 4, 0.49], [5165, 2, 7, 0.66], [12870, 1, 4, 1.19], [9372, 1, 4, 1.04], [6097, 29, 4, 2.66], [2424, 80, 4, 0.86], [20927, 1, 4, 0.51], [11772, 1, 4, 1.66], [6098, 80, 4, 1.64], [7885, 4, 4, 0.74], [10149, 3, 17, 0.75], [11089, 1, 4, 0.57], [3334, 5, 4, 0.7], [10574, 3, 5, 0.56], [12351, 1, 5, 0.56], [1492, 1, 5, 0.31], [4032, 29, 4, 0.8], [346, 3, 4, 0.93], [3889, 1, 4, 1.16], [1700, 2, 4, 0.64], [12304, 1, 4, 2.17], [1519, 3, 12, 0.22], [3576, 25, 4, 1.76], [13028, 3, 5, 1.36], [2912, 2, 5, 1.2], [214, 3, 9, 0.66], [1490, 1, 4, 0.72], [13034, 3, 5, 1.52], [972, 3, 4, 1.01], [229, 1, 4, 2.2], [11583, 29, 4, 0.49], [161, 3, 5, 1.45], [11426, 25, 4, 0.4], [5151, 2, 4, 0.45], [346, 1, 4, 0.93], [2331, 1, 4, 0.49], [8120, 3, 4, 0.6], [11490, 1, 4, 0.4], [995, 2, 4, 1.16], [3478, 2, 4, 0.62], [5076, 1, 4, 0.46], [5812, 3, 5, 2.0], [13893, 2, 4, 1.24], [10, 2, 4, 0.39], [9289, 29, 4, 1.08], [1309, 1, 4, 0.36], [410, 1, 4, 0.39], [12764, 2, 5, 0.43], [13023, 3, 6, 1.25], [2160, 68, 4, 1.02], [3575, 25, 4, 0.94], [2805, 137, 4, 0.94], [11404, 2, 5, 0.2], [3577, 25, 4, 0.52], [13280, 1, 4, 1.36], [75, 2, 5, 0.37], [2438, 2, 5, 0.53], [957, 2, 5, 0.91], [11814, 1, 4, 0.57], [11813, 1, 4, 0.84], [9069, 1, 4, 0.63], [9971, 2, 4, 1.14], [9967, 2, 4, 0.59], [11150, 2, 5, 0.45], [192, 3, 8, 1.79], [8943, 3, 4, 0.39], [9491, 21, 8, 1.33], [8283, 2, 6, 1.27], [5584, 3, 4, 4.0], [22317, 3, 4, 0.44], [24257, 1, 4, 1.22], [13249, 29, 4, 1.12], [9964, 2, 4, 1.6], [21697, 3, 4, 0.2], [9081, 3, 12, 0.98], [4586, 10, 10, 0.8], [105, 3, 4, 0.83], [4076, 3, 4, 1.42], [10609, 1, 4, 0.48], [9965, 2, 4, 1.14], [1413, 15, 4, 0.66], [335, 3, 9, 0.92], [10407, 10, 7, 1.94], [6935, 2, 311, 5.27], [141, 2, 173, 3.01], [589, 2, 172, 2.58], [2327, 2, 169, 3.3], [2778, 2, 174, 2.43], [11681, 2, 301, 6.0], [6936, 2, 311, 5.81], [362, 2, 157, 3.45], [2328, 2, 169, 4.01], [205, 2, 129, 1.78], [130, 1, 42, 1.5], [2775, 2, 174, 2.43], [2049, 3, 644, 1.69], [8649, 2, 261, 3.71], [2776, 2, 184, 2.34], [361, 2, 173, 3.53], [143, 2, 168, 3.68], [593, 2, 269, 2.09], [206, 2, 25, 2.78], [5493, 2, 127, 2.04], [1429, 2, 89, 4.32], [523, 2, 173, 3.41], [7004, 1, 94, 1.9], [21793, 1, 266, 4.32], [413, 1, 102, 2.44], [12350, 1, 722, 5.56], [1124, 2, 218, 2.61], [7036, 1, 143, 3.83], [5165, 1, 53, 4.04], [12353, 1, 722, 5.56], [12349, 1, 685, 5.29], [145, 2, 171, 3.27], [434, 2, 126, 2.14], [248, 1, 64, 1.8], [201, 3, 168, 4.66], [6952, 1, 210, 5.46], [6097, 80, 76, 6.0], [10993, 2, 59, 2.54], [345, 3, 335, 4.1], [146, 2, 180, 3.13], [144, 2, 171, 2.59], [7084, 3, 30, 4.42], [11770, 1, 246, 1.95], [12352, 1, 722, 5.56], [3891, 1, 138, 3.38], [2912, 1, 53, 3.11], [7005, 1, 94, 1.98], [998, 2, 272, 4.32], [997, 2, 287, 2.54], [432, 3, 355, 2.92], [3893, 1, 138, 2.52], [5165, 2, 450, 2.12], [12870, 1, 154, 3.17], [9372, 1, 260, 4.62], [6097, 29, 38, 6.0], [2424, 80, 198, 2.59], [20927, 1, 94, 1.86], [11772, 1, 251, 4.13], [6098, 80, 84, 4.94], [10149, 3, 982, 2.6], [11089, 1, 199, 2.89], [3334, 5, 212, 3.79], [10574, 3, 608, 1.86], [12351, 1, 685, 3.1], [1492, 1, 41, 2.21], [4032, 29, 107, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [141, 2, 5, 0.39], [2049, 3, 12, 0.2], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [130, 1, 4, 0.51], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 5, 0.59], [990, 2, 4, 0.44], [1777, 1, 5, 0.93], [8915, 2, 5, 0.43], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [6936, 2, 6, 1.17], [8650, 2, 5, 1.15], [22247, 2, 4, 0.95], [2778, 2, 5, 0.2], [1007, 2, 6, 0.2], [88, 10, 8, 0.44], [10, 2, 6, 0.2], [8677, 3, 5, 1.81], [8649, 2, 4, 1.4], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [10825, 21, 8, 1.13], [11681, 2, 5, 1.12], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [7084, 3, 4, 1.63], [411, 2, 4, 0.23], [308, 1, 5, 0.72], [410, 1, 4, 0.36], [6158, 2, 5, 0.9], [8938, 2, 5, 0.9], [8676, 2, 4, 0.97], [1124, 2, 6, 0.2], [432, 3, 5, 0.39], [167, 3, 5, 1.1], [45, 2, 4, 1.37], [7036, 1, 4, 1.64], [3495, 3, 17, 1.31], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 0.51], [9827, 3, 4, 0.2], [5812, 3, 5, 2.5], [3893, 1, 4, 0.28], [3889, 1, 4, 0.28], [12870, 1, 4, 2.58], [2049, 1, 4, 0.55], [3891, 1, 4, 0.28], [168, 3, 6, 0.29], [6097, 29, 4, 1.86], [1504, 2, 7, 0.2], [335, 3, 11, 1.1], [6097, 80, 4, 2.61], [11737, 2, 4, 0.41], [95, 3, 17, 0.32], [6098, 29, 4, 2.02], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [79, 1, 4, 0.2], [214, 3, 9, 0.44], [3980, 4, 4, 1.39], [20927, 1, 4, 0.61], [9069, 1, 5, 1.09], [22316, 3, 6, 0.49], [83, 2, 4, 0.44], [6098, 80, 4, 2.48], [20498, 1, 5, 0.55], [8898, 3, 6, 2.17], [9760, 29, 4, 0.49], [1070, 7, 11, 0.42], [997, 2, 4, 1.04], [1622, 1, 5, 0.2], [14017, 3, 5, 0.42], [7567, 3, 4, 1.37], [13034, 3, 8, 1.01], [22554, 10, 11, 0.23], [13260, 29, 4, 0.85], [11116, 1, 5, 0.2], [1243, 2, 4, 0.79], [12924, 1, 4, 0.2], [22317, 3, 8, 0.26], [20498, 3, 6, 0.84], [5946, 1, 4, 0.28], [996, 2, 4, 1.39], [35, 1, 4, 1.05], [5086, 1, 8, 0.2], [5813, 3, 5, 1.32], [9691, 1, 5, 1.66], [995, 2, 4, 1.56], [1413, 15, 4, 0.2], [1080, 3, 4, 0.63], [952, 4, 4, 2.48], [11085, 2, 4, 0.45], [2424, 80, 4, 1.45], [8557, 3, 4, 0.2], [3049, 3, 5, 1.73], [1703, 2, 5, 1.38], [215, 4, 5, 3.32], [20486, 3, 8, 0.5], [39, 1, 4, 0.8], [3900, 3, 5, 1.18], [4076, 3, 4, 2.94], [9081, 3, 8, 0.53], [13023, 3, 5, 1.48], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [34, 1, 4, 0.47], [20486, 1, 4, 0.51], [6497, 1, 5, 1.25], [8104, 1, 4, 0.2], [11510, 3, 5, 0.71], [2854, 21, 11, 0.45], [38, 1, 4, 0.47], [23611, 3, 4, 0.42], [3047, 3, 5, 1.0], [20969, 3, 5, 1.12], [1414, 15, 4, 0.2], [2878, 1, 4, 1.57], [114, 3, 4, 0.23], [12923, 1, 4, 0.5], [10529, 29, 4, 0.48], [8672, 2, 281, 5.07], [305, 2, 145, 3.64], [6935, 2, 278, 5.23], [141, 2, 152, 3.06], [2049, 3, 539, 2.4], [205, 2, 107, 2.48], [12721, 2, 296, 2.46], [130, 1, 62, 1.66], [144, 2, 151, 1.84], [589, 2, 161, 1.23], [362, 2, 139, 3.44], [146, 2, 151, 3.22], [145, 2, 159, 1.59], [593, 2, 119, 2.87], [990, 2, 54, 1.72], [1777, 1, 107, 3.88], [8915, 2, 200, 1.63], [2328, 2, 148, 3.16], [8648, 2, 218, 4.67], [6936, 2, 278, 4.62], [8650, 2, 218, 5.32], [22247, 2, 296, 3.03], [2778, 2, 153, 3.21], [1007, 2, 266, 1.69], [88, 10, 587, 2.65], [10, 2, 109, 2.73], [8677, 3, 289, 5.23], [8649, 2, 218, 5.01], [10149, 3, 853, 5.41], [2054, 3, 463, 4.27], [412, 1, 82, 3.82], [13028, 3, 145, 3.08], [10825, 21, 675, 2.7], [11681, 2, 274, 3.6], [361, 2, 152, 2.18], [413, 1, 85, 3.3], [7004, 1, 78, 2.8], [2055, 3, 488, 2.59], [2057, 3, 488, 4.38], [7084, 3, 127, 3.82], [411, 2, 107, 2.92], [308, 1, 166, 3.34], [410, 1, 102, 2.83], [6158, 2, 270, 3.55], [8938, 2, 198, 2.26], [8676, 2, 296, 2.62], [1124, 2, 184, 1.89], [432, 3, 297, 2.94], [167, 3, 236, 3.63], [45, 2, 108, 5.82], [7036, 1, 125, 4.63], [3495, 3, 950, 4.43], [7005, 1, 78, 2.8], [5081, 2, 189, 3.15], [94, 4, 117, 4.7], [9827, 3, 86, 3.03], [5812, 3, 611, 5.08], [3893, 1, 121, 1.92], [3889, 1, 121, 1.92], [12870, 1, 135, 6.0], [3891, 1, 121, 1.92], [168, 3, 399, 3.61], [1504, 2, 200, 2.99], [6097, 80, 68, 5.83], [11737, 2, 56, 2.55]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.68], [3, 2, 7, 2.67], [326, 2, 11, 1.38], [589, 2, 15, 0.55], [143, 2, 7, 1.12], [2049, 3, 18, 1.93], [6935, 2, 18, 3.14], [130, 1, 7, 1.56], [205, 2, 7, 0.71], [75, 2, 7, 1.86], [12721, 2, 10, 1.69], [144, 2, 7, 1.42], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [1776, 1, 7, 1.17], [593, 2, 10, 2.33], [146, 2, 7, 2.25], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [20252, 2, 7, 1.1], [206, 2, 7, 1.53], [8648, 2, 14, 4.89], [990, 2, 9, 1.73], [2328, 2, 9, 1.55], [6936, 2, 10, 2.57], [5151, 2, 7, 0.9], [7886, 4, 7, 0.87], [8650, 2, 14, 5.0], [88, 10, 17, 1.98], [141, 2, 7, 2.63], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [1492, 1, 7, 1.85], [7004, 1, 7, 0.96], [2054, 3, 7, 1.03], [362, 2, 7, 2.4], [2057, 3, 7, 0.89], [10825, 21, 13, 2.02], [8649, 2, 14, 5.0], [2055, 3, 7, 0.81], [345, 3, 11, 0.97], [7084, 3, 7, 3.88], [7005, 1, 7, 0.73], [307, 2, 7, 1.93], [3889, 1, 7, 0.8], [21793, 1, 7, 4.02], [410, 1, 7, 1.0], [432, 3, 7, 1.15], [7887, 4, 7, 0.67], [22247, 2, 13, 2.72], [57, 1, 7, 1.0], [11681, 2, 14, 5.0], [10149, 3, 21, 1.67], [308, 1, 7, 2.55], [7036, 1, 7, 2.24], [94, 4, 7, 1.85], [12870, 1, 11, 5.0], [5081, 2, 9, 1.33], [9827, 3, 7, 0.53], [201, 3, 11, 0.87], [167, 3, 9, 2.77], [13028, 3, 7, 2.95], [8677, 3, 9, 1.26], [1504, 2, 7, 2.47], [1124, 2, 14, 0.68], [3891, 1, 7, 2.38], [35, 1, 9, 2.05], [3893, 1, 7, 2.38], [8676, 2, 7, 1.7], [168, 3, 11, 3.71], [9760, 29, 9, 0.92], [5812, 3, 8, 1.91], [1243, 2, 7, 1.27], [6158, 2, 10, 0.94], [412, 1, 7, 2.68], [45, 2, 7, 2.72], [361, 2, 7, 1.87], [20927, 1, 7, 1.14], [335, 3, 20, 0.93], [1767, 25, 7, 1.14], [3980, 4, 7, 2.74], [346, 1, 7, 3.18], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [214, 3, 18, 0.69], [998, 2, 7, 2.35], [2049, 1, 7, 1.19], [413, 1, 7, 2.06], [3495, 3, 18, 2.26], [8674, 2, 7, 1.7], [856, 1, 7, 0.73], [34, 1, 7, 1.65], [8898, 3, 7, 2.78], [11116, 1, 7, 0.86], [346, 3, 7, 1.57], [1766, 25, 9, 1.39], [5946, 1, 7, 2.23], [1070, 7, 15, 0.84], [997, 2, 9, 2.24], [9691, 1, 7, 3.41], [20498, 1, 7, 2.97], [38, 1, 7, 1.9], [974, 3, 9, 2.39], [152, 21, 7, 0.83], [9372, 1, 7, 3.6], [14017, 3, 7, 1.75], [1091, 1, 7, 1.5], [22317, 3, 9, 1.01], [11954, 1, 7, 3.89], [20498, 3, 10, 1.9], [996, 2, 7, 2.35], [82, 2, 7, 1.88], [1080, 3, 7, 1.59], [9828, 3, 7, 0.76], [14037, 3, 7, 1.09], [39, 1, 7, 1.62], [5811, 3, 7, 4.24], [3048, 3, 7, 3.93], [972, 3, 8, 1.9], [1767, 2, 7, 1.46], [13260, 29, 9, 2.46], [24, 1, 9, 1.96], [4203, 1, 9, 1.06], [5813, 3, 7, 4.0], [10780, 10, 7, 3.58], [13034, 3, 8, 2.39], [5513, 2, 7, 1.93], [8945, 3, 8, 2.34], [952, 4, 7, 4.16], [202, 2, 7, 3.13], [3981, 3, 17, 2.74], [3900, 3, 7, 0.94], [995, 2, 7, 2.53], [6497, 1, 7, 0.9], [3893, 1, 138, 3.95], [8676, 2, 339, 2.47], [168, 3, 427, 4.48], [9760, 29, 80, 2.17], [5812, 3, 664, 3.68], [1243, 2, 110, 2.26], [6158, 2, 295, 3.16], [412, 1, 93, 4.36], [45, 2, 120, 4.53], [361, 2, 173, 3.11], [20927, 1, 90, 2.13], [335, 3, 1468, 2.53], [1767, 25, 193, 3.4], [3980, 4, 568, 3.51], [346, 1, 177, 3.95], [95, 3, 1223, 3.3], [9069, 1, 136, 2.45], [214, 3, 734, 1.69], [998, 2, 284, 3.12], [2049, 1, 8, 1.64], [413, 1, 96, 3.86], [3495, 3, 1083, 4.16], [8674, 2, 339, 2.47], [856, 1, 41, 1.49], [34, 1, 125, 3.59], [8898, 3, 316, 5.08], [11116, 1, 90, 2.07], [346, 3, 674, 2.8], [1766, 25, 210, 3.33], [5946, 1, 138, 3.78], [1070, 7, 661, 3.14], [997, 2, 269, 4.04], [9691, 1, 84, 4.24], [20498, 1, 109, 4.11], [38, 1, 125, 3.64], [974, 3, 166, 3.95], [9372, 1, 256, 5.15], [14017, 3, 220, 4.21], [1091, 1, 56, 2.26], [22317, 3, 355, 2.78], [11954, 1, 218, 4.66], [20498, 3, 654, 3.7], [996, 2, 284, 3.12], [82, 2, 67, 2.87], [1080, 3, 148, 3.39], [9828, 3, 98, 2.69], [39, 1, 125, 2.94], [5811, 3, 696, 5.0], [3048, 3, 303, 5.48], [972, 3, 667, 3.43], [1767, 2, 38, 2.94], [13260, 29, 81, 3.46], [24, 1, 126, 3.39], [4203, 1, 55, 2.86], [5813, 3, 661, 4.76], [10780, 10, 429, 5.39], [13034, 3, 664, 3.98], [5513, 2, 93, 2.69], [952, 4, 85, 4.92], [202, 2, 85, 3.89], [3981, 3, 1906, 3.51], [3900, 3, 52, 1.71], [995, 2, 284, 3.3], [6497, 1, 44, 1.66]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [589, 2, 8, 1.6], [2778, 2, 11, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [130, 1, 7, 0.69], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 9, 0.67], [8648, 2, 14, 3.54], [2775, 2, 7, 2.56], [593, 2, 11, 2.52], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [5493, 2, 7, 0.74], [11681, 2, 9, 4.95], [7036, 1, 7, 3.63], [88, 10, 24, 2.1], [2776, 2, 7, 2.04], [141, 2, 7, 0.72], [151, 1, 7, 0.98], [1446, 2, 7, 1.5], [206, 2, 7, 1.45], [990, 2, 7, 0.75], [9760, 29, 9, 1.24], [248, 1, 7, 1.02], [5491, 2, 7, 0.77], [1007, 2, 7, 0.73], [8672, 2, 7, 5.0], [142, 2, 7, 1.77], [362, 2, 7, 1.0], [2912, 1, 7, 1.75], [10993, 2, 7, 1.25], [3893, 1, 7, 0.71], [12870, 1, 9, 3.33], [5165, 1, 7, 2.14], [7886, 4, 7, 0.8], [2055, 3, 7, 1.07], [417, 2, 7, 1.77], [9372, 1, 7, 3.88], [1622, 1, 11, 0.59], [3889, 1, 9, 1.13], [523, 2, 7, 1.19], [2054, 3, 7, 2.19], [7573, 1, 21, 5.0], [21793, 1, 7, 1.7], [10, 2, 9, 1.14], [7885, 4, 7, 1.19], [3891, 1, 7, 0.76], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 7, 2.5], [61, 3, 7, 2.37], [5208, 3, 14, 0.79], [997, 2, 7, 2.75], [3, 2, 9, 1.83], [9491, 21, 29, 0.96], [12721, 2, 7, 3.06], [5165, 2, 8, 1.95], [35, 1, 9, 2.98], [83, 2, 11, 1.48], [998, 2, 7, 1.56], [22247, 2, 7, 2.52], [33, 1, 9, 2.92], [996, 2, 7, 2.88], [346, 3, 7, 5.0], [7887, 4, 7, 2.05], [972, 3, 10, 1.66], [5076, 1, 7, 2.68], [2805, 137, 7, 4.94], [229, 1, 7, 2.98], [6158, 2, 9, 1.56], [2424, 80, 7, 2.78], [34, 1, 9, 3.0], [13028, 3, 7, 4.0], [2912, 2, 12, 3.01], [13928, 1, 7, 2.56], [38, 1, 9, 3.05], [8898, 3, 7, 5.0], [346, 1, 7, 5.0], [76, 2, 7, 1.69], [12212, 29, 9, 0.9], [8104, 1, 7, 1.79], [2336, 3, 8, 1.19], [9690, 1, 7, 1.19], [5209, 3, 9, 1.92], [39, 1, 9, 3.02], [3495, 3, 18, 2.75], [11952, 1, 7, 1.27], [7567, 3, 7, 3.04], [2424, 29, 7, 1.27], [5946, 1, 7, 1.02], [11490, 1, 9, 1.14], [24257, 1, 7, 1.0], [9691, 1, 7, 2.06], [3048, 3, 7, 1.77], [11770, 1, 7, 3.84], [411, 2, 7, 1.64], [21798, 1, 7, 1.14], [1703, 2, 7, 2.56], [13928, 2, 7, 2.56], [632, 11, 21, 0.84], [11953, 1, 9, 0.75], [74, 1, 7, 5.0], [161, 3, 9, 4.12], [10407, 10, 12, 3.76], [22316, 3, 9, 1.16], [13023, 3, 10, 1.41], [1523, 1, 7, 0.81], [21269, 3, 7, 1.96], [10410, 10, 15, 3.8], [192, 3, 15, 2.1], [12764, 2, 10, 2.01], [214, 3, 15, 1.01], [2331, 1, 7, 3.16], [972, 1, 7, 1.94], [3430, 15, 7, 2.79], [5164, 1, 7, 1.93], [13893, 2, 7, 4.11], [1274, 1, 7, 1.55], [4076, 3, 7, 2.73], [6097, 80, 7, 2.43], [6097, 29, 7, 2.31], [11116, 1, 7, 1.08], [3576, 29, 7, 2.44], [10408, 10, 8, 3.12], [1080, 3, 7, 2.78], [1243, 2, 9, 2.48], [3047, 3, 7, 2.68], [10780, 10, 7, 3.61], [2438, 2, 8, 3.45], [8674, 2, 7, 3.66], [11813, 1, 7, 1.41], [3334, 5, 7, 4.94], [2436, 4, 7, 1.36], [346, 3, 678, 5.86], [972, 3, 650, 3.9], [5076, 1, 150, 3.54], [2805, 137, 203, 5.8], [229, 1, 89, 4.15], [6158, 2, 285, 2.64], [2424, 80, 186, 3.86], [13028, 3, 161, 4.86], [13928, 1, 51, 3.92], [8898, 3, 327, 6.0], [346, 1, 170, 5.86], [76, 2, 119, 3.73], [12212, 29, 131, 3.03], [8104, 1, 236, 2.65], [2336, 3, 675, 2.05], [9690, 1, 83, 2.38], [3495, 3, 1056, 3.61], [11952, 1, 230, 2.13], [7567, 3, 76, 4.21], [2424, 29, 37, 2.13], [5946, 1, 135, 2.11], [11490, 1, 63, 2.57], [24257, 1, 154, 2.09], [9691, 1, 87, 2.92], [3048, 3, 313, 2.63], [11770, 1, 243, 4.7], [411, 2, 118, 2.73], [21798, 1, 161, 2.0], [1703, 2, 179, 3.73], [13928, 2, 27, 3.42], [632, 11, 949, 1.71], [11953, 1, 218, 1.96], [74, 1, 219, 6.0], [161, 3, 837, 4.99], [10407, 10, 1263, 5.88], [22316, 3, 346, 2.25], [13023, 3, 657, 3.53], [1523, 1, 51, 1.89], [21269, 3, 332, 2.82], [10410, 10, 1263, 5.22], [192, 3, 1615, 2.95], [12764, 2, 810, 3.87], [2331, 1, 134, 4.02], [972, 1, 108, 2.8], [3430, 15, 75, 3.89], [5164, 1, 55, 2.79], [13893, 2, 310, 4.97], [1274, 1, 90, 2.41], [4076, 3, 230, 3.59], [6097, 80, 76, 3.59], [6097, 29, 38, 3.4], [11116, 1, 92, 1.94], [3576, 29, 39, 3.3], [10408, 10, 881, 3.97], [1080, 3, 138, 3.87], [1243, 2, 107, 4.36], [3047, 3, 294, 4.59], [10780, 10, 410, 5.32], [2438, 2, 682, 5.35], [8674, 2, 323, 4.51], [11813, 1, 362, 2.27], [3334, 5, 203, 5.8], [2436, 4, 126, 3.21]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [130, 1, 7, 0.67], [11685, 2, 7, 3.6], [8648, 2, 9, 2.71], [144, 2, 7, 2.5], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [11681, 2, 9, 3.34], [205, 2, 7, 0.74], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [141, 2, 9, 1.58], [8650, 2, 7, 2.25], [151, 1, 7, 0.77], [6936, 2, 14, 4.75], [2778, 2, 9, 1.43], [206, 2, 7, 1.57], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.53], [7036, 1, 7, 2.85], [1446, 2, 7, 1.73], [990, 2, 7, 0.69], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [417, 2, 7, 0.93], [248, 1, 7, 0.75], [2055, 3, 7, 4.16], [523, 2, 7, 1.56], [3893, 1, 7, 0.83], [12870, 1, 7, 3.69], [142, 2, 7, 0.93], [12350, 1, 7, 2.38], [2057, 3, 7, 3.77], [3889, 1, 7, 1.75], [7084, 3, 7, 1.65], [20927, 1, 7, 1.66], [7005, 1, 7, 1.29], [997, 2, 7, 1.75], [12349, 1, 7, 4.99], [21793, 1, 7, 2.58], [3891, 1, 7, 1.49], [61, 3, 9, 2.43], [7885, 4, 9, 1.03], [5165, 1, 7, 2.14], [6158, 2, 21, 1.5], [8672, 2, 14, 2.68], [5165, 2, 8, 2.15], [9491, 21, 20, 1.13], [2912, 1, 7, 1.67], [98, 11, 16, 1.21], [972, 3, 11, 3.54], [411, 2, 7, 1.73], [9372, 1, 7, 4.23], [10388, 2, 7, 1.16], [214, 3, 18, 0.67], [33, 1, 7, 3.41], [410, 1, 7, 2.57], [7886, 4, 7, 1.19], [13928, 1, 7, 2.18], [7567, 3, 7, 2.7], [9081, 3, 16, 1.41], [3981, 3, 22, 2.41], [22316, 3, 7, 0.98], [83, 2, 7, 1.41], [22247, 2, 7, 2.12], [336, 15, 7, 1.77], [308, 1, 7, 3.55], [2912, 2, 8, 3.01], [10631, 2, 7, 0.81], [161, 3, 8, 4.87], [229, 1, 7, 3.17], [5946, 1, 7, 1.49], [11953, 1, 7, 1.06], [10780, 10, 7, 3.43], [22317, 3, 7, 1.67], [6497, 1, 7, 0.9], [345, 3, 7, 1.46], [12271, 2, 7, 0.9], [3478, 2, 7, 1.93], [11767, 1, 7, 0.83], [10407, 10, 10, 3.53], [10410, 10, 10, 3.57], [9082, 3, 33, 2.42], [37, 1, 7, 2.23], [972, 1, 7, 1.51], [6097, 80, 7, 3.68], [39, 1, 7, 1.71], [8104, 1, 7, 0.73], [74, 1, 7, 4.11], [1413, 15, 7, 0.69], [34, 1, 7, 1.79], [82, 2, 7, 1.27], [7704, 2, 7, 2.41], [3048, 3, 7, 0.92], [24257, 1, 7, 2.73], [2331, 1, 7, 3.53], [192, 3, 20, 1.59], [335, 3, 15, 2.02], [152, 21, 9, 0.89], [38, 1, 7, 1.27], [9971, 2, 7, 3.23], [12338, 29, 9, 0.69], [9, 1, 7, 0.87], [4253, 1, 7, 1.29], [1523, 1, 7, 0.85], [45, 2, 7, 5.0], [12721, 2, 7, 2.09], [11510, 3, 8, 2.0], [6097, 29, 7, 3.68], [10936, 2, 7, 2.38], [8673, 2, 7, 4.12], [2805, 137, 7, 3.07], [10093, 3, 15, 1.68], [1080, 3, 7, 0.71], [7007, 1, 7, 2.33], [12764, 2, 8, 1.43], [3047, 3, 7, 4.74], [12212, 29, 7, 0.94], [7705, 2, 7, 2.56], [1895, 3, 7, 3.57], [8659, 1, 7, 3.34], [7706, 2, 7, 2.31], [9965, 2, 7, 4.66], [6496, 1, 7, 2.09], [8676, 2, 7, 1.46], [11812, 1, 7, 0.9], [201, 3, 7, 2.62], [2424, 80, 7, 2.59], [8635, 3, 7, 2.86], [4203, 1, 7, 1.08], [1703, 2, 7, 2.63], [3475, 2, 7, 3.15], [2438, 2, 8, 2.12], [308, 1, 161, 4.6], [10631, 2, 234, 1.62], [161, 3, 730, 5.94], [229, 1, 88, 3.97], [5946, 1, 135, 2.3], [11953, 1, 217, 1.87], [10780, 10, 395, 4.24], [22317, 3, 323, 3.38], [6497, 1, 38, 1.95], [345, 3, 304, 2.92], [12271, 2, 69, 1.71], [3478, 2, 76, 2.74], [11767, 1, 166, 1.87], [10407, 10, 1170, 4.35], [10410, 10, 1232, 4.39], [9082, 3, 2644, 3.25], [37, 1, 114, 3.22], [972, 1, 106, 2.32], [6097, 80, 74, 4.49], [39, 1, 114, 2.52], [8104, 1, 95, 1.43], [74, 1, 214, 4.92], [1413, 15, 96, 1.49], [34, 1, 114, 2.99], [82, 2, 61, 2.08], [7704, 2, 191, 3.22], [3048, 3, 277, 1.97], [24257, 1, 140, 3.78], [2331, 1, 123, 4.34], [192, 3, 1529, 2.41], [335, 3, 1394, 2.81], [38, 1, 120, 2.08], [9971, 2, 292, 4.04], [12338, 29, 54, 1.8], [9, 1, 37, 1.68], [4253, 1, 187, 2.11], [1523, 1, 51, 1.66], [45, 2, 110, 6.0], [12721, 2, 308, 2.89], [11510, 3, 602, 3.04], [6097, 29, 37, 4.49], [10936, 2, 144, 3.19], [8673, 2, 301, 4.93], [2805, 137, 186, 3.88], [10093, 3, 887, 2.49], [1080, 3, 139, 1.52], [7007, 1, 85, 3.14], [12764, 2, 798, 2.24], [3047, 3, 275, 5.55], [12212, 29, 129, 1.75], [7705, 2, 191, 3.38], [1895, 3, 316, 4.38], [8659, 1, 128, 4.15], [7706, 2, 191, 3.12], [9965, 2, 277, 5.47], [6496, 1, 43, 2.9], [8676, 2, 310, 2.27], [11812, 1, 258, 1.7], [201, 3, 320, 3.42], [2424, 80, 182, 3.4], [8635, 3, 363, 3.67], [4203, 1, 53, 1.88], [1703, 2, 176, 3.43], [3475, 2, 63, 3.96], [2438, 2, 671, 2.92]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 1.88], [2049, 3, 16, 0.8], [589, 2, 12, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 1.99], [1776, 1, 7, 1.12], [8672, 2, 15, 2.16], [20252, 2, 7, 0.74], [205, 2, 7, 0.93], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [1777, 1, 7, 2.22], [305, 2, 7, 0.92], [11681, 2, 10, 5.0], [593, 2, 11, 2.33], [8648, 2, 9, 3.46], [6936, 2, 10, 2.79], [2328, 2, 7, 0.94], [1007, 2, 10, 1.03], [88, 10, 21, 1.69], [83, 2, 7, 0.96], [5151, 2, 7, 1.96], [8650, 2, 9, 3.5], [412, 1, 7, 2.67], [345, 3, 7, 1.1], [2991, 3, 7, 4.78], [22247, 2, 9, 2.4], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [57, 1, 9, 0.93], [201, 3, 8, 1.0], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [3478, 2, 7, 0.87], [146, 2, 7, 2.68], [2054, 3, 9, 3.23], [7004, 1, 7, 0.9], [12721, 2, 10, 1.78], [167, 3, 7, 2.5], [2057, 3, 7, 3.23], [413, 1, 7, 2.06], [10825, 21, 13, 2.1], [6158, 2, 10, 2.87], [74, 1, 7, 3.5], [168, 3, 7, 1.38], [308, 1, 7, 2.44], [346, 1, 7, 0.74], [2055, 3, 7, 1.92], [10, 2, 17, 2.16], [7036, 1, 9, 4.85], [13028, 3, 7, 1.61], [3495, 3, 21, 1.64], [335, 3, 27, 3.16], [432, 3, 7, 1.61], [5081, 2, 9, 0.59], [7887, 4, 7, 0.77], [12870, 1, 9, 5.0], [214, 3, 15, 0.77], [8649, 2, 7, 2.97], [79, 1, 7, 0.73], [410, 1, 7, 1.54], [1492, 1, 7, 1.2], [3889, 1, 7, 2.63], [145, 2, 9, 0.73], [9827, 3, 7, 0.86], [3893, 1, 7, 1.67], [1504, 2, 9, 0.89], [5208, 3, 16, 1.05], [95, 3, 21, 3.57], [13260, 29, 7, 1.89], [5812, 3, 8, 2.16], [23, 1, 7, 2.91], [94, 4, 7, 2.79], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [3891, 1, 7, 1.3], [998, 2, 7, 2.66], [25, 1, 7, 2.91], [21269, 3, 7, 5.0], [7567, 3, 7, 3.13], [10574, 3, 9, 2.33], [5086, 1, 9, 2.04], [1243, 2, 9, 2.8], [9069, 1, 7, 2.45], [2878, 1, 7, 2.42], [997, 2, 9, 3.39], [11954, 1, 7, 1.34], [9691, 1, 7, 3.66], [856, 1, 7, 0.92], [11914, 1, 11, 1.02], [20927, 1, 7, 2.0], [1703, 2, 7, 3.38], [5660, 2, 7, 3.65], [5584, 3, 7, 4.0], [952, 4, 7, 5.0], [5209, 3, 9, 0.67], [9081, 3, 14, 3.64], [8898, 3, 7, 5.0], [996, 2, 7, 4.61], [1070, 7, 13, 1.16], [346, 3, 8, 1.14], [1622, 1, 11, 0.85], [8676, 2, 7, 1.94], [12661, 1, 7, 4.53], [23961, 3, 7, 5.0], [5513, 2, 7, 1.63], [1091, 1, 7, 1.1], [22317, 3, 8, 1.15], [8274, 3, 7, 1.92], [13034, 3, 12, 3.0], [11811, 1, 7, 3.08], [24, 1, 7, 2.51], [1519, 3, 21, 0.94], [27, 1, 7, 2.91], [8674, 2, 10, 1.94], [6097, 29, 11, 2.58], [9760, 29, 11, 0.62], [4203, 1, 7, 1.27], [6097, 80, 7, 2.41], [10529, 29, 7, 2.85], [82, 2, 7, 0.67], [1413, 15, 7, 1.44], [995, 2, 9, 4.44], [9082, 3, 21, 1.17], [20498, 3, 8, 3.76], [66, 1, 7, 0.81], [2104, 3, 10, 2.99], [6098, 80, 7, 2.21], [9372, 1, 7, 1.93], [6098, 29, 7, 1.86], [34, 1, 7, 1.48], [9827, 3, 86, 3.01], [3893, 1, 121, 3.33], [1504, 2, 200, 3.04], [5208, 3, 554, 2.2], [95, 3, 1090, 4.25], [13260, 29, 71, 3.0], [5812, 3, 580, 4.28], [23, 1, 115, 3.59], [94, 4, 117, 3.69], [411, 2, 107, 2.48], [7005, 1, 78, 2.47], [3891, 1, 121, 3.52], [998, 2, 232, 5.07], [25, 1, 115, 3.59], [21269, 3, 289, 6.0], [7567, 3, 68, 4.03], [10574, 3, 499, 3.22], [5086, 1, 181, 4.19], [1243, 2, 96, 3.48], [2878, 1, 78, 3.29], [997, 2, 232, 4.07], [11954, 1, 194, 2.02], [9691, 1, 73, 4.81], [856, 1, 34, 1.82], [11914, 1, 83, 3.67], [1703, 2, 159, 4.78], [5660, 2, 171, 4.33], [5584, 3, 231, 5.27], [952, 4, 71, 6.0], [5209, 3, 554, 2.85], [9081, 3, 453, 5.8], [8898, 3, 274, 6.0], [996, 2, 245, 5.29], [1070, 7, 580, 2.82], [346, 3, 633, 1.82], [1622, 1, 56, 1.39], [8676, 2, 296, 2.62], [12661, 1, 77, 5.59], [23961, 3, 282, 5.84], [5513, 2, 76, 2.31], [1091, 1, 47, 2.93], [22317, 3, 311, 2.56], [13034, 3, 577, 4.66], [11811, 1, 446, 3.75], [24, 1, 110, 3.81], [1519, 3, 1611, 2.61], [27, 1, 115, 3.59], [8674, 2, 296, 2.62], [6097, 29, 36, 3.26], [9760, 29, 71, 2.53], [4203, 1, 47, 2.68], [6097, 80, 68, 3.09], [10529, 29, 39, 4.25], [82, 2, 59, 1.57], [1413, 15, 96, 2.72], [995, 2, 232, 5.59], [9082, 3, 2416, 3.42], [20498, 3, 580, 4.44], [66, 1, 40, 1.49], [2104, 3, 328, 3.89], [6098, 80, 75, 2.89], [9372, 1, 236, 2.61], [6098, 29, 39, 2.54], [34, 1, 110, 2.16]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [2327, 2, 7, 1.0], [8915, 2, 10, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [130, 1, 7, 0.69], [5493, 2, 11, 0.5], [616, 2, 9, 0.85], [326, 2, 11, 2.77], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 9, 4.87], [1446, 2, 9, 1.57], [7004, 1, 7, 2.5], [205, 2, 7, 0.85], [2049, 3, 10, 1.17], [144, 2, 7, 2.5], [10, 2, 7, 2.3], [151, 1, 7, 0.98], [990, 2, 7, 0.75], [7036, 1, 14, 4.62], [3893, 1, 7, 2.11], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [141, 2, 7, 1.77], [3891, 1, 7, 1.55], [206, 2, 7, 1.02], [75, 2, 9, 2.39], [2055, 3, 7, 1.91], [362, 2, 7, 2.9], [10993, 2, 7, 0.87], [21793, 1, 7, 1.66], [5208, 3, 14, 0.79], [3889, 1, 26, 2.13], [7084, 3, 7, 3.02], [11234, 2, 7, 2.7], [7005, 1, 7, 1.31], [3980, 4, 8, 2.38], [12870, 1, 7, 3.72], [2912, 1, 9, 2.08], [145, 2, 7, 2.89], [5165, 1, 7, 2.07], [10149, 3, 21, 2.85], [8672, 2, 7, 5.0], [9760, 29, 7, 0.97], [998, 2, 7, 1.5], [20927, 1, 7, 2.5], [997, 2, 7, 2.49], [2436, 4, 7, 1.36], [417, 2, 7, 1.77], [2424, 80, 7, 2.78], [7887, 4, 9, 2.05], [6158, 2, 9, 1.56], [3, 2, 11, 1.58], [5076, 1, 9, 1.7], [632, 11, 21, 0.84], [229, 1, 7, 3.17], [972, 3, 9, 1.92], [3495, 3, 14, 1.61], [74, 1, 7, 2.35], [9491, 21, 21, 3.04], [523, 2, 7, 1.19], [11770, 1, 7, 2.08], [346, 3, 7, 2.56], [11953, 1, 7, 0.87], [5165, 2, 8, 2.08], [7573, 1, 16, 4.81], [12721, 2, 7, 1.45], [996, 2, 7, 1.96], [22316, 3, 9, 1.16], [2423, 80, 9, 3.79], [11772, 1, 7, 3.73], [9372, 1, 7, 3.88], [3981, 3, 22, 1.14], [6497, 1, 7, 0.94], [24257, 1, 9, 1.19], [2912, 2, 12, 3.01], [11952, 1, 7, 1.27], [2438, 2, 8, 3.32], [12229, 2, 7, 0.69], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 0.89], [8898, 3, 9, 5.0], [3975, 4, 9, 2.75], [346, 1, 7, 3.21], [1622, 1, 7, 0.94], [6496, 1, 7, 2.37], [192, 3, 15, 2.1], [10407, 10, 12, 3.53], [3900, 3, 7, 1.43], [5209, 3, 9, 1.54], [2805, 137, 7, 2.41], [9081, 3, 12, 1.23], [5946, 1, 7, 1.02], [33, 1, 7, 1.23], [11812, 1, 7, 0.9], [335, 3, 18, 2.53], [1703, 2, 7, 1.39], [7567, 3, 7, 3.04], [12764, 2, 8, 1.48], [10388, 2, 7, 3.21], [11490, 1, 7, 0.92], [37, 1, 7, 0.9], [8676, 2, 7, 5.0], [6097, 80, 7, 2.16], [972, 1, 7, 1.94], [202, 2, 7, 1.69], [220, 4, 7, 2.52], [1519, 3, 18, 0.78], [22247, 2, 7, 2.5], [23611, 3, 8, 0.88], [161, 3, 9, 4.12], [35, 1, 7, 1.23], [38, 1, 7, 1.8], [13893, 2, 7, 4.11], [2104, 3, 15, 2.31], [11814, 1, 7, 0.92], [95, 3, 22, 0.85], [83, 2, 7, 1.1], [4232, 80, 7, 3.5], [1895, 3, 7, 4.76], [11813, 1, 7, 1.41], [11116, 1, 7, 1.08], [12212, 29, 9, 1.0], [8635, 3, 7, 2.27], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [12979, 25, 12, 1.36], [76, 2, 7, 0.98], [1309, 1, 7, 0.89], [13928, 1, 7, 2.56], [10386, 2, 7, 2.99], [5165, 2, 438, 2.94], [7573, 1, 378, 5.94], [12721, 2, 328, 2.31], [996, 2, 262, 3.05], [22316, 3, 346, 2.25], [2423, 80, 203, 5.23], [11772, 1, 243, 4.59], [9372, 1, 264, 4.75], [3981, 3, 1938, 2.0], [6497, 1, 43, 1.8], [24257, 1, 154, 2.4], [11952, 1, 230, 2.13], [2438, 2, 682, 5.35], [12229, 2, 176, 1.55], [823, 1, 46, 2.11], [361, 2, 179, 2.63], [2424, 29, 37, 1.98], [8898, 3, 310, 6.0], [3975, 4, 528, 4.61], [346, 1, 161, 4.07], [1622, 1, 125, 1.8], [6496, 1, 46, 3.23], [192, 3, 1615, 2.95], [10407, 10, 1263, 5.88], [3900, 3, 51, 2.29], [5209, 3, 130, 2.37], [2805, 137, 192, 3.49], [9081, 3, 558, 2.09], [5946, 1, 135, 2.11], [33, 1, 129, 2.09], [11812, 1, 276, 1.76], [1703, 2, 179, 2.48], [7567, 3, 76, 4.21], [12764, 2, 853, 2.34], [10388, 2, 253, 4.07], [11490, 1, 119, 2.01], [37, 1, 129, 1.76], [8676, 2, 323, 6.0], [6097, 80, 76, 3.24], [972, 1, 114, 2.8], [202, 2, 84, 2.55], [220, 4, 55, 3.38], [1519, 3, 1884, 1.61], [22247, 2, 328, 3.36], [23611, 3, 401, 1.74], [161, 3, 837, 4.99], [35, 1, 129, 2.09], [38, 1, 129, 2.66], [13893, 2, 310, 4.97], [2104, 3, 384, 3.17], [11814, 1, 246, 2.01], [95, 3, 1304, 1.69], [83, 2, 62, 1.96], [4232, 80, 162, 4.36], [1895, 3, 340, 5.62], [11813, 1, 362, 2.27], [11116, 1, 92, 1.94], [12212, 29, 131, 2.09], [8104, 1, 236, 2.65], [12979, 25, 758, 2.21], [76, 2, 126, 1.84], [1309, 1, 59, 1.75], [13928, 1, 54, 3.42], [10386, 2, 253, 3.84]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [615, 2, 11, 0.67], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [5493, 2, 9, 0.75], [205, 2, 9, 1.23], [130, 1, 7, 0.67], [616, 2, 9, 0.77], [88, 10, 14, 0.73], [144, 2, 7, 3.09], [8648, 2, 9, 2.71], [2049, 3, 21, 0.5], [11681, 2, 9, 3.84], [8915, 2, 8, 0.93], [589, 2, 8, 0.61], [326, 2, 9, 1.94], [7036, 1, 7, 2.85], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 14, 1.04], [3893, 1, 7, 0.83], [141, 2, 9, 1.58], [206, 2, 7, 1.25], [7004, 1, 7, 1.81], [151, 1, 7, 0.77], [3891, 1, 7, 1.49], [248, 1, 7, 0.75], [143, 2, 7, 2.36], [3980, 4, 7, 2.37], [146, 2, 7, 2.31], [2050, 3, 7, 3.3], [990, 2, 7, 0.69], [2055, 3, 9, 3.46], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [2054, 3, 7, 3.66], [12870, 1, 9, 3.96], [362, 2, 7, 1.58], [8672, 2, 14, 2.43], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 9, 3.27], [5165, 1, 7, 2.14], [21793, 1, 7, 2.17], [13028, 3, 7, 1.25], [7084, 3, 7, 2.06], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 1.98], [75, 2, 7, 0.89], [7005, 1, 7, 1.39], [3982, 3, 21, 2.58], [3981, 3, 21, 2.52], [33, 1, 7, 3.41], [142, 2, 9, 1.25], [20927, 1, 9, 2.82], [2912, 1, 7, 2.23], [6158, 2, 14, 1.75], [7887, 4, 9, 1.98], [5165, 2, 8, 1.6], [82, 2, 7, 1.27], [417, 2, 7, 0.93], [35, 1, 7, 3.32], [22316, 3, 9, 1.23], [214, 3, 14, 0.74], [11953, 1, 9, 0.9], [6497, 1, 9, 0.77], [61, 3, 7, 2.71], [229, 1, 7, 2.89], [192, 3, 27, 3.13], [11772, 1, 7, 2.54], [950, 1, 7, 0.73], [996, 2, 9, 3.33], [7567, 3, 7, 2.7], [11769, 1, 7, 1.85], [5946, 1, 7, 1.02], [346, 3, 7, 1.97], [6496, 1, 7, 2.09], [4176, 4, 9, 3.49], [972, 3, 14, 3.54], [39, 1, 7, 1.79], [74, 1, 7, 4.19], [411, 2, 7, 1.73], [7573, 1, 11, 4.14], [8677, 3, 7, 2.82], [12721, 2, 7, 2.09], [37, 1, 7, 1.52], [4253, 1, 7, 1.41], [2436, 4, 7, 0.85], [22317, 3, 9, 1.42], [2912, 2, 8, 1.8], [2104, 3, 10, 2.87], [1413, 15, 7, 1.12], [12212, 29, 7, 0.94], [336, 15, 7, 1.53], [1277, 1, 7, 1.25], [201, 3, 7, 2.61], [345, 3, 7, 1.94], [11085, 2, 8, 3.16], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 2.96], [823, 1, 7, 1.08], [3, 2, 7, 2.43], [8673, 2, 7, 4.12], [22247, 2, 7, 3.69], [38, 1, 7, 1.27], [8676, 2, 7, 1.94], [10631, 2, 11, 2.59], [9, 1, 7, 0.69], [2805, 137, 7, 3.07], [10408, 10, 8, 3.22], [3577, 25, 7, 1.02], [3048, 3, 7, 2.5], [10388, 2, 7, 1.16], [1414, 15, 7, 1.0], [10936, 2, 7, 2.38], [13928, 1, 7, 2.18], [9081, 3, 16, 1.41], [11812, 1, 7, 0.9], [346, 1, 7, 1.96], [20498, 3, 8, 1.25], [9491, 21, 16, 1.06], [13244, 1, 7, 0.87], [4076, 3, 7, 2.54], [161, 3, 8, 4.87], [11814, 1, 7, 0.92], [9372, 1, 7, 4.23], [10407, 10, 10, 3.57], [12764, 2, 12, 1.71], [491, 10, 8, 3.21], [1523, 1, 7, 0.85], [972, 1, 7, 1.51], [11089, 1, 7, 3.33], [3576, 25, 7, 1.44], [61, 3, 223, 3.52], [229, 1, 83, 3.7], [192, 3, 1452, 4.58], [11772, 1, 232, 3.35], [950, 1, 64, 1.54], [996, 2, 244, 5.2], [7567, 3, 75, 3.5], [11769, 1, 175, 2.66], [5946, 1, 128, 2.07], [346, 3, 618, 2.83], [6496, 1, 43, 2.9], [4176, 4, 492, 5.21], [39, 1, 114, 3.74], [74, 1, 203, 5.23], [411, 2, 111, 2.54], [7573, 1, 375, 4.95], [8677, 3, 295, 4.51], [12721, 2, 308, 2.89], [37, 1, 114, 3.22], [4253, 1, 177, 2.46], [2436, 4, 114, 1.9], [22317, 3, 323, 3.38], [2912, 2, 394, 2.61], [2104, 3, 355, 3.68], [12212, 29, 122, 1.99], [336, 15, 110, 3.22], [1277, 1, 196, 2.19], [201, 3, 304, 4.31], [345, 3, 304, 2.92], [11085, 2, 548, 5.15], [21269, 3, 299, 6.0], [13023, 3, 602, 3.48], [823, 1, 43, 1.89], [3, 2, 122, 3.8], [8673, 2, 301, 4.93], [22247, 2, 292, 5.1], [38, 1, 120, 2.08], [8676, 2, 294, 2.99], [9, 1, 35, 1.74], [2805, 137, 186, 3.88], [10408, 10, 824, 4.03], [3577, 25, 95, 1.83], [3048, 3, 277, 3.72], [10388, 2, 237, 1.97], [1414, 15, 24, 2.03], [10936, 2, 144, 3.19], [13928, 1, 50, 2.99], [9081, 3, 520, 2.21], [11812, 1, 258, 1.7], [346, 1, 154, 3.01], [20498, 3, 631, 2.07], [9491, 21, 2394, 1.89], [13244, 1, 54, 1.68], [4076, 3, 205, 3.35], [161, 3, 730, 5.94], [11814, 1, 243, 1.73], [9372, 1, 247, 5.04], [10407, 10, 1232, 4.39], [12764, 2, 758, 3.42], [491, 10, 463, 4.01], [1523, 1, 51, 1.66], [972, 1, 100, 2.55], [11089, 1, 183, 4.14], [3576, 25, 109, 2.25]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [362, 2, 7, 1.46], [8650, 2, 7, 2.38], [5491, 2, 14, 0.77], [361, 2, 7, 0.77], [5493, 2, 7, 1.28], [589, 2, 9, 1.2], [8672, 2, 18, 2.15], [11685, 2, 9, 2.81], [417, 2, 7, 0.71], [6935, 2, 28, 3.99], [205, 2, 7, 0.69], [11681, 2, 13, 5.0], [11838, 2, 9, 1.27], [12721, 2, 14, 1.48], [248, 1, 7, 0.98], [11837, 2, 7, 1.12], [142, 2, 7, 0.73], [6936, 2, 9, 2.64], [2778, 2, 11, 1.59], [1446, 2, 11, 0.61], [8676, 2, 7, 1.7], [615, 2, 7, 1.42], [21793, 1, 8, 4.09], [305, 2, 9, 1.94], [593, 2, 10, 0.66], [22247, 2, 7, 1.93], [11835, 2, 7, 0.92], [616, 2, 7, 1.31], [411, 2, 7, 0.83], [990, 2, 7, 0.73], [8675, 2, 11, 2.44], [10574, 3, 9, 2.5], [145, 2, 7, 2.25], [1429, 2, 7, 0.9], [6158, 2, 10, 2.15], [10149, 3, 21, 1.49], [3495, 3, 26, 2.15], [2050, 3, 8, 1.22], [146, 2, 7, 1.72], [88, 10, 20, 3.07], [2054, 3, 10, 2.04], [75, 2, 7, 3.23], [10993, 2, 9, 1.25], [7885, 4, 11, 1.67], [144, 2, 7, 2.25], [7705, 2, 7, 2.74], [2424, 29, 7, 3.81], [346, 3, 10, 2.81], [2423, 80, 7, 3.0], [2859, 15, 7, 1.4], [7704, 2, 7, 2.74], [61, 3, 7, 0.69], [2423, 29, 7, 3.22], [9126, 1, 7, 2.18], [335, 3, 17, 0.93], [5165, 1, 7, 1.98], [2424, 80, 7, 3.81], [13028, 3, 7, 1.96], [201, 3, 9, 2.41], [346, 1, 7, 2.81], [214, 3, 15, 3.57], [60, 3, 8, 3.51], [1519, 3, 16, 0.67], [13023, 3, 8, 2.65], [308, 1, 9, 2.95], [1414, 15, 7, 0.81], [13034, 3, 10, 2.45], [2703, 3, 7, 3.36], [345, 3, 7, 0.94], [6494, 1, 7, 0.89], [7004, 1, 7, 1.27], [410, 1, 7, 1.0], [11770, 1, 7, 3.5], [7706, 2, 11, 2.62], [432, 3, 7, 2.39], [5208, 3, 11, 1.15], [3430, 15, 7, 1.66], [6952, 1, 7, 1.41], [13928, 1, 7, 2.28], [12373, 1, 11, 3.51], [20927, 1, 7, 2.02], [11954, 1, 7, 0.85], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [2331, 1, 7, 3.16], [3893, 1, 7, 1.78], [3891, 1, 7, 1.78], [114, 3, 7, 1.1], [11811, 1, 7, 1.93], [105, 3, 7, 0.92], [7886, 4, 9, 1.14], [3981, 3, 13, 0.91], [1274, 1, 7, 1.6], [952, 4, 7, 3.68], [13033, 3, 7, 1.39], [944, 15, 7, 0.71], [9690, 1, 7, 2.13], [11089, 1, 7, 2.23], [3, 2, 7, 3.85], [1490, 1, 7, 0.85], [1309, 1, 7, 1.41], [5946, 1, 7, 1.78], [5584, 3, 7, 2.72], [8898, 3, 7, 1.42], [5812, 3, 7, 2.91], [5733, 2, 8, 2.41], [7708, 2, 7, 2.62], [10407, 10, 10, 3.72], [10410, 10, 10, 3.76], [95, 3, 13, 4.5], [3028, 3, 7, 0.85], [3478, 2, 7, 1.93], [8274, 3, 7, 2.79], [7703, 2, 7, 2.62], [9342, 2, 7, 0.93], [10398, 2, 7, 2.62], [20555, 2, 7, 1.5], [3889, 1, 7, 1.78], [21003, 2, 7, 3.61], [13258, 29, 13, 3.65], [22558, 3, 7, 4.38], [9082, 3, 23, 2.83], [3980, 4, 7, 2.76], [10406, 10, 12, 3.4], [6497, 1, 7, 3.33], [20969, 3, 7, 1.66], [1339, 3, 19, 1.0], [963, 3, 7, 2.7], [192, 3, 21, 1.64], [5165, 2, 8, 1.99], [20196, 2, 7, 3.8], [10516, 3, 7, 3.73], [11603, 2, 7, 2.64], [2703, 3, 362, 4.32], [345, 3, 358, 1.9], [6494, 1, 62, 1.85], [7004, 1, 89, 2.23], [410, 1, 125, 1.96], [11770, 1, 245, 4.45], [7706, 2, 199, 4.84], [432, 3, 352, 3.35], [5208, 3, 598, 2.1], [3430, 15, 82, 2.62], [6952, 1, 213, 2.37], [13928, 1, 56, 3.24], [12373, 1, 636, 4.47], [20927, 1, 94, 2.98], [11954, 1, 238, 1.81], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [2331, 1, 138, 4.12], [3893, 1, 146, 2.73], [3891, 1, 146, 2.73], [114, 3, 276, 3.23], [11811, 1, 536, 2.9], [105, 3, 291, 1.88], [7886, 4, 57, 2.53], [3981, 3, 1999, 1.89], [1274, 1, 98, 2.56], [952, 4, 87, 4.63], [13033, 3, 667, 2.57], [944, 15, 52, 1.67], [9690, 1, 89, 3.09], [11089, 1, 203, 3.19], [3, 2, 140, 4.81], [1490, 1, 61, 1.81], [1309, 1, 61, 2.37], [5946, 1, 146, 2.73], [5584, 3, 272, 3.68], [8898, 3, 331, 2.37], [5812, 3, 703, 3.88], [5733, 2, 47, 3.33], [7708, 2, 210, 3.57], [10407, 10, 1385, 4.67], [10410, 10, 1385, 4.71], [95, 3, 1176, 5.48], [3028, 3, 196, 1.81], [3478, 2, 90, 2.89], [7703, 2, 210, 3.57], [9342, 2, 553, 1.9], [10398, 2, 173, 3.58], [20555, 2, 68, 2.46], [3889, 1, 146, 2.73], [21003, 2, 337, 4.57], [13258, 29, 46, 4.61], [22558, 3, 557, 5.34], [9082, 3, 2915, 3.83], [3980, 4, 571, 3.72], [10406, 10, 2088, 4.36], [6497, 1, 42, 4.28], [20969, 3, 700, 2.62], [1339, 3, 2058, 1.94], [963, 3, 473, 3.66], [192, 3, 1686, 2.6], [5165, 2, 451, 2.94], [20196, 2, 337, 4.75], [10516, 3, 679, 4.68], [11603, 2, 126, 3.5]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 21, 1.08], [6936, 2, 9, 2.9], [8672, 2, 18, 2.18], [305, 2, 9, 1.46], [615, 2, 11, 1.23], [145, 2, 7, 2.25], [12721, 2, 11, 1.74], [130, 1, 7, 0.69], [2327, 2, 7, 1.82], [361, 2, 7, 0.77], [2328, 2, 7, 2.1], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [11681, 2, 9, 2.3], [141, 2, 7, 0.77], [362, 2, 7, 1.58], [205, 2, 9, 0.99], [5491, 2, 14, 0.77], [8673, 2, 14, 2.44], [8676, 2, 9, 1.6], [144, 2, 9, 2.32], [8650, 2, 9, 4.63], [417, 2, 7, 0.77], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 9, 4.67], [2423, 29, 7, 2.93], [6497, 1, 9, 0.6], [6097, 29, 9, 4.96], [11836, 2, 9, 1.44], [990, 2, 7, 1.0], [2424, 29, 7, 2.34], [593, 2, 8, 3.23], [6098, 80, 7, 4.37], [523, 2, 7, 1.46], [11739, 2, 7, 1.17], [944, 15, 7, 0.77], [88, 10, 19, 2.15], [10993, 2, 7, 1.0], [13260, 29, 7, 2.28], [8915, 2, 7, 1.5], [326, 2, 7, 0.96], [75, 2, 7, 3.0], [1413, 15, 7, 0.96], [10574, 3, 10, 2.38], [335, 3, 17, 3.44], [411, 2, 7, 1.77], [1339, 1, 7, 0.83], [1050, 2, 7, 0.73], [947, 15, 7, 0.98], [1339, 3, 21, 0.65], [151, 1, 7, 1.25], [6496, 1, 7, 2.52], [2859, 15, 7, 1.7], [7704, 2, 9, 4.35], [346, 1, 7, 0.83], [214, 3, 15, 3.57], [13258, 29, 13, 2.82], [345, 3, 7, 0.96], [10149, 3, 21, 1.75], [1490, 1, 7, 4.96], [346, 3, 8, 0.82], [1243, 2, 7, 2.39], [7004, 1, 7, 1.58], [11738, 2, 7, 1.81], [201, 3, 7, 3.31], [22558, 3, 46, 3.38], [432, 3, 7, 2.21], [2438, 1, 7, 1.99], [7705, 2, 9, 4.35], [5208, 3, 11, 1.3], [2912, 1, 7, 1.83], [229, 1, 7, 2.59], [61, 3, 7, 0.85], [963, 3, 7, 0.76], [10407, 10, 10, 3.72], [7706, 2, 9, 4.35], [2331, 1, 7, 2.02], [21793, 1, 8, 5.0], [13928, 1, 7, 2.28], [12229, 2, 7, 1.12], [3478, 2, 7, 1.93], [1548, 1, 7, 2.1], [2703, 3, 7, 4.45], [11844, 2, 7, 1.23], [13258, 25, 7, 2.31], [11490, 1, 7, 0.87], [114, 3, 7, 1.05], [7036, 1, 7, 0.87], [8938, 2, 7, 0.83], [9126, 1, 7, 2.29], [11687, 2, 7, 1.29], [10408, 10, 10, 3.27], [956, 2, 7, 1.35], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [410, 1, 7, 1.0], [11159, 1, 14, 1.67], [7708, 2, 7, 3.7], [2438, 2, 8, 2.12], [11690, 2, 7, 1.01], [9065, 2, 7, 1.04], [12870, 1, 7, 1.89], [9760, 29, 7, 1.77], [11161, 1, 10, 3.62], [11689, 2, 7, 1.27], [5976, 1, 7, 2.23], [7005, 1, 7, 2.04], [21781, 2, 7, 0.9], [1274, 1, 7, 3.81], [2805, 137, 10, 3.39], [20927, 1, 7, 1.25], [12373, 1, 11, 3.51], [2991, 3, 7, 4.76], [1699, 3, 7, 2.27], [5584, 3, 7, 2.72], [9209, 29, 7, 2.36], [3495, 3, 21, 2.56], [9690, 1, 7, 2.13], [7007, 1, 7, 2.46], [9239, 29, 7, 0.92], [11811, 1, 7, 1.93], [8600, 1, 7, 1.84], [9239, 25, 7, 0.92], [247, 1, 7, 2.96], [5769, 3, 10, 0.93], [9491, 21, 16, 3.09], [5076, 1, 7, 3.75], [13198, 29, 7, 2.55], [12764, 2, 10, 1.43], [9372, 1, 7, 4.36], [5869, 1, 7, 4.08], [7702, 2, 45, 2.47], [95, 3, 13, 0.77], [5208, 3, 669, 2.26], [2912, 1, 57, 2.79], [229, 1, 97, 3.55], [61, 3, 251, 1.81], [963, 3, 486, 1.72], [10407, 10, 1385, 4.67], [7706, 2, 176, 5.37], [2331, 1, 139, 2.98], [21793, 1, 259, 6.0], [13928, 1, 56, 3.24], [12229, 2, 171, 3.15], [3478, 2, 85, 2.89], [1548, 1, 111, 3.28], [2703, 3, 327, 5.63], [11844, 2, 327, 2.2], [13258, 25, 93, 3.26], [11490, 1, 130, 1.83], [114, 3, 290, 2.02], [7036, 1, 151, 1.82], [8938, 2, 229, 1.79], [9126, 1, 83, 3.25], [11687, 2, 359, 2.25], [10408, 10, 909, 4.23], [956, 2, 122, 2.31], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [410, 1, 125, 1.96], [11159, 1, 583, 2.63], [7708, 2, 198, 4.66], [2438, 2, 740, 3.07], [11690, 2, 359, 1.96], [9065, 2, 359, 1.99], [12870, 1, 165, 2.84], [9760, 29, 85, 2.73], [11161, 1, 585, 4.57], [11689, 2, 359, 2.23], [5976, 1, 184, 3.19], [7005, 1, 89, 3.0], [21781, 2, 124, 1.86], [1274, 1, 95, 4.77], [2805, 137, 208, 4.36], [20927, 1, 94, 2.21], [12373, 1, 636, 4.47], [2991, 3, 185, 5.72], [1699, 3, 248, 3.23], [5584, 3, 272, 3.68], [9209, 29, 39, 3.32], [3495, 3, 1147, 3.51], [9690, 1, 89, 3.09], [7007, 1, 31, 3.18], [9239, 29, 34, 1.88], [11811, 1, 536, 2.9], [8600, 1, 172, 2.8], [9239, 25, 103, 1.88], [247, 1, 103, 3.92], [5769, 3, 1242, 2.13], [9491, 21, 2455, 4.07], [5076, 1, 151, 4.71], [13198, 29, 73, 3.51], [12764, 2, 836, 2.87], [9372, 1, 271, 5.32], [5869, 1, 243, 5.04], [7702, 2, 209, 3.43], [95, 3, 1345, 1.73]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 16, 1.69], [362, 2, 7, 1.44], [361, 2, 7, 1.6], [130, 1, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 21, 3.52], [8676, 2, 7, 1.6], [2049, 3, 21, 0.73], [417, 2, 7, 1.6], [3, 2, 7, 2.47], [22247, 2, 7, 1.83], [6936, 2, 9, 1.65], [523, 2, 7, 1.52], [305, 2, 7, 1.12], [8650, 2, 9, 3.19], [2328, 2, 9, 2.57], [11739, 2, 7, 1.31], [8648, 2, 7, 3.25], [2776, 2, 7, 2.29], [2327, 2, 7, 1.48], [616, 2, 9, 2.57], [411, 2, 7, 1.48], [8674, 2, 7, 1.54], [2423, 29, 7, 2.76], [589, 2, 7, 1.94], [6497, 1, 9, 1.1], [2805, 137, 10, 3.93], [11835, 2, 7, 1.19], [6097, 80, 9, 4.96], [146, 2, 7, 2.25], [326, 2, 7, 1.48], [6097, 29, 7, 1.85], [583, 2, 7, 1.39], [2423, 80, 7, 2.71], [10149, 3, 21, 3.22], [145, 2, 7, 2.25], [11836, 2, 7, 1.29], [144, 2, 7, 2.25], [75, 2, 7, 3.0], [10574, 3, 10, 2.88], [6496, 1, 7, 2.52], [308, 1, 13, 1.91], [1413, 15, 7, 0.83], [2054, 3, 7, 2.44], [2422, 29, 7, 4.27], [1243, 2, 7, 2.04], [21793, 1, 8, 5.0], [1886, 2, 7, 0.85], [8915, 2, 7, 1.5], [944, 15, 7, 0.77], [247, 1, 7, 2.83], [1490, 1, 7, 4.96], [2859, 15, 7, 1.4], [335, 3, 17, 2.53], [1414, 15, 7, 0.92], [201, 3, 9, 0.79], [13928, 1, 7, 2.49], [3478, 2, 7, 1.93], [6158, 2, 11, 2.4], [7084, 3, 7, 1.83], [3934, 5, 12, 2.69], [11489, 1, 7, 0.79], [12526, 2, 7, 3.02], [1703, 2, 7, 1.67], [5812, 3, 7, 3.84], [11767, 1, 7, 2.2], [61, 3, 7, 0.85], [94, 4, 7, 2.68], [186, 3, 12, 1.06], [214, 3, 15, 3.57], [1519, 3, 15, 0.72], [1050, 2, 7, 0.71], [9491, 21, 16, 2.74], [11490, 1, 7, 0.67], [1309, 1, 7, 1.41], [2821, 3, 16, 0.91], [10398, 2, 7, 1.37], [5813, 3, 7, 3.84], [192, 3, 21, 3.71], [8898, 3, 7, 1.18], [8599, 1, 7, 1.36], [5811, 3, 8, 4.0], [229, 1, 7, 2.74], [11771, 1, 7, 2.99], [1699, 3, 7, 2.95], [2438, 2, 8, 2.12], [2991, 3, 7, 4.73], [3495, 3, 21, 2.56], [11769, 1, 7, 2.2], [8943, 3, 7, 0.75], [11811, 1, 7, 1.93], [1339, 3, 21, 0.65], [13928, 2, 7, 2.28], [12764, 2, 8, 1.16], [19687, 1, 7, 2.33], [7036, 1, 7, 0.87], [346, 3, 8, 0.74], [13260, 29, 7, 2.46], [22573, 2, 7, 1.91], [10124, 1, 7, 4.18], [9690, 1, 7, 2.13], [5584, 3, 7, 5.0], [3334, 5, 7, 3.93], [18964, 1, 7, 2.18], [7004, 1, 7, 1.44], [1277, 1, 7, 0.92], [2438, 1, 7, 1.99], [20927, 1, 7, 1.18], [1523, 1, 7, 2.51], [4001, 3, 17, 2.0], [11886, 2, 7, 1.44], [1701, 2, 7, 0.96], [45, 2, 7, 4.64], [11678, 1, 7, 2.86], [21269, 3, 7, 4.2], [8286, 2, 8, 1.09], [9373, 5, 7, 5.0], [10181, 26, 8, 0.81], [23031, 3, 7, 3.25], [3984, 3, 8, 1.07], [10516, 3, 7, 2.5], [11677, 1, 7, 2.95], [346, 1, 7, 0.83], [1339, 1, 7, 0.92], [3979, 3, 8, 1.56], [19924, 2, 7, 0.79], [23032, 3, 7, 2.86], [9069, 1, 7, 2.13], [9065, 2, 7, 1.04], [5976, 1, 7, 2.23], [8285, 2, 8, 0.85], [7005, 1, 7, 2.33], [11767, 1, 192, 3.15], [61, 3, 251, 1.81], [94, 4, 141, 3.64], [186, 3, 790, 2.01], [1519, 3, 1943, 1.67], [9491, 21, 2591, 3.7], [11490, 1, 130, 1.63], [1309, 1, 61, 2.37], [2821, 3, 1510, 2.09], [10398, 2, 175, 2.33], [5813, 3, 700, 4.8], [8898, 3, 332, 2.14], [8599, 1, 173, 2.31], [5811, 3, 700, 4.96], [229, 1, 96, 3.7], [11771, 1, 246, 3.94], [1699, 3, 247, 3.91], [2438, 2, 740, 3.07], [2991, 3, 179, 6.0], [3495, 3, 1147, 3.51], [11769, 1, 192, 3.15], [8943, 3, 457, 1.7], [11811, 1, 536, 2.9], [1339, 3, 1955, 1.88], [13928, 2, 28, 3.24], [12764, 2, 880, 2.11], [19687, 1, 36, 3.29], [7036, 1, 151, 1.82], [346, 3, 736, 1.71], [13260, 29, 81, 3.64], [22573, 2, 84, 2.87], [10124, 1, 119, 5.14], [9690, 1, 89, 3.09], [5584, 3, 258, 6.0], [3334, 5, 212, 4.89], [18964, 1, 80, 3.14], [7004, 1, 94, 2.4], [1277, 1, 233, 1.88], [2438, 1, 62, 2.95], [20927, 1, 94, 2.14], [1523, 1, 56, 3.47], [4001, 3, 958, 2.96], [11886, 2, 229, 2.4], [1701, 2, 201, 1.92], [45, 2, 125, 5.6], [11678, 1, 532, 3.82], [21269, 3, 339, 5.16], [8286, 2, 566, 2.04], [9373, 5, 103, 6.0], [10181, 26, 165, 1.77], [23031, 3, 486, 4.21], [3984, 3, 1971, 2.03], [10516, 3, 693, 3.45], [11677, 1, 530, 3.91], [346, 1, 184, 1.79], [1339, 1, 86, 1.88], [3979, 3, 958, 2.52], [19924, 2, 77, 1.75], [23032, 3, 614, 3.82], [9069, 1, 142, 3.09], [9065, 2, 359, 1.99], [5976, 1, 184, 3.19], [8285, 2, 573, 1.8], [7005, 1, 42, 3.14]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 0.88], [2328, 2, 14, 1.85], [130, 1, 7, 0.69], [8650, 2, 9, 2.32], [2778, 2, 16, 1.61], [5491, 2, 9, 0.74], [8672, 2, 15, 1.94], [143, 2, 7, 0.93], [362, 2, 7, 1.05], [145, 2, 7, 1.91], [6936, 2, 9, 3.12], [5493, 2, 9, 2.06], [361, 2, 7, 1.86], [417, 2, 7, 1.86], [11681, 2, 9, 2.3], [205, 2, 7, 1.08], [589, 2, 9, 0.66], [75, 2, 9, 1.92], [11737, 2, 7, 1.75], [146, 2, 7, 1.1], [523, 2, 7, 1.21], [12721, 2, 13, 3.3], [8853, 2, 7, 3.7], [8673, 2, 27, 2.2], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [308, 1, 11, 3.94], [8915, 2, 7, 2.76], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [8675, 2, 8, 2.64], [88, 10, 26, 1.79], [434, 2, 9, 1.04], [11739, 2, 7, 1.5], [142, 2, 7, 1.86], [8676, 2, 7, 4.16], [2424, 29, 7, 2.34], [6158, 2, 12, 1.79], [7704, 2, 9, 3.71], [2423, 29, 7, 2.29], [11738, 2, 7, 1.52], [11836, 2, 11, 1.36], [2424, 80, 7, 2.57], [1413, 15, 7, 1.24], [7705, 2, 7, 4.08], [2423, 80, 7, 2.23], [944, 15, 7, 1.02], [3, 2, 9, 2.19], [3478, 2, 7, 2.95], [7004, 1, 7, 2.58], [1414, 15, 7, 0.81], [2859, 15, 7, 2.81], [74, 1, 7, 2.15], [10149, 3, 21, 1.49], [6497, 1, 7, 0.87], [3429, 15, 7, 0.79], [10993, 2, 9, 1.25], [13928, 1, 7, 2.49], [346, 1, 7, 2.81], [18964, 1, 7, 2.18], [11919, 1, 7, 1.14], [346, 3, 8, 3.06], [60, 3, 8, 3.51], [13260, 29, 7, 2.5], [7036, 1, 7, 3.14], [94, 4, 7, 4.04], [1339, 3, 21, 0.65], [6952, 1, 7, 3.06], [3893, 1, 7, 2.6], [2991, 3, 7, 4.18], [13034, 3, 11, 2.28], [411, 2, 7, 1.94], [11089, 1, 7, 2.23], [1050, 2, 7, 0.66], [3891, 1, 7, 2.6], [1339, 1, 7, 0.83], [14037, 3, 9, 1.91], [7707, 2, 7, 2.41], [21793, 1, 8, 4.09], [563, 2, 7, 1.19], [8274, 3, 7, 1.6], [6630, 3, 7, 3.55], [3889, 1, 7, 2.6], [2912, 1, 9, 1.48], [1243, 2, 7, 2.33], [1490, 1, 7, 4.96], [7708, 2, 7, 3.01], [192, 3, 26, 4.24], [11581, 29, 7, 1.89], [9126, 1, 7, 2.41], [7886, 4, 9, 0.87], [13023, 3, 8, 0.8], [3495, 3, 21, 2.56], [5208, 3, 11, 1.4], [5940, 3, 7, 2.56], [11490, 1, 7, 0.92], [1309, 1, 7, 1.41], [1049, 2, 7, 0.69], [229, 1, 7, 2.59], [5165, 1, 7, 1.67], [22558, 3, 7, 4.38], [12229, 2, 7, 1.12], [13033, 3, 7, 1.68], [2331, 1, 7, 3.54], [201, 3, 7, 1.16], [2805, 137, 10, 4.22], [247, 1, 7, 0.97], [83, 2, 7, 1.44], [1274, 1, 7, 2.25], [6496, 1, 7, 2.98], [332, 2, 7, 1.19], [214, 3, 15, 3.57], [202, 2, 7, 1.19], [951, 4, 7, 3.07], [8898, 3, 7, 1.42], [20555, 2, 7, 1.12], [1703, 2, 7, 5.0], [9690, 1, 7, 2.13], [11770, 1, 7, 3.89], [335, 3, 21, 2.53], [942, 3, 7, 2.26], [7005, 1, 7, 1.94], [5812, 3, 7, 2.49], [114, 3, 7, 3.82], [21269, 3, 7, 5.0], [3934, 5, 12, 2.69], [8635, 3, 7, 1.6], [9827, 3, 7, 0.75], [10406, 10, 12, 3.64], [4940, 1, 7, 0.81], [186, 3, 12, 2.32], [1886, 2, 9, 0.85], [10527, 3, 13, 2.94], [10411, 10, 10, 3.51], [7885, 4, 7, 1.08], [9491, 21, 16, 2.74], [6952, 1, 213, 5.34], [3893, 1, 145, 3.56], [2991, 3, 179, 6.0], [13034, 3, 665, 4.56], [411, 2, 121, 3.53], [11089, 1, 203, 3.19], [3891, 1, 145, 3.56], [1339, 1, 81, 2.01], [7707, 2, 198, 3.72], [21793, 1, 282, 5.05], [563, 2, 82, 2.37], [6630, 3, 111, 4.51], [3889, 1, 145, 3.56], [2912, 1, 13, 2.77], [1243, 2, 111, 4.11], [1490, 1, 58, 5.92], [7708, 2, 209, 3.97], [192, 3, 1582, 5.48], [11581, 29, 71, 2.85], [9126, 1, 83, 3.37], [7886, 4, 162, 2.05], [13023, 3, 714, 1.76], [3495, 3, 1147, 3.51], [5208, 3, 149, 2.33], [5940, 3, 282, 3.52], [11490, 1, 130, 1.88], [1309, 1, 61, 2.37], [229, 1, 97, 3.55], [5165, 1, 57, 2.63], [22558, 3, 557, 5.34], [12229, 2, 171, 3.15], [13033, 3, 700, 2.64], [2331, 1, 138, 4.5], [201, 3, 334, 2.34], [2805, 137, 211, 5.18], [247, 1, 104, 1.92], [83, 2, 60, 2.4], [1274, 1, 97, 3.21], [6496, 1, 44, 4.35], [332, 2, 82, 2.37], [214, 3, 253, 4.28], [202, 2, 82, 2.37], [951, 4, 111, 4.03], [8898, 3, 331, 2.37], [20555, 2, 68, 2.08], [1703, 2, 188, 6.0], [9690, 1, 89, 3.09], [11770, 1, 249, 4.85], [942, 3, 351, 3.22], [7005, 1, 94, 2.9], [5812, 3, 661, 4.78], [114, 3, 95, 4.64], [21269, 3, 332, 6.0], [3934, 5, 619, 3.65], [9827, 3, 98, 1.93], [10406, 10, 1983, 4.6], [4940, 1, 144, 1.77], [186, 3, 782, 3.28], [1886, 2, 177, 2.03], [10527, 3, 1029, 3.91], [10411, 10, 909, 4.47], [7885, 4, 74, 1.89], [9491, 21, 2591, 3.7]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 12, 0.75], [2327, 2, 9, 1.37], [2778, 2, 14, 1.33], [11681, 2, 30, 4.17], [6936, 2, 13, 3.9], [362, 2, 7, 1.69], [2328, 2, 9, 1.85], [205, 2, 7, 0.9], [130, 1, 7, 0.69], [2775, 2, 7, 1.33], [2049, 3, 10, 0.82], [8649, 2, 7, 2.82], [2776, 2, 7, 1.46], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [206, 2, 7, 2.29], [5493, 2, 7, 1.16], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [7004, 1, 7, 1.02], [21793, 1, 7, 3.22], [413, 1, 7, 1.56], [12350, 1, 7, 4.69], [1124, 2, 7, 1.73], [7036, 1, 7, 2.95], [5165, 1, 7, 2.31], [12353, 1, 7, 4.69], [12349, 1, 9, 3.94], [145, 2, 7, 2.25], [434, 2, 7, 1.26], [248, 1, 7, 0.92], [201, 3, 11, 3.77], [6952, 1, 11, 3.9], [6097, 80, 7, 5.0], [10993, 2, 7, 1.66], [345, 3, 9, 1.93], [146, 2, 7, 2.25], [144, 2, 7, 1.72], [7084, 3, 7, 3.68], [11770, 1, 9, 0.74], [2050, 3, 7, 2.76], [12352, 1, 7, 4.69], [3891, 1, 7, 1.46], [2912, 1, 7, 2.23], [7005, 1, 7, 1.1], [998, 2, 7, 1.56], [997, 2, 7, 1.66], [432, 3, 7, 2.04], [3893, 1, 7, 1.42], [5165, 2, 12, 1.23], [12870, 1, 7, 2.29], [9372, 1, 7, 3.52], [6097, 29, 7, 5.0], [2424, 80, 7, 1.71], [20927, 1, 7, 0.98], [11772, 1, 7, 3.25], [6098, 80, 9, 4.06], [7885, 4, 7, 1.67], [10149, 3, 24, 1.73], [11089, 1, 7, 2.01], [3334, 5, 7, 2.91], [10574, 3, 8, 0.98], [12351, 1, 7, 2.23], [1492, 1, 7, 1.33], [4032, 29, 7, 1.54], [346, 3, 7, 3.55], [3889, 1, 7, 2.23], [1700, 2, 7, 1.23], [12304, 1, 7, 4.18], [1519, 3, 20, 0.94], [3576, 25, 7, 3.39], [13028, 3, 7, 4.42], [2912, 2, 8, 2.37], [214, 3, 15, 1.34], [1490, 1, 7, 1.39], [13034, 3, 7, 4.12], [972, 3, 7, 1.94], [229, 1, 7, 4.24], [11583, 29, 7, 0.94], [161, 3, 8, 4.24], [11426, 25, 7, 0.81], [5151, 2, 7, 0.87], [346, 1, 7, 3.55], [2331, 1, 7, 1.09], [8120, 3, 7, 3.15], [11490, 1, 7, 1.25], [995, 2, 7, 2.23], [3478, 2, 7, 1.19], [5076, 1, 7, 0.99], [5812, 3, 10, 4.4], [13893, 2, 7, 4.11], [10, 2, 7, 0.75], [9289, 29, 7, 2.08], [1309, 1, 7, 0.69], [410, 1, 7, 1.61], [12764, 2, 9, 1.46], [13023, 3, 10, 2.28], [2160, 68, 7, 1.96], [3575, 25, 7, 1.83], [2805, 137, 7, 2.91], [11404, 2, 7, 1.08], [3577, 25, 7, 1.0], [13280, 1, 7, 2.62], [75, 2, 7, 0.71], [2438, 2, 8, 2.12], [957, 2, 7, 2.0], [11814, 1, 7, 1.1], [11813, 1, 7, 2.91], [9069, 1, 7, 1.21], [9971, 2, 7, 2.19], [9967, 2, 7, 1.14], [11150, 2, 8, 0.79], [192, 3, 13, 3.54], [8943, 3, 7, 0.75], [9491, 21, 13, 2.59], [8283, 2, 8, 3.44], [5584, 3, 7, 5.0], [22317, 3, 7, 0.85], [24257, 1, 7, 2.78], [13249, 29, 7, 2.16], [9964, 2, 7, 3.08], [21697, 3, 7, 0.87], [9081, 3, 20, 1.8], [4586, 10, 17, 1.5], [105, 3, 7, 1.6], [4076, 3, 7, 2.73], [10609, 1, 7, 1.79], [9965, 2, 7, 2.19], [1413, 15, 7, 3.17], [335, 3, 15, 3.16], [10407, 10, 12, 3.8], [346, 3, 703, 4.43], [3889, 1, 146, 3.11], [1700, 2, 84, 2.11], [12304, 1, 125, 5.06], [1519, 3, 1827, 2.61], [3576, 25, 112, 4.27], [13028, 3, 164, 5.3], [2912, 2, 445, 3.24], [214, 3, 761, 2.22], [1490, 1, 59, 2.27], [13034, 3, 665, 5.21], [972, 3, 665, 2.81], [229, 1, 95, 5.12], [11583, 29, 66, 1.82], [161, 3, 840, 5.12], [11426, 25, 133, 1.91], [5151, 2, 27, 1.97], [346, 1, 176, 4.43], [2331, 1, 137, 1.97], [8120, 3, 277, 4.02], [11490, 1, 92, 2.35], [995, 2, 287, 3.11], [3478, 2, 89, 2.07], [5076, 1, 152, 1.87], [5812, 3, 658, 5.76], [13893, 2, 316, 4.99], [10, 2, 25, 1.24], [9289, 29, 70, 2.96], [1309, 1, 61, 1.57], [410, 1, 25, 2.1], [12764, 2, 871, 2.34], [13023, 3, 665, 4.16], [2160, 68, 155, 2.84], [3575, 25, 118, 2.71], [2805, 137, 212, 3.79], [11404, 2, 115, 2.75], [3577, 25, 98, 2.1], [13280, 1, 375, 3.5], [75, 2, 163, 1.81], [2438, 2, 733, 3.01], [957, 2, 25, 3.03], [11814, 1, 265, 1.98], [11813, 1, 367, 3.79], [9069, 1, 137, 2.31], [9971, 2, 317, 3.07], [9967, 2, 317, 2.02], [11150, 2, 414, 1.67], [192, 3, 1512, 4.6], [8943, 3, 136, 1.4], [9491, 21, 2566, 3.48], [8283, 2, 522, 4.32], [5584, 3, 266, 6.0], [22317, 3, 379, 1.73], [24257, 1, 45, 3.68], [13249, 29, 75, 3.04], [9964, 2, 317, 3.95], [21697, 3, 203, 1.97], [9081, 3, 565, 2.68], [4586, 10, 1732, 2.4], [105, 3, 286, 2.48], [4076, 3, 235, 3.61], [10609, 1, 335, 2.67], [9965, 2, 317, 3.07], [1413, 15, 92, 4.02], [335, 3, 304, 3.65], [10407, 10, 1372, 4.67]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 23, 4.55], [141, 2, 7, 2.37], [2049, 3, 16, 0.52], [205, 2, 9, 0.71], [12721, 2, 10, 1.78], [130, 1, 7, 0.98], [144, 2, 7, 0.94], [589, 2, 15, 0.55], [362, 2, 9, 2.65], [146, 2, 7, 1.67], [145, 2, 7, 0.91], [593, 2, 11, 2.33], [990, 2, 7, 1.04], [1777, 1, 7, 2.22], [8915, 2, 10, 0.95], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [6936, 2, 10, 2.57], [8650, 2, 7, 3.41], [22247, 2, 9, 2.35], [2778, 2, 7, 1.63], [1007, 2, 12, 0.66], [88, 10, 16, 1.98], [10, 2, 14, 2.05], [8677, 3, 8, 3.19], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [10825, 21, 13, 2.01], [11681, 2, 11, 2.92], [361, 2, 7, 1.5], [413, 1, 7, 1.89], [7004, 1, 9, 0.99], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [7084, 3, 7, 3.14], [411, 2, 7, 1.17], [308, 1, 7, 2.44], [410, 1, 7, 1.42], [6158, 2, 10, 2.87], [8938, 2, 8, 1.58], [8676, 2, 7, 1.94], [1124, 2, 12, 0.75], [432, 3, 7, 2.04], [167, 3, 9, 2.95], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [3495, 3, 26, 2.72], [7005, 1, 7, 0.99], [5081, 2, 12, 1.3], [94, 4, 7, 3.29], [9827, 3, 7, 1.13], [5812, 3, 8, 4.4], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [12870, 1, 9, 5.0], [2049, 1, 7, 2.01], [3891, 1, 7, 1.02], [168, 3, 9, 2.11], [6097, 29, 11, 4.7], [1504, 2, 11, 1.58], [335, 3, 22, 3.16], [6097, 80, 7, 4.71], [11737, 2, 9, 1.41], [95, 3, 21, 0.93], [6098, 29, 9, 4.12], [346, 1, 9, 1.11], [998, 2, 7, 3.14], [79, 1, 7, 0.98], [214, 3, 15, 0.99], [3980, 4, 7, 2.74], [20927, 1, 7, 1.75], [9069, 1, 9, 2.16], [22316, 3, 9, 1.22], [83, 2, 7, 0.85], [6098, 80, 7, 4.14], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [9760, 29, 7, 0.94], [1070, 7, 29, 2.72], [997, 2, 7, 2.84], [1622, 1, 9, 0.53], [14017, 3, 7, 1.29], [7567, 3, 9, 3.44], [13034, 3, 10, 2.73], [22554, 10, 15, 0.87], [13260, 29, 9, 2.4], [11116, 1, 9, 0.81], [1243, 2, 7, 1.52], [12924, 1, 9, 0.61], [22317, 3, 20, 1.6], [20498, 3, 10, 3.5], [5946, 1, 7, 1.02], [996, 2, 7, 4.17], [35, 1, 9, 2.6], [5086, 1, 11, 2.14], [5813, 3, 7, 2.04], [9691, 1, 7, 3.2], [995, 2, 7, 4.49], [1413, 15, 9, 0.75], [1080, 3, 7, 1.21], [952, 4, 7, 4.77], [11085, 2, 7, 0.86], [2424, 80, 7, 4.26], [8557, 3, 7, 2.36], [3049, 3, 7, 4.11], [1703, 2, 7, 2.72], [215, 4, 7, 5.0], [20486, 3, 12, 3.26], [39, 1, 7, 1.79], [3900, 3, 7, 2.68], [4076, 3, 7, 5.0], [9081, 3, 15, 3.06], [13023, 3, 8, 2.62], [8274, 3, 7, 1.02], [8943, 3, 7, 0.96], [34, 1, 7, 1.23], [20486, 1, 7, 2.87], [6497, 1, 7, 2.18], [8104, 1, 9, 0.75], [11510, 3, 10, 2.97], [2854, 21, 13, 1.09], [38, 1, 7, 2.24], [23611, 3, 9, 1.04], [3047, 3, 7, 1.93], [20969, 3, 7, 2.16], [1414, 15, 9, 0.56], [2878, 1, 7, 3.02], [114, 3, 7, 0.92], [12923, 1, 7, 0.96], [10529, 29, 7, 2.54], [95, 3, 1035, 3.11], [346, 1, 150, 2.73], [998, 2, 232, 4.15], [79, 1, 47, 2.0], [214, 3, 637, 1.87], [3980, 4, 498, 3.43], [20927, 1, 28, 2.16], [22316, 3, 312, 2.59], [83, 2, 53, 1.75], [20498, 1, 96, 4.1], [8898, 3, 274, 6.0], [9760, 29, 75, 1.62], [1070, 7, 580, 3.4], [997, 2, 232, 4.19], [1622, 1, 113, 1.18], [14017, 3, 195, 3.39], [7567, 3, 68, 4.57], [13034, 3, 577, 4.66], [22554, 10, 373, 1.77], [13260, 29, 71, 3.3], [11116, 1, 78, 1.71], [1243, 2, 102, 2.2], [12924, 1, 52, 3.1], [22317, 3, 311, 3.02], [20498, 3, 580, 4.18], [5946, 1, 121, 1.92], [996, 2, 232, 6.0], [35, 1, 110, 3.63], [5086, 1, 181, 4.29], [5813, 3, 580, 4.12], [9691, 1, 73, 4.81], [995, 2, 232, 6.0], [1413, 15, 96, 1.77], [1080, 3, 138, 1.89], [952, 4, 71, 5.45], [11085, 2, 573, 1.54], [2424, 80, 175, 4.94], [8557, 3, 195, 3.68], [3049, 3, 134, 5.77], [1703, 2, 159, 4.37], [215, 4, 39, 5.79], [20486, 3, 580, 5.44], [39, 1, 110, 2.72], [3900, 3, 45, 3.36], [4076, 3, 196, 6.0], [9081, 3, 453, 4.97], [13023, 3, 580, 4.6], [8274, 3, 299, 1.67], [8943, 3, 133, 1.6], [34, 1, 110, 2.13], [20486, 1, 96, 5.02], [6497, 1, 37, 3.59], [8104, 1, 206, 1.65], [11510, 3, 574, 3.64], [2854, 21, 1094, 2.49], [38, 1, 110, 2.92], [23611, 3, 339, 1.72], [3047, 3, 265, 2.83], [20969, 3, 580, 3.06], [1414, 15, 96, 2.47], [2878, 1, 83, 3.7], [114, 3, 242, 2.57], [12923, 1, 39, 1.64], [10529, 29, 42, 3.21]]</t>
+    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.97], [589, 2, 8, 0.2], [6935, 2, 10, 1.02], [2049, 3, 11, 0.89], [130, 1, 5, 0.85], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [144, 2, 4, 0.74], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [8648, 2, 4, 1.27], [6936, 2, 6, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 0.22], [147, 1, 4, 0.45], [88, 10, 10, 0.44], [141, 2, 4, 1.31], [83, 2, 4, 0.44], [74, 1, 4, 1.53], [2054, 3, 6, 0.53], [10825, 21, 11, 1.03], [362, 2, 4, 0.96], [1007, 2, 5, 0.37], [2057, 3, 6, 0.47], [345, 3, 5, 0.32], [2055, 3, 5, 0.42], [432, 3, 6, 0.62], [7005, 1, 4, 0.2], [21793, 1, 5, 1.14], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [410, 1, 4, 1.5], [3889, 1, 4, 0.2], [201, 3, 5, 0.2], [308, 1, 5, 0.49], [11234, 2, 5, 1.4], [12870, 1, 4, 2.08], [10149, 3, 15, 0.99], [7036, 1, 4, 0.68], [1124, 2, 8, 0.2], [35, 1, 4, 0.83], [9827, 3, 4, 0.83], [167, 3, 5, 1.4], [5081, 2, 6, 0.2], [94, 4, 4, 1.57], [8677, 3, 7, 0.65], [1654, 2, 4, 0.48], [411, 2, 4, 0.46], [1504, 2, 5, 0.27], [3891, 1, 4, 0.2], [79, 1, 4, 0.49], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [168, 3, 5, 1.23], [2336, 3, 5, 0.99], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 4, 0.48], [412, 1, 4, 1.39], [6158, 2, 5, 0.51], [20927, 1, 4, 1.42], [45, 2, 4, 0.64], [1767, 25, 5, 0.59], [361, 2, 4, 1.31], [5208, 3, 5, 0.47], [8651, 2, 4, 1.68], [335, 3, 13, 0.22], [95, 3, 16, 0.3], [9069, 1, 4, 0.42], [25, 1, 4, 1.51], [346, 1, 4, 0.85], [1622, 1, 4, 0.88], [214, 3, 10, 0.2], [8674, 2, 4, 0.73], [2049, 1, 4, 0.23], [21269, 3, 4, 1.23], [413, 1, 5, 1.57], [998, 2, 4, 1.22], [34, 1, 4, 1.85], [3495, 3, 13, 1.31], [856, 1, 4, 0.2], [8898, 3, 6, 0.75], [1070, 7, 10, 0.47], [11116, 1, 5, 0.56], [1766, 25, 4, 0.56], [9691, 1, 4, 2.02], [20498, 1, 4, 0.23], [346, 3, 4, 0.82], [5946, 1, 4, 0.78], [38, 1, 4, 1.85], [9829, 3, 4, 1.17], [14017, 3, 5, 0.79], [974, 3, 5, 1.13], [1091, 1, 4, 0.53], [152, 21, 4, 0.78], [20498, 3, 8, 0.57], [39, 1, 4, 1.85], [82, 2, 4, 1.31], [9372, 1, 5, 2.24], [1080, 3, 5, 0.2], [14037, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.22], [1767, 2, 4, 0.59], [5209, 3, 4, 0.75], [192, 3, 10, 2.16], [5811, 3, 5, 2.2], [3048, 3, 4, 1.24], [9828, 3, 4, 1.52], [972, 3, 5, 0.91], [24, 1, 4, 0.79], [13260, 29, 4, 0.73], [10780, 10, 4, 1.3], [5513, 2, 4, 0.75], [5813, 3, 5, 1.51], [4203, 1, 4, 0.3], [952, 4, 5, 2.16], [202, 2, 4, 1.59], [3981, 3, 12, 1.42], [8945, 3, 5, 1.5], [13034, 3, 5, 1.09], [36, 1, 4, 1.85], [2878, 1, 4, 0.54], [336, 15, 4, 0.35], [3900, 3, 4, 0.49], [955, 2, 4, 0.36], [9082, 3, 18, 0.83], [305, 2, 175, 2.38], [8672, 2, 306, 3.75], [3, 2, 150, 3.44], [589, 2, 173, 1.91], [6935, 2, 342, 3.96], [130, 1, 20, 2.97], [205, 2, 110, 3.06], [12721, 2, 289, 4.25], [144, 2, 162, 2.49], [75, 2, 149, 4.16], [145, 2, 181, 2.07], [1776, 1, 110, 3.69], [8915, 2, 131, 1.75], [593, 2, 243, 3.15], [151, 1, 68, 1.95], [2778, 2, 175, 3.62], [1777, 1, 110, 3.91], [8648, 2, 251, 6.0], [6936, 2, 324, 5.03], [2328, 2, 153, 3.85], [5151, 2, 27, 2.22], [147, 1, 105, 3.44], [88, 10, 603, 3.06], [141, 2, 156, 4.17], [83, 2, 60, 2.02], [74, 1, 200, 6.0], [2054, 3, 479, 3.09], [10825, 21, 639, 4.0], [362, 2, 151, 3.42], [1007, 2, 321, 1.79], [2057, 3, 479, 3.44], [345, 3, 304, 3.6], [2055, 3, 479, 3.34], [432, 3, 306, 3.7], [7005, 1, 81, 1.97], [21793, 1, 268, 5.26], [22247, 2, 305, 3.78], [57, 1, 91, 2.16], [410, 1, 88, 3.88], [3889, 1, 125, 3.36], [201, 3, 304, 3.6], [308, 1, 170, 3.8], [11234, 2, 218, 3.53], [10149, 3, 888, 4.21], [7036, 1, 144, 4.3], [1124, 2, 189, 3.6], [35, 1, 113, 4.47], [9827, 3, 89, 3.28], [167, 3, 230, 4.22], [5081, 2, 214, 3.69], [94, 4, 120, 4.66], [8677, 3, 297, 3.82], [1654, 2, 110, 1.99], [411, 2, 129, 2.19], [1504, 2, 245, 3.29], [3891, 1, 125, 4.24], [79, 1, 56, 2.01], [8676, 2, 306, 2.77], [3893, 1, 125, 4.2], [168, 3, 447, 4.78], [2336, 3, 690, 3.03], [5812, 3, 675, 3.94], [9760, 29, 80, 2.42], [23, 1, 132, 3.98]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [589, 2, 5, 0.66], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [8648, 2, 5, 1.15], [205, 2, 4, 0.2], [8650, 2, 4, 1.52], [593, 2, 6, 0.2], [145, 2, 4, 0.25], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.53], [88, 10, 17, 0.52], [2776, 2, 4, 0.81], [141, 2, 5, 0.39], [7004, 1, 4, 1.09], [1446, 2, 4, 0.28], [1124, 2, 4, 0.57], [206, 2, 4, 0.2], [142, 2, 4, 0.92], [2912, 1, 4, 1.89], [11685, 2, 4, 0.71], [10993, 2, 5, 0.2], [7886, 4, 5, 0.44], [5165, 1, 4, 1.36], [12870, 1, 5, 1.68], [3893, 1, 4, 0.2], [2055, 3, 5, 0.56], [1622, 1, 5, 0.88], [417, 2, 4, 0.92], [21793, 1, 5, 0.61], [2054, 3, 5, 2.22], [3889, 1, 4, 0.2], [7573, 1, 10, 2.46], [523, 2, 4, 0.55], [7885, 4, 5, 0.49], [61, 3, 4, 0.98], [9372, 1, 4, 1.42], [10, 2, 5, 0.36], [3891, 1, 4, 0.63], [10149, 3, 17, 1.21], [5208, 3, 6, 0.19], [75, 2, 5, 1.25], [9491, 21, 17, 0.22], [20927, 1, 4, 1.51], [997, 2, 5, 3.04], [12721, 2, 7, 1.46], [35, 1, 5, 1.54], [3, 2, 5, 0.93], [5165, 2, 5, 1.11], [11234, 2, 4, 1.4], [33, 1, 5, 1.18], [998, 2, 4, 1.6], [94, 4, 4, 1.46], [22247, 2, 4, 1.14], [972, 3, 5, 0.75], [5076, 1, 4, 0.71], [6158, 2, 6, 0.2], [34, 1, 4, 1.32], [2805, 137, 4, 1.42], [2912, 2, 7, 1.89], [2424, 80, 4, 1.36], [38, 1, 4, 1.38], [8104, 1, 4, 1.97], [8898, 3, 5, 4.0], [12212, 29, 5, 0.2], [39, 1, 5, 1.35], [13928, 1, 4, 1.32], [11952, 1, 5, 0.66], [1414, 15, 4, 0.39], [24257, 1, 5, 0.52], [7567, 3, 4, 1.58], [2424, 29, 5, 0.66], [3495, 3, 13, 1.25], [9691, 1, 4, 1.47], [11770, 1, 5, 1.08], [192, 3, 10, 1.07], [3048, 3, 5, 0.92], [11490, 1, 4, 0.71], [995, 2, 4, 1.02], [5946, 1, 4, 0.63], [23961, 3, 4, 1.88], [411, 2, 4, 1.1], [11772, 1, 4, 0.68], [632, 11, 13, 0.73], [161, 3, 5, 1.49], [1703, 2, 5, 1.33], [10407, 10, 7, 1.4], [74, 1, 4, 1.6], [13023, 3, 4, 1.51], [1523, 1, 4, 0.56], [4253, 1, 4, 0.39], [5164, 1, 4, 0.64], [2331, 1, 4, 1.16], [1519, 3, 10, 0.39], [21269, 3, 4, 2.05], [1274, 1, 5, 0.2], [10410, 10, 11, 1.94], [3430, 15, 4, 1.7], [12764, 2, 5, 0.43], [1492, 1, 4, 0.38], [972, 1, 4, 1.01], [11236, 2, 4, 0.62], [214, 3, 13, 0.2], [24258, 1, 4, 0.84], [6097, 29, 4, 1.3], [6097, 80, 4, 1.51], [1080, 3, 4, 1.41], [13893, 2, 4, 1.17], [10780, 10, 4, 2.12], [3047, 3, 4, 1.64], [8674, 2, 4, 2.15], [9081, 3, 7, 1.34], [13928, 2, 4, 1.32], [3576, 29, 4, 1.67], [10408, 10, 6, 1.58], [12662, 1, 4, 0.75], [1243, 2, 4, 0.41], [13034, 3, 4, 1.2], [13264, 29, 4, 0.47], [2436, 4, 4, 0.8], [45, 2, 4, 1.17], [2438, 2, 5, 1.18], [11813, 1, 5, 0.48], [3334, 5, 4, 1.37], [7704, 2, 4, 0.6], [20486, 3, 4, 1.51], [1277, 1, 4, 0.65], [11812, 1, 4, 0.48], [8659, 1, 4, 0.41], [10936, 2, 4, 0.79], [305, 2, 162, 3.71], [589, 2, 71, 2.7], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [144, 2, 159, 2.24], [8915, 2, 189, 3.19], [2328, 2, 149, 4.03], [6936, 2, 280, 6.0], [8648, 2, 219, 5.96], [205, 2, 108, 2.81], [8650, 2, 257, 4.33], [593, 2, 262, 3.44], [145, 2, 159, 2.88], [146, 2, 159, 2.6], [326, 2, 107, 2.22], [7036, 1, 126, 5.91], [88, 10, 587, 3.29], [2776, 2, 162, 3.2], [141, 2, 153, 3.61], [7004, 1, 55, 3.21], [1446, 2, 150, 2.84], [1124, 2, 216, 2.79], [206, 2, 117, 3.03], [142, 2, 162, 3.48], [2912, 1, 52, 4.91], [11685, 2, 332, 2.96], [10993, 2, 13, 2.36], [7886, 4, 33, 2.14], [5165, 1, 47, 3.82], [12870, 1, 137, 6.0], [3893, 1, 136, 3.6], [2055, 3, 469, 2.83], [1622, 1, 107, 2.58], [417, 2, 162, 3.22], [21793, 1, 235, 2.9], [2054, 3, 512, 4.62], [3889, 1, 136, 4.07], [7573, 1, 341, 6.0], [523, 2, 162, 2.39], [61, 3, 216, 3.63], [9372, 1, 238, 5.09], [10, 2, 103, 3.26], [3891, 1, 144, 2.41], [10149, 3, 853, 5.0], [5208, 3, 558, 2.37], [75, 2, 144, 4.75], [9491, 21, 2148, 3.78], [997, 2, 236, 5.88], [12721, 2, 280, 5.19], [35, 1, 127, 4.43], [3, 2, 118, 4.21], [5165, 2, 375, 3.39], [11234, 2, 64, 3.59], [33, 1, 114, 4.37], [998, 2, 236, 4.39], [94, 4, 136, 4.96], [22247, 2, 280, 3.97], [972, 3, 585, 4.02], [5076, 1, 135, 3.88], [6158, 2, 257, 2.89], [34, 1, 127, 4.45], [2805, 137, 183, 6.0], [2912, 2, 414, 4.77], [2424, 80, 168, 4.11], [38, 1, 127, 4.5]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.09], [326, 2, 4, 0.71], [144, 2, 4, 1.05], [11685, 2, 4, 1.87], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [205, 2, 4, 0.37], [141, 2, 4, 0.53], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 6, 0.53], [8650, 2, 4, 0.77], [143, 2, 4, 0.38], [2328, 2, 4, 0.42], [6936, 2, 7, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.71], [146, 2, 5, 0.57], [88, 10, 12, 1.39], [7004, 1, 4, 1.37], [9507, 3, 4, 0.36], [7036, 1, 4, 1.73], [145, 2, 4, 0.91], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.45], [2055, 3, 6, 2.24], [10993, 2, 4, 0.51], [523, 2, 6, 0.53], [11737, 2, 4, 0.98], [75, 2, 4, 0.75], [2050, 3, 4, 1.14], [12870, 1, 4, 1.4], [3840, 1, 4, 0.4], [3893, 1, 4, 0.2], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [13028, 3, 4, 0.62], [2054, 3, 4, 1.14], [7084, 3, 5, 1.32], [3889, 1, 5, 0.2], [2991, 3, 4, 0.78], [20927, 1, 4, 1.11], [3, 2, 4, 0.52], [7005, 1, 5, 0.67], [997, 2, 6, 1.03], [94, 4, 4, 2.13], [10, 2, 4, 0.36], [21793, 1, 5, 1.34], [7885, 4, 5, 0.52], [996, 2, 4, 1.05], [3891, 1, 4, 0.45], [5165, 1, 4, 0.65], [998, 2, 4, 0.91], [6158, 2, 4, 2.18], [8672, 2, 5, 1.18], [9491, 21, 10, 0.52], [11739, 2, 4, 1.78], [5165, 2, 5, 0.65], [2912, 1, 4, 2.02], [972, 3, 4, 1.78], [956, 2, 4, 0.35], [413, 1, 4, 0.87], [98, 11, 11, 0.67], [346, 3, 4, 0.44], [10388, 2, 4, 0.6], [411, 2, 4, 1.15], [346, 1, 4, 0.43], [1492, 1, 4, 0.48], [83, 2, 4, 0.42], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [7567, 3, 4, 1.47], [5208, 3, 4, 1.03], [410, 1, 4, 0.8], [22316, 3, 6, 0.51], [9372, 1, 4, 0.97], [995, 2, 4, 0.79], [13928, 1, 4, 1.35], [9081, 3, 7, 0.78], [22247, 2, 4, 1.07], [336, 15, 4, 1.17], [308, 1, 4, 0.67], [161, 3, 6, 1.78], [2912, 2, 5, 2.02], [10631, 2, 4, 1.5], [1622, 1, 4, 1.47], [11953, 1, 4, 0.55], [22317, 3, 6, 0.51], [345, 3, 5, 0.76], [23611, 3, 5, 0.55], [9082, 3, 17, 1.08], [229, 1, 4, 1.04], [6497, 1, 4, 1.56], [192, 3, 11, 0.72], [37, 1, 5, 1.16], [24257, 1, 5, 2.97], [972, 1, 5, 0.5], [11767, 1, 4, 0.2], [12271, 2, 4, 2.52], [10410, 10, 6, 1.98], [82, 2, 4, 0.66], [14037, 3, 4, 1.22], [10407, 10, 7, 1.61], [7704, 2, 4, 1.45], [34, 1, 5, 0.93], [74, 1, 4, 0.93], [3048, 3, 4, 1.14], [1413, 15, 4, 0.36], [20498, 3, 5, 0.4], [38, 1, 5, 0.66], [335, 3, 9, 0.88], [2331, 1, 4, 1.54], [12338, 29, 5, 0.2], [215, 4, 4, 2.5], [12721, 2, 4, 0.9], [152, 21, 5, 0.34], [9, 1, 5, 0.2], [9964, 2, 4, 1.35], [1523, 1, 4, 0.44], [4253, 1, 4, 0.34], [11510, 3, 5, 0.99], [45, 2, 4, 1.17], [8673, 2, 4, 2.14], [12764, 2, 5, 0.2], [10093, 3, 9, 0.92], [5209, 3, 4, 1.03], [7705, 2, 4, 1.45], [1703, 2, 4, 1.96], [2805, 137, 4, 0.93], [7706, 2, 4, 2.22], [3047, 3, 4, 0.95], [12212, 29, 5, 0.24], [1895, 3, 4, 2.5], [9971, 2, 4, 0.45], [6935, 2, 262, 5.26], [326, 2, 100, 2.5], [144, 2, 173, 3.31], [11685, 2, 284, 6.0], [11681, 2, 284, 6.0], [589, 2, 157, 2.97], [205, 2, 107, 1.87], [141, 2, 143, 4.17], [593, 2, 233, 3.46], [305, 2, 136, 3.63], [8915, 2, 186, 2.06], [8650, 2, 206, 3.55], [143, 2, 163, 3.14], [2328, 2, 165, 1.94], [6936, 2, 262, 6.0], [2778, 2, 144, 3.76], [206, 2, 106, 2.7], [146, 2, 156, 3.93], [88, 10, 524, 3.54], [7004, 1, 85, 3.77], [9507, 3, 73, 1.53], [7036, 1, 118, 4.97], [145, 2, 165, 2.87], [1446, 2, 147, 2.85], [417, 2, 151, 2.06], [8853, 2, 262, 5.07], [2055, 3, 421, 6.0], [10993, 2, 58, 2.11], [523, 2, 143, 3.75], [11737, 2, 61, 3.02], [75, 2, 159, 3.26], [2050, 3, 484, 5.31], [12870, 1, 148, 4.94], [3840, 1, 103, 1.78], [3893, 1, 122, 1.96], [12350, 1, 593, 5.04], [2057, 3, 421, 6.0], [13028, 3, 159, 2.38], [2054, 3, 484, 5.31], [7084, 3, 120, 4.13], [3889, 1, 116, 2.88], [2991, 3, 166, 4.52], [20927, 1, 80, 3.27], [3, 2, 129, 2.12], [7005, 1, 77, 2.67], [997, 2, 220, 3.69], [94, 4, 125, 5.23], [21793, 1, 230, 4.18], [996, 2, 257, 4.15], [3891, 1, 135, 2.0], [5165, 1, 51, 3.25], [998, 2, 257, 4.15], [6158, 2, 278, 5.33], [8672, 2, 265, 5.08], [9491, 21, 2047, 3.04], [11739, 2, 14, 4.06], [5165, 2, 410, 3.24], [2912, 1, 48, 5.09], [972, 3, 212, 4.72], [956, 2, 117, 1.8], [413, 1, 93, 2.8], [98, 11, 805, 3.22], [346, 3, 666, 1.99], [10388, 2, 214, 2.28], [411, 2, 100, 3.34]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 9, 0.47], [362, 2, 5, 0.7], [2049, 3, 12, 0.2], [589, 2, 6, 0.2], [3, 2, 4, 1.01], [75, 2, 5, 0.49], [1776, 1, 4, 0.58], [141, 2, 5, 1.05], [8672, 2, 6, 0.72], [130, 1, 4, 0.4], [205, 2, 4, 0.46], [2778, 2, 6, 0.2], [11681, 2, 5, 2.33], [1777, 1, 5, 0.93], [305, 2, 4, 0.49], [6936, 2, 5, 1.27], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.39], [2328, 2, 6, 0.2], [248, 1, 4, 0.37], [88, 10, 12, 0.33], [1007, 2, 6, 0.37], [83, 2, 4, 0.5], [345, 3, 5, 0.32], [5151, 2, 4, 0.65], [8650, 2, 5, 1.15], [412, 1, 4, 1.27], [361, 2, 4, 0.49], [22247, 2, 5, 0.97], [201, 3, 6, 0.32], [57, 1, 6, 0.2], [21793, 1, 4, 1.03], [10149, 3, 17, 1.32], [45, 2, 5, 1.12], [12721, 2, 6, 0.97], [7004, 1, 5, 0.47], [2054, 3, 5, 1.33], [10825, 21, 8, 1.16], [413, 1, 4, 1.45], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [74, 1, 4, 0.84], [6158, 2, 6, 0.87], [308, 1, 5, 0.72], [168, 3, 6, 0.74], [432, 3, 5, 0.39], [10, 2, 5, 0.2], [13028, 3, 5, 0.5], [7887, 4, 5, 0.4], [7036, 1, 5, 1.96], [3495, 3, 15, 0.92], [214, 3, 10, 0.42], [12870, 1, 4, 2.58], [335, 3, 15, 0.4], [5081, 2, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 7, 0.18], [9827, 3, 4, 0.2], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [95, 3, 13, 1.11], [5812, 3, 6, 1.21], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [13260, 29, 4, 0.85], [23, 1, 4, 1.51], [94, 4, 4, 2.4], [7005, 1, 5, 0.49], [1490, 1, 4, 1.04], [411, 2, 4, 0.74], [25, 1, 4, 1.76], [998, 2, 4, 0.69], [1124, 2, 5, 0.79], [3980, 4, 4, 1.4], [21269, 3, 4, 3.75], [10574, 3, 5, 0.42], [5086, 1, 6, 1.11], [9691, 1, 4, 2.15], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [5660, 2, 5, 2.37], [11914, 1, 6, 0.2], [997, 2, 5, 1.37], [20927, 1, 4, 0.61], [9829, 3, 4, 1.06], [1703, 2, 4, 1.38], [8676, 2, 4, 0.97], [5209, 3, 6, 0.18], [9081, 3, 10, 1.8], [1622, 1, 6, 0.35], [192, 3, 11, 2.4], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [8674, 2, 4, 1.22], [8898, 3, 6, 2.67], [5513, 2, 4, 0.52], [1070, 7, 8, 0.64], [996, 2, 4, 1.37], [1091, 1, 4, 0.2], [12661, 1, 4, 2.6], [14037, 3, 4, 0.47], [13034, 3, 6, 1.01], [6097, 29, 4, 0.2], [1519, 3, 14, 0.22], [22317, 3, 6, 0.51], [24, 1, 5, 1.6], [20498, 3, 6, 1.52], [8274, 3, 6, 1.09], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [9760, 29, 4, 0.2], [82, 2, 4, 0.72], [6097, 80, 4, 0.41], [1413, 15, 4, 0.37], [336, 15, 4, 0.35], [9082, 3, 18, 1.17], [11767, 1, 4, 0.47], [2104, 3, 6, 1.63], [23611, 3, 4, 1.3], [995, 2, 4, 0.98], [6098, 80, 4, 1.4], [66, 1, 4, 0.2], [11769, 1, 4, 0.47], [6098, 29, 4, 0.6], [66, 16, 4, 0.47], [13484, 1, 4, 1.93], [8945, 3, 5, 0.98], [2109, 3, 9, 0.46], [10780, 10, 4, 2.28], [20486, 1, 4, 2.5], [9372, 1, 5, 0.42], [5946, 1, 4, 1.36], [2537, 1, 4, 1.19], [972, 3, 5, 1.01], [6935, 2, 278, 4.7], [362, 2, 147, 2.58], [2049, 3, 486, 2.4], [589, 2, 137, 1.65], [3, 2, 124, 3.17], [75, 2, 131, 4.14], [1776, 1, 97, 3.47], [141, 2, 137, 3.39], [8672, 2, 253, 3.31], [130, 1, 62, 1.72], [205, 2, 56, 2.96], [2778, 2, 154, 3.46], [11681, 2, 277, 6.0], [1777, 1, 97, 4.13], [305, 2, 131, 3.03], [6936, 2, 283, 5.08], [8648, 2, 221, 5.61], [593, 2, 223, 3.28], [990, 2, 55, 1.7], [2328, 2, 150, 3.34], [88, 10, 502, 4.75], [1007, 2, 253, 1.99], [83, 2, 48, 2.11], [345, 3, 284, 2.29], [5151, 2, 26, 2.64], [8650, 2, 221, 5.65], [412, 1, 74, 4.09], [361, 2, 137, 3.58], [22247, 2, 267, 3.35], [201, 3, 284, 2.2], [57, 1, 76, 2.84], [21793, 1, 236, 6.0], [10149, 3, 768, 5.15], [45, 2, 98, 5.05], [12721, 2, 267, 2.73], [7004, 1, 71, 2.68], [2054, 3, 440, 4.17], [10825, 21, 608, 3.05], [413, 1, 81, 3.74], [167, 3, 202, 4.11], [2057, 3, 417, 4.35], [74, 1, 179, 4.92], [6158, 2, 243, 3.8], [308, 1, 158, 3.39], [168, 3, 360, 3.79], [432, 3, 268, 2.76], [10, 2, 86, 2.95], [13028, 3, 131, 3.33], [7887, 4, 125, 1.92], [7036, 1, 113, 5.95], [3495, 3, 855, 4.0], [214, 3, 574, 1.92], [5081, 2, 171, 3.4], [79, 1, 43, 2.25], [5208, 3, 499, 4.35], [9827, 3, 78, 3.26], [410, 1, 73, 2.95], [3889, 1, 109, 4.11], [95, 3, 981, 4.54], [5812, 3, 596, 4.23], [3893, 1, 109, 3.58], [1504, 2, 202, 3.29], [13260, 29, 64, 3.25], [23, 1, 104, 3.86], [94, 4, 106, 5.57]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 7, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.26], [326, 2, 5, 0.72], [6936, 2, 6, 1.66], [8650, 2, 5, 2.46], [8648, 2, 5, 1.7], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.87], [2775, 2, 4, 0.93], [144, 2, 5, 1.04], [10, 2, 5, 0.2], [1124, 2, 4, 0.57], [94, 4, 4, 1.46], [7885, 4, 4, 0.49], [3893, 1, 5, 0.2], [7886, 4, 4, 0.48], [141, 2, 4, 0.92], [146, 2, 6, 1.32], [3891, 1, 4, 0.2], [2055, 3, 5, 0.98], [75, 2, 5, 0.99], [21793, 1, 5, 0.86], [206, 2, 4, 0.71], [12349, 1, 4, 2.14], [10993, 2, 4, 0.2], [5208, 3, 7, 0.19], [2054, 3, 4, 2.22], [3889, 1, 6, 0.2], [3980, 4, 6, 1.21], [7005, 1, 4, 0.93], [12870, 1, 4, 1.93], [145, 2, 4, 1.5], [5165, 1, 4, 0.9], [2912, 1, 4, 1.89], [10149, 3, 13, 1.71], [20927, 1, 4, 1.68], [9760, 29, 4, 0.2], [998, 2, 4, 1.6], [2436, 4, 4, 0.2], [7887, 4, 4, 0.97], [417, 2, 4, 0.92], [997, 2, 4, 1.02], [2424, 80, 5, 1.11], [3, 2, 5, 0.37], [6158, 2, 5, 0.2], [632, 11, 12, 0.73], [5076, 1, 6, 0.56], [9491, 21, 10, 1.09], [972, 3, 6, 0.51], [229, 1, 5, 1.16], [214, 3, 9, 0.56], [74, 1, 5, 1.22], [3495, 3, 10, 1.28], [523, 2, 4, 0.55], [11770, 1, 4, 1.09], [7573, 1, 9, 2.71], [11953, 1, 5, 0.45], [5165, 2, 5, 0.9], [24257, 1, 4, 0.48], [12721, 2, 4, 0.9], [2423, 80, 4, 1.97], [1492, 1, 4, 0.38], [12350, 1, 4, 4.0], [11772, 1, 4, 0.68], [192, 3, 10, 1.07], [1622, 1, 5, 0.49], [2912, 2, 7, 2.28], [22317, 3, 4, 0.42], [8677, 3, 4, 1.3], [2438, 2, 5, 1.88], [5434, 1, 4, 1.41], [8898, 3, 5, 4.0], [823, 1, 5, 0.4], [361, 2, 4, 0.92], [2424, 29, 4, 0.78], [9372, 1, 4, 1.36], [4253, 1, 4, 0.39], [3975, 4, 4, 1.51], [3900, 3, 5, 0.46], [33, 1, 5, 0.47], [5209, 3, 7, 0.19], [6496, 1, 4, 1.69], [7567, 3, 4, 1.18], [37, 1, 5, 0.47], [5946, 1, 4, 0.2], [2805, 137, 4, 1.35], [335, 3, 9, 0.49], [11812, 1, 4, 0.22], [12764, 2, 5, 0.2], [10407, 10, 8, 1.44], [220, 4, 4, 1.76], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [1703, 2, 4, 0.56], [10388, 2, 4, 0.61], [24258, 1, 4, 0.84], [1339, 3, 10, 0.36], [11490, 1, 4, 0.5], [38, 1, 4, 0.84], [35, 1, 5, 0.47], [1414, 15, 4, 0.39], [1274, 1, 4, 0.56], [22247, 2, 4, 1.06], [161, 3, 5, 1.49], [11236, 2, 4, 0.62], [4232, 80, 4, 1.82], [2104, 3, 9, 0.72], [1895, 3, 4, 0.88], [12212, 29, 5, 0.2], [12979, 25, 7, 0.47], [13893, 2, 4, 1.17], [10631, 2, 4, 1.55], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [216, 4, 4, 0.61], [1309, 1, 4, 0.45], [8635, 3, 4, 0.87], [10093, 3, 8, 0.92], [12728, 1, 4, 1.2], [4940, 1, 4, 0.51], [8104, 1, 4, 1.97], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [788, 2, 4, 0.51], [12501, 1, 4, 1.24], [13928, 1, 4, 1.58], [5164, 1, 4, 0.64], [11942, 29, 4, 0.52], [10386, 2, 4, 0.77], [19931, 1, 4, 1.26], [589, 2, 152, 2.97], [88, 10, 558, 3.67], [8915, 2, 189, 3.19], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [305, 2, 162, 3.71], [2328, 2, 149, 4.28], [326, 2, 107, 3.65], [6936, 2, 280, 6.0], [8650, 2, 219, 6.0], [8648, 2, 231, 4.48], [1446, 2, 150, 3.82], [7004, 1, 18, 3.12], [205, 2, 114, 2.87], [2775, 2, 181, 2.99], [144, 2, 151, 3.98], [10, 2, 24, 2.72], [1124, 2, 216, 2.79], [94, 4, 136, 4.96], [3893, 1, 136, 3.6], [7886, 4, 33, 1.59], [141, 2, 162, 3.48], [146, 2, 151, 3.93], [3891, 1, 136, 3.65], [2055, 3, 495, 3.11], [75, 2, 144, 4.87], [21793, 1, 235, 2.86], [206, 2, 113, 2.57], [12349, 1, 693, 5.33], [10993, 2, 19, 1.98], [5208, 3, 558, 3.42], [2054, 3, 162, 5.16], [3889, 1, 136, 4.07], [3980, 4, 476, 4.77], [7005, 1, 83, 2.99], [12870, 1, 137, 6.0], [5165, 1, 50, 3.27], [2912, 1, 52, 4.91], [10149, 3, 853, 5.0], [9760, 29, 71, 3.39], [998, 2, 272, 5.2], [2436, 4, 114, 2.69], [417, 2, 162, 3.48], [997, 2, 236, 3.69], [2424, 80, 168, 4.11], [3, 2, 118, 4.21], [6158, 2, 257, 2.89], [632, 11, 855, 2.6], [5076, 1, 128, 3.98], [9491, 21, 2261, 4.29], [972, 3, 585, 4.02], [229, 1, 81, 4.37], [214, 3, 529, 2.18], [74, 1, 208, 6.0], [3495, 3, 1114, 3.77], [523, 2, 162, 2.39], [11770, 1, 237, 5.03], [7573, 1, 341, 6.0], [11953, 1, 197, 2.8], [5165, 2, 395, 3.28], [24257, 1, 139, 2.65], [12721, 2, 328, 2.93], [1492, 1, 43, 2.34], [12350, 1, 693, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 8, 0.19], [144, 2, 5, 0.47], [11681, 2, 5, 1.61], [8915, 2, 5, 0.86], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [2327, 2, 5, 0.2], [8650, 2, 6, 1.21], [7036, 1, 4, 1.48], [593, 2, 7, 0.27], [11685, 2, 4, 1.9], [3893, 1, 5, 0.2], [141, 2, 7, 0.53], [2775, 2, 4, 1.06], [206, 2, 4, 0.65], [9507, 3, 4, 0.36], [7004, 1, 4, 0.94], [3840, 1, 4, 0.4], [3980, 4, 6, 1.19], [143, 2, 5, 1.53], [3891, 1, 4, 0.2], [2050, 3, 4, 1.69], [146, 2, 5, 1.32], [7885, 4, 5, 0.2], [7886, 4, 5, 0.4], [3889, 1, 4, 0.35], [2055, 3, 5, 1.73], [2328, 2, 4, 0.42], [10, 2, 4, 0.36], [2054, 3, 6, 1.86], [362, 2, 5, 0.82], [12870, 1, 6, 1.4], [8672, 2, 6, 0.73], [10993, 2, 5, 0.63], [12349, 1, 4, 1.96], [3975, 4, 4, 1.39], [7084, 3, 4, 1.07], [21793, 1, 4, 1.34], [5165, 1, 4, 0.9], [2057, 3, 4, 2.02], [1446, 2, 4, 0.9], [75, 2, 4, 0.46], [5208, 3, 4, 1.03], [145, 2, 4, 1.3], [2991, 3, 4, 1.13], [523, 2, 5, 1.03], [94, 4, 4, 2.13], [3982, 3, 14, 1.42], [7005, 1, 4, 0.72], [3495, 3, 13, 1.14], [20927, 1, 4, 1.42], [997, 2, 4, 0.77], [7887, 4, 5, 1.2], [6158, 2, 4, 2.18], [2912, 1, 4, 2.02], [82, 2, 5, 0.66], [61, 3, 5, 1.41], [192, 3, 10, 1.01], [35, 1, 5, 1.58], [956, 2, 4, 0.35], [417, 2, 4, 0.4], [5165, 2, 5, 0.65], [22316, 3, 6, 0.51], [6497, 1, 4, 1.56], [998, 2, 4, 0.91], [11953, 1, 6, 0.2], [7567, 3, 4, 0.71], [286, 3, 4, 0.72], [11769, 1, 5, 0.96], [389, 4, 4, 0.85], [1492, 1, 4, 0.48], [996, 2, 7, 1.47], [346, 3, 5, 1.28], [12344, 1, 4, 1.02], [4176, 4, 5, 1.31], [11767, 1, 4, 0.78], [39, 1, 4, 1.04], [7573, 1, 5, 1.22], [410, 1, 4, 0.62], [6496, 1, 4, 0.46], [37, 1, 4, 0.91], [8677, 3, 5, 1.15], [972, 3, 5, 2.02], [74, 1, 4, 0.93], [12721, 2, 4, 1.22], [411, 2, 4, 0.64], [2104, 3, 6, 1.46], [11490, 1, 4, 0.54], [2436, 4, 5, 2.37], [12212, 29, 4, 0.2], [22317, 3, 5, 0.26], [2912, 2, 5, 2.02], [201, 3, 5, 0.51], [345, 3, 4, 0.5], [336, 15, 5, 1.17], [1413, 15, 4, 0.2], [1274, 1, 4, 1.01], [11085, 2, 6, 1.78], [8121, 3, 4, 0.5], [1277, 1, 5, 0.65], [3979, 3, 5, 1.18], [3, 2, 6, 0.46], [14037, 3, 4, 1.22], [21269, 3, 4, 3.49], [823, 1, 4, 0.56], [38, 1, 4, 0.91], [13023, 3, 4, 1.52], [6494, 1, 4, 0.46], [9, 1, 4, 0.2], [12271, 2, 4, 2.52], [8673, 2, 4, 2.14], [36, 1, 4, 0.66], [9784, 1, 4, 0.48], [22247, 2, 5, 1.39], [8676, 2, 5, 0.98], [10408, 10, 5, 1.4], [3577, 25, 4, 0.78], [2805, 137, 4, 0.93], [5209, 3, 4, 1.03], [1414, 15, 4, 0.2], [20498, 3, 6, 0.4], [10936, 2, 4, 0.45], [95, 3, 12, 0.5], [2878, 1, 4, 1.16], [11812, 1, 4, 0.22], [10388, 2, 4, 0.6], [9491, 21, 11, 0.59], [13928, 1, 5, 1.1], [346, 1, 5, 1.52], [399, 24, 4, 2.63], [6935, 2, 262, 5.51], [305, 2, 136, 3.63], [2778, 2, 169, 2.2], [6936, 2, 262, 5.89], [205, 2, 111, 2.78], [88, 10, 524, 3.54], [144, 2, 55, 3.98], [11681, 2, 275, 5.79], [8915, 2, 186, 2.64], [589, 2, 157, 2.97], [326, 2, 86, 3.24], [2327, 2, 154, 3.43], [8650, 2, 206, 5.17], [7036, 1, 118, 4.97], [593, 2, 233, 3.46], [11685, 2, 299, 4.85], [3893, 1, 122, 1.89], [141, 2, 143, 4.17], [2775, 2, 169, 3.17], [206, 2, 100, 2.63], [9507, 3, 73, 1.53], [7004, 1, 80, 3.65], [3840, 1, 103, 1.78], [3980, 4, 443, 5.08], [143, 2, 54, 3.88], [3891, 1, 116, 2.55], [2050, 3, 421, 6.0], [146, 2, 140, 3.93], [7886, 4, 52, 1.85], [3889, 1, 135, 1.8], [2055, 3, 421, 6.0], [2328, 2, 165, 1.94], [2054, 3, 421, 6.0], [362, 2, 137, 3.93], [12870, 1, 126, 6.0], [8672, 2, 265, 5.08], [10993, 2, 50, 2.94], [12349, 1, 623, 5.04], [3975, 4, 467, 3.89], [7084, 3, 120, 4.13], [21793, 1, 230, 3.71], [5165, 1, 46, 3.27], [2057, 3, 421, 6.0], [1446, 2, 163, 2.85], [75, 2, 144, 2.02], [5208, 3, 531, 4.39], [145, 2, 55, 3.71], [2991, 3, 154, 3.83], [523, 2, 143, 3.75], [94, 4, 125, 5.23], [3982, 3, 729, 5.02], [7005, 1, 80, 2.77], [3495, 3, 1034, 4.98], [20927, 1, 85, 3.95], [997, 2, 257, 4.15], [6158, 2, 278, 5.33], [2912, 1, 48, 5.09], [82, 2, 55, 2.63], [61, 3, 201, 3.83], [192, 3, 1307, 4.82], [35, 1, 27, 4.11], [956, 2, 117, 1.8], [417, 2, 151, 2.31], [5165, 2, 410, 3.24], [22316, 3, 291, 3.17]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [8650, 2, 4, 1.46], [361, 2, 4, 0.2], [5491, 2, 5, 0.2], [589, 2, 5, 0.2], [11685, 2, 4, 0.2], [417, 2, 4, 0.2], [326, 2, 4, 0.55], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 5, 0.57], [8648, 2, 4, 0.91], [12721, 2, 5, 0.48], [248, 1, 4, 0.26], [11838, 2, 5, 0.63], [11837, 2, 4, 0.83], [142, 2, 4, 0.2], [8915, 2, 4, 0.38], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [8676, 2, 4, 2.86], [9507, 3, 4, 0.35], [305, 2, 5, 1.23], [21793, 1, 4, 1.54], [22247, 2, 5, 1.0], [11835, 2, 4, 0.73], [593, 2, 5, 0.78], [616, 2, 6, 0.2], [411, 2, 4, 0.64], [990, 2, 4, 0.2], [10574, 3, 7, 1.5], [12353, 1, 4, 3.55], [8673, 2, 4, 0.97], [2775, 2, 4, 0.48], [145, 2, 4, 0.91], [6158, 2, 5, 0.89], [11836, 2, 4, 0.63], [2055, 3, 4, 0.8], [3495, 3, 13, 1.34], [10149, 3, 13, 0.75], [88, 10, 8, 1.2], [12344, 1, 4, 2.77], [146, 2, 4, 0.91], [75, 2, 4, 1.68], [2054, 3, 6, 0.8], [2057, 3, 4, 0.8], [10993, 2, 5, 0.4], [7705, 2, 5, 1.15], [12343, 1, 4, 3.55], [7885, 4, 5, 0.94], [61, 3, 4, 0.36], [2424, 29, 4, 1.45], [144, 2, 4, 0.91], [7704, 2, 5, 1.15], [2859, 15, 4, 0.63], [2423, 29, 4, 1.26], [5165, 1, 4, 0.86], [2423, 80, 4, 1.23], [201, 3, 6, 0.76], [335, 3, 10, 0.88], [308, 1, 6, 1.85], [9126, 1, 4, 0.81], [13028, 3, 4, 0.49], [1519, 3, 12, 0.22], [214, 3, 9, 0.96], [2424, 80, 4, 1.39], [12352, 1, 4, 3.55], [7004, 1, 4, 1.29], [345, 3, 5, 0.49], [13023, 3, 6, 1.51], [13034, 3, 5, 1.37], [6952, 1, 4, 0.98], [2703, 3, 4, 2.44], [11770, 1, 4, 1.14], [6494, 1, 4, 0.47], [3430, 15, 4, 0.8], [410, 1, 4, 0.52], [432, 3, 5, 1.01], [94, 4, 4, 1.96], [13928, 1, 4, 1.15], [1492, 1, 4, 0.83], [20927, 1, 4, 0.67], [1886, 2, 4, 0.44], [3893, 1, 4, 0.47], [2331, 1, 4, 0.79], [12347, 1, 4, 0.51], [3891, 1, 4, 2.96], [3981, 3, 10, 0.29], [11811, 1, 4, 0.38], [13033, 3, 4, 0.5], [11954, 1, 4, 0.66], [9690, 1, 4, 0.76], [114, 3, 4, 0.36], [952, 4, 4, 2.24], [1309, 1, 4, 0.92], [105, 3, 4, 0.35], [1274, 1, 4, 1.18], [5584, 3, 4, 1.16], [5946, 1, 4, 0.51], [7886, 4, 6, 0.94], [5733, 2, 5, 0.43], [5812, 3, 4, 1.51], [11089, 1, 4, 1.02], [3, 2, 4, 0.91], [7708, 2, 4, 0.74], [8898, 3, 4, 2.11], [10410, 10, 8, 1.65], [7703, 2, 4, 0.74], [95, 3, 8, 2.52], [3478, 2, 4, 0.85], [10407, 10, 8, 1.65], [9507, 1, 4, 0.36], [22558, 3, 4, 0.88], [8274, 3, 4, 0.58], [3980, 4, 4, 1.39], [9082, 3, 15, 0.83], [957, 2, 4, 0.36], [5165, 2, 5, 0.84], [20555, 2, 4, 0.59], [10408, 10, 6, 0.75], [192, 3, 10, 2.2], [10398, 2, 4, 1.31], [247, 1, 4, 1.21], [963, 3, 4, 0.89], [823, 1, 4, 2.42], [13264, 29, 4, 0.48], [11603, 2, 4, 1.37], [2805, 137, 5, 1.98], [7005, 1, 4, 0.86], [5811, 3, 5, 2.0], [6630, 3, 4, 1.83], [20969, 3, 4, 0.86], [186, 3, 9, 1.23], [9491, 21, 10, 3.02], [21003, 2, 4, 0.72], [12229, 2, 4, 0.45], [141, 2, 160, 3.3], [8650, 2, 225, 5.35], [361, 2, 167, 2.01], [5491, 2, 111, 2.33], [589, 2, 163, 2.41], [11685, 2, 286, 4.02], [417, 2, 167, 2.02], [326, 2, 98, 2.49], [6935, 2, 288, 6.0], [205, 2, 111, 2.05], [1124, 2, 199, 2.9], [8648, 2, 238, 3.22], [12721, 2, 290, 4.49], [248, 1, 15, 2.19], [11838, 2, 265, 4.05], [11837, 2, 265, 2.91], [142, 2, 167, 2.0], [8915, 2, 52, 1.48], [6936, 2, 288, 5.61], [2778, 2, 161, 3.87], [8676, 2, 112, 6.0], [305, 2, 151, 3.93], [21793, 1, 254, 4.71], [22247, 2, 299, 3.59], [11835, 2, 265, 2.72], [593, 2, 243, 2.76], [616, 2, 111, 2.52], [411, 2, 115, 2.62], [990, 2, 56, 2.04], [12353, 1, 642, 6.0], [8673, 2, 304, 4.22], [2775, 2, 167, 2.23], [145, 2, 163, 3.06], [6158, 2, 279, 3.46], [11836, 2, 265, 4.64], [2055, 3, 501, 4.03], [3495, 3, 1026, 3.97], [10149, 3, 934, 2.81], [88, 10, 569, 4.74], [12344, 1, 642, 6.0], [146, 2, 163, 3.06], [75, 2, 152, 4.79], [2054, 3, 450, 3.36], [2057, 3, 501, 4.51], [10993, 2, 54, 2.81], [7705, 2, 180, 4.05], [12343, 1, 642, 6.0], [61, 3, 223, 2.0], [2424, 29, 35, 5.04], [144, 2, 163, 3.06], [7704, 2, 180, 4.05], [2859, 15, 73, 2.52], [2423, 29, 38, 3.74], [5165, 1, 51, 2.97], [2423, 80, 192, 3.71], [201, 3, 306, 4.73], [335, 3, 1375, 2.99], [308, 1, 171, 5.25], [9126, 1, 73, 4.46], [13028, 3, 154, 2.55], [1519, 3, 869, 2.5], [214, 3, 684, 3.08], [2424, 80, 174, 4.99], [12352, 1, 642, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 10, 0.2], [6935, 2, 7, 0.77], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [2775, 2, 4, 0.72], [145, 2, 5, 1.17], [12721, 2, 6, 0.72], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.87], [8675, 2, 4, 0.73], [362, 2, 5, 0.44], [141, 2, 4, 0.4], [11681, 2, 5, 0.46], [205, 2, 5, 0.2], [8673, 2, 6, 0.73], [8676, 2, 6, 0.6], [308, 1, 6, 0.43], [1124, 2, 5, 0.79], [144, 2, 5, 1.17], [11835, 2, 4, 0.42], [5493, 2, 4, 0.45], [417, 2, 4, 0.4], [8650, 2, 5, 1.28], [11837, 2, 6, 0.3], [3, 2, 5, 1.09], [6097, 80, 5, 2.61], [589, 2, 4, 0.9], [2423, 29, 4, 1.19], [206, 2, 4, 0.64], [6097, 29, 4, 2.36], [11836, 2, 6, 0.45], [593, 2, 6, 1.3], [990, 2, 4, 0.2], [6098, 80, 4, 2.84], [88, 10, 10, 0.44], [523, 2, 4, 0.76], [13260, 29, 4, 1.4], [2423, 80, 4, 0.87], [8915, 2, 5, 0.53], [10993, 2, 4, 0.52], [6494, 1, 4, 0.47], [326, 2, 4, 0.6], [6158, 2, 5, 0.89], [75, 2, 5, 1.56], [10574, 3, 5, 0.83], [1339, 1, 4, 0.43], [335, 3, 10, 0.88], [1492, 1, 4, 0.83], [1050, 2, 4, 0.2], [411, 2, 4, 0.64], [947, 15, 4, 0.76], [151, 1, 4, 0.45], [2859, 15, 4, 0.72], [7004, 1, 4, 0.82], [1339, 3, 14, 0.18], [6496, 1, 4, 1.31], [13264, 29, 4, 0.52], [345, 3, 4, 1.71], [10149, 3, 13, 0.39], [61, 3, 5, 0.2], [7704, 2, 5, 1.79], [1049, 2, 4, 0.85], [1243, 2, 4, 1.92], [964, 15, 4, 0.84], [432, 3, 4, 1.4], [13259, 29, 5, 0.99], [22558, 3, 4, 1.98], [201, 3, 6, 1.05], [1277, 1, 4, 1.3], [5208, 3, 4, 1.35], [7705, 2, 5, 2.04], [2912, 1, 4, 1.99], [963, 3, 4, 0.39], [159, 3, 5, 0.6], [229, 1, 4, 1.04], [186, 3, 9, 0.67], [2438, 1, 4, 1.21], [21793, 1, 4, 1.38], [11738, 2, 4, 0.46], [2331, 1, 4, 1.3], [10407, 10, 6, 1.9], [3478, 2, 4, 1.58], [7706, 2, 5, 1.79], [12229, 2, 6, 0.45], [13928, 1, 4, 1.4], [1548, 1, 5, 0.84], [2703, 3, 4, 2.44], [11844, 2, 4, 2.06], [8944, 3, 4, 0.37], [11490, 1, 4, 0.83], [7036, 1, 4, 0.76], [94, 4, 4, 1.96], [159, 16, 4, 0.69], [114, 3, 4, 0.41], [11687, 2, 4, 0.79], [956, 2, 4, 0.52], [9126, 1, 4, 1.39], [10408, 10, 7, 1.66], [7708, 2, 5, 1.79], [1886, 2, 4, 0.44], [11159, 1, 7, 0.4], [10406, 10, 7, 0.92], [22125, 2, 4, 0.36], [20927, 1, 5, 0.47], [11586, 1, 6, 2.44], [11689, 2, 4, 0.77], [9065, 2, 4, 0.66], [2438, 2, 5, 1.11], [12870, 1, 4, 0.94], [11690, 2, 4, 0.53], [7005, 1, 4, 1.52], [1274, 1, 4, 1.57], [410, 1, 4, 0.52], [1699, 3, 4, 1.18], [2991, 3, 5, 2.12], [2805, 137, 5, 1.58], [21781, 2, 4, 0.22], [152, 21, 4, 0.63], [13259, 25, 4, 0.99], [4253, 1, 4, 0.43], [3495, 3, 13, 1.34], [5976, 1, 4, 2.19], [159, 1, 4, 0.67], [5584, 3, 4, 1.16], [9690, 1, 4, 0.76], [5769, 3, 6, 0.52], [7007, 1, 4, 0.73], [9239, 29, 4, 1.55], [9209, 29, 4, 1.53], [9491, 21, 10, 1.42], [11811, 1, 4, 0.38], [9239, 25, 4, 1.55], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [2778, 2, 158, 3.61], [6935, 2, 307, 3.37], [305, 2, 151, 3.96], [6936, 2, 290, 5.43], [2775, 2, 166, 2.7], [145, 2, 41, 3.46], [12721, 2, 289, 4.72], [2327, 2, 153, 4.86], [361, 2, 165, 2.08], [146, 2, 154, 3.93], [8675, 2, 298, 2.92], [362, 2, 151, 2.79], [141, 2, 165, 2.08], [11681, 2, 270, 3.74], [205, 2, 115, 2.57], [8673, 2, 291, 5.08], [8676, 2, 292, 5.81], [308, 1, 180, 3.47], [1124, 2, 197, 3.05], [144, 2, 102, 3.98], [11835, 2, 265, 3.53], [5493, 2, 117, 2.19], [417, 2, 165, 3.25], [8650, 2, 225, 6.0], [11837, 2, 265, 2.8], [3, 2, 122, 3.99], [6097, 80, 18, 6.0], [589, 2, 161, 3.07], [2423, 29, 39, 4.24], [206, 2, 86, 3.35], [11836, 2, 265, 3.97], [593, 2, 54, 4.02], [990, 2, 53, 2.31], [88, 10, 596, 3.71], [523, 2, 165, 3.02], [13260, 29, 73, 4.01], [2423, 80, 195, 3.03], [8915, 2, 153, 2.75], [10993, 2, 57, 2.31], [6494, 1, 55, 2.21], [326, 2, 94, 2.86], [6158, 2, 279, 3.46], [75, 2, 146, 4.56], [10574, 3, 272, 3.58], [1339, 1, 73, 2.26], [335, 3, 1375, 2.99], [1492, 1, 39, 2.91], [1050, 2, 107, 2.05], [411, 2, 114, 2.68], [947, 15, 44, 2.77], [151, 1, 18, 2.22], [2859, 15, 55, 3.36], [7004, 1, 83, 3.97], [1339, 3, 1760, 2.18], [6496, 1, 42, 5.33], [13264, 29, 77, 2.31], [345, 3, 315, 4.6], [10149, 3, 927, 2.79], [61, 3, 223, 2.16], [7704, 2, 159, 5.65], [1049, 2, 30, 2.45], [1243, 2, 100, 5.01], [432, 3, 306, 4.01], [13259, 29, 37, 4.14]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 8, 0.2], [362, 2, 5, 0.23], [361, 2, 4, 0.2], [6935, 2, 10, 1.3], [12721, 2, 8, 1.21], [8676, 2, 5, 0.85], [2049, 3, 15, 0.2], [417, 2, 5, 0.2], [3, 2, 4, 1.22], [8675, 2, 4, 0.73], [22247, 2, 5, 1.25], [6936, 2, 5, 0.47], [523, 2, 5, 0.41], [305, 2, 5, 0.73], [11838, 2, 4, 0.63], [8650, 2, 5, 0.94], [2328, 2, 5, 0.79], [2776, 2, 4, 0.94], [8648, 2, 4, 1.69], [2327, 2, 4, 0.2], [616, 2, 4, 0.46], [11739, 2, 4, 0.39], [11837, 2, 4, 0.63], [411, 2, 4, 0.64], [2805, 137, 5, 2.11], [6097, 80, 5, 2.11], [11835, 2, 4, 0.74], [6097, 29, 5, 1.16], [146, 2, 4, 1.42], [10993, 2, 4, 0.38], [326, 2, 4, 0.9], [583, 2, 4, 0.76], [10149, 3, 15, 0.75], [145, 2, 4, 0.91], [11836, 2, 4, 0.63], [144, 2, 4, 1.42], [308, 1, 6, 2.02], [75, 2, 4, 1.56], [10574, 3, 6, 0.85], [6494, 1, 4, 0.47], [2057, 3, 4, 0.8], [2055, 3, 4, 0.8], [2422, 29, 4, 0.72], [2054, 3, 5, 0.82], [6098, 80, 4, 0.58], [6098, 29, 4, 0.58], [1243, 2, 4, 1.92], [8915, 2, 5, 0.78], [1886, 2, 4, 0.44], [21793, 1, 4, 1.38], [12345, 1, 4, 1.58], [12349, 1, 4, 1.01], [1492, 1, 4, 0.83], [2859, 15, 4, 0.35], [247, 1, 4, 1.18], [3478, 2, 5, 1.0], [6158, 2, 5, 0.88], [335, 3, 10, 0.88], [201, 3, 4, 0.86], [5165, 1, 4, 0.86], [7084, 3, 4, 2.17], [5208, 3, 4, 0.47], [13928, 1, 4, 1.15], [336, 15, 4, 0.37], [3934, 5, 7, 1.36], [5812, 3, 5, 2.0], [12526, 2, 4, 0.46], [192, 3, 10, 1.24], [4253, 1, 4, 0.43], [94, 4, 4, 1.96], [1703, 2, 4, 2.16], [5811, 3, 6, 2.2], [9491, 21, 10, 1.29], [186, 3, 9, 0.67], [214, 3, 10, 1.49], [11490, 1, 4, 0.38], [2821, 3, 8, 2.17], [61, 3, 4, 0.2], [11767, 1, 4, 1.09], [5813, 3, 5, 2.0], [1050, 2, 4, 0.85], [1309, 1, 4, 0.92], [8938, 2, 4, 2.21], [24722, 2, 4, 0.39], [2991, 3, 4, 2.0], [2912, 1, 4, 0.38], [10398, 2, 4, 0.37], [13260, 29, 5, 1.26], [3495, 3, 13, 1.34], [11671, 1, 4, 1.99], [2438, 2, 5, 1.11], [11771, 1, 4, 2.12], [8599, 1, 4, 3.7], [229, 1, 4, 1.37], [11811, 1, 4, 0.38], [8944, 3, 4, 0.37], [8943, 3, 5, 0.38], [1049, 2, 4, 0.85], [12764, 2, 5, 0.43], [13928, 2, 4, 1.15], [7004, 1, 4, 0.6], [7036, 1, 4, 0.76], [955, 2, 4, 0.44], [11808, 1, 4, 1.13], [10124, 1, 4, 2.17], [5584, 3, 4, 1.16], [22573, 2, 4, 0.76], [3334, 5, 4, 2.28], [8897, 3, 4, 0.45], [9690, 1, 4, 0.69], [18964, 1, 4, 1.13], [6575, 3, 4, 0.71], [20927, 1, 4, 1.92], [1523, 1, 4, 2.32], [45, 2, 4, 1.79], [8274, 3, 4, 0.87], [2438, 1, 4, 1.21], [4001, 3, 8, 0.93], [1277, 1, 4, 1.3], [11886, 2, 4, 0.84], [9239, 29, 4, 1.55], [21269, 3, 4, 2.43], [13258, 29, 4, 1.12], [105, 3, 4, 0.43], [11678, 1, 4, 1.58], [1701, 2, 4, 0.67], [3477, 2, 4, 1.1], [10181, 26, 5, 0.46], [5165, 2, 5, 0.84], [7567, 3, 4, 0.41], [9209, 29, 4, 1.51], [3984, 3, 5, 0.62], [8635, 3, 4, 0.87], [8672, 2, 292, 4.91], [141, 2, 159, 3.65], [2778, 2, 158, 3.12], [362, 2, 144, 3.12], [361, 2, 166, 2.8], [6935, 2, 283, 6.0], [12721, 2, 291, 5.26], [8676, 2, 292, 4.13], [2049, 3, 364, 2.18], [417, 2, 166, 2.8], [3, 2, 123, 4.33], [8675, 2, 304, 3.12], [22247, 2, 291, 4.86], [6936, 2, 298, 3.21], [523, 2, 159, 3.55], [305, 2, 150, 3.92], [11838, 2, 265, 4.64], [8650, 2, 237, 4.75], [2328, 2, 153, 3.91], [2776, 2, 166, 3.64], [8648, 2, 237, 4.56], [2327, 2, 153, 4.01], [616, 2, 117, 2.21], [11739, 2, 61, 2.58], [11837, 2, 265, 4.64], [411, 2, 115, 2.79], [2805, 137, 180, 5.95], [6097, 80, 37, 6.0], [11835, 2, 265, 3.47], [6097, 29, 35, 3.8], [146, 2, 61, 3.73], [10993, 2, 57, 2.04], [326, 2, 94, 3.16], [583, 2, 96, 2.84], [10149, 3, 934, 4.54], [145, 2, 163, 3.06], [11836, 2, 265, 4.64], [144, 2, 61, 3.73], [308, 1, 175, 5.38], [75, 2, 152, 4.31], [6494, 1, 55, 2.21], [2057, 3, 501, 4.51], [2055, 3, 501, 4.03], [2422, 29, 39, 3.15], [2054, 3, 450, 4.0], [6098, 80, 80, 3.32], [6098, 29, 40, 3.32], [1243, 2, 100, 5.01], [8915, 2, 76, 2.76], [1886, 2, 167, 2.16], [21793, 1, 247, 4.35], [12345, 1, 632, 4.42], [12349, 1, 632, 4.44], [1492, 1, 39, 2.91], [2859, 15, 73, 2.71], [247, 1, 93, 5.03], [3478, 2, 79, 3.63], [6158, 2, 277, 3.44], [335, 3, 1375, 2.99], [201, 3, 315, 3.58], [5165, 1, 51, 2.97], [7084, 3, 133, 5.49], [5208, 3, 367, 4.38], [13928, 1, 50, 3.59], [3934, 5, 554, 4.02]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 0.77], [305, 2, 4, 0.2], [8650, 2, 4, 0.46], [2778, 2, 5, 0.2], [8672, 2, 7, 2.86], [143, 2, 6, 2.15], [362, 2, 4, 0.23], [6936, 2, 5, 1.01], [145, 2, 4, 0.5], [11837, 2, 4, 0.84], [361, 2, 4, 0.38], [417, 2, 4, 0.38], [205, 2, 4, 0.56], [75, 2, 5, 0.97], [11681, 2, 5, 0.71], [1124, 2, 5, 0.57], [589, 2, 6, 0.2], [146, 2, 4, 0.57], [11737, 2, 4, 0.53], [8648, 2, 4, 1.1], [12721, 2, 6, 0.48], [523, 2, 4, 0.38], [8673, 2, 6, 0.2], [1504, 2, 5, 0.36], [8853, 2, 5, 1.67], [308, 1, 5, 1.23], [206, 2, 4, 0.82], [326, 2, 6, 0.85], [11835, 2, 6, 0.36], [990, 2, 4, 0.48], [8675, 2, 5, 1.2], [88, 10, 10, 0.19], [8915, 2, 6, 1.39], [144, 2, 5, 0.91], [1005, 2, 5, 0.89], [434, 2, 5, 0.3], [11739, 2, 4, 0.51], [142, 2, 4, 0.38], [8676, 2, 4, 2.16], [2424, 29, 4, 0.62], [9507, 3, 4, 0.35], [6158, 2, 7, 0.2], [7704, 2, 4, 1.25], [2423, 29, 4, 1.44], [11836, 2, 4, 0.84], [2424, 80, 4, 1.11], [7705, 2, 4, 1.9], [11738, 2, 4, 0.44], [1413, 15, 5, 0.2], [7706, 2, 4, 1.23], [2423, 80, 4, 1.04], [3478, 2, 4, 2.03], [7004, 1, 4, 1.56], [944, 15, 5, 0.2], [2859, 15, 4, 1.62], [2054, 3, 4, 1.98], [74, 1, 4, 1.34], [3429, 15, 4, 0.2], [10149, 3, 13, 1.01], [10993, 2, 4, 0.4], [2055, 3, 4, 1.98], [18964, 1, 4, 1.38], [12343, 1, 4, 4.0], [94, 4, 4, 2.21], [13928, 1, 4, 1.4], [13028, 3, 4, 0.49], [13034, 3, 6, 0.9], [2057, 3, 4, 1.98], [7084, 3, 4, 0.48], [11919, 1, 4, 0.34], [411, 2, 4, 1.26], [6097, 80, 4, 0.72], [11089, 1, 4, 0.91], [7886, 4, 5, 0.44], [3893, 1, 4, 1.77], [1050, 2, 4, 0.85], [7036, 1, 4, 0.43], [7707, 2, 4, 1.25], [563, 2, 4, 0.2], [3891, 1, 4, 1.61], [6494, 1, 4, 0.47], [6630, 3, 5, 1.8], [192, 3, 13, 1.26], [21793, 1, 4, 1.54], [1243, 2, 6, 0.95], [8274, 3, 5, 0.83], [7708, 2, 4, 1.5], [2912, 1, 4, 0.35], [13023, 3, 5, 0.44], [11581, 29, 4, 0.87], [3889, 1, 4, 1.57], [9126, 1, 4, 0.99], [159, 3, 5, 0.6], [13033, 3, 5, 0.8], [11490, 1, 4, 0.73], [5208, 3, 6, 1.85], [1049, 2, 4, 0.2], [12229, 2, 5, 0.45], [5940, 3, 4, 0.88], [3495, 3, 13, 1.34], [12349, 1, 4, 2.14], [22558, 3, 4, 0.88], [5165, 1, 4, 0.87], [2331, 1, 4, 1.18], [201, 3, 4, 0.86], [83, 2, 4, 1.0], [332, 2, 4, 0.49], [229, 1, 4, 1.04], [214, 3, 10, 1.25], [951, 4, 4, 1.81], [1309, 1, 4, 0.92], [6496, 1, 4, 1.31], [247, 1, 4, 1.21], [2805, 137, 5, 2.25], [5812, 3, 4, 1.01], [7885, 4, 4, 0.56], [21269, 3, 4, 4.0], [215, 4, 4, 1.56], [9690, 1, 5, 1.08], [942, 3, 4, 0.55], [8898, 3, 4, 1.65], [335, 3, 11, 0.62], [20555, 2, 4, 0.44], [11914, 1, 4, 0.86], [10406, 10, 9, 1.72], [1703, 2, 4, 2.12], [9827, 3, 4, 0.39], [4940, 1, 4, 0.2], [23961, 3, 4, 3.83], [8635, 3, 4, 0.57], [5811, 3, 5, 0.5], [24257, 1, 4, 1.42], [11770, 1, 4, 1.14], [9491, 21, 11, 1.36], [186, 3, 9, 1.23], [3934, 5, 7, 1.36], [6935, 2, 307, 3.37], [305, 2, 150, 3.42], [8650, 2, 250, 4.6], [2778, 2, 158, 3.29], [8672, 2, 288, 5.35], [143, 2, 60, 3.95], [362, 2, 151, 2.36], [6936, 2, 288, 6.0], [145, 2, 154, 3.71], [11837, 2, 264, 4.78], [361, 2, 165, 3.07], [417, 2, 165, 3.07], [205, 2, 115, 2.39], [75, 2, 148, 4.82], [11681, 2, 270, 3.74], [1124, 2, 199, 2.9], [589, 2, 156, 2.06], [146, 2, 154, 3.93], [11737, 2, 38, 2.96], [8648, 2, 237, 3.43], [12721, 2, 290, 4.86], [523, 2, 165, 2.52], [8673, 2, 291, 5.08], [1504, 2, 223, 2.79], [8853, 2, 288, 5.91], [308, 1, 68, 5.6], [206, 2, 86, 3.53], [326, 2, 94, 3.24], [11835, 2, 264, 3.22], [990, 2, 56, 2.23], [8675, 2, 298, 4.91], [88, 10, 576, 5.1], [8915, 2, 126, 3.92], [144, 2, 154, 3.88], [1005, 2, 28, 3.58], [434, 2, 108, 2.47], [11739, 2, 61, 2.29], [142, 2, 165, 3.07], [8676, 2, 298, 6.0], [2424, 29, 35, 3.65], [6158, 2, 267, 3.83], [7704, 2, 179, 5.09], [2423, 29, 37, 4.08], [11836, 2, 264, 3.89], [2424, 80, 172, 4.0], [11738, 2, 61, 2.16], [1413, 15, 26, 2.93], [7706, 2, 187, 3.68], [2423, 80, 188, 3.66], [3478, 2, 20, 4.66], [7004, 1, 82, 4.31], [944, 15, 45, 2.59], [2054, 3, 495, 5.12], [74, 1, 199, 3.89], [3429, 15, 28, 2.0], [10149, 3, 934, 3.1], [10993, 2, 54, 2.68], [2055, 3, 495, 5.19], [18964, 1, 18, 3.41], [12343, 1, 638, 6.0], [94, 4, 123, 5.56], [13928, 1, 48, 4.01], [13028, 3, 154, 2.55], [13034, 3, 599, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 5, 0.2], [141, 2, 4, 0.2], [2327, 2, 5, 0.39], [2778, 2, 4, 0.2], [6936, 2, 6, 0.44], [362, 2, 4, 0.31], [326, 2, 4, 0.4], [305, 2, 4, 1.26], [205, 2, 4, 0.47], [2775, 2, 4, 0.2], [1446, 2, 4, 1.79], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 6, 0.2], [206, 2, 4, 1.44], [3840, 1, 4, 0.4], [11581, 29, 4, 0.81], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [21793, 1, 5, 0.61], [413, 1, 5, 0.81], [412, 1, 4, 1.55], [5165, 1, 4, 1.2], [1124, 2, 5, 0.79], [159, 3, 5, 0.44], [7036, 1, 5, 1.53], [615, 2, 4, 0.42], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [248, 1, 4, 0.23], [145, 2, 4, 1.42], [6952, 1, 4, 1.04], [345, 3, 6, 0.51], [6097, 80, 5, 2.38], [146, 2, 4, 0.78], [10993, 2, 5, 0.48], [2050, 3, 5, 1.22], [24664, 2, 17, 0.75], [144, 2, 5, 0.86], [2055, 3, 4, 0.41], [7005, 1, 4, 0.82], [2912, 1, 4, 1.2], [11770, 1, 4, 1.02], [3891, 1, 4, 0.42], [2057, 3, 4, 0.46], [432, 3, 4, 1.65], [997, 2, 5, 0.2], [998, 2, 5, 0.2], [6158, 2, 4, 0.36], [3893, 1, 4, 0.49], [6097, 29, 4, 2.41], [5165, 2, 7, 0.91], [12870, 1, 4, 1.19], [2424, 80, 4, 1.76], [10149, 3, 17, 1.01], [11772, 1, 4, 1.12], [6098, 80, 4, 1.39], [20927, 1, 4, 1.11], [9372, 1, 4, 0.98], [7885, 4, 4, 0.74], [11089, 1, 4, 0.57], [10574, 3, 6, 0.57], [5208, 3, 5, 0.94], [1492, 1, 5, 0.2], [3334, 5, 4, 1.14], [4032, 29, 5, 0.8], [346, 3, 4, 0.92], [11671, 1, 4, 2.02], [22316, 3, 4, 0.5], [13028, 3, 5, 1.11], [1519, 3, 15, 0.22], [3576, 25, 5, 1.76], [1490, 1, 4, 0.72], [12304, 1, 4, 1.84], [3889, 1, 4, 1.16], [2912, 2, 5, 1.2], [11583, 29, 4, 0.24], [13034, 3, 6, 1.27], [972, 3, 5, 1.01], [214, 3, 9, 0.64], [5151, 2, 4, 0.45], [229, 1, 4, 2.45], [11426, 25, 4, 1.3], [161, 3, 6, 1.45], [346, 1, 4, 1.18], [2331, 1, 4, 1.04], [5812, 3, 6, 2.01], [11490, 1, 4, 0.57], [8677, 3, 5, 0.5], [9289, 29, 4, 1.27], [1701, 2, 4, 1.53], [13893, 2, 4, 1.34], [75, 2, 5, 0.67], [10, 2, 4, 0.2], [1309, 1, 4, 0.41], [2805, 137, 4, 1.58], [3575, 25, 4, 1.11], [2160, 68, 4, 1.02], [11404, 2, 4, 0.45], [12764, 2, 6, 0.2], [13023, 3, 5, 1.51], [159, 1, 4, 0.45], [4253, 1, 4, 0.71], [5209, 3, 4, 0.89], [9069, 1, 4, 0.88], [957, 2, 5, 0.91], [6494, 1, 4, 0.46], [2438, 2, 5, 1.37], [9971, 2, 4, 0.69], [11813, 1, 4, 1.85], [14037, 3, 4, 1.22], [192, 3, 8, 1.79], [9967, 2, 4, 0.69], [4033, 29, 4, 1.6], [9491, 21, 9, 1.36], [159, 16, 4, 0.47], [24257, 1, 4, 1.47], [8943, 3, 5, 0.2], [2878, 1, 4, 1.43], [11150, 2, 5, 0.45], [5584, 3, 4, 0.8], [9964, 2, 4, 1.15], [105, 3, 4, 1.08], [22317, 3, 5, 0.2], [8283, 2, 5, 1.11], [10609, 1, 4, 0.48], [9965, 2, 4, 0.69], [10407, 10, 7, 2.02], [4076, 3, 4, 1.75], [4586, 10, 13, 0.8], [3495, 3, 9, 1.44], [335, 3, 12, 0.84], [14041, 3, 4, 0.49], [24258, 1, 4, 0.81], [7324, 1, 4, 0.56], [9910, 25, 4, 0.37], [7567, 3, 4, 1.06], [589, 2, 73, 2.68], [141, 2, 174, 3.26], [2327, 2, 153, 3.55], [2778, 2, 175, 2.68], [6936, 2, 280, 6.0], [362, 2, 142, 3.7], [326, 2, 110, 2.49], [305, 2, 175, 3.66], [205, 2, 117, 2.13], [2775, 2, 175, 2.68], [1446, 2, 36, 4.13], [8649, 2, 235, 4.05], [8853, 2, 329, 3.26], [593, 2, 243, 2.78], [3840, 1, 81, 1.8], [11581, 29, 74, 2.79], [1429, 2, 36, 4.38], [523, 2, 174, 3.66], [21793, 1, 268, 4.57], [413, 1, 92, 3.04], [412, 1, 98, 4.21], [5165, 1, 48, 4.02], [1124, 2, 197, 3.92], [159, 3, 424, 1.88], [7036, 1, 129, 4.43], [615, 2, 130, 2.04], [201, 3, 202, 4.66], [8089, 1, 82, 3.1], [248, 1, 26, 2.05], [6952, 1, 212, 5.71], [345, 3, 302, 4.35], [6097, 80, 69, 6.0], [146, 2, 181, 2.73], [24664, 2, 336, 2.94], [144, 2, 154, 2.95], [7005, 1, 85, 2.81], [2912, 1, 56, 3.59], [11770, 1, 244, 4.39], [3891, 1, 146, 2.49], [2057, 3, 172, 1.79], [432, 3, 320, 4.42], [997, 2, 259, 3.14], [998, 2, 245, 4.57], [6158, 2, 310, 1.92], [3893, 1, 125, 2.77], [5165, 2, 405, 2.95], [12870, 1, 155, 3.52], [2424, 80, 179, 4.62], [10149, 3, 884, 2.96], [11772, 1, 238, 5.34], [6098, 80, 54, 5.34], [20927, 1, 75, 3.34], [9372, 1, 273, 3.13], [11089, 1, 180, 3.24], [10574, 3, 548, 2.95], [5208, 3, 328, 3.92], [1492, 1, 13, 2.46], [3334, 5, 191, 4.14], [4032, 29, 97, 3.06], [11671, 1, 337, 5.19], [22316, 3, 378, 2.18], [13028, 3, 36, 4.99], [1519, 3, 965, 2.5]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 8, 1.19], [141, 2, 5, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 0.97], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [589, 2, 8, 0.2], [151, 1, 4, 0.4], [1776, 1, 4, 0.46], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 5, 0.3], [1777, 1, 5, 0.68], [6936, 2, 6, 0.92], [3, 2, 4, 1.01], [22247, 2, 5, 0.95], [8675, 2, 6, 0.72], [248, 1, 4, 0.37], [1007, 2, 7, 0.2], [2778, 2, 5, 0.2], [88, 10, 10, 0.44], [10, 2, 6, 0.2], [8677, 3, 6, 1.81], [412, 1, 4, 0.91], [10149, 3, 17, 1.32], [2054, 3, 7, 0.59], [11681, 2, 5, 1.12], [10825, 21, 9, 1.14], [13028, 3, 5, 0.5], [361, 2, 4, 0.65], [413, 1, 4, 1.45], [7004, 1, 4, 0.4], [2055, 3, 5, 0.79], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.74], [410, 1, 4, 0.61], [308, 1, 5, 0.72], [61, 3, 4, 0.71], [6158, 2, 6, 0.65], [432, 3, 5, 0.39], [1124, 2, 6, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 2.4], [167, 3, 5, 1.1], [9827, 3, 4, 0.2], [5812, 3, 6, 2.26], [3495, 3, 17, 1.31], [168, 3, 6, 0.29], [3893, 1, 4, 0.28], [12870, 1, 4, 2.58], [3889, 1, 4, 0.28], [10574, 3, 5, 1.69], [3891, 1, 4, 0.28], [8651, 2, 4, 1.45], [335, 3, 13, 1.1], [6097, 80, 4, 2.61], [95, 3, 17, 0.32], [20256, 2, 4, 0.48], [6098, 29, 4, 1.77], [11737, 2, 4, 0.97], [1490, 1, 4, 0.93], [214, 3, 9, 0.44], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [20927, 1, 5, 0.61], [9069, 1, 5, 0.84], [20498, 1, 5, 0.55], [1622, 1, 5, 0.88], [8898, 3, 6, 2.42], [6098, 80, 4, 2.48], [9760, 29, 4, 0.24], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.06], [997, 2, 4, 1.04], [13260, 29, 4, 0.85], [22554, 10, 11, 0.23], [13034, 3, 9, 1.01], [1243, 2, 4, 0.79], [20498, 3, 6, 0.6], [346, 3, 5, 0.52], [345, 3, 4, 0.58], [336, 15, 4, 0.35], [5513, 2, 4, 0.57], [22317, 3, 8, 0.26], [996, 2, 4, 1.39], [5946, 1, 4, 0.28], [5811, 3, 4, 2.01], [5813, 3, 5, 1.31], [9691, 1, 5, 1.91], [5086, 1, 8, 2.44], [8945, 3, 5, 0.84], [995, 2, 4, 1.56], [952, 4, 5, 2.48], [11085, 2, 5, 0.45], [1080, 3, 4, 0.38], [1413, 15, 4, 0.2], [8557, 3, 4, 0.2], [3049, 3, 6, 1.73], [20486, 3, 8, 2.5], [9082, 3, 14, 0.83], [2424, 80, 4, 1.76], [4076, 3, 4, 2.94], [1703, 2, 6, 1.38], [215, 4, 5, 3.57], [9081, 3, 8, 0.54], [823, 1, 4, 0.48], [20486, 1, 4, 0.51], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [13023, 3, 5, 1.48], [2854, 21, 13, 0.44], [11510, 3, 5, 0.46], [23611, 3, 4, 0.42], [470, 1, 4, 0.37], [14018, 3, 4, 0.42], [6497, 1, 5, 1.25], [8104, 1, 5, 0.2], [3047, 3, 5, 1.0], [18, 1, 4, 0.38], [2878, 1, 4, 1.57], [1414, 15, 4, 0.2], [20969, 3, 5, 1.12], [12923, 1, 4, 0.25], [10529, 29, 5, 0.48], [18964, 1, 4, 0.9], [13484, 1, 4, 1.93], [10780, 10, 4, 2.28], [8672, 2, 253, 5.32], [305, 2, 131, 3.89], [6935, 2, 283, 5.53], [141, 2, 137, 3.31], [2049, 3, 486, 2.4], [12721, 2, 267, 2.73], [205, 2, 97, 2.73], [130, 1, 31, 2.02], [589, 2, 145, 1.48], [151, 1, 46, 1.94], [1776, 1, 113, 2.89], [362, 2, 126, 3.69], [146, 2, 152, 3.07], [145, 2, 144, 1.86], [593, 2, 223, 3.12], [8915, 2, 180, 1.88], [2328, 2, 150, 3.41], [1777, 1, 107, 3.88], [6936, 2, 283, 4.87], [3, 2, 124, 3.17], [22247, 2, 267, 3.3], [8675, 2, 295, 3.11], [1007, 2, 240, 1.94], [2778, 2, 154, 3.46], [88, 10, 529, 2.92], [10, 2, 99, 2.98], [8677, 3, 261, 5.48], [412, 1, 74, 4.07], [10149, 3, 768, 5.65], [2054, 3, 417, 4.52], [11681, 2, 277, 3.87], [10825, 21, 608, 2.95], [13028, 3, 131, 3.33], [361, 2, 137, 2.45], [413, 1, 77, 3.74], [7004, 1, 71, 3.05], [2055, 3, 440, 2.87], [2057, 3, 440, 4.67], [8676, 2, 267, 2.88], [411, 2, 97, 3.17], [410, 1, 103, 2.95], [308, 1, 150, 3.59], [61, 3, 219, 3.1], [6158, 2, 243, 3.8], [432, 3, 268, 3.19], [1124, 2, 166, 2.14], [45, 2, 98, 6.0], [7005, 1, 71, 3.05], [5081, 2, 171, 3.4], [94, 4, 106, 4.95], [167, 3, 213, 3.88], [9827, 3, 78, 3.28], [3495, 3, 855, 4.69], [168, 3, 360, 3.87], [3893, 1, 109, 2.17], [3889, 1, 109, 2.17], [10574, 3, 519, 4.8], [3891, 1, 109, 2.17], [8651, 2, 228, 3.74], [6097, 80, 36, 5.79], [95, 3, 932, 3.36], [20256, 2, 98, 2.06], [11737, 2, 51, 2.82], [1490, 1, 52, 2.74]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 9, 2.42], [589, 2, 11, 0.8], [6935, 2, 22, 2.89], [2049, 3, 22, 1.93], [130, 1, 9, 1.68], [205, 2, 7, 0.96], [12721, 2, 10, 1.78], [144, 2, 7, 1.42], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.17], [8915, 2, 12, 0.5], [593, 2, 12, 2.08], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [8648, 2, 17, 5.0], [6936, 2, 12, 2.57], [2328, 2, 9, 1.55], [5151, 2, 7, 1.15], [147, 1, 7, 2.38], [88, 10, 21, 1.98], [141, 2, 7, 2.52], [83, 2, 7, 0.85], [74, 1, 7, 3.53], [2054, 3, 7, 1.03], [10825, 21, 13, 2.02], [362, 2, 7, 2.15], [1007, 2, 9, 0.73], [2057, 3, 7, 0.89], [345, 3, 11, 0.97], [2055, 3, 7, 0.81], [432, 3, 7, 1.15], [7005, 1, 7, 0.73], [21793, 1, 7, 4.02], [22247, 2, 13, 2.72], [57, 1, 9, 1.09], [410, 1, 7, 2.89], [3889, 1, 7, 0.8], [201, 3, 11, 0.87], [308, 1, 7, 2.55], [11234, 2, 8, 2.46], [12870, 1, 14, 5.0], [10149, 3, 21, 1.67], [7036, 1, 7, 2.49], [1124, 2, 14, 0.68], [35, 1, 7, 3.4], [9827, 3, 7, 1.6], [167, 3, 9, 2.77], [5081, 2, 11, 1.33], [94, 4, 7, 3.02], [8677, 3, 9, 1.26], [1654, 2, 7, 0.92], [411, 2, 7, 1.12], [1504, 2, 7, 2.22], [3891, 1, 7, 2.38], [79, 1, 7, 0.94], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [168, 3, 11, 3.72], [2336, 3, 9, 1.96], [5812, 3, 8, 1.92], [9760, 29, 7, 0.92], [23, 1, 7, 2.91], [1490, 1, 7, 0.92], [412, 1, 7, 2.68], [6158, 2, 10, 1.12], [20927, 1, 7, 2.73], [45, 2, 7, 2.72], [1767, 25, 7, 1.14], [361, 2, 7, 2.52], [5208, 3, 13, 3.29], [8651, 2, 7, 3.23], [335, 3, 20, 0.92], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [25, 1, 7, 2.91], [346, 1, 7, 2.76], [1622, 1, 7, 3.2], [214, 3, 18, 0.7], [8674, 2, 7, 1.7], [2049, 1, 7, 1.19], [21269, 3, 7, 3.21], [413, 1, 7, 2.42], [998, 2, 7, 2.35], [34, 1, 7, 3.56], [3495, 3, 17, 2.26], [856, 1, 9, 0.68], [8898, 3, 9, 2.78], [1070, 7, 15, 0.84], [11116, 1, 7, 3.42], [1766, 25, 7, 3.12], [9691, 1, 7, 3.89], [20498, 1, 7, 2.72], [346, 3, 7, 1.82], [5946, 1, 7, 2.23], [38, 1, 7, 3.56], [9829, 3, 7, 2.25], [14017, 3, 7, 1.75], [974, 3, 9, 2.39], [1091, 1, 7, 1.75], [152, 21, 7, 1.5], [20498, 3, 10, 1.9], [39, 1, 7, 3.56], [82, 2, 7, 2.52], [9372, 1, 7, 3.6], [1080, 3, 9, 1.34], [14037, 3, 9, 1.09], [5086, 1, 7, 4.7], [996, 2, 7, 4.7], [1767, 2, 7, 1.71], [5209, 3, 7, 3.29], [192, 3, 20, 4.76], [5811, 3, 7, 3.8], [3048, 3, 7, 3.93], [9828, 3, 7, 2.93], [972, 3, 10, 2.0], [24, 1, 7, 2.21], [13260, 29, 7, 2.71], [10780, 10, 7, 3.58], [5513, 2, 9, 1.86], [5813, 3, 7, 3.55], [4203, 1, 9, 1.06], [952, 4, 7, 4.41], [202, 2, 7, 3.38], [3981, 3, 17, 2.74], [8945, 3, 8, 2.64], [13034, 3, 8, 2.63], [36, 1, 7, 3.56], [2878, 1, 7, 1.97], [336, 15, 7, 0.67], [3900, 3, 7, 0.94], [955, 2, 7, 0.69], [9082, 3, 29, 2.75], [1490, 1, 61, 1.99], [412, 1, 84, 4.61], [6158, 2, 266, 3.41], [20927, 1, 81, 3.8], [45, 2, 108, 4.78], [1767, 25, 194, 3.42], [361, 2, 156, 3.59], [5208, 3, 655, 4.36], [8651, 2, 260, 4.3], [335, 3, 1322, 2.77], [95, 3, 1101, 3.56], [9069, 1, 137, 2.7], [25, 1, 132, 3.98], [1622, 1, 123, 4.27], [214, 3, 661, 1.95], [8674, 2, 306, 2.77], [21269, 3, 344, 4.28], [413, 1, 87, 4.11], [998, 2, 256, 3.42], [34, 1, 113, 4.63], [3495, 3, 975, 4.43], [856, 1, 37, 1.75], [8898, 3, 285, 5.33], [1070, 7, 595, 3.4], [11116, 1, 27, 4.05], [1766, 25, 189, 4.19], [9691, 1, 76, 4.96], [20498, 1, 99, 4.36], [346, 3, 693, 3.06], [5946, 1, 125, 4.03], [38, 1, 113, 4.63], [9829, 3, 80, 3.32], [14017, 3, 225, 3.39], [974, 3, 150, 4.2], [1091, 1, 40, 2.75], [20498, 3, 589, 3.94], [39, 1, 113, 4.63], [9372, 1, 231, 5.4], [1080, 3, 134, 3.64], [5086, 1, 213, 5.77], [996, 2, 256, 5.77], [1767, 2, 35, 3.19], [5209, 3, 655, 4.36], [192, 3, 1567, 5.84], [5811, 3, 201, 4.69], [3048, 3, 273, 5.73], [9828, 3, 89, 4.0], [972, 3, 601, 3.68], [24, 1, 114, 3.64], [13260, 29, 81, 3.78], [10780, 10, 434, 5.64], [4203, 1, 50, 3.11], [952, 4, 77, 5.48], [202, 2, 73, 4.42], [3981, 3, 1716, 3.78], [8945, 3, 498, 3.64], [13034, 3, 598, 4.22], [36, 1, 129, 4.63], [2878, 1, 95, 3.04], [3900, 3, 47, 2.01], [955, 2, 128, 1.76], [9082, 3, 2905, 3.83]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [589, 2, 10, 1.45], [6935, 2, 11, 4.09], [2778, 2, 14, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [2328, 2, 14, 1.39], [6936, 2, 7, 3.27], [8648, 2, 14, 3.54], [205, 2, 7, 1.6], [8650, 2, 7, 3.13], [593, 2, 14, 2.27], [145, 2, 7, 1.67], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 9, 3.79], [88, 10, 29, 2.1], [2776, 2, 9, 2.0], [141, 2, 7, 0.72], [7004, 1, 7, 2.1], [1446, 2, 7, 1.5], [1124, 2, 7, 1.59], [206, 2, 7, 1.83], [142, 2, 9, 2.28], [2912, 1, 7, 3.71], [11685, 2, 9, 1.76], [10993, 2, 9, 1.0], [7886, 4, 7, 0.8], [5165, 1, 7, 2.62], [12870, 1, 11, 4.07], [3893, 1, 7, 0.71], [2055, 3, 7, 1.06], [1622, 1, 7, 1.38], [417, 2, 7, 2.02], [21793, 1, 7, 1.7], [2054, 3, 7, 3.41], [3889, 1, 7, 1.13], [7573, 1, 14, 5.0], [523, 2, 7, 1.19], [7885, 4, 9, 1.19], [61, 3, 9, 2.43], [9372, 1, 7, 3.88], [10, 2, 9, 1.14], [3891, 1, 7, 1.21], [10149, 3, 21, 2.82], [5208, 3, 14, 0.79], [75, 2, 7, 3.31], [9491, 21, 29, 0.95], [20927, 1, 7, 2.86], [997, 2, 7, 4.68], [12721, 2, 10, 3.06], [35, 1, 9, 3.23], [3, 2, 9, 1.84], [5165, 2, 8, 2.19], [11234, 2, 7, 2.7], [33, 1, 7, 3.17], [998, 2, 7, 3.08], [94, 4, 7, 3.76], [22247, 2, 7, 2.77], [972, 3, 10, 2.36], [5076, 1, 9, 2.68], [6158, 2, 11, 1.56], [34, 1, 7, 3.25], [2805, 137, 9, 4.69], [2912, 2, 12, 3.56], [2424, 80, 7, 2.78], [38, 1, 7, 3.3], [8104, 1, 7, 3.87], [8898, 3, 7, 5.0], [12212, 29, 11, 0.9], [39, 1, 7, 3.27], [13928, 1, 7, 2.54], [11952, 1, 7, 1.52], [1414, 15, 7, 0.75], [24257, 1, 7, 1.25], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [3495, 3, 18, 3.02], [9691, 1, 7, 2.83], [11770, 1, 7, 4.09], [192, 3, 15, 2.09], [3048, 3, 7, 1.77], [11490, 1, 7, 1.37], [995, 2, 7, 4.0], [5946, 1, 7, 1.9], [23961, 3, 7, 3.68], [411, 2, 7, 2.12], [11772, 1, 7, 3.6], [632, 11, 21, 1.29], [161, 3, 9, 4.12], [1703, 2, 7, 2.81], [10407, 10, 12, 3.01], [74, 1, 7, 4.99], [13023, 3, 7, 2.91], [1523, 1, 7, 1.08], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [2331, 1, 7, 3.16], [1519, 3, 20, 0.83], [21269, 3, 7, 3.95], [1274, 1, 7, 1.55], [10410, 10, 16, 2.97], [3430, 15, 7, 2.93], [12764, 2, 8, 1.03], [1492, 1, 7, 1.14], [972, 1, 7, 2.36], [11236, 2, 7, 1.19], [214, 3, 26, 1.0], [24258, 1, 7, 2.51], [6097, 29, 7, 2.5], [6097, 80, 7, 2.91], [1080, 3, 7, 2.78], [13893, 2, 7, 2.25], [10780, 10, 7, 4.08], [3047, 3, 7, 3.16], [8674, 2, 7, 4.14], [9081, 3, 12, 3.28], [13928, 2, 7, 2.54], [3576, 29, 7, 3.21], [10408, 10, 10, 2.9], [12662, 1, 7, 1.44], [1243, 2, 7, 0.79], [13034, 3, 7, 2.36], [13264, 29, 7, 0.9], [2436, 4, 7, 3.38], [45, 2, 7, 2.25], [2438, 2, 8, 2.33], [11813, 1, 7, 1.66], [3334, 5, 7, 2.7], [7704, 2, 7, 1.67], [20486, 3, 7, 2.91], [1277, 1, 7, 3.27], [11812, 1, 7, 0.92], [8659, 1, 7, 1.64], [10936, 2, 7, 3.04], [8104, 1, 222, 5.07], [8898, 3, 295, 6.0], [12212, 29, 132, 3.28], [39, 1, 127, 4.47], [13928, 1, 54, 3.74], [11952, 1, 207, 2.72], [1414, 15, 114, 1.95], [24257, 1, 139, 2.45], [7567, 3, 69, 4.46], [2424, 29, 34, 3.91], [3495, 3, 951, 4.23], [9691, 1, 79, 4.03], [11770, 1, 219, 5.29], [192, 3, 1454, 3.29], [3048, 3, 282, 2.97], [11490, 1, 118, 2.82], [995, 2, 272, 5.2], [5946, 1, 144, 3.1], [23961, 3, 340, 4.88], [411, 2, 107, 3.32], [11772, 1, 233, 4.79], [632, 11, 855, 2.49], [161, 3, 754, 5.32], [1703, 2, 162, 4.01], [74, 1, 213, 6.0], [13023, 3, 683, 4.12], [1523, 1, 54, 2.28], [4253, 1, 199, 1.95], [5164, 1, 54, 3.19], [2331, 1, 121, 4.36], [1519, 3, 566, 1.72], [21269, 3, 318, 5.16], [1274, 1, 81, 2.75], [12764, 2, 855, 2.24], [1492, 1, 43, 2.34], [972, 1, 114, 3.57], [11236, 2, 255, 2.39], [214, 3, 604, 2.18], [6097, 29, 35, 3.7], [6097, 80, 69, 4.11], [1080, 3, 125, 4.12], [13893, 2, 316, 3.45], [10780, 10, 416, 5.57], [3047, 3, 265, 4.84], [8674, 2, 291, 5.34], [9081, 3, 535, 4.47], [13928, 2, 27, 3.74], [3576, 29, 8, 3.88], [12662, 1, 71, 2.64], [1243, 2, 111, 1.99], [13034, 3, 680, 3.56], [13264, 29, 85, 2.1], [2436, 4, 128, 4.59], [45, 2, 122, 3.45], [2438, 2, 727, 3.53], [11813, 1, 326, 2.86], [3334, 5, 191, 3.9], [7704, 2, 202, 2.87], [20486, 3, 683, 4.12], [1277, 1, 222, 4.47], [11812, 1, 277, 2.13], [8659, 1, 139, 2.84], [10936, 2, 153, 4.24]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [326, 2, 7, 1.37], [144, 2, 7, 2.25], [11685, 2, 7, 3.6], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [205, 2, 7, 0.74], [141, 2, 11, 1.6], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [8650, 2, 7, 2.25], [143, 2, 7, 2.02], [2328, 2, 7, 0.81], [6936, 2, 14, 4.75], [2778, 2, 9, 1.68], [206, 2, 7, 1.57], [146, 2, 9, 1.81], [88, 10, 18, 2.29], [7004, 1, 7, 2.64], [9507, 3, 7, 0.69], [7036, 1, 7, 3.33], [145, 2, 7, 1.75], [1446, 2, 9, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [2055, 3, 7, 4.17], [10993, 2, 7, 0.98], [523, 2, 7, 1.81], [11737, 2, 7, 1.89], [75, 2, 7, 2.14], [2050, 3, 7, 4.18], [12870, 1, 7, 3.81], [3840, 1, 7, 0.77], [3893, 1, 7, 0.83], [12350, 1, 7, 3.92], [2057, 3, 7, 3.77], [13028, 3, 7, 1.25], [2054, 3, 7, 4.18], [7084, 3, 7, 2.03], [3889, 1, 7, 1.75], [2991, 3, 7, 3.39], [20927, 1, 7, 2.14], [3, 2, 7, 1.0], [7005, 1, 7, 1.54], [997, 2, 7, 1.75], [94, 4, 7, 4.1], [10, 2, 7, 0.69], [21793, 1, 7, 3.05], [7885, 4, 9, 1.28], [996, 2, 7, 3.03], [3891, 1, 7, 0.87], [5165, 1, 7, 2.12], [998, 2, 7, 3.03], [6158, 2, 7, 4.2], [8672, 2, 7, 2.68], [9491, 21, 20, 1.19], [11739, 2, 7, 3.41], [5165, 2, 8, 2.12], [2912, 1, 7, 3.97], [972, 3, 8, 3.84], [956, 2, 7, 0.67], [413, 1, 7, 1.67], [98, 11, 16, 2.1], [346, 3, 7, 0.86], [10388, 2, 7, 1.16], [411, 2, 7, 2.21], [346, 1, 7, 0.83], [1492, 1, 7, 0.92], [83, 2, 9, 1.41], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [7567, 3, 7, 2.83], [5208, 3, 8, 3.29], [410, 1, 7, 2.57], [22316, 3, 7, 1.23], [9372, 1, 7, 4.15], [995, 2, 7, 3.03], [13928, 1, 7, 2.6], [9081, 3, 12, 3.66], [22247, 2, 7, 2.11], [336, 15, 7, 2.25], [308, 1, 7, 3.42], [161, 3, 8, 4.99], [2912, 2, 8, 3.96], [10631, 2, 7, 2.95], [1622, 1, 7, 2.9], [11953, 1, 7, 1.06], [22317, 3, 7, 1.67], [345, 3, 7, 1.46], [23611, 3, 9, 2.98], [9082, 3, 33, 2.42], [229, 1, 7, 4.1], [6497, 1, 7, 3.08], [192, 3, 20, 1.83], [37, 1, 7, 2.48], [24257, 1, 7, 4.57], [972, 1, 7, 3.34], [11767, 1, 7, 0.83], [12271, 2, 7, 4.85], [10410, 10, 10, 2.97], [82, 2, 7, 1.27], [14037, 3, 7, 4.04], [10407, 10, 10, 3.01], [7704, 2, 7, 2.79], [34, 1, 7, 2.04], [74, 1, 7, 3.1], [3048, 3, 7, 2.19], [1413, 15, 7, 0.69], [20498, 3, 8, 0.7], [38, 1, 7, 1.52], [335, 3, 15, 1.63], [2331, 1, 7, 2.96], [12338, 29, 7, 0.94], [215, 4, 7, 4.81], [12721, 2, 7, 1.73], [152, 21, 7, 2.0], [9, 1, 7, 1.12], [9964, 2, 7, 4.59], [1523, 1, 7, 0.85], [4253, 1, 7, 1.29], [11510, 3, 8, 1.74], [45, 2, 7, 4.04], [8673, 2, 7, 4.12], [12764, 2, 10, 1.18], [10093, 3, 15, 1.68], [5209, 3, 7, 3.29], [7705, 2, 7, 2.79], [1703, 2, 7, 3.77], [2805, 137, 8, 2.05], [7706, 2, 7, 4.27], [3047, 3, 7, 3.13], [12212, 29, 7, 1.19], [1895, 3, 7, 4.81], [9971, 2, 7, 1.35], [346, 1, 166, 1.96], [1492, 1, 40, 2.05], [83, 2, 19, 2.46], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 64, 3.99], [5208, 3, 531, 4.39], [22316, 3, 291, 3.17], [9372, 1, 248, 5.27], [995, 2, 257, 4.15], [13928, 1, 45, 3.73], [9081, 3, 497, 4.78], [22247, 2, 306, 3.24], [336, 15, 112, 3.38], [308, 1, 171, 4.55], [161, 3, 657, 6.0], [2912, 2, 388, 5.09], [10631, 2, 220, 4.08], [1622, 1, 113, 4.02], [11953, 1, 196, 2.19], [22317, 3, 291, 3.63], [345, 3, 274, 3.17], [23611, 3, 351, 4.11], [9082, 3, 2380, 3.58], [229, 1, 88, 5.23], [6497, 1, 39, 4.21], [192, 3, 1377, 2.94], [37, 1, 103, 3.61], [24257, 1, 126, 5.7], [972, 1, 96, 4.47], [11767, 1, 150, 2.12], [12271, 2, 67, 5.97], [82, 2, 61, 2.4], [14037, 3, 353, 5.17], [7704, 2, 172, 3.92], [34, 1, 103, 3.24], [74, 1, 198, 4.23], [3048, 3, 250, 3.31], [1413, 15, 100, 1.82], [20498, 3, 633, 1.83], [38, 1, 108, 2.64], [335, 3, 1398, 2.77], [2331, 1, 122, 4.09], [12338, 29, 49, 2.07], [215, 4, 40, 5.94], [12721, 2, 306, 2.85], [9, 1, 8, 1.93], [9964, 2, 285, 5.72], [1523, 1, 51, 1.98], [4253, 1, 169, 2.42], [11510, 3, 630, 2.87], [45, 2, 114, 5.17], [8673, 2, 302, 5.25], [12764, 2, 719, 2.49], [10093, 3, 889, 2.8], [5209, 3, 531, 4.39], [7705, 2, 172, 3.92], [1703, 2, 159, 4.89], [2805, 137, 184, 3.18], [7706, 2, 172, 5.4], [3047, 3, 289, 4.25], [12212, 29, 117, 2.32], [1895, 3, 318, 5.94], [9971, 2, 285, 2.48]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 28, 3.05], [362, 2, 9, 1.63], [2049, 3, 20, 0.56], [589, 2, 15, 0.55], [3, 2, 7, 2.22], [75, 2, 14, 1.74], [1776, 1, 7, 1.12], [141, 2, 7, 1.62], [8672, 2, 15, 2.16], [130, 1, 7, 0.77], [205, 2, 7, 2.2], [2778, 2, 8, 0.81], [11681, 2, 12, 5.0], [1777, 1, 7, 2.22], [305, 2, 7, 0.94], [6936, 2, 10, 2.79], [8648, 2, 9, 3.46], [593, 2, 11, 2.33], [990, 2, 7, 0.75], [2328, 2, 11, 0.94], [248, 1, 7, 0.71], [88, 10, 26, 1.69], [1007, 2, 12, 1.03], [83, 2, 7, 0.96], [345, 3, 7, 1.35], [5151, 2, 9, 1.71], [8650, 2, 9, 3.5], [412, 1, 9, 3.14], [361, 2, 7, 2.63], [22247, 2, 9, 2.4], [201, 3, 8, 1.25], [57, 1, 11, 0.68], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 1.78], [7004, 1, 7, 1.34], [2054, 3, 9, 3.22], [10825, 21, 13, 2.11], [413, 1, 7, 2.79], [167, 3, 7, 2.5], [2057, 3, 7, 3.22], [74, 1, 7, 3.5], [6158, 2, 12, 2.62], [308, 1, 7, 2.44], [168, 3, 7, 1.38], [432, 3, 7, 1.61], [10, 2, 21, 1.91], [13028, 3, 7, 1.61], [7887, 4, 7, 0.77], [7036, 1, 7, 5.0], [3495, 3, 21, 1.64], [214, 3, 15, 0.77], [12870, 1, 11, 5.0], [335, 3, 46, 3.03], [5081, 2, 9, 0.59], [79, 1, 7, 0.73], [5208, 3, 13, 3.4], [9827, 3, 7, 0.86], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [95, 3, 21, 3.57], [5812, 3, 10, 2.24], [3893, 1, 7, 1.67], [1504, 2, 11, 0.89], [13260, 29, 7, 1.89], [23, 1, 7, 2.91], [94, 4, 7, 4.62], [7005, 1, 7, 1.44], [1490, 1, 7, 2.0], [411, 2, 7, 1.46], [25, 1, 7, 3.39], [998, 2, 7, 2.66], [1124, 2, 10, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [10574, 3, 9, 2.32], [5086, 1, 9, 2.04], [9691, 1, 7, 4.14], [856, 1, 7, 1.17], [2878, 1, 7, 3.5], [5660, 2, 7, 3.65], [11914, 1, 14, 1.02], [997, 2, 11, 3.39], [20927, 1, 9, 1.75], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [8676, 2, 7, 1.94], [5209, 3, 9, 0.68], [9081, 3, 14, 3.64], [1622, 1, 10, 0.85], [192, 3, 22, 5.0], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [8674, 2, 10, 3.36], [8898, 3, 7, 5.0], [5513, 2, 7, 1.88], [1070, 7, 13, 1.15], [996, 2, 9, 4.36], [1091, 1, 7, 1.35], [12661, 1, 7, 5.0], [14037, 3, 7, 0.89], [13034, 3, 12, 3.24], [6097, 29, 14, 2.33], [1519, 3, 26, 0.67], [22317, 3, 8, 1.15], [24, 1, 7, 2.51], [20498, 3, 10, 3.52], [8274, 3, 9, 1.8], [4203, 1, 9, 1.27], [10529, 29, 9, 2.95], [9760, 29, 7, 0.62], [82, 2, 7, 1.39], [6097, 80, 7, 2.66], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [9082, 3, 21, 1.67], [11767, 1, 7, 0.9], [2104, 3, 12, 3.03], [23611, 3, 7, 3.74], [995, 2, 11, 4.19], [6098, 80, 7, 2.7], [66, 1, 7, 0.81], [11769, 1, 7, 0.9], [6098, 29, 7, 1.86], [66, 16, 7, 0.9], [13484, 1, 7, 4.31], [8945, 3, 8, 1.72], [2109, 3, 15, 0.83], [10780, 10, 7, 4.39], [20486, 1, 7, 4.81], [9372, 1, 7, 2.18], [5946, 1, 7, 2.62], [2537, 1, 7, 2.29], [972, 3, 8, 2.36], [7005, 1, 71, 2.72], [1490, 1, 52, 2.95], [411, 2, 97, 2.73], [25, 1, 58, 4.15], [998, 2, 233, 5.32], [1124, 2, 193, 2.68], [3980, 4, 500, 3.71], [21269, 3, 261, 6.0], [10574, 3, 450, 3.47], [5086, 1, 163, 4.44], [9691, 1, 66, 5.09], [856, 1, 31, 2.12], [2878, 1, 71, 4.45], [5660, 2, 154, 4.6], [11914, 1, 75, 3.92], [997, 2, 233, 4.34], [20927, 1, 69, 2.66], [9829, 3, 71, 3.95], [1703, 2, 144, 5.03], [8676, 2, 267, 2.88], [5209, 3, 499, 3.11], [9081, 3, 457, 6.0], [1622, 1, 102, 1.8], [192, 3, 1360, 6.0], [952, 4, 64, 6.0], [20498, 1, 102, 2.74], [8674, 2, 267, 4.31], [8898, 3, 247, 6.0], [1070, 7, 522, 3.06], [996, 2, 221, 5.54], [1091, 1, 43, 3.18], [12661, 1, 70, 5.96], [14037, 3, 180, 1.65], [13034, 3, 520, 4.92], [6097, 29, 33, 3.51], [1519, 3, 1450, 2.5], [22317, 3, 280, 2.81], [24, 1, 99, 4.06], [20498, 3, 522, 4.7], [4203, 1, 48, 2.93], [10529, 29, 39, 4.25], [9760, 29, 64, 2.78], [82, 2, 54, 2.34], [6097, 80, 62, 3.61], [1413, 15, 87, 2.97], [9082, 3, 2175, 3.67], [11767, 1, 171, 1.85], [23611, 3, 327, 4.7], [995, 2, 233, 5.84], [6098, 80, 68, 3.65], [66, 1, 36, 1.76], [11769, 1, 171, 1.85], [6098, 29, 36, 2.81], [66, 16, 80, 1.85], [13484, 1, 182, 5.25], [8945, 3, 612, 2.66], [2109, 3, 482, 1.78], [10780, 10, 387, 5.34], [20486, 1, 102, 5.76], [9372, 1, 213, 3.13], [5946, 1, 128, 3.57], [2537, 1, 37, 3.24], [972, 3, 618, 3.31]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [8915, 2, 12, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [326, 2, 14, 2.52], [6936, 2, 7, 3.27], [8650, 2, 11, 5.0], [8648, 2, 7, 3.27], [1446, 2, 7, 1.57], [7004, 1, 9, 2.45], [205, 2, 7, 1.67], [2775, 2, 7, 1.79], [144, 2, 9, 2.5], [10, 2, 9, 2.05], [1124, 2, 7, 1.59], [94, 4, 7, 3.76], [7885, 4, 7, 1.19], [3893, 1, 9, 1.86], [7886, 4, 7, 0.92], [141, 2, 9, 2.28], [146, 2, 7, 2.31], [3891, 1, 9, 1.3], [2055, 3, 7, 1.9], [75, 2, 9, 3.67], [21793, 1, 7, 1.66], [206, 2, 7, 1.37], [12349, 1, 7, 4.12], [10993, 2, 7, 0.87], [5208, 3, 11, 2.22], [2054, 3, 7, 4.17], [3889, 1, 26, 2.13], [3980, 4, 8, 2.38], [7005, 1, 7, 1.79], [12870, 1, 7, 3.72], [145, 2, 7, 3.0], [5165, 1, 7, 2.07], [2912, 1, 7, 3.71], [10149, 3, 21, 3.06], [20927, 1, 9, 2.86], [9760, 29, 7, 0.97], [998, 2, 7, 4.0], [2436, 4, 9, 1.11], [7887, 4, 11, 2.05], [417, 2, 9, 2.28], [997, 2, 7, 2.49], [2424, 80, 7, 2.78], [3, 2, 7, 2.2], [6158, 2, 11, 1.56], [632, 11, 21, 1.4], [5076, 1, 9, 2.78], [9491, 21, 26, 3.05], [972, 3, 9, 2.36], [229, 1, 7, 3.17], [214, 3, 15, 1.02], [74, 1, 7, 4.99], [3495, 3, 18, 2.56], [523, 2, 7, 1.19], [11770, 1, 7, 3.83], [7573, 1, 16, 5.0], [11953, 1, 7, 1.6], [5165, 2, 8, 2.08], [24257, 1, 7, 1.44], [12721, 2, 7, 1.73], [2423, 80, 9, 4.42], [1492, 1, 7, 1.14], [12350, 1, 7, 5.0], [11772, 1, 7, 3.6], [192, 3, 15, 2.09], [1622, 1, 7, 3.49], [2912, 2, 12, 4.3], [22317, 3, 7, 0.81], [8677, 3, 7, 2.5], [2438, 2, 8, 3.57], [5434, 1, 7, 2.89], [8898, 3, 7, 5.0], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 2.71], [9372, 1, 7, 3.93], [4253, 1, 7, 0.75], [3975, 4, 9, 3.74], [3900, 3, 7, 1.68], [33, 1, 7, 1.96], [5209, 3, 53, 3.59], [6496, 1, 7, 3.25], [7567, 3, 7, 2.27], [37, 1, 7, 1.59], [5946, 1, 9, 0.77], [2805, 137, 7, 2.67], [335, 3, 15, 0.89], [11812, 1, 7, 0.9], [12764, 2, 10, 1.23], [10407, 10, 12, 3.01], [220, 4, 7, 3.39], [6097, 80, 7, 2.16], [972, 1, 7, 2.36], [1703, 2, 7, 1.67], [10388, 2, 7, 1.17], [24258, 1, 7, 2.51], [1339, 3, 16, 0.66], [11490, 1, 7, 0.96], [38, 1, 7, 1.96], [35, 1, 7, 1.96], [1414, 15, 7, 0.75], [1274, 1, 7, 1.33], [22247, 2, 7, 2.11], [161, 3, 9, 4.12], [11236, 2, 7, 1.19], [4232, 80, 7, 3.57], [2104, 3, 15, 1.32], [1895, 3, 7, 1.69], [12212, 29, 7, 1.25], [12979, 25, 15, 1.36], [13893, 2, 7, 2.25], [10631, 2, 7, 3.04], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [216, 4, 7, 1.17], [1309, 1, 7, 0.87], [8635, 3, 7, 2.45], [10093, 3, 14, 1.76], [12728, 1, 7, 2.37], [4940, 1, 7, 0.98], [8104, 1, 7, 3.87], [8274, 3, 7, 2.04], [76, 2, 7, 0.9], [788, 2, 7, 1.02], [12501, 1, 7, 2.39], [13928, 1, 7, 3.04], [5164, 1, 7, 1.99], [11942, 29, 7, 1.31], [10386, 2, 7, 2.99], [19931, 1, 7, 2.43], [11772, 1, 233, 4.79], [192, 3, 1454, 3.29], [1622, 1, 113, 4.69], [2912, 2, 414, 5.51], [22317, 3, 365, 2.01], [8677, 3, 340, 3.7], [2438, 2, 690, 5.39], [8898, 3, 279, 6.0], [823, 1, 42, 2.45], [361, 2, 162, 2.97], [2424, 29, 39, 3.91], [9372, 1, 264, 5.13], [4253, 1, 199, 1.95], [3975, 4, 476, 4.93], [3900, 3, 10, 2.54], [33, 1, 117, 3.17], [5209, 3, 117, 4.26], [6496, 1, 42, 4.45], [7567, 3, 80, 3.47], [37, 1, 117, 2.79], [5946, 1, 136, 2.36], [2805, 137, 191, 3.87], [335, 3, 1510, 2.09], [11812, 1, 249, 2.1], [12764, 2, 768, 2.59], [220, 4, 50, 4.59], [6097, 80, 69, 3.49], [972, 1, 114, 3.57], [1703, 2, 189, 2.87], [10388, 2, 254, 2.37], [1339, 3, 406, 1.31], [11490, 1, 125, 2.16], [38, 1, 127, 3.17], [35, 1, 117, 3.17], [1414, 15, 114, 1.95], [1274, 1, 95, 2.53], [22247, 2, 328, 3.32], [161, 3, 754, 5.32], [11236, 2, 255, 2.39], [4232, 80, 171, 4.77], [2104, 3, 389, 2.52], [1895, 3, 339, 2.88], [12212, 29, 132, 2.45], [12979, 25, 683, 2.57], [13893, 2, 316, 3.45], [10631, 2, 236, 4.24], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [216, 4, 44, 2.37], [1309, 1, 60, 2.07], [10093, 3, 950, 2.97], [12728, 1, 340, 3.57], [4940, 1, 140, 2.18], [8104, 1, 222, 5.07], [76, 2, 128, 2.1], [788, 2, 43, 2.08], [12501, 1, 343, 3.6], [13928, 1, 49, 4.24], [5164, 1, 54, 3.19], [11942, 29, 111, 2.51], [10386, 2, 254, 4.19], [19931, 1, 472, 3.64]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 9, 2.84], [11681, 2, 9, 3.84], [8915, 2, 8, 1.51], [589, 2, 8, 0.61], [326, 2, 11, 1.94], [2327, 2, 7, 0.98], [8650, 2, 9, 2.48], [7036, 1, 7, 2.85], [593, 2, 10, 1.04], [11685, 2, 7, 3.73], [3893, 1, 7, 0.73], [141, 2, 9, 1.83], [2775, 2, 7, 2.04], [206, 2, 7, 1.5], [9507, 3, 7, 0.69], [7004, 1, 7, 2.52], [3840, 1, 7, 0.77], [3980, 4, 7, 2.37], [143, 2, 9, 3.03], [3891, 1, 9, 1.24], [2050, 3, 7, 3.3], [146, 2, 9, 2.61], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [3889, 1, 7, 0.67], [2055, 3, 9, 3.45], [2328, 2, 7, 0.81], [10, 2, 7, 0.69], [2054, 3, 7, 3.67], [362, 2, 7, 2.81], [12870, 1, 9, 3.96], [8672, 2, 14, 2.43], [10993, 2, 7, 1.81], [12349, 1, 7, 3.92], [3975, 4, 7, 2.76], [7084, 3, 7, 2.36], [21793, 1, 7, 2.58], [5165, 1, 7, 2.14], [2057, 3, 9, 5.0], [1446, 2, 7, 1.73], [75, 2, 7, 0.89], [5208, 3, 8, 3.29], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 2.23], [94, 4, 7, 4.1], [3982, 3, 21, 2.58], [7005, 1, 7, 1.64], [3495, 3, 21, 3.84], [20927, 1, 7, 2.82], [997, 2, 7, 3.03], [7887, 4, 9, 2.05], [6158, 2, 7, 4.2], [2912, 1, 7, 3.97], [82, 2, 7, 1.52], [61, 3, 7, 2.71], [192, 3, 27, 3.04], [35, 1, 9, 3.13], [956, 2, 7, 0.67], [417, 2, 7, 1.18], [5165, 2, 8, 2.12], [22316, 3, 9, 1.23], [6497, 1, 7, 3.08], [998, 2, 7, 3.03], [11953, 1, 9, 0.9], [7567, 3, 7, 3.73], [286, 3, 7, 1.39], [11769, 1, 7, 2.41], [389, 4, 7, 1.64], [1492, 1, 7, 0.92], [996, 2, 9, 3.58], [346, 3, 7, 2.22], [12344, 1, 7, 3.92], [4176, 4, 11, 3.49], [11767, 1, 7, 1.5], [39, 1, 7, 2.0], [7573, 1, 7, 4.14], [410, 1, 7, 2.4], [6496, 1, 7, 2.09], [37, 1, 7, 1.75], [8677, 3, 7, 3.84], [972, 3, 8, 3.56], [74, 1, 7, 3.1], [12721, 2, 7, 2.35], [411, 2, 7, 1.37], [2104, 3, 12, 3.03], [11490, 1, 7, 1.04], [2436, 4, 7, 3.65], [12212, 29, 7, 1.19], [22317, 3, 9, 1.42], [2912, 2, 8, 3.96], [201, 3, 9, 2.61], [345, 3, 7, 0.96], [336, 15, 7, 1.8], [1413, 15, 7, 1.12], [1274, 1, 7, 1.94], [11085, 2, 8, 3.16], [8121, 3, 7, 1.17], [1277, 1, 7, 2.75], [3979, 3, 8, 2.31], [3, 2, 14, 2.68], [14037, 3, 7, 4.04], [21269, 3, 7, 5.0], [823, 1, 7, 1.08], [38, 1, 7, 1.75], [13023, 3, 7, 2.92], [6494, 1, 7, 0.89], [9, 1, 7, 0.69], [12271, 2, 7, 4.85], [8673, 2, 7, 4.12], [36, 1, 7, 1.27], [9784, 1, 7, 2.16], [22247, 2, 9, 3.44], [8676, 2, 7, 4.0], [10408, 10, 10, 3.03], [3577, 25, 7, 1.5], [2805, 137, 8, 2.05], [5209, 3, 7, 3.29], [1414, 15, 7, 1.0], [20498, 3, 8, 1.25], [10936, 2, 7, 2.38], [95, 3, 22, 1.03], [2878, 1, 7, 2.23], [11812, 1, 7, 0.9], [10388, 2, 7, 1.16], [9491, 21, 16, 3.19], [13928, 1, 7, 2.43], [346, 1, 7, 2.34], [399, 24, 7, 5.0], [6497, 1, 39, 4.21], [998, 2, 257, 4.15], [11953, 1, 186, 3.09], [7567, 3, 68, 4.86], [286, 3, 152, 2.52], [11769, 1, 158, 3.54], [389, 4, 217, 2.77], [1492, 1, 40, 2.05], [996, 2, 220, 5.45], [346, 3, 222, 3.08], [12344, 1, 623, 5.04], [4176, 4, 443, 5.45], [11767, 1, 174, 2.62], [39, 1, 103, 3.99], [7573, 1, 338, 5.27], [410, 1, 25, 3.03], [6496, 1, 39, 3.22], [37, 1, 103, 3.47], [8677, 3, 266, 4.97], [972, 3, 636, 4.68], [74, 1, 198, 4.23], [12721, 2, 278, 3.48], [411, 2, 116, 2.49], [11490, 1, 117, 2.17], [2436, 4, 103, 4.77], [12212, 29, 123, 2.32], [22317, 3, 291, 3.63], [2912, 2, 388, 5.09], [201, 3, 274, 4.56], [345, 3, 320, 2.09], [336, 15, 112, 3.47], [1413, 15, 106, 2.25], [1274, 1, 88, 3.07], [11085, 2, 494, 5.4], [8121, 3, 316, 2.3], [1277, 1, 177, 3.87], [3979, 3, 854, 3.44], [3, 2, 43, 3.81], [14037, 3, 353, 5.17], [21269, 3, 270, 6.0], [823, 1, 39, 2.21], [38, 1, 108, 2.87], [13023, 3, 542, 4.04], [6494, 1, 56, 2.02], [9, 1, 36, 1.99], [12271, 2, 67, 5.97], [8673, 2, 271, 5.25], [36, 1, 120, 2.39], [9784, 1, 76, 3.29], [22247, 2, 263, 5.35], [8676, 2, 265, 5.13], [3577, 25, 86, 2.63], [2805, 137, 184, 3.18], [5209, 3, 531, 4.39], [1414, 15, 95, 2.28], [20498, 3, 568, 2.39], [10936, 2, 144, 3.5], [95, 3, 1211, 2.17], [2878, 1, 19, 2.86], [11812, 1, 233, 2.02], [10388, 2, 214, 2.28], [9491, 21, 2155, 4.3], [13928, 1, 45, 3.56], [346, 1, 37, 3.26], [399, 24, 141, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 11, 0.63], [8650, 2, 7, 2.81], [361, 2, 9, 0.7], [5491, 2, 7, 1.02], [589, 2, 11, 0.95], [11685, 2, 11, 2.56], [417, 2, 9, 0.71], [326, 2, 7, 1.18], [6935, 2, 19, 4.24], [205, 2, 7, 0.69], [1124, 2, 10, 1.59], [8648, 2, 7, 1.9], [12721, 2, 14, 1.48], [248, 1, 7, 1.23], [11838, 2, 9, 1.27], [11837, 2, 7, 1.6], [142, 2, 9, 0.68], [8915, 2, 7, 0.73], [6936, 2, 11, 2.52], [2778, 2, 11, 1.59], [8676, 2, 7, 5.0], [9507, 3, 7, 0.67], [305, 2, 9, 2.44], [21793, 1, 8, 3.39], [22247, 2, 7, 2.28], [11835, 2, 7, 1.41], [593, 2, 8, 1.45], [616, 2, 9, 1.06], [411, 2, 7, 1.31], [990, 2, 7, 0.73], [10574, 3, 11, 2.59], [12353, 1, 7, 5.0], [8673, 2, 7, 2.91], [2775, 2, 7, 0.92], [145, 2, 7, 1.75], [6158, 2, 11, 2.15], [11836, 2, 7, 3.33], [2055, 3, 7, 2.72], [3495, 3, 21, 2.66], [10149, 3, 21, 1.49], [88, 10, 20, 3.3], [12344, 1, 7, 5.0], [146, 2, 7, 1.75], [75, 2, 7, 3.48], [2054, 3, 10, 2.05], [2057, 3, 7, 3.2], [10993, 2, 7, 1.5], [7705, 2, 7, 2.74], [12343, 1, 7, 5.0], [7885, 4, 7, 1.67], [61, 3, 7, 0.69], [2424, 29, 7, 3.73], [144, 2, 7, 1.75], [7704, 2, 7, 2.74], [2859, 15, 7, 1.21], [2423, 29, 7, 2.43], [5165, 1, 7, 1.66], [2423, 80, 7, 2.39], [201, 3, 9, 2.66], [335, 3, 17, 1.67], [308, 1, 9, 3.05], [9126, 1, 7, 3.14], [13028, 3, 7, 1.23], [1519, 3, 20, 0.67], [214, 3, 15, 1.77], [2424, 80, 7, 3.68], [12352, 1, 7, 5.0], [7004, 1, 7, 2.48], [345, 3, 7, 0.94], [13023, 3, 10, 2.77], [13034, 3, 9, 2.71], [6952, 1, 7, 1.89], [2703, 3, 7, 4.84], [11770, 1, 7, 4.83], [6494, 1, 7, 0.9], [3430, 15, 7, 1.66], [410, 1, 7, 1.0], [432, 3, 7, 2.72], [94, 4, 7, 4.04], [13928, 1, 7, 2.28], [1492, 1, 7, 1.6], [20927, 1, 7, 2.01], [1886, 2, 7, 0.85], [3893, 1, 7, 2.46], [2331, 1, 7, 3.16], [12347, 1, 7, 2.69], [3891, 1, 7, 5.0], [3981, 3, 13, 1.14], [11811, 1, 7, 1.93], [13033, 3, 8, 1.19], [11954, 1, 7, 1.27], [9690, 1, 7, 1.46], [114, 3, 7, 0.69], [952, 4, 7, 4.31], [1309, 1, 7, 1.77], [105, 3, 7, 0.67], [1274, 1, 7, 2.27], [5584, 3, 7, 2.72], [5946, 1, 7, 2.67], [7886, 4, 9, 1.55], [5733, 2, 8, 1.75], [5812, 3, 7, 2.91], [11089, 1, 7, 1.96], [3, 2, 7, 2.12], [7708, 2, 7, 1.81], [8898, 3, 7, 4.74], [10410, 10, 12, 2.97], [7703, 2, 7, 1.69], [95, 3, 13, 4.5], [3478, 2, 7, 4.0], [10407, 10, 12, 3.01], [9507, 1, 7, 0.69], [22558, 3, 7, 4.63], [8274, 3, 7, 1.75], [3980, 4, 9, 3.46], [9082, 3, 24, 2.83], [957, 2, 7, 0.69], [5165, 2, 8, 1.48], [20555, 2, 7, 1.14], [10408, 10, 10, 1.37], [192, 3, 17, 4.09], [10398, 2, 7, 2.52], [247, 1, 7, 4.64], [963, 3, 7, 3.23], [823, 1, 7, 4.66], [13264, 29, 7, 0.92], [11603, 2, 9, 2.17], [2805, 137, 10, 4.36], [7005, 1, 7, 2.01], [5811, 3, 8, 4.0], [6630, 3, 7, 3.61], [20969, 3, 7, 1.66], [186, 3, 15, 2.26], [9491, 21, 16, 5.0], [21003, 2, 7, 3.61], [12229, 2, 7, 0.87], [7004, 1, 21, 3.23], [345, 3, 315, 2.25], [13023, 3, 629, 4.08], [13034, 3, 629, 4.02], [6952, 1, 192, 3.2], [2703, 3, 305, 6.0], [11770, 1, 216, 6.0], [6494, 1, 55, 2.21], [3430, 15, 73, 2.97], [410, 1, 112, 2.31], [432, 3, 309, 4.03], [94, 4, 123, 5.36], [13928, 1, 50, 3.59], [1492, 1, 39, 2.91], [20927, 1, 84, 3.33], [1886, 2, 167, 2.16], [3893, 1, 128, 3.78], [2331, 1, 124, 4.47], [12347, 1, 642, 4.0], [3891, 1, 48, 6.0], [3981, 3, 1788, 2.46], [11811, 1, 479, 3.25], [13033, 3, 629, 2.49], [11954, 1, 209, 2.58], [9690, 1, 79, 2.77], [114, 3, 66, 1.44], [952, 4, 76, 5.62], [1309, 1, 55, 3.08], [105, 3, 66, 1.42], [1274, 1, 87, 3.58], [5584, 3, 243, 4.04], [5946, 1, 128, 3.99], [5733, 2, 53, 3.06], [5812, 3, 629, 4.22], [11089, 1, 182, 3.28], [3, 2, 127, 3.44], [7708, 2, 186, 3.13], [8898, 3, 294, 6.0], [7703, 2, 186, 3.01], [95, 3, 1052, 5.82], [3478, 2, 77, 5.31], [22558, 3, 481, 5.94], [3980, 4, 513, 4.77], [9082, 3, 2607, 4.17], [957, 2, 115, 2.0], [5165, 2, 406, 2.79], [20555, 2, 61, 2.45], [10408, 10, 840, 2.68], [192, 3, 1406, 5.39], [10398, 2, 155, 3.83], [247, 1, 92, 5.95], [963, 3, 404, 4.54], [823, 1, 39, 5.97], [13264, 29, 77, 2.23], [2805, 137, 181, 5.67], [7005, 1, 84, 3.33], [5811, 3, 626, 5.32], [6630, 3, 99, 4.92], [20969, 3, 626, 2.98], [186, 3, 699, 3.58], [9491, 21, 2195, 6.0], [21003, 2, 302, 4.93], [12229, 2, 161, 2.19]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 26, 1.08], [6935, 2, 17, 2.06], [305, 2, 9, 1.46], [6936, 2, 11, 2.9], [2775, 2, 7, 1.39], [145, 2, 7, 2.5], [12721, 2, 10, 1.74], [2327, 2, 9, 1.82], [361, 2, 7, 0.77], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [362, 2, 9, 1.33], [141, 2, 7, 0.77], [11681, 2, 13, 2.3], [205, 2, 9, 1.26], [8673, 2, 11, 2.91], [8676, 2, 9, 4.5], [308, 1, 17, 2.16], [1124, 2, 10, 1.74], [144, 2, 9, 2.57], [11835, 2, 7, 2.22], [5493, 2, 7, 0.87], [417, 2, 7, 1.94], [8650, 2, 11, 4.38], [11837, 2, 12, 1.48], [3, 2, 7, 2.41], [6097, 80, 9, 4.97], [589, 2, 7, 1.75], [2423, 29, 7, 2.93], [206, 2, 7, 2.1], [6097, 29, 11, 4.97], [11836, 2, 9, 1.44], [593, 2, 10, 2.98], [990, 2, 7, 1.0], [6098, 80, 7, 4.26], [88, 10, 16, 2.4], [523, 2, 7, 1.71], [13260, 29, 7, 2.7], [2423, 80, 7, 1.71], [8915, 2, 9, 1.5], [10993, 2, 7, 1.0], [6494, 1, 7, 0.9], [326, 2, 7, 1.55], [6158, 2, 11, 2.15], [75, 2, 7, 3.25], [10574, 3, 12, 2.19], [1339, 1, 7, 0.83], [335, 3, 17, 1.67], [1492, 1, 7, 1.6], [1050, 2, 7, 0.73], [411, 2, 7, 1.37], [947, 15, 7, 1.46], [151, 1, 7, 1.25], [2859, 15, 7, 1.7], [7004, 1, 7, 2.66], [1339, 3, 21, 0.88], [6496, 1, 7, 4.02], [13264, 29, 7, 1.0], [345, 3, 7, 3.29], [10149, 3, 21, 1.48], [61, 3, 7, 0.85], [7704, 2, 11, 4.33], [1049, 2, 7, 1.7], [1243, 2, 7, 3.7], [964, 15, 7, 3.08], [432, 3, 7, 2.7], [13259, 29, 13, 2.83], [22558, 3, 7, 3.91], [201, 3, 7, 3.56], [1277, 1, 7, 3.9], [5208, 3, 9, 4.93], [7705, 2, 7, 4.6], [2912, 1, 7, 3.91], [963, 3, 7, 0.78], [159, 3, 9, 1.18], [229, 1, 7, 2.59], [186, 3, 15, 1.62], [2438, 1, 7, 2.39], [21793, 1, 8, 3.04], [11738, 2, 7, 0.89], [2331, 1, 7, 2.5], [10407, 10, 12, 3.01], [3478, 2, 7, 3.04], [7706, 2, 7, 4.6], [12229, 2, 7, 1.37], [13928, 1, 7, 2.7], [1548, 1, 7, 2.35], [2703, 3, 7, 4.84], [11844, 2, 7, 3.97], [8944, 3, 7, 0.71], [11490, 1, 7, 1.66], [7036, 1, 7, 1.46], [94, 4, 7, 4.04], [159, 16, 7, 1.33], [114, 3, 7, 1.05], [11687, 2, 7, 1.52], [956, 2, 7, 1.0], [9126, 1, 7, 3.7], [10408, 10, 10, 3.03], [7708, 2, 9, 3.7], [1886, 2, 7, 0.85], [11159, 1, 14, 2.41], [10406, 10, 12, 1.72], [22125, 2, 7, 0.69], [20927, 1, 7, 3.38], [11586, 1, 11, 4.91], [11689, 2, 7, 1.48], [9065, 2, 7, 1.27], [2438, 2, 8, 2.2], [12870, 1, 7, 1.89], [11690, 2, 7, 1.02], [7005, 1, 7, 2.93], [1274, 1, 7, 3.02], [410, 1, 7, 1.0], [1699, 3, 7, 2.9], [2991, 3, 7, 5.0], [2805, 137, 10, 3.48], [21781, 2, 7, 0.9], [152, 21, 7, 1.21], [13259, 25, 7, 2.16], [4253, 1, 7, 2.24], [3495, 3, 21, 2.66], [5976, 1, 7, 4.22], [159, 1, 7, 1.29], [5584, 3, 7, 2.72], [9690, 1, 7, 1.46], [5769, 3, 10, 0.93], [7007, 1, 7, 1.52], [9239, 29, 8, 3.41], [9209, 29, 7, 2.95], [9491, 21, 16, 2.85], [11811, 1, 7, 1.93], [9239, 25, 7, 3.05], [7886, 4, 9, 1.11], [8600, 1, 7, 1.87], [5769, 1, 7, 0.89], [22558, 3, 481, 5.22], [201, 3, 306, 4.87], [1277, 1, 203, 5.21], [5208, 3, 561, 6.0], [7705, 2, 70, 5.6], [2912, 1, 48, 5.22], [963, 3, 426, 2.1], [159, 3, 754, 2.48], [229, 1, 87, 3.91], [186, 3, 703, 2.92], [2438, 1, 56, 3.7], [21793, 1, 247, 4.35], [11738, 2, 61, 2.2], [2331, 1, 124, 3.81], [3478, 2, 79, 4.35], [7706, 2, 70, 5.62], [12229, 2, 154, 3.4], [13928, 1, 50, 4.01], [1548, 1, 100, 3.66], [2703, 3, 305, 6.0], [11844, 2, 286, 5.28], [8944, 3, 59, 1.46], [11490, 1, 115, 2.97], [7036, 1, 135, 2.77], [94, 4, 123, 5.36], [159, 16, 84, 2.64], [114, 3, 260, 2.37], [11687, 2, 320, 2.83], [956, 2, 115, 2.32], [9126, 1, 72, 5.02], [7708, 2, 179, 5.02], [1886, 2, 167, 2.16], [11159, 1, 503, 3.73], [10406, 10, 1925, 3.02], [22125, 2, 50, 1.94], [20927, 1, 83, 4.69], [11586, 1, 382, 6.0], [11689, 2, 320, 2.79], [9065, 2, 320, 2.58], [2438, 2, 669, 3.51], [12870, 1, 148, 3.2], [11690, 2, 320, 2.33], [7005, 1, 83, 4.24], [1274, 1, 86, 4.33], [410, 1, 112, 2.31], [1699, 3, 220, 4.22], [2991, 3, 166, 6.0], [2805, 137, 173, 4.79], [13259, 25, 73, 3.47], [4253, 1, 178, 3.56], [3495, 3, 1026, 3.97], [5976, 1, 161, 5.53], [159, 1, 42, 2.6], [5584, 3, 243, 4.04], [9690, 1, 79, 2.77], [5769, 3, 1118, 2.39], [7007, 1, 83, 2.84], [9239, 29, 30, 4.72], [9209, 29, 35, 4.26], [9491, 21, 2121, 4.14], [11811, 1, 479, 3.25], [9239, 25, 89, 4.36], [8600, 1, 148, 3.18], [5769, 1, 65, 2.2]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 20, 1.44], [362, 2, 9, 1.19], [361, 2, 9, 1.35], [6935, 2, 23, 4.75], [12721, 2, 14, 3.77], [8676, 2, 7, 1.6], [2049, 3, 26, 0.5], [417, 2, 9, 1.35], [3, 2, 9, 3.02], [8675, 2, 9, 1.81], [22247, 2, 7, 1.92], [6936, 2, 9, 1.9], [523, 2, 7, 1.77], [305, 2, 7, 1.12], [11838, 2, 7, 3.33], [8650, 2, 9, 3.44], [2328, 2, 11, 2.32], [2776, 2, 9, 2.33], [8648, 2, 7, 3.25], [2327, 2, 9, 1.48], [616, 2, 7, 0.89], [11739, 2, 7, 1.27], [11837, 2, 7, 3.33], [411, 2, 7, 1.48], [2805, 137, 10, 4.64], [6097, 80, 7, 4.97], [11835, 2, 7, 1.42], [6097, 29, 7, 1.85], [146, 2, 7, 2.73], [10993, 2, 7, 0.73], [326, 2, 7, 1.85], [583, 2, 7, 1.53], [10149, 3, 21, 3.22], [145, 2, 7, 1.75], [11836, 2, 7, 3.33], [144, 2, 7, 2.73], [308, 1, 11, 4.07], [75, 2, 7, 3.0], [10574, 3, 12, 2.63], [6494, 1, 7, 0.9], [2057, 3, 7, 3.2], [2055, 3, 7, 2.72], [2422, 29, 7, 1.84], [2054, 3, 7, 2.69], [6098, 80, 7, 2.01], [6098, 29, 7, 2.01], [1243, 2, 7, 3.7], [8915, 2, 7, 1.75], [1886, 2, 7, 0.85], [21793, 1, 8, 3.04], [12345, 1, 7, 3.11], [12349, 1, 7, 3.13], [1492, 1, 7, 1.6], [2859, 15, 7, 1.4], [247, 1, 7, 3.71], [3478, 2, 7, 2.32], [6158, 2, 11, 2.13], [335, 3, 17, 1.67], [201, 3, 7, 2.27], [5165, 1, 7, 1.66], [7084, 3, 7, 4.18], [5208, 3, 9, 3.17], [13928, 1, 7, 2.28], [336, 15, 7, 0.71], [3934, 5, 12, 2.71], [5812, 3, 9, 3.96], [12526, 2, 7, 1.38], [192, 3, 21, 3.69], [4253, 1, 7, 2.24], [94, 4, 7, 4.04], [1703, 2, 7, 4.16], [5811, 3, 10, 4.04], [9491, 21, 16, 2.29], [186, 3, 15, 1.62], [214, 3, 15, 3.19], [11490, 1, 7, 0.73], [2821, 3, 13, 4.39], [61, 3, 9, 0.85], [11767, 1, 7, 2.1], [5813, 3, 7, 3.84], [1050, 2, 7, 1.7], [1309, 1, 7, 1.77], [8938, 2, 7, 4.47], [24722, 2, 7, 1.62], [2991, 3, 7, 4.73], [2912, 1, 7, 0.73], [10398, 2, 7, 1.37], [13260, 29, 7, 2.71], [3495, 3, 21, 2.66], [11671, 1, 7, 3.91], [2438, 2, 8, 2.2], [11771, 1, 7, 4.08], [8599, 1, 7, 5.0], [229, 1, 7, 2.64], [11811, 1, 7, 1.93], [8944, 3, 7, 0.71], [8943, 3, 7, 1.28], [1049, 2, 7, 1.7], [12764, 2, 8, 0.75], [13928, 2, 7, 2.28], [7004, 1, 7, 2.53], [7036, 1, 7, 1.46], [955, 2, 7, 0.85], [11808, 1, 7, 4.76], [10124, 1, 7, 4.18], [5584, 3, 7, 2.72], [22573, 2, 7, 1.46], [3334, 5, 7, 4.39], [8897, 3, 7, 2.37], [9690, 1, 7, 1.45], [18964, 1, 7, 2.18], [6575, 3, 7, 1.37], [20927, 1, 7, 3.7], [1523, 1, 7, 4.47], [45, 2, 7, 4.64], [8274, 3, 7, 2.04], [2438, 1, 7, 2.39], [4001, 3, 17, 2.16], [1277, 1, 7, 3.9], [11886, 2, 7, 1.62], [9239, 29, 8, 3.41], [21269, 3, 7, 4.68], [13258, 29, 13, 4.0], [105, 3, 7, 0.83], [11678, 1, 7, 3.09], [1701, 2, 7, 3.47], [3477, 2, 7, 2.24], [10181, 26, 8, 0.81], [5165, 2, 8, 1.48], [7567, 3, 7, 0.79], [9209, 29, 7, 4.72], [3984, 3, 8, 1.07], [8635, 3, 7, 2.45], [5812, 3, 626, 5.28], [12526, 2, 288, 2.69], [192, 3, 1390, 5.02], [4253, 1, 178, 3.56], [94, 4, 123, 5.36], [1703, 2, 169, 5.48], [5811, 3, 626, 5.36], [9491, 21, 2235, 3.57], [186, 3, 703, 2.92], [11490, 1, 102, 2.01], [2821, 3, 1360, 5.7], [61, 3, 223, 2.16], [11767, 1, 170, 3.41], [5813, 3, 626, 5.16], [1050, 2, 30, 2.45], [1309, 1, 55, 3.08], [8938, 2, 74, 5.48], [24722, 2, 23, 2.62], [2991, 3, 162, 6.0], [2912, 1, 13, 1.48], [10398, 2, 156, 2.68], [13260, 29, 73, 4.02], [3495, 3, 1026, 3.97], [11671, 1, 304, 5.22], [2438, 2, 669, 3.51], [11771, 1, 214, 5.39], [8599, 1, 148, 6.0], [229, 1, 86, 3.95], [11811, 1, 479, 3.25], [8944, 3, 59, 1.46], [8943, 3, 401, 2.59], [1049, 2, 30, 2.45], [12764, 2, 787, 2.06], [13928, 2, 25, 3.59], [7004, 1, 83, 3.84], [7036, 1, 135, 2.77], [955, 2, 115, 2.17], [11808, 1, 497, 6.0], [10124, 1, 107, 5.49], [5584, 3, 243, 4.04], [22573, 2, 80, 2.77], [3334, 5, 180, 5.7], [8897, 3, 283, 3.68], [9690, 1, 79, 2.76], [18964, 1, 72, 3.49], [6575, 3, 262, 2.68], [20927, 1, 21, 4.45], [1523, 1, 49, 5.78], [45, 2, 112, 5.96], [2438, 1, 56, 3.7], [4001, 3, 857, 3.48], [1277, 1, 203, 5.21], [11886, 2, 204, 2.93], [9239, 29, 30, 4.72], [21269, 3, 303, 6.0], [13258, 29, 41, 5.31], [105, 3, 197, 2.08], [11678, 1, 474, 4.41], [1701, 2, 168, 4.79], [3477, 2, 55, 3.56], [10181, 26, 148, 2.12], [5165, 2, 406, 2.79], [7567, 3, 74, 2.1], [9209, 29, 34, 6.0], [3984, 3, 1763, 2.37]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 17, 2.06], [305, 2, 7, 0.88], [8650, 2, 9, 2.32], [2778, 2, 20, 1.61], [8672, 2, 9, 4.04], [143, 2, 7, 2.76], [362, 2, 9, 1.05], [6936, 2, 11, 2.87], [145, 2, 9, 1.91], [11837, 2, 7, 3.47], [361, 2, 9, 1.61], [417, 2, 9, 1.61], [205, 2, 7, 1.08], [75, 2, 9, 1.92], [11681, 2, 13, 2.3], [1124, 2, 10, 1.59], [589, 2, 11, 0.66], [146, 2, 7, 1.1], [11737, 2, 9, 1.5], [8648, 2, 7, 2.12], [12721, 2, 13, 3.55], [523, 2, 9, 1.21], [8673, 2, 11, 2.91], [1504, 2, 13, 1.48], [8853, 2, 9, 3.45], [308, 1, 17, 4.6], [206, 2, 7, 2.28], [326, 2, 9, 1.93], [11835, 2, 7, 0.94], [990, 2, 7, 0.92], [8675, 2, 9, 3.6], [88, 10, 26, 1.79], [8915, 2, 7, 2.51], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [434, 2, 9, 1.04], [11739, 2, 7, 0.98], [142, 2, 9, 1.61], [8676, 2, 7, 5.0], [2424, 29, 7, 2.34], [9507, 3, 7, 0.67], [6158, 2, 15, 1.54], [7704, 2, 11, 3.78], [2423, 29, 7, 2.77], [11836, 2, 7, 1.62], [2424, 80, 7, 2.57], [7705, 2, 9, 4.26], [11738, 2, 7, 0.85], [1413, 15, 7, 1.49], [7706, 2, 7, 2.37], [2423, 80, 7, 2.23], [3478, 2, 7, 3.89], [7004, 1, 7, 3.0], [944, 15, 9, 0.77], [2859, 15, 7, 2.7], [2054, 3, 7, 3.81], [74, 1, 7, 2.58], [3429, 15, 9, 0.71], [10149, 3, 21, 1.79], [10993, 2, 7, 1.25], [2055, 3, 7, 3.87], [18964, 1, 7, 2.66], [12343, 1, 7, 5.0], [94, 4, 7, 4.25], [13928, 1, 7, 2.7], [13028, 3, 7, 1.23], [13034, 3, 11, 2.28], [2057, 3, 7, 4.35], [7084, 3, 7, 2.51], [11919, 1, 7, 1.14], [411, 2, 7, 2.43], [6097, 80, 7, 1.39], [11089, 1, 9, 2.25], [7886, 4, 9, 0.87], [3893, 1, 7, 4.23], [1050, 2, 7, 1.7], [7036, 1, 7, 1.74], [7707, 2, 7, 2.41], [563, 2, 7, 1.19], [3891, 1, 7, 3.1], [6494, 1, 7, 0.9], [6630, 3, 7, 3.8], [192, 3, 26, 4.63], [21793, 1, 8, 3.39], [1243, 2, 7, 2.33], [8274, 3, 7, 1.6], [7708, 2, 9, 3.71], [2912, 1, 7, 1.73], [13023, 3, 8, 0.8], [11581, 29, 7, 2.14], [3889, 1, 7, 4.23], [9126, 1, 7, 3.31], [159, 3, 9, 1.18], [13033, 3, 7, 1.68], [11490, 1, 7, 1.41], [5208, 3, 11, 3.72], [1049, 2, 7, 0.69], [12229, 2, 7, 1.12], [5940, 3, 7, 1.88], [3495, 3, 21, 2.66], [12349, 1, 7, 4.12], [22558, 3, 7, 4.63], [5165, 1, 7, 1.67], [2331, 1, 7, 3.54], [201, 3, 7, 1.66], [83, 2, 7, 1.93], [332, 2, 7, 0.94], [229, 1, 7, 2.59], [214, 3, 14, 3.19], [951, 4, 7, 3.48], [1309, 1, 7, 1.77], [6496, 1, 7, 4.02], [247, 1, 7, 4.64], [2805, 137, 10, 4.95], [5812, 3, 7, 2.49], [7885, 4, 7, 1.08], [21269, 3, 7, 5.0], [215, 4, 7, 4.38], [9690, 1, 7, 2.38], [942, 3, 7, 2.26], [8898, 3, 7, 3.25], [335, 3, 21, 2.55], [20555, 2, 7, 0.85], [11914, 1, 7, 1.66], [10406, 10, 12, 3.14], [1703, 2, 7, 4.23], [9827, 3, 7, 0.75], [4940, 1, 9, 0.81], [23961, 3, 7, 5.0], [8635, 3, 7, 1.1], [5811, 3, 8, 2.39], [24257, 1, 7, 4.0], [11770, 1, 7, 4.83], [9491, 21, 15, 2.71], [186, 3, 15, 2.26], [3934, 5, 12, 2.71], [2057, 3, 185, 5.34], [7084, 3, 137, 3.82], [411, 2, 109, 3.78], [6097, 80, 73, 2.7], [11089, 1, 182, 3.56], [7886, 4, 38, 2.3], [3893, 1, 126, 5.54], [1050, 2, 30, 2.45], [7036, 1, 136, 3.05], [7707, 2, 179, 3.97], [563, 2, 74, 2.62], [3891, 1, 126, 4.41], [6494, 1, 55, 2.21], [6630, 3, 99, 5.11], [192, 3, 1406, 5.93], [21793, 1, 254, 4.71], [1243, 2, 100, 4.36], [7708, 2, 187, 5.02], [2912, 1, 19, 2.73], [13023, 3, 629, 2.11], [11581, 29, 64, 3.45], [3889, 1, 126, 5.54], [9126, 1, 73, 4.63], [159, 3, 754, 2.48], [13033, 3, 626, 3.0], [11490, 1, 115, 2.72], [5208, 3, 521, 5.04], [1049, 2, 119, 2.0], [12229, 2, 154, 3.4], [5940, 3, 261, 3.19], [3495, 3, 1026, 3.97], [12349, 1, 638, 5.43], [22558, 3, 481, 5.94], [5165, 1, 51, 2.98], [2331, 1, 123, 4.86], [201, 3, 301, 2.97], [332, 2, 78, 2.25], [229, 1, 87, 3.91], [951, 4, 99, 4.79], [1309, 1, 55, 3.08], [6496, 1, 42, 5.33], [247, 1, 92, 5.95], [2805, 137, 179, 6.0], [5812, 3, 595, 5.03], [7885, 4, 37, 2.14], [21269, 3, 299, 6.0], [215, 4, 39, 5.69], [9690, 1, 79, 3.69], [942, 3, 314, 3.57], [8898, 3, 284, 4.56], [335, 3, 344, 3.3], [20555, 2, 61, 2.16], [11914, 1, 90, 2.97], [1703, 2, 166, 5.54], [9827, 3, 89, 2.18], [4940, 1, 129, 2.12], [23961, 3, 299, 6.0], [5811, 3, 623, 3.7], [24257, 1, 143, 5.31], [11770, 1, 216, 6.0], [9491, 21, 2235, 4.0], [186, 3, 699, 3.58], [3934, 5, 554, 4.02]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 9, 1.0], [141, 2, 7, 1.09], [2327, 2, 9, 1.37], [2778, 2, 14, 1.08], [6936, 2, 13, 3.9], [362, 2, 7, 1.94], [326, 2, 7, 1.25], [305, 2, 7, 2.43], [205, 2, 7, 0.9], [2775, 2, 7, 1.08], [1446, 2, 7, 3.45], [8649, 2, 7, 2.82], [8853, 2, 13, 2.03], [593, 2, 9, 1.55], [206, 2, 7, 2.57], [3840, 1, 7, 0.77], [11581, 29, 7, 1.56], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [21793, 1, 7, 3.22], [413, 1, 7, 1.81], [412, 1, 7, 2.98], [5165, 1, 7, 2.56], [1124, 2, 7, 2.69], [159, 3, 8, 0.78], [7036, 1, 7, 3.2], [615, 2, 7, 0.81], [201, 3, 14, 3.52], [8089, 1, 7, 1.87], [248, 1, 7, 0.92], [145, 2, 7, 2.73], [6952, 1, 14, 4.0], [345, 3, 9, 1.93], [6097, 80, 9, 4.75], [146, 2, 7, 1.5], [10993, 2, 9, 1.41], [2050, 3, 7, 2.02], [24664, 2, 35, 1.7], [144, 2, 7, 1.72], [2055, 3, 7, 1.23], [7005, 1, 7, 1.58], [2912, 1, 7, 2.36], [11770, 1, 7, 3.16], [3891, 1, 7, 1.26], [2057, 3, 7, 0.89], [432, 3, 7, 3.18], [997, 2, 7, 1.91], [998, 2, 7, 1.56], [6158, 2, 7, 0.69], [3893, 1, 7, 1.42], [6097, 29, 9, 5.0], [5165, 2, 12, 1.71], [12870, 1, 7, 2.29], [2424, 80, 7, 3.39], [10149, 3, 24, 1.73], [11772, 1, 7, 4.11], [6098, 80, 11, 4.2], [20927, 1, 7, 2.14], [9372, 1, 7, 1.89], [7885, 4, 9, 1.83], [11089, 1, 7, 2.01], [10574, 3, 8, 1.72], [5208, 3, 9, 2.83], [1492, 1, 7, 1.33], [3334, 5, 7, 2.91], [4032, 29, 7, 1.83], [346, 3, 9, 2.76], [11671, 1, 7, 3.96], [22316, 3, 7, 0.96], [13028, 3, 9, 4.04], [1519, 3, 24, 0.67], [3576, 25, 7, 3.64], [1490, 1, 7, 1.39], [12304, 1, 7, 3.69], [3889, 1, 7, 2.23], [2912, 2, 8, 2.37], [11583, 29, 9, 0.79], [13034, 3, 7, 4.36], [972, 3, 7, 2.36], [214, 3, 15, 1.16], [5151, 2, 7, 0.87], [229, 1, 7, 4.72], [11426, 25, 7, 2.5], [161, 3, 10, 3.56], [346, 1, 7, 2.76], [2331, 1, 7, 3.54], [5812, 3, 10, 4.66], [11490, 1, 7, 1.1], [8677, 3, 8, 2.09], [9289, 29, 7, 2.51], [1701, 2, 7, 3.01], [13893, 2, 7, 3.45], [75, 2, 7, 1.03], [10, 2, 9, 0.69], [1309, 1, 7, 0.79], [2805, 137, 7, 3.35], [3575, 25, 7, 2.14], [2160, 68, 7, 1.96], [11404, 2, 7, 0.87], [12764, 2, 9, 1.71], [13023, 3, 10, 3.3], [159, 1, 7, 0.87], [4253, 1, 7, 2.18], [5209, 3, 7, 2.83], [9069, 1, 7, 1.69], [957, 2, 7, 2.0], [6494, 1, 7, 0.89], [2438, 2, 8, 2.42], [9971, 2, 7, 1.33], [11813, 1, 7, 3.62], [14037, 3, 7, 2.34], [192, 3, 13, 3.54], [9967, 2, 7, 1.33], [4033, 29, 7, 3.15], [9491, 21, 13, 2.86], [159, 16, 7, 0.9], [24257, 1, 7, 2.83], [8943, 3, 7, 1.0], [2878, 1, 7, 2.75], [11150, 2, 8, 0.79], [5584, 3, 7, 4.0], [9964, 2, 7, 2.21], [105, 3, 7, 2.08], [22317, 3, 8, 1.1], [8283, 2, 8, 3.44], [10609, 1, 7, 1.79], [9965, 2, 7, 1.33], [10407, 10, 12, 3.01], [4076, 3, 7, 3.37], [4586, 10, 21, 1.75], [3495, 3, 15, 2.82], [335, 3, 20, 1.54], [14041, 3, 7, 0.94], [24258, 1, 7, 4.24], [7324, 1, 7, 1.59], [9910, 25, 7, 0.71], [7567, 3, 7, 2.04], [3576, 25, 36, 4.55], [1490, 1, 60, 2.62], [12304, 1, 128, 4.92], [3889, 1, 132, 3.46], [2912, 2, 447, 3.6], [11583, 29, 60, 2.07], [13034, 3, 599, 5.6], [972, 3, 599, 3.6], [214, 3, 764, 2.4], [5151, 2, 25, 2.22], [229, 1, 86, 5.95], [11426, 25, 120, 3.73], [161, 3, 843, 4.8], [2331, 1, 137, 4.78], [5812, 3, 593, 5.99], [11490, 1, 90, 2.27], [8677, 3, 346, 3.32], [9289, 29, 75, 3.74], [1701, 2, 176, 4.24], [13893, 2, 320, 4.68], [75, 2, 147, 2.27], [1309, 1, 61, 2.02], [2805, 137, 212, 4.58], [3575, 25, 119, 3.37], [2160, 68, 156, 3.19], [11404, 2, 124, 2.1], [12764, 2, 784, 2.94], [13023, 3, 599, 4.52], [159, 1, 47, 2.1], [4253, 1, 197, 3.42], [5209, 3, 328, 3.92], [9069, 1, 124, 2.92], [957, 2, 23, 3.18], [6494, 1, 61, 2.12], [2438, 2, 743, 3.66], [9971, 2, 320, 2.57], [11813, 1, 346, 4.86], [14037, 3, 399, 3.57], [192, 3, 1598, 4.78], [9967, 2, 320, 2.57], [4033, 29, 117, 4.38], [9491, 21, 2310, 4.07], [159, 16, 94, 2.13], [24257, 1, 144, 4.06], [11150, 2, 415, 2.02], [5584, 3, 278, 5.23], [9964, 2, 320, 3.44], [105, 3, 258, 3.31], [22317, 3, 342, 2.34], [8283, 2, 552, 4.68], [10609, 1, 337, 3.02], [9965, 2, 320, 2.57], [4076, 3, 235, 4.6], [4586, 10, 1559, 3.0], [3495, 3, 1140, 4.07], [335, 3, 1528, 2.77], [14041, 3, 818, 2.16], [24258, 1, 160, 5.47], [7324, 1, 71, 2.82], [9910, 25, 26, 1.62], [7567, 3, 82, 3.27]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 28, 4.58], [141, 2, 9, 2.12], [2049, 3, 16, 0.5], [12721, 2, 10, 1.78], [205, 2, 7, 0.71], [130, 1, 9, 1.26], [589, 2, 18, 0.5], [151, 1, 7, 1.08], [1776, 1, 7, 1.94], [362, 2, 11, 2.59], [146, 2, 9, 1.44], [145, 2, 7, 0.91], [593, 2, 11, 2.08], [8915, 2, 12, 0.73], [2328, 2, 9, 1.01], [1777, 1, 7, 2.22], [6936, 2, 12, 2.57], [3, 2, 7, 2.22], [22247, 2, 9, 2.35], [8675, 2, 10, 2.17], [248, 1, 7, 0.71], [1007, 2, 12, 0.66], [2778, 2, 7, 1.63], [88, 10, 20, 1.98], [10, 2, 17, 1.8], [8677, 3, 8, 3.19], [412, 1, 7, 2.33], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [11681, 2, 11, 2.92], [10825, 21, 13, 1.81], [13028, 3, 7, 1.29], [361, 2, 7, 1.5], [413, 1, 7, 2.79], [7004, 1, 7, 1.24], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [8676, 2, 7, 1.94], [411, 2, 7, 1.42], [410, 1, 7, 1.42], [308, 1, 7, 2.44], [61, 3, 7, 2.15], [6158, 2, 12, 2.62], [432, 3, 7, 2.04], [1124, 2, 12, 0.75], [45, 2, 7, 3.67], [7005, 1, 7, 1.24], [5081, 2, 12, 1.3], [94, 4, 7, 3.7], [167, 3, 11, 2.7], [9827, 3, 7, 1.13], [5812, 3, 10, 3.41], [3495, 3, 26, 2.72], [168, 3, 9, 2.11], [3893, 1, 7, 1.02], [12870, 1, 11, 5.0], [3889, 1, 7, 1.02], [10574, 3, 10, 3.85], [3891, 1, 7, 1.02], [8651, 2, 7, 2.79], [335, 3, 22, 3.03], [6097, 80, 7, 4.69], [95, 3, 19, 0.93], [20256, 2, 7, 1.11], [6098, 29, 11, 4.26], [11737, 2, 7, 1.87], [1490, 1, 7, 1.79], [214, 3, 15, 0.98], [346, 1, 9, 1.36], [998, 2, 9, 3.76], [20927, 1, 7, 2.0], [9069, 1, 11, 2.03], [20498, 1, 7, 2.94], [1622, 1, 9, 1.74], [8898, 3, 7, 4.48], [6098, 80, 9, 4.26], [9760, 29, 7, 1.26], [1070, 7, 13, 2.71], [14017, 3, 7, 1.29], [9829, 3, 7, 3.0], [997, 2, 9, 2.59], [13260, 29, 7, 2.65], [22554, 10, 18, 0.87], [13034, 3, 13, 2.73], [1243, 2, 7, 1.52], [20498, 3, 12, 3.24], [346, 3, 8, 0.92], [345, 3, 7, 1.12], [336, 15, 7, 0.67], [5513, 2, 7, 1.1], [22317, 3, 14, 1.85], [996, 2, 7, 4.42], [5946, 1, 7, 1.02], [5811, 3, 7, 3.88], [5813, 3, 7, 2.03], [9691, 1, 7, 3.2], [5086, 1, 11, 3.69], [8945, 3, 8, 1.48], [995, 2, 9, 4.24], [952, 4, 7, 5.0], [11085, 2, 7, 0.86], [1080, 3, 7, 1.46], [1413, 15, 7, 0.75], [8557, 3, 9, 2.11], [3049, 3, 7, 4.36], [20486, 3, 12, 4.12], [9082, 3, 24, 2.75], [2424, 80, 7, 4.26], [4076, 3, 7, 5.0], [1703, 2, 7, 2.97], [215, 4, 7, 5.0], [9081, 3, 15, 3.06], [823, 1, 7, 0.92], [20486, 1, 7, 2.87], [8274, 3, 7, 1.27], [8943, 3, 7, 1.22], [13023, 3, 8, 2.86], [2854, 21, 19, 1.1], [11510, 3, 12, 2.73], [23611, 3, 7, 3.74], [470, 1, 7, 0.71], [14018, 3, 7, 0.81], [6497, 1, 7, 2.18], [8104, 1, 7, 4.2], [3047, 3, 7, 2.18], [18, 1, 7, 0.73], [2878, 1, 9, 3.76], [1414, 15, 7, 0.56], [20969, 3, 7, 2.16], [12923, 1, 7, 0.96], [10529, 29, 8, 2.79], [18964, 1, 7, 1.73], [13484, 1, 7, 4.31], [10780, 10, 7, 4.39], [214, 3, 574, 2.12], [346, 1, 152, 2.98], [998, 2, 233, 4.71], [20927, 1, 26, 2.57], [9069, 1, 42, 2.6], [20498, 1, 87, 4.35], [1622, 1, 102, 2.69], [8898, 3, 247, 6.0], [9760, 29, 68, 2.21], [1070, 7, 522, 3.67], [14017, 3, 176, 3.64], [9829, 3, 71, 3.95], [997, 2, 233, 4.44], [13260, 29, 64, 3.6], [22554, 10, 336, 2.02], [13034, 3, 520, 4.92], [1243, 2, 92, 2.47], [20498, 3, 522, 4.44], [346, 3, 641, 1.86], [345, 3, 315, 2.07], [5513, 2, 83, 2.05], [22317, 3, 280, 3.27], [996, 2, 233, 6.0], [5946, 1, 109, 2.17], [5811, 3, 615, 4.82], [5813, 3, 596, 4.04], [9691, 1, 66, 5.06], [5086, 1, 163, 4.63], [8945, 3, 612, 2.42], [995, 2, 233, 6.0], [952, 4, 64, 5.95], [11085, 2, 516, 1.8], [1080, 3, 125, 2.41], [1413, 15, 87, 2.02], [8557, 3, 176, 3.93], [3049, 3, 135, 6.0], [20486, 3, 522, 5.68], [9082, 3, 2550, 3.67], [2424, 80, 158, 5.21], [4076, 3, 177, 6.0], [1703, 2, 144, 4.62], [215, 4, 36, 6.0], [9081, 3, 457, 5.21], [823, 1, 42, 1.87], [20486, 1, 87, 5.27], [13023, 3, 522, 4.84], [2854, 21, 985, 2.75], [11510, 3, 578, 3.88], [23611, 3, 306, 4.7], [14018, 3, 206, 1.75], [6497, 1, 34, 3.84], [8104, 1, 186, 5.14], [3047, 3, 239, 3.13], [18, 1, 51, 1.68], [2878, 1, 41, 4.65], [1414, 15, 87, 2.72], [20969, 3, 522, 3.32], [12923, 1, 36, 1.91], [10529, 29, 38, 3.74], [18964, 1, 70, 2.68], [13484, 1, 182, 5.25], [10780, 10, 387, 5.34]]</t>
   </si>
   <si>
     <t>1QD</t>

--- a/QD_Data.xlsx
+++ b/QD_Data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.97], [589, 2, 8, 0.2], [6935, 2, 10, 1.02], [2049, 3, 11, 0.89], [130, 1, 5, 0.85], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [144, 2, 4, 0.74], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [8648, 2, 4, 1.27], [6936, 2, 6, 1.17], [2328, 2, 4, 0.2], [5151, 2, 4, 0.22], [147, 1, 4, 0.45], [88, 10, 10, 0.44], [141, 2, 4, 1.31], [83, 2, 4, 0.44], [74, 1, 4, 1.53], [2054, 3, 6, 0.53], [10825, 21, 11, 1.03], [362, 2, 4, 0.96], [1007, 2, 5, 0.37], [2057, 3, 6, 0.47], [345, 3, 5, 0.32], [2055, 3, 5, 0.42], [432, 3, 6, 0.62], [7005, 1, 4, 0.2], [21793, 1, 5, 1.14], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [410, 1, 4, 1.5], [3889, 1, 4, 0.2], [201, 3, 5, 0.2], [308, 1, 5, 0.49], [11234, 2, 5, 1.4], [12870, 1, 4, 2.08], [10149, 3, 15, 0.99], [7036, 1, 4, 0.68], [1124, 2, 8, 0.2], [35, 1, 4, 0.83], [9827, 3, 4, 0.83], [167, 3, 5, 1.4], [5081, 2, 6, 0.2], [94, 4, 4, 1.57], [8677, 3, 7, 0.65], [1654, 2, 4, 0.48], [411, 2, 4, 0.46], [1504, 2, 5, 0.27], [3891, 1, 4, 0.2], [79, 1, 4, 0.49], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [168, 3, 5, 1.23], [2336, 3, 5, 0.99], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 4, 0.48], [412, 1, 4, 1.39], [6158, 2, 5, 0.51], [20927, 1, 4, 1.42], [45, 2, 4, 0.64], [1767, 25, 5, 0.59], [361, 2, 4, 1.31], [5208, 3, 5, 0.47], [8651, 2, 4, 1.68], [335, 3, 13, 0.22], [95, 3, 16, 0.3], [9069, 1, 4, 0.42], [25, 1, 4, 1.51], [346, 1, 4, 0.85], [1622, 1, 4, 0.88], [214, 3, 10, 0.2], [8674, 2, 4, 0.73], [2049, 1, 4, 0.23], [21269, 3, 4, 1.23], [413, 1, 5, 1.57], [998, 2, 4, 1.22], [34, 1, 4, 1.85], [3495, 3, 13, 1.31], [856, 1, 4, 0.2], [8898, 3, 6, 0.75], [1070, 7, 10, 0.47], [11116, 1, 5, 0.56], [1766, 25, 4, 0.56], [9691, 1, 4, 2.02], [20498, 1, 4, 0.23], [346, 3, 4, 0.82], [5946, 1, 4, 0.78], [38, 1, 4, 1.85], [9829, 3, 4, 1.17], [14017, 3, 5, 0.79], [974, 3, 5, 1.13], [1091, 1, 4, 0.53], [152, 21, 4, 0.78], [20498, 3, 8, 0.57], [39, 1, 4, 1.85], [82, 2, 4, 1.31], [9372, 1, 5, 2.24], [1080, 3, 5, 0.2], [14037, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.22], [1767, 2, 4, 0.59], [5209, 3, 4, 0.75], [192, 3, 10, 2.16], [5811, 3, 5, 2.2], [3048, 3, 4, 1.24], [9828, 3, 4, 1.52], [972, 3, 5, 0.91], [24, 1, 4, 0.79], [13260, 29, 4, 0.73], [10780, 10, 4, 1.3], [5513, 2, 4, 0.75], [5813, 3, 5, 1.51], [4203, 1, 4, 0.3], [952, 4, 5, 2.16], [202, 2, 4, 1.59], [3981, 3, 12, 1.42], [8945, 3, 5, 1.5], [13034, 3, 5, 1.09], [36, 1, 4, 1.85], [2878, 1, 4, 0.54], [336, 15, 4, 0.35], [3900, 3, 4, 0.49], [955, 2, 4, 0.36], [9082, 3, 18, 0.83], [305, 2, 175, 2.38], [8672, 2, 306, 3.75], [3, 2, 150, 3.44], [589, 2, 173, 1.91], [6935, 2, 342, 3.96], [130, 1, 20, 2.97], [205, 2, 110, 3.06], [12721, 2, 289, 4.25], [144, 2, 162, 2.49], [75, 2, 149, 4.16], [145, 2, 181, 2.07], [1776, 1, 110, 3.69], [8915, 2, 131, 1.75], [593, 2, 243, 3.15], [151, 1, 68, 1.95], [2778, 2, 175, 3.62], [1777, 1, 110, 3.91], [8648, 2, 251, 6.0], [6936, 2, 324, 5.03], [2328, 2, 153, 3.85], [5151, 2, 27, 2.22], [147, 1, 105, 3.44], [88, 10, 603, 3.06], [141, 2, 156, 4.17], [83, 2, 60, 2.02], [74, 1, 200, 6.0], [2054, 3, 479, 3.09], [10825, 21, 639, 4.0], [362, 2, 151, 3.42], [1007, 2, 321, 1.79], [2057, 3, 479, 3.44], [345, 3, 304, 3.6], [2055, 3, 479, 3.34], [432, 3, 306, 3.7], [7005, 1, 81, 1.97], [21793, 1, 268, 5.26], [22247, 2, 305, 3.78], [57, 1, 91, 2.16], [410, 1, 88, 3.88], [3889, 1, 125, 3.36], [201, 3, 304, 3.6], [308, 1, 170, 3.8], [11234, 2, 218, 3.53], [10149, 3, 888, 4.21], [7036, 1, 144, 4.3], [1124, 2, 189, 3.6], [35, 1, 113, 4.47], [9827, 3, 89, 3.28], [167, 3, 230, 4.22], [5081, 2, 214, 3.69], [94, 4, 120, 4.66], [8677, 3, 297, 3.82], [1654, 2, 110, 1.99], [411, 2, 129, 2.19], [1504, 2, 245, 3.29], [3891, 1, 125, 4.24], [79, 1, 56, 2.01], [8676, 2, 306, 2.77], [3893, 1, 125, 4.2], [168, 3, 447, 4.78], [2336, 3, 690, 3.03], [5812, 3, 675, 3.94], [9760, 29, 80, 2.42], [23, 1, 132, 3.98]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [589, 2, 5, 0.66], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [8648, 2, 5, 1.15], [205, 2, 4, 0.2], [8650, 2, 4, 1.52], [593, 2, 6, 0.2], [145, 2, 4, 0.25], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.53], [88, 10, 17, 0.52], [2776, 2, 4, 0.81], [141, 2, 5, 0.39], [7004, 1, 4, 1.09], [1446, 2, 4, 0.28], [1124, 2, 4, 0.57], [206, 2, 4, 0.2], [142, 2, 4, 0.92], [2912, 1, 4, 1.89], [11685, 2, 4, 0.71], [10993, 2, 5, 0.2], [7886, 4, 5, 0.44], [5165, 1, 4, 1.36], [12870, 1, 5, 1.68], [3893, 1, 4, 0.2], [2055, 3, 5, 0.56], [1622, 1, 5, 0.88], [417, 2, 4, 0.92], [21793, 1, 5, 0.61], [2054, 3, 5, 2.22], [3889, 1, 4, 0.2], [7573, 1, 10, 2.46], [523, 2, 4, 0.55], [7885, 4, 5, 0.49], [61, 3, 4, 0.98], [9372, 1, 4, 1.42], [10, 2, 5, 0.36], [3891, 1, 4, 0.63], [10149, 3, 17, 1.21], [5208, 3, 6, 0.19], [75, 2, 5, 1.25], [9491, 21, 17, 0.22], [20927, 1, 4, 1.51], [997, 2, 5, 3.04], [12721, 2, 7, 1.46], [35, 1, 5, 1.54], [3, 2, 5, 0.93], [5165, 2, 5, 1.11], [11234, 2, 4, 1.4], [33, 1, 5, 1.18], [998, 2, 4, 1.6], [94, 4, 4, 1.46], [22247, 2, 4, 1.14], [972, 3, 5, 0.75], [5076, 1, 4, 0.71], [6158, 2, 6, 0.2], [34, 1, 4, 1.32], [2805, 137, 4, 1.42], [2912, 2, 7, 1.89], [2424, 80, 4, 1.36], [38, 1, 4, 1.38], [8104, 1, 4, 1.97], [8898, 3, 5, 4.0], [12212, 29, 5, 0.2], [39, 1, 5, 1.35], [13928, 1, 4, 1.32], [11952, 1, 5, 0.66], [1414, 15, 4, 0.39], [24257, 1, 5, 0.52], [7567, 3, 4, 1.58], [2424, 29, 5, 0.66], [3495, 3, 13, 1.25], [9691, 1, 4, 1.47], [11770, 1, 5, 1.08], [192, 3, 10, 1.07], [3048, 3, 5, 0.92], [11490, 1, 4, 0.71], [995, 2, 4, 1.02], [5946, 1, 4, 0.63], [23961, 3, 4, 1.88], [411, 2, 4, 1.1], [11772, 1, 4, 0.68], [632, 11, 13, 0.73], [161, 3, 5, 1.49], [1703, 2, 5, 1.33], [10407, 10, 7, 1.4], [74, 1, 4, 1.6], [13023, 3, 4, 1.51], [1523, 1, 4, 0.56], [4253, 1, 4, 0.39], [5164, 1, 4, 0.64], [2331, 1, 4, 1.16], [1519, 3, 10, 0.39], [21269, 3, 4, 2.05], [1274, 1, 5, 0.2], [10410, 10, 11, 1.94], [3430, 15, 4, 1.7], [12764, 2, 5, 0.43], [1492, 1, 4, 0.38], [972, 1, 4, 1.01], [11236, 2, 4, 0.62], [214, 3, 13, 0.2], [24258, 1, 4, 0.84], [6097, 29, 4, 1.3], [6097, 80, 4, 1.51], [1080, 3, 4, 1.41], [13893, 2, 4, 1.17], [10780, 10, 4, 2.12], [3047, 3, 4, 1.64], [8674, 2, 4, 2.15], [9081, 3, 7, 1.34], [13928, 2, 4, 1.32], [3576, 29, 4, 1.67], [10408, 10, 6, 1.58], [12662, 1, 4, 0.75], [1243, 2, 4, 0.41], [13034, 3, 4, 1.2], [13264, 29, 4, 0.47], [2436, 4, 4, 0.8], [45, 2, 4, 1.17], [2438, 2, 5, 1.18], [11813, 1, 5, 0.48], [3334, 5, 4, 1.37], [7704, 2, 4, 0.6], [20486, 3, 4, 1.51], [1277, 1, 4, 0.65], [11812, 1, 4, 0.48], [8659, 1, 4, 0.41], [10936, 2, 4, 0.79], [305, 2, 162, 3.71], [589, 2, 71, 2.7], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [144, 2, 159, 2.24], [8915, 2, 189, 3.19], [2328, 2, 149, 4.03], [6936, 2, 280, 6.0], [8648, 2, 219, 5.96], [205, 2, 108, 2.81], [8650, 2, 257, 4.33], [593, 2, 262, 3.44], [145, 2, 159, 2.88], [146, 2, 159, 2.6], [326, 2, 107, 2.22], [7036, 1, 126, 5.91], [88, 10, 587, 3.29], [2776, 2, 162, 3.2], [141, 2, 153, 3.61], [7004, 1, 55, 3.21], [1446, 2, 150, 2.84], [1124, 2, 216, 2.79], [206, 2, 117, 3.03], [142, 2, 162, 3.48], [2912, 1, 52, 4.91], [11685, 2, 332, 2.96], [10993, 2, 13, 2.36], [7886, 4, 33, 2.14], [5165, 1, 47, 3.82], [12870, 1, 137, 6.0], [3893, 1, 136, 3.6], [2055, 3, 469, 2.83], [1622, 1, 107, 2.58], [417, 2, 162, 3.22], [21793, 1, 235, 2.9], [2054, 3, 512, 4.62], [3889, 1, 136, 4.07], [7573, 1, 341, 6.0], [523, 2, 162, 2.39], [61, 3, 216, 3.63], [9372, 1, 238, 5.09], [10, 2, 103, 3.26], [3891, 1, 144, 2.41], [10149, 3, 853, 5.0], [5208, 3, 558, 2.37], [75, 2, 144, 4.75], [9491, 21, 2148, 3.78], [997, 2, 236, 5.88], [12721, 2, 280, 5.19], [35, 1, 127, 4.43], [3, 2, 118, 4.21], [5165, 2, 375, 3.39], [11234, 2, 64, 3.59], [33, 1, 114, 4.37], [998, 2, 236, 4.39], [94, 4, 136, 4.96], [22247, 2, 280, 3.97], [972, 3, 585, 4.02], [5076, 1, 135, 3.88], [6158, 2, 257, 2.89], [34, 1, 127, 4.45], [2805, 137, 183, 6.0], [2912, 2, 414, 4.77], [2424, 80, 168, 4.11], [38, 1, 127, 4.5]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.09], [326, 2, 4, 0.71], [144, 2, 4, 1.05], [11685, 2, 4, 1.87], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [205, 2, 4, 0.37], [141, 2, 4, 0.53], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 6, 0.53], [8650, 2, 4, 0.77], [143, 2, 4, 0.38], [2328, 2, 4, 0.42], [6936, 2, 7, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.71], [146, 2, 5, 0.57], [88, 10, 12, 1.39], [7004, 1, 4, 1.37], [9507, 3, 4, 0.36], [7036, 1, 4, 1.73], [145, 2, 4, 0.91], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.45], [2055, 3, 6, 2.24], [10993, 2, 4, 0.51], [523, 2, 6, 0.53], [11737, 2, 4, 0.98], [75, 2, 4, 0.75], [2050, 3, 4, 1.14], [12870, 1, 4, 1.4], [3840, 1, 4, 0.4], [3893, 1, 4, 0.2], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [13028, 3, 4, 0.62], [2054, 3, 4, 1.14], [7084, 3, 5, 1.32], [3889, 1, 5, 0.2], [2991, 3, 4, 0.78], [20927, 1, 4, 1.11], [3, 2, 4, 0.52], [7005, 1, 5, 0.67], [997, 2, 6, 1.03], [94, 4, 4, 2.13], [10, 2, 4, 0.36], [21793, 1, 5, 1.34], [7885, 4, 5, 0.52], [996, 2, 4, 1.05], [3891, 1, 4, 0.45], [5165, 1, 4, 0.65], [998, 2, 4, 0.91], [6158, 2, 4, 2.18], [8672, 2, 5, 1.18], [9491, 21, 10, 0.52], [11739, 2, 4, 1.78], [5165, 2, 5, 0.65], [2912, 1, 4, 2.02], [972, 3, 4, 1.78], [956, 2, 4, 0.35], [413, 1, 4, 0.87], [98, 11, 11, 0.67], [346, 3, 4, 0.44], [10388, 2, 4, 0.6], [411, 2, 4, 1.15], [346, 1, 4, 0.43], [1492, 1, 4, 0.48], [83, 2, 4, 0.42], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [7567, 3, 4, 1.47], [5208, 3, 4, 1.03], [410, 1, 4, 0.8], [22316, 3, 6, 0.51], [9372, 1, 4, 0.97], [995, 2, 4, 0.79], [13928, 1, 4, 1.35], [9081, 3, 7, 0.78], [22247, 2, 4, 1.07], [336, 15, 4, 1.17], [308, 1, 4, 0.67], [161, 3, 6, 1.78], [2912, 2, 5, 2.02], [10631, 2, 4, 1.5], [1622, 1, 4, 1.47], [11953, 1, 4, 0.55], [22317, 3, 6, 0.51], [345, 3, 5, 0.76], [23611, 3, 5, 0.55], [9082, 3, 17, 1.08], [229, 1, 4, 1.04], [6497, 1, 4, 1.56], [192, 3, 11, 0.72], [37, 1, 5, 1.16], [24257, 1, 5, 2.97], [972, 1, 5, 0.5], [11767, 1, 4, 0.2], [12271, 2, 4, 2.52], [10410, 10, 6, 1.98], [82, 2, 4, 0.66], [14037, 3, 4, 1.22], [10407, 10, 7, 1.61], [7704, 2, 4, 1.45], [34, 1, 5, 0.93], [74, 1, 4, 0.93], [3048, 3, 4, 1.14], [1413, 15, 4, 0.36], [20498, 3, 5, 0.4], [38, 1, 5, 0.66], [335, 3, 9, 0.88], [2331, 1, 4, 1.54], [12338, 29, 5, 0.2], [215, 4, 4, 2.5], [12721, 2, 4, 0.9], [152, 21, 5, 0.34], [9, 1, 5, 0.2], [9964, 2, 4, 1.35], [1523, 1, 4, 0.44], [4253, 1, 4, 0.34], [11510, 3, 5, 0.99], [45, 2, 4, 1.17], [8673, 2, 4, 2.14], [12764, 2, 5, 0.2], [10093, 3, 9, 0.92], [5209, 3, 4, 1.03], [7705, 2, 4, 1.45], [1703, 2, 4, 1.96], [2805, 137, 4, 0.93], [7706, 2, 4, 2.22], [3047, 3, 4, 0.95], [12212, 29, 5, 0.24], [1895, 3, 4, 2.5], [9971, 2, 4, 0.45], [6935, 2, 262, 5.26], [326, 2, 100, 2.5], [144, 2, 173, 3.31], [11685, 2, 284, 6.0], [11681, 2, 284, 6.0], [589, 2, 157, 2.97], [205, 2, 107, 1.87], [141, 2, 143, 4.17], [593, 2, 233, 3.46], [305, 2, 136, 3.63], [8915, 2, 186, 2.06], [8650, 2, 206, 3.55], [143, 2, 163, 3.14], [2328, 2, 165, 1.94], [6936, 2, 262, 6.0], [2778, 2, 144, 3.76], [206, 2, 106, 2.7], [146, 2, 156, 3.93], [88, 10, 524, 3.54], [7004, 1, 85, 3.77], [9507, 3, 73, 1.53], [7036, 1, 118, 4.97], [145, 2, 165, 2.87], [1446, 2, 147, 2.85], [417, 2, 151, 2.06], [8853, 2, 262, 5.07], [2055, 3, 421, 6.0], [10993, 2, 58, 2.11], [523, 2, 143, 3.75], [11737, 2, 61, 3.02], [75, 2, 159, 3.26], [2050, 3, 484, 5.31], [12870, 1, 148, 4.94], [3840, 1, 103, 1.78], [3893, 1, 122, 1.96], [12350, 1, 593, 5.04], [2057, 3, 421, 6.0], [13028, 3, 159, 2.38], [2054, 3, 484, 5.31], [7084, 3, 120, 4.13], [3889, 1, 116, 2.88], [2991, 3, 166, 4.52], [20927, 1, 80, 3.27], [3, 2, 129, 2.12], [7005, 1, 77, 2.67], [997, 2, 220, 3.69], [94, 4, 125, 5.23], [21793, 1, 230, 4.18], [996, 2, 257, 4.15], [3891, 1, 135, 2.0], [5165, 1, 51, 3.25], [998, 2, 257, 4.15], [6158, 2, 278, 5.33], [8672, 2, 265, 5.08], [9491, 21, 2047, 3.04], [11739, 2, 14, 4.06], [5165, 2, 410, 3.24], [2912, 1, 48, 5.09], [972, 3, 212, 4.72], [956, 2, 117, 1.8], [413, 1, 93, 2.8], [98, 11, 805, 3.22], [346, 3, 666, 1.99], [10388, 2, 214, 2.28], [411, 2, 100, 3.34]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 9, 0.47], [362, 2, 5, 0.7], [2049, 3, 12, 0.2], [589, 2, 6, 0.2], [3, 2, 4, 1.01], [75, 2, 5, 0.49], [1776, 1, 4, 0.58], [141, 2, 5, 1.05], [8672, 2, 6, 0.72], [130, 1, 4, 0.4], [205, 2, 4, 0.46], [2778, 2, 6, 0.2], [11681, 2, 5, 2.33], [1777, 1, 5, 0.93], [305, 2, 4, 0.49], [6936, 2, 5, 1.27], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.39], [2328, 2, 6, 0.2], [248, 1, 4, 0.37], [88, 10, 12, 0.33], [1007, 2, 6, 0.37], [83, 2, 4, 0.5], [345, 3, 5, 0.32], [5151, 2, 4, 0.65], [8650, 2, 5, 1.15], [412, 1, 4, 1.27], [361, 2, 4, 0.49], [22247, 2, 5, 0.97], [201, 3, 6, 0.32], [57, 1, 6, 0.2], [21793, 1, 4, 1.03], [10149, 3, 17, 1.32], [45, 2, 5, 1.12], [12721, 2, 6, 0.97], [7004, 1, 5, 0.47], [2054, 3, 5, 1.33], [10825, 21, 8, 1.16], [413, 1, 4, 1.45], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [74, 1, 4, 0.84], [6158, 2, 6, 0.87], [308, 1, 5, 0.72], [168, 3, 6, 0.74], [432, 3, 5, 0.39], [10, 2, 5, 0.2], [13028, 3, 5, 0.5], [7887, 4, 5, 0.4], [7036, 1, 5, 1.96], [3495, 3, 15, 0.92], [214, 3, 10, 0.42], [12870, 1, 4, 2.58], [335, 3, 15, 0.4], [5081, 2, 5, 0.2], [79, 1, 4, 0.2], [5208, 3, 7, 0.18], [9827, 3, 4, 0.2], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [95, 3, 13, 1.11], [5812, 3, 6, 1.21], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [13260, 29, 4, 0.85], [23, 1, 4, 1.51], [94, 4, 4, 2.4], [7005, 1, 5, 0.49], [1490, 1, 4, 1.04], [411, 2, 4, 0.74], [25, 1, 4, 1.76], [998, 2, 4, 0.69], [1124, 2, 5, 0.79], [3980, 4, 4, 1.4], [21269, 3, 4, 3.75], [10574, 3, 5, 0.42], [5086, 1, 6, 1.11], [9691, 1, 4, 2.15], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [5660, 2, 5, 2.37], [11914, 1, 6, 0.2], [997, 2, 5, 1.37], [20927, 1, 4, 0.61], [9829, 3, 4, 1.06], [1703, 2, 4, 1.38], [8676, 2, 4, 0.97], [5209, 3, 6, 0.18], [9081, 3, 10, 1.8], [1622, 1, 6, 0.35], [192, 3, 11, 2.4], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [8674, 2, 4, 1.22], [8898, 3, 6, 2.67], [5513, 2, 4, 0.52], [1070, 7, 8, 0.64], [996, 2, 4, 1.37], [1091, 1, 4, 0.2], [12661, 1, 4, 2.6], [14037, 3, 4, 0.47], [13034, 3, 6, 1.01], [6097, 29, 4, 0.2], [1519, 3, 14, 0.22], [22317, 3, 6, 0.51], [24, 1, 5, 1.6], [20498, 3, 6, 1.52], [8274, 3, 6, 1.09], [4203, 1, 5, 0.53], [10529, 29, 4, 1.19], [9760, 29, 4, 0.2], [82, 2, 4, 0.72], [6097, 80, 4, 0.41], [1413, 15, 4, 0.37], [336, 15, 4, 0.35], [9082, 3, 18, 1.17], [11767, 1, 4, 0.47], [2104, 3, 6, 1.63], [23611, 3, 4, 1.3], [995, 2, 4, 0.98], [6098, 80, 4, 1.4], [66, 1, 4, 0.2], [11769, 1, 4, 0.47], [6098, 29, 4, 0.6], [66, 16, 4, 0.47], [13484, 1, 4, 1.93], [8945, 3, 5, 0.98], [2109, 3, 9, 0.46], [10780, 10, 4, 2.28], [20486, 1, 4, 2.5], [9372, 1, 5, 0.42], [5946, 1, 4, 1.36], [2537, 1, 4, 1.19], [972, 3, 5, 1.01], [6935, 2, 278, 4.7], [362, 2, 147, 2.58], [2049, 3, 486, 2.4], [589, 2, 137, 1.65], [3, 2, 124, 3.17], [75, 2, 131, 4.14], [1776, 1, 97, 3.47], [141, 2, 137, 3.39], [8672, 2, 253, 3.31], [130, 1, 62, 1.72], [205, 2, 56, 2.96], [2778, 2, 154, 3.46], [11681, 2, 277, 6.0], [1777, 1, 97, 4.13], [305, 2, 131, 3.03], [6936, 2, 283, 5.08], [8648, 2, 221, 5.61], [593, 2, 223, 3.28], [990, 2, 55, 1.7], [2328, 2, 150, 3.34], [88, 10, 502, 4.75], [1007, 2, 253, 1.99], [83, 2, 48, 2.11], [345, 3, 284, 2.29], [5151, 2, 26, 2.64], [8650, 2, 221, 5.65], [412, 1, 74, 4.09], [361, 2, 137, 3.58], [22247, 2, 267, 3.35], [201, 3, 284, 2.2], [57, 1, 76, 2.84], [21793, 1, 236, 6.0], [10149, 3, 768, 5.15], [45, 2, 98, 5.05], [12721, 2, 267, 2.73], [7004, 1, 71, 2.68], [2054, 3, 440, 4.17], [10825, 21, 608, 3.05], [413, 1, 81, 3.74], [167, 3, 202, 4.11], [2057, 3, 417, 4.35], [74, 1, 179, 4.92], [6158, 2, 243, 3.8], [308, 1, 158, 3.39], [168, 3, 360, 3.79], [432, 3, 268, 2.76], [10, 2, 86, 2.95], [13028, 3, 131, 3.33], [7887, 4, 125, 1.92], [7036, 1, 113, 5.95], [3495, 3, 855, 4.0], [214, 3, 574, 1.92], [5081, 2, 171, 3.4], [79, 1, 43, 2.25], [5208, 3, 499, 4.35], [9827, 3, 78, 3.26], [410, 1, 73, 2.95], [3889, 1, 109, 4.11], [95, 3, 981, 4.54], [5812, 3, 596, 4.23], [3893, 1, 109, 3.58], [1504, 2, 202, 3.29], [13260, 29, 64, 3.25], [23, 1, 104, 3.86], [94, 4, 106, 5.57]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 7, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.26], [326, 2, 5, 0.72], [6936, 2, 6, 1.66], [8650, 2, 5, 2.46], [8648, 2, 5, 1.7], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.87], [2775, 2, 4, 0.93], [144, 2, 5, 1.04], [10, 2, 5, 0.2], [1124, 2, 4, 0.57], [94, 4, 4, 1.46], [7885, 4, 4, 0.49], [3893, 1, 5, 0.2], [7886, 4, 4, 0.48], [141, 2, 4, 0.92], [146, 2, 6, 1.32], [3891, 1, 4, 0.2], [2055, 3, 5, 0.98], [75, 2, 5, 0.99], [21793, 1, 5, 0.86], [206, 2, 4, 0.71], [12349, 1, 4, 2.14], [10993, 2, 4, 0.2], [5208, 3, 7, 0.19], [2054, 3, 4, 2.22], [3889, 1, 6, 0.2], [3980, 4, 6, 1.21], [7005, 1, 4, 0.93], [12870, 1, 4, 1.93], [145, 2, 4, 1.5], [5165, 1, 4, 0.9], [2912, 1, 4, 1.89], [10149, 3, 13, 1.71], [20927, 1, 4, 1.68], [9760, 29, 4, 0.2], [998, 2, 4, 1.6], [2436, 4, 4, 0.2], [7887, 4, 4, 0.97], [417, 2, 4, 0.92], [997, 2, 4, 1.02], [2424, 80, 5, 1.11], [3, 2, 5, 0.37], [6158, 2, 5, 0.2], [632, 11, 12, 0.73], [5076, 1, 6, 0.56], [9491, 21, 10, 1.09], [972, 3, 6, 0.51], [229, 1, 5, 1.16], [214, 3, 9, 0.56], [74, 1, 5, 1.22], [3495, 3, 10, 1.28], [523, 2, 4, 0.55], [11770, 1, 4, 1.09], [7573, 1, 9, 2.71], [11953, 1, 5, 0.45], [5165, 2, 5, 0.9], [24257, 1, 4, 0.48], [12721, 2, 4, 0.9], [2423, 80, 4, 1.97], [1492, 1, 4, 0.38], [12350, 1, 4, 4.0], [11772, 1, 4, 0.68], [192, 3, 10, 1.07], [1622, 1, 5, 0.49], [2912, 2, 7, 2.28], [22317, 3, 4, 0.42], [8677, 3, 4, 1.3], [2438, 2, 5, 1.88], [5434, 1, 4, 1.41], [8898, 3, 5, 4.0], [823, 1, 5, 0.4], [361, 2, 4, 0.92], [2424, 29, 4, 0.78], [9372, 1, 4, 1.36], [4253, 1, 4, 0.39], [3975, 4, 4, 1.51], [3900, 3, 5, 0.46], [33, 1, 5, 0.47], [5209, 3, 7, 0.19], [6496, 1, 4, 1.69], [7567, 3, 4, 1.18], [37, 1, 5, 0.47], [5946, 1, 4, 0.2], [2805, 137, 4, 1.35], [335, 3, 9, 0.49], [11812, 1, 4, 0.22], [12764, 2, 5, 0.2], [10407, 10, 8, 1.44], [220, 4, 4, 1.76], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [1703, 2, 4, 0.56], [10388, 2, 4, 0.61], [24258, 1, 4, 0.84], [1339, 3, 10, 0.36], [11490, 1, 4, 0.5], [38, 1, 4, 0.84], [35, 1, 5, 0.47], [1414, 15, 4, 0.39], [1274, 1, 4, 0.56], [22247, 2, 4, 1.06], [161, 3, 5, 1.49], [11236, 2, 4, 0.62], [4232, 80, 4, 1.82], [2104, 3, 9, 0.72], [1895, 3, 4, 0.88], [12212, 29, 5, 0.2], [12979, 25, 7, 0.47], [13893, 2, 4, 1.17], [10631, 2, 4, 1.55], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [216, 4, 4, 0.61], [1309, 1, 4, 0.45], [8635, 3, 4, 0.87], [10093, 3, 8, 0.92], [12728, 1, 4, 1.2], [4940, 1, 4, 0.51], [8104, 1, 4, 1.97], [8274, 3, 4, 0.87], [76, 2, 4, 0.47], [788, 2, 4, 0.51], [12501, 1, 4, 1.24], [13928, 1, 4, 1.58], [5164, 1, 4, 0.64], [11942, 29, 4, 0.52], [10386, 2, 4, 0.77], [19931, 1, 4, 1.26], [589, 2, 152, 2.97], [88, 10, 558, 3.67], [8915, 2, 189, 3.19], [6935, 2, 280, 6.0], [2778, 2, 154, 3.81], [305, 2, 162, 3.71], [2328, 2, 149, 4.28], [326, 2, 107, 3.65], [6936, 2, 280, 6.0], [8650, 2, 219, 6.0], [8648, 2, 231, 4.48], [1446, 2, 150, 3.82], [7004, 1, 18, 3.12], [205, 2, 114, 2.87], [2775, 2, 181, 2.99], [144, 2, 151, 3.98], [10, 2, 24, 2.72], [1124, 2, 216, 2.79], [94, 4, 136, 4.96], [3893, 1, 136, 3.6], [7886, 4, 33, 1.59], [141, 2, 162, 3.48], [146, 2, 151, 3.93], [3891, 1, 136, 3.65], [2055, 3, 495, 3.11], [75, 2, 144, 4.87], [21793, 1, 235, 2.86], [206, 2, 113, 2.57], [12349, 1, 693, 5.33], [10993, 2, 19, 1.98], [5208, 3, 558, 3.42], [2054, 3, 162, 5.16], [3889, 1, 136, 4.07], [3980, 4, 476, 4.77], [7005, 1, 83, 2.99], [12870, 1, 137, 6.0], [5165, 1, 50, 3.27], [2912, 1, 52, 4.91], [10149, 3, 853, 5.0], [9760, 29, 71, 3.39], [998, 2, 272, 5.2], [2436, 4, 114, 2.69], [417, 2, 162, 3.48], [997, 2, 236, 3.69], [2424, 80, 168, 4.11], [3, 2, 118, 4.21], [6158, 2, 257, 2.89], [632, 11, 855, 2.6], [5076, 1, 128, 3.98], [9491, 21, 2261, 4.29], [972, 3, 585, 4.02], [229, 1, 81, 4.37], [214, 3, 529, 2.18], [74, 1, 208, 6.0], [3495, 3, 1114, 3.77], [523, 2, 162, 2.39], [11770, 1, 237, 5.03], [7573, 1, 341, 6.0], [11953, 1, 197, 2.8], [5165, 2, 395, 3.28], [24257, 1, 139, 2.65], [12721, 2, 328, 2.93], [1492, 1, 43, 2.34], [12350, 1, 693, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 8, 0.19], [144, 2, 5, 0.47], [11681, 2, 5, 1.61], [8915, 2, 5, 0.86], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [2327, 2, 5, 0.2], [8650, 2, 6, 1.21], [7036, 1, 4, 1.48], [593, 2, 7, 0.27], [11685, 2, 4, 1.9], [3893, 1, 5, 0.2], [141, 2, 7, 0.53], [2775, 2, 4, 1.06], [206, 2, 4, 0.65], [9507, 3, 4, 0.36], [7004, 1, 4, 0.94], [3840, 1, 4, 0.4], [3980, 4, 6, 1.19], [143, 2, 5, 1.53], [3891, 1, 4, 0.2], [2050, 3, 4, 1.69], [146, 2, 5, 1.32], [7885, 4, 5, 0.2], [7886, 4, 5, 0.4], [3889, 1, 4, 0.35], [2055, 3, 5, 1.73], [2328, 2, 4, 0.42], [10, 2, 4, 0.36], [2054, 3, 6, 1.86], [362, 2, 5, 0.82], [12870, 1, 6, 1.4], [8672, 2, 6, 0.73], [10993, 2, 5, 0.63], [12349, 1, 4, 1.96], [3975, 4, 4, 1.39], [7084, 3, 4, 1.07], [21793, 1, 4, 1.34], [5165, 1, 4, 0.9], [2057, 3, 4, 2.02], [1446, 2, 4, 0.9], [75, 2, 4, 0.46], [5208, 3, 4, 1.03], [145, 2, 4, 1.3], [2991, 3, 4, 1.13], [523, 2, 5, 1.03], [94, 4, 4, 2.13], [3982, 3, 14, 1.42], [7005, 1, 4, 0.72], [3495, 3, 13, 1.14], [20927, 1, 4, 1.42], [997, 2, 4, 0.77], [7887, 4, 5, 1.2], [6158, 2, 4, 2.18], [2912, 1, 4, 2.02], [82, 2, 5, 0.66], [61, 3, 5, 1.41], [192, 3, 10, 1.01], [35, 1, 5, 1.58], [956, 2, 4, 0.35], [417, 2, 4, 0.4], [5165, 2, 5, 0.65], [22316, 3, 6, 0.51], [6497, 1, 4, 1.56], [998, 2, 4, 0.91], [11953, 1, 6, 0.2], [7567, 3, 4, 0.71], [286, 3, 4, 0.72], [11769, 1, 5, 0.96], [389, 4, 4, 0.85], [1492, 1, 4, 0.48], [996, 2, 7, 1.47], [346, 3, 5, 1.28], [12344, 1, 4, 1.02], [4176, 4, 5, 1.31], [11767, 1, 4, 0.78], [39, 1, 4, 1.04], [7573, 1, 5, 1.22], [410, 1, 4, 0.62], [6496, 1, 4, 0.46], [37, 1, 4, 0.91], [8677, 3, 5, 1.15], [972, 3, 5, 2.02], [74, 1, 4, 0.93], [12721, 2, 4, 1.22], [411, 2, 4, 0.64], [2104, 3, 6, 1.46], [11490, 1, 4, 0.54], [2436, 4, 5, 2.37], [12212, 29, 4, 0.2], [22317, 3, 5, 0.26], [2912, 2, 5, 2.02], [201, 3, 5, 0.51], [345, 3, 4, 0.5], [336, 15, 5, 1.17], [1413, 15, 4, 0.2], [1274, 1, 4, 1.01], [11085, 2, 6, 1.78], [8121, 3, 4, 0.5], [1277, 1, 5, 0.65], [3979, 3, 5, 1.18], [3, 2, 6, 0.46], [14037, 3, 4, 1.22], [21269, 3, 4, 3.49], [823, 1, 4, 0.56], [38, 1, 4, 0.91], [13023, 3, 4, 1.52], [6494, 1, 4, 0.46], [9, 1, 4, 0.2], [12271, 2, 4, 2.52], [8673, 2, 4, 2.14], [36, 1, 4, 0.66], [9784, 1, 4, 0.48], [22247, 2, 5, 1.39], [8676, 2, 5, 0.98], [10408, 10, 5, 1.4], [3577, 25, 4, 0.78], [2805, 137, 4, 0.93], [5209, 3, 4, 1.03], [1414, 15, 4, 0.2], [20498, 3, 6, 0.4], [10936, 2, 4, 0.45], [95, 3, 12, 0.5], [2878, 1, 4, 1.16], [11812, 1, 4, 0.22], [10388, 2, 4, 0.6], [9491, 21, 11, 0.59], [13928, 1, 5, 1.1], [346, 1, 5, 1.52], [399, 24, 4, 2.63], [6935, 2, 262, 5.51], [305, 2, 136, 3.63], [2778, 2, 169, 2.2], [6936, 2, 262, 5.89], [205, 2, 111, 2.78], [88, 10, 524, 3.54], [144, 2, 55, 3.98], [11681, 2, 275, 5.79], [8915, 2, 186, 2.64], [589, 2, 157, 2.97], [326, 2, 86, 3.24], [2327, 2, 154, 3.43], [8650, 2, 206, 5.17], [7036, 1, 118, 4.97], [593, 2, 233, 3.46], [11685, 2, 299, 4.85], [3893, 1, 122, 1.89], [141, 2, 143, 4.17], [2775, 2, 169, 3.17], [206, 2, 100, 2.63], [9507, 3, 73, 1.53], [7004, 1, 80, 3.65], [3840, 1, 103, 1.78], [3980, 4, 443, 5.08], [143, 2, 54, 3.88], [3891, 1, 116, 2.55], [2050, 3, 421, 6.0], [146, 2, 140, 3.93], [7886, 4, 52, 1.85], [3889, 1, 135, 1.8], [2055, 3, 421, 6.0], [2328, 2, 165, 1.94], [2054, 3, 421, 6.0], [362, 2, 137, 3.93], [12870, 1, 126, 6.0], [8672, 2, 265, 5.08], [10993, 2, 50, 2.94], [12349, 1, 623, 5.04], [3975, 4, 467, 3.89], [7084, 3, 120, 4.13], [21793, 1, 230, 3.71], [5165, 1, 46, 3.27], [2057, 3, 421, 6.0], [1446, 2, 163, 2.85], [75, 2, 144, 2.02], [5208, 3, 531, 4.39], [145, 2, 55, 3.71], [2991, 3, 154, 3.83], [523, 2, 143, 3.75], [94, 4, 125, 5.23], [3982, 3, 729, 5.02], [7005, 1, 80, 2.77], [3495, 3, 1034, 4.98], [20927, 1, 85, 3.95], [997, 2, 257, 4.15], [6158, 2, 278, 5.33], [2912, 1, 48, 5.09], [82, 2, 55, 2.63], [61, 3, 201, 3.83], [192, 3, 1307, 4.82], [35, 1, 27, 4.11], [956, 2, 117, 1.8], [417, 2, 151, 2.31], [5165, 2, 410, 3.24], [22316, 3, 291, 3.17]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [8650, 2, 4, 1.46], [361, 2, 4, 0.2], [5491, 2, 5, 0.2], [589, 2, 5, 0.2], [11685, 2, 4, 0.2], [417, 2, 4, 0.2], [326, 2, 4, 0.55], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 5, 0.57], [8648, 2, 4, 0.91], [12721, 2, 5, 0.48], [248, 1, 4, 0.26], [11838, 2, 5, 0.63], [11837, 2, 4, 0.83], [142, 2, 4, 0.2], [8915, 2, 4, 0.38], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [8676, 2, 4, 2.86], [9507, 3, 4, 0.35], [305, 2, 5, 1.23], [21793, 1, 4, 1.54], [22247, 2, 5, 1.0], [11835, 2, 4, 0.73], [593, 2, 5, 0.78], [616, 2, 6, 0.2], [411, 2, 4, 0.64], [990, 2, 4, 0.2], [10574, 3, 7, 1.5], [12353, 1, 4, 3.55], [8673, 2, 4, 0.97], [2775, 2, 4, 0.48], [145, 2, 4, 0.91], [6158, 2, 5, 0.89], [11836, 2, 4, 0.63], [2055, 3, 4, 0.8], [3495, 3, 13, 1.34], [10149, 3, 13, 0.75], [88, 10, 8, 1.2], [12344, 1, 4, 2.77], [146, 2, 4, 0.91], [75, 2, 4, 1.68], [2054, 3, 6, 0.8], [2057, 3, 4, 0.8], [10993, 2, 5, 0.4], [7705, 2, 5, 1.15], [12343, 1, 4, 3.55], [7885, 4, 5, 0.94], [61, 3, 4, 0.36], [2424, 29, 4, 1.45], [144, 2, 4, 0.91], [7704, 2, 5, 1.15], [2859, 15, 4, 0.63], [2423, 29, 4, 1.26], [5165, 1, 4, 0.86], [2423, 80, 4, 1.23], [201, 3, 6, 0.76], [335, 3, 10, 0.88], [308, 1, 6, 1.85], [9126, 1, 4, 0.81], [13028, 3, 4, 0.49], [1519, 3, 12, 0.22], [214, 3, 9, 0.96], [2424, 80, 4, 1.39], [12352, 1, 4, 3.55], [7004, 1, 4, 1.29], [345, 3, 5, 0.49], [13023, 3, 6, 1.51], [13034, 3, 5, 1.37], [6952, 1, 4, 0.98], [2703, 3, 4, 2.44], [11770, 1, 4, 1.14], [6494, 1, 4, 0.47], [3430, 15, 4, 0.8], [410, 1, 4, 0.52], [432, 3, 5, 1.01], [94, 4, 4, 1.96], [13928, 1, 4, 1.15], [1492, 1, 4, 0.83], [20927, 1, 4, 0.67], [1886, 2, 4, 0.44], [3893, 1, 4, 0.47], [2331, 1, 4, 0.79], [12347, 1, 4, 0.51], [3891, 1, 4, 2.96], [3981, 3, 10, 0.29], [11811, 1, 4, 0.38], [13033, 3, 4, 0.5], [11954, 1, 4, 0.66], [9690, 1, 4, 0.76], [114, 3, 4, 0.36], [952, 4, 4, 2.24], [1309, 1, 4, 0.92], [105, 3, 4, 0.35], [1274, 1, 4, 1.18], [5584, 3, 4, 1.16], [5946, 1, 4, 0.51], [7886, 4, 6, 0.94], [5733, 2, 5, 0.43], [5812, 3, 4, 1.51], [11089, 1, 4, 1.02], [3, 2, 4, 0.91], [7708, 2, 4, 0.74], [8898, 3, 4, 2.11], [10410, 10, 8, 1.65], [7703, 2, 4, 0.74], [95, 3, 8, 2.52], [3478, 2, 4, 0.85], [10407, 10, 8, 1.65], [9507, 1, 4, 0.36], [22558, 3, 4, 0.88], [8274, 3, 4, 0.58], [3980, 4, 4, 1.39], [9082, 3, 15, 0.83], [957, 2, 4, 0.36], [5165, 2, 5, 0.84], [20555, 2, 4, 0.59], [10408, 10, 6, 0.75], [192, 3, 10, 2.2], [10398, 2, 4, 1.31], [247, 1, 4, 1.21], [963, 3, 4, 0.89], [823, 1, 4, 2.42], [13264, 29, 4, 0.48], [11603, 2, 4, 1.37], [2805, 137, 5, 1.98], [7005, 1, 4, 0.86], [5811, 3, 5, 2.0], [6630, 3, 4, 1.83], [20969, 3, 4, 0.86], [186, 3, 9, 1.23], [9491, 21, 10, 3.02], [21003, 2, 4, 0.72], [12229, 2, 4, 0.45], [141, 2, 160, 3.3], [8650, 2, 225, 5.35], [361, 2, 167, 2.01], [5491, 2, 111, 2.33], [589, 2, 163, 2.41], [11685, 2, 286, 4.02], [417, 2, 167, 2.02], [326, 2, 98, 2.49], [6935, 2, 288, 6.0], [205, 2, 111, 2.05], [1124, 2, 199, 2.9], [8648, 2, 238, 3.22], [12721, 2, 290, 4.49], [248, 1, 15, 2.19], [11838, 2, 265, 4.05], [11837, 2, 265, 2.91], [142, 2, 167, 2.0], [8915, 2, 52, 1.48], [6936, 2, 288, 5.61], [2778, 2, 161, 3.87], [8676, 2, 112, 6.0], [305, 2, 151, 3.93], [21793, 1, 254, 4.71], [22247, 2, 299, 3.59], [11835, 2, 265, 2.72], [593, 2, 243, 2.76], [616, 2, 111, 2.52], [411, 2, 115, 2.62], [990, 2, 56, 2.04], [12353, 1, 642, 6.0], [8673, 2, 304, 4.22], [2775, 2, 167, 2.23], [145, 2, 163, 3.06], [6158, 2, 279, 3.46], [11836, 2, 265, 4.64], [2055, 3, 501, 4.03], [3495, 3, 1026, 3.97], [10149, 3, 934, 2.81], [88, 10, 569, 4.74], [12344, 1, 642, 6.0], [146, 2, 163, 3.06], [75, 2, 152, 4.79], [2054, 3, 450, 3.36], [2057, 3, 501, 4.51], [10993, 2, 54, 2.81], [7705, 2, 180, 4.05], [12343, 1, 642, 6.0], [61, 3, 223, 2.0], [2424, 29, 35, 5.04], [144, 2, 163, 3.06], [7704, 2, 180, 4.05], [2859, 15, 73, 2.52], [2423, 29, 38, 3.74], [5165, 1, 51, 2.97], [2423, 80, 192, 3.71], [201, 3, 306, 4.73], [335, 3, 1375, 2.99], [308, 1, 171, 5.25], [9126, 1, 73, 4.46], [13028, 3, 154, 2.55], [1519, 3, 869, 2.5], [214, 3, 684, 3.08], [2424, 80, 174, 4.99], [12352, 1, 642, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 10, 0.2], [6935, 2, 7, 0.77], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [2775, 2, 4, 0.72], [145, 2, 5, 1.17], [12721, 2, 6, 0.72], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.87], [8675, 2, 4, 0.73], [362, 2, 5, 0.44], [141, 2, 4, 0.4], [11681, 2, 5, 0.46], [205, 2, 5, 0.2], [8673, 2, 6, 0.73], [8676, 2, 6, 0.6], [308, 1, 6, 0.43], [1124, 2, 5, 0.79], [144, 2, 5, 1.17], [11835, 2, 4, 0.42], [5493, 2, 4, 0.45], [417, 2, 4, 0.4], [8650, 2, 5, 1.28], [11837, 2, 6, 0.3], [3, 2, 5, 1.09], [6097, 80, 5, 2.61], [589, 2, 4, 0.9], [2423, 29, 4, 1.19], [206, 2, 4, 0.64], [6097, 29, 4, 2.36], [11836, 2, 6, 0.45], [593, 2, 6, 1.3], [990, 2, 4, 0.2], [6098, 80, 4, 2.84], [88, 10, 10, 0.44], [523, 2, 4, 0.76], [13260, 29, 4, 1.4], [2423, 80, 4, 0.87], [8915, 2, 5, 0.53], [10993, 2, 4, 0.52], [6494, 1, 4, 0.47], [326, 2, 4, 0.6], [6158, 2, 5, 0.89], [75, 2, 5, 1.56], [10574, 3, 5, 0.83], [1339, 1, 4, 0.43], [335, 3, 10, 0.88], [1492, 1, 4, 0.83], [1050, 2, 4, 0.2], [411, 2, 4, 0.64], [947, 15, 4, 0.76], [151, 1, 4, 0.45], [2859, 15, 4, 0.72], [7004, 1, 4, 0.82], [1339, 3, 14, 0.18], [6496, 1, 4, 1.31], [13264, 29, 4, 0.52], [345, 3, 4, 1.71], [10149, 3, 13, 0.39], [61, 3, 5, 0.2], [7704, 2, 5, 1.79], [1049, 2, 4, 0.85], [1243, 2, 4, 1.92], [964, 15, 4, 0.84], [432, 3, 4, 1.4], [13259, 29, 5, 0.99], [22558, 3, 4, 1.98], [201, 3, 6, 1.05], [1277, 1, 4, 1.3], [5208, 3, 4, 1.35], [7705, 2, 5, 2.04], [2912, 1, 4, 1.99], [963, 3, 4, 0.39], [159, 3, 5, 0.6], [229, 1, 4, 1.04], [186, 3, 9, 0.67], [2438, 1, 4, 1.21], [21793, 1, 4, 1.38], [11738, 2, 4, 0.46], [2331, 1, 4, 1.3], [10407, 10, 6, 1.9], [3478, 2, 4, 1.58], [7706, 2, 5, 1.79], [12229, 2, 6, 0.45], [13928, 1, 4, 1.4], [1548, 1, 5, 0.84], [2703, 3, 4, 2.44], [11844, 2, 4, 2.06], [8944, 3, 4, 0.37], [11490, 1, 4, 0.83], [7036, 1, 4, 0.76], [94, 4, 4, 1.96], [159, 16, 4, 0.69], [114, 3, 4, 0.41], [11687, 2, 4, 0.79], [956, 2, 4, 0.52], [9126, 1, 4, 1.39], [10408, 10, 7, 1.66], [7708, 2, 5, 1.79], [1886, 2, 4, 0.44], [11159, 1, 7, 0.4], [10406, 10, 7, 0.92], [22125, 2, 4, 0.36], [20927, 1, 5, 0.47], [11586, 1, 6, 2.44], [11689, 2, 4, 0.77], [9065, 2, 4, 0.66], [2438, 2, 5, 1.11], [12870, 1, 4, 0.94], [11690, 2, 4, 0.53], [7005, 1, 4, 1.52], [1274, 1, 4, 1.57], [410, 1, 4, 0.52], [1699, 3, 4, 1.18], [2991, 3, 5, 2.12], [2805, 137, 5, 1.58], [21781, 2, 4, 0.22], [152, 21, 4, 0.63], [13259, 25, 4, 0.99], [4253, 1, 4, 0.43], [3495, 3, 13, 1.34], [5976, 1, 4, 2.19], [159, 1, 4, 0.67], [5584, 3, 4, 1.16], [9690, 1, 4, 0.76], [5769, 3, 6, 0.52], [7007, 1, 4, 0.73], [9239, 29, 4, 1.55], [9209, 29, 4, 1.53], [9491, 21, 10, 1.42], [11811, 1, 4, 0.38], [9239, 25, 4, 1.55], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [2778, 2, 158, 3.61], [6935, 2, 307, 3.37], [305, 2, 151, 3.96], [6936, 2, 290, 5.43], [2775, 2, 166, 2.7], [145, 2, 41, 3.46], [12721, 2, 289, 4.72], [2327, 2, 153, 4.86], [361, 2, 165, 2.08], [146, 2, 154, 3.93], [8675, 2, 298, 2.92], [362, 2, 151, 2.79], [141, 2, 165, 2.08], [11681, 2, 270, 3.74], [205, 2, 115, 2.57], [8673, 2, 291, 5.08], [8676, 2, 292, 5.81], [308, 1, 180, 3.47], [1124, 2, 197, 3.05], [144, 2, 102, 3.98], [11835, 2, 265, 3.53], [5493, 2, 117, 2.19], [417, 2, 165, 3.25], [8650, 2, 225, 6.0], [11837, 2, 265, 2.8], [3, 2, 122, 3.99], [6097, 80, 18, 6.0], [589, 2, 161, 3.07], [2423, 29, 39, 4.24], [206, 2, 86, 3.35], [11836, 2, 265, 3.97], [593, 2, 54, 4.02], [990, 2, 53, 2.31], [88, 10, 596, 3.71], [523, 2, 165, 3.02], [13260, 29, 73, 4.01], [2423, 80, 195, 3.03], [8915, 2, 153, 2.75], [10993, 2, 57, 2.31], [6494, 1, 55, 2.21], [326, 2, 94, 2.86], [6158, 2, 279, 3.46], [75, 2, 146, 4.56], [10574, 3, 272, 3.58], [1339, 1, 73, 2.26], [335, 3, 1375, 2.99], [1492, 1, 39, 2.91], [1050, 2, 107, 2.05], [411, 2, 114, 2.68], [947, 15, 44, 2.77], [151, 1, 18, 2.22], [2859, 15, 55, 3.36], [7004, 1, 83, 3.97], [1339, 3, 1760, 2.18], [6496, 1, 42, 5.33], [13264, 29, 77, 2.31], [345, 3, 315, 4.6], [10149, 3, 927, 2.79], [61, 3, 223, 2.16], [7704, 2, 159, 5.65], [1049, 2, 30, 2.45], [1243, 2, 100, 5.01], [432, 3, 306, 4.01], [13259, 29, 37, 4.14]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 8, 0.2], [362, 2, 5, 0.23], [361, 2, 4, 0.2], [6935, 2, 10, 1.3], [12721, 2, 8, 1.21], [8676, 2, 5, 0.85], [2049, 3, 15, 0.2], [417, 2, 5, 0.2], [3, 2, 4, 1.22], [8675, 2, 4, 0.73], [22247, 2, 5, 1.25], [6936, 2, 5, 0.47], [523, 2, 5, 0.41], [305, 2, 5, 0.73], [11838, 2, 4, 0.63], [8650, 2, 5, 0.94], [2328, 2, 5, 0.79], [2776, 2, 4, 0.94], [8648, 2, 4, 1.69], [2327, 2, 4, 0.2], [616, 2, 4, 0.46], [11739, 2, 4, 0.39], [11837, 2, 4, 0.63], [411, 2, 4, 0.64], [2805, 137, 5, 2.11], [6097, 80, 5, 2.11], [11835, 2, 4, 0.74], [6097, 29, 5, 1.16], [146, 2, 4, 1.42], [10993, 2, 4, 0.38], [326, 2, 4, 0.9], [583, 2, 4, 0.76], [10149, 3, 15, 0.75], [145, 2, 4, 0.91], [11836, 2, 4, 0.63], [144, 2, 4, 1.42], [308, 1, 6, 2.02], [75, 2, 4, 1.56], [10574, 3, 6, 0.85], [6494, 1, 4, 0.47], [2057, 3, 4, 0.8], [2055, 3, 4, 0.8], [2422, 29, 4, 0.72], [2054, 3, 5, 0.82], [6098, 80, 4, 0.58], [6098, 29, 4, 0.58], [1243, 2, 4, 1.92], [8915, 2, 5, 0.78], [1886, 2, 4, 0.44], [21793, 1, 4, 1.38], [12345, 1, 4, 1.58], [12349, 1, 4, 1.01], [1492, 1, 4, 0.83], [2859, 15, 4, 0.35], [247, 1, 4, 1.18], [3478, 2, 5, 1.0], [6158, 2, 5, 0.88], [335, 3, 10, 0.88], [201, 3, 4, 0.86], [5165, 1, 4, 0.86], [7084, 3, 4, 2.17], [5208, 3, 4, 0.47], [13928, 1, 4, 1.15], [336, 15, 4, 0.37], [3934, 5, 7, 1.36], [5812, 3, 5, 2.0], [12526, 2, 4, 0.46], [192, 3, 10, 1.24], [4253, 1, 4, 0.43], [94, 4, 4, 1.96], [1703, 2, 4, 2.16], [5811, 3, 6, 2.2], [9491, 21, 10, 1.29], [186, 3, 9, 0.67], [214, 3, 10, 1.49], [11490, 1, 4, 0.38], [2821, 3, 8, 2.17], [61, 3, 4, 0.2], [11767, 1, 4, 1.09], [5813, 3, 5, 2.0], [1050, 2, 4, 0.85], [1309, 1, 4, 0.92], [8938, 2, 4, 2.21], [24722, 2, 4, 0.39], [2991, 3, 4, 2.0], [2912, 1, 4, 0.38], [10398, 2, 4, 0.37], [13260, 29, 5, 1.26], [3495, 3, 13, 1.34], [11671, 1, 4, 1.99], [2438, 2, 5, 1.11], [11771, 1, 4, 2.12], [8599, 1, 4, 3.7], [229, 1, 4, 1.37], [11811, 1, 4, 0.38], [8944, 3, 4, 0.37], [8943, 3, 5, 0.38], [1049, 2, 4, 0.85], [12764, 2, 5, 0.43], [13928, 2, 4, 1.15], [7004, 1, 4, 0.6], [7036, 1, 4, 0.76], [955, 2, 4, 0.44], [11808, 1, 4, 1.13], [10124, 1, 4, 2.17], [5584, 3, 4, 1.16], [22573, 2, 4, 0.76], [3334, 5, 4, 2.28], [8897, 3, 4, 0.45], [9690, 1, 4, 0.69], [18964, 1, 4, 1.13], [6575, 3, 4, 0.71], [20927, 1, 4, 1.92], [1523, 1, 4, 2.32], [45, 2, 4, 1.79], [8274, 3, 4, 0.87], [2438, 1, 4, 1.21], [4001, 3, 8, 0.93], [1277, 1, 4, 1.3], [11886, 2, 4, 0.84], [9239, 29, 4, 1.55], [21269, 3, 4, 2.43], [13258, 29, 4, 1.12], [105, 3, 4, 0.43], [11678, 1, 4, 1.58], [1701, 2, 4, 0.67], [3477, 2, 4, 1.1], [10181, 26, 5, 0.46], [5165, 2, 5, 0.84], [7567, 3, 4, 0.41], [9209, 29, 4, 1.51], [3984, 3, 5, 0.62], [8635, 3, 4, 0.87], [8672, 2, 292, 4.91], [141, 2, 159, 3.65], [2778, 2, 158, 3.12], [362, 2, 144, 3.12], [361, 2, 166, 2.8], [6935, 2, 283, 6.0], [12721, 2, 291, 5.26], [8676, 2, 292, 4.13], [2049, 3, 364, 2.18], [417, 2, 166, 2.8], [3, 2, 123, 4.33], [8675, 2, 304, 3.12], [22247, 2, 291, 4.86], [6936, 2, 298, 3.21], [523, 2, 159, 3.55], [305, 2, 150, 3.92], [11838, 2, 265, 4.64], [8650, 2, 237, 4.75], [2328, 2, 153, 3.91], [2776, 2, 166, 3.64], [8648, 2, 237, 4.56], [2327, 2, 153, 4.01], [616, 2, 117, 2.21], [11739, 2, 61, 2.58], [11837, 2, 265, 4.64], [411, 2, 115, 2.79], [2805, 137, 180, 5.95], [6097, 80, 37, 6.0], [11835, 2, 265, 3.47], [6097, 29, 35, 3.8], [146, 2, 61, 3.73], [10993, 2, 57, 2.04], [326, 2, 94, 3.16], [583, 2, 96, 2.84], [10149, 3, 934, 4.54], [145, 2, 163, 3.06], [11836, 2, 265, 4.64], [144, 2, 61, 3.73], [308, 1, 175, 5.38], [75, 2, 152, 4.31], [6494, 1, 55, 2.21], [2057, 3, 501, 4.51], [2055, 3, 501, 4.03], [2422, 29, 39, 3.15], [2054, 3, 450, 4.0], [6098, 80, 80, 3.32], [6098, 29, 40, 3.32], [1243, 2, 100, 5.01], [8915, 2, 76, 2.76], [1886, 2, 167, 2.16], [21793, 1, 247, 4.35], [12345, 1, 632, 4.42], [12349, 1, 632, 4.44], [1492, 1, 39, 2.91], [2859, 15, 73, 2.71], [247, 1, 93, 5.03], [3478, 2, 79, 3.63], [6158, 2, 277, 3.44], [335, 3, 1375, 2.99], [201, 3, 315, 3.58], [5165, 1, 51, 2.97], [7084, 3, 133, 5.49], [5208, 3, 367, 4.38], [13928, 1, 50, 3.59], [3934, 5, 554, 4.02]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 0.77], [305, 2, 4, 0.2], [8650, 2, 4, 0.46], [2778, 2, 5, 0.2], [8672, 2, 7, 2.86], [143, 2, 6, 2.15], [362, 2, 4, 0.23], [6936, 2, 5, 1.01], [145, 2, 4, 0.5], [11837, 2, 4, 0.84], [361, 2, 4, 0.38], [417, 2, 4, 0.38], [205, 2, 4, 0.56], [75, 2, 5, 0.97], [11681, 2, 5, 0.71], [1124, 2, 5, 0.57], [589, 2, 6, 0.2], [146, 2, 4, 0.57], [11737, 2, 4, 0.53], [8648, 2, 4, 1.1], [12721, 2, 6, 0.48], [523, 2, 4, 0.38], [8673, 2, 6, 0.2], [1504, 2, 5, 0.36], [8853, 2, 5, 1.67], [308, 1, 5, 1.23], [206, 2, 4, 0.82], [326, 2, 6, 0.85], [11835, 2, 6, 0.36], [990, 2, 4, 0.48], [8675, 2, 5, 1.2], [88, 10, 10, 0.19], [8915, 2, 6, 1.39], [144, 2, 5, 0.91], [1005, 2, 5, 0.89], [434, 2, 5, 0.3], [11739, 2, 4, 0.51], [142, 2, 4, 0.38], [8676, 2, 4, 2.16], [2424, 29, 4, 0.62], [9507, 3, 4, 0.35], [6158, 2, 7, 0.2], [7704, 2, 4, 1.25], [2423, 29, 4, 1.44], [11836, 2, 4, 0.84], [2424, 80, 4, 1.11], [7705, 2, 4, 1.9], [11738, 2, 4, 0.44], [1413, 15, 5, 0.2], [7706, 2, 4, 1.23], [2423, 80, 4, 1.04], [3478, 2, 4, 2.03], [7004, 1, 4, 1.56], [944, 15, 5, 0.2], [2859, 15, 4, 1.62], [2054, 3, 4, 1.98], [74, 1, 4, 1.34], [3429, 15, 4, 0.2], [10149, 3, 13, 1.01], [10993, 2, 4, 0.4], [2055, 3, 4, 1.98], [18964, 1, 4, 1.38], [12343, 1, 4, 4.0], [94, 4, 4, 2.21], [13928, 1, 4, 1.4], [13028, 3, 4, 0.49], [13034, 3, 6, 0.9], [2057, 3, 4, 1.98], [7084, 3, 4, 0.48], [11919, 1, 4, 0.34], [411, 2, 4, 1.26], [6097, 80, 4, 0.72], [11089, 1, 4, 0.91], [7886, 4, 5, 0.44], [3893, 1, 4, 1.77], [1050, 2, 4, 0.85], [7036, 1, 4, 0.43], [7707, 2, 4, 1.25], [563, 2, 4, 0.2], [3891, 1, 4, 1.61], [6494, 1, 4, 0.47], [6630, 3, 5, 1.8], [192, 3, 13, 1.26], [21793, 1, 4, 1.54], [1243, 2, 6, 0.95], [8274, 3, 5, 0.83], [7708, 2, 4, 1.5], [2912, 1, 4, 0.35], [13023, 3, 5, 0.44], [11581, 29, 4, 0.87], [3889, 1, 4, 1.57], [9126, 1, 4, 0.99], [159, 3, 5, 0.6], [13033, 3, 5, 0.8], [11490, 1, 4, 0.73], [5208, 3, 6, 1.85], [1049, 2, 4, 0.2], [12229, 2, 5, 0.45], [5940, 3, 4, 0.88], [3495, 3, 13, 1.34], [12349, 1, 4, 2.14], [22558, 3, 4, 0.88], [5165, 1, 4, 0.87], [2331, 1, 4, 1.18], [201, 3, 4, 0.86], [83, 2, 4, 1.0], [332, 2, 4, 0.49], [229, 1, 4, 1.04], [214, 3, 10, 1.25], [951, 4, 4, 1.81], [1309, 1, 4, 0.92], [6496, 1, 4, 1.31], [247, 1, 4, 1.21], [2805, 137, 5, 2.25], [5812, 3, 4, 1.01], [7885, 4, 4, 0.56], [21269, 3, 4, 4.0], [215, 4, 4, 1.56], [9690, 1, 5, 1.08], [942, 3, 4, 0.55], [8898, 3, 4, 1.65], [335, 3, 11, 0.62], [20555, 2, 4, 0.44], [11914, 1, 4, 0.86], [10406, 10, 9, 1.72], [1703, 2, 4, 2.12], [9827, 3, 4, 0.39], [4940, 1, 4, 0.2], [23961, 3, 4, 3.83], [8635, 3, 4, 0.57], [5811, 3, 5, 0.5], [24257, 1, 4, 1.42], [11770, 1, 4, 1.14], [9491, 21, 11, 1.36], [186, 3, 9, 1.23], [3934, 5, 7, 1.36], [6935, 2, 307, 3.37], [305, 2, 150, 3.42], [8650, 2, 250, 4.6], [2778, 2, 158, 3.29], [8672, 2, 288, 5.35], [143, 2, 60, 3.95], [362, 2, 151, 2.36], [6936, 2, 288, 6.0], [145, 2, 154, 3.71], [11837, 2, 264, 4.78], [361, 2, 165, 3.07], [417, 2, 165, 3.07], [205, 2, 115, 2.39], [75, 2, 148, 4.82], [11681, 2, 270, 3.74], [1124, 2, 199, 2.9], [589, 2, 156, 2.06], [146, 2, 154, 3.93], [11737, 2, 38, 2.96], [8648, 2, 237, 3.43],